--- a/Excel/Shop.xlsx
+++ b/Excel/Shop.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3055D84-9932-4D50-A45F-33C67807B425}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E96ED68E-24F2-4BE3-A08B-8CE2453D5FD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-24825" yWindow="1020" windowWidth="17220" windowHeight="12795" xr2:uid="{1A95D980-8F25-43B6-BA87-364295A77694}"/>
+    <workbookView xWindow="-24825" yWindow="1020" windowWidth="17220" windowHeight="12795" activeTab="1" xr2:uid="{1A95D980-8F25-43B6-BA87-364295A77694}"/>
   </bookViews>
   <sheets>
     <sheet name="ShopCashTable" sheetId="1" r:id="rId1"/>
+    <sheet name="LevelPassTable" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>productId|String</t>
   </si>
@@ -124,6 +125,14 @@
   </si>
   <si>
     <t>test_bigboost</t>
+  </si>
+  <si>
+    <t>level|Int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>energy|Int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -489,8 +498,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED115DDC-E095-4A60-B3EA-80FAE0A4BDBC}">
   <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -750,4 +759,106 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A0C1379-A3E3-4FE9-9EAD-47DDC3050F76}">
+  <dimension ref="A1:B11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:2" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>5</v>
+      </c>
+      <c r="B2">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>10</v>
+      </c>
+      <c r="B3">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>15</v>
+      </c>
+      <c r="B4">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>20</v>
+      </c>
+      <c r="B5">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>25</v>
+      </c>
+      <c r="B6">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>30</v>
+      </c>
+      <c r="B7">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>35</v>
+      </c>
+      <c r="B8">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>40</v>
+      </c>
+      <c r="B9">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>45</v>
+      </c>
+      <c r="B10">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>50</v>
+      </c>
+      <c r="B11">
+        <v>4000</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Excel/Shop.xlsx
+++ b/Excel/Shop.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E96ED68E-24F2-4BE3-A08B-8CE2453D5FD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{618ADA10-39A8-48CC-96D6-7FFE6BAA7A08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-24825" yWindow="1020" windowWidth="17220" windowHeight="12795" activeTab="1" xr2:uid="{1A95D980-8F25-43B6-BA87-364295A77694}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1A95D980-8F25-43B6-BA87-364295A77694}"/>
   </bookViews>
   <sheets>
-    <sheet name="ShopCashTable" sheetId="1" r:id="rId1"/>
+    <sheet name="ShopProductTable" sheetId="1" r:id="rId1"/>
     <sheet name="LevelPassTable" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="64">
   <si>
     <t>productId|String</t>
   </si>
@@ -47,18 +47,6 @@
   </si>
   <si>
     <t>serverItemId|String</t>
-  </si>
-  <si>
-    <t>buyingEnergy|Int</t>
-  </si>
-  <si>
-    <t>buyingGold|Int</t>
-  </si>
-  <si>
-    <t>buyingCashFlag|Int</t>
-  </si>
-  <si>
-    <t>buyingCashCount|Int</t>
   </si>
   <si>
     <t>Research0</t>
@@ -133,6 +121,114 @@
   <si>
     <t>energy|Int</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>free|Bool</t>
+  </si>
+  <si>
+    <t>rewardType1|String</t>
+  </si>
+  <si>
+    <t>rewardValue1|String</t>
+  </si>
+  <si>
+    <t>rewardCount1|Int</t>
+  </si>
+  <si>
+    <t>rewardType2|String</t>
+  </si>
+  <si>
+    <t>rewardValue2|String</t>
+  </si>
+  <si>
+    <t>rewardCount2|Int</t>
+  </si>
+  <si>
+    <t>rewardType3|String</t>
+  </si>
+  <si>
+    <t>rewardValue3|String</t>
+  </si>
+  <si>
+    <t>rewardCount3|Int</t>
+  </si>
+  <si>
+    <t>rewardType4|String</t>
+  </si>
+  <si>
+    <t>rewardValue4|String</t>
+  </si>
+  <si>
+    <t>rewardCount4|Int</t>
+  </si>
+  <si>
+    <t>rewardType5|String</t>
+  </si>
+  <si>
+    <t>rewardValue5|String</t>
+  </si>
+  <si>
+    <t>rewardCount5|Int</t>
+  </si>
+  <si>
+    <t>cu</t>
+  </si>
+  <si>
+    <t>EN</t>
+  </si>
+  <si>
+    <t>GO</t>
+  </si>
+  <si>
+    <t>it</t>
+  </si>
+  <si>
+    <t>Cash_bLevelPass</t>
+  </si>
+  <si>
+    <t>Cash_bBigBoost</t>
+  </si>
+  <si>
+    <t>Ev5_OnePlusTwo1</t>
+  </si>
+  <si>
+    <t>test_oneplustwo</t>
+  </si>
+  <si>
+    <t>Cash_cDailyBox</t>
+  </si>
+  <si>
+    <t>Cash_cThickBox</t>
+  </si>
+  <si>
+    <t>Ev5_OnePlusTwo2</t>
+  </si>
+  <si>
+    <t>Ev5_OnePlusTwo3</t>
+  </si>
+  <si>
+    <t>Ev4_Conti1</t>
+  </si>
+  <si>
+    <t>Ev4_Conti2</t>
+  </si>
+  <si>
+    <t>Ev4_Conti3</t>
+  </si>
+  <si>
+    <t>Ev4_Conti4</t>
+  </si>
+  <si>
+    <t>Ev4_Conti5</t>
+  </si>
+  <si>
+    <t>Ev4_Conti6</t>
+  </si>
+  <si>
+    <t>Ev4_Conti7</t>
+  </si>
+  <si>
+    <t>Ev4_Conti8</t>
   </si>
 </sst>
 </file>
@@ -496,263 +592,675 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED115DDC-E095-4A60-B3EA-80FAE0A4BDBC}">
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:T23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="15.625" customWidth="1"/>
-    <col min="3" max="3" width="9.25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.5" customWidth="1"/>
-    <col min="5" max="6" width="14.75" customWidth="1"/>
-    <col min="7" max="7" width="17.5" customWidth="1"/>
-    <col min="8" max="8" width="19.75" customWidth="1"/>
+    <col min="2" max="2" width="9.25" customWidth="1"/>
+    <col min="4" max="4" width="9.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.5" customWidth="1"/>
+    <col min="7" max="7" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="19.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K1" t="s">
+        <v>34</v>
+      </c>
+      <c r="L1" t="s">
+        <v>35</v>
+      </c>
+      <c r="M1" t="s">
+        <v>36</v>
+      </c>
+      <c r="N1" t="s">
+        <v>37</v>
+      </c>
+      <c r="O1" t="s">
+        <v>38</v>
+      </c>
+      <c r="P1" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>40</v>
+      </c>
+      <c r="R1" t="s">
+        <v>41</v>
+      </c>
+      <c r="S1" t="s">
+        <v>42</v>
+      </c>
+      <c r="T1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="B2" t="b">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0.99</v>
+      </c>
+      <c r="D2">
+        <v>1200</v>
+      </c>
+      <c r="E2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="F2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H2">
+        <v>35</v>
+      </c>
+      <c r="I2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J2" t="s">
+        <v>46</v>
+      </c>
+      <c r="K2">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="B3" t="b">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>1.99</v>
+      </c>
+      <c r="D3">
+        <v>2500</v>
+      </c>
+      <c r="E3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="F3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3">
+        <v>50</v>
+      </c>
+      <c r="I3" t="s">
+        <v>44</v>
+      </c>
+      <c r="J3" t="s">
+        <v>46</v>
+      </c>
+      <c r="K3">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>8</v>
       </c>
-      <c r="B2">
-        <v>0.99</v>
-      </c>
-      <c r="C2">
-        <v>1200</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="B4" t="b">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>2.99</v>
+      </c>
+      <c r="D4">
+        <v>3900</v>
+      </c>
+      <c r="E4" t="s">
         <v>9</v>
       </c>
-      <c r="E2">
-        <v>35</v>
-      </c>
-      <c r="F2">
-        <v>15000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="F4" t="s">
+        <v>44</v>
+      </c>
+      <c r="G4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H4">
+        <v>65</v>
+      </c>
+      <c r="I4" t="s">
+        <v>44</v>
+      </c>
+      <c r="J4" t="s">
+        <v>46</v>
+      </c>
+      <c r="K4">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>10</v>
       </c>
-      <c r="B3">
+      <c r="B5" t="b">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>3.99</v>
+      </c>
+      <c r="D5">
+        <v>4900</v>
+      </c>
+      <c r="E5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" t="s">
+        <v>44</v>
+      </c>
+      <c r="G5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5">
+        <v>80</v>
+      </c>
+      <c r="I5" t="s">
+        <v>44</v>
+      </c>
+      <c r="J5" t="s">
+        <v>46</v>
+      </c>
+      <c r="K5">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" t="b">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>4.99</v>
+      </c>
+      <c r="D6">
+        <v>5900</v>
+      </c>
+      <c r="E6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" t="s">
+        <v>44</v>
+      </c>
+      <c r="G6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6">
+        <v>100</v>
+      </c>
+      <c r="I6" t="s">
+        <v>44</v>
+      </c>
+      <c r="J6" t="s">
+        <v>46</v>
+      </c>
+      <c r="K6">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" t="b">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>5.99</v>
+      </c>
+      <c r="D7">
+        <v>7500</v>
+      </c>
+      <c r="E7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" t="s">
+        <v>44</v>
+      </c>
+      <c r="G7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7">
+        <v>100</v>
+      </c>
+      <c r="I7" t="s">
+        <v>44</v>
+      </c>
+      <c r="J7" t="s">
+        <v>46</v>
+      </c>
+      <c r="K7">
+        <v>35000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" t="b">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>7.99</v>
+      </c>
+      <c r="D8">
+        <v>9900</v>
+      </c>
+      <c r="E8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" t="s">
+        <v>44</v>
+      </c>
+      <c r="G8" t="s">
+        <v>45</v>
+      </c>
+      <c r="H8">
+        <v>120</v>
+      </c>
+      <c r="I8" t="s">
+        <v>44</v>
+      </c>
+      <c r="J8" t="s">
+        <v>46</v>
+      </c>
+      <c r="K8">
+        <v>35000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" t="b">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>8.99</v>
+      </c>
+      <c r="D9">
+        <v>11000</v>
+      </c>
+      <c r="E9" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" t="s">
+        <v>44</v>
+      </c>
+      <c r="G9" t="s">
+        <v>45</v>
+      </c>
+      <c r="H9">
+        <v>120</v>
+      </c>
+      <c r="I9" t="s">
+        <v>44</v>
+      </c>
+      <c r="J9" t="s">
+        <v>46</v>
+      </c>
+      <c r="K9">
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" t="b">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>9.99</v>
+      </c>
+      <c r="D10">
+        <v>12000</v>
+      </c>
+      <c r="E10" t="s">
+        <v>21</v>
+      </c>
+      <c r="F10" t="s">
+        <v>44</v>
+      </c>
+      <c r="G10" t="s">
+        <v>45</v>
+      </c>
+      <c r="H10">
+        <v>135</v>
+      </c>
+      <c r="I10" t="s">
+        <v>44</v>
+      </c>
+      <c r="J10" t="s">
+        <v>46</v>
+      </c>
+      <c r="K10">
+        <v>45000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="b">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>9.99</v>
+      </c>
+      <c r="D11">
+        <v>13000</v>
+      </c>
+      <c r="E11" t="s">
+        <v>23</v>
+      </c>
+      <c r="F11" t="s">
+        <v>47</v>
+      </c>
+      <c r="G11" t="s">
+        <v>48</v>
+      </c>
+      <c r="H11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" t="b">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>9.99</v>
+      </c>
+      <c r="D12">
+        <v>13000</v>
+      </c>
+      <c r="E12" t="s">
+        <v>25</v>
+      </c>
+      <c r="F12" t="s">
+        <v>47</v>
+      </c>
+      <c r="G12" t="s">
+        <v>49</v>
+      </c>
+      <c r="H12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>50</v>
+      </c>
+      <c r="B13" t="b">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>19.989999999999998</v>
+      </c>
+      <c r="D13">
+        <v>25000</v>
+      </c>
+      <c r="E13" t="s">
+        <v>51</v>
+      </c>
+      <c r="F13" t="s">
+        <v>47</v>
+      </c>
+      <c r="G13" t="s">
+        <v>52</v>
+      </c>
+      <c r="H13">
+        <v>30</v>
+      </c>
+      <c r="I13" t="s">
+        <v>47</v>
+      </c>
+      <c r="J13" t="s">
+        <v>53</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>54</v>
+      </c>
+      <c r="B14" t="b">
+        <v>1</v>
+      </c>
+      <c r="F14" t="s">
+        <v>44</v>
+      </c>
+      <c r="G14" t="s">
+        <v>45</v>
+      </c>
+      <c r="H14">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>55</v>
+      </c>
+      <c r="B15" t="b">
+        <v>1</v>
+      </c>
+      <c r="F15" t="s">
+        <v>44</v>
+      </c>
+      <c r="G15" t="s">
+        <v>45</v>
+      </c>
+      <c r="H15">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>56</v>
+      </c>
+      <c r="B16" t="b">
+        <v>1</v>
+      </c>
+      <c r="F16" t="s">
+        <v>44</v>
+      </c>
+      <c r="G16" t="s">
+        <v>45</v>
+      </c>
+      <c r="H16">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>57</v>
+      </c>
+      <c r="B17" t="b">
+        <v>1</v>
+      </c>
+      <c r="F17" t="s">
+        <v>44</v>
+      </c>
+      <c r="G17" t="s">
+        <v>45</v>
+      </c>
+      <c r="H17">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>58</v>
+      </c>
+      <c r="B18" t="b">
+        <v>0</v>
+      </c>
+      <c r="C18">
         <v>1.99</v>
       </c>
-      <c r="C3">
+      <c r="D18">
         <v>2500</v>
       </c>
-      <c r="D3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3">
-        <v>50</v>
-      </c>
-      <c r="F3">
-        <v>25000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4">
-        <v>2.99</v>
-      </c>
-      <c r="C4">
-        <v>3900</v>
-      </c>
-      <c r="D4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4">
-        <v>65</v>
-      </c>
-      <c r="F4">
-        <v>30000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5">
-        <v>3.99</v>
-      </c>
-      <c r="C5">
-        <v>4900</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="E18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F18" t="s">
+        <v>44</v>
+      </c>
+      <c r="G18" t="s">
+        <v>45</v>
+      </c>
+      <c r="H18">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>59</v>
+      </c>
+      <c r="B19" t="b">
+        <v>1</v>
+      </c>
+      <c r="F19" t="s">
+        <v>44</v>
+      </c>
+      <c r="G19" t="s">
+        <v>45</v>
+      </c>
+      <c r="H19">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>60</v>
+      </c>
+      <c r="B20" t="b">
+        <v>1</v>
+      </c>
+      <c r="F20" t="s">
+        <v>44</v>
+      </c>
+      <c r="G20" t="s">
+        <v>45</v>
+      </c>
+      <c r="H20">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>61</v>
+      </c>
+      <c r="B21" t="b">
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <v>5.99</v>
+      </c>
+      <c r="D21">
+        <v>7500</v>
+      </c>
+      <c r="E21" t="s">
         <v>15</v>
       </c>
-      <c r="E5">
+      <c r="F21" t="s">
+        <v>44</v>
+      </c>
+      <c r="G21" t="s">
+        <v>45</v>
+      </c>
+      <c r="H21">
         <v>80</v>
       </c>
-      <c r="F5">
-        <v>30000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6">
-        <v>4.99</v>
-      </c>
-      <c r="C6">
-        <v>5900</v>
-      </c>
-      <c r="D6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E6">
-        <v>100</v>
-      </c>
-      <c r="F6">
-        <v>30000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7">
-        <v>5.99</v>
-      </c>
-      <c r="C7">
-        <v>7500</v>
-      </c>
-      <c r="D7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E7">
-        <v>100</v>
-      </c>
-      <c r="F7">
-        <v>35000</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>20</v>
-      </c>
-      <c r="B8">
-        <v>7.99</v>
-      </c>
-      <c r="C8">
-        <v>9900</v>
-      </c>
-      <c r="D8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E8">
-        <v>120</v>
-      </c>
-      <c r="F8">
-        <v>35000</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9">
-        <v>8.99</v>
-      </c>
-      <c r="C9">
-        <v>11000</v>
-      </c>
-      <c r="D9" t="s">
-        <v>23</v>
-      </c>
-      <c r="E9">
-        <v>120</v>
-      </c>
-      <c r="F9">
-        <v>40000</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>24</v>
-      </c>
-      <c r="B10">
-        <v>9.99</v>
-      </c>
-      <c r="C10">
-        <v>12000</v>
-      </c>
-      <c r="D10" t="s">
-        <v>25</v>
-      </c>
-      <c r="E10">
-        <v>135</v>
-      </c>
-      <c r="F10">
-        <v>45000</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>26</v>
-      </c>
-      <c r="B11">
-        <v>9.99</v>
-      </c>
-      <c r="C11">
-        <v>13000</v>
-      </c>
-      <c r="D11" t="s">
-        <v>27</v>
-      </c>
-      <c r="G11">
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>62</v>
+      </c>
+      <c r="B22" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>28</v>
-      </c>
-      <c r="B12">
-        <v>9.99</v>
-      </c>
-      <c r="C12">
-        <v>13000</v>
-      </c>
-      <c r="D12" t="s">
-        <v>29</v>
-      </c>
-      <c r="E12">
-        <v>600</v>
-      </c>
-      <c r="F12">
-        <v>5000</v>
+      <c r="F22" t="s">
+        <v>44</v>
+      </c>
+      <c r="G22" t="s">
+        <v>45</v>
+      </c>
+      <c r="H22">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>63</v>
+      </c>
+      <c r="B23" t="b">
+        <v>1</v>
+      </c>
+      <c r="F23" t="s">
+        <v>44</v>
+      </c>
+      <c r="G23" t="s">
+        <v>45</v>
+      </c>
+      <c r="H23">
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -765,16 +1273,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A0C1379-A3E3-4FE9-9EAD-47DDC3050F76}">
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:2" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">

--- a/Excel/Shop.xlsx
+++ b/Excel/Shop.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{618ADA10-39A8-48CC-96D6-7FFE6BAA7A08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45B6C02C-CCE8-44A5-9D1B-1A0787EF9CDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1A95D980-8F25-43B6-BA87-364295A77694}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="73">
   <si>
     <t>productId|String</t>
   </si>
@@ -186,9 +186,6 @@
     <t>Cash_bLevelPass</t>
   </si>
   <si>
-    <t>Cash_bBigBoost</t>
-  </si>
-  <si>
     <t>Ev5_OnePlusTwo1</t>
   </si>
   <si>
@@ -229,6 +226,36 @@
   </si>
   <si>
     <t>Ev4_Conti8</t>
+  </si>
+  <si>
+    <t>Ev6_Disco1</t>
+  </si>
+  <si>
+    <t>Ev6_Disco2</t>
+  </si>
+  <si>
+    <t>Ev6_Disco3</t>
+  </si>
+  <si>
+    <t>Ev6_Disco4</t>
+  </si>
+  <si>
+    <t>Ev7_Summer1</t>
+  </si>
+  <si>
+    <t>Ev7_Summer2</t>
+  </si>
+  <si>
+    <t>Ev7_Summer3</t>
+  </si>
+  <si>
+    <t>Ev7_Summer4</t>
+  </si>
+  <si>
+    <t>Ev7_Summer5</t>
+  </si>
+  <si>
+    <t>Ev7_Summer6</t>
   </si>
 </sst>
 </file>
@@ -592,10 +619,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED115DDC-E095-4A60-B3EA-80FAE0A4BDBC}">
-  <dimension ref="A1:T23"/>
+  <dimension ref="A1:T33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1031,18 +1058,27 @@
         <v>25</v>
       </c>
       <c r="F12" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="G12" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="H12">
-        <v>1</v>
+        <v>600</v>
+      </c>
+      <c r="I12" t="s">
+        <v>44</v>
+      </c>
+      <c r="J12" t="s">
+        <v>46</v>
+      </c>
+      <c r="K12">
+        <v>50000</v>
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B13" t="b">
         <v>0</v>
@@ -1054,13 +1090,13 @@
         <v>25000</v>
       </c>
       <c r="E13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F13" t="s">
         <v>47</v>
       </c>
       <c r="G13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H13">
         <v>30</v>
@@ -1069,7 +1105,7 @@
         <v>47</v>
       </c>
       <c r="J13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K13">
         <v>1</v>
@@ -1077,7 +1113,7 @@
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B14" t="b">
         <v>1</v>
@@ -1094,7 +1130,7 @@
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B15" t="b">
         <v>1</v>
@@ -1111,7 +1147,7 @@
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B16" t="b">
         <v>1</v>
@@ -1128,7 +1164,7 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B17" t="b">
         <v>1</v>
@@ -1145,7 +1181,7 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B18" t="b">
         <v>0</v>
@@ -1171,7 +1207,7 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B19" t="b">
         <v>1</v>
@@ -1188,7 +1224,7 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B20" t="b">
         <v>1</v>
@@ -1205,7 +1241,7 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B21" t="b">
         <v>0</v>
@@ -1231,7 +1267,7 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B22" t="b">
         <v>1</v>
@@ -1248,7 +1284,7 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B23" t="b">
         <v>1</v>
@@ -1260,6 +1296,257 @@
         <v>45</v>
       </c>
       <c r="H23">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>63</v>
+      </c>
+      <c r="B24" t="b">
+        <v>0</v>
+      </c>
+      <c r="C24">
+        <v>0.99</v>
+      </c>
+      <c r="D24">
+        <v>1200</v>
+      </c>
+      <c r="E24" t="s">
+        <v>5</v>
+      </c>
+      <c r="F24" t="s">
+        <v>44</v>
+      </c>
+      <c r="G24" t="s">
+        <v>45</v>
+      </c>
+      <c r="H24">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>64</v>
+      </c>
+      <c r="B25" t="b">
+        <v>0</v>
+      </c>
+      <c r="C25">
+        <v>1.99</v>
+      </c>
+      <c r="D25">
+        <v>2500</v>
+      </c>
+      <c r="E25" t="s">
+        <v>7</v>
+      </c>
+      <c r="F25" t="s">
+        <v>44</v>
+      </c>
+      <c r="G25" t="s">
+        <v>45</v>
+      </c>
+      <c r="H25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>65</v>
+      </c>
+      <c r="B26" t="b">
+        <v>0</v>
+      </c>
+      <c r="C26">
+        <v>2.99</v>
+      </c>
+      <c r="D26">
+        <v>3900</v>
+      </c>
+      <c r="E26" t="s">
+        <v>9</v>
+      </c>
+      <c r="F26" t="s">
+        <v>44</v>
+      </c>
+      <c r="G26" t="s">
+        <v>45</v>
+      </c>
+      <c r="H26">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>66</v>
+      </c>
+      <c r="B27" t="b">
+        <v>0</v>
+      </c>
+      <c r="C27">
+        <v>3.99</v>
+      </c>
+      <c r="D27">
+        <v>4900</v>
+      </c>
+      <c r="E27" t="s">
+        <v>11</v>
+      </c>
+      <c r="F27" t="s">
+        <v>44</v>
+      </c>
+      <c r="G27" t="s">
+        <v>45</v>
+      </c>
+      <c r="H27">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>67</v>
+      </c>
+      <c r="B28" t="b">
+        <v>1</v>
+      </c>
+      <c r="F28" t="s">
+        <v>44</v>
+      </c>
+      <c r="G28" t="s">
+        <v>45</v>
+      </c>
+      <c r="H28">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>68</v>
+      </c>
+      <c r="B29" t="b">
+        <v>0</v>
+      </c>
+      <c r="C29">
+        <v>1.99</v>
+      </c>
+      <c r="D29">
+        <v>2500</v>
+      </c>
+      <c r="E29" t="s">
+        <v>7</v>
+      </c>
+      <c r="F29" t="s">
+        <v>44</v>
+      </c>
+      <c r="G29" t="s">
+        <v>45</v>
+      </c>
+      <c r="H29">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>69</v>
+      </c>
+      <c r="B30" t="b">
+        <v>0</v>
+      </c>
+      <c r="C30">
+        <v>2.99</v>
+      </c>
+      <c r="D30">
+        <v>3900</v>
+      </c>
+      <c r="E30" t="s">
+        <v>9</v>
+      </c>
+      <c r="F30" t="s">
+        <v>44</v>
+      </c>
+      <c r="G30" t="s">
+        <v>45</v>
+      </c>
+      <c r="H30">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>70</v>
+      </c>
+      <c r="B31" t="b">
+        <v>0</v>
+      </c>
+      <c r="C31">
+        <v>3.99</v>
+      </c>
+      <c r="D31">
+        <v>4900</v>
+      </c>
+      <c r="E31" t="s">
+        <v>11</v>
+      </c>
+      <c r="F31" t="s">
+        <v>44</v>
+      </c>
+      <c r="G31" t="s">
+        <v>45</v>
+      </c>
+      <c r="H31">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>71</v>
+      </c>
+      <c r="B32" t="b">
+        <v>0</v>
+      </c>
+      <c r="C32">
+        <v>4.99</v>
+      </c>
+      <c r="D32">
+        <v>5900</v>
+      </c>
+      <c r="E32" t="s">
+        <v>13</v>
+      </c>
+      <c r="F32" t="s">
+        <v>44</v>
+      </c>
+      <c r="G32" t="s">
+        <v>45</v>
+      </c>
+      <c r="H32">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>72</v>
+      </c>
+      <c r="B33" t="b">
+        <v>0</v>
+      </c>
+      <c r="C33">
+        <v>5.99</v>
+      </c>
+      <c r="D33">
+        <v>7500</v>
+      </c>
+      <c r="E33" t="s">
+        <v>15</v>
+      </c>
+      <c r="F33" t="s">
+        <v>44</v>
+      </c>
+      <c r="G33" t="s">
+        <v>45</v>
+      </c>
+      <c r="H33">
         <v>80</v>
       </c>
     </row>

--- a/Excel/Shop.xlsx
+++ b/Excel/Shop.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45B6C02C-CCE8-44A5-9D1B-1A0787EF9CDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DD0F526-0614-46F6-B155-646807870BDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1A95D980-8F25-43B6-BA87-364295A77694}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="79">
   <si>
     <t>productId|String</t>
   </si>
@@ -256,6 +256,24 @@
   </si>
   <si>
     <t>Ev7_Summer6</t>
+  </si>
+  <si>
+    <t>Ev3_OneOfThree1</t>
+  </si>
+  <si>
+    <t>Ev3_OneOfThree2</t>
+  </si>
+  <si>
+    <t>Ev3_OneOfThree3</t>
+  </si>
+  <si>
+    <t>test_oneofthree1</t>
+  </si>
+  <si>
+    <t>test_oneofthree2</t>
+  </si>
+  <si>
+    <t>test_oneofthree3</t>
   </si>
 </sst>
 </file>
@@ -619,7 +637,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED115DDC-E095-4A60-B3EA-80FAE0A4BDBC}">
-  <dimension ref="A1:T33"/>
+  <dimension ref="A1:T36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -1147,67 +1165,148 @@
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
+        <v>73</v>
+      </c>
+      <c r="B16" t="b">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>14.99</v>
+      </c>
+      <c r="D16">
+        <v>19000</v>
+      </c>
+      <c r="E16" t="s">
+        <v>76</v>
+      </c>
+      <c r="F16" t="s">
+        <v>44</v>
+      </c>
+      <c r="G16" t="s">
+        <v>45</v>
+      </c>
+      <c r="H16">
+        <v>30</v>
+      </c>
+      <c r="I16" t="s">
+        <v>44</v>
+      </c>
+      <c r="J16" t="s">
+        <v>46</v>
+      </c>
+      <c r="K16">
+        <v>35000</v>
+      </c>
+      <c r="L16" t="s">
+        <v>44</v>
+      </c>
+      <c r="M16" t="s">
+        <v>45</v>
+      </c>
+      <c r="N16">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>74</v>
+      </c>
+      <c r="B17" t="b">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>29.99</v>
+      </c>
+      <c r="D17">
+        <v>39000</v>
+      </c>
+      <c r="E17" t="s">
+        <v>77</v>
+      </c>
+      <c r="F17" t="s">
+        <v>44</v>
+      </c>
+      <c r="G17" t="s">
+        <v>45</v>
+      </c>
+      <c r="H17">
+        <v>60</v>
+      </c>
+      <c r="I17" t="s">
+        <v>44</v>
+      </c>
+      <c r="J17" t="s">
+        <v>46</v>
+      </c>
+      <c r="K17">
+        <v>35000</v>
+      </c>
+      <c r="L17" t="s">
+        <v>44</v>
+      </c>
+      <c r="M17" t="s">
+        <v>45</v>
+      </c>
+      <c r="N17">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>75</v>
+      </c>
+      <c r="B18" t="b">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>49.99</v>
+      </c>
+      <c r="D18">
+        <v>69000</v>
+      </c>
+      <c r="E18" t="s">
+        <v>78</v>
+      </c>
+      <c r="F18" t="s">
+        <v>44</v>
+      </c>
+      <c r="G18" t="s">
+        <v>45</v>
+      </c>
+      <c r="H18">
+        <v>90</v>
+      </c>
+      <c r="I18" t="s">
+        <v>44</v>
+      </c>
+      <c r="J18" t="s">
+        <v>46</v>
+      </c>
+      <c r="K18">
+        <v>35000</v>
+      </c>
+      <c r="L18" t="s">
+        <v>44</v>
+      </c>
+      <c r="M18" t="s">
+        <v>45</v>
+      </c>
+      <c r="N18">
+        <v>150</v>
+      </c>
+      <c r="O18" t="s">
+        <v>44</v>
+      </c>
+      <c r="P18" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q18">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
         <v>55</v>
-      </c>
-      <c r="B16" t="b">
-        <v>1</v>
-      </c>
-      <c r="F16" t="s">
-        <v>44</v>
-      </c>
-      <c r="G16" t="s">
-        <v>45</v>
-      </c>
-      <c r="H16">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>56</v>
-      </c>
-      <c r="B17" t="b">
-        <v>1</v>
-      </c>
-      <c r="F17" t="s">
-        <v>44</v>
-      </c>
-      <c r="G17" t="s">
-        <v>45</v>
-      </c>
-      <c r="H17">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>57</v>
-      </c>
-      <c r="B18" t="b">
-        <v>0</v>
-      </c>
-      <c r="C18">
-        <v>1.99</v>
-      </c>
-      <c r="D18">
-        <v>2500</v>
-      </c>
-      <c r="E18" t="s">
-        <v>7</v>
-      </c>
-      <c r="F18" t="s">
-        <v>44</v>
-      </c>
-      <c r="G18" t="s">
-        <v>45</v>
-      </c>
-      <c r="H18">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>58</v>
       </c>
       <c r="B19" t="b">
         <v>1</v>
@@ -1222,9 +1321,9 @@
         <v>80</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B20" t="b">
         <v>1</v>
@@ -1239,21 +1338,21 @@
         <v>80</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B21" t="b">
         <v>0</v>
       </c>
       <c r="C21">
-        <v>5.99</v>
+        <v>1.99</v>
       </c>
       <c r="D21">
-        <v>7500</v>
+        <v>2500</v>
       </c>
       <c r="E21" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="F21" t="s">
         <v>44</v>
@@ -1265,9 +1364,9 @@
         <v>80</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B22" t="b">
         <v>1</v>
@@ -1282,9 +1381,9 @@
         <v>80</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B23" t="b">
         <v>1</v>
@@ -1299,220 +1398,202 @@
         <v>80</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
+        <v>60</v>
+      </c>
+      <c r="B24" t="b">
+        <v>0</v>
+      </c>
+      <c r="C24">
+        <v>5.99</v>
+      </c>
+      <c r="D24">
+        <v>7500</v>
+      </c>
+      <c r="E24" t="s">
+        <v>15</v>
+      </c>
+      <c r="F24" t="s">
+        <v>44</v>
+      </c>
+      <c r="G24" t="s">
+        <v>45</v>
+      </c>
+      <c r="H24">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>61</v>
+      </c>
+      <c r="B25" t="b">
+        <v>1</v>
+      </c>
+      <c r="F25" t="s">
+        <v>44</v>
+      </c>
+      <c r="G25" t="s">
+        <v>45</v>
+      </c>
+      <c r="H25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>62</v>
+      </c>
+      <c r="B26" t="b">
+        <v>1</v>
+      </c>
+      <c r="F26" t="s">
+        <v>44</v>
+      </c>
+      <c r="G26" t="s">
+        <v>45</v>
+      </c>
+      <c r="H26">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
         <v>63</v>
       </c>
-      <c r="B24" t="b">
-        <v>0</v>
-      </c>
-      <c r="C24">
+      <c r="B27" t="b">
+        <v>0</v>
+      </c>
+      <c r="C27">
         <v>0.99</v>
       </c>
-      <c r="D24">
+      <c r="D27">
         <v>1200</v>
       </c>
-      <c r="E24" t="s">
+      <c r="E27" t="s">
         <v>5</v>
       </c>
-      <c r="F24" t="s">
-        <v>44</v>
-      </c>
-      <c r="G24" t="s">
-        <v>45</v>
-      </c>
-      <c r="H24">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
+      <c r="F27" t="s">
+        <v>44</v>
+      </c>
+      <c r="G27" t="s">
+        <v>45</v>
+      </c>
+      <c r="H27">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
         <v>64</v>
       </c>
-      <c r="B25" t="b">
-        <v>0</v>
-      </c>
-      <c r="C25">
+      <c r="B28" t="b">
+        <v>0</v>
+      </c>
+      <c r="C28">
         <v>1.99</v>
       </c>
-      <c r="D25">
+      <c r="D28">
         <v>2500</v>
       </c>
-      <c r="E25" t="s">
+      <c r="E28" t="s">
         <v>7</v>
       </c>
-      <c r="F25" t="s">
-        <v>44</v>
-      </c>
-      <c r="G25" t="s">
-        <v>45</v>
-      </c>
-      <c r="H25">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
+      <c r="F28" t="s">
+        <v>44</v>
+      </c>
+      <c r="G28" t="s">
+        <v>45</v>
+      </c>
+      <c r="H28">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
         <v>65</v>
       </c>
-      <c r="B26" t="b">
-        <v>0</v>
-      </c>
-      <c r="C26">
+      <c r="B29" t="b">
+        <v>0</v>
+      </c>
+      <c r="C29">
         <v>2.99</v>
       </c>
-      <c r="D26">
+      <c r="D29">
         <v>3900</v>
       </c>
-      <c r="E26" t="s">
+      <c r="E29" t="s">
         <v>9</v>
       </c>
-      <c r="F26" t="s">
-        <v>44</v>
-      </c>
-      <c r="G26" t="s">
-        <v>45</v>
-      </c>
-      <c r="H26">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
+      <c r="F29" t="s">
+        <v>44</v>
+      </c>
+      <c r="G29" t="s">
+        <v>45</v>
+      </c>
+      <c r="H29">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
         <v>66</v>
       </c>
-      <c r="B27" t="b">
-        <v>0</v>
-      </c>
-      <c r="C27">
+      <c r="B30" t="b">
+        <v>0</v>
+      </c>
+      <c r="C30">
         <v>3.99</v>
       </c>
-      <c r="D27">
+      <c r="D30">
         <v>4900</v>
       </c>
-      <c r="E27" t="s">
+      <c r="E30" t="s">
         <v>11</v>
       </c>
-      <c r="F27" t="s">
-        <v>44</v>
-      </c>
-      <c r="G27" t="s">
-        <v>45</v>
-      </c>
-      <c r="H27">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
+      <c r="F30" t="s">
+        <v>44</v>
+      </c>
+      <c r="G30" t="s">
+        <v>45</v>
+      </c>
+      <c r="H30">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
         <v>67</v>
       </c>
-      <c r="B28" t="b">
+      <c r="B31" t="b">
         <v>1</v>
       </c>
-      <c r="F28" t="s">
-        <v>44</v>
-      </c>
-      <c r="G28" t="s">
-        <v>45</v>
-      </c>
-      <c r="H28">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
+      <c r="F31" t="s">
+        <v>44</v>
+      </c>
+      <c r="G31" t="s">
+        <v>45</v>
+      </c>
+      <c r="H31">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
         <v>68</v>
       </c>
-      <c r="B29" t="b">
-        <v>0</v>
-      </c>
-      <c r="C29">
+      <c r="B32" t="b">
+        <v>0</v>
+      </c>
+      <c r="C32">
         <v>1.99</v>
       </c>
-      <c r="D29">
+      <c r="D32">
         <v>2500</v>
       </c>
-      <c r="E29" t="s">
+      <c r="E32" t="s">
         <v>7</v>
-      </c>
-      <c r="F29" t="s">
-        <v>44</v>
-      </c>
-      <c r="G29" t="s">
-        <v>45</v>
-      </c>
-      <c r="H29">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>69</v>
-      </c>
-      <c r="B30" t="b">
-        <v>0</v>
-      </c>
-      <c r="C30">
-        <v>2.99</v>
-      </c>
-      <c r="D30">
-        <v>3900</v>
-      </c>
-      <c r="E30" t="s">
-        <v>9</v>
-      </c>
-      <c r="F30" t="s">
-        <v>44</v>
-      </c>
-      <c r="G30" t="s">
-        <v>45</v>
-      </c>
-      <c r="H30">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>70</v>
-      </c>
-      <c r="B31" t="b">
-        <v>0</v>
-      </c>
-      <c r="C31">
-        <v>3.99</v>
-      </c>
-      <c r="D31">
-        <v>4900</v>
-      </c>
-      <c r="E31" t="s">
-        <v>11</v>
-      </c>
-      <c r="F31" t="s">
-        <v>44</v>
-      </c>
-      <c r="G31" t="s">
-        <v>45</v>
-      </c>
-      <c r="H31">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>71</v>
-      </c>
-      <c r="B32" t="b">
-        <v>0</v>
-      </c>
-      <c r="C32">
-        <v>4.99</v>
-      </c>
-      <c r="D32">
-        <v>5900</v>
-      </c>
-      <c r="E32" t="s">
-        <v>13</v>
       </c>
       <c r="F32" t="s">
         <v>44</v>
@@ -1526,27 +1607,105 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
+        <v>69</v>
+      </c>
+      <c r="B33" t="b">
+        <v>0</v>
+      </c>
+      <c r="C33">
+        <v>2.99</v>
+      </c>
+      <c r="D33">
+        <v>3900</v>
+      </c>
+      <c r="E33" t="s">
+        <v>9</v>
+      </c>
+      <c r="F33" t="s">
+        <v>44</v>
+      </c>
+      <c r="G33" t="s">
+        <v>45</v>
+      </c>
+      <c r="H33">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>70</v>
+      </c>
+      <c r="B34" t="b">
+        <v>0</v>
+      </c>
+      <c r="C34">
+        <v>3.99</v>
+      </c>
+      <c r="D34">
+        <v>4900</v>
+      </c>
+      <c r="E34" t="s">
+        <v>11</v>
+      </c>
+      <c r="F34" t="s">
+        <v>44</v>
+      </c>
+      <c r="G34" t="s">
+        <v>45</v>
+      </c>
+      <c r="H34">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>71</v>
+      </c>
+      <c r="B35" t="b">
+        <v>0</v>
+      </c>
+      <c r="C35">
+        <v>4.99</v>
+      </c>
+      <c r="D35">
+        <v>5900</v>
+      </c>
+      <c r="E35" t="s">
+        <v>13</v>
+      </c>
+      <c r="F35" t="s">
+        <v>44</v>
+      </c>
+      <c r="G35" t="s">
+        <v>45</v>
+      </c>
+      <c r="H35">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
         <v>72</v>
       </c>
-      <c r="B33" t="b">
-        <v>0</v>
-      </c>
-      <c r="C33">
+      <c r="B36" t="b">
+        <v>0</v>
+      </c>
+      <c r="C36">
         <v>5.99</v>
       </c>
-      <c r="D33">
+      <c r="D36">
         <v>7500</v>
       </c>
-      <c r="E33" t="s">
+      <c r="E36" t="s">
         <v>15</v>
       </c>
-      <c r="F33" t="s">
-        <v>44</v>
-      </c>
-      <c r="G33" t="s">
-        <v>45</v>
-      </c>
-      <c r="H33">
+      <c r="F36" t="s">
+        <v>44</v>
+      </c>
+      <c r="G36" t="s">
+        <v>45</v>
+      </c>
+      <c r="H36">
         <v>80</v>
       </c>
     </row>

--- a/Excel/Shop.xlsx
+++ b/Excel/Shop.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DD0F526-0614-46F6-B155-646807870BDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6805752-52F7-4FCB-9476-7929E38A1045}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1A95D980-8F25-43B6-BA87-364295A77694}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="79">
   <si>
     <t>productId|String</t>
   </si>
@@ -1195,7 +1195,7 @@
         <v>46</v>
       </c>
       <c r="K16">
-        <v>35000</v>
+        <v>25000</v>
       </c>
       <c r="L16" t="s">
         <v>44</v>
@@ -1239,7 +1239,7 @@
         <v>46</v>
       </c>
       <c r="K17">
-        <v>35000</v>
+        <v>15000</v>
       </c>
       <c r="L17" t="s">
         <v>44</v>
@@ -1283,7 +1283,7 @@
         <v>46</v>
       </c>
       <c r="K18">
-        <v>35000</v>
+        <v>30000</v>
       </c>
       <c r="L18" t="s">
         <v>44</v>
@@ -1320,6 +1320,24 @@
       <c r="H19">
         <v>80</v>
       </c>
+      <c r="I19" t="s">
+        <v>44</v>
+      </c>
+      <c r="J19" t="s">
+        <v>46</v>
+      </c>
+      <c r="K19">
+        <v>35000</v>
+      </c>
+      <c r="L19" t="s">
+        <v>44</v>
+      </c>
+      <c r="M19" t="s">
+        <v>45</v>
+      </c>
+      <c r="N19">
+        <v>170</v>
+      </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
@@ -1335,7 +1353,7 @@
         <v>45</v>
       </c>
       <c r="H20">
-        <v>80</v>
+        <v>150</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1358,10 +1376,37 @@
         <v>44</v>
       </c>
       <c r="G21" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H21">
-        <v>80</v>
+        <v>20000</v>
+      </c>
+      <c r="I21" t="s">
+        <v>44</v>
+      </c>
+      <c r="J21" t="s">
+        <v>45</v>
+      </c>
+      <c r="K21">
+        <v>150</v>
+      </c>
+      <c r="L21" t="s">
+        <v>44</v>
+      </c>
+      <c r="M21" t="s">
+        <v>46</v>
+      </c>
+      <c r="N21">
+        <v>35000</v>
+      </c>
+      <c r="O21" t="s">
+        <v>44</v>
+      </c>
+      <c r="P21" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q21">
+        <v>200</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -1378,7 +1423,16 @@
         <v>45</v>
       </c>
       <c r="H22">
-        <v>80</v>
+        <v>150</v>
+      </c>
+      <c r="I22" t="s">
+        <v>44</v>
+      </c>
+      <c r="J22" t="s">
+        <v>46</v>
+      </c>
+      <c r="K22">
+        <v>20000</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -1397,6 +1451,24 @@
       <c r="H23">
         <v>80</v>
       </c>
+      <c r="I23" t="s">
+        <v>44</v>
+      </c>
+      <c r="J23" t="s">
+        <v>46</v>
+      </c>
+      <c r="K23">
+        <v>10000</v>
+      </c>
+      <c r="L23" t="s">
+        <v>44</v>
+      </c>
+      <c r="M23" t="s">
+        <v>45</v>
+      </c>
+      <c r="N23">
+        <v>200</v>
+      </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
@@ -1421,7 +1493,34 @@
         <v>45</v>
       </c>
       <c r="H24">
-        <v>80</v>
+        <v>300</v>
+      </c>
+      <c r="I24" t="s">
+        <v>44</v>
+      </c>
+      <c r="J24" t="s">
+        <v>46</v>
+      </c>
+      <c r="K24">
+        <v>25000</v>
+      </c>
+      <c r="L24" t="s">
+        <v>44</v>
+      </c>
+      <c r="M24" t="s">
+        <v>45</v>
+      </c>
+      <c r="N24">
+        <v>450</v>
+      </c>
+      <c r="O24" t="s">
+        <v>44</v>
+      </c>
+      <c r="P24" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q24">
+        <v>35000</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -1435,10 +1534,10 @@
         <v>44</v>
       </c>
       <c r="G25" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H25">
-        <v>80</v>
+        <v>50000</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -1455,7 +1554,16 @@
         <v>45</v>
       </c>
       <c r="H26">
-        <v>80</v>
+        <v>350</v>
+      </c>
+      <c r="I26" t="s">
+        <v>44</v>
+      </c>
+      <c r="J26" t="s">
+        <v>46</v>
+      </c>
+      <c r="K26">
+        <v>30000</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">

--- a/Excel/Shop.xlsx
+++ b/Excel/Shop.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6805752-52F7-4FCB-9476-7929E38A1045}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F9C5469-55DC-4EEC-9325-095702594D48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1A95D980-8F25-43B6-BA87-364295A77694}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{1A95D980-8F25-43B6-BA87-364295A77694}"/>
   </bookViews>
   <sheets>
     <sheet name="ShopProductTable" sheetId="1" r:id="rId1"/>
     <sheet name="LevelPassTable" sheetId="2" r:id="rId2"/>
+    <sheet name="ConsumeItemTable" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="83">
   <si>
     <t>productId|String</t>
   </si>
@@ -274,6 +275,18 @@
   </si>
   <si>
     <t>test_oneofthree3</t>
+  </si>
+  <si>
+    <t>id|String</t>
+  </si>
+  <si>
+    <t>name|String</t>
+  </si>
+  <si>
+    <t>Cash_sBrokenEnergy</t>
+  </si>
+  <si>
+    <t>CashName_sBrokenEnergy</t>
   </si>
 </sst>
 </file>
@@ -639,7 +652,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED115DDC-E095-4A60-B3EA-80FAE0A4BDBC}">
   <dimension ref="A1:T36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -1923,4 +1936,38 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A538EB96-EB04-4826-9AF0-A58A4FE56B38}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.25" customWidth="1"/>
+    <col min="2" max="2" width="49.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Excel/Shop.xlsx
+++ b/Excel/Shop.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F16BCD1B-0E5D-4ED9-AFAD-B97F24A83E5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{155C55C8-7F3B-45CE-A975-FFF23897803B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1A95D980-8F25-43B6-BA87-364295A77694}"/>
+    <workbookView xWindow="-26850" yWindow="1935" windowWidth="13515" windowHeight="14265" xr2:uid="{1A95D980-8F25-43B6-BA87-364295A77694}"/>
   </bookViews>
   <sheets>
     <sheet name="ShopProductTable" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="69">
   <si>
     <t>productId|String</t>
   </si>
@@ -188,6 +188,63 @@
   </si>
   <si>
     <t>ev4_conti_8</t>
+  </si>
+  <si>
+    <t>key|Int</t>
+  </si>
+  <si>
+    <t>테이블연결</t>
+  </si>
+  <si>
+    <t>Jason화</t>
+  </si>
+  <si>
+    <t>,{"id":"ev5_oneplustwo_2","key":537,"tp1":"cu","vl1":"EN","cn1":300}</t>
+  </si>
+  <si>
+    <t>{"id":"ev5_oneplustwo_2","key":537,"tp1":"cu","vl1":"EN","cn1":300}</t>
+  </si>
+  <si>
+    <t>,{"id":"ev5_oneplustwo_2","key":537,"tp1":"cu","vl1":"EN","cn1":300},{"id":"ev5_oneplustwo_3","key":314,"tp1":"cu","vl1":"EN","cn1":80}</t>
+  </si>
+  <si>
+    <t>{"id":"ev5_oneplustwo_3","key":314,"tp1":"cu","vl1":"EN","cn1":80}</t>
+  </si>
+  <si>
+    <t>,{"id":"ev5_oneplustwo_2","key":537,"tp1":"cu","vl1":"EN","cn1":300},{"id":"ev5_oneplustwo_3","key":314,"tp1":"cu","vl1":"EN","cn1":80},{"id":"ev4_conti_1","key":721,"tp1":"cu","vl1":"EN","cn1":80,"tp2":"cu","vl2":"GO","cn2":35000,"tp3":"cu","vl3":"EN","cn3":170}</t>
+  </si>
+  <si>
+    <t>{"id":"ev4_conti_1","key":721,"tp1":"cu","vl1":"EN","cn1":80,"tp2":"cu","vl2":"GO","cn2":35000,"tp3":"cu","vl3":"EN","cn3":170}</t>
+  </si>
+  <si>
+    <t>,{"id":"ev5_oneplustwo_2","key":537,"tp1":"cu","vl1":"EN","cn1":300},{"id":"ev5_oneplustwo_3","key":314,"tp1":"cu","vl1":"EN","cn1":80},{"id":"ev4_conti_1","key":721,"tp1":"cu","vl1":"EN","cn1":80,"tp2":"cu","vl2":"GO","cn2":35000,"tp3":"cu","vl3":"EN","cn3":170},{"id":"ev4_conti_2","key":884,"tp1":"cu","vl1":"EN","cn1":150}</t>
+  </si>
+  <si>
+    <t>{"id":"ev4_conti_2","key":884,"tp1":"cu","vl1":"EN","cn1":150}</t>
+  </si>
+  <si>
+    <t>,{"id":"ev5_oneplustwo_2","key":537,"tp1":"cu","vl1":"EN","cn1":300},{"id":"ev5_oneplustwo_3","key":314,"tp1":"cu","vl1":"EN","cn1":80},{"id":"ev4_conti_1","key":721,"tp1":"cu","vl1":"EN","cn1":80,"tp2":"cu","vl2":"GO","cn2":35000,"tp3":"cu","vl3":"EN","cn3":170},{"id":"ev4_conti_2","key":884,"tp1":"cu","vl1":"EN","cn1":150},{"id":"ev4_conti_4","key":394,"tp1":"cu","vl1":"EN","cn1":150,"tp2":"cu","vl2":"GO","cn2":20000}</t>
+  </si>
+  <si>
+    <t>{"id":"ev4_conti_4","key":394,"tp1":"cu","vl1":"EN","cn1":150,"tp2":"cu","vl2":"GO","cn2":20000}</t>
+  </si>
+  <si>
+    <t>,{"id":"ev5_oneplustwo_2","key":537,"tp1":"cu","vl1":"EN","cn1":300},{"id":"ev5_oneplustwo_3","key":314,"tp1":"cu","vl1":"EN","cn1":80},{"id":"ev4_conti_1","key":721,"tp1":"cu","vl1":"EN","cn1":80,"tp2":"cu","vl2":"GO","cn2":35000,"tp3":"cu","vl3":"EN","cn3":170},{"id":"ev4_conti_2","key":884,"tp1":"cu","vl1":"EN","cn1":150},{"id":"ev4_conti_4","key":394,"tp1":"cu","vl1":"EN","cn1":150,"tp2":"cu","vl2":"GO","cn2":20000},{"id":"ev4_conti_5","key":612,"tp1":"cu","vl1":"EN","cn1":80,"tp2":"cu","vl2":"GO","cn2":10000,"tp3":"cu","vl3":"EN","cn3":200}</t>
+  </si>
+  <si>
+    <t>{"id":"ev4_conti_5","key":612,"tp1":"cu","vl1":"EN","cn1":80,"tp2":"cu","vl2":"GO","cn2":10000,"tp3":"cu","vl3":"EN","cn3":200}</t>
+  </si>
+  <si>
+    <t>,{"id":"ev5_oneplustwo_2","key":537,"tp1":"cu","vl1":"EN","cn1":300},{"id":"ev5_oneplustwo_3","key":314,"tp1":"cu","vl1":"EN","cn1":80},{"id":"ev4_conti_1","key":721,"tp1":"cu","vl1":"EN","cn1":80,"tp2":"cu","vl2":"GO","cn2":35000,"tp3":"cu","vl3":"EN","cn3":170},{"id":"ev4_conti_2","key":884,"tp1":"cu","vl1":"EN","cn1":150},{"id":"ev4_conti_4","key":394,"tp1":"cu","vl1":"EN","cn1":150,"tp2":"cu","vl2":"GO","cn2":20000},{"id":"ev4_conti_5","key":612,"tp1":"cu","vl1":"EN","cn1":80,"tp2":"cu","vl2":"GO","cn2":10000,"tp3":"cu","vl3":"EN","cn3":200},{"id":"ev4_conti_7","key":930,"tp1":"cu","vl1":"GO","cn1":50000}</t>
+  </si>
+  <si>
+    <t>{"id":"ev4_conti_7","key":930,"tp1":"cu","vl1":"GO","cn1":50000}</t>
+  </si>
+  <si>
+    <t>,{"id":"ev5_oneplustwo_2","key":537,"tp1":"cu","vl1":"EN","cn1":300},{"id":"ev5_oneplustwo_3","key":314,"tp1":"cu","vl1":"EN","cn1":80},{"id":"ev4_conti_1","key":721,"tp1":"cu","vl1":"EN","cn1":80,"tp2":"cu","vl2":"GO","cn2":35000,"tp3":"cu","vl3":"EN","cn3":170},{"id":"ev4_conti_2","key":884,"tp1":"cu","vl1":"EN","cn1":150},{"id":"ev4_conti_4","key":394,"tp1":"cu","vl1":"EN","cn1":150,"tp2":"cu","vl2":"GO","cn2":20000},{"id":"ev4_conti_5","key":612,"tp1":"cu","vl1":"EN","cn1":80,"tp2":"cu","vl2":"GO","cn2":10000,"tp3":"cu","vl3":"EN","cn3":200},{"id":"ev4_conti_7","key":930,"tp1":"cu","vl1":"GO","cn1":50000},{"id":"ev4_conti_8","key":959,"tp1":"cu","vl1":"EN","cn1":350,"tp2":"cu","vl2":"GO","cn2":30000}</t>
+  </si>
+  <si>
+    <t>{"id":"ev4_conti_8","key":959,"tp1":"cu","vl1":"EN","cn1":350,"tp2":"cu","vl2":"GO","cn2":30000}</t>
   </si>
 </sst>
 </file>
@@ -551,11 +608,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED115DDC-E095-4A60-B3EA-80FAE0A4BDBC}">
-  <dimension ref="A1:U17"/>
+  <dimension ref="A1:X17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -563,14 +618,15 @@
     <col min="2" max="3" width="9.25" customWidth="1"/>
     <col min="5" max="5" width="9.25" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16.5" customWidth="1"/>
-    <col min="8" max="8" width="19.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="19.5" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="19.5" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="19.5" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.625" customWidth="1"/>
+    <col min="9" max="9" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="19.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -590,52 +646,61 @@
         <v>3</v>
       </c>
       <c r="G1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H1" t="s">
         <v>9</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>10</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>11</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>12</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>13</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>14</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>15</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>16</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>17</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>18</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>19</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>20</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>21</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>22</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="W1" t="s">
+        <v>51</v>
+      </c>
+      <c r="X1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -651,17 +716,20 @@
       <c r="F2" t="s">
         <v>4</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2">
+        <v>434</v>
+      </c>
+      <c r="H2" t="s">
         <v>27</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>28</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -677,26 +745,29 @@
       <c r="F3" t="s">
         <v>5</v>
       </c>
-      <c r="G3" t="s">
-        <v>24</v>
+      <c r="G3">
+        <v>806</v>
       </c>
       <c r="H3" t="s">
-        <v>25</v>
-      </c>
-      <c r="I3">
+        <v>24</v>
+      </c>
+      <c r="I3" t="s">
+        <v>25</v>
+      </c>
+      <c r="J3">
         <v>600</v>
       </c>
-      <c r="J3" t="s">
-        <v>24</v>
-      </c>
       <c r="K3" t="s">
+        <v>24</v>
+      </c>
+      <c r="L3" t="s">
         <v>26</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>50000</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>36</v>
       </c>
@@ -715,26 +786,29 @@
       <c r="F4" t="s">
         <v>36</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G4">
+        <v>548</v>
+      </c>
+      <c r="H4" t="s">
         <v>27</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>29</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>30</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>27</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>30</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>37</v>
       </c>
@@ -744,17 +818,26 @@
       <c r="C5" t="b">
         <v>1</v>
       </c>
-      <c r="G5" t="s">
-        <v>24</v>
+      <c r="G5">
+        <v>537</v>
       </c>
       <c r="H5" t="s">
-        <v>25</v>
-      </c>
-      <c r="I5">
+        <v>24</v>
+      </c>
+      <c r="I5" t="s">
+        <v>25</v>
+      </c>
+      <c r="J5">
         <v>300</v>
       </c>
-    </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="W5" t="s">
+        <v>53</v>
+      </c>
+      <c r="X5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>38</v>
       </c>
@@ -764,17 +847,26 @@
       <c r="C6" t="b">
         <v>1</v>
       </c>
-      <c r="G6" t="s">
-        <v>24</v>
+      <c r="G6">
+        <v>314</v>
       </c>
       <c r="H6" t="s">
-        <v>25</v>
-      </c>
-      <c r="I6">
+        <v>24</v>
+      </c>
+      <c r="I6" t="s">
+        <v>25</v>
+      </c>
+      <c r="J6">
         <v>80</v>
       </c>
-    </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="W6" t="s">
+        <v>55</v>
+      </c>
+      <c r="X6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>39</v>
       </c>
@@ -790,35 +882,41 @@
       <c r="F7" t="s">
         <v>39</v>
       </c>
-      <c r="G7" t="s">
-        <v>24</v>
+      <c r="G7">
+        <v>876</v>
       </c>
       <c r="H7" t="s">
-        <v>25</v>
-      </c>
-      <c r="I7">
+        <v>24</v>
+      </c>
+      <c r="I7" t="s">
+        <v>25</v>
+      </c>
+      <c r="J7">
         <v>30</v>
       </c>
-      <c r="J7" t="s">
-        <v>24</v>
-      </c>
       <c r="K7" t="s">
+        <v>24</v>
+      </c>
+      <c r="L7" t="s">
         <v>26</v>
       </c>
-      <c r="L7">
+      <c r="M7">
         <v>25000</v>
       </c>
-      <c r="M7" t="s">
-        <v>24</v>
-      </c>
       <c r="N7" t="s">
-        <v>25</v>
-      </c>
-      <c r="O7">
+        <v>24</v>
+      </c>
+      <c r="O7" t="s">
+        <v>25</v>
+      </c>
+      <c r="P7">
         <v>100</v>
       </c>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="W7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>40</v>
       </c>
@@ -834,35 +932,41 @@
       <c r="F8" t="s">
         <v>40</v>
       </c>
-      <c r="G8" t="s">
-        <v>24</v>
+      <c r="G8">
+        <v>973</v>
       </c>
       <c r="H8" t="s">
-        <v>25</v>
-      </c>
-      <c r="I8">
+        <v>24</v>
+      </c>
+      <c r="I8" t="s">
+        <v>25</v>
+      </c>
+      <c r="J8">
         <v>60</v>
       </c>
-      <c r="J8" t="s">
-        <v>24</v>
-      </c>
       <c r="K8" t="s">
+        <v>24</v>
+      </c>
+      <c r="L8" t="s">
         <v>26</v>
       </c>
-      <c r="L8">
+      <c r="M8">
         <v>15000</v>
       </c>
-      <c r="M8" t="s">
-        <v>24</v>
-      </c>
       <c r="N8" t="s">
-        <v>25</v>
-      </c>
-      <c r="O8">
+        <v>24</v>
+      </c>
+      <c r="O8" t="s">
+        <v>25</v>
+      </c>
+      <c r="P8">
         <v>120</v>
       </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="W8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>41</v>
       </c>
@@ -878,44 +982,50 @@
       <c r="F9" t="s">
         <v>41</v>
       </c>
-      <c r="G9" t="s">
-        <v>24</v>
+      <c r="G9">
+        <v>180</v>
       </c>
       <c r="H9" t="s">
-        <v>25</v>
-      </c>
-      <c r="I9">
+        <v>24</v>
+      </c>
+      <c r="I9" t="s">
+        <v>25</v>
+      </c>
+      <c r="J9">
         <v>90</v>
       </c>
-      <c r="J9" t="s">
-        <v>24</v>
-      </c>
       <c r="K9" t="s">
+        <v>24</v>
+      </c>
+      <c r="L9" t="s">
         <v>26</v>
       </c>
-      <c r="L9">
+      <c r="M9">
         <v>30000</v>
       </c>
-      <c r="M9" t="s">
-        <v>24</v>
-      </c>
       <c r="N9" t="s">
-        <v>25</v>
-      </c>
-      <c r="O9">
+        <v>24</v>
+      </c>
+      <c r="O9" t="s">
+        <v>25</v>
+      </c>
+      <c r="P9">
         <v>150</v>
       </c>
-      <c r="P9" t="s">
-        <v>24</v>
-      </c>
       <c r="Q9" t="s">
-        <v>25</v>
-      </c>
-      <c r="R9">
+        <v>24</v>
+      </c>
+      <c r="R9" t="s">
+        <v>25</v>
+      </c>
+      <c r="S9">
         <v>300</v>
       </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="W9" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>42</v>
       </c>
@@ -925,35 +1035,44 @@
       <c r="C10" t="b">
         <v>1</v>
       </c>
-      <c r="G10" t="s">
-        <v>24</v>
+      <c r="G10">
+        <v>721</v>
       </c>
       <c r="H10" t="s">
-        <v>25</v>
-      </c>
-      <c r="I10">
+        <v>24</v>
+      </c>
+      <c r="I10" t="s">
+        <v>25</v>
+      </c>
+      <c r="J10">
         <v>80</v>
       </c>
-      <c r="J10" t="s">
-        <v>24</v>
-      </c>
       <c r="K10" t="s">
+        <v>24</v>
+      </c>
+      <c r="L10" t="s">
         <v>26</v>
       </c>
-      <c r="L10">
+      <c r="M10">
         <v>35000</v>
       </c>
-      <c r="M10" t="s">
-        <v>24</v>
-      </c>
       <c r="N10" t="s">
-        <v>25</v>
-      </c>
-      <c r="O10">
+        <v>24</v>
+      </c>
+      <c r="O10" t="s">
+        <v>25</v>
+      </c>
+      <c r="P10">
         <v>170</v>
       </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="W10" t="s">
+        <v>57</v>
+      </c>
+      <c r="X10" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>43</v>
       </c>
@@ -963,17 +1082,26 @@
       <c r="C11" t="b">
         <v>1</v>
       </c>
-      <c r="G11" t="s">
-        <v>24</v>
+      <c r="G11">
+        <v>884</v>
       </c>
       <c r="H11" t="s">
-        <v>25</v>
-      </c>
-      <c r="I11">
+        <v>24</v>
+      </c>
+      <c r="I11" t="s">
+        <v>25</v>
+      </c>
+      <c r="J11">
         <v>150</v>
       </c>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="W11" t="s">
+        <v>59</v>
+      </c>
+      <c r="X11" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>44</v>
       </c>
@@ -992,44 +1120,50 @@
       <c r="F12" t="s">
         <v>44</v>
       </c>
-      <c r="G12" t="s">
-        <v>24</v>
+      <c r="G12">
+        <v>217</v>
       </c>
       <c r="H12" t="s">
+        <v>24</v>
+      </c>
+      <c r="I12" t="s">
         <v>26</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>20000</v>
       </c>
-      <c r="J12" t="s">
-        <v>24</v>
-      </c>
       <c r="K12" t="s">
-        <v>25</v>
-      </c>
-      <c r="L12">
+        <v>24</v>
+      </c>
+      <c r="L12" t="s">
+        <v>25</v>
+      </c>
+      <c r="M12">
         <v>150</v>
       </c>
-      <c r="M12" t="s">
-        <v>24</v>
-      </c>
       <c r="N12" t="s">
+        <v>24</v>
+      </c>
+      <c r="O12" t="s">
         <v>26</v>
       </c>
-      <c r="O12">
+      <c r="P12">
         <v>35000</v>
       </c>
-      <c r="P12" t="s">
-        <v>24</v>
-      </c>
       <c r="Q12" t="s">
-        <v>25</v>
-      </c>
-      <c r="R12">
+        <v>24</v>
+      </c>
+      <c r="R12" t="s">
+        <v>25</v>
+      </c>
+      <c r="S12">
         <v>200</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="W12" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>45</v>
       </c>
@@ -1039,26 +1173,35 @@
       <c r="C13" t="b">
         <v>1</v>
       </c>
-      <c r="G13" t="s">
-        <v>24</v>
+      <c r="G13">
+        <v>394</v>
       </c>
       <c r="H13" t="s">
-        <v>25</v>
-      </c>
-      <c r="I13">
+        <v>24</v>
+      </c>
+      <c r="I13" t="s">
+        <v>25</v>
+      </c>
+      <c r="J13">
         <v>150</v>
       </c>
-      <c r="J13" t="s">
-        <v>24</v>
-      </c>
       <c r="K13" t="s">
+        <v>24</v>
+      </c>
+      <c r="L13" t="s">
         <v>26</v>
       </c>
-      <c r="L13">
+      <c r="M13">
         <v>20000</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="W13" t="s">
+        <v>61</v>
+      </c>
+      <c r="X13" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>46</v>
       </c>
@@ -1068,35 +1211,44 @@
       <c r="C14" t="b">
         <v>1</v>
       </c>
-      <c r="G14" t="s">
-        <v>24</v>
+      <c r="G14">
+        <v>612</v>
       </c>
       <c r="H14" t="s">
-        <v>25</v>
-      </c>
-      <c r="I14">
+        <v>24</v>
+      </c>
+      <c r="I14" t="s">
+        <v>25</v>
+      </c>
+      <c r="J14">
         <v>80</v>
       </c>
-      <c r="J14" t="s">
-        <v>24</v>
-      </c>
       <c r="K14" t="s">
+        <v>24</v>
+      </c>
+      <c r="L14" t="s">
         <v>26</v>
       </c>
-      <c r="L14">
+      <c r="M14">
         <v>10000</v>
       </c>
-      <c r="M14" t="s">
-        <v>24</v>
-      </c>
       <c r="N14" t="s">
-        <v>25</v>
-      </c>
-      <c r="O14">
+        <v>24</v>
+      </c>
+      <c r="O14" t="s">
+        <v>25</v>
+      </c>
+      <c r="P14">
         <v>200</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="W14" t="s">
+        <v>63</v>
+      </c>
+      <c r="X14" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>47</v>
       </c>
@@ -1115,44 +1267,50 @@
       <c r="F15" t="s">
         <v>47</v>
       </c>
-      <c r="G15" t="s">
-        <v>24</v>
+      <c r="G15">
+        <v>501</v>
       </c>
       <c r="H15" t="s">
-        <v>25</v>
-      </c>
-      <c r="I15">
+        <v>24</v>
+      </c>
+      <c r="I15" t="s">
+        <v>25</v>
+      </c>
+      <c r="J15">
         <v>300</v>
       </c>
-      <c r="J15" t="s">
-        <v>24</v>
-      </c>
       <c r="K15" t="s">
+        <v>24</v>
+      </c>
+      <c r="L15" t="s">
         <v>26</v>
       </c>
-      <c r="L15">
+      <c r="M15">
         <v>25000</v>
       </c>
-      <c r="M15" t="s">
-        <v>24</v>
-      </c>
       <c r="N15" t="s">
-        <v>25</v>
-      </c>
-      <c r="O15">
+        <v>24</v>
+      </c>
+      <c r="O15" t="s">
+        <v>25</v>
+      </c>
+      <c r="P15">
         <v>450</v>
       </c>
-      <c r="P15" t="s">
-        <v>24</v>
-      </c>
       <c r="Q15" t="s">
+        <v>24</v>
+      </c>
+      <c r="R15" t="s">
         <v>26</v>
       </c>
-      <c r="R15">
+      <c r="S15">
         <v>35000</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="W15" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>48</v>
       </c>
@@ -1162,17 +1320,26 @@
       <c r="C16" t="b">
         <v>1</v>
       </c>
-      <c r="G16" t="s">
-        <v>24</v>
+      <c r="G16">
+        <v>930</v>
       </c>
       <c r="H16" t="s">
+        <v>24</v>
+      </c>
+      <c r="I16" t="s">
         <v>26</v>
       </c>
-      <c r="I16">
+      <c r="J16">
         <v>50000</v>
       </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="W16" t="s">
+        <v>65</v>
+      </c>
+      <c r="X16" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>49</v>
       </c>
@@ -1182,23 +1349,32 @@
       <c r="C17" t="b">
         <v>1</v>
       </c>
-      <c r="G17" t="s">
-        <v>24</v>
+      <c r="G17">
+        <v>959</v>
       </c>
       <c r="H17" t="s">
-        <v>25</v>
-      </c>
-      <c r="I17">
+        <v>24</v>
+      </c>
+      <c r="I17" t="s">
+        <v>25</v>
+      </c>
+      <c r="J17">
         <v>350</v>
       </c>
-      <c r="J17" t="s">
-        <v>24</v>
-      </c>
       <c r="K17" t="s">
+        <v>24</v>
+      </c>
+      <c r="L17" t="s">
         <v>26</v>
       </c>
-      <c r="L17">
+      <c r="M17">
         <v>30000</v>
+      </c>
+      <c r="W17" t="s">
+        <v>67</v>
+      </c>
+      <c r="X17" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/Shop.xlsx
+++ b/Excel/Shop.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{155C55C8-7F3B-45CE-A975-FFF23897803B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{566B11F9-A1A3-48B8-B3B0-B27F3862B176}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-26850" yWindow="1935" windowWidth="13515" windowHeight="14265" xr2:uid="{1A95D980-8F25-43B6-BA87-364295A77694}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1A95D980-8F25-43B6-BA87-364295A77694}"/>
   </bookViews>
   <sheets>
     <sheet name="ShopProductTable" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="47">
   <si>
     <t>productId|String</t>
   </si>
@@ -178,73 +178,7 @@
     <t>ev4_conti_4</t>
   </si>
   <si>
-    <t>ev4_conti_5</t>
-  </si>
-  <si>
-    <t>ev4_conti_6</t>
-  </si>
-  <si>
-    <t>ev4_conti_7</t>
-  </si>
-  <si>
-    <t>ev4_conti_8</t>
-  </si>
-  <si>
     <t>key|Int</t>
-  </si>
-  <si>
-    <t>테이블연결</t>
-  </si>
-  <si>
-    <t>Jason화</t>
-  </si>
-  <si>
-    <t>,{"id":"ev5_oneplustwo_2","key":537,"tp1":"cu","vl1":"EN","cn1":300}</t>
-  </si>
-  <si>
-    <t>{"id":"ev5_oneplustwo_2","key":537,"tp1":"cu","vl1":"EN","cn1":300}</t>
-  </si>
-  <si>
-    <t>,{"id":"ev5_oneplustwo_2","key":537,"tp1":"cu","vl1":"EN","cn1":300},{"id":"ev5_oneplustwo_3","key":314,"tp1":"cu","vl1":"EN","cn1":80}</t>
-  </si>
-  <si>
-    <t>{"id":"ev5_oneplustwo_3","key":314,"tp1":"cu","vl1":"EN","cn1":80}</t>
-  </si>
-  <si>
-    <t>,{"id":"ev5_oneplustwo_2","key":537,"tp1":"cu","vl1":"EN","cn1":300},{"id":"ev5_oneplustwo_3","key":314,"tp1":"cu","vl1":"EN","cn1":80},{"id":"ev4_conti_1","key":721,"tp1":"cu","vl1":"EN","cn1":80,"tp2":"cu","vl2":"GO","cn2":35000,"tp3":"cu","vl3":"EN","cn3":170}</t>
-  </si>
-  <si>
-    <t>{"id":"ev4_conti_1","key":721,"tp1":"cu","vl1":"EN","cn1":80,"tp2":"cu","vl2":"GO","cn2":35000,"tp3":"cu","vl3":"EN","cn3":170}</t>
-  </si>
-  <si>
-    <t>,{"id":"ev5_oneplustwo_2","key":537,"tp1":"cu","vl1":"EN","cn1":300},{"id":"ev5_oneplustwo_3","key":314,"tp1":"cu","vl1":"EN","cn1":80},{"id":"ev4_conti_1","key":721,"tp1":"cu","vl1":"EN","cn1":80,"tp2":"cu","vl2":"GO","cn2":35000,"tp3":"cu","vl3":"EN","cn3":170},{"id":"ev4_conti_2","key":884,"tp1":"cu","vl1":"EN","cn1":150}</t>
-  </si>
-  <si>
-    <t>{"id":"ev4_conti_2","key":884,"tp1":"cu","vl1":"EN","cn1":150}</t>
-  </si>
-  <si>
-    <t>,{"id":"ev5_oneplustwo_2","key":537,"tp1":"cu","vl1":"EN","cn1":300},{"id":"ev5_oneplustwo_3","key":314,"tp1":"cu","vl1":"EN","cn1":80},{"id":"ev4_conti_1","key":721,"tp1":"cu","vl1":"EN","cn1":80,"tp2":"cu","vl2":"GO","cn2":35000,"tp3":"cu","vl3":"EN","cn3":170},{"id":"ev4_conti_2","key":884,"tp1":"cu","vl1":"EN","cn1":150},{"id":"ev4_conti_4","key":394,"tp1":"cu","vl1":"EN","cn1":150,"tp2":"cu","vl2":"GO","cn2":20000}</t>
-  </si>
-  <si>
-    <t>{"id":"ev4_conti_4","key":394,"tp1":"cu","vl1":"EN","cn1":150,"tp2":"cu","vl2":"GO","cn2":20000}</t>
-  </si>
-  <si>
-    <t>,{"id":"ev5_oneplustwo_2","key":537,"tp1":"cu","vl1":"EN","cn1":300},{"id":"ev5_oneplustwo_3","key":314,"tp1":"cu","vl1":"EN","cn1":80},{"id":"ev4_conti_1","key":721,"tp1":"cu","vl1":"EN","cn1":80,"tp2":"cu","vl2":"GO","cn2":35000,"tp3":"cu","vl3":"EN","cn3":170},{"id":"ev4_conti_2","key":884,"tp1":"cu","vl1":"EN","cn1":150},{"id":"ev4_conti_4","key":394,"tp1":"cu","vl1":"EN","cn1":150,"tp2":"cu","vl2":"GO","cn2":20000},{"id":"ev4_conti_5","key":612,"tp1":"cu","vl1":"EN","cn1":80,"tp2":"cu","vl2":"GO","cn2":10000,"tp3":"cu","vl3":"EN","cn3":200}</t>
-  </si>
-  <si>
-    <t>{"id":"ev4_conti_5","key":612,"tp1":"cu","vl1":"EN","cn1":80,"tp2":"cu","vl2":"GO","cn2":10000,"tp3":"cu","vl3":"EN","cn3":200}</t>
-  </si>
-  <si>
-    <t>,{"id":"ev5_oneplustwo_2","key":537,"tp1":"cu","vl1":"EN","cn1":300},{"id":"ev5_oneplustwo_3","key":314,"tp1":"cu","vl1":"EN","cn1":80},{"id":"ev4_conti_1","key":721,"tp1":"cu","vl1":"EN","cn1":80,"tp2":"cu","vl2":"GO","cn2":35000,"tp3":"cu","vl3":"EN","cn3":170},{"id":"ev4_conti_2","key":884,"tp1":"cu","vl1":"EN","cn1":150},{"id":"ev4_conti_4","key":394,"tp1":"cu","vl1":"EN","cn1":150,"tp2":"cu","vl2":"GO","cn2":20000},{"id":"ev4_conti_5","key":612,"tp1":"cu","vl1":"EN","cn1":80,"tp2":"cu","vl2":"GO","cn2":10000,"tp3":"cu","vl3":"EN","cn3":200},{"id":"ev4_conti_7","key":930,"tp1":"cu","vl1":"GO","cn1":50000}</t>
-  </si>
-  <si>
-    <t>{"id":"ev4_conti_7","key":930,"tp1":"cu","vl1":"GO","cn1":50000}</t>
-  </si>
-  <si>
-    <t>,{"id":"ev5_oneplustwo_2","key":537,"tp1":"cu","vl1":"EN","cn1":300},{"id":"ev5_oneplustwo_3","key":314,"tp1":"cu","vl1":"EN","cn1":80},{"id":"ev4_conti_1","key":721,"tp1":"cu","vl1":"EN","cn1":80,"tp2":"cu","vl2":"GO","cn2":35000,"tp3":"cu","vl3":"EN","cn3":170},{"id":"ev4_conti_2","key":884,"tp1":"cu","vl1":"EN","cn1":150},{"id":"ev4_conti_4","key":394,"tp1":"cu","vl1":"EN","cn1":150,"tp2":"cu","vl2":"GO","cn2":20000},{"id":"ev4_conti_5","key":612,"tp1":"cu","vl1":"EN","cn1":80,"tp2":"cu","vl2":"GO","cn2":10000,"tp3":"cu","vl3":"EN","cn3":200},{"id":"ev4_conti_7","key":930,"tp1":"cu","vl1":"GO","cn1":50000},{"id":"ev4_conti_8","key":959,"tp1":"cu","vl1":"EN","cn1":350,"tp2":"cu","vl2":"GO","cn2":30000}</t>
-  </si>
-  <si>
-    <t>{"id":"ev4_conti_8","key":959,"tp1":"cu","vl1":"EN","cn1":350,"tp2":"cu","vl2":"GO","cn2":30000}</t>
   </si>
 </sst>
 </file>
@@ -608,7 +542,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED115DDC-E095-4A60-B3EA-80FAE0A4BDBC}">
-  <dimension ref="A1:X17"/>
+  <dimension ref="A1:V13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -626,7 +560,7 @@
     <col min="21" max="21" width="19.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:22" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -646,7 +580,7 @@
         <v>3</v>
       </c>
       <c r="G1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="H1" t="s">
         <v>9</v>
@@ -693,14 +627,8 @@
       <c r="V1" t="s">
         <v>23</v>
       </c>
-      <c r="W1" t="s">
-        <v>51</v>
-      </c>
-      <c r="X1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -729,7 +657,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -767,7 +695,7 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>36</v>
       </c>
@@ -808,7 +736,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>37</v>
       </c>
@@ -830,14 +758,8 @@
       <c r="J5">
         <v>300</v>
       </c>
-      <c r="W5" t="s">
-        <v>53</v>
-      </c>
-      <c r="X5" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>38</v>
       </c>
@@ -859,14 +781,8 @@
       <c r="J6">
         <v>80</v>
       </c>
-      <c r="W6" t="s">
-        <v>55</v>
-      </c>
-      <c r="X6" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>39</v>
       </c>
@@ -912,11 +828,8 @@
       <c r="P7">
         <v>100</v>
       </c>
-      <c r="W7" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>40</v>
       </c>
@@ -962,11 +875,8 @@
       <c r="P8">
         <v>120</v>
       </c>
-      <c r="W8" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>41</v>
       </c>
@@ -1021,11 +931,8 @@
       <c r="S9">
         <v>300</v>
       </c>
-      <c r="W9" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>42</v>
       </c>
@@ -1065,14 +972,8 @@
       <c r="P10">
         <v>170</v>
       </c>
-      <c r="W10" t="s">
-        <v>57</v>
-      </c>
-      <c r="X10" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>43</v>
       </c>
@@ -1094,14 +995,8 @@
       <c r="J11">
         <v>150</v>
       </c>
-      <c r="W11" t="s">
-        <v>59</v>
-      </c>
-      <c r="X11" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>44</v>
       </c>
@@ -1159,11 +1054,8 @@
       <c r="S12">
         <v>200</v>
       </c>
-      <c r="W12" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>45</v>
       </c>
@@ -1193,188 +1085,6 @@
       </c>
       <c r="M13">
         <v>20000</v>
-      </c>
-      <c r="W13" t="s">
-        <v>61</v>
-      </c>
-      <c r="X13" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>46</v>
-      </c>
-      <c r="B14">
-        <v>5</v>
-      </c>
-      <c r="C14" t="b">
-        <v>1</v>
-      </c>
-      <c r="G14">
-        <v>612</v>
-      </c>
-      <c r="H14" t="s">
-        <v>24</v>
-      </c>
-      <c r="I14" t="s">
-        <v>25</v>
-      </c>
-      <c r="J14">
-        <v>80</v>
-      </c>
-      <c r="K14" t="s">
-        <v>24</v>
-      </c>
-      <c r="L14" t="s">
-        <v>26</v>
-      </c>
-      <c r="M14">
-        <v>10000</v>
-      </c>
-      <c r="N14" t="s">
-        <v>24</v>
-      </c>
-      <c r="O14" t="s">
-        <v>25</v>
-      </c>
-      <c r="P14">
-        <v>200</v>
-      </c>
-      <c r="W14" t="s">
-        <v>63</v>
-      </c>
-      <c r="X14" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>47</v>
-      </c>
-      <c r="B15">
-        <v>6</v>
-      </c>
-      <c r="C15" t="b">
-        <v>0</v>
-      </c>
-      <c r="D15">
-        <v>5.99</v>
-      </c>
-      <c r="E15">
-        <v>7500</v>
-      </c>
-      <c r="F15" t="s">
-        <v>47</v>
-      </c>
-      <c r="G15">
-        <v>501</v>
-      </c>
-      <c r="H15" t="s">
-        <v>24</v>
-      </c>
-      <c r="I15" t="s">
-        <v>25</v>
-      </c>
-      <c r="J15">
-        <v>300</v>
-      </c>
-      <c r="K15" t="s">
-        <v>24</v>
-      </c>
-      <c r="L15" t="s">
-        <v>26</v>
-      </c>
-      <c r="M15">
-        <v>25000</v>
-      </c>
-      <c r="N15" t="s">
-        <v>24</v>
-      </c>
-      <c r="O15" t="s">
-        <v>25</v>
-      </c>
-      <c r="P15">
-        <v>450</v>
-      </c>
-      <c r="Q15" t="s">
-        <v>24</v>
-      </c>
-      <c r="R15" t="s">
-        <v>26</v>
-      </c>
-      <c r="S15">
-        <v>35000</v>
-      </c>
-      <c r="W15" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>48</v>
-      </c>
-      <c r="B16">
-        <v>7</v>
-      </c>
-      <c r="C16" t="b">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>930</v>
-      </c>
-      <c r="H16" t="s">
-        <v>24</v>
-      </c>
-      <c r="I16" t="s">
-        <v>26</v>
-      </c>
-      <c r="J16">
-        <v>50000</v>
-      </c>
-      <c r="W16" t="s">
-        <v>65</v>
-      </c>
-      <c r="X16" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>49</v>
-      </c>
-      <c r="B17">
-        <v>8</v>
-      </c>
-      <c r="C17" t="b">
-        <v>1</v>
-      </c>
-      <c r="G17">
-        <v>959</v>
-      </c>
-      <c r="H17" t="s">
-        <v>24</v>
-      </c>
-      <c r="I17" t="s">
-        <v>25</v>
-      </c>
-      <c r="J17">
-        <v>350</v>
-      </c>
-      <c r="K17" t="s">
-        <v>24</v>
-      </c>
-      <c r="L17" t="s">
-        <v>26</v>
-      </c>
-      <c r="M17">
-        <v>30000</v>
-      </c>
-      <c r="W17" t="s">
-        <v>67</v>
-      </c>
-      <c r="X17" t="s">
-        <v>68</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/Shop.xlsx
+++ b/Excel/Shop.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{566B11F9-A1A3-48B8-B3B0-B27F3862B176}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3E16B82-6FD1-42C7-87E2-6228E9E33EC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1A95D980-8F25-43B6-BA87-364295A77694}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="45">
   <si>
     <t>productId|String</t>
   </si>
@@ -125,12 +125,6 @@
   </si>
   <si>
     <t>Cash_bLevelPass</t>
-  </si>
-  <si>
-    <t>Cash_cDailyBox</t>
-  </si>
-  <si>
-    <t>Cash_cThickBox</t>
   </si>
   <si>
     <t>id|String</t>
@@ -544,7 +538,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED115DDC-E095-4A60-B3EA-80FAE0A4BDBC}">
   <dimension ref="A1:V13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -565,7 +561,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C1" t="s">
         <v>8</v>
@@ -580,7 +576,7 @@
         <v>3</v>
       </c>
       <c r="G1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H1" t="s">
         <v>9</v>
@@ -697,7 +693,7 @@
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -712,33 +708,51 @@
         <v>25000</v>
       </c>
       <c r="F4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G4">
         <v>548</v>
       </c>
       <c r="H4" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="I4" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="J4">
-        <v>30</v>
+        <v>350</v>
       </c>
       <c r="K4" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="L4" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="M4">
-        <v>1</v>
+        <v>80000</v>
+      </c>
+      <c r="N4" t="s">
+        <v>24</v>
+      </c>
+      <c r="O4" t="s">
+        <v>25</v>
+      </c>
+      <c r="P4">
+        <v>800</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>24</v>
+      </c>
+      <c r="R4" t="s">
+        <v>26</v>
+      </c>
+      <c r="S4">
+        <v>100000</v>
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B5">
         <v>2</v>
@@ -753,15 +767,33 @@
         <v>24</v>
       </c>
       <c r="I5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J5">
-        <v>300</v>
+        <v>50000</v>
+      </c>
+      <c r="K5" t="s">
+        <v>24</v>
+      </c>
+      <c r="L5" t="s">
+        <v>25</v>
+      </c>
+      <c r="M5">
+        <v>500</v>
+      </c>
+      <c r="N5" t="s">
+        <v>24</v>
+      </c>
+      <c r="O5" t="s">
+        <v>26</v>
+      </c>
+      <c r="P5">
+        <v>70000</v>
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B6">
         <v>3</v>
@@ -779,12 +811,39 @@
         <v>25</v>
       </c>
       <c r="J6">
-        <v>80</v>
+        <v>450</v>
+      </c>
+      <c r="K6" t="s">
+        <v>24</v>
+      </c>
+      <c r="L6" t="s">
+        <v>26</v>
+      </c>
+      <c r="M6">
+        <v>60000</v>
+      </c>
+      <c r="N6" t="s">
+        <v>24</v>
+      </c>
+      <c r="O6" t="s">
+        <v>26</v>
+      </c>
+      <c r="P6">
+        <v>90000</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>24</v>
+      </c>
+      <c r="R6" t="s">
+        <v>25</v>
+      </c>
+      <c r="S6">
+        <v>650</v>
       </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C7" t="b">
         <v>0</v>
@@ -796,7 +855,7 @@
         <v>19000</v>
       </c>
       <c r="F7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G7">
         <v>876</v>
@@ -831,7 +890,7 @@
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C8" t="b">
         <v>0</v>
@@ -843,7 +902,7 @@
         <v>39000</v>
       </c>
       <c r="F8" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G8">
         <v>973</v>
@@ -878,7 +937,7 @@
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C9" t="b">
         <v>0</v>
@@ -890,7 +949,7 @@
         <v>69000</v>
       </c>
       <c r="F9" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G9">
         <v>180</v>
@@ -934,7 +993,7 @@
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -975,7 +1034,7 @@
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B11">
         <v>2</v>
@@ -998,7 +1057,7 @@
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B12">
         <v>3</v>
@@ -1013,7 +1072,7 @@
         <v>2500</v>
       </c>
       <c r="F12" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G12">
         <v>217</v>
@@ -1057,7 +1116,7 @@
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B13">
         <v>4</v>
@@ -1209,18 +1268,18 @@
   <sheetData>
     <row r="1" spans="1:2" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/Shop.xlsx
+++ b/Excel/Shop.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3E16B82-6FD1-42C7-87E2-6228E9E33EC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F327DAF9-0A56-49B7-845E-840546901486}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1A95D980-8F25-43B6-BA87-364295A77694}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="58">
   <si>
     <t>productId|String</t>
   </si>
@@ -173,6 +173,45 @@
   </si>
   <si>
     <t>key|Int</t>
+  </si>
+  <si>
+    <t>seventotalgroup1_1</t>
+  </si>
+  <si>
+    <t>seventotalgroup1_2</t>
+  </si>
+  <si>
+    <t>seventotalgroup1_3</t>
+  </si>
+  <si>
+    <t>seventotalgroup1_4</t>
+  </si>
+  <si>
+    <t>seventotalgroup2_1</t>
+  </si>
+  <si>
+    <t>seventotalgroup2_2</t>
+  </si>
+  <si>
+    <t>seventotalgroup2_3</t>
+  </si>
+  <si>
+    <t>seventotalgroup2_4</t>
+  </si>
+  <si>
+    <t>seventotalgroup3_1</t>
+  </si>
+  <si>
+    <t>seventotalgroup3_2</t>
+  </si>
+  <si>
+    <t>seventotalgroup3_3</t>
+  </si>
+  <si>
+    <t>seventotalgroup3_4</t>
+  </si>
+  <si>
+    <t>Cash_sSevenTotal</t>
   </si>
 </sst>
 </file>
@@ -536,10 +575,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED115DDC-E095-4A60-B3EA-80FAE0A4BDBC}">
-  <dimension ref="A1:V13"/>
+  <dimension ref="A1:V25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -693,44 +732,41 @@
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>34</v>
-      </c>
-      <c r="B4">
-        <v>1</v>
+        <v>37</v>
       </c>
       <c r="C4" t="b">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>19.989999999999998</v>
+        <v>14.99</v>
       </c>
       <c r="E4">
+        <v>19000</v>
+      </c>
+      <c r="F4" t="s">
+        <v>37</v>
+      </c>
+      <c r="G4">
+        <v>876</v>
+      </c>
+      <c r="H4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I4" t="s">
+        <v>25</v>
+      </c>
+      <c r="J4">
+        <v>30</v>
+      </c>
+      <c r="K4" t="s">
+        <v>24</v>
+      </c>
+      <c r="L4" t="s">
+        <v>26</v>
+      </c>
+      <c r="M4">
         <v>25000</v>
       </c>
-      <c r="F4" t="s">
-        <v>34</v>
-      </c>
-      <c r="G4">
-        <v>548</v>
-      </c>
-      <c r="H4" t="s">
-        <v>24</v>
-      </c>
-      <c r="I4" t="s">
-        <v>25</v>
-      </c>
-      <c r="J4">
-        <v>350</v>
-      </c>
-      <c r="K4" t="s">
-        <v>24</v>
-      </c>
-      <c r="L4" t="s">
-        <v>26</v>
-      </c>
-      <c r="M4">
-        <v>80000</v>
-      </c>
       <c r="N4" t="s">
         <v>24</v>
       </c>
@@ -738,71 +774,74 @@
         <v>25</v>
       </c>
       <c r="P4">
-        <v>800</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>24</v>
-      </c>
-      <c r="R4" t="s">
-        <v>26</v>
-      </c>
-      <c r="S4">
-        <v>100000</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>35</v>
-      </c>
-      <c r="B5">
-        <v>2</v>
+        <v>38</v>
       </c>
       <c r="C5" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>29.99</v>
+      </c>
+      <c r="E5">
+        <v>39000</v>
+      </c>
+      <c r="F5" t="s">
+        <v>38</v>
       </c>
       <c r="G5">
-        <v>537</v>
+        <v>973</v>
       </c>
       <c r="H5" t="s">
         <v>24</v>
       </c>
       <c r="I5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J5">
-        <v>50000</v>
+        <v>60</v>
       </c>
       <c r="K5" t="s">
         <v>24</v>
       </c>
       <c r="L5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M5">
-        <v>500</v>
+        <v>15000</v>
       </c>
       <c r="N5" t="s">
         <v>24</v>
       </c>
       <c r="O5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="P5">
-        <v>70000</v>
+        <v>120</v>
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>36</v>
-      </c>
-      <c r="B6">
-        <v>3</v>
+        <v>39</v>
       </c>
       <c r="C6" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>49.99</v>
+      </c>
+      <c r="E6">
+        <v>69000</v>
+      </c>
+      <c r="F6" t="s">
+        <v>39</v>
       </c>
       <c r="G6">
-        <v>314</v>
+        <v>180</v>
       </c>
       <c r="H6" t="s">
         <v>24</v>
@@ -811,7 +850,7 @@
         <v>25</v>
       </c>
       <c r="J6">
-        <v>450</v>
+        <v>90</v>
       </c>
       <c r="K6" t="s">
         <v>24</v>
@@ -820,16 +859,16 @@
         <v>26</v>
       </c>
       <c r="M6">
-        <v>60000</v>
+        <v>30000</v>
       </c>
       <c r="N6" t="s">
         <v>24</v>
       </c>
       <c r="O6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="P6">
-        <v>90000</v>
+        <v>150</v>
       </c>
       <c r="Q6" t="s">
         <v>24</v>
@@ -838,27 +877,21 @@
         <v>25</v>
       </c>
       <c r="S6">
-        <v>650</v>
+        <v>300</v>
       </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>37</v>
+        <v>40</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
       </c>
       <c r="C7" t="b">
-        <v>0</v>
-      </c>
-      <c r="D7">
-        <v>14.99</v>
-      </c>
-      <c r="E7">
-        <v>19000</v>
-      </c>
-      <c r="F7" t="s">
-        <v>37</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>876</v>
+        <v>721</v>
       </c>
       <c r="H7" t="s">
         <v>24</v>
@@ -867,7 +900,7 @@
         <v>25</v>
       </c>
       <c r="J7">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="K7" t="s">
         <v>24</v>
@@ -876,7 +909,7 @@
         <v>26</v>
       </c>
       <c r="M7">
-        <v>25000</v>
+        <v>35000</v>
       </c>
       <c r="N7" t="s">
         <v>24</v>
@@ -885,27 +918,21 @@
         <v>25</v>
       </c>
       <c r="P7">
-        <v>100</v>
+        <v>170</v>
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>38</v>
+        <v>41</v>
+      </c>
+      <c r="B8">
+        <v>2</v>
       </c>
       <c r="C8" t="b">
-        <v>0</v>
-      </c>
-      <c r="D8">
-        <v>29.99</v>
-      </c>
-      <c r="E8">
-        <v>39000</v>
-      </c>
-      <c r="F8" t="s">
-        <v>38</v>
+        <v>1</v>
       </c>
       <c r="G8">
-        <v>973</v>
+        <v>884</v>
       </c>
       <c r="H8" t="s">
         <v>24</v>
@@ -914,72 +941,57 @@
         <v>25</v>
       </c>
       <c r="J8">
-        <v>60</v>
-      </c>
-      <c r="K8" t="s">
-        <v>24</v>
-      </c>
-      <c r="L8" t="s">
-        <v>26</v>
-      </c>
-      <c r="M8">
-        <v>15000</v>
-      </c>
-      <c r="N8" t="s">
-        <v>24</v>
-      </c>
-      <c r="O8" t="s">
-        <v>25</v>
-      </c>
-      <c r="P8">
-        <v>120</v>
+        <v>150</v>
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>39</v>
+        <v>42</v>
+      </c>
+      <c r="B9">
+        <v>3</v>
       </c>
       <c r="C9" t="b">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>49.99</v>
+        <v>1.99</v>
       </c>
       <c r="E9">
-        <v>69000</v>
+        <v>2500</v>
       </c>
       <c r="F9" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G9">
-        <v>180</v>
+        <v>217</v>
       </c>
       <c r="H9" t="s">
         <v>24</v>
       </c>
       <c r="I9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J9">
-        <v>90</v>
+        <v>20000</v>
       </c>
       <c r="K9" t="s">
         <v>24</v>
       </c>
       <c r="L9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="M9">
-        <v>30000</v>
+        <v>150</v>
       </c>
       <c r="N9" t="s">
         <v>24</v>
       </c>
       <c r="O9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="P9">
-        <v>150</v>
+        <v>35000</v>
       </c>
       <c r="Q9" t="s">
         <v>24</v>
@@ -988,21 +1000,21 @@
         <v>25</v>
       </c>
       <c r="S9">
-        <v>300</v>
+        <v>200</v>
       </c>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B10">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C10" t="b">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>721</v>
+        <v>394</v>
       </c>
       <c r="H10" t="s">
         <v>24</v>
@@ -1011,7 +1023,7 @@
         <v>25</v>
       </c>
       <c r="J10">
-        <v>80</v>
+        <v>150</v>
       </c>
       <c r="K10" t="s">
         <v>24</v>
@@ -1020,30 +1032,30 @@
         <v>26</v>
       </c>
       <c r="M10">
-        <v>35000</v>
-      </c>
-      <c r="N10" t="s">
-        <v>24</v>
-      </c>
-      <c r="O10" t="s">
-        <v>25</v>
-      </c>
-      <c r="P10">
-        <v>170</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="B11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C11" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>19.989999999999998</v>
+      </c>
+      <c r="E11">
+        <v>25000</v>
+      </c>
+      <c r="F11" t="s">
+        <v>34</v>
       </c>
       <c r="G11">
-        <v>884</v>
+        <v>548</v>
       </c>
       <c r="H11" t="s">
         <v>24</v>
@@ -1052,30 +1064,48 @@
         <v>25</v>
       </c>
       <c r="J11">
-        <v>150</v>
+        <v>350</v>
+      </c>
+      <c r="K11" t="s">
+        <v>24</v>
+      </c>
+      <c r="L11" t="s">
+        <v>26</v>
+      </c>
+      <c r="M11">
+        <v>80000</v>
+      </c>
+      <c r="N11" t="s">
+        <v>24</v>
+      </c>
+      <c r="O11" t="s">
+        <v>25</v>
+      </c>
+      <c r="P11">
+        <v>800</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>24</v>
+      </c>
+      <c r="R11" t="s">
+        <v>26</v>
+      </c>
+      <c r="S11">
+        <v>100000</v>
       </c>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="B12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C12" t="b">
-        <v>0</v>
-      </c>
-      <c r="D12">
-        <v>1.99</v>
-      </c>
-      <c r="E12">
-        <v>2500</v>
-      </c>
-      <c r="F12" t="s">
-        <v>42</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>217</v>
+        <v>537</v>
       </c>
       <c r="H12" t="s">
         <v>24</v>
@@ -1084,7 +1114,7 @@
         <v>26</v>
       </c>
       <c r="J12">
-        <v>20000</v>
+        <v>50000</v>
       </c>
       <c r="K12" t="s">
         <v>24</v>
@@ -1093,7 +1123,7 @@
         <v>25</v>
       </c>
       <c r="M12">
-        <v>150</v>
+        <v>500</v>
       </c>
       <c r="N12" t="s">
         <v>24</v>
@@ -1102,30 +1132,21 @@
         <v>26</v>
       </c>
       <c r="P12">
-        <v>35000</v>
-      </c>
-      <c r="Q12" t="s">
-        <v>24</v>
-      </c>
-      <c r="R12" t="s">
-        <v>25</v>
-      </c>
-      <c r="S12">
-        <v>200</v>
+        <v>70000</v>
       </c>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="B13">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C13" t="b">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>394</v>
+        <v>314</v>
       </c>
       <c r="H13" t="s">
         <v>24</v>
@@ -1134,7 +1155,7 @@
         <v>25</v>
       </c>
       <c r="J13">
-        <v>150</v>
+        <v>450</v>
       </c>
       <c r="K13" t="s">
         <v>24</v>
@@ -1143,7 +1164,589 @@
         <v>26</v>
       </c>
       <c r="M13">
+        <v>60000</v>
+      </c>
+      <c r="N13" t="s">
+        <v>24</v>
+      </c>
+      <c r="O13" t="s">
+        <v>26</v>
+      </c>
+      <c r="P13">
+        <v>90000</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>24</v>
+      </c>
+      <c r="R13" t="s">
+        <v>25</v>
+      </c>
+      <c r="S13">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>45</v>
+      </c>
+      <c r="C14" t="b">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>9.99</v>
+      </c>
+      <c r="E14">
+        <v>13000</v>
+      </c>
+      <c r="F14" t="s">
+        <v>45</v>
+      </c>
+      <c r="G14">
+        <v>513</v>
+      </c>
+      <c r="H14" t="s">
+        <v>24</v>
+      </c>
+      <c r="I14" t="s">
+        <v>25</v>
+      </c>
+      <c r="J14">
+        <v>100</v>
+      </c>
+      <c r="K14" t="s">
+        <v>24</v>
+      </c>
+      <c r="L14" t="s">
+        <v>25</v>
+      </c>
+      <c r="M14">
+        <v>50</v>
+      </c>
+      <c r="N14" t="s">
+        <v>24</v>
+      </c>
+      <c r="O14" t="s">
+        <v>26</v>
+      </c>
+      <c r="P14">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>46</v>
+      </c>
+      <c r="C15" t="b">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>14.99</v>
+      </c>
+      <c r="E15">
+        <v>19000</v>
+      </c>
+      <c r="F15" t="s">
+        <v>46</v>
+      </c>
+      <c r="G15">
+        <v>981</v>
+      </c>
+      <c r="H15" t="s">
+        <v>27</v>
+      </c>
+      <c r="I15" t="s">
+        <v>57</v>
+      </c>
+      <c r="J15">
+        <v>500</v>
+      </c>
+      <c r="K15" t="s">
+        <v>24</v>
+      </c>
+      <c r="L15" t="s">
+        <v>25</v>
+      </c>
+      <c r="M15">
+        <v>75</v>
+      </c>
+      <c r="N15" t="s">
+        <v>24</v>
+      </c>
+      <c r="O15" t="s">
+        <v>26</v>
+      </c>
+      <c r="P15">
         <v>20000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>47</v>
+      </c>
+      <c r="C16" t="b">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>29.99</v>
+      </c>
+      <c r="E16">
+        <v>39000</v>
+      </c>
+      <c r="F16" t="s">
+        <v>47</v>
+      </c>
+      <c r="G16">
+        <v>112</v>
+      </c>
+      <c r="H16" t="s">
+        <v>24</v>
+      </c>
+      <c r="I16" t="s">
+        <v>25</v>
+      </c>
+      <c r="J16">
+        <v>300</v>
+      </c>
+      <c r="K16" t="s">
+        <v>24</v>
+      </c>
+      <c r="L16" t="s">
+        <v>25</v>
+      </c>
+      <c r="M16">
+        <v>100</v>
+      </c>
+      <c r="N16" t="s">
+        <v>24</v>
+      </c>
+      <c r="O16" t="s">
+        <v>26</v>
+      </c>
+      <c r="P16">
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>48</v>
+      </c>
+      <c r="C17" t="b">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>49.99</v>
+      </c>
+      <c r="E17">
+        <v>69000</v>
+      </c>
+      <c r="F17" t="s">
+        <v>48</v>
+      </c>
+      <c r="G17">
+        <v>152</v>
+      </c>
+      <c r="H17" t="s">
+        <v>27</v>
+      </c>
+      <c r="I17" t="s">
+        <v>57</v>
+      </c>
+      <c r="J17">
+        <v>1500</v>
+      </c>
+      <c r="K17" t="s">
+        <v>24</v>
+      </c>
+      <c r="L17" t="s">
+        <v>25</v>
+      </c>
+      <c r="M17">
+        <v>500</v>
+      </c>
+      <c r="N17" t="s">
+        <v>24</v>
+      </c>
+      <c r="O17" t="s">
+        <v>26</v>
+      </c>
+      <c r="P17">
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>49</v>
+      </c>
+      <c r="C18" t="b">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>9.99</v>
+      </c>
+      <c r="E18">
+        <v>13000</v>
+      </c>
+      <c r="F18" t="s">
+        <v>49</v>
+      </c>
+      <c r="G18">
+        <v>293</v>
+      </c>
+      <c r="H18" t="s">
+        <v>24</v>
+      </c>
+      <c r="I18" t="s">
+        <v>25</v>
+      </c>
+      <c r="J18">
+        <v>100</v>
+      </c>
+      <c r="K18" t="s">
+        <v>24</v>
+      </c>
+      <c r="L18" t="s">
+        <v>25</v>
+      </c>
+      <c r="M18">
+        <v>50</v>
+      </c>
+      <c r="N18" t="s">
+        <v>24</v>
+      </c>
+      <c r="O18" t="s">
+        <v>26</v>
+      </c>
+      <c r="P18">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>50</v>
+      </c>
+      <c r="C19" t="b">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>14.99</v>
+      </c>
+      <c r="E19">
+        <v>19000</v>
+      </c>
+      <c r="F19" t="s">
+        <v>50</v>
+      </c>
+      <c r="G19">
+        <v>364</v>
+      </c>
+      <c r="H19" t="s">
+        <v>27</v>
+      </c>
+      <c r="I19" t="s">
+        <v>57</v>
+      </c>
+      <c r="J19">
+        <v>400</v>
+      </c>
+      <c r="K19" t="s">
+        <v>24</v>
+      </c>
+      <c r="L19" t="s">
+        <v>25</v>
+      </c>
+      <c r="M19">
+        <v>75</v>
+      </c>
+      <c r="N19" t="s">
+        <v>24</v>
+      </c>
+      <c r="O19" t="s">
+        <v>26</v>
+      </c>
+      <c r="P19">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>51</v>
+      </c>
+      <c r="C20" t="b">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>29.99</v>
+      </c>
+      <c r="E20">
+        <v>39000</v>
+      </c>
+      <c r="F20" t="s">
+        <v>51</v>
+      </c>
+      <c r="G20">
+        <v>440</v>
+      </c>
+      <c r="H20" t="s">
+        <v>24</v>
+      </c>
+      <c r="I20" t="s">
+        <v>25</v>
+      </c>
+      <c r="J20">
+        <v>300</v>
+      </c>
+      <c r="K20" t="s">
+        <v>24</v>
+      </c>
+      <c r="L20" t="s">
+        <v>25</v>
+      </c>
+      <c r="M20">
+        <v>100</v>
+      </c>
+      <c r="N20" t="s">
+        <v>24</v>
+      </c>
+      <c r="O20" t="s">
+        <v>26</v>
+      </c>
+      <c r="P20">
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>52</v>
+      </c>
+      <c r="C21" t="b">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>49.99</v>
+      </c>
+      <c r="E21">
+        <v>69000</v>
+      </c>
+      <c r="F21" t="s">
+        <v>52</v>
+      </c>
+      <c r="G21">
+        <v>335</v>
+      </c>
+      <c r="H21" t="s">
+        <v>27</v>
+      </c>
+      <c r="I21" t="s">
+        <v>57</v>
+      </c>
+      <c r="J21">
+        <v>1200</v>
+      </c>
+      <c r="K21" t="s">
+        <v>24</v>
+      </c>
+      <c r="L21" t="s">
+        <v>25</v>
+      </c>
+      <c r="M21">
+        <v>500</v>
+      </c>
+      <c r="N21" t="s">
+        <v>24</v>
+      </c>
+      <c r="O21" t="s">
+        <v>26</v>
+      </c>
+      <c r="P21">
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>53</v>
+      </c>
+      <c r="C22" t="b">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>9.99</v>
+      </c>
+      <c r="E22">
+        <v>13000</v>
+      </c>
+      <c r="F22" t="s">
+        <v>53</v>
+      </c>
+      <c r="G22">
+        <v>349</v>
+      </c>
+      <c r="H22" t="s">
+        <v>24</v>
+      </c>
+      <c r="I22" t="s">
+        <v>25</v>
+      </c>
+      <c r="J22">
+        <v>100</v>
+      </c>
+      <c r="K22" t="s">
+        <v>24</v>
+      </c>
+      <c r="L22" t="s">
+        <v>25</v>
+      </c>
+      <c r="M22">
+        <v>50</v>
+      </c>
+      <c r="N22" t="s">
+        <v>24</v>
+      </c>
+      <c r="O22" t="s">
+        <v>26</v>
+      </c>
+      <c r="P22">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>54</v>
+      </c>
+      <c r="C23" t="b">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>14.99</v>
+      </c>
+      <c r="E23">
+        <v>19000</v>
+      </c>
+      <c r="F23" t="s">
+        <v>54</v>
+      </c>
+      <c r="G23">
+        <v>901</v>
+      </c>
+      <c r="H23" t="s">
+        <v>27</v>
+      </c>
+      <c r="I23" t="s">
+        <v>57</v>
+      </c>
+      <c r="J23">
+        <v>300</v>
+      </c>
+      <c r="K23" t="s">
+        <v>24</v>
+      </c>
+      <c r="L23" t="s">
+        <v>25</v>
+      </c>
+      <c r="M23">
+        <v>75</v>
+      </c>
+      <c r="N23" t="s">
+        <v>24</v>
+      </c>
+      <c r="O23" t="s">
+        <v>26</v>
+      </c>
+      <c r="P23">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>55</v>
+      </c>
+      <c r="C24" t="b">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>29.99</v>
+      </c>
+      <c r="E24">
+        <v>39000</v>
+      </c>
+      <c r="F24" t="s">
+        <v>55</v>
+      </c>
+      <c r="G24">
+        <v>265</v>
+      </c>
+      <c r="H24" t="s">
+        <v>24</v>
+      </c>
+      <c r="I24" t="s">
+        <v>25</v>
+      </c>
+      <c r="J24">
+        <v>300</v>
+      </c>
+      <c r="K24" t="s">
+        <v>24</v>
+      </c>
+      <c r="L24" t="s">
+        <v>25</v>
+      </c>
+      <c r="M24">
+        <v>100</v>
+      </c>
+      <c r="N24" t="s">
+        <v>24</v>
+      </c>
+      <c r="O24" t="s">
+        <v>26</v>
+      </c>
+      <c r="P24">
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>56</v>
+      </c>
+      <c r="C25" t="b">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>49.99</v>
+      </c>
+      <c r="E25">
+        <v>69000</v>
+      </c>
+      <c r="F25" t="s">
+        <v>56</v>
+      </c>
+      <c r="G25">
+        <v>820</v>
+      </c>
+      <c r="H25" t="s">
+        <v>27</v>
+      </c>
+      <c r="I25" t="s">
+        <v>57</v>
+      </c>
+      <c r="J25">
+        <v>1000</v>
+      </c>
+      <c r="K25" t="s">
+        <v>24</v>
+      </c>
+      <c r="L25" t="s">
+        <v>25</v>
+      </c>
+      <c r="M25">
+        <v>500</v>
+      </c>
+      <c r="N25" t="s">
+        <v>24</v>
+      </c>
+      <c r="O25" t="s">
+        <v>26</v>
+      </c>
+      <c r="P25">
+        <v>60000</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/Shop.xlsx
+++ b/Excel/Shop.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F327DAF9-0A56-49B7-845E-840546901486}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDC48063-CFCD-4BA4-9AB6-22110FD92F31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1A95D980-8F25-43B6-BA87-364295A77694}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="82">
   <si>
     <t>productId|String</t>
   </si>
@@ -212,6 +212,78 @@
   </si>
   <si>
     <t>Cash_sSevenTotal</t>
+  </si>
+  <si>
+    <t>cashshopenergy_1</t>
+  </si>
+  <si>
+    <t>cashshopenergy_2</t>
+  </si>
+  <si>
+    <t>cashshopenergy_3</t>
+  </si>
+  <si>
+    <t>cashshopenergy_4</t>
+  </si>
+  <si>
+    <t>cashshopenergy_5</t>
+  </si>
+  <si>
+    <t>cashshopenergy_6</t>
+  </si>
+  <si>
+    <t>cashshopenergy_1_more</t>
+  </si>
+  <si>
+    <t>cashshopenergy_2_more</t>
+  </si>
+  <si>
+    <t>cashshopenergy_3_more</t>
+  </si>
+  <si>
+    <t>cashshopenergy_4_more</t>
+  </si>
+  <si>
+    <t>cashshopenergy_5_more</t>
+  </si>
+  <si>
+    <t>cashshopenergy_6_more</t>
+  </si>
+  <si>
+    <t>cashshopgold_1</t>
+  </si>
+  <si>
+    <t>cashshopgold_2</t>
+  </si>
+  <si>
+    <t>cashshopgold_3</t>
+  </si>
+  <si>
+    <t>cashshopgold_4</t>
+  </si>
+  <si>
+    <t>cashshopgold_5</t>
+  </si>
+  <si>
+    <t>cashshopgold_6</t>
+  </si>
+  <si>
+    <t>cashshopgold_1_more</t>
+  </si>
+  <si>
+    <t>cashshopgold_2_more</t>
+  </si>
+  <si>
+    <t>cashshopgold_3_more</t>
+  </si>
+  <si>
+    <t>cashshopgold_4_more</t>
+  </si>
+  <si>
+    <t>cashshopgold_5_more</t>
+  </si>
+  <si>
+    <t>cashshopgold_6_more</t>
   </si>
 </sst>
 </file>
@@ -575,11 +647,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED115DDC-E095-4A60-B3EA-80FAE0A4BDBC}">
-  <dimension ref="A1:V25"/>
+  <dimension ref="A1:V49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1747,6 +1817,702 @@
       </c>
       <c r="P25">
         <v>60000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>58</v>
+      </c>
+      <c r="C26" t="b">
+        <v>0</v>
+      </c>
+      <c r="D26">
+        <v>0.99</v>
+      </c>
+      <c r="E26">
+        <v>1200</v>
+      </c>
+      <c r="F26" t="s">
+        <v>58</v>
+      </c>
+      <c r="G26">
+        <v>444</v>
+      </c>
+      <c r="H26" t="s">
+        <v>24</v>
+      </c>
+      <c r="I26" t="s">
+        <v>25</v>
+      </c>
+      <c r="J26">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>59</v>
+      </c>
+      <c r="C27" t="b">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>4.99</v>
+      </c>
+      <c r="E27">
+        <v>5900</v>
+      </c>
+      <c r="F27" t="s">
+        <v>59</v>
+      </c>
+      <c r="G27">
+        <v>348</v>
+      </c>
+      <c r="H27" t="s">
+        <v>24</v>
+      </c>
+      <c r="I27" t="s">
+        <v>25</v>
+      </c>
+      <c r="J27">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>60</v>
+      </c>
+      <c r="C28" t="b">
+        <v>0</v>
+      </c>
+      <c r="D28">
+        <v>9.99</v>
+      </c>
+      <c r="E28">
+        <v>12000</v>
+      </c>
+      <c r="F28" t="s">
+        <v>60</v>
+      </c>
+      <c r="G28">
+        <v>653</v>
+      </c>
+      <c r="H28" t="s">
+        <v>24</v>
+      </c>
+      <c r="I28" t="s">
+        <v>25</v>
+      </c>
+      <c r="J28">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>61</v>
+      </c>
+      <c r="C29" t="b">
+        <v>0</v>
+      </c>
+      <c r="D29">
+        <v>19.989999999999998</v>
+      </c>
+      <c r="E29">
+        <v>25000</v>
+      </c>
+      <c r="F29" t="s">
+        <v>61</v>
+      </c>
+      <c r="G29">
+        <v>487</v>
+      </c>
+      <c r="H29" t="s">
+        <v>24</v>
+      </c>
+      <c r="I29" t="s">
+        <v>25</v>
+      </c>
+      <c r="J29">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>62</v>
+      </c>
+      <c r="C30" t="b">
+        <v>0</v>
+      </c>
+      <c r="D30">
+        <v>49.99</v>
+      </c>
+      <c r="E30">
+        <v>65000</v>
+      </c>
+      <c r="F30" t="s">
+        <v>62</v>
+      </c>
+      <c r="G30">
+        <v>168</v>
+      </c>
+      <c r="H30" t="s">
+        <v>24</v>
+      </c>
+      <c r="I30" t="s">
+        <v>25</v>
+      </c>
+      <c r="J30">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>63</v>
+      </c>
+      <c r="C31" t="b">
+        <v>0</v>
+      </c>
+      <c r="D31">
+        <v>99.99</v>
+      </c>
+      <c r="E31">
+        <v>119000</v>
+      </c>
+      <c r="F31" t="s">
+        <v>63</v>
+      </c>
+      <c r="G31">
+        <v>947</v>
+      </c>
+      <c r="H31" t="s">
+        <v>24</v>
+      </c>
+      <c r="I31" t="s">
+        <v>25</v>
+      </c>
+      <c r="J31">
+        <v>3600</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>64</v>
+      </c>
+      <c r="C32" t="b">
+        <v>0</v>
+      </c>
+      <c r="D32">
+        <v>0.99</v>
+      </c>
+      <c r="E32">
+        <v>1200</v>
+      </c>
+      <c r="F32" t="s">
+        <v>64</v>
+      </c>
+      <c r="G32">
+        <v>224</v>
+      </c>
+      <c r="H32" t="s">
+        <v>24</v>
+      </c>
+      <c r="I32" t="s">
+        <v>25</v>
+      </c>
+      <c r="J32">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>65</v>
+      </c>
+      <c r="C33" t="b">
+        <v>0</v>
+      </c>
+      <c r="D33">
+        <v>4.99</v>
+      </c>
+      <c r="E33">
+        <v>5900</v>
+      </c>
+      <c r="F33" t="s">
+        <v>65</v>
+      </c>
+      <c r="G33">
+        <v>392</v>
+      </c>
+      <c r="H33" t="s">
+        <v>24</v>
+      </c>
+      <c r="I33" t="s">
+        <v>25</v>
+      </c>
+      <c r="J33">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>66</v>
+      </c>
+      <c r="C34" t="b">
+        <v>0</v>
+      </c>
+      <c r="D34">
+        <v>9.99</v>
+      </c>
+      <c r="E34">
+        <v>12000</v>
+      </c>
+      <c r="F34" t="s">
+        <v>66</v>
+      </c>
+      <c r="G34">
+        <v>759</v>
+      </c>
+      <c r="H34" t="s">
+        <v>24</v>
+      </c>
+      <c r="I34" t="s">
+        <v>25</v>
+      </c>
+      <c r="J34">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>67</v>
+      </c>
+      <c r="C35" t="b">
+        <v>0</v>
+      </c>
+      <c r="D35">
+        <v>19.989999999999998</v>
+      </c>
+      <c r="E35">
+        <v>25000</v>
+      </c>
+      <c r="F35" t="s">
+        <v>67</v>
+      </c>
+      <c r="G35">
+        <v>837</v>
+      </c>
+      <c r="H35" t="s">
+        <v>24</v>
+      </c>
+      <c r="I35" t="s">
+        <v>25</v>
+      </c>
+      <c r="J35">
+        <v>1575</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>68</v>
+      </c>
+      <c r="C36" t="b">
+        <v>0</v>
+      </c>
+      <c r="D36">
+        <v>49.99</v>
+      </c>
+      <c r="E36">
+        <v>65000</v>
+      </c>
+      <c r="F36" t="s">
+        <v>68</v>
+      </c>
+      <c r="G36">
+        <v>820</v>
+      </c>
+      <c r="H36" t="s">
+        <v>24</v>
+      </c>
+      <c r="I36" t="s">
+        <v>25</v>
+      </c>
+      <c r="J36">
+        <v>4800</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>69</v>
+      </c>
+      <c r="C37" t="b">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>99.99</v>
+      </c>
+      <c r="E37">
+        <v>119000</v>
+      </c>
+      <c r="F37" t="s">
+        <v>69</v>
+      </c>
+      <c r="G37">
+        <v>493</v>
+      </c>
+      <c r="H37" t="s">
+        <v>24</v>
+      </c>
+      <c r="I37" t="s">
+        <v>25</v>
+      </c>
+      <c r="J37">
+        <v>10800</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>70</v>
+      </c>
+      <c r="C38" t="b">
+        <v>0</v>
+      </c>
+      <c r="D38">
+        <v>0.99</v>
+      </c>
+      <c r="E38">
+        <v>1200</v>
+      </c>
+      <c r="F38" t="s">
+        <v>70</v>
+      </c>
+      <c r="G38">
+        <v>354</v>
+      </c>
+      <c r="H38" t="s">
+        <v>24</v>
+      </c>
+      <c r="I38" t="s">
+        <v>26</v>
+      </c>
+      <c r="J38">
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>71</v>
+      </c>
+      <c r="C39" t="b">
+        <v>0</v>
+      </c>
+      <c r="D39">
+        <v>4.99</v>
+      </c>
+      <c r="E39">
+        <v>5900</v>
+      </c>
+      <c r="F39" t="s">
+        <v>71</v>
+      </c>
+      <c r="G39">
+        <v>715</v>
+      </c>
+      <c r="H39" t="s">
+        <v>24</v>
+      </c>
+      <c r="I39" t="s">
+        <v>26</v>
+      </c>
+      <c r="J39">
+        <v>105000</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>72</v>
+      </c>
+      <c r="C40" t="b">
+        <v>0</v>
+      </c>
+      <c r="D40">
+        <v>9.99</v>
+      </c>
+      <c r="E40">
+        <v>12000</v>
+      </c>
+      <c r="F40" t="s">
+        <v>72</v>
+      </c>
+      <c r="G40">
+        <v>891</v>
+      </c>
+      <c r="H40" t="s">
+        <v>24</v>
+      </c>
+      <c r="I40" t="s">
+        <v>26</v>
+      </c>
+      <c r="J40">
+        <v>250000</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>73</v>
+      </c>
+      <c r="C41" t="b">
+        <v>0</v>
+      </c>
+      <c r="D41">
+        <v>19.989999999999998</v>
+      </c>
+      <c r="E41">
+        <v>25000</v>
+      </c>
+      <c r="F41" t="s">
+        <v>73</v>
+      </c>
+      <c r="G41">
+        <v>185</v>
+      </c>
+      <c r="H41" t="s">
+        <v>24</v>
+      </c>
+      <c r="I41" t="s">
+        <v>26</v>
+      </c>
+      <c r="J41">
+        <v>600000</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>74</v>
+      </c>
+      <c r="C42" t="b">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>49.99</v>
+      </c>
+      <c r="E42">
+        <v>65000</v>
+      </c>
+      <c r="F42" t="s">
+        <v>74</v>
+      </c>
+      <c r="G42">
+        <v>737</v>
+      </c>
+      <c r="H42" t="s">
+        <v>24</v>
+      </c>
+      <c r="I42" t="s">
+        <v>26</v>
+      </c>
+      <c r="J42">
+        <v>1900000</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>75</v>
+      </c>
+      <c r="C43" t="b">
+        <v>0</v>
+      </c>
+      <c r="D43">
+        <v>99.99</v>
+      </c>
+      <c r="E43">
+        <v>119000</v>
+      </c>
+      <c r="F43" t="s">
+        <v>75</v>
+      </c>
+      <c r="G43">
+        <v>574</v>
+      </c>
+      <c r="H43" t="s">
+        <v>24</v>
+      </c>
+      <c r="I43" t="s">
+        <v>26</v>
+      </c>
+      <c r="J43">
+        <v>4500000</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>76</v>
+      </c>
+      <c r="C44" t="b">
+        <v>0</v>
+      </c>
+      <c r="D44">
+        <v>0.99</v>
+      </c>
+      <c r="E44">
+        <v>1200</v>
+      </c>
+      <c r="F44" t="s">
+        <v>76</v>
+      </c>
+      <c r="G44">
+        <v>122</v>
+      </c>
+      <c r="H44" t="s">
+        <v>24</v>
+      </c>
+      <c r="I44" t="s">
+        <v>26</v>
+      </c>
+      <c r="J44">
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>77</v>
+      </c>
+      <c r="C45" t="b">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>4.99</v>
+      </c>
+      <c r="E45">
+        <v>5900</v>
+      </c>
+      <c r="F45" t="s">
+        <v>77</v>
+      </c>
+      <c r="G45">
+        <v>926</v>
+      </c>
+      <c r="H45" t="s">
+        <v>24</v>
+      </c>
+      <c r="I45" t="s">
+        <v>26</v>
+      </c>
+      <c r="J45">
+        <v>315000</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>78</v>
+      </c>
+      <c r="C46" t="b">
+        <v>0</v>
+      </c>
+      <c r="D46">
+        <v>9.99</v>
+      </c>
+      <c r="E46">
+        <v>12000</v>
+      </c>
+      <c r="F46" t="s">
+        <v>78</v>
+      </c>
+      <c r="G46">
+        <v>943</v>
+      </c>
+      <c r="H46" t="s">
+        <v>24</v>
+      </c>
+      <c r="I46" t="s">
+        <v>26</v>
+      </c>
+      <c r="J46">
+        <v>750000</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>79</v>
+      </c>
+      <c r="C47" t="b">
+        <v>0</v>
+      </c>
+      <c r="D47">
+        <v>19.989999999999998</v>
+      </c>
+      <c r="E47">
+        <v>25000</v>
+      </c>
+      <c r="F47" t="s">
+        <v>79</v>
+      </c>
+      <c r="G47">
+        <v>106</v>
+      </c>
+      <c r="H47" t="s">
+        <v>24</v>
+      </c>
+      <c r="I47" t="s">
+        <v>26</v>
+      </c>
+      <c r="J47">
+        <v>1800000</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>80</v>
+      </c>
+      <c r="C48" t="b">
+        <v>0</v>
+      </c>
+      <c r="D48">
+        <v>49.99</v>
+      </c>
+      <c r="E48">
+        <v>65000</v>
+      </c>
+      <c r="F48" t="s">
+        <v>80</v>
+      </c>
+      <c r="G48">
+        <v>402</v>
+      </c>
+      <c r="H48" t="s">
+        <v>24</v>
+      </c>
+      <c r="I48" t="s">
+        <v>26</v>
+      </c>
+      <c r="J48">
+        <v>5700000</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>81</v>
+      </c>
+      <c r="C49" t="b">
+        <v>0</v>
+      </c>
+      <c r="D49">
+        <v>99.99</v>
+      </c>
+      <c r="E49">
+        <v>119000</v>
+      </c>
+      <c r="F49" t="s">
+        <v>81</v>
+      </c>
+      <c r="G49">
+        <v>905</v>
+      </c>
+      <c r="H49" t="s">
+        <v>24</v>
+      </c>
+      <c r="I49" t="s">
+        <v>26</v>
+      </c>
+      <c r="J49">
+        <v>13500000</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/Shop.xlsx
+++ b/Excel/Shop.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDC48063-CFCD-4BA4-9AB6-22110FD92F31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0F9D1B8-7FD2-4586-8325-9674E5CF95F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1A95D980-8F25-43B6-BA87-364295A77694}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="87">
   <si>
     <t>productId|String</t>
   </si>
@@ -284,6 +284,21 @@
   </si>
   <si>
     <t>cashshopgold_6_more</t>
+  </si>
+  <si>
+    <t>petsale_1</t>
+  </si>
+  <si>
+    <t>petsale_2</t>
+  </si>
+  <si>
+    <t>petsale_3</t>
+  </si>
+  <si>
+    <t>petsale_4</t>
+  </si>
+  <si>
+    <t>petsale_5</t>
   </si>
 </sst>
 </file>
@@ -647,9 +662,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED115DDC-E095-4A60-B3EA-80FAE0A4BDBC}">
-  <dimension ref="A1:V49"/>
+  <dimension ref="A1:V54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -2513,6 +2530,106 @@
       </c>
       <c r="J49">
         <v>13500000</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>82</v>
+      </c>
+      <c r="C50" t="b">
+        <v>0</v>
+      </c>
+      <c r="D50">
+        <v>9.99</v>
+      </c>
+      <c r="E50">
+        <v>13000</v>
+      </c>
+      <c r="F50" t="s">
+        <v>82</v>
+      </c>
+      <c r="G50">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>83</v>
+      </c>
+      <c r="C51" t="b">
+        <v>0</v>
+      </c>
+      <c r="D51">
+        <v>19.989999999999998</v>
+      </c>
+      <c r="E51">
+        <v>19000</v>
+      </c>
+      <c r="F51" t="s">
+        <v>83</v>
+      </c>
+      <c r="G51">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>84</v>
+      </c>
+      <c r="C52" t="b">
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <v>29.99</v>
+      </c>
+      <c r="E52">
+        <v>39000</v>
+      </c>
+      <c r="F52" t="s">
+        <v>84</v>
+      </c>
+      <c r="G52">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>85</v>
+      </c>
+      <c r="C53" t="b">
+        <v>0</v>
+      </c>
+      <c r="D53">
+        <v>39.99</v>
+      </c>
+      <c r="E53">
+        <v>48000</v>
+      </c>
+      <c r="F53" t="s">
+        <v>85</v>
+      </c>
+      <c r="G53">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>86</v>
+      </c>
+      <c r="C54" t="b">
+        <v>0</v>
+      </c>
+      <c r="D54">
+        <v>49.99</v>
+      </c>
+      <c r="E54">
+        <v>65000</v>
+      </c>
+      <c r="F54" t="s">
+        <v>86</v>
+      </c>
+      <c r="G54">
+        <v>362</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/Shop.xlsx
+++ b/Excel/Shop.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0F9D1B8-7FD2-4586-8325-9674E5CF95F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C1CBB86-EB58-4B22-826F-029F36CD921F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1A95D980-8F25-43B6-BA87-364295A77694}"/>
+    <workbookView xWindow="-28800" yWindow="2340" windowWidth="28800" windowHeight="10350" xr2:uid="{1A95D980-8F25-43B6-BA87-364295A77694}"/>
   </bookViews>
   <sheets>
     <sheet name="ShopProductTable" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="89">
   <si>
     <t>productId|String</t>
   </si>
@@ -299,6 +299,12 @@
   </si>
   <si>
     <t>petsale_5</t>
+  </si>
+  <si>
+    <t>petcapture_better</t>
+  </si>
+  <si>
+    <t>petcapture_best</t>
   </si>
 </sst>
 </file>
@@ -662,10 +668,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED115DDC-E095-4A60-B3EA-80FAE0A4BDBC}">
-  <dimension ref="A1:V54"/>
+  <dimension ref="A1:V56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="A56" sqref="A56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2630,6 +2636,46 @@
       </c>
       <c r="G54">
         <v>362</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>87</v>
+      </c>
+      <c r="C55" t="b">
+        <v>0</v>
+      </c>
+      <c r="D55">
+        <v>0.99</v>
+      </c>
+      <c r="E55">
+        <v>1200</v>
+      </c>
+      <c r="F55" t="s">
+        <v>87</v>
+      </c>
+      <c r="G55">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>88</v>
+      </c>
+      <c r="C56" t="b">
+        <v>0</v>
+      </c>
+      <c r="D56">
+        <v>4.99</v>
+      </c>
+      <c r="E56">
+        <v>5900</v>
+      </c>
+      <c r="F56" t="s">
+        <v>88</v>
+      </c>
+      <c r="G56">
+        <v>715</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/Shop.xlsx
+++ b/Excel/Shop.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C1CBB86-EB58-4B22-826F-029F36CD921F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0670FD2-910A-42E2-AFC5-8350634FC120}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28800" yWindow="2340" windowWidth="28800" windowHeight="10350" xr2:uid="{1A95D980-8F25-43B6-BA87-364295A77694}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{1A95D980-8F25-43B6-BA87-364295A77694}"/>
   </bookViews>
   <sheets>
     <sheet name="ShopProductTable" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="91">
   <si>
     <t>productId|String</t>
   </si>
@@ -305,6 +305,12 @@
   </si>
   <si>
     <t>petcapture_best</t>
+  </si>
+  <si>
+    <t>Cash_sPetSale</t>
+  </si>
+  <si>
+    <t>CashName_sPetSale</t>
   </si>
 </sst>
 </file>
@@ -670,7 +676,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED115DDC-E095-4A60-B3EA-80FAE0A4BDBC}">
   <dimension ref="A1:V56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A56" sqref="A56"/>
     </sheetView>
   </sheetViews>
@@ -2788,9 +2794,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A538EB96-EB04-4826-9AF0-A58A4FE56B38}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -2814,6 +2822,14 @@
         <v>32</v>
       </c>
     </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B3" t="s">
+        <v>90</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel/Shop.xlsx
+++ b/Excel/Shop.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNameless\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0670FD2-910A-42E2-AFC5-8350634FC120}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B362E39-E30B-4A2C-AA36-D943ED675569}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{1A95D980-8F25-43B6-BA87-364295A77694}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="12345" windowHeight="8055" activeTab="2" xr2:uid="{1A95D980-8F25-43B6-BA87-364295A77694}"/>
   </bookViews>
   <sheets>
     <sheet name="ShopProductTable" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="93">
   <si>
     <t>productId|String</t>
   </si>
@@ -311,6 +311,12 @@
   </si>
   <si>
     <t>CashName_sPetSale</t>
+  </si>
+  <si>
+    <t>Cash_sFortuneWheel</t>
+  </si>
+  <si>
+    <t>CashName_sFortuneWheel</t>
   </si>
 </sst>
 </file>
@@ -2794,10 +2800,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A538EB96-EB04-4826-9AF0-A58A4FE56B38}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2830,6 +2836,14 @@
         <v>90</v>
       </c>
     </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>91</v>
+      </c>
+      <c r="B4" t="s">
+        <v>92</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel/Shop.xlsx
+++ b/Excel/Shop.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B362E39-E30B-4A2C-AA36-D943ED675569}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85620E60-F56B-47D4-9CE7-331B4CAC250E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="12345" windowHeight="8055" activeTab="2" xr2:uid="{1A95D980-8F25-43B6-BA87-364295A77694}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{1A95D980-8F25-43B6-BA87-364295A77694}"/>
   </bookViews>
   <sheets>
     <sheet name="ShopProductTable" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="537" uniqueCount="126">
   <si>
     <t>productId|String</t>
   </si>
@@ -48,12 +48,6 @@
   </si>
   <si>
     <t>serverItemId|String</t>
-  </si>
-  <si>
-    <t>test_levelpass</t>
-  </si>
-  <si>
-    <t>test_bigboost</t>
   </si>
   <si>
     <t>level|Int</t>
@@ -211,9 +205,6 @@
     <t>seventotalgroup3_4</t>
   </si>
   <si>
-    <t>Cash_sSevenTotal</t>
-  </si>
-  <si>
     <t>cashshopenergy_1</t>
   </si>
   <si>
@@ -317,6 +308,114 @@
   </si>
   <si>
     <t>CashName_sFortuneWheel</t>
+  </si>
+  <si>
+    <t>Item_cCaptureBetter</t>
+  </si>
+  <si>
+    <t>Item_cCaptureBest</t>
+  </si>
+  <si>
+    <t>festival_1</t>
+  </si>
+  <si>
+    <t>festival_2</t>
+  </si>
+  <si>
+    <t>festival_3</t>
+  </si>
+  <si>
+    <t>festival_4</t>
+  </si>
+  <si>
+    <t>stageclear_1</t>
+  </si>
+  <si>
+    <t>stageclear_2</t>
+  </si>
+  <si>
+    <t>stageclear_3</t>
+  </si>
+  <si>
+    <t>stageclear_5</t>
+  </si>
+  <si>
+    <t>stageclear_10</t>
+  </si>
+  <si>
+    <t>dailygem_1</t>
+  </si>
+  <si>
+    <t>Item_cDailyGem</t>
+  </si>
+  <si>
+    <t>DI</t>
+  </si>
+  <si>
+    <t>researchboost_1</t>
+  </si>
+  <si>
+    <t>Cash_sResearchBoost</t>
+  </si>
+  <si>
+    <t>relay_1</t>
+  </si>
+  <si>
+    <t>relay_2</t>
+  </si>
+  <si>
+    <t>relay_3</t>
+  </si>
+  <si>
+    <t>relay_4</t>
+  </si>
+  <si>
+    <t>relay_5</t>
+  </si>
+  <si>
+    <t>relay_6</t>
+  </si>
+  <si>
+    <t>relay_7</t>
+  </si>
+  <si>
+    <t>relay_8</t>
+  </si>
+  <si>
+    <t>relay_9</t>
+  </si>
+  <si>
+    <t>relay_10</t>
+  </si>
+  <si>
+    <t>autonew_1</t>
+  </si>
+  <si>
+    <t>Cash_sAutoNew</t>
+  </si>
+  <si>
+    <t>Item_cSevenTotal</t>
+  </si>
+  <si>
+    <t>levelpass</t>
+  </si>
+  <si>
+    <t>bigboost</t>
+  </si>
+  <si>
+    <t>brokenenergy</t>
+  </si>
+  <si>
+    <t>fortunewheel</t>
+  </si>
+  <si>
+    <t>Cash_sSevenSlot1</t>
+  </si>
+  <si>
+    <t>Cash_sSevenSlot3</t>
+  </si>
+  <si>
+    <t>Item_cFestival</t>
   </si>
 </sst>
 </file>
@@ -680,10 +779,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED115DDC-E095-4A60-B3EA-80FAE0A4BDBC}">
-  <dimension ref="A1:V56"/>
+  <dimension ref="A1:V80"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A56" sqref="A56"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -705,10 +804,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D1" t="s">
         <v>1</v>
@@ -720,57 +819,57 @@
         <v>3</v>
       </c>
       <c r="G1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
         <v>9</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>10</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>11</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>12</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>13</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
         <v>14</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
         <v>15</v>
       </c>
-      <c r="O1" t="s">
+      <c r="Q1" t="s">
         <v>16</v>
       </c>
-      <c r="P1" t="s">
+      <c r="R1" t="s">
         <v>17</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="S1" t="s">
         <v>18</v>
       </c>
-      <c r="R1" t="s">
+      <c r="T1" t="s">
         <v>19</v>
       </c>
-      <c r="S1" t="s">
+      <c r="U1" t="s">
         <v>20</v>
       </c>
-      <c r="T1" t="s">
+      <c r="V1" t="s">
         <v>21</v>
-      </c>
-      <c r="U1" t="s">
-        <v>22</v>
-      </c>
-      <c r="V1" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>119</v>
       </c>
       <c r="C2" t="b">
         <v>0</v>
@@ -782,16 +881,16 @@
         <v>13000</v>
       </c>
       <c r="F2" t="s">
-        <v>4</v>
+        <v>119</v>
       </c>
       <c r="G2">
         <v>434</v>
       </c>
       <c r="H2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="I2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="J2">
         <v>1</v>
@@ -799,7 +898,7 @@
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>120</v>
       </c>
       <c r="C3" t="b">
         <v>0</v>
@@ -811,25 +910,25 @@
         <v>13000</v>
       </c>
       <c r="F3" t="s">
-        <v>5</v>
+        <v>120</v>
       </c>
       <c r="G3">
         <v>806</v>
       </c>
       <c r="H3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J3">
         <v>600</v>
       </c>
       <c r="K3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="L3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="M3">
         <v>50000</v>
@@ -837,1862 +936,3081 @@
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>37</v>
+        <v>121</v>
       </c>
       <c r="C4" t="b">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>14.99</v>
+        <v>4.99</v>
       </c>
       <c r="E4">
-        <v>19000</v>
+        <v>6500</v>
       </c>
       <c r="F4" t="s">
-        <v>37</v>
+        <v>121</v>
       </c>
       <c r="G4">
-        <v>876</v>
+        <v>256</v>
       </c>
       <c r="H4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I4" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="J4">
-        <v>30</v>
-      </c>
-      <c r="K4" t="s">
-        <v>24</v>
-      </c>
-      <c r="L4" t="s">
-        <v>26</v>
-      </c>
-      <c r="M4">
-        <v>25000</v>
-      </c>
-      <c r="N4" t="s">
-        <v>24</v>
-      </c>
-      <c r="O4" t="s">
-        <v>25</v>
-      </c>
-      <c r="P4">
-        <v>100</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C5" t="b">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>29.99</v>
+        <v>14.99</v>
       </c>
       <c r="E5">
-        <v>39000</v>
+        <v>19000</v>
       </c>
       <c r="F5" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G5">
-        <v>973</v>
+        <v>876</v>
       </c>
       <c r="H5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J5">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="K5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="L5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="M5">
-        <v>15000</v>
+        <v>25000</v>
       </c>
       <c r="N5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="O5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="P5">
-        <v>120</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C6" t="b">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>49.99</v>
+        <v>29.99</v>
       </c>
       <c r="E6">
-        <v>69000</v>
+        <v>39000</v>
       </c>
       <c r="F6" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G6">
-        <v>180</v>
+        <v>973</v>
       </c>
       <c r="H6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J6">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="K6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="L6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="M6">
-        <v>30000</v>
+        <v>15000</v>
       </c>
       <c r="N6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="O6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="P6">
-        <v>150</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>24</v>
-      </c>
-      <c r="R6" t="s">
-        <v>25</v>
-      </c>
-      <c r="S6">
-        <v>300</v>
+        <v>120</v>
       </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>40</v>
-      </c>
-      <c r="B7">
-        <v>1</v>
+        <v>37</v>
       </c>
       <c r="C7" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>49.99</v>
+      </c>
+      <c r="E7">
+        <v>69000</v>
+      </c>
+      <c r="F7" t="s">
+        <v>37</v>
       </c>
       <c r="G7">
-        <v>721</v>
+        <v>180</v>
       </c>
       <c r="H7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J7">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="K7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="L7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="M7">
-        <v>35000</v>
+        <v>30000</v>
       </c>
       <c r="N7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="O7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="P7">
-        <v>170</v>
+        <v>150</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>22</v>
+      </c>
+      <c r="R7" t="s">
+        <v>23</v>
+      </c>
+      <c r="S7">
+        <v>300</v>
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C8" t="b">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>884</v>
+        <v>721</v>
       </c>
       <c r="H8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J8">
-        <v>150</v>
+        <v>80</v>
+      </c>
+      <c r="K8" t="s">
+        <v>22</v>
+      </c>
+      <c r="L8" t="s">
+        <v>24</v>
+      </c>
+      <c r="M8">
+        <v>35000</v>
+      </c>
+      <c r="N8" t="s">
+        <v>22</v>
+      </c>
+      <c r="O8" t="s">
+        <v>23</v>
+      </c>
+      <c r="P8">
+        <v>170</v>
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C9" t="b">
-        <v>0</v>
-      </c>
-      <c r="D9">
-        <v>1.99</v>
-      </c>
-      <c r="E9">
-        <v>2500</v>
-      </c>
-      <c r="F9" t="s">
-        <v>42</v>
+        <v>1</v>
       </c>
       <c r="G9">
-        <v>217</v>
+        <v>884</v>
       </c>
       <c r="H9" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I9" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="J9">
-        <v>20000</v>
-      </c>
-      <c r="K9" t="s">
-        <v>24</v>
-      </c>
-      <c r="L9" t="s">
-        <v>25</v>
-      </c>
-      <c r="M9">
         <v>150</v>
-      </c>
-      <c r="N9" t="s">
-        <v>24</v>
-      </c>
-      <c r="O9" t="s">
-        <v>26</v>
-      </c>
-      <c r="P9">
-        <v>35000</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>24</v>
-      </c>
-      <c r="R9" t="s">
-        <v>25</v>
-      </c>
-      <c r="S9">
-        <v>200</v>
       </c>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B10">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C10" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>1.99</v>
+      </c>
+      <c r="E10">
+        <v>2500</v>
+      </c>
+      <c r="F10" t="s">
+        <v>40</v>
       </c>
       <c r="G10">
-        <v>394</v>
+        <v>217</v>
       </c>
       <c r="H10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J10">
+        <v>20000</v>
+      </c>
+      <c r="K10" t="s">
+        <v>22</v>
+      </c>
+      <c r="L10" t="s">
+        <v>23</v>
+      </c>
+      <c r="M10">
         <v>150</v>
       </c>
-      <c r="K10" t="s">
-        <v>24</v>
-      </c>
-      <c r="L10" t="s">
-        <v>26</v>
-      </c>
-      <c r="M10">
-        <v>20000</v>
+      <c r="N10" t="s">
+        <v>22</v>
+      </c>
+      <c r="O10" t="s">
+        <v>24</v>
+      </c>
+      <c r="P10">
+        <v>35000</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>22</v>
+      </c>
+      <c r="R10" t="s">
+        <v>23</v>
+      </c>
+      <c r="S10">
+        <v>200</v>
       </c>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="B11">
+        <v>4</v>
+      </c>
+      <c r="C11" t="b">
         <v>1</v>
       </c>
-      <c r="C11" t="b">
-        <v>0</v>
-      </c>
-      <c r="D11">
-        <v>19.989999999999998</v>
-      </c>
-      <c r="E11">
-        <v>25000</v>
-      </c>
-      <c r="F11" t="s">
-        <v>34</v>
-      </c>
       <c r="G11">
-        <v>548</v>
+        <v>394</v>
       </c>
       <c r="H11" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I11" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J11">
-        <v>350</v>
+        <v>150</v>
       </c>
       <c r="K11" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="L11" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="M11">
-        <v>80000</v>
-      </c>
-      <c r="N11" t="s">
-        <v>24</v>
-      </c>
-      <c r="O11" t="s">
-        <v>25</v>
-      </c>
-      <c r="P11">
-        <v>800</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>24</v>
-      </c>
-      <c r="R11" t="s">
-        <v>26</v>
-      </c>
-      <c r="S11">
-        <v>100000</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C12" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>19.989999999999998</v>
+      </c>
+      <c r="E12">
+        <v>25000</v>
+      </c>
+      <c r="F12" t="s">
+        <v>32</v>
       </c>
       <c r="G12">
-        <v>537</v>
+        <v>548</v>
       </c>
       <c r="H12" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I12" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="J12">
-        <v>50000</v>
+        <v>350</v>
       </c>
       <c r="K12" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="L12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M12">
-        <v>500</v>
+        <v>80000</v>
       </c>
       <c r="N12" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="O12" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="P12">
-        <v>70000</v>
+        <v>800</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>22</v>
+      </c>
+      <c r="R12" t="s">
+        <v>24</v>
+      </c>
+      <c r="S12">
+        <v>100000</v>
       </c>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C13" t="b">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>314</v>
+        <v>537</v>
       </c>
       <c r="H13" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J13">
-        <v>450</v>
+        <v>50000</v>
       </c>
       <c r="K13" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="L13" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="M13">
-        <v>60000</v>
+        <v>500</v>
       </c>
       <c r="N13" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="O13" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="P13">
-        <v>90000</v>
-      </c>
-      <c r="Q13" t="s">
-        <v>24</v>
-      </c>
-      <c r="R13" t="s">
-        <v>25</v>
-      </c>
-      <c r="S13">
-        <v>650</v>
+        <v>70000</v>
       </c>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>45</v>
+        <v>34</v>
+      </c>
+      <c r="B14">
+        <v>3</v>
       </c>
       <c r="C14" t="b">
-        <v>0</v>
-      </c>
-      <c r="D14">
-        <v>9.99</v>
-      </c>
-      <c r="E14">
-        <v>13000</v>
-      </c>
-      <c r="F14" t="s">
-        <v>45</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>513</v>
+        <v>314</v>
       </c>
       <c r="H14" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I14" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J14">
-        <v>100</v>
+        <v>450</v>
       </c>
       <c r="K14" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="L14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M14">
-        <v>50</v>
+        <v>60000</v>
       </c>
       <c r="N14" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="O14" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="P14">
-        <v>10000</v>
+        <v>90000</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>22</v>
+      </c>
+      <c r="R14" t="s">
+        <v>23</v>
+      </c>
+      <c r="S14">
+        <v>650</v>
       </c>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>46</v>
+        <v>122</v>
       </c>
       <c r="C15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D15">
-        <v>14.99</v>
+        <v>0.99</v>
       </c>
       <c r="E15">
-        <v>19000</v>
+        <v>1200</v>
       </c>
       <c r="F15" t="s">
-        <v>46</v>
+        <v>122</v>
       </c>
       <c r="G15">
-        <v>981</v>
+        <v>741</v>
       </c>
       <c r="H15" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="I15" t="s">
-        <v>57</v>
+        <v>88</v>
       </c>
       <c r="J15">
-        <v>500</v>
-      </c>
-      <c r="K15" t="s">
-        <v>24</v>
-      </c>
-      <c r="L15" t="s">
-        <v>25</v>
-      </c>
-      <c r="M15">
-        <v>75</v>
-      </c>
-      <c r="N15" t="s">
-        <v>24</v>
-      </c>
-      <c r="O15" t="s">
-        <v>26</v>
-      </c>
-      <c r="P15">
-        <v>20000</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C16" t="b">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>29.99</v>
+        <v>9.99</v>
       </c>
       <c r="E16">
-        <v>39000</v>
+        <v>13000</v>
       </c>
       <c r="F16" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="G16">
-        <v>112</v>
+        <v>513</v>
       </c>
       <c r="H16" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I16" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J16">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="K16" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="L16" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="M16">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N16" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="O16" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="P16">
-        <v>40000</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C17" t="b">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>49.99</v>
+        <v>14.99</v>
       </c>
       <c r="E17">
-        <v>69000</v>
+        <v>19000</v>
       </c>
       <c r="F17" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="G17">
-        <v>152</v>
+        <v>981</v>
       </c>
       <c r="H17" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="I17" t="s">
-        <v>57</v>
+        <v>123</v>
       </c>
       <c r="J17">
-        <v>1500</v>
+        <v>1</v>
       </c>
       <c r="K17" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="L17" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="M17">
-        <v>500</v>
+        <v>75</v>
       </c>
       <c r="N17" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="O17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="P17">
-        <v>60000</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C18" t="b">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>9.99</v>
+        <v>29.99</v>
       </c>
       <c r="E18">
-        <v>13000</v>
+        <v>39000</v>
       </c>
       <c r="F18" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="G18">
-        <v>293</v>
+        <v>112</v>
       </c>
       <c r="H18" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I18" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J18">
+        <v>300</v>
+      </c>
+      <c r="K18" t="s">
+        <v>22</v>
+      </c>
+      <c r="L18" t="s">
+        <v>23</v>
+      </c>
+      <c r="M18">
         <v>100</v>
       </c>
-      <c r="K18" t="s">
-        <v>24</v>
-      </c>
-      <c r="L18" t="s">
-        <v>25</v>
-      </c>
-      <c r="M18">
-        <v>50</v>
-      </c>
       <c r="N18" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="O18" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="P18">
-        <v>10000</v>
+        <v>40000</v>
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C19" t="b">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>14.99</v>
+        <v>49.99</v>
       </c>
       <c r="E19">
-        <v>19000</v>
+        <v>69000</v>
       </c>
       <c r="F19" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="G19">
-        <v>364</v>
+        <v>152</v>
       </c>
       <c r="H19" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="I19" t="s">
-        <v>57</v>
+        <v>124</v>
       </c>
       <c r="J19">
-        <v>400</v>
+        <v>1</v>
       </c>
       <c r="K19" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="L19" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="M19">
-        <v>75</v>
+        <v>500</v>
       </c>
       <c r="N19" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="O19" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="P19">
-        <v>20000</v>
+        <v>60000</v>
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C20" t="b">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>29.99</v>
+        <v>9.99</v>
       </c>
       <c r="E20">
-        <v>39000</v>
+        <v>13000</v>
       </c>
       <c r="F20" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="G20">
-        <v>440</v>
+        <v>293</v>
       </c>
       <c r="H20" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I20" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J20">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="K20" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="L20" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="M20">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N20" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="O20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="P20">
-        <v>40000</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C21" t="b">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>49.99</v>
+        <v>14.99</v>
       </c>
       <c r="E21">
-        <v>69000</v>
+        <v>19000</v>
       </c>
       <c r="F21" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="G21">
-        <v>335</v>
+        <v>364</v>
       </c>
       <c r="H21" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="I21" t="s">
-        <v>57</v>
+        <v>118</v>
       </c>
       <c r="J21">
-        <v>1200</v>
+        <v>400</v>
       </c>
       <c r="K21" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="L21" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="M21">
-        <v>500</v>
+        <v>75</v>
       </c>
       <c r="N21" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="O21" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="P21">
-        <v>60000</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C22" t="b">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>9.99</v>
+        <v>29.99</v>
       </c>
       <c r="E22">
-        <v>13000</v>
+        <v>39000</v>
       </c>
       <c r="F22" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="G22">
-        <v>349</v>
+        <v>440</v>
       </c>
       <c r="H22" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I22" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J22">
+        <v>300</v>
+      </c>
+      <c r="K22" t="s">
+        <v>22</v>
+      </c>
+      <c r="L22" t="s">
+        <v>23</v>
+      </c>
+      <c r="M22">
         <v>100</v>
       </c>
-      <c r="K22" t="s">
-        <v>24</v>
-      </c>
-      <c r="L22" t="s">
-        <v>25</v>
-      </c>
-      <c r="M22">
-        <v>50</v>
-      </c>
       <c r="N22" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="O22" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="P22">
-        <v>10000</v>
+        <v>40000</v>
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C23" t="b">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>14.99</v>
+        <v>49.99</v>
       </c>
       <c r="E23">
-        <v>19000</v>
+        <v>69000</v>
       </c>
       <c r="F23" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="G23">
-        <v>901</v>
+        <v>335</v>
       </c>
       <c r="H23" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="I23" t="s">
-        <v>57</v>
+        <v>118</v>
       </c>
       <c r="J23">
-        <v>300</v>
+        <v>1200</v>
       </c>
       <c r="K23" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="L23" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="M23">
-        <v>75</v>
+        <v>500</v>
       </c>
       <c r="N23" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="O23" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="P23">
-        <v>20000</v>
+        <v>60000</v>
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C24" t="b">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>29.99</v>
+        <v>9.99</v>
       </c>
       <c r="E24">
-        <v>39000</v>
+        <v>13000</v>
       </c>
       <c r="F24" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="G24">
-        <v>265</v>
+        <v>349</v>
       </c>
       <c r="H24" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I24" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J24">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="K24" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="L24" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="M24">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N24" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="O24" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="P24">
-        <v>40000</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C25" t="b">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>49.99</v>
+        <v>14.99</v>
       </c>
       <c r="E25">
-        <v>69000</v>
+        <v>19000</v>
       </c>
       <c r="F25" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="G25">
-        <v>820</v>
+        <v>901</v>
       </c>
       <c r="H25" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="I25" t="s">
-        <v>57</v>
+        <v>118</v>
       </c>
       <c r="J25">
-        <v>1000</v>
+        <v>300</v>
       </c>
       <c r="K25" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="L25" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="M25">
-        <v>500</v>
+        <v>75</v>
       </c>
       <c r="N25" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="O25" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="P25">
-        <v>60000</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="C26" t="b">
         <v>0</v>
       </c>
       <c r="D26">
-        <v>0.99</v>
+        <v>29.99</v>
       </c>
       <c r="E26">
-        <v>1200</v>
+        <v>39000</v>
       </c>
       <c r="F26" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="G26">
-        <v>444</v>
+        <v>265</v>
       </c>
       <c r="H26" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I26" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J26">
-        <v>30</v>
+        <v>300</v>
+      </c>
+      <c r="K26" t="s">
+        <v>22</v>
+      </c>
+      <c r="L26" t="s">
+        <v>23</v>
+      </c>
+      <c r="M26">
+        <v>100</v>
+      </c>
+      <c r="N26" t="s">
+        <v>22</v>
+      </c>
+      <c r="O26" t="s">
+        <v>24</v>
+      </c>
+      <c r="P26">
+        <v>40000</v>
       </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C27" t="b">
         <v>0</v>
       </c>
       <c r="D27">
-        <v>4.99</v>
+        <v>49.99</v>
       </c>
       <c r="E27">
-        <v>5900</v>
+        <v>69000</v>
       </c>
       <c r="F27" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="G27">
-        <v>348</v>
+        <v>820</v>
       </c>
       <c r="H27" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I27" t="s">
-        <v>25</v>
+        <v>118</v>
       </c>
       <c r="J27">
-        <v>90</v>
+        <v>1000</v>
+      </c>
+      <c r="K27" t="s">
+        <v>22</v>
+      </c>
+      <c r="L27" t="s">
+        <v>23</v>
+      </c>
+      <c r="M27">
+        <v>500</v>
+      </c>
+      <c r="N27" t="s">
+        <v>22</v>
+      </c>
+      <c r="O27" t="s">
+        <v>24</v>
+      </c>
+      <c r="P27">
+        <v>60000</v>
       </c>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="C28" t="b">
         <v>0</v>
       </c>
       <c r="D28">
-        <v>9.99</v>
+        <v>0.99</v>
       </c>
       <c r="E28">
-        <v>12000</v>
+        <v>1200</v>
       </c>
       <c r="F28" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="G28">
-        <v>653</v>
+        <v>444</v>
       </c>
       <c r="H28" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I28" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J28">
-        <v>260</v>
+        <v>30</v>
       </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="C29" t="b">
         <v>0</v>
       </c>
       <c r="D29">
-        <v>19.989999999999998</v>
+        <v>4.99</v>
       </c>
       <c r="E29">
-        <v>25000</v>
+        <v>5900</v>
       </c>
       <c r="F29" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="G29">
-        <v>487</v>
+        <v>348</v>
       </c>
       <c r="H29" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I29" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J29">
-        <v>525</v>
+        <v>90</v>
       </c>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="C30" t="b">
         <v>0</v>
       </c>
       <c r="D30">
-        <v>49.99</v>
+        <v>9.99</v>
       </c>
       <c r="E30">
-        <v>65000</v>
+        <v>12000</v>
       </c>
       <c r="F30" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="G30">
-        <v>168</v>
+        <v>653</v>
       </c>
       <c r="H30" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I30" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J30">
-        <v>1600</v>
+        <v>260</v>
       </c>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="C31" t="b">
         <v>0</v>
       </c>
       <c r="D31">
-        <v>99.99</v>
+        <v>19.989999999999998</v>
       </c>
       <c r="E31">
-        <v>119000</v>
+        <v>25000</v>
       </c>
       <c r="F31" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="G31">
-        <v>947</v>
+        <v>487</v>
       </c>
       <c r="H31" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I31" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J31">
-        <v>3600</v>
+        <v>525</v>
       </c>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="C32" t="b">
         <v>0</v>
       </c>
       <c r="D32">
-        <v>0.99</v>
+        <v>49.99</v>
       </c>
       <c r="E32">
-        <v>1200</v>
+        <v>65000</v>
       </c>
       <c r="F32" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="G32">
-        <v>224</v>
+        <v>168</v>
       </c>
       <c r="H32" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I32" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J32">
-        <v>90</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C33" t="b">
         <v>0</v>
       </c>
       <c r="D33">
-        <v>4.99</v>
+        <v>99.99</v>
       </c>
       <c r="E33">
-        <v>5900</v>
+        <v>119000</v>
       </c>
       <c r="F33" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="G33">
-        <v>392</v>
+        <v>947</v>
       </c>
       <c r="H33" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I33" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J33">
-        <v>270</v>
+        <v>3600</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="C34" t="b">
         <v>0</v>
       </c>
       <c r="D34">
-        <v>9.99</v>
+        <v>0.99</v>
       </c>
       <c r="E34">
-        <v>12000</v>
+        <v>1200</v>
       </c>
       <c r="F34" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="G34">
-        <v>759</v>
+        <v>224</v>
       </c>
       <c r="H34" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I34" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J34">
-        <v>780</v>
+        <v>90</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C35" t="b">
         <v>0</v>
       </c>
       <c r="D35">
-        <v>19.989999999999998</v>
+        <v>4.99</v>
       </c>
       <c r="E35">
-        <v>25000</v>
+        <v>5900</v>
       </c>
       <c r="F35" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="G35">
-        <v>837</v>
+        <v>392</v>
       </c>
       <c r="H35" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I35" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J35">
-        <v>1575</v>
+        <v>270</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="C36" t="b">
         <v>0</v>
       </c>
       <c r="D36">
-        <v>49.99</v>
+        <v>9.99</v>
       </c>
       <c r="E36">
-        <v>65000</v>
+        <v>12000</v>
       </c>
       <c r="F36" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="G36">
-        <v>820</v>
+        <v>759</v>
       </c>
       <c r="H36" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I36" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J36">
-        <v>4800</v>
+        <v>780</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="C37" t="b">
         <v>0</v>
       </c>
       <c r="D37">
-        <v>99.99</v>
+        <v>19.989999999999998</v>
       </c>
       <c r="E37">
-        <v>119000</v>
+        <v>25000</v>
       </c>
       <c r="F37" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="G37">
-        <v>493</v>
+        <v>837</v>
       </c>
       <c r="H37" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I37" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J37">
-        <v>10800</v>
+        <v>1575</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="C38" t="b">
         <v>0</v>
       </c>
       <c r="D38">
-        <v>0.99</v>
+        <v>49.99</v>
       </c>
       <c r="E38">
-        <v>1200</v>
+        <v>65000</v>
       </c>
       <c r="F38" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="G38">
-        <v>354</v>
+        <v>820</v>
       </c>
       <c r="H38" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I38" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="J38">
-        <v>40000</v>
+        <v>4800</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C39" t="b">
         <v>0</v>
       </c>
       <c r="D39">
-        <v>4.99</v>
+        <v>99.99</v>
       </c>
       <c r="E39">
-        <v>5900</v>
+        <v>119000</v>
       </c>
       <c r="F39" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="G39">
-        <v>715</v>
+        <v>493</v>
       </c>
       <c r="H39" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I39" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="J39">
-        <v>105000</v>
+        <v>10800</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="C40" t="b">
         <v>0</v>
       </c>
       <c r="D40">
-        <v>9.99</v>
+        <v>0.99</v>
       </c>
       <c r="E40">
-        <v>12000</v>
+        <v>1200</v>
       </c>
       <c r="F40" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="G40">
-        <v>891</v>
+        <v>354</v>
       </c>
       <c r="H40" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I40" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J40">
-        <v>250000</v>
+        <v>40000</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C41" t="b">
         <v>0</v>
       </c>
       <c r="D41">
-        <v>19.989999999999998</v>
+        <v>4.99</v>
       </c>
       <c r="E41">
-        <v>25000</v>
+        <v>5900</v>
       </c>
       <c r="F41" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="G41">
-        <v>185</v>
+        <v>715</v>
       </c>
       <c r="H41" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I41" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J41">
-        <v>600000</v>
+        <v>105000</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="C42" t="b">
         <v>0</v>
       </c>
       <c r="D42">
-        <v>49.99</v>
+        <v>9.99</v>
       </c>
       <c r="E42">
-        <v>65000</v>
+        <v>12000</v>
       </c>
       <c r="F42" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="G42">
-        <v>737</v>
+        <v>891</v>
       </c>
       <c r="H42" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I42" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J42">
-        <v>1900000</v>
+        <v>250000</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="C43" t="b">
         <v>0</v>
       </c>
       <c r="D43">
-        <v>99.99</v>
+        <v>19.989999999999998</v>
       </c>
       <c r="E43">
-        <v>119000</v>
+        <v>25000</v>
       </c>
       <c r="F43" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="G43">
-        <v>574</v>
+        <v>185</v>
       </c>
       <c r="H43" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I43" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J43">
-        <v>4500000</v>
+        <v>600000</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="C44" t="b">
         <v>0</v>
       </c>
       <c r="D44">
-        <v>0.99</v>
+        <v>49.99</v>
       </c>
       <c r="E44">
-        <v>1200</v>
+        <v>65000</v>
       </c>
       <c r="F44" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="G44">
-        <v>122</v>
+        <v>737</v>
       </c>
       <c r="H44" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I44" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J44">
-        <v>120000</v>
+        <v>1900000</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="C45" t="b">
         <v>0</v>
       </c>
       <c r="D45">
-        <v>4.99</v>
+        <v>99.99</v>
       </c>
       <c r="E45">
-        <v>5900</v>
+        <v>119000</v>
       </c>
       <c r="F45" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="G45">
-        <v>926</v>
+        <v>574</v>
       </c>
       <c r="H45" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I45" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J45">
-        <v>315000</v>
+        <v>4500000</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="C46" t="b">
         <v>0</v>
       </c>
       <c r="D46">
-        <v>9.99</v>
+        <v>0.99</v>
       </c>
       <c r="E46">
-        <v>12000</v>
+        <v>1200</v>
       </c>
       <c r="F46" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="G46">
-        <v>943</v>
+        <v>122</v>
       </c>
       <c r="H46" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I46" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J46">
-        <v>750000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="C47" t="b">
         <v>0</v>
       </c>
       <c r="D47">
-        <v>19.989999999999998</v>
+        <v>4.99</v>
       </c>
       <c r="E47">
-        <v>25000</v>
+        <v>5900</v>
       </c>
       <c r="F47" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="G47">
-        <v>106</v>
+        <v>926</v>
       </c>
       <c r="H47" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I47" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J47">
-        <v>1800000</v>
+        <v>315000</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
+        <v>75</v>
+      </c>
+      <c r="C48" t="b">
+        <v>0</v>
+      </c>
+      <c r="D48">
+        <v>9.99</v>
+      </c>
+      <c r="E48">
+        <v>12000</v>
+      </c>
+      <c r="F48" t="s">
+        <v>75</v>
+      </c>
+      <c r="G48">
+        <v>943</v>
+      </c>
+      <c r="H48" t="s">
+        <v>22</v>
+      </c>
+      <c r="I48" t="s">
+        <v>24</v>
+      </c>
+      <c r="J48">
+        <v>750000</v>
+      </c>
+    </row>
+    <row r="49" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>76</v>
+      </c>
+      <c r="C49" t="b">
+        <v>0</v>
+      </c>
+      <c r="D49">
+        <v>19.989999999999998</v>
+      </c>
+      <c r="E49">
+        <v>25000</v>
+      </c>
+      <c r="F49" t="s">
+        <v>76</v>
+      </c>
+      <c r="G49">
+        <v>106</v>
+      </c>
+      <c r="H49" t="s">
+        <v>22</v>
+      </c>
+      <c r="I49" t="s">
+        <v>24</v>
+      </c>
+      <c r="J49">
+        <v>1800000</v>
+      </c>
+    </row>
+    <row r="50" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>77</v>
+      </c>
+      <c r="C50" t="b">
+        <v>0</v>
+      </c>
+      <c r="D50">
+        <v>49.99</v>
+      </c>
+      <c r="E50">
+        <v>65000</v>
+      </c>
+      <c r="F50" t="s">
+        <v>77</v>
+      </c>
+      <c r="G50">
+        <v>402</v>
+      </c>
+      <c r="H50" t="s">
+        <v>22</v>
+      </c>
+      <c r="I50" t="s">
+        <v>24</v>
+      </c>
+      <c r="J50">
+        <v>5700000</v>
+      </c>
+    </row>
+    <row r="51" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>78</v>
+      </c>
+      <c r="C51" t="b">
+        <v>0</v>
+      </c>
+      <c r="D51">
+        <v>99.99</v>
+      </c>
+      <c r="E51">
+        <v>119000</v>
+      </c>
+      <c r="F51" t="s">
+        <v>78</v>
+      </c>
+      <c r="G51">
+        <v>905</v>
+      </c>
+      <c r="H51" t="s">
+        <v>22</v>
+      </c>
+      <c r="I51" t="s">
+        <v>24</v>
+      </c>
+      <c r="J51">
+        <v>13500000</v>
+      </c>
+    </row>
+    <row r="52" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>79</v>
+      </c>
+      <c r="C52" t="b">
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <v>9.99</v>
+      </c>
+      <c r="E52">
+        <v>13000</v>
+      </c>
+      <c r="F52" t="s">
+        <v>79</v>
+      </c>
+      <c r="G52">
+        <v>375</v>
+      </c>
+      <c r="H52" t="s">
+        <v>25</v>
+      </c>
+      <c r="I52" t="s">
+        <v>86</v>
+      </c>
+      <c r="J52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
         <v>80</v>
       </c>
-      <c r="C48" t="b">
-        <v>0</v>
-      </c>
-      <c r="D48">
+      <c r="C53" t="b">
+        <v>0</v>
+      </c>
+      <c r="D53">
+        <v>19.989999999999998</v>
+      </c>
+      <c r="E53">
+        <v>19000</v>
+      </c>
+      <c r="F53" t="s">
+        <v>80</v>
+      </c>
+      <c r="G53">
+        <v>368</v>
+      </c>
+      <c r="H53" t="s">
+        <v>25</v>
+      </c>
+      <c r="I53" t="s">
+        <v>86</v>
+      </c>
+      <c r="J53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>81</v>
+      </c>
+      <c r="C54" t="b">
+        <v>0</v>
+      </c>
+      <c r="D54">
+        <v>29.99</v>
+      </c>
+      <c r="E54">
+        <v>39000</v>
+      </c>
+      <c r="F54" t="s">
+        <v>81</v>
+      </c>
+      <c r="G54">
+        <v>481</v>
+      </c>
+      <c r="H54" t="s">
+        <v>25</v>
+      </c>
+      <c r="I54" t="s">
+        <v>86</v>
+      </c>
+      <c r="J54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>82</v>
+      </c>
+      <c r="C55" t="b">
+        <v>0</v>
+      </c>
+      <c r="D55">
+        <v>39.99</v>
+      </c>
+      <c r="E55">
+        <v>48000</v>
+      </c>
+      <c r="F55" t="s">
+        <v>82</v>
+      </c>
+      <c r="G55">
+        <v>420</v>
+      </c>
+      <c r="H55" t="s">
+        <v>25</v>
+      </c>
+      <c r="I55" t="s">
+        <v>86</v>
+      </c>
+      <c r="J55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>83</v>
+      </c>
+      <c r="C56" t="b">
+        <v>0</v>
+      </c>
+      <c r="D56">
         <v>49.99</v>
       </c>
-      <c r="E48">
+      <c r="E56">
         <v>65000</v>
       </c>
-      <c r="F48" t="s">
-        <v>80</v>
-      </c>
-      <c r="G48">
-        <v>402</v>
-      </c>
-      <c r="H48" t="s">
-        <v>24</v>
-      </c>
-      <c r="I48" t="s">
-        <v>26</v>
-      </c>
-      <c r="J48">
-        <v>5700000</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A49" t="s">
-        <v>81</v>
-      </c>
-      <c r="C49" t="b">
-        <v>0</v>
-      </c>
-      <c r="D49">
+      <c r="F56" t="s">
+        <v>83</v>
+      </c>
+      <c r="G56">
+        <v>362</v>
+      </c>
+      <c r="H56" t="s">
+        <v>25</v>
+      </c>
+      <c r="I56" t="s">
+        <v>86</v>
+      </c>
+      <c r="J56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>84</v>
+      </c>
+      <c r="C57" t="b">
+        <v>0</v>
+      </c>
+      <c r="D57">
+        <v>0.99</v>
+      </c>
+      <c r="E57">
+        <v>1200</v>
+      </c>
+      <c r="F57" t="s">
+        <v>84</v>
+      </c>
+      <c r="G57">
+        <v>654</v>
+      </c>
+      <c r="H57" t="s">
+        <v>25</v>
+      </c>
+      <c r="I57" t="s">
+        <v>90</v>
+      </c>
+      <c r="J57">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>85</v>
+      </c>
+      <c r="C58" t="b">
+        <v>0</v>
+      </c>
+      <c r="D58">
+        <v>4.99</v>
+      </c>
+      <c r="E58">
+        <v>5900</v>
+      </c>
+      <c r="F58" t="s">
+        <v>85</v>
+      </c>
+      <c r="G58">
+        <v>715</v>
+      </c>
+      <c r="H58" t="s">
+        <v>25</v>
+      </c>
+      <c r="I58" t="s">
+        <v>91</v>
+      </c>
+      <c r="J58">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>92</v>
+      </c>
+      <c r="C59" t="b">
+        <v>0</v>
+      </c>
+      <c r="D59">
+        <v>9.99</v>
+      </c>
+      <c r="E59">
+        <v>13000</v>
+      </c>
+      <c r="F59" t="s">
+        <v>92</v>
+      </c>
+      <c r="G59">
+        <v>127</v>
+      </c>
+      <c r="H59" t="s">
+        <v>25</v>
+      </c>
+      <c r="I59" t="s">
+        <v>125</v>
+      </c>
+      <c r="J59">
+        <v>500</v>
+      </c>
+      <c r="K59" t="s">
+        <v>22</v>
+      </c>
+      <c r="L59" t="s">
+        <v>23</v>
+      </c>
+      <c r="M59">
+        <v>75</v>
+      </c>
+      <c r="N59" t="s">
+        <v>22</v>
+      </c>
+      <c r="O59" t="s">
+        <v>24</v>
+      </c>
+      <c r="P59">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="60" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>93</v>
+      </c>
+      <c r="C60" t="b">
+        <v>0</v>
+      </c>
+      <c r="D60">
+        <v>14.99</v>
+      </c>
+      <c r="E60">
+        <v>19000</v>
+      </c>
+      <c r="F60" t="s">
+        <v>93</v>
+      </c>
+      <c r="G60">
+        <v>194</v>
+      </c>
+      <c r="H60" t="s">
+        <v>22</v>
+      </c>
+      <c r="I60" t="s">
+        <v>23</v>
+      </c>
+      <c r="J60">
+        <v>300</v>
+      </c>
+      <c r="K60" t="s">
+        <v>22</v>
+      </c>
+      <c r="L60" t="s">
+        <v>23</v>
+      </c>
+      <c r="M60">
+        <v>100</v>
+      </c>
+      <c r="N60" t="s">
+        <v>22</v>
+      </c>
+      <c r="O60" t="s">
+        <v>24</v>
+      </c>
+      <c r="P60">
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="61" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>94</v>
+      </c>
+      <c r="C61" t="b">
+        <v>0</v>
+      </c>
+      <c r="D61">
+        <v>29.99</v>
+      </c>
+      <c r="E61">
+        <v>39000</v>
+      </c>
+      <c r="F61" t="s">
+        <v>94</v>
+      </c>
+      <c r="G61">
+        <v>970</v>
+      </c>
+      <c r="H61" t="s">
+        <v>25</v>
+      </c>
+      <c r="I61" t="s">
+        <v>125</v>
+      </c>
+      <c r="J61">
+        <v>1500</v>
+      </c>
+      <c r="K61" t="s">
+        <v>22</v>
+      </c>
+      <c r="L61" t="s">
+        <v>23</v>
+      </c>
+      <c r="M61">
+        <v>500</v>
+      </c>
+      <c r="N61" t="s">
+        <v>22</v>
+      </c>
+      <c r="O61" t="s">
+        <v>24</v>
+      </c>
+      <c r="P61">
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="62" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>95</v>
+      </c>
+      <c r="C62" t="b">
+        <v>0</v>
+      </c>
+      <c r="D62">
+        <v>49.99</v>
+      </c>
+      <c r="E62">
+        <v>69000</v>
+      </c>
+      <c r="F62" t="s">
+        <v>95</v>
+      </c>
+      <c r="G62">
+        <v>874</v>
+      </c>
+      <c r="H62" t="s">
+        <v>22</v>
+      </c>
+      <c r="I62" t="s">
+        <v>23</v>
+      </c>
+      <c r="J62">
+        <v>100</v>
+      </c>
+      <c r="K62" t="s">
+        <v>22</v>
+      </c>
+      <c r="L62" t="s">
+        <v>23</v>
+      </c>
+      <c r="M62">
+        <v>50</v>
+      </c>
+      <c r="N62" t="s">
+        <v>22</v>
+      </c>
+      <c r="O62" t="s">
+        <v>24</v>
+      </c>
+      <c r="P62">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="63" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>96</v>
+      </c>
+      <c r="C63" t="b">
+        <v>0</v>
+      </c>
+      <c r="D63">
+        <v>0.99</v>
+      </c>
+      <c r="E63">
+        <v>1200</v>
+      </c>
+      <c r="F63" t="s">
+        <v>96</v>
+      </c>
+      <c r="G63">
+        <v>668</v>
+      </c>
+      <c r="H63" t="s">
+        <v>22</v>
+      </c>
+      <c r="I63" t="s">
+        <v>23</v>
+      </c>
+      <c r="J63">
+        <v>30</v>
+      </c>
+      <c r="K63" t="s">
+        <v>22</v>
+      </c>
+      <c r="L63" t="s">
+        <v>24</v>
+      </c>
+      <c r="M63">
+        <v>25000</v>
+      </c>
+      <c r="N63" t="s">
+        <v>22</v>
+      </c>
+      <c r="O63" t="s">
+        <v>23</v>
+      </c>
+      <c r="P63">
+        <v>100</v>
+      </c>
+      <c r="Q63" t="s">
+        <v>22</v>
+      </c>
+      <c r="R63" t="s">
+        <v>24</v>
+      </c>
+      <c r="S63">
+        <v>35000</v>
+      </c>
+    </row>
+    <row r="64" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>97</v>
+      </c>
+      <c r="C64" t="b">
+        <v>0</v>
+      </c>
+      <c r="D64">
+        <v>4.99</v>
+      </c>
+      <c r="E64">
+        <v>5900</v>
+      </c>
+      <c r="F64" t="s">
+        <v>97</v>
+      </c>
+      <c r="G64">
+        <v>188</v>
+      </c>
+      <c r="H64" t="s">
+        <v>22</v>
+      </c>
+      <c r="I64" t="s">
+        <v>23</v>
+      </c>
+      <c r="J64">
+        <v>60</v>
+      </c>
+      <c r="K64" t="s">
+        <v>22</v>
+      </c>
+      <c r="L64" t="s">
+        <v>24</v>
+      </c>
+      <c r="M64">
+        <v>15000</v>
+      </c>
+      <c r="N64" t="s">
+        <v>22</v>
+      </c>
+      <c r="O64" t="s">
+        <v>23</v>
+      </c>
+      <c r="P64">
+        <v>120</v>
+      </c>
+      <c r="Q64" t="s">
+        <v>22</v>
+      </c>
+      <c r="R64" t="s">
+        <v>24</v>
+      </c>
+      <c r="S64">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="65" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>98</v>
+      </c>
+      <c r="C65" t="b">
+        <v>0</v>
+      </c>
+      <c r="D65">
+        <v>9.99</v>
+      </c>
+      <c r="E65">
+        <v>13000</v>
+      </c>
+      <c r="F65" t="s">
+        <v>98</v>
+      </c>
+      <c r="G65">
+        <v>284</v>
+      </c>
+      <c r="H65" t="s">
+        <v>22</v>
+      </c>
+      <c r="I65" t="s">
+        <v>23</v>
+      </c>
+      <c r="J65">
+        <v>90</v>
+      </c>
+      <c r="K65" t="s">
+        <v>22</v>
+      </c>
+      <c r="L65" t="s">
+        <v>24</v>
+      </c>
+      <c r="M65">
+        <v>30000</v>
+      </c>
+      <c r="N65" t="s">
+        <v>22</v>
+      </c>
+      <c r="O65" t="s">
+        <v>23</v>
+      </c>
+      <c r="P65">
+        <v>150</v>
+      </c>
+      <c r="Q65" t="s">
+        <v>22</v>
+      </c>
+      <c r="R65" t="s">
+        <v>23</v>
+      </c>
+      <c r="S65">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="66" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>99</v>
+      </c>
+      <c r="C66" t="b">
+        <v>0</v>
+      </c>
+      <c r="D66">
+        <v>9.99</v>
+      </c>
+      <c r="E66">
+        <v>13000</v>
+      </c>
+      <c r="F66" t="s">
+        <v>99</v>
+      </c>
+      <c r="G66">
+        <v>953</v>
+      </c>
+      <c r="H66" t="s">
+        <v>22</v>
+      </c>
+      <c r="I66" t="s">
+        <v>23</v>
+      </c>
+      <c r="J66">
+        <v>120</v>
+      </c>
+      <c r="K66" t="s">
+        <v>22</v>
+      </c>
+      <c r="L66" t="s">
+        <v>24</v>
+      </c>
+      <c r="M66">
+        <v>50000</v>
+      </c>
+      <c r="N66" t="s">
+        <v>22</v>
+      </c>
+      <c r="O66" t="s">
+        <v>23</v>
+      </c>
+      <c r="P66">
+        <v>120</v>
+      </c>
+      <c r="Q66" t="s">
+        <v>22</v>
+      </c>
+      <c r="R66" t="s">
+        <v>24</v>
+      </c>
+      <c r="S66">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="67" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>100</v>
+      </c>
+      <c r="C67" t="b">
+        <v>0</v>
+      </c>
+      <c r="D67">
+        <v>9.99</v>
+      </c>
+      <c r="E67">
+        <v>13000</v>
+      </c>
+      <c r="F67" t="s">
+        <v>100</v>
+      </c>
+      <c r="G67">
+        <v>660</v>
+      </c>
+      <c r="H67" t="s">
+        <v>22</v>
+      </c>
+      <c r="I67" t="s">
+        <v>23</v>
+      </c>
+      <c r="J67">
+        <v>150</v>
+      </c>
+      <c r="K67" t="s">
+        <v>22</v>
+      </c>
+      <c r="L67" t="s">
+        <v>24</v>
+      </c>
+      <c r="M67">
+        <v>90000</v>
+      </c>
+      <c r="N67" t="s">
+        <v>22</v>
+      </c>
+      <c r="O67" t="s">
+        <v>23</v>
+      </c>
+      <c r="P67">
+        <v>150</v>
+      </c>
+      <c r="Q67" t="s">
+        <v>22</v>
+      </c>
+      <c r="R67" t="s">
+        <v>23</v>
+      </c>
+      <c r="S67">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="68" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>101</v>
+      </c>
+      <c r="C68" t="b">
+        <v>0</v>
+      </c>
+      <c r="D68">
+        <v>4.99</v>
+      </c>
+      <c r="E68">
+        <v>5900</v>
+      </c>
+      <c r="F68" t="s">
+        <v>101</v>
+      </c>
+      <c r="G68">
+        <v>456</v>
+      </c>
+      <c r="H68" t="s">
+        <v>25</v>
+      </c>
+      <c r="I68" t="s">
+        <v>102</v>
+      </c>
+      <c r="J68">
+        <v>15</v>
+      </c>
+      <c r="K68" t="s">
+        <v>22</v>
+      </c>
+      <c r="L68" t="s">
+        <v>103</v>
+      </c>
+      <c r="M68">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="69" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>104</v>
+      </c>
+      <c r="C69" t="b">
+        <v>0</v>
+      </c>
+      <c r="D69">
+        <v>4.99</v>
+      </c>
+      <c r="E69">
+        <v>5900</v>
+      </c>
+      <c r="F69" t="s">
+        <v>104</v>
+      </c>
+      <c r="G69">
+        <v>664</v>
+      </c>
+      <c r="H69" t="s">
+        <v>25</v>
+      </c>
+      <c r="I69" t="s">
+        <v>105</v>
+      </c>
+      <c r="J69">
+        <v>1</v>
+      </c>
+      <c r="K69" t="s">
+        <v>22</v>
+      </c>
+      <c r="L69" t="s">
+        <v>23</v>
+      </c>
+      <c r="M69">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="70" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>106</v>
+      </c>
+      <c r="C70" t="b">
+        <v>0</v>
+      </c>
+      <c r="D70">
+        <v>0.99</v>
+      </c>
+      <c r="E70">
+        <v>1200</v>
+      </c>
+      <c r="F70" t="s">
+        <v>106</v>
+      </c>
+      <c r="G70">
+        <v>126</v>
+      </c>
+      <c r="H70" t="s">
+        <v>22</v>
+      </c>
+      <c r="I70" t="s">
+        <v>23</v>
+      </c>
+      <c r="J70">
+        <v>30</v>
+      </c>
+      <c r="K70" t="s">
+        <v>22</v>
+      </c>
+      <c r="L70" t="s">
+        <v>24</v>
+      </c>
+      <c r="M70">
+        <v>25000</v>
+      </c>
+      <c r="N70" t="s">
+        <v>22</v>
+      </c>
+      <c r="O70" t="s">
+        <v>23</v>
+      </c>
+      <c r="P70">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="71" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>107</v>
+      </c>
+      <c r="C71" t="b">
+        <v>0</v>
+      </c>
+      <c r="D71">
+        <v>0.99</v>
+      </c>
+      <c r="E71">
+        <v>1200</v>
+      </c>
+      <c r="F71" t="s">
+        <v>107</v>
+      </c>
+      <c r="G71">
+        <v>484</v>
+      </c>
+      <c r="H71" t="s">
+        <v>22</v>
+      </c>
+      <c r="I71" t="s">
+        <v>23</v>
+      </c>
+      <c r="J71">
+        <v>60</v>
+      </c>
+      <c r="K71" t="s">
+        <v>22</v>
+      </c>
+      <c r="L71" t="s">
+        <v>24</v>
+      </c>
+      <c r="M71">
+        <v>15000</v>
+      </c>
+      <c r="N71" t="s">
+        <v>22</v>
+      </c>
+      <c r="O71" t="s">
+        <v>23</v>
+      </c>
+      <c r="P71">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="72" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>108</v>
+      </c>
+      <c r="C72" t="b">
+        <v>0</v>
+      </c>
+      <c r="D72">
+        <v>0.99</v>
+      </c>
+      <c r="E72">
+        <v>1200</v>
+      </c>
+      <c r="F72" t="s">
+        <v>108</v>
+      </c>
+      <c r="G72">
+        <v>584</v>
+      </c>
+      <c r="H72" t="s">
+        <v>22</v>
+      </c>
+      <c r="I72" t="s">
+        <v>23</v>
+      </c>
+      <c r="J72">
+        <v>90</v>
+      </c>
+      <c r="K72" t="s">
+        <v>22</v>
+      </c>
+      <c r="L72" t="s">
+        <v>24</v>
+      </c>
+      <c r="M72">
+        <v>30000</v>
+      </c>
+      <c r="N72" t="s">
+        <v>22</v>
+      </c>
+      <c r="O72" t="s">
+        <v>23</v>
+      </c>
+      <c r="P72">
+        <v>150</v>
+      </c>
+      <c r="Q72" t="s">
+        <v>22</v>
+      </c>
+      <c r="R72" t="s">
+        <v>23</v>
+      </c>
+      <c r="S72">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="73" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>109</v>
+      </c>
+      <c r="C73" t="b">
+        <v>0</v>
+      </c>
+      <c r="D73">
+        <v>4.99</v>
+      </c>
+      <c r="E73">
+        <v>5900</v>
+      </c>
+      <c r="F73" t="s">
+        <v>109</v>
+      </c>
+      <c r="G73">
+        <v>456</v>
+      </c>
+      <c r="H73" t="s">
+        <v>22</v>
+      </c>
+      <c r="I73" t="s">
+        <v>23</v>
+      </c>
+      <c r="J73">
+        <v>30</v>
+      </c>
+      <c r="K73" t="s">
+        <v>22</v>
+      </c>
+      <c r="L73" t="s">
+        <v>24</v>
+      </c>
+      <c r="M73">
+        <v>25000</v>
+      </c>
+      <c r="N73" t="s">
+        <v>22</v>
+      </c>
+      <c r="O73" t="s">
+        <v>23</v>
+      </c>
+      <c r="P73">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="74" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>110</v>
+      </c>
+      <c r="C74" t="b">
+        <v>0</v>
+      </c>
+      <c r="D74">
+        <v>4.99</v>
+      </c>
+      <c r="E74">
+        <v>5900</v>
+      </c>
+      <c r="F74" t="s">
+        <v>110</v>
+      </c>
+      <c r="G74">
+        <v>574</v>
+      </c>
+      <c r="H74" t="s">
+        <v>22</v>
+      </c>
+      <c r="I74" t="s">
+        <v>23</v>
+      </c>
+      <c r="J74">
+        <v>60</v>
+      </c>
+      <c r="K74" t="s">
+        <v>22</v>
+      </c>
+      <c r="L74" t="s">
+        <v>24</v>
+      </c>
+      <c r="M74">
+        <v>15000</v>
+      </c>
+      <c r="N74" t="s">
+        <v>22</v>
+      </c>
+      <c r="O74" t="s">
+        <v>23</v>
+      </c>
+      <c r="P74">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="75" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>111</v>
+      </c>
+      <c r="C75" t="b">
+        <v>0</v>
+      </c>
+      <c r="D75">
+        <v>9.99</v>
+      </c>
+      <c r="E75">
+        <v>13000</v>
+      </c>
+      <c r="F75" t="s">
+        <v>111</v>
+      </c>
+      <c r="G75">
+        <v>117</v>
+      </c>
+      <c r="H75" t="s">
+        <v>22</v>
+      </c>
+      <c r="I75" t="s">
+        <v>23</v>
+      </c>
+      <c r="J75">
+        <v>90</v>
+      </c>
+      <c r="K75" t="s">
+        <v>22</v>
+      </c>
+      <c r="L75" t="s">
+        <v>24</v>
+      </c>
+      <c r="M75">
+        <v>30000</v>
+      </c>
+      <c r="N75" t="s">
+        <v>22</v>
+      </c>
+      <c r="O75" t="s">
+        <v>23</v>
+      </c>
+      <c r="P75">
+        <v>150</v>
+      </c>
+      <c r="Q75" t="s">
+        <v>22</v>
+      </c>
+      <c r="R75" t="s">
+        <v>23</v>
+      </c>
+      <c r="S75">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="76" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>112</v>
+      </c>
+      <c r="C76" t="b">
+        <v>0</v>
+      </c>
+      <c r="D76">
+        <v>9.99</v>
+      </c>
+      <c r="E76">
+        <v>13000</v>
+      </c>
+      <c r="F76" t="s">
+        <v>112</v>
+      </c>
+      <c r="G76">
+        <v>206</v>
+      </c>
+      <c r="H76" t="s">
+        <v>22</v>
+      </c>
+      <c r="I76" t="s">
+        <v>23</v>
+      </c>
+      <c r="J76">
+        <v>30</v>
+      </c>
+      <c r="K76" t="s">
+        <v>22</v>
+      </c>
+      <c r="L76" t="s">
+        <v>24</v>
+      </c>
+      <c r="M76">
+        <v>25000</v>
+      </c>
+      <c r="N76" t="s">
+        <v>22</v>
+      </c>
+      <c r="O76" t="s">
+        <v>23</v>
+      </c>
+      <c r="P76">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="77" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>113</v>
+      </c>
+      <c r="C77" t="b">
+        <v>0</v>
+      </c>
+      <c r="D77">
+        <v>19.989999999999998</v>
+      </c>
+      <c r="E77">
+        <v>25000</v>
+      </c>
+      <c r="F77" t="s">
+        <v>113</v>
+      </c>
+      <c r="G77">
+        <v>464</v>
+      </c>
+      <c r="H77" t="s">
+        <v>22</v>
+      </c>
+      <c r="I77" t="s">
+        <v>23</v>
+      </c>
+      <c r="J77">
+        <v>30</v>
+      </c>
+      <c r="K77" t="s">
+        <v>22</v>
+      </c>
+      <c r="L77" t="s">
+        <v>24</v>
+      </c>
+      <c r="M77">
+        <v>25000</v>
+      </c>
+      <c r="N77" t="s">
+        <v>22</v>
+      </c>
+      <c r="O77" t="s">
+        <v>23</v>
+      </c>
+      <c r="P77">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="78" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>114</v>
+      </c>
+      <c r="C78" t="b">
+        <v>0</v>
+      </c>
+      <c r="D78">
+        <v>39.99</v>
+      </c>
+      <c r="E78">
+        <v>48000</v>
+      </c>
+      <c r="F78" t="s">
+        <v>114</v>
+      </c>
+      <c r="G78">
+        <v>836</v>
+      </c>
+      <c r="H78" t="s">
+        <v>22</v>
+      </c>
+      <c r="I78" t="s">
+        <v>23</v>
+      </c>
+      <c r="J78">
+        <v>60</v>
+      </c>
+      <c r="K78" t="s">
+        <v>22</v>
+      </c>
+      <c r="L78" t="s">
+        <v>24</v>
+      </c>
+      <c r="M78">
+        <v>15000</v>
+      </c>
+      <c r="N78" t="s">
+        <v>22</v>
+      </c>
+      <c r="O78" t="s">
+        <v>23</v>
+      </c>
+      <c r="P78">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="79" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>115</v>
+      </c>
+      <c r="C79" t="b">
+        <v>0</v>
+      </c>
+      <c r="D79">
+        <v>49.99</v>
+      </c>
+      <c r="E79">
+        <v>69000</v>
+      </c>
+      <c r="F79" t="s">
+        <v>115</v>
+      </c>
+      <c r="G79">
+        <v>475</v>
+      </c>
+      <c r="H79" t="s">
+        <v>22</v>
+      </c>
+      <c r="I79" t="s">
+        <v>23</v>
+      </c>
+      <c r="J79">
+        <v>90</v>
+      </c>
+      <c r="K79" t="s">
+        <v>22</v>
+      </c>
+      <c r="L79" t="s">
+        <v>24</v>
+      </c>
+      <c r="M79">
+        <v>30000</v>
+      </c>
+      <c r="N79" t="s">
+        <v>22</v>
+      </c>
+      <c r="O79" t="s">
+        <v>23</v>
+      </c>
+      <c r="P79">
+        <v>150</v>
+      </c>
+      <c r="Q79" t="s">
+        <v>22</v>
+      </c>
+      <c r="R79" t="s">
+        <v>23</v>
+      </c>
+      <c r="S79">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="80" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>116</v>
+      </c>
+      <c r="C80" t="b">
+        <v>0</v>
+      </c>
+      <c r="D80">
         <v>99.99</v>
       </c>
-      <c r="E49">
-        <v>119000</v>
-      </c>
-      <c r="F49" t="s">
-        <v>81</v>
-      </c>
-      <c r="G49">
-        <v>905</v>
-      </c>
-      <c r="H49" t="s">
-        <v>24</v>
-      </c>
-      <c r="I49" t="s">
-        <v>26</v>
-      </c>
-      <c r="J49">
-        <v>13500000</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A50" t="s">
-        <v>82</v>
-      </c>
-      <c r="C50" t="b">
-        <v>0</v>
-      </c>
-      <c r="D50">
-        <v>9.99</v>
-      </c>
-      <c r="E50">
-        <v>13000</v>
-      </c>
-      <c r="F50" t="s">
-        <v>82</v>
-      </c>
-      <c r="G50">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A51" t="s">
-        <v>83</v>
-      </c>
-      <c r="C51" t="b">
-        <v>0</v>
-      </c>
-      <c r="D51">
-        <v>19.989999999999998</v>
-      </c>
-      <c r="E51">
-        <v>19000</v>
-      </c>
-      <c r="F51" t="s">
-        <v>83</v>
-      </c>
-      <c r="G51">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A52" t="s">
-        <v>84</v>
-      </c>
-      <c r="C52" t="b">
-        <v>0</v>
-      </c>
-      <c r="D52">
-        <v>29.99</v>
-      </c>
-      <c r="E52">
-        <v>39000</v>
-      </c>
-      <c r="F52" t="s">
-        <v>84</v>
-      </c>
-      <c r="G52">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A53" t="s">
-        <v>85</v>
-      </c>
-      <c r="C53" t="b">
-        <v>0</v>
-      </c>
-      <c r="D53">
-        <v>39.99</v>
-      </c>
-      <c r="E53">
-        <v>48000</v>
-      </c>
-      <c r="F53" t="s">
-        <v>85</v>
-      </c>
-      <c r="G53">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A54" t="s">
-        <v>86</v>
-      </c>
-      <c r="C54" t="b">
-        <v>0</v>
-      </c>
-      <c r="D54">
-        <v>49.99</v>
-      </c>
-      <c r="E54">
-        <v>65000</v>
-      </c>
-      <c r="F54" t="s">
-        <v>86</v>
-      </c>
-      <c r="G54">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A55" t="s">
-        <v>87</v>
-      </c>
-      <c r="C55" t="b">
-        <v>0</v>
-      </c>
-      <c r="D55">
-        <v>0.99</v>
-      </c>
-      <c r="E55">
-        <v>1200</v>
-      </c>
-      <c r="F55" t="s">
-        <v>87</v>
-      </c>
-      <c r="G55">
-        <v>654</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A56" t="s">
-        <v>88</v>
-      </c>
-      <c r="C56" t="b">
-        <v>0</v>
-      </c>
-      <c r="D56">
-        <v>4.99</v>
-      </c>
-      <c r="E56">
-        <v>5900</v>
-      </c>
-      <c r="F56" t="s">
-        <v>88</v>
-      </c>
-      <c r="G56">
-        <v>715</v>
+      <c r="E80">
+        <v>109000</v>
+      </c>
+      <c r="F80" t="s">
+        <v>116</v>
+      </c>
+      <c r="G80">
+        <v>360</v>
+      </c>
+      <c r="H80" t="s">
+        <v>25</v>
+      </c>
+      <c r="I80" t="s">
+        <v>117</v>
+      </c>
+      <c r="J80">
+        <v>1</v>
+      </c>
+      <c r="K80" t="s">
+        <v>22</v>
+      </c>
+      <c r="L80" t="s">
+        <v>23</v>
+      </c>
+      <c r="M80">
+        <v>1000</v>
+      </c>
+      <c r="N80" t="s">
+        <v>22</v>
+      </c>
+      <c r="O80" t="s">
+        <v>24</v>
+      </c>
+      <c r="P80">
+        <v>25000</v>
+      </c>
+      <c r="Q80" t="s">
+        <v>22</v>
+      </c>
+      <c r="R80" t="s">
+        <v>103</v>
+      </c>
+      <c r="S80">
+        <v>750</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2706,10 +4024,10 @@
   <sheetData>
     <row r="1" spans="1:2" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -2802,7 +4120,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A538EB96-EB04-4826-9AF0-A58A4FE56B38}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -2814,34 +4132,34 @@
   <sheetData>
     <row r="1" spans="1:2" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B3" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B4" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/Shop.xlsx
+++ b/Excel/Shop.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85620E60-F56B-47D4-9CE7-331B4CAC250E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6005884-C045-4E67-AA6B-89111BA58FC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{1A95D980-8F25-43B6-BA87-364295A77694}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="537" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="601" uniqueCount="134">
   <si>
     <t>productId|String</t>
   </si>
@@ -316,18 +316,6 @@
     <t>Item_cCaptureBest</t>
   </si>
   <si>
-    <t>festival_1</t>
-  </si>
-  <si>
-    <t>festival_2</t>
-  </si>
-  <si>
-    <t>festival_3</t>
-  </si>
-  <si>
-    <t>festival_4</t>
-  </si>
-  <si>
     <t>stageclear_1</t>
   </si>
   <si>
@@ -343,18 +331,12 @@
     <t>stageclear_10</t>
   </si>
   <si>
-    <t>dailygem_1</t>
-  </si>
-  <si>
     <t>Item_cDailyGem</t>
   </si>
   <si>
     <t>DI</t>
   </si>
   <si>
-    <t>researchboost_1</t>
-  </si>
-  <si>
     <t>Cash_sResearchBoost</t>
   </si>
   <si>
@@ -400,9 +382,6 @@
     <t>levelpass</t>
   </si>
   <si>
-    <t>bigboost</t>
-  </si>
-  <si>
     <t>brokenenergy</t>
   </si>
   <si>
@@ -416,6 +395,51 @@
   </si>
   <si>
     <t>Item_cFestival</t>
+  </si>
+  <si>
+    <t>ev1_bigboost</t>
+  </si>
+  <si>
+    <t>festivalgroup1_1</t>
+  </si>
+  <si>
+    <t>festivalgroup1_2</t>
+  </si>
+  <si>
+    <t>festivalgroup1_3</t>
+  </si>
+  <si>
+    <t>festivalgroup1_4</t>
+  </si>
+  <si>
+    <t>festivalgroup2_1</t>
+  </si>
+  <si>
+    <t>festivalgroup2_2</t>
+  </si>
+  <si>
+    <t>festivalgroup2_3</t>
+  </si>
+  <si>
+    <t>festivalgroup2_4</t>
+  </si>
+  <si>
+    <t>festivalgroup3_1</t>
+  </si>
+  <si>
+    <t>festivalgroup3_2</t>
+  </si>
+  <si>
+    <t>festivalgroup3_3</t>
+  </si>
+  <si>
+    <t>festivalgroup3_4</t>
+  </si>
+  <si>
+    <t>dailygem</t>
+  </si>
+  <si>
+    <t>researchboost</t>
   </si>
 </sst>
 </file>
@@ -779,7 +803,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED115DDC-E095-4A60-B3EA-80FAE0A4BDBC}">
-  <dimension ref="A1:V80"/>
+  <dimension ref="A1:V88"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -869,7 +893,7 @@
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="C2" t="b">
         <v>0</v>
@@ -881,7 +905,7 @@
         <v>13000</v>
       </c>
       <c r="F2" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="G2">
         <v>434</v>
@@ -898,7 +922,7 @@
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C3" t="b">
         <v>0</v>
@@ -910,7 +934,7 @@
         <v>13000</v>
       </c>
       <c r="F3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G3">
         <v>806</v>
@@ -936,7 +960,7 @@
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="C4" t="b">
         <v>0</v>
@@ -948,7 +972,7 @@
         <v>6500</v>
       </c>
       <c r="F4" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="G4">
         <v>256</v>
@@ -1420,10 +1444,10 @@
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="C15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D15">
         <v>0.99</v>
@@ -1432,7 +1456,7 @@
         <v>1200</v>
       </c>
       <c r="F15" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="G15">
         <v>741</v>
@@ -1517,7 +1541,7 @@
         <v>25</v>
       </c>
       <c r="I17" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="J17">
         <v>1</v>
@@ -1611,7 +1635,7 @@
         <v>25</v>
       </c>
       <c r="I19" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="J19">
         <v>1</v>
@@ -1705,7 +1729,7 @@
         <v>25</v>
       </c>
       <c r="I21" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="J21">
         <v>400</v>
@@ -1799,7 +1823,7 @@
         <v>25</v>
       </c>
       <c r="I23" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="J23">
         <v>1200</v>
@@ -1893,7 +1917,7 @@
         <v>25</v>
       </c>
       <c r="I25" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="J25">
         <v>300</v>
@@ -1987,7 +2011,7 @@
         <v>25</v>
       </c>
       <c r="I27" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="J27">
         <v>1000</v>
@@ -2013,51 +2037,69 @@
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>55</v>
+        <v>120</v>
       </c>
       <c r="C28" t="b">
         <v>0</v>
       </c>
       <c r="D28">
-        <v>0.99</v>
+        <v>9.99</v>
       </c>
       <c r="E28">
-        <v>1200</v>
+        <v>13000</v>
       </c>
       <c r="F28" t="s">
-        <v>55</v>
+        <v>120</v>
       </c>
       <c r="G28">
-        <v>444</v>
+        <v>127</v>
       </c>
       <c r="H28" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="I28" t="s">
-        <v>23</v>
+        <v>118</v>
       </c>
       <c r="J28">
-        <v>30</v>
+        <v>500</v>
+      </c>
+      <c r="K28" t="s">
+        <v>22</v>
+      </c>
+      <c r="L28" t="s">
+        <v>23</v>
+      </c>
+      <c r="M28">
+        <v>75</v>
+      </c>
+      <c r="N28" t="s">
+        <v>22</v>
+      </c>
+      <c r="O28" t="s">
+        <v>24</v>
+      </c>
+      <c r="P28">
+        <v>20000</v>
       </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>56</v>
+        <v>121</v>
       </c>
       <c r="C29" t="b">
         <v>0</v>
       </c>
       <c r="D29">
-        <v>4.99</v>
+        <v>14.99</v>
       </c>
       <c r="E29">
-        <v>5900</v>
+        <v>19000</v>
       </c>
       <c r="F29" t="s">
-        <v>56</v>
+        <v>121</v>
       </c>
       <c r="G29">
-        <v>348</v>
+        <v>194</v>
       </c>
       <c r="H29" t="s">
         <v>22</v>
@@ -2066,56 +2108,92 @@
         <v>23</v>
       </c>
       <c r="J29">
-        <v>90</v>
+        <v>300</v>
+      </c>
+      <c r="K29" t="s">
+        <v>22</v>
+      </c>
+      <c r="L29" t="s">
+        <v>23</v>
+      </c>
+      <c r="M29">
+        <v>100</v>
+      </c>
+      <c r="N29" t="s">
+        <v>22</v>
+      </c>
+      <c r="O29" t="s">
+        <v>24</v>
+      </c>
+      <c r="P29">
+        <v>40000</v>
       </c>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>57</v>
+        <v>122</v>
       </c>
       <c r="C30" t="b">
         <v>0</v>
       </c>
       <c r="D30">
-        <v>9.99</v>
+        <v>29.99</v>
       </c>
       <c r="E30">
-        <v>12000</v>
+        <v>39000</v>
       </c>
       <c r="F30" t="s">
-        <v>57</v>
+        <v>122</v>
       </c>
       <c r="G30">
-        <v>653</v>
+        <v>970</v>
       </c>
       <c r="H30" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="I30" t="s">
-        <v>23</v>
+        <v>118</v>
       </c>
       <c r="J30">
-        <v>260</v>
+        <v>1500</v>
+      </c>
+      <c r="K30" t="s">
+        <v>22</v>
+      </c>
+      <c r="L30" t="s">
+        <v>23</v>
+      </c>
+      <c r="M30">
+        <v>500</v>
+      </c>
+      <c r="N30" t="s">
+        <v>22</v>
+      </c>
+      <c r="O30" t="s">
+        <v>24</v>
+      </c>
+      <c r="P30">
+        <v>60000</v>
       </c>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>58</v>
+        <v>123</v>
       </c>
       <c r="C31" t="b">
         <v>0</v>
       </c>
       <c r="D31">
-        <v>19.989999999999998</v>
+        <v>49.99</v>
       </c>
       <c r="E31">
-        <v>25000</v>
+        <v>69000</v>
       </c>
       <c r="F31" t="s">
-        <v>58</v>
+        <v>123</v>
       </c>
       <c r="G31">
-        <v>487</v>
+        <v>874</v>
       </c>
       <c r="H31" t="s">
         <v>22</v>
@@ -2124,114 +2202,186 @@
         <v>23</v>
       </c>
       <c r="J31">
-        <v>525</v>
+        <v>100</v>
+      </c>
+      <c r="K31" t="s">
+        <v>22</v>
+      </c>
+      <c r="L31" t="s">
+        <v>23</v>
+      </c>
+      <c r="M31">
+        <v>50</v>
+      </c>
+      <c r="N31" t="s">
+        <v>22</v>
+      </c>
+      <c r="O31" t="s">
+        <v>24</v>
+      </c>
+      <c r="P31">
+        <v>10000</v>
       </c>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>59</v>
+        <v>124</v>
       </c>
       <c r="C32" t="b">
         <v>0</v>
       </c>
       <c r="D32">
+        <v>9.99</v>
+      </c>
+      <c r="E32">
+        <v>13000</v>
+      </c>
+      <c r="F32" t="s">
+        <v>124</v>
+      </c>
+      <c r="G32">
+        <v>127</v>
+      </c>
+      <c r="H32" t="s">
+        <v>25</v>
+      </c>
+      <c r="I32" t="s">
+        <v>118</v>
+      </c>
+      <c r="J32">
+        <v>500</v>
+      </c>
+      <c r="K32" t="s">
+        <v>22</v>
+      </c>
+      <c r="L32" t="s">
+        <v>23</v>
+      </c>
+      <c r="M32">
+        <v>75</v>
+      </c>
+      <c r="N32" t="s">
+        <v>22</v>
+      </c>
+      <c r="O32" t="s">
+        <v>24</v>
+      </c>
+      <c r="P32">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>125</v>
+      </c>
+      <c r="C33" t="b">
+        <v>0</v>
+      </c>
+      <c r="D33">
+        <v>14.99</v>
+      </c>
+      <c r="E33">
+        <v>19000</v>
+      </c>
+      <c r="F33" t="s">
+        <v>125</v>
+      </c>
+      <c r="G33">
+        <v>194</v>
+      </c>
+      <c r="H33" t="s">
+        <v>22</v>
+      </c>
+      <c r="I33" t="s">
+        <v>23</v>
+      </c>
+      <c r="J33">
+        <v>300</v>
+      </c>
+      <c r="K33" t="s">
+        <v>22</v>
+      </c>
+      <c r="L33" t="s">
+        <v>23</v>
+      </c>
+      <c r="M33">
+        <v>100</v>
+      </c>
+      <c r="N33" t="s">
+        <v>22</v>
+      </c>
+      <c r="O33" t="s">
+        <v>24</v>
+      </c>
+      <c r="P33">
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>126</v>
+      </c>
+      <c r="C34" t="b">
+        <v>0</v>
+      </c>
+      <c r="D34">
+        <v>29.99</v>
+      </c>
+      <c r="E34">
+        <v>39000</v>
+      </c>
+      <c r="F34" t="s">
+        <v>126</v>
+      </c>
+      <c r="G34">
+        <v>970</v>
+      </c>
+      <c r="H34" t="s">
+        <v>25</v>
+      </c>
+      <c r="I34" t="s">
+        <v>118</v>
+      </c>
+      <c r="J34">
+        <v>1500</v>
+      </c>
+      <c r="K34" t="s">
+        <v>22</v>
+      </c>
+      <c r="L34" t="s">
+        <v>23</v>
+      </c>
+      <c r="M34">
+        <v>500</v>
+      </c>
+      <c r="N34" t="s">
+        <v>22</v>
+      </c>
+      <c r="O34" t="s">
+        <v>24</v>
+      </c>
+      <c r="P34">
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>127</v>
+      </c>
+      <c r="C35" t="b">
+        <v>0</v>
+      </c>
+      <c r="D35">
         <v>49.99</v>
       </c>
-      <c r="E32">
-        <v>65000</v>
-      </c>
-      <c r="F32" t="s">
-        <v>59</v>
-      </c>
-      <c r="G32">
-        <v>168</v>
-      </c>
-      <c r="H32" t="s">
-        <v>22</v>
-      </c>
-      <c r="I32" t="s">
-        <v>23</v>
-      </c>
-      <c r="J32">
-        <v>1600</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
-        <v>60</v>
-      </c>
-      <c r="C33" t="b">
-        <v>0</v>
-      </c>
-      <c r="D33">
-        <v>99.99</v>
-      </c>
-      <c r="E33">
-        <v>119000</v>
-      </c>
-      <c r="F33" t="s">
-        <v>60</v>
-      </c>
-      <c r="G33">
-        <v>947</v>
-      </c>
-      <c r="H33" t="s">
-        <v>22</v>
-      </c>
-      <c r="I33" t="s">
-        <v>23</v>
-      </c>
-      <c r="J33">
-        <v>3600</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>61</v>
-      </c>
-      <c r="C34" t="b">
-        <v>0</v>
-      </c>
-      <c r="D34">
-        <v>0.99</v>
-      </c>
-      <c r="E34">
-        <v>1200</v>
-      </c>
-      <c r="F34" t="s">
-        <v>61</v>
-      </c>
-      <c r="G34">
-        <v>224</v>
-      </c>
-      <c r="H34" t="s">
-        <v>22</v>
-      </c>
-      <c r="I34" t="s">
-        <v>23</v>
-      </c>
-      <c r="J34">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
-        <v>62</v>
-      </c>
-      <c r="C35" t="b">
-        <v>0</v>
-      </c>
-      <c r="D35">
-        <v>4.99</v>
-      </c>
       <c r="E35">
-        <v>5900</v>
+        <v>69000</v>
       </c>
       <c r="F35" t="s">
-        <v>62</v>
+        <v>127</v>
       </c>
       <c r="G35">
-        <v>392</v>
+        <v>874</v>
       </c>
       <c r="H35" t="s">
         <v>22</v>
@@ -2240,12 +2390,30 @@
         <v>23</v>
       </c>
       <c r="J35">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+        <v>100</v>
+      </c>
+      <c r="K35" t="s">
+        <v>22</v>
+      </c>
+      <c r="L35" t="s">
+        <v>23</v>
+      </c>
+      <c r="M35">
+        <v>50</v>
+      </c>
+      <c r="N35" t="s">
+        <v>22</v>
+      </c>
+      <c r="O35" t="s">
+        <v>24</v>
+      </c>
+      <c r="P35">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>63</v>
+        <v>128</v>
       </c>
       <c r="C36" t="b">
         <v>0</v>
@@ -2254,42 +2422,60 @@
         <v>9.99</v>
       </c>
       <c r="E36">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="F36" t="s">
-        <v>63</v>
+        <v>128</v>
       </c>
       <c r="G36">
-        <v>759</v>
+        <v>127</v>
       </c>
       <c r="H36" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="I36" t="s">
-        <v>23</v>
+        <v>118</v>
       </c>
       <c r="J36">
-        <v>780</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+        <v>500</v>
+      </c>
+      <c r="K36" t="s">
+        <v>22</v>
+      </c>
+      <c r="L36" t="s">
+        <v>23</v>
+      </c>
+      <c r="M36">
+        <v>75</v>
+      </c>
+      <c r="N36" t="s">
+        <v>22</v>
+      </c>
+      <c r="O36" t="s">
+        <v>24</v>
+      </c>
+      <c r="P36">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>64</v>
+        <v>129</v>
       </c>
       <c r="C37" t="b">
         <v>0</v>
       </c>
       <c r="D37">
-        <v>19.989999999999998</v>
+        <v>14.99</v>
       </c>
       <c r="E37">
-        <v>25000</v>
+        <v>19000</v>
       </c>
       <c r="F37" t="s">
-        <v>64</v>
+        <v>129</v>
       </c>
       <c r="G37">
-        <v>837</v>
+        <v>194</v>
       </c>
       <c r="H37" t="s">
         <v>22</v>
@@ -2298,56 +2484,92 @@
         <v>23</v>
       </c>
       <c r="J37">
-        <v>1575</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+        <v>300</v>
+      </c>
+      <c r="K37" t="s">
+        <v>22</v>
+      </c>
+      <c r="L37" t="s">
+        <v>23</v>
+      </c>
+      <c r="M37">
+        <v>100</v>
+      </c>
+      <c r="N37" t="s">
+        <v>22</v>
+      </c>
+      <c r="O37" t="s">
+        <v>24</v>
+      </c>
+      <c r="P37">
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>65</v>
+        <v>130</v>
       </c>
       <c r="C38" t="b">
         <v>0</v>
       </c>
       <c r="D38">
+        <v>29.99</v>
+      </c>
+      <c r="E38">
+        <v>39000</v>
+      </c>
+      <c r="F38" t="s">
+        <v>130</v>
+      </c>
+      <c r="G38">
+        <v>970</v>
+      </c>
+      <c r="H38" t="s">
+        <v>25</v>
+      </c>
+      <c r="I38" t="s">
+        <v>118</v>
+      </c>
+      <c r="J38">
+        <v>1500</v>
+      </c>
+      <c r="K38" t="s">
+        <v>22</v>
+      </c>
+      <c r="L38" t="s">
+        <v>23</v>
+      </c>
+      <c r="M38">
+        <v>500</v>
+      </c>
+      <c r="N38" t="s">
+        <v>22</v>
+      </c>
+      <c r="O38" t="s">
+        <v>24</v>
+      </c>
+      <c r="P38">
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>131</v>
+      </c>
+      <c r="C39" t="b">
+        <v>0</v>
+      </c>
+      <c r="D39">
         <v>49.99</v>
       </c>
-      <c r="E38">
-        <v>65000</v>
-      </c>
-      <c r="F38" t="s">
-        <v>65</v>
-      </c>
-      <c r="G38">
-        <v>820</v>
-      </c>
-      <c r="H38" t="s">
-        <v>22</v>
-      </c>
-      <c r="I38" t="s">
-        <v>23</v>
-      </c>
-      <c r="J38">
-        <v>4800</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>66</v>
-      </c>
-      <c r="C39" t="b">
-        <v>0</v>
-      </c>
-      <c r="D39">
-        <v>99.99</v>
-      </c>
       <c r="E39">
-        <v>119000</v>
+        <v>69000</v>
       </c>
       <c r="F39" t="s">
-        <v>66</v>
+        <v>131</v>
       </c>
       <c r="G39">
-        <v>493</v>
+        <v>874</v>
       </c>
       <c r="H39" t="s">
         <v>22</v>
@@ -2356,12 +2578,30 @@
         <v>23</v>
       </c>
       <c r="J39">
-        <v>10800</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+        <v>100</v>
+      </c>
+      <c r="K39" t="s">
+        <v>22</v>
+      </c>
+      <c r="L39" t="s">
+        <v>23</v>
+      </c>
+      <c r="M39">
+        <v>50</v>
+      </c>
+      <c r="N39" t="s">
+        <v>22</v>
+      </c>
+      <c r="O39" t="s">
+        <v>24</v>
+      </c>
+      <c r="P39">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="C40" t="b">
         <v>0</v>
@@ -2373,24 +2613,24 @@
         <v>1200</v>
       </c>
       <c r="F40" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="G40">
-        <v>354</v>
+        <v>444</v>
       </c>
       <c r="H40" t="s">
         <v>22</v>
       </c>
       <c r="I40" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J40">
-        <v>40000</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="C41" t="b">
         <v>0</v>
@@ -2402,24 +2642,24 @@
         <v>5900</v>
       </c>
       <c r="F41" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="G41">
-        <v>715</v>
+        <v>348</v>
       </c>
       <c r="H41" t="s">
         <v>22</v>
       </c>
       <c r="I41" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J41">
-        <v>105000</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="C42" t="b">
         <v>0</v>
@@ -2431,24 +2671,24 @@
         <v>12000</v>
       </c>
       <c r="F42" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="G42">
-        <v>891</v>
+        <v>653</v>
       </c>
       <c r="H42" t="s">
         <v>22</v>
       </c>
       <c r="I42" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J42">
-        <v>250000</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="C43" t="b">
         <v>0</v>
@@ -2460,24 +2700,24 @@
         <v>25000</v>
       </c>
       <c r="F43" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="G43">
-        <v>185</v>
+        <v>487</v>
       </c>
       <c r="H43" t="s">
         <v>22</v>
       </c>
       <c r="I43" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J43">
-        <v>600000</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="C44" t="b">
         <v>0</v>
@@ -2489,24 +2729,24 @@
         <v>65000</v>
       </c>
       <c r="F44" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="G44">
-        <v>737</v>
+        <v>168</v>
       </c>
       <c r="H44" t="s">
         <v>22</v>
       </c>
       <c r="I44" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J44">
-        <v>1900000</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="C45" t="b">
         <v>0</v>
@@ -2518,24 +2758,24 @@
         <v>119000</v>
       </c>
       <c r="F45" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="G45">
-        <v>574</v>
+        <v>947</v>
       </c>
       <c r="H45" t="s">
         <v>22</v>
       </c>
       <c r="I45" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J45">
-        <v>4500000</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+        <v>3600</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="C46" t="b">
         <v>0</v>
@@ -2547,24 +2787,24 @@
         <v>1200</v>
       </c>
       <c r="F46" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="G46">
-        <v>122</v>
+        <v>224</v>
       </c>
       <c r="H46" t="s">
         <v>22</v>
       </c>
       <c r="I46" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J46">
-        <v>120000</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="C47" t="b">
         <v>0</v>
@@ -2576,24 +2816,24 @@
         <v>5900</v>
       </c>
       <c r="F47" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="G47">
-        <v>926</v>
+        <v>392</v>
       </c>
       <c r="H47" t="s">
         <v>22</v>
       </c>
       <c r="I47" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J47">
-        <v>315000</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="C48" t="b">
         <v>0</v>
@@ -2605,24 +2845,24 @@
         <v>12000</v>
       </c>
       <c r="F48" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="G48">
-        <v>943</v>
+        <v>759</v>
       </c>
       <c r="H48" t="s">
         <v>22</v>
       </c>
       <c r="I48" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J48">
-        <v>750000</v>
-      </c>
-    </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.3">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="C49" t="b">
         <v>0</v>
@@ -2634,24 +2874,24 @@
         <v>25000</v>
       </c>
       <c r="F49" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="G49">
-        <v>106</v>
+        <v>837</v>
       </c>
       <c r="H49" t="s">
         <v>22</v>
       </c>
       <c r="I49" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J49">
-        <v>1800000</v>
-      </c>
-    </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.3">
+        <v>1575</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="C50" t="b">
         <v>0</v>
@@ -2663,24 +2903,24 @@
         <v>65000</v>
       </c>
       <c r="F50" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="G50">
-        <v>402</v>
+        <v>820</v>
       </c>
       <c r="H50" t="s">
         <v>22</v>
       </c>
       <c r="I50" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J50">
-        <v>5700000</v>
-      </c>
-    </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.3">
+        <v>4800</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="C51" t="b">
         <v>0</v>
@@ -2692,140 +2932,140 @@
         <v>119000</v>
       </c>
       <c r="F51" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="G51">
-        <v>905</v>
+        <v>493</v>
       </c>
       <c r="H51" t="s">
         <v>22</v>
       </c>
       <c r="I51" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J51">
-        <v>13500000</v>
-      </c>
-    </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.3">
+        <v>10800</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="C52" t="b">
         <v>0</v>
       </c>
       <c r="D52">
+        <v>0.99</v>
+      </c>
+      <c r="E52">
+        <v>1200</v>
+      </c>
+      <c r="F52" t="s">
+        <v>67</v>
+      </c>
+      <c r="G52">
+        <v>354</v>
+      </c>
+      <c r="H52" t="s">
+        <v>22</v>
+      </c>
+      <c r="I52" t="s">
+        <v>24</v>
+      </c>
+      <c r="J52">
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>68</v>
+      </c>
+      <c r="C53" t="b">
+        <v>0</v>
+      </c>
+      <c r="D53">
+        <v>4.99</v>
+      </c>
+      <c r="E53">
+        <v>5900</v>
+      </c>
+      <c r="F53" t="s">
+        <v>68</v>
+      </c>
+      <c r="G53">
+        <v>715</v>
+      </c>
+      <c r="H53" t="s">
+        <v>22</v>
+      </c>
+      <c r="I53" t="s">
+        <v>24</v>
+      </c>
+      <c r="J53">
+        <v>105000</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>69</v>
+      </c>
+      <c r="C54" t="b">
+        <v>0</v>
+      </c>
+      <c r="D54">
         <v>9.99</v>
       </c>
-      <c r="E52">
-        <v>13000</v>
-      </c>
-      <c r="F52" t="s">
-        <v>79</v>
-      </c>
-      <c r="G52">
-        <v>375</v>
-      </c>
-      <c r="H52" t="s">
-        <v>25</v>
-      </c>
-      <c r="I52" t="s">
-        <v>86</v>
-      </c>
-      <c r="J52">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A53" t="s">
-        <v>80</v>
-      </c>
-      <c r="C53" t="b">
-        <v>0</v>
-      </c>
-      <c r="D53">
+      <c r="E54">
+        <v>12000</v>
+      </c>
+      <c r="F54" t="s">
+        <v>69</v>
+      </c>
+      <c r="G54">
+        <v>891</v>
+      </c>
+      <c r="H54" t="s">
+        <v>22</v>
+      </c>
+      <c r="I54" t="s">
+        <v>24</v>
+      </c>
+      <c r="J54">
+        <v>250000</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>70</v>
+      </c>
+      <c r="C55" t="b">
+        <v>0</v>
+      </c>
+      <c r="D55">
         <v>19.989999999999998</v>
       </c>
-      <c r="E53">
-        <v>19000</v>
-      </c>
-      <c r="F53" t="s">
-        <v>80</v>
-      </c>
-      <c r="G53">
-        <v>368</v>
-      </c>
-      <c r="H53" t="s">
-        <v>25</v>
-      </c>
-      <c r="I53" t="s">
-        <v>86</v>
-      </c>
-      <c r="J53">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A54" t="s">
-        <v>81</v>
-      </c>
-      <c r="C54" t="b">
-        <v>0</v>
-      </c>
-      <c r="D54">
-        <v>29.99</v>
-      </c>
-      <c r="E54">
-        <v>39000</v>
-      </c>
-      <c r="F54" t="s">
-        <v>81</v>
-      </c>
-      <c r="G54">
-        <v>481</v>
-      </c>
-      <c r="H54" t="s">
-        <v>25</v>
-      </c>
-      <c r="I54" t="s">
-        <v>86</v>
-      </c>
-      <c r="J54">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A55" t="s">
-        <v>82</v>
-      </c>
-      <c r="C55" t="b">
-        <v>0</v>
-      </c>
-      <c r="D55">
-        <v>39.99</v>
-      </c>
       <c r="E55">
-        <v>48000</v>
+        <v>25000</v>
       </c>
       <c r="F55" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="G55">
-        <v>420</v>
+        <v>185</v>
       </c>
       <c r="H55" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="I55" t="s">
-        <v>86</v>
+        <v>24</v>
       </c>
       <c r="J55">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.3">
+        <v>600000</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="C56" t="b">
         <v>0</v>
@@ -2837,223 +3077,169 @@
         <v>65000</v>
       </c>
       <c r="F56" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="G56">
-        <v>362</v>
+        <v>737</v>
       </c>
       <c r="H56" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="I56" t="s">
-        <v>86</v>
+        <v>24</v>
       </c>
       <c r="J56">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:19" x14ac:dyDescent="0.3">
+        <v>1900000</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="C57" t="b">
         <v>0</v>
       </c>
       <c r="D57">
+        <v>99.99</v>
+      </c>
+      <c r="E57">
+        <v>119000</v>
+      </c>
+      <c r="F57" t="s">
+        <v>72</v>
+      </c>
+      <c r="G57">
+        <v>574</v>
+      </c>
+      <c r="H57" t="s">
+        <v>22</v>
+      </c>
+      <c r="I57" t="s">
+        <v>24</v>
+      </c>
+      <c r="J57">
+        <v>4500000</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>73</v>
+      </c>
+      <c r="C58" t="b">
+        <v>0</v>
+      </c>
+      <c r="D58">
         <v>0.99</v>
       </c>
-      <c r="E57">
+      <c r="E58">
         <v>1200</v>
       </c>
-      <c r="F57" t="s">
-        <v>84</v>
-      </c>
-      <c r="G57">
-        <v>654</v>
-      </c>
-      <c r="H57" t="s">
-        <v>25</v>
-      </c>
-      <c r="I57" t="s">
-        <v>90</v>
-      </c>
-      <c r="J57">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="58" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A58" t="s">
-        <v>85</v>
-      </c>
-      <c r="C58" t="b">
-        <v>0</v>
-      </c>
-      <c r="D58">
+      <c r="F58" t="s">
+        <v>73</v>
+      </c>
+      <c r="G58">
+        <v>122</v>
+      </c>
+      <c r="H58" t="s">
+        <v>22</v>
+      </c>
+      <c r="I58" t="s">
+        <v>24</v>
+      </c>
+      <c r="J58">
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>74</v>
+      </c>
+      <c r="C59" t="b">
+        <v>0</v>
+      </c>
+      <c r="D59">
         <v>4.99</v>
       </c>
-      <c r="E58">
+      <c r="E59">
         <v>5900</v>
       </c>
-      <c r="F58" t="s">
-        <v>85</v>
-      </c>
-      <c r="G58">
-        <v>715</v>
-      </c>
-      <c r="H58" t="s">
-        <v>25</v>
-      </c>
-      <c r="I58" t="s">
-        <v>91</v>
-      </c>
-      <c r="J58">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="59" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A59" t="s">
-        <v>92</v>
-      </c>
-      <c r="C59" t="b">
-        <v>0</v>
-      </c>
-      <c r="D59">
+      <c r="F59" t="s">
+        <v>74</v>
+      </c>
+      <c r="G59">
+        <v>926</v>
+      </c>
+      <c r="H59" t="s">
+        <v>22</v>
+      </c>
+      <c r="I59" t="s">
+        <v>24</v>
+      </c>
+      <c r="J59">
+        <v>315000</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>75</v>
+      </c>
+      <c r="C60" t="b">
+        <v>0</v>
+      </c>
+      <c r="D60">
         <v>9.99</v>
       </c>
-      <c r="E59">
-        <v>13000</v>
-      </c>
-      <c r="F59" t="s">
-        <v>92</v>
-      </c>
-      <c r="G59">
-        <v>127</v>
-      </c>
-      <c r="H59" t="s">
-        <v>25</v>
-      </c>
-      <c r="I59" t="s">
-        <v>125</v>
-      </c>
-      <c r="J59">
-        <v>500</v>
-      </c>
-      <c r="K59" t="s">
-        <v>22</v>
-      </c>
-      <c r="L59" t="s">
-        <v>23</v>
-      </c>
-      <c r="M59">
+      <c r="E60">
+        <v>12000</v>
+      </c>
+      <c r="F60" t="s">
         <v>75</v>
       </c>
-      <c r="N59" t="s">
-        <v>22</v>
-      </c>
-      <c r="O59" t="s">
-        <v>24</v>
-      </c>
-      <c r="P59">
-        <v>20000</v>
-      </c>
-    </row>
-    <row r="60" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A60" t="s">
-        <v>93</v>
-      </c>
-      <c r="C60" t="b">
-        <v>0</v>
-      </c>
-      <c r="D60">
-        <v>14.99</v>
-      </c>
-      <c r="E60">
-        <v>19000</v>
-      </c>
-      <c r="F60" t="s">
-        <v>93</v>
-      </c>
       <c r="G60">
-        <v>194</v>
+        <v>943</v>
       </c>
       <c r="H60" t="s">
         <v>22</v>
       </c>
       <c r="I60" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J60">
-        <v>300</v>
-      </c>
-      <c r="K60" t="s">
-        <v>22</v>
-      </c>
-      <c r="L60" t="s">
-        <v>23</v>
-      </c>
-      <c r="M60">
-        <v>100</v>
-      </c>
-      <c r="N60" t="s">
-        <v>22</v>
-      </c>
-      <c r="O60" t="s">
-        <v>24</v>
-      </c>
-      <c r="P60">
-        <v>40000</v>
-      </c>
-    </row>
-    <row r="61" spans="1:19" x14ac:dyDescent="0.3">
+        <v>750000</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>94</v>
+        <v>76</v>
       </c>
       <c r="C61" t="b">
         <v>0</v>
       </c>
       <c r="D61">
-        <v>29.99</v>
+        <v>19.989999999999998</v>
       </c>
       <c r="E61">
-        <v>39000</v>
+        <v>25000</v>
       </c>
       <c r="F61" t="s">
-        <v>94</v>
+        <v>76</v>
       </c>
       <c r="G61">
-        <v>970</v>
+        <v>106</v>
       </c>
       <c r="H61" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="I61" t="s">
-        <v>125</v>
+        <v>24</v>
       </c>
       <c r="J61">
-        <v>1500</v>
-      </c>
-      <c r="K61" t="s">
-        <v>22</v>
-      </c>
-      <c r="L61" t="s">
-        <v>23</v>
-      </c>
-      <c r="M61">
-        <v>500</v>
-      </c>
-      <c r="N61" t="s">
-        <v>22</v>
-      </c>
-      <c r="O61" t="s">
-        <v>24</v>
-      </c>
-      <c r="P61">
-        <v>60000</v>
-      </c>
-    </row>
-    <row r="62" spans="1:19" x14ac:dyDescent="0.3">
+        <v>1800000</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="C62" t="b">
         <v>0</v>
@@ -3062,448 +3248,259 @@
         <v>49.99</v>
       </c>
       <c r="E62">
-        <v>69000</v>
+        <v>65000</v>
       </c>
       <c r="F62" t="s">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="G62">
-        <v>874</v>
+        <v>402</v>
       </c>
       <c r="H62" t="s">
         <v>22</v>
       </c>
       <c r="I62" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J62">
-        <v>100</v>
-      </c>
-      <c r="K62" t="s">
-        <v>22</v>
-      </c>
-      <c r="L62" t="s">
-        <v>23</v>
-      </c>
-      <c r="M62">
-        <v>50</v>
-      </c>
-      <c r="N62" t="s">
-        <v>22</v>
-      </c>
-      <c r="O62" t="s">
-        <v>24</v>
-      </c>
-      <c r="P62">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="63" spans="1:19" x14ac:dyDescent="0.3">
+        <v>5700000</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="C63" t="b">
         <v>0</v>
       </c>
       <c r="D63">
-        <v>0.99</v>
+        <v>99.99</v>
       </c>
       <c r="E63">
-        <v>1200</v>
+        <v>119000</v>
       </c>
       <c r="F63" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="G63">
-        <v>668</v>
+        <v>905</v>
       </c>
       <c r="H63" t="s">
         <v>22</v>
       </c>
       <c r="I63" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J63">
-        <v>30</v>
-      </c>
-      <c r="K63" t="s">
-        <v>22</v>
-      </c>
-      <c r="L63" t="s">
-        <v>24</v>
-      </c>
-      <c r="M63">
-        <v>25000</v>
-      </c>
-      <c r="N63" t="s">
-        <v>22</v>
-      </c>
-      <c r="O63" t="s">
-        <v>23</v>
-      </c>
-      <c r="P63">
-        <v>100</v>
-      </c>
-      <c r="Q63" t="s">
-        <v>22</v>
-      </c>
-      <c r="R63" t="s">
-        <v>24</v>
-      </c>
-      <c r="S63">
-        <v>35000</v>
-      </c>
-    </row>
-    <row r="64" spans="1:19" x14ac:dyDescent="0.3">
+        <v>13500000</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>97</v>
+        <v>79</v>
       </c>
       <c r="C64" t="b">
         <v>0</v>
       </c>
       <c r="D64">
-        <v>4.99</v>
+        <v>9.99</v>
       </c>
       <c r="E64">
-        <v>5900</v>
+        <v>13000</v>
       </c>
       <c r="F64" t="s">
-        <v>97</v>
+        <v>79</v>
       </c>
       <c r="G64">
-        <v>188</v>
+        <v>375</v>
       </c>
       <c r="H64" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="I64" t="s">
-        <v>23</v>
+        <v>86</v>
       </c>
       <c r="J64">
-        <v>60</v>
-      </c>
-      <c r="K64" t="s">
-        <v>22</v>
-      </c>
-      <c r="L64" t="s">
-        <v>24</v>
-      </c>
-      <c r="M64">
-        <v>15000</v>
-      </c>
-      <c r="N64" t="s">
-        <v>22</v>
-      </c>
-      <c r="O64" t="s">
-        <v>23</v>
-      </c>
-      <c r="P64">
-        <v>120</v>
-      </c>
-      <c r="Q64" t="s">
-        <v>22</v>
-      </c>
-      <c r="R64" t="s">
-        <v>24</v>
-      </c>
-      <c r="S64">
-        <v>25000</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>98</v>
+        <v>80</v>
       </c>
       <c r="C65" t="b">
         <v>0</v>
       </c>
       <c r="D65">
-        <v>9.99</v>
+        <v>19.989999999999998</v>
       </c>
       <c r="E65">
-        <v>13000</v>
+        <v>19000</v>
       </c>
       <c r="F65" t="s">
-        <v>98</v>
+        <v>80</v>
       </c>
       <c r="G65">
-        <v>284</v>
+        <v>368</v>
       </c>
       <c r="H65" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="I65" t="s">
-        <v>23</v>
+        <v>86</v>
       </c>
       <c r="J65">
-        <v>90</v>
-      </c>
-      <c r="K65" t="s">
-        <v>22</v>
-      </c>
-      <c r="L65" t="s">
-        <v>24</v>
-      </c>
-      <c r="M65">
-        <v>30000</v>
-      </c>
-      <c r="N65" t="s">
-        <v>22</v>
-      </c>
-      <c r="O65" t="s">
-        <v>23</v>
-      </c>
-      <c r="P65">
-        <v>150</v>
-      </c>
-      <c r="Q65" t="s">
-        <v>22</v>
-      </c>
-      <c r="R65" t="s">
-        <v>23</v>
-      </c>
-      <c r="S65">
-        <v>300</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>99</v>
+        <v>81</v>
       </c>
       <c r="C66" t="b">
         <v>0</v>
       </c>
       <c r="D66">
-        <v>9.99</v>
+        <v>29.99</v>
       </c>
       <c r="E66">
-        <v>13000</v>
+        <v>39000</v>
       </c>
       <c r="F66" t="s">
-        <v>99</v>
+        <v>81</v>
       </c>
       <c r="G66">
-        <v>953</v>
+        <v>481</v>
       </c>
       <c r="H66" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="I66" t="s">
-        <v>23</v>
+        <v>86</v>
       </c>
       <c r="J66">
-        <v>120</v>
-      </c>
-      <c r="K66" t="s">
-        <v>22</v>
-      </c>
-      <c r="L66" t="s">
-        <v>24</v>
-      </c>
-      <c r="M66">
-        <v>50000</v>
-      </c>
-      <c r="N66" t="s">
-        <v>22</v>
-      </c>
-      <c r="O66" t="s">
-        <v>23</v>
-      </c>
-      <c r="P66">
-        <v>120</v>
-      </c>
-      <c r="Q66" t="s">
-        <v>22</v>
-      </c>
-      <c r="R66" t="s">
-        <v>24</v>
-      </c>
-      <c r="S66">
-        <v>25000</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="C67" t="b">
         <v>0</v>
       </c>
       <c r="D67">
-        <v>9.99</v>
+        <v>39.99</v>
       </c>
       <c r="E67">
-        <v>13000</v>
+        <v>48000</v>
       </c>
       <c r="F67" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="G67">
-        <v>660</v>
+        <v>420</v>
       </c>
       <c r="H67" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="I67" t="s">
-        <v>23</v>
+        <v>86</v>
       </c>
       <c r="J67">
-        <v>150</v>
-      </c>
-      <c r="K67" t="s">
-        <v>22</v>
-      </c>
-      <c r="L67" t="s">
-        <v>24</v>
-      </c>
-      <c r="M67">
-        <v>90000</v>
-      </c>
-      <c r="N67" t="s">
-        <v>22</v>
-      </c>
-      <c r="O67" t="s">
-        <v>23</v>
-      </c>
-      <c r="P67">
-        <v>150</v>
-      </c>
-      <c r="Q67" t="s">
-        <v>22</v>
-      </c>
-      <c r="R67" t="s">
-        <v>23</v>
-      </c>
-      <c r="S67">
-        <v>300</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>101</v>
+        <v>83</v>
       </c>
       <c r="C68" t="b">
         <v>0</v>
       </c>
       <c r="D68">
-        <v>4.99</v>
+        <v>49.99</v>
       </c>
       <c r="E68">
-        <v>5900</v>
+        <v>65000</v>
       </c>
       <c r="F68" t="s">
-        <v>101</v>
+        <v>83</v>
       </c>
       <c r="G68">
-        <v>456</v>
+        <v>362</v>
       </c>
       <c r="H68" t="s">
         <v>25</v>
       </c>
       <c r="I68" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="J68">
-        <v>15</v>
-      </c>
-      <c r="K68" t="s">
-        <v>22</v>
-      </c>
-      <c r="L68" t="s">
-        <v>103</v>
-      </c>
-      <c r="M68">
-        <v>500</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>104</v>
+        <v>84</v>
       </c>
       <c r="C69" t="b">
         <v>0</v>
       </c>
       <c r="D69">
-        <v>4.99</v>
+        <v>0.99</v>
       </c>
       <c r="E69">
-        <v>5900</v>
+        <v>1200</v>
       </c>
       <c r="F69" t="s">
-        <v>104</v>
+        <v>84</v>
       </c>
       <c r="G69">
-        <v>664</v>
+        <v>654</v>
       </c>
       <c r="H69" t="s">
         <v>25</v>
       </c>
       <c r="I69" t="s">
-        <v>105</v>
+        <v>90</v>
       </c>
       <c r="J69">
-        <v>1</v>
-      </c>
-      <c r="K69" t="s">
-        <v>22</v>
-      </c>
-      <c r="L69" t="s">
-        <v>23</v>
-      </c>
-      <c r="M69">
-        <v>750</v>
+        <v>5</v>
       </c>
     </row>
     <row r="70" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>106</v>
+        <v>85</v>
       </c>
       <c r="C70" t="b">
         <v>0</v>
       </c>
       <c r="D70">
-        <v>0.99</v>
+        <v>4.99</v>
       </c>
       <c r="E70">
-        <v>1200</v>
+        <v>5900</v>
       </c>
       <c r="F70" t="s">
-        <v>106</v>
+        <v>85</v>
       </c>
       <c r="G70">
-        <v>126</v>
+        <v>715</v>
       </c>
       <c r="H70" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="I70" t="s">
-        <v>23</v>
+        <v>91</v>
       </c>
       <c r="J70">
-        <v>30</v>
-      </c>
-      <c r="K70" t="s">
-        <v>22</v>
-      </c>
-      <c r="L70" t="s">
-        <v>24</v>
-      </c>
-      <c r="M70">
-        <v>25000</v>
-      </c>
-      <c r="N70" t="s">
-        <v>22</v>
-      </c>
-      <c r="O70" t="s">
-        <v>23</v>
-      </c>
-      <c r="P70">
-        <v>100</v>
+        <v>5</v>
       </c>
     </row>
     <row r="71" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
       <c r="C71" t="b">
         <v>0</v>
@@ -3515,10 +3512,10 @@
         <v>1200</v>
       </c>
       <c r="F71" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
       <c r="G71">
-        <v>484</v>
+        <v>668</v>
       </c>
       <c r="H71" t="s">
         <v>22</v>
@@ -3527,7 +3524,7 @@
         <v>23</v>
       </c>
       <c r="J71">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="K71" t="s">
         <v>22</v>
@@ -3536,7 +3533,7 @@
         <v>24</v>
       </c>
       <c r="M71">
-        <v>15000</v>
+        <v>25000</v>
       </c>
       <c r="N71" t="s">
         <v>22</v>
@@ -3545,27 +3542,36 @@
         <v>23</v>
       </c>
       <c r="P71">
-        <v>120</v>
+        <v>100</v>
+      </c>
+      <c r="Q71" t="s">
+        <v>22</v>
+      </c>
+      <c r="R71" t="s">
+        <v>24</v>
+      </c>
+      <c r="S71">
+        <v>35000</v>
       </c>
     </row>
     <row r="72" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>108</v>
+        <v>93</v>
       </c>
       <c r="C72" t="b">
         <v>0</v>
       </c>
       <c r="D72">
-        <v>0.99</v>
+        <v>4.99</v>
       </c>
       <c r="E72">
-        <v>1200</v>
+        <v>5900</v>
       </c>
       <c r="F72" t="s">
-        <v>108</v>
+        <v>93</v>
       </c>
       <c r="G72">
-        <v>584</v>
+        <v>188</v>
       </c>
       <c r="H72" t="s">
         <v>22</v>
@@ -3574,7 +3580,7 @@
         <v>23</v>
       </c>
       <c r="J72">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="K72" t="s">
         <v>22</v>
@@ -3583,7 +3589,7 @@
         <v>24</v>
       </c>
       <c r="M72">
-        <v>30000</v>
+        <v>15000</v>
       </c>
       <c r="N72" t="s">
         <v>22</v>
@@ -3592,36 +3598,36 @@
         <v>23</v>
       </c>
       <c r="P72">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="Q72" t="s">
         <v>22</v>
       </c>
       <c r="R72" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="S72">
-        <v>300</v>
+        <v>25000</v>
       </c>
     </row>
     <row r="73" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>109</v>
+        <v>94</v>
       </c>
       <c r="C73" t="b">
         <v>0</v>
       </c>
       <c r="D73">
-        <v>4.99</v>
+        <v>9.99</v>
       </c>
       <c r="E73">
-        <v>5900</v>
+        <v>13000</v>
       </c>
       <c r="F73" t="s">
-        <v>109</v>
+        <v>94</v>
       </c>
       <c r="G73">
-        <v>456</v>
+        <v>284</v>
       </c>
       <c r="H73" t="s">
         <v>22</v>
@@ -3630,7 +3636,7 @@
         <v>23</v>
       </c>
       <c r="J73">
-        <v>30</v>
+        <v>90</v>
       </c>
       <c r="K73" t="s">
         <v>22</v>
@@ -3639,7 +3645,7 @@
         <v>24</v>
       </c>
       <c r="M73">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="N73" t="s">
         <v>22</v>
@@ -3648,27 +3654,36 @@
         <v>23</v>
       </c>
       <c r="P73">
-        <v>100</v>
+        <v>150</v>
+      </c>
+      <c r="Q73" t="s">
+        <v>22</v>
+      </c>
+      <c r="R73" t="s">
+        <v>23</v>
+      </c>
+      <c r="S73">
+        <v>300</v>
       </c>
     </row>
     <row r="74" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="C74" t="b">
         <v>0</v>
       </c>
       <c r="D74">
-        <v>4.99</v>
+        <v>9.99</v>
       </c>
       <c r="E74">
-        <v>5900</v>
+        <v>13000</v>
       </c>
       <c r="F74" t="s">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="G74">
-        <v>574</v>
+        <v>953</v>
       </c>
       <c r="H74" t="s">
         <v>22</v>
@@ -3677,7 +3692,7 @@
         <v>23</v>
       </c>
       <c r="J74">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="K74" t="s">
         <v>22</v>
@@ -3686,7 +3701,7 @@
         <v>24</v>
       </c>
       <c r="M74">
-        <v>15000</v>
+        <v>50000</v>
       </c>
       <c r="N74" t="s">
         <v>22</v>
@@ -3697,10 +3712,19 @@
       <c r="P74">
         <v>120</v>
       </c>
+      <c r="Q74" t="s">
+        <v>22</v>
+      </c>
+      <c r="R74" t="s">
+        <v>24</v>
+      </c>
+      <c r="S74">
+        <v>25000</v>
+      </c>
     </row>
     <row r="75" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>111</v>
+        <v>96</v>
       </c>
       <c r="C75" t="b">
         <v>0</v>
@@ -3712,10 +3736,10 @@
         <v>13000</v>
       </c>
       <c r="F75" t="s">
-        <v>111</v>
+        <v>96</v>
       </c>
       <c r="G75">
-        <v>117</v>
+        <v>660</v>
       </c>
       <c r="H75" t="s">
         <v>22</v>
@@ -3724,7 +3748,7 @@
         <v>23</v>
       </c>
       <c r="J75">
-        <v>90</v>
+        <v>150</v>
       </c>
       <c r="K75" t="s">
         <v>22</v>
@@ -3733,7 +3757,7 @@
         <v>24</v>
       </c>
       <c r="M75">
-        <v>30000</v>
+        <v>90000</v>
       </c>
       <c r="N75" t="s">
         <v>22</v>
@@ -3756,116 +3780,98 @@
     </row>
     <row r="76" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>112</v>
+        <v>132</v>
       </c>
       <c r="C76" t="b">
         <v>0</v>
       </c>
       <c r="D76">
-        <v>9.99</v>
+        <v>4.99</v>
       </c>
       <c r="E76">
-        <v>13000</v>
+        <v>5900</v>
       </c>
       <c r="F76" t="s">
-        <v>112</v>
+        <v>132</v>
       </c>
       <c r="G76">
-        <v>206</v>
+        <v>456</v>
       </c>
       <c r="H76" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="I76" t="s">
-        <v>23</v>
+        <v>97</v>
       </c>
       <c r="J76">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="K76" t="s">
         <v>22</v>
       </c>
       <c r="L76" t="s">
-        <v>24</v>
+        <v>98</v>
       </c>
       <c r="M76">
-        <v>25000</v>
-      </c>
-      <c r="N76" t="s">
-        <v>22</v>
-      </c>
-      <c r="O76" t="s">
-        <v>23</v>
-      </c>
-      <c r="P76">
-        <v>100</v>
+        <v>500</v>
       </c>
     </row>
     <row r="77" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>113</v>
+        <v>133</v>
       </c>
       <c r="C77" t="b">
         <v>0</v>
       </c>
       <c r="D77">
-        <v>19.989999999999998</v>
+        <v>4.99</v>
       </c>
       <c r="E77">
-        <v>25000</v>
+        <v>5900</v>
       </c>
       <c r="F77" t="s">
-        <v>113</v>
+        <v>133</v>
       </c>
       <c r="G77">
-        <v>464</v>
+        <v>664</v>
       </c>
       <c r="H77" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="I77" t="s">
-        <v>23</v>
+        <v>99</v>
       </c>
       <c r="J77">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="K77" t="s">
         <v>22</v>
       </c>
       <c r="L77" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M77">
-        <v>25000</v>
-      </c>
-      <c r="N77" t="s">
-        <v>22</v>
-      </c>
-      <c r="O77" t="s">
-        <v>23</v>
-      </c>
-      <c r="P77">
-        <v>100</v>
+        <v>750</v>
       </c>
     </row>
     <row r="78" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>114</v>
+        <v>100</v>
       </c>
       <c r="C78" t="b">
         <v>0</v>
       </c>
       <c r="D78">
-        <v>39.99</v>
+        <v>0.99</v>
       </c>
       <c r="E78">
-        <v>48000</v>
+        <v>1200</v>
       </c>
       <c r="F78" t="s">
-        <v>114</v>
+        <v>100</v>
       </c>
       <c r="G78">
-        <v>836</v>
+        <v>126</v>
       </c>
       <c r="H78" t="s">
         <v>22</v>
@@ -3874,7 +3880,7 @@
         <v>23</v>
       </c>
       <c r="J78">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="K78" t="s">
         <v>22</v>
@@ -3883,7 +3889,7 @@
         <v>24</v>
       </c>
       <c r="M78">
-        <v>15000</v>
+        <v>25000</v>
       </c>
       <c r="N78" t="s">
         <v>22</v>
@@ -3892,27 +3898,27 @@
         <v>23</v>
       </c>
       <c r="P78">
-        <v>120</v>
+        <v>100</v>
       </c>
     </row>
     <row r="79" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="C79" t="b">
         <v>0</v>
       </c>
       <c r="D79">
-        <v>49.99</v>
+        <v>0.99</v>
       </c>
       <c r="E79">
-        <v>69000</v>
+        <v>1200</v>
       </c>
       <c r="F79" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="G79">
-        <v>475</v>
+        <v>484</v>
       </c>
       <c r="H79" t="s">
         <v>22</v>
@@ -3921,7 +3927,7 @@
         <v>23</v>
       </c>
       <c r="J79">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="K79" t="s">
         <v>22</v>
@@ -3930,7 +3936,7 @@
         <v>24</v>
       </c>
       <c r="M79">
-        <v>30000</v>
+        <v>15000</v>
       </c>
       <c r="N79" t="s">
         <v>22</v>
@@ -3939,71 +3945,465 @@
         <v>23</v>
       </c>
       <c r="P79">
-        <v>150</v>
-      </c>
-      <c r="Q79" t="s">
-        <v>22</v>
-      </c>
-      <c r="R79" t="s">
-        <v>23</v>
-      </c>
-      <c r="S79">
-        <v>300</v>
+        <v>120</v>
       </c>
     </row>
     <row r="80" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="C80" t="b">
         <v>0</v>
       </c>
       <c r="D80">
+        <v>0.99</v>
+      </c>
+      <c r="E80">
+        <v>1200</v>
+      </c>
+      <c r="F80" t="s">
+        <v>102</v>
+      </c>
+      <c r="G80">
+        <v>584</v>
+      </c>
+      <c r="H80" t="s">
+        <v>22</v>
+      </c>
+      <c r="I80" t="s">
+        <v>23</v>
+      </c>
+      <c r="J80">
+        <v>90</v>
+      </c>
+      <c r="K80" t="s">
+        <v>22</v>
+      </c>
+      <c r="L80" t="s">
+        <v>24</v>
+      </c>
+      <c r="M80">
+        <v>30000</v>
+      </c>
+      <c r="N80" t="s">
+        <v>22</v>
+      </c>
+      <c r="O80" t="s">
+        <v>23</v>
+      </c>
+      <c r="P80">
+        <v>150</v>
+      </c>
+      <c r="Q80" t="s">
+        <v>22</v>
+      </c>
+      <c r="R80" t="s">
+        <v>23</v>
+      </c>
+      <c r="S80">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="81" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>103</v>
+      </c>
+      <c r="C81" t="b">
+        <v>0</v>
+      </c>
+      <c r="D81">
+        <v>4.99</v>
+      </c>
+      <c r="E81">
+        <v>5900</v>
+      </c>
+      <c r="F81" t="s">
+        <v>103</v>
+      </c>
+      <c r="G81">
+        <v>456</v>
+      </c>
+      <c r="H81" t="s">
+        <v>22</v>
+      </c>
+      <c r="I81" t="s">
+        <v>23</v>
+      </c>
+      <c r="J81">
+        <v>30</v>
+      </c>
+      <c r="K81" t="s">
+        <v>22</v>
+      </c>
+      <c r="L81" t="s">
+        <v>24</v>
+      </c>
+      <c r="M81">
+        <v>25000</v>
+      </c>
+      <c r="N81" t="s">
+        <v>22</v>
+      </c>
+      <c r="O81" t="s">
+        <v>23</v>
+      </c>
+      <c r="P81">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="82" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>104</v>
+      </c>
+      <c r="C82" t="b">
+        <v>0</v>
+      </c>
+      <c r="D82">
+        <v>4.99</v>
+      </c>
+      <c r="E82">
+        <v>5900</v>
+      </c>
+      <c r="F82" t="s">
+        <v>104</v>
+      </c>
+      <c r="G82">
+        <v>574</v>
+      </c>
+      <c r="H82" t="s">
+        <v>22</v>
+      </c>
+      <c r="I82" t="s">
+        <v>23</v>
+      </c>
+      <c r="J82">
+        <v>60</v>
+      </c>
+      <c r="K82" t="s">
+        <v>22</v>
+      </c>
+      <c r="L82" t="s">
+        <v>24</v>
+      </c>
+      <c r="M82">
+        <v>15000</v>
+      </c>
+      <c r="N82" t="s">
+        <v>22</v>
+      </c>
+      <c r="O82" t="s">
+        <v>23</v>
+      </c>
+      <c r="P82">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="83" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>105</v>
+      </c>
+      <c r="C83" t="b">
+        <v>0</v>
+      </c>
+      <c r="D83">
+        <v>9.99</v>
+      </c>
+      <c r="E83">
+        <v>13000</v>
+      </c>
+      <c r="F83" t="s">
+        <v>105</v>
+      </c>
+      <c r="G83">
+        <v>117</v>
+      </c>
+      <c r="H83" t="s">
+        <v>22</v>
+      </c>
+      <c r="I83" t="s">
+        <v>23</v>
+      </c>
+      <c r="J83">
+        <v>90</v>
+      </c>
+      <c r="K83" t="s">
+        <v>22</v>
+      </c>
+      <c r="L83" t="s">
+        <v>24</v>
+      </c>
+      <c r="M83">
+        <v>30000</v>
+      </c>
+      <c r="N83" t="s">
+        <v>22</v>
+      </c>
+      <c r="O83" t="s">
+        <v>23</v>
+      </c>
+      <c r="P83">
+        <v>150</v>
+      </c>
+      <c r="Q83" t="s">
+        <v>22</v>
+      </c>
+      <c r="R83" t="s">
+        <v>23</v>
+      </c>
+      <c r="S83">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="84" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>106</v>
+      </c>
+      <c r="C84" t="b">
+        <v>0</v>
+      </c>
+      <c r="D84">
+        <v>9.99</v>
+      </c>
+      <c r="E84">
+        <v>13000</v>
+      </c>
+      <c r="F84" t="s">
+        <v>106</v>
+      </c>
+      <c r="G84">
+        <v>206</v>
+      </c>
+      <c r="H84" t="s">
+        <v>22</v>
+      </c>
+      <c r="I84" t="s">
+        <v>23</v>
+      </c>
+      <c r="J84">
+        <v>30</v>
+      </c>
+      <c r="K84" t="s">
+        <v>22</v>
+      </c>
+      <c r="L84" t="s">
+        <v>24</v>
+      </c>
+      <c r="M84">
+        <v>25000</v>
+      </c>
+      <c r="N84" t="s">
+        <v>22</v>
+      </c>
+      <c r="O84" t="s">
+        <v>23</v>
+      </c>
+      <c r="P84">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="85" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>107</v>
+      </c>
+      <c r="C85" t="b">
+        <v>0</v>
+      </c>
+      <c r="D85">
+        <v>19.989999999999998</v>
+      </c>
+      <c r="E85">
+        <v>25000</v>
+      </c>
+      <c r="F85" t="s">
+        <v>107</v>
+      </c>
+      <c r="G85">
+        <v>464</v>
+      </c>
+      <c r="H85" t="s">
+        <v>22</v>
+      </c>
+      <c r="I85" t="s">
+        <v>23</v>
+      </c>
+      <c r="J85">
+        <v>30</v>
+      </c>
+      <c r="K85" t="s">
+        <v>22</v>
+      </c>
+      <c r="L85" t="s">
+        <v>24</v>
+      </c>
+      <c r="M85">
+        <v>25000</v>
+      </c>
+      <c r="N85" t="s">
+        <v>22</v>
+      </c>
+      <c r="O85" t="s">
+        <v>23</v>
+      </c>
+      <c r="P85">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="86" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>108</v>
+      </c>
+      <c r="C86" t="b">
+        <v>0</v>
+      </c>
+      <c r="D86">
+        <v>39.99</v>
+      </c>
+      <c r="E86">
+        <v>48000</v>
+      </c>
+      <c r="F86" t="s">
+        <v>108</v>
+      </c>
+      <c r="G86">
+        <v>836</v>
+      </c>
+      <c r="H86" t="s">
+        <v>22</v>
+      </c>
+      <c r="I86" t="s">
+        <v>23</v>
+      </c>
+      <c r="J86">
+        <v>60</v>
+      </c>
+      <c r="K86" t="s">
+        <v>22</v>
+      </c>
+      <c r="L86" t="s">
+        <v>24</v>
+      </c>
+      <c r="M86">
+        <v>15000</v>
+      </c>
+      <c r="N86" t="s">
+        <v>22</v>
+      </c>
+      <c r="O86" t="s">
+        <v>23</v>
+      </c>
+      <c r="P86">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="87" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>109</v>
+      </c>
+      <c r="C87" t="b">
+        <v>0</v>
+      </c>
+      <c r="D87">
+        <v>49.99</v>
+      </c>
+      <c r="E87">
+        <v>69000</v>
+      </c>
+      <c r="F87" t="s">
+        <v>109</v>
+      </c>
+      <c r="G87">
+        <v>475</v>
+      </c>
+      <c r="H87" t="s">
+        <v>22</v>
+      </c>
+      <c r="I87" t="s">
+        <v>23</v>
+      </c>
+      <c r="J87">
+        <v>90</v>
+      </c>
+      <c r="K87" t="s">
+        <v>22</v>
+      </c>
+      <c r="L87" t="s">
+        <v>24</v>
+      </c>
+      <c r="M87">
+        <v>30000</v>
+      </c>
+      <c r="N87" t="s">
+        <v>22</v>
+      </c>
+      <c r="O87" t="s">
+        <v>23</v>
+      </c>
+      <c r="P87">
+        <v>150</v>
+      </c>
+      <c r="Q87" t="s">
+        <v>22</v>
+      </c>
+      <c r="R87" t="s">
+        <v>23</v>
+      </c>
+      <c r="S87">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="88" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>110</v>
+      </c>
+      <c r="C88" t="b">
+        <v>0</v>
+      </c>
+      <c r="D88">
         <v>99.99</v>
       </c>
-      <c r="E80">
+      <c r="E88">
         <v>109000</v>
       </c>
-      <c r="F80" t="s">
-        <v>116</v>
-      </c>
-      <c r="G80">
+      <c r="F88" t="s">
+        <v>110</v>
+      </c>
+      <c r="G88">
         <v>360</v>
       </c>
-      <c r="H80" t="s">
+      <c r="H88" t="s">
         <v>25</v>
       </c>
-      <c r="I80" t="s">
-        <v>117</v>
-      </c>
-      <c r="J80">
+      <c r="I88" t="s">
+        <v>111</v>
+      </c>
+      <c r="J88">
         <v>1</v>
       </c>
-      <c r="K80" t="s">
-        <v>22</v>
-      </c>
-      <c r="L80" t="s">
-        <v>23</v>
-      </c>
-      <c r="M80">
+      <c r="K88" t="s">
+        <v>22</v>
+      </c>
+      <c r="L88" t="s">
+        <v>23</v>
+      </c>
+      <c r="M88">
         <v>1000</v>
       </c>
-      <c r="N80" t="s">
-        <v>22</v>
-      </c>
-      <c r="O80" t="s">
-        <v>24</v>
-      </c>
-      <c r="P80">
+      <c r="N88" t="s">
+        <v>22</v>
+      </c>
+      <c r="O88" t="s">
+        <v>24</v>
+      </c>
+      <c r="P88">
         <v>25000</v>
       </c>
-      <c r="Q80" t="s">
-        <v>22</v>
-      </c>
-      <c r="R80" t="s">
-        <v>103</v>
-      </c>
-      <c r="S80">
+      <c r="Q88" t="s">
+        <v>22</v>
+      </c>
+      <c r="R88" t="s">
+        <v>98</v>
+      </c>
+      <c r="S88">
         <v>750</v>
       </c>
     </row>

--- a/Excel/Shop.xlsx
+++ b/Excel/Shop.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6005884-C045-4E67-AA6B-89111BA58FC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88037E36-5A39-4F26-A43B-76E4F292ACFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{1A95D980-8F25-43B6-BA87-364295A77694}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="601" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="601" uniqueCount="132">
   <si>
     <t>productId|String</t>
   </si>
@@ -376,9 +376,6 @@
     <t>Cash_sAutoNew</t>
   </si>
   <si>
-    <t>Item_cSevenTotal</t>
-  </si>
-  <si>
     <t>levelpass</t>
   </si>
   <si>
@@ -388,15 +385,6 @@
     <t>fortunewheel</t>
   </si>
   <si>
-    <t>Cash_sSevenSlot1</t>
-  </si>
-  <si>
-    <t>Cash_sSevenSlot3</t>
-  </si>
-  <si>
-    <t>Item_cFestival</t>
-  </si>
-  <si>
     <t>ev1_bigboost</t>
   </si>
   <si>
@@ -440,6 +428,12 @@
   </si>
   <si>
     <t>researchboost</t>
+  </si>
+  <si>
+    <t>Cash_sSevenTotal</t>
+  </si>
+  <si>
+    <t>Cash_sFestivalTotal</t>
   </si>
 </sst>
 </file>
@@ -893,7 +887,7 @@
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C2" t="b">
         <v>0</v>
@@ -905,7 +899,7 @@
         <v>13000</v>
       </c>
       <c r="F2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G2">
         <v>434</v>
@@ -922,7 +916,7 @@
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C3" t="b">
         <v>0</v>
@@ -934,7 +928,7 @@
         <v>13000</v>
       </c>
       <c r="F3" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="G3">
         <v>806</v>
@@ -960,7 +954,7 @@
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C4" t="b">
         <v>0</v>
@@ -972,7 +966,7 @@
         <v>6500</v>
       </c>
       <c r="F4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G4">
         <v>256</v>
@@ -1444,7 +1438,7 @@
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C15" t="b">
         <v>0</v>
@@ -1456,7 +1450,7 @@
         <v>1200</v>
       </c>
       <c r="F15" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G15">
         <v>741</v>
@@ -1541,10 +1535,10 @@
         <v>25</v>
       </c>
       <c r="I17" t="s">
-        <v>116</v>
+        <v>130</v>
       </c>
       <c r="J17">
-        <v>1</v>
+        <v>75</v>
       </c>
       <c r="K17" t="s">
         <v>22</v>
@@ -1635,10 +1629,10 @@
         <v>25</v>
       </c>
       <c r="I19" t="s">
-        <v>117</v>
+        <v>130</v>
       </c>
       <c r="J19">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="K19" t="s">
         <v>22</v>
@@ -1729,7 +1723,7 @@
         <v>25</v>
       </c>
       <c r="I21" t="s">
-        <v>112</v>
+        <v>130</v>
       </c>
       <c r="J21">
         <v>400</v>
@@ -1823,7 +1817,7 @@
         <v>25</v>
       </c>
       <c r="I23" t="s">
-        <v>112</v>
+        <v>130</v>
       </c>
       <c r="J23">
         <v>1200</v>
@@ -1917,7 +1911,7 @@
         <v>25</v>
       </c>
       <c r="I25" t="s">
-        <v>112</v>
+        <v>130</v>
       </c>
       <c r="J25">
         <v>300</v>
@@ -2011,7 +2005,7 @@
         <v>25</v>
       </c>
       <c r="I27" t="s">
-        <v>112</v>
+        <v>130</v>
       </c>
       <c r="J27">
         <v>1000</v>
@@ -2037,7 +2031,7 @@
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C28" t="b">
         <v>0</v>
@@ -2049,7 +2043,7 @@
         <v>13000</v>
       </c>
       <c r="F28" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="G28">
         <v>127</v>
@@ -2058,7 +2052,7 @@
         <v>25</v>
       </c>
       <c r="I28" t="s">
-        <v>118</v>
+        <v>131</v>
       </c>
       <c r="J28">
         <v>500</v>
@@ -2084,7 +2078,7 @@
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C29" t="b">
         <v>0</v>
@@ -2096,7 +2090,7 @@
         <v>19000</v>
       </c>
       <c r="F29" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="G29">
         <v>194</v>
@@ -2131,7 +2125,7 @@
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C30" t="b">
         <v>0</v>
@@ -2143,7 +2137,7 @@
         <v>39000</v>
       </c>
       <c r="F30" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="G30">
         <v>970</v>
@@ -2152,7 +2146,7 @@
         <v>25</v>
       </c>
       <c r="I30" t="s">
-        <v>118</v>
+        <v>131</v>
       </c>
       <c r="J30">
         <v>1500</v>
@@ -2178,7 +2172,7 @@
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C31" t="b">
         <v>0</v>
@@ -2190,7 +2184,7 @@
         <v>69000</v>
       </c>
       <c r="F31" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="G31">
         <v>874</v>
@@ -2225,7 +2219,7 @@
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C32" t="b">
         <v>0</v>
@@ -2237,7 +2231,7 @@
         <v>13000</v>
       </c>
       <c r="F32" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="G32">
         <v>127</v>
@@ -2246,7 +2240,7 @@
         <v>25</v>
       </c>
       <c r="I32" t="s">
-        <v>118</v>
+        <v>131</v>
       </c>
       <c r="J32">
         <v>500</v>
@@ -2272,7 +2266,7 @@
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C33" t="b">
         <v>0</v>
@@ -2284,7 +2278,7 @@
         <v>19000</v>
       </c>
       <c r="F33" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="G33">
         <v>194</v>
@@ -2319,7 +2313,7 @@
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C34" t="b">
         <v>0</v>
@@ -2331,7 +2325,7 @@
         <v>39000</v>
       </c>
       <c r="F34" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="G34">
         <v>970</v>
@@ -2340,7 +2334,7 @@
         <v>25</v>
       </c>
       <c r="I34" t="s">
-        <v>118</v>
+        <v>131</v>
       </c>
       <c r="J34">
         <v>1500</v>
@@ -2366,7 +2360,7 @@
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C35" t="b">
         <v>0</v>
@@ -2378,7 +2372,7 @@
         <v>69000</v>
       </c>
       <c r="F35" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="G35">
         <v>874</v>
@@ -2413,7 +2407,7 @@
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C36" t="b">
         <v>0</v>
@@ -2425,7 +2419,7 @@
         <v>13000</v>
       </c>
       <c r="F36" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="G36">
         <v>127</v>
@@ -2434,7 +2428,7 @@
         <v>25</v>
       </c>
       <c r="I36" t="s">
-        <v>118</v>
+        <v>131</v>
       </c>
       <c r="J36">
         <v>500</v>
@@ -2460,7 +2454,7 @@
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C37" t="b">
         <v>0</v>
@@ -2472,7 +2466,7 @@
         <v>19000</v>
       </c>
       <c r="F37" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="G37">
         <v>194</v>
@@ -2507,7 +2501,7 @@
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C38" t="b">
         <v>0</v>
@@ -2519,7 +2513,7 @@
         <v>39000</v>
       </c>
       <c r="F38" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="G38">
         <v>970</v>
@@ -2528,7 +2522,7 @@
         <v>25</v>
       </c>
       <c r="I38" t="s">
-        <v>118</v>
+        <v>131</v>
       </c>
       <c r="J38">
         <v>1500</v>
@@ -2554,7 +2548,7 @@
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="C39" t="b">
         <v>0</v>
@@ -2566,7 +2560,7 @@
         <v>69000</v>
       </c>
       <c r="F39" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="G39">
         <v>874</v>
@@ -3780,7 +3774,7 @@
     </row>
     <row r="76" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="C76" t="b">
         <v>0</v>
@@ -3792,7 +3786,7 @@
         <v>5900</v>
       </c>
       <c r="F76" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="G76">
         <v>456</v>
@@ -3818,7 +3812,7 @@
     </row>
     <row r="77" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C77" t="b">
         <v>0</v>
@@ -3830,7 +3824,7 @@
         <v>5900</v>
       </c>
       <c r="F77" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="G77">
         <v>664</v>

--- a/Excel/Shop.xlsx
+++ b/Excel/Shop.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88037E36-5A39-4F26-A43B-76E4F292ACFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{940E0F56-FB5B-4A47-8DE7-CC29E44F0F54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{1A95D980-8F25-43B6-BA87-364295A77694}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="3" xr2:uid="{1A95D980-8F25-43B6-BA87-364295A77694}"/>
   </bookViews>
   <sheets>
     <sheet name="ShopProductTable" sheetId="1" r:id="rId1"/>
     <sheet name="LevelPassTable" sheetId="2" r:id="rId2"/>
     <sheet name="ConsumeItemTable" sheetId="3" r:id="rId3"/>
+    <sheet name="StageClearTable" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="601" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="609" uniqueCount="135">
   <si>
     <t>productId|String</t>
   </si>
@@ -434,6 +435,15 @@
   </si>
   <si>
     <t>Cash_sFestivalTotal</t>
+  </si>
+  <si>
+    <t>num|Int</t>
+  </si>
+  <si>
+    <t>stagecleared|Int</t>
+  </si>
+  <si>
+    <t>shopProductId|String</t>
   </si>
 </sst>
 </file>
@@ -799,8 +809,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED115DDC-E095-4A60-B3EA-80FAE0A4BDBC}">
   <dimension ref="A1:V88"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A71" sqref="A71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4560,4 +4570,90 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F60B4CD-6BF4-4390-A11A-0E0146736787}">
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="15.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <v>5</v>
+      </c>
+      <c r="C5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>7</v>
+      </c>
+      <c r="B6">
+        <v>10</v>
+      </c>
+      <c r="C6" t="s">
+        <v>96</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Excel/Shop.xlsx
+++ b/Excel/Shop.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{940E0F56-FB5B-4A47-8DE7-CC29E44F0F54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{442130DC-46EA-477F-B98E-1DB125A4EE32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="3" xr2:uid="{1A95D980-8F25-43B6-BA87-364295A77694}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{1A95D980-8F25-43B6-BA87-364295A77694}"/>
   </bookViews>
   <sheets>
     <sheet name="ShopProductTable" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="609" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="612" uniqueCount="138">
   <si>
     <t>productId|String</t>
   </si>
@@ -444,6 +444,15 @@
   </si>
   <si>
     <t>shopProductId|String</t>
+  </si>
+  <si>
+    <t>times|Int</t>
+  </si>
+  <si>
+    <t>preEng|Float</t>
+  </si>
+  <si>
+    <t>preKor|Int</t>
   </si>
 </sst>
 </file>
@@ -807,27 +816,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED115DDC-E095-4A60-B3EA-80FAE0A4BDBC}">
-  <dimension ref="A1:V88"/>
+  <dimension ref="A1:Y88"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
       <selection activeCell="A71" sqref="A71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="15.625" customWidth="1"/>
-    <col min="2" max="3" width="9.25" customWidth="1"/>
-    <col min="5" max="5" width="9.25" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.5" customWidth="1"/>
-    <col min="7" max="7" width="6.625" customWidth="1"/>
-    <col min="9" max="9" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="6" width="9.25" customWidth="1"/>
+    <col min="8" max="8" width="9.25" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.5" customWidth="1"/>
+    <col min="10" max="10" width="6.625" customWidth="1"/>
     <col min="12" max="12" width="19.5" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="19.5" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="19.5" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="19.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:25" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -838,310 +847,319 @@
         <v>6</v>
       </c>
       <c r="D1" t="s">
+        <v>135</v>
+      </c>
+      <c r="E1" t="s">
+        <v>136</v>
+      </c>
+      <c r="F1" t="s">
+        <v>137</v>
+      </c>
+      <c r="G1" t="s">
         <v>1</v>
       </c>
-      <c r="E1" t="s">
+      <c r="H1" t="s">
         <v>2</v>
       </c>
-      <c r="F1" t="s">
+      <c r="I1" t="s">
         <v>3</v>
       </c>
-      <c r="G1" t="s">
+      <c r="J1" t="s">
         <v>42</v>
       </c>
-      <c r="H1" t="s">
+      <c r="K1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="L1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="M1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="N1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="O1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="P1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="Q1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="R1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
+      <c r="S1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="T1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" t="s">
+      <c r="U1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" t="s">
+      <c r="V1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" t="s">
+      <c r="W1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" t="s">
+      <c r="X1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" t="s">
+      <c r="Y1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>112</v>
       </c>
       <c r="C2" t="b">
         <v>0</v>
       </c>
-      <c r="D2">
+      <c r="G2">
         <v>9.99</v>
       </c>
-      <c r="E2">
+      <c r="H2">
         <v>13000</v>
       </c>
-      <c r="F2" t="s">
+      <c r="I2" t="s">
         <v>112</v>
       </c>
-      <c r="G2">
+      <c r="J2">
         <v>434</v>
       </c>
-      <c r="H2" t="s">
+      <c r="K2" t="s">
         <v>25</v>
       </c>
-      <c r="I2" t="s">
+      <c r="L2" t="s">
         <v>26</v>
       </c>
-      <c r="J2">
+      <c r="M2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>115</v>
       </c>
       <c r="C3" t="b">
         <v>0</v>
       </c>
-      <c r="D3">
+      <c r="G3">
         <v>9.99</v>
       </c>
-      <c r="E3">
+      <c r="H3">
         <v>13000</v>
       </c>
-      <c r="F3" t="s">
+      <c r="I3" t="s">
         <v>115</v>
       </c>
-      <c r="G3">
+      <c r="J3">
         <v>806</v>
       </c>
-      <c r="H3" t="s">
-        <v>22</v>
-      </c>
-      <c r="I3" t="s">
-        <v>23</v>
-      </c>
-      <c r="J3">
+      <c r="K3" t="s">
+        <v>22</v>
+      </c>
+      <c r="L3" t="s">
+        <v>23</v>
+      </c>
+      <c r="M3">
         <v>600</v>
       </c>
-      <c r="K3" t="s">
-        <v>22</v>
-      </c>
-      <c r="L3" t="s">
-        <v>24</v>
-      </c>
-      <c r="M3">
+      <c r="N3" t="s">
+        <v>22</v>
+      </c>
+      <c r="O3" t="s">
+        <v>24</v>
+      </c>
+      <c r="P3">
         <v>50000</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>113</v>
       </c>
       <c r="C4" t="b">
         <v>0</v>
       </c>
-      <c r="D4">
+      <c r="G4">
         <v>4.99</v>
       </c>
-      <c r="E4">
+      <c r="H4">
         <v>6500</v>
       </c>
-      <c r="F4" t="s">
+      <c r="I4" t="s">
         <v>113</v>
       </c>
-      <c r="G4">
+      <c r="J4">
         <v>256</v>
       </c>
-      <c r="H4" t="s">
+      <c r="K4" t="s">
         <v>25</v>
       </c>
-      <c r="I4" t="s">
+      <c r="L4" t="s">
         <v>29</v>
       </c>
-      <c r="J4">
+      <c r="M4">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>35</v>
       </c>
       <c r="C5" t="b">
         <v>0</v>
       </c>
-      <c r="D5">
+      <c r="G5">
         <v>14.99</v>
       </c>
-      <c r="E5">
+      <c r="H5">
         <v>19000</v>
       </c>
-      <c r="F5" t="s">
+      <c r="I5" t="s">
         <v>35</v>
       </c>
-      <c r="G5">
+      <c r="J5">
         <v>876</v>
       </c>
-      <c r="H5" t="s">
-        <v>22</v>
-      </c>
-      <c r="I5" t="s">
-        <v>23</v>
-      </c>
-      <c r="J5">
+      <c r="K5" t="s">
+        <v>22</v>
+      </c>
+      <c r="L5" t="s">
+        <v>23</v>
+      </c>
+      <c r="M5">
         <v>30</v>
       </c>
-      <c r="K5" t="s">
-        <v>22</v>
-      </c>
-      <c r="L5" t="s">
-        <v>24</v>
-      </c>
-      <c r="M5">
+      <c r="N5" t="s">
+        <v>22</v>
+      </c>
+      <c r="O5" t="s">
+        <v>24</v>
+      </c>
+      <c r="P5">
         <v>25000</v>
       </c>
-      <c r="N5" t="s">
-        <v>22</v>
-      </c>
-      <c r="O5" t="s">
-        <v>23</v>
-      </c>
-      <c r="P5">
+      <c r="Q5" t="s">
+        <v>22</v>
+      </c>
+      <c r="R5" t="s">
+        <v>23</v>
+      </c>
+      <c r="S5">
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>36</v>
       </c>
       <c r="C6" t="b">
         <v>0</v>
       </c>
-      <c r="D6">
+      <c r="G6">
         <v>29.99</v>
       </c>
-      <c r="E6">
+      <c r="H6">
         <v>39000</v>
       </c>
-      <c r="F6" t="s">
+      <c r="I6" t="s">
         <v>36</v>
       </c>
-      <c r="G6">
+      <c r="J6">
         <v>973</v>
       </c>
-      <c r="H6" t="s">
-        <v>22</v>
-      </c>
-      <c r="I6" t="s">
-        <v>23</v>
-      </c>
-      <c r="J6">
+      <c r="K6" t="s">
+        <v>22</v>
+      </c>
+      <c r="L6" t="s">
+        <v>23</v>
+      </c>
+      <c r="M6">
         <v>60</v>
       </c>
-      <c r="K6" t="s">
-        <v>22</v>
-      </c>
-      <c r="L6" t="s">
-        <v>24</v>
-      </c>
-      <c r="M6">
+      <c r="N6" t="s">
+        <v>22</v>
+      </c>
+      <c r="O6" t="s">
+        <v>24</v>
+      </c>
+      <c r="P6">
         <v>15000</v>
       </c>
-      <c r="N6" t="s">
-        <v>22</v>
-      </c>
-      <c r="O6" t="s">
-        <v>23</v>
-      </c>
-      <c r="P6">
+      <c r="Q6" t="s">
+        <v>22</v>
+      </c>
+      <c r="R6" t="s">
+        <v>23</v>
+      </c>
+      <c r="S6">
         <v>120</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>37</v>
       </c>
       <c r="C7" t="b">
         <v>0</v>
       </c>
-      <c r="D7">
+      <c r="G7">
         <v>49.99</v>
       </c>
-      <c r="E7">
+      <c r="H7">
         <v>69000</v>
       </c>
-      <c r="F7" t="s">
+      <c r="I7" t="s">
         <v>37</v>
       </c>
-      <c r="G7">
+      <c r="J7">
         <v>180</v>
       </c>
-      <c r="H7" t="s">
-        <v>22</v>
-      </c>
-      <c r="I7" t="s">
-        <v>23</v>
-      </c>
-      <c r="J7">
+      <c r="K7" t="s">
+        <v>22</v>
+      </c>
+      <c r="L7" t="s">
+        <v>23</v>
+      </c>
+      <c r="M7">
         <v>90</v>
       </c>
-      <c r="K7" t="s">
-        <v>22</v>
-      </c>
-      <c r="L7" t="s">
-        <v>24</v>
-      </c>
-      <c r="M7">
+      <c r="N7" t="s">
+        <v>22</v>
+      </c>
+      <c r="O7" t="s">
+        <v>24</v>
+      </c>
+      <c r="P7">
         <v>30000</v>
       </c>
-      <c r="N7" t="s">
-        <v>22</v>
-      </c>
-      <c r="O7" t="s">
-        <v>23</v>
-      </c>
-      <c r="P7">
+      <c r="Q7" t="s">
+        <v>22</v>
+      </c>
+      <c r="R7" t="s">
+        <v>23</v>
+      </c>
+      <c r="S7">
         <v>150</v>
       </c>
-      <c r="Q7" t="s">
-        <v>22</v>
-      </c>
-      <c r="R7" t="s">
-        <v>23</v>
-      </c>
-      <c r="S7">
+      <c r="T7" t="s">
+        <v>22</v>
+      </c>
+      <c r="U7" t="s">
+        <v>23</v>
+      </c>
+      <c r="V7">
         <v>300</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>38</v>
       </c>
@@ -1151,38 +1169,38 @@
       <c r="C8" t="b">
         <v>1</v>
       </c>
-      <c r="G8">
+      <c r="J8">
         <v>721</v>
       </c>
-      <c r="H8" t="s">
-        <v>22</v>
-      </c>
-      <c r="I8" t="s">
-        <v>23</v>
-      </c>
-      <c r="J8">
+      <c r="K8" t="s">
+        <v>22</v>
+      </c>
+      <c r="L8" t="s">
+        <v>23</v>
+      </c>
+      <c r="M8">
         <v>80</v>
       </c>
-      <c r="K8" t="s">
-        <v>22</v>
-      </c>
-      <c r="L8" t="s">
-        <v>24</v>
-      </c>
-      <c r="M8">
+      <c r="N8" t="s">
+        <v>22</v>
+      </c>
+      <c r="O8" t="s">
+        <v>24</v>
+      </c>
+      <c r="P8">
         <v>35000</v>
       </c>
-      <c r="N8" t="s">
-        <v>22</v>
-      </c>
-      <c r="O8" t="s">
-        <v>23</v>
-      </c>
-      <c r="P8">
+      <c r="Q8" t="s">
+        <v>22</v>
+      </c>
+      <c r="R8" t="s">
+        <v>23</v>
+      </c>
+      <c r="S8">
         <v>170</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>39</v>
       </c>
@@ -1192,20 +1210,20 @@
       <c r="C9" t="b">
         <v>1</v>
       </c>
-      <c r="G9">
+      <c r="J9">
         <v>884</v>
       </c>
-      <c r="H9" t="s">
-        <v>22</v>
-      </c>
-      <c r="I9" t="s">
-        <v>23</v>
-      </c>
-      <c r="J9">
+      <c r="K9" t="s">
+        <v>22</v>
+      </c>
+      <c r="L9" t="s">
+        <v>23</v>
+      </c>
+      <c r="M9">
         <v>150</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>40</v>
       </c>
@@ -1215,56 +1233,56 @@
       <c r="C10" t="b">
         <v>0</v>
       </c>
-      <c r="D10">
+      <c r="G10">
         <v>1.99</v>
       </c>
-      <c r="E10">
+      <c r="H10">
         <v>2500</v>
       </c>
-      <c r="F10" t="s">
+      <c r="I10" t="s">
         <v>40</v>
       </c>
-      <c r="G10">
+      <c r="J10">
         <v>217</v>
       </c>
-      <c r="H10" t="s">
-        <v>22</v>
-      </c>
-      <c r="I10" t="s">
-        <v>24</v>
-      </c>
-      <c r="J10">
+      <c r="K10" t="s">
+        <v>22</v>
+      </c>
+      <c r="L10" t="s">
+        <v>24</v>
+      </c>
+      <c r="M10">
         <v>20000</v>
       </c>
-      <c r="K10" t="s">
-        <v>22</v>
-      </c>
-      <c r="L10" t="s">
-        <v>23</v>
-      </c>
-      <c r="M10">
+      <c r="N10" t="s">
+        <v>22</v>
+      </c>
+      <c r="O10" t="s">
+        <v>23</v>
+      </c>
+      <c r="P10">
         <v>150</v>
       </c>
-      <c r="N10" t="s">
-        <v>22</v>
-      </c>
-      <c r="O10" t="s">
-        <v>24</v>
-      </c>
-      <c r="P10">
+      <c r="Q10" t="s">
+        <v>22</v>
+      </c>
+      <c r="R10" t="s">
+        <v>24</v>
+      </c>
+      <c r="S10">
         <v>35000</v>
       </c>
-      <c r="Q10" t="s">
-        <v>22</v>
-      </c>
-      <c r="R10" t="s">
-        <v>23</v>
-      </c>
-      <c r="S10">
+      <c r="T10" t="s">
+        <v>22</v>
+      </c>
+      <c r="U10" t="s">
+        <v>23</v>
+      </c>
+      <c r="V10">
         <v>200</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>41</v>
       </c>
@@ -1274,29 +1292,29 @@
       <c r="C11" t="b">
         <v>1</v>
       </c>
-      <c r="G11">
+      <c r="J11">
         <v>394</v>
       </c>
-      <c r="H11" t="s">
-        <v>22</v>
-      </c>
-      <c r="I11" t="s">
-        <v>23</v>
-      </c>
-      <c r="J11">
+      <c r="K11" t="s">
+        <v>22</v>
+      </c>
+      <c r="L11" t="s">
+        <v>23</v>
+      </c>
+      <c r="M11">
         <v>150</v>
       </c>
-      <c r="K11" t="s">
-        <v>22</v>
-      </c>
-      <c r="L11" t="s">
-        <v>24</v>
-      </c>
-      <c r="M11">
+      <c r="N11" t="s">
+        <v>22</v>
+      </c>
+      <c r="O11" t="s">
+        <v>24</v>
+      </c>
+      <c r="P11">
         <v>20000</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>32</v>
       </c>
@@ -1306,56 +1324,56 @@
       <c r="C12" t="b">
         <v>0</v>
       </c>
-      <c r="D12">
+      <c r="G12">
         <v>19.989999999999998</v>
       </c>
-      <c r="E12">
+      <c r="H12">
         <v>25000</v>
       </c>
-      <c r="F12" t="s">
+      <c r="I12" t="s">
         <v>32</v>
       </c>
-      <c r="G12">
+      <c r="J12">
         <v>548</v>
       </c>
-      <c r="H12" t="s">
-        <v>22</v>
-      </c>
-      <c r="I12" t="s">
-        <v>23</v>
-      </c>
-      <c r="J12">
+      <c r="K12" t="s">
+        <v>22</v>
+      </c>
+      <c r="L12" t="s">
+        <v>23</v>
+      </c>
+      <c r="M12">
         <v>350</v>
       </c>
-      <c r="K12" t="s">
-        <v>22</v>
-      </c>
-      <c r="L12" t="s">
-        <v>24</v>
-      </c>
-      <c r="M12">
+      <c r="N12" t="s">
+        <v>22</v>
+      </c>
+      <c r="O12" t="s">
+        <v>24</v>
+      </c>
+      <c r="P12">
         <v>80000</v>
       </c>
-      <c r="N12" t="s">
-        <v>22</v>
-      </c>
-      <c r="O12" t="s">
-        <v>23</v>
-      </c>
-      <c r="P12">
+      <c r="Q12" t="s">
+        <v>22</v>
+      </c>
+      <c r="R12" t="s">
+        <v>23</v>
+      </c>
+      <c r="S12">
         <v>800</v>
       </c>
-      <c r="Q12" t="s">
-        <v>22</v>
-      </c>
-      <c r="R12" t="s">
-        <v>24</v>
-      </c>
-      <c r="S12">
+      <c r="T12" t="s">
+        <v>22</v>
+      </c>
+      <c r="U12" t="s">
+        <v>24</v>
+      </c>
+      <c r="V12">
         <v>100000</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>33</v>
       </c>
@@ -1365,38 +1383,38 @@
       <c r="C13" t="b">
         <v>1</v>
       </c>
-      <c r="G13">
+      <c r="J13">
         <v>537</v>
       </c>
-      <c r="H13" t="s">
-        <v>22</v>
-      </c>
-      <c r="I13" t="s">
-        <v>24</v>
-      </c>
-      <c r="J13">
+      <c r="K13" t="s">
+        <v>22</v>
+      </c>
+      <c r="L13" t="s">
+        <v>24</v>
+      </c>
+      <c r="M13">
         <v>50000</v>
       </c>
-      <c r="K13" t="s">
-        <v>22</v>
-      </c>
-      <c r="L13" t="s">
-        <v>23</v>
-      </c>
-      <c r="M13">
+      <c r="N13" t="s">
+        <v>22</v>
+      </c>
+      <c r="O13" t="s">
+        <v>23</v>
+      </c>
+      <c r="P13">
         <v>500</v>
       </c>
-      <c r="N13" t="s">
-        <v>22</v>
-      </c>
-      <c r="O13" t="s">
-        <v>24</v>
-      </c>
-      <c r="P13">
+      <c r="Q13" t="s">
+        <v>22</v>
+      </c>
+      <c r="R13" t="s">
+        <v>24</v>
+      </c>
+      <c r="S13">
         <v>70000</v>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>34</v>
       </c>
@@ -1406,155 +1424,146 @@
       <c r="C14" t="b">
         <v>1</v>
       </c>
-      <c r="G14">
+      <c r="J14">
         <v>314</v>
       </c>
-      <c r="H14" t="s">
-        <v>22</v>
-      </c>
-      <c r="I14" t="s">
-        <v>23</v>
-      </c>
-      <c r="J14">
+      <c r="K14" t="s">
+        <v>22</v>
+      </c>
+      <c r="L14" t="s">
+        <v>23</v>
+      </c>
+      <c r="M14">
         <v>450</v>
       </c>
-      <c r="K14" t="s">
-        <v>22</v>
-      </c>
-      <c r="L14" t="s">
-        <v>24</v>
-      </c>
-      <c r="M14">
+      <c r="N14" t="s">
+        <v>22</v>
+      </c>
+      <c r="O14" t="s">
+        <v>24</v>
+      </c>
+      <c r="P14">
         <v>60000</v>
       </c>
-      <c r="N14" t="s">
-        <v>22</v>
-      </c>
-      <c r="O14" t="s">
-        <v>24</v>
-      </c>
-      <c r="P14">
+      <c r="Q14" t="s">
+        <v>22</v>
+      </c>
+      <c r="R14" t="s">
+        <v>24</v>
+      </c>
+      <c r="S14">
         <v>90000</v>
       </c>
-      <c r="Q14" t="s">
-        <v>22</v>
-      </c>
-      <c r="R14" t="s">
-        <v>23</v>
-      </c>
-      <c r="S14">
+      <c r="T14" t="s">
+        <v>22</v>
+      </c>
+      <c r="U14" t="s">
+        <v>23</v>
+      </c>
+      <c r="V14">
         <v>650</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>114</v>
       </c>
       <c r="C15" t="b">
         <v>0</v>
       </c>
-      <c r="D15">
+      <c r="G15">
         <v>0.99</v>
       </c>
-      <c r="E15">
+      <c r="H15">
         <v>1200</v>
       </c>
-      <c r="F15" t="s">
+      <c r="I15" t="s">
         <v>114</v>
       </c>
-      <c r="G15">
+      <c r="J15">
         <v>741</v>
       </c>
-      <c r="H15" t="s">
+      <c r="K15" t="s">
         <v>25</v>
       </c>
-      <c r="I15" t="s">
+      <c r="L15" t="s">
         <v>88</v>
       </c>
-      <c r="J15">
+      <c r="M15">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>43</v>
       </c>
       <c r="C16" t="b">
         <v>0</v>
       </c>
-      <c r="D16">
+      <c r="G16">
         <v>9.99</v>
       </c>
-      <c r="E16">
+      <c r="H16">
         <v>13000</v>
       </c>
-      <c r="F16" t="s">
+      <c r="I16" t="s">
         <v>43</v>
       </c>
-      <c r="G16">
+      <c r="J16">
         <v>513</v>
       </c>
-      <c r="H16" t="s">
-        <v>22</v>
-      </c>
-      <c r="I16" t="s">
-        <v>23</v>
-      </c>
-      <c r="J16">
+      <c r="K16" t="s">
+        <v>22</v>
+      </c>
+      <c r="L16" t="s">
+        <v>23</v>
+      </c>
+      <c r="M16">
         <v>100</v>
       </c>
-      <c r="K16" t="s">
-        <v>22</v>
-      </c>
-      <c r="L16" t="s">
-        <v>23</v>
-      </c>
-      <c r="M16">
+      <c r="N16" t="s">
+        <v>22</v>
+      </c>
+      <c r="O16" t="s">
+        <v>23</v>
+      </c>
+      <c r="P16">
         <v>50</v>
       </c>
-      <c r="N16" t="s">
-        <v>22</v>
-      </c>
-      <c r="O16" t="s">
-        <v>24</v>
-      </c>
-      <c r="P16">
+      <c r="Q16" t="s">
+        <v>22</v>
+      </c>
+      <c r="R16" t="s">
+        <v>24</v>
+      </c>
+      <c r="S16">
         <v>10000</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>44</v>
       </c>
       <c r="C17" t="b">
         <v>0</v>
       </c>
-      <c r="D17">
+      <c r="G17">
         <v>14.99</v>
       </c>
-      <c r="E17">
+      <c r="H17">
         <v>19000</v>
       </c>
-      <c r="F17" t="s">
+      <c r="I17" t="s">
         <v>44</v>
       </c>
-      <c r="G17">
+      <c r="J17">
         <v>981</v>
       </c>
-      <c r="H17" t="s">
+      <c r="K17" t="s">
         <v>25</v>
       </c>
-      <c r="I17" t="s">
+      <c r="L17" t="s">
         <v>130</v>
-      </c>
-      <c r="J17">
-        <v>75</v>
-      </c>
-      <c r="K17" t="s">
-        <v>22</v>
-      </c>
-      <c r="L17" t="s">
-        <v>23</v>
       </c>
       <c r="M17">
         <v>75</v>
@@ -1563,1946 +1572,1955 @@
         <v>22</v>
       </c>
       <c r="O17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="P17">
+        <v>75</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>22</v>
+      </c>
+      <c r="R17" t="s">
+        <v>24</v>
+      </c>
+      <c r="S17">
         <v>20000</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>45</v>
       </c>
       <c r="C18" t="b">
         <v>0</v>
       </c>
-      <c r="D18">
+      <c r="G18">
         <v>29.99</v>
       </c>
-      <c r="E18">
+      <c r="H18">
         <v>39000</v>
       </c>
-      <c r="F18" t="s">
+      <c r="I18" t="s">
         <v>45</v>
       </c>
-      <c r="G18">
+      <c r="J18">
         <v>112</v>
       </c>
-      <c r="H18" t="s">
-        <v>22</v>
-      </c>
-      <c r="I18" t="s">
-        <v>23</v>
-      </c>
-      <c r="J18">
+      <c r="K18" t="s">
+        <v>22</v>
+      </c>
+      <c r="L18" t="s">
+        <v>23</v>
+      </c>
+      <c r="M18">
         <v>300</v>
       </c>
-      <c r="K18" t="s">
-        <v>22</v>
-      </c>
-      <c r="L18" t="s">
-        <v>23</v>
-      </c>
-      <c r="M18">
+      <c r="N18" t="s">
+        <v>22</v>
+      </c>
+      <c r="O18" t="s">
+        <v>23</v>
+      </c>
+      <c r="P18">
         <v>100</v>
       </c>
-      <c r="N18" t="s">
-        <v>22</v>
-      </c>
-      <c r="O18" t="s">
-        <v>24</v>
-      </c>
-      <c r="P18">
+      <c r="Q18" t="s">
+        <v>22</v>
+      </c>
+      <c r="R18" t="s">
+        <v>24</v>
+      </c>
+      <c r="S18">
         <v>40000</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>46</v>
       </c>
       <c r="C19" t="b">
         <v>0</v>
       </c>
-      <c r="D19">
+      <c r="G19">
         <v>49.99</v>
       </c>
-      <c r="E19">
+      <c r="H19">
         <v>69000</v>
       </c>
-      <c r="F19" t="s">
+      <c r="I19" t="s">
         <v>46</v>
       </c>
-      <c r="G19">
+      <c r="J19">
         <v>152</v>
       </c>
-      <c r="H19" t="s">
+      <c r="K19" t="s">
         <v>25</v>
       </c>
-      <c r="I19" t="s">
+      <c r="L19" t="s">
         <v>130</v>
       </c>
-      <c r="J19">
+      <c r="M19">
         <v>200</v>
       </c>
-      <c r="K19" t="s">
-        <v>22</v>
-      </c>
-      <c r="L19" t="s">
-        <v>23</v>
-      </c>
-      <c r="M19">
+      <c r="N19" t="s">
+        <v>22</v>
+      </c>
+      <c r="O19" t="s">
+        <v>23</v>
+      </c>
+      <c r="P19">
         <v>500</v>
       </c>
-      <c r="N19" t="s">
-        <v>22</v>
-      </c>
-      <c r="O19" t="s">
-        <v>24</v>
-      </c>
-      <c r="P19">
+      <c r="Q19" t="s">
+        <v>22</v>
+      </c>
+      <c r="R19" t="s">
+        <v>24</v>
+      </c>
+      <c r="S19">
         <v>60000</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>47</v>
       </c>
       <c r="C20" t="b">
         <v>0</v>
       </c>
-      <c r="D20">
+      <c r="G20">
         <v>9.99</v>
       </c>
-      <c r="E20">
+      <c r="H20">
         <v>13000</v>
       </c>
-      <c r="F20" t="s">
+      <c r="I20" t="s">
         <v>47</v>
       </c>
-      <c r="G20">
+      <c r="J20">
         <v>293</v>
       </c>
-      <c r="H20" t="s">
-        <v>22</v>
-      </c>
-      <c r="I20" t="s">
-        <v>23</v>
-      </c>
-      <c r="J20">
+      <c r="K20" t="s">
+        <v>22</v>
+      </c>
+      <c r="L20" t="s">
+        <v>23</v>
+      </c>
+      <c r="M20">
         <v>100</v>
       </c>
-      <c r="K20" t="s">
-        <v>22</v>
-      </c>
-      <c r="L20" t="s">
-        <v>23</v>
-      </c>
-      <c r="M20">
+      <c r="N20" t="s">
+        <v>22</v>
+      </c>
+      <c r="O20" t="s">
+        <v>23</v>
+      </c>
+      <c r="P20">
         <v>50</v>
       </c>
-      <c r="N20" t="s">
-        <v>22</v>
-      </c>
-      <c r="O20" t="s">
-        <v>24</v>
-      </c>
-      <c r="P20">
+      <c r="Q20" t="s">
+        <v>22</v>
+      </c>
+      <c r="R20" t="s">
+        <v>24</v>
+      </c>
+      <c r="S20">
         <v>10000</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>48</v>
       </c>
       <c r="C21" t="b">
         <v>0</v>
       </c>
-      <c r="D21">
+      <c r="G21">
         <v>14.99</v>
       </c>
-      <c r="E21">
+      <c r="H21">
         <v>19000</v>
       </c>
-      <c r="F21" t="s">
+      <c r="I21" t="s">
         <v>48</v>
       </c>
-      <c r="G21">
+      <c r="J21">
         <v>364</v>
       </c>
-      <c r="H21" t="s">
+      <c r="K21" t="s">
         <v>25</v>
       </c>
-      <c r="I21" t="s">
+      <c r="L21" t="s">
         <v>130</v>
       </c>
-      <c r="J21">
+      <c r="M21">
         <v>400</v>
       </c>
-      <c r="K21" t="s">
-        <v>22</v>
-      </c>
-      <c r="L21" t="s">
-        <v>23</v>
-      </c>
-      <c r="M21">
+      <c r="N21" t="s">
+        <v>22</v>
+      </c>
+      <c r="O21" t="s">
+        <v>23</v>
+      </c>
+      <c r="P21">
         <v>75</v>
       </c>
-      <c r="N21" t="s">
-        <v>22</v>
-      </c>
-      <c r="O21" t="s">
-        <v>24</v>
-      </c>
-      <c r="P21">
+      <c r="Q21" t="s">
+        <v>22</v>
+      </c>
+      <c r="R21" t="s">
+        <v>24</v>
+      </c>
+      <c r="S21">
         <v>20000</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>49</v>
       </c>
       <c r="C22" t="b">
         <v>0</v>
       </c>
-      <c r="D22">
+      <c r="G22">
         <v>29.99</v>
       </c>
-      <c r="E22">
+      <c r="H22">
         <v>39000</v>
       </c>
-      <c r="F22" t="s">
+      <c r="I22" t="s">
         <v>49</v>
       </c>
-      <c r="G22">
+      <c r="J22">
         <v>440</v>
       </c>
-      <c r="H22" t="s">
-        <v>22</v>
-      </c>
-      <c r="I22" t="s">
-        <v>23</v>
-      </c>
-      <c r="J22">
+      <c r="K22" t="s">
+        <v>22</v>
+      </c>
+      <c r="L22" t="s">
+        <v>23</v>
+      </c>
+      <c r="M22">
         <v>300</v>
       </c>
-      <c r="K22" t="s">
-        <v>22</v>
-      </c>
-      <c r="L22" t="s">
-        <v>23</v>
-      </c>
-      <c r="M22">
+      <c r="N22" t="s">
+        <v>22</v>
+      </c>
+      <c r="O22" t="s">
+        <v>23</v>
+      </c>
+      <c r="P22">
         <v>100</v>
       </c>
-      <c r="N22" t="s">
-        <v>22</v>
-      </c>
-      <c r="O22" t="s">
-        <v>24</v>
-      </c>
-      <c r="P22">
+      <c r="Q22" t="s">
+        <v>22</v>
+      </c>
+      <c r="R22" t="s">
+        <v>24</v>
+      </c>
+      <c r="S22">
         <v>40000</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>50</v>
       </c>
       <c r="C23" t="b">
         <v>0</v>
       </c>
-      <c r="D23">
+      <c r="G23">
         <v>49.99</v>
       </c>
-      <c r="E23">
+      <c r="H23">
         <v>69000</v>
       </c>
-      <c r="F23" t="s">
+      <c r="I23" t="s">
         <v>50</v>
       </c>
-      <c r="G23">
+      <c r="J23">
         <v>335</v>
       </c>
-      <c r="H23" t="s">
+      <c r="K23" t="s">
         <v>25</v>
       </c>
-      <c r="I23" t="s">
+      <c r="L23" t="s">
         <v>130</v>
       </c>
-      <c r="J23">
+      <c r="M23">
         <v>1200</v>
       </c>
-      <c r="K23" t="s">
-        <v>22</v>
-      </c>
-      <c r="L23" t="s">
-        <v>23</v>
-      </c>
-      <c r="M23">
+      <c r="N23" t="s">
+        <v>22</v>
+      </c>
+      <c r="O23" t="s">
+        <v>23</v>
+      </c>
+      <c r="P23">
         <v>500</v>
       </c>
-      <c r="N23" t="s">
-        <v>22</v>
-      </c>
-      <c r="O23" t="s">
-        <v>24</v>
-      </c>
-      <c r="P23">
+      <c r="Q23" t="s">
+        <v>22</v>
+      </c>
+      <c r="R23" t="s">
+        <v>24</v>
+      </c>
+      <c r="S23">
         <v>60000</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>51</v>
       </c>
       <c r="C24" t="b">
         <v>0</v>
       </c>
-      <c r="D24">
+      <c r="G24">
         <v>9.99</v>
       </c>
-      <c r="E24">
+      <c r="H24">
         <v>13000</v>
       </c>
-      <c r="F24" t="s">
+      <c r="I24" t="s">
         <v>51</v>
       </c>
-      <c r="G24">
+      <c r="J24">
         <v>349</v>
       </c>
-      <c r="H24" t="s">
-        <v>22</v>
-      </c>
-      <c r="I24" t="s">
-        <v>23</v>
-      </c>
-      <c r="J24">
+      <c r="K24" t="s">
+        <v>22</v>
+      </c>
+      <c r="L24" t="s">
+        <v>23</v>
+      </c>
+      <c r="M24">
         <v>100</v>
       </c>
-      <c r="K24" t="s">
-        <v>22</v>
-      </c>
-      <c r="L24" t="s">
-        <v>23</v>
-      </c>
-      <c r="M24">
+      <c r="N24" t="s">
+        <v>22</v>
+      </c>
+      <c r="O24" t="s">
+        <v>23</v>
+      </c>
+      <c r="P24">
         <v>50</v>
       </c>
-      <c r="N24" t="s">
-        <v>22</v>
-      </c>
-      <c r="O24" t="s">
-        <v>24</v>
-      </c>
-      <c r="P24">
+      <c r="Q24" t="s">
+        <v>22</v>
+      </c>
+      <c r="R24" t="s">
+        <v>24</v>
+      </c>
+      <c r="S24">
         <v>10000</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>52</v>
       </c>
       <c r="C25" t="b">
         <v>0</v>
       </c>
-      <c r="D25">
+      <c r="G25">
         <v>14.99</v>
       </c>
-      <c r="E25">
+      <c r="H25">
         <v>19000</v>
       </c>
-      <c r="F25" t="s">
+      <c r="I25" t="s">
         <v>52</v>
       </c>
-      <c r="G25">
+      <c r="J25">
         <v>901</v>
       </c>
-      <c r="H25" t="s">
+      <c r="K25" t="s">
         <v>25</v>
       </c>
-      <c r="I25" t="s">
+      <c r="L25" t="s">
         <v>130</v>
       </c>
-      <c r="J25">
+      <c r="M25">
         <v>300</v>
       </c>
-      <c r="K25" t="s">
-        <v>22</v>
-      </c>
-      <c r="L25" t="s">
-        <v>23</v>
-      </c>
-      <c r="M25">
+      <c r="N25" t="s">
+        <v>22</v>
+      </c>
+      <c r="O25" t="s">
+        <v>23</v>
+      </c>
+      <c r="P25">
         <v>75</v>
       </c>
-      <c r="N25" t="s">
-        <v>22</v>
-      </c>
-      <c r="O25" t="s">
-        <v>24</v>
-      </c>
-      <c r="P25">
+      <c r="Q25" t="s">
+        <v>22</v>
+      </c>
+      <c r="R25" t="s">
+        <v>24</v>
+      </c>
+      <c r="S25">
         <v>20000</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>53</v>
       </c>
       <c r="C26" t="b">
         <v>0</v>
       </c>
-      <c r="D26">
+      <c r="G26">
         <v>29.99</v>
       </c>
-      <c r="E26">
+      <c r="H26">
         <v>39000</v>
       </c>
-      <c r="F26" t="s">
+      <c r="I26" t="s">
         <v>53</v>
       </c>
-      <c r="G26">
+      <c r="J26">
         <v>265</v>
       </c>
-      <c r="H26" t="s">
-        <v>22</v>
-      </c>
-      <c r="I26" t="s">
-        <v>23</v>
-      </c>
-      <c r="J26">
+      <c r="K26" t="s">
+        <v>22</v>
+      </c>
+      <c r="L26" t="s">
+        <v>23</v>
+      </c>
+      <c r="M26">
         <v>300</v>
       </c>
-      <c r="K26" t="s">
-        <v>22</v>
-      </c>
-      <c r="L26" t="s">
-        <v>23</v>
-      </c>
-      <c r="M26">
+      <c r="N26" t="s">
+        <v>22</v>
+      </c>
+      <c r="O26" t="s">
+        <v>23</v>
+      </c>
+      <c r="P26">
         <v>100</v>
       </c>
-      <c r="N26" t="s">
-        <v>22</v>
-      </c>
-      <c r="O26" t="s">
-        <v>24</v>
-      </c>
-      <c r="P26">
+      <c r="Q26" t="s">
+        <v>22</v>
+      </c>
+      <c r="R26" t="s">
+        <v>24</v>
+      </c>
+      <c r="S26">
         <v>40000</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>54</v>
       </c>
       <c r="C27" t="b">
         <v>0</v>
       </c>
-      <c r="D27">
+      <c r="G27">
         <v>49.99</v>
       </c>
-      <c r="E27">
+      <c r="H27">
         <v>69000</v>
       </c>
-      <c r="F27" t="s">
+      <c r="I27" t="s">
         <v>54</v>
       </c>
-      <c r="G27">
+      <c r="J27">
         <v>820</v>
       </c>
-      <c r="H27" t="s">
+      <c r="K27" t="s">
         <v>25</v>
       </c>
-      <c r="I27" t="s">
+      <c r="L27" t="s">
         <v>130</v>
       </c>
-      <c r="J27">
+      <c r="M27">
         <v>1000</v>
       </c>
-      <c r="K27" t="s">
-        <v>22</v>
-      </c>
-      <c r="L27" t="s">
-        <v>23</v>
-      </c>
-      <c r="M27">
+      <c r="N27" t="s">
+        <v>22</v>
+      </c>
+      <c r="O27" t="s">
+        <v>23</v>
+      </c>
+      <c r="P27">
         <v>500</v>
       </c>
-      <c r="N27" t="s">
-        <v>22</v>
-      </c>
-      <c r="O27" t="s">
-        <v>24</v>
-      </c>
-      <c r="P27">
+      <c r="Q27" t="s">
+        <v>22</v>
+      </c>
+      <c r="R27" t="s">
+        <v>24</v>
+      </c>
+      <c r="S27">
         <v>60000</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>116</v>
       </c>
       <c r="C28" t="b">
         <v>0</v>
       </c>
-      <c r="D28">
+      <c r="G28">
         <v>9.99</v>
       </c>
-      <c r="E28">
+      <c r="H28">
         <v>13000</v>
       </c>
-      <c r="F28" t="s">
+      <c r="I28" t="s">
         <v>116</v>
       </c>
-      <c r="G28">
+      <c r="J28">
         <v>127</v>
       </c>
-      <c r="H28" t="s">
+      <c r="K28" t="s">
         <v>25</v>
       </c>
-      <c r="I28" t="s">
+      <c r="L28" t="s">
         <v>131</v>
       </c>
-      <c r="J28">
+      <c r="M28">
         <v>500</v>
       </c>
-      <c r="K28" t="s">
-        <v>22</v>
-      </c>
-      <c r="L28" t="s">
-        <v>23</v>
-      </c>
-      <c r="M28">
+      <c r="N28" t="s">
+        <v>22</v>
+      </c>
+      <c r="O28" t="s">
+        <v>23</v>
+      </c>
+      <c r="P28">
         <v>75</v>
       </c>
-      <c r="N28" t="s">
-        <v>22</v>
-      </c>
-      <c r="O28" t="s">
-        <v>24</v>
-      </c>
-      <c r="P28">
+      <c r="Q28" t="s">
+        <v>22</v>
+      </c>
+      <c r="R28" t="s">
+        <v>24</v>
+      </c>
+      <c r="S28">
         <v>20000</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>117</v>
       </c>
       <c r="C29" t="b">
         <v>0</v>
       </c>
-      <c r="D29">
+      <c r="G29">
         <v>14.99</v>
       </c>
-      <c r="E29">
+      <c r="H29">
         <v>19000</v>
       </c>
-      <c r="F29" t="s">
+      <c r="I29" t="s">
         <v>117</v>
       </c>
-      <c r="G29">
+      <c r="J29">
         <v>194</v>
       </c>
-      <c r="H29" t="s">
-        <v>22</v>
-      </c>
-      <c r="I29" t="s">
-        <v>23</v>
-      </c>
-      <c r="J29">
+      <c r="K29" t="s">
+        <v>22</v>
+      </c>
+      <c r="L29" t="s">
+        <v>23</v>
+      </c>
+      <c r="M29">
         <v>300</v>
       </c>
-      <c r="K29" t="s">
-        <v>22</v>
-      </c>
-      <c r="L29" t="s">
-        <v>23</v>
-      </c>
-      <c r="M29">
+      <c r="N29" t="s">
+        <v>22</v>
+      </c>
+      <c r="O29" t="s">
+        <v>23</v>
+      </c>
+      <c r="P29">
         <v>100</v>
       </c>
-      <c r="N29" t="s">
-        <v>22</v>
-      </c>
-      <c r="O29" t="s">
-        <v>24</v>
-      </c>
-      <c r="P29">
+      <c r="Q29" t="s">
+        <v>22</v>
+      </c>
+      <c r="R29" t="s">
+        <v>24</v>
+      </c>
+      <c r="S29">
         <v>40000</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>118</v>
       </c>
       <c r="C30" t="b">
         <v>0</v>
       </c>
-      <c r="D30">
+      <c r="G30">
         <v>29.99</v>
       </c>
-      <c r="E30">
+      <c r="H30">
         <v>39000</v>
       </c>
-      <c r="F30" t="s">
+      <c r="I30" t="s">
         <v>118</v>
       </c>
-      <c r="G30">
+      <c r="J30">
         <v>970</v>
       </c>
-      <c r="H30" t="s">
+      <c r="K30" t="s">
         <v>25</v>
       </c>
-      <c r="I30" t="s">
+      <c r="L30" t="s">
         <v>131</v>
       </c>
-      <c r="J30">
+      <c r="M30">
         <v>1500</v>
       </c>
-      <c r="K30" t="s">
-        <v>22</v>
-      </c>
-      <c r="L30" t="s">
-        <v>23</v>
-      </c>
-      <c r="M30">
+      <c r="N30" t="s">
+        <v>22</v>
+      </c>
+      <c r="O30" t="s">
+        <v>23</v>
+      </c>
+      <c r="P30">
         <v>500</v>
       </c>
-      <c r="N30" t="s">
-        <v>22</v>
-      </c>
-      <c r="O30" t="s">
-        <v>24</v>
-      </c>
-      <c r="P30">
+      <c r="Q30" t="s">
+        <v>22</v>
+      </c>
+      <c r="R30" t="s">
+        <v>24</v>
+      </c>
+      <c r="S30">
         <v>60000</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>119</v>
       </c>
       <c r="C31" t="b">
         <v>0</v>
       </c>
-      <c r="D31">
+      <c r="G31">
         <v>49.99</v>
       </c>
-      <c r="E31">
+      <c r="H31">
         <v>69000</v>
       </c>
-      <c r="F31" t="s">
+      <c r="I31" t="s">
         <v>119</v>
       </c>
-      <c r="G31">
+      <c r="J31">
         <v>874</v>
       </c>
-      <c r="H31" t="s">
-        <v>22</v>
-      </c>
-      <c r="I31" t="s">
-        <v>23</v>
-      </c>
-      <c r="J31">
+      <c r="K31" t="s">
+        <v>22</v>
+      </c>
+      <c r="L31" t="s">
+        <v>23</v>
+      </c>
+      <c r="M31">
         <v>100</v>
       </c>
-      <c r="K31" t="s">
-        <v>22</v>
-      </c>
-      <c r="L31" t="s">
-        <v>23</v>
-      </c>
-      <c r="M31">
+      <c r="N31" t="s">
+        <v>22</v>
+      </c>
+      <c r="O31" t="s">
+        <v>23</v>
+      </c>
+      <c r="P31">
         <v>50</v>
       </c>
-      <c r="N31" t="s">
-        <v>22</v>
-      </c>
-      <c r="O31" t="s">
-        <v>24</v>
-      </c>
-      <c r="P31">
+      <c r="Q31" t="s">
+        <v>22</v>
+      </c>
+      <c r="R31" t="s">
+        <v>24</v>
+      </c>
+      <c r="S31">
         <v>10000</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>120</v>
       </c>
       <c r="C32" t="b">
         <v>0</v>
       </c>
-      <c r="D32">
+      <c r="G32">
         <v>9.99</v>
       </c>
-      <c r="E32">
+      <c r="H32">
         <v>13000</v>
       </c>
-      <c r="F32" t="s">
+      <c r="I32" t="s">
         <v>120</v>
       </c>
-      <c r="G32">
+      <c r="J32">
         <v>127</v>
       </c>
-      <c r="H32" t="s">
+      <c r="K32" t="s">
         <v>25</v>
       </c>
-      <c r="I32" t="s">
+      <c r="L32" t="s">
         <v>131</v>
       </c>
-      <c r="J32">
+      <c r="M32">
         <v>500</v>
       </c>
-      <c r="K32" t="s">
-        <v>22</v>
-      </c>
-      <c r="L32" t="s">
-        <v>23</v>
-      </c>
-      <c r="M32">
+      <c r="N32" t="s">
+        <v>22</v>
+      </c>
+      <c r="O32" t="s">
+        <v>23</v>
+      </c>
+      <c r="P32">
         <v>75</v>
       </c>
-      <c r="N32" t="s">
-        <v>22</v>
-      </c>
-      <c r="O32" t="s">
-        <v>24</v>
-      </c>
-      <c r="P32">
+      <c r="Q32" t="s">
+        <v>22</v>
+      </c>
+      <c r="R32" t="s">
+        <v>24</v>
+      </c>
+      <c r="S32">
         <v>20000</v>
       </c>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>121</v>
       </c>
       <c r="C33" t="b">
         <v>0</v>
       </c>
-      <c r="D33">
+      <c r="G33">
         <v>14.99</v>
       </c>
-      <c r="E33">
+      <c r="H33">
         <v>19000</v>
       </c>
-      <c r="F33" t="s">
+      <c r="I33" t="s">
         <v>121</v>
       </c>
-      <c r="G33">
+      <c r="J33">
         <v>194</v>
       </c>
-      <c r="H33" t="s">
-        <v>22</v>
-      </c>
-      <c r="I33" t="s">
-        <v>23</v>
-      </c>
-      <c r="J33">
+      <c r="K33" t="s">
+        <v>22</v>
+      </c>
+      <c r="L33" t="s">
+        <v>23</v>
+      </c>
+      <c r="M33">
         <v>300</v>
       </c>
-      <c r="K33" t="s">
-        <v>22</v>
-      </c>
-      <c r="L33" t="s">
-        <v>23</v>
-      </c>
-      <c r="M33">
+      <c r="N33" t="s">
+        <v>22</v>
+      </c>
+      <c r="O33" t="s">
+        <v>23</v>
+      </c>
+      <c r="P33">
         <v>100</v>
       </c>
-      <c r="N33" t="s">
-        <v>22</v>
-      </c>
-      <c r="O33" t="s">
-        <v>24</v>
-      </c>
-      <c r="P33">
+      <c r="Q33" t="s">
+        <v>22</v>
+      </c>
+      <c r="R33" t="s">
+        <v>24</v>
+      </c>
+      <c r="S33">
         <v>40000</v>
       </c>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>122</v>
       </c>
       <c r="C34" t="b">
         <v>0</v>
       </c>
-      <c r="D34">
+      <c r="G34">
         <v>29.99</v>
       </c>
-      <c r="E34">
+      <c r="H34">
         <v>39000</v>
       </c>
-      <c r="F34" t="s">
+      <c r="I34" t="s">
         <v>122</v>
       </c>
-      <c r="G34">
+      <c r="J34">
         <v>970</v>
       </c>
-      <c r="H34" t="s">
+      <c r="K34" t="s">
         <v>25</v>
       </c>
-      <c r="I34" t="s">
+      <c r="L34" t="s">
         <v>131</v>
       </c>
-      <c r="J34">
+      <c r="M34">
         <v>1500</v>
       </c>
-      <c r="K34" t="s">
-        <v>22</v>
-      </c>
-      <c r="L34" t="s">
-        <v>23</v>
-      </c>
-      <c r="M34">
+      <c r="N34" t="s">
+        <v>22</v>
+      </c>
+      <c r="O34" t="s">
+        <v>23</v>
+      </c>
+      <c r="P34">
         <v>500</v>
       </c>
-      <c r="N34" t="s">
-        <v>22</v>
-      </c>
-      <c r="O34" t="s">
-        <v>24</v>
-      </c>
-      <c r="P34">
+      <c r="Q34" t="s">
+        <v>22</v>
+      </c>
+      <c r="R34" t="s">
+        <v>24</v>
+      </c>
+      <c r="S34">
         <v>60000</v>
       </c>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>123</v>
       </c>
       <c r="C35" t="b">
         <v>0</v>
       </c>
-      <c r="D35">
+      <c r="G35">
         <v>49.99</v>
       </c>
-      <c r="E35">
+      <c r="H35">
         <v>69000</v>
       </c>
-      <c r="F35" t="s">
+      <c r="I35" t="s">
         <v>123</v>
       </c>
-      <c r="G35">
+      <c r="J35">
         <v>874</v>
       </c>
-      <c r="H35" t="s">
-        <v>22</v>
-      </c>
-      <c r="I35" t="s">
-        <v>23</v>
-      </c>
-      <c r="J35">
+      <c r="K35" t="s">
+        <v>22</v>
+      </c>
+      <c r="L35" t="s">
+        <v>23</v>
+      </c>
+      <c r="M35">
         <v>100</v>
       </c>
-      <c r="K35" t="s">
-        <v>22</v>
-      </c>
-      <c r="L35" t="s">
-        <v>23</v>
-      </c>
-      <c r="M35">
+      <c r="N35" t="s">
+        <v>22</v>
+      </c>
+      <c r="O35" t="s">
+        <v>23</v>
+      </c>
+      <c r="P35">
         <v>50</v>
       </c>
-      <c r="N35" t="s">
-        <v>22</v>
-      </c>
-      <c r="O35" t="s">
-        <v>24</v>
-      </c>
-      <c r="P35">
+      <c r="Q35" t="s">
+        <v>22</v>
+      </c>
+      <c r="R35" t="s">
+        <v>24</v>
+      </c>
+      <c r="S35">
         <v>10000</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>124</v>
       </c>
       <c r="C36" t="b">
         <v>0</v>
       </c>
-      <c r="D36">
+      <c r="G36">
         <v>9.99</v>
       </c>
-      <c r="E36">
+      <c r="H36">
         <v>13000</v>
       </c>
-      <c r="F36" t="s">
+      <c r="I36" t="s">
         <v>124</v>
       </c>
-      <c r="G36">
+      <c r="J36">
         <v>127</v>
       </c>
-      <c r="H36" t="s">
+      <c r="K36" t="s">
         <v>25</v>
       </c>
-      <c r="I36" t="s">
+      <c r="L36" t="s">
         <v>131</v>
       </c>
-      <c r="J36">
+      <c r="M36">
         <v>500</v>
       </c>
-      <c r="K36" t="s">
-        <v>22</v>
-      </c>
-      <c r="L36" t="s">
-        <v>23</v>
-      </c>
-      <c r="M36">
+      <c r="N36" t="s">
+        <v>22</v>
+      </c>
+      <c r="O36" t="s">
+        <v>23</v>
+      </c>
+      <c r="P36">
         <v>75</v>
       </c>
-      <c r="N36" t="s">
-        <v>22</v>
-      </c>
-      <c r="O36" t="s">
-        <v>24</v>
-      </c>
-      <c r="P36">
+      <c r="Q36" t="s">
+        <v>22</v>
+      </c>
+      <c r="R36" t="s">
+        <v>24</v>
+      </c>
+      <c r="S36">
         <v>20000</v>
       </c>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>125</v>
       </c>
       <c r="C37" t="b">
         <v>0</v>
       </c>
-      <c r="D37">
+      <c r="G37">
         <v>14.99</v>
       </c>
-      <c r="E37">
+      <c r="H37">
         <v>19000</v>
       </c>
-      <c r="F37" t="s">
+      <c r="I37" t="s">
         <v>125</v>
       </c>
-      <c r="G37">
+      <c r="J37">
         <v>194</v>
       </c>
-      <c r="H37" t="s">
-        <v>22</v>
-      </c>
-      <c r="I37" t="s">
-        <v>23</v>
-      </c>
-      <c r="J37">
+      <c r="K37" t="s">
+        <v>22</v>
+      </c>
+      <c r="L37" t="s">
+        <v>23</v>
+      </c>
+      <c r="M37">
         <v>300</v>
       </c>
-      <c r="K37" t="s">
-        <v>22</v>
-      </c>
-      <c r="L37" t="s">
-        <v>23</v>
-      </c>
-      <c r="M37">
+      <c r="N37" t="s">
+        <v>22</v>
+      </c>
+      <c r="O37" t="s">
+        <v>23</v>
+      </c>
+      <c r="P37">
         <v>100</v>
       </c>
-      <c r="N37" t="s">
-        <v>22</v>
-      </c>
-      <c r="O37" t="s">
-        <v>24</v>
-      </c>
-      <c r="P37">
+      <c r="Q37" t="s">
+        <v>22</v>
+      </c>
+      <c r="R37" t="s">
+        <v>24</v>
+      </c>
+      <c r="S37">
         <v>40000</v>
       </c>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>126</v>
       </c>
       <c r="C38" t="b">
         <v>0</v>
       </c>
-      <c r="D38">
+      <c r="G38">
         <v>29.99</v>
       </c>
-      <c r="E38">
+      <c r="H38">
         <v>39000</v>
       </c>
-      <c r="F38" t="s">
+      <c r="I38" t="s">
         <v>126</v>
       </c>
-      <c r="G38">
+      <c r="J38">
         <v>970</v>
       </c>
-      <c r="H38" t="s">
+      <c r="K38" t="s">
         <v>25</v>
       </c>
-      <c r="I38" t="s">
+      <c r="L38" t="s">
         <v>131</v>
       </c>
-      <c r="J38">
+      <c r="M38">
         <v>1500</v>
       </c>
-      <c r="K38" t="s">
-        <v>22</v>
-      </c>
-      <c r="L38" t="s">
-        <v>23</v>
-      </c>
-      <c r="M38">
+      <c r="N38" t="s">
+        <v>22</v>
+      </c>
+      <c r="O38" t="s">
+        <v>23</v>
+      </c>
+      <c r="P38">
         <v>500</v>
       </c>
-      <c r="N38" t="s">
-        <v>22</v>
-      </c>
-      <c r="O38" t="s">
-        <v>24</v>
-      </c>
-      <c r="P38">
+      <c r="Q38" t="s">
+        <v>22</v>
+      </c>
+      <c r="R38" t="s">
+        <v>24</v>
+      </c>
+      <c r="S38">
         <v>60000</v>
       </c>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>127</v>
       </c>
       <c r="C39" t="b">
         <v>0</v>
       </c>
-      <c r="D39">
+      <c r="G39">
         <v>49.99</v>
       </c>
-      <c r="E39">
+      <c r="H39">
         <v>69000</v>
       </c>
-      <c r="F39" t="s">
+      <c r="I39" t="s">
         <v>127</v>
       </c>
-      <c r="G39">
+      <c r="J39">
         <v>874</v>
       </c>
-      <c r="H39" t="s">
-        <v>22</v>
-      </c>
-      <c r="I39" t="s">
-        <v>23</v>
-      </c>
-      <c r="J39">
+      <c r="K39" t="s">
+        <v>22</v>
+      </c>
+      <c r="L39" t="s">
+        <v>23</v>
+      </c>
+      <c r="M39">
         <v>100</v>
       </c>
-      <c r="K39" t="s">
-        <v>22</v>
-      </c>
-      <c r="L39" t="s">
-        <v>23</v>
-      </c>
-      <c r="M39">
+      <c r="N39" t="s">
+        <v>22</v>
+      </c>
+      <c r="O39" t="s">
+        <v>23</v>
+      </c>
+      <c r="P39">
         <v>50</v>
       </c>
-      <c r="N39" t="s">
-        <v>22</v>
-      </c>
-      <c r="O39" t="s">
-        <v>24</v>
-      </c>
-      <c r="P39">
+      <c r="Q39" t="s">
+        <v>22</v>
+      </c>
+      <c r="R39" t="s">
+        <v>24</v>
+      </c>
+      <c r="S39">
         <v>10000</v>
       </c>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>55</v>
       </c>
       <c r="C40" t="b">
         <v>0</v>
       </c>
-      <c r="D40">
+      <c r="G40">
         <v>0.99</v>
       </c>
-      <c r="E40">
+      <c r="H40">
         <v>1200</v>
       </c>
-      <c r="F40" t="s">
+      <c r="I40" t="s">
         <v>55</v>
       </c>
-      <c r="G40">
+      <c r="J40">
         <v>444</v>
       </c>
-      <c r="H40" t="s">
-        <v>22</v>
-      </c>
-      <c r="I40" t="s">
-        <v>23</v>
-      </c>
-      <c r="J40">
+      <c r="K40" t="s">
+        <v>22</v>
+      </c>
+      <c r="L40" t="s">
+        <v>23</v>
+      </c>
+      <c r="M40">
         <v>30</v>
       </c>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>56</v>
       </c>
       <c r="C41" t="b">
         <v>0</v>
       </c>
-      <c r="D41">
+      <c r="G41">
         <v>4.99</v>
       </c>
-      <c r="E41">
+      <c r="H41">
         <v>5900</v>
       </c>
-      <c r="F41" t="s">
+      <c r="I41" t="s">
         <v>56</v>
       </c>
-      <c r="G41">
+      <c r="J41">
         <v>348</v>
       </c>
-      <c r="H41" t="s">
-        <v>22</v>
-      </c>
-      <c r="I41" t="s">
-        <v>23</v>
-      </c>
-      <c r="J41">
+      <c r="K41" t="s">
+        <v>22</v>
+      </c>
+      <c r="L41" t="s">
+        <v>23</v>
+      </c>
+      <c r="M41">
         <v>90</v>
       </c>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>57</v>
       </c>
       <c r="C42" t="b">
         <v>0</v>
       </c>
-      <c r="D42">
+      <c r="G42">
         <v>9.99</v>
       </c>
-      <c r="E42">
+      <c r="H42">
         <v>12000</v>
       </c>
-      <c r="F42" t="s">
+      <c r="I42" t="s">
         <v>57</v>
       </c>
-      <c r="G42">
+      <c r="J42">
         <v>653</v>
       </c>
-      <c r="H42" t="s">
-        <v>22</v>
-      </c>
-      <c r="I42" t="s">
-        <v>23</v>
-      </c>
-      <c r="J42">
+      <c r="K42" t="s">
+        <v>22</v>
+      </c>
+      <c r="L42" t="s">
+        <v>23</v>
+      </c>
+      <c r="M42">
         <v>260</v>
       </c>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>58</v>
       </c>
       <c r="C43" t="b">
         <v>0</v>
       </c>
-      <c r="D43">
+      <c r="G43">
         <v>19.989999999999998</v>
       </c>
-      <c r="E43">
+      <c r="H43">
         <v>25000</v>
       </c>
-      <c r="F43" t="s">
+      <c r="I43" t="s">
         <v>58</v>
       </c>
-      <c r="G43">
+      <c r="J43">
         <v>487</v>
       </c>
-      <c r="H43" t="s">
-        <v>22</v>
-      </c>
-      <c r="I43" t="s">
-        <v>23</v>
-      </c>
-      <c r="J43">
+      <c r="K43" t="s">
+        <v>22</v>
+      </c>
+      <c r="L43" t="s">
+        <v>23</v>
+      </c>
+      <c r="M43">
         <v>525</v>
       </c>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>59</v>
       </c>
       <c r="C44" t="b">
         <v>0</v>
       </c>
-      <c r="D44">
+      <c r="G44">
         <v>49.99</v>
       </c>
-      <c r="E44">
+      <c r="H44">
         <v>65000</v>
       </c>
-      <c r="F44" t="s">
+      <c r="I44" t="s">
         <v>59</v>
       </c>
-      <c r="G44">
+      <c r="J44">
         <v>168</v>
       </c>
-      <c r="H44" t="s">
-        <v>22</v>
-      </c>
-      <c r="I44" t="s">
-        <v>23</v>
-      </c>
-      <c r="J44">
+      <c r="K44" t="s">
+        <v>22</v>
+      </c>
+      <c r="L44" t="s">
+        <v>23</v>
+      </c>
+      <c r="M44">
         <v>1600</v>
       </c>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>60</v>
       </c>
       <c r="C45" t="b">
         <v>0</v>
       </c>
-      <c r="D45">
+      <c r="G45">
         <v>99.99</v>
       </c>
-      <c r="E45">
+      <c r="H45">
         <v>119000</v>
       </c>
-      <c r="F45" t="s">
+      <c r="I45" t="s">
         <v>60</v>
       </c>
-      <c r="G45">
+      <c r="J45">
         <v>947</v>
       </c>
-      <c r="H45" t="s">
-        <v>22</v>
-      </c>
-      <c r="I45" t="s">
-        <v>23</v>
-      </c>
-      <c r="J45">
+      <c r="K45" t="s">
+        <v>22</v>
+      </c>
+      <c r="L45" t="s">
+        <v>23</v>
+      </c>
+      <c r="M45">
         <v>3600</v>
       </c>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>61</v>
       </c>
       <c r="C46" t="b">
         <v>0</v>
       </c>
-      <c r="D46">
+      <c r="G46">
         <v>0.99</v>
       </c>
-      <c r="E46">
+      <c r="H46">
         <v>1200</v>
       </c>
-      <c r="F46" t="s">
+      <c r="I46" t="s">
         <v>61</v>
       </c>
-      <c r="G46">
+      <c r="J46">
         <v>224</v>
       </c>
-      <c r="H46" t="s">
-        <v>22</v>
-      </c>
-      <c r="I46" t="s">
-        <v>23</v>
-      </c>
-      <c r="J46">
+      <c r="K46" t="s">
+        <v>22</v>
+      </c>
+      <c r="L46" t="s">
+        <v>23</v>
+      </c>
+      <c r="M46">
         <v>90</v>
       </c>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>62</v>
       </c>
       <c r="C47" t="b">
         <v>0</v>
       </c>
-      <c r="D47">
+      <c r="G47">
         <v>4.99</v>
       </c>
-      <c r="E47">
+      <c r="H47">
         <v>5900</v>
       </c>
-      <c r="F47" t="s">
+      <c r="I47" t="s">
         <v>62</v>
       </c>
-      <c r="G47">
+      <c r="J47">
         <v>392</v>
       </c>
-      <c r="H47" t="s">
-        <v>22</v>
-      </c>
-      <c r="I47" t="s">
-        <v>23</v>
-      </c>
-      <c r="J47">
+      <c r="K47" t="s">
+        <v>22</v>
+      </c>
+      <c r="L47" t="s">
+        <v>23</v>
+      </c>
+      <c r="M47">
         <v>270</v>
       </c>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>63</v>
       </c>
       <c r="C48" t="b">
         <v>0</v>
       </c>
-      <c r="D48">
+      <c r="G48">
         <v>9.99</v>
       </c>
-      <c r="E48">
+      <c r="H48">
         <v>12000</v>
       </c>
-      <c r="F48" t="s">
+      <c r="I48" t="s">
         <v>63</v>
       </c>
-      <c r="G48">
+      <c r="J48">
         <v>759</v>
       </c>
-      <c r="H48" t="s">
-        <v>22</v>
-      </c>
-      <c r="I48" t="s">
-        <v>23</v>
-      </c>
-      <c r="J48">
+      <c r="K48" t="s">
+        <v>22</v>
+      </c>
+      <c r="L48" t="s">
+        <v>23</v>
+      </c>
+      <c r="M48">
         <v>780</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>64</v>
       </c>
       <c r="C49" t="b">
         <v>0</v>
       </c>
-      <c r="D49">
+      <c r="G49">
         <v>19.989999999999998</v>
       </c>
-      <c r="E49">
+      <c r="H49">
         <v>25000</v>
       </c>
-      <c r="F49" t="s">
+      <c r="I49" t="s">
         <v>64</v>
       </c>
-      <c r="G49">
+      <c r="J49">
         <v>837</v>
       </c>
-      <c r="H49" t="s">
-        <v>22</v>
-      </c>
-      <c r="I49" t="s">
-        <v>23</v>
-      </c>
-      <c r="J49">
+      <c r="K49" t="s">
+        <v>22</v>
+      </c>
+      <c r="L49" t="s">
+        <v>23</v>
+      </c>
+      <c r="M49">
         <v>1575</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>65</v>
       </c>
       <c r="C50" t="b">
         <v>0</v>
       </c>
-      <c r="D50">
+      <c r="G50">
         <v>49.99</v>
       </c>
-      <c r="E50">
+      <c r="H50">
         <v>65000</v>
       </c>
-      <c r="F50" t="s">
+      <c r="I50" t="s">
         <v>65</v>
       </c>
-      <c r="G50">
+      <c r="J50">
         <v>820</v>
       </c>
-      <c r="H50" t="s">
-        <v>22</v>
-      </c>
-      <c r="I50" t="s">
-        <v>23</v>
-      </c>
-      <c r="J50">
+      <c r="K50" t="s">
+        <v>22</v>
+      </c>
+      <c r="L50" t="s">
+        <v>23</v>
+      </c>
+      <c r="M50">
         <v>4800</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>66</v>
       </c>
       <c r="C51" t="b">
         <v>0</v>
       </c>
-      <c r="D51">
+      <c r="G51">
         <v>99.99</v>
       </c>
-      <c r="E51">
+      <c r="H51">
         <v>119000</v>
       </c>
-      <c r="F51" t="s">
+      <c r="I51" t="s">
         <v>66</v>
       </c>
-      <c r="G51">
+      <c r="J51">
         <v>493</v>
       </c>
-      <c r="H51" t="s">
-        <v>22</v>
-      </c>
-      <c r="I51" t="s">
-        <v>23</v>
-      </c>
-      <c r="J51">
+      <c r="K51" t="s">
+        <v>22</v>
+      </c>
+      <c r="L51" t="s">
+        <v>23</v>
+      </c>
+      <c r="M51">
         <v>10800</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>67</v>
       </c>
       <c r="C52" t="b">
         <v>0</v>
       </c>
-      <c r="D52">
+      <c r="G52">
         <v>0.99</v>
       </c>
-      <c r="E52">
+      <c r="H52">
         <v>1200</v>
       </c>
-      <c r="F52" t="s">
+      <c r="I52" t="s">
         <v>67</v>
       </c>
-      <c r="G52">
+      <c r="J52">
         <v>354</v>
       </c>
-      <c r="H52" t="s">
-        <v>22</v>
-      </c>
-      <c r="I52" t="s">
-        <v>24</v>
-      </c>
-      <c r="J52">
+      <c r="K52" t="s">
+        <v>22</v>
+      </c>
+      <c r="L52" t="s">
+        <v>24</v>
+      </c>
+      <c r="M52">
         <v>40000</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>68</v>
       </c>
       <c r="C53" t="b">
         <v>0</v>
       </c>
-      <c r="D53">
+      <c r="G53">
         <v>4.99</v>
       </c>
-      <c r="E53">
+      <c r="H53">
         <v>5900</v>
       </c>
-      <c r="F53" t="s">
+      <c r="I53" t="s">
         <v>68</v>
       </c>
-      <c r="G53">
+      <c r="J53">
         <v>715</v>
       </c>
-      <c r="H53" t="s">
-        <v>22</v>
-      </c>
-      <c r="I53" t="s">
-        <v>24</v>
-      </c>
-      <c r="J53">
+      <c r="K53" t="s">
+        <v>22</v>
+      </c>
+      <c r="L53" t="s">
+        <v>24</v>
+      </c>
+      <c r="M53">
         <v>105000</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>69</v>
       </c>
       <c r="C54" t="b">
         <v>0</v>
       </c>
-      <c r="D54">
+      <c r="G54">
         <v>9.99</v>
       </c>
-      <c r="E54">
+      <c r="H54">
         <v>12000</v>
       </c>
-      <c r="F54" t="s">
+      <c r="I54" t="s">
         <v>69</v>
       </c>
-      <c r="G54">
+      <c r="J54">
         <v>891</v>
       </c>
-      <c r="H54" t="s">
-        <v>22</v>
-      </c>
-      <c r="I54" t="s">
-        <v>24</v>
-      </c>
-      <c r="J54">
+      <c r="K54" t="s">
+        <v>22</v>
+      </c>
+      <c r="L54" t="s">
+        <v>24</v>
+      </c>
+      <c r="M54">
         <v>250000</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>70</v>
       </c>
       <c r="C55" t="b">
         <v>0</v>
       </c>
-      <c r="D55">
+      <c r="G55">
         <v>19.989999999999998</v>
       </c>
-      <c r="E55">
+      <c r="H55">
         <v>25000</v>
       </c>
-      <c r="F55" t="s">
+      <c r="I55" t="s">
         <v>70</v>
       </c>
-      <c r="G55">
+      <c r="J55">
         <v>185</v>
       </c>
-      <c r="H55" t="s">
-        <v>22</v>
-      </c>
-      <c r="I55" t="s">
-        <v>24</v>
-      </c>
-      <c r="J55">
+      <c r="K55" t="s">
+        <v>22</v>
+      </c>
+      <c r="L55" t="s">
+        <v>24</v>
+      </c>
+      <c r="M55">
         <v>600000</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>71</v>
       </c>
       <c r="C56" t="b">
         <v>0</v>
       </c>
-      <c r="D56">
+      <c r="G56">
         <v>49.99</v>
       </c>
-      <c r="E56">
+      <c r="H56">
         <v>65000</v>
       </c>
-      <c r="F56" t="s">
+      <c r="I56" t="s">
         <v>71</v>
       </c>
-      <c r="G56">
+      <c r="J56">
         <v>737</v>
       </c>
-      <c r="H56" t="s">
-        <v>22</v>
-      </c>
-      <c r="I56" t="s">
-        <v>24</v>
-      </c>
-      <c r="J56">
+      <c r="K56" t="s">
+        <v>22</v>
+      </c>
+      <c r="L56" t="s">
+        <v>24</v>
+      </c>
+      <c r="M56">
         <v>1900000</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>72</v>
       </c>
       <c r="C57" t="b">
         <v>0</v>
       </c>
-      <c r="D57">
+      <c r="G57">
         <v>99.99</v>
       </c>
-      <c r="E57">
+      <c r="H57">
         <v>119000</v>
       </c>
-      <c r="F57" t="s">
+      <c r="I57" t="s">
         <v>72</v>
       </c>
-      <c r="G57">
+      <c r="J57">
         <v>574</v>
       </c>
-      <c r="H57" t="s">
-        <v>22</v>
-      </c>
-      <c r="I57" t="s">
-        <v>24</v>
-      </c>
-      <c r="J57">
+      <c r="K57" t="s">
+        <v>22</v>
+      </c>
+      <c r="L57" t="s">
+        <v>24</v>
+      </c>
+      <c r="M57">
         <v>4500000</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>73</v>
       </c>
       <c r="C58" t="b">
         <v>0</v>
       </c>
-      <c r="D58">
+      <c r="G58">
         <v>0.99</v>
       </c>
-      <c r="E58">
+      <c r="H58">
         <v>1200</v>
       </c>
-      <c r="F58" t="s">
+      <c r="I58" t="s">
         <v>73</v>
       </c>
-      <c r="G58">
+      <c r="J58">
         <v>122</v>
       </c>
-      <c r="H58" t="s">
-        <v>22</v>
-      </c>
-      <c r="I58" t="s">
-        <v>24</v>
-      </c>
-      <c r="J58">
+      <c r="K58" t="s">
+        <v>22</v>
+      </c>
+      <c r="L58" t="s">
+        <v>24</v>
+      </c>
+      <c r="M58">
         <v>120000</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>74</v>
       </c>
       <c r="C59" t="b">
         <v>0</v>
       </c>
-      <c r="D59">
+      <c r="G59">
         <v>4.99</v>
       </c>
-      <c r="E59">
+      <c r="H59">
         <v>5900</v>
       </c>
-      <c r="F59" t="s">
+      <c r="I59" t="s">
         <v>74</v>
       </c>
-      <c r="G59">
+      <c r="J59">
         <v>926</v>
       </c>
-      <c r="H59" t="s">
-        <v>22</v>
-      </c>
-      <c r="I59" t="s">
-        <v>24</v>
-      </c>
-      <c r="J59">
+      <c r="K59" t="s">
+        <v>22</v>
+      </c>
+      <c r="L59" t="s">
+        <v>24</v>
+      </c>
+      <c r="M59">
         <v>315000</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>75</v>
       </c>
       <c r="C60" t="b">
         <v>0</v>
       </c>
-      <c r="D60">
+      <c r="G60">
         <v>9.99</v>
       </c>
-      <c r="E60">
+      <c r="H60">
         <v>12000</v>
       </c>
-      <c r="F60" t="s">
+      <c r="I60" t="s">
         <v>75</v>
       </c>
-      <c r="G60">
+      <c r="J60">
         <v>943</v>
       </c>
-      <c r="H60" t="s">
-        <v>22</v>
-      </c>
-      <c r="I60" t="s">
-        <v>24</v>
-      </c>
-      <c r="J60">
+      <c r="K60" t="s">
+        <v>22</v>
+      </c>
+      <c r="L60" t="s">
+        <v>24</v>
+      </c>
+      <c r="M60">
         <v>750000</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>76</v>
       </c>
       <c r="C61" t="b">
         <v>0</v>
       </c>
-      <c r="D61">
+      <c r="G61">
         <v>19.989999999999998</v>
       </c>
-      <c r="E61">
+      <c r="H61">
         <v>25000</v>
       </c>
-      <c r="F61" t="s">
+      <c r="I61" t="s">
         <v>76</v>
       </c>
-      <c r="G61">
+      <c r="J61">
         <v>106</v>
       </c>
-      <c r="H61" t="s">
-        <v>22</v>
-      </c>
-      <c r="I61" t="s">
-        <v>24</v>
-      </c>
-      <c r="J61">
+      <c r="K61" t="s">
+        <v>22</v>
+      </c>
+      <c r="L61" t="s">
+        <v>24</v>
+      </c>
+      <c r="M61">
         <v>1800000</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>77</v>
       </c>
       <c r="C62" t="b">
         <v>0</v>
       </c>
-      <c r="D62">
+      <c r="G62">
         <v>49.99</v>
       </c>
-      <c r="E62">
+      <c r="H62">
         <v>65000</v>
       </c>
-      <c r="F62" t="s">
+      <c r="I62" t="s">
         <v>77</v>
       </c>
-      <c r="G62">
+      <c r="J62">
         <v>402</v>
       </c>
-      <c r="H62" t="s">
-        <v>22</v>
-      </c>
-      <c r="I62" t="s">
-        <v>24</v>
-      </c>
-      <c r="J62">
+      <c r="K62" t="s">
+        <v>22</v>
+      </c>
+      <c r="L62" t="s">
+        <v>24</v>
+      </c>
+      <c r="M62">
         <v>5700000</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>78</v>
       </c>
       <c r="C63" t="b">
         <v>0</v>
       </c>
-      <c r="D63">
+      <c r="G63">
         <v>99.99</v>
       </c>
-      <c r="E63">
+      <c r="H63">
         <v>119000</v>
       </c>
-      <c r="F63" t="s">
+      <c r="I63" t="s">
         <v>78</v>
       </c>
-      <c r="G63">
+      <c r="J63">
         <v>905</v>
       </c>
-      <c r="H63" t="s">
-        <v>22</v>
-      </c>
-      <c r="I63" t="s">
-        <v>24</v>
-      </c>
-      <c r="J63">
+      <c r="K63" t="s">
+        <v>22</v>
+      </c>
+      <c r="L63" t="s">
+        <v>24</v>
+      </c>
+      <c r="M63">
         <v>13500000</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>79</v>
       </c>
       <c r="C64" t="b">
         <v>0</v>
       </c>
-      <c r="D64">
+      <c r="G64">
         <v>9.99</v>
       </c>
-      <c r="E64">
+      <c r="H64">
         <v>13000</v>
       </c>
-      <c r="F64" t="s">
+      <c r="I64" t="s">
         <v>79</v>
       </c>
-      <c r="G64">
+      <c r="J64">
         <v>375</v>
       </c>
-      <c r="H64" t="s">
+      <c r="K64" t="s">
         <v>25</v>
       </c>
-      <c r="I64" t="s">
+      <c r="L64" t="s">
         <v>86</v>
       </c>
-      <c r="J64">
+      <c r="M64">
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>80</v>
       </c>
       <c r="C65" t="b">
         <v>0</v>
       </c>
-      <c r="D65">
+      <c r="G65">
         <v>19.989999999999998</v>
       </c>
-      <c r="E65">
+      <c r="H65">
         <v>19000</v>
       </c>
-      <c r="F65" t="s">
+      <c r="I65" t="s">
         <v>80</v>
       </c>
-      <c r="G65">
+      <c r="J65">
         <v>368</v>
       </c>
-      <c r="H65" t="s">
+      <c r="K65" t="s">
         <v>25</v>
       </c>
-      <c r="I65" t="s">
+      <c r="L65" t="s">
         <v>86</v>
       </c>
-      <c r="J65">
+      <c r="M65">
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>81</v>
       </c>
       <c r="C66" t="b">
         <v>0</v>
       </c>
-      <c r="D66">
+      <c r="G66">
         <v>29.99</v>
       </c>
-      <c r="E66">
+      <c r="H66">
         <v>39000</v>
       </c>
-      <c r="F66" t="s">
+      <c r="I66" t="s">
         <v>81</v>
       </c>
-      <c r="G66">
+      <c r="J66">
         <v>481</v>
       </c>
-      <c r="H66" t="s">
+      <c r="K66" t="s">
         <v>25</v>
       </c>
-      <c r="I66" t="s">
+      <c r="L66" t="s">
         <v>86</v>
       </c>
-      <c r="J66">
+      <c r="M66">
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>82</v>
       </c>
       <c r="C67" t="b">
         <v>0</v>
       </c>
-      <c r="D67">
+      <c r="G67">
         <v>39.99</v>
       </c>
-      <c r="E67">
+      <c r="H67">
         <v>48000</v>
       </c>
-      <c r="F67" t="s">
+      <c r="I67" t="s">
         <v>82</v>
       </c>
-      <c r="G67">
+      <c r="J67">
         <v>420</v>
       </c>
-      <c r="H67" t="s">
+      <c r="K67" t="s">
         <v>25</v>
       </c>
-      <c r="I67" t="s">
+      <c r="L67" t="s">
         <v>86</v>
       </c>
-      <c r="J67">
+      <c r="M67">
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>83</v>
       </c>
       <c r="C68" t="b">
         <v>0</v>
       </c>
-      <c r="D68">
+      <c r="G68">
         <v>49.99</v>
       </c>
-      <c r="E68">
+      <c r="H68">
         <v>65000</v>
       </c>
-      <c r="F68" t="s">
+      <c r="I68" t="s">
         <v>83</v>
       </c>
-      <c r="G68">
+      <c r="J68">
         <v>362</v>
       </c>
-      <c r="H68" t="s">
+      <c r="K68" t="s">
         <v>25</v>
       </c>
-      <c r="I68" t="s">
+      <c r="L68" t="s">
         <v>86</v>
       </c>
-      <c r="J68">
+      <c r="M68">
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>84</v>
       </c>
       <c r="C69" t="b">
         <v>0</v>
       </c>
-      <c r="D69">
+      <c r="G69">
         <v>0.99</v>
       </c>
-      <c r="E69">
+      <c r="H69">
         <v>1200</v>
       </c>
-      <c r="F69" t="s">
+      <c r="I69" t="s">
         <v>84</v>
       </c>
-      <c r="G69">
+      <c r="J69">
         <v>654</v>
       </c>
-      <c r="H69" t="s">
+      <c r="K69" t="s">
         <v>25</v>
       </c>
-      <c r="I69" t="s">
+      <c r="L69" t="s">
         <v>90</v>
       </c>
-      <c r="J69">
+      <c r="M69">
         <v>5</v>
       </c>
     </row>
-    <row r="70" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>85</v>
       </c>
       <c r="C70" t="b">
         <v>0</v>
       </c>
-      <c r="D70">
+      <c r="G70">
         <v>4.99</v>
       </c>
-      <c r="E70">
+      <c r="H70">
         <v>5900</v>
       </c>
-      <c r="F70" t="s">
+      <c r="I70" t="s">
         <v>85</v>
       </c>
-      <c r="G70">
+      <c r="J70">
         <v>715</v>
       </c>
-      <c r="H70" t="s">
+      <c r="K70" t="s">
         <v>25</v>
       </c>
-      <c r="I70" t="s">
+      <c r="L70" t="s">
         <v>91</v>
       </c>
-      <c r="J70">
+      <c r="M70">
         <v>5</v>
       </c>
     </row>
-    <row r="71" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>92</v>
       </c>
@@ -3510,55 +3528,64 @@
         <v>0</v>
       </c>
       <c r="D71">
+        <v>4</v>
+      </c>
+      <c r="E71">
+        <v>3.99</v>
+      </c>
+      <c r="F71">
+        <v>4900</v>
+      </c>
+      <c r="G71">
         <v>0.99</v>
       </c>
-      <c r="E71">
+      <c r="H71">
         <v>1200</v>
       </c>
-      <c r="F71" t="s">
+      <c r="I71" t="s">
         <v>92</v>
       </c>
-      <c r="G71">
+      <c r="J71">
         <v>668</v>
       </c>
-      <c r="H71" t="s">
-        <v>22</v>
-      </c>
-      <c r="I71" t="s">
-        <v>23</v>
-      </c>
-      <c r="J71">
+      <c r="K71" t="s">
+        <v>22</v>
+      </c>
+      <c r="L71" t="s">
+        <v>23</v>
+      </c>
+      <c r="M71">
         <v>30</v>
       </c>
-      <c r="K71" t="s">
-        <v>22</v>
-      </c>
-      <c r="L71" t="s">
-        <v>24</v>
-      </c>
-      <c r="M71">
+      <c r="N71" t="s">
+        <v>22</v>
+      </c>
+      <c r="O71" t="s">
+        <v>24</v>
+      </c>
+      <c r="P71">
         <v>25000</v>
       </c>
-      <c r="N71" t="s">
-        <v>22</v>
-      </c>
-      <c r="O71" t="s">
-        <v>23</v>
-      </c>
-      <c r="P71">
+      <c r="Q71" t="s">
+        <v>22</v>
+      </c>
+      <c r="R71" t="s">
+        <v>23</v>
+      </c>
+      <c r="S71">
         <v>100</v>
       </c>
-      <c r="Q71" t="s">
-        <v>22</v>
-      </c>
-      <c r="R71" t="s">
-        <v>24</v>
-      </c>
-      <c r="S71">
+      <c r="T71" t="s">
+        <v>22</v>
+      </c>
+      <c r="U71" t="s">
+        <v>24</v>
+      </c>
+      <c r="V71">
         <v>35000</v>
       </c>
     </row>
-    <row r="72" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>93</v>
       </c>
@@ -3566,55 +3593,64 @@
         <v>0</v>
       </c>
       <c r="D72">
+        <v>4</v>
+      </c>
+      <c r="E72">
+        <v>19.989999999999998</v>
+      </c>
+      <c r="F72">
+        <v>24000</v>
+      </c>
+      <c r="G72">
         <v>4.99</v>
       </c>
-      <c r="E72">
+      <c r="H72">
         <v>5900</v>
       </c>
-      <c r="F72" t="s">
+      <c r="I72" t="s">
         <v>93</v>
       </c>
-      <c r="G72">
+      <c r="J72">
         <v>188</v>
       </c>
-      <c r="H72" t="s">
-        <v>22</v>
-      </c>
-      <c r="I72" t="s">
-        <v>23</v>
-      </c>
-      <c r="J72">
+      <c r="K72" t="s">
+        <v>22</v>
+      </c>
+      <c r="L72" t="s">
+        <v>23</v>
+      </c>
+      <c r="M72">
         <v>60</v>
       </c>
-      <c r="K72" t="s">
-        <v>22</v>
-      </c>
-      <c r="L72" t="s">
-        <v>24</v>
-      </c>
-      <c r="M72">
+      <c r="N72" t="s">
+        <v>22</v>
+      </c>
+      <c r="O72" t="s">
+        <v>24</v>
+      </c>
+      <c r="P72">
         <v>15000</v>
       </c>
-      <c r="N72" t="s">
-        <v>22</v>
-      </c>
-      <c r="O72" t="s">
-        <v>23</v>
-      </c>
-      <c r="P72">
+      <c r="Q72" t="s">
+        <v>22</v>
+      </c>
+      <c r="R72" t="s">
+        <v>23</v>
+      </c>
+      <c r="S72">
         <v>120</v>
       </c>
-      <c r="Q72" t="s">
-        <v>22</v>
-      </c>
-      <c r="R72" t="s">
-        <v>24</v>
-      </c>
-      <c r="S72">
+      <c r="T72" t="s">
+        <v>22</v>
+      </c>
+      <c r="U72" t="s">
+        <v>24</v>
+      </c>
+      <c r="V72">
         <v>25000</v>
       </c>
     </row>
-    <row r="73" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>94</v>
       </c>
@@ -3622,55 +3658,64 @@
         <v>0</v>
       </c>
       <c r="D73">
+        <v>4</v>
+      </c>
+      <c r="E73">
+        <v>39.99</v>
+      </c>
+      <c r="F73">
+        <v>52000</v>
+      </c>
+      <c r="G73">
         <v>9.99</v>
       </c>
-      <c r="E73">
+      <c r="H73">
         <v>13000</v>
       </c>
-      <c r="F73" t="s">
+      <c r="I73" t="s">
         <v>94</v>
       </c>
-      <c r="G73">
+      <c r="J73">
         <v>284</v>
       </c>
-      <c r="H73" t="s">
-        <v>22</v>
-      </c>
-      <c r="I73" t="s">
-        <v>23</v>
-      </c>
-      <c r="J73">
+      <c r="K73" t="s">
+        <v>22</v>
+      </c>
+      <c r="L73" t="s">
+        <v>23</v>
+      </c>
+      <c r="M73">
         <v>90</v>
       </c>
-      <c r="K73" t="s">
-        <v>22</v>
-      </c>
-      <c r="L73" t="s">
-        <v>24</v>
-      </c>
-      <c r="M73">
+      <c r="N73" t="s">
+        <v>22</v>
+      </c>
+      <c r="O73" t="s">
+        <v>24</v>
+      </c>
+      <c r="P73">
         <v>30000</v>
       </c>
-      <c r="N73" t="s">
-        <v>22</v>
-      </c>
-      <c r="O73" t="s">
-        <v>23</v>
-      </c>
-      <c r="P73">
+      <c r="Q73" t="s">
+        <v>22</v>
+      </c>
+      <c r="R73" t="s">
+        <v>23</v>
+      </c>
+      <c r="S73">
         <v>150</v>
       </c>
-      <c r="Q73" t="s">
-        <v>22</v>
-      </c>
-      <c r="R73" t="s">
-        <v>23</v>
-      </c>
-      <c r="S73">
+      <c r="T73" t="s">
+        <v>22</v>
+      </c>
+      <c r="U73" t="s">
+        <v>23</v>
+      </c>
+      <c r="V73">
         <v>300</v>
       </c>
     </row>
-    <row r="74" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>95</v>
       </c>
@@ -3678,55 +3723,64 @@
         <v>0</v>
       </c>
       <c r="D74">
+        <v>4</v>
+      </c>
+      <c r="E74">
+        <v>39.99</v>
+      </c>
+      <c r="F74">
+        <v>52000</v>
+      </c>
+      <c r="G74">
         <v>9.99</v>
       </c>
-      <c r="E74">
+      <c r="H74">
         <v>13000</v>
       </c>
-      <c r="F74" t="s">
+      <c r="I74" t="s">
         <v>95</v>
       </c>
-      <c r="G74">
+      <c r="J74">
         <v>953</v>
       </c>
-      <c r="H74" t="s">
-        <v>22</v>
-      </c>
-      <c r="I74" t="s">
-        <v>23</v>
-      </c>
-      <c r="J74">
+      <c r="K74" t="s">
+        <v>22</v>
+      </c>
+      <c r="L74" t="s">
+        <v>23</v>
+      </c>
+      <c r="M74">
         <v>120</v>
       </c>
-      <c r="K74" t="s">
-        <v>22</v>
-      </c>
-      <c r="L74" t="s">
-        <v>24</v>
-      </c>
-      <c r="M74">
+      <c r="N74" t="s">
+        <v>22</v>
+      </c>
+      <c r="O74" t="s">
+        <v>24</v>
+      </c>
+      <c r="P74">
         <v>50000</v>
       </c>
-      <c r="N74" t="s">
-        <v>22</v>
-      </c>
-      <c r="O74" t="s">
-        <v>23</v>
-      </c>
-      <c r="P74">
+      <c r="Q74" t="s">
+        <v>22</v>
+      </c>
+      <c r="R74" t="s">
+        <v>23</v>
+      </c>
+      <c r="S74">
         <v>120</v>
       </c>
-      <c r="Q74" t="s">
-        <v>22</v>
-      </c>
-      <c r="R74" t="s">
-        <v>24</v>
-      </c>
-      <c r="S74">
+      <c r="T74" t="s">
+        <v>22</v>
+      </c>
+      <c r="U74" t="s">
+        <v>24</v>
+      </c>
+      <c r="V74">
         <v>25000</v>
       </c>
     </row>
-    <row r="75" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>96</v>
       </c>
@@ -3734,680 +3788,689 @@
         <v>0</v>
       </c>
       <c r="D75">
+        <v>4</v>
+      </c>
+      <c r="E75">
+        <v>39.99</v>
+      </c>
+      <c r="F75">
+        <v>52000</v>
+      </c>
+      <c r="G75">
         <v>9.99</v>
       </c>
-      <c r="E75">
+      <c r="H75">
         <v>13000</v>
       </c>
-      <c r="F75" t="s">
+      <c r="I75" t="s">
         <v>96</v>
       </c>
-      <c r="G75">
+      <c r="J75">
         <v>660</v>
       </c>
-      <c r="H75" t="s">
-        <v>22</v>
-      </c>
-      <c r="I75" t="s">
-        <v>23</v>
-      </c>
-      <c r="J75">
+      <c r="K75" t="s">
+        <v>22</v>
+      </c>
+      <c r="L75" t="s">
+        <v>23</v>
+      </c>
+      <c r="M75">
         <v>150</v>
       </c>
-      <c r="K75" t="s">
-        <v>22</v>
-      </c>
-      <c r="L75" t="s">
-        <v>24</v>
-      </c>
-      <c r="M75">
+      <c r="N75" t="s">
+        <v>22</v>
+      </c>
+      <c r="O75" t="s">
+        <v>24</v>
+      </c>
+      <c r="P75">
         <v>90000</v>
       </c>
-      <c r="N75" t="s">
-        <v>22</v>
-      </c>
-      <c r="O75" t="s">
-        <v>23</v>
-      </c>
-      <c r="P75">
+      <c r="Q75" t="s">
+        <v>22</v>
+      </c>
+      <c r="R75" t="s">
+        <v>23</v>
+      </c>
+      <c r="S75">
         <v>150</v>
       </c>
-      <c r="Q75" t="s">
-        <v>22</v>
-      </c>
-      <c r="R75" t="s">
-        <v>23</v>
-      </c>
-      <c r="S75">
+      <c r="T75" t="s">
+        <v>22</v>
+      </c>
+      <c r="U75" t="s">
+        <v>23</v>
+      </c>
+      <c r="V75">
         <v>300</v>
       </c>
     </row>
-    <row r="76" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>128</v>
       </c>
       <c r="C76" t="b">
         <v>0</v>
       </c>
-      <c r="D76">
+      <c r="G76">
         <v>4.99</v>
       </c>
-      <c r="E76">
+      <c r="H76">
         <v>5900</v>
       </c>
-      <c r="F76" t="s">
+      <c r="I76" t="s">
         <v>128</v>
       </c>
-      <c r="G76">
+      <c r="J76">
         <v>456</v>
       </c>
-      <c r="H76" t="s">
+      <c r="K76" t="s">
         <v>25</v>
       </c>
-      <c r="I76" t="s">
+      <c r="L76" t="s">
         <v>97</v>
       </c>
-      <c r="J76">
+      <c r="M76">
         <v>15</v>
       </c>
-      <c r="K76" t="s">
-        <v>22</v>
-      </c>
-      <c r="L76" t="s">
+      <c r="N76" t="s">
+        <v>22</v>
+      </c>
+      <c r="O76" t="s">
         <v>98</v>
       </c>
-      <c r="M76">
+      <c r="P76">
         <v>500</v>
       </c>
     </row>
-    <row r="77" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>129</v>
       </c>
       <c r="C77" t="b">
         <v>0</v>
       </c>
-      <c r="D77">
+      <c r="G77">
         <v>4.99</v>
       </c>
-      <c r="E77">
+      <c r="H77">
         <v>5900</v>
       </c>
-      <c r="F77" t="s">
+      <c r="I77" t="s">
         <v>129</v>
       </c>
-      <c r="G77">
+      <c r="J77">
         <v>664</v>
       </c>
-      <c r="H77" t="s">
+      <c r="K77" t="s">
         <v>25</v>
       </c>
-      <c r="I77" t="s">
+      <c r="L77" t="s">
         <v>99</v>
       </c>
-      <c r="J77">
+      <c r="M77">
         <v>1</v>
       </c>
-      <c r="K77" t="s">
-        <v>22</v>
-      </c>
-      <c r="L77" t="s">
-        <v>23</v>
-      </c>
-      <c r="M77">
+      <c r="N77" t="s">
+        <v>22</v>
+      </c>
+      <c r="O77" t="s">
+        <v>23</v>
+      </c>
+      <c r="P77">
         <v>750</v>
       </c>
     </row>
-    <row r="78" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>100</v>
       </c>
       <c r="C78" t="b">
         <v>0</v>
       </c>
-      <c r="D78">
+      <c r="G78">
         <v>0.99</v>
       </c>
-      <c r="E78">
+      <c r="H78">
         <v>1200</v>
       </c>
-      <c r="F78" t="s">
+      <c r="I78" t="s">
         <v>100</v>
       </c>
-      <c r="G78">
+      <c r="J78">
         <v>126</v>
       </c>
-      <c r="H78" t="s">
-        <v>22</v>
-      </c>
-      <c r="I78" t="s">
-        <v>23</v>
-      </c>
-      <c r="J78">
+      <c r="K78" t="s">
+        <v>22</v>
+      </c>
+      <c r="L78" t="s">
+        <v>23</v>
+      </c>
+      <c r="M78">
         <v>30</v>
       </c>
-      <c r="K78" t="s">
-        <v>22</v>
-      </c>
-      <c r="L78" t="s">
-        <v>24</v>
-      </c>
-      <c r="M78">
+      <c r="N78" t="s">
+        <v>22</v>
+      </c>
+      <c r="O78" t="s">
+        <v>24</v>
+      </c>
+      <c r="P78">
         <v>25000</v>
       </c>
-      <c r="N78" t="s">
-        <v>22</v>
-      </c>
-      <c r="O78" t="s">
-        <v>23</v>
-      </c>
-      <c r="P78">
+      <c r="Q78" t="s">
+        <v>22</v>
+      </c>
+      <c r="R78" t="s">
+        <v>23</v>
+      </c>
+      <c r="S78">
         <v>100</v>
       </c>
     </row>
-    <row r="79" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>101</v>
       </c>
       <c r="C79" t="b">
         <v>0</v>
       </c>
-      <c r="D79">
+      <c r="G79">
         <v>0.99</v>
       </c>
-      <c r="E79">
+      <c r="H79">
         <v>1200</v>
       </c>
-      <c r="F79" t="s">
+      <c r="I79" t="s">
         <v>101</v>
       </c>
-      <c r="G79">
+      <c r="J79">
         <v>484</v>
       </c>
-      <c r="H79" t="s">
-        <v>22</v>
-      </c>
-      <c r="I79" t="s">
-        <v>23</v>
-      </c>
-      <c r="J79">
+      <c r="K79" t="s">
+        <v>22</v>
+      </c>
+      <c r="L79" t="s">
+        <v>23</v>
+      </c>
+      <c r="M79">
         <v>60</v>
       </c>
-      <c r="K79" t="s">
-        <v>22</v>
-      </c>
-      <c r="L79" t="s">
-        <v>24</v>
-      </c>
-      <c r="M79">
+      <c r="N79" t="s">
+        <v>22</v>
+      </c>
+      <c r="O79" t="s">
+        <v>24</v>
+      </c>
+      <c r="P79">
         <v>15000</v>
       </c>
-      <c r="N79" t="s">
-        <v>22</v>
-      </c>
-      <c r="O79" t="s">
-        <v>23</v>
-      </c>
-      <c r="P79">
+      <c r="Q79" t="s">
+        <v>22</v>
+      </c>
+      <c r="R79" t="s">
+        <v>23</v>
+      </c>
+      <c r="S79">
         <v>120</v>
       </c>
     </row>
-    <row r="80" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>102</v>
       </c>
       <c r="C80" t="b">
         <v>0</v>
       </c>
-      <c r="D80">
+      <c r="G80">
         <v>0.99</v>
       </c>
-      <c r="E80">
+      <c r="H80">
         <v>1200</v>
       </c>
-      <c r="F80" t="s">
+      <c r="I80" t="s">
         <v>102</v>
       </c>
-      <c r="G80">
+      <c r="J80">
         <v>584</v>
       </c>
-      <c r="H80" t="s">
-        <v>22</v>
-      </c>
-      <c r="I80" t="s">
-        <v>23</v>
-      </c>
-      <c r="J80">
+      <c r="K80" t="s">
+        <v>22</v>
+      </c>
+      <c r="L80" t="s">
+        <v>23</v>
+      </c>
+      <c r="M80">
         <v>90</v>
       </c>
-      <c r="K80" t="s">
-        <v>22</v>
-      </c>
-      <c r="L80" t="s">
-        <v>24</v>
-      </c>
-      <c r="M80">
+      <c r="N80" t="s">
+        <v>22</v>
+      </c>
+      <c r="O80" t="s">
+        <v>24</v>
+      </c>
+      <c r="P80">
         <v>30000</v>
       </c>
-      <c r="N80" t="s">
-        <v>22</v>
-      </c>
-      <c r="O80" t="s">
-        <v>23</v>
-      </c>
-      <c r="P80">
+      <c r="Q80" t="s">
+        <v>22</v>
+      </c>
+      <c r="R80" t="s">
+        <v>23</v>
+      </c>
+      <c r="S80">
         <v>150</v>
       </c>
-      <c r="Q80" t="s">
-        <v>22</v>
-      </c>
-      <c r="R80" t="s">
-        <v>23</v>
-      </c>
-      <c r="S80">
+      <c r="T80" t="s">
+        <v>22</v>
+      </c>
+      <c r="U80" t="s">
+        <v>23</v>
+      </c>
+      <c r="V80">
         <v>300</v>
       </c>
     </row>
-    <row r="81" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>103</v>
       </c>
       <c r="C81" t="b">
         <v>0</v>
       </c>
-      <c r="D81">
+      <c r="G81">
         <v>4.99</v>
       </c>
-      <c r="E81">
+      <c r="H81">
         <v>5900</v>
       </c>
-      <c r="F81" t="s">
+      <c r="I81" t="s">
         <v>103</v>
       </c>
-      <c r="G81">
+      <c r="J81">
         <v>456</v>
       </c>
-      <c r="H81" t="s">
-        <v>22</v>
-      </c>
-      <c r="I81" t="s">
-        <v>23</v>
-      </c>
-      <c r="J81">
+      <c r="K81" t="s">
+        <v>22</v>
+      </c>
+      <c r="L81" t="s">
+        <v>23</v>
+      </c>
+      <c r="M81">
         <v>30</v>
       </c>
-      <c r="K81" t="s">
-        <v>22</v>
-      </c>
-      <c r="L81" t="s">
-        <v>24</v>
-      </c>
-      <c r="M81">
+      <c r="N81" t="s">
+        <v>22</v>
+      </c>
+      <c r="O81" t="s">
+        <v>24</v>
+      </c>
+      <c r="P81">
         <v>25000</v>
       </c>
-      <c r="N81" t="s">
-        <v>22</v>
-      </c>
-      <c r="O81" t="s">
-        <v>23</v>
-      </c>
-      <c r="P81">
+      <c r="Q81" t="s">
+        <v>22</v>
+      </c>
+      <c r="R81" t="s">
+        <v>23</v>
+      </c>
+      <c r="S81">
         <v>100</v>
       </c>
     </row>
-    <row r="82" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>104</v>
       </c>
       <c r="C82" t="b">
         <v>0</v>
       </c>
-      <c r="D82">
+      <c r="G82">
         <v>4.99</v>
       </c>
-      <c r="E82">
+      <c r="H82">
         <v>5900</v>
       </c>
-      <c r="F82" t="s">
+      <c r="I82" t="s">
         <v>104</v>
       </c>
-      <c r="G82">
+      <c r="J82">
         <v>574</v>
       </c>
-      <c r="H82" t="s">
-        <v>22</v>
-      </c>
-      <c r="I82" t="s">
-        <v>23</v>
-      </c>
-      <c r="J82">
+      <c r="K82" t="s">
+        <v>22</v>
+      </c>
+      <c r="L82" t="s">
+        <v>23</v>
+      </c>
+      <c r="M82">
         <v>60</v>
       </c>
-      <c r="K82" t="s">
-        <v>22</v>
-      </c>
-      <c r="L82" t="s">
-        <v>24</v>
-      </c>
-      <c r="M82">
+      <c r="N82" t="s">
+        <v>22</v>
+      </c>
+      <c r="O82" t="s">
+        <v>24</v>
+      </c>
+      <c r="P82">
         <v>15000</v>
       </c>
-      <c r="N82" t="s">
-        <v>22</v>
-      </c>
-      <c r="O82" t="s">
-        <v>23</v>
-      </c>
-      <c r="P82">
+      <c r="Q82" t="s">
+        <v>22</v>
+      </c>
+      <c r="R82" t="s">
+        <v>23</v>
+      </c>
+      <c r="S82">
         <v>120</v>
       </c>
     </row>
-    <row r="83" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>105</v>
       </c>
       <c r="C83" t="b">
         <v>0</v>
       </c>
-      <c r="D83">
+      <c r="G83">
         <v>9.99</v>
       </c>
-      <c r="E83">
+      <c r="H83">
         <v>13000</v>
       </c>
-      <c r="F83" t="s">
+      <c r="I83" t="s">
         <v>105</v>
       </c>
-      <c r="G83">
+      <c r="J83">
         <v>117</v>
       </c>
-      <c r="H83" t="s">
-        <v>22</v>
-      </c>
-      <c r="I83" t="s">
-        <v>23</v>
-      </c>
-      <c r="J83">
+      <c r="K83" t="s">
+        <v>22</v>
+      </c>
+      <c r="L83" t="s">
+        <v>23</v>
+      </c>
+      <c r="M83">
         <v>90</v>
       </c>
-      <c r="K83" t="s">
-        <v>22</v>
-      </c>
-      <c r="L83" t="s">
-        <v>24</v>
-      </c>
-      <c r="M83">
+      <c r="N83" t="s">
+        <v>22</v>
+      </c>
+      <c r="O83" t="s">
+        <v>24</v>
+      </c>
+      <c r="P83">
         <v>30000</v>
       </c>
-      <c r="N83" t="s">
-        <v>22</v>
-      </c>
-      <c r="O83" t="s">
-        <v>23</v>
-      </c>
-      <c r="P83">
+      <c r="Q83" t="s">
+        <v>22</v>
+      </c>
+      <c r="R83" t="s">
+        <v>23</v>
+      </c>
+      <c r="S83">
         <v>150</v>
       </c>
-      <c r="Q83" t="s">
-        <v>22</v>
-      </c>
-      <c r="R83" t="s">
-        <v>23</v>
-      </c>
-      <c r="S83">
+      <c r="T83" t="s">
+        <v>22</v>
+      </c>
+      <c r="U83" t="s">
+        <v>23</v>
+      </c>
+      <c r="V83">
         <v>300</v>
       </c>
     </row>
-    <row r="84" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>106</v>
       </c>
       <c r="C84" t="b">
         <v>0</v>
       </c>
-      <c r="D84">
+      <c r="G84">
         <v>9.99</v>
       </c>
-      <c r="E84">
+      <c r="H84">
         <v>13000</v>
       </c>
-      <c r="F84" t="s">
+      <c r="I84" t="s">
         <v>106</v>
       </c>
-      <c r="G84">
+      <c r="J84">
         <v>206</v>
       </c>
-      <c r="H84" t="s">
-        <v>22</v>
-      </c>
-      <c r="I84" t="s">
-        <v>23</v>
-      </c>
-      <c r="J84">
+      <c r="K84" t="s">
+        <v>22</v>
+      </c>
+      <c r="L84" t="s">
+        <v>23</v>
+      </c>
+      <c r="M84">
         <v>30</v>
       </c>
-      <c r="K84" t="s">
-        <v>22</v>
-      </c>
-      <c r="L84" t="s">
-        <v>24</v>
-      </c>
-      <c r="M84">
+      <c r="N84" t="s">
+        <v>22</v>
+      </c>
+      <c r="O84" t="s">
+        <v>24</v>
+      </c>
+      <c r="P84">
         <v>25000</v>
       </c>
-      <c r="N84" t="s">
-        <v>22</v>
-      </c>
-      <c r="O84" t="s">
-        <v>23</v>
-      </c>
-      <c r="P84">
+      <c r="Q84" t="s">
+        <v>22</v>
+      </c>
+      <c r="R84" t="s">
+        <v>23</v>
+      </c>
+      <c r="S84">
         <v>100</v>
       </c>
     </row>
-    <row r="85" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>107</v>
       </c>
       <c r="C85" t="b">
         <v>0</v>
       </c>
-      <c r="D85">
+      <c r="G85">
         <v>19.989999999999998</v>
       </c>
-      <c r="E85">
+      <c r="H85">
         <v>25000</v>
       </c>
-      <c r="F85" t="s">
+      <c r="I85" t="s">
         <v>107</v>
       </c>
-      <c r="G85">
+      <c r="J85">
         <v>464</v>
       </c>
-      <c r="H85" t="s">
-        <v>22</v>
-      </c>
-      <c r="I85" t="s">
-        <v>23</v>
-      </c>
-      <c r="J85">
+      <c r="K85" t="s">
+        <v>22</v>
+      </c>
+      <c r="L85" t="s">
+        <v>23</v>
+      </c>
+      <c r="M85">
         <v>30</v>
       </c>
-      <c r="K85" t="s">
-        <v>22</v>
-      </c>
-      <c r="L85" t="s">
-        <v>24</v>
-      </c>
-      <c r="M85">
+      <c r="N85" t="s">
+        <v>22</v>
+      </c>
+      <c r="O85" t="s">
+        <v>24</v>
+      </c>
+      <c r="P85">
         <v>25000</v>
       </c>
-      <c r="N85" t="s">
-        <v>22</v>
-      </c>
-      <c r="O85" t="s">
-        <v>23</v>
-      </c>
-      <c r="P85">
+      <c r="Q85" t="s">
+        <v>22</v>
+      </c>
+      <c r="R85" t="s">
+        <v>23</v>
+      </c>
+      <c r="S85">
         <v>100</v>
       </c>
     </row>
-    <row r="86" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>108</v>
       </c>
       <c r="C86" t="b">
         <v>0</v>
       </c>
-      <c r="D86">
+      <c r="G86">
         <v>39.99</v>
       </c>
-      <c r="E86">
+      <c r="H86">
         <v>48000</v>
       </c>
-      <c r="F86" t="s">
+      <c r="I86" t="s">
         <v>108</v>
       </c>
-      <c r="G86">
+      <c r="J86">
         <v>836</v>
       </c>
-      <c r="H86" t="s">
-        <v>22</v>
-      </c>
-      <c r="I86" t="s">
-        <v>23</v>
-      </c>
-      <c r="J86">
+      <c r="K86" t="s">
+        <v>22</v>
+      </c>
+      <c r="L86" t="s">
+        <v>23</v>
+      </c>
+      <c r="M86">
         <v>60</v>
       </c>
-      <c r="K86" t="s">
-        <v>22</v>
-      </c>
-      <c r="L86" t="s">
-        <v>24</v>
-      </c>
-      <c r="M86">
+      <c r="N86" t="s">
+        <v>22</v>
+      </c>
+      <c r="O86" t="s">
+        <v>24</v>
+      </c>
+      <c r="P86">
         <v>15000</v>
       </c>
-      <c r="N86" t="s">
-        <v>22</v>
-      </c>
-      <c r="O86" t="s">
-        <v>23</v>
-      </c>
-      <c r="P86">
+      <c r="Q86" t="s">
+        <v>22</v>
+      </c>
+      <c r="R86" t="s">
+        <v>23</v>
+      </c>
+      <c r="S86">
         <v>120</v>
       </c>
     </row>
-    <row r="87" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>109</v>
       </c>
       <c r="C87" t="b">
         <v>0</v>
       </c>
-      <c r="D87">
+      <c r="G87">
         <v>49.99</v>
       </c>
-      <c r="E87">
+      <c r="H87">
         <v>69000</v>
       </c>
-      <c r="F87" t="s">
+      <c r="I87" t="s">
         <v>109</v>
       </c>
-      <c r="G87">
+      <c r="J87">
         <v>475</v>
       </c>
-      <c r="H87" t="s">
-        <v>22</v>
-      </c>
-      <c r="I87" t="s">
-        <v>23</v>
-      </c>
-      <c r="J87">
+      <c r="K87" t="s">
+        <v>22</v>
+      </c>
+      <c r="L87" t="s">
+        <v>23</v>
+      </c>
+      <c r="M87">
         <v>90</v>
       </c>
-      <c r="K87" t="s">
-        <v>22</v>
-      </c>
-      <c r="L87" t="s">
-        <v>24</v>
-      </c>
-      <c r="M87">
+      <c r="N87" t="s">
+        <v>22</v>
+      </c>
+      <c r="O87" t="s">
+        <v>24</v>
+      </c>
+      <c r="P87">
         <v>30000</v>
       </c>
-      <c r="N87" t="s">
-        <v>22</v>
-      </c>
-      <c r="O87" t="s">
-        <v>23</v>
-      </c>
-      <c r="P87">
+      <c r="Q87" t="s">
+        <v>22</v>
+      </c>
+      <c r="R87" t="s">
+        <v>23</v>
+      </c>
+      <c r="S87">
         <v>150</v>
       </c>
-      <c r="Q87" t="s">
-        <v>22</v>
-      </c>
-      <c r="R87" t="s">
-        <v>23</v>
-      </c>
-      <c r="S87">
+      <c r="T87" t="s">
+        <v>22</v>
+      </c>
+      <c r="U87" t="s">
+        <v>23</v>
+      </c>
+      <c r="V87">
         <v>300</v>
       </c>
     </row>
-    <row r="88" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>110</v>
       </c>
       <c r="C88" t="b">
         <v>0</v>
       </c>
-      <c r="D88">
+      <c r="G88">
         <v>99.99</v>
       </c>
-      <c r="E88">
+      <c r="H88">
         <v>109000</v>
       </c>
-      <c r="F88" t="s">
+      <c r="I88" t="s">
         <v>110</v>
       </c>
-      <c r="G88">
+      <c r="J88">
         <v>360</v>
       </c>
-      <c r="H88" t="s">
+      <c r="K88" t="s">
         <v>25</v>
       </c>
-      <c r="I88" t="s">
+      <c r="L88" t="s">
         <v>111</v>
       </c>
-      <c r="J88">
+      <c r="M88">
         <v>1</v>
       </c>
-      <c r="K88" t="s">
-        <v>22</v>
-      </c>
-      <c r="L88" t="s">
-        <v>23</v>
-      </c>
-      <c r="M88">
+      <c r="N88" t="s">
+        <v>22</v>
+      </c>
+      <c r="O88" t="s">
+        <v>23</v>
+      </c>
+      <c r="P88">
         <v>1000</v>
       </c>
-      <c r="N88" t="s">
-        <v>22</v>
-      </c>
-      <c r="O88" t="s">
-        <v>24</v>
-      </c>
-      <c r="P88">
+      <c r="Q88" t="s">
+        <v>22</v>
+      </c>
+      <c r="R88" t="s">
+        <v>24</v>
+      </c>
+      <c r="S88">
         <v>25000</v>
       </c>
-      <c r="Q88" t="s">
-        <v>22</v>
-      </c>
-      <c r="R88" t="s">
+      <c r="T88" t="s">
+        <v>22</v>
+      </c>
+      <c r="U88" t="s">
         <v>98</v>
       </c>
-      <c r="S88">
+      <c r="V88">
         <v>750</v>
       </c>
     </row>
@@ -4576,7 +4639,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F60B4CD-6BF4-4390-A11A-0E0146736787}">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>

--- a/Excel/Shop.xlsx
+++ b/Excel/Shop.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{442130DC-46EA-477F-B98E-1DB125A4EE32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97496476-0905-4992-B151-EA8146699809}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{1A95D980-8F25-43B6-BA87-364295A77694}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="612" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="610" uniqueCount="136">
   <si>
     <t>productId|String</t>
   </si>
@@ -447,12 +447,6 @@
   </si>
   <si>
     <t>times|Int</t>
-  </si>
-  <si>
-    <t>preEng|Float</t>
-  </si>
-  <si>
-    <t>preKor|Int</t>
   </si>
 </sst>
 </file>
@@ -816,27 +810,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED115DDC-E095-4A60-B3EA-80FAE0A4BDBC}">
-  <dimension ref="A1:Y88"/>
+  <dimension ref="A1:W88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="A71" sqref="A71"/>
+    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="A89" sqref="A89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="15.625" customWidth="1"/>
-    <col min="2" max="6" width="9.25" customWidth="1"/>
-    <col min="8" max="8" width="9.25" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.5" customWidth="1"/>
-    <col min="10" max="10" width="6.625" customWidth="1"/>
-    <col min="12" max="12" width="19.5" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="19.5" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="19.5" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="19.5" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="9.25" customWidth="1"/>
+    <col min="6" max="6" width="9.25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.5" customWidth="1"/>
+    <col min="8" max="8" width="6.625" customWidth="1"/>
+    <col min="10" max="10" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="19.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:23" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -850,316 +844,310 @@
         <v>135</v>
       </c>
       <c r="E1" t="s">
-        <v>136</v>
+        <v>1</v>
       </c>
       <c r="F1" t="s">
-        <v>137</v>
+        <v>2</v>
       </c>
       <c r="G1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H1" t="s">
-        <v>2</v>
+        <v>42</v>
       </c>
       <c r="I1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="J1" t="s">
-        <v>42</v>
+        <v>8</v>
       </c>
       <c r="K1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="L1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="M1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="N1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="O1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="P1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="Q1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="R1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="S1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="T1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="U1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="V1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="W1" t="s">
-        <v>19</v>
-      </c>
-      <c r="X1" t="s">
-        <v>20</v>
-      </c>
-      <c r="Y1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>112</v>
       </c>
       <c r="C2" t="b">
         <v>0</v>
       </c>
-      <c r="G2">
+      <c r="E2">
         <v>9.99</v>
       </c>
+      <c r="F2">
+        <v>13000</v>
+      </c>
+      <c r="G2" t="s">
+        <v>112</v>
+      </c>
       <c r="H2">
-        <v>13000</v>
+        <v>434</v>
       </c>
       <c r="I2" t="s">
-        <v>112</v>
-      </c>
-      <c r="J2">
-        <v>434</v>
-      </c>
-      <c r="K2" t="s">
         <v>25</v>
       </c>
-      <c r="L2" t="s">
+      <c r="J2" t="s">
         <v>26</v>
       </c>
-      <c r="M2">
+      <c r="K2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>115</v>
       </c>
       <c r="C3" t="b">
         <v>0</v>
       </c>
-      <c r="G3">
+      <c r="E3">
         <v>9.99</v>
       </c>
+      <c r="F3">
+        <v>13000</v>
+      </c>
+      <c r="G3" t="s">
+        <v>115</v>
+      </c>
       <c r="H3">
-        <v>13000</v>
+        <v>806</v>
       </c>
       <c r="I3" t="s">
-        <v>115</v>
-      </c>
-      <c r="J3">
-        <v>806</v>
-      </c>
-      <c r="K3" t="s">
-        <v>22</v>
+        <v>22</v>
+      </c>
+      <c r="J3" t="s">
+        <v>23</v>
+      </c>
+      <c r="K3">
+        <v>600</v>
       </c>
       <c r="L3" t="s">
-        <v>23</v>
-      </c>
-      <c r="M3">
-        <v>600</v>
-      </c>
-      <c r="N3" t="s">
-        <v>22</v>
-      </c>
-      <c r="O3" t="s">
-        <v>24</v>
-      </c>
-      <c r="P3">
+        <v>22</v>
+      </c>
+      <c r="M3" t="s">
+        <v>24</v>
+      </c>
+      <c r="N3">
         <v>50000</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>113</v>
       </c>
       <c r="C4" t="b">
         <v>0</v>
       </c>
-      <c r="G4">
+      <c r="E4">
         <v>4.99</v>
       </c>
+      <c r="F4">
+        <v>6500</v>
+      </c>
+      <c r="G4" t="s">
+        <v>113</v>
+      </c>
       <c r="H4">
-        <v>6500</v>
+        <v>256</v>
       </c>
       <c r="I4" t="s">
-        <v>113</v>
-      </c>
-      <c r="J4">
-        <v>256</v>
-      </c>
-      <c r="K4" t="s">
         <v>25</v>
       </c>
-      <c r="L4" t="s">
+      <c r="J4" t="s">
         <v>29</v>
       </c>
-      <c r="M4">
+      <c r="K4">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>35</v>
       </c>
       <c r="C5" t="b">
         <v>0</v>
       </c>
-      <c r="G5">
+      <c r="E5">
         <v>14.99</v>
       </c>
+      <c r="F5">
+        <v>19000</v>
+      </c>
+      <c r="G5" t="s">
+        <v>35</v>
+      </c>
       <c r="H5">
-        <v>19000</v>
+        <v>876</v>
       </c>
       <c r="I5" t="s">
-        <v>35</v>
-      </c>
-      <c r="J5">
-        <v>876</v>
-      </c>
-      <c r="K5" t="s">
-        <v>22</v>
+        <v>22</v>
+      </c>
+      <c r="J5" t="s">
+        <v>23</v>
+      </c>
+      <c r="K5">
+        <v>30</v>
       </c>
       <c r="L5" t="s">
-        <v>23</v>
-      </c>
-      <c r="M5">
-        <v>30</v>
-      </c>
-      <c r="N5" t="s">
-        <v>22</v>
+        <v>22</v>
+      </c>
+      <c r="M5" t="s">
+        <v>24</v>
+      </c>
+      <c r="N5">
+        <v>25000</v>
       </c>
       <c r="O5" t="s">
-        <v>24</v>
-      </c>
-      <c r="P5">
-        <v>25000</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>22</v>
-      </c>
-      <c r="R5" t="s">
-        <v>23</v>
-      </c>
-      <c r="S5">
+        <v>22</v>
+      </c>
+      <c r="P5" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q5">
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>36</v>
       </c>
       <c r="C6" t="b">
         <v>0</v>
       </c>
-      <c r="G6">
+      <c r="E6">
         <v>29.99</v>
       </c>
+      <c r="F6">
+        <v>39000</v>
+      </c>
+      <c r="G6" t="s">
+        <v>36</v>
+      </c>
       <c r="H6">
-        <v>39000</v>
+        <v>973</v>
       </c>
       <c r="I6" t="s">
-        <v>36</v>
-      </c>
-      <c r="J6">
-        <v>973</v>
-      </c>
-      <c r="K6" t="s">
-        <v>22</v>
+        <v>22</v>
+      </c>
+      <c r="J6" t="s">
+        <v>23</v>
+      </c>
+      <c r="K6">
+        <v>60</v>
       </c>
       <c r="L6" t="s">
-        <v>23</v>
-      </c>
-      <c r="M6">
-        <v>60</v>
-      </c>
-      <c r="N6" t="s">
-        <v>22</v>
+        <v>22</v>
+      </c>
+      <c r="M6" t="s">
+        <v>24</v>
+      </c>
+      <c r="N6">
+        <v>15000</v>
       </c>
       <c r="O6" t="s">
-        <v>24</v>
-      </c>
-      <c r="P6">
-        <v>15000</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>22</v>
-      </c>
-      <c r="R6" t="s">
-        <v>23</v>
-      </c>
-      <c r="S6">
+        <v>22</v>
+      </c>
+      <c r="P6" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q6">
         <v>120</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>37</v>
       </c>
       <c r="C7" t="b">
         <v>0</v>
       </c>
-      <c r="G7">
+      <c r="E7">
         <v>49.99</v>
       </c>
+      <c r="F7">
+        <v>69000</v>
+      </c>
+      <c r="G7" t="s">
+        <v>37</v>
+      </c>
       <c r="H7">
-        <v>69000</v>
+        <v>180</v>
       </c>
       <c r="I7" t="s">
-        <v>37</v>
-      </c>
-      <c r="J7">
-        <v>180</v>
-      </c>
-      <c r="K7" t="s">
-        <v>22</v>
+        <v>22</v>
+      </c>
+      <c r="J7" t="s">
+        <v>23</v>
+      </c>
+      <c r="K7">
+        <v>90</v>
       </c>
       <c r="L7" t="s">
-        <v>23</v>
-      </c>
-      <c r="M7">
-        <v>90</v>
-      </c>
-      <c r="N7" t="s">
-        <v>22</v>
+        <v>22</v>
+      </c>
+      <c r="M7" t="s">
+        <v>24</v>
+      </c>
+      <c r="N7">
+        <v>30000</v>
       </c>
       <c r="O7" t="s">
-        <v>24</v>
-      </c>
-      <c r="P7">
-        <v>30000</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>22</v>
+        <v>22</v>
+      </c>
+      <c r="P7" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q7">
+        <v>150</v>
       </c>
       <c r="R7" t="s">
-        <v>23</v>
-      </c>
-      <c r="S7">
-        <v>150</v>
-      </c>
-      <c r="T7" t="s">
-        <v>22</v>
-      </c>
-      <c r="U7" t="s">
-        <v>23</v>
-      </c>
-      <c r="V7">
+        <v>22</v>
+      </c>
+      <c r="S7" t="s">
+        <v>23</v>
+      </c>
+      <c r="T7">
         <v>300</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>38</v>
       </c>
@@ -1169,38 +1157,38 @@
       <c r="C8" t="b">
         <v>1</v>
       </c>
-      <c r="J8">
+      <c r="H8">
         <v>721</v>
       </c>
-      <c r="K8" t="s">
-        <v>22</v>
+      <c r="I8" t="s">
+        <v>22</v>
+      </c>
+      <c r="J8" t="s">
+        <v>23</v>
+      </c>
+      <c r="K8">
+        <v>80</v>
       </c>
       <c r="L8" t="s">
-        <v>23</v>
-      </c>
-      <c r="M8">
-        <v>80</v>
-      </c>
-      <c r="N8" t="s">
-        <v>22</v>
+        <v>22</v>
+      </c>
+      <c r="M8" t="s">
+        <v>24</v>
+      </c>
+      <c r="N8">
+        <v>35000</v>
       </c>
       <c r="O8" t="s">
-        <v>24</v>
-      </c>
-      <c r="P8">
-        <v>35000</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>22</v>
-      </c>
-      <c r="R8" t="s">
-        <v>23</v>
-      </c>
-      <c r="S8">
+        <v>22</v>
+      </c>
+      <c r="P8" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q8">
         <v>170</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>39</v>
       </c>
@@ -1210,20 +1198,20 @@
       <c r="C9" t="b">
         <v>1</v>
       </c>
-      <c r="J9">
+      <c r="H9">
         <v>884</v>
       </c>
-      <c r="K9" t="s">
-        <v>22</v>
-      </c>
-      <c r="L9" t="s">
-        <v>23</v>
-      </c>
-      <c r="M9">
+      <c r="I9" t="s">
+        <v>22</v>
+      </c>
+      <c r="J9" t="s">
+        <v>23</v>
+      </c>
+      <c r="K9">
         <v>150</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>40</v>
       </c>
@@ -1233,56 +1221,56 @@
       <c r="C10" t="b">
         <v>0</v>
       </c>
-      <c r="G10">
+      <c r="E10">
         <v>1.99</v>
       </c>
+      <c r="F10">
+        <v>2500</v>
+      </c>
+      <c r="G10" t="s">
+        <v>40</v>
+      </c>
       <c r="H10">
-        <v>2500</v>
+        <v>217</v>
       </c>
       <c r="I10" t="s">
-        <v>40</v>
-      </c>
-      <c r="J10">
-        <v>217</v>
-      </c>
-      <c r="K10" t="s">
-        <v>22</v>
+        <v>22</v>
+      </c>
+      <c r="J10" t="s">
+        <v>24</v>
+      </c>
+      <c r="K10">
+        <v>20000</v>
       </c>
       <c r="L10" t="s">
-        <v>24</v>
-      </c>
-      <c r="M10">
-        <v>20000</v>
-      </c>
-      <c r="N10" t="s">
-        <v>22</v>
+        <v>22</v>
+      </c>
+      <c r="M10" t="s">
+        <v>23</v>
+      </c>
+      <c r="N10">
+        <v>150</v>
       </c>
       <c r="O10" t="s">
-        <v>23</v>
-      </c>
-      <c r="P10">
-        <v>150</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>22</v>
+        <v>22</v>
+      </c>
+      <c r="P10" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q10">
+        <v>35000</v>
       </c>
       <c r="R10" t="s">
-        <v>24</v>
-      </c>
-      <c r="S10">
-        <v>35000</v>
-      </c>
-      <c r="T10" t="s">
-        <v>22</v>
-      </c>
-      <c r="U10" t="s">
-        <v>23</v>
-      </c>
-      <c r="V10">
+        <v>22</v>
+      </c>
+      <c r="S10" t="s">
+        <v>23</v>
+      </c>
+      <c r="T10">
         <v>200</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>41</v>
       </c>
@@ -1292,29 +1280,29 @@
       <c r="C11" t="b">
         <v>1</v>
       </c>
-      <c r="J11">
+      <c r="H11">
         <v>394</v>
       </c>
-      <c r="K11" t="s">
-        <v>22</v>
+      <c r="I11" t="s">
+        <v>22</v>
+      </c>
+      <c r="J11" t="s">
+        <v>23</v>
+      </c>
+      <c r="K11">
+        <v>150</v>
       </c>
       <c r="L11" t="s">
-        <v>23</v>
-      </c>
-      <c r="M11">
-        <v>150</v>
-      </c>
-      <c r="N11" t="s">
-        <v>22</v>
-      </c>
-      <c r="O11" t="s">
-        <v>24</v>
-      </c>
-      <c r="P11">
+        <v>22</v>
+      </c>
+      <c r="M11" t="s">
+        <v>24</v>
+      </c>
+      <c r="N11">
         <v>20000</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>32</v>
       </c>
@@ -1324,56 +1312,56 @@
       <c r="C12" t="b">
         <v>0</v>
       </c>
-      <c r="G12">
+      <c r="E12">
         <v>19.989999999999998</v>
       </c>
+      <c r="F12">
+        <v>25000</v>
+      </c>
+      <c r="G12" t="s">
+        <v>32</v>
+      </c>
       <c r="H12">
-        <v>25000</v>
+        <v>548</v>
       </c>
       <c r="I12" t="s">
-        <v>32</v>
-      </c>
-      <c r="J12">
-        <v>548</v>
-      </c>
-      <c r="K12" t="s">
-        <v>22</v>
+        <v>22</v>
+      </c>
+      <c r="J12" t="s">
+        <v>23</v>
+      </c>
+      <c r="K12">
+        <v>350</v>
       </c>
       <c r="L12" t="s">
-        <v>23</v>
-      </c>
-      <c r="M12">
-        <v>350</v>
-      </c>
-      <c r="N12" t="s">
-        <v>22</v>
+        <v>22</v>
+      </c>
+      <c r="M12" t="s">
+        <v>24</v>
+      </c>
+      <c r="N12">
+        <v>80000</v>
       </c>
       <c r="O12" t="s">
-        <v>24</v>
-      </c>
-      <c r="P12">
-        <v>80000</v>
-      </c>
-      <c r="Q12" t="s">
-        <v>22</v>
+        <v>22</v>
+      </c>
+      <c r="P12" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q12">
+        <v>800</v>
       </c>
       <c r="R12" t="s">
-        <v>23</v>
-      </c>
-      <c r="S12">
-        <v>800</v>
-      </c>
-      <c r="T12" t="s">
-        <v>22</v>
-      </c>
-      <c r="U12" t="s">
-        <v>24</v>
-      </c>
-      <c r="V12">
+        <v>22</v>
+      </c>
+      <c r="S12" t="s">
+        <v>24</v>
+      </c>
+      <c r="T12">
         <v>100000</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>33</v>
       </c>
@@ -1383,38 +1371,38 @@
       <c r="C13" t="b">
         <v>1</v>
       </c>
-      <c r="J13">
+      <c r="H13">
         <v>537</v>
       </c>
-      <c r="K13" t="s">
-        <v>22</v>
+      <c r="I13" t="s">
+        <v>22</v>
+      </c>
+      <c r="J13" t="s">
+        <v>24</v>
+      </c>
+      <c r="K13">
+        <v>50000</v>
       </c>
       <c r="L13" t="s">
-        <v>24</v>
-      </c>
-      <c r="M13">
-        <v>50000</v>
-      </c>
-      <c r="N13" t="s">
-        <v>22</v>
+        <v>22</v>
+      </c>
+      <c r="M13" t="s">
+        <v>23</v>
+      </c>
+      <c r="N13">
+        <v>500</v>
       </c>
       <c r="O13" t="s">
-        <v>23</v>
-      </c>
-      <c r="P13">
-        <v>500</v>
-      </c>
-      <c r="Q13" t="s">
-        <v>22</v>
-      </c>
-      <c r="R13" t="s">
-        <v>24</v>
-      </c>
-      <c r="S13">
+        <v>22</v>
+      </c>
+      <c r="P13" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q13">
         <v>70000</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>34</v>
       </c>
@@ -1424,2103 +1412,2103 @@
       <c r="C14" t="b">
         <v>1</v>
       </c>
-      <c r="J14">
+      <c r="H14">
         <v>314</v>
       </c>
-      <c r="K14" t="s">
-        <v>22</v>
+      <c r="I14" t="s">
+        <v>22</v>
+      </c>
+      <c r="J14" t="s">
+        <v>23</v>
+      </c>
+      <c r="K14">
+        <v>450</v>
       </c>
       <c r="L14" t="s">
-        <v>23</v>
-      </c>
-      <c r="M14">
-        <v>450</v>
-      </c>
-      <c r="N14" t="s">
-        <v>22</v>
+        <v>22</v>
+      </c>
+      <c r="M14" t="s">
+        <v>24</v>
+      </c>
+      <c r="N14">
+        <v>60000</v>
       </c>
       <c r="O14" t="s">
-        <v>24</v>
-      </c>
-      <c r="P14">
-        <v>60000</v>
-      </c>
-      <c r="Q14" t="s">
-        <v>22</v>
+        <v>22</v>
+      </c>
+      <c r="P14" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q14">
+        <v>90000</v>
       </c>
       <c r="R14" t="s">
-        <v>24</v>
-      </c>
-      <c r="S14">
-        <v>90000</v>
-      </c>
-      <c r="T14" t="s">
-        <v>22</v>
-      </c>
-      <c r="U14" t="s">
-        <v>23</v>
-      </c>
-      <c r="V14">
+        <v>22</v>
+      </c>
+      <c r="S14" t="s">
+        <v>23</v>
+      </c>
+      <c r="T14">
         <v>650</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>114</v>
       </c>
       <c r="C15" t="b">
         <v>0</v>
       </c>
-      <c r="G15">
+      <c r="E15">
         <v>0.99</v>
       </c>
+      <c r="F15">
+        <v>1200</v>
+      </c>
+      <c r="G15" t="s">
+        <v>114</v>
+      </c>
       <c r="H15">
-        <v>1200</v>
+        <v>741</v>
       </c>
       <c r="I15" t="s">
-        <v>114</v>
-      </c>
-      <c r="J15">
-        <v>741</v>
-      </c>
-      <c r="K15" t="s">
         <v>25</v>
       </c>
-      <c r="L15" t="s">
+      <c r="J15" t="s">
         <v>88</v>
       </c>
-      <c r="M15">
+      <c r="K15">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>43</v>
       </c>
       <c r="C16" t="b">
         <v>0</v>
       </c>
-      <c r="G16">
+      <c r="E16">
         <v>9.99</v>
       </c>
+      <c r="F16">
+        <v>13000</v>
+      </c>
+      <c r="G16" t="s">
+        <v>43</v>
+      </c>
       <c r="H16">
-        <v>13000</v>
+        <v>513</v>
       </c>
       <c r="I16" t="s">
-        <v>43</v>
-      </c>
-      <c r="J16">
-        <v>513</v>
-      </c>
-      <c r="K16" t="s">
-        <v>22</v>
+        <v>22</v>
+      </c>
+      <c r="J16" t="s">
+        <v>23</v>
+      </c>
+      <c r="K16">
+        <v>100</v>
       </c>
       <c r="L16" t="s">
-        <v>23</v>
-      </c>
-      <c r="M16">
-        <v>100</v>
-      </c>
-      <c r="N16" t="s">
-        <v>22</v>
+        <v>22</v>
+      </c>
+      <c r="M16" t="s">
+        <v>23</v>
+      </c>
+      <c r="N16">
+        <v>50</v>
       </c>
       <c r="O16" t="s">
-        <v>23</v>
-      </c>
-      <c r="P16">
-        <v>50</v>
-      </c>
-      <c r="Q16" t="s">
-        <v>22</v>
-      </c>
-      <c r="R16" t="s">
-        <v>24</v>
-      </c>
-      <c r="S16">
+        <v>22</v>
+      </c>
+      <c r="P16" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q16">
         <v>10000</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>44</v>
       </c>
       <c r="C17" t="b">
         <v>0</v>
       </c>
-      <c r="G17">
+      <c r="E17">
         <v>14.99</v>
       </c>
+      <c r="F17">
+        <v>19000</v>
+      </c>
+      <c r="G17" t="s">
+        <v>44</v>
+      </c>
       <c r="H17">
-        <v>19000</v>
+        <v>981</v>
       </c>
       <c r="I17" t="s">
-        <v>44</v>
-      </c>
-      <c r="J17">
-        <v>981</v>
-      </c>
-      <c r="K17" t="s">
         <v>25</v>
       </c>
+      <c r="J17" t="s">
+        <v>130</v>
+      </c>
+      <c r="K17">
+        <v>75</v>
+      </c>
       <c r="L17" t="s">
-        <v>130</v>
-      </c>
-      <c r="M17">
+        <v>22</v>
+      </c>
+      <c r="M17" t="s">
+        <v>23</v>
+      </c>
+      <c r="N17">
         <v>75</v>
       </c>
-      <c r="N17" t="s">
-        <v>22</v>
-      </c>
       <c r="O17" t="s">
-        <v>23</v>
-      </c>
-      <c r="P17">
-        <v>75</v>
-      </c>
-      <c r="Q17" t="s">
-        <v>22</v>
-      </c>
-      <c r="R17" t="s">
-        <v>24</v>
-      </c>
-      <c r="S17">
+        <v>22</v>
+      </c>
+      <c r="P17" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q17">
         <v>20000</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>45</v>
       </c>
       <c r="C18" t="b">
         <v>0</v>
       </c>
-      <c r="G18">
+      <c r="E18">
         <v>29.99</v>
       </c>
+      <c r="F18">
+        <v>39000</v>
+      </c>
+      <c r="G18" t="s">
+        <v>45</v>
+      </c>
       <c r="H18">
-        <v>39000</v>
+        <v>112</v>
       </c>
       <c r="I18" t="s">
-        <v>45</v>
-      </c>
-      <c r="J18">
-        <v>112</v>
-      </c>
-      <c r="K18" t="s">
-        <v>22</v>
+        <v>22</v>
+      </c>
+      <c r="J18" t="s">
+        <v>23</v>
+      </c>
+      <c r="K18">
+        <v>300</v>
       </c>
       <c r="L18" t="s">
-        <v>23</v>
-      </c>
-      <c r="M18">
-        <v>300</v>
-      </c>
-      <c r="N18" t="s">
-        <v>22</v>
+        <v>22</v>
+      </c>
+      <c r="M18" t="s">
+        <v>23</v>
+      </c>
+      <c r="N18">
+        <v>100</v>
       </c>
       <c r="O18" t="s">
-        <v>23</v>
-      </c>
-      <c r="P18">
-        <v>100</v>
-      </c>
-      <c r="Q18" t="s">
-        <v>22</v>
-      </c>
-      <c r="R18" t="s">
-        <v>24</v>
-      </c>
-      <c r="S18">
+        <v>22</v>
+      </c>
+      <c r="P18" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q18">
         <v>40000</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>46</v>
       </c>
       <c r="C19" t="b">
         <v>0</v>
       </c>
-      <c r="G19">
+      <c r="E19">
         <v>49.99</v>
       </c>
+      <c r="F19">
+        <v>69000</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
       <c r="H19">
-        <v>69000</v>
+        <v>152</v>
       </c>
       <c r="I19" t="s">
-        <v>46</v>
-      </c>
-      <c r="J19">
-        <v>152</v>
-      </c>
-      <c r="K19" t="s">
         <v>25</v>
       </c>
+      <c r="J19" t="s">
+        <v>130</v>
+      </c>
+      <c r="K19">
+        <v>200</v>
+      </c>
       <c r="L19" t="s">
-        <v>130</v>
-      </c>
-      <c r="M19">
-        <v>200</v>
-      </c>
-      <c r="N19" t="s">
-        <v>22</v>
+        <v>22</v>
+      </c>
+      <c r="M19" t="s">
+        <v>23</v>
+      </c>
+      <c r="N19">
+        <v>500</v>
       </c>
       <c r="O19" t="s">
-        <v>23</v>
-      </c>
-      <c r="P19">
-        <v>500</v>
-      </c>
-      <c r="Q19" t="s">
-        <v>22</v>
-      </c>
-      <c r="R19" t="s">
-        <v>24</v>
-      </c>
-      <c r="S19">
+        <v>22</v>
+      </c>
+      <c r="P19" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q19">
         <v>60000</v>
       </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>47</v>
       </c>
       <c r="C20" t="b">
         <v>0</v>
       </c>
-      <c r="G20">
+      <c r="E20">
         <v>9.99</v>
       </c>
+      <c r="F20">
+        <v>13000</v>
+      </c>
+      <c r="G20" t="s">
+        <v>47</v>
+      </c>
       <c r="H20">
-        <v>13000</v>
+        <v>293</v>
       </c>
       <c r="I20" t="s">
-        <v>47</v>
-      </c>
-      <c r="J20">
-        <v>293</v>
-      </c>
-      <c r="K20" t="s">
-        <v>22</v>
+        <v>22</v>
+      </c>
+      <c r="J20" t="s">
+        <v>23</v>
+      </c>
+      <c r="K20">
+        <v>100</v>
       </c>
       <c r="L20" t="s">
-        <v>23</v>
-      </c>
-      <c r="M20">
-        <v>100</v>
-      </c>
-      <c r="N20" t="s">
-        <v>22</v>
+        <v>22</v>
+      </c>
+      <c r="M20" t="s">
+        <v>23</v>
+      </c>
+      <c r="N20">
+        <v>50</v>
       </c>
       <c r="O20" t="s">
-        <v>23</v>
-      </c>
-      <c r="P20">
-        <v>50</v>
-      </c>
-      <c r="Q20" t="s">
-        <v>22</v>
-      </c>
-      <c r="R20" t="s">
-        <v>24</v>
-      </c>
-      <c r="S20">
+        <v>22</v>
+      </c>
+      <c r="P20" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q20">
         <v>10000</v>
       </c>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>48</v>
       </c>
       <c r="C21" t="b">
         <v>0</v>
       </c>
-      <c r="G21">
+      <c r="E21">
         <v>14.99</v>
       </c>
+      <c r="F21">
+        <v>19000</v>
+      </c>
+      <c r="G21" t="s">
+        <v>48</v>
+      </c>
       <c r="H21">
-        <v>19000</v>
+        <v>364</v>
       </c>
       <c r="I21" t="s">
-        <v>48</v>
-      </c>
-      <c r="J21">
-        <v>364</v>
-      </c>
-      <c r="K21" t="s">
         <v>25</v>
       </c>
+      <c r="J21" t="s">
+        <v>130</v>
+      </c>
+      <c r="K21">
+        <v>400</v>
+      </c>
       <c r="L21" t="s">
-        <v>130</v>
-      </c>
-      <c r="M21">
-        <v>400</v>
-      </c>
-      <c r="N21" t="s">
-        <v>22</v>
+        <v>22</v>
+      </c>
+      <c r="M21" t="s">
+        <v>23</v>
+      </c>
+      <c r="N21">
+        <v>75</v>
       </c>
       <c r="O21" t="s">
-        <v>23</v>
-      </c>
-      <c r="P21">
-        <v>75</v>
-      </c>
-      <c r="Q21" t="s">
-        <v>22</v>
-      </c>
-      <c r="R21" t="s">
-        <v>24</v>
-      </c>
-      <c r="S21">
+        <v>22</v>
+      </c>
+      <c r="P21" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q21">
         <v>20000</v>
       </c>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>49</v>
       </c>
       <c r="C22" t="b">
         <v>0</v>
       </c>
-      <c r="G22">
+      <c r="E22">
         <v>29.99</v>
       </c>
+      <c r="F22">
+        <v>39000</v>
+      </c>
+      <c r="G22" t="s">
+        <v>49</v>
+      </c>
       <c r="H22">
-        <v>39000</v>
+        <v>440</v>
       </c>
       <c r="I22" t="s">
-        <v>49</v>
-      </c>
-      <c r="J22">
-        <v>440</v>
-      </c>
-      <c r="K22" t="s">
-        <v>22</v>
+        <v>22</v>
+      </c>
+      <c r="J22" t="s">
+        <v>23</v>
+      </c>
+      <c r="K22">
+        <v>300</v>
       </c>
       <c r="L22" t="s">
-        <v>23</v>
-      </c>
-      <c r="M22">
-        <v>300</v>
-      </c>
-      <c r="N22" t="s">
-        <v>22</v>
+        <v>22</v>
+      </c>
+      <c r="M22" t="s">
+        <v>23</v>
+      </c>
+      <c r="N22">
+        <v>100</v>
       </c>
       <c r="O22" t="s">
-        <v>23</v>
-      </c>
-      <c r="P22">
-        <v>100</v>
-      </c>
-      <c r="Q22" t="s">
-        <v>22</v>
-      </c>
-      <c r="R22" t="s">
-        <v>24</v>
-      </c>
-      <c r="S22">
+        <v>22</v>
+      </c>
+      <c r="P22" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q22">
         <v>40000</v>
       </c>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>50</v>
       </c>
       <c r="C23" t="b">
         <v>0</v>
       </c>
-      <c r="G23">
+      <c r="E23">
         <v>49.99</v>
       </c>
+      <c r="F23">
+        <v>69000</v>
+      </c>
+      <c r="G23" t="s">
+        <v>50</v>
+      </c>
       <c r="H23">
-        <v>69000</v>
+        <v>335</v>
       </c>
       <c r="I23" t="s">
-        <v>50</v>
-      </c>
-      <c r="J23">
-        <v>335</v>
-      </c>
-      <c r="K23" t="s">
         <v>25</v>
       </c>
+      <c r="J23" t="s">
+        <v>130</v>
+      </c>
+      <c r="K23">
+        <v>1200</v>
+      </c>
       <c r="L23" t="s">
-        <v>130</v>
-      </c>
-      <c r="M23">
-        <v>1200</v>
-      </c>
-      <c r="N23" t="s">
-        <v>22</v>
+        <v>22</v>
+      </c>
+      <c r="M23" t="s">
+        <v>23</v>
+      </c>
+      <c r="N23">
+        <v>500</v>
       </c>
       <c r="O23" t="s">
-        <v>23</v>
-      </c>
-      <c r="P23">
-        <v>500</v>
-      </c>
-      <c r="Q23" t="s">
-        <v>22</v>
-      </c>
-      <c r="R23" t="s">
-        <v>24</v>
-      </c>
-      <c r="S23">
+        <v>22</v>
+      </c>
+      <c r="P23" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q23">
         <v>60000</v>
       </c>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>51</v>
       </c>
       <c r="C24" t="b">
         <v>0</v>
       </c>
-      <c r="G24">
+      <c r="E24">
         <v>9.99</v>
       </c>
+      <c r="F24">
+        <v>13000</v>
+      </c>
+      <c r="G24" t="s">
+        <v>51</v>
+      </c>
       <c r="H24">
-        <v>13000</v>
+        <v>349</v>
       </c>
       <c r="I24" t="s">
-        <v>51</v>
-      </c>
-      <c r="J24">
-        <v>349</v>
-      </c>
-      <c r="K24" t="s">
-        <v>22</v>
+        <v>22</v>
+      </c>
+      <c r="J24" t="s">
+        <v>23</v>
+      </c>
+      <c r="K24">
+        <v>100</v>
       </c>
       <c r="L24" t="s">
-        <v>23</v>
-      </c>
-      <c r="M24">
-        <v>100</v>
-      </c>
-      <c r="N24" t="s">
-        <v>22</v>
+        <v>22</v>
+      </c>
+      <c r="M24" t="s">
+        <v>23</v>
+      </c>
+      <c r="N24">
+        <v>50</v>
       </c>
       <c r="O24" t="s">
-        <v>23</v>
-      </c>
-      <c r="P24">
-        <v>50</v>
-      </c>
-      <c r="Q24" t="s">
-        <v>22</v>
-      </c>
-      <c r="R24" t="s">
-        <v>24</v>
-      </c>
-      <c r="S24">
+        <v>22</v>
+      </c>
+      <c r="P24" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q24">
         <v>10000</v>
       </c>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>52</v>
       </c>
       <c r="C25" t="b">
         <v>0</v>
       </c>
-      <c r="G25">
+      <c r="E25">
         <v>14.99</v>
       </c>
+      <c r="F25">
+        <v>19000</v>
+      </c>
+      <c r="G25" t="s">
+        <v>52</v>
+      </c>
       <c r="H25">
-        <v>19000</v>
+        <v>901</v>
       </c>
       <c r="I25" t="s">
-        <v>52</v>
-      </c>
-      <c r="J25">
-        <v>901</v>
-      </c>
-      <c r="K25" t="s">
         <v>25</v>
       </c>
+      <c r="J25" t="s">
+        <v>130</v>
+      </c>
+      <c r="K25">
+        <v>300</v>
+      </c>
       <c r="L25" t="s">
-        <v>130</v>
-      </c>
-      <c r="M25">
-        <v>300</v>
-      </c>
-      <c r="N25" t="s">
-        <v>22</v>
+        <v>22</v>
+      </c>
+      <c r="M25" t="s">
+        <v>23</v>
+      </c>
+      <c r="N25">
+        <v>75</v>
       </c>
       <c r="O25" t="s">
-        <v>23</v>
-      </c>
-      <c r="P25">
-        <v>75</v>
-      </c>
-      <c r="Q25" t="s">
-        <v>22</v>
-      </c>
-      <c r="R25" t="s">
-        <v>24</v>
-      </c>
-      <c r="S25">
+        <v>22</v>
+      </c>
+      <c r="P25" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q25">
         <v>20000</v>
       </c>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>53</v>
       </c>
       <c r="C26" t="b">
         <v>0</v>
       </c>
-      <c r="G26">
+      <c r="E26">
         <v>29.99</v>
       </c>
+      <c r="F26">
+        <v>39000</v>
+      </c>
+      <c r="G26" t="s">
+        <v>53</v>
+      </c>
       <c r="H26">
-        <v>39000</v>
+        <v>265</v>
       </c>
       <c r="I26" t="s">
-        <v>53</v>
-      </c>
-      <c r="J26">
-        <v>265</v>
-      </c>
-      <c r="K26" t="s">
-        <v>22</v>
+        <v>22</v>
+      </c>
+      <c r="J26" t="s">
+        <v>23</v>
+      </c>
+      <c r="K26">
+        <v>300</v>
       </c>
       <c r="L26" t="s">
-        <v>23</v>
-      </c>
-      <c r="M26">
-        <v>300</v>
-      </c>
-      <c r="N26" t="s">
-        <v>22</v>
+        <v>22</v>
+      </c>
+      <c r="M26" t="s">
+        <v>23</v>
+      </c>
+      <c r="N26">
+        <v>100</v>
       </c>
       <c r="O26" t="s">
-        <v>23</v>
-      </c>
-      <c r="P26">
-        <v>100</v>
-      </c>
-      <c r="Q26" t="s">
-        <v>22</v>
-      </c>
-      <c r="R26" t="s">
-        <v>24</v>
-      </c>
-      <c r="S26">
+        <v>22</v>
+      </c>
+      <c r="P26" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q26">
         <v>40000</v>
       </c>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>54</v>
       </c>
       <c r="C27" t="b">
         <v>0</v>
       </c>
-      <c r="G27">
+      <c r="E27">
         <v>49.99</v>
       </c>
+      <c r="F27">
+        <v>69000</v>
+      </c>
+      <c r="G27" t="s">
+        <v>54</v>
+      </c>
       <c r="H27">
-        <v>69000</v>
+        <v>820</v>
       </c>
       <c r="I27" t="s">
-        <v>54</v>
-      </c>
-      <c r="J27">
-        <v>820</v>
-      </c>
-      <c r="K27" t="s">
         <v>25</v>
       </c>
+      <c r="J27" t="s">
+        <v>130</v>
+      </c>
+      <c r="K27">
+        <v>1000</v>
+      </c>
       <c r="L27" t="s">
-        <v>130</v>
-      </c>
-      <c r="M27">
-        <v>1000</v>
-      </c>
-      <c r="N27" t="s">
-        <v>22</v>
+        <v>22</v>
+      </c>
+      <c r="M27" t="s">
+        <v>23</v>
+      </c>
+      <c r="N27">
+        <v>500</v>
       </c>
       <c r="O27" t="s">
-        <v>23</v>
-      </c>
-      <c r="P27">
-        <v>500</v>
-      </c>
-      <c r="Q27" t="s">
-        <v>22</v>
-      </c>
-      <c r="R27" t="s">
-        <v>24</v>
-      </c>
-      <c r="S27">
+        <v>22</v>
+      </c>
+      <c r="P27" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q27">
         <v>60000</v>
       </c>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>116</v>
       </c>
       <c r="C28" t="b">
         <v>0</v>
       </c>
-      <c r="G28">
+      <c r="E28">
         <v>9.99</v>
       </c>
+      <c r="F28">
+        <v>13000</v>
+      </c>
+      <c r="G28" t="s">
+        <v>116</v>
+      </c>
       <c r="H28">
-        <v>13000</v>
+        <v>127</v>
       </c>
       <c r="I28" t="s">
-        <v>116</v>
-      </c>
-      <c r="J28">
-        <v>127</v>
-      </c>
-      <c r="K28" t="s">
         <v>25</v>
       </c>
+      <c r="J28" t="s">
+        <v>131</v>
+      </c>
+      <c r="K28">
+        <v>500</v>
+      </c>
       <c r="L28" t="s">
-        <v>131</v>
-      </c>
-      <c r="M28">
-        <v>500</v>
-      </c>
-      <c r="N28" t="s">
-        <v>22</v>
+        <v>22</v>
+      </c>
+      <c r="M28" t="s">
+        <v>23</v>
+      </c>
+      <c r="N28">
+        <v>75</v>
       </c>
       <c r="O28" t="s">
-        <v>23</v>
-      </c>
-      <c r="P28">
-        <v>75</v>
-      </c>
-      <c r="Q28" t="s">
-        <v>22</v>
-      </c>
-      <c r="R28" t="s">
-        <v>24</v>
-      </c>
-      <c r="S28">
+        <v>22</v>
+      </c>
+      <c r="P28" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q28">
         <v>20000</v>
       </c>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>117</v>
       </c>
       <c r="C29" t="b">
         <v>0</v>
       </c>
-      <c r="G29">
+      <c r="E29">
         <v>14.99</v>
       </c>
+      <c r="F29">
+        <v>19000</v>
+      </c>
+      <c r="G29" t="s">
+        <v>117</v>
+      </c>
       <c r="H29">
-        <v>19000</v>
+        <v>194</v>
       </c>
       <c r="I29" t="s">
-        <v>117</v>
-      </c>
-      <c r="J29">
-        <v>194</v>
-      </c>
-      <c r="K29" t="s">
-        <v>22</v>
+        <v>22</v>
+      </c>
+      <c r="J29" t="s">
+        <v>23</v>
+      </c>
+      <c r="K29">
+        <v>300</v>
       </c>
       <c r="L29" t="s">
-        <v>23</v>
-      </c>
-      <c r="M29">
-        <v>300</v>
-      </c>
-      <c r="N29" t="s">
-        <v>22</v>
+        <v>22</v>
+      </c>
+      <c r="M29" t="s">
+        <v>23</v>
+      </c>
+      <c r="N29">
+        <v>100</v>
       </c>
       <c r="O29" t="s">
-        <v>23</v>
-      </c>
-      <c r="P29">
-        <v>100</v>
-      </c>
-      <c r="Q29" t="s">
-        <v>22</v>
-      </c>
-      <c r="R29" t="s">
-        <v>24</v>
-      </c>
-      <c r="S29">
+        <v>22</v>
+      </c>
+      <c r="P29" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q29">
         <v>40000</v>
       </c>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>118</v>
       </c>
       <c r="C30" t="b">
         <v>0</v>
       </c>
-      <c r="G30">
+      <c r="E30">
         <v>29.99</v>
       </c>
+      <c r="F30">
+        <v>39000</v>
+      </c>
+      <c r="G30" t="s">
+        <v>118</v>
+      </c>
       <c r="H30">
-        <v>39000</v>
+        <v>970</v>
       </c>
       <c r="I30" t="s">
-        <v>118</v>
-      </c>
-      <c r="J30">
-        <v>970</v>
-      </c>
-      <c r="K30" t="s">
         <v>25</v>
       </c>
+      <c r="J30" t="s">
+        <v>131</v>
+      </c>
+      <c r="K30">
+        <v>1500</v>
+      </c>
       <c r="L30" t="s">
-        <v>131</v>
-      </c>
-      <c r="M30">
-        <v>1500</v>
-      </c>
-      <c r="N30" t="s">
-        <v>22</v>
+        <v>22</v>
+      </c>
+      <c r="M30" t="s">
+        <v>23</v>
+      </c>
+      <c r="N30">
+        <v>500</v>
       </c>
       <c r="O30" t="s">
-        <v>23</v>
-      </c>
-      <c r="P30">
-        <v>500</v>
-      </c>
-      <c r="Q30" t="s">
-        <v>22</v>
-      </c>
-      <c r="R30" t="s">
-        <v>24</v>
-      </c>
-      <c r="S30">
+        <v>22</v>
+      </c>
+      <c r="P30" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q30">
         <v>60000</v>
       </c>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>119</v>
       </c>
       <c r="C31" t="b">
         <v>0</v>
       </c>
-      <c r="G31">
+      <c r="E31">
         <v>49.99</v>
       </c>
+      <c r="F31">
+        <v>69000</v>
+      </c>
+      <c r="G31" t="s">
+        <v>119</v>
+      </c>
       <c r="H31">
-        <v>69000</v>
+        <v>874</v>
       </c>
       <c r="I31" t="s">
-        <v>119</v>
-      </c>
-      <c r="J31">
-        <v>874</v>
-      </c>
-      <c r="K31" t="s">
-        <v>22</v>
+        <v>22</v>
+      </c>
+      <c r="J31" t="s">
+        <v>23</v>
+      </c>
+      <c r="K31">
+        <v>100</v>
       </c>
       <c r="L31" t="s">
-        <v>23</v>
-      </c>
-      <c r="M31">
-        <v>100</v>
-      </c>
-      <c r="N31" t="s">
-        <v>22</v>
+        <v>22</v>
+      </c>
+      <c r="M31" t="s">
+        <v>23</v>
+      </c>
+      <c r="N31">
+        <v>50</v>
       </c>
       <c r="O31" t="s">
-        <v>23</v>
-      </c>
-      <c r="P31">
-        <v>50</v>
-      </c>
-      <c r="Q31" t="s">
-        <v>22</v>
-      </c>
-      <c r="R31" t="s">
-        <v>24</v>
-      </c>
-      <c r="S31">
+        <v>22</v>
+      </c>
+      <c r="P31" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q31">
         <v>10000</v>
       </c>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>120</v>
       </c>
       <c r="C32" t="b">
         <v>0</v>
       </c>
-      <c r="G32">
+      <c r="E32">
         <v>9.99</v>
       </c>
+      <c r="F32">
+        <v>13000</v>
+      </c>
+      <c r="G32" t="s">
+        <v>120</v>
+      </c>
       <c r="H32">
-        <v>13000</v>
+        <v>127</v>
       </c>
       <c r="I32" t="s">
-        <v>120</v>
-      </c>
-      <c r="J32">
-        <v>127</v>
-      </c>
-      <c r="K32" t="s">
         <v>25</v>
       </c>
+      <c r="J32" t="s">
+        <v>131</v>
+      </c>
+      <c r="K32">
+        <v>500</v>
+      </c>
       <c r="L32" t="s">
-        <v>131</v>
-      </c>
-      <c r="M32">
-        <v>500</v>
-      </c>
-      <c r="N32" t="s">
-        <v>22</v>
+        <v>22</v>
+      </c>
+      <c r="M32" t="s">
+        <v>23</v>
+      </c>
+      <c r="N32">
+        <v>75</v>
       </c>
       <c r="O32" t="s">
-        <v>23</v>
-      </c>
-      <c r="P32">
-        <v>75</v>
-      </c>
-      <c r="Q32" t="s">
-        <v>22</v>
-      </c>
-      <c r="R32" t="s">
-        <v>24</v>
-      </c>
-      <c r="S32">
+        <v>22</v>
+      </c>
+      <c r="P32" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q32">
         <v>20000</v>
       </c>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>121</v>
       </c>
       <c r="C33" t="b">
         <v>0</v>
       </c>
-      <c r="G33">
+      <c r="E33">
         <v>14.99</v>
       </c>
+      <c r="F33">
+        <v>19000</v>
+      </c>
+      <c r="G33" t="s">
+        <v>121</v>
+      </c>
       <c r="H33">
-        <v>19000</v>
+        <v>194</v>
       </c>
       <c r="I33" t="s">
-        <v>121</v>
-      </c>
-      <c r="J33">
-        <v>194</v>
-      </c>
-      <c r="K33" t="s">
-        <v>22</v>
+        <v>22</v>
+      </c>
+      <c r="J33" t="s">
+        <v>23</v>
+      </c>
+      <c r="K33">
+        <v>300</v>
       </c>
       <c r="L33" t="s">
-        <v>23</v>
-      </c>
-      <c r="M33">
-        <v>300</v>
-      </c>
-      <c r="N33" t="s">
-        <v>22</v>
+        <v>22</v>
+      </c>
+      <c r="M33" t="s">
+        <v>23</v>
+      </c>
+      <c r="N33">
+        <v>100</v>
       </c>
       <c r="O33" t="s">
-        <v>23</v>
-      </c>
-      <c r="P33">
-        <v>100</v>
-      </c>
-      <c r="Q33" t="s">
-        <v>22</v>
-      </c>
-      <c r="R33" t="s">
-        <v>24</v>
-      </c>
-      <c r="S33">
+        <v>22</v>
+      </c>
+      <c r="P33" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q33">
         <v>40000</v>
       </c>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>122</v>
       </c>
       <c r="C34" t="b">
         <v>0</v>
       </c>
-      <c r="G34">
+      <c r="E34">
         <v>29.99</v>
       </c>
+      <c r="F34">
+        <v>39000</v>
+      </c>
+      <c r="G34" t="s">
+        <v>122</v>
+      </c>
       <c r="H34">
-        <v>39000</v>
+        <v>970</v>
       </c>
       <c r="I34" t="s">
-        <v>122</v>
-      </c>
-      <c r="J34">
-        <v>970</v>
-      </c>
-      <c r="K34" t="s">
         <v>25</v>
       </c>
+      <c r="J34" t="s">
+        <v>131</v>
+      </c>
+      <c r="K34">
+        <v>1500</v>
+      </c>
       <c r="L34" t="s">
-        <v>131</v>
-      </c>
-      <c r="M34">
-        <v>1500</v>
-      </c>
-      <c r="N34" t="s">
-        <v>22</v>
+        <v>22</v>
+      </c>
+      <c r="M34" t="s">
+        <v>23</v>
+      </c>
+      <c r="N34">
+        <v>500</v>
       </c>
       <c r="O34" t="s">
-        <v>23</v>
-      </c>
-      <c r="P34">
-        <v>500</v>
-      </c>
-      <c r="Q34" t="s">
-        <v>22</v>
-      </c>
-      <c r="R34" t="s">
-        <v>24</v>
-      </c>
-      <c r="S34">
+        <v>22</v>
+      </c>
+      <c r="P34" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q34">
         <v>60000</v>
       </c>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>123</v>
       </c>
       <c r="C35" t="b">
         <v>0</v>
       </c>
-      <c r="G35">
+      <c r="E35">
         <v>49.99</v>
       </c>
+      <c r="F35">
+        <v>69000</v>
+      </c>
+      <c r="G35" t="s">
+        <v>123</v>
+      </c>
       <c r="H35">
-        <v>69000</v>
+        <v>874</v>
       </c>
       <c r="I35" t="s">
-        <v>123</v>
-      </c>
-      <c r="J35">
-        <v>874</v>
-      </c>
-      <c r="K35" t="s">
-        <v>22</v>
+        <v>22</v>
+      </c>
+      <c r="J35" t="s">
+        <v>23</v>
+      </c>
+      <c r="K35">
+        <v>100</v>
       </c>
       <c r="L35" t="s">
-        <v>23</v>
-      </c>
-      <c r="M35">
-        <v>100</v>
-      </c>
-      <c r="N35" t="s">
-        <v>22</v>
+        <v>22</v>
+      </c>
+      <c r="M35" t="s">
+        <v>23</v>
+      </c>
+      <c r="N35">
+        <v>50</v>
       </c>
       <c r="O35" t="s">
-        <v>23</v>
-      </c>
-      <c r="P35">
-        <v>50</v>
-      </c>
-      <c r="Q35" t="s">
-        <v>22</v>
-      </c>
-      <c r="R35" t="s">
-        <v>24</v>
-      </c>
-      <c r="S35">
+        <v>22</v>
+      </c>
+      <c r="P35" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q35">
         <v>10000</v>
       </c>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>124</v>
       </c>
       <c r="C36" t="b">
         <v>0</v>
       </c>
-      <c r="G36">
+      <c r="E36">
         <v>9.99</v>
       </c>
+      <c r="F36">
+        <v>13000</v>
+      </c>
+      <c r="G36" t="s">
+        <v>124</v>
+      </c>
       <c r="H36">
-        <v>13000</v>
+        <v>127</v>
       </c>
       <c r="I36" t="s">
-        <v>124</v>
-      </c>
-      <c r="J36">
-        <v>127</v>
-      </c>
-      <c r="K36" t="s">
         <v>25</v>
       </c>
+      <c r="J36" t="s">
+        <v>131</v>
+      </c>
+      <c r="K36">
+        <v>500</v>
+      </c>
       <c r="L36" t="s">
-        <v>131</v>
-      </c>
-      <c r="M36">
-        <v>500</v>
-      </c>
-      <c r="N36" t="s">
-        <v>22</v>
+        <v>22</v>
+      </c>
+      <c r="M36" t="s">
+        <v>23</v>
+      </c>
+      <c r="N36">
+        <v>75</v>
       </c>
       <c r="O36" t="s">
-        <v>23</v>
-      </c>
-      <c r="P36">
-        <v>75</v>
-      </c>
-      <c r="Q36" t="s">
-        <v>22</v>
-      </c>
-      <c r="R36" t="s">
-        <v>24</v>
-      </c>
-      <c r="S36">
+        <v>22</v>
+      </c>
+      <c r="P36" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q36">
         <v>20000</v>
       </c>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>125</v>
       </c>
       <c r="C37" t="b">
         <v>0</v>
       </c>
-      <c r="G37">
+      <c r="E37">
         <v>14.99</v>
       </c>
+      <c r="F37">
+        <v>19000</v>
+      </c>
+      <c r="G37" t="s">
+        <v>125</v>
+      </c>
       <c r="H37">
-        <v>19000</v>
+        <v>194</v>
       </c>
       <c r="I37" t="s">
-        <v>125</v>
-      </c>
-      <c r="J37">
-        <v>194</v>
-      </c>
-      <c r="K37" t="s">
-        <v>22</v>
+        <v>22</v>
+      </c>
+      <c r="J37" t="s">
+        <v>23</v>
+      </c>
+      <c r="K37">
+        <v>300</v>
       </c>
       <c r="L37" t="s">
-        <v>23</v>
-      </c>
-      <c r="M37">
-        <v>300</v>
-      </c>
-      <c r="N37" t="s">
-        <v>22</v>
+        <v>22</v>
+      </c>
+      <c r="M37" t="s">
+        <v>23</v>
+      </c>
+      <c r="N37">
+        <v>100</v>
       </c>
       <c r="O37" t="s">
-        <v>23</v>
-      </c>
-      <c r="P37">
-        <v>100</v>
-      </c>
-      <c r="Q37" t="s">
-        <v>22</v>
-      </c>
-      <c r="R37" t="s">
-        <v>24</v>
-      </c>
-      <c r="S37">
+        <v>22</v>
+      </c>
+      <c r="P37" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q37">
         <v>40000</v>
       </c>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>126</v>
       </c>
       <c r="C38" t="b">
         <v>0</v>
       </c>
-      <c r="G38">
+      <c r="E38">
         <v>29.99</v>
       </c>
+      <c r="F38">
+        <v>39000</v>
+      </c>
+      <c r="G38" t="s">
+        <v>126</v>
+      </c>
       <c r="H38">
-        <v>39000</v>
+        <v>970</v>
       </c>
       <c r="I38" t="s">
-        <v>126</v>
-      </c>
-      <c r="J38">
-        <v>970</v>
-      </c>
-      <c r="K38" t="s">
         <v>25</v>
       </c>
+      <c r="J38" t="s">
+        <v>131</v>
+      </c>
+      <c r="K38">
+        <v>1500</v>
+      </c>
       <c r="L38" t="s">
-        <v>131</v>
-      </c>
-      <c r="M38">
-        <v>1500</v>
-      </c>
-      <c r="N38" t="s">
-        <v>22</v>
+        <v>22</v>
+      </c>
+      <c r="M38" t="s">
+        <v>23</v>
+      </c>
+      <c r="N38">
+        <v>500</v>
       </c>
       <c r="O38" t="s">
-        <v>23</v>
-      </c>
-      <c r="P38">
-        <v>500</v>
-      </c>
-      <c r="Q38" t="s">
-        <v>22</v>
-      </c>
-      <c r="R38" t="s">
-        <v>24</v>
-      </c>
-      <c r="S38">
+        <v>22</v>
+      </c>
+      <c r="P38" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q38">
         <v>60000</v>
       </c>
     </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>127</v>
       </c>
       <c r="C39" t="b">
         <v>0</v>
       </c>
-      <c r="G39">
+      <c r="E39">
         <v>49.99</v>
       </c>
+      <c r="F39">
+        <v>69000</v>
+      </c>
+      <c r="G39" t="s">
+        <v>127</v>
+      </c>
       <c r="H39">
-        <v>69000</v>
+        <v>874</v>
       </c>
       <c r="I39" t="s">
-        <v>127</v>
-      </c>
-      <c r="J39">
-        <v>874</v>
-      </c>
-      <c r="K39" t="s">
-        <v>22</v>
+        <v>22</v>
+      </c>
+      <c r="J39" t="s">
+        <v>23</v>
+      </c>
+      <c r="K39">
+        <v>100</v>
       </c>
       <c r="L39" t="s">
-        <v>23</v>
-      </c>
-      <c r="M39">
-        <v>100</v>
-      </c>
-      <c r="N39" t="s">
-        <v>22</v>
+        <v>22</v>
+      </c>
+      <c r="M39" t="s">
+        <v>23</v>
+      </c>
+      <c r="N39">
+        <v>50</v>
       </c>
       <c r="O39" t="s">
-        <v>23</v>
-      </c>
-      <c r="P39">
-        <v>50</v>
-      </c>
-      <c r="Q39" t="s">
-        <v>22</v>
-      </c>
-      <c r="R39" t="s">
-        <v>24</v>
-      </c>
-      <c r="S39">
+        <v>22</v>
+      </c>
+      <c r="P39" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q39">
         <v>10000</v>
       </c>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>55</v>
       </c>
       <c r="C40" t="b">
         <v>0</v>
       </c>
-      <c r="G40">
+      <c r="E40">
         <v>0.99</v>
       </c>
+      <c r="F40">
+        <v>1200</v>
+      </c>
+      <c r="G40" t="s">
+        <v>55</v>
+      </c>
       <c r="H40">
-        <v>1200</v>
+        <v>444</v>
       </c>
       <c r="I40" t="s">
-        <v>55</v>
-      </c>
-      <c r="J40">
-        <v>444</v>
-      </c>
-      <c r="K40" t="s">
-        <v>22</v>
-      </c>
-      <c r="L40" t="s">
-        <v>23</v>
-      </c>
-      <c r="M40">
+        <v>22</v>
+      </c>
+      <c r="J40" t="s">
+        <v>23</v>
+      </c>
+      <c r="K40">
         <v>30</v>
       </c>
     </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>56</v>
       </c>
       <c r="C41" t="b">
         <v>0</v>
       </c>
-      <c r="G41">
+      <c r="E41">
         <v>4.99</v>
       </c>
+      <c r="F41">
+        <v>5900</v>
+      </c>
+      <c r="G41" t="s">
+        <v>56</v>
+      </c>
       <c r="H41">
-        <v>5900</v>
+        <v>348</v>
       </c>
       <c r="I41" t="s">
-        <v>56</v>
-      </c>
-      <c r="J41">
-        <v>348</v>
-      </c>
-      <c r="K41" t="s">
-        <v>22</v>
-      </c>
-      <c r="L41" t="s">
-        <v>23</v>
-      </c>
-      <c r="M41">
+        <v>22</v>
+      </c>
+      <c r="J41" t="s">
+        <v>23</v>
+      </c>
+      <c r="K41">
         <v>90</v>
       </c>
     </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>57</v>
       </c>
       <c r="C42" t="b">
         <v>0</v>
       </c>
-      <c r="G42">
+      <c r="E42">
         <v>9.99</v>
       </c>
+      <c r="F42">
+        <v>12000</v>
+      </c>
+      <c r="G42" t="s">
+        <v>57</v>
+      </c>
       <c r="H42">
-        <v>12000</v>
+        <v>653</v>
       </c>
       <c r="I42" t="s">
-        <v>57</v>
-      </c>
-      <c r="J42">
-        <v>653</v>
-      </c>
-      <c r="K42" t="s">
-        <v>22</v>
-      </c>
-      <c r="L42" t="s">
-        <v>23</v>
-      </c>
-      <c r="M42">
+        <v>22</v>
+      </c>
+      <c r="J42" t="s">
+        <v>23</v>
+      </c>
+      <c r="K42">
         <v>260</v>
       </c>
     </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>58</v>
       </c>
       <c r="C43" t="b">
         <v>0</v>
       </c>
-      <c r="G43">
+      <c r="E43">
         <v>19.989999999999998</v>
       </c>
+      <c r="F43">
+        <v>25000</v>
+      </c>
+      <c r="G43" t="s">
+        <v>58</v>
+      </c>
       <c r="H43">
-        <v>25000</v>
+        <v>487</v>
       </c>
       <c r="I43" t="s">
-        <v>58</v>
-      </c>
-      <c r="J43">
-        <v>487</v>
-      </c>
-      <c r="K43" t="s">
-        <v>22</v>
-      </c>
-      <c r="L43" t="s">
-        <v>23</v>
-      </c>
-      <c r="M43">
+        <v>22</v>
+      </c>
+      <c r="J43" t="s">
+        <v>23</v>
+      </c>
+      <c r="K43">
         <v>525</v>
       </c>
     </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>59</v>
       </c>
       <c r="C44" t="b">
         <v>0</v>
       </c>
-      <c r="G44">
+      <c r="E44">
         <v>49.99</v>
       </c>
+      <c r="F44">
+        <v>65000</v>
+      </c>
+      <c r="G44" t="s">
+        <v>59</v>
+      </c>
       <c r="H44">
-        <v>65000</v>
+        <v>168</v>
       </c>
       <c r="I44" t="s">
-        <v>59</v>
-      </c>
-      <c r="J44">
-        <v>168</v>
-      </c>
-      <c r="K44" t="s">
-        <v>22</v>
-      </c>
-      <c r="L44" t="s">
-        <v>23</v>
-      </c>
-      <c r="M44">
+        <v>22</v>
+      </c>
+      <c r="J44" t="s">
+        <v>23</v>
+      </c>
+      <c r="K44">
         <v>1600</v>
       </c>
     </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>60</v>
       </c>
       <c r="C45" t="b">
         <v>0</v>
       </c>
-      <c r="G45">
+      <c r="E45">
         <v>99.99</v>
       </c>
+      <c r="F45">
+        <v>119000</v>
+      </c>
+      <c r="G45" t="s">
+        <v>60</v>
+      </c>
       <c r="H45">
-        <v>119000</v>
+        <v>947</v>
       </c>
       <c r="I45" t="s">
-        <v>60</v>
-      </c>
-      <c r="J45">
-        <v>947</v>
-      </c>
-      <c r="K45" t="s">
-        <v>22</v>
-      </c>
-      <c r="L45" t="s">
-        <v>23</v>
-      </c>
-      <c r="M45">
+        <v>22</v>
+      </c>
+      <c r="J45" t="s">
+        <v>23</v>
+      </c>
+      <c r="K45">
         <v>3600</v>
       </c>
     </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>61</v>
       </c>
       <c r="C46" t="b">
         <v>0</v>
       </c>
-      <c r="G46">
+      <c r="E46">
         <v>0.99</v>
       </c>
+      <c r="F46">
+        <v>1200</v>
+      </c>
+      <c r="G46" t="s">
+        <v>61</v>
+      </c>
       <c r="H46">
-        <v>1200</v>
+        <v>224</v>
       </c>
       <c r="I46" t="s">
-        <v>61</v>
-      </c>
-      <c r="J46">
-        <v>224</v>
-      </c>
-      <c r="K46" t="s">
-        <v>22</v>
-      </c>
-      <c r="L46" t="s">
-        <v>23</v>
-      </c>
-      <c r="M46">
+        <v>22</v>
+      </c>
+      <c r="J46" t="s">
+        <v>23</v>
+      </c>
+      <c r="K46">
         <v>90</v>
       </c>
     </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>62</v>
       </c>
       <c r="C47" t="b">
         <v>0</v>
       </c>
-      <c r="G47">
+      <c r="E47">
         <v>4.99</v>
       </c>
+      <c r="F47">
+        <v>5900</v>
+      </c>
+      <c r="G47" t="s">
+        <v>62</v>
+      </c>
       <c r="H47">
-        <v>5900</v>
+        <v>392</v>
       </c>
       <c r="I47" t="s">
-        <v>62</v>
-      </c>
-      <c r="J47">
-        <v>392</v>
-      </c>
-      <c r="K47" t="s">
-        <v>22</v>
-      </c>
-      <c r="L47" t="s">
-        <v>23</v>
-      </c>
-      <c r="M47">
+        <v>22</v>
+      </c>
+      <c r="J47" t="s">
+        <v>23</v>
+      </c>
+      <c r="K47">
         <v>270</v>
       </c>
     </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>63</v>
       </c>
       <c r="C48" t="b">
         <v>0</v>
       </c>
-      <c r="G48">
+      <c r="E48">
         <v>9.99</v>
       </c>
+      <c r="F48">
+        <v>12000</v>
+      </c>
+      <c r="G48" t="s">
+        <v>63</v>
+      </c>
       <c r="H48">
-        <v>12000</v>
+        <v>759</v>
       </c>
       <c r="I48" t="s">
-        <v>63</v>
-      </c>
-      <c r="J48">
-        <v>759</v>
-      </c>
-      <c r="K48" t="s">
-        <v>22</v>
-      </c>
-      <c r="L48" t="s">
-        <v>23</v>
-      </c>
-      <c r="M48">
+        <v>22</v>
+      </c>
+      <c r="J48" t="s">
+        <v>23</v>
+      </c>
+      <c r="K48">
         <v>780</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>64</v>
       </c>
       <c r="C49" t="b">
         <v>0</v>
       </c>
-      <c r="G49">
+      <c r="E49">
         <v>19.989999999999998</v>
       </c>
+      <c r="F49">
+        <v>25000</v>
+      </c>
+      <c r="G49" t="s">
+        <v>64</v>
+      </c>
       <c r="H49">
-        <v>25000</v>
+        <v>837</v>
       </c>
       <c r="I49" t="s">
-        <v>64</v>
-      </c>
-      <c r="J49">
-        <v>837</v>
-      </c>
-      <c r="K49" t="s">
-        <v>22</v>
-      </c>
-      <c r="L49" t="s">
-        <v>23</v>
-      </c>
-      <c r="M49">
+        <v>22</v>
+      </c>
+      <c r="J49" t="s">
+        <v>23</v>
+      </c>
+      <c r="K49">
         <v>1575</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>65</v>
       </c>
       <c r="C50" t="b">
         <v>0</v>
       </c>
-      <c r="G50">
+      <c r="E50">
         <v>49.99</v>
       </c>
+      <c r="F50">
+        <v>65000</v>
+      </c>
+      <c r="G50" t="s">
+        <v>65</v>
+      </c>
       <c r="H50">
-        <v>65000</v>
+        <v>820</v>
       </c>
       <c r="I50" t="s">
-        <v>65</v>
-      </c>
-      <c r="J50">
-        <v>820</v>
-      </c>
-      <c r="K50" t="s">
-        <v>22</v>
-      </c>
-      <c r="L50" t="s">
-        <v>23</v>
-      </c>
-      <c r="M50">
+        <v>22</v>
+      </c>
+      <c r="J50" t="s">
+        <v>23</v>
+      </c>
+      <c r="K50">
         <v>4800</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>66</v>
       </c>
       <c r="C51" t="b">
         <v>0</v>
       </c>
-      <c r="G51">
+      <c r="E51">
         <v>99.99</v>
       </c>
+      <c r="F51">
+        <v>119000</v>
+      </c>
+      <c r="G51" t="s">
+        <v>66</v>
+      </c>
       <c r="H51">
-        <v>119000</v>
+        <v>493</v>
       </c>
       <c r="I51" t="s">
-        <v>66</v>
-      </c>
-      <c r="J51">
-        <v>493</v>
-      </c>
-      <c r="K51" t="s">
-        <v>22</v>
-      </c>
-      <c r="L51" t="s">
-        <v>23</v>
-      </c>
-      <c r="M51">
+        <v>22</v>
+      </c>
+      <c r="J51" t="s">
+        <v>23</v>
+      </c>
+      <c r="K51">
         <v>10800</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>67</v>
       </c>
       <c r="C52" t="b">
         <v>0</v>
       </c>
-      <c r="G52">
+      <c r="E52">
         <v>0.99</v>
       </c>
+      <c r="F52">
+        <v>1200</v>
+      </c>
+      <c r="G52" t="s">
+        <v>67</v>
+      </c>
       <c r="H52">
-        <v>1200</v>
+        <v>354</v>
       </c>
       <c r="I52" t="s">
-        <v>67</v>
-      </c>
-      <c r="J52">
-        <v>354</v>
-      </c>
-      <c r="K52" t="s">
-        <v>22</v>
-      </c>
-      <c r="L52" t="s">
-        <v>24</v>
-      </c>
-      <c r="M52">
+        <v>22</v>
+      </c>
+      <c r="J52" t="s">
+        <v>24</v>
+      </c>
+      <c r="K52">
         <v>40000</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>68</v>
       </c>
       <c r="C53" t="b">
         <v>0</v>
       </c>
-      <c r="G53">
+      <c r="E53">
         <v>4.99</v>
       </c>
+      <c r="F53">
+        <v>5900</v>
+      </c>
+      <c r="G53" t="s">
+        <v>68</v>
+      </c>
       <c r="H53">
-        <v>5900</v>
+        <v>715</v>
       </c>
       <c r="I53" t="s">
-        <v>68</v>
-      </c>
-      <c r="J53">
-        <v>715</v>
-      </c>
-      <c r="K53" t="s">
-        <v>22</v>
-      </c>
-      <c r="L53" t="s">
-        <v>24</v>
-      </c>
-      <c r="M53">
+        <v>22</v>
+      </c>
+      <c r="J53" t="s">
+        <v>24</v>
+      </c>
+      <c r="K53">
         <v>105000</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>69</v>
       </c>
       <c r="C54" t="b">
         <v>0</v>
       </c>
-      <c r="G54">
+      <c r="E54">
         <v>9.99</v>
       </c>
+      <c r="F54">
+        <v>12000</v>
+      </c>
+      <c r="G54" t="s">
+        <v>69</v>
+      </c>
       <c r="H54">
-        <v>12000</v>
+        <v>891</v>
       </c>
       <c r="I54" t="s">
-        <v>69</v>
-      </c>
-      <c r="J54">
-        <v>891</v>
-      </c>
-      <c r="K54" t="s">
-        <v>22</v>
-      </c>
-      <c r="L54" t="s">
-        <v>24</v>
-      </c>
-      <c r="M54">
+        <v>22</v>
+      </c>
+      <c r="J54" t="s">
+        <v>24</v>
+      </c>
+      <c r="K54">
         <v>250000</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>70</v>
       </c>
       <c r="C55" t="b">
         <v>0</v>
       </c>
-      <c r="G55">
+      <c r="E55">
         <v>19.989999999999998</v>
       </c>
+      <c r="F55">
+        <v>25000</v>
+      </c>
+      <c r="G55" t="s">
+        <v>70</v>
+      </c>
       <c r="H55">
-        <v>25000</v>
+        <v>185</v>
       </c>
       <c r="I55" t="s">
-        <v>70</v>
-      </c>
-      <c r="J55">
-        <v>185</v>
-      </c>
-      <c r="K55" t="s">
-        <v>22</v>
-      </c>
-      <c r="L55" t="s">
-        <v>24</v>
-      </c>
-      <c r="M55">
+        <v>22</v>
+      </c>
+      <c r="J55" t="s">
+        <v>24</v>
+      </c>
+      <c r="K55">
         <v>600000</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>71</v>
       </c>
       <c r="C56" t="b">
         <v>0</v>
       </c>
-      <c r="G56">
+      <c r="E56">
         <v>49.99</v>
       </c>
+      <c r="F56">
+        <v>65000</v>
+      </c>
+      <c r="G56" t="s">
+        <v>71</v>
+      </c>
       <c r="H56">
-        <v>65000</v>
+        <v>737</v>
       </c>
       <c r="I56" t="s">
-        <v>71</v>
-      </c>
-      <c r="J56">
-        <v>737</v>
-      </c>
-      <c r="K56" t="s">
-        <v>22</v>
-      </c>
-      <c r="L56" t="s">
-        <v>24</v>
-      </c>
-      <c r="M56">
+        <v>22</v>
+      </c>
+      <c r="J56" t="s">
+        <v>24</v>
+      </c>
+      <c r="K56">
         <v>1900000</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>72</v>
       </c>
       <c r="C57" t="b">
         <v>0</v>
       </c>
-      <c r="G57">
+      <c r="E57">
         <v>99.99</v>
       </c>
+      <c r="F57">
+        <v>119000</v>
+      </c>
+      <c r="G57" t="s">
+        <v>72</v>
+      </c>
       <c r="H57">
-        <v>119000</v>
+        <v>574</v>
       </c>
       <c r="I57" t="s">
-        <v>72</v>
-      </c>
-      <c r="J57">
-        <v>574</v>
-      </c>
-      <c r="K57" t="s">
-        <v>22</v>
-      </c>
-      <c r="L57" t="s">
-        <v>24</v>
-      </c>
-      <c r="M57">
+        <v>22</v>
+      </c>
+      <c r="J57" t="s">
+        <v>24</v>
+      </c>
+      <c r="K57">
         <v>4500000</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>73</v>
       </c>
       <c r="C58" t="b">
         <v>0</v>
       </c>
-      <c r="G58">
+      <c r="E58">
         <v>0.99</v>
       </c>
+      <c r="F58">
+        <v>1200</v>
+      </c>
+      <c r="G58" t="s">
+        <v>73</v>
+      </c>
       <c r="H58">
-        <v>1200</v>
+        <v>122</v>
       </c>
       <c r="I58" t="s">
-        <v>73</v>
-      </c>
-      <c r="J58">
-        <v>122</v>
-      </c>
-      <c r="K58" t="s">
-        <v>22</v>
-      </c>
-      <c r="L58" t="s">
-        <v>24</v>
-      </c>
-      <c r="M58">
+        <v>22</v>
+      </c>
+      <c r="J58" t="s">
+        <v>24</v>
+      </c>
+      <c r="K58">
         <v>120000</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>74</v>
       </c>
       <c r="C59" t="b">
         <v>0</v>
       </c>
-      <c r="G59">
+      <c r="E59">
         <v>4.99</v>
       </c>
+      <c r="F59">
+        <v>5900</v>
+      </c>
+      <c r="G59" t="s">
+        <v>74</v>
+      </c>
       <c r="H59">
-        <v>5900</v>
+        <v>926</v>
       </c>
       <c r="I59" t="s">
-        <v>74</v>
-      </c>
-      <c r="J59">
-        <v>926</v>
-      </c>
-      <c r="K59" t="s">
-        <v>22</v>
-      </c>
-      <c r="L59" t="s">
-        <v>24</v>
-      </c>
-      <c r="M59">
+        <v>22</v>
+      </c>
+      <c r="J59" t="s">
+        <v>24</v>
+      </c>
+      <c r="K59">
         <v>315000</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>75</v>
       </c>
       <c r="C60" t="b">
         <v>0</v>
       </c>
-      <c r="G60">
+      <c r="E60">
         <v>9.99</v>
       </c>
+      <c r="F60">
+        <v>12000</v>
+      </c>
+      <c r="G60" t="s">
+        <v>75</v>
+      </c>
       <c r="H60">
-        <v>12000</v>
+        <v>943</v>
       </c>
       <c r="I60" t="s">
-        <v>75</v>
-      </c>
-      <c r="J60">
-        <v>943</v>
-      </c>
-      <c r="K60" t="s">
-        <v>22</v>
-      </c>
-      <c r="L60" t="s">
-        <v>24</v>
-      </c>
-      <c r="M60">
+        <v>22</v>
+      </c>
+      <c r="J60" t="s">
+        <v>24</v>
+      </c>
+      <c r="K60">
         <v>750000</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>76</v>
       </c>
       <c r="C61" t="b">
         <v>0</v>
       </c>
-      <c r="G61">
+      <c r="E61">
         <v>19.989999999999998</v>
       </c>
+      <c r="F61">
+        <v>25000</v>
+      </c>
+      <c r="G61" t="s">
+        <v>76</v>
+      </c>
       <c r="H61">
-        <v>25000</v>
+        <v>106</v>
       </c>
       <c r="I61" t="s">
-        <v>76</v>
-      </c>
-      <c r="J61">
-        <v>106</v>
-      </c>
-      <c r="K61" t="s">
-        <v>22</v>
-      </c>
-      <c r="L61" t="s">
-        <v>24</v>
-      </c>
-      <c r="M61">
+        <v>22</v>
+      </c>
+      <c r="J61" t="s">
+        <v>24</v>
+      </c>
+      <c r="K61">
         <v>1800000</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>77</v>
       </c>
       <c r="C62" t="b">
         <v>0</v>
       </c>
-      <c r="G62">
+      <c r="E62">
         <v>49.99</v>
       </c>
+      <c r="F62">
+        <v>65000</v>
+      </c>
+      <c r="G62" t="s">
+        <v>77</v>
+      </c>
       <c r="H62">
-        <v>65000</v>
+        <v>402</v>
       </c>
       <c r="I62" t="s">
-        <v>77</v>
-      </c>
-      <c r="J62">
-        <v>402</v>
-      </c>
-      <c r="K62" t="s">
-        <v>22</v>
-      </c>
-      <c r="L62" t="s">
-        <v>24</v>
-      </c>
-      <c r="M62">
+        <v>22</v>
+      </c>
+      <c r="J62" t="s">
+        <v>24</v>
+      </c>
+      <c r="K62">
         <v>5700000</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>78</v>
       </c>
       <c r="C63" t="b">
         <v>0</v>
       </c>
-      <c r="G63">
+      <c r="E63">
         <v>99.99</v>
       </c>
+      <c r="F63">
+        <v>119000</v>
+      </c>
+      <c r="G63" t="s">
+        <v>78</v>
+      </c>
       <c r="H63">
-        <v>119000</v>
+        <v>905</v>
       </c>
       <c r="I63" t="s">
-        <v>78</v>
-      </c>
-      <c r="J63">
-        <v>905</v>
-      </c>
-      <c r="K63" t="s">
-        <v>22</v>
-      </c>
-      <c r="L63" t="s">
-        <v>24</v>
-      </c>
-      <c r="M63">
+        <v>22</v>
+      </c>
+      <c r="J63" t="s">
+        <v>24</v>
+      </c>
+      <c r="K63">
         <v>13500000</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>79</v>
       </c>
       <c r="C64" t="b">
         <v>0</v>
       </c>
-      <c r="G64">
+      <c r="E64">
         <v>9.99</v>
       </c>
+      <c r="F64">
+        <v>13000</v>
+      </c>
+      <c r="G64" t="s">
+        <v>79</v>
+      </c>
       <c r="H64">
-        <v>13000</v>
+        <v>375</v>
       </c>
       <c r="I64" t="s">
-        <v>79</v>
-      </c>
-      <c r="J64">
-        <v>375</v>
-      </c>
-      <c r="K64" t="s">
         <v>25</v>
       </c>
-      <c r="L64" t="s">
+      <c r="J64" t="s">
         <v>86</v>
       </c>
-      <c r="M64">
+      <c r="K64">
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>80</v>
       </c>
       <c r="C65" t="b">
         <v>0</v>
       </c>
-      <c r="G65">
+      <c r="E65">
         <v>19.989999999999998</v>
       </c>
+      <c r="F65">
+        <v>19000</v>
+      </c>
+      <c r="G65" t="s">
+        <v>80</v>
+      </c>
       <c r="H65">
-        <v>19000</v>
+        <v>368</v>
       </c>
       <c r="I65" t="s">
-        <v>80</v>
-      </c>
-      <c r="J65">
-        <v>368</v>
-      </c>
-      <c r="K65" t="s">
         <v>25</v>
       </c>
-      <c r="L65" t="s">
+      <c r="J65" t="s">
         <v>86</v>
       </c>
-      <c r="M65">
+      <c r="K65">
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>81</v>
       </c>
       <c r="C66" t="b">
         <v>0</v>
       </c>
-      <c r="G66">
+      <c r="E66">
         <v>29.99</v>
       </c>
+      <c r="F66">
+        <v>39000</v>
+      </c>
+      <c r="G66" t="s">
+        <v>81</v>
+      </c>
       <c r="H66">
-        <v>39000</v>
+        <v>481</v>
       </c>
       <c r="I66" t="s">
-        <v>81</v>
-      </c>
-      <c r="J66">
-        <v>481</v>
-      </c>
-      <c r="K66" t="s">
         <v>25</v>
       </c>
-      <c r="L66" t="s">
+      <c r="J66" t="s">
         <v>86</v>
       </c>
-      <c r="M66">
+      <c r="K66">
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>82</v>
       </c>
       <c r="C67" t="b">
         <v>0</v>
       </c>
-      <c r="G67">
+      <c r="E67">
         <v>39.99</v>
       </c>
+      <c r="F67">
+        <v>48000</v>
+      </c>
+      <c r="G67" t="s">
+        <v>82</v>
+      </c>
       <c r="H67">
-        <v>48000</v>
+        <v>420</v>
       </c>
       <c r="I67" t="s">
-        <v>82</v>
-      </c>
-      <c r="J67">
-        <v>420</v>
-      </c>
-      <c r="K67" t="s">
         <v>25</v>
       </c>
-      <c r="L67" t="s">
+      <c r="J67" t="s">
         <v>86</v>
       </c>
-      <c r="M67">
+      <c r="K67">
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>83</v>
       </c>
       <c r="C68" t="b">
         <v>0</v>
       </c>
-      <c r="G68">
+      <c r="E68">
         <v>49.99</v>
       </c>
+      <c r="F68">
+        <v>65000</v>
+      </c>
+      <c r="G68" t="s">
+        <v>83</v>
+      </c>
       <c r="H68">
-        <v>65000</v>
+        <v>362</v>
       </c>
       <c r="I68" t="s">
-        <v>83</v>
-      </c>
-      <c r="J68">
-        <v>362</v>
-      </c>
-      <c r="K68" t="s">
         <v>25</v>
       </c>
-      <c r="L68" t="s">
+      <c r="J68" t="s">
         <v>86</v>
       </c>
-      <c r="M68">
+      <c r="K68">
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>84</v>
       </c>
       <c r="C69" t="b">
         <v>0</v>
       </c>
-      <c r="G69">
+      <c r="E69">
         <v>0.99</v>
       </c>
+      <c r="F69">
+        <v>1200</v>
+      </c>
+      <c r="G69" t="s">
+        <v>84</v>
+      </c>
       <c r="H69">
-        <v>1200</v>
+        <v>654</v>
       </c>
       <c r="I69" t="s">
-        <v>84</v>
-      </c>
-      <c r="J69">
-        <v>654</v>
-      </c>
-      <c r="K69" t="s">
         <v>25</v>
       </c>
-      <c r="L69" t="s">
+      <c r="J69" t="s">
         <v>90</v>
       </c>
-      <c r="M69">
+      <c r="K69">
         <v>5</v>
       </c>
     </row>
-    <row r="70" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>85</v>
       </c>
       <c r="C70" t="b">
         <v>0</v>
       </c>
-      <c r="G70">
+      <c r="E70">
         <v>4.99</v>
       </c>
+      <c r="F70">
+        <v>5900</v>
+      </c>
+      <c r="G70" t="s">
+        <v>85</v>
+      </c>
       <c r="H70">
-        <v>5900</v>
+        <v>715</v>
       </c>
       <c r="I70" t="s">
-        <v>85</v>
-      </c>
-      <c r="J70">
-        <v>715</v>
-      </c>
-      <c r="K70" t="s">
         <v>25</v>
       </c>
-      <c r="L70" t="s">
+      <c r="J70" t="s">
         <v>91</v>
       </c>
-      <c r="M70">
+      <c r="K70">
         <v>5</v>
       </c>
     </row>
-    <row r="71" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>92</v>
       </c>
@@ -3531,61 +3519,55 @@
         <v>4</v>
       </c>
       <c r="E71">
-        <v>3.99</v>
+        <v>0.99</v>
       </c>
       <c r="F71">
-        <v>4900</v>
-      </c>
-      <c r="G71">
-        <v>0.99</v>
+        <v>1200</v>
+      </c>
+      <c r="G71" t="s">
+        <v>92</v>
       </c>
       <c r="H71">
-        <v>1200</v>
+        <v>668</v>
       </c>
       <c r="I71" t="s">
-        <v>92</v>
-      </c>
-      <c r="J71">
-        <v>668</v>
-      </c>
-      <c r="K71" t="s">
-        <v>22</v>
+        <v>22</v>
+      </c>
+      <c r="J71" t="s">
+        <v>23</v>
+      </c>
+      <c r="K71">
+        <v>30</v>
       </c>
       <c r="L71" t="s">
-        <v>23</v>
-      </c>
-      <c r="M71">
-        <v>30</v>
-      </c>
-      <c r="N71" t="s">
-        <v>22</v>
+        <v>22</v>
+      </c>
+      <c r="M71" t="s">
+        <v>24</v>
+      </c>
+      <c r="N71">
+        <v>25000</v>
       </c>
       <c r="O71" t="s">
-        <v>24</v>
-      </c>
-      <c r="P71">
-        <v>25000</v>
-      </c>
-      <c r="Q71" t="s">
-        <v>22</v>
+        <v>22</v>
+      </c>
+      <c r="P71" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q71">
+        <v>100</v>
       </c>
       <c r="R71" t="s">
-        <v>23</v>
-      </c>
-      <c r="S71">
-        <v>100</v>
-      </c>
-      <c r="T71" t="s">
-        <v>22</v>
-      </c>
-      <c r="U71" t="s">
-        <v>24</v>
-      </c>
-      <c r="V71">
+        <v>22</v>
+      </c>
+      <c r="S71" t="s">
+        <v>24</v>
+      </c>
+      <c r="T71">
         <v>35000</v>
       </c>
     </row>
-    <row r="72" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>93</v>
       </c>
@@ -3596,61 +3578,55 @@
         <v>4</v>
       </c>
       <c r="E72">
-        <v>19.989999999999998</v>
+        <v>4.99</v>
       </c>
       <c r="F72">
-        <v>24000</v>
-      </c>
-      <c r="G72">
-        <v>4.99</v>
+        <v>5900</v>
+      </c>
+      <c r="G72" t="s">
+        <v>93</v>
       </c>
       <c r="H72">
-        <v>5900</v>
+        <v>188</v>
       </c>
       <c r="I72" t="s">
-        <v>93</v>
-      </c>
-      <c r="J72">
-        <v>188</v>
-      </c>
-      <c r="K72" t="s">
-        <v>22</v>
+        <v>22</v>
+      </c>
+      <c r="J72" t="s">
+        <v>23</v>
+      </c>
+      <c r="K72">
+        <v>60</v>
       </c>
       <c r="L72" t="s">
-        <v>23</v>
-      </c>
-      <c r="M72">
-        <v>60</v>
-      </c>
-      <c r="N72" t="s">
-        <v>22</v>
+        <v>22</v>
+      </c>
+      <c r="M72" t="s">
+        <v>24</v>
+      </c>
+      <c r="N72">
+        <v>15000</v>
       </c>
       <c r="O72" t="s">
-        <v>24</v>
-      </c>
-      <c r="P72">
-        <v>15000</v>
-      </c>
-      <c r="Q72" t="s">
-        <v>22</v>
+        <v>22</v>
+      </c>
+      <c r="P72" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q72">
+        <v>120</v>
       </c>
       <c r="R72" t="s">
-        <v>23</v>
-      </c>
-      <c r="S72">
-        <v>120</v>
-      </c>
-      <c r="T72" t="s">
-        <v>22</v>
-      </c>
-      <c r="U72" t="s">
-        <v>24</v>
-      </c>
-      <c r="V72">
+        <v>22</v>
+      </c>
+      <c r="S72" t="s">
+        <v>24</v>
+      </c>
+      <c r="T72">
         <v>25000</v>
       </c>
     </row>
-    <row r="73" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>94</v>
       </c>
@@ -3661,61 +3637,55 @@
         <v>4</v>
       </c>
       <c r="E73">
-        <v>39.99</v>
+        <v>9.99</v>
       </c>
       <c r="F73">
-        <v>52000</v>
-      </c>
-      <c r="G73">
-        <v>9.99</v>
+        <v>13000</v>
+      </c>
+      <c r="G73" t="s">
+        <v>94</v>
       </c>
       <c r="H73">
-        <v>13000</v>
+        <v>284</v>
       </c>
       <c r="I73" t="s">
-        <v>94</v>
-      </c>
-      <c r="J73">
-        <v>284</v>
-      </c>
-      <c r="K73" t="s">
-        <v>22</v>
+        <v>22</v>
+      </c>
+      <c r="J73" t="s">
+        <v>23</v>
+      </c>
+      <c r="K73">
+        <v>90</v>
       </c>
       <c r="L73" t="s">
-        <v>23</v>
-      </c>
-      <c r="M73">
-        <v>90</v>
-      </c>
-      <c r="N73" t="s">
-        <v>22</v>
+        <v>22</v>
+      </c>
+      <c r="M73" t="s">
+        <v>24</v>
+      </c>
+      <c r="N73">
+        <v>30000</v>
       </c>
       <c r="O73" t="s">
-        <v>24</v>
-      </c>
-      <c r="P73">
-        <v>30000</v>
-      </c>
-      <c r="Q73" t="s">
-        <v>22</v>
+        <v>22</v>
+      </c>
+      <c r="P73" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q73">
+        <v>150</v>
       </c>
       <c r="R73" t="s">
-        <v>23</v>
-      </c>
-      <c r="S73">
-        <v>150</v>
-      </c>
-      <c r="T73" t="s">
-        <v>22</v>
-      </c>
-      <c r="U73" t="s">
-        <v>23</v>
-      </c>
-      <c r="V73">
+        <v>22</v>
+      </c>
+      <c r="S73" t="s">
+        <v>23</v>
+      </c>
+      <c r="T73">
         <v>300</v>
       </c>
     </row>
-    <row r="74" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>95</v>
       </c>
@@ -3726,61 +3696,55 @@
         <v>4</v>
       </c>
       <c r="E74">
-        <v>39.99</v>
+        <v>9.99</v>
       </c>
       <c r="F74">
-        <v>52000</v>
-      </c>
-      <c r="G74">
-        <v>9.99</v>
+        <v>13000</v>
+      </c>
+      <c r="G74" t="s">
+        <v>95</v>
       </c>
       <c r="H74">
-        <v>13000</v>
+        <v>953</v>
       </c>
       <c r="I74" t="s">
-        <v>95</v>
-      </c>
-      <c r="J74">
-        <v>953</v>
-      </c>
-      <c r="K74" t="s">
-        <v>22</v>
+        <v>22</v>
+      </c>
+      <c r="J74" t="s">
+        <v>23</v>
+      </c>
+      <c r="K74">
+        <v>120</v>
       </c>
       <c r="L74" t="s">
-        <v>23</v>
-      </c>
-      <c r="M74">
+        <v>22</v>
+      </c>
+      <c r="M74" t="s">
+        <v>24</v>
+      </c>
+      <c r="N74">
+        <v>50000</v>
+      </c>
+      <c r="O74" t="s">
+        <v>22</v>
+      </c>
+      <c r="P74" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q74">
         <v>120</v>
       </c>
-      <c r="N74" t="s">
-        <v>22</v>
-      </c>
-      <c r="O74" t="s">
-        <v>24</v>
-      </c>
-      <c r="P74">
-        <v>50000</v>
-      </c>
-      <c r="Q74" t="s">
-        <v>22</v>
-      </c>
       <c r="R74" t="s">
-        <v>23</v>
-      </c>
-      <c r="S74">
-        <v>120</v>
-      </c>
-      <c r="T74" t="s">
-        <v>22</v>
-      </c>
-      <c r="U74" t="s">
-        <v>24</v>
-      </c>
-      <c r="V74">
+        <v>22</v>
+      </c>
+      <c r="S74" t="s">
+        <v>24</v>
+      </c>
+      <c r="T74">
         <v>25000</v>
       </c>
     </row>
-    <row r="75" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>96</v>
       </c>
@@ -3791,686 +3755,680 @@
         <v>4</v>
       </c>
       <c r="E75">
-        <v>39.99</v>
+        <v>9.99</v>
       </c>
       <c r="F75">
-        <v>52000</v>
-      </c>
-      <c r="G75">
-        <v>9.99</v>
+        <v>13000</v>
+      </c>
+      <c r="G75" t="s">
+        <v>96</v>
       </c>
       <c r="H75">
-        <v>13000</v>
+        <v>660</v>
       </c>
       <c r="I75" t="s">
-        <v>96</v>
-      </c>
-      <c r="J75">
-        <v>660</v>
-      </c>
-      <c r="K75" t="s">
-        <v>22</v>
+        <v>22</v>
+      </c>
+      <c r="J75" t="s">
+        <v>23</v>
+      </c>
+      <c r="K75">
+        <v>150</v>
       </c>
       <c r="L75" t="s">
-        <v>23</v>
-      </c>
-      <c r="M75">
+        <v>22</v>
+      </c>
+      <c r="M75" t="s">
+        <v>24</v>
+      </c>
+      <c r="N75">
+        <v>90000</v>
+      </c>
+      <c r="O75" t="s">
+        <v>22</v>
+      </c>
+      <c r="P75" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q75">
         <v>150</v>
       </c>
-      <c r="N75" t="s">
-        <v>22</v>
-      </c>
-      <c r="O75" t="s">
-        <v>24</v>
-      </c>
-      <c r="P75">
-        <v>90000</v>
-      </c>
-      <c r="Q75" t="s">
-        <v>22</v>
-      </c>
       <c r="R75" t="s">
-        <v>23</v>
-      </c>
-      <c r="S75">
-        <v>150</v>
-      </c>
-      <c r="T75" t="s">
-        <v>22</v>
-      </c>
-      <c r="U75" t="s">
-        <v>23</v>
-      </c>
-      <c r="V75">
+        <v>22</v>
+      </c>
+      <c r="S75" t="s">
+        <v>23</v>
+      </c>
+      <c r="T75">
         <v>300</v>
       </c>
     </row>
-    <row r="76" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>128</v>
       </c>
       <c r="C76" t="b">
         <v>0</v>
       </c>
-      <c r="G76">
+      <c r="E76">
         <v>4.99</v>
       </c>
+      <c r="F76">
+        <v>5900</v>
+      </c>
+      <c r="G76" t="s">
+        <v>128</v>
+      </c>
       <c r="H76">
-        <v>5900</v>
+        <v>456</v>
       </c>
       <c r="I76" t="s">
-        <v>128</v>
-      </c>
-      <c r="J76">
-        <v>456</v>
-      </c>
-      <c r="K76" t="s">
         <v>25</v>
       </c>
+      <c r="J76" t="s">
+        <v>97</v>
+      </c>
+      <c r="K76">
+        <v>15</v>
+      </c>
       <c r="L76" t="s">
-        <v>97</v>
-      </c>
-      <c r="M76">
-        <v>15</v>
-      </c>
-      <c r="N76" t="s">
-        <v>22</v>
-      </c>
-      <c r="O76" t="s">
+        <v>22</v>
+      </c>
+      <c r="M76" t="s">
         <v>98</v>
       </c>
-      <c r="P76">
+      <c r="N76">
         <v>500</v>
       </c>
     </row>
-    <row r="77" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>129</v>
       </c>
       <c r="C77" t="b">
         <v>0</v>
       </c>
-      <c r="G77">
+      <c r="E77">
         <v>4.99</v>
       </c>
+      <c r="F77">
+        <v>5900</v>
+      </c>
+      <c r="G77" t="s">
+        <v>129</v>
+      </c>
       <c r="H77">
-        <v>5900</v>
+        <v>664</v>
       </c>
       <c r="I77" t="s">
-        <v>129</v>
-      </c>
-      <c r="J77">
-        <v>664</v>
-      </c>
-      <c r="K77" t="s">
         <v>25</v>
       </c>
+      <c r="J77" t="s">
+        <v>99</v>
+      </c>
+      <c r="K77">
+        <v>1</v>
+      </c>
       <c r="L77" t="s">
-        <v>99</v>
-      </c>
-      <c r="M77">
-        <v>1</v>
-      </c>
-      <c r="N77" t="s">
-        <v>22</v>
-      </c>
-      <c r="O77" t="s">
-        <v>23</v>
-      </c>
-      <c r="P77">
+        <v>22</v>
+      </c>
+      <c r="M77" t="s">
+        <v>23</v>
+      </c>
+      <c r="N77">
         <v>750</v>
       </c>
     </row>
-    <row r="78" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>100</v>
       </c>
       <c r="C78" t="b">
         <v>0</v>
       </c>
-      <c r="G78">
+      <c r="E78">
         <v>0.99</v>
       </c>
+      <c r="F78">
+        <v>1200</v>
+      </c>
+      <c r="G78" t="s">
+        <v>100</v>
+      </c>
       <c r="H78">
-        <v>1200</v>
+        <v>126</v>
       </c>
       <c r="I78" t="s">
+        <v>22</v>
+      </c>
+      <c r="J78" t="s">
+        <v>23</v>
+      </c>
+      <c r="K78">
+        <v>30</v>
+      </c>
+      <c r="L78" t="s">
+        <v>22</v>
+      </c>
+      <c r="M78" t="s">
+        <v>24</v>
+      </c>
+      <c r="N78">
+        <v>25000</v>
+      </c>
+      <c r="O78" t="s">
+        <v>22</v>
+      </c>
+      <c r="P78" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q78">
         <v>100</v>
       </c>
-      <c r="J78">
-        <v>126</v>
-      </c>
-      <c r="K78" t="s">
-        <v>22</v>
-      </c>
-      <c r="L78" t="s">
-        <v>23</v>
-      </c>
-      <c r="M78">
-        <v>30</v>
-      </c>
-      <c r="N78" t="s">
-        <v>22</v>
-      </c>
-      <c r="O78" t="s">
-        <v>24</v>
-      </c>
-      <c r="P78">
-        <v>25000</v>
-      </c>
-      <c r="Q78" t="s">
-        <v>22</v>
-      </c>
-      <c r="R78" t="s">
-        <v>23</v>
-      </c>
-      <c r="S78">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="79" spans="1:22" x14ac:dyDescent="0.3">
+    </row>
+    <row r="79" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>101</v>
       </c>
       <c r="C79" t="b">
         <v>0</v>
       </c>
-      <c r="G79">
+      <c r="E79">
         <v>0.99</v>
       </c>
+      <c r="F79">
+        <v>1200</v>
+      </c>
+      <c r="G79" t="s">
+        <v>101</v>
+      </c>
       <c r="H79">
-        <v>1200</v>
+        <v>484</v>
       </c>
       <c r="I79" t="s">
-        <v>101</v>
-      </c>
-      <c r="J79">
-        <v>484</v>
-      </c>
-      <c r="K79" t="s">
-        <v>22</v>
+        <v>22</v>
+      </c>
+      <c r="J79" t="s">
+        <v>23</v>
+      </c>
+      <c r="K79">
+        <v>60</v>
       </c>
       <c r="L79" t="s">
-        <v>23</v>
-      </c>
-      <c r="M79">
-        <v>60</v>
-      </c>
-      <c r="N79" t="s">
-        <v>22</v>
+        <v>22</v>
+      </c>
+      <c r="M79" t="s">
+        <v>24</v>
+      </c>
+      <c r="N79">
+        <v>15000</v>
       </c>
       <c r="O79" t="s">
-        <v>24</v>
-      </c>
-      <c r="P79">
-        <v>15000</v>
-      </c>
-      <c r="Q79" t="s">
-        <v>22</v>
-      </c>
-      <c r="R79" t="s">
-        <v>23</v>
-      </c>
-      <c r="S79">
+        <v>22</v>
+      </c>
+      <c r="P79" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q79">
         <v>120</v>
       </c>
     </row>
-    <row r="80" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>102</v>
       </c>
       <c r="C80" t="b">
         <v>0</v>
       </c>
-      <c r="G80">
+      <c r="E80">
         <v>0.99</v>
       </c>
+      <c r="F80">
+        <v>1200</v>
+      </c>
+      <c r="G80" t="s">
+        <v>102</v>
+      </c>
       <c r="H80">
-        <v>1200</v>
+        <v>584</v>
       </c>
       <c r="I80" t="s">
-        <v>102</v>
-      </c>
-      <c r="J80">
-        <v>584</v>
-      </c>
-      <c r="K80" t="s">
-        <v>22</v>
+        <v>22</v>
+      </c>
+      <c r="J80" t="s">
+        <v>23</v>
+      </c>
+      <c r="K80">
+        <v>90</v>
       </c>
       <c r="L80" t="s">
-        <v>23</v>
-      </c>
-      <c r="M80">
-        <v>90</v>
-      </c>
-      <c r="N80" t="s">
-        <v>22</v>
+        <v>22</v>
+      </c>
+      <c r="M80" t="s">
+        <v>24</v>
+      </c>
+      <c r="N80">
+        <v>30000</v>
       </c>
       <c r="O80" t="s">
-        <v>24</v>
-      </c>
-      <c r="P80">
-        <v>30000</v>
-      </c>
-      <c r="Q80" t="s">
-        <v>22</v>
+        <v>22</v>
+      </c>
+      <c r="P80" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q80">
+        <v>150</v>
       </c>
       <c r="R80" t="s">
-        <v>23</v>
-      </c>
-      <c r="S80">
-        <v>150</v>
-      </c>
-      <c r="T80" t="s">
-        <v>22</v>
-      </c>
-      <c r="U80" t="s">
-        <v>23</v>
-      </c>
-      <c r="V80">
+        <v>22</v>
+      </c>
+      <c r="S80" t="s">
+        <v>23</v>
+      </c>
+      <c r="T80">
         <v>300</v>
       </c>
     </row>
-    <row r="81" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>103</v>
       </c>
       <c r="C81" t="b">
         <v>0</v>
       </c>
-      <c r="G81">
+      <c r="E81">
         <v>4.99</v>
       </c>
+      <c r="F81">
+        <v>5900</v>
+      </c>
+      <c r="G81" t="s">
+        <v>103</v>
+      </c>
       <c r="H81">
-        <v>5900</v>
+        <v>456</v>
       </c>
       <c r="I81" t="s">
-        <v>103</v>
-      </c>
-      <c r="J81">
-        <v>456</v>
-      </c>
-      <c r="K81" t="s">
-        <v>22</v>
+        <v>22</v>
+      </c>
+      <c r="J81" t="s">
+        <v>23</v>
+      </c>
+      <c r="K81">
+        <v>30</v>
       </c>
       <c r="L81" t="s">
-        <v>23</v>
-      </c>
-      <c r="M81">
-        <v>30</v>
-      </c>
-      <c r="N81" t="s">
-        <v>22</v>
+        <v>22</v>
+      </c>
+      <c r="M81" t="s">
+        <v>24</v>
+      </c>
+      <c r="N81">
+        <v>25000</v>
       </c>
       <c r="O81" t="s">
-        <v>24</v>
-      </c>
-      <c r="P81">
-        <v>25000</v>
-      </c>
-      <c r="Q81" t="s">
-        <v>22</v>
-      </c>
-      <c r="R81" t="s">
-        <v>23</v>
-      </c>
-      <c r="S81">
+        <v>22</v>
+      </c>
+      <c r="P81" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q81">
         <v>100</v>
       </c>
     </row>
-    <row r="82" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>104</v>
       </c>
       <c r="C82" t="b">
         <v>0</v>
       </c>
-      <c r="G82">
+      <c r="E82">
         <v>4.99</v>
       </c>
+      <c r="F82">
+        <v>5900</v>
+      </c>
+      <c r="G82" t="s">
+        <v>104</v>
+      </c>
       <c r="H82">
-        <v>5900</v>
+        <v>574</v>
       </c>
       <c r="I82" t="s">
-        <v>104</v>
-      </c>
-      <c r="J82">
-        <v>574</v>
-      </c>
-      <c r="K82" t="s">
-        <v>22</v>
+        <v>22</v>
+      </c>
+      <c r="J82" t="s">
+        <v>23</v>
+      </c>
+      <c r="K82">
+        <v>60</v>
       </c>
       <c r="L82" t="s">
-        <v>23</v>
-      </c>
-      <c r="M82">
-        <v>60</v>
-      </c>
-      <c r="N82" t="s">
-        <v>22</v>
+        <v>22</v>
+      </c>
+      <c r="M82" t="s">
+        <v>24</v>
+      </c>
+      <c r="N82">
+        <v>15000</v>
       </c>
       <c r="O82" t="s">
-        <v>24</v>
-      </c>
-      <c r="P82">
-        <v>15000</v>
-      </c>
-      <c r="Q82" t="s">
-        <v>22</v>
-      </c>
-      <c r="R82" t="s">
-        <v>23</v>
-      </c>
-      <c r="S82">
+        <v>22</v>
+      </c>
+      <c r="P82" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q82">
         <v>120</v>
       </c>
     </row>
-    <row r="83" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>105</v>
       </c>
       <c r="C83" t="b">
         <v>0</v>
       </c>
-      <c r="G83">
+      <c r="E83">
         <v>9.99</v>
       </c>
+      <c r="F83">
+        <v>13000</v>
+      </c>
+      <c r="G83" t="s">
+        <v>105</v>
+      </c>
       <c r="H83">
-        <v>13000</v>
+        <v>117</v>
       </c>
       <c r="I83" t="s">
-        <v>105</v>
-      </c>
-      <c r="J83">
-        <v>117</v>
-      </c>
-      <c r="K83" t="s">
-        <v>22</v>
+        <v>22</v>
+      </c>
+      <c r="J83" t="s">
+        <v>23</v>
+      </c>
+      <c r="K83">
+        <v>90</v>
       </c>
       <c r="L83" t="s">
-        <v>23</v>
-      </c>
-      <c r="M83">
-        <v>90</v>
-      </c>
-      <c r="N83" t="s">
-        <v>22</v>
+        <v>22</v>
+      </c>
+      <c r="M83" t="s">
+        <v>24</v>
+      </c>
+      <c r="N83">
+        <v>30000</v>
       </c>
       <c r="O83" t="s">
-        <v>24</v>
-      </c>
-      <c r="P83">
-        <v>30000</v>
-      </c>
-      <c r="Q83" t="s">
-        <v>22</v>
+        <v>22</v>
+      </c>
+      <c r="P83" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q83">
+        <v>150</v>
       </c>
       <c r="R83" t="s">
-        <v>23</v>
-      </c>
-      <c r="S83">
-        <v>150</v>
-      </c>
-      <c r="T83" t="s">
-        <v>22</v>
-      </c>
-      <c r="U83" t="s">
-        <v>23</v>
-      </c>
-      <c r="V83">
+        <v>22</v>
+      </c>
+      <c r="S83" t="s">
+        <v>23</v>
+      </c>
+      <c r="T83">
         <v>300</v>
       </c>
     </row>
-    <row r="84" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>106</v>
       </c>
       <c r="C84" t="b">
         <v>0</v>
       </c>
-      <c r="G84">
+      <c r="E84">
         <v>9.99</v>
       </c>
+      <c r="F84">
+        <v>13000</v>
+      </c>
+      <c r="G84" t="s">
+        <v>106</v>
+      </c>
       <c r="H84">
-        <v>13000</v>
+        <v>206</v>
       </c>
       <c r="I84" t="s">
-        <v>106</v>
-      </c>
-      <c r="J84">
-        <v>206</v>
-      </c>
-      <c r="K84" t="s">
-        <v>22</v>
+        <v>22</v>
+      </c>
+      <c r="J84" t="s">
+        <v>23</v>
+      </c>
+      <c r="K84">
+        <v>30</v>
       </c>
       <c r="L84" t="s">
-        <v>23</v>
-      </c>
-      <c r="M84">
-        <v>30</v>
-      </c>
-      <c r="N84" t="s">
-        <v>22</v>
+        <v>22</v>
+      </c>
+      <c r="M84" t="s">
+        <v>24</v>
+      </c>
+      <c r="N84">
+        <v>25000</v>
       </c>
       <c r="O84" t="s">
-        <v>24</v>
-      </c>
-      <c r="P84">
-        <v>25000</v>
-      </c>
-      <c r="Q84" t="s">
-        <v>22</v>
-      </c>
-      <c r="R84" t="s">
-        <v>23</v>
-      </c>
-      <c r="S84">
+        <v>22</v>
+      </c>
+      <c r="P84" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q84">
         <v>100</v>
       </c>
     </row>
-    <row r="85" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>107</v>
       </c>
       <c r="C85" t="b">
         <v>0</v>
       </c>
-      <c r="G85">
+      <c r="E85">
         <v>19.989999999999998</v>
       </c>
+      <c r="F85">
+        <v>25000</v>
+      </c>
+      <c r="G85" t="s">
+        <v>107</v>
+      </c>
       <c r="H85">
+        <v>464</v>
+      </c>
+      <c r="I85" t="s">
+        <v>22</v>
+      </c>
+      <c r="J85" t="s">
+        <v>23</v>
+      </c>
+      <c r="K85">
+        <v>30</v>
+      </c>
+      <c r="L85" t="s">
+        <v>22</v>
+      </c>
+      <c r="M85" t="s">
+        <v>24</v>
+      </c>
+      <c r="N85">
         <v>25000</v>
       </c>
-      <c r="I85" t="s">
-        <v>107</v>
-      </c>
-      <c r="J85">
-        <v>464</v>
-      </c>
-      <c r="K85" t="s">
-        <v>22</v>
-      </c>
-      <c r="L85" t="s">
-        <v>23</v>
-      </c>
-      <c r="M85">
-        <v>30</v>
-      </c>
-      <c r="N85" t="s">
-        <v>22</v>
-      </c>
       <c r="O85" t="s">
-        <v>24</v>
-      </c>
-      <c r="P85">
-        <v>25000</v>
-      </c>
-      <c r="Q85" t="s">
-        <v>22</v>
-      </c>
-      <c r="R85" t="s">
-        <v>23</v>
-      </c>
-      <c r="S85">
+        <v>22</v>
+      </c>
+      <c r="P85" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q85">
         <v>100</v>
       </c>
     </row>
-    <row r="86" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>108</v>
       </c>
       <c r="C86" t="b">
         <v>0</v>
       </c>
-      <c r="G86">
+      <c r="E86">
         <v>39.99</v>
       </c>
+      <c r="F86">
+        <v>48000</v>
+      </c>
+      <c r="G86" t="s">
+        <v>108</v>
+      </c>
       <c r="H86">
-        <v>48000</v>
+        <v>836</v>
       </c>
       <c r="I86" t="s">
-        <v>108</v>
-      </c>
-      <c r="J86">
-        <v>836</v>
-      </c>
-      <c r="K86" t="s">
-        <v>22</v>
+        <v>22</v>
+      </c>
+      <c r="J86" t="s">
+        <v>23</v>
+      </c>
+      <c r="K86">
+        <v>60</v>
       </c>
       <c r="L86" t="s">
-        <v>23</v>
-      </c>
-      <c r="M86">
-        <v>60</v>
-      </c>
-      <c r="N86" t="s">
-        <v>22</v>
+        <v>22</v>
+      </c>
+      <c r="M86" t="s">
+        <v>24</v>
+      </c>
+      <c r="N86">
+        <v>15000</v>
       </c>
       <c r="O86" t="s">
-        <v>24</v>
-      </c>
-      <c r="P86">
-        <v>15000</v>
-      </c>
-      <c r="Q86" t="s">
-        <v>22</v>
-      </c>
-      <c r="R86" t="s">
-        <v>23</v>
-      </c>
-      <c r="S86">
+        <v>22</v>
+      </c>
+      <c r="P86" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q86">
         <v>120</v>
       </c>
     </row>
-    <row r="87" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>109</v>
       </c>
       <c r="C87" t="b">
         <v>0</v>
       </c>
-      <c r="G87">
+      <c r="E87">
         <v>49.99</v>
       </c>
+      <c r="F87">
+        <v>69000</v>
+      </c>
+      <c r="G87" t="s">
+        <v>109</v>
+      </c>
       <c r="H87">
-        <v>69000</v>
+        <v>475</v>
       </c>
       <c r="I87" t="s">
-        <v>109</v>
-      </c>
-      <c r="J87">
-        <v>475</v>
-      </c>
-      <c r="K87" t="s">
-        <v>22</v>
+        <v>22</v>
+      </c>
+      <c r="J87" t="s">
+        <v>23</v>
+      </c>
+      <c r="K87">
+        <v>90</v>
       </c>
       <c r="L87" t="s">
-        <v>23</v>
-      </c>
-      <c r="M87">
-        <v>90</v>
-      </c>
-      <c r="N87" t="s">
-        <v>22</v>
+        <v>22</v>
+      </c>
+      <c r="M87" t="s">
+        <v>24</v>
+      </c>
+      <c r="N87">
+        <v>30000</v>
       </c>
       <c r="O87" t="s">
-        <v>24</v>
-      </c>
-      <c r="P87">
-        <v>30000</v>
-      </c>
-      <c r="Q87" t="s">
-        <v>22</v>
+        <v>22</v>
+      </c>
+      <c r="P87" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q87">
+        <v>150</v>
       </c>
       <c r="R87" t="s">
-        <v>23</v>
-      </c>
-      <c r="S87">
-        <v>150</v>
-      </c>
-      <c r="T87" t="s">
-        <v>22</v>
-      </c>
-      <c r="U87" t="s">
-        <v>23</v>
-      </c>
-      <c r="V87">
+        <v>22</v>
+      </c>
+      <c r="S87" t="s">
+        <v>23</v>
+      </c>
+      <c r="T87">
         <v>300</v>
       </c>
     </row>
-    <row r="88" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>110</v>
       </c>
       <c r="C88" t="b">
         <v>0</v>
       </c>
-      <c r="G88">
+      <c r="E88">
         <v>99.99</v>
       </c>
+      <c r="F88">
+        <v>109000</v>
+      </c>
+      <c r="G88" t="s">
+        <v>110</v>
+      </c>
       <c r="H88">
-        <v>109000</v>
+        <v>360</v>
       </c>
       <c r="I88" t="s">
-        <v>110</v>
-      </c>
-      <c r="J88">
-        <v>360</v>
-      </c>
-      <c r="K88" t="s">
         <v>25</v>
       </c>
+      <c r="J88" t="s">
+        <v>111</v>
+      </c>
+      <c r="K88">
+        <v>1</v>
+      </c>
       <c r="L88" t="s">
-        <v>111</v>
-      </c>
-      <c r="M88">
-        <v>1</v>
-      </c>
-      <c r="N88" t="s">
-        <v>22</v>
+        <v>22</v>
+      </c>
+      <c r="M88" t="s">
+        <v>23</v>
+      </c>
+      <c r="N88">
+        <v>1000</v>
       </c>
       <c r="O88" t="s">
-        <v>23</v>
-      </c>
-      <c r="P88">
-        <v>1000</v>
-      </c>
-      <c r="Q88" t="s">
-        <v>22</v>
+        <v>22</v>
+      </c>
+      <c r="P88" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q88">
+        <v>25000</v>
       </c>
       <c r="R88" t="s">
-        <v>24</v>
-      </c>
-      <c r="S88">
-        <v>25000</v>
-      </c>
-      <c r="T88" t="s">
-        <v>22</v>
-      </c>
-      <c r="U88" t="s">
+        <v>22</v>
+      </c>
+      <c r="S88" t="s">
         <v>98</v>
       </c>
-      <c r="V88">
+      <c r="T88">
         <v>750</v>
       </c>
     </row>

--- a/Excel/Shop.xlsx
+++ b/Excel/Shop.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97496476-0905-4992-B151-EA8146699809}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D01EEC2A-97D3-4891-B1E1-638D9509E5CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{1A95D980-8F25-43B6-BA87-364295A77694}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="610" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="628" uniqueCount="139">
   <si>
     <t>productId|String</t>
   </si>
@@ -447,6 +447,15 @@
   </si>
   <si>
     <t>times|Int</t>
+  </si>
+  <si>
+    <t>ev2_almostthere</t>
+  </si>
+  <si>
+    <t>ev11_flashsale</t>
+  </si>
+  <si>
+    <t>ev12_nuclearsale</t>
   </si>
 </sst>
 </file>
@@ -810,11 +819,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED115DDC-E095-4A60-B3EA-80FAE0A4BDBC}">
-  <dimension ref="A1:W88"/>
+  <dimension ref="A1:W91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="A89" sqref="A89"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -932,89 +939,89 @@
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C3" t="b">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>9.99</v>
+        <v>4.99</v>
       </c>
       <c r="F3">
-        <v>13000</v>
+        <v>6500</v>
       </c>
       <c r="G3" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="H3">
-        <v>806</v>
+        <v>256</v>
       </c>
       <c r="I3" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="J3" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="K3">
-        <v>600</v>
-      </c>
-      <c r="L3" t="s">
-        <v>22</v>
-      </c>
-      <c r="M3" t="s">
-        <v>24</v>
-      </c>
-      <c r="N3">
-        <v>50000</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C4" t="b">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>4.99</v>
+        <v>9.99</v>
       </c>
       <c r="F4">
-        <v>6500</v>
+        <v>13000</v>
       </c>
       <c r="G4" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="H4">
-        <v>256</v>
+        <v>806</v>
       </c>
       <c r="I4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="J4" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>600</v>
+      </c>
+      <c r="L4" t="s">
+        <v>22</v>
+      </c>
+      <c r="M4" t="s">
+        <v>24</v>
+      </c>
+      <c r="N4">
+        <v>50000</v>
       </c>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>35</v>
+        <v>136</v>
       </c>
       <c r="C5" t="b">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>14.99</v>
+        <v>4.99</v>
       </c>
       <c r="F5">
-        <v>19000</v>
+        <v>6500</v>
       </c>
       <c r="G5" t="s">
-        <v>35</v>
+        <v>136</v>
       </c>
       <c r="H5">
-        <v>876</v>
+        <v>256</v>
       </c>
       <c r="I5" t="s">
         <v>22</v>
@@ -1023,7 +1030,7 @@
         <v>23</v>
       </c>
       <c r="K5">
-        <v>30</v>
+        <v>500</v>
       </c>
       <c r="L5" t="s">
         <v>22</v>
@@ -1032,36 +1039,27 @@
         <v>24</v>
       </c>
       <c r="N5">
-        <v>25000</v>
-      </c>
-      <c r="O5" t="s">
-        <v>22</v>
-      </c>
-      <c r="P5" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q5">
-        <v>100</v>
+        <v>40000</v>
       </c>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C6" t="b">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>29.99</v>
+        <v>14.99</v>
       </c>
       <c r="F6">
-        <v>39000</v>
+        <v>19000</v>
       </c>
       <c r="G6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H6">
-        <v>973</v>
+        <v>876</v>
       </c>
       <c r="I6" t="s">
         <v>22</v>
@@ -1070,7 +1068,7 @@
         <v>23</v>
       </c>
       <c r="K6">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="L6" t="s">
         <v>22</v>
@@ -1079,7 +1077,7 @@
         <v>24</v>
       </c>
       <c r="N6">
-        <v>15000</v>
+        <v>25000</v>
       </c>
       <c r="O6" t="s">
         <v>22</v>
@@ -1088,27 +1086,27 @@
         <v>23</v>
       </c>
       <c r="Q6">
-        <v>120</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C7" t="b">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>49.99</v>
+        <v>29.99</v>
       </c>
       <c r="F7">
-        <v>69000</v>
+        <v>39000</v>
       </c>
       <c r="G7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H7">
-        <v>180</v>
+        <v>973</v>
       </c>
       <c r="I7" t="s">
         <v>22</v>
@@ -1117,7 +1115,7 @@
         <v>23</v>
       </c>
       <c r="K7">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="L7" t="s">
         <v>22</v>
@@ -1126,7 +1124,7 @@
         <v>24</v>
       </c>
       <c r="N7">
-        <v>30000</v>
+        <v>15000</v>
       </c>
       <c r="O7" t="s">
         <v>22</v>
@@ -1135,30 +1133,27 @@
         <v>23</v>
       </c>
       <c r="Q7">
-        <v>150</v>
-      </c>
-      <c r="R7" t="s">
-        <v>22</v>
-      </c>
-      <c r="S7" t="s">
-        <v>23</v>
-      </c>
-      <c r="T7">
-        <v>300</v>
+        <v>120</v>
       </c>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>38</v>
-      </c>
-      <c r="B8">
-        <v>1</v>
+        <v>37</v>
       </c>
       <c r="C8" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>49.99</v>
+      </c>
+      <c r="F8">
+        <v>69000</v>
+      </c>
+      <c r="G8" t="s">
+        <v>37</v>
       </c>
       <c r="H8">
-        <v>721</v>
+        <v>180</v>
       </c>
       <c r="I8" t="s">
         <v>22</v>
@@ -1167,7 +1162,7 @@
         <v>23</v>
       </c>
       <c r="K8">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="L8" t="s">
         <v>22</v>
@@ -1176,7 +1171,7 @@
         <v>24</v>
       </c>
       <c r="N8">
-        <v>35000</v>
+        <v>30000</v>
       </c>
       <c r="O8" t="s">
         <v>22</v>
@@ -1185,21 +1180,30 @@
         <v>23</v>
       </c>
       <c r="Q8">
-        <v>170</v>
+        <v>150</v>
+      </c>
+      <c r="R8" t="s">
+        <v>22</v>
+      </c>
+      <c r="S8" t="s">
+        <v>23</v>
+      </c>
+      <c r="T8">
+        <v>300</v>
       </c>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C9" t="b">
         <v>1</v>
       </c>
       <c r="H9">
-        <v>884</v>
+        <v>721</v>
       </c>
       <c r="I9" t="s">
         <v>22</v>
@@ -1208,121 +1212,121 @@
         <v>23</v>
       </c>
       <c r="K9">
-        <v>150</v>
+        <v>80</v>
+      </c>
+      <c r="L9" t="s">
+        <v>22</v>
+      </c>
+      <c r="M9" t="s">
+        <v>24</v>
+      </c>
+      <c r="N9">
+        <v>35000</v>
+      </c>
+      <c r="O9" t="s">
+        <v>22</v>
+      </c>
+      <c r="P9" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q9">
+        <v>170</v>
       </c>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C10" t="b">
-        <v>0</v>
-      </c>
-      <c r="E10">
-        <v>1.99</v>
-      </c>
-      <c r="F10">
-        <v>2500</v>
-      </c>
-      <c r="G10" t="s">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="H10">
-        <v>217</v>
+        <v>884</v>
       </c>
       <c r="I10" t="s">
         <v>22</v>
       </c>
       <c r="J10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K10">
-        <v>20000</v>
-      </c>
-      <c r="L10" t="s">
-        <v>22</v>
-      </c>
-      <c r="M10" t="s">
-        <v>23</v>
-      </c>
-      <c r="N10">
         <v>150</v>
-      </c>
-      <c r="O10" t="s">
-        <v>22</v>
-      </c>
-      <c r="P10" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q10">
-        <v>35000</v>
-      </c>
-      <c r="R10" t="s">
-        <v>22</v>
-      </c>
-      <c r="S10" t="s">
-        <v>23</v>
-      </c>
-      <c r="T10">
-        <v>200</v>
       </c>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B11">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C11" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>1.99</v>
+      </c>
+      <c r="F11">
+        <v>2500</v>
+      </c>
+      <c r="G11" t="s">
+        <v>40</v>
       </c>
       <c r="H11">
-        <v>394</v>
+        <v>217</v>
       </c>
       <c r="I11" t="s">
         <v>22</v>
       </c>
       <c r="J11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K11">
+        <v>20000</v>
+      </c>
+      <c r="L11" t="s">
+        <v>22</v>
+      </c>
+      <c r="M11" t="s">
+        <v>23</v>
+      </c>
+      <c r="N11">
         <v>150</v>
       </c>
-      <c r="L11" t="s">
-        <v>22</v>
-      </c>
-      <c r="M11" t="s">
-        <v>24</v>
-      </c>
-      <c r="N11">
-        <v>20000</v>
+      <c r="O11" t="s">
+        <v>22</v>
+      </c>
+      <c r="P11" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q11">
+        <v>35000</v>
+      </c>
+      <c r="R11" t="s">
+        <v>22</v>
+      </c>
+      <c r="S11" t="s">
+        <v>23</v>
+      </c>
+      <c r="T11">
+        <v>200</v>
       </c>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="B12">
+        <v>4</v>
+      </c>
+      <c r="C12" t="b">
         <v>1</v>
       </c>
-      <c r="C12" t="b">
-        <v>0</v>
-      </c>
-      <c r="E12">
-        <v>19.989999999999998</v>
-      </c>
-      <c r="F12">
-        <v>25000</v>
-      </c>
-      <c r="G12" t="s">
-        <v>32</v>
-      </c>
       <c r="H12">
-        <v>548</v>
+        <v>394</v>
       </c>
       <c r="I12" t="s">
         <v>22</v>
@@ -1331,7 +1335,7 @@
         <v>23</v>
       </c>
       <c r="K12">
-        <v>350</v>
+        <v>150</v>
       </c>
       <c r="L12" t="s">
         <v>22</v>
@@ -1340,98 +1344,98 @@
         <v>24</v>
       </c>
       <c r="N12">
-        <v>80000</v>
-      </c>
-      <c r="O12" t="s">
-        <v>22</v>
-      </c>
-      <c r="P12" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q12">
-        <v>800</v>
-      </c>
-      <c r="R12" t="s">
-        <v>22</v>
-      </c>
-      <c r="S12" t="s">
-        <v>24</v>
-      </c>
-      <c r="T12">
-        <v>100000</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C13" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>19.989999999999998</v>
+      </c>
+      <c r="F13">
+        <v>25000</v>
+      </c>
+      <c r="G13" t="s">
+        <v>32</v>
       </c>
       <c r="H13">
-        <v>537</v>
+        <v>548</v>
       </c>
       <c r="I13" t="s">
         <v>22</v>
       </c>
       <c r="J13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K13">
-        <v>50000</v>
+        <v>350</v>
       </c>
       <c r="L13" t="s">
         <v>22</v>
       </c>
       <c r="M13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="N13">
-        <v>500</v>
+        <v>80000</v>
       </c>
       <c r="O13" t="s">
         <v>22</v>
       </c>
       <c r="P13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Q13">
-        <v>70000</v>
+        <v>800</v>
+      </c>
+      <c r="R13" t="s">
+        <v>22</v>
+      </c>
+      <c r="S13" t="s">
+        <v>24</v>
+      </c>
+      <c r="T13">
+        <v>100000</v>
       </c>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C14" t="b">
         <v>1</v>
       </c>
       <c r="H14">
-        <v>314</v>
+        <v>537</v>
       </c>
       <c r="I14" t="s">
         <v>22</v>
       </c>
       <c r="J14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K14">
-        <v>450</v>
+        <v>50000</v>
       </c>
       <c r="L14" t="s">
         <v>22</v>
       </c>
       <c r="M14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N14">
-        <v>60000</v>
+        <v>500</v>
       </c>
       <c r="O14" t="s">
         <v>22</v>
@@ -1440,50 +1444,62 @@
         <v>24</v>
       </c>
       <c r="Q14">
-        <v>90000</v>
-      </c>
-      <c r="R14" t="s">
-        <v>22</v>
-      </c>
-      <c r="S14" t="s">
-        <v>23</v>
-      </c>
-      <c r="T14">
-        <v>650</v>
+        <v>70000</v>
       </c>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>114</v>
+        <v>34</v>
+      </c>
+      <c r="B15">
+        <v>3</v>
       </c>
       <c r="C15" t="b">
-        <v>0</v>
-      </c>
-      <c r="E15">
-        <v>0.99</v>
-      </c>
-      <c r="F15">
-        <v>1200</v>
-      </c>
-      <c r="G15" t="s">
-        <v>114</v>
+        <v>1</v>
       </c>
       <c r="H15">
-        <v>741</v>
+        <v>314</v>
       </c>
       <c r="I15" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="J15" t="s">
-        <v>88</v>
+        <v>23</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>450</v>
+      </c>
+      <c r="L15" t="s">
+        <v>22</v>
+      </c>
+      <c r="M15" t="s">
+        <v>24</v>
+      </c>
+      <c r="N15">
+        <v>60000</v>
+      </c>
+      <c r="O15" t="s">
+        <v>22</v>
+      </c>
+      <c r="P15" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q15">
+        <v>90000</v>
+      </c>
+      <c r="R15" t="s">
+        <v>22</v>
+      </c>
+      <c r="S15" t="s">
+        <v>23</v>
+      </c>
+      <c r="T15">
+        <v>650</v>
       </c>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>43</v>
+        <v>137</v>
       </c>
       <c r="C16" t="b">
         <v>0</v>
@@ -1495,10 +1511,10 @@
         <v>13000</v>
       </c>
       <c r="G16" t="s">
-        <v>43</v>
+        <v>137</v>
       </c>
       <c r="H16">
-        <v>513</v>
+        <v>715</v>
       </c>
       <c r="I16" t="s">
         <v>22</v>
@@ -1507,148 +1523,112 @@
         <v>23</v>
       </c>
       <c r="K16">
-        <v>100</v>
+        <v>700</v>
       </c>
       <c r="L16" t="s">
         <v>22</v>
       </c>
       <c r="M16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="N16">
-        <v>50</v>
-      </c>
-      <c r="O16" t="s">
-        <v>22</v>
-      </c>
-      <c r="P16" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q16">
-        <v>10000</v>
+        <v>50000</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>44</v>
+        <v>138</v>
       </c>
       <c r="C17" t="b">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>14.99</v>
+        <v>9.99</v>
       </c>
       <c r="F17">
-        <v>19000</v>
+        <v>13000</v>
       </c>
       <c r="G17" t="s">
-        <v>44</v>
+        <v>138</v>
       </c>
       <c r="H17">
-        <v>981</v>
+        <v>872</v>
       </c>
       <c r="I17" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="J17" t="s">
-        <v>130</v>
+        <v>23</v>
       </c>
       <c r="K17">
-        <v>75</v>
+        <v>800</v>
       </c>
       <c r="L17" t="s">
         <v>22</v>
       </c>
       <c r="M17" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="N17">
-        <v>75</v>
-      </c>
-      <c r="O17" t="s">
-        <v>22</v>
-      </c>
-      <c r="P17" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q17">
-        <v>20000</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>45</v>
+        <v>114</v>
       </c>
       <c r="C18" t="b">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>29.99</v>
+        <v>0.99</v>
       </c>
       <c r="F18">
-        <v>39000</v>
+        <v>1200</v>
       </c>
       <c r="G18" t="s">
-        <v>45</v>
+        <v>114</v>
       </c>
       <c r="H18">
-        <v>112</v>
+        <v>741</v>
       </c>
       <c r="I18" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="J18" t="s">
-        <v>23</v>
+        <v>88</v>
       </c>
       <c r="K18">
-        <v>300</v>
-      </c>
-      <c r="L18" t="s">
-        <v>22</v>
-      </c>
-      <c r="M18" t="s">
-        <v>23</v>
-      </c>
-      <c r="N18">
-        <v>100</v>
-      </c>
-      <c r="O18" t="s">
-        <v>22</v>
-      </c>
-      <c r="P18" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q18">
-        <v>40000</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C19" t="b">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>49.99</v>
+        <v>9.99</v>
       </c>
       <c r="F19">
-        <v>69000</v>
+        <v>13000</v>
       </c>
       <c r="G19" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="H19">
-        <v>152</v>
+        <v>513</v>
       </c>
       <c r="I19" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="J19" t="s">
-        <v>130</v>
+        <v>23</v>
       </c>
       <c r="K19">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="L19" t="s">
         <v>22</v>
@@ -1657,7 +1637,7 @@
         <v>23</v>
       </c>
       <c r="N19">
-        <v>500</v>
+        <v>50</v>
       </c>
       <c r="O19" t="s">
         <v>22</v>
@@ -1666,36 +1646,36 @@
         <v>24</v>
       </c>
       <c r="Q19">
-        <v>60000</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C20" t="b">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>9.99</v>
+        <v>14.99</v>
       </c>
       <c r="F20">
-        <v>13000</v>
+        <v>19000</v>
       </c>
       <c r="G20" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="H20">
-        <v>293</v>
+        <v>981</v>
       </c>
       <c r="I20" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="J20" t="s">
-        <v>23</v>
+        <v>130</v>
       </c>
       <c r="K20">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="L20" t="s">
         <v>22</v>
@@ -1704,7 +1684,7 @@
         <v>23</v>
       </c>
       <c r="N20">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="O20" t="s">
         <v>22</v>
@@ -1713,36 +1693,36 @@
         <v>24</v>
       </c>
       <c r="Q20">
-        <v>10000</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C21" t="b">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>14.99</v>
+        <v>29.99</v>
       </c>
       <c r="F21">
-        <v>19000</v>
+        <v>39000</v>
       </c>
       <c r="G21" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="H21">
-        <v>364</v>
+        <v>112</v>
       </c>
       <c r="I21" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="J21" t="s">
-        <v>130</v>
+        <v>23</v>
       </c>
       <c r="K21">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="L21" t="s">
         <v>22</v>
@@ -1751,7 +1731,7 @@
         <v>23</v>
       </c>
       <c r="N21">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="O21" t="s">
         <v>22</v>
@@ -1760,36 +1740,36 @@
         <v>24</v>
       </c>
       <c r="Q21">
-        <v>20000</v>
+        <v>40000</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C22" t="b">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>29.99</v>
+        <v>49.99</v>
       </c>
       <c r="F22">
-        <v>39000</v>
+        <v>69000</v>
       </c>
       <c r="G22" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="H22">
-        <v>440</v>
+        <v>152</v>
       </c>
       <c r="I22" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="J22" t="s">
-        <v>23</v>
+        <v>130</v>
       </c>
       <c r="K22">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="L22" t="s">
         <v>22</v>
@@ -1798,7 +1778,7 @@
         <v>23</v>
       </c>
       <c r="N22">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="O22" t="s">
         <v>22</v>
@@ -1807,46 +1787,46 @@
         <v>24</v>
       </c>
       <c r="Q22">
-        <v>40000</v>
+        <v>60000</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
+        <v>47</v>
+      </c>
+      <c r="C23" t="b">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>9.99</v>
+      </c>
+      <c r="F23">
+        <v>13000</v>
+      </c>
+      <c r="G23" t="s">
+        <v>47</v>
+      </c>
+      <c r="H23">
+        <v>293</v>
+      </c>
+      <c r="I23" t="s">
+        <v>22</v>
+      </c>
+      <c r="J23" t="s">
+        <v>23</v>
+      </c>
+      <c r="K23">
+        <v>100</v>
+      </c>
+      <c r="L23" t="s">
+        <v>22</v>
+      </c>
+      <c r="M23" t="s">
+        <v>23</v>
+      </c>
+      <c r="N23">
         <v>50</v>
       </c>
-      <c r="C23" t="b">
-        <v>0</v>
-      </c>
-      <c r="E23">
-        <v>49.99</v>
-      </c>
-      <c r="F23">
-        <v>69000</v>
-      </c>
-      <c r="G23" t="s">
-        <v>50</v>
-      </c>
-      <c r="H23">
-        <v>335</v>
-      </c>
-      <c r="I23" t="s">
-        <v>25</v>
-      </c>
-      <c r="J23" t="s">
-        <v>130</v>
-      </c>
-      <c r="K23">
-        <v>1200</v>
-      </c>
-      <c r="L23" t="s">
-        <v>22</v>
-      </c>
-      <c r="M23" t="s">
-        <v>23</v>
-      </c>
-      <c r="N23">
-        <v>500</v>
-      </c>
       <c r="O23" t="s">
         <v>22</v>
       </c>
@@ -1854,36 +1834,36 @@
         <v>24</v>
       </c>
       <c r="Q23">
-        <v>60000</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C24" t="b">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>9.99</v>
+        <v>14.99</v>
       </c>
       <c r="F24">
-        <v>13000</v>
+        <v>19000</v>
       </c>
       <c r="G24" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="H24">
-        <v>349</v>
+        <v>364</v>
       </c>
       <c r="I24" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="J24" t="s">
-        <v>23</v>
+        <v>130</v>
       </c>
       <c r="K24">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="L24" t="s">
         <v>22</v>
@@ -1892,7 +1872,7 @@
         <v>23</v>
       </c>
       <c r="N24">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="O24" t="s">
         <v>22</v>
@@ -1901,33 +1881,33 @@
         <v>24</v>
       </c>
       <c r="Q24">
-        <v>10000</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C25" t="b">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>14.99</v>
+        <v>29.99</v>
       </c>
       <c r="F25">
-        <v>19000</v>
+        <v>39000</v>
       </c>
       <c r="G25" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="H25">
-        <v>901</v>
+        <v>440</v>
       </c>
       <c r="I25" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="J25" t="s">
-        <v>130</v>
+        <v>23</v>
       </c>
       <c r="K25">
         <v>300</v>
@@ -1939,7 +1919,7 @@
         <v>23</v>
       </c>
       <c r="N25">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="O25" t="s">
         <v>22</v>
@@ -1948,36 +1928,36 @@
         <v>24</v>
       </c>
       <c r="Q25">
-        <v>20000</v>
+        <v>40000</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C26" t="b">
         <v>0</v>
       </c>
       <c r="E26">
-        <v>29.99</v>
+        <v>49.99</v>
       </c>
       <c r="F26">
-        <v>39000</v>
+        <v>69000</v>
       </c>
       <c r="G26" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="H26">
-        <v>265</v>
+        <v>335</v>
       </c>
       <c r="I26" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="J26" t="s">
-        <v>23</v>
+        <v>130</v>
       </c>
       <c r="K26">
-        <v>300</v>
+        <v>1200</v>
       </c>
       <c r="L26" t="s">
         <v>22</v>
@@ -1986,7 +1966,7 @@
         <v>23</v>
       </c>
       <c r="N26">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="O26" t="s">
         <v>22</v>
@@ -1995,36 +1975,36 @@
         <v>24</v>
       </c>
       <c r="Q26">
-        <v>40000</v>
+        <v>60000</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C27" t="b">
         <v>0</v>
       </c>
       <c r="E27">
-        <v>49.99</v>
+        <v>9.99</v>
       </c>
       <c r="F27">
-        <v>69000</v>
+        <v>13000</v>
       </c>
       <c r="G27" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="H27">
-        <v>820</v>
+        <v>349</v>
       </c>
       <c r="I27" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="J27" t="s">
-        <v>130</v>
+        <v>23</v>
       </c>
       <c r="K27">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="L27" t="s">
         <v>22</v>
@@ -2033,7 +2013,7 @@
         <v>23</v>
       </c>
       <c r="N27">
-        <v>500</v>
+        <v>50</v>
       </c>
       <c r="O27" t="s">
         <v>22</v>
@@ -2042,36 +2022,36 @@
         <v>24</v>
       </c>
       <c r="Q27">
-        <v>60000</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>116</v>
+        <v>52</v>
       </c>
       <c r="C28" t="b">
         <v>0</v>
       </c>
       <c r="E28">
-        <v>9.99</v>
+        <v>14.99</v>
       </c>
       <c r="F28">
-        <v>13000</v>
+        <v>19000</v>
       </c>
       <c r="G28" t="s">
-        <v>116</v>
+        <v>52</v>
       </c>
       <c r="H28">
-        <v>127</v>
+        <v>901</v>
       </c>
       <c r="I28" t="s">
         <v>25</v>
       </c>
       <c r="J28" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="K28">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="L28" t="s">
         <v>22</v>
@@ -2094,22 +2074,22 @@
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>117</v>
+        <v>53</v>
       </c>
       <c r="C29" t="b">
         <v>0</v>
       </c>
       <c r="E29">
-        <v>14.99</v>
+        <v>29.99</v>
       </c>
       <c r="F29">
-        <v>19000</v>
+        <v>39000</v>
       </c>
       <c r="G29" t="s">
-        <v>117</v>
+        <v>53</v>
       </c>
       <c r="H29">
-        <v>194</v>
+        <v>265</v>
       </c>
       <c r="I29" t="s">
         <v>22</v>
@@ -2141,31 +2121,31 @@
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>118</v>
+        <v>54</v>
       </c>
       <c r="C30" t="b">
         <v>0</v>
       </c>
       <c r="E30">
-        <v>29.99</v>
+        <v>49.99</v>
       </c>
       <c r="F30">
-        <v>39000</v>
+        <v>69000</v>
       </c>
       <c r="G30" t="s">
-        <v>118</v>
+        <v>54</v>
       </c>
       <c r="H30">
-        <v>970</v>
+        <v>820</v>
       </c>
       <c r="I30" t="s">
         <v>25</v>
       </c>
       <c r="J30" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="K30">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="L30" t="s">
         <v>22</v>
@@ -2188,31 +2168,31 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C31" t="b">
         <v>0</v>
       </c>
       <c r="E31">
-        <v>49.99</v>
+        <v>9.99</v>
       </c>
       <c r="F31">
-        <v>69000</v>
+        <v>13000</v>
       </c>
       <c r="G31" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="H31">
-        <v>874</v>
+        <v>127</v>
       </c>
       <c r="I31" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="J31" t="s">
-        <v>23</v>
+        <v>131</v>
       </c>
       <c r="K31">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="L31" t="s">
         <v>22</v>
@@ -2221,7 +2201,7 @@
         <v>23</v>
       </c>
       <c r="N31">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="O31" t="s">
         <v>22</v>
@@ -2230,36 +2210,36 @@
         <v>24</v>
       </c>
       <c r="Q31">
-        <v>10000</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C32" t="b">
         <v>0</v>
       </c>
       <c r="E32">
-        <v>9.99</v>
+        <v>14.99</v>
       </c>
       <c r="F32">
-        <v>13000</v>
+        <v>19000</v>
       </c>
       <c r="G32" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="H32">
-        <v>127</v>
+        <v>194</v>
       </c>
       <c r="I32" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="J32" t="s">
-        <v>131</v>
+        <v>23</v>
       </c>
       <c r="K32">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="L32" t="s">
         <v>22</v>
@@ -2268,7 +2248,7 @@
         <v>23</v>
       </c>
       <c r="N32">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="O32" t="s">
         <v>22</v>
@@ -2277,36 +2257,36 @@
         <v>24</v>
       </c>
       <c r="Q32">
-        <v>20000</v>
+        <v>40000</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C33" t="b">
         <v>0</v>
       </c>
       <c r="E33">
-        <v>14.99</v>
+        <v>29.99</v>
       </c>
       <c r="F33">
-        <v>19000</v>
+        <v>39000</v>
       </c>
       <c r="G33" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="H33">
-        <v>194</v>
+        <v>970</v>
       </c>
       <c r="I33" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="J33" t="s">
-        <v>23</v>
+        <v>131</v>
       </c>
       <c r="K33">
-        <v>300</v>
+        <v>1500</v>
       </c>
       <c r="L33" t="s">
         <v>22</v>
@@ -2315,7 +2295,7 @@
         <v>23</v>
       </c>
       <c r="N33">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="O33" t="s">
         <v>22</v>
@@ -2324,36 +2304,36 @@
         <v>24</v>
       </c>
       <c r="Q33">
-        <v>40000</v>
+        <v>60000</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C34" t="b">
         <v>0</v>
       </c>
       <c r="E34">
-        <v>29.99</v>
+        <v>49.99</v>
       </c>
       <c r="F34">
-        <v>39000</v>
+        <v>69000</v>
       </c>
       <c r="G34" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="H34">
-        <v>970</v>
+        <v>874</v>
       </c>
       <c r="I34" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="J34" t="s">
-        <v>131</v>
+        <v>23</v>
       </c>
       <c r="K34">
-        <v>1500</v>
+        <v>100</v>
       </c>
       <c r="L34" t="s">
         <v>22</v>
@@ -2362,7 +2342,7 @@
         <v>23</v>
       </c>
       <c r="N34">
-        <v>500</v>
+        <v>50</v>
       </c>
       <c r="O34" t="s">
         <v>22</v>
@@ -2371,36 +2351,36 @@
         <v>24</v>
       </c>
       <c r="Q34">
-        <v>60000</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C35" t="b">
         <v>0</v>
       </c>
       <c r="E35">
-        <v>49.99</v>
+        <v>9.99</v>
       </c>
       <c r="F35">
-        <v>69000</v>
+        <v>13000</v>
       </c>
       <c r="G35" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="H35">
-        <v>874</v>
+        <v>127</v>
       </c>
       <c r="I35" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="J35" t="s">
-        <v>23</v>
+        <v>131</v>
       </c>
       <c r="K35">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="L35" t="s">
         <v>22</v>
@@ -2409,7 +2389,7 @@
         <v>23</v>
       </c>
       <c r="N35">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="O35" t="s">
         <v>22</v>
@@ -2418,36 +2398,36 @@
         <v>24</v>
       </c>
       <c r="Q35">
-        <v>10000</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C36" t="b">
         <v>0</v>
       </c>
       <c r="E36">
-        <v>9.99</v>
+        <v>14.99</v>
       </c>
       <c r="F36">
-        <v>13000</v>
+        <v>19000</v>
       </c>
       <c r="G36" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="H36">
-        <v>127</v>
+        <v>194</v>
       </c>
       <c r="I36" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="J36" t="s">
-        <v>131</v>
+        <v>23</v>
       </c>
       <c r="K36">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="L36" t="s">
         <v>22</v>
@@ -2456,7 +2436,7 @@
         <v>23</v>
       </c>
       <c r="N36">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="O36" t="s">
         <v>22</v>
@@ -2465,36 +2445,36 @@
         <v>24</v>
       </c>
       <c r="Q36">
-        <v>20000</v>
+        <v>40000</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C37" t="b">
         <v>0</v>
       </c>
       <c r="E37">
-        <v>14.99</v>
+        <v>29.99</v>
       </c>
       <c r="F37">
-        <v>19000</v>
+        <v>39000</v>
       </c>
       <c r="G37" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="H37">
-        <v>194</v>
+        <v>970</v>
       </c>
       <c r="I37" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="J37" t="s">
-        <v>23</v>
+        <v>131</v>
       </c>
       <c r="K37">
-        <v>300</v>
+        <v>1500</v>
       </c>
       <c r="L37" t="s">
         <v>22</v>
@@ -2503,7 +2483,7 @@
         <v>23</v>
       </c>
       <c r="N37">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="O37" t="s">
         <v>22</v>
@@ -2512,36 +2492,36 @@
         <v>24</v>
       </c>
       <c r="Q37">
-        <v>40000</v>
+        <v>60000</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C38" t="b">
         <v>0</v>
       </c>
       <c r="E38">
-        <v>29.99</v>
+        <v>49.99</v>
       </c>
       <c r="F38">
-        <v>39000</v>
+        <v>69000</v>
       </c>
       <c r="G38" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="H38">
-        <v>970</v>
+        <v>874</v>
       </c>
       <c r="I38" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="J38" t="s">
-        <v>131</v>
+        <v>23</v>
       </c>
       <c r="K38">
-        <v>1500</v>
+        <v>100</v>
       </c>
       <c r="L38" t="s">
         <v>22</v>
@@ -2550,7 +2530,7 @@
         <v>23</v>
       </c>
       <c r="N38">
-        <v>500</v>
+        <v>50</v>
       </c>
       <c r="O38" t="s">
         <v>22</v>
@@ -2559,36 +2539,36 @@
         <v>24</v>
       </c>
       <c r="Q38">
-        <v>60000</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
+        <v>124</v>
+      </c>
+      <c r="C39" t="b">
+        <v>0</v>
+      </c>
+      <c r="E39">
+        <v>9.99</v>
+      </c>
+      <c r="F39">
+        <v>13000</v>
+      </c>
+      <c r="G39" t="s">
+        <v>124</v>
+      </c>
+      <c r="H39">
         <v>127</v>
       </c>
-      <c r="C39" t="b">
-        <v>0</v>
-      </c>
-      <c r="E39">
-        <v>49.99</v>
-      </c>
-      <c r="F39">
-        <v>69000</v>
-      </c>
-      <c r="G39" t="s">
-        <v>127</v>
-      </c>
-      <c r="H39">
-        <v>874</v>
-      </c>
       <c r="I39" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="J39" t="s">
-        <v>23</v>
+        <v>131</v>
       </c>
       <c r="K39">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="L39" t="s">
         <v>22</v>
@@ -2597,7 +2577,7 @@
         <v>23</v>
       </c>
       <c r="N39">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="O39" t="s">
         <v>22</v>
@@ -2606,27 +2586,27 @@
         <v>24</v>
       </c>
       <c r="Q39">
-        <v>10000</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>55</v>
+        <v>125</v>
       </c>
       <c r="C40" t="b">
         <v>0</v>
       </c>
       <c r="E40">
-        <v>0.99</v>
+        <v>14.99</v>
       </c>
       <c r="F40">
-        <v>1200</v>
+        <v>19000</v>
       </c>
       <c r="G40" t="s">
-        <v>55</v>
+        <v>125</v>
       </c>
       <c r="H40">
-        <v>444</v>
+        <v>194</v>
       </c>
       <c r="I40" t="s">
         <v>22</v>
@@ -2635,56 +2615,92 @@
         <v>23</v>
       </c>
       <c r="K40">
-        <v>30</v>
+        <v>300</v>
+      </c>
+      <c r="L40" t="s">
+        <v>22</v>
+      </c>
+      <c r="M40" t="s">
+        <v>23</v>
+      </c>
+      <c r="N40">
+        <v>100</v>
+      </c>
+      <c r="O40" t="s">
+        <v>22</v>
+      </c>
+      <c r="P40" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q40">
+        <v>40000</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>56</v>
+        <v>126</v>
       </c>
       <c r="C41" t="b">
         <v>0</v>
       </c>
       <c r="E41">
-        <v>4.99</v>
+        <v>29.99</v>
       </c>
       <c r="F41">
-        <v>5900</v>
+        <v>39000</v>
       </c>
       <c r="G41" t="s">
-        <v>56</v>
+        <v>126</v>
       </c>
       <c r="H41">
-        <v>348</v>
+        <v>970</v>
       </c>
       <c r="I41" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="J41" t="s">
-        <v>23</v>
+        <v>131</v>
       </c>
       <c r="K41">
-        <v>90</v>
+        <v>1500</v>
+      </c>
+      <c r="L41" t="s">
+        <v>22</v>
+      </c>
+      <c r="M41" t="s">
+        <v>23</v>
+      </c>
+      <c r="N41">
+        <v>500</v>
+      </c>
+      <c r="O41" t="s">
+        <v>22</v>
+      </c>
+      <c r="P41" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q41">
+        <v>60000</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>57</v>
+        <v>127</v>
       </c>
       <c r="C42" t="b">
         <v>0</v>
       </c>
       <c r="E42">
-        <v>9.99</v>
+        <v>49.99</v>
       </c>
       <c r="F42">
-        <v>12000</v>
+        <v>69000</v>
       </c>
       <c r="G42" t="s">
-        <v>57</v>
+        <v>127</v>
       </c>
       <c r="H42">
-        <v>653</v>
+        <v>874</v>
       </c>
       <c r="I42" t="s">
         <v>22</v>
@@ -2693,27 +2709,45 @@
         <v>23</v>
       </c>
       <c r="K42">
-        <v>260</v>
+        <v>100</v>
+      </c>
+      <c r="L42" t="s">
+        <v>22</v>
+      </c>
+      <c r="M42" t="s">
+        <v>23</v>
+      </c>
+      <c r="N42">
+        <v>50</v>
+      </c>
+      <c r="O42" t="s">
+        <v>22</v>
+      </c>
+      <c r="P42" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q42">
+        <v>10000</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C43" t="b">
         <v>0</v>
       </c>
       <c r="E43">
-        <v>19.989999999999998</v>
+        <v>0.99</v>
       </c>
       <c r="F43">
-        <v>25000</v>
+        <v>1200</v>
       </c>
       <c r="G43" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="H43">
-        <v>487</v>
+        <v>444</v>
       </c>
       <c r="I43" t="s">
         <v>22</v>
@@ -2722,27 +2756,27 @@
         <v>23</v>
       </c>
       <c r="K43">
-        <v>525</v>
+        <v>30</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C44" t="b">
         <v>0</v>
       </c>
       <c r="E44">
-        <v>49.99</v>
+        <v>4.99</v>
       </c>
       <c r="F44">
-        <v>65000</v>
+        <v>5900</v>
       </c>
       <c r="G44" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="H44">
-        <v>168</v>
+        <v>348</v>
       </c>
       <c r="I44" t="s">
         <v>22</v>
@@ -2751,27 +2785,27 @@
         <v>23</v>
       </c>
       <c r="K44">
-        <v>1600</v>
+        <v>90</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C45" t="b">
         <v>0</v>
       </c>
       <c r="E45">
-        <v>99.99</v>
+        <v>9.99</v>
       </c>
       <c r="F45">
-        <v>119000</v>
+        <v>12000</v>
       </c>
       <c r="G45" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="H45">
-        <v>947</v>
+        <v>653</v>
       </c>
       <c r="I45" t="s">
         <v>22</v>
@@ -2780,27 +2814,27 @@
         <v>23</v>
       </c>
       <c r="K45">
-        <v>3600</v>
+        <v>260</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C46" t="b">
         <v>0</v>
       </c>
       <c r="E46">
-        <v>0.99</v>
+        <v>19.989999999999998</v>
       </c>
       <c r="F46">
-        <v>1200</v>
+        <v>25000</v>
       </c>
       <c r="G46" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="H46">
-        <v>224</v>
+        <v>487</v>
       </c>
       <c r="I46" t="s">
         <v>22</v>
@@ -2809,27 +2843,27 @@
         <v>23</v>
       </c>
       <c r="K46">
-        <v>90</v>
+        <v>525</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C47" t="b">
         <v>0</v>
       </c>
       <c r="E47">
-        <v>4.99</v>
+        <v>49.99</v>
       </c>
       <c r="F47">
-        <v>5900</v>
+        <v>65000</v>
       </c>
       <c r="G47" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="H47">
-        <v>392</v>
+        <v>168</v>
       </c>
       <c r="I47" t="s">
         <v>22</v>
@@ -2838,27 +2872,27 @@
         <v>23</v>
       </c>
       <c r="K47">
-        <v>270</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C48" t="b">
         <v>0</v>
       </c>
       <c r="E48">
-        <v>9.99</v>
+        <v>99.99</v>
       </c>
       <c r="F48">
-        <v>12000</v>
+        <v>119000</v>
       </c>
       <c r="G48" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="H48">
-        <v>759</v>
+        <v>947</v>
       </c>
       <c r="I48" t="s">
         <v>22</v>
@@ -2867,27 +2901,27 @@
         <v>23</v>
       </c>
       <c r="K48">
-        <v>780</v>
+        <v>3600</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C49" t="b">
         <v>0</v>
       </c>
       <c r="E49">
-        <v>19.989999999999998</v>
+        <v>0.99</v>
       </c>
       <c r="F49">
-        <v>25000</v>
+        <v>1200</v>
       </c>
       <c r="G49" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="H49">
-        <v>837</v>
+        <v>224</v>
       </c>
       <c r="I49" t="s">
         <v>22</v>
@@ -2896,27 +2930,27 @@
         <v>23</v>
       </c>
       <c r="K49">
-        <v>1575</v>
+        <v>90</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C50" t="b">
         <v>0</v>
       </c>
       <c r="E50">
-        <v>49.99</v>
+        <v>4.99</v>
       </c>
       <c r="F50">
-        <v>65000</v>
+        <v>5900</v>
       </c>
       <c r="G50" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="H50">
-        <v>820</v>
+        <v>392</v>
       </c>
       <c r="I50" t="s">
         <v>22</v>
@@ -2925,27 +2959,27 @@
         <v>23</v>
       </c>
       <c r="K50">
-        <v>4800</v>
+        <v>270</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C51" t="b">
         <v>0</v>
       </c>
       <c r="E51">
-        <v>99.99</v>
+        <v>9.99</v>
       </c>
       <c r="F51">
-        <v>119000</v>
+        <v>12000</v>
       </c>
       <c r="G51" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="H51">
-        <v>493</v>
+        <v>759</v>
       </c>
       <c r="I51" t="s">
         <v>22</v>
@@ -2954,114 +2988,114 @@
         <v>23</v>
       </c>
       <c r="K51">
-        <v>10800</v>
+        <v>780</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C52" t="b">
         <v>0</v>
       </c>
       <c r="E52">
-        <v>0.99</v>
+        <v>19.989999999999998</v>
       </c>
       <c r="F52">
-        <v>1200</v>
+        <v>25000</v>
       </c>
       <c r="G52" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="H52">
-        <v>354</v>
+        <v>837</v>
       </c>
       <c r="I52" t="s">
         <v>22</v>
       </c>
       <c r="J52" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K52">
-        <v>40000</v>
+        <v>1575</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C53" t="b">
         <v>0</v>
       </c>
       <c r="E53">
-        <v>4.99</v>
+        <v>49.99</v>
       </c>
       <c r="F53">
-        <v>5900</v>
+        <v>65000</v>
       </c>
       <c r="G53" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="H53">
-        <v>715</v>
+        <v>820</v>
       </c>
       <c r="I53" t="s">
         <v>22</v>
       </c>
       <c r="J53" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K53">
-        <v>105000</v>
+        <v>4800</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C54" t="b">
         <v>0</v>
       </c>
       <c r="E54">
-        <v>9.99</v>
+        <v>99.99</v>
       </c>
       <c r="F54">
-        <v>12000</v>
+        <v>119000</v>
       </c>
       <c r="G54" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="H54">
-        <v>891</v>
+        <v>493</v>
       </c>
       <c r="I54" t="s">
         <v>22</v>
       </c>
       <c r="J54" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K54">
-        <v>250000</v>
+        <v>10800</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C55" t="b">
         <v>0</v>
       </c>
       <c r="E55">
-        <v>19.989999999999998</v>
+        <v>0.99</v>
       </c>
       <c r="F55">
-        <v>25000</v>
+        <v>1200</v>
       </c>
       <c r="G55" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="H55">
-        <v>185</v>
+        <v>354</v>
       </c>
       <c r="I55" t="s">
         <v>22</v>
@@ -3070,27 +3104,27 @@
         <v>24</v>
       </c>
       <c r="K55">
-        <v>600000</v>
+        <v>40000</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C56" t="b">
         <v>0</v>
       </c>
       <c r="E56">
-        <v>49.99</v>
+        <v>4.99</v>
       </c>
       <c r="F56">
-        <v>65000</v>
+        <v>5900</v>
       </c>
       <c r="G56" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="H56">
-        <v>737</v>
+        <v>715</v>
       </c>
       <c r="I56" t="s">
         <v>22</v>
@@ -3099,27 +3133,27 @@
         <v>24</v>
       </c>
       <c r="K56">
-        <v>1900000</v>
+        <v>105000</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C57" t="b">
         <v>0</v>
       </c>
       <c r="E57">
-        <v>99.99</v>
+        <v>9.99</v>
       </c>
       <c r="F57">
-        <v>119000</v>
+        <v>12000</v>
       </c>
       <c r="G57" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="H57">
-        <v>574</v>
+        <v>891</v>
       </c>
       <c r="I57" t="s">
         <v>22</v>
@@ -3128,27 +3162,27 @@
         <v>24</v>
       </c>
       <c r="K57">
-        <v>4500000</v>
+        <v>250000</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C58" t="b">
         <v>0</v>
       </c>
       <c r="E58">
-        <v>0.99</v>
+        <v>19.989999999999998</v>
       </c>
       <c r="F58">
-        <v>1200</v>
+        <v>25000</v>
       </c>
       <c r="G58" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="H58">
-        <v>122</v>
+        <v>185</v>
       </c>
       <c r="I58" t="s">
         <v>22</v>
@@ -3157,27 +3191,27 @@
         <v>24</v>
       </c>
       <c r="K58">
-        <v>120000</v>
+        <v>600000</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C59" t="b">
         <v>0</v>
       </c>
       <c r="E59">
-        <v>4.99</v>
+        <v>49.99</v>
       </c>
       <c r="F59">
-        <v>5900</v>
+        <v>65000</v>
       </c>
       <c r="G59" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="H59">
-        <v>926</v>
+        <v>737</v>
       </c>
       <c r="I59" t="s">
         <v>22</v>
@@ -3186,27 +3220,27 @@
         <v>24</v>
       </c>
       <c r="K59">
-        <v>315000</v>
+        <v>1900000</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C60" t="b">
         <v>0</v>
       </c>
       <c r="E60">
-        <v>9.99</v>
+        <v>99.99</v>
       </c>
       <c r="F60">
-        <v>12000</v>
+        <v>119000</v>
       </c>
       <c r="G60" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="H60">
-        <v>943</v>
+        <v>574</v>
       </c>
       <c r="I60" t="s">
         <v>22</v>
@@ -3215,27 +3249,27 @@
         <v>24</v>
       </c>
       <c r="K60">
-        <v>750000</v>
+        <v>4500000</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C61" t="b">
         <v>0</v>
       </c>
       <c r="E61">
-        <v>19.989999999999998</v>
+        <v>0.99</v>
       </c>
       <c r="F61">
-        <v>25000</v>
+        <v>1200</v>
       </c>
       <c r="G61" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="H61">
-        <v>106</v>
+        <v>122</v>
       </c>
       <c r="I61" t="s">
         <v>22</v>
@@ -3244,27 +3278,27 @@
         <v>24</v>
       </c>
       <c r="K61">
-        <v>1800000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C62" t="b">
         <v>0</v>
       </c>
       <c r="E62">
-        <v>49.99</v>
+        <v>4.99</v>
       </c>
       <c r="F62">
-        <v>65000</v>
+        <v>5900</v>
       </c>
       <c r="G62" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="H62">
-        <v>402</v>
+        <v>926</v>
       </c>
       <c r="I62" t="s">
         <v>22</v>
@@ -3273,27 +3307,27 @@
         <v>24</v>
       </c>
       <c r="K62">
-        <v>5700000</v>
+        <v>315000</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C63" t="b">
         <v>0</v>
       </c>
       <c r="E63">
-        <v>99.99</v>
+        <v>9.99</v>
       </c>
       <c r="F63">
-        <v>119000</v>
+        <v>12000</v>
       </c>
       <c r="G63" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="H63">
-        <v>905</v>
+        <v>943</v>
       </c>
       <c r="I63" t="s">
         <v>22</v>
@@ -3302,114 +3336,114 @@
         <v>24</v>
       </c>
       <c r="K63">
-        <v>13500000</v>
+        <v>750000</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C64" t="b">
         <v>0</v>
       </c>
       <c r="E64">
-        <v>9.99</v>
+        <v>19.989999999999998</v>
       </c>
       <c r="F64">
-        <v>13000</v>
+        <v>25000</v>
       </c>
       <c r="G64" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="H64">
-        <v>375</v>
+        <v>106</v>
       </c>
       <c r="I64" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="J64" t="s">
-        <v>86</v>
+        <v>24</v>
       </c>
       <c r="K64">
-        <v>1</v>
+        <v>1800000</v>
       </c>
     </row>
     <row r="65" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C65" t="b">
         <v>0</v>
       </c>
       <c r="E65">
-        <v>19.989999999999998</v>
+        <v>49.99</v>
       </c>
       <c r="F65">
-        <v>19000</v>
+        <v>65000</v>
       </c>
       <c r="G65" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="H65">
-        <v>368</v>
+        <v>402</v>
       </c>
       <c r="I65" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="J65" t="s">
-        <v>86</v>
+        <v>24</v>
       </c>
       <c r="K65">
-        <v>1</v>
+        <v>5700000</v>
       </c>
     </row>
     <row r="66" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C66" t="b">
         <v>0</v>
       </c>
       <c r="E66">
-        <v>29.99</v>
+        <v>99.99</v>
       </c>
       <c r="F66">
-        <v>39000</v>
+        <v>119000</v>
       </c>
       <c r="G66" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="H66">
-        <v>481</v>
+        <v>905</v>
       </c>
       <c r="I66" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="J66" t="s">
-        <v>86</v>
+        <v>24</v>
       </c>
       <c r="K66">
-        <v>1</v>
+        <v>13500000</v>
       </c>
     </row>
     <row r="67" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C67" t="b">
         <v>0</v>
       </c>
       <c r="E67">
-        <v>39.99</v>
+        <v>9.99</v>
       </c>
       <c r="F67">
-        <v>48000</v>
+        <v>13000</v>
       </c>
       <c r="G67" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="H67">
-        <v>420</v>
+        <v>375</v>
       </c>
       <c r="I67" t="s">
         <v>25</v>
@@ -3423,22 +3457,22 @@
     </row>
     <row r="68" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C68" t="b">
         <v>0</v>
       </c>
       <c r="E68">
-        <v>49.99</v>
+        <v>19.989999999999998</v>
       </c>
       <c r="F68">
-        <v>65000</v>
+        <v>19000</v>
       </c>
       <c r="G68" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="H68">
-        <v>362</v>
+        <v>368</v>
       </c>
       <c r="I68" t="s">
         <v>25</v>
@@ -3452,242 +3486,152 @@
     </row>
     <row r="69" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C69" t="b">
         <v>0</v>
       </c>
       <c r="E69">
-        <v>0.99</v>
+        <v>29.99</v>
       </c>
       <c r="F69">
-        <v>1200</v>
+        <v>39000</v>
       </c>
       <c r="G69" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="H69">
-        <v>654</v>
+        <v>481</v>
       </c>
       <c r="I69" t="s">
         <v>25</v>
       </c>
       <c r="J69" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="K69">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C70" t="b">
         <v>0</v>
       </c>
       <c r="E70">
-        <v>4.99</v>
+        <v>39.99</v>
       </c>
       <c r="F70">
-        <v>5900</v>
+        <v>48000</v>
       </c>
       <c r="G70" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="H70">
-        <v>715</v>
+        <v>420</v>
       </c>
       <c r="I70" t="s">
         <v>25</v>
       </c>
       <c r="J70" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="K70">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="C71" t="b">
         <v>0</v>
       </c>
-      <c r="D71">
-        <v>4</v>
-      </c>
       <c r="E71">
-        <v>0.99</v>
+        <v>49.99</v>
       </c>
       <c r="F71">
-        <v>1200</v>
+        <v>65000</v>
       </c>
       <c r="G71" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="H71">
-        <v>668</v>
+        <v>362</v>
       </c>
       <c r="I71" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="J71" t="s">
-        <v>23</v>
+        <v>86</v>
       </c>
       <c r="K71">
-        <v>30</v>
-      </c>
-      <c r="L71" t="s">
-        <v>22</v>
-      </c>
-      <c r="M71" t="s">
-        <v>24</v>
-      </c>
-      <c r="N71">
-        <v>25000</v>
-      </c>
-      <c r="O71" t="s">
-        <v>22</v>
-      </c>
-      <c r="P71" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q71">
-        <v>100</v>
-      </c>
-      <c r="R71" t="s">
-        <v>22</v>
-      </c>
-      <c r="S71" t="s">
-        <v>24</v>
-      </c>
-      <c r="T71">
-        <v>35000</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="C72" t="b">
         <v>0</v>
       </c>
-      <c r="D72">
-        <v>4</v>
-      </c>
       <c r="E72">
-        <v>4.99</v>
+        <v>0.99</v>
       </c>
       <c r="F72">
-        <v>5900</v>
+        <v>1200</v>
       </c>
       <c r="G72" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="H72">
-        <v>188</v>
+        <v>654</v>
       </c>
       <c r="I72" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="J72" t="s">
-        <v>23</v>
+        <v>90</v>
       </c>
       <c r="K72">
-        <v>60</v>
-      </c>
-      <c r="L72" t="s">
-        <v>22</v>
-      </c>
-      <c r="M72" t="s">
-        <v>24</v>
-      </c>
-      <c r="N72">
-        <v>15000</v>
-      </c>
-      <c r="O72" t="s">
-        <v>22</v>
-      </c>
-      <c r="P72" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q72">
-        <v>120</v>
-      </c>
-      <c r="R72" t="s">
-        <v>22</v>
-      </c>
-      <c r="S72" t="s">
-        <v>24</v>
-      </c>
-      <c r="T72">
-        <v>25000</v>
+        <v>5</v>
       </c>
     </row>
     <row r="73" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="C73" t="b">
         <v>0</v>
       </c>
-      <c r="D73">
-        <v>4</v>
-      </c>
       <c r="E73">
-        <v>9.99</v>
+        <v>4.99</v>
       </c>
       <c r="F73">
-        <v>13000</v>
+        <v>5900</v>
       </c>
       <c r="G73" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="H73">
-        <v>284</v>
+        <v>715</v>
       </c>
       <c r="I73" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="J73" t="s">
-        <v>23</v>
+        <v>91</v>
       </c>
       <c r="K73">
-        <v>90</v>
-      </c>
-      <c r="L73" t="s">
-        <v>22</v>
-      </c>
-      <c r="M73" t="s">
-        <v>24</v>
-      </c>
-      <c r="N73">
-        <v>30000</v>
-      </c>
-      <c r="O73" t="s">
-        <v>22</v>
-      </c>
-      <c r="P73" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q73">
-        <v>150</v>
-      </c>
-      <c r="R73" t="s">
-        <v>22</v>
-      </c>
-      <c r="S73" t="s">
-        <v>23</v>
-      </c>
-      <c r="T73">
-        <v>300</v>
+        <v>5</v>
       </c>
     </row>
     <row r="74" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C74" t="b">
         <v>0</v>
@@ -3696,16 +3640,16 @@
         <v>4</v>
       </c>
       <c r="E74">
-        <v>9.99</v>
+        <v>0.99</v>
       </c>
       <c r="F74">
-        <v>13000</v>
+        <v>1200</v>
       </c>
       <c r="G74" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="H74">
-        <v>953</v>
+        <v>668</v>
       </c>
       <c r="I74" t="s">
         <v>22</v>
@@ -3714,7 +3658,7 @@
         <v>23</v>
       </c>
       <c r="K74">
-        <v>120</v>
+        <v>30</v>
       </c>
       <c r="L74" t="s">
         <v>22</v>
@@ -3723,7 +3667,7 @@
         <v>24</v>
       </c>
       <c r="N74">
-        <v>50000</v>
+        <v>25000</v>
       </c>
       <c r="O74" t="s">
         <v>22</v>
@@ -3732,7 +3676,7 @@
         <v>23</v>
       </c>
       <c r="Q74">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="R74" t="s">
         <v>22</v>
@@ -3741,12 +3685,12 @@
         <v>24</v>
       </c>
       <c r="T74">
-        <v>25000</v>
+        <v>35000</v>
       </c>
     </row>
     <row r="75" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C75" t="b">
         <v>0</v>
@@ -3755,16 +3699,16 @@
         <v>4</v>
       </c>
       <c r="E75">
-        <v>9.99</v>
+        <v>4.99</v>
       </c>
       <c r="F75">
-        <v>13000</v>
+        <v>5900</v>
       </c>
       <c r="G75" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="H75">
-        <v>660</v>
+        <v>188</v>
       </c>
       <c r="I75" t="s">
         <v>22</v>
@@ -3773,7 +3717,7 @@
         <v>23</v>
       </c>
       <c r="K75">
-        <v>150</v>
+        <v>60</v>
       </c>
       <c r="L75" t="s">
         <v>22</v>
@@ -3782,7 +3726,7 @@
         <v>24</v>
       </c>
       <c r="N75">
-        <v>90000</v>
+        <v>15000</v>
       </c>
       <c r="O75" t="s">
         <v>22</v>
@@ -3791,112 +3735,157 @@
         <v>23</v>
       </c>
       <c r="Q75">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="R75" t="s">
         <v>22</v>
       </c>
       <c r="S75" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="T75">
-        <v>300</v>
+        <v>25000</v>
       </c>
     </row>
     <row r="76" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>128</v>
+        <v>94</v>
       </c>
       <c r="C76" t="b">
         <v>0</v>
       </c>
+      <c r="D76">
+        <v>4</v>
+      </c>
       <c r="E76">
-        <v>4.99</v>
+        <v>9.99</v>
       </c>
       <c r="F76">
-        <v>5900</v>
+        <v>13000</v>
       </c>
       <c r="G76" t="s">
-        <v>128</v>
+        <v>94</v>
       </c>
       <c r="H76">
-        <v>456</v>
+        <v>284</v>
       </c>
       <c r="I76" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="J76" t="s">
-        <v>97</v>
+        <v>23</v>
       </c>
       <c r="K76">
-        <v>15</v>
+        <v>90</v>
       </c>
       <c r="L76" t="s">
         <v>22</v>
       </c>
       <c r="M76" t="s">
-        <v>98</v>
+        <v>24</v>
       </c>
       <c r="N76">
-        <v>500</v>
+        <v>30000</v>
+      </c>
+      <c r="O76" t="s">
+        <v>22</v>
+      </c>
+      <c r="P76" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q76">
+        <v>150</v>
+      </c>
+      <c r="R76" t="s">
+        <v>22</v>
+      </c>
+      <c r="S76" t="s">
+        <v>23</v>
+      </c>
+      <c r="T76">
+        <v>300</v>
       </c>
     </row>
     <row r="77" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>129</v>
+        <v>95</v>
       </c>
       <c r="C77" t="b">
         <v>0</v>
       </c>
+      <c r="D77">
+        <v>4</v>
+      </c>
       <c r="E77">
-        <v>4.99</v>
+        <v>9.99</v>
       </c>
       <c r="F77">
-        <v>5900</v>
+        <v>13000</v>
       </c>
       <c r="G77" t="s">
-        <v>129</v>
+        <v>95</v>
       </c>
       <c r="H77">
-        <v>664</v>
+        <v>953</v>
       </c>
       <c r="I77" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="J77" t="s">
-        <v>99</v>
+        <v>23</v>
       </c>
       <c r="K77">
-        <v>1</v>
+        <v>120</v>
       </c>
       <c r="L77" t="s">
         <v>22</v>
       </c>
       <c r="M77" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="N77">
-        <v>750</v>
+        <v>50000</v>
+      </c>
+      <c r="O77" t="s">
+        <v>22</v>
+      </c>
+      <c r="P77" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q77">
+        <v>120</v>
+      </c>
+      <c r="R77" t="s">
+        <v>22</v>
+      </c>
+      <c r="S77" t="s">
+        <v>24</v>
+      </c>
+      <c r="T77">
+        <v>25000</v>
       </c>
     </row>
     <row r="78" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C78" t="b">
         <v>0</v>
       </c>
+      <c r="D78">
+        <v>4</v>
+      </c>
       <c r="E78">
-        <v>0.99</v>
+        <v>9.99</v>
       </c>
       <c r="F78">
-        <v>1200</v>
+        <v>13000</v>
       </c>
       <c r="G78" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="H78">
-        <v>126</v>
+        <v>660</v>
       </c>
       <c r="I78" t="s">
         <v>22</v>
@@ -3905,7 +3894,7 @@
         <v>23</v>
       </c>
       <c r="K78">
-        <v>30</v>
+        <v>150</v>
       </c>
       <c r="L78" t="s">
         <v>22</v>
@@ -3914,7 +3903,7 @@
         <v>24</v>
       </c>
       <c r="N78">
-        <v>25000</v>
+        <v>90000</v>
       </c>
       <c r="O78" t="s">
         <v>22</v>
@@ -3923,130 +3912,112 @@
         <v>23</v>
       </c>
       <c r="Q78">
-        <v>100</v>
+        <v>150</v>
+      </c>
+      <c r="R78" t="s">
+        <v>22</v>
+      </c>
+      <c r="S78" t="s">
+        <v>23</v>
+      </c>
+      <c r="T78">
+        <v>300</v>
       </c>
     </row>
     <row r="79" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>101</v>
+        <v>128</v>
       </c>
       <c r="C79" t="b">
         <v>0</v>
       </c>
       <c r="E79">
-        <v>0.99</v>
+        <v>4.99</v>
       </c>
       <c r="F79">
-        <v>1200</v>
+        <v>5900</v>
       </c>
       <c r="G79" t="s">
-        <v>101</v>
+        <v>128</v>
       </c>
       <c r="H79">
-        <v>484</v>
+        <v>456</v>
       </c>
       <c r="I79" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="J79" t="s">
-        <v>23</v>
+        <v>97</v>
       </c>
       <c r="K79">
-        <v>60</v>
+        <v>15</v>
       </c>
       <c r="L79" t="s">
         <v>22</v>
       </c>
       <c r="M79" t="s">
-        <v>24</v>
+        <v>98</v>
       </c>
       <c r="N79">
-        <v>15000</v>
-      </c>
-      <c r="O79" t="s">
-        <v>22</v>
-      </c>
-      <c r="P79" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q79">
-        <v>120</v>
+        <v>500</v>
       </c>
     </row>
     <row r="80" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>102</v>
+        <v>129</v>
       </c>
       <c r="C80" t="b">
         <v>0</v>
       </c>
       <c r="E80">
-        <v>0.99</v>
+        <v>4.99</v>
       </c>
       <c r="F80">
-        <v>1200</v>
+        <v>5900</v>
       </c>
       <c r="G80" t="s">
-        <v>102</v>
+        <v>129</v>
       </c>
       <c r="H80">
-        <v>584</v>
+        <v>664</v>
       </c>
       <c r="I80" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="J80" t="s">
-        <v>23</v>
+        <v>99</v>
       </c>
       <c r="K80">
-        <v>90</v>
+        <v>1</v>
       </c>
       <c r="L80" t="s">
         <v>22</v>
       </c>
       <c r="M80" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N80">
-        <v>30000</v>
-      </c>
-      <c r="O80" t="s">
-        <v>22</v>
-      </c>
-      <c r="P80" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q80">
-        <v>150</v>
-      </c>
-      <c r="R80" t="s">
-        <v>22</v>
-      </c>
-      <c r="S80" t="s">
-        <v>23</v>
-      </c>
-      <c r="T80">
-        <v>300</v>
+        <v>750</v>
       </c>
     </row>
     <row r="81" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C81" t="b">
         <v>0</v>
       </c>
       <c r="E81">
-        <v>4.99</v>
+        <v>0.99</v>
       </c>
       <c r="F81">
-        <v>5900</v>
+        <v>1200</v>
       </c>
       <c r="G81" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="H81">
-        <v>456</v>
+        <v>126</v>
       </c>
       <c r="I81" t="s">
         <v>22</v>
@@ -4078,22 +4049,22 @@
     </row>
     <row r="82" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C82" t="b">
         <v>0</v>
       </c>
       <c r="E82">
-        <v>4.99</v>
+        <v>0.99</v>
       </c>
       <c r="F82">
-        <v>5900</v>
+        <v>1200</v>
       </c>
       <c r="G82" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="H82">
-        <v>574</v>
+        <v>484</v>
       </c>
       <c r="I82" t="s">
         <v>22</v>
@@ -4125,22 +4096,22 @@
     </row>
     <row r="83" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C83" t="b">
         <v>0</v>
       </c>
       <c r="E83">
-        <v>9.99</v>
+        <v>0.99</v>
       </c>
       <c r="F83">
-        <v>13000</v>
+        <v>1200</v>
       </c>
       <c r="G83" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="H83">
-        <v>117</v>
+        <v>584</v>
       </c>
       <c r="I83" t="s">
         <v>22</v>
@@ -4181,22 +4152,22 @@
     </row>
     <row r="84" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C84" t="b">
         <v>0</v>
       </c>
       <c r="E84">
-        <v>9.99</v>
+        <v>4.99</v>
       </c>
       <c r="F84">
-        <v>13000</v>
+        <v>5900</v>
       </c>
       <c r="G84" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="H84">
-        <v>206</v>
+        <v>456</v>
       </c>
       <c r="I84" t="s">
         <v>22</v>
@@ -4228,22 +4199,22 @@
     </row>
     <row r="85" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C85" t="b">
         <v>0</v>
       </c>
       <c r="E85">
-        <v>19.989999999999998</v>
+        <v>4.99</v>
       </c>
       <c r="F85">
-        <v>25000</v>
+        <v>5900</v>
       </c>
       <c r="G85" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="H85">
-        <v>464</v>
+        <v>574</v>
       </c>
       <c r="I85" t="s">
         <v>22</v>
@@ -4252,7 +4223,7 @@
         <v>23</v>
       </c>
       <c r="K85">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="L85" t="s">
         <v>22</v>
@@ -4261,7 +4232,7 @@
         <v>24</v>
       </c>
       <c r="N85">
-        <v>25000</v>
+        <v>15000</v>
       </c>
       <c r="O85" t="s">
         <v>22</v>
@@ -4270,27 +4241,27 @@
         <v>23</v>
       </c>
       <c r="Q85">
-        <v>100</v>
+        <v>120</v>
       </c>
     </row>
     <row r="86" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C86" t="b">
         <v>0</v>
       </c>
       <c r="E86">
-        <v>39.99</v>
+        <v>9.99</v>
       </c>
       <c r="F86">
-        <v>48000</v>
+        <v>13000</v>
       </c>
       <c r="G86" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="H86">
-        <v>836</v>
+        <v>117</v>
       </c>
       <c r="I86" t="s">
         <v>22</v>
@@ -4299,7 +4270,7 @@
         <v>23</v>
       </c>
       <c r="K86">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="L86" t="s">
         <v>22</v>
@@ -4308,7 +4279,7 @@
         <v>24</v>
       </c>
       <c r="N86">
-        <v>15000</v>
+        <v>30000</v>
       </c>
       <c r="O86" t="s">
         <v>22</v>
@@ -4317,27 +4288,36 @@
         <v>23</v>
       </c>
       <c r="Q86">
-        <v>120</v>
+        <v>150</v>
+      </c>
+      <c r="R86" t="s">
+        <v>22</v>
+      </c>
+      <c r="S86" t="s">
+        <v>23</v>
+      </c>
+      <c r="T86">
+        <v>300</v>
       </c>
     </row>
     <row r="87" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C87" t="b">
         <v>0</v>
       </c>
       <c r="E87">
-        <v>49.99</v>
+        <v>9.99</v>
       </c>
       <c r="F87">
-        <v>69000</v>
+        <v>13000</v>
       </c>
       <c r="G87" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="H87">
-        <v>475</v>
+        <v>206</v>
       </c>
       <c r="I87" t="s">
         <v>22</v>
@@ -4346,7 +4326,7 @@
         <v>23</v>
       </c>
       <c r="K87">
-        <v>90</v>
+        <v>30</v>
       </c>
       <c r="L87" t="s">
         <v>22</v>
@@ -4355,7 +4335,7 @@
         <v>24</v>
       </c>
       <c r="N87">
-        <v>30000</v>
+        <v>25000</v>
       </c>
       <c r="O87" t="s">
         <v>22</v>
@@ -4364,71 +4344,212 @@
         <v>23</v>
       </c>
       <c r="Q87">
-        <v>150</v>
-      </c>
-      <c r="R87" t="s">
-        <v>22</v>
-      </c>
-      <c r="S87" t="s">
-        <v>23</v>
-      </c>
-      <c r="T87">
-        <v>300</v>
+        <v>100</v>
       </c>
     </row>
     <row r="88" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
+        <v>107</v>
+      </c>
+      <c r="C88" t="b">
+        <v>0</v>
+      </c>
+      <c r="E88">
+        <v>19.989999999999998</v>
+      </c>
+      <c r="F88">
+        <v>25000</v>
+      </c>
+      <c r="G88" t="s">
+        <v>107</v>
+      </c>
+      <c r="H88">
+        <v>464</v>
+      </c>
+      <c r="I88" t="s">
+        <v>22</v>
+      </c>
+      <c r="J88" t="s">
+        <v>23</v>
+      </c>
+      <c r="K88">
+        <v>30</v>
+      </c>
+      <c r="L88" t="s">
+        <v>22</v>
+      </c>
+      <c r="M88" t="s">
+        <v>24</v>
+      </c>
+      <c r="N88">
+        <v>25000</v>
+      </c>
+      <c r="O88" t="s">
+        <v>22</v>
+      </c>
+      <c r="P88" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q88">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="89" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>108</v>
+      </c>
+      <c r="C89" t="b">
+        <v>0</v>
+      </c>
+      <c r="E89">
+        <v>39.99</v>
+      </c>
+      <c r="F89">
+        <v>48000</v>
+      </c>
+      <c r="G89" t="s">
+        <v>108</v>
+      </c>
+      <c r="H89">
+        <v>836</v>
+      </c>
+      <c r="I89" t="s">
+        <v>22</v>
+      </c>
+      <c r="J89" t="s">
+        <v>23</v>
+      </c>
+      <c r="K89">
+        <v>60</v>
+      </c>
+      <c r="L89" t="s">
+        <v>22</v>
+      </c>
+      <c r="M89" t="s">
+        <v>24</v>
+      </c>
+      <c r="N89">
+        <v>15000</v>
+      </c>
+      <c r="O89" t="s">
+        <v>22</v>
+      </c>
+      <c r="P89" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q89">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="90" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>109</v>
+      </c>
+      <c r="C90" t="b">
+        <v>0</v>
+      </c>
+      <c r="E90">
+        <v>49.99</v>
+      </c>
+      <c r="F90">
+        <v>69000</v>
+      </c>
+      <c r="G90" t="s">
+        <v>109</v>
+      </c>
+      <c r="H90">
+        <v>475</v>
+      </c>
+      <c r="I90" t="s">
+        <v>22</v>
+      </c>
+      <c r="J90" t="s">
+        <v>23</v>
+      </c>
+      <c r="K90">
+        <v>90</v>
+      </c>
+      <c r="L90" t="s">
+        <v>22</v>
+      </c>
+      <c r="M90" t="s">
+        <v>24</v>
+      </c>
+      <c r="N90">
+        <v>30000</v>
+      </c>
+      <c r="O90" t="s">
+        <v>22</v>
+      </c>
+      <c r="P90" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q90">
+        <v>150</v>
+      </c>
+      <c r="R90" t="s">
+        <v>22</v>
+      </c>
+      <c r="S90" t="s">
+        <v>23</v>
+      </c>
+      <c r="T90">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="91" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
         <v>110</v>
       </c>
-      <c r="C88" t="b">
-        <v>0</v>
-      </c>
-      <c r="E88">
+      <c r="C91" t="b">
+        <v>0</v>
+      </c>
+      <c r="E91">
         <v>99.99</v>
       </c>
-      <c r="F88">
+      <c r="F91">
         <v>109000</v>
       </c>
-      <c r="G88" t="s">
+      <c r="G91" t="s">
         <v>110</v>
       </c>
-      <c r="H88">
+      <c r="H91">
         <v>360</v>
       </c>
-      <c r="I88" t="s">
+      <c r="I91" t="s">
         <v>25</v>
       </c>
-      <c r="J88" t="s">
+      <c r="J91" t="s">
         <v>111</v>
       </c>
-      <c r="K88">
+      <c r="K91">
         <v>1</v>
       </c>
-      <c r="L88" t="s">
-        <v>22</v>
-      </c>
-      <c r="M88" t="s">
-        <v>23</v>
-      </c>
-      <c r="N88">
+      <c r="L91" t="s">
+        <v>22</v>
+      </c>
+      <c r="M91" t="s">
+        <v>23</v>
+      </c>
+      <c r="N91">
         <v>1000</v>
       </c>
-      <c r="O88" t="s">
-        <v>22</v>
-      </c>
-      <c r="P88" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q88">
+      <c r="O91" t="s">
+        <v>22</v>
+      </c>
+      <c r="P91" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q91">
         <v>25000</v>
       </c>
-      <c r="R88" t="s">
-        <v>22</v>
-      </c>
-      <c r="S88" t="s">
+      <c r="R91" t="s">
+        <v>22</v>
+      </c>
+      <c r="S91" t="s">
         <v>98</v>
       </c>
-      <c r="T88">
+      <c r="T91">
         <v>750</v>
       </c>
     </row>

--- a/Excel/Shop.xlsx
+++ b/Excel/Shop.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D01EEC2A-97D3-4891-B1E1-638D9509E5CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C70A367-E477-4B4A-AC13-A268F735086A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{1A95D980-8F25-43B6-BA87-364295A77694}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="628" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="635" uniqueCount="141">
   <si>
     <t>productId|String</t>
   </si>
@@ -456,6 +456,12 @@
   </si>
   <si>
     <t>ev12_nuclearsale</t>
+  </si>
+  <si>
+    <t>firstpurchase</t>
+  </si>
+  <si>
+    <t>Spell_0003</t>
   </si>
 </sst>
 </file>
@@ -819,9 +825,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED115DDC-E095-4A60-B3EA-80FAE0A4BDBC}">
-  <dimension ref="A1:W91"/>
+  <dimension ref="A1:W92"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -925,7 +933,7 @@
         <v>112</v>
       </c>
       <c r="H2">
-        <v>434</v>
+        <v>744</v>
       </c>
       <c r="I2" t="s">
         <v>25</v>
@@ -954,7 +962,7 @@
         <v>113</v>
       </c>
       <c r="H3">
-        <v>256</v>
+        <v>493</v>
       </c>
       <c r="I3" t="s">
         <v>25</v>
@@ -983,7 +991,7 @@
         <v>115</v>
       </c>
       <c r="H4">
-        <v>806</v>
+        <v>234</v>
       </c>
       <c r="I4" t="s">
         <v>22</v>
@@ -1021,7 +1029,7 @@
         <v>136</v>
       </c>
       <c r="H5">
-        <v>256</v>
+        <v>125</v>
       </c>
       <c r="I5" t="s">
         <v>22</v>
@@ -1059,7 +1067,7 @@
         <v>35</v>
       </c>
       <c r="H6">
-        <v>876</v>
+        <v>348</v>
       </c>
       <c r="I6" t="s">
         <v>22</v>
@@ -1106,7 +1114,7 @@
         <v>36</v>
       </c>
       <c r="H7">
-        <v>973</v>
+        <v>431</v>
       </c>
       <c r="I7" t="s">
         <v>22</v>
@@ -1153,7 +1161,7 @@
         <v>37</v>
       </c>
       <c r="H8">
-        <v>180</v>
+        <v>969</v>
       </c>
       <c r="I8" t="s">
         <v>22</v>
@@ -1203,7 +1211,7 @@
         <v>1</v>
       </c>
       <c r="H9">
-        <v>721</v>
+        <v>987</v>
       </c>
       <c r="I9" t="s">
         <v>22</v>
@@ -1244,7 +1252,7 @@
         <v>1</v>
       </c>
       <c r="H10">
-        <v>884</v>
+        <v>261</v>
       </c>
       <c r="I10" t="s">
         <v>22</v>
@@ -1276,7 +1284,7 @@
         <v>40</v>
       </c>
       <c r="H11">
-        <v>217</v>
+        <v>390</v>
       </c>
       <c r="I11" t="s">
         <v>22</v>
@@ -1326,7 +1334,7 @@
         <v>1</v>
       </c>
       <c r="H12">
-        <v>394</v>
+        <v>997</v>
       </c>
       <c r="I12" t="s">
         <v>22</v>
@@ -1367,7 +1375,7 @@
         <v>32</v>
       </c>
       <c r="H13">
-        <v>548</v>
+        <v>384</v>
       </c>
       <c r="I13" t="s">
         <v>22</v>
@@ -1417,7 +1425,7 @@
         <v>1</v>
       </c>
       <c r="H14">
-        <v>537</v>
+        <v>619</v>
       </c>
       <c r="I14" t="s">
         <v>22</v>
@@ -1458,7 +1466,7 @@
         <v>1</v>
       </c>
       <c r="H15">
-        <v>314</v>
+        <v>150</v>
       </c>
       <c r="I15" t="s">
         <v>22</v>
@@ -1514,7 +1522,7 @@
         <v>137</v>
       </c>
       <c r="H16">
-        <v>715</v>
+        <v>682</v>
       </c>
       <c r="I16" t="s">
         <v>22</v>
@@ -1552,7 +1560,7 @@
         <v>138</v>
       </c>
       <c r="H17">
-        <v>872</v>
+        <v>601</v>
       </c>
       <c r="I17" t="s">
         <v>22</v>
@@ -1590,7 +1598,7 @@
         <v>114</v>
       </c>
       <c r="H18">
-        <v>741</v>
+        <v>797</v>
       </c>
       <c r="I18" t="s">
         <v>25</v>
@@ -1604,31 +1612,22 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>43</v>
+        <v>139</v>
       </c>
       <c r="C19" t="b">
-        <v>0</v>
-      </c>
-      <c r="E19">
-        <v>9.99</v>
-      </c>
-      <c r="F19">
-        <v>13000</v>
-      </c>
-      <c r="G19" t="s">
-        <v>43</v>
+        <v>1</v>
       </c>
       <c r="H19">
-        <v>513</v>
+        <v>658</v>
       </c>
       <c r="I19" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="J19" t="s">
-        <v>23</v>
+        <v>140</v>
       </c>
       <c r="K19">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="L19" t="s">
         <v>22</v>
@@ -1637,7 +1636,7 @@
         <v>23</v>
       </c>
       <c r="N19">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="O19" t="s">
         <v>22</v>
@@ -1646,36 +1645,36 @@
         <v>24</v>
       </c>
       <c r="Q19">
-        <v>10000</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C20" t="b">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>14.99</v>
+        <v>9.99</v>
       </c>
       <c r="F20">
-        <v>19000</v>
+        <v>13000</v>
       </c>
       <c r="G20" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H20">
-        <v>981</v>
+        <v>386</v>
       </c>
       <c r="I20" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="J20" t="s">
-        <v>130</v>
+        <v>23</v>
       </c>
       <c r="K20">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="L20" t="s">
         <v>22</v>
@@ -1684,7 +1683,7 @@
         <v>23</v>
       </c>
       <c r="N20">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="O20" t="s">
         <v>22</v>
@@ -1693,36 +1692,36 @@
         <v>24</v>
       </c>
       <c r="Q20">
-        <v>20000</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C21" t="b">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>29.99</v>
+        <v>14.99</v>
       </c>
       <c r="F21">
-        <v>39000</v>
+        <v>19000</v>
       </c>
       <c r="G21" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H21">
-        <v>112</v>
+        <v>582</v>
       </c>
       <c r="I21" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="J21" t="s">
-        <v>23</v>
+        <v>130</v>
       </c>
       <c r="K21">
-        <v>300</v>
+        <v>75</v>
       </c>
       <c r="L21" t="s">
         <v>22</v>
@@ -1731,7 +1730,7 @@
         <v>23</v>
       </c>
       <c r="N21">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="O21" t="s">
         <v>22</v>
@@ -1740,36 +1739,36 @@
         <v>24</v>
       </c>
       <c r="Q21">
-        <v>40000</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C22" t="b">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>49.99</v>
+        <v>29.99</v>
       </c>
       <c r="F22">
-        <v>69000</v>
+        <v>39000</v>
       </c>
       <c r="G22" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H22">
-        <v>152</v>
+        <v>538</v>
       </c>
       <c r="I22" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="J22" t="s">
-        <v>130</v>
+        <v>23</v>
       </c>
       <c r="K22">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="L22" t="s">
         <v>22</v>
@@ -1778,7 +1777,7 @@
         <v>23</v>
       </c>
       <c r="N22">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="O22" t="s">
         <v>22</v>
@@ -1787,36 +1786,36 @@
         <v>24</v>
       </c>
       <c r="Q22">
-        <v>60000</v>
+        <v>40000</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C23" t="b">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>9.99</v>
+        <v>49.99</v>
       </c>
       <c r="F23">
-        <v>13000</v>
+        <v>69000</v>
       </c>
       <c r="G23" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H23">
-        <v>293</v>
+        <v>620</v>
       </c>
       <c r="I23" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="J23" t="s">
-        <v>23</v>
+        <v>130</v>
       </c>
       <c r="K23">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="L23" t="s">
         <v>22</v>
@@ -1825,7 +1824,7 @@
         <v>23</v>
       </c>
       <c r="N23">
-        <v>50</v>
+        <v>500</v>
       </c>
       <c r="O23" t="s">
         <v>22</v>
@@ -1834,36 +1833,36 @@
         <v>24</v>
       </c>
       <c r="Q23">
-        <v>10000</v>
+        <v>60000</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C24" t="b">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>14.99</v>
+        <v>9.99</v>
       </c>
       <c r="F24">
-        <v>19000</v>
+        <v>13000</v>
       </c>
       <c r="G24" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H24">
-        <v>364</v>
+        <v>474</v>
       </c>
       <c r="I24" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="J24" t="s">
-        <v>130</v>
+        <v>23</v>
       </c>
       <c r="K24">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="L24" t="s">
         <v>22</v>
@@ -1872,7 +1871,7 @@
         <v>23</v>
       </c>
       <c r="N24">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="O24" t="s">
         <v>22</v>
@@ -1881,36 +1880,36 @@
         <v>24</v>
       </c>
       <c r="Q24">
-        <v>20000</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C25" t="b">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>29.99</v>
+        <v>14.99</v>
       </c>
       <c r="F25">
-        <v>39000</v>
+        <v>19000</v>
       </c>
       <c r="G25" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H25">
-        <v>440</v>
+        <v>244</v>
       </c>
       <c r="I25" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="J25" t="s">
-        <v>23</v>
+        <v>130</v>
       </c>
       <c r="K25">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="L25" t="s">
         <v>22</v>
@@ -1919,7 +1918,7 @@
         <v>23</v>
       </c>
       <c r="N25">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="O25" t="s">
         <v>22</v>
@@ -1928,36 +1927,36 @@
         <v>24</v>
       </c>
       <c r="Q25">
-        <v>40000</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C26" t="b">
         <v>0</v>
       </c>
       <c r="E26">
-        <v>49.99</v>
+        <v>29.99</v>
       </c>
       <c r="F26">
-        <v>69000</v>
+        <v>39000</v>
       </c>
       <c r="G26" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H26">
-        <v>335</v>
+        <v>944</v>
       </c>
       <c r="I26" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="J26" t="s">
-        <v>130</v>
+        <v>23</v>
       </c>
       <c r="K26">
-        <v>1200</v>
+        <v>300</v>
       </c>
       <c r="L26" t="s">
         <v>22</v>
@@ -1966,7 +1965,7 @@
         <v>23</v>
       </c>
       <c r="N26">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="O26" t="s">
         <v>22</v>
@@ -1975,36 +1974,36 @@
         <v>24</v>
       </c>
       <c r="Q26">
-        <v>60000</v>
+        <v>40000</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C27" t="b">
         <v>0</v>
       </c>
       <c r="E27">
-        <v>9.99</v>
+        <v>49.99</v>
       </c>
       <c r="F27">
-        <v>13000</v>
+        <v>69000</v>
       </c>
       <c r="G27" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H27">
-        <v>349</v>
+        <v>383</v>
       </c>
       <c r="I27" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="J27" t="s">
-        <v>23</v>
+        <v>130</v>
       </c>
       <c r="K27">
-        <v>100</v>
+        <v>1200</v>
       </c>
       <c r="L27" t="s">
         <v>22</v>
@@ -2013,7 +2012,7 @@
         <v>23</v>
       </c>
       <c r="N27">
-        <v>50</v>
+        <v>500</v>
       </c>
       <c r="O27" t="s">
         <v>22</v>
@@ -2022,36 +2021,36 @@
         <v>24</v>
       </c>
       <c r="Q27">
-        <v>10000</v>
+        <v>60000</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C28" t="b">
         <v>0</v>
       </c>
       <c r="E28">
-        <v>14.99</v>
+        <v>9.99</v>
       </c>
       <c r="F28">
-        <v>19000</v>
+        <v>13000</v>
       </c>
       <c r="G28" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H28">
-        <v>901</v>
+        <v>545</v>
       </c>
       <c r="I28" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="J28" t="s">
-        <v>130</v>
+        <v>23</v>
       </c>
       <c r="K28">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="L28" t="s">
         <v>22</v>
@@ -2060,7 +2059,7 @@
         <v>23</v>
       </c>
       <c r="N28">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="O28" t="s">
         <v>22</v>
@@ -2069,33 +2068,33 @@
         <v>24</v>
       </c>
       <c r="Q28">
-        <v>20000</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C29" t="b">
         <v>0</v>
       </c>
       <c r="E29">
-        <v>29.99</v>
+        <v>14.99</v>
       </c>
       <c r="F29">
-        <v>39000</v>
+        <v>19000</v>
       </c>
       <c r="G29" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H29">
-        <v>265</v>
+        <v>231</v>
       </c>
       <c r="I29" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="J29" t="s">
-        <v>23</v>
+        <v>130</v>
       </c>
       <c r="K29">
         <v>300</v>
@@ -2107,7 +2106,7 @@
         <v>23</v>
       </c>
       <c r="N29">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="O29" t="s">
         <v>22</v>
@@ -2116,36 +2115,36 @@
         <v>24</v>
       </c>
       <c r="Q29">
-        <v>40000</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C30" t="b">
         <v>0</v>
       </c>
       <c r="E30">
-        <v>49.99</v>
+        <v>29.99</v>
       </c>
       <c r="F30">
-        <v>69000</v>
+        <v>39000</v>
       </c>
       <c r="G30" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H30">
-        <v>820</v>
+        <v>654</v>
       </c>
       <c r="I30" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="J30" t="s">
-        <v>130</v>
+        <v>23</v>
       </c>
       <c r="K30">
-        <v>1000</v>
+        <v>300</v>
       </c>
       <c r="L30" t="s">
         <v>22</v>
@@ -2154,7 +2153,7 @@
         <v>23</v>
       </c>
       <c r="N30">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="O30" t="s">
         <v>22</v>
@@ -2163,46 +2162,46 @@
         <v>24</v>
       </c>
       <c r="Q30">
-        <v>60000</v>
+        <v>40000</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>116</v>
+        <v>54</v>
       </c>
       <c r="C31" t="b">
         <v>0</v>
       </c>
       <c r="E31">
-        <v>9.99</v>
+        <v>49.99</v>
       </c>
       <c r="F31">
-        <v>13000</v>
+        <v>69000</v>
       </c>
       <c r="G31" t="s">
-        <v>116</v>
+        <v>54</v>
       </c>
       <c r="H31">
-        <v>127</v>
+        <v>279</v>
       </c>
       <c r="I31" t="s">
         <v>25</v>
       </c>
       <c r="J31" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="K31">
+        <v>1000</v>
+      </c>
+      <c r="L31" t="s">
+        <v>22</v>
+      </c>
+      <c r="M31" t="s">
+        <v>23</v>
+      </c>
+      <c r="N31">
         <v>500</v>
       </c>
-      <c r="L31" t="s">
-        <v>22</v>
-      </c>
-      <c r="M31" t="s">
-        <v>23</v>
-      </c>
-      <c r="N31">
-        <v>75</v>
-      </c>
       <c r="O31" t="s">
         <v>22</v>
       </c>
@@ -2210,36 +2209,36 @@
         <v>24</v>
       </c>
       <c r="Q31">
-        <v>20000</v>
+        <v>60000</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C32" t="b">
         <v>0</v>
       </c>
       <c r="E32">
-        <v>14.99</v>
+        <v>9.99</v>
       </c>
       <c r="F32">
-        <v>19000</v>
+        <v>13000</v>
       </c>
       <c r="G32" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H32">
-        <v>194</v>
+        <v>359</v>
       </c>
       <c r="I32" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="J32" t="s">
-        <v>23</v>
+        <v>131</v>
       </c>
       <c r="K32">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="L32" t="s">
         <v>22</v>
@@ -2248,7 +2247,7 @@
         <v>23</v>
       </c>
       <c r="N32">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="O32" t="s">
         <v>22</v>
@@ -2257,36 +2256,36 @@
         <v>24</v>
       </c>
       <c r="Q32">
-        <v>40000</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C33" t="b">
         <v>0</v>
       </c>
       <c r="E33">
-        <v>29.99</v>
+        <v>14.99</v>
       </c>
       <c r="F33">
-        <v>39000</v>
+        <v>19000</v>
       </c>
       <c r="G33" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H33">
-        <v>970</v>
+        <v>881</v>
       </c>
       <c r="I33" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="J33" t="s">
-        <v>131</v>
+        <v>23</v>
       </c>
       <c r="K33">
-        <v>1500</v>
+        <v>300</v>
       </c>
       <c r="L33" t="s">
         <v>22</v>
@@ -2295,7 +2294,7 @@
         <v>23</v>
       </c>
       <c r="N33">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="O33" t="s">
         <v>22</v>
@@ -2304,36 +2303,36 @@
         <v>24</v>
       </c>
       <c r="Q33">
-        <v>60000</v>
+        <v>40000</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C34" t="b">
         <v>0</v>
       </c>
       <c r="E34">
-        <v>49.99</v>
+        <v>29.99</v>
       </c>
       <c r="F34">
-        <v>69000</v>
+        <v>39000</v>
       </c>
       <c r="G34" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H34">
-        <v>874</v>
+        <v>108</v>
       </c>
       <c r="I34" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="J34" t="s">
-        <v>23</v>
+        <v>131</v>
       </c>
       <c r="K34">
-        <v>100</v>
+        <v>1500</v>
       </c>
       <c r="L34" t="s">
         <v>22</v>
@@ -2342,7 +2341,7 @@
         <v>23</v>
       </c>
       <c r="N34">
-        <v>50</v>
+        <v>500</v>
       </c>
       <c r="O34" t="s">
         <v>22</v>
@@ -2351,36 +2350,36 @@
         <v>24</v>
       </c>
       <c r="Q34">
-        <v>10000</v>
+        <v>60000</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C35" t="b">
         <v>0</v>
       </c>
       <c r="E35">
-        <v>9.99</v>
+        <v>49.99</v>
       </c>
       <c r="F35">
-        <v>13000</v>
+        <v>69000</v>
       </c>
       <c r="G35" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H35">
-        <v>127</v>
+        <v>550</v>
       </c>
       <c r="I35" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="J35" t="s">
-        <v>131</v>
+        <v>23</v>
       </c>
       <c r="K35">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="L35" t="s">
         <v>22</v>
@@ -2389,7 +2388,7 @@
         <v>23</v>
       </c>
       <c r="N35">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="O35" t="s">
         <v>22</v>
@@ -2398,36 +2397,36 @@
         <v>24</v>
       </c>
       <c r="Q35">
-        <v>20000</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C36" t="b">
         <v>0</v>
       </c>
       <c r="E36">
-        <v>14.99</v>
+        <v>9.99</v>
       </c>
       <c r="F36">
-        <v>19000</v>
+        <v>13000</v>
       </c>
       <c r="G36" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H36">
-        <v>194</v>
+        <v>397</v>
       </c>
       <c r="I36" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="J36" t="s">
-        <v>23</v>
+        <v>131</v>
       </c>
       <c r="K36">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="L36" t="s">
         <v>22</v>
@@ -2436,7 +2435,7 @@
         <v>23</v>
       </c>
       <c r="N36">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="O36" t="s">
         <v>22</v>
@@ -2445,36 +2444,36 @@
         <v>24</v>
       </c>
       <c r="Q36">
-        <v>40000</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C37" t="b">
         <v>0</v>
       </c>
       <c r="E37">
-        <v>29.99</v>
+        <v>14.99</v>
       </c>
       <c r="F37">
-        <v>39000</v>
+        <v>19000</v>
       </c>
       <c r="G37" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H37">
-        <v>970</v>
+        <v>401</v>
       </c>
       <c r="I37" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="J37" t="s">
-        <v>131</v>
+        <v>23</v>
       </c>
       <c r="K37">
-        <v>1500</v>
+        <v>300</v>
       </c>
       <c r="L37" t="s">
         <v>22</v>
@@ -2483,7 +2482,7 @@
         <v>23</v>
       </c>
       <c r="N37">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="O37" t="s">
         <v>22</v>
@@ -2492,36 +2491,36 @@
         <v>24</v>
       </c>
       <c r="Q37">
-        <v>60000</v>
+        <v>40000</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C38" t="b">
         <v>0</v>
       </c>
       <c r="E38">
-        <v>49.99</v>
+        <v>29.99</v>
       </c>
       <c r="F38">
-        <v>69000</v>
+        <v>39000</v>
       </c>
       <c r="G38" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H38">
-        <v>874</v>
+        <v>177</v>
       </c>
       <c r="I38" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="J38" t="s">
-        <v>23</v>
+        <v>131</v>
       </c>
       <c r="K38">
-        <v>100</v>
+        <v>1500</v>
       </c>
       <c r="L38" t="s">
         <v>22</v>
@@ -2530,7 +2529,7 @@
         <v>23</v>
       </c>
       <c r="N38">
-        <v>50</v>
+        <v>500</v>
       </c>
       <c r="O38" t="s">
         <v>22</v>
@@ -2539,36 +2538,36 @@
         <v>24</v>
       </c>
       <c r="Q38">
-        <v>10000</v>
+        <v>60000</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C39" t="b">
         <v>0</v>
       </c>
       <c r="E39">
-        <v>9.99</v>
+        <v>49.99</v>
       </c>
       <c r="F39">
-        <v>13000</v>
+        <v>69000</v>
       </c>
       <c r="G39" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H39">
-        <v>127</v>
+        <v>506</v>
       </c>
       <c r="I39" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="J39" t="s">
-        <v>131</v>
+        <v>23</v>
       </c>
       <c r="K39">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="L39" t="s">
         <v>22</v>
@@ -2577,7 +2576,7 @@
         <v>23</v>
       </c>
       <c r="N39">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="O39" t="s">
         <v>22</v>
@@ -2586,36 +2585,36 @@
         <v>24</v>
       </c>
       <c r="Q39">
-        <v>20000</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C40" t="b">
         <v>0</v>
       </c>
       <c r="E40">
-        <v>14.99</v>
+        <v>9.99</v>
       </c>
       <c r="F40">
-        <v>19000</v>
+        <v>13000</v>
       </c>
       <c r="G40" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H40">
-        <v>194</v>
+        <v>741</v>
       </c>
       <c r="I40" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="J40" t="s">
-        <v>23</v>
+        <v>131</v>
       </c>
       <c r="K40">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="L40" t="s">
         <v>22</v>
@@ -2624,7 +2623,7 @@
         <v>23</v>
       </c>
       <c r="N40">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="O40" t="s">
         <v>22</v>
@@ -2633,36 +2632,36 @@
         <v>24</v>
       </c>
       <c r="Q40">
-        <v>40000</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C41" t="b">
         <v>0</v>
       </c>
       <c r="E41">
-        <v>29.99</v>
+        <v>14.99</v>
       </c>
       <c r="F41">
-        <v>39000</v>
+        <v>19000</v>
       </c>
       <c r="G41" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H41">
-        <v>970</v>
+        <v>578</v>
       </c>
       <c r="I41" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="J41" t="s">
-        <v>131</v>
+        <v>23</v>
       </c>
       <c r="K41">
-        <v>1500</v>
+        <v>300</v>
       </c>
       <c r="L41" t="s">
         <v>22</v>
@@ -2671,7 +2670,7 @@
         <v>23</v>
       </c>
       <c r="N41">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="O41" t="s">
         <v>22</v>
@@ -2680,36 +2679,36 @@
         <v>24</v>
       </c>
       <c r="Q41">
-        <v>60000</v>
+        <v>40000</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C42" t="b">
         <v>0</v>
       </c>
       <c r="E42">
-        <v>49.99</v>
+        <v>29.99</v>
       </c>
       <c r="F42">
-        <v>69000</v>
+        <v>39000</v>
       </c>
       <c r="G42" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H42">
-        <v>874</v>
+        <v>106</v>
       </c>
       <c r="I42" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="J42" t="s">
-        <v>23</v>
+        <v>131</v>
       </c>
       <c r="K42">
-        <v>100</v>
+        <v>1500</v>
       </c>
       <c r="L42" t="s">
         <v>22</v>
@@ -2718,7 +2717,7 @@
         <v>23</v>
       </c>
       <c r="N42">
-        <v>50</v>
+        <v>500</v>
       </c>
       <c r="O42" t="s">
         <v>22</v>
@@ -2727,27 +2726,27 @@
         <v>24</v>
       </c>
       <c r="Q42">
-        <v>10000</v>
+        <v>60000</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>55</v>
+        <v>127</v>
       </c>
       <c r="C43" t="b">
         <v>0</v>
       </c>
       <c r="E43">
-        <v>0.99</v>
+        <v>49.99</v>
       </c>
       <c r="F43">
-        <v>1200</v>
+        <v>69000</v>
       </c>
       <c r="G43" t="s">
-        <v>55</v>
+        <v>127</v>
       </c>
       <c r="H43">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="I43" t="s">
         <v>22</v>
@@ -2756,27 +2755,45 @@
         <v>23</v>
       </c>
       <c r="K43">
-        <v>30</v>
+        <v>100</v>
+      </c>
+      <c r="L43" t="s">
+        <v>22</v>
+      </c>
+      <c r="M43" t="s">
+        <v>23</v>
+      </c>
+      <c r="N43">
+        <v>50</v>
+      </c>
+      <c r="O43" t="s">
+        <v>22</v>
+      </c>
+      <c r="P43" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q43">
+        <v>10000</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C44" t="b">
         <v>0</v>
       </c>
       <c r="E44">
-        <v>4.99</v>
+        <v>0.99</v>
       </c>
       <c r="F44">
-        <v>5900</v>
+        <v>1200</v>
       </c>
       <c r="G44" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H44">
-        <v>348</v>
+        <v>713</v>
       </c>
       <c r="I44" t="s">
         <v>22</v>
@@ -2785,27 +2802,27 @@
         <v>23</v>
       </c>
       <c r="K44">
-        <v>90</v>
+        <v>30</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C45" t="b">
         <v>0</v>
       </c>
       <c r="E45">
-        <v>9.99</v>
+        <v>4.99</v>
       </c>
       <c r="F45">
-        <v>12000</v>
+        <v>5900</v>
       </c>
       <c r="G45" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H45">
-        <v>653</v>
+        <v>794</v>
       </c>
       <c r="I45" t="s">
         <v>22</v>
@@ -2814,27 +2831,27 @@
         <v>23</v>
       </c>
       <c r="K45">
-        <v>260</v>
+        <v>90</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C46" t="b">
         <v>0</v>
       </c>
       <c r="E46">
-        <v>19.989999999999998</v>
+        <v>9.99</v>
       </c>
       <c r="F46">
-        <v>25000</v>
+        <v>12000</v>
       </c>
       <c r="G46" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H46">
-        <v>487</v>
+        <v>121</v>
       </c>
       <c r="I46" t="s">
         <v>22</v>
@@ -2843,27 +2860,27 @@
         <v>23</v>
       </c>
       <c r="K46">
-        <v>525</v>
+        <v>260</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C47" t="b">
         <v>0</v>
       </c>
       <c r="E47">
-        <v>49.99</v>
+        <v>19.989999999999998</v>
       </c>
       <c r="F47">
-        <v>65000</v>
+        <v>25000</v>
       </c>
       <c r="G47" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H47">
-        <v>168</v>
+        <v>114</v>
       </c>
       <c r="I47" t="s">
         <v>22</v>
@@ -2872,27 +2889,27 @@
         <v>23</v>
       </c>
       <c r="K47">
-        <v>1600</v>
+        <v>525</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C48" t="b">
         <v>0</v>
       </c>
       <c r="E48">
-        <v>99.99</v>
+        <v>49.99</v>
       </c>
       <c r="F48">
-        <v>119000</v>
+        <v>65000</v>
       </c>
       <c r="G48" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H48">
-        <v>947</v>
+        <v>950</v>
       </c>
       <c r="I48" t="s">
         <v>22</v>
@@ -2901,27 +2918,27 @@
         <v>23</v>
       </c>
       <c r="K48">
-        <v>3600</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C49" t="b">
         <v>0</v>
       </c>
       <c r="E49">
-        <v>0.99</v>
+        <v>99.99</v>
       </c>
       <c r="F49">
-        <v>1200</v>
+        <v>119000</v>
       </c>
       <c r="G49" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H49">
-        <v>224</v>
+        <v>490</v>
       </c>
       <c r="I49" t="s">
         <v>22</v>
@@ -2930,27 +2947,27 @@
         <v>23</v>
       </c>
       <c r="K49">
-        <v>90</v>
+        <v>3600</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C50" t="b">
         <v>0</v>
       </c>
       <c r="E50">
-        <v>4.99</v>
+        <v>0.99</v>
       </c>
       <c r="F50">
-        <v>5900</v>
+        <v>1200</v>
       </c>
       <c r="G50" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H50">
-        <v>392</v>
+        <v>338</v>
       </c>
       <c r="I50" t="s">
         <v>22</v>
@@ -2959,27 +2976,27 @@
         <v>23</v>
       </c>
       <c r="K50">
-        <v>270</v>
+        <v>90</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C51" t="b">
         <v>0</v>
       </c>
       <c r="E51">
-        <v>9.99</v>
+        <v>4.99</v>
       </c>
       <c r="F51">
-        <v>12000</v>
+        <v>5900</v>
       </c>
       <c r="G51" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H51">
-        <v>759</v>
+        <v>215</v>
       </c>
       <c r="I51" t="s">
         <v>22</v>
@@ -2988,27 +3005,27 @@
         <v>23</v>
       </c>
       <c r="K51">
-        <v>780</v>
+        <v>270</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C52" t="b">
         <v>0</v>
       </c>
       <c r="E52">
-        <v>19.989999999999998</v>
+        <v>9.99</v>
       </c>
       <c r="F52">
-        <v>25000</v>
+        <v>12000</v>
       </c>
       <c r="G52" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H52">
-        <v>837</v>
+        <v>674</v>
       </c>
       <c r="I52" t="s">
         <v>22</v>
@@ -3017,27 +3034,27 @@
         <v>23</v>
       </c>
       <c r="K52">
-        <v>1575</v>
+        <v>780</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C53" t="b">
         <v>0</v>
       </c>
       <c r="E53">
-        <v>49.99</v>
+        <v>19.989999999999998</v>
       </c>
       <c r="F53">
-        <v>65000</v>
+        <v>25000</v>
       </c>
       <c r="G53" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H53">
-        <v>820</v>
+        <v>145</v>
       </c>
       <c r="I53" t="s">
         <v>22</v>
@@ -3046,27 +3063,27 @@
         <v>23</v>
       </c>
       <c r="K53">
-        <v>4800</v>
+        <v>1575</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C54" t="b">
         <v>0</v>
       </c>
       <c r="E54">
-        <v>99.99</v>
+        <v>49.99</v>
       </c>
       <c r="F54">
-        <v>119000</v>
+        <v>65000</v>
       </c>
       <c r="G54" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H54">
-        <v>493</v>
+        <v>858</v>
       </c>
       <c r="I54" t="s">
         <v>22</v>
@@ -3075,56 +3092,56 @@
         <v>23</v>
       </c>
       <c r="K54">
-        <v>10800</v>
+        <v>4800</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C55" t="b">
         <v>0</v>
       </c>
       <c r="E55">
-        <v>0.99</v>
+        <v>99.99</v>
       </c>
       <c r="F55">
-        <v>1200</v>
+        <v>119000</v>
       </c>
       <c r="G55" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H55">
-        <v>354</v>
+        <v>173</v>
       </c>
       <c r="I55" t="s">
         <v>22</v>
       </c>
       <c r="J55" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K55">
-        <v>40000</v>
+        <v>10800</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C56" t="b">
         <v>0</v>
       </c>
       <c r="E56">
-        <v>4.99</v>
+        <v>0.99</v>
       </c>
       <c r="F56">
-        <v>5900</v>
+        <v>1200</v>
       </c>
       <c r="G56" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H56">
-        <v>715</v>
+        <v>201</v>
       </c>
       <c r="I56" t="s">
         <v>22</v>
@@ -3133,27 +3150,27 @@
         <v>24</v>
       </c>
       <c r="K56">
-        <v>105000</v>
+        <v>40000</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C57" t="b">
         <v>0</v>
       </c>
       <c r="E57">
-        <v>9.99</v>
+        <v>4.99</v>
       </c>
       <c r="F57">
-        <v>12000</v>
+        <v>5900</v>
       </c>
       <c r="G57" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H57">
-        <v>891</v>
+        <v>803</v>
       </c>
       <c r="I57" t="s">
         <v>22</v>
@@ -3162,27 +3179,27 @@
         <v>24</v>
       </c>
       <c r="K57">
-        <v>250000</v>
+        <v>105000</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C58" t="b">
         <v>0</v>
       </c>
       <c r="E58">
-        <v>19.989999999999998</v>
+        <v>9.99</v>
       </c>
       <c r="F58">
-        <v>25000</v>
+        <v>12000</v>
       </c>
       <c r="G58" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H58">
-        <v>185</v>
+        <v>650</v>
       </c>
       <c r="I58" t="s">
         <v>22</v>
@@ -3191,27 +3208,27 @@
         <v>24</v>
       </c>
       <c r="K58">
-        <v>600000</v>
+        <v>250000</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C59" t="b">
         <v>0</v>
       </c>
       <c r="E59">
-        <v>49.99</v>
+        <v>19.989999999999998</v>
       </c>
       <c r="F59">
-        <v>65000</v>
+        <v>25000</v>
       </c>
       <c r="G59" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H59">
-        <v>737</v>
+        <v>953</v>
       </c>
       <c r="I59" t="s">
         <v>22</v>
@@ -3220,27 +3237,27 @@
         <v>24</v>
       </c>
       <c r="K59">
-        <v>1900000</v>
+        <v>600000</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C60" t="b">
         <v>0</v>
       </c>
       <c r="E60">
-        <v>99.99</v>
+        <v>49.99</v>
       </c>
       <c r="F60">
-        <v>119000</v>
+        <v>65000</v>
       </c>
       <c r="G60" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H60">
-        <v>574</v>
+        <v>640</v>
       </c>
       <c r="I60" t="s">
         <v>22</v>
@@ -3249,27 +3266,27 @@
         <v>24</v>
       </c>
       <c r="K60">
-        <v>4500000</v>
+        <v>1900000</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C61" t="b">
         <v>0</v>
       </c>
       <c r="E61">
-        <v>0.99</v>
+        <v>99.99</v>
       </c>
       <c r="F61">
-        <v>1200</v>
+        <v>119000</v>
       </c>
       <c r="G61" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H61">
-        <v>122</v>
+        <v>553</v>
       </c>
       <c r="I61" t="s">
         <v>22</v>
@@ -3278,27 +3295,27 @@
         <v>24</v>
       </c>
       <c r="K61">
-        <v>120000</v>
+        <v>4500000</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C62" t="b">
         <v>0</v>
       </c>
       <c r="E62">
-        <v>4.99</v>
+        <v>0.99</v>
       </c>
       <c r="F62">
-        <v>5900</v>
+        <v>1200</v>
       </c>
       <c r="G62" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H62">
-        <v>926</v>
+        <v>963</v>
       </c>
       <c r="I62" t="s">
         <v>22</v>
@@ -3307,27 +3324,27 @@
         <v>24</v>
       </c>
       <c r="K62">
-        <v>315000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C63" t="b">
         <v>0</v>
       </c>
       <c r="E63">
-        <v>9.99</v>
+        <v>4.99</v>
       </c>
       <c r="F63">
-        <v>12000</v>
+        <v>5900</v>
       </c>
       <c r="G63" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H63">
-        <v>943</v>
+        <v>340</v>
       </c>
       <c r="I63" t="s">
         <v>22</v>
@@ -3336,27 +3353,27 @@
         <v>24</v>
       </c>
       <c r="K63">
-        <v>750000</v>
+        <v>315000</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C64" t="b">
         <v>0</v>
       </c>
       <c r="E64">
-        <v>19.989999999999998</v>
+        <v>9.99</v>
       </c>
       <c r="F64">
-        <v>25000</v>
+        <v>12000</v>
       </c>
       <c r="G64" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H64">
-        <v>106</v>
+        <v>420</v>
       </c>
       <c r="I64" t="s">
         <v>22</v>
@@ -3365,27 +3382,27 @@
         <v>24</v>
       </c>
       <c r="K64">
-        <v>1800000</v>
+        <v>750000</v>
       </c>
     </row>
     <row r="65" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C65" t="b">
         <v>0</v>
       </c>
       <c r="E65">
-        <v>49.99</v>
+        <v>19.989999999999998</v>
       </c>
       <c r="F65">
-        <v>65000</v>
+        <v>25000</v>
       </c>
       <c r="G65" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H65">
-        <v>402</v>
+        <v>756</v>
       </c>
       <c r="I65" t="s">
         <v>22</v>
@@ -3394,27 +3411,27 @@
         <v>24</v>
       </c>
       <c r="K65">
-        <v>5700000</v>
+        <v>1800000</v>
       </c>
     </row>
     <row r="66" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C66" t="b">
         <v>0</v>
       </c>
       <c r="E66">
-        <v>99.99</v>
+        <v>49.99</v>
       </c>
       <c r="F66">
-        <v>119000</v>
+        <v>65000</v>
       </c>
       <c r="G66" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H66">
-        <v>905</v>
+        <v>979</v>
       </c>
       <c r="I66" t="s">
         <v>22</v>
@@ -3423,56 +3440,56 @@
         <v>24</v>
       </c>
       <c r="K66">
-        <v>13500000</v>
+        <v>5700000</v>
       </c>
     </row>
     <row r="67" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C67" t="b">
         <v>0</v>
       </c>
       <c r="E67">
-        <v>9.99</v>
+        <v>99.99</v>
       </c>
       <c r="F67">
-        <v>13000</v>
+        <v>119000</v>
       </c>
       <c r="G67" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H67">
-        <v>375</v>
+        <v>435</v>
       </c>
       <c r="I67" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="J67" t="s">
-        <v>86</v>
+        <v>24</v>
       </c>
       <c r="K67">
-        <v>1</v>
+        <v>13500000</v>
       </c>
     </row>
     <row r="68" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C68" t="b">
         <v>0</v>
       </c>
       <c r="E68">
-        <v>19.989999999999998</v>
+        <v>9.99</v>
       </c>
       <c r="F68">
-        <v>19000</v>
+        <v>13000</v>
       </c>
       <c r="G68" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H68">
-        <v>368</v>
+        <v>781</v>
       </c>
       <c r="I68" t="s">
         <v>25</v>
@@ -3486,22 +3503,22 @@
     </row>
     <row r="69" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C69" t="b">
         <v>0</v>
       </c>
       <c r="E69">
-        <v>29.99</v>
+        <v>19.989999999999998</v>
       </c>
       <c r="F69">
-        <v>39000</v>
+        <v>19000</v>
       </c>
       <c r="G69" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H69">
-        <v>481</v>
+        <v>142</v>
       </c>
       <c r="I69" t="s">
         <v>25</v>
@@ -3515,22 +3532,22 @@
     </row>
     <row r="70" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C70" t="b">
         <v>0</v>
       </c>
       <c r="E70">
-        <v>39.99</v>
+        <v>29.99</v>
       </c>
       <c r="F70">
-        <v>48000</v>
+        <v>39000</v>
       </c>
       <c r="G70" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H70">
-        <v>420</v>
+        <v>610</v>
       </c>
       <c r="I70" t="s">
         <v>25</v>
@@ -3544,22 +3561,22 @@
     </row>
     <row r="71" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C71" t="b">
         <v>0</v>
       </c>
       <c r="E71">
-        <v>49.99</v>
+        <v>39.99</v>
       </c>
       <c r="F71">
-        <v>65000</v>
+        <v>48000</v>
       </c>
       <c r="G71" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H71">
-        <v>362</v>
+        <v>433</v>
       </c>
       <c r="I71" t="s">
         <v>25</v>
@@ -3573,57 +3590,57 @@
     </row>
     <row r="72" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C72" t="b">
         <v>0</v>
       </c>
       <c r="E72">
-        <v>0.99</v>
+        <v>49.99</v>
       </c>
       <c r="F72">
-        <v>1200</v>
+        <v>65000</v>
       </c>
       <c r="G72" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H72">
-        <v>654</v>
+        <v>604</v>
       </c>
       <c r="I72" t="s">
         <v>25</v>
       </c>
       <c r="J72" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="K72">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C73" t="b">
         <v>0</v>
       </c>
       <c r="E73">
-        <v>4.99</v>
+        <v>0.99</v>
       </c>
       <c r="F73">
-        <v>5900</v>
+        <v>1200</v>
       </c>
       <c r="G73" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H73">
-        <v>715</v>
+        <v>902</v>
       </c>
       <c r="I73" t="s">
         <v>25</v>
       </c>
       <c r="J73" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K73">
         <v>5</v>
@@ -3631,66 +3648,36 @@
     </row>
     <row r="74" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="C74" t="b">
         <v>0</v>
       </c>
-      <c r="D74">
-        <v>4</v>
-      </c>
       <c r="E74">
-        <v>0.99</v>
+        <v>4.99</v>
       </c>
       <c r="F74">
-        <v>1200</v>
+        <v>5900</v>
       </c>
       <c r="G74" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="H74">
-        <v>668</v>
+        <v>924</v>
       </c>
       <c r="I74" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="J74" t="s">
-        <v>23</v>
+        <v>91</v>
       </c>
       <c r="K74">
-        <v>30</v>
-      </c>
-      <c r="L74" t="s">
-        <v>22</v>
-      </c>
-      <c r="M74" t="s">
-        <v>24</v>
-      </c>
-      <c r="N74">
-        <v>25000</v>
-      </c>
-      <c r="O74" t="s">
-        <v>22</v>
-      </c>
-      <c r="P74" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q74">
-        <v>100</v>
-      </c>
-      <c r="R74" t="s">
-        <v>22</v>
-      </c>
-      <c r="S74" t="s">
-        <v>24</v>
-      </c>
-      <c r="T74">
-        <v>35000</v>
+        <v>5</v>
       </c>
     </row>
     <row r="75" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C75" t="b">
         <v>0</v>
@@ -3699,16 +3686,16 @@
         <v>4</v>
       </c>
       <c r="E75">
-        <v>4.99</v>
+        <v>0.99</v>
       </c>
       <c r="F75">
-        <v>5900</v>
+        <v>1200</v>
       </c>
       <c r="G75" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H75">
-        <v>188</v>
+        <v>802</v>
       </c>
       <c r="I75" t="s">
         <v>22</v>
@@ -3717,7 +3704,7 @@
         <v>23</v>
       </c>
       <c r="K75">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="L75" t="s">
         <v>22</v>
@@ -3726,7 +3713,7 @@
         <v>24</v>
       </c>
       <c r="N75">
-        <v>15000</v>
+        <v>25000</v>
       </c>
       <c r="O75" t="s">
         <v>22</v>
@@ -3735,7 +3722,7 @@
         <v>23</v>
       </c>
       <c r="Q75">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="R75" t="s">
         <v>22</v>
@@ -3744,12 +3731,12 @@
         <v>24</v>
       </c>
       <c r="T75">
-        <v>25000</v>
+        <v>35000</v>
       </c>
     </row>
     <row r="76" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C76" t="b">
         <v>0</v>
@@ -3758,16 +3745,16 @@
         <v>4</v>
       </c>
       <c r="E76">
-        <v>9.99</v>
+        <v>4.99</v>
       </c>
       <c r="F76">
-        <v>13000</v>
+        <v>5900</v>
       </c>
       <c r="G76" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H76">
-        <v>284</v>
+        <v>585</v>
       </c>
       <c r="I76" t="s">
         <v>22</v>
@@ -3776,7 +3763,7 @@
         <v>23</v>
       </c>
       <c r="K76">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="L76" t="s">
         <v>22</v>
@@ -3785,7 +3772,7 @@
         <v>24</v>
       </c>
       <c r="N76">
-        <v>30000</v>
+        <v>15000</v>
       </c>
       <c r="O76" t="s">
         <v>22</v>
@@ -3794,21 +3781,21 @@
         <v>23</v>
       </c>
       <c r="Q76">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="R76" t="s">
         <v>22</v>
       </c>
       <c r="S76" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="T76">
-        <v>300</v>
+        <v>25000</v>
       </c>
     </row>
     <row r="77" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C77" t="b">
         <v>0</v>
@@ -3823,10 +3810,10 @@
         <v>13000</v>
       </c>
       <c r="G77" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H77">
-        <v>953</v>
+        <v>634</v>
       </c>
       <c r="I77" t="s">
         <v>22</v>
@@ -3835,7 +3822,7 @@
         <v>23</v>
       </c>
       <c r="K77">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="L77" t="s">
         <v>22</v>
@@ -3844,7 +3831,7 @@
         <v>24</v>
       </c>
       <c r="N77">
-        <v>50000</v>
+        <v>30000</v>
       </c>
       <c r="O77" t="s">
         <v>22</v>
@@ -3853,21 +3840,21 @@
         <v>23</v>
       </c>
       <c r="Q77">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="R77" t="s">
         <v>22</v>
       </c>
       <c r="S77" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="T77">
-        <v>25000</v>
+        <v>300</v>
       </c>
     </row>
     <row r="78" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C78" t="b">
         <v>0</v>
@@ -3882,10 +3869,10 @@
         <v>13000</v>
       </c>
       <c r="G78" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H78">
-        <v>660</v>
+        <v>791</v>
       </c>
       <c r="I78" t="s">
         <v>22</v>
@@ -3894,7 +3881,7 @@
         <v>23</v>
       </c>
       <c r="K78">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="L78" t="s">
         <v>22</v>
@@ -3903,7 +3890,7 @@
         <v>24</v>
       </c>
       <c r="N78">
-        <v>90000</v>
+        <v>50000</v>
       </c>
       <c r="O78" t="s">
         <v>22</v>
@@ -3912,59 +3899,80 @@
         <v>23</v>
       </c>
       <c r="Q78">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="R78" t="s">
         <v>22</v>
       </c>
       <c r="S78" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="T78">
-        <v>300</v>
+        <v>25000</v>
       </c>
     </row>
     <row r="79" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>128</v>
+        <v>96</v>
       </c>
       <c r="C79" t="b">
         <v>0</v>
       </c>
+      <c r="D79">
+        <v>4</v>
+      </c>
       <c r="E79">
-        <v>4.99</v>
+        <v>9.99</v>
       </c>
       <c r="F79">
-        <v>5900</v>
+        <v>13000</v>
       </c>
       <c r="G79" t="s">
-        <v>128</v>
+        <v>96</v>
       </c>
       <c r="H79">
-        <v>456</v>
+        <v>484</v>
       </c>
       <c r="I79" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="J79" t="s">
-        <v>97</v>
+        <v>23</v>
       </c>
       <c r="K79">
-        <v>15</v>
+        <v>150</v>
       </c>
       <c r="L79" t="s">
         <v>22</v>
       </c>
       <c r="M79" t="s">
-        <v>98</v>
+        <v>24</v>
       </c>
       <c r="N79">
-        <v>500</v>
+        <v>90000</v>
+      </c>
+      <c r="O79" t="s">
+        <v>22</v>
+      </c>
+      <c r="P79" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q79">
+        <v>150</v>
+      </c>
+      <c r="R79" t="s">
+        <v>22</v>
+      </c>
+      <c r="S79" t="s">
+        <v>23</v>
+      </c>
+      <c r="T79">
+        <v>300</v>
       </c>
     </row>
     <row r="80" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C80" t="b">
         <v>0</v>
@@ -3976,80 +3984,71 @@
         <v>5900</v>
       </c>
       <c r="G80" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H80">
-        <v>664</v>
+        <v>212</v>
       </c>
       <c r="I80" t="s">
         <v>25</v>
       </c>
       <c r="J80" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="K80">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="L80" t="s">
         <v>22</v>
       </c>
       <c r="M80" t="s">
-        <v>23</v>
+        <v>98</v>
       </c>
       <c r="N80">
-        <v>750</v>
+        <v>500</v>
       </c>
     </row>
     <row r="81" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>100</v>
+        <v>129</v>
       </c>
       <c r="C81" t="b">
         <v>0</v>
       </c>
       <c r="E81">
-        <v>0.99</v>
+        <v>4.99</v>
       </c>
       <c r="F81">
-        <v>1200</v>
+        <v>5900</v>
       </c>
       <c r="G81" t="s">
-        <v>100</v>
+        <v>129</v>
       </c>
       <c r="H81">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="I81" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="J81" t="s">
-        <v>23</v>
+        <v>99</v>
       </c>
       <c r="K81">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="L81" t="s">
         <v>22</v>
       </c>
       <c r="M81" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N81">
-        <v>25000</v>
-      </c>
-      <c r="O81" t="s">
-        <v>22</v>
-      </c>
-      <c r="P81" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q81">
-        <v>100</v>
+        <v>750</v>
       </c>
     </row>
     <row r="82" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C82" t="b">
         <v>0</v>
@@ -4061,10 +4060,10 @@
         <v>1200</v>
       </c>
       <c r="G82" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H82">
-        <v>484</v>
+        <v>704</v>
       </c>
       <c r="I82" t="s">
         <v>22</v>
@@ -4073,7 +4072,7 @@
         <v>23</v>
       </c>
       <c r="K82">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="L82" t="s">
         <v>22</v>
@@ -4082,7 +4081,7 @@
         <v>24</v>
       </c>
       <c r="N82">
-        <v>15000</v>
+        <v>25000</v>
       </c>
       <c r="O82" t="s">
         <v>22</v>
@@ -4091,12 +4090,12 @@
         <v>23</v>
       </c>
       <c r="Q82">
-        <v>120</v>
+        <v>100</v>
       </c>
     </row>
     <row r="83" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C83" t="b">
         <v>0</v>
@@ -4108,10 +4107,10 @@
         <v>1200</v>
       </c>
       <c r="G83" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H83">
-        <v>584</v>
+        <v>148</v>
       </c>
       <c r="I83" t="s">
         <v>22</v>
@@ -4120,7 +4119,7 @@
         <v>23</v>
       </c>
       <c r="K83">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="L83" t="s">
         <v>22</v>
@@ -4129,7 +4128,7 @@
         <v>24</v>
       </c>
       <c r="N83">
-        <v>30000</v>
+        <v>15000</v>
       </c>
       <c r="O83" t="s">
         <v>22</v>
@@ -4138,36 +4137,27 @@
         <v>23</v>
       </c>
       <c r="Q83">
-        <v>150</v>
-      </c>
-      <c r="R83" t="s">
-        <v>22</v>
-      </c>
-      <c r="S83" t="s">
-        <v>23</v>
-      </c>
-      <c r="T83">
-        <v>300</v>
+        <v>120</v>
       </c>
     </row>
     <row r="84" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C84" t="b">
         <v>0</v>
       </c>
       <c r="E84">
-        <v>4.99</v>
+        <v>0.99</v>
       </c>
       <c r="F84">
-        <v>5900</v>
+        <v>1200</v>
       </c>
       <c r="G84" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H84">
-        <v>456</v>
+        <v>784</v>
       </c>
       <c r="I84" t="s">
         <v>22</v>
@@ -4176,7 +4166,7 @@
         <v>23</v>
       </c>
       <c r="K84">
-        <v>30</v>
+        <v>90</v>
       </c>
       <c r="L84" t="s">
         <v>22</v>
@@ -4185,7 +4175,7 @@
         <v>24</v>
       </c>
       <c r="N84">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="O84" t="s">
         <v>22</v>
@@ -4194,12 +4184,21 @@
         <v>23</v>
       </c>
       <c r="Q84">
-        <v>100</v>
+        <v>150</v>
+      </c>
+      <c r="R84" t="s">
+        <v>22</v>
+      </c>
+      <c r="S84" t="s">
+        <v>23</v>
+      </c>
+      <c r="T84">
+        <v>300</v>
       </c>
     </row>
     <row r="85" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C85" t="b">
         <v>0</v>
@@ -4211,10 +4210,10 @@
         <v>5900</v>
       </c>
       <c r="G85" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H85">
-        <v>574</v>
+        <v>354</v>
       </c>
       <c r="I85" t="s">
         <v>22</v>
@@ -4223,7 +4222,7 @@
         <v>23</v>
       </c>
       <c r="K85">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="L85" t="s">
         <v>22</v>
@@ -4232,7 +4231,7 @@
         <v>24</v>
       </c>
       <c r="N85">
-        <v>15000</v>
+        <v>25000</v>
       </c>
       <c r="O85" t="s">
         <v>22</v>
@@ -4241,27 +4240,27 @@
         <v>23</v>
       </c>
       <c r="Q85">
-        <v>120</v>
+        <v>100</v>
       </c>
     </row>
     <row r="86" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C86" t="b">
         <v>0</v>
       </c>
       <c r="E86">
-        <v>9.99</v>
+        <v>4.99</v>
       </c>
       <c r="F86">
-        <v>13000</v>
+        <v>5900</v>
       </c>
       <c r="G86" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H86">
-        <v>117</v>
+        <v>414</v>
       </c>
       <c r="I86" t="s">
         <v>22</v>
@@ -4270,7 +4269,7 @@
         <v>23</v>
       </c>
       <c r="K86">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="L86" t="s">
         <v>22</v>
@@ -4279,7 +4278,7 @@
         <v>24</v>
       </c>
       <c r="N86">
-        <v>30000</v>
+        <v>15000</v>
       </c>
       <c r="O86" t="s">
         <v>22</v>
@@ -4288,21 +4287,12 @@
         <v>23</v>
       </c>
       <c r="Q86">
-        <v>150</v>
-      </c>
-      <c r="R86" t="s">
-        <v>22</v>
-      </c>
-      <c r="S86" t="s">
-        <v>23</v>
-      </c>
-      <c r="T86">
-        <v>300</v>
+        <v>120</v>
       </c>
     </row>
     <row r="87" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C87" t="b">
         <v>0</v>
@@ -4314,10 +4304,10 @@
         <v>13000</v>
       </c>
       <c r="G87" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H87">
-        <v>206</v>
+        <v>726</v>
       </c>
       <c r="I87" t="s">
         <v>22</v>
@@ -4326,7 +4316,7 @@
         <v>23</v>
       </c>
       <c r="K87">
-        <v>30</v>
+        <v>90</v>
       </c>
       <c r="L87" t="s">
         <v>22</v>
@@ -4335,7 +4325,7 @@
         <v>24</v>
       </c>
       <c r="N87">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="O87" t="s">
         <v>22</v>
@@ -4344,27 +4334,36 @@
         <v>23</v>
       </c>
       <c r="Q87">
-        <v>100</v>
+        <v>150</v>
+      </c>
+      <c r="R87" t="s">
+        <v>22</v>
+      </c>
+      <c r="S87" t="s">
+        <v>23</v>
+      </c>
+      <c r="T87">
+        <v>300</v>
       </c>
     </row>
     <row r="88" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C88" t="b">
         <v>0</v>
       </c>
       <c r="E88">
-        <v>19.989999999999998</v>
+        <v>9.99</v>
       </c>
       <c r="F88">
-        <v>25000</v>
+        <v>13000</v>
       </c>
       <c r="G88" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H88">
-        <v>464</v>
+        <v>679</v>
       </c>
       <c r="I88" t="s">
         <v>22</v>
@@ -4396,22 +4395,22 @@
     </row>
     <row r="89" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C89" t="b">
         <v>0</v>
       </c>
       <c r="E89">
-        <v>39.99</v>
+        <v>19.989999999999998</v>
       </c>
       <c r="F89">
-        <v>48000</v>
+        <v>25000</v>
       </c>
       <c r="G89" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H89">
-        <v>836</v>
+        <v>752</v>
       </c>
       <c r="I89" t="s">
         <v>22</v>
@@ -4420,7 +4419,7 @@
         <v>23</v>
       </c>
       <c r="K89">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="L89" t="s">
         <v>22</v>
@@ -4429,7 +4428,7 @@
         <v>24</v>
       </c>
       <c r="N89">
-        <v>15000</v>
+        <v>25000</v>
       </c>
       <c r="O89" t="s">
         <v>22</v>
@@ -4438,27 +4437,27 @@
         <v>23</v>
       </c>
       <c r="Q89">
-        <v>120</v>
+        <v>100</v>
       </c>
     </row>
     <row r="90" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C90" t="b">
         <v>0</v>
       </c>
       <c r="E90">
-        <v>49.99</v>
+        <v>39.99</v>
       </c>
       <c r="F90">
-        <v>69000</v>
+        <v>48000</v>
       </c>
       <c r="G90" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H90">
-        <v>475</v>
+        <v>534</v>
       </c>
       <c r="I90" t="s">
         <v>22</v>
@@ -4467,7 +4466,7 @@
         <v>23</v>
       </c>
       <c r="K90">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="L90" t="s">
         <v>22</v>
@@ -4476,7 +4475,7 @@
         <v>24</v>
       </c>
       <c r="N90">
-        <v>30000</v>
+        <v>15000</v>
       </c>
       <c r="O90" t="s">
         <v>22</v>
@@ -4485,71 +4484,118 @@
         <v>23</v>
       </c>
       <c r="Q90">
-        <v>150</v>
-      </c>
-      <c r="R90" t="s">
-        <v>22</v>
-      </c>
-      <c r="S90" t="s">
-        <v>23</v>
-      </c>
-      <c r="T90">
-        <v>300</v>
+        <v>120</v>
       </c>
     </row>
     <row r="91" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
+        <v>109</v>
+      </c>
+      <c r="C91" t="b">
+        <v>0</v>
+      </c>
+      <c r="E91">
+        <v>49.99</v>
+      </c>
+      <c r="F91">
+        <v>69000</v>
+      </c>
+      <c r="G91" t="s">
+        <v>109</v>
+      </c>
+      <c r="H91">
+        <v>243</v>
+      </c>
+      <c r="I91" t="s">
+        <v>22</v>
+      </c>
+      <c r="J91" t="s">
+        <v>23</v>
+      </c>
+      <c r="K91">
+        <v>90</v>
+      </c>
+      <c r="L91" t="s">
+        <v>22</v>
+      </c>
+      <c r="M91" t="s">
+        <v>24</v>
+      </c>
+      <c r="N91">
+        <v>30000</v>
+      </c>
+      <c r="O91" t="s">
+        <v>22</v>
+      </c>
+      <c r="P91" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q91">
+        <v>150</v>
+      </c>
+      <c r="R91" t="s">
+        <v>22</v>
+      </c>
+      <c r="S91" t="s">
+        <v>23</v>
+      </c>
+      <c r="T91">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="92" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
         <v>110</v>
       </c>
-      <c r="C91" t="b">
-        <v>0</v>
-      </c>
-      <c r="E91">
+      <c r="C92" t="b">
+        <v>0</v>
+      </c>
+      <c r="E92">
         <v>99.99</v>
       </c>
-      <c r="F91">
+      <c r="F92">
         <v>109000</v>
       </c>
-      <c r="G91" t="s">
+      <c r="G92" t="s">
         <v>110</v>
       </c>
-      <c r="H91">
-        <v>360</v>
-      </c>
-      <c r="I91" t="s">
+      <c r="H92">
+        <v>792</v>
+      </c>
+      <c r="I92" t="s">
         <v>25</v>
       </c>
-      <c r="J91" t="s">
+      <c r="J92" t="s">
         <v>111</v>
       </c>
-      <c r="K91">
+      <c r="K92">
         <v>1</v>
       </c>
-      <c r="L91" t="s">
-        <v>22</v>
-      </c>
-      <c r="M91" t="s">
-        <v>23</v>
-      </c>
-      <c r="N91">
+      <c r="L92" t="s">
+        <v>22</v>
+      </c>
+      <c r="M92" t="s">
+        <v>23</v>
+      </c>
+      <c r="N92">
         <v>1000</v>
       </c>
-      <c r="O91" t="s">
-        <v>22</v>
-      </c>
-      <c r="P91" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q91">
+      <c r="O92" t="s">
+        <v>22</v>
+      </c>
+      <c r="P92" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q92">
         <v>25000</v>
       </c>
-      <c r="R91" t="s">
-        <v>22</v>
-      </c>
-      <c r="S91" t="s">
+      <c r="R92" t="s">
+        <v>22</v>
+      </c>
+      <c r="S92" t="s">
         <v>98</v>
       </c>
-      <c r="T91">
+      <c r="T92">
         <v>750</v>
       </c>
     </row>

--- a/Excel/Shop.xlsx
+++ b/Excel/Shop.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectNameless\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C70A367-E477-4B4A-AC13-A268F735086A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CDD1D32-8DE1-4AFA-9FDC-92407F67489C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{1A95D980-8F25-43B6-BA87-364295A77694}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1A95D980-8F25-43B6-BA87-364295A77694}"/>
   </bookViews>
   <sheets>
     <sheet name="ShopProductTable" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="635" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="653" uniqueCount="145">
   <si>
     <t>productId|String</t>
   </si>
@@ -462,6 +462,18 @@
   </si>
   <si>
     <t>Spell_0003</t>
+  </si>
+  <si>
+    <t>analysisboost_1</t>
+  </si>
+  <si>
+    <t>Item_cAnalysisBoost</t>
+  </si>
+  <si>
+    <t>analysisboost_2</t>
+  </si>
+  <si>
+    <t>analysisboost_3</t>
   </si>
 </sst>
 </file>
@@ -825,10 +837,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED115DDC-E095-4A60-B3EA-80FAE0A4BDBC}">
-  <dimension ref="A1:W92"/>
+  <dimension ref="A1:W95"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="A96" sqref="A96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4596,6 +4608,120 @@
         <v>98</v>
       </c>
       <c r="T92">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="93" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>141</v>
+      </c>
+      <c r="C93" t="b">
+        <v>0</v>
+      </c>
+      <c r="E93">
+        <v>0.99</v>
+      </c>
+      <c r="F93">
+        <v>1200</v>
+      </c>
+      <c r="G93" t="s">
+        <v>141</v>
+      </c>
+      <c r="H93">
+        <v>384</v>
+      </c>
+      <c r="I93" t="s">
+        <v>25</v>
+      </c>
+      <c r="J93" t="s">
+        <v>142</v>
+      </c>
+      <c r="K93">
+        <v>86400</v>
+      </c>
+    </row>
+    <row r="94" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>143</v>
+      </c>
+      <c r="C94" t="b">
+        <v>0</v>
+      </c>
+      <c r="E94">
+        <v>4.99</v>
+      </c>
+      <c r="F94">
+        <v>5900</v>
+      </c>
+      <c r="G94" t="s">
+        <v>143</v>
+      </c>
+      <c r="H94">
+        <v>681</v>
+      </c>
+      <c r="I94" t="s">
+        <v>25</v>
+      </c>
+      <c r="J94" t="s">
+        <v>142</v>
+      </c>
+      <c r="K94">
+        <v>604800</v>
+      </c>
+    </row>
+    <row r="95" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
+        <v>144</v>
+      </c>
+      <c r="C95" t="b">
+        <v>0</v>
+      </c>
+      <c r="E95">
+        <v>9.99</v>
+      </c>
+      <c r="F95">
+        <v>13000</v>
+      </c>
+      <c r="G95" t="s">
+        <v>144</v>
+      </c>
+      <c r="H95">
+        <v>813</v>
+      </c>
+      <c r="I95" t="s">
+        <v>25</v>
+      </c>
+      <c r="J95" t="s">
+        <v>142</v>
+      </c>
+      <c r="K95">
+        <v>2592000</v>
+      </c>
+      <c r="L95" t="s">
+        <v>22</v>
+      </c>
+      <c r="M95" t="s">
+        <v>23</v>
+      </c>
+      <c r="N95">
+        <v>1000</v>
+      </c>
+      <c r="O95" t="s">
+        <v>22</v>
+      </c>
+      <c r="P95" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q95">
+        <v>25000</v>
+      </c>
+      <c r="R95" t="s">
+        <v>22</v>
+      </c>
+      <c r="S95" t="s">
+        <v>98</v>
+      </c>
+      <c r="T95">
         <v>750</v>
       </c>
     </row>

--- a/Excel/Shop.xlsx
+++ b/Excel/Shop.xlsx
@@ -5,18 +5,20 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNameless\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CDD1D32-8DE1-4AFA-9FDC-92407F67489C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17605599-6C2A-497D-9AE2-E95BA16C12CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1A95D980-8F25-43B6-BA87-364295A77694}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{1A95D980-8F25-43B6-BA87-364295A77694}"/>
   </bookViews>
   <sheets>
     <sheet name="ShopProductTable" sheetId="1" r:id="rId1"/>
     <sheet name="LevelPassTable" sheetId="2" r:id="rId2"/>
     <sheet name="ConsumeItemTable" sheetId="3" r:id="rId3"/>
     <sheet name="StageClearTable" sheetId="4" r:id="rId4"/>
+    <sheet name="PickOneSpellTable" sheetId="5" r:id="rId5"/>
+    <sheet name="PickOneCharacterTable" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="653" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="691" uniqueCount="167">
   <si>
     <t>productId|String</t>
   </si>
@@ -371,12 +373,6 @@
     <t>relay_10</t>
   </si>
   <si>
-    <t>autonew_1</t>
-  </si>
-  <si>
-    <t>Cash_sAutoNew</t>
-  </si>
-  <si>
     <t>levelpass</t>
   </si>
   <si>
@@ -474,13 +470,95 @@
   </si>
   <si>
     <t>analysisboost_3</t>
+  </si>
+  <si>
+    <t>ev14_unacquiredspell</t>
+  </si>
+  <si>
+    <t>Cash_sAcquiredSpell</t>
+  </si>
+  <si>
+    <t>ev13_acquiredspell_0001</t>
+  </si>
+  <si>
+    <t>ev13_acquiredspell_0002</t>
+  </si>
+  <si>
+    <t>ev13_acquiredspell</t>
+  </si>
+  <si>
+    <t>acquired|Bool</t>
+  </si>
+  <si>
+    <t>spellId|String</t>
+  </si>
+  <si>
+    <t>count|Int</t>
+  </si>
+  <si>
+    <t>Spell_0019</t>
+  </si>
+  <si>
+    <t>Spell_0018</t>
+  </si>
+  <si>
+    <t>Spell_0001</t>
+  </si>
+  <si>
+    <t>Spell_0002</t>
+  </si>
+  <si>
+    <t>acquired|Int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>actorId|String</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>count|Int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shopProductId|String</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Actor2238</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ev17_unacquiredcompanion</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Actor0240</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Actor2103</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ev15_acquiredcompanion</t>
+  </si>
+  <si>
+    <t>Actor2010</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ev16_acquiredcompanionpp</t>
+  </si>
+  <si>
+    <t>Actor2011</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -493,6 +571,14 @@
       <sz val="8"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
@@ -519,8 +605,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -837,10 +926,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED115DDC-E095-4A60-B3EA-80FAE0A4BDBC}">
-  <dimension ref="A1:W95"/>
+  <dimension ref="A1:W99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="A96" sqref="A96"/>
+    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="A100" sqref="A100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -868,7 +957,7 @@
         <v>6</v>
       </c>
       <c r="D1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E1" t="s">
         <v>1</v>
@@ -930,7 +1019,7 @@
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C2" t="b">
         <v>0</v>
@@ -942,7 +1031,7 @@
         <v>13000</v>
       </c>
       <c r="G2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="H2">
         <v>744</v>
@@ -959,7 +1048,7 @@
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C3" t="b">
         <v>0</v>
@@ -971,7 +1060,7 @@
         <v>6500</v>
       </c>
       <c r="G3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="H3">
         <v>493</v>
@@ -988,7 +1077,7 @@
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C4" t="b">
         <v>0</v>
@@ -1000,7 +1089,7 @@
         <v>13000</v>
       </c>
       <c r="G4" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="H4">
         <v>234</v>
@@ -1026,7 +1115,7 @@
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C5" t="b">
         <v>0</v>
@@ -1038,7 +1127,7 @@
         <v>6500</v>
       </c>
       <c r="G5" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="H5">
         <v>125</v>
@@ -1519,7 +1608,7 @@
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C16" t="b">
         <v>0</v>
@@ -1531,7 +1620,7 @@
         <v>13000</v>
       </c>
       <c r="G16" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="H16">
         <v>682</v>
@@ -1557,7 +1646,7 @@
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C17" t="b">
         <v>0</v>
@@ -1569,7 +1658,7 @@
         <v>13000</v>
       </c>
       <c r="G17" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="H17">
         <v>601</v>
@@ -1595,7 +1684,7 @@
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C18" t="b">
         <v>0</v>
@@ -1607,7 +1696,7 @@
         <v>1200</v>
       </c>
       <c r="G18" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="H18">
         <v>797</v>
@@ -1624,7 +1713,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C19" t="b">
         <v>1</v>
@@ -1636,7 +1725,7 @@
         <v>25</v>
       </c>
       <c r="J19" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="K19">
         <v>1</v>
@@ -1730,7 +1819,7 @@
         <v>25</v>
       </c>
       <c r="J21" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="K21">
         <v>75</v>
@@ -1824,7 +1913,7 @@
         <v>25</v>
       </c>
       <c r="J23" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="K23">
         <v>200</v>
@@ -1918,7 +2007,7 @@
         <v>25</v>
       </c>
       <c r="J25" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="K25">
         <v>400</v>
@@ -2012,7 +2101,7 @@
         <v>25</v>
       </c>
       <c r="J27" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="K27">
         <v>1200</v>
@@ -2106,7 +2195,7 @@
         <v>25</v>
       </c>
       <c r="J29" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="K29">
         <v>300</v>
@@ -2200,7 +2289,7 @@
         <v>25</v>
       </c>
       <c r="J31" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="K31">
         <v>1000</v>
@@ -2226,7 +2315,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C32" t="b">
         <v>0</v>
@@ -2238,7 +2327,7 @@
         <v>13000</v>
       </c>
       <c r="G32" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="H32">
         <v>359</v>
@@ -2247,7 +2336,7 @@
         <v>25</v>
       </c>
       <c r="J32" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="K32">
         <v>500</v>
@@ -2273,7 +2362,7 @@
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C33" t="b">
         <v>0</v>
@@ -2285,7 +2374,7 @@
         <v>19000</v>
       </c>
       <c r="G33" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="H33">
         <v>881</v>
@@ -2320,7 +2409,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C34" t="b">
         <v>0</v>
@@ -2332,7 +2421,7 @@
         <v>39000</v>
       </c>
       <c r="G34" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="H34">
         <v>108</v>
@@ -2341,7 +2430,7 @@
         <v>25</v>
       </c>
       <c r="J34" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="K34">
         <v>1500</v>
@@ -2367,7 +2456,7 @@
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C35" t="b">
         <v>0</v>
@@ -2379,7 +2468,7 @@
         <v>69000</v>
       </c>
       <c r="G35" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="H35">
         <v>550</v>
@@ -2414,7 +2503,7 @@
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C36" t="b">
         <v>0</v>
@@ -2426,7 +2515,7 @@
         <v>13000</v>
       </c>
       <c r="G36" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="H36">
         <v>397</v>
@@ -2435,7 +2524,7 @@
         <v>25</v>
       </c>
       <c r="J36" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="K36">
         <v>500</v>
@@ -2461,7 +2550,7 @@
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C37" t="b">
         <v>0</v>
@@ -2473,7 +2562,7 @@
         <v>19000</v>
       </c>
       <c r="G37" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="H37">
         <v>401</v>
@@ -2508,7 +2597,7 @@
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C38" t="b">
         <v>0</v>
@@ -2520,7 +2609,7 @@
         <v>39000</v>
       </c>
       <c r="G38" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="H38">
         <v>177</v>
@@ -2529,7 +2618,7 @@
         <v>25</v>
       </c>
       <c r="J38" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="K38">
         <v>1500</v>
@@ -2555,7 +2644,7 @@
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C39" t="b">
         <v>0</v>
@@ -2567,7 +2656,7 @@
         <v>69000</v>
       </c>
       <c r="G39" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="H39">
         <v>506</v>
@@ -2602,7 +2691,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C40" t="b">
         <v>0</v>
@@ -2614,7 +2703,7 @@
         <v>13000</v>
       </c>
       <c r="G40" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="H40">
         <v>741</v>
@@ -2623,7 +2712,7 @@
         <v>25</v>
       </c>
       <c r="J40" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="K40">
         <v>500</v>
@@ -2649,7 +2738,7 @@
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C41" t="b">
         <v>0</v>
@@ -2661,7 +2750,7 @@
         <v>19000</v>
       </c>
       <c r="G41" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="H41">
         <v>578</v>
@@ -2696,7 +2785,7 @@
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C42" t="b">
         <v>0</v>
@@ -2708,7 +2797,7 @@
         <v>39000</v>
       </c>
       <c r="G42" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="H42">
         <v>106</v>
@@ -2717,7 +2806,7 @@
         <v>25</v>
       </c>
       <c r="J42" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="K42">
         <v>1500</v>
@@ -2743,7 +2832,7 @@
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C43" t="b">
         <v>0</v>
@@ -2755,7 +2844,7 @@
         <v>69000</v>
       </c>
       <c r="G43" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="H43">
         <v>440</v>
@@ -3984,7 +4073,7 @@
     </row>
     <row r="80" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C80" t="b">
         <v>0</v>
@@ -3996,7 +4085,7 @@
         <v>5900</v>
       </c>
       <c r="G80" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="H80">
         <v>212</v>
@@ -4022,7 +4111,7 @@
     </row>
     <row r="81" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C81" t="b">
         <v>0</v>
@@ -4034,7 +4123,7 @@
         <v>5900</v>
       </c>
       <c r="G81" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="H81">
         <v>131</v>
@@ -4557,58 +4646,31 @@
     </row>
     <row r="92" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>110</v>
+        <v>139</v>
       </c>
       <c r="C92" t="b">
         <v>0</v>
       </c>
       <c r="E92">
-        <v>99.99</v>
+        <v>0.99</v>
       </c>
       <c r="F92">
-        <v>109000</v>
+        <v>1200</v>
       </c>
       <c r="G92" t="s">
-        <v>110</v>
+        <v>139</v>
       </c>
       <c r="H92">
-        <v>792</v>
+        <v>384</v>
       </c>
       <c r="I92" t="s">
         <v>25</v>
       </c>
       <c r="J92" t="s">
-        <v>111</v>
+        <v>140</v>
       </c>
       <c r="K92">
-        <v>1</v>
-      </c>
-      <c r="L92" t="s">
-        <v>22</v>
-      </c>
-      <c r="M92" t="s">
-        <v>23</v>
-      </c>
-      <c r="N92">
-        <v>1000</v>
-      </c>
-      <c r="O92" t="s">
-        <v>22</v>
-      </c>
-      <c r="P92" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q92">
-        <v>25000</v>
-      </c>
-      <c r="R92" t="s">
-        <v>22</v>
-      </c>
-      <c r="S92" t="s">
-        <v>98</v>
-      </c>
-      <c r="T92">
-        <v>750</v>
+        <v>86400</v>
       </c>
     </row>
     <row r="93" spans="1:20" x14ac:dyDescent="0.3">
@@ -4619,59 +4681,86 @@
         <v>0</v>
       </c>
       <c r="E93">
-        <v>0.99</v>
+        <v>4.99</v>
       </c>
       <c r="F93">
-        <v>1200</v>
+        <v>5900</v>
       </c>
       <c r="G93" t="s">
         <v>141</v>
       </c>
       <c r="H93">
-        <v>384</v>
+        <v>681</v>
       </c>
       <c r="I93" t="s">
         <v>25</v>
       </c>
       <c r="J93" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="K93">
-        <v>86400</v>
+        <v>604800</v>
       </c>
     </row>
     <row r="94" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C94" t="b">
         <v>0</v>
       </c>
       <c r="E94">
-        <v>4.99</v>
+        <v>9.99</v>
       </c>
       <c r="F94">
-        <v>5900</v>
+        <v>13000</v>
       </c>
       <c r="G94" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H94">
-        <v>681</v>
+        <v>813</v>
       </c>
       <c r="I94" t="s">
         <v>25</v>
       </c>
       <c r="J94" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="K94">
-        <v>604800</v>
+        <v>2592000</v>
+      </c>
+      <c r="L94" t="s">
+        <v>22</v>
+      </c>
+      <c r="M94" t="s">
+        <v>23</v>
+      </c>
+      <c r="N94">
+        <v>1000</v>
+      </c>
+      <c r="O94" t="s">
+        <v>22</v>
+      </c>
+      <c r="P94" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q94">
+        <v>25000</v>
+      </c>
+      <c r="R94" t="s">
+        <v>22</v>
+      </c>
+      <c r="S94" t="s">
+        <v>98</v>
+      </c>
+      <c r="T94">
+        <v>750</v>
       </c>
     </row>
     <row r="95" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C95" t="b">
         <v>0</v>
@@ -4683,46 +4772,135 @@
         <v>13000</v>
       </c>
       <c r="G95" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H95">
-        <v>813</v>
+        <v>178</v>
       </c>
       <c r="I95" t="s">
         <v>25</v>
       </c>
       <c r="J95" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="K95">
-        <v>2592000</v>
-      </c>
-      <c r="L95" t="s">
-        <v>22</v>
-      </c>
-      <c r="M95" t="s">
-        <v>23</v>
-      </c>
-      <c r="N95">
-        <v>1000</v>
-      </c>
-      <c r="O95" t="s">
-        <v>22</v>
-      </c>
-      <c r="P95" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q95">
-        <v>25000</v>
-      </c>
-      <c r="R95" t="s">
-        <v>22</v>
-      </c>
-      <c r="S95" t="s">
-        <v>98</v>
-      </c>
-      <c r="T95">
-        <v>750</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
+        <v>143</v>
+      </c>
+      <c r="C96" t="b">
+        <v>0</v>
+      </c>
+      <c r="E96">
+        <v>9.99</v>
+      </c>
+      <c r="F96">
+        <v>13000</v>
+      </c>
+      <c r="G96" t="s">
+        <v>143</v>
+      </c>
+      <c r="H96">
+        <v>156</v>
+      </c>
+      <c r="I96" t="s">
+        <v>25</v>
+      </c>
+      <c r="J96" t="s">
+        <v>144</v>
+      </c>
+      <c r="K96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
+        <v>145</v>
+      </c>
+      <c r="C97" t="b">
+        <v>0</v>
+      </c>
+      <c r="E97">
+        <v>9.99</v>
+      </c>
+      <c r="F97">
+        <v>13000</v>
+      </c>
+      <c r="G97" t="s">
+        <v>145</v>
+      </c>
+      <c r="H97">
+        <v>240</v>
+      </c>
+      <c r="I97" t="s">
+        <v>25</v>
+      </c>
+      <c r="J97" t="s">
+        <v>144</v>
+      </c>
+      <c r="K97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>146</v>
+      </c>
+      <c r="C98" t="b">
+        <v>0</v>
+      </c>
+      <c r="E98">
+        <v>9.99</v>
+      </c>
+      <c r="F98">
+        <v>13000</v>
+      </c>
+      <c r="G98" t="s">
+        <v>146</v>
+      </c>
+      <c r="H98">
+        <v>652</v>
+      </c>
+      <c r="I98" t="s">
+        <v>25</v>
+      </c>
+      <c r="J98" t="s">
+        <v>144</v>
+      </c>
+      <c r="K98">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
+        <v>147</v>
+      </c>
+      <c r="C99" t="b">
+        <v>0</v>
+      </c>
+      <c r="E99">
+        <v>9.99</v>
+      </c>
+      <c r="F99">
+        <v>13000</v>
+      </c>
+      <c r="G99" t="s">
+        <v>147</v>
+      </c>
+      <c r="H99">
+        <v>358</v>
+      </c>
+      <c r="I99" t="s">
+        <v>25</v>
+      </c>
+      <c r="J99" t="s">
+        <v>144</v>
+      </c>
+      <c r="K99">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -4902,13 +5080,13 @@
   <sheetData>
     <row r="1" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C1" t="s">
         <v>132</v>
-      </c>
-      <c r="B1" t="s">
-        <v>133</v>
-      </c>
-      <c r="C1" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -4964,6 +5142,214 @@
       </c>
       <c r="C6" t="s">
         <v>96</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA60D8C1-0C1D-4976-AF38-D52614FAC4F3}">
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="13.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C1" t="s">
+        <v>150</v>
+      </c>
+      <c r="D1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="b">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="b">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>152</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="b">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>153</v>
+      </c>
+      <c r="C4">
+        <v>20</v>
+      </c>
+      <c r="D4" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" t="b">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s">
+        <v>154</v>
+      </c>
+      <c r="C5">
+        <v>20</v>
+      </c>
+      <c r="D5" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" t="b">
+        <v>1</v>
+      </c>
+      <c r="B6" t="s">
+        <v>138</v>
+      </c>
+      <c r="C6">
+        <v>20</v>
+      </c>
+      <c r="D6" t="s">
+        <v>147</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7177293C-891A-4EAD-A711-5940DE9046B0}">
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="13.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C1" t="s">
+        <v>157</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>161</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>162</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>164</v>
+      </c>
+      <c r="C5">
+        <v>20</v>
+      </c>
+      <c r="D5" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6" t="s">
+        <v>166</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6" t="s">
+        <v>163</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/Shop.xlsx
+++ b/Excel/Shop.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17605599-6C2A-497D-9AE2-E95BA16C12CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{063533D8-E984-4CEC-BE3F-A4765E1D146D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{1A95D980-8F25-43B6-BA87-364295A77694}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="691" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="697" uniqueCount="176">
   <si>
     <t>productId|String</t>
   </si>
@@ -552,6 +552,33 @@
   <si>
     <t>Actor2011</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CashName_sAcquiredSpell</t>
+  </si>
+  <si>
+    <t>Cash_sUnacquiredSpell</t>
+  </si>
+  <si>
+    <t>CashName_sUnacquiredSpell</t>
+  </si>
+  <si>
+    <t>Cash_sAcquiredCompanion</t>
+  </si>
+  <si>
+    <t>CashName_sAcquiredCompanion</t>
+  </si>
+  <si>
+    <t>Cash_sAcquiredCompanionPp</t>
+  </si>
+  <si>
+    <t>CashName_sAcquiredCompanionPp</t>
+  </si>
+  <si>
+    <t>Cash_sUnacquiredCompanion</t>
+  </si>
+  <si>
+    <t>CashName_sUnacquiredCompanion</t>
   </si>
 </sst>
 </file>
@@ -926,10 +953,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED115DDC-E095-4A60-B3EA-80FAE0A4BDBC}">
-  <dimension ref="A1:W99"/>
+  <dimension ref="A1:W98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="A100" sqref="A100"/>
+    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="A95" sqref="A95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4781,7 +4808,7 @@
         <v>25</v>
       </c>
       <c r="J95" t="s">
-        <v>144</v>
+        <v>168</v>
       </c>
       <c r="K95">
         <v>1</v>
@@ -4789,7 +4816,7 @@
     </row>
     <row r="96" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="C96" t="b">
         <v>0</v>
@@ -4801,16 +4828,16 @@
         <v>13000</v>
       </c>
       <c r="G96" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="H96">
-        <v>156</v>
+        <v>240</v>
       </c>
       <c r="I96" t="s">
         <v>25</v>
       </c>
       <c r="J96" t="s">
-        <v>144</v>
+        <v>167</v>
       </c>
       <c r="K96">
         <v>1</v>
@@ -4818,7 +4845,7 @@
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C97" t="b">
         <v>0</v>
@@ -4830,16 +4857,16 @@
         <v>13000</v>
       </c>
       <c r="G97" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="H97">
-        <v>240</v>
+        <v>652</v>
       </c>
       <c r="I97" t="s">
         <v>25</v>
       </c>
       <c r="J97" t="s">
-        <v>144</v>
+        <v>167</v>
       </c>
       <c r="K97">
         <v>1</v>
@@ -4847,7 +4874,7 @@
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C98" t="b">
         <v>0</v>
@@ -4859,47 +4886,18 @@
         <v>13000</v>
       </c>
       <c r="G98" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="H98">
-        <v>652</v>
+        <v>358</v>
       </c>
       <c r="I98" t="s">
         <v>25</v>
       </c>
       <c r="J98" t="s">
-        <v>144</v>
+        <v>167</v>
       </c>
       <c r="K98">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A99" t="s">
-        <v>147</v>
-      </c>
-      <c r="C99" t="b">
-        <v>0</v>
-      </c>
-      <c r="E99">
-        <v>9.99</v>
-      </c>
-      <c r="F99">
-        <v>13000</v>
-      </c>
-      <c r="G99" t="s">
-        <v>147</v>
-      </c>
-      <c r="H99">
-        <v>358</v>
-      </c>
-      <c r="I99" t="s">
-        <v>25</v>
-      </c>
-      <c r="J99" t="s">
-        <v>144</v>
-      </c>
-      <c r="K99">
         <v>1</v>
       </c>
     </row>
@@ -5014,10 +5012,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A538EB96-EB04-4826-9AF0-A58A4FE56B38}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5056,6 +5054,46 @@
       </c>
       <c r="B4" t="s">
         <v>89</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>144</v>
+      </c>
+      <c r="B5" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>168</v>
+      </c>
+      <c r="B6" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>170</v>
+      </c>
+      <c r="B7" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>172</v>
+      </c>
+      <c r="B8" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>174</v>
+      </c>
+      <c r="B9" t="s">
+        <v>175</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/Shop.xlsx
+++ b/Excel/Shop.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{063533D8-E984-4CEC-BE3F-A4765E1D146D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5BA8979-DC20-4296-8B79-50C4CA770AA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{1A95D980-8F25-43B6-BA87-364295A77694}"/>
   </bookViews>
@@ -20,6 +20,9 @@
     <sheet name="PickOneSpellTable" sheetId="5" r:id="rId5"/>
     <sheet name="PickOneCharacterTable" sheetId="6" r:id="rId6"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">ShopProductTable!$A$1:$W$101</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -39,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="697" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="709" uniqueCount="178">
   <si>
     <t>productId|String</t>
   </si>
@@ -487,9 +490,6 @@
     <t>ev13_acquiredspell</t>
   </si>
   <si>
-    <t>acquired|Bool</t>
-  </si>
-  <si>
     <t>spellId|String</t>
   </si>
   <si>
@@ -508,77 +508,76 @@
     <t>Spell_0002</t>
   </si>
   <si>
+    <t>CashName_sAcquiredSpell</t>
+  </si>
+  <si>
+    <t>Cash_sUnacquiredSpell</t>
+  </si>
+  <si>
+    <t>CashName_sUnacquiredSpell</t>
+  </si>
+  <si>
+    <t>Cash_sAcquiredCompanion</t>
+  </si>
+  <si>
+    <t>CashName_sAcquiredCompanion</t>
+  </si>
+  <si>
+    <t>Cash_sAcquiredCompanionPp</t>
+  </si>
+  <si>
+    <t>CashName_sAcquiredCompanionPp</t>
+  </si>
+  <si>
+    <t>Cash_sUnacquiredCompanion</t>
+  </si>
+  <si>
+    <t>CashName_sUnacquiredCompanion</t>
+  </si>
+  <si>
+    <t>acquired|bool</t>
+  </si>
+  <si>
+    <t>ev13_unacquiredspell</t>
+  </si>
+  <si>
+    <t>ev14_acquiredspell_0001</t>
+  </si>
+  <si>
+    <t>ev14_acquiredspell_0002</t>
+  </si>
+  <si>
+    <t>ev14_acquiredspell</t>
+  </si>
+  <si>
     <t>acquired|Int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>actorId|String</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>count|Int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>shopProductId|String</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Actor2238</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ev17_unacquiredcompanion</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ev15_unacquiredcompanion</t>
   </si>
   <si>
     <t>Actor0240</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Actor2103</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ev15_acquiredcompanion</t>
+  </si>
+  <si>
+    <t>ev16_acquiredcompanion</t>
   </si>
   <si>
     <t>Actor2010</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ev16_acquiredcompanionpp</t>
+  </si>
+  <si>
+    <t>ev17_acquiredcompanionpp</t>
   </si>
   <si>
     <t>Actor2011</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CashName_sAcquiredSpell</t>
-  </si>
-  <si>
-    <t>Cash_sUnacquiredSpell</t>
-  </si>
-  <si>
-    <t>CashName_sUnacquiredSpell</t>
-  </si>
-  <si>
-    <t>Cash_sAcquiredCompanion</t>
-  </si>
-  <si>
-    <t>CashName_sAcquiredCompanion</t>
-  </si>
-  <si>
-    <t>Cash_sAcquiredCompanionPp</t>
-  </si>
-  <si>
-    <t>CashName_sAcquiredCompanionPp</t>
-  </si>
-  <si>
-    <t>Cash_sUnacquiredCompanion</t>
-  </si>
-  <si>
-    <t>CashName_sUnacquiredCompanion</t>
   </si>
 </sst>
 </file>
@@ -953,10 +952,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED115DDC-E095-4A60-B3EA-80FAE0A4BDBC}">
-  <dimension ref="A1:W98"/>
+  <dimension ref="A1:W101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="A95" sqref="A95"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B83" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="T95" sqref="T95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4808,7 +4810,7 @@
         <v>25</v>
       </c>
       <c r="J95" t="s">
-        <v>168</v>
+        <v>155</v>
       </c>
       <c r="K95">
         <v>1</v>
@@ -4837,7 +4839,7 @@
         <v>25</v>
       </c>
       <c r="J96" t="s">
-        <v>167</v>
+        <v>144</v>
       </c>
       <c r="K96">
         <v>1</v>
@@ -4866,7 +4868,7 @@
         <v>25</v>
       </c>
       <c r="J97" t="s">
-        <v>167</v>
+        <v>144</v>
       </c>
       <c r="K97">
         <v>1</v>
@@ -4895,9 +4897,96 @@
         <v>25</v>
       </c>
       <c r="J98" t="s">
-        <v>167</v>
+        <v>144</v>
       </c>
       <c r="K98">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
+        <v>171</v>
+      </c>
+      <c r="C99" t="b">
+        <v>0</v>
+      </c>
+      <c r="E99">
+        <v>9.99</v>
+      </c>
+      <c r="F99">
+        <v>13000</v>
+      </c>
+      <c r="G99" t="s">
+        <v>171</v>
+      </c>
+      <c r="H99">
+        <v>717</v>
+      </c>
+      <c r="I99" t="s">
+        <v>25</v>
+      </c>
+      <c r="J99" t="s">
+        <v>161</v>
+      </c>
+      <c r="K99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
+        <v>174</v>
+      </c>
+      <c r="C100" t="b">
+        <v>0</v>
+      </c>
+      <c r="E100">
+        <v>9.99</v>
+      </c>
+      <c r="F100">
+        <v>13000</v>
+      </c>
+      <c r="G100" t="s">
+        <v>174</v>
+      </c>
+      <c r="H100">
+        <v>569</v>
+      </c>
+      <c r="I100" t="s">
+        <v>25</v>
+      </c>
+      <c r="J100" t="s">
+        <v>157</v>
+      </c>
+      <c r="K100">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
+        <v>176</v>
+      </c>
+      <c r="C101" t="b">
+        <v>0</v>
+      </c>
+      <c r="E101">
+        <v>9.99</v>
+      </c>
+      <c r="F101">
+        <v>13000</v>
+      </c>
+      <c r="G101" t="s">
+        <v>176</v>
+      </c>
+      <c r="H101">
+        <v>880</v>
+      </c>
+      <c r="I101" t="s">
+        <v>25</v>
+      </c>
+      <c r="J101" t="s">
+        <v>159</v>
+      </c>
+      <c r="K101">
         <v>1</v>
       </c>
     </row>
@@ -5061,39 +5150,39 @@
         <v>144</v>
       </c>
       <c r="B5" t="s">
-        <v>167</v>
+        <v>154</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>168</v>
+        <v>155</v>
       </c>
       <c r="B6" t="s">
-        <v>169</v>
+        <v>156</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>170</v>
+        <v>157</v>
       </c>
       <c r="B7" t="s">
-        <v>171</v>
+        <v>158</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>172</v>
+        <v>159</v>
       </c>
       <c r="B8" t="s">
-        <v>173</v>
+        <v>160</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>174</v>
+        <v>161</v>
       </c>
       <c r="B9" t="s">
-        <v>175</v>
+        <v>162</v>
       </c>
     </row>
   </sheetData>
@@ -5205,13 +5294,13 @@
   <sheetData>
     <row r="1" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B1" t="s">
         <v>148</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>149</v>
-      </c>
-      <c r="C1" t="s">
-        <v>150</v>
       </c>
       <c r="D1" t="s">
         <v>132</v>
@@ -5222,13 +5311,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>143</v>
+        <v>164</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -5236,13 +5325,13 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>143</v>
+        <v>164</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -5250,13 +5339,13 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C4">
         <v>20</v>
       </c>
       <c r="D4" t="s">
-        <v>145</v>
+        <v>165</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -5264,13 +5353,13 @@
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C5">
         <v>20</v>
       </c>
       <c r="D5" t="s">
-        <v>146</v>
+        <v>166</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -5284,7 +5373,7 @@
         <v>20</v>
       </c>
       <c r="D6" t="s">
-        <v>147</v>
+        <v>167</v>
       </c>
     </row>
   </sheetData>
@@ -5308,16 +5397,16 @@
   <sheetData>
     <row r="1" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>155</v>
+        <v>168</v>
       </c>
       <c r="B1" t="s">
-        <v>156</v>
+        <v>169</v>
       </c>
       <c r="C1" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>158</v>
+        <v>132</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -5325,13 +5414,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>159</v>
+        <v>170</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>160</v>
+        <v>171</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -5339,13 +5428,13 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>161</v>
+        <v>172</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>160</v>
+        <v>171</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -5353,13 +5442,13 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>162</v>
+        <v>173</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>163</v>
+        <v>174</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -5367,13 +5456,13 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>164</v>
+        <v>175</v>
       </c>
       <c r="C5">
         <v>20</v>
       </c>
       <c r="D5" t="s">
-        <v>165</v>
+        <v>176</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -5381,13 +5470,13 @@
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>166</v>
+        <v>177</v>
       </c>
       <c r="C6">
         <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>163</v>
+        <v>174</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/Shop.xlsx
+++ b/Excel/Shop.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5BA8979-DC20-4296-8B79-50C4CA770AA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{791172E4-CB0E-4B73-A279-B893B7541DE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{1A95D980-8F25-43B6-BA87-364295A77694}"/>
   </bookViews>
@@ -955,10 +955,10 @@
   <dimension ref="A1:W101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B83" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="T95" sqref="T95"/>
+      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3280,7 +3280,7 @@
         <v>24</v>
       </c>
       <c r="K56">
-        <v>40000</v>
+        <v>400000</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.3">
@@ -3309,7 +3309,7 @@
         <v>24</v>
       </c>
       <c r="K57">
-        <v>105000</v>
+        <v>1050000</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.3">
@@ -3338,7 +3338,7 @@
         <v>24</v>
       </c>
       <c r="K58">
-        <v>250000</v>
+        <v>2500000</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.3">
@@ -3367,7 +3367,7 @@
         <v>24</v>
       </c>
       <c r="K59">
-        <v>600000</v>
+        <v>6000000</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.3">
@@ -3396,7 +3396,7 @@
         <v>24</v>
       </c>
       <c r="K60">
-        <v>1900000</v>
+        <v>19000000</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.3">
@@ -3425,7 +3425,7 @@
         <v>24</v>
       </c>
       <c r="K61">
-        <v>4500000</v>
+        <v>45000000</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.3">
@@ -3454,7 +3454,7 @@
         <v>24</v>
       </c>
       <c r="K62">
-        <v>120000</v>
+        <v>1200000</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.3">
@@ -3483,7 +3483,7 @@
         <v>24</v>
       </c>
       <c r="K63">
-        <v>315000</v>
+        <v>3150000</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.3">
@@ -3512,7 +3512,7 @@
         <v>24</v>
       </c>
       <c r="K64">
-        <v>750000</v>
+        <v>7500000</v>
       </c>
     </row>
     <row r="65" spans="1:20" x14ac:dyDescent="0.3">
@@ -3541,7 +3541,7 @@
         <v>24</v>
       </c>
       <c r="K65">
-        <v>1800000</v>
+        <v>18000000</v>
       </c>
     </row>
     <row r="66" spans="1:20" x14ac:dyDescent="0.3">
@@ -3570,7 +3570,7 @@
         <v>24</v>
       </c>
       <c r="K66">
-        <v>5700000</v>
+        <v>57000000</v>
       </c>
     </row>
     <row r="67" spans="1:20" x14ac:dyDescent="0.3">
@@ -3599,7 +3599,7 @@
         <v>24</v>
       </c>
       <c r="K67">
-        <v>13500000</v>
+        <v>135000000</v>
       </c>
     </row>
     <row r="68" spans="1:20" x14ac:dyDescent="0.3">

--- a/Excel/Shop.xlsx
+++ b/Excel/Shop.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{791172E4-CB0E-4B73-A279-B893B7541DE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FBA1DCC-3BE7-439E-A14D-8B0CFD4F007F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{1A95D980-8F25-43B6-BA87-364295A77694}"/>
   </bookViews>
@@ -19,6 +19,7 @@
     <sheet name="StageClearTable" sheetId="4" r:id="rId4"/>
     <sheet name="PickOneSpellTable" sheetId="5" r:id="rId5"/>
     <sheet name="PickOneCharacterTable" sheetId="6" r:id="rId6"/>
+    <sheet name="BrokenEnergy" sheetId="7" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">ShopProductTable!$A$1:$W$101</definedName>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="709" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="734" uniqueCount="185">
   <si>
     <t>productId|String</t>
   </si>
@@ -379,9 +380,6 @@
     <t>levelpass</t>
   </si>
   <si>
-    <t>brokenenergy</t>
-  </si>
-  <si>
     <t>fortunewheel</t>
   </si>
   <si>
@@ -578,6 +576,30 @@
   </si>
   <si>
     <t>Actor2011</t>
+  </si>
+  <si>
+    <t>level|Int</t>
+  </si>
+  <si>
+    <t>minEnergy|Int</t>
+  </si>
+  <si>
+    <t>maxEnergy|Int</t>
+  </si>
+  <si>
+    <t>brokenenergy_1</t>
+  </si>
+  <si>
+    <t>brokenenergy_2</t>
+  </si>
+  <si>
+    <t>brokenenergy_3</t>
+  </si>
+  <si>
+    <t>brokenenergy_4</t>
+  </si>
+  <si>
+    <t>brokenenergy_5</t>
   </si>
 </sst>
 </file>
@@ -952,7 +974,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED115DDC-E095-4A60-B3EA-80FAE0A4BDBC}">
-  <dimension ref="A1:W101"/>
+  <dimension ref="A1:W105"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -986,7 +1008,7 @@
         <v>6</v>
       </c>
       <c r="D1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E1" t="s">
         <v>1</v>
@@ -1077,7 +1099,7 @@
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>111</v>
+        <v>180</v>
       </c>
       <c r="C3" t="b">
         <v>0</v>
@@ -1089,7 +1111,7 @@
         <v>6500</v>
       </c>
       <c r="G3" t="s">
-        <v>111</v>
+        <v>180</v>
       </c>
       <c r="H3">
         <v>493</v>
@@ -1106,192 +1128,138 @@
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>113</v>
+        <v>181</v>
       </c>
       <c r="C4" t="b">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>9.99</v>
+        <v>5.99</v>
       </c>
       <c r="F4">
-        <v>13000</v>
+        <v>7900</v>
       </c>
       <c r="G4" t="s">
-        <v>113</v>
+        <v>181</v>
       </c>
       <c r="H4">
-        <v>234</v>
+        <v>585</v>
       </c>
       <c r="I4" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="J4" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="K4">
-        <v>600</v>
-      </c>
-      <c r="L4" t="s">
-        <v>22</v>
-      </c>
-      <c r="M4" t="s">
-        <v>24</v>
-      </c>
-      <c r="N4">
-        <v>50000</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>134</v>
+        <v>182</v>
       </c>
       <c r="C5" t="b">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>4.99</v>
+        <v>6.99</v>
       </c>
       <c r="F5">
-        <v>6500</v>
+        <v>8900</v>
       </c>
       <c r="G5" t="s">
-        <v>134</v>
+        <v>182</v>
       </c>
       <c r="H5">
-        <v>125</v>
+        <v>752</v>
       </c>
       <c r="I5" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="J5" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="K5">
-        <v>500</v>
-      </c>
-      <c r="L5" t="s">
-        <v>22</v>
-      </c>
-      <c r="M5" t="s">
-        <v>24</v>
-      </c>
-      <c r="N5">
-        <v>40000</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>35</v>
+        <v>183</v>
       </c>
       <c r="C6" t="b">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>14.99</v>
+        <v>7.99</v>
       </c>
       <c r="F6">
-        <v>19000</v>
+        <v>9900</v>
       </c>
       <c r="G6" t="s">
-        <v>35</v>
+        <v>183</v>
       </c>
       <c r="H6">
-        <v>348</v>
+        <v>529</v>
       </c>
       <c r="I6" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="J6" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="K6">
-        <v>30</v>
-      </c>
-      <c r="L6" t="s">
-        <v>22</v>
-      </c>
-      <c r="M6" t="s">
-        <v>24</v>
-      </c>
-      <c r="N6">
-        <v>25000</v>
-      </c>
-      <c r="O6" t="s">
-        <v>22</v>
-      </c>
-      <c r="P6" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q6">
-        <v>100</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>36</v>
+        <v>184</v>
       </c>
       <c r="C7" t="b">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>29.99</v>
+        <v>8.99</v>
       </c>
       <c r="F7">
-        <v>39000</v>
+        <v>10900</v>
       </c>
       <c r="G7" t="s">
-        <v>36</v>
+        <v>184</v>
       </c>
       <c r="H7">
-        <v>431</v>
+        <v>743</v>
       </c>
       <c r="I7" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="J7" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="K7">
-        <v>60</v>
-      </c>
-      <c r="L7" t="s">
-        <v>22</v>
-      </c>
-      <c r="M7" t="s">
-        <v>24</v>
-      </c>
-      <c r="N7">
-        <v>15000</v>
-      </c>
-      <c r="O7" t="s">
-        <v>22</v>
-      </c>
-      <c r="P7" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q7">
-        <v>120</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>37</v>
+        <v>112</v>
       </c>
       <c r="C8" t="b">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>49.99</v>
+        <v>9.99</v>
       </c>
       <c r="F8">
-        <v>69000</v>
+        <v>11000</v>
       </c>
       <c r="G8" t="s">
-        <v>37</v>
+        <v>112</v>
       </c>
       <c r="H8">
-        <v>969</v>
+        <v>234</v>
       </c>
       <c r="I8" t="s">
         <v>22</v>
@@ -1300,7 +1268,7 @@
         <v>23</v>
       </c>
       <c r="K8">
-        <v>90</v>
+        <v>600</v>
       </c>
       <c r="L8" t="s">
         <v>22</v>
@@ -1309,39 +1277,27 @@
         <v>24</v>
       </c>
       <c r="N8">
-        <v>30000</v>
-      </c>
-      <c r="O8" t="s">
-        <v>22</v>
-      </c>
-      <c r="P8" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q8">
-        <v>150</v>
-      </c>
-      <c r="R8" t="s">
-        <v>22</v>
-      </c>
-      <c r="S8" t="s">
-        <v>23</v>
-      </c>
-      <c r="T8">
-        <v>300</v>
+        <v>50000</v>
       </c>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>38</v>
-      </c>
-      <c r="B9">
-        <v>1</v>
+        <v>133</v>
       </c>
       <c r="C9" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>4.99</v>
+      </c>
+      <c r="F9">
+        <v>6500</v>
+      </c>
+      <c r="G9" t="s">
+        <v>133</v>
       </c>
       <c r="H9">
-        <v>987</v>
+        <v>125</v>
       </c>
       <c r="I9" t="s">
         <v>22</v>
@@ -1350,7 +1306,7 @@
         <v>23</v>
       </c>
       <c r="K9">
-        <v>80</v>
+        <v>500</v>
       </c>
       <c r="L9" t="s">
         <v>22</v>
@@ -1359,30 +1315,27 @@
         <v>24</v>
       </c>
       <c r="N9">
-        <v>35000</v>
-      </c>
-      <c r="O9" t="s">
-        <v>22</v>
-      </c>
-      <c r="P9" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q9">
-        <v>170</v>
+        <v>40000</v>
       </c>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>39</v>
-      </c>
-      <c r="B10">
-        <v>2</v>
+        <v>35</v>
       </c>
       <c r="C10" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>14.99</v>
+      </c>
+      <c r="F10">
+        <v>19000</v>
+      </c>
+      <c r="G10" t="s">
+        <v>35</v>
       </c>
       <c r="H10">
-        <v>261</v>
+        <v>348</v>
       </c>
       <c r="I10" t="s">
         <v>22</v>
@@ -1391,80 +1344,92 @@
         <v>23</v>
       </c>
       <c r="K10">
-        <v>150</v>
+        <v>30</v>
+      </c>
+      <c r="L10" t="s">
+        <v>22</v>
+      </c>
+      <c r="M10" t="s">
+        <v>24</v>
+      </c>
+      <c r="N10">
+        <v>25000</v>
+      </c>
+      <c r="O10" t="s">
+        <v>22</v>
+      </c>
+      <c r="P10" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q10">
+        <v>100</v>
       </c>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>40</v>
-      </c>
-      <c r="B11">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="C11" t="b">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>1.99</v>
+        <v>29.99</v>
       </c>
       <c r="F11">
-        <v>2500</v>
+        <v>39000</v>
       </c>
       <c r="G11" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="H11">
-        <v>390</v>
+        <v>431</v>
       </c>
       <c r="I11" t="s">
         <v>22</v>
       </c>
       <c r="J11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K11">
-        <v>20000</v>
+        <v>60</v>
       </c>
       <c r="L11" t="s">
         <v>22</v>
       </c>
       <c r="M11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="N11">
-        <v>150</v>
+        <v>15000</v>
       </c>
       <c r="O11" t="s">
         <v>22</v>
       </c>
       <c r="P11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Q11">
-        <v>35000</v>
-      </c>
-      <c r="R11" t="s">
-        <v>22</v>
-      </c>
-      <c r="S11" t="s">
-        <v>23</v>
-      </c>
-      <c r="T11">
-        <v>200</v>
+        <v>120</v>
       </c>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>41</v>
-      </c>
-      <c r="B12">
-        <v>4</v>
+        <v>37</v>
       </c>
       <c r="C12" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>49.99</v>
+      </c>
+      <c r="F12">
+        <v>69000</v>
+      </c>
+      <c r="G12" t="s">
+        <v>37</v>
       </c>
       <c r="H12">
-        <v>997</v>
+        <v>969</v>
       </c>
       <c r="I12" t="s">
         <v>22</v>
@@ -1473,39 +1438,48 @@
         <v>23</v>
       </c>
       <c r="K12">
+        <v>90</v>
+      </c>
+      <c r="L12" t="s">
+        <v>22</v>
+      </c>
+      <c r="M12" t="s">
+        <v>24</v>
+      </c>
+      <c r="N12">
+        <v>30000</v>
+      </c>
+      <c r="O12" t="s">
+        <v>22</v>
+      </c>
+      <c r="P12" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q12">
         <v>150</v>
       </c>
-      <c r="L12" t="s">
-        <v>22</v>
-      </c>
-      <c r="M12" t="s">
-        <v>24</v>
-      </c>
-      <c r="N12">
-        <v>20000</v>
+      <c r="R12" t="s">
+        <v>22</v>
+      </c>
+      <c r="S12" t="s">
+        <v>23</v>
+      </c>
+      <c r="T12">
+        <v>300</v>
       </c>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="B13">
         <v>1</v>
       </c>
       <c r="C13" t="b">
-        <v>0</v>
-      </c>
-      <c r="E13">
-        <v>19.989999999999998</v>
-      </c>
-      <c r="F13">
-        <v>25000</v>
-      </c>
-      <c r="G13" t="s">
-        <v>32</v>
+        <v>1</v>
       </c>
       <c r="H13">
-        <v>384</v>
+        <v>987</v>
       </c>
       <c r="I13" t="s">
         <v>22</v>
@@ -1514,7 +1488,7 @@
         <v>23</v>
       </c>
       <c r="K13">
-        <v>350</v>
+        <v>80</v>
       </c>
       <c r="L13" t="s">
         <v>22</v>
@@ -1523,7 +1497,7 @@
         <v>24</v>
       </c>
       <c r="N13">
-        <v>80000</v>
+        <v>35000</v>
       </c>
       <c r="O13" t="s">
         <v>22</v>
@@ -1532,21 +1506,12 @@
         <v>23</v>
       </c>
       <c r="Q13">
-        <v>800</v>
-      </c>
-      <c r="R13" t="s">
-        <v>22</v>
-      </c>
-      <c r="S13" t="s">
-        <v>24</v>
-      </c>
-      <c r="T13">
-        <v>100000</v>
+        <v>170</v>
       </c>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="B14">
         <v>2</v>
@@ -1555,67 +1520,58 @@
         <v>1</v>
       </c>
       <c r="H14">
-        <v>619</v>
+        <v>261</v>
       </c>
       <c r="I14" t="s">
         <v>22</v>
       </c>
       <c r="J14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K14">
-        <v>50000</v>
-      </c>
-      <c r="L14" t="s">
-        <v>22</v>
-      </c>
-      <c r="M14" t="s">
-        <v>23</v>
-      </c>
-      <c r="N14">
-        <v>500</v>
-      </c>
-      <c r="O14" t="s">
-        <v>22</v>
-      </c>
-      <c r="P14" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q14">
-        <v>70000</v>
+        <v>150</v>
       </c>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="B15">
         <v>3</v>
       </c>
       <c r="C15" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>1.99</v>
+      </c>
+      <c r="F15">
+        <v>2500</v>
+      </c>
+      <c r="G15" t="s">
+        <v>40</v>
       </c>
       <c r="H15">
+        <v>390</v>
+      </c>
+      <c r="I15" t="s">
+        <v>22</v>
+      </c>
+      <c r="J15" t="s">
+        <v>24</v>
+      </c>
+      <c r="K15">
+        <v>20000</v>
+      </c>
+      <c r="L15" t="s">
+        <v>22</v>
+      </c>
+      <c r="M15" t="s">
+        <v>23</v>
+      </c>
+      <c r="N15">
         <v>150</v>
       </c>
-      <c r="I15" t="s">
-        <v>22</v>
-      </c>
-      <c r="J15" t="s">
-        <v>23</v>
-      </c>
-      <c r="K15">
-        <v>450</v>
-      </c>
-      <c r="L15" t="s">
-        <v>22</v>
-      </c>
-      <c r="M15" t="s">
-        <v>24</v>
-      </c>
-      <c r="N15">
-        <v>60000</v>
-      </c>
       <c r="O15" t="s">
         <v>22</v>
       </c>
@@ -1623,7 +1579,7 @@
         <v>24</v>
       </c>
       <c r="Q15">
-        <v>90000</v>
+        <v>35000</v>
       </c>
       <c r="R15" t="s">
         <v>22</v>
@@ -1632,27 +1588,21 @@
         <v>23</v>
       </c>
       <c r="T15">
-        <v>650</v>
+        <v>200</v>
       </c>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>135</v>
+        <v>41</v>
+      </c>
+      <c r="B16">
+        <v>4</v>
       </c>
       <c r="C16" t="b">
-        <v>0</v>
-      </c>
-      <c r="E16">
-        <v>9.99</v>
-      </c>
-      <c r="F16">
-        <v>13000</v>
-      </c>
-      <c r="G16" t="s">
-        <v>135</v>
+        <v>1</v>
       </c>
       <c r="H16">
-        <v>682</v>
+        <v>997</v>
       </c>
       <c r="I16" t="s">
         <v>22</v>
@@ -1661,7 +1611,7 @@
         <v>23</v>
       </c>
       <c r="K16">
-        <v>700</v>
+        <v>150</v>
       </c>
       <c r="L16" t="s">
         <v>22</v>
@@ -1670,103 +1620,139 @@
         <v>24</v>
       </c>
       <c r="N16">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17" t="b">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>19.989999999999998</v>
+      </c>
+      <c r="F17">
+        <v>25000</v>
+      </c>
+      <c r="G17" t="s">
+        <v>32</v>
+      </c>
+      <c r="H17">
+        <v>384</v>
+      </c>
+      <c r="I17" t="s">
+        <v>22</v>
+      </c>
+      <c r="J17" t="s">
+        <v>23</v>
+      </c>
+      <c r="K17">
+        <v>350</v>
+      </c>
+      <c r="L17" t="s">
+        <v>22</v>
+      </c>
+      <c r="M17" t="s">
+        <v>24</v>
+      </c>
+      <c r="N17">
+        <v>80000</v>
+      </c>
+      <c r="O17" t="s">
+        <v>22</v>
+      </c>
+      <c r="P17" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q17">
+        <v>800</v>
+      </c>
+      <c r="R17" t="s">
+        <v>22</v>
+      </c>
+      <c r="S17" t="s">
+        <v>24</v>
+      </c>
+      <c r="T17">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18">
+        <v>2</v>
+      </c>
+      <c r="C18" t="b">
+        <v>1</v>
+      </c>
+      <c r="H18">
+        <v>619</v>
+      </c>
+      <c r="I18" t="s">
+        <v>22</v>
+      </c>
+      <c r="J18" t="s">
+        <v>24</v>
+      </c>
+      <c r="K18">
         <v>50000</v>
       </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>136</v>
-      </c>
-      <c r="C17" t="b">
-        <v>0</v>
-      </c>
-      <c r="E17">
-        <v>9.99</v>
-      </c>
-      <c r="F17">
-        <v>13000</v>
-      </c>
-      <c r="G17" t="s">
-        <v>136</v>
-      </c>
-      <c r="H17">
-        <v>601</v>
-      </c>
-      <c r="I17" t="s">
-        <v>22</v>
-      </c>
-      <c r="J17" t="s">
-        <v>23</v>
-      </c>
-      <c r="K17">
-        <v>800</v>
-      </c>
-      <c r="L17" t="s">
-        <v>22</v>
-      </c>
-      <c r="M17" t="s">
-        <v>24</v>
-      </c>
-      <c r="N17">
-        <v>30000</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>112</v>
-      </c>
-      <c r="C18" t="b">
-        <v>0</v>
-      </c>
-      <c r="E18">
-        <v>0.99</v>
-      </c>
-      <c r="F18">
-        <v>1200</v>
-      </c>
-      <c r="G18" t="s">
-        <v>112</v>
-      </c>
-      <c r="H18">
-        <v>797</v>
-      </c>
-      <c r="I18" t="s">
-        <v>25</v>
-      </c>
-      <c r="J18" t="s">
-        <v>88</v>
-      </c>
-      <c r="K18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="L18" t="s">
+        <v>22</v>
+      </c>
+      <c r="M18" t="s">
+        <v>23</v>
+      </c>
+      <c r="N18">
+        <v>500</v>
+      </c>
+      <c r="O18" t="s">
+        <v>22</v>
+      </c>
+      <c r="P18" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q18">
+        <v>70000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>137</v>
+        <v>34</v>
+      </c>
+      <c r="B19">
+        <v>3</v>
       </c>
       <c r="C19" t="b">
         <v>1</v>
       </c>
       <c r="H19">
-        <v>658</v>
+        <v>150</v>
       </c>
       <c r="I19" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="J19" t="s">
-        <v>138</v>
+        <v>23</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>450</v>
       </c>
       <c r="L19" t="s">
         <v>22</v>
       </c>
       <c r="M19" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="N19">
-        <v>150</v>
+        <v>60000</v>
       </c>
       <c r="O19" t="s">
         <v>22</v>
@@ -1775,12 +1761,21 @@
         <v>24</v>
       </c>
       <c r="Q19">
-        <v>100000</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+        <v>90000</v>
+      </c>
+      <c r="R19" t="s">
+        <v>22</v>
+      </c>
+      <c r="S19" t="s">
+        <v>23</v>
+      </c>
+      <c r="T19">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>43</v>
+        <v>134</v>
       </c>
       <c r="C20" t="b">
         <v>0</v>
@@ -1792,10 +1787,10 @@
         <v>13000</v>
       </c>
       <c r="G20" t="s">
-        <v>43</v>
+        <v>134</v>
       </c>
       <c r="H20">
-        <v>386</v>
+        <v>682</v>
       </c>
       <c r="I20" t="s">
         <v>22</v>
@@ -1804,148 +1799,103 @@
         <v>23</v>
       </c>
       <c r="K20">
-        <v>100</v>
+        <v>700</v>
       </c>
       <c r="L20" t="s">
         <v>22</v>
       </c>
       <c r="M20" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="N20">
-        <v>50</v>
-      </c>
-      <c r="O20" t="s">
-        <v>22</v>
-      </c>
-      <c r="P20" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q20">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>44</v>
+        <v>135</v>
       </c>
       <c r="C21" t="b">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>14.99</v>
+        <v>9.99</v>
       </c>
       <c r="F21">
-        <v>19000</v>
+        <v>13000</v>
       </c>
       <c r="G21" t="s">
-        <v>44</v>
+        <v>135</v>
       </c>
       <c r="H21">
-        <v>582</v>
+        <v>601</v>
       </c>
       <c r="I21" t="s">
+        <v>22</v>
+      </c>
+      <c r="J21" t="s">
+        <v>23</v>
+      </c>
+      <c r="K21">
+        <v>800</v>
+      </c>
+      <c r="L21" t="s">
+        <v>22</v>
+      </c>
+      <c r="M21" t="s">
+        <v>24</v>
+      </c>
+      <c r="N21">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>111</v>
+      </c>
+      <c r="C22" t="b">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>0.99</v>
+      </c>
+      <c r="F22">
+        <v>1200</v>
+      </c>
+      <c r="G22" t="s">
+        <v>111</v>
+      </c>
+      <c r="H22">
+        <v>797</v>
+      </c>
+      <c r="I22" t="s">
         <v>25</v>
       </c>
-      <c r="J21" t="s">
-        <v>128</v>
-      </c>
-      <c r="K21">
-        <v>75</v>
-      </c>
-      <c r="L21" t="s">
-        <v>22</v>
-      </c>
-      <c r="M21" t="s">
-        <v>23</v>
-      </c>
-      <c r="N21">
-        <v>75</v>
-      </c>
-      <c r="O21" t="s">
-        <v>22</v>
-      </c>
-      <c r="P21" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q21">
-        <v>20000</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>45</v>
-      </c>
-      <c r="C22" t="b">
-        <v>0</v>
-      </c>
-      <c r="E22">
-        <v>29.99</v>
-      </c>
-      <c r="F22">
-        <v>39000</v>
-      </c>
-      <c r="G22" t="s">
-        <v>45</v>
-      </c>
-      <c r="H22">
-        <v>538</v>
-      </c>
-      <c r="I22" t="s">
-        <v>22</v>
-      </c>
       <c r="J22" t="s">
-        <v>23</v>
+        <v>88</v>
       </c>
       <c r="K22">
-        <v>300</v>
-      </c>
-      <c r="L22" t="s">
-        <v>22</v>
-      </c>
-      <c r="M22" t="s">
-        <v>23</v>
-      </c>
-      <c r="N22">
-        <v>100</v>
-      </c>
-      <c r="O22" t="s">
-        <v>22</v>
-      </c>
-      <c r="P22" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q22">
-        <v>40000</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>46</v>
+        <v>136</v>
       </c>
       <c r="C23" t="b">
-        <v>0</v>
-      </c>
-      <c r="E23">
-        <v>49.99</v>
-      </c>
-      <c r="F23">
-        <v>69000</v>
-      </c>
-      <c r="G23" t="s">
-        <v>46</v>
+        <v>1</v>
       </c>
       <c r="H23">
-        <v>620</v>
+        <v>658</v>
       </c>
       <c r="I23" t="s">
         <v>25</v>
       </c>
       <c r="J23" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="K23">
-        <v>200</v>
+        <v>1</v>
       </c>
       <c r="L23" t="s">
         <v>22</v>
@@ -1954,7 +1904,7 @@
         <v>23</v>
       </c>
       <c r="N23">
-        <v>500</v>
+        <v>150</v>
       </c>
       <c r="O23" t="s">
         <v>22</v>
@@ -1963,12 +1913,12 @@
         <v>24</v>
       </c>
       <c r="Q23">
-        <v>60000</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C24" t="b">
         <v>0</v>
@@ -1980,10 +1930,10 @@
         <v>13000</v>
       </c>
       <c r="G24" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="H24">
-        <v>474</v>
+        <v>386</v>
       </c>
       <c r="I24" t="s">
         <v>22</v>
@@ -2013,9 +1963,9 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C25" t="b">
         <v>0</v>
@@ -2027,19 +1977,19 @@
         <v>19000</v>
       </c>
       <c r="G25" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="H25">
-        <v>244</v>
+        <v>582</v>
       </c>
       <c r="I25" t="s">
         <v>25</v>
       </c>
       <c r="J25" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="K25">
-        <v>400</v>
+        <v>75</v>
       </c>
       <c r="L25" t="s">
         <v>22</v>
@@ -2060,9 +2010,9 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C26" t="b">
         <v>0</v>
@@ -2074,10 +2024,10 @@
         <v>39000</v>
       </c>
       <c r="G26" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="H26">
-        <v>944</v>
+        <v>538</v>
       </c>
       <c r="I26" t="s">
         <v>22</v>
@@ -2107,9 +2057,9 @@
         <v>40000</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C27" t="b">
         <v>0</v>
@@ -2121,19 +2071,19 @@
         <v>69000</v>
       </c>
       <c r="G27" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="H27">
-        <v>383</v>
+        <v>620</v>
       </c>
       <c r="I27" t="s">
         <v>25</v>
       </c>
       <c r="J27" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="K27">
-        <v>1200</v>
+        <v>200</v>
       </c>
       <c r="L27" t="s">
         <v>22</v>
@@ -2154,9 +2104,9 @@
         <v>60000</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C28" t="b">
         <v>0</v>
@@ -2168,10 +2118,10 @@
         <v>13000</v>
       </c>
       <c r="G28" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="H28">
-        <v>545</v>
+        <v>474</v>
       </c>
       <c r="I28" t="s">
         <v>22</v>
@@ -2201,9 +2151,9 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C29" t="b">
         <v>0</v>
@@ -2215,19 +2165,19 @@
         <v>19000</v>
       </c>
       <c r="G29" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="H29">
-        <v>231</v>
+        <v>244</v>
       </c>
       <c r="I29" t="s">
         <v>25</v>
       </c>
       <c r="J29" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="K29">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="L29" t="s">
         <v>22</v>
@@ -2248,9 +2198,9 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C30" t="b">
         <v>0</v>
@@ -2262,10 +2212,10 @@
         <v>39000</v>
       </c>
       <c r="G30" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="H30">
-        <v>654</v>
+        <v>944</v>
       </c>
       <c r="I30" t="s">
         <v>22</v>
@@ -2295,9 +2245,9 @@
         <v>40000</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C31" t="b">
         <v>0</v>
@@ -2309,19 +2259,19 @@
         <v>69000</v>
       </c>
       <c r="G31" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="H31">
-        <v>279</v>
+        <v>383</v>
       </c>
       <c r="I31" t="s">
         <v>25</v>
       </c>
       <c r="J31" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="K31">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="L31" t="s">
         <v>22</v>
@@ -2342,9 +2292,9 @@
         <v>60000</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>114</v>
+        <v>51</v>
       </c>
       <c r="C32" t="b">
         <v>0</v>
@@ -2356,19 +2306,19 @@
         <v>13000</v>
       </c>
       <c r="G32" t="s">
-        <v>114</v>
+        <v>51</v>
       </c>
       <c r="H32">
-        <v>359</v>
+        <v>545</v>
       </c>
       <c r="I32" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="J32" t="s">
-        <v>129</v>
+        <v>23</v>
       </c>
       <c r="K32">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="L32" t="s">
         <v>22</v>
@@ -2377,7 +2327,7 @@
         <v>23</v>
       </c>
       <c r="N32">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="O32" t="s">
         <v>22</v>
@@ -2386,12 +2336,12 @@
         <v>24</v>
       </c>
       <c r="Q32">
-        <v>20000</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>115</v>
+        <v>52</v>
       </c>
       <c r="C33" t="b">
         <v>0</v>
@@ -2403,16 +2353,16 @@
         <v>19000</v>
       </c>
       <c r="G33" t="s">
-        <v>115</v>
+        <v>52</v>
       </c>
       <c r="H33">
-        <v>881</v>
+        <v>231</v>
       </c>
       <c r="I33" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="J33" t="s">
-        <v>23</v>
+        <v>127</v>
       </c>
       <c r="K33">
         <v>300</v>
@@ -2424,7 +2374,7 @@
         <v>23</v>
       </c>
       <c r="N33">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="O33" t="s">
         <v>22</v>
@@ -2433,12 +2383,12 @@
         <v>24</v>
       </c>
       <c r="Q33">
-        <v>40000</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>116</v>
+        <v>53</v>
       </c>
       <c r="C34" t="b">
         <v>0</v>
@@ -2450,19 +2400,19 @@
         <v>39000</v>
       </c>
       <c r="G34" t="s">
-        <v>116</v>
+        <v>53</v>
       </c>
       <c r="H34">
-        <v>108</v>
+        <v>654</v>
       </c>
       <c r="I34" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="J34" t="s">
-        <v>129</v>
+        <v>23</v>
       </c>
       <c r="K34">
-        <v>1500</v>
+        <v>300</v>
       </c>
       <c r="L34" t="s">
         <v>22</v>
@@ -2471,7 +2421,7 @@
         <v>23</v>
       </c>
       <c r="N34">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="O34" t="s">
         <v>22</v>
@@ -2480,12 +2430,12 @@
         <v>24</v>
       </c>
       <c r="Q34">
-        <v>60000</v>
+        <v>40000</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>117</v>
+        <v>54</v>
       </c>
       <c r="C35" t="b">
         <v>0</v>
@@ -2497,19 +2447,19 @@
         <v>69000</v>
       </c>
       <c r="G35" t="s">
-        <v>117</v>
+        <v>54</v>
       </c>
       <c r="H35">
-        <v>550</v>
+        <v>279</v>
       </c>
       <c r="I35" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="J35" t="s">
-        <v>23</v>
+        <v>127</v>
       </c>
       <c r="K35">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="L35" t="s">
         <v>22</v>
@@ -2518,7 +2468,7 @@
         <v>23</v>
       </c>
       <c r="N35">
-        <v>50</v>
+        <v>500</v>
       </c>
       <c r="O35" t="s">
         <v>22</v>
@@ -2527,12 +2477,12 @@
         <v>24</v>
       </c>
       <c r="Q35">
-        <v>10000</v>
+        <v>60000</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="C36" t="b">
         <v>0</v>
@@ -2544,16 +2494,16 @@
         <v>13000</v>
       </c>
       <c r="G36" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="H36">
-        <v>397</v>
+        <v>359</v>
       </c>
       <c r="I36" t="s">
         <v>25</v>
       </c>
       <c r="J36" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="K36">
         <v>500</v>
@@ -2579,7 +2529,7 @@
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="C37" t="b">
         <v>0</v>
@@ -2591,10 +2541,10 @@
         <v>19000</v>
       </c>
       <c r="G37" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="H37">
-        <v>401</v>
+        <v>881</v>
       </c>
       <c r="I37" t="s">
         <v>22</v>
@@ -2626,7 +2576,7 @@
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="C38" t="b">
         <v>0</v>
@@ -2638,16 +2588,16 @@
         <v>39000</v>
       </c>
       <c r="G38" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="H38">
-        <v>177</v>
+        <v>108</v>
       </c>
       <c r="I38" t="s">
         <v>25</v>
       </c>
       <c r="J38" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="K38">
         <v>1500</v>
@@ -2673,7 +2623,7 @@
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="C39" t="b">
         <v>0</v>
@@ -2685,10 +2635,10 @@
         <v>69000</v>
       </c>
       <c r="G39" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="H39">
-        <v>506</v>
+        <v>550</v>
       </c>
       <c r="I39" t="s">
         <v>22</v>
@@ -2720,7 +2670,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C40" t="b">
         <v>0</v>
@@ -2732,16 +2682,16 @@
         <v>13000</v>
       </c>
       <c r="G40" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="H40">
-        <v>741</v>
+        <v>397</v>
       </c>
       <c r="I40" t="s">
         <v>25</v>
       </c>
       <c r="J40" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="K40">
         <v>500</v>
@@ -2767,7 +2717,7 @@
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="C41" t="b">
         <v>0</v>
@@ -2779,10 +2729,10 @@
         <v>19000</v>
       </c>
       <c r="G41" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="H41">
-        <v>578</v>
+        <v>401</v>
       </c>
       <c r="I41" t="s">
         <v>22</v>
@@ -2814,7 +2764,7 @@
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="C42" t="b">
         <v>0</v>
@@ -2826,16 +2776,16 @@
         <v>39000</v>
       </c>
       <c r="G42" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="H42">
-        <v>106</v>
+        <v>177</v>
       </c>
       <c r="I42" t="s">
         <v>25</v>
       </c>
       <c r="J42" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="K42">
         <v>1500</v>
@@ -2861,7 +2811,7 @@
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="C43" t="b">
         <v>0</v>
@@ -2873,10 +2823,10 @@
         <v>69000</v>
       </c>
       <c r="G43" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="H43">
-        <v>440</v>
+        <v>506</v>
       </c>
       <c r="I43" t="s">
         <v>22</v>
@@ -2908,51 +2858,69 @@
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>55</v>
+        <v>121</v>
       </c>
       <c r="C44" t="b">
         <v>0</v>
       </c>
       <c r="E44">
-        <v>0.99</v>
+        <v>9.99</v>
       </c>
       <c r="F44">
-        <v>1200</v>
+        <v>13000</v>
       </c>
       <c r="G44" t="s">
-        <v>55</v>
+        <v>121</v>
       </c>
       <c r="H44">
-        <v>713</v>
+        <v>741</v>
       </c>
       <c r="I44" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="J44" t="s">
-        <v>23</v>
+        <v>128</v>
       </c>
       <c r="K44">
-        <v>30</v>
+        <v>500</v>
+      </c>
+      <c r="L44" t="s">
+        <v>22</v>
+      </c>
+      <c r="M44" t="s">
+        <v>23</v>
+      </c>
+      <c r="N44">
+        <v>75</v>
+      </c>
+      <c r="O44" t="s">
+        <v>22</v>
+      </c>
+      <c r="P44" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q44">
+        <v>20000</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>56</v>
+        <v>122</v>
       </c>
       <c r="C45" t="b">
         <v>0</v>
       </c>
       <c r="E45">
-        <v>4.99</v>
+        <v>14.99</v>
       </c>
       <c r="F45">
-        <v>5900</v>
+        <v>19000</v>
       </c>
       <c r="G45" t="s">
-        <v>56</v>
+        <v>122</v>
       </c>
       <c r="H45">
-        <v>794</v>
+        <v>578</v>
       </c>
       <c r="I45" t="s">
         <v>22</v>
@@ -2961,56 +2929,92 @@
         <v>23</v>
       </c>
       <c r="K45">
-        <v>90</v>
+        <v>300</v>
+      </c>
+      <c r="L45" t="s">
+        <v>22</v>
+      </c>
+      <c r="M45" t="s">
+        <v>23</v>
+      </c>
+      <c r="N45">
+        <v>100</v>
+      </c>
+      <c r="O45" t="s">
+        <v>22</v>
+      </c>
+      <c r="P45" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q45">
+        <v>40000</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>57</v>
+        <v>123</v>
       </c>
       <c r="C46" t="b">
         <v>0</v>
       </c>
       <c r="E46">
-        <v>9.99</v>
+        <v>29.99</v>
       </c>
       <c r="F46">
-        <v>12000</v>
+        <v>39000</v>
       </c>
       <c r="G46" t="s">
-        <v>57</v>
+        <v>123</v>
       </c>
       <c r="H46">
-        <v>121</v>
+        <v>106</v>
       </c>
       <c r="I46" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="J46" t="s">
-        <v>23</v>
+        <v>128</v>
       </c>
       <c r="K46">
-        <v>260</v>
+        <v>1500</v>
+      </c>
+      <c r="L46" t="s">
+        <v>22</v>
+      </c>
+      <c r="M46" t="s">
+        <v>23</v>
+      </c>
+      <c r="N46">
+        <v>500</v>
+      </c>
+      <c r="O46" t="s">
+        <v>22</v>
+      </c>
+      <c r="P46" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q46">
+        <v>60000</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>58</v>
+        <v>124</v>
       </c>
       <c r="C47" t="b">
         <v>0</v>
       </c>
       <c r="E47">
-        <v>19.989999999999998</v>
+        <v>49.99</v>
       </c>
       <c r="F47">
-        <v>25000</v>
+        <v>69000</v>
       </c>
       <c r="G47" t="s">
-        <v>58</v>
+        <v>124</v>
       </c>
       <c r="H47">
-        <v>114</v>
+        <v>440</v>
       </c>
       <c r="I47" t="s">
         <v>22</v>
@@ -3019,27 +3023,45 @@
         <v>23</v>
       </c>
       <c r="K47">
-        <v>525</v>
+        <v>100</v>
+      </c>
+      <c r="L47" t="s">
+        <v>22</v>
+      </c>
+      <c r="M47" t="s">
+        <v>23</v>
+      </c>
+      <c r="N47">
+        <v>50</v>
+      </c>
+      <c r="O47" t="s">
+        <v>22</v>
+      </c>
+      <c r="P47" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q47">
+        <v>10000</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C48" t="b">
         <v>0</v>
       </c>
       <c r="E48">
-        <v>49.99</v>
+        <v>0.99</v>
       </c>
       <c r="F48">
-        <v>65000</v>
+        <v>1200</v>
       </c>
       <c r="G48" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="H48">
-        <v>950</v>
+        <v>713</v>
       </c>
       <c r="I48" t="s">
         <v>22</v>
@@ -3048,27 +3070,27 @@
         <v>23</v>
       </c>
       <c r="K48">
-        <v>1600</v>
+        <v>30</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C49" t="b">
         <v>0</v>
       </c>
       <c r="E49">
-        <v>99.99</v>
+        <v>4.99</v>
       </c>
       <c r="F49">
-        <v>119000</v>
+        <v>5900</v>
       </c>
       <c r="G49" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="H49">
-        <v>490</v>
+        <v>794</v>
       </c>
       <c r="I49" t="s">
         <v>22</v>
@@ -3077,27 +3099,27 @@
         <v>23</v>
       </c>
       <c r="K49">
-        <v>3600</v>
+        <v>90</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C50" t="b">
         <v>0</v>
       </c>
       <c r="E50">
-        <v>0.99</v>
+        <v>9.99</v>
       </c>
       <c r="F50">
-        <v>1200</v>
+        <v>12000</v>
       </c>
       <c r="G50" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="H50">
-        <v>338</v>
+        <v>121</v>
       </c>
       <c r="I50" t="s">
         <v>22</v>
@@ -3106,27 +3128,27 @@
         <v>23</v>
       </c>
       <c r="K50">
-        <v>90</v>
+        <v>260</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C51" t="b">
         <v>0</v>
       </c>
       <c r="E51">
-        <v>4.99</v>
+        <v>19.989999999999998</v>
       </c>
       <c r="F51">
-        <v>5900</v>
+        <v>25000</v>
       </c>
       <c r="G51" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="H51">
-        <v>215</v>
+        <v>114</v>
       </c>
       <c r="I51" t="s">
         <v>22</v>
@@ -3135,27 +3157,27 @@
         <v>23</v>
       </c>
       <c r="K51">
-        <v>270</v>
+        <v>525</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C52" t="b">
         <v>0</v>
       </c>
       <c r="E52">
-        <v>9.99</v>
+        <v>49.99</v>
       </c>
       <c r="F52">
-        <v>12000</v>
+        <v>65000</v>
       </c>
       <c r="G52" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="H52">
-        <v>674</v>
+        <v>950</v>
       </c>
       <c r="I52" t="s">
         <v>22</v>
@@ -3164,27 +3186,27 @@
         <v>23</v>
       </c>
       <c r="K52">
-        <v>780</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C53" t="b">
         <v>0</v>
       </c>
       <c r="E53">
-        <v>19.989999999999998</v>
+        <v>99.99</v>
       </c>
       <c r="F53">
-        <v>25000</v>
+        <v>119000</v>
       </c>
       <c r="G53" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="H53">
-        <v>145</v>
+        <v>490</v>
       </c>
       <c r="I53" t="s">
         <v>22</v>
@@ -3193,27 +3215,27 @@
         <v>23</v>
       </c>
       <c r="K53">
-        <v>1575</v>
+        <v>3600</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C54" t="b">
         <v>0</v>
       </c>
       <c r="E54">
-        <v>49.99</v>
+        <v>0.99</v>
       </c>
       <c r="F54">
-        <v>65000</v>
+        <v>1200</v>
       </c>
       <c r="G54" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="H54">
-        <v>858</v>
+        <v>338</v>
       </c>
       <c r="I54" t="s">
         <v>22</v>
@@ -3222,27 +3244,27 @@
         <v>23</v>
       </c>
       <c r="K54">
-        <v>4800</v>
+        <v>90</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C55" t="b">
         <v>0</v>
       </c>
       <c r="E55">
-        <v>99.99</v>
+        <v>4.99</v>
       </c>
       <c r="F55">
-        <v>119000</v>
+        <v>5900</v>
       </c>
       <c r="G55" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="H55">
-        <v>173</v>
+        <v>215</v>
       </c>
       <c r="I55" t="s">
         <v>22</v>
@@ -3251,143 +3273,143 @@
         <v>23</v>
       </c>
       <c r="K55">
-        <v>10800</v>
+        <v>270</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C56" t="b">
         <v>0</v>
       </c>
       <c r="E56">
-        <v>0.99</v>
+        <v>9.99</v>
       </c>
       <c r="F56">
-        <v>1200</v>
+        <v>12000</v>
       </c>
       <c r="G56" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="H56">
-        <v>201</v>
+        <v>674</v>
       </c>
       <c r="I56" t="s">
         <v>22</v>
       </c>
       <c r="J56" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K56">
-        <v>400000</v>
+        <v>780</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C57" t="b">
         <v>0</v>
       </c>
       <c r="E57">
-        <v>4.99</v>
+        <v>19.989999999999998</v>
       </c>
       <c r="F57">
-        <v>5900</v>
+        <v>25000</v>
       </c>
       <c r="G57" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H57">
-        <v>803</v>
+        <v>145</v>
       </c>
       <c r="I57" t="s">
         <v>22</v>
       </c>
       <c r="J57" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K57">
-        <v>1050000</v>
+        <v>1575</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C58" t="b">
         <v>0</v>
       </c>
       <c r="E58">
-        <v>9.99</v>
+        <v>49.99</v>
       </c>
       <c r="F58">
-        <v>12000</v>
+        <v>65000</v>
       </c>
       <c r="G58" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="H58">
-        <v>650</v>
+        <v>858</v>
       </c>
       <c r="I58" t="s">
         <v>22</v>
       </c>
       <c r="J58" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K58">
-        <v>2500000</v>
+        <v>4800</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C59" t="b">
         <v>0</v>
       </c>
       <c r="E59">
-        <v>19.989999999999998</v>
+        <v>99.99</v>
       </c>
       <c r="F59">
-        <v>25000</v>
+        <v>119000</v>
       </c>
       <c r="G59" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="H59">
-        <v>953</v>
+        <v>173</v>
       </c>
       <c r="I59" t="s">
         <v>22</v>
       </c>
       <c r="J59" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K59">
-        <v>6000000</v>
+        <v>10800</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C60" t="b">
         <v>0</v>
       </c>
       <c r="E60">
-        <v>49.99</v>
+        <v>0.99</v>
       </c>
       <c r="F60">
-        <v>65000</v>
+        <v>1200</v>
       </c>
       <c r="G60" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="H60">
-        <v>640</v>
+        <v>201</v>
       </c>
       <c r="I60" t="s">
         <v>22</v>
@@ -3396,27 +3418,27 @@
         <v>24</v>
       </c>
       <c r="K60">
-        <v>19000000</v>
+        <v>400000</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C61" t="b">
         <v>0</v>
       </c>
       <c r="E61">
-        <v>99.99</v>
+        <v>4.99</v>
       </c>
       <c r="F61">
-        <v>119000</v>
+        <v>5900</v>
       </c>
       <c r="G61" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="H61">
-        <v>553</v>
+        <v>803</v>
       </c>
       <c r="I61" t="s">
         <v>22</v>
@@ -3425,27 +3447,27 @@
         <v>24</v>
       </c>
       <c r="K61">
-        <v>45000000</v>
+        <v>1050000</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C62" t="b">
         <v>0</v>
       </c>
       <c r="E62">
-        <v>0.99</v>
+        <v>9.99</v>
       </c>
       <c r="F62">
-        <v>1200</v>
+        <v>12000</v>
       </c>
       <c r="G62" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="H62">
-        <v>963</v>
+        <v>650</v>
       </c>
       <c r="I62" t="s">
         <v>22</v>
@@ -3454,27 +3476,27 @@
         <v>24</v>
       </c>
       <c r="K62">
-        <v>1200000</v>
+        <v>2500000</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C63" t="b">
         <v>0</v>
       </c>
       <c r="E63">
-        <v>4.99</v>
+        <v>19.989999999999998</v>
       </c>
       <c r="F63">
-        <v>5900</v>
+        <v>25000</v>
       </c>
       <c r="G63" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="H63">
-        <v>340</v>
+        <v>953</v>
       </c>
       <c r="I63" t="s">
         <v>22</v>
@@ -3483,27 +3505,27 @@
         <v>24</v>
       </c>
       <c r="K63">
-        <v>3150000</v>
+        <v>6000000</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C64" t="b">
         <v>0</v>
       </c>
       <c r="E64">
-        <v>9.99</v>
+        <v>49.99</v>
       </c>
       <c r="F64">
-        <v>12000</v>
+        <v>65000</v>
       </c>
       <c r="G64" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="H64">
-        <v>420</v>
+        <v>640</v>
       </c>
       <c r="I64" t="s">
         <v>22</v>
@@ -3512,27 +3534,27 @@
         <v>24</v>
       </c>
       <c r="K64">
-        <v>7500000</v>
+        <v>19000000</v>
       </c>
     </row>
     <row r="65" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C65" t="b">
         <v>0</v>
       </c>
       <c r="E65">
-        <v>19.989999999999998</v>
+        <v>99.99</v>
       </c>
       <c r="F65">
-        <v>25000</v>
+        <v>119000</v>
       </c>
       <c r="G65" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="H65">
-        <v>756</v>
+        <v>553</v>
       </c>
       <c r="I65" t="s">
         <v>22</v>
@@ -3541,27 +3563,27 @@
         <v>24</v>
       </c>
       <c r="K65">
-        <v>18000000</v>
+        <v>45000000</v>
       </c>
     </row>
     <row r="66" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C66" t="b">
         <v>0</v>
       </c>
       <c r="E66">
-        <v>49.99</v>
+        <v>0.99</v>
       </c>
       <c r="F66">
-        <v>65000</v>
+        <v>1200</v>
       </c>
       <c r="G66" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="H66">
-        <v>979</v>
+        <v>963</v>
       </c>
       <c r="I66" t="s">
         <v>22</v>
@@ -3570,27 +3592,27 @@
         <v>24</v>
       </c>
       <c r="K66">
-        <v>57000000</v>
+        <v>1200000</v>
       </c>
     </row>
     <row r="67" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C67" t="b">
         <v>0</v>
       </c>
       <c r="E67">
-        <v>99.99</v>
+        <v>4.99</v>
       </c>
       <c r="F67">
-        <v>119000</v>
+        <v>5900</v>
       </c>
       <c r="G67" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="H67">
-        <v>435</v>
+        <v>340</v>
       </c>
       <c r="I67" t="s">
         <v>22</v>
@@ -3599,12 +3621,12 @@
         <v>24</v>
       </c>
       <c r="K67">
-        <v>135000000</v>
+        <v>3150000</v>
       </c>
     </row>
     <row r="68" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C68" t="b">
         <v>0</v>
@@ -3613,27 +3635,27 @@
         <v>9.99</v>
       </c>
       <c r="F68">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="G68" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="H68">
-        <v>781</v>
+        <v>420</v>
       </c>
       <c r="I68" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="J68" t="s">
-        <v>86</v>
+        <v>24</v>
       </c>
       <c r="K68">
-        <v>1</v>
+        <v>7500000</v>
       </c>
     </row>
     <row r="69" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C69" t="b">
         <v>0</v>
@@ -3642,100 +3664,100 @@
         <v>19.989999999999998</v>
       </c>
       <c r="F69">
-        <v>19000</v>
+        <v>25000</v>
       </c>
       <c r="G69" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="H69">
-        <v>142</v>
+        <v>756</v>
       </c>
       <c r="I69" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="J69" t="s">
-        <v>86</v>
+        <v>24</v>
       </c>
       <c r="K69">
-        <v>1</v>
+        <v>18000000</v>
       </c>
     </row>
     <row r="70" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C70" t="b">
         <v>0</v>
       </c>
       <c r="E70">
-        <v>29.99</v>
+        <v>49.99</v>
       </c>
       <c r="F70">
-        <v>39000</v>
+        <v>65000</v>
       </c>
       <c r="G70" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="H70">
-        <v>610</v>
+        <v>979</v>
       </c>
       <c r="I70" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="J70" t="s">
-        <v>86</v>
+        <v>24</v>
       </c>
       <c r="K70">
-        <v>1</v>
+        <v>57000000</v>
       </c>
     </row>
     <row r="71" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C71" t="b">
         <v>0</v>
       </c>
       <c r="E71">
-        <v>39.99</v>
+        <v>99.99</v>
       </c>
       <c r="F71">
-        <v>48000</v>
+        <v>119000</v>
       </c>
       <c r="G71" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="H71">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="I71" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="J71" t="s">
-        <v>86</v>
+        <v>24</v>
       </c>
       <c r="K71">
-        <v>1</v>
+        <v>135000000</v>
       </c>
     </row>
     <row r="72" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C72" t="b">
         <v>0</v>
       </c>
       <c r="E72">
-        <v>49.99</v>
+        <v>9.99</v>
       </c>
       <c r="F72">
-        <v>65000</v>
+        <v>13000</v>
       </c>
       <c r="G72" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="H72">
-        <v>604</v>
+        <v>781</v>
       </c>
       <c r="I72" t="s">
         <v>25</v>
@@ -3749,301 +3771,181 @@
     </row>
     <row r="73" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C73" t="b">
         <v>0</v>
       </c>
       <c r="E73">
-        <v>0.99</v>
+        <v>19.989999999999998</v>
       </c>
       <c r="F73">
-        <v>1200</v>
+        <v>19000</v>
       </c>
       <c r="G73" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="H73">
-        <v>902</v>
+        <v>142</v>
       </c>
       <c r="I73" t="s">
         <v>25</v>
       </c>
       <c r="J73" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="K73">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C74" t="b">
         <v>0</v>
       </c>
       <c r="E74">
-        <v>4.99</v>
+        <v>29.99</v>
       </c>
       <c r="F74">
-        <v>5900</v>
+        <v>39000</v>
       </c>
       <c r="G74" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="H74">
-        <v>924</v>
+        <v>610</v>
       </c>
       <c r="I74" t="s">
         <v>25</v>
       </c>
       <c r="J74" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="K74">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="C75" t="b">
         <v>0</v>
       </c>
-      <c r="D75">
-        <v>4</v>
-      </c>
       <c r="E75">
-        <v>0.99</v>
+        <v>39.99</v>
       </c>
       <c r="F75">
-        <v>1200</v>
+        <v>48000</v>
       </c>
       <c r="G75" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="H75">
-        <v>802</v>
+        <v>433</v>
       </c>
       <c r="I75" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="J75" t="s">
-        <v>23</v>
+        <v>86</v>
       </c>
       <c r="K75">
-        <v>30</v>
-      </c>
-      <c r="L75" t="s">
-        <v>22</v>
-      </c>
-      <c r="M75" t="s">
-        <v>24</v>
-      </c>
-      <c r="N75">
-        <v>25000</v>
-      </c>
-      <c r="O75" t="s">
-        <v>22</v>
-      </c>
-      <c r="P75" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q75">
-        <v>100</v>
-      </c>
-      <c r="R75" t="s">
-        <v>22</v>
-      </c>
-      <c r="S75" t="s">
-        <v>24</v>
-      </c>
-      <c r="T75">
-        <v>35000</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="C76" t="b">
         <v>0</v>
       </c>
-      <c r="D76">
-        <v>4</v>
-      </c>
       <c r="E76">
-        <v>4.99</v>
+        <v>49.99</v>
       </c>
       <c r="F76">
-        <v>5900</v>
+        <v>65000</v>
       </c>
       <c r="G76" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="H76">
-        <v>585</v>
+        <v>604</v>
       </c>
       <c r="I76" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="J76" t="s">
-        <v>23</v>
+        <v>86</v>
       </c>
       <c r="K76">
-        <v>60</v>
-      </c>
-      <c r="L76" t="s">
-        <v>22</v>
-      </c>
-      <c r="M76" t="s">
-        <v>24</v>
-      </c>
-      <c r="N76">
-        <v>15000</v>
-      </c>
-      <c r="O76" t="s">
-        <v>22</v>
-      </c>
-      <c r="P76" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q76">
-        <v>120</v>
-      </c>
-      <c r="R76" t="s">
-        <v>22</v>
-      </c>
-      <c r="S76" t="s">
-        <v>24</v>
-      </c>
-      <c r="T76">
-        <v>25000</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="C77" t="b">
         <v>0</v>
       </c>
-      <c r="D77">
-        <v>4</v>
-      </c>
       <c r="E77">
-        <v>9.99</v>
+        <v>0.99</v>
       </c>
       <c r="F77">
-        <v>13000</v>
+        <v>1200</v>
       </c>
       <c r="G77" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="H77">
-        <v>634</v>
+        <v>902</v>
       </c>
       <c r="I77" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="J77" t="s">
-        <v>23</v>
+        <v>90</v>
       </c>
       <c r="K77">
-        <v>90</v>
-      </c>
-      <c r="L77" t="s">
-        <v>22</v>
-      </c>
-      <c r="M77" t="s">
-        <v>24</v>
-      </c>
-      <c r="N77">
-        <v>30000</v>
-      </c>
-      <c r="O77" t="s">
-        <v>22</v>
-      </c>
-      <c r="P77" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q77">
-        <v>150</v>
-      </c>
-      <c r="R77" t="s">
-        <v>22</v>
-      </c>
-      <c r="S77" t="s">
-        <v>23</v>
-      </c>
-      <c r="T77">
-        <v>300</v>
+        <v>5</v>
       </c>
     </row>
     <row r="78" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="C78" t="b">
         <v>0</v>
       </c>
-      <c r="D78">
-        <v>4</v>
-      </c>
       <c r="E78">
-        <v>9.99</v>
+        <v>4.99</v>
       </c>
       <c r="F78">
-        <v>13000</v>
+        <v>5900</v>
       </c>
       <c r="G78" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="H78">
-        <v>791</v>
+        <v>924</v>
       </c>
       <c r="I78" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="J78" t="s">
-        <v>23</v>
+        <v>91</v>
       </c>
       <c r="K78">
-        <v>120</v>
-      </c>
-      <c r="L78" t="s">
-        <v>22</v>
-      </c>
-      <c r="M78" t="s">
-        <v>24</v>
-      </c>
-      <c r="N78">
-        <v>50000</v>
-      </c>
-      <c r="O78" t="s">
-        <v>22</v>
-      </c>
-      <c r="P78" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q78">
-        <v>120</v>
-      </c>
-      <c r="R78" t="s">
-        <v>22</v>
-      </c>
-      <c r="S78" t="s">
-        <v>24</v>
-      </c>
-      <c r="T78">
-        <v>25000</v>
+        <v>5</v>
       </c>
     </row>
     <row r="79" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C79" t="b">
         <v>0</v>
@@ -4052,16 +3954,16 @@
         <v>4</v>
       </c>
       <c r="E79">
-        <v>9.99</v>
+        <v>0.99</v>
       </c>
       <c r="F79">
-        <v>13000</v>
+        <v>1200</v>
       </c>
       <c r="G79" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="H79">
-        <v>484</v>
+        <v>802</v>
       </c>
       <c r="I79" t="s">
         <v>22</v>
@@ -4070,7 +3972,7 @@
         <v>23</v>
       </c>
       <c r="K79">
-        <v>150</v>
+        <v>30</v>
       </c>
       <c r="L79" t="s">
         <v>22</v>
@@ -4079,7 +3981,7 @@
         <v>24</v>
       </c>
       <c r="N79">
-        <v>90000</v>
+        <v>25000</v>
       </c>
       <c r="O79" t="s">
         <v>22</v>
@@ -4088,24 +3990,27 @@
         <v>23</v>
       </c>
       <c r="Q79">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="R79" t="s">
         <v>22</v>
       </c>
       <c r="S79" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="T79">
-        <v>300</v>
+        <v>35000</v>
       </c>
     </row>
     <row r="80" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>126</v>
+        <v>93</v>
       </c>
       <c r="C80" t="b">
         <v>0</v>
+      </c>
+      <c r="D80">
+        <v>4</v>
       </c>
       <c r="E80">
         <v>4.99</v>
@@ -4114,86 +4019,128 @@
         <v>5900</v>
       </c>
       <c r="G80" t="s">
-        <v>126</v>
+        <v>93</v>
       </c>
       <c r="H80">
-        <v>212</v>
+        <v>585</v>
       </c>
       <c r="I80" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="J80" t="s">
-        <v>97</v>
+        <v>23</v>
       </c>
       <c r="K80">
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="L80" t="s">
         <v>22</v>
       </c>
       <c r="M80" t="s">
-        <v>98</v>
+        <v>24</v>
       </c>
       <c r="N80">
-        <v>500</v>
+        <v>15000</v>
+      </c>
+      <c r="O80" t="s">
+        <v>22</v>
+      </c>
+      <c r="P80" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q80">
+        <v>120</v>
+      </c>
+      <c r="R80" t="s">
+        <v>22</v>
+      </c>
+      <c r="S80" t="s">
+        <v>24</v>
+      </c>
+      <c r="T80">
+        <v>25000</v>
       </c>
     </row>
     <row r="81" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>127</v>
+        <v>94</v>
       </c>
       <c r="C81" t="b">
         <v>0</v>
       </c>
+      <c r="D81">
+        <v>4</v>
+      </c>
       <c r="E81">
-        <v>4.99</v>
+        <v>9.99</v>
       </c>
       <c r="F81">
-        <v>5900</v>
+        <v>13000</v>
       </c>
       <c r="G81" t="s">
-        <v>127</v>
+        <v>94</v>
       </c>
       <c r="H81">
-        <v>131</v>
+        <v>634</v>
       </c>
       <c r="I81" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="J81" t="s">
-        <v>99</v>
+        <v>23</v>
       </c>
       <c r="K81">
-        <v>1</v>
+        <v>90</v>
       </c>
       <c r="L81" t="s">
         <v>22</v>
       </c>
       <c r="M81" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="N81">
-        <v>750</v>
+        <v>30000</v>
+      </c>
+      <c r="O81" t="s">
+        <v>22</v>
+      </c>
+      <c r="P81" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q81">
+        <v>150</v>
+      </c>
+      <c r="R81" t="s">
+        <v>22</v>
+      </c>
+      <c r="S81" t="s">
+        <v>23</v>
+      </c>
+      <c r="T81">
+        <v>300</v>
       </c>
     </row>
     <row r="82" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="C82" t="b">
         <v>0</v>
       </c>
+      <c r="D82">
+        <v>4</v>
+      </c>
       <c r="E82">
-        <v>0.99</v>
+        <v>9.99</v>
       </c>
       <c r="F82">
-        <v>1200</v>
+        <v>13000</v>
       </c>
       <c r="G82" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="H82">
-        <v>704</v>
+        <v>791</v>
       </c>
       <c r="I82" t="s">
         <v>22</v>
@@ -4202,7 +4149,7 @@
         <v>23</v>
       </c>
       <c r="K82">
-        <v>30</v>
+        <v>120</v>
       </c>
       <c r="L82" t="s">
         <v>22</v>
@@ -4211,36 +4158,48 @@
         <v>24</v>
       </c>
       <c r="N82">
+        <v>50000</v>
+      </c>
+      <c r="O82" t="s">
+        <v>22</v>
+      </c>
+      <c r="P82" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q82">
+        <v>120</v>
+      </c>
+      <c r="R82" t="s">
+        <v>22</v>
+      </c>
+      <c r="S82" t="s">
+        <v>24</v>
+      </c>
+      <c r="T82">
         <v>25000</v>
-      </c>
-      <c r="O82" t="s">
-        <v>22</v>
-      </c>
-      <c r="P82" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q82">
-        <v>100</v>
       </c>
     </row>
     <row r="83" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="C83" t="b">
         <v>0</v>
       </c>
+      <c r="D83">
+        <v>4</v>
+      </c>
       <c r="E83">
-        <v>0.99</v>
+        <v>9.99</v>
       </c>
       <c r="F83">
-        <v>1200</v>
+        <v>13000</v>
       </c>
       <c r="G83" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="H83">
-        <v>148</v>
+        <v>484</v>
       </c>
       <c r="I83" t="s">
         <v>22</v>
@@ -4249,7 +4208,7 @@
         <v>23</v>
       </c>
       <c r="K83">
-        <v>60</v>
+        <v>150</v>
       </c>
       <c r="L83" t="s">
         <v>22</v>
@@ -4258,7 +4217,7 @@
         <v>24</v>
       </c>
       <c r="N83">
-        <v>15000</v>
+        <v>90000</v>
       </c>
       <c r="O83" t="s">
         <v>22</v>
@@ -4267,68 +4226,59 @@
         <v>23</v>
       </c>
       <c r="Q83">
-        <v>120</v>
+        <v>150</v>
+      </c>
+      <c r="R83" t="s">
+        <v>22</v>
+      </c>
+      <c r="S83" t="s">
+        <v>23</v>
+      </c>
+      <c r="T83">
+        <v>300</v>
       </c>
     </row>
     <row r="84" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>102</v>
+        <v>125</v>
       </c>
       <c r="C84" t="b">
         <v>0</v>
       </c>
       <c r="E84">
-        <v>0.99</v>
+        <v>4.99</v>
       </c>
       <c r="F84">
-        <v>1200</v>
+        <v>5900</v>
       </c>
       <c r="G84" t="s">
-        <v>102</v>
+        <v>125</v>
       </c>
       <c r="H84">
-        <v>784</v>
+        <v>212</v>
       </c>
       <c r="I84" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="J84" t="s">
-        <v>23</v>
+        <v>97</v>
       </c>
       <c r="K84">
-        <v>90</v>
+        <v>15</v>
       </c>
       <c r="L84" t="s">
         <v>22</v>
       </c>
       <c r="M84" t="s">
-        <v>24</v>
+        <v>98</v>
       </c>
       <c r="N84">
-        <v>30000</v>
-      </c>
-      <c r="O84" t="s">
-        <v>22</v>
-      </c>
-      <c r="P84" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q84">
-        <v>150</v>
-      </c>
-      <c r="R84" t="s">
-        <v>22</v>
-      </c>
-      <c r="S84" t="s">
-        <v>23</v>
-      </c>
-      <c r="T84">
-        <v>300</v>
+        <v>500</v>
       </c>
     </row>
     <row r="85" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>103</v>
+        <v>126</v>
       </c>
       <c r="C85" t="b">
         <v>0</v>
@@ -4340,57 +4290,48 @@
         <v>5900</v>
       </c>
       <c r="G85" t="s">
-        <v>103</v>
+        <v>126</v>
       </c>
       <c r="H85">
-        <v>354</v>
+        <v>131</v>
       </c>
       <c r="I85" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="J85" t="s">
-        <v>23</v>
+        <v>99</v>
       </c>
       <c r="K85">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="L85" t="s">
         <v>22</v>
       </c>
       <c r="M85" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N85">
-        <v>25000</v>
-      </c>
-      <c r="O85" t="s">
-        <v>22</v>
-      </c>
-      <c r="P85" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q85">
-        <v>100</v>
+        <v>750</v>
       </c>
     </row>
     <row r="86" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C86" t="b">
         <v>0</v>
       </c>
       <c r="E86">
-        <v>4.99</v>
+        <v>0.99</v>
       </c>
       <c r="F86">
-        <v>5900</v>
+        <v>1200</v>
       </c>
       <c r="G86" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="H86">
-        <v>414</v>
+        <v>704</v>
       </c>
       <c r="I86" t="s">
         <v>22</v>
@@ -4399,7 +4340,7 @@
         <v>23</v>
       </c>
       <c r="K86">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="L86" t="s">
         <v>22</v>
@@ -4408,7 +4349,7 @@
         <v>24</v>
       </c>
       <c r="N86">
-        <v>15000</v>
+        <v>25000</v>
       </c>
       <c r="O86" t="s">
         <v>22</v>
@@ -4417,27 +4358,27 @@
         <v>23</v>
       </c>
       <c r="Q86">
-        <v>120</v>
+        <v>100</v>
       </c>
     </row>
     <row r="87" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C87" t="b">
         <v>0</v>
       </c>
       <c r="E87">
-        <v>9.99</v>
+        <v>0.99</v>
       </c>
       <c r="F87">
-        <v>13000</v>
+        <v>1200</v>
       </c>
       <c r="G87" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="H87">
-        <v>726</v>
+        <v>148</v>
       </c>
       <c r="I87" t="s">
         <v>22</v>
@@ -4446,7 +4387,7 @@
         <v>23</v>
       </c>
       <c r="K87">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="L87" t="s">
         <v>22</v>
@@ -4455,7 +4396,7 @@
         <v>24</v>
       </c>
       <c r="N87">
-        <v>30000</v>
+        <v>15000</v>
       </c>
       <c r="O87" t="s">
         <v>22</v>
@@ -4464,36 +4405,27 @@
         <v>23</v>
       </c>
       <c r="Q87">
-        <v>150</v>
-      </c>
-      <c r="R87" t="s">
-        <v>22</v>
-      </c>
-      <c r="S87" t="s">
-        <v>23</v>
-      </c>
-      <c r="T87">
-        <v>300</v>
+        <v>120</v>
       </c>
     </row>
     <row r="88" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C88" t="b">
         <v>0</v>
       </c>
       <c r="E88">
-        <v>9.99</v>
+        <v>0.99</v>
       </c>
       <c r="F88">
-        <v>13000</v>
+        <v>1200</v>
       </c>
       <c r="G88" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="H88">
-        <v>679</v>
+        <v>784</v>
       </c>
       <c r="I88" t="s">
         <v>22</v>
@@ -4502,7 +4434,7 @@
         <v>23</v>
       </c>
       <c r="K88">
-        <v>30</v>
+        <v>90</v>
       </c>
       <c r="L88" t="s">
         <v>22</v>
@@ -4511,7 +4443,7 @@
         <v>24</v>
       </c>
       <c r="N88">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="O88" t="s">
         <v>22</v>
@@ -4520,27 +4452,36 @@
         <v>23</v>
       </c>
       <c r="Q88">
-        <v>100</v>
+        <v>150</v>
+      </c>
+      <c r="R88" t="s">
+        <v>22</v>
+      </c>
+      <c r="S88" t="s">
+        <v>23</v>
+      </c>
+      <c r="T88">
+        <v>300</v>
       </c>
     </row>
     <row r="89" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C89" t="b">
         <v>0</v>
       </c>
       <c r="E89">
-        <v>19.989999999999998</v>
+        <v>4.99</v>
       </c>
       <c r="F89">
-        <v>25000</v>
+        <v>5900</v>
       </c>
       <c r="G89" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="H89">
-        <v>752</v>
+        <v>354</v>
       </c>
       <c r="I89" t="s">
         <v>22</v>
@@ -4572,22 +4513,22 @@
     </row>
     <row r="90" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C90" t="b">
         <v>0</v>
       </c>
       <c r="E90">
-        <v>39.99</v>
+        <v>4.99</v>
       </c>
       <c r="F90">
-        <v>48000</v>
+        <v>5900</v>
       </c>
       <c r="G90" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="H90">
-        <v>534</v>
+        <v>414</v>
       </c>
       <c r="I90" t="s">
         <v>22</v>
@@ -4619,22 +4560,22 @@
     </row>
     <row r="91" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C91" t="b">
         <v>0</v>
       </c>
       <c r="E91">
-        <v>49.99</v>
+        <v>9.99</v>
       </c>
       <c r="F91">
-        <v>69000</v>
+        <v>13000</v>
       </c>
       <c r="G91" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="H91">
-        <v>243</v>
+        <v>726</v>
       </c>
       <c r="I91" t="s">
         <v>22</v>
@@ -4675,208 +4616,262 @@
     </row>
     <row r="92" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>139</v>
+        <v>106</v>
       </c>
       <c r="C92" t="b">
         <v>0</v>
       </c>
       <c r="E92">
-        <v>0.99</v>
+        <v>9.99</v>
       </c>
       <c r="F92">
-        <v>1200</v>
+        <v>13000</v>
       </c>
       <c r="G92" t="s">
-        <v>139</v>
+        <v>106</v>
       </c>
       <c r="H92">
-        <v>384</v>
+        <v>679</v>
       </c>
       <c r="I92" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="J92" t="s">
-        <v>140</v>
+        <v>23</v>
       </c>
       <c r="K92">
-        <v>86400</v>
+        <v>30</v>
+      </c>
+      <c r="L92" t="s">
+        <v>22</v>
+      </c>
+      <c r="M92" t="s">
+        <v>24</v>
+      </c>
+      <c r="N92">
+        <v>25000</v>
+      </c>
+      <c r="O92" t="s">
+        <v>22</v>
+      </c>
+      <c r="P92" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q92">
+        <v>100</v>
       </c>
     </row>
     <row r="93" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>141</v>
+        <v>107</v>
       </c>
       <c r="C93" t="b">
         <v>0</v>
       </c>
       <c r="E93">
-        <v>4.99</v>
+        <v>19.989999999999998</v>
       </c>
       <c r="F93">
-        <v>5900</v>
+        <v>25000</v>
       </c>
       <c r="G93" t="s">
-        <v>141</v>
+        <v>107</v>
       </c>
       <c r="H93">
-        <v>681</v>
+        <v>752</v>
       </c>
       <c r="I93" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="J93" t="s">
-        <v>140</v>
+        <v>23</v>
       </c>
       <c r="K93">
-        <v>604800</v>
+        <v>30</v>
+      </c>
+      <c r="L93" t="s">
+        <v>22</v>
+      </c>
+      <c r="M93" t="s">
+        <v>24</v>
+      </c>
+      <c r="N93">
+        <v>25000</v>
+      </c>
+      <c r="O93" t="s">
+        <v>22</v>
+      </c>
+      <c r="P93" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q93">
+        <v>100</v>
       </c>
     </row>
     <row r="94" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>142</v>
+        <v>108</v>
       </c>
       <c r="C94" t="b">
         <v>0</v>
       </c>
       <c r="E94">
-        <v>9.99</v>
+        <v>39.99</v>
       </c>
       <c r="F94">
-        <v>13000</v>
+        <v>48000</v>
       </c>
       <c r="G94" t="s">
-        <v>142</v>
+        <v>108</v>
       </c>
       <c r="H94">
-        <v>813</v>
+        <v>534</v>
       </c>
       <c r="I94" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="J94" t="s">
-        <v>140</v>
+        <v>23</v>
       </c>
       <c r="K94">
-        <v>2592000</v>
+        <v>60</v>
       </c>
       <c r="L94" t="s">
         <v>22</v>
       </c>
       <c r="M94" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="N94">
-        <v>1000</v>
+        <v>15000</v>
       </c>
       <c r="O94" t="s">
         <v>22</v>
       </c>
       <c r="P94" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Q94">
-        <v>25000</v>
-      </c>
-      <c r="R94" t="s">
-        <v>22</v>
-      </c>
-      <c r="S94" t="s">
-        <v>98</v>
-      </c>
-      <c r="T94">
-        <v>750</v>
+        <v>120</v>
       </c>
     </row>
     <row r="95" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>143</v>
+        <v>109</v>
       </c>
       <c r="C95" t="b">
         <v>0</v>
       </c>
       <c r="E95">
-        <v>9.99</v>
+        <v>49.99</v>
       </c>
       <c r="F95">
-        <v>13000</v>
+        <v>69000</v>
       </c>
       <c r="G95" t="s">
-        <v>143</v>
+        <v>109</v>
       </c>
       <c r="H95">
-        <v>178</v>
+        <v>243</v>
       </c>
       <c r="I95" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="J95" t="s">
-        <v>155</v>
+        <v>23</v>
       </c>
       <c r="K95">
-        <v>1</v>
+        <v>90</v>
+      </c>
+      <c r="L95" t="s">
+        <v>22</v>
+      </c>
+      <c r="M95" t="s">
+        <v>24</v>
+      </c>
+      <c r="N95">
+        <v>30000</v>
+      </c>
+      <c r="O95" t="s">
+        <v>22</v>
+      </c>
+      <c r="P95" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q95">
+        <v>150</v>
+      </c>
+      <c r="R95" t="s">
+        <v>22</v>
+      </c>
+      <c r="S95" t="s">
+        <v>23</v>
+      </c>
+      <c r="T95">
+        <v>300</v>
       </c>
     </row>
     <row r="96" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="C96" t="b">
         <v>0</v>
       </c>
       <c r="E96">
-        <v>9.99</v>
+        <v>0.99</v>
       </c>
       <c r="F96">
-        <v>13000</v>
+        <v>1200</v>
       </c>
       <c r="G96" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="H96">
-        <v>240</v>
+        <v>384</v>
       </c>
       <c r="I96" t="s">
         <v>25</v>
       </c>
       <c r="J96" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="K96">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+        <v>86400</v>
+      </c>
+    </row>
+    <row r="97" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="C97" t="b">
         <v>0</v>
       </c>
       <c r="E97">
-        <v>9.99</v>
+        <v>4.99</v>
       </c>
       <c r="F97">
-        <v>13000</v>
+        <v>5900</v>
       </c>
       <c r="G97" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="H97">
-        <v>652</v>
+        <v>681</v>
       </c>
       <c r="I97" t="s">
         <v>25</v>
       </c>
       <c r="J97" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="K97">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+        <v>604800</v>
+      </c>
+    </row>
+    <row r="98" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="C98" t="b">
         <v>0</v>
@@ -4888,24 +4883,51 @@
         <v>13000</v>
       </c>
       <c r="G98" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="H98">
-        <v>358</v>
+        <v>813</v>
       </c>
       <c r="I98" t="s">
         <v>25</v>
       </c>
       <c r="J98" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="K98">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+        <v>2592000</v>
+      </c>
+      <c r="L98" t="s">
+        <v>22</v>
+      </c>
+      <c r="M98" t="s">
+        <v>23</v>
+      </c>
+      <c r="N98">
+        <v>1000</v>
+      </c>
+      <c r="O98" t="s">
+        <v>22</v>
+      </c>
+      <c r="P98" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q98">
+        <v>25000</v>
+      </c>
+      <c r="R98" t="s">
+        <v>22</v>
+      </c>
+      <c r="S98" t="s">
+        <v>98</v>
+      </c>
+      <c r="T98">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="99" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>171</v>
+        <v>142</v>
       </c>
       <c r="C99" t="b">
         <v>0</v>
@@ -4917,24 +4939,24 @@
         <v>13000</v>
       </c>
       <c r="G99" t="s">
-        <v>171</v>
+        <v>142</v>
       </c>
       <c r="H99">
-        <v>717</v>
+        <v>178</v>
       </c>
       <c r="I99" t="s">
         <v>25</v>
       </c>
       <c r="J99" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="K99">
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>174</v>
+        <v>144</v>
       </c>
       <c r="C100" t="b">
         <v>0</v>
@@ -4946,24 +4968,24 @@
         <v>13000</v>
       </c>
       <c r="G100" t="s">
-        <v>174</v>
+        <v>144</v>
       </c>
       <c r="H100">
-        <v>569</v>
+        <v>240</v>
       </c>
       <c r="I100" t="s">
         <v>25</v>
       </c>
       <c r="J100" t="s">
-        <v>157</v>
+        <v>143</v>
       </c>
       <c r="K100">
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>176</v>
+        <v>145</v>
       </c>
       <c r="C101" t="b">
         <v>0</v>
@@ -4975,18 +4997,134 @@
         <v>13000</v>
       </c>
       <c r="G101" t="s">
-        <v>176</v>
+        <v>145</v>
       </c>
       <c r="H101">
-        <v>880</v>
+        <v>652</v>
       </c>
       <c r="I101" t="s">
         <v>25</v>
       </c>
       <c r="J101" t="s">
-        <v>159</v>
+        <v>143</v>
       </c>
       <c r="K101">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
+        <v>146</v>
+      </c>
+      <c r="C102" t="b">
+        <v>0</v>
+      </c>
+      <c r="E102">
+        <v>9.99</v>
+      </c>
+      <c r="F102">
+        <v>13000</v>
+      </c>
+      <c r="G102" t="s">
+        <v>146</v>
+      </c>
+      <c r="H102">
+        <v>358</v>
+      </c>
+      <c r="I102" t="s">
+        <v>25</v>
+      </c>
+      <c r="J102" t="s">
+        <v>143</v>
+      </c>
+      <c r="K102">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
+        <v>170</v>
+      </c>
+      <c r="C103" t="b">
+        <v>0</v>
+      </c>
+      <c r="E103">
+        <v>9.99</v>
+      </c>
+      <c r="F103">
+        <v>13000</v>
+      </c>
+      <c r="G103" t="s">
+        <v>170</v>
+      </c>
+      <c r="H103">
+        <v>717</v>
+      </c>
+      <c r="I103" t="s">
+        <v>25</v>
+      </c>
+      <c r="J103" t="s">
+        <v>160</v>
+      </c>
+      <c r="K103">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A104" t="s">
+        <v>173</v>
+      </c>
+      <c r="C104" t="b">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>9.99</v>
+      </c>
+      <c r="F104">
+        <v>13000</v>
+      </c>
+      <c r="G104" t="s">
+        <v>173</v>
+      </c>
+      <c r="H104">
+        <v>569</v>
+      </c>
+      <c r="I104" t="s">
+        <v>25</v>
+      </c>
+      <c r="J104" t="s">
+        <v>156</v>
+      </c>
+      <c r="K104">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
+        <v>175</v>
+      </c>
+      <c r="C105" t="b">
+        <v>0</v>
+      </c>
+      <c r="E105">
+        <v>9.99</v>
+      </c>
+      <c r="F105">
+        <v>13000</v>
+      </c>
+      <c r="G105" t="s">
+        <v>175</v>
+      </c>
+      <c r="H105">
+        <v>880</v>
+      </c>
+      <c r="I105" t="s">
+        <v>25</v>
+      </c>
+      <c r="J105" t="s">
+        <v>158</v>
+      </c>
+      <c r="K105">
         <v>1</v>
       </c>
     </row>
@@ -5147,42 +5285,42 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B5" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
+        <v>154</v>
+      </c>
+      <c r="B6" t="s">
         <v>155</v>
-      </c>
-      <c r="B6" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
+        <v>156</v>
+      </c>
+      <c r="B7" t="s">
         <v>157</v>
-      </c>
-      <c r="B7" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
+        <v>158</v>
+      </c>
+      <c r="B8" t="s">
         <v>159</v>
-      </c>
-      <c r="B8" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
+        <v>160</v>
+      </c>
+      <c r="B9" t="s">
         <v>161</v>
-      </c>
-      <c r="B9" t="s">
-        <v>162</v>
       </c>
     </row>
   </sheetData>
@@ -5207,13 +5345,13 @@
   <sheetData>
     <row r="1" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B1" t="s">
         <v>130</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>131</v>
-      </c>
-      <c r="C1" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -5294,16 +5432,16 @@
   <sheetData>
     <row r="1" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C1" t="s">
         <v>148</v>
       </c>
-      <c r="C1" t="s">
-        <v>149</v>
-      </c>
       <c r="D1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -5311,13 +5449,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -5325,13 +5463,13 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -5339,13 +5477,13 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C4">
         <v>20</v>
       </c>
       <c r="D4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -5353,13 +5491,13 @@
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C5">
         <v>20</v>
       </c>
       <c r="D5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -5367,13 +5505,13 @@
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C6">
         <v>20</v>
       </c>
       <c r="D6" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
   </sheetData>
@@ -5397,16 +5535,16 @@
   <sheetData>
     <row r="1" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B1" t="s">
         <v>168</v>
       </c>
-      <c r="B1" t="s">
-        <v>169</v>
-      </c>
       <c r="C1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -5414,13 +5552,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -5428,13 +5566,13 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -5442,13 +5580,13 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -5456,13 +5594,13 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C5">
         <v>20</v>
       </c>
       <c r="D5" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -5470,13 +5608,118 @@
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C6">
         <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>174</v>
+        <v>173</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7F6E2B0-0C60-4D70-BB39-CCF28128EE73}">
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="13.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C1" t="s">
+        <v>179</v>
+      </c>
+      <c r="D1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>800</v>
+      </c>
+      <c r="C2">
+        <v>2000</v>
+      </c>
+      <c r="D2" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>1200</v>
+      </c>
+      <c r="C3">
+        <v>3000</v>
+      </c>
+      <c r="D3" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>1600</v>
+      </c>
+      <c r="C4">
+        <v>4000</v>
+      </c>
+      <c r="D4" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>2000</v>
+      </c>
+      <c r="C5">
+        <v>5000</v>
+      </c>
+      <c r="D5" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>2400</v>
+      </c>
+      <c r="C6">
+        <v>6000</v>
+      </c>
+      <c r="D6" t="s">
+        <v>184</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/Shop.xlsx
+++ b/Excel/Shop.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FBA1DCC-3BE7-439E-A14D-8B0CFD4F007F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30B573DB-482B-43EE-BE46-F1DCDC98A1AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{1A95D980-8F25-43B6-BA87-364295A77694}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" firstSheet="2" activeTab="6" xr2:uid="{1A95D980-8F25-43B6-BA87-364295A77694}"/>
   </bookViews>
   <sheets>
     <sheet name="ShopProductTable" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <sheet name="StageClearTable" sheetId="4" r:id="rId4"/>
     <sheet name="PickOneSpellTable" sheetId="5" r:id="rId5"/>
     <sheet name="PickOneCharacterTable" sheetId="6" r:id="rId6"/>
-    <sheet name="BrokenEnergy" sheetId="7" r:id="rId7"/>
+    <sheet name="BrokenEnergyTable" sheetId="7" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">ShopProductTable!$A$1:$W$101</definedName>
@@ -976,7 +976,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED115DDC-E095-4A60-B3EA-80FAE0A4BDBC}">
   <dimension ref="A1:W105"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -5627,7 +5627,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7F6E2B0-0C60-4D70-BB39-CCF28128EE73}">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>

--- a/Excel/Shop.xlsx
+++ b/Excel/Shop.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30B573DB-482B-43EE-BE46-F1DCDC98A1AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{110B65F9-2043-45BE-ACF3-94BDA775B900}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" firstSheet="2" activeTab="6" xr2:uid="{1A95D980-8F25-43B6-BA87-364295A77694}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{1A95D980-8F25-43B6-BA87-364295A77694}"/>
   </bookViews>
   <sheets>
     <sheet name="ShopProductTable" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="734" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="782" uniqueCount="197">
   <si>
     <t>productId|String</t>
   </si>
@@ -600,6 +600,42 @@
   </si>
   <si>
     <t>brokenenergy_5</t>
+  </si>
+  <si>
+    <t>cashshopgem_1</t>
+  </si>
+  <si>
+    <t>cashshopgem_2</t>
+  </si>
+  <si>
+    <t>cashshopgem_3</t>
+  </si>
+  <si>
+    <t>cashshopgem_4</t>
+  </si>
+  <si>
+    <t>cashshopgem_5</t>
+  </si>
+  <si>
+    <t>cashshopgem_6</t>
+  </si>
+  <si>
+    <t>cashshopgem_1_more</t>
+  </si>
+  <si>
+    <t>cashshopgem_2_more</t>
+  </si>
+  <si>
+    <t>cashshopgem_3_more</t>
+  </si>
+  <si>
+    <t>cashshopgem_4_more</t>
+  </si>
+  <si>
+    <t>cashshopgem_5_more</t>
+  </si>
+  <si>
+    <t>cashshopgem_6_more</t>
   </si>
 </sst>
 </file>
@@ -974,13 +1010,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED115DDC-E095-4A60-B3EA-80FAE0A4BDBC}">
-  <dimension ref="A1:W105"/>
+  <dimension ref="A1:W117"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3537,7 +3573,7 @@
         <v>19000000</v>
       </c>
     </row>
-    <row r="65" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>72</v>
       </c>
@@ -3566,7 +3602,7 @@
         <v>45000000</v>
       </c>
     </row>
-    <row r="66" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>73</v>
       </c>
@@ -3595,7 +3631,7 @@
         <v>1200000</v>
       </c>
     </row>
-    <row r="67" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>74</v>
       </c>
@@ -3624,7 +3660,7 @@
         <v>3150000</v>
       </c>
     </row>
-    <row r="68" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>75</v>
       </c>
@@ -3653,7 +3689,7 @@
         <v>7500000</v>
       </c>
     </row>
-    <row r="69" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>76</v>
       </c>
@@ -3682,7 +3718,7 @@
         <v>18000000</v>
       </c>
     </row>
-    <row r="70" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>77</v>
       </c>
@@ -3711,7 +3747,7 @@
         <v>57000000</v>
       </c>
     </row>
-    <row r="71" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>78</v>
       </c>
@@ -3740,125 +3776,125 @@
         <v>135000000</v>
       </c>
     </row>
-    <row r="72" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>79</v>
+        <v>185</v>
       </c>
       <c r="C72" t="b">
         <v>0</v>
       </c>
       <c r="E72">
+        <v>0.99</v>
+      </c>
+      <c r="F72">
+        <v>1200</v>
+      </c>
+      <c r="G72" t="s">
+        <v>67</v>
+      </c>
+      <c r="H72">
+        <v>407</v>
+      </c>
+      <c r="I72" t="s">
+        <v>22</v>
+      </c>
+      <c r="J72" t="s">
+        <v>98</v>
+      </c>
+      <c r="K72">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>186</v>
+      </c>
+      <c r="C73" t="b">
+        <v>0</v>
+      </c>
+      <c r="E73">
+        <v>4.99</v>
+      </c>
+      <c r="F73">
+        <v>5900</v>
+      </c>
+      <c r="G73" t="s">
+        <v>68</v>
+      </c>
+      <c r="H73">
+        <v>934</v>
+      </c>
+      <c r="I73" t="s">
+        <v>22</v>
+      </c>
+      <c r="J73" t="s">
+        <v>98</v>
+      </c>
+      <c r="K73">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>187</v>
+      </c>
+      <c r="C74" t="b">
+        <v>0</v>
+      </c>
+      <c r="E74">
         <v>9.99</v>
       </c>
-      <c r="F72">
-        <v>13000</v>
-      </c>
-      <c r="G72" t="s">
-        <v>79</v>
-      </c>
-      <c r="H72">
-        <v>781</v>
-      </c>
-      <c r="I72" t="s">
-        <v>25</v>
-      </c>
-      <c r="J72" t="s">
-        <v>86</v>
-      </c>
-      <c r="K72">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="73" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A73" t="s">
-        <v>80</v>
-      </c>
-      <c r="C73" t="b">
-        <v>0</v>
-      </c>
-      <c r="E73">
+      <c r="F74">
+        <v>12000</v>
+      </c>
+      <c r="G74" t="s">
+        <v>69</v>
+      </c>
+      <c r="H74">
+        <v>626</v>
+      </c>
+      <c r="I74" t="s">
+        <v>22</v>
+      </c>
+      <c r="J74" t="s">
+        <v>98</v>
+      </c>
+      <c r="K74">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>188</v>
+      </c>
+      <c r="C75" t="b">
+        <v>0</v>
+      </c>
+      <c r="E75">
         <v>19.989999999999998</v>
       </c>
-      <c r="F73">
-        <v>19000</v>
-      </c>
-      <c r="G73" t="s">
-        <v>80</v>
-      </c>
-      <c r="H73">
-        <v>142</v>
-      </c>
-      <c r="I73" t="s">
-        <v>25</v>
-      </c>
-      <c r="J73" t="s">
-        <v>86</v>
-      </c>
-      <c r="K73">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="74" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A74" t="s">
-        <v>81</v>
-      </c>
-      <c r="C74" t="b">
-        <v>0</v>
-      </c>
-      <c r="E74">
-        <v>29.99</v>
-      </c>
-      <c r="F74">
-        <v>39000</v>
-      </c>
-      <c r="G74" t="s">
-        <v>81</v>
-      </c>
-      <c r="H74">
-        <v>610</v>
-      </c>
-      <c r="I74" t="s">
-        <v>25</v>
-      </c>
-      <c r="J74" t="s">
-        <v>86</v>
-      </c>
-      <c r="K74">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="75" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A75" t="s">
-        <v>82</v>
-      </c>
-      <c r="C75" t="b">
-        <v>0</v>
-      </c>
-      <c r="E75">
-        <v>39.99</v>
-      </c>
       <c r="F75">
-        <v>48000</v>
+        <v>25000</v>
       </c>
       <c r="G75" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="H75">
-        <v>433</v>
+        <v>910</v>
       </c>
       <c r="I75" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="J75" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="K75">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="76" spans="1:20" x14ac:dyDescent="0.3">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>83</v>
+        <v>189</v>
       </c>
       <c r="C76" t="b">
         <v>0</v>
@@ -3870,650 +3906,401 @@
         <v>65000</v>
       </c>
       <c r="G76" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="H76">
-        <v>604</v>
+        <v>258</v>
       </c>
       <c r="I76" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="J76" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="K76">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="77" spans="1:20" x14ac:dyDescent="0.3">
+        <v>19000</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>84</v>
+        <v>190</v>
       </c>
       <c r="C77" t="b">
         <v>0</v>
       </c>
       <c r="E77">
+        <v>99.99</v>
+      </c>
+      <c r="F77">
+        <v>119000</v>
+      </c>
+      <c r="G77" t="s">
+        <v>72</v>
+      </c>
+      <c r="H77">
+        <v>872</v>
+      </c>
+      <c r="I77" t="s">
+        <v>22</v>
+      </c>
+      <c r="J77" t="s">
+        <v>98</v>
+      </c>
+      <c r="K77">
+        <v>45000</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>191</v>
+      </c>
+      <c r="C78" t="b">
+        <v>0</v>
+      </c>
+      <c r="E78">
         <v>0.99</v>
       </c>
-      <c r="F77">
+      <c r="F78">
         <v>1200</v>
       </c>
-      <c r="G77" t="s">
-        <v>84</v>
-      </c>
-      <c r="H77">
-        <v>902</v>
-      </c>
-      <c r="I77" t="s">
-        <v>25</v>
-      </c>
-      <c r="J77" t="s">
-        <v>90</v>
-      </c>
-      <c r="K77">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="78" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A78" t="s">
-        <v>85</v>
-      </c>
-      <c r="C78" t="b">
-        <v>0</v>
-      </c>
-      <c r="E78">
+      <c r="G78" t="s">
+        <v>73</v>
+      </c>
+      <c r="H78">
+        <v>357</v>
+      </c>
+      <c r="I78" t="s">
+        <v>22</v>
+      </c>
+      <c r="J78" t="s">
+        <v>98</v>
+      </c>
+      <c r="K78">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>192</v>
+      </c>
+      <c r="C79" t="b">
+        <v>0</v>
+      </c>
+      <c r="E79">
         <v>4.99</v>
       </c>
-      <c r="F78">
+      <c r="F79">
         <v>5900</v>
       </c>
-      <c r="G78" t="s">
-        <v>85</v>
-      </c>
-      <c r="H78">
-        <v>924</v>
-      </c>
-      <c r="I78" t="s">
-        <v>25</v>
-      </c>
-      <c r="J78" t="s">
-        <v>91</v>
-      </c>
-      <c r="K78">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="79" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A79" t="s">
-        <v>92</v>
-      </c>
-      <c r="C79" t="b">
-        <v>0</v>
-      </c>
-      <c r="D79">
-        <v>4</v>
-      </c>
-      <c r="E79">
-        <v>0.99</v>
-      </c>
-      <c r="F79">
-        <v>1200</v>
-      </c>
       <c r="G79" t="s">
-        <v>92</v>
+        <v>74</v>
       </c>
       <c r="H79">
-        <v>802</v>
+        <v>866</v>
       </c>
       <c r="I79" t="s">
         <v>22</v>
       </c>
       <c r="J79" t="s">
-        <v>23</v>
+        <v>98</v>
       </c>
       <c r="K79">
-        <v>30</v>
-      </c>
-      <c r="L79" t="s">
-        <v>22</v>
-      </c>
-      <c r="M79" t="s">
-        <v>24</v>
-      </c>
-      <c r="N79">
-        <v>25000</v>
-      </c>
-      <c r="O79" t="s">
-        <v>22</v>
-      </c>
-      <c r="P79" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q79">
-        <v>100</v>
-      </c>
-      <c r="R79" t="s">
-        <v>22</v>
-      </c>
-      <c r="S79" t="s">
-        <v>24</v>
-      </c>
-      <c r="T79">
-        <v>35000</v>
-      </c>
-    </row>
-    <row r="80" spans="1:20" x14ac:dyDescent="0.3">
+        <v>3150</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>93</v>
+        <v>193</v>
       </c>
       <c r="C80" t="b">
         <v>0</v>
       </c>
-      <c r="D80">
-        <v>4</v>
-      </c>
       <c r="E80">
-        <v>4.99</v>
+        <v>9.99</v>
       </c>
       <c r="F80">
-        <v>5900</v>
+        <v>12000</v>
       </c>
       <c r="G80" t="s">
-        <v>93</v>
+        <v>75</v>
       </c>
       <c r="H80">
-        <v>585</v>
+        <v>240</v>
       </c>
       <c r="I80" t="s">
         <v>22</v>
       </c>
       <c r="J80" t="s">
-        <v>23</v>
+        <v>98</v>
       </c>
       <c r="K80">
-        <v>60</v>
-      </c>
-      <c r="L80" t="s">
-        <v>22</v>
-      </c>
-      <c r="M80" t="s">
-        <v>24</v>
-      </c>
-      <c r="N80">
-        <v>15000</v>
-      </c>
-      <c r="O80" t="s">
-        <v>22</v>
-      </c>
-      <c r="P80" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q80">
-        <v>120</v>
-      </c>
-      <c r="R80" t="s">
-        <v>22</v>
-      </c>
-      <c r="S80" t="s">
-        <v>24</v>
-      </c>
-      <c r="T80">
-        <v>25000</v>
+        <v>7500</v>
       </c>
     </row>
     <row r="81" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>94</v>
+        <v>194</v>
       </c>
       <c r="C81" t="b">
         <v>0</v>
       </c>
-      <c r="D81">
-        <v>4</v>
-      </c>
       <c r="E81">
-        <v>9.99</v>
+        <v>19.989999999999998</v>
       </c>
       <c r="F81">
-        <v>13000</v>
+        <v>25000</v>
       </c>
       <c r="G81" t="s">
-        <v>94</v>
+        <v>76</v>
       </c>
       <c r="H81">
-        <v>634</v>
+        <v>722</v>
       </c>
       <c r="I81" t="s">
         <v>22</v>
       </c>
       <c r="J81" t="s">
-        <v>23</v>
+        <v>98</v>
       </c>
       <c r="K81">
-        <v>90</v>
-      </c>
-      <c r="L81" t="s">
-        <v>22</v>
-      </c>
-      <c r="M81" t="s">
-        <v>24</v>
-      </c>
-      <c r="N81">
-        <v>30000</v>
-      </c>
-      <c r="O81" t="s">
-        <v>22</v>
-      </c>
-      <c r="P81" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q81">
-        <v>150</v>
-      </c>
-      <c r="R81" t="s">
-        <v>22</v>
-      </c>
-      <c r="S81" t="s">
-        <v>23</v>
-      </c>
-      <c r="T81">
-        <v>300</v>
+        <v>18000</v>
       </c>
     </row>
     <row r="82" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>95</v>
+        <v>195</v>
       </c>
       <c r="C82" t="b">
         <v>0</v>
       </c>
-      <c r="D82">
-        <v>4</v>
-      </c>
       <c r="E82">
-        <v>9.99</v>
+        <v>49.99</v>
       </c>
       <c r="F82">
-        <v>13000</v>
+        <v>65000</v>
       </c>
       <c r="G82" t="s">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="H82">
-        <v>791</v>
+        <v>517</v>
       </c>
       <c r="I82" t="s">
         <v>22</v>
       </c>
       <c r="J82" t="s">
-        <v>23</v>
+        <v>98</v>
       </c>
       <c r="K82">
-        <v>120</v>
-      </c>
-      <c r="L82" t="s">
-        <v>22</v>
-      </c>
-      <c r="M82" t="s">
-        <v>24</v>
-      </c>
-      <c r="N82">
-        <v>50000</v>
-      </c>
-      <c r="O82" t="s">
-        <v>22</v>
-      </c>
-      <c r="P82" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q82">
-        <v>120</v>
-      </c>
-      <c r="R82" t="s">
-        <v>22</v>
-      </c>
-      <c r="S82" t="s">
-        <v>24</v>
-      </c>
-      <c r="T82">
-        <v>25000</v>
+        <v>57000</v>
       </c>
     </row>
     <row r="83" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>96</v>
+        <v>196</v>
       </c>
       <c r="C83" t="b">
         <v>0</v>
       </c>
-      <c r="D83">
-        <v>4</v>
-      </c>
       <c r="E83">
-        <v>9.99</v>
+        <v>99.99</v>
       </c>
       <c r="F83">
-        <v>13000</v>
+        <v>119000</v>
       </c>
       <c r="G83" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="H83">
-        <v>484</v>
+        <v>526</v>
       </c>
       <c r="I83" t="s">
         <v>22</v>
       </c>
       <c r="J83" t="s">
-        <v>23</v>
+        <v>98</v>
       </c>
       <c r="K83">
-        <v>150</v>
-      </c>
-      <c r="L83" t="s">
-        <v>22</v>
-      </c>
-      <c r="M83" t="s">
-        <v>24</v>
-      </c>
-      <c r="N83">
-        <v>90000</v>
-      </c>
-      <c r="O83" t="s">
-        <v>22</v>
-      </c>
-      <c r="P83" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q83">
-        <v>150</v>
-      </c>
-      <c r="R83" t="s">
-        <v>22</v>
-      </c>
-      <c r="S83" t="s">
-        <v>23</v>
-      </c>
-      <c r="T83">
-        <v>300</v>
+        <v>135000</v>
       </c>
     </row>
     <row r="84" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>125</v>
+        <v>79</v>
       </c>
       <c r="C84" t="b">
         <v>0</v>
       </c>
       <c r="E84">
-        <v>4.99</v>
+        <v>9.99</v>
       </c>
       <c r="F84">
-        <v>5900</v>
+        <v>13000</v>
       </c>
       <c r="G84" t="s">
-        <v>125</v>
+        <v>79</v>
       </c>
       <c r="H84">
-        <v>212</v>
+        <v>781</v>
       </c>
       <c r="I84" t="s">
         <v>25</v>
       </c>
       <c r="J84" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="K84">
-        <v>15</v>
-      </c>
-      <c r="L84" t="s">
-        <v>22</v>
-      </c>
-      <c r="M84" t="s">
-        <v>98</v>
-      </c>
-      <c r="N84">
-        <v>500</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>126</v>
+        <v>80</v>
       </c>
       <c r="C85" t="b">
         <v>0</v>
       </c>
       <c r="E85">
-        <v>4.99</v>
+        <v>19.989999999999998</v>
       </c>
       <c r="F85">
-        <v>5900</v>
+        <v>19000</v>
       </c>
       <c r="G85" t="s">
-        <v>126</v>
+        <v>80</v>
       </c>
       <c r="H85">
-        <v>131</v>
+        <v>142</v>
       </c>
       <c r="I85" t="s">
         <v>25</v>
       </c>
       <c r="J85" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="K85">
         <v>1</v>
       </c>
-      <c r="L85" t="s">
-        <v>22</v>
-      </c>
-      <c r="M85" t="s">
-        <v>23</v>
-      </c>
-      <c r="N85">
-        <v>750</v>
-      </c>
     </row>
     <row r="86" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="C86" t="b">
         <v>0</v>
       </c>
       <c r="E86">
-        <v>0.99</v>
+        <v>29.99</v>
       </c>
       <c r="F86">
-        <v>1200</v>
+        <v>39000</v>
       </c>
       <c r="G86" t="s">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="H86">
-        <v>704</v>
+        <v>610</v>
       </c>
       <c r="I86" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="J86" t="s">
-        <v>23</v>
+        <v>86</v>
       </c>
       <c r="K86">
-        <v>30</v>
-      </c>
-      <c r="L86" t="s">
-        <v>22</v>
-      </c>
-      <c r="M86" t="s">
-        <v>24</v>
-      </c>
-      <c r="N86">
-        <v>25000</v>
-      </c>
-      <c r="O86" t="s">
-        <v>22</v>
-      </c>
-      <c r="P86" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q86">
-        <v>100</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>101</v>
+        <v>82</v>
       </c>
       <c r="C87" t="b">
         <v>0</v>
       </c>
       <c r="E87">
-        <v>0.99</v>
+        <v>39.99</v>
       </c>
       <c r="F87">
-        <v>1200</v>
+        <v>48000</v>
       </c>
       <c r="G87" t="s">
-        <v>101</v>
+        <v>82</v>
       </c>
       <c r="H87">
-        <v>148</v>
+        <v>433</v>
       </c>
       <c r="I87" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="J87" t="s">
-        <v>23</v>
+        <v>86</v>
       </c>
       <c r="K87">
-        <v>60</v>
-      </c>
-      <c r="L87" t="s">
-        <v>22</v>
-      </c>
-      <c r="M87" t="s">
-        <v>24</v>
-      </c>
-      <c r="N87">
-        <v>15000</v>
-      </c>
-      <c r="O87" t="s">
-        <v>22</v>
-      </c>
-      <c r="P87" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q87">
-        <v>120</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>102</v>
+        <v>83</v>
       </c>
       <c r="C88" t="b">
         <v>0</v>
       </c>
       <c r="E88">
-        <v>0.99</v>
+        <v>49.99</v>
       </c>
       <c r="F88">
-        <v>1200</v>
+        <v>65000</v>
       </c>
       <c r="G88" t="s">
-        <v>102</v>
+        <v>83</v>
       </c>
       <c r="H88">
-        <v>784</v>
+        <v>604</v>
       </c>
       <c r="I88" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="J88" t="s">
-        <v>23</v>
+        <v>86</v>
       </c>
       <c r="K88">
-        <v>90</v>
-      </c>
-      <c r="L88" t="s">
-        <v>22</v>
-      </c>
-      <c r="M88" t="s">
-        <v>24</v>
-      </c>
-      <c r="N88">
-        <v>30000</v>
-      </c>
-      <c r="O88" t="s">
-        <v>22</v>
-      </c>
-      <c r="P88" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q88">
-        <v>150</v>
-      </c>
-      <c r="R88" t="s">
-        <v>22</v>
-      </c>
-      <c r="S88" t="s">
-        <v>23</v>
-      </c>
-      <c r="T88">
-        <v>300</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>103</v>
+        <v>84</v>
       </c>
       <c r="C89" t="b">
         <v>0</v>
       </c>
       <c r="E89">
-        <v>4.99</v>
+        <v>0.99</v>
       </c>
       <c r="F89">
-        <v>5900</v>
+        <v>1200</v>
       </c>
       <c r="G89" t="s">
-        <v>103</v>
+        <v>84</v>
       </c>
       <c r="H89">
-        <v>354</v>
+        <v>902</v>
       </c>
       <c r="I89" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="J89" t="s">
-        <v>23</v>
+        <v>90</v>
       </c>
       <c r="K89">
-        <v>30</v>
-      </c>
-      <c r="L89" t="s">
-        <v>22</v>
-      </c>
-      <c r="M89" t="s">
-        <v>24</v>
-      </c>
-      <c r="N89">
-        <v>25000</v>
-      </c>
-      <c r="O89" t="s">
-        <v>22</v>
-      </c>
-      <c r="P89" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q89">
-        <v>100</v>
+        <v>5</v>
       </c>
     </row>
     <row r="90" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>104</v>
+        <v>85</v>
       </c>
       <c r="C90" t="b">
         <v>0</v>
@@ -4525,57 +4312,42 @@
         <v>5900</v>
       </c>
       <c r="G90" t="s">
-        <v>104</v>
+        <v>85</v>
       </c>
       <c r="H90">
-        <v>414</v>
+        <v>924</v>
       </c>
       <c r="I90" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="J90" t="s">
-        <v>23</v>
+        <v>91</v>
       </c>
       <c r="K90">
-        <v>60</v>
-      </c>
-      <c r="L90" t="s">
-        <v>22</v>
-      </c>
-      <c r="M90" t="s">
-        <v>24</v>
-      </c>
-      <c r="N90">
-        <v>15000</v>
-      </c>
-      <c r="O90" t="s">
-        <v>22</v>
-      </c>
-      <c r="P90" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q90">
-        <v>120</v>
+        <v>5</v>
       </c>
     </row>
     <row r="91" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>105</v>
+        <v>92</v>
       </c>
       <c r="C91" t="b">
         <v>0</v>
       </c>
+      <c r="D91">
+        <v>4</v>
+      </c>
       <c r="E91">
-        <v>9.99</v>
+        <v>0.99</v>
       </c>
       <c r="F91">
-        <v>13000</v>
+        <v>1200</v>
       </c>
       <c r="G91" t="s">
-        <v>105</v>
+        <v>92</v>
       </c>
       <c r="H91">
-        <v>726</v>
+        <v>802</v>
       </c>
       <c r="I91" t="s">
         <v>22</v>
@@ -4584,7 +4356,7 @@
         <v>23</v>
       </c>
       <c r="K91">
-        <v>90</v>
+        <v>30</v>
       </c>
       <c r="L91" t="s">
         <v>22</v>
@@ -4593,7 +4365,7 @@
         <v>24</v>
       </c>
       <c r="N91">
-        <v>30000</v>
+        <v>25000</v>
       </c>
       <c r="O91" t="s">
         <v>22</v>
@@ -4602,36 +4374,39 @@
         <v>23</v>
       </c>
       <c r="Q91">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="R91" t="s">
         <v>22</v>
       </c>
       <c r="S91" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="T91">
-        <v>300</v>
+        <v>35000</v>
       </c>
     </row>
     <row r="92" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>106</v>
+        <v>93</v>
       </c>
       <c r="C92" t="b">
         <v>0</v>
       </c>
+      <c r="D92">
+        <v>4</v>
+      </c>
       <c r="E92">
-        <v>9.99</v>
+        <v>4.99</v>
       </c>
       <c r="F92">
-        <v>13000</v>
+        <v>5900</v>
       </c>
       <c r="G92" t="s">
-        <v>106</v>
+        <v>93</v>
       </c>
       <c r="H92">
-        <v>679</v>
+        <v>585</v>
       </c>
       <c r="I92" t="s">
         <v>22</v>
@@ -4640,7 +4415,7 @@
         <v>23</v>
       </c>
       <c r="K92">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="L92" t="s">
         <v>22</v>
@@ -4649,36 +4424,48 @@
         <v>24</v>
       </c>
       <c r="N92">
+        <v>15000</v>
+      </c>
+      <c r="O92" t="s">
+        <v>22</v>
+      </c>
+      <c r="P92" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q92">
+        <v>120</v>
+      </c>
+      <c r="R92" t="s">
+        <v>22</v>
+      </c>
+      <c r="S92" t="s">
+        <v>24</v>
+      </c>
+      <c r="T92">
         <v>25000</v>
-      </c>
-      <c r="O92" t="s">
-        <v>22</v>
-      </c>
-      <c r="P92" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q92">
-        <v>100</v>
       </c>
     </row>
     <row r="93" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>107</v>
+        <v>94</v>
       </c>
       <c r="C93" t="b">
         <v>0</v>
       </c>
+      <c r="D93">
+        <v>4</v>
+      </c>
       <c r="E93">
-        <v>19.989999999999998</v>
+        <v>9.99</v>
       </c>
       <c r="F93">
-        <v>25000</v>
+        <v>13000</v>
       </c>
       <c r="G93" t="s">
-        <v>107</v>
+        <v>94</v>
       </c>
       <c r="H93">
-        <v>752</v>
+        <v>634</v>
       </c>
       <c r="I93" t="s">
         <v>22</v>
@@ -4687,7 +4474,7 @@
         <v>23</v>
       </c>
       <c r="K93">
-        <v>30</v>
+        <v>90</v>
       </c>
       <c r="L93" t="s">
         <v>22</v>
@@ -4696,7 +4483,7 @@
         <v>24</v>
       </c>
       <c r="N93">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="O93" t="s">
         <v>22</v>
@@ -4705,27 +4492,39 @@
         <v>23</v>
       </c>
       <c r="Q93">
-        <v>100</v>
+        <v>150</v>
+      </c>
+      <c r="R93" t="s">
+        <v>22</v>
+      </c>
+      <c r="S93" t="s">
+        <v>23</v>
+      </c>
+      <c r="T93">
+        <v>300</v>
       </c>
     </row>
     <row r="94" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="C94" t="b">
         <v>0</v>
       </c>
+      <c r="D94">
+        <v>4</v>
+      </c>
       <c r="E94">
-        <v>39.99</v>
+        <v>9.99</v>
       </c>
       <c r="F94">
-        <v>48000</v>
+        <v>13000</v>
       </c>
       <c r="G94" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="H94">
-        <v>534</v>
+        <v>791</v>
       </c>
       <c r="I94" t="s">
         <v>22</v>
@@ -4734,7 +4533,7 @@
         <v>23</v>
       </c>
       <c r="K94">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="L94" t="s">
         <v>22</v>
@@ -4743,7 +4542,7 @@
         <v>24</v>
       </c>
       <c r="N94">
-        <v>15000</v>
+        <v>50000</v>
       </c>
       <c r="O94" t="s">
         <v>22</v>
@@ -4754,25 +4553,37 @@
       <c r="Q94">
         <v>120</v>
       </c>
+      <c r="R94" t="s">
+        <v>22</v>
+      </c>
+      <c r="S94" t="s">
+        <v>24</v>
+      </c>
+      <c r="T94">
+        <v>25000</v>
+      </c>
     </row>
     <row r="95" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>109</v>
+        <v>96</v>
       </c>
       <c r="C95" t="b">
         <v>0</v>
       </c>
+      <c r="D95">
+        <v>4</v>
+      </c>
       <c r="E95">
-        <v>49.99</v>
+        <v>9.99</v>
       </c>
       <c r="F95">
-        <v>69000</v>
+        <v>13000</v>
       </c>
       <c r="G95" t="s">
-        <v>109</v>
+        <v>96</v>
       </c>
       <c r="H95">
-        <v>243</v>
+        <v>484</v>
       </c>
       <c r="I95" t="s">
         <v>22</v>
@@ -4781,7 +4592,7 @@
         <v>23</v>
       </c>
       <c r="K95">
-        <v>90</v>
+        <v>150</v>
       </c>
       <c r="L95" t="s">
         <v>22</v>
@@ -4790,7 +4601,7 @@
         <v>24</v>
       </c>
       <c r="N95">
-        <v>30000</v>
+        <v>90000</v>
       </c>
       <c r="O95" t="s">
         <v>22</v>
@@ -4813,36 +4624,45 @@
     </row>
     <row r="96" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>138</v>
+        <v>125</v>
       </c>
       <c r="C96" t="b">
         <v>0</v>
       </c>
       <c r="E96">
-        <v>0.99</v>
+        <v>4.99</v>
       </c>
       <c r="F96">
-        <v>1200</v>
+        <v>5900</v>
       </c>
       <c r="G96" t="s">
-        <v>138</v>
+        <v>125</v>
       </c>
       <c r="H96">
-        <v>384</v>
+        <v>212</v>
       </c>
       <c r="I96" t="s">
         <v>25</v>
       </c>
       <c r="J96" t="s">
-        <v>139</v>
+        <v>97</v>
       </c>
       <c r="K96">
-        <v>86400</v>
+        <v>15</v>
+      </c>
+      <c r="L96" t="s">
+        <v>22</v>
+      </c>
+      <c r="M96" t="s">
+        <v>98</v>
+      </c>
+      <c r="N96">
+        <v>500</v>
       </c>
     </row>
     <row r="97" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>140</v>
+        <v>126</v>
       </c>
       <c r="C97" t="b">
         <v>0</v>
@@ -4854,196 +4674,277 @@
         <v>5900</v>
       </c>
       <c r="G97" t="s">
-        <v>140</v>
+        <v>126</v>
       </c>
       <c r="H97">
-        <v>681</v>
+        <v>131</v>
       </c>
       <c r="I97" t="s">
         <v>25</v>
       </c>
       <c r="J97" t="s">
-        <v>139</v>
+        <v>99</v>
       </c>
       <c r="K97">
-        <v>604800</v>
+        <v>1</v>
+      </c>
+      <c r="L97" t="s">
+        <v>22</v>
+      </c>
+      <c r="M97" t="s">
+        <v>23</v>
+      </c>
+      <c r="N97">
+        <v>750</v>
       </c>
     </row>
     <row r="98" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>141</v>
+        <v>100</v>
       </c>
       <c r="C98" t="b">
         <v>0</v>
       </c>
       <c r="E98">
-        <v>9.99</v>
+        <v>0.99</v>
       </c>
       <c r="F98">
-        <v>13000</v>
+        <v>1200</v>
       </c>
       <c r="G98" t="s">
-        <v>141</v>
+        <v>100</v>
       </c>
       <c r="H98">
-        <v>813</v>
+        <v>704</v>
       </c>
       <c r="I98" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="J98" t="s">
-        <v>139</v>
+        <v>23</v>
       </c>
       <c r="K98">
-        <v>2592000</v>
+        <v>30</v>
       </c>
       <c r="L98" t="s">
         <v>22</v>
       </c>
       <c r="M98" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="N98">
-        <v>1000</v>
+        <v>25000</v>
       </c>
       <c r="O98" t="s">
         <v>22</v>
       </c>
       <c r="P98" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Q98">
-        <v>25000</v>
-      </c>
-      <c r="R98" t="s">
-        <v>22</v>
-      </c>
-      <c r="S98" t="s">
-        <v>98</v>
-      </c>
-      <c r="T98">
-        <v>750</v>
+        <v>100</v>
       </c>
     </row>
     <row r="99" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>142</v>
+        <v>101</v>
       </c>
       <c r="C99" t="b">
         <v>0</v>
       </c>
       <c r="E99">
-        <v>9.99</v>
+        <v>0.99</v>
       </c>
       <c r="F99">
-        <v>13000</v>
+        <v>1200</v>
       </c>
       <c r="G99" t="s">
-        <v>142</v>
+        <v>101</v>
       </c>
       <c r="H99">
-        <v>178</v>
+        <v>148</v>
       </c>
       <c r="I99" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="J99" t="s">
-        <v>154</v>
+        <v>23</v>
       </c>
       <c r="K99">
-        <v>1</v>
+        <v>60</v>
+      </c>
+      <c r="L99" t="s">
+        <v>22</v>
+      </c>
+      <c r="M99" t="s">
+        <v>24</v>
+      </c>
+      <c r="N99">
+        <v>15000</v>
+      </c>
+      <c r="O99" t="s">
+        <v>22</v>
+      </c>
+      <c r="P99" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q99">
+        <v>120</v>
       </c>
     </row>
     <row r="100" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>144</v>
+        <v>102</v>
       </c>
       <c r="C100" t="b">
         <v>0</v>
       </c>
       <c r="E100">
-        <v>9.99</v>
+        <v>0.99</v>
       </c>
       <c r="F100">
-        <v>13000</v>
+        <v>1200</v>
       </c>
       <c r="G100" t="s">
-        <v>144</v>
+        <v>102</v>
       </c>
       <c r="H100">
-        <v>240</v>
+        <v>784</v>
       </c>
       <c r="I100" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="J100" t="s">
-        <v>143</v>
+        <v>23</v>
       </c>
       <c r="K100">
-        <v>1</v>
+        <v>90</v>
+      </c>
+      <c r="L100" t="s">
+        <v>22</v>
+      </c>
+      <c r="M100" t="s">
+        <v>24</v>
+      </c>
+      <c r="N100">
+        <v>30000</v>
+      </c>
+      <c r="O100" t="s">
+        <v>22</v>
+      </c>
+      <c r="P100" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q100">
+        <v>150</v>
+      </c>
+      <c r="R100" t="s">
+        <v>22</v>
+      </c>
+      <c r="S100" t="s">
+        <v>23</v>
+      </c>
+      <c r="T100">
+        <v>300</v>
       </c>
     </row>
     <row r="101" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>145</v>
+        <v>103</v>
       </c>
       <c r="C101" t="b">
         <v>0</v>
       </c>
       <c r="E101">
-        <v>9.99</v>
+        <v>4.99</v>
       </c>
       <c r="F101">
-        <v>13000</v>
+        <v>5900</v>
       </c>
       <c r="G101" t="s">
-        <v>145</v>
+        <v>103</v>
       </c>
       <c r="H101">
-        <v>652</v>
+        <v>354</v>
       </c>
       <c r="I101" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="J101" t="s">
-        <v>143</v>
+        <v>23</v>
       </c>
       <c r="K101">
-        <v>1</v>
+        <v>30</v>
+      </c>
+      <c r="L101" t="s">
+        <v>22</v>
+      </c>
+      <c r="M101" t="s">
+        <v>24</v>
+      </c>
+      <c r="N101">
+        <v>25000</v>
+      </c>
+      <c r="O101" t="s">
+        <v>22</v>
+      </c>
+      <c r="P101" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q101">
+        <v>100</v>
       </c>
     </row>
     <row r="102" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>146</v>
+        <v>104</v>
       </c>
       <c r="C102" t="b">
         <v>0</v>
       </c>
       <c r="E102">
-        <v>9.99</v>
+        <v>4.99</v>
       </c>
       <c r="F102">
-        <v>13000</v>
+        <v>5900</v>
       </c>
       <c r="G102" t="s">
-        <v>146</v>
+        <v>104</v>
       </c>
       <c r="H102">
-        <v>358</v>
+        <v>414</v>
       </c>
       <c r="I102" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="J102" t="s">
-        <v>143</v>
+        <v>23</v>
       </c>
       <c r="K102">
-        <v>1</v>
+        <v>60</v>
+      </c>
+      <c r="L102" t="s">
+        <v>22</v>
+      </c>
+      <c r="M102" t="s">
+        <v>24</v>
+      </c>
+      <c r="N102">
+        <v>15000</v>
+      </c>
+      <c r="O102" t="s">
+        <v>22</v>
+      </c>
+      <c r="P102" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q102">
+        <v>120</v>
       </c>
     </row>
     <row r="103" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>170</v>
+        <v>105</v>
       </c>
       <c r="C103" t="b">
         <v>0</v>
@@ -5055,24 +4956,51 @@
         <v>13000</v>
       </c>
       <c r="G103" t="s">
-        <v>170</v>
+        <v>105</v>
       </c>
       <c r="H103">
-        <v>717</v>
+        <v>726</v>
       </c>
       <c r="I103" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="J103" t="s">
-        <v>160</v>
+        <v>23</v>
       </c>
       <c r="K103">
-        <v>1</v>
+        <v>90</v>
+      </c>
+      <c r="L103" t="s">
+        <v>22</v>
+      </c>
+      <c r="M103" t="s">
+        <v>24</v>
+      </c>
+      <c r="N103">
+        <v>30000</v>
+      </c>
+      <c r="O103" t="s">
+        <v>22</v>
+      </c>
+      <c r="P103" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q103">
+        <v>150</v>
+      </c>
+      <c r="R103" t="s">
+        <v>22</v>
+      </c>
+      <c r="S103" t="s">
+        <v>23</v>
+      </c>
+      <c r="T103">
+        <v>300</v>
       </c>
     </row>
     <row r="104" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>173</v>
+        <v>106</v>
       </c>
       <c r="C104" t="b">
         <v>0</v>
@@ -5084,47 +5012,503 @@
         <v>13000</v>
       </c>
       <c r="G104" t="s">
-        <v>173</v>
+        <v>106</v>
       </c>
       <c r="H104">
-        <v>569</v>
+        <v>679</v>
       </c>
       <c r="I104" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="J104" t="s">
-        <v>156</v>
+        <v>23</v>
       </c>
       <c r="K104">
-        <v>1</v>
+        <v>30</v>
+      </c>
+      <c r="L104" t="s">
+        <v>22</v>
+      </c>
+      <c r="M104" t="s">
+        <v>24</v>
+      </c>
+      <c r="N104">
+        <v>25000</v>
+      </c>
+      <c r="O104" t="s">
+        <v>22</v>
+      </c>
+      <c r="P104" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q104">
+        <v>100</v>
       </c>
     </row>
     <row r="105" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
+        <v>107</v>
+      </c>
+      <c r="C105" t="b">
+        <v>0</v>
+      </c>
+      <c r="E105">
+        <v>19.989999999999998</v>
+      </c>
+      <c r="F105">
+        <v>25000</v>
+      </c>
+      <c r="G105" t="s">
+        <v>107</v>
+      </c>
+      <c r="H105">
+        <v>752</v>
+      </c>
+      <c r="I105" t="s">
+        <v>22</v>
+      </c>
+      <c r="J105" t="s">
+        <v>23</v>
+      </c>
+      <c r="K105">
+        <v>30</v>
+      </c>
+      <c r="L105" t="s">
+        <v>22</v>
+      </c>
+      <c r="M105" t="s">
+        <v>24</v>
+      </c>
+      <c r="N105">
+        <v>25000</v>
+      </c>
+      <c r="O105" t="s">
+        <v>22</v>
+      </c>
+      <c r="P105" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q105">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="106" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A106" t="s">
+        <v>108</v>
+      </c>
+      <c r="C106" t="b">
+        <v>0</v>
+      </c>
+      <c r="E106">
+        <v>39.99</v>
+      </c>
+      <c r="F106">
+        <v>48000</v>
+      </c>
+      <c r="G106" t="s">
+        <v>108</v>
+      </c>
+      <c r="H106">
+        <v>534</v>
+      </c>
+      <c r="I106" t="s">
+        <v>22</v>
+      </c>
+      <c r="J106" t="s">
+        <v>23</v>
+      </c>
+      <c r="K106">
+        <v>60</v>
+      </c>
+      <c r="L106" t="s">
+        <v>22</v>
+      </c>
+      <c r="M106" t="s">
+        <v>24</v>
+      </c>
+      <c r="N106">
+        <v>15000</v>
+      </c>
+      <c r="O106" t="s">
+        <v>22</v>
+      </c>
+      <c r="P106" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q106">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="107" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A107" t="s">
+        <v>109</v>
+      </c>
+      <c r="C107" t="b">
+        <v>0</v>
+      </c>
+      <c r="E107">
+        <v>49.99</v>
+      </c>
+      <c r="F107">
+        <v>69000</v>
+      </c>
+      <c r="G107" t="s">
+        <v>109</v>
+      </c>
+      <c r="H107">
+        <v>243</v>
+      </c>
+      <c r="I107" t="s">
+        <v>22</v>
+      </c>
+      <c r="J107" t="s">
+        <v>23</v>
+      </c>
+      <c r="K107">
+        <v>90</v>
+      </c>
+      <c r="L107" t="s">
+        <v>22</v>
+      </c>
+      <c r="M107" t="s">
+        <v>24</v>
+      </c>
+      <c r="N107">
+        <v>30000</v>
+      </c>
+      <c r="O107" t="s">
+        <v>22</v>
+      </c>
+      <c r="P107" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q107">
+        <v>150</v>
+      </c>
+      <c r="R107" t="s">
+        <v>22</v>
+      </c>
+      <c r="S107" t="s">
+        <v>23</v>
+      </c>
+      <c r="T107">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="108" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A108" t="s">
+        <v>138</v>
+      </c>
+      <c r="C108" t="b">
+        <v>0</v>
+      </c>
+      <c r="E108">
+        <v>0.99</v>
+      </c>
+      <c r="F108">
+        <v>1200</v>
+      </c>
+      <c r="G108" t="s">
+        <v>138</v>
+      </c>
+      <c r="H108">
+        <v>384</v>
+      </c>
+      <c r="I108" t="s">
+        <v>25</v>
+      </c>
+      <c r="J108" t="s">
+        <v>139</v>
+      </c>
+      <c r="K108">
+        <v>86400</v>
+      </c>
+    </row>
+    <row r="109" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A109" t="s">
+        <v>140</v>
+      </c>
+      <c r="C109" t="b">
+        <v>0</v>
+      </c>
+      <c r="E109">
+        <v>4.99</v>
+      </c>
+      <c r="F109">
+        <v>5900</v>
+      </c>
+      <c r="G109" t="s">
+        <v>140</v>
+      </c>
+      <c r="H109">
+        <v>681</v>
+      </c>
+      <c r="I109" t="s">
+        <v>25</v>
+      </c>
+      <c r="J109" t="s">
+        <v>139</v>
+      </c>
+      <c r="K109">
+        <v>604800</v>
+      </c>
+    </row>
+    <row r="110" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A110" t="s">
+        <v>141</v>
+      </c>
+      <c r="C110" t="b">
+        <v>0</v>
+      </c>
+      <c r="E110">
+        <v>9.99</v>
+      </c>
+      <c r="F110">
+        <v>13000</v>
+      </c>
+      <c r="G110" t="s">
+        <v>141</v>
+      </c>
+      <c r="H110">
+        <v>813</v>
+      </c>
+      <c r="I110" t="s">
+        <v>25</v>
+      </c>
+      <c r="J110" t="s">
+        <v>139</v>
+      </c>
+      <c r="K110">
+        <v>2592000</v>
+      </c>
+      <c r="L110" t="s">
+        <v>22</v>
+      </c>
+      <c r="M110" t="s">
+        <v>23</v>
+      </c>
+      <c r="N110">
+        <v>1000</v>
+      </c>
+      <c r="O110" t="s">
+        <v>22</v>
+      </c>
+      <c r="P110" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q110">
+        <v>25000</v>
+      </c>
+      <c r="R110" t="s">
+        <v>22</v>
+      </c>
+      <c r="S110" t="s">
+        <v>98</v>
+      </c>
+      <c r="T110">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="111" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A111" t="s">
+        <v>142</v>
+      </c>
+      <c r="C111" t="b">
+        <v>0</v>
+      </c>
+      <c r="E111">
+        <v>9.99</v>
+      </c>
+      <c r="F111">
+        <v>13000</v>
+      </c>
+      <c r="G111" t="s">
+        <v>142</v>
+      </c>
+      <c r="H111">
+        <v>178</v>
+      </c>
+      <c r="I111" t="s">
+        <v>25</v>
+      </c>
+      <c r="J111" t="s">
+        <v>154</v>
+      </c>
+      <c r="K111">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A112" t="s">
+        <v>144</v>
+      </c>
+      <c r="C112" t="b">
+        <v>0</v>
+      </c>
+      <c r="E112">
+        <v>9.99</v>
+      </c>
+      <c r="F112">
+        <v>13000</v>
+      </c>
+      <c r="G112" t="s">
+        <v>144</v>
+      </c>
+      <c r="H112">
+        <v>240</v>
+      </c>
+      <c r="I112" t="s">
+        <v>25</v>
+      </c>
+      <c r="J112" t="s">
+        <v>143</v>
+      </c>
+      <c r="K112">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A113" t="s">
+        <v>145</v>
+      </c>
+      <c r="C113" t="b">
+        <v>0</v>
+      </c>
+      <c r="E113">
+        <v>9.99</v>
+      </c>
+      <c r="F113">
+        <v>13000</v>
+      </c>
+      <c r="G113" t="s">
+        <v>145</v>
+      </c>
+      <c r="H113">
+        <v>652</v>
+      </c>
+      <c r="I113" t="s">
+        <v>25</v>
+      </c>
+      <c r="J113" t="s">
+        <v>143</v>
+      </c>
+      <c r="K113">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A114" t="s">
+        <v>146</v>
+      </c>
+      <c r="C114" t="b">
+        <v>0</v>
+      </c>
+      <c r="E114">
+        <v>9.99</v>
+      </c>
+      <c r="F114">
+        <v>13000</v>
+      </c>
+      <c r="G114" t="s">
+        <v>146</v>
+      </c>
+      <c r="H114">
+        <v>358</v>
+      </c>
+      <c r="I114" t="s">
+        <v>25</v>
+      </c>
+      <c r="J114" t="s">
+        <v>143</v>
+      </c>
+      <c r="K114">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A115" t="s">
+        <v>170</v>
+      </c>
+      <c r="C115" t="b">
+        <v>0</v>
+      </c>
+      <c r="E115">
+        <v>9.99</v>
+      </c>
+      <c r="F115">
+        <v>13000</v>
+      </c>
+      <c r="G115" t="s">
+        <v>170</v>
+      </c>
+      <c r="H115">
+        <v>717</v>
+      </c>
+      <c r="I115" t="s">
+        <v>25</v>
+      </c>
+      <c r="J115" t="s">
+        <v>160</v>
+      </c>
+      <c r="K115">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A116" t="s">
+        <v>173</v>
+      </c>
+      <c r="C116" t="b">
+        <v>0</v>
+      </c>
+      <c r="E116">
+        <v>9.99</v>
+      </c>
+      <c r="F116">
+        <v>13000</v>
+      </c>
+      <c r="G116" t="s">
+        <v>173</v>
+      </c>
+      <c r="H116">
+        <v>569</v>
+      </c>
+      <c r="I116" t="s">
+        <v>25</v>
+      </c>
+      <c r="J116" t="s">
+        <v>156</v>
+      </c>
+      <c r="K116">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A117" t="s">
         <v>175</v>
       </c>
-      <c r="C105" t="b">
-        <v>0</v>
-      </c>
-      <c r="E105">
+      <c r="C117" t="b">
+        <v>0</v>
+      </c>
+      <c r="E117">
         <v>9.99</v>
       </c>
-      <c r="F105">
+      <c r="F117">
         <v>13000</v>
       </c>
-      <c r="G105" t="s">
+      <c r="G117" t="s">
         <v>175</v>
       </c>
-      <c r="H105">
+      <c r="H117">
         <v>880</v>
       </c>
-      <c r="I105" t="s">
+      <c r="I117" t="s">
         <v>25</v>
       </c>
-      <c r="J105" t="s">
+      <c r="J117" t="s">
         <v>158</v>
       </c>
-      <c r="K105">
+      <c r="K117">
         <v>1</v>
       </c>
     </row>
@@ -5627,7 +6011,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7F6E2B0-0C60-4D70-BB39-CCF28128EE73}">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>

--- a/Excel/Shop.xlsx
+++ b/Excel/Shop.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectNameless\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{110B65F9-2043-45BE-ACF3-94BDA775B900}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FAE1B2B-671E-4763-A6A9-8BE5EB56E84B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{1A95D980-8F25-43B6-BA87-364295A77694}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1A95D980-8F25-43B6-BA87-364295A77694}"/>
   </bookViews>
   <sheets>
     <sheet name="ShopProductTable" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="782" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="780" uniqueCount="197">
   <si>
     <t>productId|String</t>
   </si>
@@ -344,9 +344,6 @@
     <t>DI</t>
   </si>
   <si>
-    <t>Cash_sResearchBoost</t>
-  </si>
-  <si>
     <t>relay_1</t>
   </si>
   <si>
@@ -425,9 +422,6 @@
     <t>dailygem</t>
   </si>
   <si>
-    <t>researchboost</t>
-  </si>
-  <si>
     <t>Cash_sSevenTotal</t>
   </si>
   <si>
@@ -636,6 +630,12 @@
   </si>
   <si>
     <t>cashshopgem_6_more</t>
+  </si>
+  <si>
+    <t>petpass</t>
+  </si>
+  <si>
+    <t>Cash_sPetPass</t>
   </si>
 </sst>
 </file>
@@ -1016,7 +1016,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1044,7 +1044,7 @@
         <v>6</v>
       </c>
       <c r="D1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E1" t="s">
         <v>1</v>
@@ -1106,7 +1106,7 @@
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C2" t="b">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>13000</v>
       </c>
       <c r="G2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H2">
         <v>744</v>
@@ -1135,7 +1135,7 @@
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C3" t="b">
         <v>0</v>
@@ -1147,7 +1147,7 @@
         <v>6500</v>
       </c>
       <c r="G3" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="H3">
         <v>493</v>
@@ -1164,7 +1164,7 @@
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C4" t="b">
         <v>0</v>
@@ -1176,7 +1176,7 @@
         <v>7900</v>
       </c>
       <c r="G4" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="H4">
         <v>585</v>
@@ -1193,7 +1193,7 @@
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C5" t="b">
         <v>0</v>
@@ -1205,7 +1205,7 @@
         <v>8900</v>
       </c>
       <c r="G5" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="H5">
         <v>752</v>
@@ -1222,7 +1222,7 @@
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C6" t="b">
         <v>0</v>
@@ -1234,7 +1234,7 @@
         <v>9900</v>
       </c>
       <c r="G6" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="H6">
         <v>529</v>
@@ -1251,7 +1251,7 @@
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C7" t="b">
         <v>0</v>
@@ -1263,7 +1263,7 @@
         <v>10900</v>
       </c>
       <c r="G7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="H7">
         <v>743</v>
@@ -1280,7 +1280,7 @@
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C8" t="b">
         <v>0</v>
@@ -1292,7 +1292,7 @@
         <v>11000</v>
       </c>
       <c r="G8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H8">
         <v>234</v>
@@ -1318,7 +1318,7 @@
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C9" t="b">
         <v>0</v>
@@ -1330,7 +1330,7 @@
         <v>6500</v>
       </c>
       <c r="G9" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="H9">
         <v>125</v>
@@ -1811,7 +1811,7 @@
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C20" t="b">
         <v>0</v>
@@ -1823,7 +1823,7 @@
         <v>13000</v>
       </c>
       <c r="G20" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="H20">
         <v>682</v>
@@ -1849,7 +1849,7 @@
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C21" t="b">
         <v>0</v>
@@ -1861,7 +1861,7 @@
         <v>13000</v>
       </c>
       <c r="G21" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="H21">
         <v>601</v>
@@ -1887,7 +1887,7 @@
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C22" t="b">
         <v>0</v>
@@ -1899,7 +1899,7 @@
         <v>1200</v>
       </c>
       <c r="G22" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H22">
         <v>797</v>
@@ -1916,7 +1916,7 @@
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C23" t="b">
         <v>1</v>
@@ -1928,7 +1928,7 @@
         <v>25</v>
       </c>
       <c r="J23" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="K23">
         <v>1</v>
@@ -2022,7 +2022,7 @@
         <v>25</v>
       </c>
       <c r="J25" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="K25">
         <v>75</v>
@@ -2116,7 +2116,7 @@
         <v>25</v>
       </c>
       <c r="J27" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="K27">
         <v>200</v>
@@ -2210,7 +2210,7 @@
         <v>25</v>
       </c>
       <c r="J29" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="K29">
         <v>400</v>
@@ -2304,7 +2304,7 @@
         <v>25</v>
       </c>
       <c r="J31" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="K31">
         <v>1200</v>
@@ -2398,7 +2398,7 @@
         <v>25</v>
       </c>
       <c r="J33" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="K33">
         <v>300</v>
@@ -2492,7 +2492,7 @@
         <v>25</v>
       </c>
       <c r="J35" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="K35">
         <v>1000</v>
@@ -2518,7 +2518,7 @@
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C36" t="b">
         <v>0</v>
@@ -2530,7 +2530,7 @@
         <v>13000</v>
       </c>
       <c r="G36" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H36">
         <v>359</v>
@@ -2539,7 +2539,7 @@
         <v>25</v>
       </c>
       <c r="J36" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="K36">
         <v>500</v>
@@ -2565,7 +2565,7 @@
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C37" t="b">
         <v>0</v>
@@ -2577,7 +2577,7 @@
         <v>19000</v>
       </c>
       <c r="G37" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H37">
         <v>881</v>
@@ -2612,7 +2612,7 @@
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C38" t="b">
         <v>0</v>
@@ -2624,7 +2624,7 @@
         <v>39000</v>
       </c>
       <c r="G38" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H38">
         <v>108</v>
@@ -2633,7 +2633,7 @@
         <v>25</v>
       </c>
       <c r="J38" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="K38">
         <v>1500</v>
@@ -2659,7 +2659,7 @@
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C39" t="b">
         <v>0</v>
@@ -2671,7 +2671,7 @@
         <v>69000</v>
       </c>
       <c r="G39" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H39">
         <v>550</v>
@@ -2706,7 +2706,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C40" t="b">
         <v>0</v>
@@ -2718,7 +2718,7 @@
         <v>13000</v>
       </c>
       <c r="G40" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H40">
         <v>397</v>
@@ -2727,7 +2727,7 @@
         <v>25</v>
       </c>
       <c r="J40" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="K40">
         <v>500</v>
@@ -2753,7 +2753,7 @@
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C41" t="b">
         <v>0</v>
@@ -2765,7 +2765,7 @@
         <v>19000</v>
       </c>
       <c r="G41" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H41">
         <v>401</v>
@@ -2800,7 +2800,7 @@
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C42" t="b">
         <v>0</v>
@@ -2812,7 +2812,7 @@
         <v>39000</v>
       </c>
       <c r="G42" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H42">
         <v>177</v>
@@ -2821,7 +2821,7 @@
         <v>25</v>
       </c>
       <c r="J42" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="K42">
         <v>1500</v>
@@ -2847,7 +2847,7 @@
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C43" t="b">
         <v>0</v>
@@ -2859,7 +2859,7 @@
         <v>69000</v>
       </c>
       <c r="G43" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H43">
         <v>506</v>
@@ -2894,7 +2894,7 @@
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C44" t="b">
         <v>0</v>
@@ -2906,7 +2906,7 @@
         <v>13000</v>
       </c>
       <c r="G44" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H44">
         <v>741</v>
@@ -2915,7 +2915,7 @@
         <v>25</v>
       </c>
       <c r="J44" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="K44">
         <v>500</v>
@@ -2941,7 +2941,7 @@
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C45" t="b">
         <v>0</v>
@@ -2953,7 +2953,7 @@
         <v>19000</v>
       </c>
       <c r="G45" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H45">
         <v>578</v>
@@ -2988,7 +2988,7 @@
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C46" t="b">
         <v>0</v>
@@ -3000,7 +3000,7 @@
         <v>39000</v>
       </c>
       <c r="G46" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H46">
         <v>106</v>
@@ -3009,7 +3009,7 @@
         <v>25</v>
       </c>
       <c r="J46" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="K46">
         <v>1500</v>
@@ -3035,7 +3035,7 @@
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C47" t="b">
         <v>0</v>
@@ -3047,7 +3047,7 @@
         <v>69000</v>
       </c>
       <c r="G47" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H47">
         <v>440</v>
@@ -3778,7 +3778,7 @@
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C72" t="b">
         <v>0</v>
@@ -3807,7 +3807,7 @@
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C73" t="b">
         <v>0</v>
@@ -3836,7 +3836,7 @@
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C74" t="b">
         <v>0</v>
@@ -3865,7 +3865,7 @@
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C75" t="b">
         <v>0</v>
@@ -3894,7 +3894,7 @@
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C76" t="b">
         <v>0</v>
@@ -3923,7 +3923,7 @@
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C77" t="b">
         <v>0</v>
@@ -3952,7 +3952,7 @@
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C78" t="b">
         <v>0</v>
@@ -3981,7 +3981,7 @@
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C79" t="b">
         <v>0</v>
@@ -4010,7 +4010,7 @@
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C80" t="b">
         <v>0</v>
@@ -4039,7 +4039,7 @@
     </row>
     <row r="81" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C81" t="b">
         <v>0</v>
@@ -4068,7 +4068,7 @@
     </row>
     <row r="82" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C82" t="b">
         <v>0</v>
@@ -4097,7 +4097,7 @@
     </row>
     <row r="83" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C83" t="b">
         <v>0</v>
@@ -4624,7 +4624,7 @@
     </row>
     <row r="96" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C96" t="b">
         <v>0</v>
@@ -4636,7 +4636,7 @@
         <v>5900</v>
       </c>
       <c r="G96" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H96">
         <v>212</v>
@@ -4662,40 +4662,49 @@
     </row>
     <row r="97" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>126</v>
+        <v>99</v>
       </c>
       <c r="C97" t="b">
         <v>0</v>
       </c>
       <c r="E97">
-        <v>4.99</v>
+        <v>0.99</v>
       </c>
       <c r="F97">
-        <v>5900</v>
+        <v>1200</v>
       </c>
       <c r="G97" t="s">
-        <v>126</v>
+        <v>99</v>
       </c>
       <c r="H97">
-        <v>131</v>
+        <v>704</v>
       </c>
       <c r="I97" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="J97" t="s">
-        <v>99</v>
+        <v>23</v>
       </c>
       <c r="K97">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="L97" t="s">
         <v>22</v>
       </c>
       <c r="M97" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="N97">
-        <v>750</v>
+        <v>25000</v>
+      </c>
+      <c r="O97" t="s">
+        <v>22</v>
+      </c>
+      <c r="P97" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q97">
+        <v>100</v>
       </c>
     </row>
     <row r="98" spans="1:20" x14ac:dyDescent="0.3">
@@ -4715,7 +4724,7 @@
         <v>100</v>
       </c>
       <c r="H98">
-        <v>704</v>
+        <v>148</v>
       </c>
       <c r="I98" t="s">
         <v>22</v>
@@ -4724,7 +4733,7 @@
         <v>23</v>
       </c>
       <c r="K98">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="L98" t="s">
         <v>22</v>
@@ -4733,7 +4742,7 @@
         <v>24</v>
       </c>
       <c r="N98">
-        <v>25000</v>
+        <v>15000</v>
       </c>
       <c r="O98" t="s">
         <v>22</v>
@@ -4742,7 +4751,7 @@
         <v>23</v>
       </c>
       <c r="Q98">
-        <v>100</v>
+        <v>120</v>
       </c>
     </row>
     <row r="99" spans="1:20" x14ac:dyDescent="0.3">
@@ -4762,7 +4771,7 @@
         <v>101</v>
       </c>
       <c r="H99">
-        <v>148</v>
+        <v>784</v>
       </c>
       <c r="I99" t="s">
         <v>22</v>
@@ -4771,7 +4780,7 @@
         <v>23</v>
       </c>
       <c r="K99">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="L99" t="s">
         <v>22</v>
@@ -4780,7 +4789,7 @@
         <v>24</v>
       </c>
       <c r="N99">
-        <v>15000</v>
+        <v>30000</v>
       </c>
       <c r="O99" t="s">
         <v>22</v>
@@ -4789,7 +4798,16 @@
         <v>23</v>
       </c>
       <c r="Q99">
-        <v>120</v>
+        <v>150</v>
+      </c>
+      <c r="R99" t="s">
+        <v>22</v>
+      </c>
+      <c r="S99" t="s">
+        <v>23</v>
+      </c>
+      <c r="T99">
+        <v>300</v>
       </c>
     </row>
     <row r="100" spans="1:20" x14ac:dyDescent="0.3">
@@ -4800,16 +4818,16 @@
         <v>0</v>
       </c>
       <c r="E100">
-        <v>0.99</v>
+        <v>4.99</v>
       </c>
       <c r="F100">
-        <v>1200</v>
+        <v>5900</v>
       </c>
       <c r="G100" t="s">
         <v>102</v>
       </c>
       <c r="H100">
-        <v>784</v>
+        <v>354</v>
       </c>
       <c r="I100" t="s">
         <v>22</v>
@@ -4818,7 +4836,7 @@
         <v>23</v>
       </c>
       <c r="K100">
-        <v>90</v>
+        <v>30</v>
       </c>
       <c r="L100" t="s">
         <v>22</v>
@@ -4827,7 +4845,7 @@
         <v>24</v>
       </c>
       <c r="N100">
-        <v>30000</v>
+        <v>25000</v>
       </c>
       <c r="O100" t="s">
         <v>22</v>
@@ -4836,16 +4854,7 @@
         <v>23</v>
       </c>
       <c r="Q100">
-        <v>150</v>
-      </c>
-      <c r="R100" t="s">
-        <v>22</v>
-      </c>
-      <c r="S100" t="s">
-        <v>23</v>
-      </c>
-      <c r="T100">
-        <v>300</v>
+        <v>100</v>
       </c>
     </row>
     <row r="101" spans="1:20" x14ac:dyDescent="0.3">
@@ -4865,7 +4874,7 @@
         <v>103</v>
       </c>
       <c r="H101">
-        <v>354</v>
+        <v>414</v>
       </c>
       <c r="I101" t="s">
         <v>22</v>
@@ -4874,7 +4883,7 @@
         <v>23</v>
       </c>
       <c r="K101">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="L101" t="s">
         <v>22</v>
@@ -4883,7 +4892,7 @@
         <v>24</v>
       </c>
       <c r="N101">
-        <v>25000</v>
+        <v>15000</v>
       </c>
       <c r="O101" t="s">
         <v>22</v>
@@ -4892,7 +4901,7 @@
         <v>23</v>
       </c>
       <c r="Q101">
-        <v>100</v>
+        <v>120</v>
       </c>
     </row>
     <row r="102" spans="1:20" x14ac:dyDescent="0.3">
@@ -4903,16 +4912,16 @@
         <v>0</v>
       </c>
       <c r="E102">
-        <v>4.99</v>
+        <v>9.99</v>
       </c>
       <c r="F102">
-        <v>5900</v>
+        <v>13000</v>
       </c>
       <c r="G102" t="s">
         <v>104</v>
       </c>
       <c r="H102">
-        <v>414</v>
+        <v>726</v>
       </c>
       <c r="I102" t="s">
         <v>22</v>
@@ -4921,7 +4930,7 @@
         <v>23</v>
       </c>
       <c r="K102">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="L102" t="s">
         <v>22</v>
@@ -4930,7 +4939,7 @@
         <v>24</v>
       </c>
       <c r="N102">
-        <v>15000</v>
+        <v>30000</v>
       </c>
       <c r="O102" t="s">
         <v>22</v>
@@ -4939,7 +4948,16 @@
         <v>23</v>
       </c>
       <c r="Q102">
-        <v>120</v>
+        <v>150</v>
+      </c>
+      <c r="R102" t="s">
+        <v>22</v>
+      </c>
+      <c r="S102" t="s">
+        <v>23</v>
+      </c>
+      <c r="T102">
+        <v>300</v>
       </c>
     </row>
     <row r="103" spans="1:20" x14ac:dyDescent="0.3">
@@ -4959,7 +4977,7 @@
         <v>105</v>
       </c>
       <c r="H103">
-        <v>726</v>
+        <v>679</v>
       </c>
       <c r="I103" t="s">
         <v>22</v>
@@ -4968,7 +4986,7 @@
         <v>23</v>
       </c>
       <c r="K103">
-        <v>90</v>
+        <v>30</v>
       </c>
       <c r="L103" t="s">
         <v>22</v>
@@ -4977,7 +4995,7 @@
         <v>24</v>
       </c>
       <c r="N103">
-        <v>30000</v>
+        <v>25000</v>
       </c>
       <c r="O103" t="s">
         <v>22</v>
@@ -4986,16 +5004,7 @@
         <v>23</v>
       </c>
       <c r="Q103">
-        <v>150</v>
-      </c>
-      <c r="R103" t="s">
-        <v>22</v>
-      </c>
-      <c r="S103" t="s">
-        <v>23</v>
-      </c>
-      <c r="T103">
-        <v>300</v>
+        <v>100</v>
       </c>
     </row>
     <row r="104" spans="1:20" x14ac:dyDescent="0.3">
@@ -5006,16 +5015,16 @@
         <v>0</v>
       </c>
       <c r="E104">
-        <v>9.99</v>
+        <v>19.989999999999998</v>
       </c>
       <c r="F104">
-        <v>13000</v>
+        <v>25000</v>
       </c>
       <c r="G104" t="s">
         <v>106</v>
       </c>
       <c r="H104">
-        <v>679</v>
+        <v>752</v>
       </c>
       <c r="I104" t="s">
         <v>22</v>
@@ -5053,16 +5062,16 @@
         <v>0</v>
       </c>
       <c r="E105">
-        <v>19.989999999999998</v>
+        <v>39.99</v>
       </c>
       <c r="F105">
-        <v>25000</v>
+        <v>48000</v>
       </c>
       <c r="G105" t="s">
         <v>107</v>
       </c>
       <c r="H105">
-        <v>752</v>
+        <v>534</v>
       </c>
       <c r="I105" t="s">
         <v>22</v>
@@ -5071,7 +5080,7 @@
         <v>23</v>
       </c>
       <c r="K105">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="L105" t="s">
         <v>22</v>
@@ -5080,7 +5089,7 @@
         <v>24</v>
       </c>
       <c r="N105">
-        <v>25000</v>
+        <v>15000</v>
       </c>
       <c r="O105" t="s">
         <v>22</v>
@@ -5089,7 +5098,7 @@
         <v>23</v>
       </c>
       <c r="Q105">
-        <v>100</v>
+        <v>120</v>
       </c>
     </row>
     <row r="106" spans="1:20" x14ac:dyDescent="0.3">
@@ -5100,16 +5109,16 @@
         <v>0</v>
       </c>
       <c r="E106">
-        <v>39.99</v>
+        <v>49.99</v>
       </c>
       <c r="F106">
-        <v>48000</v>
+        <v>69000</v>
       </c>
       <c r="G106" t="s">
         <v>108</v>
       </c>
       <c r="H106">
-        <v>534</v>
+        <v>243</v>
       </c>
       <c r="I106" t="s">
         <v>22</v>
@@ -5118,7 +5127,7 @@
         <v>23</v>
       </c>
       <c r="K106">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="L106" t="s">
         <v>22</v>
@@ -5127,7 +5136,7 @@
         <v>24</v>
       </c>
       <c r="N106">
-        <v>15000</v>
+        <v>30000</v>
       </c>
       <c r="O106" t="s">
         <v>22</v>
@@ -5136,63 +5145,45 @@
         <v>23</v>
       </c>
       <c r="Q106">
-        <v>120</v>
+        <v>150</v>
+      </c>
+      <c r="R106" t="s">
+        <v>22</v>
+      </c>
+      <c r="S106" t="s">
+        <v>23</v>
+      </c>
+      <c r="T106">
+        <v>300</v>
       </c>
     </row>
     <row r="107" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>109</v>
+        <v>136</v>
       </c>
       <c r="C107" t="b">
         <v>0</v>
       </c>
       <c r="E107">
-        <v>49.99</v>
+        <v>0.99</v>
       </c>
       <c r="F107">
-        <v>69000</v>
+        <v>1200</v>
       </c>
       <c r="G107" t="s">
-        <v>109</v>
+        <v>136</v>
       </c>
       <c r="H107">
-        <v>243</v>
+        <v>384</v>
       </c>
       <c r="I107" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="J107" t="s">
-        <v>23</v>
+        <v>137</v>
       </c>
       <c r="K107">
-        <v>90</v>
-      </c>
-      <c r="L107" t="s">
-        <v>22</v>
-      </c>
-      <c r="M107" t="s">
-        <v>24</v>
-      </c>
-      <c r="N107">
-        <v>30000</v>
-      </c>
-      <c r="O107" t="s">
-        <v>22</v>
-      </c>
-      <c r="P107" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q107">
-        <v>150</v>
-      </c>
-      <c r="R107" t="s">
-        <v>22</v>
-      </c>
-      <c r="S107" t="s">
-        <v>23</v>
-      </c>
-      <c r="T107">
-        <v>300</v>
+        <v>86400</v>
       </c>
     </row>
     <row r="108" spans="1:20" x14ac:dyDescent="0.3">
@@ -5203,59 +5194,86 @@
         <v>0</v>
       </c>
       <c r="E108">
-        <v>0.99</v>
+        <v>4.99</v>
       </c>
       <c r="F108">
-        <v>1200</v>
+        <v>5900</v>
       </c>
       <c r="G108" t="s">
         <v>138</v>
       </c>
       <c r="H108">
-        <v>384</v>
+        <v>681</v>
       </c>
       <c r="I108" t="s">
         <v>25</v>
       </c>
       <c r="J108" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="K108">
-        <v>86400</v>
+        <v>604800</v>
       </c>
     </row>
     <row r="109" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C109" t="b">
         <v>0</v>
       </c>
       <c r="E109">
-        <v>4.99</v>
+        <v>9.99</v>
       </c>
       <c r="F109">
-        <v>5900</v>
+        <v>13000</v>
       </c>
       <c r="G109" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H109">
-        <v>681</v>
+        <v>813</v>
       </c>
       <c r="I109" t="s">
         <v>25</v>
       </c>
       <c r="J109" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="K109">
-        <v>604800</v>
+        <v>2592000</v>
+      </c>
+      <c r="L109" t="s">
+        <v>22</v>
+      </c>
+      <c r="M109" t="s">
+        <v>23</v>
+      </c>
+      <c r="N109">
+        <v>1000</v>
+      </c>
+      <c r="O109" t="s">
+        <v>22</v>
+      </c>
+      <c r="P109" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q109">
+        <v>25000</v>
+      </c>
+      <c r="R109" t="s">
+        <v>22</v>
+      </c>
+      <c r="S109" t="s">
+        <v>98</v>
+      </c>
+      <c r="T109">
+        <v>750</v>
       </c>
     </row>
     <row r="110" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C110" t="b">
         <v>0</v>
@@ -5267,46 +5285,19 @@
         <v>13000</v>
       </c>
       <c r="G110" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H110">
-        <v>813</v>
+        <v>178</v>
       </c>
       <c r="I110" t="s">
         <v>25</v>
       </c>
       <c r="J110" t="s">
-        <v>139</v>
+        <v>152</v>
       </c>
       <c r="K110">
-        <v>2592000</v>
-      </c>
-      <c r="L110" t="s">
-        <v>22</v>
-      </c>
-      <c r="M110" t="s">
-        <v>23</v>
-      </c>
-      <c r="N110">
-        <v>1000</v>
-      </c>
-      <c r="O110" t="s">
-        <v>22</v>
-      </c>
-      <c r="P110" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q110">
-        <v>25000</v>
-      </c>
-      <c r="R110" t="s">
-        <v>22</v>
-      </c>
-      <c r="S110" t="s">
-        <v>98</v>
-      </c>
-      <c r="T110">
-        <v>750</v>
+        <v>1</v>
       </c>
     </row>
     <row r="111" spans="1:20" x14ac:dyDescent="0.3">
@@ -5326,13 +5317,13 @@
         <v>142</v>
       </c>
       <c r="H111">
-        <v>178</v>
+        <v>240</v>
       </c>
       <c r="I111" t="s">
         <v>25</v>
       </c>
       <c r="J111" t="s">
-        <v>154</v>
+        <v>141</v>
       </c>
       <c r="K111">
         <v>1</v>
@@ -5340,7 +5331,7 @@
     </row>
     <row r="112" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C112" t="b">
         <v>0</v>
@@ -5352,16 +5343,16 @@
         <v>13000</v>
       </c>
       <c r="G112" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H112">
-        <v>240</v>
+        <v>652</v>
       </c>
       <c r="I112" t="s">
         <v>25</v>
       </c>
       <c r="J112" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="K112">
         <v>1</v>
@@ -5369,7 +5360,7 @@
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C113" t="b">
         <v>0</v>
@@ -5381,16 +5372,16 @@
         <v>13000</v>
       </c>
       <c r="G113" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H113">
-        <v>652</v>
+        <v>358</v>
       </c>
       <c r="I113" t="s">
         <v>25</v>
       </c>
       <c r="J113" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="K113">
         <v>1</v>
@@ -5398,7 +5389,7 @@
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>146</v>
+        <v>168</v>
       </c>
       <c r="C114" t="b">
         <v>0</v>
@@ -5410,16 +5401,16 @@
         <v>13000</v>
       </c>
       <c r="G114" t="s">
-        <v>146</v>
+        <v>168</v>
       </c>
       <c r="H114">
-        <v>358</v>
+        <v>717</v>
       </c>
       <c r="I114" t="s">
         <v>25</v>
       </c>
       <c r="J114" t="s">
-        <v>143</v>
+        <v>158</v>
       </c>
       <c r="K114">
         <v>1</v>
@@ -5427,7 +5418,7 @@
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C115" t="b">
         <v>0</v>
@@ -5439,16 +5430,16 @@
         <v>13000</v>
       </c>
       <c r="G115" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="H115">
-        <v>717</v>
+        <v>569</v>
       </c>
       <c r="I115" t="s">
         <v>25</v>
       </c>
       <c r="J115" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="K115">
         <v>1</v>
@@ -5471,7 +5462,7 @@
         <v>173</v>
       </c>
       <c r="H116">
-        <v>569</v>
+        <v>880</v>
       </c>
       <c r="I116" t="s">
         <v>25</v>
@@ -5485,7 +5476,7 @@
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>175</v>
+        <v>195</v>
       </c>
       <c r="C117" t="b">
         <v>0</v>
@@ -5497,16 +5488,16 @@
         <v>13000</v>
       </c>
       <c r="G117" t="s">
-        <v>175</v>
+        <v>195</v>
       </c>
       <c r="H117">
-        <v>880</v>
+        <v>406</v>
       </c>
       <c r="I117" t="s">
         <v>25</v>
       </c>
       <c r="J117" t="s">
-        <v>158</v>
+        <v>196</v>
       </c>
       <c r="K117">
         <v>1</v>
@@ -5669,42 +5660,42 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B5" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B6" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B7" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B8" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B9" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
   </sheetData>
@@ -5729,13 +5720,13 @@
   <sheetData>
     <row r="1" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C1" t="s">
         <v>129</v>
-      </c>
-      <c r="B1" t="s">
-        <v>130</v>
-      </c>
-      <c r="C1" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -5816,16 +5807,16 @@
   <sheetData>
     <row r="1" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -5833,13 +5824,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -5847,13 +5838,13 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -5861,13 +5852,13 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C4">
         <v>20</v>
       </c>
       <c r="D4" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -5875,13 +5866,13 @@
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C5">
         <v>20</v>
       </c>
       <c r="D5" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -5889,13 +5880,13 @@
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C6">
         <v>20</v>
       </c>
       <c r="D6" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
   </sheetData>
@@ -5919,16 +5910,16 @@
   <sheetData>
     <row r="1" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -5936,13 +5927,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -5950,13 +5941,13 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -5964,13 +5955,13 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -5978,13 +5969,13 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C5">
         <v>20</v>
       </c>
       <c r="D5" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -5992,13 +5983,13 @@
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C6">
         <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
   </sheetData>
@@ -6024,16 +6015,16 @@
   <sheetData>
     <row r="1" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C1" t="s">
         <v>177</v>
       </c>
-      <c r="B1" t="s">
-        <v>178</v>
-      </c>
-      <c r="C1" t="s">
-        <v>179</v>
-      </c>
       <c r="D1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -6047,7 +6038,7 @@
         <v>2000</v>
       </c>
       <c r="D2" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -6061,7 +6052,7 @@
         <v>3000</v>
       </c>
       <c r="D3" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -6075,7 +6066,7 @@
         <v>4000</v>
       </c>
       <c r="D4" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -6089,7 +6080,7 @@
         <v>5000</v>
       </c>
       <c r="D5" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -6103,7 +6094,7 @@
         <v>6000</v>
       </c>
       <c r="D6" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/Shop.xlsx
+++ b/Excel/Shop.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNameless\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FAE1B2B-671E-4763-A6A9-8BE5EB56E84B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CD27509-836B-42DC-AF3D-E5E8B48525DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1A95D980-8F25-43B6-BA87-364295A77694}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{1A95D980-8F25-43B6-BA87-364295A77694}"/>
   </bookViews>
   <sheets>
     <sheet name="ShopProductTable" sheetId="1" r:id="rId1"/>
@@ -1016,7 +1016,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1115,7 +1115,7 @@
         <v>9.99</v>
       </c>
       <c r="F2">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="G2" t="s">
         <v>109</v>
@@ -1141,10 +1141,10 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>4.99</v>
+        <v>0.99</v>
       </c>
       <c r="F3">
-        <v>6500</v>
+        <v>1100</v>
       </c>
       <c r="G3" t="s">
         <v>178</v>
@@ -1170,10 +1170,10 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>5.99</v>
+        <v>1.99</v>
       </c>
       <c r="F4">
-        <v>7900</v>
+        <v>3000</v>
       </c>
       <c r="G4" t="s">
         <v>179</v>
@@ -1199,10 +1199,10 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>6.99</v>
+        <v>3.99</v>
       </c>
       <c r="F5">
-        <v>8900</v>
+        <v>6000</v>
       </c>
       <c r="G5" t="s">
         <v>180</v>
@@ -1228,10 +1228,10 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>7.99</v>
+        <v>5.99</v>
       </c>
       <c r="F6">
-        <v>9900</v>
+        <v>8800</v>
       </c>
       <c r="G6" t="s">
         <v>181</v>
@@ -1257,10 +1257,10 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>8.99</v>
+        <v>9.99</v>
       </c>
       <c r="F7">
-        <v>10900</v>
+        <v>15000</v>
       </c>
       <c r="G7" t="s">
         <v>182</v>
@@ -1286,10 +1286,10 @@
         <v>0</v>
       </c>
       <c r="E8">
-        <v>9.99</v>
+        <v>1.99</v>
       </c>
       <c r="F8">
-        <v>11000</v>
+        <v>3000</v>
       </c>
       <c r="G8" t="s">
         <v>111</v>
@@ -1327,7 +1327,7 @@
         <v>4.99</v>
       </c>
       <c r="F9">
-        <v>6500</v>
+        <v>7500</v>
       </c>
       <c r="G9" t="s">
         <v>131</v>
@@ -1362,10 +1362,10 @@
         <v>0</v>
       </c>
       <c r="E10">
-        <v>14.99</v>
+        <v>6.99</v>
       </c>
       <c r="F10">
-        <v>19000</v>
+        <v>9900</v>
       </c>
       <c r="G10" t="s">
         <v>35</v>
@@ -1409,10 +1409,10 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>29.99</v>
+        <v>11.99</v>
       </c>
       <c r="F11">
-        <v>39000</v>
+        <v>19000</v>
       </c>
       <c r="G11" t="s">
         <v>36</v>
@@ -1456,10 +1456,10 @@
         <v>0</v>
       </c>
       <c r="E12">
-        <v>49.99</v>
+        <v>29.99</v>
       </c>
       <c r="F12">
-        <v>69000</v>
+        <v>45000</v>
       </c>
       <c r="G12" t="s">
         <v>37</v>
@@ -1817,10 +1817,10 @@
         <v>0</v>
       </c>
       <c r="E20">
-        <v>9.99</v>
+        <v>11.99</v>
       </c>
       <c r="F20">
-        <v>13000</v>
+        <v>19000</v>
       </c>
       <c r="G20" t="s">
         <v>132</v>
@@ -1855,10 +1855,10 @@
         <v>0</v>
       </c>
       <c r="E21">
-        <v>9.99</v>
+        <v>29.99</v>
       </c>
       <c r="F21">
-        <v>13000</v>
+        <v>45000</v>
       </c>
       <c r="G21" t="s">
         <v>133</v>
@@ -1893,10 +1893,10 @@
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.99</v>
+        <v>1.99</v>
       </c>
       <c r="F22">
-        <v>1200</v>
+        <v>3000</v>
       </c>
       <c r="G22" t="s">
         <v>110</v>
@@ -1960,10 +1960,10 @@
         <v>0</v>
       </c>
       <c r="E24">
-        <v>9.99</v>
+        <v>4.99</v>
       </c>
       <c r="F24">
-        <v>13000</v>
+        <v>7500</v>
       </c>
       <c r="G24" t="s">
         <v>43</v>
@@ -2007,10 +2007,10 @@
         <v>0</v>
       </c>
       <c r="E25">
-        <v>14.99</v>
+        <v>9.99</v>
       </c>
       <c r="F25">
-        <v>19000</v>
+        <v>15000</v>
       </c>
       <c r="G25" t="s">
         <v>44</v>
@@ -2054,10 +2054,10 @@
         <v>0</v>
       </c>
       <c r="E26">
-        <v>29.99</v>
+        <v>19.989999999999998</v>
       </c>
       <c r="F26">
-        <v>39000</v>
+        <v>30000</v>
       </c>
       <c r="G26" t="s">
         <v>45</v>
@@ -2101,10 +2101,10 @@
         <v>0</v>
       </c>
       <c r="E27">
-        <v>49.99</v>
+        <v>29.99</v>
       </c>
       <c r="F27">
-        <v>69000</v>
+        <v>45000</v>
       </c>
       <c r="G27" t="s">
         <v>46</v>
@@ -2148,10 +2148,10 @@
         <v>0</v>
       </c>
       <c r="E28">
-        <v>9.99</v>
+        <v>6.99</v>
       </c>
       <c r="F28">
-        <v>13000</v>
+        <v>9900</v>
       </c>
       <c r="G28" t="s">
         <v>47</v>
@@ -2195,10 +2195,10 @@
         <v>0</v>
       </c>
       <c r="E29">
-        <v>14.99</v>
+        <v>18.989999999999998</v>
       </c>
       <c r="F29">
-        <v>19000</v>
+        <v>29000</v>
       </c>
       <c r="G29" t="s">
         <v>48</v>
@@ -2245,7 +2245,7 @@
         <v>29.99</v>
       </c>
       <c r="F30">
-        <v>39000</v>
+        <v>45000</v>
       </c>
       <c r="G30" t="s">
         <v>49</v>
@@ -2289,10 +2289,10 @@
         <v>0</v>
       </c>
       <c r="E31">
-        <v>49.99</v>
+        <v>64.989999999999995</v>
       </c>
       <c r="F31">
-        <v>69000</v>
+        <v>99000</v>
       </c>
       <c r="G31" t="s">
         <v>50</v>
@@ -2339,7 +2339,7 @@
         <v>9.99</v>
       </c>
       <c r="F32">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="G32" t="s">
         <v>51</v>
@@ -2383,10 +2383,10 @@
         <v>0</v>
       </c>
       <c r="E33">
-        <v>14.99</v>
+        <v>29.99</v>
       </c>
       <c r="F33">
-        <v>19000</v>
+        <v>45000</v>
       </c>
       <c r="G33" t="s">
         <v>52</v>
@@ -2430,10 +2430,10 @@
         <v>0</v>
       </c>
       <c r="E34">
-        <v>29.99</v>
+        <v>64.989999999999995</v>
       </c>
       <c r="F34">
-        <v>39000</v>
+        <v>99000</v>
       </c>
       <c r="G34" t="s">
         <v>53</v>
@@ -2477,10 +2477,10 @@
         <v>0</v>
       </c>
       <c r="E35">
-        <v>49.99</v>
+        <v>99.99</v>
       </c>
       <c r="F35">
-        <v>69000</v>
+        <v>149000</v>
       </c>
       <c r="G35" t="s">
         <v>54</v>
@@ -2524,10 +2524,10 @@
         <v>0</v>
       </c>
       <c r="E36">
-        <v>9.99</v>
+        <v>6.99</v>
       </c>
       <c r="F36">
-        <v>13000</v>
+        <v>9900</v>
       </c>
       <c r="G36" t="s">
         <v>112</v>
@@ -2571,10 +2571,10 @@
         <v>0</v>
       </c>
       <c r="E37">
-        <v>14.99</v>
+        <v>18.989999999999998</v>
       </c>
       <c r="F37">
-        <v>19000</v>
+        <v>29000</v>
       </c>
       <c r="G37" t="s">
         <v>113</v>
@@ -2621,7 +2621,7 @@
         <v>29.99</v>
       </c>
       <c r="F38">
-        <v>39000</v>
+        <v>45000</v>
       </c>
       <c r="G38" t="s">
         <v>114</v>
@@ -2665,10 +2665,10 @@
         <v>0</v>
       </c>
       <c r="E39">
-        <v>49.99</v>
+        <v>64.989999999999995</v>
       </c>
       <c r="F39">
-        <v>69000</v>
+        <v>99000</v>
       </c>
       <c r="G39" t="s">
         <v>115</v>
@@ -2712,10 +2712,10 @@
         <v>0</v>
       </c>
       <c r="E40">
-        <v>9.99</v>
+        <v>6.99</v>
       </c>
       <c r="F40">
-        <v>13000</v>
+        <v>9900</v>
       </c>
       <c r="G40" t="s">
         <v>116</v>
@@ -2759,10 +2759,10 @@
         <v>0</v>
       </c>
       <c r="E41">
-        <v>14.99</v>
+        <v>18.989999999999998</v>
       </c>
       <c r="F41">
-        <v>19000</v>
+        <v>29000</v>
       </c>
       <c r="G41" t="s">
         <v>117</v>
@@ -2809,7 +2809,7 @@
         <v>29.99</v>
       </c>
       <c r="F42">
-        <v>39000</v>
+        <v>45000</v>
       </c>
       <c r="G42" t="s">
         <v>118</v>
@@ -2853,10 +2853,10 @@
         <v>0</v>
       </c>
       <c r="E43">
-        <v>49.99</v>
+        <v>64.989999999999995</v>
       </c>
       <c r="F43">
-        <v>69000</v>
+        <v>99000</v>
       </c>
       <c r="G43" t="s">
         <v>119</v>
@@ -2903,7 +2903,7 @@
         <v>9.99</v>
       </c>
       <c r="F44">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="G44" t="s">
         <v>120</v>
@@ -2947,10 +2947,10 @@
         <v>0</v>
       </c>
       <c r="E45">
-        <v>14.99</v>
+        <v>29.99</v>
       </c>
       <c r="F45">
-        <v>19000</v>
+        <v>45000</v>
       </c>
       <c r="G45" t="s">
         <v>121</v>
@@ -2994,10 +2994,10 @@
         <v>0</v>
       </c>
       <c r="E46">
-        <v>29.99</v>
+        <v>64.989999999999995</v>
       </c>
       <c r="F46">
-        <v>39000</v>
+        <v>99000</v>
       </c>
       <c r="G46" t="s">
         <v>122</v>
@@ -3041,10 +3041,10 @@
         <v>0</v>
       </c>
       <c r="E47">
-        <v>49.99</v>
+        <v>99.99</v>
       </c>
       <c r="F47">
-        <v>69000</v>
+        <v>149000</v>
       </c>
       <c r="G47" t="s">
         <v>123</v>
@@ -3091,7 +3091,7 @@
         <v>0.99</v>
       </c>
       <c r="F48">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="G48" t="s">
         <v>55</v>
@@ -3117,10 +3117,10 @@
         <v>0</v>
       </c>
       <c r="E49">
-        <v>4.99</v>
+        <v>3.99</v>
       </c>
       <c r="F49">
-        <v>5900</v>
+        <v>6000</v>
       </c>
       <c r="G49" t="s">
         <v>56</v>
@@ -3146,7 +3146,7 @@
         <v>0</v>
       </c>
       <c r="E50">
-        <v>9.99</v>
+        <v>7.99</v>
       </c>
       <c r="F50">
         <v>12000</v>
@@ -3175,10 +3175,10 @@
         <v>0</v>
       </c>
       <c r="E51">
-        <v>19.989999999999998</v>
+        <v>18.989999999999998</v>
       </c>
       <c r="F51">
-        <v>25000</v>
+        <v>29000</v>
       </c>
       <c r="G51" t="s">
         <v>58</v>
@@ -3204,10 +3204,10 @@
         <v>0</v>
       </c>
       <c r="E52">
-        <v>49.99</v>
+        <v>29.99</v>
       </c>
       <c r="F52">
-        <v>65000</v>
+        <v>45000</v>
       </c>
       <c r="G52" t="s">
         <v>59</v>
@@ -3233,10 +3233,10 @@
         <v>0</v>
       </c>
       <c r="E53">
-        <v>99.99</v>
+        <v>64.989999999999995</v>
       </c>
       <c r="F53">
-        <v>119000</v>
+        <v>99000</v>
       </c>
       <c r="G53" t="s">
         <v>60</v>
@@ -3265,7 +3265,7 @@
         <v>0.99</v>
       </c>
       <c r="F54">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="G54" t="s">
         <v>61</v>
@@ -3291,10 +3291,10 @@
         <v>0</v>
       </c>
       <c r="E55">
-        <v>4.99</v>
+        <v>3.99</v>
       </c>
       <c r="F55">
-        <v>5900</v>
+        <v>6000</v>
       </c>
       <c r="G55" t="s">
         <v>62</v>
@@ -3320,7 +3320,7 @@
         <v>0</v>
       </c>
       <c r="E56">
-        <v>9.99</v>
+        <v>7.99</v>
       </c>
       <c r="F56">
         <v>12000</v>
@@ -3349,10 +3349,10 @@
         <v>0</v>
       </c>
       <c r="E57">
-        <v>19.989999999999998</v>
+        <v>18.989999999999998</v>
       </c>
       <c r="F57">
-        <v>25000</v>
+        <v>29000</v>
       </c>
       <c r="G57" t="s">
         <v>64</v>
@@ -3378,10 +3378,10 @@
         <v>0</v>
       </c>
       <c r="E58">
-        <v>49.99</v>
+        <v>29.99</v>
       </c>
       <c r="F58">
-        <v>65000</v>
+        <v>45000</v>
       </c>
       <c r="G58" t="s">
         <v>65</v>
@@ -3407,10 +3407,10 @@
         <v>0</v>
       </c>
       <c r="E59">
-        <v>99.99</v>
+        <v>64.989999999999995</v>
       </c>
       <c r="F59">
-        <v>119000</v>
+        <v>99000</v>
       </c>
       <c r="G59" t="s">
         <v>66</v>
@@ -3439,7 +3439,7 @@
         <v>0.99</v>
       </c>
       <c r="F60">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="G60" t="s">
         <v>67</v>
@@ -3465,10 +3465,10 @@
         <v>0</v>
       </c>
       <c r="E61">
-        <v>4.99</v>
+        <v>3.99</v>
       </c>
       <c r="F61">
-        <v>5900</v>
+        <v>6000</v>
       </c>
       <c r="G61" t="s">
         <v>68</v>
@@ -3494,7 +3494,7 @@
         <v>0</v>
       </c>
       <c r="E62">
-        <v>9.99</v>
+        <v>7.99</v>
       </c>
       <c r="F62">
         <v>12000</v>
@@ -3523,10 +3523,10 @@
         <v>0</v>
       </c>
       <c r="E63">
-        <v>19.989999999999998</v>
+        <v>18.989999999999998</v>
       </c>
       <c r="F63">
-        <v>25000</v>
+        <v>29000</v>
       </c>
       <c r="G63" t="s">
         <v>70</v>
@@ -3552,10 +3552,10 @@
         <v>0</v>
       </c>
       <c r="E64">
-        <v>49.99</v>
+        <v>29.99</v>
       </c>
       <c r="F64">
-        <v>65000</v>
+        <v>45000</v>
       </c>
       <c r="G64" t="s">
         <v>71</v>
@@ -3581,10 +3581,10 @@
         <v>0</v>
       </c>
       <c r="E65">
-        <v>99.99</v>
+        <v>64.989999999999995</v>
       </c>
       <c r="F65">
-        <v>119000</v>
+        <v>99000</v>
       </c>
       <c r="G65" t="s">
         <v>72</v>
@@ -3613,7 +3613,7 @@
         <v>0.99</v>
       </c>
       <c r="F66">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="G66" t="s">
         <v>73</v>
@@ -3639,10 +3639,10 @@
         <v>0</v>
       </c>
       <c r="E67">
-        <v>4.99</v>
+        <v>3.99</v>
       </c>
       <c r="F67">
-        <v>5900</v>
+        <v>6000</v>
       </c>
       <c r="G67" t="s">
         <v>74</v>
@@ -3668,7 +3668,7 @@
         <v>0</v>
       </c>
       <c r="E68">
-        <v>9.99</v>
+        <v>7.99</v>
       </c>
       <c r="F68">
         <v>12000</v>
@@ -3697,10 +3697,10 @@
         <v>0</v>
       </c>
       <c r="E69">
-        <v>19.989999999999998</v>
+        <v>18.989999999999998</v>
       </c>
       <c r="F69">
-        <v>25000</v>
+        <v>29000</v>
       </c>
       <c r="G69" t="s">
         <v>76</v>
@@ -3726,10 +3726,10 @@
         <v>0</v>
       </c>
       <c r="E70">
-        <v>49.99</v>
+        <v>29.99</v>
       </c>
       <c r="F70">
-        <v>65000</v>
+        <v>45000</v>
       </c>
       <c r="G70" t="s">
         <v>77</v>
@@ -3755,10 +3755,10 @@
         <v>0</v>
       </c>
       <c r="E71">
-        <v>99.99</v>
+        <v>64.989999999999995</v>
       </c>
       <c r="F71">
-        <v>119000</v>
+        <v>99000</v>
       </c>
       <c r="G71" t="s">
         <v>78</v>
@@ -3787,7 +3787,7 @@
         <v>0.99</v>
       </c>
       <c r="F72">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="G72" t="s">
         <v>67</v>
@@ -3813,10 +3813,10 @@
         <v>0</v>
       </c>
       <c r="E73">
-        <v>4.99</v>
+        <v>3.99</v>
       </c>
       <c r="F73">
-        <v>5900</v>
+        <v>6000</v>
       </c>
       <c r="G73" t="s">
         <v>68</v>
@@ -3842,7 +3842,7 @@
         <v>0</v>
       </c>
       <c r="E74">
-        <v>9.99</v>
+        <v>7.99</v>
       </c>
       <c r="F74">
         <v>12000</v>
@@ -3871,10 +3871,10 @@
         <v>0</v>
       </c>
       <c r="E75">
-        <v>19.989999999999998</v>
+        <v>18.989999999999998</v>
       </c>
       <c r="F75">
-        <v>25000</v>
+        <v>29000</v>
       </c>
       <c r="G75" t="s">
         <v>70</v>
@@ -3900,10 +3900,10 @@
         <v>0</v>
       </c>
       <c r="E76">
-        <v>49.99</v>
+        <v>29.99</v>
       </c>
       <c r="F76">
-        <v>65000</v>
+        <v>45000</v>
       </c>
       <c r="G76" t="s">
         <v>71</v>
@@ -3929,10 +3929,10 @@
         <v>0</v>
       </c>
       <c r="E77">
-        <v>99.99</v>
+        <v>64.989999999999995</v>
       </c>
       <c r="F77">
-        <v>119000</v>
+        <v>99000</v>
       </c>
       <c r="G77" t="s">
         <v>72</v>
@@ -3961,7 +3961,7 @@
         <v>0.99</v>
       </c>
       <c r="F78">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="G78" t="s">
         <v>73</v>
@@ -3987,10 +3987,10 @@
         <v>0</v>
       </c>
       <c r="E79">
-        <v>4.99</v>
+        <v>3.99</v>
       </c>
       <c r="F79">
-        <v>5900</v>
+        <v>6000</v>
       </c>
       <c r="G79" t="s">
         <v>74</v>
@@ -4016,7 +4016,7 @@
         <v>0</v>
       </c>
       <c r="E80">
-        <v>9.99</v>
+        <v>7.99</v>
       </c>
       <c r="F80">
         <v>12000</v>
@@ -4045,10 +4045,10 @@
         <v>0</v>
       </c>
       <c r="E81">
-        <v>19.989999999999998</v>
+        <v>18.989999999999998</v>
       </c>
       <c r="F81">
-        <v>25000</v>
+        <v>29000</v>
       </c>
       <c r="G81" t="s">
         <v>76</v>
@@ -4074,10 +4074,10 @@
         <v>0</v>
       </c>
       <c r="E82">
-        <v>49.99</v>
+        <v>29.99</v>
       </c>
       <c r="F82">
-        <v>65000</v>
+        <v>45000</v>
       </c>
       <c r="G82" t="s">
         <v>77</v>
@@ -4103,10 +4103,10 @@
         <v>0</v>
       </c>
       <c r="E83">
-        <v>99.99</v>
+        <v>64.989999999999995</v>
       </c>
       <c r="F83">
-        <v>119000</v>
+        <v>99000</v>
       </c>
       <c r="G83" t="s">
         <v>78</v>
@@ -4132,10 +4132,10 @@
         <v>0</v>
       </c>
       <c r="E84">
-        <v>9.99</v>
+        <v>1.99</v>
       </c>
       <c r="F84">
-        <v>13000</v>
+        <v>3000</v>
       </c>
       <c r="G84" t="s">
         <v>79</v>
@@ -4161,10 +4161,10 @@
         <v>0</v>
       </c>
       <c r="E85">
-        <v>19.989999999999998</v>
+        <v>4.99</v>
       </c>
       <c r="F85">
-        <v>19000</v>
+        <v>7500</v>
       </c>
       <c r="G85" t="s">
         <v>80</v>
@@ -4190,10 +4190,10 @@
         <v>0</v>
       </c>
       <c r="E86">
-        <v>29.99</v>
+        <v>8.99</v>
       </c>
       <c r="F86">
-        <v>39000</v>
+        <v>14000</v>
       </c>
       <c r="G86" t="s">
         <v>81</v>
@@ -4219,10 +4219,10 @@
         <v>0</v>
       </c>
       <c r="E87">
-        <v>39.99</v>
+        <v>18.989999999999998</v>
       </c>
       <c r="F87">
-        <v>48000</v>
+        <v>29000</v>
       </c>
       <c r="G87" t="s">
         <v>82</v>
@@ -4251,7 +4251,7 @@
         <v>49.99</v>
       </c>
       <c r="F88">
-        <v>65000</v>
+        <v>79000</v>
       </c>
       <c r="G88" t="s">
         <v>83</v>
@@ -4280,7 +4280,7 @@
         <v>0.99</v>
       </c>
       <c r="F89">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="G89" t="s">
         <v>84</v>
@@ -4306,10 +4306,10 @@
         <v>0</v>
       </c>
       <c r="E90">
-        <v>4.99</v>
+        <v>3.99</v>
       </c>
       <c r="F90">
-        <v>5900</v>
+        <v>6000</v>
       </c>
       <c r="G90" t="s">
         <v>85</v>
@@ -4630,10 +4630,10 @@
         <v>0</v>
       </c>
       <c r="E96">
-        <v>4.99</v>
+        <v>6.99</v>
       </c>
       <c r="F96">
-        <v>5900</v>
+        <v>9900</v>
       </c>
       <c r="G96" t="s">
         <v>124</v>
@@ -5168,7 +5168,7 @@
         <v>0.99</v>
       </c>
       <c r="F107">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="G107" t="s">
         <v>136</v>
@@ -5197,7 +5197,7 @@
         <v>4.99</v>
       </c>
       <c r="F108">
-        <v>5900</v>
+        <v>7500</v>
       </c>
       <c r="G108" t="s">
         <v>138</v>
@@ -5223,10 +5223,10 @@
         <v>0</v>
       </c>
       <c r="E109">
-        <v>9.99</v>
+        <v>18.989999999999998</v>
       </c>
       <c r="F109">
-        <v>13000</v>
+        <v>29000</v>
       </c>
       <c r="G109" t="s">
         <v>139</v>
@@ -5482,10 +5482,10 @@
         <v>0</v>
       </c>
       <c r="E117">
-        <v>9.99</v>
+        <v>3.99</v>
       </c>
       <c r="F117">
-        <v>13000</v>
+        <v>6000</v>
       </c>
       <c r="G117" t="s">
         <v>195</v>

--- a/Excel/Shop.xlsx
+++ b/Excel/Shop.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CD27509-836B-42DC-AF3D-E5E8B48525DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{456C96AC-B36A-4898-9673-6C9A33EA42E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{1A95D980-8F25-43B6-BA87-364295A77694}"/>
   </bookViews>
@@ -1016,7 +1016,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5183,7 +5183,7 @@
         <v>137</v>
       </c>
       <c r="K107">
-        <v>86400</v>
+        <v>1</v>
       </c>
     </row>
     <row r="108" spans="1:20" x14ac:dyDescent="0.3">
@@ -5212,7 +5212,7 @@
         <v>137</v>
       </c>
       <c r="K108">
-        <v>604800</v>
+        <v>7</v>
       </c>
     </row>
     <row r="109" spans="1:20" x14ac:dyDescent="0.3">
@@ -5241,7 +5241,7 @@
         <v>137</v>
       </c>
       <c r="K109">
-        <v>2592000</v>
+        <v>30</v>
       </c>
       <c r="L109" t="s">
         <v>22</v>

--- a/Excel/Shop.xlsx
+++ b/Excel/Shop.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{456C96AC-B36A-4898-9673-6C9A33EA42E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E457284-545F-4245-BD62-62B02BACB80D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{1A95D980-8F25-43B6-BA87-364295A77694}"/>
   </bookViews>
@@ -3790,7 +3790,7 @@
         <v>1100</v>
       </c>
       <c r="G72" t="s">
-        <v>67</v>
+        <v>183</v>
       </c>
       <c r="H72">
         <v>407</v>
@@ -3819,7 +3819,7 @@
         <v>6000</v>
       </c>
       <c r="G73" t="s">
-        <v>68</v>
+        <v>184</v>
       </c>
       <c r="H73">
         <v>934</v>
@@ -3848,7 +3848,7 @@
         <v>12000</v>
       </c>
       <c r="G74" t="s">
-        <v>69</v>
+        <v>185</v>
       </c>
       <c r="H74">
         <v>626</v>
@@ -3877,7 +3877,7 @@
         <v>29000</v>
       </c>
       <c r="G75" t="s">
-        <v>70</v>
+        <v>186</v>
       </c>
       <c r="H75">
         <v>910</v>
@@ -3906,7 +3906,7 @@
         <v>45000</v>
       </c>
       <c r="G76" t="s">
-        <v>71</v>
+        <v>187</v>
       </c>
       <c r="H76">
         <v>258</v>
@@ -3935,7 +3935,7 @@
         <v>99000</v>
       </c>
       <c r="G77" t="s">
-        <v>72</v>
+        <v>188</v>
       </c>
       <c r="H77">
         <v>872</v>
@@ -3964,7 +3964,7 @@
         <v>1100</v>
       </c>
       <c r="G78" t="s">
-        <v>73</v>
+        <v>189</v>
       </c>
       <c r="H78">
         <v>357</v>
@@ -3993,7 +3993,7 @@
         <v>6000</v>
       </c>
       <c r="G79" t="s">
-        <v>74</v>
+        <v>190</v>
       </c>
       <c r="H79">
         <v>866</v>
@@ -4022,7 +4022,7 @@
         <v>12000</v>
       </c>
       <c r="G80" t="s">
-        <v>75</v>
+        <v>191</v>
       </c>
       <c r="H80">
         <v>240</v>
@@ -4051,7 +4051,7 @@
         <v>29000</v>
       </c>
       <c r="G81" t="s">
-        <v>76</v>
+        <v>192</v>
       </c>
       <c r="H81">
         <v>722</v>
@@ -4080,7 +4080,7 @@
         <v>45000</v>
       </c>
       <c r="G82" t="s">
-        <v>77</v>
+        <v>193</v>
       </c>
       <c r="H82">
         <v>517</v>
@@ -4109,7 +4109,7 @@
         <v>99000</v>
       </c>
       <c r="G83" t="s">
-        <v>78</v>
+        <v>194</v>
       </c>
       <c r="H83">
         <v>526</v>

--- a/Excel/Shop.xlsx
+++ b/Excel/Shop.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E457284-545F-4245-BD62-62B02BACB80D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{557E955F-0F01-4625-B86E-90EB4A9DEAEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{1A95D980-8F25-43B6-BA87-364295A77694}"/>
   </bookViews>
@@ -458,9 +458,6 @@
     <t>analysisboost_1</t>
   </si>
   <si>
-    <t>Item_cAnalysisBoost</t>
-  </si>
-  <si>
     <t>analysisboost_2</t>
   </si>
   <si>
@@ -636,6 +633,9 @@
   </si>
   <si>
     <t>Cash_sPetPass</t>
+  </si>
+  <si>
+    <t>Cash_sAnalysisBoost</t>
   </si>
 </sst>
 </file>
@@ -1013,10 +1013,10 @@
   <dimension ref="A1:W117"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1135,7 +1135,7 @@
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C3" t="b">
         <v>0</v>
@@ -1147,7 +1147,7 @@
         <v>1100</v>
       </c>
       <c r="G3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H3">
         <v>493</v>
@@ -1164,7 +1164,7 @@
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C4" t="b">
         <v>0</v>
@@ -1176,7 +1176,7 @@
         <v>3000</v>
       </c>
       <c r="G4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="H4">
         <v>585</v>
@@ -1193,7 +1193,7 @@
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C5" t="b">
         <v>0</v>
@@ -1205,7 +1205,7 @@
         <v>6000</v>
       </c>
       <c r="G5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="H5">
         <v>752</v>
@@ -1222,7 +1222,7 @@
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C6" t="b">
         <v>0</v>
@@ -1234,7 +1234,7 @@
         <v>8800</v>
       </c>
       <c r="G6" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H6">
         <v>529</v>
@@ -1251,7 +1251,7 @@
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C7" t="b">
         <v>0</v>
@@ -1263,7 +1263,7 @@
         <v>15000</v>
       </c>
       <c r="G7" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="H7">
         <v>743</v>
@@ -1928,7 +1928,7 @@
         <v>25</v>
       </c>
       <c r="J23" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="K23">
         <v>1</v>
@@ -3778,7 +3778,7 @@
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C72" t="b">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>1100</v>
       </c>
       <c r="G72" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H72">
         <v>407</v>
@@ -3807,7 +3807,7 @@
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C73" t="b">
         <v>0</v>
@@ -3819,7 +3819,7 @@
         <v>6000</v>
       </c>
       <c r="G73" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H73">
         <v>934</v>
@@ -3836,7 +3836,7 @@
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C74" t="b">
         <v>0</v>
@@ -3848,7 +3848,7 @@
         <v>12000</v>
       </c>
       <c r="G74" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="H74">
         <v>626</v>
@@ -3865,7 +3865,7 @@
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C75" t="b">
         <v>0</v>
@@ -3877,7 +3877,7 @@
         <v>29000</v>
       </c>
       <c r="G75" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="H75">
         <v>910</v>
@@ -3894,7 +3894,7 @@
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C76" t="b">
         <v>0</v>
@@ -3906,7 +3906,7 @@
         <v>45000</v>
       </c>
       <c r="G76" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H76">
         <v>258</v>
@@ -3923,7 +3923,7 @@
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C77" t="b">
         <v>0</v>
@@ -3935,7 +3935,7 @@
         <v>99000</v>
       </c>
       <c r="G77" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H77">
         <v>872</v>
@@ -3952,7 +3952,7 @@
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C78" t="b">
         <v>0</v>
@@ -3964,7 +3964,7 @@
         <v>1100</v>
       </c>
       <c r="G78" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H78">
         <v>357</v>
@@ -3981,7 +3981,7 @@
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C79" t="b">
         <v>0</v>
@@ -3993,7 +3993,7 @@
         <v>6000</v>
       </c>
       <c r="G79" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H79">
         <v>866</v>
@@ -4010,7 +4010,7 @@
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C80" t="b">
         <v>0</v>
@@ -4022,7 +4022,7 @@
         <v>12000</v>
       </c>
       <c r="G80" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H80">
         <v>240</v>
@@ -4039,7 +4039,7 @@
     </row>
     <row r="81" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C81" t="b">
         <v>0</v>
@@ -4051,7 +4051,7 @@
         <v>29000</v>
       </c>
       <c r="G81" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H81">
         <v>722</v>
@@ -4068,7 +4068,7 @@
     </row>
     <row r="82" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C82" t="b">
         <v>0</v>
@@ -4080,7 +4080,7 @@
         <v>45000</v>
       </c>
       <c r="G82" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H82">
         <v>517</v>
@@ -4097,7 +4097,7 @@
     </row>
     <row r="83" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C83" t="b">
         <v>0</v>
@@ -4109,7 +4109,7 @@
         <v>99000</v>
       </c>
       <c r="G83" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="H83">
         <v>526</v>
@@ -5180,7 +5180,7 @@
         <v>25</v>
       </c>
       <c r="J107" t="s">
-        <v>137</v>
+        <v>196</v>
       </c>
       <c r="K107">
         <v>1</v>
@@ -5188,7 +5188,7 @@
     </row>
     <row r="108" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C108" t="b">
         <v>0</v>
@@ -5200,7 +5200,7 @@
         <v>7500</v>
       </c>
       <c r="G108" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H108">
         <v>681</v>
@@ -5209,7 +5209,7 @@
         <v>25</v>
       </c>
       <c r="J108" t="s">
-        <v>137</v>
+        <v>196</v>
       </c>
       <c r="K108">
         <v>7</v>
@@ -5217,7 +5217,7 @@
     </row>
     <row r="109" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C109" t="b">
         <v>0</v>
@@ -5229,7 +5229,7 @@
         <v>29000</v>
       </c>
       <c r="G109" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H109">
         <v>813</v>
@@ -5238,7 +5238,7 @@
         <v>25</v>
       </c>
       <c r="J109" t="s">
-        <v>137</v>
+        <v>196</v>
       </c>
       <c r="K109">
         <v>30</v>
@@ -5273,7 +5273,7 @@
     </row>
     <row r="110" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C110" t="b">
         <v>0</v>
@@ -5285,7 +5285,7 @@
         <v>13000</v>
       </c>
       <c r="G110" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H110">
         <v>178</v>
@@ -5294,7 +5294,7 @@
         <v>25</v>
       </c>
       <c r="J110" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="K110">
         <v>1</v>
@@ -5302,7 +5302,7 @@
     </row>
     <row r="111" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C111" t="b">
         <v>0</v>
@@ -5314,7 +5314,7 @@
         <v>13000</v>
       </c>
       <c r="G111" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H111">
         <v>240</v>
@@ -5323,7 +5323,7 @@
         <v>25</v>
       </c>
       <c r="J111" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="K111">
         <v>1</v>
@@ -5331,7 +5331,7 @@
     </row>
     <row r="112" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C112" t="b">
         <v>0</v>
@@ -5343,7 +5343,7 @@
         <v>13000</v>
       </c>
       <c r="G112" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H112">
         <v>652</v>
@@ -5352,7 +5352,7 @@
         <v>25</v>
       </c>
       <c r="J112" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="K112">
         <v>1</v>
@@ -5360,7 +5360,7 @@
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C113" t="b">
         <v>0</v>
@@ -5372,7 +5372,7 @@
         <v>13000</v>
       </c>
       <c r="G113" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H113">
         <v>358</v>
@@ -5381,7 +5381,7 @@
         <v>25</v>
       </c>
       <c r="J113" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="K113">
         <v>1</v>
@@ -5389,7 +5389,7 @@
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C114" t="b">
         <v>0</v>
@@ -5401,7 +5401,7 @@
         <v>13000</v>
       </c>
       <c r="G114" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H114">
         <v>717</v>
@@ -5410,7 +5410,7 @@
         <v>25</v>
       </c>
       <c r="J114" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="K114">
         <v>1</v>
@@ -5418,7 +5418,7 @@
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C115" t="b">
         <v>0</v>
@@ -5430,7 +5430,7 @@
         <v>13000</v>
       </c>
       <c r="G115" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H115">
         <v>569</v>
@@ -5439,7 +5439,7 @@
         <v>25</v>
       </c>
       <c r="J115" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="K115">
         <v>1</v>
@@ -5447,7 +5447,7 @@
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C116" t="b">
         <v>0</v>
@@ -5459,7 +5459,7 @@
         <v>13000</v>
       </c>
       <c r="G116" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H116">
         <v>880</v>
@@ -5468,7 +5468,7 @@
         <v>25</v>
       </c>
       <c r="J116" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="K116">
         <v>1</v>
@@ -5476,7 +5476,7 @@
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C117" t="b">
         <v>0</v>
@@ -5488,7 +5488,7 @@
         <v>6000</v>
       </c>
       <c r="G117" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="H117">
         <v>406</v>
@@ -5497,7 +5497,7 @@
         <v>25</v>
       </c>
       <c r="J117" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="K117">
         <v>1</v>
@@ -5660,42 +5660,42 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
+        <v>151</v>
+      </c>
+      <c r="B6" t="s">
         <v>152</v>
-      </c>
-      <c r="B6" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
+        <v>153</v>
+      </c>
+      <c r="B7" t="s">
         <v>154</v>
-      </c>
-      <c r="B7" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
+        <v>155</v>
+      </c>
+      <c r="B8" t="s">
         <v>156</v>
-      </c>
-      <c r="B8" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
+        <v>157</v>
+      </c>
+      <c r="B9" t="s">
         <v>158</v>
-      </c>
-      <c r="B9" t="s">
-        <v>159</v>
       </c>
     </row>
   </sheetData>
@@ -5807,13 +5807,13 @@
   <sheetData>
     <row r="1" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C1" t="s">
         <v>145</v>
-      </c>
-      <c r="C1" t="s">
-        <v>146</v>
       </c>
       <c r="D1" t="s">
         <v>129</v>
@@ -5824,13 +5824,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -5838,13 +5838,13 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -5852,13 +5852,13 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C4">
         <v>20</v>
       </c>
       <c r="D4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -5866,13 +5866,13 @@
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C5">
         <v>20</v>
       </c>
       <c r="D5" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -5886,7 +5886,7 @@
         <v>20</v>
       </c>
       <c r="D6" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
   </sheetData>
@@ -5910,13 +5910,13 @@
   <sheetData>
     <row r="1" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B1" t="s">
         <v>165</v>
       </c>
-      <c r="B1" t="s">
-        <v>166</v>
-      </c>
       <c r="C1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>129</v>
@@ -5927,13 +5927,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -5941,13 +5941,13 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -5955,13 +5955,13 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -5969,13 +5969,13 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C5">
         <v>20</v>
       </c>
       <c r="D5" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -5983,13 +5983,13 @@
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C6">
         <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
   </sheetData>
@@ -6015,13 +6015,13 @@
   <sheetData>
     <row r="1" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B1" t="s">
         <v>175</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>176</v>
-      </c>
-      <c r="C1" t="s">
-        <v>177</v>
       </c>
       <c r="D1" t="s">
         <v>129</v>
@@ -6038,7 +6038,7 @@
         <v>2000</v>
       </c>
       <c r="D2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -6052,7 +6052,7 @@
         <v>3000</v>
       </c>
       <c r="D3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -6066,7 +6066,7 @@
         <v>4000</v>
       </c>
       <c r="D4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -6080,7 +6080,7 @@
         <v>5000</v>
       </c>
       <c r="D5" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -6094,7 +6094,7 @@
         <v>6000</v>
       </c>
       <c r="D6" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/Shop.xlsx
+++ b/Excel/Shop.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectNameless\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{557E955F-0F01-4625-B86E-90EB4A9DEAEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B64A279-5DEA-4A27-9F03-154BCEBA42BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{1A95D980-8F25-43B6-BA87-364295A77694}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1A95D980-8F25-43B6-BA87-364295A77694}"/>
   </bookViews>
   <sheets>
     <sheet name="ShopProductTable" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="780" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="784" uniqueCount="199">
   <si>
     <t>productId|String</t>
   </si>
@@ -636,6 +636,12 @@
   </si>
   <si>
     <t>Cash_sAnalysisBoost</t>
+  </si>
+  <si>
+    <t>teampass</t>
+  </si>
+  <si>
+    <t>Cash_sTeamPass</t>
   </si>
 </sst>
 </file>
@@ -1010,10 +1016,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED115DDC-E095-4A60-B3EA-80FAE0A4BDBC}">
-  <dimension ref="A1:W117"/>
+  <dimension ref="A1:W118"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B101" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="A8" sqref="A8"/>
@@ -5500,6 +5506,35 @@
         <v>195</v>
       </c>
       <c r="K117">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A118" t="s">
+        <v>197</v>
+      </c>
+      <c r="C118" t="b">
+        <v>0</v>
+      </c>
+      <c r="E118">
+        <v>4.99</v>
+      </c>
+      <c r="F118">
+        <v>7500</v>
+      </c>
+      <c r="G118" t="s">
+        <v>197</v>
+      </c>
+      <c r="H118">
+        <v>841</v>
+      </c>
+      <c r="I118" t="s">
+        <v>25</v>
+      </c>
+      <c r="J118" t="s">
+        <v>198</v>
+      </c>
+      <c r="K118">
         <v>1</v>
       </c>
     </row>

--- a/Excel/Shop.xlsx
+++ b/Excel/Shop.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNameless\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B64A279-5DEA-4A27-9F03-154BCEBA42BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{131F5387-A8CD-4DF7-923C-AB83A5B91B3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1A95D980-8F25-43B6-BA87-364295A77694}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{1A95D980-8F25-43B6-BA87-364295A77694}"/>
   </bookViews>
   <sheets>
     <sheet name="ShopProductTable" sheetId="1" r:id="rId1"/>
@@ -1022,7 +1022,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B101" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A8" sqref="A8"/>
+      <selection pane="bottomRight" activeCell="A101" sqref="A101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1899,10 +1899,10 @@
         <v>0</v>
       </c>
       <c r="E22">
-        <v>1.99</v>
+        <v>0.99</v>
       </c>
       <c r="F22">
-        <v>3000</v>
+        <v>1100</v>
       </c>
       <c r="G22" t="s">
         <v>110</v>

--- a/Excel/Shop.xlsx
+++ b/Excel/Shop.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{131F5387-A8CD-4DF7-923C-AB83A5B91B3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0E7ECD0-2635-4DA4-BC00-740D1899CAE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{1A95D980-8F25-43B6-BA87-364295A77694}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" firstSheet="3" activeTab="7" xr2:uid="{1A95D980-8F25-43B6-BA87-364295A77694}"/>
   </bookViews>
   <sheets>
     <sheet name="ShopProductTable" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <sheet name="PickOneSpellTable" sheetId="5" r:id="rId5"/>
     <sheet name="PickOneCharacterTable" sheetId="6" r:id="rId6"/>
     <sheet name="BrokenEnergyTable" sheetId="7" r:id="rId7"/>
+    <sheet name="PointShopTable" sheetId="8" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">ShopProductTable!$A$1:$W$101</definedName>
@@ -43,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="784" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="790" uniqueCount="204">
   <si>
     <t>productId|String</t>
   </si>
@@ -642,6 +643,21 @@
   </si>
   <si>
     <t>Cash_sTeamPass</t>
+  </si>
+  <si>
+    <t>productId|Int</t>
+  </si>
+  <si>
+    <t>index|Int</t>
+  </si>
+  <si>
+    <t>min|Int</t>
+  </si>
+  <si>
+    <t>max|Int</t>
+  </si>
+  <si>
+    <t>price|Int</t>
   </si>
 </sst>
 </file>
@@ -1018,7 +1034,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED115DDC-E095-4A60-B3EA-80FAE0A4BDBC}">
   <dimension ref="A1:W118"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B101" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -6136,4 +6152,300 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DE65394-BCC3-4FDD-B4F7-2802D8C1133E}">
+  <dimension ref="A1:F14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>199</v>
+      </c>
+      <c r="B1" t="s">
+        <v>200</v>
+      </c>
+      <c r="C1" t="s">
+        <v>201</v>
+      </c>
+      <c r="D1" t="s">
+        <v>202</v>
+      </c>
+      <c r="E1" t="s">
+        <v>203</v>
+      </c>
+      <c r="F1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>10</v>
+      </c>
+      <c r="D2">
+        <v>100</v>
+      </c>
+      <c r="E2">
+        <v>10</v>
+      </c>
+      <c r="F2">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>100</v>
+      </c>
+      <c r="D3">
+        <v>200</v>
+      </c>
+      <c r="E3">
+        <v>15</v>
+      </c>
+      <c r="F3">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <v>300</v>
+      </c>
+      <c r="D4">
+        <v>1000</v>
+      </c>
+      <c r="E4">
+        <v>20</v>
+      </c>
+      <c r="F4">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5">
+        <v>1000</v>
+      </c>
+      <c r="D5">
+        <v>2000</v>
+      </c>
+      <c r="E5">
+        <v>25</v>
+      </c>
+      <c r="F5">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6">
+        <v>3000</v>
+      </c>
+      <c r="D6">
+        <v>10000</v>
+      </c>
+      <c r="E6">
+        <v>30</v>
+      </c>
+      <c r="F6">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>2</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>50</v>
+      </c>
+      <c r="D7">
+        <v>100</v>
+      </c>
+      <c r="E7">
+        <v>12</v>
+      </c>
+      <c r="F7">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>2</v>
+      </c>
+      <c r="B8">
+        <v>2</v>
+      </c>
+      <c r="C8">
+        <v>100</v>
+      </c>
+      <c r="D8">
+        <v>200</v>
+      </c>
+      <c r="E8">
+        <v>24</v>
+      </c>
+      <c r="F8">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>2</v>
+      </c>
+      <c r="B9">
+        <v>3</v>
+      </c>
+      <c r="C9">
+        <v>400</v>
+      </c>
+      <c r="D9">
+        <v>500</v>
+      </c>
+      <c r="E9">
+        <v>36</v>
+      </c>
+      <c r="F9">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>3</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>100</v>
+      </c>
+      <c r="D10">
+        <v>200</v>
+      </c>
+      <c r="E10">
+        <v>11</v>
+      </c>
+      <c r="F10">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>3</v>
+      </c>
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="C11">
+        <v>200</v>
+      </c>
+      <c r="D11">
+        <v>250</v>
+      </c>
+      <c r="E11">
+        <v>22</v>
+      </c>
+      <c r="F11">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>3</v>
+      </c>
+      <c r="B12">
+        <v>3</v>
+      </c>
+      <c r="C12">
+        <v>250</v>
+      </c>
+      <c r="D12">
+        <v>300</v>
+      </c>
+      <c r="E12">
+        <v>33</v>
+      </c>
+      <c r="F12">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>3</v>
+      </c>
+      <c r="B13">
+        <v>4</v>
+      </c>
+      <c r="C13">
+        <v>300</v>
+      </c>
+      <c r="D13">
+        <v>500</v>
+      </c>
+      <c r="E13">
+        <v>44</v>
+      </c>
+      <c r="F13">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>3</v>
+      </c>
+      <c r="B14">
+        <v>5</v>
+      </c>
+      <c r="C14">
+        <v>500</v>
+      </c>
+      <c r="D14">
+        <v>600</v>
+      </c>
+      <c r="E14">
+        <v>55</v>
+      </c>
+      <c r="F14">
+        <v>468</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Excel/Shop.xlsx
+++ b/Excel/Shop.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6318597-A059-48DC-98B7-8C9EEB6E4CE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81592186-D7F3-46F0-A05C-CBAB35FBEFA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" firstSheet="5" activeTab="9" xr2:uid="{1A95D980-8F25-43B6-BA87-364295A77694}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{1A95D980-8F25-43B6-BA87-364295A77694}"/>
   </bookViews>
   <sheets>
     <sheet name="ShopProductTable" sheetId="1" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="806" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="820" uniqueCount="207">
   <si>
     <t>productId|String</t>
   </si>
@@ -1045,11 +1045,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED115DDC-E095-4A60-B3EA-80FAE0A4BDBC}">
   <dimension ref="A1:W118"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B101" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A101" sqref="A101"/>
+      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4700,6 +4700,9 @@
       <c r="C97" t="b">
         <v>0</v>
       </c>
+      <c r="D97">
+        <v>8</v>
+      </c>
       <c r="E97">
         <v>0.99</v>
       </c>
@@ -4738,6 +4741,15 @@
       </c>
       <c r="Q97">
         <v>100</v>
+      </c>
+      <c r="R97" t="s">
+        <v>22</v>
+      </c>
+      <c r="S97" t="s">
+        <v>98</v>
+      </c>
+      <c r="T97">
+        <v>50</v>
       </c>
     </row>
     <row r="98" spans="1:20" x14ac:dyDescent="0.3">
@@ -4747,6 +4759,9 @@
       <c r="C98" t="b">
         <v>0</v>
       </c>
+      <c r="D98">
+        <v>8</v>
+      </c>
       <c r="E98">
         <v>0.99</v>
       </c>
@@ -4785,6 +4800,15 @@
       </c>
       <c r="Q98">
         <v>120</v>
+      </c>
+      <c r="R98" t="s">
+        <v>22</v>
+      </c>
+      <c r="S98" t="s">
+        <v>98</v>
+      </c>
+      <c r="T98">
+        <v>50</v>
       </c>
     </row>
     <row r="99" spans="1:20" x14ac:dyDescent="0.3">
@@ -4794,6 +4818,9 @@
       <c r="C99" t="b">
         <v>0</v>
       </c>
+      <c r="D99">
+        <v>8</v>
+      </c>
       <c r="E99">
         <v>0.99</v>
       </c>
@@ -4850,6 +4877,9 @@
       <c r="C100" t="b">
         <v>0</v>
       </c>
+      <c r="D100">
+        <v>8</v>
+      </c>
       <c r="E100">
         <v>4.99</v>
       </c>
@@ -4888,6 +4918,15 @@
       </c>
       <c r="Q100">
         <v>100</v>
+      </c>
+      <c r="R100" t="s">
+        <v>22</v>
+      </c>
+      <c r="S100" t="s">
+        <v>98</v>
+      </c>
+      <c r="T100">
+        <v>50</v>
       </c>
     </row>
     <row r="101" spans="1:20" x14ac:dyDescent="0.3">
@@ -4897,6 +4936,9 @@
       <c r="C101" t="b">
         <v>0</v>
       </c>
+      <c r="D101">
+        <v>8</v>
+      </c>
       <c r="E101">
         <v>4.99</v>
       </c>
@@ -4935,6 +4977,15 @@
       </c>
       <c r="Q101">
         <v>120</v>
+      </c>
+      <c r="R101" t="s">
+        <v>22</v>
+      </c>
+      <c r="S101" t="s">
+        <v>98</v>
+      </c>
+      <c r="T101">
+        <v>50</v>
       </c>
     </row>
     <row r="102" spans="1:20" x14ac:dyDescent="0.3">
@@ -4944,6 +4995,9 @@
       <c r="C102" t="b">
         <v>0</v>
       </c>
+      <c r="D102">
+        <v>8</v>
+      </c>
       <c r="E102">
         <v>9.99</v>
       </c>
@@ -5000,6 +5054,9 @@
       <c r="C103" t="b">
         <v>0</v>
       </c>
+      <c r="D103">
+        <v>8</v>
+      </c>
       <c r="E103">
         <v>9.99</v>
       </c>
@@ -5038,6 +5095,15 @@
       </c>
       <c r="Q103">
         <v>100</v>
+      </c>
+      <c r="R103" t="s">
+        <v>22</v>
+      </c>
+      <c r="S103" t="s">
+        <v>98</v>
+      </c>
+      <c r="T103">
+        <v>50</v>
       </c>
     </row>
     <row r="104" spans="1:20" x14ac:dyDescent="0.3">
@@ -5047,6 +5113,9 @@
       <c r="C104" t="b">
         <v>0</v>
       </c>
+      <c r="D104">
+        <v>8</v>
+      </c>
       <c r="E104">
         <v>19.989999999999998</v>
       </c>
@@ -5085,6 +5154,15 @@
       </c>
       <c r="Q104">
         <v>100</v>
+      </c>
+      <c r="R104" t="s">
+        <v>22</v>
+      </c>
+      <c r="S104" t="s">
+        <v>98</v>
+      </c>
+      <c r="T104">
+        <v>50</v>
       </c>
     </row>
     <row r="105" spans="1:20" x14ac:dyDescent="0.3">
@@ -5094,6 +5172,9 @@
       <c r="C105" t="b">
         <v>0</v>
       </c>
+      <c r="D105">
+        <v>8</v>
+      </c>
       <c r="E105">
         <v>39.99</v>
       </c>
@@ -5132,6 +5213,15 @@
       </c>
       <c r="Q105">
         <v>120</v>
+      </c>
+      <c r="R105" t="s">
+        <v>22</v>
+      </c>
+      <c r="S105" t="s">
+        <v>98</v>
+      </c>
+      <c r="T105">
+        <v>50</v>
       </c>
     </row>
     <row r="106" spans="1:20" x14ac:dyDescent="0.3">
@@ -5140,6 +5230,9 @@
       </c>
       <c r="C106" t="b">
         <v>0</v>
+      </c>
+      <c r="D106">
+        <v>8</v>
       </c>
       <c r="E106">
         <v>49.99</v>
@@ -5576,7 +5669,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06240469-0FA4-4C33-9485-0553D2A08322}">
   <dimension ref="A1:D1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>

--- a/Excel/Shop.xlsx
+++ b/Excel/Shop.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectNameless\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81592186-D7F3-46F0-A05C-CBAB35FBEFA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22DE7088-99D1-4A32-BDEC-DC8E53EC4F4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{1A95D980-8F25-43B6-BA87-364295A77694}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1A95D980-8F25-43B6-BA87-364295A77694}"/>
   </bookViews>
   <sheets>
     <sheet name="ShopProductTable" sheetId="1" r:id="rId1"/>
@@ -23,6 +23,7 @@
     <sheet name="BrokenEnergyTable" sheetId="7" r:id="rId8"/>
     <sheet name="PointShopTable" sheetId="8" r:id="rId9"/>
     <sheet name="PointShopAtkTable" sheetId="10" r:id="rId10"/>
+    <sheet name="FreePackageTable" sheetId="11" r:id="rId11"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">ShopProductTable!$A$1:$W$101</definedName>
@@ -46,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="820" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="893" uniqueCount="216">
   <si>
     <t>productId|String</t>
   </si>
@@ -669,6 +670,33 @@
   </si>
   <si>
     <t>requiredAccumulatedCount|Int</t>
+  </si>
+  <si>
+    <t>type|Int</t>
+  </si>
+  <si>
+    <t>conValue|Int</t>
+  </si>
+  <si>
+    <t>freelevel_1</t>
+  </si>
+  <si>
+    <t>freelevel_2</t>
+  </si>
+  <si>
+    <t>freelevel_3</t>
+  </si>
+  <si>
+    <t>freestage_1</t>
+  </si>
+  <si>
+    <t>freestage_2</t>
+  </si>
+  <si>
+    <t>freestage_3</t>
+  </si>
+  <si>
+    <t>freestage_4</t>
   </si>
 </sst>
 </file>
@@ -1043,13 +1071,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED115DDC-E095-4A60-B3EA-80FAE0A4BDBC}">
-  <dimension ref="A1:W118"/>
+  <dimension ref="A1:W125"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B113" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="C124" sqref="C124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5484,7 +5512,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>143</v>
       </c>
@@ -5513,7 +5541,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>167</v>
       </c>
@@ -5542,7 +5570,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>170</v>
       </c>
@@ -5571,7 +5599,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>172</v>
       </c>
@@ -5600,7 +5628,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>194</v>
       </c>
@@ -5629,7 +5657,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>197</v>
       </c>
@@ -5656,6 +5684,335 @@
       </c>
       <c r="K118">
         <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A119" t="s">
+        <v>209</v>
+      </c>
+      <c r="C119" t="b">
+        <v>1</v>
+      </c>
+      <c r="H119">
+        <v>574</v>
+      </c>
+      <c r="I119" t="s">
+        <v>22</v>
+      </c>
+      <c r="J119" t="s">
+        <v>23</v>
+      </c>
+      <c r="K119">
+        <v>30</v>
+      </c>
+      <c r="L119" t="s">
+        <v>22</v>
+      </c>
+      <c r="M119" t="s">
+        <v>24</v>
+      </c>
+      <c r="N119">
+        <v>25000</v>
+      </c>
+      <c r="O119" t="s">
+        <v>22</v>
+      </c>
+      <c r="P119" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q119">
+        <v>100</v>
+      </c>
+      <c r="R119" t="s">
+        <v>22</v>
+      </c>
+      <c r="S119" t="s">
+        <v>98</v>
+      </c>
+      <c r="T119">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="120" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A120" t="s">
+        <v>210</v>
+      </c>
+      <c r="C120" t="b">
+        <v>1</v>
+      </c>
+      <c r="H120">
+        <v>318</v>
+      </c>
+      <c r="I120" t="s">
+        <v>22</v>
+      </c>
+      <c r="J120" t="s">
+        <v>23</v>
+      </c>
+      <c r="K120">
+        <v>60</v>
+      </c>
+      <c r="L120" t="s">
+        <v>22</v>
+      </c>
+      <c r="M120" t="s">
+        <v>24</v>
+      </c>
+      <c r="N120">
+        <v>15000</v>
+      </c>
+      <c r="O120" t="s">
+        <v>22</v>
+      </c>
+      <c r="P120" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q120">
+        <v>120</v>
+      </c>
+      <c r="R120" t="s">
+        <v>22</v>
+      </c>
+      <c r="S120" t="s">
+        <v>98</v>
+      </c>
+      <c r="T120">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="121" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A121" t="s">
+        <v>211</v>
+      </c>
+      <c r="C121" t="b">
+        <v>1</v>
+      </c>
+      <c r="H121">
+        <v>830</v>
+      </c>
+      <c r="I121" t="s">
+        <v>22</v>
+      </c>
+      <c r="J121" t="s">
+        <v>23</v>
+      </c>
+      <c r="K121">
+        <v>90</v>
+      </c>
+      <c r="L121" t="s">
+        <v>22</v>
+      </c>
+      <c r="M121" t="s">
+        <v>24</v>
+      </c>
+      <c r="N121">
+        <v>30000</v>
+      </c>
+      <c r="O121" t="s">
+        <v>22</v>
+      </c>
+      <c r="P121" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q121">
+        <v>150</v>
+      </c>
+      <c r="R121" t="s">
+        <v>22</v>
+      </c>
+      <c r="S121" t="s">
+        <v>23</v>
+      </c>
+      <c r="T121">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="122" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A122" t="s">
+        <v>212</v>
+      </c>
+      <c r="C122" t="b">
+        <v>1</v>
+      </c>
+      <c r="H122">
+        <v>843</v>
+      </c>
+      <c r="I122" t="s">
+        <v>22</v>
+      </c>
+      <c r="J122" t="s">
+        <v>23</v>
+      </c>
+      <c r="K122">
+        <v>30</v>
+      </c>
+      <c r="L122" t="s">
+        <v>22</v>
+      </c>
+      <c r="M122" t="s">
+        <v>24</v>
+      </c>
+      <c r="N122">
+        <v>25000</v>
+      </c>
+      <c r="O122" t="s">
+        <v>22</v>
+      </c>
+      <c r="P122" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q122">
+        <v>100</v>
+      </c>
+      <c r="R122" t="s">
+        <v>22</v>
+      </c>
+      <c r="S122" t="s">
+        <v>98</v>
+      </c>
+      <c r="T122">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="123" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A123" t="s">
+        <v>213</v>
+      </c>
+      <c r="C123" t="b">
+        <v>1</v>
+      </c>
+      <c r="H123">
+        <v>501</v>
+      </c>
+      <c r="I123" t="s">
+        <v>22</v>
+      </c>
+      <c r="J123" t="s">
+        <v>23</v>
+      </c>
+      <c r="K123">
+        <v>60</v>
+      </c>
+      <c r="L123" t="s">
+        <v>22</v>
+      </c>
+      <c r="M123" t="s">
+        <v>24</v>
+      </c>
+      <c r="N123">
+        <v>15000</v>
+      </c>
+      <c r="O123" t="s">
+        <v>22</v>
+      </c>
+      <c r="P123" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q123">
+        <v>120</v>
+      </c>
+      <c r="R123" t="s">
+        <v>22</v>
+      </c>
+      <c r="S123" t="s">
+        <v>98</v>
+      </c>
+      <c r="T123">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="124" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A124" t="s">
+        <v>214</v>
+      </c>
+      <c r="C124" t="b">
+        <v>1</v>
+      </c>
+      <c r="H124">
+        <v>407</v>
+      </c>
+      <c r="I124" t="s">
+        <v>22</v>
+      </c>
+      <c r="J124" t="s">
+        <v>23</v>
+      </c>
+      <c r="K124">
+        <v>90</v>
+      </c>
+      <c r="L124" t="s">
+        <v>22</v>
+      </c>
+      <c r="M124" t="s">
+        <v>24</v>
+      </c>
+      <c r="N124">
+        <v>30000</v>
+      </c>
+      <c r="O124" t="s">
+        <v>22</v>
+      </c>
+      <c r="P124" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q124">
+        <v>150</v>
+      </c>
+      <c r="R124" t="s">
+        <v>22</v>
+      </c>
+      <c r="S124" t="s">
+        <v>23</v>
+      </c>
+      <c r="T124">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="125" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A125" t="s">
+        <v>215</v>
+      </c>
+      <c r="C125" t="b">
+        <v>1</v>
+      </c>
+      <c r="H125">
+        <v>193</v>
+      </c>
+      <c r="I125" t="s">
+        <v>22</v>
+      </c>
+      <c r="J125" t="s">
+        <v>23</v>
+      </c>
+      <c r="K125">
+        <v>30</v>
+      </c>
+      <c r="L125" t="s">
+        <v>22</v>
+      </c>
+      <c r="M125" t="s">
+        <v>24</v>
+      </c>
+      <c r="N125">
+        <v>25000</v>
+      </c>
+      <c r="O125" t="s">
+        <v>22</v>
+      </c>
+      <c r="P125" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q125">
+        <v>100</v>
+      </c>
+      <c r="R125" t="s">
+        <v>22</v>
+      </c>
+      <c r="S125" t="s">
+        <v>98</v>
+      </c>
+      <c r="T125">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -19685,6 +20042,113 @@
       </c>
       <c r="D1001">
         <v>48725</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2A31BFD-E248-487E-9424-79F4DD5B7595}">
+  <dimension ref="A1:C8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="19.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>207</v>
+      </c>
+      <c r="B1" t="s">
+        <v>208</v>
+      </c>
+      <c r="C1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>50</v>
+      </c>
+      <c r="C2" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>200</v>
+      </c>
+      <c r="C3" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>500</v>
+      </c>
+      <c r="C4" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5">
+        <v>30</v>
+      </c>
+      <c r="C5" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>2</v>
+      </c>
+      <c r="B6">
+        <v>100</v>
+      </c>
+      <c r="C6" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>2</v>
+      </c>
+      <c r="B7">
+        <v>200</v>
+      </c>
+      <c r="C7" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>2</v>
+      </c>
+      <c r="B8">
+        <v>500</v>
+      </c>
+      <c r="C8" t="s">
+        <v>215</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/Shop.xlsx
+++ b/Excel/Shop.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNameless\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22DE7088-99D1-4A32-BDEC-DC8E53EC4F4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79985D01-5BAA-45AC-ACE8-52BEC672C883}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1A95D980-8F25-43B6-BA87-364295A77694}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{1A95D980-8F25-43B6-BA87-364295A77694}"/>
   </bookViews>
   <sheets>
     <sheet name="ShopProductTable" sheetId="1" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="893" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="893" uniqueCount="233">
   <si>
     <t>productId|String</t>
   </si>
@@ -697,6 +697,57 @@
   </si>
   <si>
     <t>freestage_4</t>
+  </si>
+  <si>
+    <t>RelayAtk_01</t>
+  </si>
+  <si>
+    <t>RelayAtk_02</t>
+  </si>
+  <si>
+    <t>RelayAtk_03</t>
+  </si>
+  <si>
+    <t>RelayAtk_04</t>
+  </si>
+  <si>
+    <t>RelayAtk_05</t>
+  </si>
+  <si>
+    <t>RelayAtk_06</t>
+  </si>
+  <si>
+    <t>RelayAtk_07</t>
+  </si>
+  <si>
+    <t>RelayAtk_08</t>
+  </si>
+  <si>
+    <t>RelayAtk_09</t>
+  </si>
+  <si>
+    <t>RelayAtk_10</t>
+  </si>
+  <si>
+    <t>FreeLevelAtk_01</t>
+  </si>
+  <si>
+    <t>FreeLevelAtk_02</t>
+  </si>
+  <si>
+    <t>FreeLevelAtk_03</t>
+  </si>
+  <si>
+    <t>FreeStageAtk_01</t>
+  </si>
+  <si>
+    <t>FreeStageAtk_02</t>
+  </si>
+  <si>
+    <t>FreeStageAtk_03</t>
+  </si>
+  <si>
+    <t>FreeStageAtk_04</t>
   </si>
 </sst>
 </file>
@@ -1074,10 +1125,10 @@
   <dimension ref="A1:W125"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B113" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B116" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C124" sqref="C124"/>
+      <selection pane="bottomRight" activeCell="A125" sqref="A125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4744,13 +4795,13 @@
         <v>704</v>
       </c>
       <c r="I97" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="J97" t="s">
-        <v>23</v>
+        <v>216</v>
       </c>
       <c r="K97">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="L97" t="s">
         <v>22</v>
@@ -4803,13 +4854,13 @@
         <v>148</v>
       </c>
       <c r="I98" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="J98" t="s">
-        <v>23</v>
+        <v>217</v>
       </c>
       <c r="K98">
-        <v>60</v>
+        <v>1</v>
       </c>
       <c r="L98" t="s">
         <v>22</v>
@@ -4862,13 +4913,13 @@
         <v>784</v>
       </c>
       <c r="I99" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="J99" t="s">
-        <v>23</v>
+        <v>218</v>
       </c>
       <c r="K99">
-        <v>90</v>
+        <v>1</v>
       </c>
       <c r="L99" t="s">
         <v>22</v>
@@ -4921,13 +4972,13 @@
         <v>354</v>
       </c>
       <c r="I100" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="J100" t="s">
-        <v>23</v>
+        <v>219</v>
       </c>
       <c r="K100">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="L100" t="s">
         <v>22</v>
@@ -4980,13 +5031,13 @@
         <v>414</v>
       </c>
       <c r="I101" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="J101" t="s">
-        <v>23</v>
+        <v>220</v>
       </c>
       <c r="K101">
-        <v>60</v>
+        <v>1</v>
       </c>
       <c r="L101" t="s">
         <v>22</v>
@@ -5039,13 +5090,13 @@
         <v>726</v>
       </c>
       <c r="I102" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="J102" t="s">
-        <v>23</v>
+        <v>221</v>
       </c>
       <c r="K102">
-        <v>90</v>
+        <v>1</v>
       </c>
       <c r="L102" t="s">
         <v>22</v>
@@ -5098,13 +5149,13 @@
         <v>679</v>
       </c>
       <c r="I103" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="J103" t="s">
-        <v>23</v>
+        <v>222</v>
       </c>
       <c r="K103">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="L103" t="s">
         <v>22</v>
@@ -5157,13 +5208,13 @@
         <v>752</v>
       </c>
       <c r="I104" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="J104" t="s">
-        <v>23</v>
+        <v>223</v>
       </c>
       <c r="K104">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="L104" t="s">
         <v>22</v>
@@ -5216,13 +5267,13 @@
         <v>534</v>
       </c>
       <c r="I105" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="J105" t="s">
-        <v>23</v>
+        <v>224</v>
       </c>
       <c r="K105">
-        <v>60</v>
+        <v>1</v>
       </c>
       <c r="L105" t="s">
         <v>22</v>
@@ -5275,13 +5326,13 @@
         <v>243</v>
       </c>
       <c r="I106" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="J106" t="s">
-        <v>23</v>
+        <v>225</v>
       </c>
       <c r="K106">
-        <v>90</v>
+        <v>1</v>
       </c>
       <c r="L106" t="s">
         <v>22</v>
@@ -5697,13 +5748,13 @@
         <v>574</v>
       </c>
       <c r="I119" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="J119" t="s">
-        <v>23</v>
+        <v>226</v>
       </c>
       <c r="K119">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="L119" t="s">
         <v>22</v>
@@ -5744,13 +5795,13 @@
         <v>318</v>
       </c>
       <c r="I120" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="J120" t="s">
-        <v>23</v>
+        <v>227</v>
       </c>
       <c r="K120">
-        <v>60</v>
+        <v>1</v>
       </c>
       <c r="L120" t="s">
         <v>22</v>
@@ -5791,13 +5842,13 @@
         <v>830</v>
       </c>
       <c r="I121" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="J121" t="s">
-        <v>23</v>
+        <v>228</v>
       </c>
       <c r="K121">
-        <v>90</v>
+        <v>1</v>
       </c>
       <c r="L121" t="s">
         <v>22</v>
@@ -5838,13 +5889,13 @@
         <v>843</v>
       </c>
       <c r="I122" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="J122" t="s">
-        <v>23</v>
+        <v>229</v>
       </c>
       <c r="K122">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="L122" t="s">
         <v>22</v>
@@ -5885,13 +5936,13 @@
         <v>501</v>
       </c>
       <c r="I123" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="J123" t="s">
-        <v>23</v>
+        <v>230</v>
       </c>
       <c r="K123">
-        <v>60</v>
+        <v>1</v>
       </c>
       <c r="L123" t="s">
         <v>22</v>
@@ -5932,13 +5983,13 @@
         <v>407</v>
       </c>
       <c r="I124" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="J124" t="s">
-        <v>23</v>
+        <v>231</v>
       </c>
       <c r="K124">
-        <v>90</v>
+        <v>1</v>
       </c>
       <c r="L124" t="s">
         <v>22</v>
@@ -5979,13 +6030,13 @@
         <v>193</v>
       </c>
       <c r="I125" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="J125" t="s">
-        <v>23</v>
+        <v>232</v>
       </c>
       <c r="K125">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="L125" t="s">
         <v>22</v>
@@ -6026,7 +6077,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06240469-0FA4-4C33-9485-0553D2A08322}">
   <dimension ref="A1:D1001"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A16" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>

--- a/Excel/Shop.xlsx
+++ b/Excel/Shop.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79985D01-5BAA-45AC-ACE8-52BEC672C883}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F85CC26-AE5B-4F94-8258-413373518DD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{1A95D980-8F25-43B6-BA87-364295A77694}"/>
   </bookViews>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="893" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="238">
   <si>
     <t>productId|String</t>
   </si>
@@ -748,6 +748,21 @@
   </si>
   <si>
     <t>FreeStageAtk_04</t>
+  </si>
+  <si>
+    <t>Product_Equip030001</t>
+  </si>
+  <si>
+    <t>Cash_sSpellGacha</t>
+  </si>
+  <si>
+    <t>CashName_sSpellGacha</t>
+  </si>
+  <si>
+    <t>Cash_sSpell4Gacha</t>
+  </si>
+  <si>
+    <t>CashName_sSpell4Gacha</t>
   </si>
 </sst>
 </file>
@@ -1125,10 +1140,10 @@
   <dimension ref="A1:W125"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B116" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B95" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A125" sqref="A125"/>
+      <selection pane="bottomRight" activeCell="A97" sqref="A97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4804,22 +4819,22 @@
         <v>1</v>
       </c>
       <c r="L97" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="M97" t="s">
-        <v>24</v>
+        <v>233</v>
       </c>
       <c r="N97">
-        <v>25000</v>
+        <v>1</v>
       </c>
       <c r="O97" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="P97" t="s">
-        <v>23</v>
+        <v>234</v>
       </c>
       <c r="Q97">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="R97" t="s">
         <v>22</v>
@@ -20312,10 +20327,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A538EB96-EB04-4826-9AF0-A58A4FE56B38}">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -20394,6 +20409,22 @@
       </c>
       <c r="B9" t="s">
         <v>158</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>234</v>
+      </c>
+      <c r="B10" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>236</v>
+      </c>
+      <c r="B11" t="s">
+        <v>237</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/Shop.xlsx
+++ b/Excel/Shop.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F85CC26-AE5B-4F94-8258-413373518DD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{880AE58A-10C1-4AC6-8F55-CC4E8A20799F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{1A95D980-8F25-43B6-BA87-364295A77694}"/>
   </bookViews>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="239">
   <si>
     <t>productId|String</t>
   </si>
@@ -750,9 +750,6 @@
     <t>FreeStageAtk_04</t>
   </si>
   <si>
-    <t>Product_Equip030001</t>
-  </si>
-  <si>
     <t>Cash_sSpellGacha</t>
   </si>
   <si>
@@ -763,6 +760,12 @@
   </si>
   <si>
     <t>CashName_sSpell4Gacha</t>
+  </si>
+  <si>
+    <t>Equip030001</t>
+  </si>
+  <si>
+    <t>Cash_sEquipTypeGacha411</t>
   </si>
 </sst>
 </file>
@@ -1140,7 +1143,7 @@
   <dimension ref="A1:W125"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B95" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="K86" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="A97" sqref="A97"/>
@@ -4819,31 +4822,31 @@
         <v>1</v>
       </c>
       <c r="L97" t="s">
+        <v>22</v>
+      </c>
+      <c r="M97" t="s">
+        <v>24</v>
+      </c>
+      <c r="N97">
+        <v>10000</v>
+      </c>
+      <c r="O97" t="s">
+        <v>22</v>
+      </c>
+      <c r="P97" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q97">
+        <v>120</v>
+      </c>
+      <c r="R97" t="s">
         <v>25</v>
       </c>
-      <c r="M97" t="s">
-        <v>233</v>
-      </c>
-      <c r="N97">
+      <c r="S97" t="s">
+        <v>237</v>
+      </c>
+      <c r="T97">
         <v>1</v>
-      </c>
-      <c r="O97" t="s">
-        <v>25</v>
-      </c>
-      <c r="P97" t="s">
-        <v>234</v>
-      </c>
-      <c r="Q97">
-        <v>1</v>
-      </c>
-      <c r="R97" t="s">
-        <v>22</v>
-      </c>
-      <c r="S97" t="s">
-        <v>98</v>
-      </c>
-      <c r="T97">
-        <v>50</v>
       </c>
     </row>
     <row r="98" spans="1:20" x14ac:dyDescent="0.3">
@@ -4896,13 +4899,13 @@
         <v>120</v>
       </c>
       <c r="R98" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="S98" t="s">
-        <v>98</v>
+        <v>238</v>
       </c>
       <c r="T98">
-        <v>50</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99" spans="1:20" x14ac:dyDescent="0.3">
@@ -20413,18 +20416,18 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
+        <v>233</v>
+      </c>
+      <c r="B10" t="s">
         <v>234</v>
-      </c>
-      <c r="B10" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
+        <v>235</v>
+      </c>
+      <c r="B11" t="s">
         <v>236</v>
-      </c>
-      <c r="B11" t="s">
-        <v>237</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/Shop.xlsx
+++ b/Excel/Shop.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{880AE58A-10C1-4AC6-8F55-CC4E8A20799F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{814F1D74-6453-4E55-A11B-C82A853D68E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{1A95D980-8F25-43B6-BA87-364295A77694}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="1" xr2:uid="{1A95D980-8F25-43B6-BA87-364295A77694}"/>
   </bookViews>
   <sheets>
     <sheet name="ShopProductTable" sheetId="1" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="238">
   <si>
     <t>productId|String</t>
   </si>
@@ -61,711 +61,706 @@
     <t>serverItemId|String</t>
   </si>
   <si>
+    <t>free|Bool</t>
+  </si>
+  <si>
+    <t>rewardType1|String</t>
+  </si>
+  <si>
+    <t>rewardValue1|String</t>
+  </si>
+  <si>
+    <t>rewardCount1|Int</t>
+  </si>
+  <si>
+    <t>rewardType2|String</t>
+  </si>
+  <si>
+    <t>rewardValue2|String</t>
+  </si>
+  <si>
+    <t>rewardCount2|Int</t>
+  </si>
+  <si>
+    <t>rewardType3|String</t>
+  </si>
+  <si>
+    <t>rewardValue3|String</t>
+  </si>
+  <si>
+    <t>rewardCount3|Int</t>
+  </si>
+  <si>
+    <t>rewardType4|String</t>
+  </si>
+  <si>
+    <t>rewardValue4|String</t>
+  </si>
+  <si>
+    <t>rewardCount4|Int</t>
+  </si>
+  <si>
+    <t>rewardType5|String</t>
+  </si>
+  <si>
+    <t>rewardValue5|String</t>
+  </si>
+  <si>
+    <t>rewardCount5|Int</t>
+  </si>
+  <si>
+    <t>cu</t>
+  </si>
+  <si>
+    <t>EN</t>
+  </si>
+  <si>
+    <t>GO</t>
+  </si>
+  <si>
+    <t>it</t>
+  </si>
+  <si>
+    <t>Cash_bLevelPass</t>
+  </si>
+  <si>
+    <t>id|String</t>
+  </si>
+  <si>
+    <t>name|String</t>
+  </si>
+  <si>
+    <t>Cash_sBrokenEnergy</t>
+  </si>
+  <si>
+    <t>CashName_sBrokenEnergy</t>
+  </si>
+  <si>
+    <t>indexSub|Int</t>
+  </si>
+  <si>
+    <t>ev5_oneplustwo_1</t>
+  </si>
+  <si>
+    <t>ev5_oneplustwo_2</t>
+  </si>
+  <si>
+    <t>ev5_oneplustwo_3</t>
+  </si>
+  <si>
+    <t>ev3_oneofthree_1</t>
+  </si>
+  <si>
+    <t>ev3_oneofthree_2</t>
+  </si>
+  <si>
+    <t>ev3_oneofthree_3</t>
+  </si>
+  <si>
+    <t>ev4_conti_1</t>
+  </si>
+  <si>
+    <t>ev4_conti_2</t>
+  </si>
+  <si>
+    <t>ev4_conti_3</t>
+  </si>
+  <si>
+    <t>ev4_conti_4</t>
+  </si>
+  <si>
+    <t>key|Int</t>
+  </si>
+  <si>
+    <t>seventotalgroup1_1</t>
+  </si>
+  <si>
+    <t>seventotalgroup1_2</t>
+  </si>
+  <si>
+    <t>seventotalgroup1_3</t>
+  </si>
+  <si>
+    <t>seventotalgroup1_4</t>
+  </si>
+  <si>
+    <t>seventotalgroup2_1</t>
+  </si>
+  <si>
+    <t>seventotalgroup2_2</t>
+  </si>
+  <si>
+    <t>seventotalgroup2_3</t>
+  </si>
+  <si>
+    <t>seventotalgroup2_4</t>
+  </si>
+  <si>
+    <t>seventotalgroup3_1</t>
+  </si>
+  <si>
+    <t>seventotalgroup3_2</t>
+  </si>
+  <si>
+    <t>seventotalgroup3_3</t>
+  </si>
+  <si>
+    <t>seventotalgroup3_4</t>
+  </si>
+  <si>
+    <t>cashshopenergy_1</t>
+  </si>
+  <si>
+    <t>cashshopenergy_2</t>
+  </si>
+  <si>
+    <t>cashshopenergy_3</t>
+  </si>
+  <si>
+    <t>cashshopenergy_4</t>
+  </si>
+  <si>
+    <t>cashshopenergy_5</t>
+  </si>
+  <si>
+    <t>cashshopenergy_6</t>
+  </si>
+  <si>
+    <t>cashshopenergy_1_more</t>
+  </si>
+  <si>
+    <t>cashshopenergy_2_more</t>
+  </si>
+  <si>
+    <t>cashshopenergy_3_more</t>
+  </si>
+  <si>
+    <t>cashshopenergy_4_more</t>
+  </si>
+  <si>
+    <t>cashshopenergy_5_more</t>
+  </si>
+  <si>
+    <t>cashshopenergy_6_more</t>
+  </si>
+  <si>
+    <t>cashshopgold_1</t>
+  </si>
+  <si>
+    <t>cashshopgold_2</t>
+  </si>
+  <si>
+    <t>cashshopgold_3</t>
+  </si>
+  <si>
+    <t>cashshopgold_4</t>
+  </si>
+  <si>
+    <t>cashshopgold_5</t>
+  </si>
+  <si>
+    <t>cashshopgold_6</t>
+  </si>
+  <si>
+    <t>cashshopgold_1_more</t>
+  </si>
+  <si>
+    <t>cashshopgold_2_more</t>
+  </si>
+  <si>
+    <t>cashshopgold_3_more</t>
+  </si>
+  <si>
+    <t>cashshopgold_4_more</t>
+  </si>
+  <si>
+    <t>cashshopgold_5_more</t>
+  </si>
+  <si>
+    <t>cashshopgold_6_more</t>
+  </si>
+  <si>
+    <t>petsale_1</t>
+  </si>
+  <si>
+    <t>petsale_2</t>
+  </si>
+  <si>
+    <t>petsale_3</t>
+  </si>
+  <si>
+    <t>petsale_4</t>
+  </si>
+  <si>
+    <t>petsale_5</t>
+  </si>
+  <si>
+    <t>petcapture_better</t>
+  </si>
+  <si>
+    <t>petcapture_best</t>
+  </si>
+  <si>
+    <t>Cash_sPetSale</t>
+  </si>
+  <si>
+    <t>CashName_sPetSale</t>
+  </si>
+  <si>
+    <t>Cash_sFortuneWheel</t>
+  </si>
+  <si>
+    <t>CashName_sFortuneWheel</t>
+  </si>
+  <si>
+    <t>Item_cCaptureBetter</t>
+  </si>
+  <si>
+    <t>Item_cCaptureBest</t>
+  </si>
+  <si>
+    <t>stageclear_1</t>
+  </si>
+  <si>
+    <t>stageclear_2</t>
+  </si>
+  <si>
+    <t>stageclear_3</t>
+  </si>
+  <si>
+    <t>stageclear_5</t>
+  </si>
+  <si>
+    <t>stageclear_10</t>
+  </si>
+  <si>
+    <t>Item_cDailyGem</t>
+  </si>
+  <si>
+    <t>DI</t>
+  </si>
+  <si>
+    <t>relay_1</t>
+  </si>
+  <si>
+    <t>relay_2</t>
+  </si>
+  <si>
+    <t>relay_3</t>
+  </si>
+  <si>
+    <t>relay_4</t>
+  </si>
+  <si>
+    <t>relay_5</t>
+  </si>
+  <si>
+    <t>relay_6</t>
+  </si>
+  <si>
+    <t>relay_7</t>
+  </si>
+  <si>
+    <t>relay_8</t>
+  </si>
+  <si>
+    <t>relay_9</t>
+  </si>
+  <si>
+    <t>relay_10</t>
+  </si>
+  <si>
+    <t>levelpass</t>
+  </si>
+  <si>
+    <t>fortunewheel</t>
+  </si>
+  <si>
+    <t>ev1_bigboost</t>
+  </si>
+  <si>
+    <t>festivalgroup1_1</t>
+  </si>
+  <si>
+    <t>festivalgroup1_2</t>
+  </si>
+  <si>
+    <t>festivalgroup1_3</t>
+  </si>
+  <si>
+    <t>festivalgroup1_4</t>
+  </si>
+  <si>
+    <t>festivalgroup2_1</t>
+  </si>
+  <si>
+    <t>festivalgroup2_2</t>
+  </si>
+  <si>
+    <t>festivalgroup2_3</t>
+  </si>
+  <si>
+    <t>festivalgroup2_4</t>
+  </si>
+  <si>
+    <t>festivalgroup3_1</t>
+  </si>
+  <si>
+    <t>festivalgroup3_2</t>
+  </si>
+  <si>
+    <t>festivalgroup3_3</t>
+  </si>
+  <si>
+    <t>festivalgroup3_4</t>
+  </si>
+  <si>
+    <t>dailygem</t>
+  </si>
+  <si>
+    <t>Cash_sSevenTotal</t>
+  </si>
+  <si>
+    <t>Cash_sFestivalTotal</t>
+  </si>
+  <si>
+    <t>num|Int</t>
+  </si>
+  <si>
+    <t>stagecleared|Int</t>
+  </si>
+  <si>
+    <t>shopProductId|String</t>
+  </si>
+  <si>
+    <t>times|Int</t>
+  </si>
+  <si>
+    <t>ev2_almostthere</t>
+  </si>
+  <si>
+    <t>ev11_flashsale</t>
+  </si>
+  <si>
+    <t>ev12_nuclearsale</t>
+  </si>
+  <si>
+    <t>firstpurchase</t>
+  </si>
+  <si>
+    <t>Spell_0003</t>
+  </si>
+  <si>
+    <t>analysisboost_1</t>
+  </si>
+  <si>
+    <t>analysisboost_2</t>
+  </si>
+  <si>
+    <t>analysisboost_3</t>
+  </si>
+  <si>
+    <t>ev14_unacquiredspell</t>
+  </si>
+  <si>
+    <t>Cash_sAcquiredSpell</t>
+  </si>
+  <si>
+    <t>ev13_acquiredspell_0001</t>
+  </si>
+  <si>
+    <t>ev13_acquiredspell_0002</t>
+  </si>
+  <si>
+    <t>ev13_acquiredspell</t>
+  </si>
+  <si>
+    <t>spellId|String</t>
+  </si>
+  <si>
+    <t>count|Int</t>
+  </si>
+  <si>
+    <t>Spell_0019</t>
+  </si>
+  <si>
+    <t>Spell_0018</t>
+  </si>
+  <si>
+    <t>Spell_0001</t>
+  </si>
+  <si>
+    <t>Spell_0002</t>
+  </si>
+  <si>
+    <t>CashName_sAcquiredSpell</t>
+  </si>
+  <si>
+    <t>Cash_sUnacquiredSpell</t>
+  </si>
+  <si>
+    <t>CashName_sUnacquiredSpell</t>
+  </si>
+  <si>
+    <t>Cash_sAcquiredCompanion</t>
+  </si>
+  <si>
+    <t>CashName_sAcquiredCompanion</t>
+  </si>
+  <si>
+    <t>Cash_sAcquiredCompanionPp</t>
+  </si>
+  <si>
+    <t>CashName_sAcquiredCompanionPp</t>
+  </si>
+  <si>
+    <t>Cash_sUnacquiredCompanion</t>
+  </si>
+  <si>
+    <t>CashName_sUnacquiredCompanion</t>
+  </si>
+  <si>
+    <t>acquired|bool</t>
+  </si>
+  <si>
+    <t>ev13_unacquiredspell</t>
+  </si>
+  <si>
+    <t>ev14_acquiredspell_0001</t>
+  </si>
+  <si>
+    <t>ev14_acquiredspell_0002</t>
+  </si>
+  <si>
+    <t>ev14_acquiredspell</t>
+  </si>
+  <si>
+    <t>acquired|Int</t>
+  </si>
+  <si>
+    <t>actorId|String</t>
+  </si>
+  <si>
+    <t>Actor2238</t>
+  </si>
+  <si>
+    <t>ev15_unacquiredcompanion</t>
+  </si>
+  <si>
+    <t>Actor0240</t>
+  </si>
+  <si>
+    <t>Actor2103</t>
+  </si>
+  <si>
+    <t>ev16_acquiredcompanion</t>
+  </si>
+  <si>
+    <t>Actor2010</t>
+  </si>
+  <si>
+    <t>ev17_acquiredcompanionpp</t>
+  </si>
+  <si>
+    <t>Actor2011</t>
+  </si>
+  <si>
     <t>level|Int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>minEnergy|Int</t>
+  </si>
+  <si>
+    <t>maxEnergy|Int</t>
+  </si>
+  <si>
+    <t>brokenenergy_1</t>
+  </si>
+  <si>
+    <t>brokenenergy_2</t>
+  </si>
+  <si>
+    <t>brokenenergy_3</t>
+  </si>
+  <si>
+    <t>brokenenergy_4</t>
+  </si>
+  <si>
+    <t>brokenenergy_5</t>
+  </si>
+  <si>
+    <t>cashshopgem_1</t>
+  </si>
+  <si>
+    <t>cashshopgem_2</t>
+  </si>
+  <si>
+    <t>cashshopgem_3</t>
+  </si>
+  <si>
+    <t>cashshopgem_4</t>
+  </si>
+  <si>
+    <t>cashshopgem_5</t>
+  </si>
+  <si>
+    <t>cashshopgem_6</t>
+  </si>
+  <si>
+    <t>cashshopgem_1_more</t>
+  </si>
+  <si>
+    <t>cashshopgem_2_more</t>
+  </si>
+  <si>
+    <t>cashshopgem_3_more</t>
+  </si>
+  <si>
+    <t>cashshopgem_4_more</t>
+  </si>
+  <si>
+    <t>cashshopgem_5_more</t>
+  </si>
+  <si>
+    <t>cashshopgem_6_more</t>
+  </si>
+  <si>
+    <t>petpass</t>
+  </si>
+  <si>
+    <t>Cash_sPetPass</t>
+  </si>
+  <si>
+    <t>Cash_sAnalysisBoost</t>
+  </si>
+  <si>
+    <t>teampass</t>
+  </si>
+  <si>
+    <t>Cash_sTeamPass</t>
+  </si>
+  <si>
+    <t>productId|Int</t>
+  </si>
+  <si>
+    <t>index|Int</t>
+  </si>
+  <si>
+    <t>min|Int</t>
+  </si>
+  <si>
+    <t>max|Int</t>
+  </si>
+  <si>
+    <t>price|Int</t>
+  </si>
+  <si>
+    <t>accumulatedAtk|Int</t>
+  </si>
+  <si>
+    <t>requiredCount|Int</t>
+  </si>
+  <si>
+    <t>requiredAccumulatedCount|Int</t>
+  </si>
+  <si>
+    <t>type|Int</t>
+  </si>
+  <si>
+    <t>conValue|Int</t>
+  </si>
+  <si>
+    <t>freelevel_1</t>
+  </si>
+  <si>
+    <t>freelevel_2</t>
+  </si>
+  <si>
+    <t>freelevel_3</t>
+  </si>
+  <si>
+    <t>freestage_1</t>
+  </si>
+  <si>
+    <t>freestage_2</t>
+  </si>
+  <si>
+    <t>freestage_3</t>
+  </si>
+  <si>
+    <t>freestage_4</t>
+  </si>
+  <si>
+    <t>RelayAtk_01</t>
+  </si>
+  <si>
+    <t>RelayAtk_02</t>
+  </si>
+  <si>
+    <t>RelayAtk_03</t>
+  </si>
+  <si>
+    <t>RelayAtk_04</t>
+  </si>
+  <si>
+    <t>RelayAtk_05</t>
+  </si>
+  <si>
+    <t>RelayAtk_06</t>
+  </si>
+  <si>
+    <t>RelayAtk_07</t>
+  </si>
+  <si>
+    <t>RelayAtk_08</t>
+  </si>
+  <si>
+    <t>RelayAtk_09</t>
+  </si>
+  <si>
+    <t>RelayAtk_10</t>
+  </si>
+  <si>
+    <t>FreeLevelAtk_01</t>
+  </si>
+  <si>
+    <t>FreeLevelAtk_02</t>
+  </si>
+  <si>
+    <t>FreeLevelAtk_03</t>
+  </si>
+  <si>
+    <t>FreeStageAtk_01</t>
+  </si>
+  <si>
+    <t>FreeStageAtk_02</t>
+  </si>
+  <si>
+    <t>FreeStageAtk_03</t>
+  </si>
+  <si>
+    <t>FreeStageAtk_04</t>
+  </si>
+  <si>
+    <t>Cash_sSpellGacha</t>
+  </si>
+  <si>
+    <t>CashName_sSpellGacha</t>
+  </si>
+  <si>
+    <t>Cash_sSpell4Gacha</t>
+  </si>
+  <si>
+    <t>CashName_sSpell4Gacha</t>
+  </si>
+  <si>
+    <t>Equip030001</t>
+  </si>
+  <si>
+    <t>Cash_sEquipTypeGacha411</t>
   </si>
   <si>
     <t>energy|Int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>free|Bool</t>
-  </si>
-  <si>
-    <t>rewardType1|String</t>
-  </si>
-  <si>
-    <t>rewardValue1|String</t>
-  </si>
-  <si>
-    <t>rewardCount1|Int</t>
-  </si>
-  <si>
-    <t>rewardType2|String</t>
-  </si>
-  <si>
-    <t>rewardValue2|String</t>
-  </si>
-  <si>
-    <t>rewardCount2|Int</t>
-  </si>
-  <si>
-    <t>rewardType3|String</t>
-  </si>
-  <si>
-    <t>rewardValue3|String</t>
-  </si>
-  <si>
-    <t>rewardCount3|Int</t>
-  </si>
-  <si>
-    <t>rewardType4|String</t>
-  </si>
-  <si>
-    <t>rewardValue4|String</t>
-  </si>
-  <si>
-    <t>rewardCount4|Int</t>
-  </si>
-  <si>
-    <t>rewardType5|String</t>
-  </si>
-  <si>
-    <t>rewardValue5|String</t>
-  </si>
-  <si>
-    <t>rewardCount5|Int</t>
-  </si>
-  <si>
-    <t>cu</t>
-  </si>
-  <si>
-    <t>EN</t>
-  </si>
-  <si>
-    <t>GO</t>
-  </si>
-  <si>
-    <t>it</t>
-  </si>
-  <si>
-    <t>Cash_bLevelPass</t>
-  </si>
-  <si>
-    <t>id|String</t>
-  </si>
-  <si>
-    <t>name|String</t>
-  </si>
-  <si>
-    <t>Cash_sBrokenEnergy</t>
-  </si>
-  <si>
-    <t>CashName_sBrokenEnergy</t>
-  </si>
-  <si>
-    <t>indexSub|Int</t>
-  </si>
-  <si>
-    <t>ev5_oneplustwo_1</t>
-  </si>
-  <si>
-    <t>ev5_oneplustwo_2</t>
-  </si>
-  <si>
-    <t>ev5_oneplustwo_3</t>
-  </si>
-  <si>
-    <t>ev3_oneofthree_1</t>
-  </si>
-  <si>
-    <t>ev3_oneofthree_2</t>
-  </si>
-  <si>
-    <t>ev3_oneofthree_3</t>
-  </si>
-  <si>
-    <t>ev4_conti_1</t>
-  </si>
-  <si>
-    <t>ev4_conti_2</t>
-  </si>
-  <si>
-    <t>ev4_conti_3</t>
-  </si>
-  <si>
-    <t>ev4_conti_4</t>
-  </si>
-  <si>
-    <t>key|Int</t>
-  </si>
-  <si>
-    <t>seventotalgroup1_1</t>
-  </si>
-  <si>
-    <t>seventotalgroup1_2</t>
-  </si>
-  <si>
-    <t>seventotalgroup1_3</t>
-  </si>
-  <si>
-    <t>seventotalgroup1_4</t>
-  </si>
-  <si>
-    <t>seventotalgroup2_1</t>
-  </si>
-  <si>
-    <t>seventotalgroup2_2</t>
-  </si>
-  <si>
-    <t>seventotalgroup2_3</t>
-  </si>
-  <si>
-    <t>seventotalgroup2_4</t>
-  </si>
-  <si>
-    <t>seventotalgroup3_1</t>
-  </si>
-  <si>
-    <t>seventotalgroup3_2</t>
-  </si>
-  <si>
-    <t>seventotalgroup3_3</t>
-  </si>
-  <si>
-    <t>seventotalgroup3_4</t>
-  </si>
-  <si>
-    <t>cashshopenergy_1</t>
-  </si>
-  <si>
-    <t>cashshopenergy_2</t>
-  </si>
-  <si>
-    <t>cashshopenergy_3</t>
-  </si>
-  <si>
-    <t>cashshopenergy_4</t>
-  </si>
-  <si>
-    <t>cashshopenergy_5</t>
-  </si>
-  <si>
-    <t>cashshopenergy_6</t>
-  </si>
-  <si>
-    <t>cashshopenergy_1_more</t>
-  </si>
-  <si>
-    <t>cashshopenergy_2_more</t>
-  </si>
-  <si>
-    <t>cashshopenergy_3_more</t>
-  </si>
-  <si>
-    <t>cashshopenergy_4_more</t>
-  </si>
-  <si>
-    <t>cashshopenergy_5_more</t>
-  </si>
-  <si>
-    <t>cashshopenergy_6_more</t>
-  </si>
-  <si>
-    <t>cashshopgold_1</t>
-  </si>
-  <si>
-    <t>cashshopgold_2</t>
-  </si>
-  <si>
-    <t>cashshopgold_3</t>
-  </si>
-  <si>
-    <t>cashshopgold_4</t>
-  </si>
-  <si>
-    <t>cashshopgold_5</t>
-  </si>
-  <si>
-    <t>cashshopgold_6</t>
-  </si>
-  <si>
-    <t>cashshopgold_1_more</t>
-  </si>
-  <si>
-    <t>cashshopgold_2_more</t>
-  </si>
-  <si>
-    <t>cashshopgold_3_more</t>
-  </si>
-  <si>
-    <t>cashshopgold_4_more</t>
-  </si>
-  <si>
-    <t>cashshopgold_5_more</t>
-  </si>
-  <si>
-    <t>cashshopgold_6_more</t>
-  </si>
-  <si>
-    <t>petsale_1</t>
-  </si>
-  <si>
-    <t>petsale_2</t>
-  </si>
-  <si>
-    <t>petsale_3</t>
-  </si>
-  <si>
-    <t>petsale_4</t>
-  </si>
-  <si>
-    <t>petsale_5</t>
-  </si>
-  <si>
-    <t>petcapture_better</t>
-  </si>
-  <si>
-    <t>petcapture_best</t>
-  </si>
-  <si>
-    <t>Cash_sPetSale</t>
-  </si>
-  <si>
-    <t>CashName_sPetSale</t>
-  </si>
-  <si>
-    <t>Cash_sFortuneWheel</t>
-  </si>
-  <si>
-    <t>CashName_sFortuneWheel</t>
-  </si>
-  <si>
-    <t>Item_cCaptureBetter</t>
-  </si>
-  <si>
-    <t>Item_cCaptureBest</t>
-  </si>
-  <si>
-    <t>stageclear_1</t>
-  </si>
-  <si>
-    <t>stageclear_2</t>
-  </si>
-  <si>
-    <t>stageclear_3</t>
-  </si>
-  <si>
-    <t>stageclear_5</t>
-  </si>
-  <si>
-    <t>stageclear_10</t>
-  </si>
-  <si>
-    <t>Item_cDailyGem</t>
-  </si>
-  <si>
-    <t>DI</t>
-  </si>
-  <si>
-    <t>relay_1</t>
-  </si>
-  <si>
-    <t>relay_2</t>
-  </si>
-  <si>
-    <t>relay_3</t>
-  </si>
-  <si>
-    <t>relay_4</t>
-  </si>
-  <si>
-    <t>relay_5</t>
-  </si>
-  <si>
-    <t>relay_6</t>
-  </si>
-  <si>
-    <t>relay_7</t>
-  </si>
-  <si>
-    <t>relay_8</t>
-  </si>
-  <si>
-    <t>relay_9</t>
-  </si>
-  <si>
-    <t>relay_10</t>
-  </si>
-  <si>
-    <t>levelpass</t>
-  </si>
-  <si>
-    <t>fortunewheel</t>
-  </si>
-  <si>
-    <t>ev1_bigboost</t>
-  </si>
-  <si>
-    <t>festivalgroup1_1</t>
-  </si>
-  <si>
-    <t>festivalgroup1_2</t>
-  </si>
-  <si>
-    <t>festivalgroup1_3</t>
-  </si>
-  <si>
-    <t>festivalgroup1_4</t>
-  </si>
-  <si>
-    <t>festivalgroup2_1</t>
-  </si>
-  <si>
-    <t>festivalgroup2_2</t>
-  </si>
-  <si>
-    <t>festivalgroup2_3</t>
-  </si>
-  <si>
-    <t>festivalgroup2_4</t>
-  </si>
-  <si>
-    <t>festivalgroup3_1</t>
-  </si>
-  <si>
-    <t>festivalgroup3_2</t>
-  </si>
-  <si>
-    <t>festivalgroup3_3</t>
-  </si>
-  <si>
-    <t>festivalgroup3_4</t>
-  </si>
-  <si>
-    <t>dailygem</t>
-  </si>
-  <si>
-    <t>Cash_sSevenTotal</t>
-  </si>
-  <si>
-    <t>Cash_sFestivalTotal</t>
-  </si>
-  <si>
-    <t>num|Int</t>
-  </si>
-  <si>
-    <t>stagecleared|Int</t>
-  </si>
-  <si>
-    <t>shopProductId|String</t>
-  </si>
-  <si>
-    <t>times|Int</t>
-  </si>
-  <si>
-    <t>ev2_almostthere</t>
-  </si>
-  <si>
-    <t>ev11_flashsale</t>
-  </si>
-  <si>
-    <t>ev12_nuclearsale</t>
-  </si>
-  <si>
-    <t>firstpurchase</t>
-  </si>
-  <si>
-    <t>Spell_0003</t>
-  </si>
-  <si>
-    <t>analysisboost_1</t>
-  </si>
-  <si>
-    <t>analysisboost_2</t>
-  </si>
-  <si>
-    <t>analysisboost_3</t>
-  </si>
-  <si>
-    <t>ev14_unacquiredspell</t>
-  </si>
-  <si>
-    <t>Cash_sAcquiredSpell</t>
-  </si>
-  <si>
-    <t>ev13_acquiredspell_0001</t>
-  </si>
-  <si>
-    <t>ev13_acquiredspell_0002</t>
-  </si>
-  <si>
-    <t>ev13_acquiredspell</t>
-  </si>
-  <si>
-    <t>spellId|String</t>
-  </si>
-  <si>
-    <t>count|Int</t>
-  </si>
-  <si>
-    <t>Spell_0019</t>
-  </si>
-  <si>
-    <t>Spell_0018</t>
-  </si>
-  <si>
-    <t>Spell_0001</t>
-  </si>
-  <si>
-    <t>Spell_0002</t>
-  </si>
-  <si>
-    <t>CashName_sAcquiredSpell</t>
-  </si>
-  <si>
-    <t>Cash_sUnacquiredSpell</t>
-  </si>
-  <si>
-    <t>CashName_sUnacquiredSpell</t>
-  </si>
-  <si>
-    <t>Cash_sAcquiredCompanion</t>
-  </si>
-  <si>
-    <t>CashName_sAcquiredCompanion</t>
-  </si>
-  <si>
-    <t>Cash_sAcquiredCompanionPp</t>
-  </si>
-  <si>
-    <t>CashName_sAcquiredCompanionPp</t>
-  </si>
-  <si>
-    <t>Cash_sUnacquiredCompanion</t>
-  </si>
-  <si>
-    <t>CashName_sUnacquiredCompanion</t>
-  </si>
-  <si>
-    <t>acquired|bool</t>
-  </si>
-  <si>
-    <t>ev13_unacquiredspell</t>
-  </si>
-  <si>
-    <t>ev14_acquiredspell_0001</t>
-  </si>
-  <si>
-    <t>ev14_acquiredspell_0002</t>
-  </si>
-  <si>
-    <t>ev14_acquiredspell</t>
-  </si>
-  <si>
-    <t>acquired|Int</t>
-  </si>
-  <si>
-    <t>actorId|String</t>
-  </si>
-  <si>
-    <t>Actor2238</t>
-  </si>
-  <si>
-    <t>ev15_unacquiredcompanion</t>
-  </si>
-  <si>
-    <t>Actor0240</t>
-  </si>
-  <si>
-    <t>Actor2103</t>
-  </si>
-  <si>
-    <t>ev16_acquiredcompanion</t>
-  </si>
-  <si>
-    <t>Actor2010</t>
-  </si>
-  <si>
-    <t>ev17_acquiredcompanionpp</t>
-  </si>
-  <si>
-    <t>Actor2011</t>
-  </si>
-  <si>
-    <t>level|Int</t>
-  </si>
-  <si>
-    <t>minEnergy|Int</t>
-  </si>
-  <si>
-    <t>maxEnergy|Int</t>
-  </si>
-  <si>
-    <t>brokenenergy_1</t>
-  </si>
-  <si>
-    <t>brokenenergy_2</t>
-  </si>
-  <si>
-    <t>brokenenergy_3</t>
-  </si>
-  <si>
-    <t>brokenenergy_4</t>
-  </si>
-  <si>
-    <t>brokenenergy_5</t>
-  </si>
-  <si>
-    <t>cashshopgem_1</t>
-  </si>
-  <si>
-    <t>cashshopgem_2</t>
-  </si>
-  <si>
-    <t>cashshopgem_3</t>
-  </si>
-  <si>
-    <t>cashshopgem_4</t>
-  </si>
-  <si>
-    <t>cashshopgem_5</t>
-  </si>
-  <si>
-    <t>cashshopgem_6</t>
-  </si>
-  <si>
-    <t>cashshopgem_1_more</t>
-  </si>
-  <si>
-    <t>cashshopgem_2_more</t>
-  </si>
-  <si>
-    <t>cashshopgem_3_more</t>
-  </si>
-  <si>
-    <t>cashshopgem_4_more</t>
-  </si>
-  <si>
-    <t>cashshopgem_5_more</t>
-  </si>
-  <si>
-    <t>cashshopgem_6_more</t>
-  </si>
-  <si>
-    <t>petpass</t>
-  </si>
-  <si>
-    <t>Cash_sPetPass</t>
-  </si>
-  <si>
-    <t>Cash_sAnalysisBoost</t>
-  </si>
-  <si>
-    <t>teampass</t>
-  </si>
-  <si>
-    <t>Cash_sTeamPass</t>
-  </si>
-  <si>
-    <t>productId|Int</t>
-  </si>
-  <si>
-    <t>index|Int</t>
-  </si>
-  <si>
-    <t>min|Int</t>
-  </si>
-  <si>
-    <t>max|Int</t>
-  </si>
-  <si>
-    <t>price|Int</t>
-  </si>
-  <si>
-    <t>accumulatedAtk|Int</t>
-  </si>
-  <si>
-    <t>requiredCount|Int</t>
-  </si>
-  <si>
-    <t>requiredAccumulatedCount|Int</t>
-  </si>
-  <si>
-    <t>type|Int</t>
-  </si>
-  <si>
-    <t>conValue|Int</t>
-  </si>
-  <si>
-    <t>freelevel_1</t>
-  </si>
-  <si>
-    <t>freelevel_2</t>
-  </si>
-  <si>
-    <t>freelevel_3</t>
-  </si>
-  <si>
-    <t>freestage_1</t>
-  </si>
-  <si>
-    <t>freestage_2</t>
-  </si>
-  <si>
-    <t>freestage_3</t>
-  </si>
-  <si>
-    <t>freestage_4</t>
-  </si>
-  <si>
-    <t>RelayAtk_01</t>
-  </si>
-  <si>
-    <t>RelayAtk_02</t>
-  </si>
-  <si>
-    <t>RelayAtk_03</t>
-  </si>
-  <si>
-    <t>RelayAtk_04</t>
-  </si>
-  <si>
-    <t>RelayAtk_05</t>
-  </si>
-  <si>
-    <t>RelayAtk_06</t>
-  </si>
-  <si>
-    <t>RelayAtk_07</t>
-  </si>
-  <si>
-    <t>RelayAtk_08</t>
-  </si>
-  <si>
-    <t>RelayAtk_09</t>
-  </si>
-  <si>
-    <t>RelayAtk_10</t>
-  </si>
-  <si>
-    <t>FreeLevelAtk_01</t>
-  </si>
-  <si>
-    <t>FreeLevelAtk_02</t>
-  </si>
-  <si>
-    <t>FreeLevelAtk_03</t>
-  </si>
-  <si>
-    <t>FreeStageAtk_01</t>
-  </si>
-  <si>
-    <t>FreeStageAtk_02</t>
-  </si>
-  <si>
-    <t>FreeStageAtk_03</t>
-  </si>
-  <si>
-    <t>FreeStageAtk_04</t>
-  </si>
-  <si>
-    <t>Cash_sSpellGacha</t>
-  </si>
-  <si>
-    <t>CashName_sSpellGacha</t>
-  </si>
-  <si>
-    <t>Cash_sSpell4Gacha</t>
-  </si>
-  <si>
-    <t>CashName_sSpell4Gacha</t>
-  </si>
-  <si>
-    <t>Equip030001</t>
-  </si>
-  <si>
-    <t>Cash_sEquipTypeGacha411</t>
   </si>
 </sst>
 </file>
@@ -1142,7 +1137,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED115DDC-E095-4A60-B3EA-80FAE0A4BDBC}">
   <dimension ref="A1:W125"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="K86" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -1168,13 +1163,13 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E1" t="s">
         <v>1</v>
@@ -1186,57 +1181,57 @@
         <v>3</v>
       </c>
       <c r="H1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="I1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>9</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>10</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
         <v>11</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
         <v>12</v>
       </c>
-      <c r="O1" t="s">
+      <c r="Q1" t="s">
         <v>13</v>
       </c>
-      <c r="P1" t="s">
+      <c r="R1" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="S1" t="s">
         <v>15</v>
       </c>
-      <c r="R1" t="s">
+      <c r="T1" t="s">
         <v>16</v>
       </c>
-      <c r="S1" t="s">
+      <c r="U1" t="s">
         <v>17</v>
       </c>
-      <c r="T1" t="s">
+      <c r="V1" t="s">
         <v>18</v>
       </c>
-      <c r="U1" t="s">
+      <c r="W1" t="s">
         <v>19</v>
-      </c>
-      <c r="V1" t="s">
-        <v>20</v>
-      </c>
-      <c r="W1" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C2" t="b">
         <v>0</v>
@@ -1248,16 +1243,16 @@
         <v>15000</v>
       </c>
       <c r="G2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="H2">
         <v>744</v>
       </c>
       <c r="I2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -1265,7 +1260,7 @@
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C3" t="b">
         <v>0</v>
@@ -1277,16 +1272,16 @@
         <v>1100</v>
       </c>
       <c r="G3" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="H3">
         <v>493</v>
       </c>
       <c r="I3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -1294,7 +1289,7 @@
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C4" t="b">
         <v>0</v>
@@ -1306,16 +1301,16 @@
         <v>3000</v>
       </c>
       <c r="G4" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="H4">
         <v>585</v>
       </c>
       <c r="I4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -1323,7 +1318,7 @@
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C5" t="b">
         <v>0</v>
@@ -1335,16 +1330,16 @@
         <v>6000</v>
       </c>
       <c r="G5" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="H5">
         <v>752</v>
       </c>
       <c r="I5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -1352,7 +1347,7 @@
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C6" t="b">
         <v>0</v>
@@ -1364,16 +1359,16 @@
         <v>8800</v>
       </c>
       <c r="G6" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="H6">
         <v>529</v>
       </c>
       <c r="I6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -1381,7 +1376,7 @@
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C7" t="b">
         <v>0</v>
@@ -1393,16 +1388,16 @@
         <v>15000</v>
       </c>
       <c r="G7" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="H7">
         <v>743</v>
       </c>
       <c r="I7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J7" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="K7">
         <v>1</v>
@@ -1410,7 +1405,7 @@
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C8" t="b">
         <v>0</v>
@@ -1422,25 +1417,25 @@
         <v>3000</v>
       </c>
       <c r="G8" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="H8">
         <v>234</v>
       </c>
       <c r="I8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="J8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K8">
         <v>600</v>
       </c>
       <c r="L8" t="s">
+        <v>20</v>
+      </c>
+      <c r="M8" t="s">
         <v>22</v>
-      </c>
-      <c r="M8" t="s">
-        <v>24</v>
       </c>
       <c r="N8">
         <v>50000</v>
@@ -1448,7 +1443,7 @@
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C9" t="b">
         <v>0</v>
@@ -1460,25 +1455,25 @@
         <v>7500</v>
       </c>
       <c r="G9" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="H9">
         <v>125</v>
       </c>
       <c r="I9" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="J9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K9">
         <v>500</v>
       </c>
       <c r="L9" t="s">
+        <v>20</v>
+      </c>
+      <c r="M9" t="s">
         <v>22</v>
-      </c>
-      <c r="M9" t="s">
-        <v>24</v>
       </c>
       <c r="N9">
         <v>40000</v>
@@ -1486,7 +1481,7 @@
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C10" t="b">
         <v>0</v>
@@ -1498,34 +1493,34 @@
         <v>9900</v>
       </c>
       <c r="G10" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H10">
         <v>348</v>
       </c>
       <c r="I10" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="J10" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K10">
         <v>30</v>
       </c>
       <c r="L10" t="s">
+        <v>20</v>
+      </c>
+      <c r="M10" t="s">
         <v>22</v>
-      </c>
-      <c r="M10" t="s">
-        <v>24</v>
       </c>
       <c r="N10">
         <v>25000</v>
       </c>
       <c r="O10" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="P10" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Q10">
         <v>100</v>
@@ -1533,7 +1528,7 @@
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C11" t="b">
         <v>0</v>
@@ -1545,34 +1540,34 @@
         <v>19000</v>
       </c>
       <c r="G11" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H11">
         <v>431</v>
       </c>
       <c r="I11" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="J11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K11">
         <v>60</v>
       </c>
       <c r="L11" t="s">
+        <v>20</v>
+      </c>
+      <c r="M11" t="s">
         <v>22</v>
-      </c>
-      <c r="M11" t="s">
-        <v>24</v>
       </c>
       <c r="N11">
         <v>15000</v>
       </c>
       <c r="O11" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="P11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Q11">
         <v>120</v>
@@ -1580,7 +1575,7 @@
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C12" t="b">
         <v>0</v>
@@ -1592,43 +1587,43 @@
         <v>45000</v>
       </c>
       <c r="G12" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H12">
         <v>969</v>
       </c>
       <c r="I12" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="J12" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K12">
         <v>90</v>
       </c>
       <c r="L12" t="s">
+        <v>20</v>
+      </c>
+      <c r="M12" t="s">
         <v>22</v>
-      </c>
-      <c r="M12" t="s">
-        <v>24</v>
       </c>
       <c r="N12">
         <v>30000</v>
       </c>
       <c r="O12" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="P12" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Q12">
         <v>150</v>
       </c>
       <c r="R12" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="S12" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="T12">
         <v>300</v>
@@ -1636,7 +1631,7 @@
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B13">
         <v>1</v>
@@ -1648,28 +1643,28 @@
         <v>987</v>
       </c>
       <c r="I13" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="J13" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K13">
         <v>80</v>
       </c>
       <c r="L13" t="s">
+        <v>20</v>
+      </c>
+      <c r="M13" t="s">
         <v>22</v>
-      </c>
-      <c r="M13" t="s">
-        <v>24</v>
       </c>
       <c r="N13">
         <v>35000</v>
       </c>
       <c r="O13" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="P13" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Q13">
         <v>170</v>
@@ -1677,7 +1672,7 @@
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B14">
         <v>2</v>
@@ -1689,10 +1684,10 @@
         <v>261</v>
       </c>
       <c r="I14" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="J14" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K14">
         <v>150</v>
@@ -1700,7 +1695,7 @@
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B15">
         <v>3</v>
@@ -1715,43 +1710,43 @@
         <v>2500</v>
       </c>
       <c r="G15" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H15">
         <v>390</v>
       </c>
       <c r="I15" t="s">
+        <v>20</v>
+      </c>
+      <c r="J15" t="s">
         <v>22</v>
-      </c>
-      <c r="J15" t="s">
-        <v>24</v>
       </c>
       <c r="K15">
         <v>20000</v>
       </c>
       <c r="L15" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="M15" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="N15">
         <v>150</v>
       </c>
       <c r="O15" t="s">
+        <v>20</v>
+      </c>
+      <c r="P15" t="s">
         <v>22</v>
-      </c>
-      <c r="P15" t="s">
-        <v>24</v>
       </c>
       <c r="Q15">
         <v>35000</v>
       </c>
       <c r="R15" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="S15" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="T15">
         <v>200</v>
@@ -1759,7 +1754,7 @@
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B16">
         <v>4</v>
@@ -1771,19 +1766,19 @@
         <v>997</v>
       </c>
       <c r="I16" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="J16" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K16">
         <v>150</v>
       </c>
       <c r="L16" t="s">
+        <v>20</v>
+      </c>
+      <c r="M16" t="s">
         <v>22</v>
-      </c>
-      <c r="M16" t="s">
-        <v>24</v>
       </c>
       <c r="N16">
         <v>20000</v>
@@ -1791,7 +1786,7 @@
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B17">
         <v>1</v>
@@ -1806,43 +1801,43 @@
         <v>25000</v>
       </c>
       <c r="G17" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H17">
         <v>384</v>
       </c>
       <c r="I17" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="J17" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K17">
         <v>350</v>
       </c>
       <c r="L17" t="s">
+        <v>20</v>
+      </c>
+      <c r="M17" t="s">
         <v>22</v>
-      </c>
-      <c r="M17" t="s">
-        <v>24</v>
       </c>
       <c r="N17">
         <v>80000</v>
       </c>
       <c r="O17" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="P17" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Q17">
         <v>800</v>
       </c>
       <c r="R17" t="s">
+        <v>20</v>
+      </c>
+      <c r="S17" t="s">
         <v>22</v>
-      </c>
-      <c r="S17" t="s">
-        <v>24</v>
       </c>
       <c r="T17">
         <v>100000</v>
@@ -1850,7 +1845,7 @@
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B18">
         <v>2</v>
@@ -1862,28 +1857,28 @@
         <v>619</v>
       </c>
       <c r="I18" t="s">
+        <v>20</v>
+      </c>
+      <c r="J18" t="s">
         <v>22</v>
-      </c>
-      <c r="J18" t="s">
-        <v>24</v>
       </c>
       <c r="K18">
         <v>50000</v>
       </c>
       <c r="L18" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="M18" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="N18">
         <v>500</v>
       </c>
       <c r="O18" t="s">
+        <v>20</v>
+      </c>
+      <c r="P18" t="s">
         <v>22</v>
-      </c>
-      <c r="P18" t="s">
-        <v>24</v>
       </c>
       <c r="Q18">
         <v>70000</v>
@@ -1891,7 +1886,7 @@
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B19">
         <v>3</v>
@@ -1903,37 +1898,37 @@
         <v>150</v>
       </c>
       <c r="I19" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="J19" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K19">
         <v>450</v>
       </c>
       <c r="L19" t="s">
+        <v>20</v>
+      </c>
+      <c r="M19" t="s">
         <v>22</v>
-      </c>
-      <c r="M19" t="s">
-        <v>24</v>
       </c>
       <c r="N19">
         <v>60000</v>
       </c>
       <c r="O19" t="s">
+        <v>20</v>
+      </c>
+      <c r="P19" t="s">
         <v>22</v>
-      </c>
-      <c r="P19" t="s">
-        <v>24</v>
       </c>
       <c r="Q19">
         <v>90000</v>
       </c>
       <c r="R19" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="S19" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="T19">
         <v>650</v>
@@ -1941,7 +1936,7 @@
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C20" t="b">
         <v>0</v>
@@ -1953,25 +1948,25 @@
         <v>19000</v>
       </c>
       <c r="G20" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="H20">
         <v>682</v>
       </c>
       <c r="I20" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="J20" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K20">
         <v>700</v>
       </c>
       <c r="L20" t="s">
+        <v>20</v>
+      </c>
+      <c r="M20" t="s">
         <v>22</v>
-      </c>
-      <c r="M20" t="s">
-        <v>24</v>
       </c>
       <c r="N20">
         <v>50000</v>
@@ -1979,7 +1974,7 @@
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C21" t="b">
         <v>0</v>
@@ -1991,25 +1986,25 @@
         <v>45000</v>
       </c>
       <c r="G21" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="H21">
         <v>601</v>
       </c>
       <c r="I21" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="J21" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K21">
         <v>800</v>
       </c>
       <c r="L21" t="s">
+        <v>20</v>
+      </c>
+      <c r="M21" t="s">
         <v>22</v>
-      </c>
-      <c r="M21" t="s">
-        <v>24</v>
       </c>
       <c r="N21">
         <v>30000</v>
@@ -2017,7 +2012,7 @@
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C22" t="b">
         <v>0</v>
@@ -2029,16 +2024,16 @@
         <v>1100</v>
       </c>
       <c r="G22" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="H22">
         <v>797</v>
       </c>
       <c r="I22" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J22" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="K22">
         <v>1</v>
@@ -2046,7 +2041,7 @@
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C23" t="b">
         <v>1</v>
@@ -2055,28 +2050,28 @@
         <v>658</v>
       </c>
       <c r="I23" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J23" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="K23">
         <v>1</v>
       </c>
       <c r="L23" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="M23" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="N23">
         <v>150</v>
       </c>
       <c r="O23" t="s">
+        <v>20</v>
+      </c>
+      <c r="P23" t="s">
         <v>22</v>
-      </c>
-      <c r="P23" t="s">
-        <v>24</v>
       </c>
       <c r="Q23">
         <v>100000</v>
@@ -2084,7 +2079,7 @@
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C24" t="b">
         <v>0</v>
@@ -2096,34 +2091,34 @@
         <v>7500</v>
       </c>
       <c r="G24" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H24">
         <v>386</v>
       </c>
       <c r="I24" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="J24" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K24">
         <v>100</v>
       </c>
       <c r="L24" t="s">
+        <v>20</v>
+      </c>
+      <c r="M24" t="s">
+        <v>21</v>
+      </c>
+      <c r="N24">
+        <v>50</v>
+      </c>
+      <c r="O24" t="s">
+        <v>20</v>
+      </c>
+      <c r="P24" t="s">
         <v>22</v>
-      </c>
-      <c r="M24" t="s">
-        <v>23</v>
-      </c>
-      <c r="N24">
-        <v>50</v>
-      </c>
-      <c r="O24" t="s">
-        <v>22</v>
-      </c>
-      <c r="P24" t="s">
-        <v>24</v>
       </c>
       <c r="Q24">
         <v>10000</v>
@@ -2131,7 +2126,7 @@
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C25" t="b">
         <v>0</v>
@@ -2143,34 +2138,34 @@
         <v>15000</v>
       </c>
       <c r="G25" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H25">
         <v>582</v>
       </c>
       <c r="I25" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J25" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="K25">
         <v>75</v>
       </c>
       <c r="L25" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="M25" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="N25">
         <v>75</v>
       </c>
       <c r="O25" t="s">
+        <v>20</v>
+      </c>
+      <c r="P25" t="s">
         <v>22</v>
-      </c>
-      <c r="P25" t="s">
-        <v>24</v>
       </c>
       <c r="Q25">
         <v>20000</v>
@@ -2178,7 +2173,7 @@
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C26" t="b">
         <v>0</v>
@@ -2190,34 +2185,34 @@
         <v>30000</v>
       </c>
       <c r="G26" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H26">
         <v>538</v>
       </c>
       <c r="I26" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="J26" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K26">
         <v>300</v>
       </c>
       <c r="L26" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="M26" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="N26">
         <v>100</v>
       </c>
       <c r="O26" t="s">
+        <v>20</v>
+      </c>
+      <c r="P26" t="s">
         <v>22</v>
-      </c>
-      <c r="P26" t="s">
-        <v>24</v>
       </c>
       <c r="Q26">
         <v>40000</v>
@@ -2225,7 +2220,7 @@
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C27" t="b">
         <v>0</v>
@@ -2237,34 +2232,34 @@
         <v>45000</v>
       </c>
       <c r="G27" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H27">
         <v>620</v>
       </c>
       <c r="I27" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J27" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="K27">
         <v>200</v>
       </c>
       <c r="L27" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="M27" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="N27">
         <v>500</v>
       </c>
       <c r="O27" t="s">
+        <v>20</v>
+      </c>
+      <c r="P27" t="s">
         <v>22</v>
-      </c>
-      <c r="P27" t="s">
-        <v>24</v>
       </c>
       <c r="Q27">
         <v>60000</v>
@@ -2272,7 +2267,7 @@
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C28" t="b">
         <v>0</v>
@@ -2284,34 +2279,34 @@
         <v>9900</v>
       </c>
       <c r="G28" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H28">
         <v>474</v>
       </c>
       <c r="I28" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="J28" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K28">
         <v>100</v>
       </c>
       <c r="L28" t="s">
+        <v>20</v>
+      </c>
+      <c r="M28" t="s">
+        <v>21</v>
+      </c>
+      <c r="N28">
+        <v>50</v>
+      </c>
+      <c r="O28" t="s">
+        <v>20</v>
+      </c>
+      <c r="P28" t="s">
         <v>22</v>
-      </c>
-      <c r="M28" t="s">
-        <v>23</v>
-      </c>
-      <c r="N28">
-        <v>50</v>
-      </c>
-      <c r="O28" t="s">
-        <v>22</v>
-      </c>
-      <c r="P28" t="s">
-        <v>24</v>
       </c>
       <c r="Q28">
         <v>10000</v>
@@ -2319,7 +2314,7 @@
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C29" t="b">
         <v>0</v>
@@ -2331,34 +2326,34 @@
         <v>29000</v>
       </c>
       <c r="G29" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H29">
         <v>244</v>
       </c>
       <c r="I29" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J29" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="K29">
         <v>400</v>
       </c>
       <c r="L29" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="M29" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="N29">
         <v>75</v>
       </c>
       <c r="O29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P29" t="s">
         <v>22</v>
-      </c>
-      <c r="P29" t="s">
-        <v>24</v>
       </c>
       <c r="Q29">
         <v>20000</v>
@@ -2366,7 +2361,7 @@
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C30" t="b">
         <v>0</v>
@@ -2378,34 +2373,34 @@
         <v>45000</v>
       </c>
       <c r="G30" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="H30">
         <v>944</v>
       </c>
       <c r="I30" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="J30" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K30">
         <v>300</v>
       </c>
       <c r="L30" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="M30" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="N30">
         <v>100</v>
       </c>
       <c r="O30" t="s">
+        <v>20</v>
+      </c>
+      <c r="P30" t="s">
         <v>22</v>
-      </c>
-      <c r="P30" t="s">
-        <v>24</v>
       </c>
       <c r="Q30">
         <v>40000</v>
@@ -2413,7 +2408,7 @@
     </row>
     <row r="31" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C31" t="b">
         <v>0</v>
@@ -2425,34 +2420,34 @@
         <v>99000</v>
       </c>
       <c r="G31" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H31">
         <v>383</v>
       </c>
       <c r="I31" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J31" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="K31">
         <v>1200</v>
       </c>
       <c r="L31" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="M31" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="N31">
         <v>500</v>
       </c>
       <c r="O31" t="s">
+        <v>20</v>
+      </c>
+      <c r="P31" t="s">
         <v>22</v>
-      </c>
-      <c r="P31" t="s">
-        <v>24</v>
       </c>
       <c r="Q31">
         <v>60000</v>
@@ -2460,7 +2455,7 @@
     </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C32" t="b">
         <v>0</v>
@@ -2472,34 +2467,34 @@
         <v>15000</v>
       </c>
       <c r="G32" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H32">
         <v>545</v>
       </c>
       <c r="I32" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="J32" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K32">
         <v>100</v>
       </c>
       <c r="L32" t="s">
+        <v>20</v>
+      </c>
+      <c r="M32" t="s">
+        <v>21</v>
+      </c>
+      <c r="N32">
+        <v>50</v>
+      </c>
+      <c r="O32" t="s">
+        <v>20</v>
+      </c>
+      <c r="P32" t="s">
         <v>22</v>
-      </c>
-      <c r="M32" t="s">
-        <v>23</v>
-      </c>
-      <c r="N32">
-        <v>50</v>
-      </c>
-      <c r="O32" t="s">
-        <v>22</v>
-      </c>
-      <c r="P32" t="s">
-        <v>24</v>
       </c>
       <c r="Q32">
         <v>10000</v>
@@ -2507,7 +2502,7 @@
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C33" t="b">
         <v>0</v>
@@ -2519,34 +2514,34 @@
         <v>45000</v>
       </c>
       <c r="G33" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="H33">
         <v>231</v>
       </c>
       <c r="I33" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J33" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="K33">
         <v>300</v>
       </c>
       <c r="L33" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="M33" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="N33">
         <v>75</v>
       </c>
       <c r="O33" t="s">
+        <v>20</v>
+      </c>
+      <c r="P33" t="s">
         <v>22</v>
-      </c>
-      <c r="P33" t="s">
-        <v>24</v>
       </c>
       <c r="Q33">
         <v>20000</v>
@@ -2554,7 +2549,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C34" t="b">
         <v>0</v>
@@ -2566,34 +2561,34 @@
         <v>99000</v>
       </c>
       <c r="G34" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H34">
         <v>654</v>
       </c>
       <c r="I34" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="J34" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K34">
         <v>300</v>
       </c>
       <c r="L34" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="M34" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="N34">
         <v>100</v>
       </c>
       <c r="O34" t="s">
+        <v>20</v>
+      </c>
+      <c r="P34" t="s">
         <v>22</v>
-      </c>
-      <c r="P34" t="s">
-        <v>24</v>
       </c>
       <c r="Q34">
         <v>40000</v>
@@ -2601,7 +2596,7 @@
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C35" t="b">
         <v>0</v>
@@ -2613,34 +2608,34 @@
         <v>149000</v>
       </c>
       <c r="G35" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H35">
         <v>279</v>
       </c>
       <c r="I35" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J35" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="K35">
         <v>1000</v>
       </c>
       <c r="L35" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="M35" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="N35">
         <v>500</v>
       </c>
       <c r="O35" t="s">
+        <v>20</v>
+      </c>
+      <c r="P35" t="s">
         <v>22</v>
-      </c>
-      <c r="P35" t="s">
-        <v>24</v>
       </c>
       <c r="Q35">
         <v>60000</v>
@@ -2648,7 +2643,7 @@
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C36" t="b">
         <v>0</v>
@@ -2660,34 +2655,34 @@
         <v>9900</v>
       </c>
       <c r="G36" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="H36">
         <v>359</v>
       </c>
       <c r="I36" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J36" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="K36">
         <v>500</v>
       </c>
       <c r="L36" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="M36" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="N36">
         <v>75</v>
       </c>
       <c r="O36" t="s">
+        <v>20</v>
+      </c>
+      <c r="P36" t="s">
         <v>22</v>
-      </c>
-      <c r="P36" t="s">
-        <v>24</v>
       </c>
       <c r="Q36">
         <v>20000</v>
@@ -2695,7 +2690,7 @@
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C37" t="b">
         <v>0</v>
@@ -2707,34 +2702,34 @@
         <v>29000</v>
       </c>
       <c r="G37" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="H37">
         <v>881</v>
       </c>
       <c r="I37" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="J37" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K37">
         <v>300</v>
       </c>
       <c r="L37" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="M37" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="N37">
         <v>100</v>
       </c>
       <c r="O37" t="s">
+        <v>20</v>
+      </c>
+      <c r="P37" t="s">
         <v>22</v>
-      </c>
-      <c r="P37" t="s">
-        <v>24</v>
       </c>
       <c r="Q37">
         <v>40000</v>
@@ -2742,7 +2737,7 @@
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C38" t="b">
         <v>0</v>
@@ -2754,34 +2749,34 @@
         <v>45000</v>
       </c>
       <c r="G38" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="H38">
         <v>108</v>
       </c>
       <c r="I38" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J38" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="K38">
         <v>1500</v>
       </c>
       <c r="L38" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="M38" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="N38">
         <v>500</v>
       </c>
       <c r="O38" t="s">
+        <v>20</v>
+      </c>
+      <c r="P38" t="s">
         <v>22</v>
-      </c>
-      <c r="P38" t="s">
-        <v>24</v>
       </c>
       <c r="Q38">
         <v>60000</v>
@@ -2789,7 +2784,7 @@
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C39" t="b">
         <v>0</v>
@@ -2801,34 +2796,34 @@
         <v>99000</v>
       </c>
       <c r="G39" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="H39">
         <v>550</v>
       </c>
       <c r="I39" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="J39" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K39">
         <v>100</v>
       </c>
       <c r="L39" t="s">
+        <v>20</v>
+      </c>
+      <c r="M39" t="s">
+        <v>21</v>
+      </c>
+      <c r="N39">
+        <v>50</v>
+      </c>
+      <c r="O39" t="s">
+        <v>20</v>
+      </c>
+      <c r="P39" t="s">
         <v>22</v>
-      </c>
-      <c r="M39" t="s">
-        <v>23</v>
-      </c>
-      <c r="N39">
-        <v>50</v>
-      </c>
-      <c r="O39" t="s">
-        <v>22</v>
-      </c>
-      <c r="P39" t="s">
-        <v>24</v>
       </c>
       <c r="Q39">
         <v>10000</v>
@@ -2836,7 +2831,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C40" t="b">
         <v>0</v>
@@ -2848,34 +2843,34 @@
         <v>9900</v>
       </c>
       <c r="G40" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="H40">
         <v>397</v>
       </c>
       <c r="I40" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J40" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="K40">
         <v>500</v>
       </c>
       <c r="L40" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="M40" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="N40">
         <v>75</v>
       </c>
       <c r="O40" t="s">
+        <v>20</v>
+      </c>
+      <c r="P40" t="s">
         <v>22</v>
-      </c>
-      <c r="P40" t="s">
-        <v>24</v>
       </c>
       <c r="Q40">
         <v>20000</v>
@@ -2883,7 +2878,7 @@
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C41" t="b">
         <v>0</v>
@@ -2895,34 +2890,34 @@
         <v>29000</v>
       </c>
       <c r="G41" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="H41">
         <v>401</v>
       </c>
       <c r="I41" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="J41" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K41">
         <v>300</v>
       </c>
       <c r="L41" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="M41" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="N41">
         <v>100</v>
       </c>
       <c r="O41" t="s">
+        <v>20</v>
+      </c>
+      <c r="P41" t="s">
         <v>22</v>
-      </c>
-      <c r="P41" t="s">
-        <v>24</v>
       </c>
       <c r="Q41">
         <v>40000</v>
@@ -2930,7 +2925,7 @@
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C42" t="b">
         <v>0</v>
@@ -2942,34 +2937,34 @@
         <v>45000</v>
       </c>
       <c r="G42" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="H42">
         <v>177</v>
       </c>
       <c r="I42" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J42" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="K42">
         <v>1500</v>
       </c>
       <c r="L42" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="M42" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="N42">
         <v>500</v>
       </c>
       <c r="O42" t="s">
+        <v>20</v>
+      </c>
+      <c r="P42" t="s">
         <v>22</v>
-      </c>
-      <c r="P42" t="s">
-        <v>24</v>
       </c>
       <c r="Q42">
         <v>60000</v>
@@ -2977,7 +2972,7 @@
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C43" t="b">
         <v>0</v>
@@ -2989,34 +2984,34 @@
         <v>99000</v>
       </c>
       <c r="G43" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="H43">
         <v>506</v>
       </c>
       <c r="I43" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="J43" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K43">
         <v>100</v>
       </c>
       <c r="L43" t="s">
+        <v>20</v>
+      </c>
+      <c r="M43" t="s">
+        <v>21</v>
+      </c>
+      <c r="N43">
+        <v>50</v>
+      </c>
+      <c r="O43" t="s">
+        <v>20</v>
+      </c>
+      <c r="P43" t="s">
         <v>22</v>
-      </c>
-      <c r="M43" t="s">
-        <v>23</v>
-      </c>
-      <c r="N43">
-        <v>50</v>
-      </c>
-      <c r="O43" t="s">
-        <v>22</v>
-      </c>
-      <c r="P43" t="s">
-        <v>24</v>
       </c>
       <c r="Q43">
         <v>10000</v>
@@ -3024,7 +3019,7 @@
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C44" t="b">
         <v>0</v>
@@ -3036,34 +3031,34 @@
         <v>15000</v>
       </c>
       <c r="G44" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="H44">
         <v>741</v>
       </c>
       <c r="I44" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J44" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="K44">
         <v>500</v>
       </c>
       <c r="L44" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="M44" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="N44">
         <v>75</v>
       </c>
       <c r="O44" t="s">
+        <v>20</v>
+      </c>
+      <c r="P44" t="s">
         <v>22</v>
-      </c>
-      <c r="P44" t="s">
-        <v>24</v>
       </c>
       <c r="Q44">
         <v>20000</v>
@@ -3071,7 +3066,7 @@
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C45" t="b">
         <v>0</v>
@@ -3083,34 +3078,34 @@
         <v>45000</v>
       </c>
       <c r="G45" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="H45">
         <v>578</v>
       </c>
       <c r="I45" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="J45" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K45">
         <v>300</v>
       </c>
       <c r="L45" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="M45" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="N45">
         <v>100</v>
       </c>
       <c r="O45" t="s">
+        <v>20</v>
+      </c>
+      <c r="P45" t="s">
         <v>22</v>
-      </c>
-      <c r="P45" t="s">
-        <v>24</v>
       </c>
       <c r="Q45">
         <v>40000</v>
@@ -3118,7 +3113,7 @@
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C46" t="b">
         <v>0</v>
@@ -3130,34 +3125,34 @@
         <v>99000</v>
       </c>
       <c r="G46" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="H46">
         <v>106</v>
       </c>
       <c r="I46" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J46" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="K46">
         <v>1500</v>
       </c>
       <c r="L46" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="M46" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="N46">
         <v>500</v>
       </c>
       <c r="O46" t="s">
+        <v>20</v>
+      </c>
+      <c r="P46" t="s">
         <v>22</v>
-      </c>
-      <c r="P46" t="s">
-        <v>24</v>
       </c>
       <c r="Q46">
         <v>60000</v>
@@ -3165,7 +3160,7 @@
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C47" t="b">
         <v>0</v>
@@ -3177,34 +3172,34 @@
         <v>149000</v>
       </c>
       <c r="G47" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="H47">
         <v>440</v>
       </c>
       <c r="I47" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="J47" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K47">
         <v>100</v>
       </c>
       <c r="L47" t="s">
+        <v>20</v>
+      </c>
+      <c r="M47" t="s">
+        <v>21</v>
+      </c>
+      <c r="N47">
+        <v>50</v>
+      </c>
+      <c r="O47" t="s">
+        <v>20</v>
+      </c>
+      <c r="P47" t="s">
         <v>22</v>
-      </c>
-      <c r="M47" t="s">
-        <v>23</v>
-      </c>
-      <c r="N47">
-        <v>50</v>
-      </c>
-      <c r="O47" t="s">
-        <v>22</v>
-      </c>
-      <c r="P47" t="s">
-        <v>24</v>
       </c>
       <c r="Q47">
         <v>10000</v>
@@ -3212,7 +3207,7 @@
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C48" t="b">
         <v>0</v>
@@ -3224,16 +3219,16 @@
         <v>1100</v>
       </c>
       <c r="G48" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="H48">
         <v>713</v>
       </c>
       <c r="I48" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="J48" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K48">
         <v>30</v>
@@ -3241,7 +3236,7 @@
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C49" t="b">
         <v>0</v>
@@ -3253,16 +3248,16 @@
         <v>6000</v>
       </c>
       <c r="G49" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H49">
         <v>794</v>
       </c>
       <c r="I49" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="J49" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K49">
         <v>90</v>
@@ -3270,7 +3265,7 @@
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C50" t="b">
         <v>0</v>
@@ -3282,16 +3277,16 @@
         <v>12000</v>
       </c>
       <c r="G50" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H50">
         <v>121</v>
       </c>
       <c r="I50" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="J50" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K50">
         <v>260</v>
@@ -3299,7 +3294,7 @@
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C51" t="b">
         <v>0</v>
@@ -3311,16 +3306,16 @@
         <v>29000</v>
       </c>
       <c r="G51" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H51">
         <v>114</v>
       </c>
       <c r="I51" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="J51" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K51">
         <v>525</v>
@@ -3328,7 +3323,7 @@
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C52" t="b">
         <v>0</v>
@@ -3340,16 +3335,16 @@
         <v>45000</v>
       </c>
       <c r="G52" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H52">
         <v>950</v>
       </c>
       <c r="I52" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="J52" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K52">
         <v>1600</v>
@@ -3357,7 +3352,7 @@
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C53" t="b">
         <v>0</v>
@@ -3369,16 +3364,16 @@
         <v>99000</v>
       </c>
       <c r="G53" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H53">
         <v>490</v>
       </c>
       <c r="I53" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="J53" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K53">
         <v>3600</v>
@@ -3386,7 +3381,7 @@
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C54" t="b">
         <v>0</v>
@@ -3398,16 +3393,16 @@
         <v>1100</v>
       </c>
       <c r="G54" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H54">
         <v>338</v>
       </c>
       <c r="I54" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="J54" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K54">
         <v>90</v>
@@ -3415,7 +3410,7 @@
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C55" t="b">
         <v>0</v>
@@ -3427,16 +3422,16 @@
         <v>6000</v>
       </c>
       <c r="G55" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H55">
         <v>215</v>
       </c>
       <c r="I55" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="J55" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K55">
         <v>270</v>
@@ -3444,7 +3439,7 @@
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C56" t="b">
         <v>0</v>
@@ -3456,16 +3451,16 @@
         <v>12000</v>
       </c>
       <c r="G56" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H56">
         <v>674</v>
       </c>
       <c r="I56" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="J56" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K56">
         <v>780</v>
@@ -3473,7 +3468,7 @@
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C57" t="b">
         <v>0</v>
@@ -3485,16 +3480,16 @@
         <v>29000</v>
       </c>
       <c r="G57" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H57">
         <v>145</v>
       </c>
       <c r="I57" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="J57" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K57">
         <v>1575</v>
@@ -3502,7 +3497,7 @@
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C58" t="b">
         <v>0</v>
@@ -3514,16 +3509,16 @@
         <v>45000</v>
       </c>
       <c r="G58" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H58">
         <v>858</v>
       </c>
       <c r="I58" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="J58" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K58">
         <v>4800</v>
@@ -3531,7 +3526,7 @@
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C59" t="b">
         <v>0</v>
@@ -3543,16 +3538,16 @@
         <v>99000</v>
       </c>
       <c r="G59" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="H59">
         <v>173</v>
       </c>
       <c r="I59" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="J59" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K59">
         <v>10800</v>
@@ -3560,7 +3555,7 @@
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C60" t="b">
         <v>0</v>
@@ -3572,16 +3567,16 @@
         <v>1100</v>
       </c>
       <c r="G60" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="H60">
         <v>201</v>
       </c>
       <c r="I60" t="s">
+        <v>20</v>
+      </c>
+      <c r="J60" t="s">
         <v>22</v>
-      </c>
-      <c r="J60" t="s">
-        <v>24</v>
       </c>
       <c r="K60">
         <v>400000</v>
@@ -3589,7 +3584,7 @@
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C61" t="b">
         <v>0</v>
@@ -3601,16 +3596,16 @@
         <v>6000</v>
       </c>
       <c r="G61" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="H61">
         <v>803</v>
       </c>
       <c r="I61" t="s">
+        <v>20</v>
+      </c>
+      <c r="J61" t="s">
         <v>22</v>
-      </c>
-      <c r="J61" t="s">
-        <v>24</v>
       </c>
       <c r="K61">
         <v>1050000</v>
@@ -3618,7 +3613,7 @@
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C62" t="b">
         <v>0</v>
@@ -3630,16 +3625,16 @@
         <v>12000</v>
       </c>
       <c r="G62" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H62">
         <v>650</v>
       </c>
       <c r="I62" t="s">
+        <v>20</v>
+      </c>
+      <c r="J62" t="s">
         <v>22</v>
-      </c>
-      <c r="J62" t="s">
-        <v>24</v>
       </c>
       <c r="K62">
         <v>2500000</v>
@@ -3647,7 +3642,7 @@
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C63" t="b">
         <v>0</v>
@@ -3659,16 +3654,16 @@
         <v>29000</v>
       </c>
       <c r="G63" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H63">
         <v>953</v>
       </c>
       <c r="I63" t="s">
+        <v>20</v>
+      </c>
+      <c r="J63" t="s">
         <v>22</v>
-      </c>
-      <c r="J63" t="s">
-        <v>24</v>
       </c>
       <c r="K63">
         <v>6000000</v>
@@ -3676,7 +3671,7 @@
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C64" t="b">
         <v>0</v>
@@ -3688,16 +3683,16 @@
         <v>45000</v>
       </c>
       <c r="G64" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H64">
         <v>640</v>
       </c>
       <c r="I64" t="s">
+        <v>20</v>
+      </c>
+      <c r="J64" t="s">
         <v>22</v>
-      </c>
-      <c r="J64" t="s">
-        <v>24</v>
       </c>
       <c r="K64">
         <v>19000000</v>
@@ -3705,7 +3700,7 @@
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C65" t="b">
         <v>0</v>
@@ -3717,16 +3712,16 @@
         <v>99000</v>
       </c>
       <c r="G65" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="H65">
         <v>553</v>
       </c>
       <c r="I65" t="s">
+        <v>20</v>
+      </c>
+      <c r="J65" t="s">
         <v>22</v>
-      </c>
-      <c r="J65" t="s">
-        <v>24</v>
       </c>
       <c r="K65">
         <v>45000000</v>
@@ -3734,7 +3729,7 @@
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C66" t="b">
         <v>0</v>
@@ -3746,16 +3741,16 @@
         <v>1100</v>
       </c>
       <c r="G66" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="H66">
         <v>963</v>
       </c>
       <c r="I66" t="s">
+        <v>20</v>
+      </c>
+      <c r="J66" t="s">
         <v>22</v>
-      </c>
-      <c r="J66" t="s">
-        <v>24</v>
       </c>
       <c r="K66">
         <v>1200000</v>
@@ -3763,7 +3758,7 @@
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C67" t="b">
         <v>0</v>
@@ -3775,16 +3770,16 @@
         <v>6000</v>
       </c>
       <c r="G67" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H67">
         <v>340</v>
       </c>
       <c r="I67" t="s">
+        <v>20</v>
+      </c>
+      <c r="J67" t="s">
         <v>22</v>
-      </c>
-      <c r="J67" t="s">
-        <v>24</v>
       </c>
       <c r="K67">
         <v>3150000</v>
@@ -3792,7 +3787,7 @@
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C68" t="b">
         <v>0</v>
@@ -3804,16 +3799,16 @@
         <v>12000</v>
       </c>
       <c r="G68" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H68">
         <v>420</v>
       </c>
       <c r="I68" t="s">
+        <v>20</v>
+      </c>
+      <c r="J68" t="s">
         <v>22</v>
-      </c>
-      <c r="J68" t="s">
-        <v>24</v>
       </c>
       <c r="K68">
         <v>7500000</v>
@@ -3821,7 +3816,7 @@
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C69" t="b">
         <v>0</v>
@@ -3833,16 +3828,16 @@
         <v>29000</v>
       </c>
       <c r="G69" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="H69">
         <v>756</v>
       </c>
       <c r="I69" t="s">
+        <v>20</v>
+      </c>
+      <c r="J69" t="s">
         <v>22</v>
-      </c>
-      <c r="J69" t="s">
-        <v>24</v>
       </c>
       <c r="K69">
         <v>18000000</v>
@@ -3850,7 +3845,7 @@
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C70" t="b">
         <v>0</v>
@@ -3862,16 +3857,16 @@
         <v>45000</v>
       </c>
       <c r="G70" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="H70">
         <v>979</v>
       </c>
       <c r="I70" t="s">
+        <v>20</v>
+      </c>
+      <c r="J70" t="s">
         <v>22</v>
-      </c>
-      <c r="J70" t="s">
-        <v>24</v>
       </c>
       <c r="K70">
         <v>57000000</v>
@@ -3879,7 +3874,7 @@
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C71" t="b">
         <v>0</v>
@@ -3891,16 +3886,16 @@
         <v>99000</v>
       </c>
       <c r="G71" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="H71">
         <v>435</v>
       </c>
       <c r="I71" t="s">
+        <v>20</v>
+      </c>
+      <c r="J71" t="s">
         <v>22</v>
-      </c>
-      <c r="J71" t="s">
-        <v>24</v>
       </c>
       <c r="K71">
         <v>135000000</v>
@@ -3908,7 +3903,7 @@
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C72" t="b">
         <v>0</v>
@@ -3920,16 +3915,16 @@
         <v>1100</v>
       </c>
       <c r="G72" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="H72">
         <v>407</v>
       </c>
       <c r="I72" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="J72" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="K72">
         <v>400</v>
@@ -3937,7 +3932,7 @@
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C73" t="b">
         <v>0</v>
@@ -3949,16 +3944,16 @@
         <v>6000</v>
       </c>
       <c r="G73" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="H73">
         <v>934</v>
       </c>
       <c r="I73" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="J73" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="K73">
         <v>1050</v>
@@ -3966,7 +3961,7 @@
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C74" t="b">
         <v>0</v>
@@ -3978,16 +3973,16 @@
         <v>12000</v>
       </c>
       <c r="G74" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="H74">
         <v>626</v>
       </c>
       <c r="I74" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="J74" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="K74">
         <v>2500</v>
@@ -3995,7 +3990,7 @@
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C75" t="b">
         <v>0</v>
@@ -4007,16 +4002,16 @@
         <v>29000</v>
       </c>
       <c r="G75" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="H75">
         <v>910</v>
       </c>
       <c r="I75" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="J75" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="K75">
         <v>6000</v>
@@ -4024,7 +4019,7 @@
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C76" t="b">
         <v>0</v>
@@ -4036,16 +4031,16 @@
         <v>45000</v>
       </c>
       <c r="G76" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="H76">
         <v>258</v>
       </c>
       <c r="I76" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="J76" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="K76">
         <v>19000</v>
@@ -4053,7 +4048,7 @@
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C77" t="b">
         <v>0</v>
@@ -4065,16 +4060,16 @@
         <v>99000</v>
       </c>
       <c r="G77" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="H77">
         <v>872</v>
       </c>
       <c r="I77" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="J77" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="K77">
         <v>45000</v>
@@ -4082,7 +4077,7 @@
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C78" t="b">
         <v>0</v>
@@ -4094,16 +4089,16 @@
         <v>1100</v>
       </c>
       <c r="G78" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="H78">
         <v>357</v>
       </c>
       <c r="I78" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="J78" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="K78">
         <v>1200</v>
@@ -4111,7 +4106,7 @@
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C79" t="b">
         <v>0</v>
@@ -4123,16 +4118,16 @@
         <v>6000</v>
       </c>
       <c r="G79" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="H79">
         <v>866</v>
       </c>
       <c r="I79" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="J79" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="K79">
         <v>3150</v>
@@ -4140,7 +4135,7 @@
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C80" t="b">
         <v>0</v>
@@ -4152,16 +4147,16 @@
         <v>12000</v>
       </c>
       <c r="G80" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="H80">
         <v>240</v>
       </c>
       <c r="I80" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="J80" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="K80">
         <v>7500</v>
@@ -4169,7 +4164,7 @@
     </row>
     <row r="81" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C81" t="b">
         <v>0</v>
@@ -4181,16 +4176,16 @@
         <v>29000</v>
       </c>
       <c r="G81" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="H81">
         <v>722</v>
       </c>
       <c r="I81" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="J81" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="K81">
         <v>18000</v>
@@ -4198,7 +4193,7 @@
     </row>
     <row r="82" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C82" t="b">
         <v>0</v>
@@ -4210,16 +4205,16 @@
         <v>45000</v>
       </c>
       <c r="G82" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="H82">
         <v>517</v>
       </c>
       <c r="I82" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="J82" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="K82">
         <v>57000</v>
@@ -4227,7 +4222,7 @@
     </row>
     <row r="83" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C83" t="b">
         <v>0</v>
@@ -4239,16 +4234,16 @@
         <v>99000</v>
       </c>
       <c r="G83" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="H83">
         <v>526</v>
       </c>
       <c r="I83" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="J83" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="K83">
         <v>135000</v>
@@ -4256,7 +4251,7 @@
     </row>
     <row r="84" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C84" t="b">
         <v>0</v>
@@ -4268,16 +4263,16 @@
         <v>3000</v>
       </c>
       <c r="G84" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="H84">
         <v>781</v>
       </c>
       <c r="I84" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J84" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="K84">
         <v>1</v>
@@ -4285,7 +4280,7 @@
     </row>
     <row r="85" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C85" t="b">
         <v>0</v>
@@ -4297,16 +4292,16 @@
         <v>7500</v>
       </c>
       <c r="G85" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="H85">
         <v>142</v>
       </c>
       <c r="I85" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J85" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="K85">
         <v>1</v>
@@ -4314,7 +4309,7 @@
     </row>
     <row r="86" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C86" t="b">
         <v>0</v>
@@ -4326,16 +4321,16 @@
         <v>14000</v>
       </c>
       <c r="G86" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="H86">
         <v>610</v>
       </c>
       <c r="I86" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J86" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="K86">
         <v>1</v>
@@ -4343,7 +4338,7 @@
     </row>
     <row r="87" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C87" t="b">
         <v>0</v>
@@ -4355,16 +4350,16 @@
         <v>29000</v>
       </c>
       <c r="G87" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="H87">
         <v>433</v>
       </c>
       <c r="I87" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J87" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="K87">
         <v>1</v>
@@ -4372,7 +4367,7 @@
     </row>
     <row r="88" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C88" t="b">
         <v>0</v>
@@ -4384,16 +4379,16 @@
         <v>79000</v>
       </c>
       <c r="G88" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="H88">
         <v>604</v>
       </c>
       <c r="I88" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J88" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="K88">
         <v>1</v>
@@ -4401,7 +4396,7 @@
     </row>
     <row r="89" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C89" t="b">
         <v>0</v>
@@ -4413,16 +4408,16 @@
         <v>1100</v>
       </c>
       <c r="G89" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="H89">
         <v>902</v>
       </c>
       <c r="I89" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J89" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="K89">
         <v>5</v>
@@ -4430,7 +4425,7 @@
     </row>
     <row r="90" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C90" t="b">
         <v>0</v>
@@ -4442,16 +4437,16 @@
         <v>6000</v>
       </c>
       <c r="G90" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="H90">
         <v>924</v>
       </c>
       <c r="I90" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J90" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="K90">
         <v>5</v>
@@ -4459,7 +4454,7 @@
     </row>
     <row r="91" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C91" t="b">
         <v>0</v>
@@ -4474,43 +4469,43 @@
         <v>1200</v>
       </c>
       <c r="G91" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="H91">
         <v>802</v>
       </c>
       <c r="I91" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="J91" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K91">
         <v>30</v>
       </c>
       <c r="L91" t="s">
+        <v>20</v>
+      </c>
+      <c r="M91" t="s">
         <v>22</v>
-      </c>
-      <c r="M91" t="s">
-        <v>24</v>
       </c>
       <c r="N91">
         <v>25000</v>
       </c>
       <c r="O91" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="P91" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Q91">
         <v>100</v>
       </c>
       <c r="R91" t="s">
+        <v>20</v>
+      </c>
+      <c r="S91" t="s">
         <v>22</v>
-      </c>
-      <c r="S91" t="s">
-        <v>24</v>
       </c>
       <c r="T91">
         <v>35000</v>
@@ -4518,7 +4513,7 @@
     </row>
     <row r="92" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C92" t="b">
         <v>0</v>
@@ -4533,43 +4528,43 @@
         <v>5900</v>
       </c>
       <c r="G92" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="H92">
         <v>585</v>
       </c>
       <c r="I92" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="J92" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K92">
         <v>60</v>
       </c>
       <c r="L92" t="s">
+        <v>20</v>
+      </c>
+      <c r="M92" t="s">
         <v>22</v>
-      </c>
-      <c r="M92" t="s">
-        <v>24</v>
       </c>
       <c r="N92">
         <v>15000</v>
       </c>
       <c r="O92" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="P92" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Q92">
         <v>120</v>
       </c>
       <c r="R92" t="s">
+        <v>20</v>
+      </c>
+      <c r="S92" t="s">
         <v>22</v>
-      </c>
-      <c r="S92" t="s">
-        <v>24</v>
       </c>
       <c r="T92">
         <v>25000</v>
@@ -4577,7 +4572,7 @@
     </row>
     <row r="93" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C93" t="b">
         <v>0</v>
@@ -4592,43 +4587,43 @@
         <v>13000</v>
       </c>
       <c r="G93" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="H93">
         <v>634</v>
       </c>
       <c r="I93" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="J93" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K93">
         <v>90</v>
       </c>
       <c r="L93" t="s">
+        <v>20</v>
+      </c>
+      <c r="M93" t="s">
         <v>22</v>
-      </c>
-      <c r="M93" t="s">
-        <v>24</v>
       </c>
       <c r="N93">
         <v>30000</v>
       </c>
       <c r="O93" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="P93" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Q93">
         <v>150</v>
       </c>
       <c r="R93" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="S93" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="T93">
         <v>300</v>
@@ -4636,7 +4631,7 @@
     </row>
     <row r="94" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C94" t="b">
         <v>0</v>
@@ -4651,43 +4646,43 @@
         <v>13000</v>
       </c>
       <c r="G94" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="H94">
         <v>791</v>
       </c>
       <c r="I94" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="J94" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K94">
         <v>120</v>
       </c>
       <c r="L94" t="s">
+        <v>20</v>
+      </c>
+      <c r="M94" t="s">
         <v>22</v>
-      </c>
-      <c r="M94" t="s">
-        <v>24</v>
       </c>
       <c r="N94">
         <v>50000</v>
       </c>
       <c r="O94" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="P94" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Q94">
         <v>120</v>
       </c>
       <c r="R94" t="s">
+        <v>20</v>
+      </c>
+      <c r="S94" t="s">
         <v>22</v>
-      </c>
-      <c r="S94" t="s">
-        <v>24</v>
       </c>
       <c r="T94">
         <v>25000</v>
@@ -4695,7 +4690,7 @@
     </row>
     <row r="95" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C95" t="b">
         <v>0</v>
@@ -4710,43 +4705,43 @@
         <v>13000</v>
       </c>
       <c r="G95" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="H95">
         <v>484</v>
       </c>
       <c r="I95" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="J95" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K95">
         <v>150</v>
       </c>
       <c r="L95" t="s">
+        <v>20</v>
+      </c>
+      <c r="M95" t="s">
         <v>22</v>
-      </c>
-      <c r="M95" t="s">
-        <v>24</v>
       </c>
       <c r="N95">
         <v>90000</v>
       </c>
       <c r="O95" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="P95" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Q95">
         <v>150</v>
       </c>
       <c r="R95" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="S95" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="T95">
         <v>300</v>
@@ -4754,7 +4749,7 @@
     </row>
     <row r="96" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C96" t="b">
         <v>0</v>
@@ -4766,25 +4761,25 @@
         <v>9900</v>
       </c>
       <c r="G96" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="H96">
         <v>212</v>
       </c>
       <c r="I96" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J96" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="K96">
         <v>15</v>
       </c>
       <c r="L96" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="M96" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="N96">
         <v>500</v>
@@ -4792,7 +4787,7 @@
     </row>
     <row r="97" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C97" t="b">
         <v>0</v>
@@ -4807,43 +4802,43 @@
         <v>1200</v>
       </c>
       <c r="G97" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="H97">
         <v>704</v>
       </c>
       <c r="I97" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J97" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="K97">
         <v>1</v>
       </c>
       <c r="L97" t="s">
+        <v>20</v>
+      </c>
+      <c r="M97" t="s">
         <v>22</v>
-      </c>
-      <c r="M97" t="s">
-        <v>24</v>
       </c>
       <c r="N97">
         <v>10000</v>
       </c>
       <c r="O97" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="P97" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Q97">
         <v>120</v>
       </c>
       <c r="R97" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="S97" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="T97">
         <v>1</v>
@@ -4851,7 +4846,7 @@
     </row>
     <row r="98" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C98" t="b">
         <v>0</v>
@@ -4866,43 +4861,43 @@
         <v>1200</v>
       </c>
       <c r="G98" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H98">
         <v>148</v>
       </c>
       <c r="I98" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J98" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="K98">
         <v>1</v>
       </c>
       <c r="L98" t="s">
+        <v>20</v>
+      </c>
+      <c r="M98" t="s">
         <v>22</v>
-      </c>
-      <c r="M98" t="s">
-        <v>24</v>
       </c>
       <c r="N98">
         <v>15000</v>
       </c>
       <c r="O98" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="P98" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Q98">
         <v>120</v>
       </c>
       <c r="R98" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="S98" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="T98">
         <v>1</v>
@@ -4910,7 +4905,7 @@
     </row>
     <row r="99" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C99" t="b">
         <v>0</v>
@@ -4925,43 +4920,43 @@
         <v>1200</v>
       </c>
       <c r="G99" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="H99">
         <v>784</v>
       </c>
       <c r="I99" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J99" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="K99">
         <v>1</v>
       </c>
       <c r="L99" t="s">
+        <v>20</v>
+      </c>
+      <c r="M99" t="s">
         <v>22</v>
-      </c>
-      <c r="M99" t="s">
-        <v>24</v>
       </c>
       <c r="N99">
         <v>30000</v>
       </c>
       <c r="O99" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="P99" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Q99">
         <v>150</v>
       </c>
       <c r="R99" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="S99" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="T99">
         <v>300</v>
@@ -4969,7 +4964,7 @@
     </row>
     <row r="100" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C100" t="b">
         <v>0</v>
@@ -4984,43 +4979,43 @@
         <v>5900</v>
       </c>
       <c r="G100" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="H100">
         <v>354</v>
       </c>
       <c r="I100" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J100" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="K100">
         <v>1</v>
       </c>
       <c r="L100" t="s">
+        <v>20</v>
+      </c>
+      <c r="M100" t="s">
         <v>22</v>
-      </c>
-      <c r="M100" t="s">
-        <v>24</v>
       </c>
       <c r="N100">
         <v>25000</v>
       </c>
       <c r="O100" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="P100" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Q100">
         <v>100</v>
       </c>
       <c r="R100" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="S100" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="T100">
         <v>50</v>
@@ -5028,7 +5023,7 @@
     </row>
     <row r="101" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C101" t="b">
         <v>0</v>
@@ -5043,43 +5038,43 @@
         <v>5900</v>
       </c>
       <c r="G101" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="H101">
         <v>414</v>
       </c>
       <c r="I101" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J101" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="K101">
         <v>1</v>
       </c>
       <c r="L101" t="s">
+        <v>20</v>
+      </c>
+      <c r="M101" t="s">
         <v>22</v>
-      </c>
-      <c r="M101" t="s">
-        <v>24</v>
       </c>
       <c r="N101">
         <v>15000</v>
       </c>
       <c r="O101" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="P101" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Q101">
         <v>120</v>
       </c>
       <c r="R101" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="S101" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="T101">
         <v>50</v>
@@ -5087,7 +5082,7 @@
     </row>
     <row r="102" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C102" t="b">
         <v>0</v>
@@ -5102,43 +5097,43 @@
         <v>13000</v>
       </c>
       <c r="G102" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="H102">
         <v>726</v>
       </c>
       <c r="I102" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J102" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="K102">
         <v>1</v>
       </c>
       <c r="L102" t="s">
+        <v>20</v>
+      </c>
+      <c r="M102" t="s">
         <v>22</v>
-      </c>
-      <c r="M102" t="s">
-        <v>24</v>
       </c>
       <c r="N102">
         <v>30000</v>
       </c>
       <c r="O102" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="P102" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Q102">
         <v>150</v>
       </c>
       <c r="R102" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="S102" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="T102">
         <v>300</v>
@@ -5146,7 +5141,7 @@
     </row>
     <row r="103" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C103" t="b">
         <v>0</v>
@@ -5161,43 +5156,43 @@
         <v>13000</v>
       </c>
       <c r="G103" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="H103">
         <v>679</v>
       </c>
       <c r="I103" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J103" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="K103">
         <v>1</v>
       </c>
       <c r="L103" t="s">
+        <v>20</v>
+      </c>
+      <c r="M103" t="s">
         <v>22</v>
-      </c>
-      <c r="M103" t="s">
-        <v>24</v>
       </c>
       <c r="N103">
         <v>25000</v>
       </c>
       <c r="O103" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="P103" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Q103">
         <v>100</v>
       </c>
       <c r="R103" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="S103" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="T103">
         <v>50</v>
@@ -5205,7 +5200,7 @@
     </row>
     <row r="104" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C104" t="b">
         <v>0</v>
@@ -5220,43 +5215,43 @@
         <v>25000</v>
       </c>
       <c r="G104" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="H104">
         <v>752</v>
       </c>
       <c r="I104" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J104" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="K104">
         <v>1</v>
       </c>
       <c r="L104" t="s">
+        <v>20</v>
+      </c>
+      <c r="M104" t="s">
         <v>22</v>
-      </c>
-      <c r="M104" t="s">
-        <v>24</v>
       </c>
       <c r="N104">
         <v>25000</v>
       </c>
       <c r="O104" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="P104" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Q104">
         <v>100</v>
       </c>
       <c r="R104" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="S104" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="T104">
         <v>50</v>
@@ -5264,7 +5259,7 @@
     </row>
     <row r="105" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C105" t="b">
         <v>0</v>
@@ -5279,43 +5274,43 @@
         <v>48000</v>
       </c>
       <c r="G105" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="H105">
         <v>534</v>
       </c>
       <c r="I105" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J105" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="K105">
         <v>1</v>
       </c>
       <c r="L105" t="s">
+        <v>20</v>
+      </c>
+      <c r="M105" t="s">
         <v>22</v>
-      </c>
-      <c r="M105" t="s">
-        <v>24</v>
       </c>
       <c r="N105">
         <v>15000</v>
       </c>
       <c r="O105" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="P105" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Q105">
         <v>120</v>
       </c>
       <c r="R105" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="S105" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="T105">
         <v>50</v>
@@ -5323,7 +5318,7 @@
     </row>
     <row r="106" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C106" t="b">
         <v>0</v>
@@ -5338,43 +5333,43 @@
         <v>69000</v>
       </c>
       <c r="G106" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="H106">
         <v>243</v>
       </c>
       <c r="I106" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J106" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="K106">
         <v>1</v>
       </c>
       <c r="L106" t="s">
+        <v>20</v>
+      </c>
+      <c r="M106" t="s">
         <v>22</v>
-      </c>
-      <c r="M106" t="s">
-        <v>24</v>
       </c>
       <c r="N106">
         <v>30000</v>
       </c>
       <c r="O106" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="P106" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Q106">
         <v>150</v>
       </c>
       <c r="R106" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="S106" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="T106">
         <v>300</v>
@@ -5382,7 +5377,7 @@
     </row>
     <row r="107" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C107" t="b">
         <v>0</v>
@@ -5394,16 +5389,16 @@
         <v>1100</v>
       </c>
       <c r="G107" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="H107">
         <v>384</v>
       </c>
       <c r="I107" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J107" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="K107">
         <v>1</v>
@@ -5411,7 +5406,7 @@
     </row>
     <row r="108" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C108" t="b">
         <v>0</v>
@@ -5423,16 +5418,16 @@
         <v>7500</v>
       </c>
       <c r="G108" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="H108">
         <v>681</v>
       </c>
       <c r="I108" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J108" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="K108">
         <v>7</v>
@@ -5440,7 +5435,7 @@
     </row>
     <row r="109" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C109" t="b">
         <v>0</v>
@@ -5452,43 +5447,43 @@
         <v>29000</v>
       </c>
       <c r="G109" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="H109">
         <v>813</v>
       </c>
       <c r="I109" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J109" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="K109">
         <v>30</v>
       </c>
       <c r="L109" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="M109" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="N109">
         <v>1000</v>
       </c>
       <c r="O109" t="s">
+        <v>20</v>
+      </c>
+      <c r="P109" t="s">
         <v>22</v>
-      </c>
-      <c r="P109" t="s">
-        <v>24</v>
       </c>
       <c r="Q109">
         <v>25000</v>
       </c>
       <c r="R109" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="S109" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="T109">
         <v>750</v>
@@ -5496,7 +5491,7 @@
     </row>
     <row r="110" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C110" t="b">
         <v>0</v>
@@ -5508,16 +5503,16 @@
         <v>13000</v>
       </c>
       <c r="G110" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="H110">
         <v>178</v>
       </c>
       <c r="I110" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J110" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="K110">
         <v>1</v>
@@ -5525,7 +5520,7 @@
     </row>
     <row r="111" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C111" t="b">
         <v>0</v>
@@ -5537,16 +5532,16 @@
         <v>13000</v>
       </c>
       <c r="G111" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="H111">
         <v>240</v>
       </c>
       <c r="I111" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J111" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="K111">
         <v>1</v>
@@ -5554,7 +5549,7 @@
     </row>
     <row r="112" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C112" t="b">
         <v>0</v>
@@ -5566,16 +5561,16 @@
         <v>13000</v>
       </c>
       <c r="G112" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="H112">
         <v>652</v>
       </c>
       <c r="I112" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J112" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="K112">
         <v>1</v>
@@ -5583,7 +5578,7 @@
     </row>
     <row r="113" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C113" t="b">
         <v>0</v>
@@ -5595,16 +5590,16 @@
         <v>13000</v>
       </c>
       <c r="G113" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="H113">
         <v>358</v>
       </c>
       <c r="I113" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J113" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="K113">
         <v>1</v>
@@ -5612,7 +5607,7 @@
     </row>
     <row r="114" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C114" t="b">
         <v>0</v>
@@ -5624,16 +5619,16 @@
         <v>13000</v>
       </c>
       <c r="G114" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="H114">
         <v>717</v>
       </c>
       <c r="I114" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J114" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="K114">
         <v>1</v>
@@ -5641,7 +5636,7 @@
     </row>
     <row r="115" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C115" t="b">
         <v>0</v>
@@ -5653,16 +5648,16 @@
         <v>13000</v>
       </c>
       <c r="G115" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="H115">
         <v>569</v>
       </c>
       <c r="I115" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J115" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="K115">
         <v>1</v>
@@ -5670,7 +5665,7 @@
     </row>
     <row r="116" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C116" t="b">
         <v>0</v>
@@ -5682,16 +5677,16 @@
         <v>13000</v>
       </c>
       <c r="G116" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="H116">
         <v>880</v>
       </c>
       <c r="I116" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J116" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="K116">
         <v>1</v>
@@ -5699,7 +5694,7 @@
     </row>
     <row r="117" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C117" t="b">
         <v>0</v>
@@ -5711,16 +5706,16 @@
         <v>6000</v>
       </c>
       <c r="G117" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="H117">
         <v>406</v>
       </c>
       <c r="I117" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J117" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="K117">
         <v>1</v>
@@ -5728,7 +5723,7 @@
     </row>
     <row r="118" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C118" t="b">
         <v>0</v>
@@ -5740,16 +5735,16 @@
         <v>7500</v>
       </c>
       <c r="G118" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="H118">
         <v>841</v>
       </c>
       <c r="I118" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J118" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="K118">
         <v>1</v>
@@ -5757,7 +5752,7 @@
     </row>
     <row r="119" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C119" t="b">
         <v>1</v>
@@ -5766,37 +5761,37 @@
         <v>574</v>
       </c>
       <c r="I119" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J119" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="K119">
         <v>1</v>
       </c>
       <c r="L119" t="s">
+        <v>20</v>
+      </c>
+      <c r="M119" t="s">
         <v>22</v>
-      </c>
-      <c r="M119" t="s">
-        <v>24</v>
       </c>
       <c r="N119">
         <v>25000</v>
       </c>
       <c r="O119" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="P119" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Q119">
         <v>100</v>
       </c>
       <c r="R119" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="S119" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="T119">
         <v>50</v>
@@ -5804,7 +5799,7 @@
     </row>
     <row r="120" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C120" t="b">
         <v>1</v>
@@ -5813,37 +5808,37 @@
         <v>318</v>
       </c>
       <c r="I120" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J120" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="K120">
         <v>1</v>
       </c>
       <c r="L120" t="s">
+        <v>20</v>
+      </c>
+      <c r="M120" t="s">
         <v>22</v>
-      </c>
-      <c r="M120" t="s">
-        <v>24</v>
       </c>
       <c r="N120">
         <v>15000</v>
       </c>
       <c r="O120" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="P120" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Q120">
         <v>120</v>
       </c>
       <c r="R120" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="S120" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="T120">
         <v>50</v>
@@ -5851,7 +5846,7 @@
     </row>
     <row r="121" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C121" t="b">
         <v>1</v>
@@ -5860,37 +5855,37 @@
         <v>830</v>
       </c>
       <c r="I121" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J121" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="K121">
         <v>1</v>
       </c>
       <c r="L121" t="s">
+        <v>20</v>
+      </c>
+      <c r="M121" t="s">
         <v>22</v>
-      </c>
-      <c r="M121" t="s">
-        <v>24</v>
       </c>
       <c r="N121">
         <v>30000</v>
       </c>
       <c r="O121" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="P121" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Q121">
         <v>150</v>
       </c>
       <c r="R121" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="S121" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="T121">
         <v>300</v>
@@ -5898,7 +5893,7 @@
     </row>
     <row r="122" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C122" t="b">
         <v>1</v>
@@ -5907,37 +5902,37 @@
         <v>843</v>
       </c>
       <c r="I122" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J122" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="K122">
         <v>1</v>
       </c>
       <c r="L122" t="s">
+        <v>20</v>
+      </c>
+      <c r="M122" t="s">
         <v>22</v>
-      </c>
-      <c r="M122" t="s">
-        <v>24</v>
       </c>
       <c r="N122">
         <v>25000</v>
       </c>
       <c r="O122" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="P122" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Q122">
         <v>100</v>
       </c>
       <c r="R122" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="S122" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="T122">
         <v>50</v>
@@ -5945,7 +5940,7 @@
     </row>
     <row r="123" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C123" t="b">
         <v>1</v>
@@ -5954,37 +5949,37 @@
         <v>501</v>
       </c>
       <c r="I123" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J123" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="K123">
         <v>1</v>
       </c>
       <c r="L123" t="s">
+        <v>20</v>
+      </c>
+      <c r="M123" t="s">
         <v>22</v>
-      </c>
-      <c r="M123" t="s">
-        <v>24</v>
       </c>
       <c r="N123">
         <v>15000</v>
       </c>
       <c r="O123" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="P123" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Q123">
         <v>120</v>
       </c>
       <c r="R123" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="S123" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="T123">
         <v>50</v>
@@ -5992,7 +5987,7 @@
     </row>
     <row r="124" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C124" t="b">
         <v>1</v>
@@ -6001,37 +5996,37 @@
         <v>407</v>
       </c>
       <c r="I124" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J124" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="K124">
         <v>1</v>
       </c>
       <c r="L124" t="s">
+        <v>20</v>
+      </c>
+      <c r="M124" t="s">
         <v>22</v>
-      </c>
-      <c r="M124" t="s">
-        <v>24</v>
       </c>
       <c r="N124">
         <v>30000</v>
       </c>
       <c r="O124" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="P124" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Q124">
         <v>150</v>
       </c>
       <c r="R124" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="S124" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="T124">
         <v>300</v>
@@ -6039,7 +6034,7 @@
     </row>
     <row r="125" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C125" t="b">
         <v>1</v>
@@ -6048,37 +6043,37 @@
         <v>193</v>
       </c>
       <c r="I125" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J125" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="K125">
         <v>1</v>
       </c>
       <c r="L125" t="s">
+        <v>20</v>
+      </c>
+      <c r="M125" t="s">
         <v>22</v>
-      </c>
-      <c r="M125" t="s">
-        <v>24</v>
       </c>
       <c r="N125">
         <v>25000</v>
       </c>
       <c r="O125" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="P125" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Q125">
         <v>100</v>
       </c>
       <c r="R125" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="S125" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="T125">
         <v>50</v>
@@ -6101,16 +6096,16 @@
   <sheetData>
     <row r="1" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B1" t="s">
+        <v>202</v>
+      </c>
+      <c r="C1" t="s">
+        <v>203</v>
+      </c>
+      <c r="D1" t="s">
         <v>204</v>
-      </c>
-      <c r="C1" t="s">
-        <v>205</v>
-      </c>
-      <c r="D1" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -20134,13 +20129,13 @@
   <sheetData>
     <row r="1" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -20151,7 +20146,7 @@
         <v>50</v>
       </c>
       <c r="C2" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -20162,7 +20157,7 @@
         <v>200</v>
       </c>
       <c r="C3" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -20173,7 +20168,7 @@
         <v>500</v>
       </c>
       <c r="C4" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -20184,7 +20179,7 @@
         <v>30</v>
       </c>
       <c r="C5" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -20195,7 +20190,7 @@
         <v>100</v>
       </c>
       <c r="C6" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -20206,7 +20201,7 @@
         <v>200</v>
       </c>
       <c r="C7" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
@@ -20217,7 +20212,7 @@
         <v>500</v>
       </c>
       <c r="C8" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
   </sheetData>
@@ -20228,31 +20223,33 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A0C1379-A3E3-4FE9-9EAD-47DDC3050F76}">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:2" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>4</v>
+        <v>172</v>
       </c>
       <c r="B1" t="s">
-        <v>5</v>
+        <v>237</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B2">
-        <v>1200</v>
+        <v>800</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="B3">
         <v>1200</v>
@@ -20260,7 +20257,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>15</v>
+        <v>100</v>
       </c>
       <c r="B4">
         <v>1600</v>
@@ -20268,15 +20265,15 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>20</v>
+        <v>200</v>
       </c>
       <c r="B5">
-        <v>2000</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>25</v>
+        <v>250</v>
       </c>
       <c r="B6">
         <v>2500</v>
@@ -20284,7 +20281,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>30</v>
+        <v>300</v>
       </c>
       <c r="B7">
         <v>2500</v>
@@ -20292,7 +20289,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>35</v>
+        <v>350</v>
       </c>
       <c r="B8">
         <v>2500</v>
@@ -20300,7 +20297,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>40</v>
+        <v>400</v>
       </c>
       <c r="B9">
         <v>3000</v>
@@ -20308,7 +20305,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>45</v>
+        <v>450</v>
       </c>
       <c r="B10">
         <v>3500</v>
@@ -20316,10 +20313,26 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>50</v>
+        <v>500</v>
       </c>
       <c r="B11">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>550</v>
+      </c>
+      <c r="B12">
         <v>4000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>600</v>
+      </c>
+      <c r="B13">
+        <v>4500</v>
       </c>
     </row>
   </sheetData>
@@ -20344,90 +20357,90 @@
   <sheetData>
     <row r="1" spans="1:2" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B4" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B5" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B6" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B7" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B8" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B9" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B10" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B11" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
   </sheetData>
@@ -20452,13 +20465,13 @@
   <sheetData>
     <row r="1" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C1" t="s">
         <v>127</v>
-      </c>
-      <c r="B1" t="s">
-        <v>128</v>
-      </c>
-      <c r="C1" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -20469,7 +20482,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -20480,7 +20493,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -20491,7 +20504,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -20502,7 +20515,7 @@
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -20513,7 +20526,7 @@
         <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -20535,10 +20548,10 @@
   <sheetData>
     <row r="1" spans="1:2" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B1" t="s">
         <v>127</v>
-      </c>
-      <c r="B1" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -20546,7 +20559,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -20554,7 +20567,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -20562,7 +20575,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -20570,7 +20583,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -20578,7 +20591,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -20586,7 +20599,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -20594,7 +20607,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
@@ -20602,7 +20615,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
@@ -20610,7 +20623,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
@@ -20618,7 +20631,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -20644,16 +20657,16 @@
   <sheetData>
     <row r="1" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -20661,13 +20674,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -20675,13 +20688,13 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -20689,13 +20702,13 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C4">
         <v>20</v>
       </c>
       <c r="D4" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -20703,13 +20716,13 @@
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C5">
         <v>20</v>
       </c>
       <c r="D5" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -20717,13 +20730,13 @@
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C6">
         <v>20</v>
       </c>
       <c r="D6" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
   </sheetData>
@@ -20747,16 +20760,16 @@
   <sheetData>
     <row r="1" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -20764,13 +20777,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -20778,13 +20791,13 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -20792,13 +20805,13 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -20806,13 +20819,13 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C5">
         <v>20</v>
       </c>
       <c r="D5" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -20820,13 +20833,13 @@
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C6">
         <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
   </sheetData>
@@ -20852,16 +20865,16 @@
   <sheetData>
     <row r="1" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C1" t="s">
         <v>174</v>
       </c>
-      <c r="B1" t="s">
-        <v>175</v>
-      </c>
-      <c r="C1" t="s">
-        <v>176</v>
-      </c>
       <c r="D1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -20875,7 +20888,7 @@
         <v>2000</v>
       </c>
       <c r="D2" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -20889,7 +20902,7 @@
         <v>3000</v>
       </c>
       <c r="D3" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -20903,7 +20916,7 @@
         <v>4000</v>
       </c>
       <c r="D4" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -20917,7 +20930,7 @@
         <v>5000</v>
       </c>
       <c r="D5" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -20931,7 +20944,7 @@
         <v>6000</v>
       </c>
       <c r="D6" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
   </sheetData>
@@ -20952,22 +20965,22 @@
   <sheetData>
     <row r="1" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>197</v>
+      </c>
+      <c r="B1" t="s">
+        <v>198</v>
+      </c>
+      <c r="C1" t="s">
         <v>199</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>200</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>201</v>
       </c>
-      <c r="D1" t="s">
-        <v>202</v>
-      </c>
-      <c r="E1" t="s">
-        <v>203</v>
-      </c>
       <c r="F1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">

--- a/Excel/Shop.xlsx
+++ b/Excel/Shop.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{814F1D74-6453-4E55-A11B-C82A853D68E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76E602A3-9E55-4700-B763-D163376B56F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="1" xr2:uid="{1A95D980-8F25-43B6-BA87-364295A77694}"/>
+    <workbookView xWindow="28680" yWindow="2670" windowWidth="24240" windowHeight="13140" xr2:uid="{1A95D980-8F25-43B6-BA87-364295A77694}"/>
   </bookViews>
   <sheets>
     <sheet name="ShopProductTable" sheetId="1" r:id="rId1"/>
@@ -1137,11 +1137,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED115DDC-E095-4A60-B3EA-80FAE0A4BDBC}">
   <dimension ref="A1:W125"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="K86" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="K88" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A97" sqref="A97"/>
+      <selection pane="bottomRight" activeCell="A88" sqref="A88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1240,7 +1240,7 @@
         <v>9.99</v>
       </c>
       <c r="F2">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="G2" t="s">
         <v>107</v>
@@ -1298,7 +1298,7 @@
         <v>1.99</v>
       </c>
       <c r="F4">
-        <v>3000</v>
+        <v>3300</v>
       </c>
       <c r="G4" t="s">
         <v>176</v>
@@ -1327,7 +1327,7 @@
         <v>3.99</v>
       </c>
       <c r="F5">
-        <v>6000</v>
+        <v>5500</v>
       </c>
       <c r="G5" t="s">
         <v>177</v>
@@ -1385,7 +1385,7 @@
         <v>9.99</v>
       </c>
       <c r="F7">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="G7" t="s">
         <v>179</v>
@@ -1414,7 +1414,7 @@
         <v>1.99</v>
       </c>
       <c r="F8">
-        <v>3000</v>
+        <v>3300</v>
       </c>
       <c r="G8" t="s">
         <v>109</v>
@@ -1452,7 +1452,7 @@
         <v>4.99</v>
       </c>
       <c r="F9">
-        <v>7500</v>
+        <v>6600</v>
       </c>
       <c r="G9" t="s">
         <v>129</v>
@@ -1534,7 +1534,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>11.99</v>
+        <v>12.99</v>
       </c>
       <c r="F11">
         <v>19000</v>
@@ -1584,7 +1584,7 @@
         <v>29.99</v>
       </c>
       <c r="F12">
-        <v>45000</v>
+        <v>44000</v>
       </c>
       <c r="G12" t="s">
         <v>35</v>
@@ -1942,7 +1942,7 @@
         <v>0</v>
       </c>
       <c r="E20">
-        <v>11.99</v>
+        <v>12.99</v>
       </c>
       <c r="F20">
         <v>19000</v>
@@ -1983,7 +1983,7 @@
         <v>29.99</v>
       </c>
       <c r="F21">
-        <v>45000</v>
+        <v>44000</v>
       </c>
       <c r="G21" t="s">
         <v>131</v>
@@ -2088,7 +2088,7 @@
         <v>4.99</v>
       </c>
       <c r="F24">
-        <v>7500</v>
+        <v>6600</v>
       </c>
       <c r="G24" t="s">
         <v>41</v>
@@ -2135,7 +2135,7 @@
         <v>9.99</v>
       </c>
       <c r="F25">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="G25" t="s">
         <v>42</v>
@@ -2182,7 +2182,7 @@
         <v>19.989999999999998</v>
       </c>
       <c r="F26">
-        <v>30000</v>
+        <v>29000</v>
       </c>
       <c r="G26" t="s">
         <v>43</v>
@@ -2229,7 +2229,7 @@
         <v>29.99</v>
       </c>
       <c r="F27">
-        <v>45000</v>
+        <v>44000</v>
       </c>
       <c r="G27" t="s">
         <v>44</v>
@@ -2320,7 +2320,7 @@
         <v>0</v>
       </c>
       <c r="E29">
-        <v>18.989999999999998</v>
+        <v>19.989999999999998</v>
       </c>
       <c r="F29">
         <v>29000</v>
@@ -2370,7 +2370,7 @@
         <v>29.99</v>
       </c>
       <c r="F30">
-        <v>45000</v>
+        <v>44000</v>
       </c>
       <c r="G30" t="s">
         <v>47</v>
@@ -2414,7 +2414,7 @@
         <v>0</v>
       </c>
       <c r="E31">
-        <v>64.989999999999995</v>
+        <v>69.989999999999995</v>
       </c>
       <c r="F31">
         <v>99000</v>
@@ -2464,7 +2464,7 @@
         <v>9.99</v>
       </c>
       <c r="F32">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="G32" t="s">
         <v>49</v>
@@ -2511,7 +2511,7 @@
         <v>29.99</v>
       </c>
       <c r="F33">
-        <v>45000</v>
+        <v>44000</v>
       </c>
       <c r="G33" t="s">
         <v>50</v>
@@ -2555,7 +2555,7 @@
         <v>0</v>
       </c>
       <c r="E34">
-        <v>64.989999999999995</v>
+        <v>69.989999999999995</v>
       </c>
       <c r="F34">
         <v>99000</v>
@@ -2696,7 +2696,7 @@
         <v>0</v>
       </c>
       <c r="E37">
-        <v>18.989999999999998</v>
+        <v>19.989999999999998</v>
       </c>
       <c r="F37">
         <v>29000</v>
@@ -2746,7 +2746,7 @@
         <v>29.99</v>
       </c>
       <c r="F38">
-        <v>45000</v>
+        <v>44000</v>
       </c>
       <c r="G38" t="s">
         <v>112</v>
@@ -2790,7 +2790,7 @@
         <v>0</v>
       </c>
       <c r="E39">
-        <v>64.989999999999995</v>
+        <v>69.989999999999995</v>
       </c>
       <c r="F39">
         <v>99000</v>
@@ -2884,7 +2884,7 @@
         <v>0</v>
       </c>
       <c r="E41">
-        <v>18.989999999999998</v>
+        <v>19.989999999999998</v>
       </c>
       <c r="F41">
         <v>29000</v>
@@ -2934,7 +2934,7 @@
         <v>29.99</v>
       </c>
       <c r="F42">
-        <v>45000</v>
+        <v>44000</v>
       </c>
       <c r="G42" t="s">
         <v>116</v>
@@ -2978,7 +2978,7 @@
         <v>0</v>
       </c>
       <c r="E43">
-        <v>64.989999999999995</v>
+        <v>69.989999999999995</v>
       </c>
       <c r="F43">
         <v>99000</v>
@@ -3028,7 +3028,7 @@
         <v>9.99</v>
       </c>
       <c r="F44">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="G44" t="s">
         <v>118</v>
@@ -3075,7 +3075,7 @@
         <v>29.99</v>
       </c>
       <c r="F45">
-        <v>45000</v>
+        <v>44000</v>
       </c>
       <c r="G45" t="s">
         <v>119</v>
@@ -3119,7 +3119,7 @@
         <v>0</v>
       </c>
       <c r="E46">
-        <v>64.989999999999995</v>
+        <v>69.989999999999995</v>
       </c>
       <c r="F46">
         <v>99000</v>
@@ -3245,7 +3245,7 @@
         <v>3.99</v>
       </c>
       <c r="F49">
-        <v>6000</v>
+        <v>5500</v>
       </c>
       <c r="G49" t="s">
         <v>54</v>
@@ -3274,7 +3274,7 @@
         <v>7.99</v>
       </c>
       <c r="F50">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="G50" t="s">
         <v>55</v>
@@ -3300,7 +3300,7 @@
         <v>0</v>
       </c>
       <c r="E51">
-        <v>18.989999999999998</v>
+        <v>19.989999999999998</v>
       </c>
       <c r="F51">
         <v>29000</v>
@@ -3332,7 +3332,7 @@
         <v>29.99</v>
       </c>
       <c r="F52">
-        <v>45000</v>
+        <v>44000</v>
       </c>
       <c r="G52" t="s">
         <v>57</v>
@@ -3358,7 +3358,7 @@
         <v>0</v>
       </c>
       <c r="E53">
-        <v>64.989999999999995</v>
+        <v>69.989999999999995</v>
       </c>
       <c r="F53">
         <v>99000</v>
@@ -3419,7 +3419,7 @@
         <v>3.99</v>
       </c>
       <c r="F55">
-        <v>6000</v>
+        <v>5500</v>
       </c>
       <c r="G55" t="s">
         <v>60</v>
@@ -3448,7 +3448,7 @@
         <v>7.99</v>
       </c>
       <c r="F56">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="G56" t="s">
         <v>61</v>
@@ -3474,7 +3474,7 @@
         <v>0</v>
       </c>
       <c r="E57">
-        <v>18.989999999999998</v>
+        <v>19.989999999999998</v>
       </c>
       <c r="F57">
         <v>29000</v>
@@ -3506,7 +3506,7 @@
         <v>29.99</v>
       </c>
       <c r="F58">
-        <v>45000</v>
+        <v>44000</v>
       </c>
       <c r="G58" t="s">
         <v>63</v>
@@ -3532,7 +3532,7 @@
         <v>0</v>
       </c>
       <c r="E59">
-        <v>64.989999999999995</v>
+        <v>69.989999999999995</v>
       </c>
       <c r="F59">
         <v>99000</v>
@@ -3593,7 +3593,7 @@
         <v>3.99</v>
       </c>
       <c r="F61">
-        <v>6000</v>
+        <v>5500</v>
       </c>
       <c r="G61" t="s">
         <v>66</v>
@@ -3622,7 +3622,7 @@
         <v>7.99</v>
       </c>
       <c r="F62">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="G62" t="s">
         <v>67</v>
@@ -3648,7 +3648,7 @@
         <v>0</v>
       </c>
       <c r="E63">
-        <v>18.989999999999998</v>
+        <v>19.989999999999998</v>
       </c>
       <c r="F63">
         <v>29000</v>
@@ -3680,7 +3680,7 @@
         <v>29.99</v>
       </c>
       <c r="F64">
-        <v>45000</v>
+        <v>44000</v>
       </c>
       <c r="G64" t="s">
         <v>69</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="E65">
-        <v>64.989999999999995</v>
+        <v>69.989999999999995</v>
       </c>
       <c r="F65">
         <v>99000</v>
@@ -3767,7 +3767,7 @@
         <v>3.99</v>
       </c>
       <c r="F67">
-        <v>6000</v>
+        <v>5500</v>
       </c>
       <c r="G67" t="s">
         <v>72</v>
@@ -3796,7 +3796,7 @@
         <v>7.99</v>
       </c>
       <c r="F68">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="G68" t="s">
         <v>73</v>
@@ -3822,7 +3822,7 @@
         <v>0</v>
       </c>
       <c r="E69">
-        <v>18.989999999999998</v>
+        <v>19.989999999999998</v>
       </c>
       <c r="F69">
         <v>29000</v>
@@ -3854,7 +3854,7 @@
         <v>29.99</v>
       </c>
       <c r="F70">
-        <v>45000</v>
+        <v>44000</v>
       </c>
       <c r="G70" t="s">
         <v>75</v>
@@ -3880,7 +3880,7 @@
         <v>0</v>
       </c>
       <c r="E71">
-        <v>64.989999999999995</v>
+        <v>69.989999999999995</v>
       </c>
       <c r="F71">
         <v>99000</v>
@@ -3941,7 +3941,7 @@
         <v>3.99</v>
       </c>
       <c r="F73">
-        <v>6000</v>
+        <v>5500</v>
       </c>
       <c r="G73" t="s">
         <v>181</v>
@@ -3970,7 +3970,7 @@
         <v>7.99</v>
       </c>
       <c r="F74">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="G74" t="s">
         <v>182</v>
@@ -3996,7 +3996,7 @@
         <v>0</v>
       </c>
       <c r="E75">
-        <v>18.989999999999998</v>
+        <v>19.989999999999998</v>
       </c>
       <c r="F75">
         <v>29000</v>
@@ -4028,7 +4028,7 @@
         <v>29.99</v>
       </c>
       <c r="F76">
-        <v>45000</v>
+        <v>44000</v>
       </c>
       <c r="G76" t="s">
         <v>184</v>
@@ -4054,7 +4054,7 @@
         <v>0</v>
       </c>
       <c r="E77">
-        <v>64.989999999999995</v>
+        <v>69.989999999999995</v>
       </c>
       <c r="F77">
         <v>99000</v>
@@ -4115,7 +4115,7 @@
         <v>3.99</v>
       </c>
       <c r="F79">
-        <v>6000</v>
+        <v>5500</v>
       </c>
       <c r="G79" t="s">
         <v>187</v>
@@ -4144,7 +4144,7 @@
         <v>7.99</v>
       </c>
       <c r="F80">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="G80" t="s">
         <v>188</v>
@@ -4170,7 +4170,7 @@
         <v>0</v>
       </c>
       <c r="E81">
-        <v>18.989999999999998</v>
+        <v>19.989999999999998</v>
       </c>
       <c r="F81">
         <v>29000</v>
@@ -4202,7 +4202,7 @@
         <v>29.99</v>
       </c>
       <c r="F82">
-        <v>45000</v>
+        <v>44000</v>
       </c>
       <c r="G82" t="s">
         <v>190</v>
@@ -4228,7 +4228,7 @@
         <v>0</v>
       </c>
       <c r="E83">
-        <v>64.989999999999995</v>
+        <v>69.989999999999995</v>
       </c>
       <c r="F83">
         <v>99000</v>
@@ -4260,7 +4260,7 @@
         <v>1.99</v>
       </c>
       <c r="F84">
-        <v>3000</v>
+        <v>3300</v>
       </c>
       <c r="G84" t="s">
         <v>77</v>
@@ -4289,7 +4289,7 @@
         <v>4.99</v>
       </c>
       <c r="F85">
-        <v>7500</v>
+        <v>6600</v>
       </c>
       <c r="G85" t="s">
         <v>78</v>
@@ -4318,7 +4318,7 @@
         <v>8.99</v>
       </c>
       <c r="F86">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="G86" t="s">
         <v>79</v>
@@ -4344,7 +4344,7 @@
         <v>0</v>
       </c>
       <c r="E87">
-        <v>18.989999999999998</v>
+        <v>19.989999999999998</v>
       </c>
       <c r="F87">
         <v>29000</v>
@@ -4376,7 +4376,7 @@
         <v>49.99</v>
       </c>
       <c r="F88">
-        <v>79000</v>
+        <v>66000</v>
       </c>
       <c r="G88" t="s">
         <v>81</v>
@@ -4434,7 +4434,7 @@
         <v>3.99</v>
       </c>
       <c r="F90">
-        <v>6000</v>
+        <v>5500</v>
       </c>
       <c r="G90" t="s">
         <v>83</v>
@@ -5415,7 +5415,7 @@
         <v>4.99</v>
       </c>
       <c r="F108">
-        <v>7500</v>
+        <v>6600</v>
       </c>
       <c r="G108" t="s">
         <v>135</v>
@@ -5441,7 +5441,7 @@
         <v>0</v>
       </c>
       <c r="E109">
-        <v>18.989999999999998</v>
+        <v>19.989999999999998</v>
       </c>
       <c r="F109">
         <v>29000</v>
@@ -5703,7 +5703,7 @@
         <v>3.99</v>
       </c>
       <c r="F117">
-        <v>6000</v>
+        <v>5500</v>
       </c>
       <c r="G117" t="s">
         <v>192</v>
@@ -5732,7 +5732,7 @@
         <v>4.99</v>
       </c>
       <c r="F118">
-        <v>7500</v>
+        <v>6600</v>
       </c>
       <c r="G118" t="s">
         <v>195</v>
@@ -20225,7 +20225,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A0C1379-A3E3-4FE9-9EAD-47DDC3050F76}">
   <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>

--- a/Excel/Shop.xlsx
+++ b/Excel/Shop.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76E602A3-9E55-4700-B763-D163376B56F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80ADF99E-AD28-46AB-B59F-73A3E853BFA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="2670" windowWidth="24240" windowHeight="13140" xr2:uid="{1A95D980-8F25-43B6-BA87-364295A77694}"/>
   </bookViews>
@@ -1138,10 +1138,10 @@
   <dimension ref="A1:W125"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="K88" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B46" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A88" sqref="A88"/>
+      <selection pane="bottomRight" activeCell="A46" sqref="A46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3231,7 +3231,7 @@
         <v>21</v>
       </c>
       <c r="K48">
-        <v>30</v>
+        <v>60</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.3">
@@ -3260,7 +3260,7 @@
         <v>21</v>
       </c>
       <c r="K49">
-        <v>90</v>
+        <v>180</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.3">
@@ -3289,7 +3289,7 @@
         <v>21</v>
       </c>
       <c r="K50">
-        <v>260</v>
+        <v>520</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.3">
@@ -3318,7 +3318,7 @@
         <v>21</v>
       </c>
       <c r="K51">
-        <v>525</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.3">
@@ -3347,7 +3347,7 @@
         <v>21</v>
       </c>
       <c r="K52">
-        <v>1600</v>
+        <v>3200</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.3">
@@ -3376,7 +3376,7 @@
         <v>21</v>
       </c>
       <c r="K53">
-        <v>3600</v>
+        <v>7200</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.3">
@@ -3405,7 +3405,7 @@
         <v>21</v>
       </c>
       <c r="K54">
-        <v>90</v>
+        <v>180</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.3">
@@ -3434,7 +3434,7 @@
         <v>21</v>
       </c>
       <c r="K55">
-        <v>270</v>
+        <v>540</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.3">
@@ -3463,7 +3463,7 @@
         <v>21</v>
       </c>
       <c r="K56">
-        <v>780</v>
+        <v>1560</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.3">
@@ -3492,7 +3492,7 @@
         <v>21</v>
       </c>
       <c r="K57">
-        <v>1575</v>
+        <v>3150</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.3">
@@ -3521,7 +3521,7 @@
         <v>21</v>
       </c>
       <c r="K58">
-        <v>4800</v>
+        <v>9600</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.3">
@@ -3550,7 +3550,7 @@
         <v>21</v>
       </c>
       <c r="K59">
-        <v>10800</v>
+        <v>21600</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.3">
@@ -3927,7 +3927,7 @@
         <v>96</v>
       </c>
       <c r="K72">
-        <v>400</v>
+        <v>20</v>
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.3">
@@ -3956,7 +3956,7 @@
         <v>96</v>
       </c>
       <c r="K73">
-        <v>1050</v>
+        <v>55</v>
       </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.3">
@@ -3985,7 +3985,7 @@
         <v>96</v>
       </c>
       <c r="K74">
-        <v>2500</v>
+        <v>150</v>
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.3">
@@ -4014,7 +4014,7 @@
         <v>96</v>
       </c>
       <c r="K75">
-        <v>6000</v>
+        <v>325</v>
       </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.3">
@@ -4043,7 +4043,7 @@
         <v>96</v>
       </c>
       <c r="K76">
-        <v>19000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.3">
@@ -4072,7 +4072,7 @@
         <v>96</v>
       </c>
       <c r="K77">
-        <v>45000</v>
+        <v>2325</v>
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.3">
@@ -4101,7 +4101,7 @@
         <v>96</v>
       </c>
       <c r="K78">
-        <v>1200</v>
+        <v>60</v>
       </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.3">
@@ -4130,7 +4130,7 @@
         <v>96</v>
       </c>
       <c r="K79">
-        <v>3150</v>
+        <v>165</v>
       </c>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.3">
@@ -4159,7 +4159,7 @@
         <v>96</v>
       </c>
       <c r="K80">
-        <v>7500</v>
+        <v>450</v>
       </c>
     </row>
     <row r="81" spans="1:20" x14ac:dyDescent="0.3">
@@ -4188,7 +4188,7 @@
         <v>96</v>
       </c>
       <c r="K81">
-        <v>18000</v>
+        <v>975</v>
       </c>
     </row>
     <row r="82" spans="1:20" x14ac:dyDescent="0.3">
@@ -4217,7 +4217,7 @@
         <v>96</v>
       </c>
       <c r="K82">
-        <v>57000</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="83" spans="1:20" x14ac:dyDescent="0.3">
@@ -4246,7 +4246,7 @@
         <v>96</v>
       </c>
       <c r="K83">
-        <v>135000</v>
+        <v>6975</v>
       </c>
     </row>
     <row r="84" spans="1:20" x14ac:dyDescent="0.3">

--- a/Excel/Shop.xlsx
+++ b/Excel/Shop.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80ADF99E-AD28-46AB-B59F-73A3E853BFA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C744C24-7699-468A-A451-4D9736AA16DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="2670" windowWidth="24240" windowHeight="13140" xr2:uid="{1A95D980-8F25-43B6-BA87-364295A77694}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{1A95D980-8F25-43B6-BA87-364295A77694}"/>
   </bookViews>
   <sheets>
     <sheet name="ShopProductTable" sheetId="1" r:id="rId1"/>
@@ -481,9 +481,6 @@
     <t>count|Int</t>
   </si>
   <si>
-    <t>Spell_0019</t>
-  </si>
-  <si>
     <t>Spell_0018</t>
   </si>
   <si>
@@ -761,6 +758,9 @@
   </si>
   <si>
     <t>energy|Int</t>
+  </si>
+  <si>
+    <t>Spell_0020</t>
   </si>
 </sst>
 </file>
@@ -1137,7 +1137,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED115DDC-E095-4A60-B3EA-80FAE0A4BDBC}">
   <dimension ref="A1:W125"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B46" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -1260,7 +1260,7 @@
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C3" t="b">
         <v>0</v>
@@ -1272,7 +1272,7 @@
         <v>1100</v>
       </c>
       <c r="G3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H3">
         <v>493</v>
@@ -1289,7 +1289,7 @@
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C4" t="b">
         <v>0</v>
@@ -1301,7 +1301,7 @@
         <v>3300</v>
       </c>
       <c r="G4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H4">
         <v>585</v>
@@ -1318,7 +1318,7 @@
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C5" t="b">
         <v>0</v>
@@ -1330,7 +1330,7 @@
         <v>5500</v>
       </c>
       <c r="G5" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="H5">
         <v>752</v>
@@ -1347,7 +1347,7 @@
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C6" t="b">
         <v>0</v>
@@ -1359,7 +1359,7 @@
         <v>8800</v>
       </c>
       <c r="G6" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H6">
         <v>529</v>
@@ -1376,7 +1376,7 @@
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C7" t="b">
         <v>0</v>
@@ -1388,7 +1388,7 @@
         <v>14000</v>
       </c>
       <c r="G7" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="H7">
         <v>743</v>
@@ -2053,7 +2053,7 @@
         <v>23</v>
       </c>
       <c r="J23" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="K23">
         <v>1</v>
@@ -3903,7 +3903,7 @@
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C72" t="b">
         <v>0</v>
@@ -3915,7 +3915,7 @@
         <v>1100</v>
       </c>
       <c r="G72" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="H72">
         <v>407</v>
@@ -3932,7 +3932,7 @@
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C73" t="b">
         <v>0</v>
@@ -3944,7 +3944,7 @@
         <v>5500</v>
       </c>
       <c r="G73" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H73">
         <v>934</v>
@@ -3961,7 +3961,7 @@
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C74" t="b">
         <v>0</v>
@@ -3973,7 +3973,7 @@
         <v>11000</v>
       </c>
       <c r="G74" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="H74">
         <v>626</v>
@@ -3990,7 +3990,7 @@
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C75" t="b">
         <v>0</v>
@@ -4002,7 +4002,7 @@
         <v>29000</v>
       </c>
       <c r="G75" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H75">
         <v>910</v>
@@ -4019,7 +4019,7 @@
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C76" t="b">
         <v>0</v>
@@ -4031,7 +4031,7 @@
         <v>44000</v>
       </c>
       <c r="G76" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H76">
         <v>258</v>
@@ -4048,7 +4048,7 @@
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C77" t="b">
         <v>0</v>
@@ -4060,7 +4060,7 @@
         <v>99000</v>
       </c>
       <c r="G77" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="H77">
         <v>872</v>
@@ -4077,7 +4077,7 @@
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C78" t="b">
         <v>0</v>
@@ -4089,7 +4089,7 @@
         <v>1100</v>
       </c>
       <c r="G78" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="H78">
         <v>357</v>
@@ -4106,7 +4106,7 @@
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C79" t="b">
         <v>0</v>
@@ -4118,7 +4118,7 @@
         <v>5500</v>
       </c>
       <c r="G79" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H79">
         <v>866</v>
@@ -4135,7 +4135,7 @@
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C80" t="b">
         <v>0</v>
@@ -4147,7 +4147,7 @@
         <v>11000</v>
       </c>
       <c r="G80" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H80">
         <v>240</v>
@@ -4164,7 +4164,7 @@
     </row>
     <row r="81" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C81" t="b">
         <v>0</v>
@@ -4176,7 +4176,7 @@
         <v>29000</v>
       </c>
       <c r="G81" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H81">
         <v>722</v>
@@ -4193,7 +4193,7 @@
     </row>
     <row r="82" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C82" t="b">
         <v>0</v>
@@ -4205,7 +4205,7 @@
         <v>44000</v>
       </c>
       <c r="G82" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H82">
         <v>517</v>
@@ -4222,7 +4222,7 @@
     </row>
     <row r="83" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C83" t="b">
         <v>0</v>
@@ -4234,7 +4234,7 @@
         <v>99000</v>
       </c>
       <c r="G83" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H83">
         <v>526</v>
@@ -4811,7 +4811,7 @@
         <v>23</v>
       </c>
       <c r="J97" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="K97">
         <v>1</v>
@@ -4838,7 +4838,7 @@
         <v>23</v>
       </c>
       <c r="S97" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="T97">
         <v>1</v>
@@ -4870,7 +4870,7 @@
         <v>23</v>
       </c>
       <c r="J98" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="K98">
         <v>1</v>
@@ -4897,7 +4897,7 @@
         <v>23</v>
       </c>
       <c r="S98" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="T98">
         <v>1</v>
@@ -4929,7 +4929,7 @@
         <v>23</v>
       </c>
       <c r="J99" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="K99">
         <v>1</v>
@@ -4988,7 +4988,7 @@
         <v>23</v>
       </c>
       <c r="J100" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="K100">
         <v>1</v>
@@ -5047,7 +5047,7 @@
         <v>23</v>
       </c>
       <c r="J101" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="K101">
         <v>1</v>
@@ -5106,7 +5106,7 @@
         <v>23</v>
       </c>
       <c r="J102" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="K102">
         <v>1</v>
@@ -5165,7 +5165,7 @@
         <v>23</v>
       </c>
       <c r="J103" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="K103">
         <v>1</v>
@@ -5224,7 +5224,7 @@
         <v>23</v>
       </c>
       <c r="J104" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="K104">
         <v>1</v>
@@ -5283,7 +5283,7 @@
         <v>23</v>
       </c>
       <c r="J105" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="K105">
         <v>1</v>
@@ -5342,7 +5342,7 @@
         <v>23</v>
       </c>
       <c r="J106" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="K106">
         <v>1</v>
@@ -5398,7 +5398,7 @@
         <v>23</v>
       </c>
       <c r="J107" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="K107">
         <v>1</v>
@@ -5427,7 +5427,7 @@
         <v>23</v>
       </c>
       <c r="J108" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="K108">
         <v>7</v>
@@ -5456,7 +5456,7 @@
         <v>23</v>
       </c>
       <c r="J109" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="K109">
         <v>30</v>
@@ -5512,7 +5512,7 @@
         <v>23</v>
       </c>
       <c r="J110" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="K110">
         <v>1</v>
@@ -5607,7 +5607,7 @@
     </row>
     <row r="114" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C114" t="b">
         <v>0</v>
@@ -5619,7 +5619,7 @@
         <v>13000</v>
       </c>
       <c r="G114" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H114">
         <v>717</v>
@@ -5628,7 +5628,7 @@
         <v>23</v>
       </c>
       <c r="J114" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="K114">
         <v>1</v>
@@ -5636,7 +5636,7 @@
     </row>
     <row r="115" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C115" t="b">
         <v>0</v>
@@ -5648,7 +5648,7 @@
         <v>13000</v>
       </c>
       <c r="G115" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H115">
         <v>569</v>
@@ -5657,7 +5657,7 @@
         <v>23</v>
       </c>
       <c r="J115" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="K115">
         <v>1</v>
@@ -5665,7 +5665,7 @@
     </row>
     <row r="116" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C116" t="b">
         <v>0</v>
@@ -5677,7 +5677,7 @@
         <v>13000</v>
       </c>
       <c r="G116" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H116">
         <v>880</v>
@@ -5686,7 +5686,7 @@
         <v>23</v>
       </c>
       <c r="J116" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="K116">
         <v>1</v>
@@ -5694,7 +5694,7 @@
     </row>
     <row r="117" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C117" t="b">
         <v>0</v>
@@ -5706,7 +5706,7 @@
         <v>5500</v>
       </c>
       <c r="G117" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H117">
         <v>406</v>
@@ -5715,7 +5715,7 @@
         <v>23</v>
       </c>
       <c r="J117" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="K117">
         <v>1</v>
@@ -5723,7 +5723,7 @@
     </row>
     <row r="118" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C118" t="b">
         <v>0</v>
@@ -5735,7 +5735,7 @@
         <v>6600</v>
       </c>
       <c r="G118" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="H118">
         <v>841</v>
@@ -5744,7 +5744,7 @@
         <v>23</v>
       </c>
       <c r="J118" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="K118">
         <v>1</v>
@@ -5752,7 +5752,7 @@
     </row>
     <row r="119" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C119" t="b">
         <v>1</v>
@@ -5764,7 +5764,7 @@
         <v>23</v>
       </c>
       <c r="J119" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="K119">
         <v>1</v>
@@ -5799,7 +5799,7 @@
     </row>
     <row r="120" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C120" t="b">
         <v>1</v>
@@ -5811,7 +5811,7 @@
         <v>23</v>
       </c>
       <c r="J120" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="K120">
         <v>1</v>
@@ -5846,7 +5846,7 @@
     </row>
     <row r="121" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C121" t="b">
         <v>1</v>
@@ -5858,7 +5858,7 @@
         <v>23</v>
       </c>
       <c r="J121" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="K121">
         <v>1</v>
@@ -5893,7 +5893,7 @@
     </row>
     <row r="122" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C122" t="b">
         <v>1</v>
@@ -5905,7 +5905,7 @@
         <v>23</v>
       </c>
       <c r="J122" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="K122">
         <v>1</v>
@@ -5940,7 +5940,7 @@
     </row>
     <row r="123" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C123" t="b">
         <v>1</v>
@@ -5952,7 +5952,7 @@
         <v>23</v>
       </c>
       <c r="J123" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="K123">
         <v>1</v>
@@ -5987,7 +5987,7 @@
     </row>
     <row r="124" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C124" t="b">
         <v>1</v>
@@ -5999,7 +5999,7 @@
         <v>23</v>
       </c>
       <c r="J124" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="K124">
         <v>1</v>
@@ -6034,7 +6034,7 @@
     </row>
     <row r="125" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C125" t="b">
         <v>1</v>
@@ -6046,7 +6046,7 @@
         <v>23</v>
       </c>
       <c r="J125" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="K125">
         <v>1</v>
@@ -6096,16 +6096,16 @@
   <sheetData>
     <row r="1" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B1" t="s">
+        <v>201</v>
+      </c>
+      <c r="C1" t="s">
         <v>202</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>203</v>
-      </c>
-      <c r="D1" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -20129,10 +20129,10 @@
   <sheetData>
     <row r="1" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B1" t="s">
         <v>205</v>
-      </c>
-      <c r="B1" t="s">
-        <v>206</v>
       </c>
       <c r="C1" t="s">
         <v>127</v>
@@ -20146,7 +20146,7 @@
         <v>50</v>
       </c>
       <c r="C2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -20157,7 +20157,7 @@
         <v>200</v>
       </c>
       <c r="C3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -20168,7 +20168,7 @@
         <v>500</v>
       </c>
       <c r="C4" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -20179,7 +20179,7 @@
         <v>30</v>
       </c>
       <c r="C5" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -20190,7 +20190,7 @@
         <v>100</v>
       </c>
       <c r="C6" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -20201,7 +20201,7 @@
         <v>200</v>
       </c>
       <c r="C7" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
@@ -20212,7 +20212,7 @@
         <v>500</v>
       </c>
       <c r="C8" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
   </sheetData>
@@ -20233,10 +20233,10 @@
   <sheetData>
     <row r="1" spans="1:2" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -20392,55 +20392,55 @@
         <v>138</v>
       </c>
       <c r="B5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
+        <v>148</v>
+      </c>
+      <c r="B6" t="s">
         <v>149</v>
-      </c>
-      <c r="B6" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
+        <v>150</v>
+      </c>
+      <c r="B7" t="s">
         <v>151</v>
-      </c>
-      <c r="B7" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
+        <v>152</v>
+      </c>
+      <c r="B8" t="s">
         <v>153</v>
-      </c>
-      <c r="B8" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
+        <v>154</v>
+      </c>
+      <c r="B9" t="s">
         <v>155</v>
-      </c>
-      <c r="B9" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
+        <v>230</v>
+      </c>
+      <c r="B10" t="s">
         <v>231</v>
-      </c>
-      <c r="B10" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
+        <v>232</v>
+      </c>
+      <c r="B11" t="s">
         <v>233</v>
-      </c>
-      <c r="B11" t="s">
-        <v>234</v>
       </c>
     </row>
   </sheetData>
@@ -20644,7 +20644,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA60D8C1-0C1D-4976-AF38-D52614FAC4F3}">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -20657,7 +20657,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B1" t="s">
         <v>142</v>
@@ -20674,13 +20674,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>144</v>
+        <v>237</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -20688,13 +20688,13 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -20702,13 +20702,13 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C4">
         <v>20</v>
       </c>
       <c r="D4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -20716,13 +20716,13 @@
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C5">
         <v>20</v>
       </c>
       <c r="D5" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -20736,7 +20736,7 @@
         <v>20</v>
       </c>
       <c r="D6" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
   </sheetData>
@@ -20760,10 +20760,10 @@
   <sheetData>
     <row r="1" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B1" t="s">
         <v>162</v>
-      </c>
-      <c r="B1" t="s">
-        <v>163</v>
       </c>
       <c r="C1" t="s">
         <v>143</v>
@@ -20777,13 +20777,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -20791,13 +20791,13 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -20805,13 +20805,13 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -20819,13 +20819,13 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
+        <v>168</v>
+      </c>
+      <c r="C5">
+        <v>20</v>
+      </c>
+      <c r="D5" t="s">
         <v>169</v>
-      </c>
-      <c r="C5">
-        <v>20</v>
-      </c>
-      <c r="D5" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -20833,13 +20833,13 @@
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C6">
         <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
   </sheetData>
@@ -20865,13 +20865,13 @@
   <sheetData>
     <row r="1" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B1" t="s">
         <v>172</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>173</v>
-      </c>
-      <c r="C1" t="s">
-        <v>174</v>
       </c>
       <c r="D1" t="s">
         <v>127</v>
@@ -20888,7 +20888,7 @@
         <v>2000</v>
       </c>
       <c r="D2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -20902,7 +20902,7 @@
         <v>3000</v>
       </c>
       <c r="D3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -20916,7 +20916,7 @@
         <v>4000</v>
       </c>
       <c r="D4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -20930,7 +20930,7 @@
         <v>5000</v>
       </c>
       <c r="D5" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -20944,7 +20944,7 @@
         <v>6000</v>
       </c>
       <c r="D6" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
   </sheetData>
@@ -20965,19 +20965,19 @@
   <sheetData>
     <row r="1" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>196</v>
+      </c>
+      <c r="B1" t="s">
         <v>197</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>198</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>199</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>200</v>
-      </c>
-      <c r="E1" t="s">
-        <v>201</v>
       </c>
       <c r="F1" t="s">
         <v>40</v>

--- a/Excel/Shop.xlsx
+++ b/Excel/Shop.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C744C24-7699-468A-A451-4D9736AA16DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED604966-73A6-4EFC-B7CA-73C1CEC0F0E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{1A95D980-8F25-43B6-BA87-364295A77694}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1A95D980-8F25-43B6-BA87-364295A77694}"/>
   </bookViews>
   <sheets>
     <sheet name="ShopProductTable" sheetId="1" r:id="rId1"/>
@@ -1137,11 +1137,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED115DDC-E095-4A60-B3EA-80FAE0A4BDBC}">
   <dimension ref="A1:W125"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B46" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A46" sqref="A46"/>
+      <selection pane="bottomRight" activeCell="A60" sqref="A60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3213,10 +3213,10 @@
         <v>0</v>
       </c>
       <c r="E48">
-        <v>0.99</v>
+        <v>1.99</v>
       </c>
       <c r="F48">
-        <v>1100</v>
+        <v>3300</v>
       </c>
       <c r="G48" t="s">
         <v>53</v>
@@ -3387,10 +3387,10 @@
         <v>0</v>
       </c>
       <c r="E54">
-        <v>0.99</v>
+        <v>1.99</v>
       </c>
       <c r="F54">
-        <v>1100</v>
+        <v>3300</v>
       </c>
       <c r="G54" t="s">
         <v>59</v>
@@ -3561,10 +3561,10 @@
         <v>0</v>
       </c>
       <c r="E60">
-        <v>0.99</v>
+        <v>1.99</v>
       </c>
       <c r="F60">
-        <v>1100</v>
+        <v>3300</v>
       </c>
       <c r="G60" t="s">
         <v>65</v>
@@ -3735,10 +3735,10 @@
         <v>0</v>
       </c>
       <c r="E66">
-        <v>0.99</v>
+        <v>1.99</v>
       </c>
       <c r="F66">
-        <v>1100</v>
+        <v>3300</v>
       </c>
       <c r="G66" t="s">
         <v>71</v>
@@ -3909,10 +3909,10 @@
         <v>0</v>
       </c>
       <c r="E72">
-        <v>0.99</v>
+        <v>1.99</v>
       </c>
       <c r="F72">
-        <v>1100</v>
+        <v>3300</v>
       </c>
       <c r="G72" t="s">
         <v>179</v>
@@ -4083,10 +4083,10 @@
         <v>0</v>
       </c>
       <c r="E78">
-        <v>0.99</v>
+        <v>1.99</v>
       </c>
       <c r="F78">
-        <v>1100</v>
+        <v>3300</v>
       </c>
       <c r="G78" t="s">
         <v>185</v>
@@ -20644,7 +20644,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA60D8C1-0C1D-4976-AF38-D52614FAC4F3}">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>

--- a/Excel/Shop.xlsx
+++ b/Excel/Shop.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED604966-73A6-4EFC-B7CA-73C1CEC0F0E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EEB50D7-4ADD-491B-862A-14CE8A049223}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1A95D980-8F25-43B6-BA87-364295A77694}"/>
+    <workbookView xWindow="28680" yWindow="2670" windowWidth="24240" windowHeight="13140" xr2:uid="{1A95D980-8F25-43B6-BA87-364295A77694}"/>
   </bookViews>
   <sheets>
     <sheet name="ShopProductTable" sheetId="1" r:id="rId1"/>
@@ -1138,10 +1138,10 @@
   <dimension ref="A1:W125"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B46" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B76" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A60" sqref="A60"/>
+      <selection pane="bottomRight" activeCell="A76" sqref="A76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3231,7 +3231,7 @@
         <v>21</v>
       </c>
       <c r="K48">
-        <v>60</v>
+        <v>75</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.3">
@@ -3318,7 +3318,7 @@
         <v>21</v>
       </c>
       <c r="K51">
-        <v>1050</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.3">
@@ -3347,7 +3347,7 @@
         <v>21</v>
       </c>
       <c r="K52">
-        <v>3200</v>
+        <v>2900</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.3">
@@ -3405,7 +3405,7 @@
         <v>21</v>
       </c>
       <c r="K54">
-        <v>180</v>
+        <v>225</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.3">
@@ -3492,7 +3492,7 @@
         <v>21</v>
       </c>
       <c r="K57">
-        <v>3150</v>
+        <v>4500</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.3">
@@ -3521,7 +3521,7 @@
         <v>21</v>
       </c>
       <c r="K58">
-        <v>9600</v>
+        <v>8700</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.3">
@@ -3579,7 +3579,7 @@
         <v>22</v>
       </c>
       <c r="K60">
-        <v>400000</v>
+        <v>450000</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.3">
@@ -3666,7 +3666,7 @@
         <v>22</v>
       </c>
       <c r="K63">
-        <v>6000000</v>
+        <v>9000000</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.3">
@@ -3695,7 +3695,7 @@
         <v>22</v>
       </c>
       <c r="K64">
-        <v>19000000</v>
+        <v>16000000</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.3">
@@ -3753,7 +3753,7 @@
         <v>22</v>
       </c>
       <c r="K66">
-        <v>1200000</v>
+        <v>1350000</v>
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.3">
@@ -3840,7 +3840,7 @@
         <v>22</v>
       </c>
       <c r="K69">
-        <v>18000000</v>
+        <v>27000000</v>
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.3">
@@ -3869,7 +3869,7 @@
         <v>22</v>
       </c>
       <c r="K70">
-        <v>57000000</v>
+        <v>48000000</v>
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.3">
@@ -3927,7 +3927,7 @@
         <v>96</v>
       </c>
       <c r="K72">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.3">
@@ -3985,7 +3985,7 @@
         <v>96</v>
       </c>
       <c r="K74">
-        <v>150</v>
+        <v>160</v>
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.3">
@@ -4014,7 +4014,7 @@
         <v>96</v>
       </c>
       <c r="K75">
-        <v>325</v>
+        <v>475</v>
       </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.3">
@@ -4043,7 +4043,7 @@
         <v>96</v>
       </c>
       <c r="K76">
-        <v>1000</v>
+        <v>950</v>
       </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.3">
@@ -4072,7 +4072,7 @@
         <v>96</v>
       </c>
       <c r="K77">
-        <v>2325</v>
+        <v>2400</v>
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.3">
@@ -4101,7 +4101,7 @@
         <v>96</v>
       </c>
       <c r="K78">
-        <v>60</v>
+        <v>75</v>
       </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.3">
@@ -4159,7 +4159,7 @@
         <v>96</v>
       </c>
       <c r="K80">
-        <v>450</v>
+        <v>480</v>
       </c>
     </row>
     <row r="81" spans="1:20" x14ac:dyDescent="0.3">
@@ -4188,7 +4188,7 @@
         <v>96</v>
       </c>
       <c r="K81">
-        <v>975</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="82" spans="1:20" x14ac:dyDescent="0.3">
@@ -4217,7 +4217,7 @@
         <v>96</v>
       </c>
       <c r="K82">
-        <v>3000</v>
+        <v>2850</v>
       </c>
     </row>
     <row r="83" spans="1:20" x14ac:dyDescent="0.3">
@@ -4246,7 +4246,7 @@
         <v>96</v>
       </c>
       <c r="K83">
-        <v>6975</v>
+        <v>7200</v>
       </c>
     </row>
     <row r="84" spans="1:20" x14ac:dyDescent="0.3">

--- a/Excel/Shop.xlsx
+++ b/Excel/Shop.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EEB50D7-4ADD-491B-862A-14CE8A049223}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC1133D7-4E7E-4C9F-A435-D7B294C5CB57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="2670" windowWidth="24240" windowHeight="13140" xr2:uid="{1A95D980-8F25-43B6-BA87-364295A77694}"/>
+    <workbookView xWindow="28680" yWindow="2670" windowWidth="24240" windowHeight="13140" activeTab="2" xr2:uid="{1A95D980-8F25-43B6-BA87-364295A77694}"/>
   </bookViews>
   <sheets>
     <sheet name="ShopProductTable" sheetId="1" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="899" uniqueCount="239">
   <si>
     <t>productId|String</t>
   </si>
@@ -761,6 +761,9 @@
   </si>
   <si>
     <t>Spell_0020</t>
+  </si>
+  <si>
+    <t>CashName_sEquipTypeGacha411</t>
   </si>
 </sst>
 </file>
@@ -1137,7 +1140,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED115DDC-E095-4A60-B3EA-80FAE0A4BDBC}">
   <dimension ref="A1:W125"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B76" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -20343,11 +20346,9 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A538EB96-EB04-4826-9AF0-A58A4FE56B38}">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -20441,6 +20442,14 @@
       </c>
       <c r="B11" t="s">
         <v>233</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>235</v>
+      </c>
+      <c r="B12" t="s">
+        <v>238</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/Shop.xlsx
+++ b/Excel/Shop.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC1133D7-4E7E-4C9F-A435-D7B294C5CB57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACC82958-40E9-4275-9623-631BA02E3B76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="2670" windowWidth="24240" windowHeight="13140" activeTab="2" xr2:uid="{1A95D980-8F25-43B6-BA87-364295A77694}"/>
+    <workbookView xWindow="28680" yWindow="2670" windowWidth="24240" windowHeight="13140" firstSheet="6" activeTab="10" xr2:uid="{1A95D980-8F25-43B6-BA87-364295A77694}"/>
   </bookViews>
   <sheets>
     <sheet name="ShopProductTable" sheetId="1" r:id="rId1"/>
@@ -20121,7 +20121,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2A31BFD-E248-487E-9424-79F4DD5B7595}">
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -20201,7 +20201,7 @@
         <v>2</v>
       </c>
       <c r="B7">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="C7" t="s">
         <v>211</v>
@@ -20348,7 +20348,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A538EB96-EB04-4826-9AF0-A58A4FE56B38}">
   <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>

--- a/Excel/Shop.xlsx
+++ b/Excel/Shop.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACC82958-40E9-4275-9623-631BA02E3B76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A176DE86-CF24-498C-8203-2B00A526F691}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="2670" windowWidth="24240" windowHeight="13140" firstSheet="6" activeTab="10" xr2:uid="{1A95D980-8F25-43B6-BA87-364295A77694}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="6" activeTab="9" xr2:uid="{1A95D980-8F25-43B6-BA87-364295A77694}"/>
   </bookViews>
   <sheets>
     <sheet name="ShopProductTable" sheetId="1" r:id="rId1"/>
@@ -6093,7 +6093,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06240469-0FA4-4C33-9485-0553D2A08322}">
   <dimension ref="A1:D1001"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -6130,7 +6132,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>100</v>
+        <v>45</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -6144,7 +6146,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>200</v>
+        <v>90</v>
       </c>
       <c r="C4">
         <v>2</v>
@@ -6158,7 +6160,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>300</v>
+        <v>135</v>
       </c>
       <c r="C5">
         <v>3</v>
@@ -6172,7 +6174,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>400</v>
+        <v>180</v>
       </c>
       <c r="C6">
         <v>4</v>
@@ -6186,7 +6188,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>500</v>
+        <v>225</v>
       </c>
       <c r="C7">
         <v>5</v>
@@ -6200,7 +6202,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>600</v>
+        <v>270</v>
       </c>
       <c r="C8">
         <v>6</v>
@@ -6214,7 +6216,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>700</v>
+        <v>315</v>
       </c>
       <c r="C9">
         <v>7</v>
@@ -6228,7 +6230,7 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>800</v>
+        <v>360</v>
       </c>
       <c r="C10">
         <v>8</v>
@@ -6242,7 +6244,7 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>900</v>
+        <v>405</v>
       </c>
       <c r="C11">
         <v>9</v>
@@ -6256,7 +6258,7 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>1000</v>
+        <v>450</v>
       </c>
       <c r="C12">
         <v>10</v>
@@ -6270,7 +6272,7 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>1100</v>
+        <v>495</v>
       </c>
       <c r="C13">
         <v>11</v>
@@ -6284,7 +6286,7 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>1200</v>
+        <v>540</v>
       </c>
       <c r="C14">
         <v>12</v>
@@ -6298,7 +6300,7 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>1300</v>
+        <v>585</v>
       </c>
       <c r="C15">
         <v>13</v>
@@ -6312,7 +6314,7 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>1400</v>
+        <v>630</v>
       </c>
       <c r="C16">
         <v>14</v>
@@ -6326,7 +6328,7 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>1500</v>
+        <v>675</v>
       </c>
       <c r="C17">
         <v>15</v>
@@ -6340,7 +6342,7 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>1600</v>
+        <v>720</v>
       </c>
       <c r="C18">
         <v>16</v>
@@ -6354,7 +6356,7 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>1700</v>
+        <v>765</v>
       </c>
       <c r="C19">
         <v>17</v>
@@ -6368,7 +6370,7 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>1800</v>
+        <v>810</v>
       </c>
       <c r="C20">
         <v>18</v>
@@ -6382,7 +6384,7 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>1900</v>
+        <v>855</v>
       </c>
       <c r="C21">
         <v>19</v>
@@ -6396,7 +6398,7 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>2000</v>
+        <v>900</v>
       </c>
       <c r="C22">
         <v>20</v>
@@ -6410,7 +6412,7 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>2100</v>
+        <v>945</v>
       </c>
       <c r="C23">
         <v>21</v>
@@ -6424,7 +6426,7 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>2200</v>
+        <v>990</v>
       </c>
       <c r="C24">
         <v>22</v>
@@ -6438,7 +6440,7 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>2300</v>
+        <v>1035</v>
       </c>
       <c r="C25">
         <v>23</v>
@@ -6452,7 +6454,7 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>2400</v>
+        <v>1080</v>
       </c>
       <c r="C26">
         <v>24</v>
@@ -6466,7 +6468,7 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>2500</v>
+        <v>1125</v>
       </c>
       <c r="C27">
         <v>25</v>
@@ -6480,7 +6482,7 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>2600</v>
+        <v>1170</v>
       </c>
       <c r="C28">
         <v>26</v>
@@ -6494,7 +6496,7 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <v>2700</v>
+        <v>1215</v>
       </c>
       <c r="C29">
         <v>27</v>
@@ -6508,7 +6510,7 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <v>2800</v>
+        <v>1260</v>
       </c>
       <c r="C30">
         <v>28</v>
@@ -6522,7 +6524,7 @@
         <v>30</v>
       </c>
       <c r="B31">
-        <v>2900</v>
+        <v>1305</v>
       </c>
       <c r="C31">
         <v>29</v>
@@ -6536,7 +6538,7 @@
         <v>31</v>
       </c>
       <c r="B32">
-        <v>3000</v>
+        <v>1350</v>
       </c>
       <c r="C32">
         <v>30</v>
@@ -6550,7 +6552,7 @@
         <v>32</v>
       </c>
       <c r="B33">
-        <v>3100</v>
+        <v>1395</v>
       </c>
       <c r="C33">
         <v>31</v>
@@ -6564,7 +6566,7 @@
         <v>33</v>
       </c>
       <c r="B34">
-        <v>3200</v>
+        <v>1440</v>
       </c>
       <c r="C34">
         <v>32</v>
@@ -6578,7 +6580,7 @@
         <v>34</v>
       </c>
       <c r="B35">
-        <v>3300</v>
+        <v>1485</v>
       </c>
       <c r="C35">
         <v>33</v>
@@ -6592,7 +6594,7 @@
         <v>35</v>
       </c>
       <c r="B36">
-        <v>3400</v>
+        <v>1530</v>
       </c>
       <c r="C36">
         <v>34</v>
@@ -6606,7 +6608,7 @@
         <v>36</v>
       </c>
       <c r="B37">
-        <v>3500</v>
+        <v>1575</v>
       </c>
       <c r="C37">
         <v>35</v>
@@ -6620,7 +6622,7 @@
         <v>37</v>
       </c>
       <c r="B38">
-        <v>3600</v>
+        <v>1620</v>
       </c>
       <c r="C38">
         <v>36</v>
@@ -6634,7 +6636,7 @@
         <v>38</v>
       </c>
       <c r="B39">
-        <v>3700</v>
+        <v>1665</v>
       </c>
       <c r="C39">
         <v>37</v>
@@ -6648,7 +6650,7 @@
         <v>39</v>
       </c>
       <c r="B40">
-        <v>3800</v>
+        <v>1710</v>
       </c>
       <c r="C40">
         <v>38</v>
@@ -6662,7 +6664,7 @@
         <v>40</v>
       </c>
       <c r="B41">
-        <v>3900</v>
+        <v>1755</v>
       </c>
       <c r="C41">
         <v>39</v>
@@ -6676,7 +6678,7 @@
         <v>41</v>
       </c>
       <c r="B42">
-        <v>4000</v>
+        <v>1800</v>
       </c>
       <c r="C42">
         <v>40</v>
@@ -6690,7 +6692,7 @@
         <v>42</v>
       </c>
       <c r="B43">
-        <v>4100</v>
+        <v>1845</v>
       </c>
       <c r="C43">
         <v>41</v>
@@ -6704,7 +6706,7 @@
         <v>43</v>
       </c>
       <c r="B44">
-        <v>4200</v>
+        <v>1890</v>
       </c>
       <c r="C44">
         <v>42</v>
@@ -6718,7 +6720,7 @@
         <v>44</v>
       </c>
       <c r="B45">
-        <v>4300</v>
+        <v>1935</v>
       </c>
       <c r="C45">
         <v>43</v>
@@ -6732,7 +6734,7 @@
         <v>45</v>
       </c>
       <c r="B46">
-        <v>4400</v>
+        <v>1980</v>
       </c>
       <c r="C46">
         <v>44</v>
@@ -6746,7 +6748,7 @@
         <v>46</v>
       </c>
       <c r="B47">
-        <v>4500</v>
+        <v>2025</v>
       </c>
       <c r="C47">
         <v>45</v>
@@ -6760,7 +6762,7 @@
         <v>47</v>
       </c>
       <c r="B48">
-        <v>4600</v>
+        <v>2070</v>
       </c>
       <c r="C48">
         <v>46</v>
@@ -6774,7 +6776,7 @@
         <v>48</v>
       </c>
       <c r="B49">
-        <v>4700</v>
+        <v>2115</v>
       </c>
       <c r="C49">
         <v>47</v>
@@ -6788,7 +6790,7 @@
         <v>49</v>
       </c>
       <c r="B50">
-        <v>4800</v>
+        <v>2160</v>
       </c>
       <c r="C50">
         <v>48</v>
@@ -6802,7 +6804,7 @@
         <v>50</v>
       </c>
       <c r="B51">
-        <v>4900</v>
+        <v>2205</v>
       </c>
       <c r="C51">
         <v>49</v>
@@ -6816,7 +6818,7 @@
         <v>51</v>
       </c>
       <c r="B52">
-        <v>5000</v>
+        <v>2250</v>
       </c>
       <c r="C52">
         <v>50</v>
@@ -6830,7 +6832,7 @@
         <v>52</v>
       </c>
       <c r="B53">
-        <v>5100</v>
+        <v>2295</v>
       </c>
       <c r="C53">
         <v>50</v>
@@ -6844,7 +6846,7 @@
         <v>53</v>
       </c>
       <c r="B54">
-        <v>5200</v>
+        <v>2340</v>
       </c>
       <c r="C54">
         <v>50</v>
@@ -6858,7 +6860,7 @@
         <v>54</v>
       </c>
       <c r="B55">
-        <v>5300</v>
+        <v>2385</v>
       </c>
       <c r="C55">
         <v>50</v>
@@ -6872,7 +6874,7 @@
         <v>55</v>
       </c>
       <c r="B56">
-        <v>5400</v>
+        <v>2430</v>
       </c>
       <c r="C56">
         <v>50</v>
@@ -6886,7 +6888,7 @@
         <v>56</v>
       </c>
       <c r="B57">
-        <v>5500</v>
+        <v>2475</v>
       </c>
       <c r="C57">
         <v>50</v>
@@ -6900,7 +6902,7 @@
         <v>57</v>
       </c>
       <c r="B58">
-        <v>5600</v>
+        <v>2520</v>
       </c>
       <c r="C58">
         <v>50</v>
@@ -6914,7 +6916,7 @@
         <v>58</v>
       </c>
       <c r="B59">
-        <v>5700</v>
+        <v>2565</v>
       </c>
       <c r="C59">
         <v>50</v>
@@ -6928,7 +6930,7 @@
         <v>59</v>
       </c>
       <c r="B60">
-        <v>5800</v>
+        <v>2610</v>
       </c>
       <c r="C60">
         <v>50</v>
@@ -6942,7 +6944,7 @@
         <v>60</v>
       </c>
       <c r="B61">
-        <v>5900</v>
+        <v>2655</v>
       </c>
       <c r="C61">
         <v>50</v>
@@ -6956,7 +6958,7 @@
         <v>61</v>
       </c>
       <c r="B62">
-        <v>6000</v>
+        <v>2700</v>
       </c>
       <c r="C62">
         <v>50</v>
@@ -6970,7 +6972,7 @@
         <v>62</v>
       </c>
       <c r="B63">
-        <v>6100</v>
+        <v>2745</v>
       </c>
       <c r="C63">
         <v>50</v>
@@ -6984,7 +6986,7 @@
         <v>63</v>
       </c>
       <c r="B64">
-        <v>6200</v>
+        <v>2790</v>
       </c>
       <c r="C64">
         <v>50</v>
@@ -6998,7 +7000,7 @@
         <v>64</v>
       </c>
       <c r="B65">
-        <v>6300</v>
+        <v>2835</v>
       </c>
       <c r="C65">
         <v>50</v>
@@ -7012,7 +7014,7 @@
         <v>65</v>
       </c>
       <c r="B66">
-        <v>6400</v>
+        <v>2880</v>
       </c>
       <c r="C66">
         <v>50</v>
@@ -7026,7 +7028,7 @@
         <v>66</v>
       </c>
       <c r="B67">
-        <v>6500</v>
+        <v>2925</v>
       </c>
       <c r="C67">
         <v>50</v>
@@ -7040,7 +7042,7 @@
         <v>67</v>
       </c>
       <c r="B68">
-        <v>6600</v>
+        <v>2970</v>
       </c>
       <c r="C68">
         <v>50</v>
@@ -7054,7 +7056,7 @@
         <v>68</v>
       </c>
       <c r="B69">
-        <v>6700</v>
+        <v>3015</v>
       </c>
       <c r="C69">
         <v>50</v>
@@ -7068,7 +7070,7 @@
         <v>69</v>
       </c>
       <c r="B70">
-        <v>6800</v>
+        <v>3060</v>
       </c>
       <c r="C70">
         <v>50</v>
@@ -7082,7 +7084,7 @@
         <v>70</v>
       </c>
       <c r="B71">
-        <v>6900</v>
+        <v>3105</v>
       </c>
       <c r="C71">
         <v>50</v>
@@ -7096,7 +7098,7 @@
         <v>71</v>
       </c>
       <c r="B72">
-        <v>7000</v>
+        <v>3150</v>
       </c>
       <c r="C72">
         <v>50</v>
@@ -7110,7 +7112,7 @@
         <v>72</v>
       </c>
       <c r="B73">
-        <v>7100</v>
+        <v>3195</v>
       </c>
       <c r="C73">
         <v>50</v>
@@ -7124,7 +7126,7 @@
         <v>73</v>
       </c>
       <c r="B74">
-        <v>7200</v>
+        <v>3240</v>
       </c>
       <c r="C74">
         <v>50</v>
@@ -7138,7 +7140,7 @@
         <v>74</v>
       </c>
       <c r="B75">
-        <v>7300</v>
+        <v>3285</v>
       </c>
       <c r="C75">
         <v>50</v>
@@ -7152,7 +7154,7 @@
         <v>75</v>
       </c>
       <c r="B76">
-        <v>7400</v>
+        <v>3330</v>
       </c>
       <c r="C76">
         <v>50</v>
@@ -7166,7 +7168,7 @@
         <v>76</v>
       </c>
       <c r="B77">
-        <v>7500</v>
+        <v>3375</v>
       </c>
       <c r="C77">
         <v>50</v>
@@ -7180,7 +7182,7 @@
         <v>77</v>
       </c>
       <c r="B78">
-        <v>7600</v>
+        <v>3420</v>
       </c>
       <c r="C78">
         <v>50</v>
@@ -7194,7 +7196,7 @@
         <v>78</v>
       </c>
       <c r="B79">
-        <v>7700</v>
+        <v>3465</v>
       </c>
       <c r="C79">
         <v>50</v>
@@ -7208,7 +7210,7 @@
         <v>79</v>
       </c>
       <c r="B80">
-        <v>7800</v>
+        <v>3510</v>
       </c>
       <c r="C80">
         <v>50</v>
@@ -7222,7 +7224,7 @@
         <v>80</v>
       </c>
       <c r="B81">
-        <v>7900</v>
+        <v>3555</v>
       </c>
       <c r="C81">
         <v>50</v>
@@ -7236,7 +7238,7 @@
         <v>81</v>
       </c>
       <c r="B82">
-        <v>8000</v>
+        <v>3600</v>
       </c>
       <c r="C82">
         <v>50</v>
@@ -7250,7 +7252,7 @@
         <v>82</v>
       </c>
       <c r="B83">
-        <v>8100</v>
+        <v>3645</v>
       </c>
       <c r="C83">
         <v>50</v>
@@ -7264,7 +7266,7 @@
         <v>83</v>
       </c>
       <c r="B84">
-        <v>8200</v>
+        <v>3690</v>
       </c>
       <c r="C84">
         <v>50</v>
@@ -7278,7 +7280,7 @@
         <v>84</v>
       </c>
       <c r="B85">
-        <v>8300</v>
+        <v>3735</v>
       </c>
       <c r="C85">
         <v>50</v>
@@ -7292,7 +7294,7 @@
         <v>85</v>
       </c>
       <c r="B86">
-        <v>8400</v>
+        <v>3780</v>
       </c>
       <c r="C86">
         <v>50</v>
@@ -7306,7 +7308,7 @@
         <v>86</v>
       </c>
       <c r="B87">
-        <v>8500</v>
+        <v>3825</v>
       </c>
       <c r="C87">
         <v>50</v>
@@ -7320,7 +7322,7 @@
         <v>87</v>
       </c>
       <c r="B88">
-        <v>8600</v>
+        <v>3870</v>
       </c>
       <c r="C88">
         <v>50</v>
@@ -7334,7 +7336,7 @@
         <v>88</v>
       </c>
       <c r="B89">
-        <v>8700</v>
+        <v>3915</v>
       </c>
       <c r="C89">
         <v>50</v>
@@ -7348,7 +7350,7 @@
         <v>89</v>
       </c>
       <c r="B90">
-        <v>8800</v>
+        <v>3960</v>
       </c>
       <c r="C90">
         <v>50</v>
@@ -7362,7 +7364,7 @@
         <v>90</v>
       </c>
       <c r="B91">
-        <v>8900</v>
+        <v>4005</v>
       </c>
       <c r="C91">
         <v>50</v>
@@ -7376,7 +7378,7 @@
         <v>91</v>
       </c>
       <c r="B92">
-        <v>9000</v>
+        <v>4050</v>
       </c>
       <c r="C92">
         <v>50</v>
@@ -7390,7 +7392,7 @@
         <v>92</v>
       </c>
       <c r="B93">
-        <v>9100</v>
+        <v>4095</v>
       </c>
       <c r="C93">
         <v>50</v>
@@ -7404,7 +7406,7 @@
         <v>93</v>
       </c>
       <c r="B94">
-        <v>9200</v>
+        <v>4140</v>
       </c>
       <c r="C94">
         <v>50</v>
@@ -7418,7 +7420,7 @@
         <v>94</v>
       </c>
       <c r="B95">
-        <v>9300</v>
+        <v>4185</v>
       </c>
       <c r="C95">
         <v>50</v>
@@ -7432,7 +7434,7 @@
         <v>95</v>
       </c>
       <c r="B96">
-        <v>9400</v>
+        <v>4230</v>
       </c>
       <c r="C96">
         <v>50</v>
@@ -7446,7 +7448,7 @@
         <v>96</v>
       </c>
       <c r="B97">
-        <v>9500</v>
+        <v>4275</v>
       </c>
       <c r="C97">
         <v>50</v>
@@ -7460,7 +7462,7 @@
         <v>97</v>
       </c>
       <c r="B98">
-        <v>9600</v>
+        <v>4320</v>
       </c>
       <c r="C98">
         <v>50</v>
@@ -7474,7 +7476,7 @@
         <v>98</v>
       </c>
       <c r="B99">
-        <v>9700</v>
+        <v>4365</v>
       </c>
       <c r="C99">
         <v>50</v>
@@ -7488,7 +7490,7 @@
         <v>99</v>
       </c>
       <c r="B100">
-        <v>9800</v>
+        <v>4410</v>
       </c>
       <c r="C100">
         <v>50</v>
@@ -7502,7 +7504,7 @@
         <v>100</v>
       </c>
       <c r="B101">
-        <v>9900</v>
+        <v>4455</v>
       </c>
       <c r="C101">
         <v>50</v>
@@ -7516,7 +7518,7 @@
         <v>101</v>
       </c>
       <c r="B102">
-        <v>10000</v>
+        <v>4500</v>
       </c>
       <c r="C102">
         <v>50</v>
@@ -7530,7 +7532,7 @@
         <v>102</v>
       </c>
       <c r="B103">
-        <v>10100</v>
+        <v>4545</v>
       </c>
       <c r="C103">
         <v>50</v>
@@ -7544,7 +7546,7 @@
         <v>103</v>
       </c>
       <c r="B104">
-        <v>10200</v>
+        <v>4590</v>
       </c>
       <c r="C104">
         <v>50</v>
@@ -7558,7 +7560,7 @@
         <v>104</v>
       </c>
       <c r="B105">
-        <v>10300</v>
+        <v>4635</v>
       </c>
       <c r="C105">
         <v>50</v>
@@ -7572,7 +7574,7 @@
         <v>105</v>
       </c>
       <c r="B106">
-        <v>10400</v>
+        <v>4680</v>
       </c>
       <c r="C106">
         <v>50</v>
@@ -7586,7 +7588,7 @@
         <v>106</v>
       </c>
       <c r="B107">
-        <v>10500</v>
+        <v>4725</v>
       </c>
       <c r="C107">
         <v>50</v>
@@ -7600,7 +7602,7 @@
         <v>107</v>
       </c>
       <c r="B108">
-        <v>10600</v>
+        <v>4770</v>
       </c>
       <c r="C108">
         <v>50</v>
@@ -7614,7 +7616,7 @@
         <v>108</v>
       </c>
       <c r="B109">
-        <v>10700</v>
+        <v>4815</v>
       </c>
       <c r="C109">
         <v>50</v>
@@ -7628,7 +7630,7 @@
         <v>109</v>
       </c>
       <c r="B110">
-        <v>10800</v>
+        <v>4860</v>
       </c>
       <c r="C110">
         <v>50</v>
@@ -7642,7 +7644,7 @@
         <v>110</v>
       </c>
       <c r="B111">
-        <v>10900</v>
+        <v>4905</v>
       </c>
       <c r="C111">
         <v>50</v>
@@ -7656,7 +7658,7 @@
         <v>111</v>
       </c>
       <c r="B112">
-        <v>11000</v>
+        <v>4950</v>
       </c>
       <c r="C112">
         <v>50</v>
@@ -7670,7 +7672,7 @@
         <v>112</v>
       </c>
       <c r="B113">
-        <v>11100</v>
+        <v>4995</v>
       </c>
       <c r="C113">
         <v>50</v>
@@ -7684,7 +7686,7 @@
         <v>113</v>
       </c>
       <c r="B114">
-        <v>11200</v>
+        <v>5040</v>
       </c>
       <c r="C114">
         <v>50</v>
@@ -7698,7 +7700,7 @@
         <v>114</v>
       </c>
       <c r="B115">
-        <v>11300</v>
+        <v>5085</v>
       </c>
       <c r="C115">
         <v>50</v>
@@ -7712,7 +7714,7 @@
         <v>115</v>
       </c>
       <c r="B116">
-        <v>11400</v>
+        <v>5130</v>
       </c>
       <c r="C116">
         <v>50</v>
@@ -7726,7 +7728,7 @@
         <v>116</v>
       </c>
       <c r="B117">
-        <v>11500</v>
+        <v>5175</v>
       </c>
       <c r="C117">
         <v>50</v>
@@ -7740,7 +7742,7 @@
         <v>117</v>
       </c>
       <c r="B118">
-        <v>11600</v>
+        <v>5220</v>
       </c>
       <c r="C118">
         <v>50</v>
@@ -7754,7 +7756,7 @@
         <v>118</v>
       </c>
       <c r="B119">
-        <v>11700</v>
+        <v>5265</v>
       </c>
       <c r="C119">
         <v>50</v>
@@ -7768,7 +7770,7 @@
         <v>119</v>
       </c>
       <c r="B120">
-        <v>11800</v>
+        <v>5310</v>
       </c>
       <c r="C120">
         <v>50</v>
@@ -7782,7 +7784,7 @@
         <v>120</v>
       </c>
       <c r="B121">
-        <v>11900</v>
+        <v>5355</v>
       </c>
       <c r="C121">
         <v>50</v>
@@ -7796,7 +7798,7 @@
         <v>121</v>
       </c>
       <c r="B122">
-        <v>12000</v>
+        <v>5400</v>
       </c>
       <c r="C122">
         <v>50</v>
@@ -7810,7 +7812,7 @@
         <v>122</v>
       </c>
       <c r="B123">
-        <v>12100</v>
+        <v>5445</v>
       </c>
       <c r="C123">
         <v>50</v>
@@ -7824,7 +7826,7 @@
         <v>123</v>
       </c>
       <c r="B124">
-        <v>12200</v>
+        <v>5490</v>
       </c>
       <c r="C124">
         <v>50</v>
@@ -7838,7 +7840,7 @@
         <v>124</v>
       </c>
       <c r="B125">
-        <v>12300</v>
+        <v>5535</v>
       </c>
       <c r="C125">
         <v>50</v>
@@ -7852,7 +7854,7 @@
         <v>125</v>
       </c>
       <c r="B126">
-        <v>12400</v>
+        <v>5580</v>
       </c>
       <c r="C126">
         <v>50</v>
@@ -7866,7 +7868,7 @@
         <v>126</v>
       </c>
       <c r="B127">
-        <v>12500</v>
+        <v>5625</v>
       </c>
       <c r="C127">
         <v>50</v>
@@ -7880,7 +7882,7 @@
         <v>127</v>
       </c>
       <c r="B128">
-        <v>12600</v>
+        <v>5670</v>
       </c>
       <c r="C128">
         <v>50</v>
@@ -7894,7 +7896,7 @@
         <v>128</v>
       </c>
       <c r="B129">
-        <v>12700</v>
+        <v>5715</v>
       </c>
       <c r="C129">
         <v>50</v>
@@ -7908,7 +7910,7 @@
         <v>129</v>
       </c>
       <c r="B130">
-        <v>12800</v>
+        <v>5760</v>
       </c>
       <c r="C130">
         <v>50</v>
@@ -7922,7 +7924,7 @@
         <v>130</v>
       </c>
       <c r="B131">
-        <v>12900</v>
+        <v>5805</v>
       </c>
       <c r="C131">
         <v>50</v>
@@ -7936,7 +7938,7 @@
         <v>131</v>
       </c>
       <c r="B132">
-        <v>13000</v>
+        <v>5850</v>
       </c>
       <c r="C132">
         <v>50</v>
@@ -7950,7 +7952,7 @@
         <v>132</v>
       </c>
       <c r="B133">
-        <v>13100</v>
+        <v>5895</v>
       </c>
       <c r="C133">
         <v>50</v>
@@ -7964,7 +7966,7 @@
         <v>133</v>
       </c>
       <c r="B134">
-        <v>13200</v>
+        <v>5940</v>
       </c>
       <c r="C134">
         <v>50</v>
@@ -7978,7 +7980,7 @@
         <v>134</v>
       </c>
       <c r="B135">
-        <v>13300</v>
+        <v>5985</v>
       </c>
       <c r="C135">
         <v>50</v>
@@ -7992,7 +7994,7 @@
         <v>135</v>
       </c>
       <c r="B136">
-        <v>13400</v>
+        <v>6030</v>
       </c>
       <c r="C136">
         <v>50</v>
@@ -8006,7 +8008,7 @@
         <v>136</v>
       </c>
       <c r="B137">
-        <v>13500</v>
+        <v>6075</v>
       </c>
       <c r="C137">
         <v>50</v>
@@ -8020,7 +8022,7 @@
         <v>137</v>
       </c>
       <c r="B138">
-        <v>13600</v>
+        <v>6120</v>
       </c>
       <c r="C138">
         <v>50</v>
@@ -8034,7 +8036,7 @@
         <v>138</v>
       </c>
       <c r="B139">
-        <v>13700</v>
+        <v>6165</v>
       </c>
       <c r="C139">
         <v>50</v>
@@ -8048,7 +8050,7 @@
         <v>139</v>
       </c>
       <c r="B140">
-        <v>13800</v>
+        <v>6210</v>
       </c>
       <c r="C140">
         <v>50</v>
@@ -8062,7 +8064,7 @@
         <v>140</v>
       </c>
       <c r="B141">
-        <v>13900</v>
+        <v>6255</v>
       </c>
       <c r="C141">
         <v>50</v>
@@ -8076,7 +8078,7 @@
         <v>141</v>
       </c>
       <c r="B142">
-        <v>14000</v>
+        <v>6300</v>
       </c>
       <c r="C142">
         <v>50</v>
@@ -8090,7 +8092,7 @@
         <v>142</v>
       </c>
       <c r="B143">
-        <v>14100</v>
+        <v>6345</v>
       </c>
       <c r="C143">
         <v>50</v>
@@ -8104,7 +8106,7 @@
         <v>143</v>
       </c>
       <c r="B144">
-        <v>14200</v>
+        <v>6390</v>
       </c>
       <c r="C144">
         <v>50</v>
@@ -8118,7 +8120,7 @@
         <v>144</v>
       </c>
       <c r="B145">
-        <v>14300</v>
+        <v>6435</v>
       </c>
       <c r="C145">
         <v>50</v>
@@ -8132,7 +8134,7 @@
         <v>145</v>
       </c>
       <c r="B146">
-        <v>14400</v>
+        <v>6480</v>
       </c>
       <c r="C146">
         <v>50</v>
@@ -8146,7 +8148,7 @@
         <v>146</v>
       </c>
       <c r="B147">
-        <v>14500</v>
+        <v>6525</v>
       </c>
       <c r="C147">
         <v>50</v>
@@ -8160,7 +8162,7 @@
         <v>147</v>
       </c>
       <c r="B148">
-        <v>14600</v>
+        <v>6570</v>
       </c>
       <c r="C148">
         <v>50</v>
@@ -8174,7 +8176,7 @@
         <v>148</v>
       </c>
       <c r="B149">
-        <v>14700</v>
+        <v>6615</v>
       </c>
       <c r="C149">
         <v>50</v>
@@ -8188,7 +8190,7 @@
         <v>149</v>
       </c>
       <c r="B150">
-        <v>14800</v>
+        <v>6660</v>
       </c>
       <c r="C150">
         <v>50</v>
@@ -8202,7 +8204,7 @@
         <v>150</v>
       </c>
       <c r="B151">
-        <v>14900</v>
+        <v>6705</v>
       </c>
       <c r="C151">
         <v>50</v>
@@ -8216,7 +8218,7 @@
         <v>151</v>
       </c>
       <c r="B152">
-        <v>15000</v>
+        <v>6750</v>
       </c>
       <c r="C152">
         <v>50</v>
@@ -8230,7 +8232,7 @@
         <v>152</v>
       </c>
       <c r="B153">
-        <v>15100</v>
+        <v>6795</v>
       </c>
       <c r="C153">
         <v>50</v>
@@ -8244,7 +8246,7 @@
         <v>153</v>
       </c>
       <c r="B154">
-        <v>15200</v>
+        <v>6840</v>
       </c>
       <c r="C154">
         <v>50</v>
@@ -8258,7 +8260,7 @@
         <v>154</v>
       </c>
       <c r="B155">
-        <v>15300</v>
+        <v>6885</v>
       </c>
       <c r="C155">
         <v>50</v>
@@ -8272,7 +8274,7 @@
         <v>155</v>
       </c>
       <c r="B156">
-        <v>15400</v>
+        <v>6930</v>
       </c>
       <c r="C156">
         <v>50</v>
@@ -8286,7 +8288,7 @@
         <v>156</v>
       </c>
       <c r="B157">
-        <v>15500</v>
+        <v>6975</v>
       </c>
       <c r="C157">
         <v>50</v>
@@ -8300,7 +8302,7 @@
         <v>157</v>
       </c>
       <c r="B158">
-        <v>15600</v>
+        <v>7020</v>
       </c>
       <c r="C158">
         <v>50</v>
@@ -8314,7 +8316,7 @@
         <v>158</v>
       </c>
       <c r="B159">
-        <v>15700</v>
+        <v>7065</v>
       </c>
       <c r="C159">
         <v>50</v>
@@ -8328,7 +8330,7 @@
         <v>159</v>
       </c>
       <c r="B160">
-        <v>15800</v>
+        <v>7110</v>
       </c>
       <c r="C160">
         <v>50</v>
@@ -8342,7 +8344,7 @@
         <v>160</v>
       </c>
       <c r="B161">
-        <v>15900</v>
+        <v>7155</v>
       </c>
       <c r="C161">
         <v>50</v>
@@ -8356,7 +8358,7 @@
         <v>161</v>
       </c>
       <c r="B162">
-        <v>16000</v>
+        <v>7200</v>
       </c>
       <c r="C162">
         <v>50</v>
@@ -8370,7 +8372,7 @@
         <v>162</v>
       </c>
       <c r="B163">
-        <v>16100</v>
+        <v>7245</v>
       </c>
       <c r="C163">
         <v>50</v>
@@ -8384,7 +8386,7 @@
         <v>163</v>
       </c>
       <c r="B164">
-        <v>16200</v>
+        <v>7290</v>
       </c>
       <c r="C164">
         <v>50</v>
@@ -8398,7 +8400,7 @@
         <v>164</v>
       </c>
       <c r="B165">
-        <v>16300</v>
+        <v>7335</v>
       </c>
       <c r="C165">
         <v>50</v>
@@ -8412,7 +8414,7 @@
         <v>165</v>
       </c>
       <c r="B166">
-        <v>16400</v>
+        <v>7380</v>
       </c>
       <c r="C166">
         <v>50</v>
@@ -8426,7 +8428,7 @@
         <v>166</v>
       </c>
       <c r="B167">
-        <v>16500</v>
+        <v>7425</v>
       </c>
       <c r="C167">
         <v>50</v>
@@ -8440,7 +8442,7 @@
         <v>167</v>
       </c>
       <c r="B168">
-        <v>16600</v>
+        <v>7470</v>
       </c>
       <c r="C168">
         <v>50</v>
@@ -8454,7 +8456,7 @@
         <v>168</v>
       </c>
       <c r="B169">
-        <v>16700</v>
+        <v>7515</v>
       </c>
       <c r="C169">
         <v>50</v>
@@ -8468,7 +8470,7 @@
         <v>169</v>
       </c>
       <c r="B170">
-        <v>16800</v>
+        <v>7560</v>
       </c>
       <c r="C170">
         <v>50</v>
@@ -8482,7 +8484,7 @@
         <v>170</v>
       </c>
       <c r="B171">
-        <v>16900</v>
+        <v>7605</v>
       </c>
       <c r="C171">
         <v>50</v>
@@ -8496,7 +8498,7 @@
         <v>171</v>
       </c>
       <c r="B172">
-        <v>17000</v>
+        <v>7650</v>
       </c>
       <c r="C172">
         <v>50</v>
@@ -8510,7 +8512,7 @@
         <v>172</v>
       </c>
       <c r="B173">
-        <v>17100</v>
+        <v>7695</v>
       </c>
       <c r="C173">
         <v>50</v>
@@ -8524,7 +8526,7 @@
         <v>173</v>
       </c>
       <c r="B174">
-        <v>17200</v>
+        <v>7740</v>
       </c>
       <c r="C174">
         <v>50</v>
@@ -8538,7 +8540,7 @@
         <v>174</v>
       </c>
       <c r="B175">
-        <v>17300</v>
+        <v>7785</v>
       </c>
       <c r="C175">
         <v>50</v>
@@ -8552,7 +8554,7 @@
         <v>175</v>
       </c>
       <c r="B176">
-        <v>17400</v>
+        <v>7830</v>
       </c>
       <c r="C176">
         <v>50</v>
@@ -8566,7 +8568,7 @@
         <v>176</v>
       </c>
       <c r="B177">
-        <v>17500</v>
+        <v>7875</v>
       </c>
       <c r="C177">
         <v>50</v>
@@ -8580,7 +8582,7 @@
         <v>177</v>
       </c>
       <c r="B178">
-        <v>17600</v>
+        <v>7920</v>
       </c>
       <c r="C178">
         <v>50</v>
@@ -8594,7 +8596,7 @@
         <v>178</v>
       </c>
       <c r="B179">
-        <v>17700</v>
+        <v>7965</v>
       </c>
       <c r="C179">
         <v>50</v>
@@ -8608,7 +8610,7 @@
         <v>179</v>
       </c>
       <c r="B180">
-        <v>17800</v>
+        <v>8010</v>
       </c>
       <c r="C180">
         <v>50</v>
@@ -8622,7 +8624,7 @@
         <v>180</v>
       </c>
       <c r="B181">
-        <v>17900</v>
+        <v>8055</v>
       </c>
       <c r="C181">
         <v>50</v>
@@ -8636,7 +8638,7 @@
         <v>181</v>
       </c>
       <c r="B182">
-        <v>18000</v>
+        <v>8100</v>
       </c>
       <c r="C182">
         <v>50</v>
@@ -8650,7 +8652,7 @@
         <v>182</v>
       </c>
       <c r="B183">
-        <v>18100</v>
+        <v>8145</v>
       </c>
       <c r="C183">
         <v>50</v>
@@ -8664,7 +8666,7 @@
         <v>183</v>
       </c>
       <c r="B184">
-        <v>18200</v>
+        <v>8190</v>
       </c>
       <c r="C184">
         <v>50</v>
@@ -8678,7 +8680,7 @@
         <v>184</v>
       </c>
       <c r="B185">
-        <v>18300</v>
+        <v>8235</v>
       </c>
       <c r="C185">
         <v>50</v>
@@ -8692,7 +8694,7 @@
         <v>185</v>
       </c>
       <c r="B186">
-        <v>18400</v>
+        <v>8280</v>
       </c>
       <c r="C186">
         <v>50</v>
@@ -8706,7 +8708,7 @@
         <v>186</v>
       </c>
       <c r="B187">
-        <v>18500</v>
+        <v>8325</v>
       </c>
       <c r="C187">
         <v>50</v>
@@ -8720,7 +8722,7 @@
         <v>187</v>
       </c>
       <c r="B188">
-        <v>18600</v>
+        <v>8370</v>
       </c>
       <c r="C188">
         <v>50</v>
@@ -8734,7 +8736,7 @@
         <v>188</v>
       </c>
       <c r="B189">
-        <v>18700</v>
+        <v>8415</v>
       </c>
       <c r="C189">
         <v>50</v>
@@ -8748,7 +8750,7 @@
         <v>189</v>
       </c>
       <c r="B190">
-        <v>18800</v>
+        <v>8460</v>
       </c>
       <c r="C190">
         <v>50</v>
@@ -8762,7 +8764,7 @@
         <v>190</v>
       </c>
       <c r="B191">
-        <v>18900</v>
+        <v>8505</v>
       </c>
       <c r="C191">
         <v>50</v>
@@ -8776,7 +8778,7 @@
         <v>191</v>
       </c>
       <c r="B192">
-        <v>19000</v>
+        <v>8550</v>
       </c>
       <c r="C192">
         <v>50</v>
@@ -8790,7 +8792,7 @@
         <v>192</v>
       </c>
       <c r="B193">
-        <v>19100</v>
+        <v>8595</v>
       </c>
       <c r="C193">
         <v>50</v>
@@ -8804,7 +8806,7 @@
         <v>193</v>
       </c>
       <c r="B194">
-        <v>19200</v>
+        <v>8640</v>
       </c>
       <c r="C194">
         <v>50</v>
@@ -8818,7 +8820,7 @@
         <v>194</v>
       </c>
       <c r="B195">
-        <v>19300</v>
+        <v>8685</v>
       </c>
       <c r="C195">
         <v>50</v>
@@ -8832,7 +8834,7 @@
         <v>195</v>
       </c>
       <c r="B196">
-        <v>19400</v>
+        <v>8730</v>
       </c>
       <c r="C196">
         <v>50</v>
@@ -8846,7 +8848,7 @@
         <v>196</v>
       </c>
       <c r="B197">
-        <v>19500</v>
+        <v>8775</v>
       </c>
       <c r="C197">
         <v>50</v>
@@ -8860,7 +8862,7 @@
         <v>197</v>
       </c>
       <c r="B198">
-        <v>19600</v>
+        <v>8820</v>
       </c>
       <c r="C198">
         <v>50</v>
@@ -8874,7 +8876,7 @@
         <v>198</v>
       </c>
       <c r="B199">
-        <v>19700</v>
+        <v>8865</v>
       </c>
       <c r="C199">
         <v>50</v>
@@ -8888,7 +8890,7 @@
         <v>199</v>
       </c>
       <c r="B200">
-        <v>19800</v>
+        <v>8910</v>
       </c>
       <c r="C200">
         <v>50</v>
@@ -8902,7 +8904,7 @@
         <v>200</v>
       </c>
       <c r="B201">
-        <v>19900</v>
+        <v>8955</v>
       </c>
       <c r="C201">
         <v>50</v>
@@ -8916,7 +8918,7 @@
         <v>201</v>
       </c>
       <c r="B202">
-        <v>20000</v>
+        <v>9000</v>
       </c>
       <c r="C202">
         <v>50</v>
@@ -8930,7 +8932,7 @@
         <v>202</v>
       </c>
       <c r="B203">
-        <v>20100</v>
+        <v>9045</v>
       </c>
       <c r="C203">
         <v>50</v>
@@ -8944,7 +8946,7 @@
         <v>203</v>
       </c>
       <c r="B204">
-        <v>20200</v>
+        <v>9090</v>
       </c>
       <c r="C204">
         <v>50</v>
@@ -8958,7 +8960,7 @@
         <v>204</v>
       </c>
       <c r="B205">
-        <v>20300</v>
+        <v>9135</v>
       </c>
       <c r="C205">
         <v>50</v>
@@ -8972,7 +8974,7 @@
         <v>205</v>
       </c>
       <c r="B206">
-        <v>20400</v>
+        <v>9180</v>
       </c>
       <c r="C206">
         <v>50</v>
@@ -8986,7 +8988,7 @@
         <v>206</v>
       </c>
       <c r="B207">
-        <v>20500</v>
+        <v>9225</v>
       </c>
       <c r="C207">
         <v>50</v>
@@ -9000,7 +9002,7 @@
         <v>207</v>
       </c>
       <c r="B208">
-        <v>20600</v>
+        <v>9270</v>
       </c>
       <c r="C208">
         <v>50</v>
@@ -9014,7 +9016,7 @@
         <v>208</v>
       </c>
       <c r="B209">
-        <v>20700</v>
+        <v>9315</v>
       </c>
       <c r="C209">
         <v>50</v>
@@ -9028,7 +9030,7 @@
         <v>209</v>
       </c>
       <c r="B210">
-        <v>20800</v>
+        <v>9360</v>
       </c>
       <c r="C210">
         <v>50</v>
@@ -9042,7 +9044,7 @@
         <v>210</v>
       </c>
       <c r="B211">
-        <v>20900</v>
+        <v>9405</v>
       </c>
       <c r="C211">
         <v>50</v>
@@ -9056,7 +9058,7 @@
         <v>211</v>
       </c>
       <c r="B212">
-        <v>21000</v>
+        <v>9450</v>
       </c>
       <c r="C212">
         <v>50</v>
@@ -9070,7 +9072,7 @@
         <v>212</v>
       </c>
       <c r="B213">
-        <v>21100</v>
+        <v>9495</v>
       </c>
       <c r="C213">
         <v>50</v>
@@ -9084,7 +9086,7 @@
         <v>213</v>
       </c>
       <c r="B214">
-        <v>21200</v>
+        <v>9540</v>
       </c>
       <c r="C214">
         <v>50</v>
@@ -9098,7 +9100,7 @@
         <v>214</v>
       </c>
       <c r="B215">
-        <v>21300</v>
+        <v>9585</v>
       </c>
       <c r="C215">
         <v>50</v>
@@ -9112,7 +9114,7 @@
         <v>215</v>
       </c>
       <c r="B216">
-        <v>21400</v>
+        <v>9630</v>
       </c>
       <c r="C216">
         <v>50</v>
@@ -9126,7 +9128,7 @@
         <v>216</v>
       </c>
       <c r="B217">
-        <v>21500</v>
+        <v>9675</v>
       </c>
       <c r="C217">
         <v>50</v>
@@ -9140,7 +9142,7 @@
         <v>217</v>
       </c>
       <c r="B218">
-        <v>21600</v>
+        <v>9720</v>
       </c>
       <c r="C218">
         <v>50</v>
@@ -9154,7 +9156,7 @@
         <v>218</v>
       </c>
       <c r="B219">
-        <v>21700</v>
+        <v>9765</v>
       </c>
       <c r="C219">
         <v>50</v>
@@ -9168,7 +9170,7 @@
         <v>219</v>
       </c>
       <c r="B220">
-        <v>21800</v>
+        <v>9810</v>
       </c>
       <c r="C220">
         <v>50</v>
@@ -9182,7 +9184,7 @@
         <v>220</v>
       </c>
       <c r="B221">
-        <v>21900</v>
+        <v>9855</v>
       </c>
       <c r="C221">
         <v>50</v>
@@ -9196,7 +9198,7 @@
         <v>221</v>
       </c>
       <c r="B222">
-        <v>22000</v>
+        <v>9900</v>
       </c>
       <c r="C222">
         <v>50</v>
@@ -9210,7 +9212,7 @@
         <v>222</v>
       </c>
       <c r="B223">
-        <v>22100</v>
+        <v>9945</v>
       </c>
       <c r="C223">
         <v>50</v>
@@ -9224,7 +9226,7 @@
         <v>223</v>
       </c>
       <c r="B224">
-        <v>22200</v>
+        <v>9990</v>
       </c>
       <c r="C224">
         <v>50</v>
@@ -9238,7 +9240,7 @@
         <v>224</v>
       </c>
       <c r="B225">
-        <v>22300</v>
+        <v>10035</v>
       </c>
       <c r="C225">
         <v>50</v>
@@ -9252,7 +9254,7 @@
         <v>225</v>
       </c>
       <c r="B226">
-        <v>22400</v>
+        <v>10080</v>
       </c>
       <c r="C226">
         <v>50</v>
@@ -9266,7 +9268,7 @@
         <v>226</v>
       </c>
       <c r="B227">
-        <v>22500</v>
+        <v>10125</v>
       </c>
       <c r="C227">
         <v>50</v>
@@ -9280,7 +9282,7 @@
         <v>227</v>
       </c>
       <c r="B228">
-        <v>22600</v>
+        <v>10170</v>
       </c>
       <c r="C228">
         <v>50</v>
@@ -9294,7 +9296,7 @@
         <v>228</v>
       </c>
       <c r="B229">
-        <v>22700</v>
+        <v>10215</v>
       </c>
       <c r="C229">
         <v>50</v>
@@ -9308,7 +9310,7 @@
         <v>229</v>
       </c>
       <c r="B230">
-        <v>22800</v>
+        <v>10260</v>
       </c>
       <c r="C230">
         <v>50</v>
@@ -9322,7 +9324,7 @@
         <v>230</v>
       </c>
       <c r="B231">
-        <v>22900</v>
+        <v>10305</v>
       </c>
       <c r="C231">
         <v>50</v>
@@ -9336,7 +9338,7 @@
         <v>231</v>
       </c>
       <c r="B232">
-        <v>23000</v>
+        <v>10350</v>
       </c>
       <c r="C232">
         <v>50</v>
@@ -9350,7 +9352,7 @@
         <v>232</v>
       </c>
       <c r="B233">
-        <v>23100</v>
+        <v>10395</v>
       </c>
       <c r="C233">
         <v>50</v>
@@ -9364,7 +9366,7 @@
         <v>233</v>
       </c>
       <c r="B234">
-        <v>23200</v>
+        <v>10440</v>
       </c>
       <c r="C234">
         <v>50</v>
@@ -9378,7 +9380,7 @@
         <v>234</v>
       </c>
       <c r="B235">
-        <v>23300</v>
+        <v>10485</v>
       </c>
       <c r="C235">
         <v>50</v>
@@ -9392,7 +9394,7 @@
         <v>235</v>
       </c>
       <c r="B236">
-        <v>23400</v>
+        <v>10530</v>
       </c>
       <c r="C236">
         <v>50</v>
@@ -9406,7 +9408,7 @@
         <v>236</v>
       </c>
       <c r="B237">
-        <v>23500</v>
+        <v>10575</v>
       </c>
       <c r="C237">
         <v>50</v>
@@ -9420,7 +9422,7 @@
         <v>237</v>
       </c>
       <c r="B238">
-        <v>23600</v>
+        <v>10620</v>
       </c>
       <c r="C238">
         <v>50</v>
@@ -9434,7 +9436,7 @@
         <v>238</v>
       </c>
       <c r="B239">
-        <v>23700</v>
+        <v>10665</v>
       </c>
       <c r="C239">
         <v>50</v>
@@ -9448,7 +9450,7 @@
         <v>239</v>
       </c>
       <c r="B240">
-        <v>23800</v>
+        <v>10710</v>
       </c>
       <c r="C240">
         <v>50</v>
@@ -9462,7 +9464,7 @@
         <v>240</v>
       </c>
       <c r="B241">
-        <v>23900</v>
+        <v>10755</v>
       </c>
       <c r="C241">
         <v>50</v>
@@ -9476,7 +9478,7 @@
         <v>241</v>
       </c>
       <c r="B242">
-        <v>24000</v>
+        <v>10800</v>
       </c>
       <c r="C242">
         <v>50</v>
@@ -9490,7 +9492,7 @@
         <v>242</v>
       </c>
       <c r="B243">
-        <v>24100</v>
+        <v>10845</v>
       </c>
       <c r="C243">
         <v>50</v>
@@ -9504,7 +9506,7 @@
         <v>243</v>
       </c>
       <c r="B244">
-        <v>24200</v>
+        <v>10890</v>
       </c>
       <c r="C244">
         <v>50</v>
@@ -9518,7 +9520,7 @@
         <v>244</v>
       </c>
       <c r="B245">
-        <v>24300</v>
+        <v>10935</v>
       </c>
       <c r="C245">
         <v>50</v>
@@ -9532,7 +9534,7 @@
         <v>245</v>
       </c>
       <c r="B246">
-        <v>24400</v>
+        <v>10980</v>
       </c>
       <c r="C246">
         <v>50</v>
@@ -9546,7 +9548,7 @@
         <v>246</v>
       </c>
       <c r="B247">
-        <v>24500</v>
+        <v>11025</v>
       </c>
       <c r="C247">
         <v>50</v>
@@ -9560,7 +9562,7 @@
         <v>247</v>
       </c>
       <c r="B248">
-        <v>24600</v>
+        <v>11070</v>
       </c>
       <c r="C248">
         <v>50</v>
@@ -9574,7 +9576,7 @@
         <v>248</v>
       </c>
       <c r="B249">
-        <v>24700</v>
+        <v>11115</v>
       </c>
       <c r="C249">
         <v>50</v>
@@ -9588,7 +9590,7 @@
         <v>249</v>
       </c>
       <c r="B250">
-        <v>24800</v>
+        <v>11160</v>
       </c>
       <c r="C250">
         <v>50</v>
@@ -9602,7 +9604,7 @@
         <v>250</v>
       </c>
       <c r="B251">
-        <v>24900</v>
+        <v>11205</v>
       </c>
       <c r="C251">
         <v>50</v>
@@ -9616,7 +9618,7 @@
         <v>251</v>
       </c>
       <c r="B252">
-        <v>25000</v>
+        <v>11250</v>
       </c>
       <c r="C252">
         <v>50</v>
@@ -9630,7 +9632,7 @@
         <v>252</v>
       </c>
       <c r="B253">
-        <v>25100</v>
+        <v>11295</v>
       </c>
       <c r="C253">
         <v>50</v>
@@ -9644,7 +9646,7 @@
         <v>253</v>
       </c>
       <c r="B254">
-        <v>25200</v>
+        <v>11340</v>
       </c>
       <c r="C254">
         <v>50</v>
@@ -9658,7 +9660,7 @@
         <v>254</v>
       </c>
       <c r="B255">
-        <v>25300</v>
+        <v>11385</v>
       </c>
       <c r="C255">
         <v>50</v>
@@ -9672,7 +9674,7 @@
         <v>255</v>
       </c>
       <c r="B256">
-        <v>25400</v>
+        <v>11430</v>
       </c>
       <c r="C256">
         <v>50</v>
@@ -9686,7 +9688,7 @@
         <v>256</v>
       </c>
       <c r="B257">
-        <v>25500</v>
+        <v>11475</v>
       </c>
       <c r="C257">
         <v>50</v>
@@ -9700,7 +9702,7 @@
         <v>257</v>
       </c>
       <c r="B258">
-        <v>25600</v>
+        <v>11520</v>
       </c>
       <c r="C258">
         <v>50</v>
@@ -9714,7 +9716,7 @@
         <v>258</v>
       </c>
       <c r="B259">
-        <v>25700</v>
+        <v>11565</v>
       </c>
       <c r="C259">
         <v>50</v>
@@ -9728,7 +9730,7 @@
         <v>259</v>
       </c>
       <c r="B260">
-        <v>25800</v>
+        <v>11610</v>
       </c>
       <c r="C260">
         <v>50</v>
@@ -9742,7 +9744,7 @@
         <v>260</v>
       </c>
       <c r="B261">
-        <v>25900</v>
+        <v>11655</v>
       </c>
       <c r="C261">
         <v>50</v>
@@ -9756,7 +9758,7 @@
         <v>261</v>
       </c>
       <c r="B262">
-        <v>26000</v>
+        <v>11700</v>
       </c>
       <c r="C262">
         <v>50</v>
@@ -9770,7 +9772,7 @@
         <v>262</v>
       </c>
       <c r="B263">
-        <v>26100</v>
+        <v>11745</v>
       </c>
       <c r="C263">
         <v>50</v>
@@ -9784,7 +9786,7 @@
         <v>263</v>
       </c>
       <c r="B264">
-        <v>26200</v>
+        <v>11790</v>
       </c>
       <c r="C264">
         <v>50</v>
@@ -9798,7 +9800,7 @@
         <v>264</v>
       </c>
       <c r="B265">
-        <v>26300</v>
+        <v>11835</v>
       </c>
       <c r="C265">
         <v>50</v>
@@ -9812,7 +9814,7 @@
         <v>265</v>
       </c>
       <c r="B266">
-        <v>26400</v>
+        <v>11880</v>
       </c>
       <c r="C266">
         <v>50</v>
@@ -9826,7 +9828,7 @@
         <v>266</v>
       </c>
       <c r="B267">
-        <v>26500</v>
+        <v>11925</v>
       </c>
       <c r="C267">
         <v>50</v>
@@ -9840,7 +9842,7 @@
         <v>267</v>
       </c>
       <c r="B268">
-        <v>26600</v>
+        <v>11970</v>
       </c>
       <c r="C268">
         <v>50</v>
@@ -9854,7 +9856,7 @@
         <v>268</v>
       </c>
       <c r="B269">
-        <v>26700</v>
+        <v>12015</v>
       </c>
       <c r="C269">
         <v>50</v>
@@ -9868,7 +9870,7 @@
         <v>269</v>
       </c>
       <c r="B270">
-        <v>26800</v>
+        <v>12060</v>
       </c>
       <c r="C270">
         <v>50</v>
@@ -9882,7 +9884,7 @@
         <v>270</v>
       </c>
       <c r="B271">
-        <v>26900</v>
+        <v>12105</v>
       </c>
       <c r="C271">
         <v>50</v>
@@ -9896,7 +9898,7 @@
         <v>271</v>
       </c>
       <c r="B272">
-        <v>27000</v>
+        <v>12150</v>
       </c>
       <c r="C272">
         <v>50</v>
@@ -9910,7 +9912,7 @@
         <v>272</v>
       </c>
       <c r="B273">
-        <v>27100</v>
+        <v>12195</v>
       </c>
       <c r="C273">
         <v>50</v>
@@ -9924,7 +9926,7 @@
         <v>273</v>
       </c>
       <c r="B274">
-        <v>27200</v>
+        <v>12240</v>
       </c>
       <c r="C274">
         <v>50</v>
@@ -9938,7 +9940,7 @@
         <v>274</v>
       </c>
       <c r="B275">
-        <v>27300</v>
+        <v>12285</v>
       </c>
       <c r="C275">
         <v>50</v>
@@ -9952,7 +9954,7 @@
         <v>275</v>
       </c>
       <c r="B276">
-        <v>27400</v>
+        <v>12330</v>
       </c>
       <c r="C276">
         <v>50</v>
@@ -9966,7 +9968,7 @@
         <v>276</v>
       </c>
       <c r="B277">
-        <v>27500</v>
+        <v>12375</v>
       </c>
       <c r="C277">
         <v>50</v>
@@ -9980,7 +9982,7 @@
         <v>277</v>
       </c>
       <c r="B278">
-        <v>27600</v>
+        <v>12420</v>
       </c>
       <c r="C278">
         <v>50</v>
@@ -9994,7 +9996,7 @@
         <v>278</v>
       </c>
       <c r="B279">
-        <v>27700</v>
+        <v>12465</v>
       </c>
       <c r="C279">
         <v>50</v>
@@ -10008,7 +10010,7 @@
         <v>279</v>
       </c>
       <c r="B280">
-        <v>27800</v>
+        <v>12510</v>
       </c>
       <c r="C280">
         <v>50</v>
@@ -10022,7 +10024,7 @@
         <v>280</v>
       </c>
       <c r="B281">
-        <v>27900</v>
+        <v>12555</v>
       </c>
       <c r="C281">
         <v>50</v>
@@ -10036,7 +10038,7 @@
         <v>281</v>
       </c>
       <c r="B282">
-        <v>28000</v>
+        <v>12600</v>
       </c>
       <c r="C282">
         <v>50</v>
@@ -10050,7 +10052,7 @@
         <v>282</v>
       </c>
       <c r="B283">
-        <v>28100</v>
+        <v>12645</v>
       </c>
       <c r="C283">
         <v>50</v>
@@ -10064,7 +10066,7 @@
         <v>283</v>
       </c>
       <c r="B284">
-        <v>28200</v>
+        <v>12690</v>
       </c>
       <c r="C284">
         <v>50</v>
@@ -10078,7 +10080,7 @@
         <v>284</v>
       </c>
       <c r="B285">
-        <v>28300</v>
+        <v>12735</v>
       </c>
       <c r="C285">
         <v>50</v>
@@ -10092,7 +10094,7 @@
         <v>285</v>
       </c>
       <c r="B286">
-        <v>28400</v>
+        <v>12780</v>
       </c>
       <c r="C286">
         <v>50</v>
@@ -10106,7 +10108,7 @@
         <v>286</v>
       </c>
       <c r="B287">
-        <v>28500</v>
+        <v>12825</v>
       </c>
       <c r="C287">
         <v>50</v>
@@ -10120,7 +10122,7 @@
         <v>287</v>
       </c>
       <c r="B288">
-        <v>28600</v>
+        <v>12870</v>
       </c>
       <c r="C288">
         <v>50</v>
@@ -10134,7 +10136,7 @@
         <v>288</v>
       </c>
       <c r="B289">
-        <v>28700</v>
+        <v>12915</v>
       </c>
       <c r="C289">
         <v>50</v>
@@ -10148,7 +10150,7 @@
         <v>289</v>
       </c>
       <c r="B290">
-        <v>28800</v>
+        <v>12960</v>
       </c>
       <c r="C290">
         <v>50</v>
@@ -10162,7 +10164,7 @@
         <v>290</v>
       </c>
       <c r="B291">
-        <v>28900</v>
+        <v>13005</v>
       </c>
       <c r="C291">
         <v>50</v>
@@ -10176,7 +10178,7 @@
         <v>291</v>
       </c>
       <c r="B292">
-        <v>29000</v>
+        <v>13050</v>
       </c>
       <c r="C292">
         <v>50</v>
@@ -10190,7 +10192,7 @@
         <v>292</v>
       </c>
       <c r="B293">
-        <v>29100</v>
+        <v>13095</v>
       </c>
       <c r="C293">
         <v>50</v>
@@ -10204,7 +10206,7 @@
         <v>293</v>
       </c>
       <c r="B294">
-        <v>29200</v>
+        <v>13140</v>
       </c>
       <c r="C294">
         <v>50</v>
@@ -10218,7 +10220,7 @@
         <v>294</v>
       </c>
       <c r="B295">
-        <v>29300</v>
+        <v>13185</v>
       </c>
       <c r="C295">
         <v>50</v>
@@ -10232,7 +10234,7 @@
         <v>295</v>
       </c>
       <c r="B296">
-        <v>29400</v>
+        <v>13230</v>
       </c>
       <c r="C296">
         <v>50</v>
@@ -10246,7 +10248,7 @@
         <v>296</v>
       </c>
       <c r="B297">
-        <v>29500</v>
+        <v>13275</v>
       </c>
       <c r="C297">
         <v>50</v>
@@ -10260,7 +10262,7 @@
         <v>297</v>
       </c>
       <c r="B298">
-        <v>29600</v>
+        <v>13320</v>
       </c>
       <c r="C298">
         <v>50</v>
@@ -10274,7 +10276,7 @@
         <v>298</v>
       </c>
       <c r="B299">
-        <v>29700</v>
+        <v>13365</v>
       </c>
       <c r="C299">
         <v>50</v>
@@ -10288,7 +10290,7 @@
         <v>299</v>
       </c>
       <c r="B300">
-        <v>29800</v>
+        <v>13410</v>
       </c>
       <c r="C300">
         <v>50</v>
@@ -10302,7 +10304,7 @@
         <v>300</v>
       </c>
       <c r="B301">
-        <v>29900</v>
+        <v>13455</v>
       </c>
       <c r="C301">
         <v>50</v>
@@ -10316,7 +10318,7 @@
         <v>301</v>
       </c>
       <c r="B302">
-        <v>30000</v>
+        <v>13500</v>
       </c>
       <c r="C302">
         <v>50</v>
@@ -10330,7 +10332,7 @@
         <v>302</v>
       </c>
       <c r="B303">
-        <v>30100</v>
+        <v>13545</v>
       </c>
       <c r="C303">
         <v>50</v>
@@ -10344,7 +10346,7 @@
         <v>303</v>
       </c>
       <c r="B304">
-        <v>30200</v>
+        <v>13590</v>
       </c>
       <c r="C304">
         <v>50</v>
@@ -10358,7 +10360,7 @@
         <v>304</v>
       </c>
       <c r="B305">
-        <v>30300</v>
+        <v>13635</v>
       </c>
       <c r="C305">
         <v>50</v>
@@ -10372,7 +10374,7 @@
         <v>305</v>
       </c>
       <c r="B306">
-        <v>30400</v>
+        <v>13680</v>
       </c>
       <c r="C306">
         <v>50</v>
@@ -10386,7 +10388,7 @@
         <v>306</v>
       </c>
       <c r="B307">
-        <v>30500</v>
+        <v>13725</v>
       </c>
       <c r="C307">
         <v>50</v>
@@ -10400,7 +10402,7 @@
         <v>307</v>
       </c>
       <c r="B308">
-        <v>30600</v>
+        <v>13770</v>
       </c>
       <c r="C308">
         <v>50</v>
@@ -10414,7 +10416,7 @@
         <v>308</v>
       </c>
       <c r="B309">
-        <v>30700</v>
+        <v>13815</v>
       </c>
       <c r="C309">
         <v>50</v>
@@ -10428,7 +10430,7 @@
         <v>309</v>
       </c>
       <c r="B310">
-        <v>30800</v>
+        <v>13860</v>
       </c>
       <c r="C310">
         <v>50</v>
@@ -10442,7 +10444,7 @@
         <v>310</v>
       </c>
       <c r="B311">
-        <v>30900</v>
+        <v>13905</v>
       </c>
       <c r="C311">
         <v>50</v>
@@ -10456,7 +10458,7 @@
         <v>311</v>
       </c>
       <c r="B312">
-        <v>31000</v>
+        <v>13950</v>
       </c>
       <c r="C312">
         <v>50</v>
@@ -10470,7 +10472,7 @@
         <v>312</v>
       </c>
       <c r="B313">
-        <v>31100</v>
+        <v>13995</v>
       </c>
       <c r="C313">
         <v>50</v>
@@ -10484,7 +10486,7 @@
         <v>313</v>
       </c>
       <c r="B314">
-        <v>31200</v>
+        <v>14040</v>
       </c>
       <c r="C314">
         <v>50</v>
@@ -10498,7 +10500,7 @@
         <v>314</v>
       </c>
       <c r="B315">
-        <v>31300</v>
+        <v>14085</v>
       </c>
       <c r="C315">
         <v>50</v>
@@ -10512,7 +10514,7 @@
         <v>315</v>
       </c>
       <c r="B316">
-        <v>31400</v>
+        <v>14130</v>
       </c>
       <c r="C316">
         <v>50</v>
@@ -10526,7 +10528,7 @@
         <v>316</v>
       </c>
       <c r="B317">
-        <v>31500</v>
+        <v>14175</v>
       </c>
       <c r="C317">
         <v>50</v>
@@ -10540,7 +10542,7 @@
         <v>317</v>
       </c>
       <c r="B318">
-        <v>31600</v>
+        <v>14220</v>
       </c>
       <c r="C318">
         <v>50</v>
@@ -10554,7 +10556,7 @@
         <v>318</v>
       </c>
       <c r="B319">
-        <v>31700</v>
+        <v>14265</v>
       </c>
       <c r="C319">
         <v>50</v>
@@ -10568,7 +10570,7 @@
         <v>319</v>
       </c>
       <c r="B320">
-        <v>31800</v>
+        <v>14310</v>
       </c>
       <c r="C320">
         <v>50</v>
@@ -10582,7 +10584,7 @@
         <v>320</v>
       </c>
       <c r="B321">
-        <v>31900</v>
+        <v>14355</v>
       </c>
       <c r="C321">
         <v>50</v>
@@ -10596,7 +10598,7 @@
         <v>321</v>
       </c>
       <c r="B322">
-        <v>32000</v>
+        <v>14400</v>
       </c>
       <c r="C322">
         <v>50</v>
@@ -10610,7 +10612,7 @@
         <v>322</v>
       </c>
       <c r="B323">
-        <v>32100</v>
+        <v>14445</v>
       </c>
       <c r="C323">
         <v>50</v>
@@ -10624,7 +10626,7 @@
         <v>323</v>
       </c>
       <c r="B324">
-        <v>32200</v>
+        <v>14490</v>
       </c>
       <c r="C324">
         <v>50</v>
@@ -10638,7 +10640,7 @@
         <v>324</v>
       </c>
       <c r="B325">
-        <v>32300</v>
+        <v>14535</v>
       </c>
       <c r="C325">
         <v>50</v>
@@ -10652,7 +10654,7 @@
         <v>325</v>
       </c>
       <c r="B326">
-        <v>32400</v>
+        <v>14580</v>
       </c>
       <c r="C326">
         <v>50</v>
@@ -10666,7 +10668,7 @@
         <v>326</v>
       </c>
       <c r="B327">
-        <v>32500</v>
+        <v>14625</v>
       </c>
       <c r="C327">
         <v>50</v>
@@ -10680,7 +10682,7 @@
         <v>327</v>
       </c>
       <c r="B328">
-        <v>32600</v>
+        <v>14670</v>
       </c>
       <c r="C328">
         <v>50</v>
@@ -10694,7 +10696,7 @@
         <v>328</v>
       </c>
       <c r="B329">
-        <v>32700</v>
+        <v>14715</v>
       </c>
       <c r="C329">
         <v>50</v>
@@ -10708,7 +10710,7 @@
         <v>329</v>
       </c>
       <c r="B330">
-        <v>32800</v>
+        <v>14760</v>
       </c>
       <c r="C330">
         <v>50</v>
@@ -10722,7 +10724,7 @@
         <v>330</v>
       </c>
       <c r="B331">
-        <v>32900</v>
+        <v>14805</v>
       </c>
       <c r="C331">
         <v>50</v>
@@ -10736,7 +10738,7 @@
         <v>331</v>
       </c>
       <c r="B332">
-        <v>33000</v>
+        <v>14850</v>
       </c>
       <c r="C332">
         <v>50</v>
@@ -10750,7 +10752,7 @@
         <v>332</v>
       </c>
       <c r="B333">
-        <v>33100</v>
+        <v>14895</v>
       </c>
       <c r="C333">
         <v>50</v>
@@ -10764,7 +10766,7 @@
         <v>333</v>
       </c>
       <c r="B334">
-        <v>33200</v>
+        <v>14940</v>
       </c>
       <c r="C334">
         <v>50</v>
@@ -10778,7 +10780,7 @@
         <v>334</v>
       </c>
       <c r="B335">
-        <v>33300</v>
+        <v>14985</v>
       </c>
       <c r="C335">
         <v>50</v>
@@ -10792,7 +10794,7 @@
         <v>335</v>
       </c>
       <c r="B336">
-        <v>33400</v>
+        <v>15030</v>
       </c>
       <c r="C336">
         <v>50</v>
@@ -10806,7 +10808,7 @@
         <v>336</v>
       </c>
       <c r="B337">
-        <v>33500</v>
+        <v>15075</v>
       </c>
       <c r="C337">
         <v>50</v>
@@ -10820,7 +10822,7 @@
         <v>337</v>
       </c>
       <c r="B338">
-        <v>33600</v>
+        <v>15120</v>
       </c>
       <c r="C338">
         <v>50</v>
@@ -10834,7 +10836,7 @@
         <v>338</v>
       </c>
       <c r="B339">
-        <v>33700</v>
+        <v>15165</v>
       </c>
       <c r="C339">
         <v>50</v>
@@ -10848,7 +10850,7 @@
         <v>339</v>
       </c>
       <c r="B340">
-        <v>33800</v>
+        <v>15210</v>
       </c>
       <c r="C340">
         <v>50</v>
@@ -10862,7 +10864,7 @@
         <v>340</v>
       </c>
       <c r="B341">
-        <v>33900</v>
+        <v>15255</v>
       </c>
       <c r="C341">
         <v>50</v>
@@ -10876,7 +10878,7 @@
         <v>341</v>
       </c>
       <c r="B342">
-        <v>34000</v>
+        <v>15300</v>
       </c>
       <c r="C342">
         <v>50</v>
@@ -10890,7 +10892,7 @@
         <v>342</v>
       </c>
       <c r="B343">
-        <v>34100</v>
+        <v>15345</v>
       </c>
       <c r="C343">
         <v>50</v>
@@ -10904,7 +10906,7 @@
         <v>343</v>
       </c>
       <c r="B344">
-        <v>34200</v>
+        <v>15390</v>
       </c>
       <c r="C344">
         <v>50</v>
@@ -10918,7 +10920,7 @@
         <v>344</v>
       </c>
       <c r="B345">
-        <v>34300</v>
+        <v>15435</v>
       </c>
       <c r="C345">
         <v>50</v>
@@ -10932,7 +10934,7 @@
         <v>345</v>
       </c>
       <c r="B346">
-        <v>34400</v>
+        <v>15480</v>
       </c>
       <c r="C346">
         <v>50</v>
@@ -10946,7 +10948,7 @@
         <v>346</v>
       </c>
       <c r="B347">
-        <v>34500</v>
+        <v>15525</v>
       </c>
       <c r="C347">
         <v>50</v>
@@ -10960,7 +10962,7 @@
         <v>347</v>
       </c>
       <c r="B348">
-        <v>34600</v>
+        <v>15570</v>
       </c>
       <c r="C348">
         <v>50</v>
@@ -10974,7 +10976,7 @@
         <v>348</v>
       </c>
       <c r="B349">
-        <v>34700</v>
+        <v>15615</v>
       </c>
       <c r="C349">
         <v>50</v>
@@ -10988,7 +10990,7 @@
         <v>349</v>
       </c>
       <c r="B350">
-        <v>34800</v>
+        <v>15660</v>
       </c>
       <c r="C350">
         <v>50</v>
@@ -11002,7 +11004,7 @@
         <v>350</v>
       </c>
       <c r="B351">
-        <v>34900</v>
+        <v>15705</v>
       </c>
       <c r="C351">
         <v>50</v>
@@ -11016,7 +11018,7 @@
         <v>351</v>
       </c>
       <c r="B352">
-        <v>35000</v>
+        <v>15750</v>
       </c>
       <c r="C352">
         <v>50</v>
@@ -11030,7 +11032,7 @@
         <v>352</v>
       </c>
       <c r="B353">
-        <v>35100</v>
+        <v>15795</v>
       </c>
       <c r="C353">
         <v>50</v>
@@ -11044,7 +11046,7 @@
         <v>353</v>
       </c>
       <c r="B354">
-        <v>35200</v>
+        <v>15840</v>
       </c>
       <c r="C354">
         <v>50</v>
@@ -11058,7 +11060,7 @@
         <v>354</v>
       </c>
       <c r="B355">
-        <v>35300</v>
+        <v>15885</v>
       </c>
       <c r="C355">
         <v>50</v>
@@ -11072,7 +11074,7 @@
         <v>355</v>
       </c>
       <c r="B356">
-        <v>35400</v>
+        <v>15930</v>
       </c>
       <c r="C356">
         <v>50</v>
@@ -11086,7 +11088,7 @@
         <v>356</v>
       </c>
       <c r="B357">
-        <v>35500</v>
+        <v>15975</v>
       </c>
       <c r="C357">
         <v>50</v>
@@ -11100,7 +11102,7 @@
         <v>357</v>
       </c>
       <c r="B358">
-        <v>35600</v>
+        <v>16020</v>
       </c>
       <c r="C358">
         <v>50</v>
@@ -11114,7 +11116,7 @@
         <v>358</v>
       </c>
       <c r="B359">
-        <v>35700</v>
+        <v>16065</v>
       </c>
       <c r="C359">
         <v>50</v>
@@ -11128,7 +11130,7 @@
         <v>359</v>
       </c>
       <c r="B360">
-        <v>35800</v>
+        <v>16110</v>
       </c>
       <c r="C360">
         <v>50</v>
@@ -11142,7 +11144,7 @@
         <v>360</v>
       </c>
       <c r="B361">
-        <v>35900</v>
+        <v>16155</v>
       </c>
       <c r="C361">
         <v>50</v>
@@ -11156,7 +11158,7 @@
         <v>361</v>
       </c>
       <c r="B362">
-        <v>36000</v>
+        <v>16200</v>
       </c>
       <c r="C362">
         <v>50</v>
@@ -11170,7 +11172,7 @@
         <v>362</v>
       </c>
       <c r="B363">
-        <v>36100</v>
+        <v>16245</v>
       </c>
       <c r="C363">
         <v>50</v>
@@ -11184,7 +11186,7 @@
         <v>363</v>
       </c>
       <c r="B364">
-        <v>36200</v>
+        <v>16290</v>
       </c>
       <c r="C364">
         <v>50</v>
@@ -11198,7 +11200,7 @@
         <v>364</v>
       </c>
       <c r="B365">
-        <v>36300</v>
+        <v>16335</v>
       </c>
       <c r="C365">
         <v>50</v>
@@ -11212,7 +11214,7 @@
         <v>365</v>
       </c>
       <c r="B366">
-        <v>36400</v>
+        <v>16380</v>
       </c>
       <c r="C366">
         <v>50</v>
@@ -11226,7 +11228,7 @@
         <v>366</v>
       </c>
       <c r="B367">
-        <v>36500</v>
+        <v>16425</v>
       </c>
       <c r="C367">
         <v>50</v>
@@ -11240,7 +11242,7 @@
         <v>367</v>
       </c>
       <c r="B368">
-        <v>36600</v>
+        <v>16470</v>
       </c>
       <c r="C368">
         <v>50</v>
@@ -11254,7 +11256,7 @@
         <v>368</v>
       </c>
       <c r="B369">
-        <v>36700</v>
+        <v>16515</v>
       </c>
       <c r="C369">
         <v>50</v>
@@ -11268,7 +11270,7 @@
         <v>369</v>
       </c>
       <c r="B370">
-        <v>36800</v>
+        <v>16560</v>
       </c>
       <c r="C370">
         <v>50</v>
@@ -11282,7 +11284,7 @@
         <v>370</v>
       </c>
       <c r="B371">
-        <v>36900</v>
+        <v>16605</v>
       </c>
       <c r="C371">
         <v>50</v>
@@ -11296,7 +11298,7 @@
         <v>371</v>
       </c>
       <c r="B372">
-        <v>37000</v>
+        <v>16650</v>
       </c>
       <c r="C372">
         <v>50</v>
@@ -11310,7 +11312,7 @@
         <v>372</v>
       </c>
       <c r="B373">
-        <v>37100</v>
+        <v>16695</v>
       </c>
       <c r="C373">
         <v>50</v>
@@ -11324,7 +11326,7 @@
         <v>373</v>
       </c>
       <c r="B374">
-        <v>37200</v>
+        <v>16740</v>
       </c>
       <c r="C374">
         <v>50</v>
@@ -11338,7 +11340,7 @@
         <v>374</v>
       </c>
       <c r="B375">
-        <v>37300</v>
+        <v>16785</v>
       </c>
       <c r="C375">
         <v>50</v>
@@ -11352,7 +11354,7 @@
         <v>375</v>
       </c>
       <c r="B376">
-        <v>37400</v>
+        <v>16830</v>
       </c>
       <c r="C376">
         <v>50</v>
@@ -11366,7 +11368,7 @@
         <v>376</v>
       </c>
       <c r="B377">
-        <v>37500</v>
+        <v>16875</v>
       </c>
       <c r="C377">
         <v>50</v>
@@ -11380,7 +11382,7 @@
         <v>377</v>
       </c>
       <c r="B378">
-        <v>37600</v>
+        <v>16920</v>
       </c>
       <c r="C378">
         <v>50</v>
@@ -11394,7 +11396,7 @@
         <v>378</v>
       </c>
       <c r="B379">
-        <v>37700</v>
+        <v>16965</v>
       </c>
       <c r="C379">
         <v>50</v>
@@ -11408,7 +11410,7 @@
         <v>379</v>
       </c>
       <c r="B380">
-        <v>37800</v>
+        <v>17010</v>
       </c>
       <c r="C380">
         <v>50</v>
@@ -11422,7 +11424,7 @@
         <v>380</v>
       </c>
       <c r="B381">
-        <v>37900</v>
+        <v>17055</v>
       </c>
       <c r="C381">
         <v>50</v>
@@ -11436,7 +11438,7 @@
         <v>381</v>
       </c>
       <c r="B382">
-        <v>38000</v>
+        <v>17100</v>
       </c>
       <c r="C382">
         <v>50</v>
@@ -11450,7 +11452,7 @@
         <v>382</v>
       </c>
       <c r="B383">
-        <v>38100</v>
+        <v>17145</v>
       </c>
       <c r="C383">
         <v>50</v>
@@ -11464,7 +11466,7 @@
         <v>383</v>
       </c>
       <c r="B384">
-        <v>38200</v>
+        <v>17190</v>
       </c>
       <c r="C384">
         <v>50</v>
@@ -11478,7 +11480,7 @@
         <v>384</v>
       </c>
       <c r="B385">
-        <v>38300</v>
+        <v>17235</v>
       </c>
       <c r="C385">
         <v>50</v>
@@ -11492,7 +11494,7 @@
         <v>385</v>
       </c>
       <c r="B386">
-        <v>38400</v>
+        <v>17280</v>
       </c>
       <c r="C386">
         <v>50</v>
@@ -11506,7 +11508,7 @@
         <v>386</v>
       </c>
       <c r="B387">
-        <v>38500</v>
+        <v>17325</v>
       </c>
       <c r="C387">
         <v>50</v>
@@ -11520,7 +11522,7 @@
         <v>387</v>
       </c>
       <c r="B388">
-        <v>38600</v>
+        <v>17370</v>
       </c>
       <c r="C388">
         <v>50</v>
@@ -11534,7 +11536,7 @@
         <v>388</v>
       </c>
       <c r="B389">
-        <v>38700</v>
+        <v>17415</v>
       </c>
       <c r="C389">
         <v>50</v>
@@ -11548,7 +11550,7 @@
         <v>389</v>
       </c>
       <c r="B390">
-        <v>38800</v>
+        <v>17460</v>
       </c>
       <c r="C390">
         <v>50</v>
@@ -11562,7 +11564,7 @@
         <v>390</v>
       </c>
       <c r="B391">
-        <v>38900</v>
+        <v>17505</v>
       </c>
       <c r="C391">
         <v>50</v>
@@ -11576,7 +11578,7 @@
         <v>391</v>
       </c>
       <c r="B392">
-        <v>39000</v>
+        <v>17550</v>
       </c>
       <c r="C392">
         <v>50</v>
@@ -11590,7 +11592,7 @@
         <v>392</v>
       </c>
       <c r="B393">
-        <v>39100</v>
+        <v>17595</v>
       </c>
       <c r="C393">
         <v>50</v>
@@ -11604,7 +11606,7 @@
         <v>393</v>
       </c>
       <c r="B394">
-        <v>39200</v>
+        <v>17640</v>
       </c>
       <c r="C394">
         <v>50</v>
@@ -11618,7 +11620,7 @@
         <v>394</v>
       </c>
       <c r="B395">
-        <v>39300</v>
+        <v>17685</v>
       </c>
       <c r="C395">
         <v>50</v>
@@ -11632,7 +11634,7 @@
         <v>395</v>
       </c>
       <c r="B396">
-        <v>39400</v>
+        <v>17730</v>
       </c>
       <c r="C396">
         <v>50</v>
@@ -11646,7 +11648,7 @@
         <v>396</v>
       </c>
       <c r="B397">
-        <v>39500</v>
+        <v>17775</v>
       </c>
       <c r="C397">
         <v>50</v>
@@ -11660,7 +11662,7 @@
         <v>397</v>
       </c>
       <c r="B398">
-        <v>39600</v>
+        <v>17820</v>
       </c>
       <c r="C398">
         <v>50</v>
@@ -11674,7 +11676,7 @@
         <v>398</v>
       </c>
       <c r="B399">
-        <v>39700</v>
+        <v>17865</v>
       </c>
       <c r="C399">
         <v>50</v>
@@ -11688,7 +11690,7 @@
         <v>399</v>
       </c>
       <c r="B400">
-        <v>39800</v>
+        <v>17910</v>
       </c>
       <c r="C400">
         <v>50</v>
@@ -11702,7 +11704,7 @@
         <v>400</v>
       </c>
       <c r="B401">
-        <v>39900</v>
+        <v>17955</v>
       </c>
       <c r="C401">
         <v>50</v>
@@ -11716,7 +11718,7 @@
         <v>401</v>
       </c>
       <c r="B402">
-        <v>40000</v>
+        <v>18000</v>
       </c>
       <c r="C402">
         <v>50</v>
@@ -11730,7 +11732,7 @@
         <v>402</v>
       </c>
       <c r="B403">
-        <v>40100</v>
+        <v>18045</v>
       </c>
       <c r="C403">
         <v>50</v>
@@ -11744,7 +11746,7 @@
         <v>403</v>
       </c>
       <c r="B404">
-        <v>40200</v>
+        <v>18090</v>
       </c>
       <c r="C404">
         <v>50</v>
@@ -11758,7 +11760,7 @@
         <v>404</v>
       </c>
       <c r="B405">
-        <v>40300</v>
+        <v>18135</v>
       </c>
       <c r="C405">
         <v>50</v>
@@ -11772,7 +11774,7 @@
         <v>405</v>
       </c>
       <c r="B406">
-        <v>40400</v>
+        <v>18180</v>
       </c>
       <c r="C406">
         <v>50</v>
@@ -11786,7 +11788,7 @@
         <v>406</v>
       </c>
       <c r="B407">
-        <v>40500</v>
+        <v>18225</v>
       </c>
       <c r="C407">
         <v>50</v>
@@ -11800,7 +11802,7 @@
         <v>407</v>
       </c>
       <c r="B408">
-        <v>40600</v>
+        <v>18270</v>
       </c>
       <c r="C408">
         <v>50</v>
@@ -11814,7 +11816,7 @@
         <v>408</v>
       </c>
       <c r="B409">
-        <v>40700</v>
+        <v>18315</v>
       </c>
       <c r="C409">
         <v>50</v>
@@ -11828,7 +11830,7 @@
         <v>409</v>
       </c>
       <c r="B410">
-        <v>40800</v>
+        <v>18360</v>
       </c>
       <c r="C410">
         <v>50</v>
@@ -11842,7 +11844,7 @@
         <v>410</v>
       </c>
       <c r="B411">
-        <v>40900</v>
+        <v>18405</v>
       </c>
       <c r="C411">
         <v>50</v>
@@ -11856,7 +11858,7 @@
         <v>411</v>
       </c>
       <c r="B412">
-        <v>41000</v>
+        <v>18450</v>
       </c>
       <c r="C412">
         <v>50</v>
@@ -11870,7 +11872,7 @@
         <v>412</v>
       </c>
       <c r="B413">
-        <v>41100</v>
+        <v>18495</v>
       </c>
       <c r="C413">
         <v>50</v>
@@ -11884,7 +11886,7 @@
         <v>413</v>
       </c>
       <c r="B414">
-        <v>41200</v>
+        <v>18540</v>
       </c>
       <c r="C414">
         <v>50</v>
@@ -11898,7 +11900,7 @@
         <v>414</v>
       </c>
       <c r="B415">
-        <v>41300</v>
+        <v>18585</v>
       </c>
       <c r="C415">
         <v>50</v>
@@ -11912,7 +11914,7 @@
         <v>415</v>
       </c>
       <c r="B416">
-        <v>41400</v>
+        <v>18630</v>
       </c>
       <c r="C416">
         <v>50</v>
@@ -11926,7 +11928,7 @@
         <v>416</v>
       </c>
       <c r="B417">
-        <v>41500</v>
+        <v>18675</v>
       </c>
       <c r="C417">
         <v>50</v>
@@ -11940,7 +11942,7 @@
         <v>417</v>
       </c>
       <c r="B418">
-        <v>41600</v>
+        <v>18720</v>
       </c>
       <c r="C418">
         <v>50</v>
@@ -11954,7 +11956,7 @@
         <v>418</v>
       </c>
       <c r="B419">
-        <v>41700</v>
+        <v>18765</v>
       </c>
       <c r="C419">
         <v>50</v>
@@ -11968,7 +11970,7 @@
         <v>419</v>
       </c>
       <c r="B420">
-        <v>41800</v>
+        <v>18810</v>
       </c>
       <c r="C420">
         <v>50</v>
@@ -11982,7 +11984,7 @@
         <v>420</v>
       </c>
       <c r="B421">
-        <v>41900</v>
+        <v>18855</v>
       </c>
       <c r="C421">
         <v>50</v>
@@ -11996,7 +11998,7 @@
         <v>421</v>
       </c>
       <c r="B422">
-        <v>42000</v>
+        <v>18900</v>
       </c>
       <c r="C422">
         <v>50</v>
@@ -12010,7 +12012,7 @@
         <v>422</v>
       </c>
       <c r="B423">
-        <v>42100</v>
+        <v>18945</v>
       </c>
       <c r="C423">
         <v>50</v>
@@ -12024,7 +12026,7 @@
         <v>423</v>
       </c>
       <c r="B424">
-        <v>42200</v>
+        <v>18990</v>
       </c>
       <c r="C424">
         <v>50</v>
@@ -12038,7 +12040,7 @@
         <v>424</v>
       </c>
       <c r="B425">
-        <v>42300</v>
+        <v>19035</v>
       </c>
       <c r="C425">
         <v>50</v>
@@ -12052,7 +12054,7 @@
         <v>425</v>
       </c>
       <c r="B426">
-        <v>42400</v>
+        <v>19080</v>
       </c>
       <c r="C426">
         <v>50</v>
@@ -12066,7 +12068,7 @@
         <v>426</v>
       </c>
       <c r="B427">
-        <v>42500</v>
+        <v>19125</v>
       </c>
       <c r="C427">
         <v>50</v>
@@ -12080,7 +12082,7 @@
         <v>427</v>
       </c>
       <c r="B428">
-        <v>42600</v>
+        <v>19170</v>
       </c>
       <c r="C428">
         <v>50</v>
@@ -12094,7 +12096,7 @@
         <v>428</v>
       </c>
       <c r="B429">
-        <v>42700</v>
+        <v>19215</v>
       </c>
       <c r="C429">
         <v>50</v>
@@ -12108,7 +12110,7 @@
         <v>429</v>
       </c>
       <c r="B430">
-        <v>42800</v>
+        <v>19260</v>
       </c>
       <c r="C430">
         <v>50</v>
@@ -12122,7 +12124,7 @@
         <v>430</v>
       </c>
       <c r="B431">
-        <v>42900</v>
+        <v>19305</v>
       </c>
       <c r="C431">
         <v>50</v>
@@ -12136,7 +12138,7 @@
         <v>431</v>
       </c>
       <c r="B432">
-        <v>43000</v>
+        <v>19350</v>
       </c>
       <c r="C432">
         <v>50</v>
@@ -12150,7 +12152,7 @@
         <v>432</v>
       </c>
       <c r="B433">
-        <v>43100</v>
+        <v>19395</v>
       </c>
       <c r="C433">
         <v>50</v>
@@ -12164,7 +12166,7 @@
         <v>433</v>
       </c>
       <c r="B434">
-        <v>43200</v>
+        <v>19440</v>
       </c>
       <c r="C434">
         <v>50</v>
@@ -12178,7 +12180,7 @@
         <v>434</v>
       </c>
       <c r="B435">
-        <v>43300</v>
+        <v>19485</v>
       </c>
       <c r="C435">
         <v>50</v>
@@ -12192,7 +12194,7 @@
         <v>435</v>
       </c>
       <c r="B436">
-        <v>43400</v>
+        <v>19530</v>
       </c>
       <c r="C436">
         <v>50</v>
@@ -12206,7 +12208,7 @@
         <v>436</v>
       </c>
       <c r="B437">
-        <v>43500</v>
+        <v>19575</v>
       </c>
       <c r="C437">
         <v>50</v>
@@ -12220,7 +12222,7 @@
         <v>437</v>
       </c>
       <c r="B438">
-        <v>43600</v>
+        <v>19620</v>
       </c>
       <c r="C438">
         <v>50</v>
@@ -12234,7 +12236,7 @@
         <v>438</v>
       </c>
       <c r="B439">
-        <v>43700</v>
+        <v>19665</v>
       </c>
       <c r="C439">
         <v>50</v>
@@ -12248,7 +12250,7 @@
         <v>439</v>
       </c>
       <c r="B440">
-        <v>43800</v>
+        <v>19710</v>
       </c>
       <c r="C440">
         <v>50</v>
@@ -12262,7 +12264,7 @@
         <v>440</v>
       </c>
       <c r="B441">
-        <v>43900</v>
+        <v>19755</v>
       </c>
       <c r="C441">
         <v>50</v>
@@ -12276,7 +12278,7 @@
         <v>441</v>
       </c>
       <c r="B442">
-        <v>44000</v>
+        <v>19800</v>
       </c>
       <c r="C442">
         <v>50</v>
@@ -12290,7 +12292,7 @@
         <v>442</v>
       </c>
       <c r="B443">
-        <v>44100</v>
+        <v>19845</v>
       </c>
       <c r="C443">
         <v>50</v>
@@ -12304,7 +12306,7 @@
         <v>443</v>
       </c>
       <c r="B444">
-        <v>44200</v>
+        <v>19890</v>
       </c>
       <c r="C444">
         <v>50</v>
@@ -12318,7 +12320,7 @@
         <v>444</v>
       </c>
       <c r="B445">
-        <v>44300</v>
+        <v>19935</v>
       </c>
       <c r="C445">
         <v>50</v>
@@ -12332,7 +12334,7 @@
         <v>445</v>
       </c>
       <c r="B446">
-        <v>44400</v>
+        <v>19980</v>
       </c>
       <c r="C446">
         <v>50</v>
@@ -12346,7 +12348,7 @@
         <v>446</v>
       </c>
       <c r="B447">
-        <v>44500</v>
+        <v>20025</v>
       </c>
       <c r="C447">
         <v>50</v>
@@ -12360,7 +12362,7 @@
         <v>447</v>
       </c>
       <c r="B448">
-        <v>44600</v>
+        <v>20070</v>
       </c>
       <c r="C448">
         <v>50</v>
@@ -12374,7 +12376,7 @@
         <v>448</v>
       </c>
       <c r="B449">
-        <v>44700</v>
+        <v>20115</v>
       </c>
       <c r="C449">
         <v>50</v>
@@ -12388,7 +12390,7 @@
         <v>449</v>
       </c>
       <c r="B450">
-        <v>44800</v>
+        <v>20160</v>
       </c>
       <c r="C450">
         <v>50</v>
@@ -12402,7 +12404,7 @@
         <v>450</v>
       </c>
       <c r="B451">
-        <v>44900</v>
+        <v>20205</v>
       </c>
       <c r="C451">
         <v>50</v>
@@ -12416,7 +12418,7 @@
         <v>451</v>
       </c>
       <c r="B452">
-        <v>45000</v>
+        <v>20250</v>
       </c>
       <c r="C452">
         <v>50</v>
@@ -12430,7 +12432,7 @@
         <v>452</v>
       </c>
       <c r="B453">
-        <v>45100</v>
+        <v>20295</v>
       </c>
       <c r="C453">
         <v>50</v>
@@ -12444,7 +12446,7 @@
         <v>453</v>
       </c>
       <c r="B454">
-        <v>45200</v>
+        <v>20340</v>
       </c>
       <c r="C454">
         <v>50</v>
@@ -12458,7 +12460,7 @@
         <v>454</v>
       </c>
       <c r="B455">
-        <v>45300</v>
+        <v>20385</v>
       </c>
       <c r="C455">
         <v>50</v>
@@ -12472,7 +12474,7 @@
         <v>455</v>
       </c>
       <c r="B456">
-        <v>45400</v>
+        <v>20430</v>
       </c>
       <c r="C456">
         <v>50</v>
@@ -12486,7 +12488,7 @@
         <v>456</v>
       </c>
       <c r="B457">
-        <v>45500</v>
+        <v>20475</v>
       </c>
       <c r="C457">
         <v>50</v>
@@ -12500,7 +12502,7 @@
         <v>457</v>
       </c>
       <c r="B458">
-        <v>45600</v>
+        <v>20520</v>
       </c>
       <c r="C458">
         <v>50</v>
@@ -12514,7 +12516,7 @@
         <v>458</v>
       </c>
       <c r="B459">
-        <v>45700</v>
+        <v>20565</v>
       </c>
       <c r="C459">
         <v>50</v>
@@ -12528,7 +12530,7 @@
         <v>459</v>
       </c>
       <c r="B460">
-        <v>45800</v>
+        <v>20610</v>
       </c>
       <c r="C460">
         <v>50</v>
@@ -12542,7 +12544,7 @@
         <v>460</v>
       </c>
       <c r="B461">
-        <v>45900</v>
+        <v>20655</v>
       </c>
       <c r="C461">
         <v>50</v>
@@ -12556,7 +12558,7 @@
         <v>461</v>
       </c>
       <c r="B462">
-        <v>46000</v>
+        <v>20700</v>
       </c>
       <c r="C462">
         <v>50</v>
@@ -12570,7 +12572,7 @@
         <v>462</v>
       </c>
       <c r="B463">
-        <v>46100</v>
+        <v>20745</v>
       </c>
       <c r="C463">
         <v>50</v>
@@ -12584,7 +12586,7 @@
         <v>463</v>
       </c>
       <c r="B464">
-        <v>46200</v>
+        <v>20790</v>
       </c>
       <c r="C464">
         <v>50</v>
@@ -12598,7 +12600,7 @@
         <v>464</v>
       </c>
       <c r="B465">
-        <v>46300</v>
+        <v>20835</v>
       </c>
       <c r="C465">
         <v>50</v>
@@ -12612,7 +12614,7 @@
         <v>465</v>
       </c>
       <c r="B466">
-        <v>46400</v>
+        <v>20880</v>
       </c>
       <c r="C466">
         <v>50</v>
@@ -12626,7 +12628,7 @@
         <v>466</v>
       </c>
       <c r="B467">
-        <v>46500</v>
+        <v>20925</v>
       </c>
       <c r="C467">
         <v>50</v>
@@ -12640,7 +12642,7 @@
         <v>467</v>
       </c>
       <c r="B468">
-        <v>46600</v>
+        <v>20970</v>
       </c>
       <c r="C468">
         <v>50</v>
@@ -12654,7 +12656,7 @@
         <v>468</v>
       </c>
       <c r="B469">
-        <v>46700</v>
+        <v>21015</v>
       </c>
       <c r="C469">
         <v>50</v>
@@ -12668,7 +12670,7 @@
         <v>469</v>
       </c>
       <c r="B470">
-        <v>46800</v>
+        <v>21060</v>
       </c>
       <c r="C470">
         <v>50</v>
@@ -12682,7 +12684,7 @@
         <v>470</v>
       </c>
       <c r="B471">
-        <v>46900</v>
+        <v>21105</v>
       </c>
       <c r="C471">
         <v>50</v>
@@ -12696,7 +12698,7 @@
         <v>471</v>
       </c>
       <c r="B472">
-        <v>47000</v>
+        <v>21150</v>
       </c>
       <c r="C472">
         <v>50</v>
@@ -12710,7 +12712,7 @@
         <v>472</v>
       </c>
       <c r="B473">
-        <v>47100</v>
+        <v>21195</v>
       </c>
       <c r="C473">
         <v>50</v>
@@ -12724,7 +12726,7 @@
         <v>473</v>
       </c>
       <c r="B474">
-        <v>47200</v>
+        <v>21240</v>
       </c>
       <c r="C474">
         <v>50</v>
@@ -12738,7 +12740,7 @@
         <v>474</v>
       </c>
       <c r="B475">
-        <v>47300</v>
+        <v>21285</v>
       </c>
       <c r="C475">
         <v>50</v>
@@ -12752,7 +12754,7 @@
         <v>475</v>
       </c>
       <c r="B476">
-        <v>47400</v>
+        <v>21330</v>
       </c>
       <c r="C476">
         <v>50</v>
@@ -12766,7 +12768,7 @@
         <v>476</v>
       </c>
       <c r="B477">
-        <v>47500</v>
+        <v>21375</v>
       </c>
       <c r="C477">
         <v>50</v>
@@ -12780,7 +12782,7 @@
         <v>477</v>
       </c>
       <c r="B478">
-        <v>47600</v>
+        <v>21420</v>
       </c>
       <c r="C478">
         <v>50</v>
@@ -12794,7 +12796,7 @@
         <v>478</v>
       </c>
       <c r="B479">
-        <v>47700</v>
+        <v>21465</v>
       </c>
       <c r="C479">
         <v>50</v>
@@ -12808,7 +12810,7 @@
         <v>479</v>
       </c>
       <c r="B480">
-        <v>47800</v>
+        <v>21510</v>
       </c>
       <c r="C480">
         <v>50</v>
@@ -12822,7 +12824,7 @@
         <v>480</v>
       </c>
       <c r="B481">
-        <v>47900</v>
+        <v>21555</v>
       </c>
       <c r="C481">
         <v>50</v>
@@ -12836,7 +12838,7 @@
         <v>481</v>
       </c>
       <c r="B482">
-        <v>48000</v>
+        <v>21600</v>
       </c>
       <c r="C482">
         <v>50</v>
@@ -12850,7 +12852,7 @@
         <v>482</v>
       </c>
       <c r="B483">
-        <v>48100</v>
+        <v>21645</v>
       </c>
       <c r="C483">
         <v>50</v>
@@ -12864,7 +12866,7 @@
         <v>483</v>
       </c>
       <c r="B484">
-        <v>48200</v>
+        <v>21690</v>
       </c>
       <c r="C484">
         <v>50</v>
@@ -12878,7 +12880,7 @@
         <v>484</v>
       </c>
       <c r="B485">
-        <v>48300</v>
+        <v>21735</v>
       </c>
       <c r="C485">
         <v>50</v>
@@ -12892,7 +12894,7 @@
         <v>485</v>
       </c>
       <c r="B486">
-        <v>48400</v>
+        <v>21780</v>
       </c>
       <c r="C486">
         <v>50</v>
@@ -12906,7 +12908,7 @@
         <v>486</v>
       </c>
       <c r="B487">
-        <v>48500</v>
+        <v>21825</v>
       </c>
       <c r="C487">
         <v>50</v>
@@ -12920,7 +12922,7 @@
         <v>487</v>
       </c>
       <c r="B488">
-        <v>48600</v>
+        <v>21870</v>
       </c>
       <c r="C488">
         <v>50</v>
@@ -12934,7 +12936,7 @@
         <v>488</v>
       </c>
       <c r="B489">
-        <v>48700</v>
+        <v>21915</v>
       </c>
       <c r="C489">
         <v>50</v>
@@ -12948,7 +12950,7 @@
         <v>489</v>
       </c>
       <c r="B490">
-        <v>48800</v>
+        <v>21960</v>
       </c>
       <c r="C490">
         <v>50</v>
@@ -12962,7 +12964,7 @@
         <v>490</v>
       </c>
       <c r="B491">
-        <v>48900</v>
+        <v>22005</v>
       </c>
       <c r="C491">
         <v>50</v>
@@ -12976,7 +12978,7 @@
         <v>491</v>
       </c>
       <c r="B492">
-        <v>49000</v>
+        <v>22050</v>
       </c>
       <c r="C492">
         <v>50</v>
@@ -12990,7 +12992,7 @@
         <v>492</v>
       </c>
       <c r="B493">
-        <v>49100</v>
+        <v>22095</v>
       </c>
       <c r="C493">
         <v>50</v>
@@ -13004,7 +13006,7 @@
         <v>493</v>
       </c>
       <c r="B494">
-        <v>49200</v>
+        <v>22140</v>
       </c>
       <c r="C494">
         <v>50</v>
@@ -13018,7 +13020,7 @@
         <v>494</v>
       </c>
       <c r="B495">
-        <v>49300</v>
+        <v>22185</v>
       </c>
       <c r="C495">
         <v>50</v>
@@ -13032,7 +13034,7 @@
         <v>495</v>
       </c>
       <c r="B496">
-        <v>49400</v>
+        <v>22230</v>
       </c>
       <c r="C496">
         <v>50</v>
@@ -13046,7 +13048,7 @@
         <v>496</v>
       </c>
       <c r="B497">
-        <v>49500</v>
+        <v>22275</v>
       </c>
       <c r="C497">
         <v>50</v>
@@ -13060,7 +13062,7 @@
         <v>497</v>
       </c>
       <c r="B498">
-        <v>49600</v>
+        <v>22320</v>
       </c>
       <c r="C498">
         <v>50</v>
@@ -13074,7 +13076,7 @@
         <v>498</v>
       </c>
       <c r="B499">
-        <v>49700</v>
+        <v>22365</v>
       </c>
       <c r="C499">
         <v>50</v>
@@ -13088,7 +13090,7 @@
         <v>499</v>
       </c>
       <c r="B500">
-        <v>49800</v>
+        <v>22410</v>
       </c>
       <c r="C500">
         <v>50</v>
@@ -13102,7 +13104,7 @@
         <v>500</v>
       </c>
       <c r="B501">
-        <v>49900</v>
+        <v>22455</v>
       </c>
       <c r="C501">
         <v>50</v>
@@ -13116,7 +13118,7 @@
         <v>501</v>
       </c>
       <c r="B502">
-        <v>50000</v>
+        <v>22500</v>
       </c>
       <c r="C502">
         <v>50</v>
@@ -13130,7 +13132,7 @@
         <v>502</v>
       </c>
       <c r="B503">
-        <v>50100</v>
+        <v>22545</v>
       </c>
       <c r="C503">
         <v>50</v>
@@ -13144,7 +13146,7 @@
         <v>503</v>
       </c>
       <c r="B504">
-        <v>50200</v>
+        <v>22590</v>
       </c>
       <c r="C504">
         <v>50</v>
@@ -13158,7 +13160,7 @@
         <v>504</v>
       </c>
       <c r="B505">
-        <v>50300</v>
+        <v>22635</v>
       </c>
       <c r="C505">
         <v>50</v>
@@ -13172,7 +13174,7 @@
         <v>505</v>
       </c>
       <c r="B506">
-        <v>50400</v>
+        <v>22680</v>
       </c>
       <c r="C506">
         <v>50</v>
@@ -13186,7 +13188,7 @@
         <v>506</v>
       </c>
       <c r="B507">
-        <v>50500</v>
+        <v>22725</v>
       </c>
       <c r="C507">
         <v>50</v>
@@ -13200,7 +13202,7 @@
         <v>507</v>
       </c>
       <c r="B508">
-        <v>50600</v>
+        <v>22770</v>
       </c>
       <c r="C508">
         <v>50</v>
@@ -13214,7 +13216,7 @@
         <v>508</v>
       </c>
       <c r="B509">
-        <v>50700</v>
+        <v>22815</v>
       </c>
       <c r="C509">
         <v>50</v>
@@ -13228,7 +13230,7 @@
         <v>509</v>
       </c>
       <c r="B510">
-        <v>50800</v>
+        <v>22860</v>
       </c>
       <c r="C510">
         <v>50</v>
@@ -13242,7 +13244,7 @@
         <v>510</v>
       </c>
       <c r="B511">
-        <v>50900</v>
+        <v>22905</v>
       </c>
       <c r="C511">
         <v>50</v>
@@ -13256,7 +13258,7 @@
         <v>511</v>
       </c>
       <c r="B512">
-        <v>51000</v>
+        <v>22950</v>
       </c>
       <c r="C512">
         <v>50</v>
@@ -13270,7 +13272,7 @@
         <v>512</v>
       </c>
       <c r="B513">
-        <v>51100</v>
+        <v>22995</v>
       </c>
       <c r="C513">
         <v>50</v>
@@ -13284,7 +13286,7 @@
         <v>513</v>
       </c>
       <c r="B514">
-        <v>51200</v>
+        <v>23040</v>
       </c>
       <c r="C514">
         <v>50</v>
@@ -13298,7 +13300,7 @@
         <v>514</v>
       </c>
       <c r="B515">
-        <v>51300</v>
+        <v>23085</v>
       </c>
       <c r="C515">
         <v>50</v>
@@ -13312,7 +13314,7 @@
         <v>515</v>
       </c>
       <c r="B516">
-        <v>51400</v>
+        <v>23130</v>
       </c>
       <c r="C516">
         <v>50</v>
@@ -13326,7 +13328,7 @@
         <v>516</v>
       </c>
       <c r="B517">
-        <v>51500</v>
+        <v>23175</v>
       </c>
       <c r="C517">
         <v>50</v>
@@ -13340,7 +13342,7 @@
         <v>517</v>
       </c>
       <c r="B518">
-        <v>51600</v>
+        <v>23220</v>
       </c>
       <c r="C518">
         <v>50</v>
@@ -13354,7 +13356,7 @@
         <v>518</v>
       </c>
       <c r="B519">
-        <v>51700</v>
+        <v>23265</v>
       </c>
       <c r="C519">
         <v>50</v>
@@ -13368,7 +13370,7 @@
         <v>519</v>
       </c>
       <c r="B520">
-        <v>51800</v>
+        <v>23310</v>
       </c>
       <c r="C520">
         <v>50</v>
@@ -13382,7 +13384,7 @@
         <v>520</v>
       </c>
       <c r="B521">
-        <v>51900</v>
+        <v>23355</v>
       </c>
       <c r="C521">
         <v>50</v>
@@ -13396,7 +13398,7 @@
         <v>521</v>
       </c>
       <c r="B522">
-        <v>52000</v>
+        <v>23400</v>
       </c>
       <c r="C522">
         <v>50</v>
@@ -13410,7 +13412,7 @@
         <v>522</v>
       </c>
       <c r="B523">
-        <v>52100</v>
+        <v>23445</v>
       </c>
       <c r="C523">
         <v>50</v>
@@ -13424,7 +13426,7 @@
         <v>523</v>
       </c>
       <c r="B524">
-        <v>52200</v>
+        <v>23490</v>
       </c>
       <c r="C524">
         <v>50</v>
@@ -13438,7 +13440,7 @@
         <v>524</v>
       </c>
       <c r="B525">
-        <v>52300</v>
+        <v>23535</v>
       </c>
       <c r="C525">
         <v>50</v>
@@ -13452,7 +13454,7 @@
         <v>525</v>
       </c>
       <c r="B526">
-        <v>52400</v>
+        <v>23580</v>
       </c>
       <c r="C526">
         <v>50</v>
@@ -13466,7 +13468,7 @@
         <v>526</v>
       </c>
       <c r="B527">
-        <v>52500</v>
+        <v>23625</v>
       </c>
       <c r="C527">
         <v>50</v>
@@ -13480,7 +13482,7 @@
         <v>527</v>
       </c>
       <c r="B528">
-        <v>52600</v>
+        <v>23670</v>
       </c>
       <c r="C528">
         <v>50</v>
@@ -13494,7 +13496,7 @@
         <v>528</v>
       </c>
       <c r="B529">
-        <v>52700</v>
+        <v>23715</v>
       </c>
       <c r="C529">
         <v>50</v>
@@ -13508,7 +13510,7 @@
         <v>529</v>
       </c>
       <c r="B530">
-        <v>52800</v>
+        <v>23760</v>
       </c>
       <c r="C530">
         <v>50</v>
@@ -13522,7 +13524,7 @@
         <v>530</v>
       </c>
       <c r="B531">
-        <v>52900</v>
+        <v>23805</v>
       </c>
       <c r="C531">
         <v>50</v>
@@ -13536,7 +13538,7 @@
         <v>531</v>
       </c>
       <c r="B532">
-        <v>53000</v>
+        <v>23850</v>
       </c>
       <c r="C532">
         <v>50</v>
@@ -13550,7 +13552,7 @@
         <v>532</v>
       </c>
       <c r="B533">
-        <v>53100</v>
+        <v>23895</v>
       </c>
       <c r="C533">
         <v>50</v>
@@ -13564,7 +13566,7 @@
         <v>533</v>
       </c>
       <c r="B534">
-        <v>53200</v>
+        <v>23940</v>
       </c>
       <c r="C534">
         <v>50</v>
@@ -13578,7 +13580,7 @@
         <v>534</v>
       </c>
       <c r="B535">
-        <v>53300</v>
+        <v>23985</v>
       </c>
       <c r="C535">
         <v>50</v>
@@ -13592,7 +13594,7 @@
         <v>535</v>
       </c>
       <c r="B536">
-        <v>53400</v>
+        <v>24030</v>
       </c>
       <c r="C536">
         <v>50</v>
@@ -13606,7 +13608,7 @@
         <v>536</v>
       </c>
       <c r="B537">
-        <v>53500</v>
+        <v>24075</v>
       </c>
       <c r="C537">
         <v>50</v>
@@ -13620,7 +13622,7 @@
         <v>537</v>
       </c>
       <c r="B538">
-        <v>53600</v>
+        <v>24120</v>
       </c>
       <c r="C538">
         <v>50</v>
@@ -13634,7 +13636,7 @@
         <v>538</v>
       </c>
       <c r="B539">
-        <v>53700</v>
+        <v>24165</v>
       </c>
       <c r="C539">
         <v>50</v>
@@ -13648,7 +13650,7 @@
         <v>539</v>
       </c>
       <c r="B540">
-        <v>53800</v>
+        <v>24210</v>
       </c>
       <c r="C540">
         <v>50</v>
@@ -13662,7 +13664,7 @@
         <v>540</v>
       </c>
       <c r="B541">
-        <v>53900</v>
+        <v>24255</v>
       </c>
       <c r="C541">
         <v>50</v>
@@ -13676,7 +13678,7 @@
         <v>541</v>
       </c>
       <c r="B542">
-        <v>54000</v>
+        <v>24300</v>
       </c>
       <c r="C542">
         <v>50</v>
@@ -13690,7 +13692,7 @@
         <v>542</v>
       </c>
       <c r="B543">
-        <v>54100</v>
+        <v>24345</v>
       </c>
       <c r="C543">
         <v>50</v>
@@ -13704,7 +13706,7 @@
         <v>543</v>
       </c>
       <c r="B544">
-        <v>54200</v>
+        <v>24390</v>
       </c>
       <c r="C544">
         <v>50</v>
@@ -13718,7 +13720,7 @@
         <v>544</v>
       </c>
       <c r="B545">
-        <v>54300</v>
+        <v>24435</v>
       </c>
       <c r="C545">
         <v>50</v>
@@ -13732,7 +13734,7 @@
         <v>545</v>
       </c>
       <c r="B546">
-        <v>54400</v>
+        <v>24480</v>
       </c>
       <c r="C546">
         <v>50</v>
@@ -13746,7 +13748,7 @@
         <v>546</v>
       </c>
       <c r="B547">
-        <v>54500</v>
+        <v>24525</v>
       </c>
       <c r="C547">
         <v>50</v>
@@ -13760,7 +13762,7 @@
         <v>547</v>
       </c>
       <c r="B548">
-        <v>54600</v>
+        <v>24570</v>
       </c>
       <c r="C548">
         <v>50</v>
@@ -13774,7 +13776,7 @@
         <v>548</v>
       </c>
       <c r="B549">
-        <v>54700</v>
+        <v>24615</v>
       </c>
       <c r="C549">
         <v>50</v>
@@ -13788,7 +13790,7 @@
         <v>549</v>
       </c>
       <c r="B550">
-        <v>54800</v>
+        <v>24660</v>
       </c>
       <c r="C550">
         <v>50</v>
@@ -13802,7 +13804,7 @@
         <v>550</v>
       </c>
       <c r="B551">
-        <v>54900</v>
+        <v>24705</v>
       </c>
       <c r="C551">
         <v>50</v>
@@ -13816,7 +13818,7 @@
         <v>551</v>
       </c>
       <c r="B552">
-        <v>55000</v>
+        <v>24750</v>
       </c>
       <c r="C552">
         <v>50</v>
@@ -13830,7 +13832,7 @@
         <v>552</v>
       </c>
       <c r="B553">
-        <v>55100</v>
+        <v>24795</v>
       </c>
       <c r="C553">
         <v>50</v>
@@ -13844,7 +13846,7 @@
         <v>553</v>
       </c>
       <c r="B554">
-        <v>55200</v>
+        <v>24840</v>
       </c>
       <c r="C554">
         <v>50</v>
@@ -13858,7 +13860,7 @@
         <v>554</v>
       </c>
       <c r="B555">
-        <v>55300</v>
+        <v>24885</v>
       </c>
       <c r="C555">
         <v>50</v>
@@ -13872,7 +13874,7 @@
         <v>555</v>
       </c>
       <c r="B556">
-        <v>55400</v>
+        <v>24930</v>
       </c>
       <c r="C556">
         <v>50</v>
@@ -13886,7 +13888,7 @@
         <v>556</v>
       </c>
       <c r="B557">
-        <v>55500</v>
+        <v>24975</v>
       </c>
       <c r="C557">
         <v>50</v>
@@ -13900,7 +13902,7 @@
         <v>557</v>
       </c>
       <c r="B558">
-        <v>55600</v>
+        <v>25020</v>
       </c>
       <c r="C558">
         <v>50</v>
@@ -13914,7 +13916,7 @@
         <v>558</v>
       </c>
       <c r="B559">
-        <v>55700</v>
+        <v>25065</v>
       </c>
       <c r="C559">
         <v>50</v>
@@ -13928,7 +13930,7 @@
         <v>559</v>
       </c>
       <c r="B560">
-        <v>55800</v>
+        <v>25110</v>
       </c>
       <c r="C560">
         <v>50</v>
@@ -13942,7 +13944,7 @@
         <v>560</v>
       </c>
       <c r="B561">
-        <v>55900</v>
+        <v>25155</v>
       </c>
       <c r="C561">
         <v>50</v>
@@ -13956,7 +13958,7 @@
         <v>561</v>
       </c>
       <c r="B562">
-        <v>56000</v>
+        <v>25200</v>
       </c>
       <c r="C562">
         <v>50</v>
@@ -13970,7 +13972,7 @@
         <v>562</v>
       </c>
       <c r="B563">
-        <v>56100</v>
+        <v>25245</v>
       </c>
       <c r="C563">
         <v>50</v>
@@ -13984,7 +13986,7 @@
         <v>563</v>
       </c>
       <c r="B564">
-        <v>56200</v>
+        <v>25290</v>
       </c>
       <c r="C564">
         <v>50</v>
@@ -13998,7 +14000,7 @@
         <v>564</v>
       </c>
       <c r="B565">
-        <v>56300</v>
+        <v>25335</v>
       </c>
       <c r="C565">
         <v>50</v>
@@ -14012,7 +14014,7 @@
         <v>565</v>
       </c>
       <c r="B566">
-        <v>56400</v>
+        <v>25380</v>
       </c>
       <c r="C566">
         <v>50</v>
@@ -14026,7 +14028,7 @@
         <v>566</v>
       </c>
       <c r="B567">
-        <v>56500</v>
+        <v>25425</v>
       </c>
       <c r="C567">
         <v>50</v>
@@ -14040,7 +14042,7 @@
         <v>567</v>
       </c>
       <c r="B568">
-        <v>56600</v>
+        <v>25470</v>
       </c>
       <c r="C568">
         <v>50</v>
@@ -14054,7 +14056,7 @@
         <v>568</v>
       </c>
       <c r="B569">
-        <v>56700</v>
+        <v>25515</v>
       </c>
       <c r="C569">
         <v>50</v>
@@ -14068,7 +14070,7 @@
         <v>569</v>
       </c>
       <c r="B570">
-        <v>56800</v>
+        <v>25560</v>
       </c>
       <c r="C570">
         <v>50</v>
@@ -14082,7 +14084,7 @@
         <v>570</v>
       </c>
       <c r="B571">
-        <v>56900</v>
+        <v>25605</v>
       </c>
       <c r="C571">
         <v>50</v>
@@ -14096,7 +14098,7 @@
         <v>571</v>
       </c>
       <c r="B572">
-        <v>57000</v>
+        <v>25650</v>
       </c>
       <c r="C572">
         <v>50</v>
@@ -14110,7 +14112,7 @@
         <v>572</v>
       </c>
       <c r="B573">
-        <v>57100</v>
+        <v>25695</v>
       </c>
       <c r="C573">
         <v>50</v>
@@ -14124,7 +14126,7 @@
         <v>573</v>
       </c>
       <c r="B574">
-        <v>57200</v>
+        <v>25740</v>
       </c>
       <c r="C574">
         <v>50</v>
@@ -14138,7 +14140,7 @@
         <v>574</v>
       </c>
       <c r="B575">
-        <v>57300</v>
+        <v>25785</v>
       </c>
       <c r="C575">
         <v>50</v>
@@ -14152,7 +14154,7 @@
         <v>575</v>
       </c>
       <c r="B576">
-        <v>57400</v>
+        <v>25830</v>
       </c>
       <c r="C576">
         <v>50</v>
@@ -14166,7 +14168,7 @@
         <v>576</v>
       </c>
       <c r="B577">
-        <v>57500</v>
+        <v>25875</v>
       </c>
       <c r="C577">
         <v>50</v>
@@ -14180,7 +14182,7 @@
         <v>577</v>
       </c>
       <c r="B578">
-        <v>57600</v>
+        <v>25920</v>
       </c>
       <c r="C578">
         <v>50</v>
@@ -14194,7 +14196,7 @@
         <v>578</v>
       </c>
       <c r="B579">
-        <v>57700</v>
+        <v>25965</v>
       </c>
       <c r="C579">
         <v>50</v>
@@ -14208,7 +14210,7 @@
         <v>579</v>
       </c>
       <c r="B580">
-        <v>57800</v>
+        <v>26010</v>
       </c>
       <c r="C580">
         <v>50</v>
@@ -14222,7 +14224,7 @@
         <v>580</v>
       </c>
       <c r="B581">
-        <v>57900</v>
+        <v>26055</v>
       </c>
       <c r="C581">
         <v>50</v>
@@ -14236,7 +14238,7 @@
         <v>581</v>
       </c>
       <c r="B582">
-        <v>58000</v>
+        <v>26100</v>
       </c>
       <c r="C582">
         <v>50</v>
@@ -14250,7 +14252,7 @@
         <v>582</v>
       </c>
       <c r="B583">
-        <v>58100</v>
+        <v>26145</v>
       </c>
       <c r="C583">
         <v>50</v>
@@ -14264,7 +14266,7 @@
         <v>583</v>
       </c>
       <c r="B584">
-        <v>58200</v>
+        <v>26190</v>
       </c>
       <c r="C584">
         <v>50</v>
@@ -14278,7 +14280,7 @@
         <v>584</v>
       </c>
       <c r="B585">
-        <v>58300</v>
+        <v>26235</v>
       </c>
       <c r="C585">
         <v>50</v>
@@ -14292,7 +14294,7 @@
         <v>585</v>
       </c>
       <c r="B586">
-        <v>58400</v>
+        <v>26280</v>
       </c>
       <c r="C586">
         <v>50</v>
@@ -14306,7 +14308,7 @@
         <v>586</v>
       </c>
       <c r="B587">
-        <v>58500</v>
+        <v>26325</v>
       </c>
       <c r="C587">
         <v>50</v>
@@ -14320,7 +14322,7 @@
         <v>587</v>
       </c>
       <c r="B588">
-        <v>58600</v>
+        <v>26370</v>
       </c>
       <c r="C588">
         <v>50</v>
@@ -14334,7 +14336,7 @@
         <v>588</v>
       </c>
       <c r="B589">
-        <v>58700</v>
+        <v>26415</v>
       </c>
       <c r="C589">
         <v>50</v>
@@ -14348,7 +14350,7 @@
         <v>589</v>
       </c>
       <c r="B590">
-        <v>58800</v>
+        <v>26460</v>
       </c>
       <c r="C590">
         <v>50</v>
@@ -14362,7 +14364,7 @@
         <v>590</v>
       </c>
       <c r="B591">
-        <v>58900</v>
+        <v>26505</v>
       </c>
       <c r="C591">
         <v>50</v>
@@ -14376,7 +14378,7 @@
         <v>591</v>
       </c>
       <c r="B592">
-        <v>59000</v>
+        <v>26550</v>
       </c>
       <c r="C592">
         <v>50</v>
@@ -14390,7 +14392,7 @@
         <v>592</v>
       </c>
       <c r="B593">
-        <v>59100</v>
+        <v>26595</v>
       </c>
       <c r="C593">
         <v>50</v>
@@ -14404,7 +14406,7 @@
         <v>593</v>
       </c>
       <c r="B594">
-        <v>59200</v>
+        <v>26640</v>
       </c>
       <c r="C594">
         <v>50</v>
@@ -14418,7 +14420,7 @@
         <v>594</v>
       </c>
       <c r="B595">
-        <v>59300</v>
+        <v>26685</v>
       </c>
       <c r="C595">
         <v>50</v>
@@ -14432,7 +14434,7 @@
         <v>595</v>
       </c>
       <c r="B596">
-        <v>59400</v>
+        <v>26730</v>
       </c>
       <c r="C596">
         <v>50</v>
@@ -14446,7 +14448,7 @@
         <v>596</v>
       </c>
       <c r="B597">
-        <v>59500</v>
+        <v>26775</v>
       </c>
       <c r="C597">
         <v>50</v>
@@ -14460,7 +14462,7 @@
         <v>597</v>
       </c>
       <c r="B598">
-        <v>59600</v>
+        <v>26820</v>
       </c>
       <c r="C598">
         <v>50</v>
@@ -14474,7 +14476,7 @@
         <v>598</v>
       </c>
       <c r="B599">
-        <v>59700</v>
+        <v>26865</v>
       </c>
       <c r="C599">
         <v>50</v>
@@ -14488,7 +14490,7 @@
         <v>599</v>
       </c>
       <c r="B600">
-        <v>59800</v>
+        <v>26910</v>
       </c>
       <c r="C600">
         <v>50</v>
@@ -14502,7 +14504,7 @@
         <v>600</v>
       </c>
       <c r="B601">
-        <v>59900</v>
+        <v>26955</v>
       </c>
       <c r="C601">
         <v>50</v>
@@ -14516,7 +14518,7 @@
         <v>601</v>
       </c>
       <c r="B602">
-        <v>60000</v>
+        <v>27000</v>
       </c>
       <c r="C602">
         <v>50</v>
@@ -14530,7 +14532,7 @@
         <v>602</v>
       </c>
       <c r="B603">
-        <v>60100</v>
+        <v>27045</v>
       </c>
       <c r="C603">
         <v>50</v>
@@ -14544,7 +14546,7 @@
         <v>603</v>
       </c>
       <c r="B604">
-        <v>60200</v>
+        <v>27090</v>
       </c>
       <c r="C604">
         <v>50</v>
@@ -14558,7 +14560,7 @@
         <v>604</v>
       </c>
       <c r="B605">
-        <v>60300</v>
+        <v>27135</v>
       </c>
       <c r="C605">
         <v>50</v>
@@ -14572,7 +14574,7 @@
         <v>605</v>
       </c>
       <c r="B606">
-        <v>60400</v>
+        <v>27180</v>
       </c>
       <c r="C606">
         <v>50</v>
@@ -14586,7 +14588,7 @@
         <v>606</v>
       </c>
       <c r="B607">
-        <v>60500</v>
+        <v>27225</v>
       </c>
       <c r="C607">
         <v>50</v>
@@ -14600,7 +14602,7 @@
         <v>607</v>
       </c>
       <c r="B608">
-        <v>60600</v>
+        <v>27270</v>
       </c>
       <c r="C608">
         <v>50</v>
@@ -14614,7 +14616,7 @@
         <v>608</v>
       </c>
       <c r="B609">
-        <v>60700</v>
+        <v>27315</v>
       </c>
       <c r="C609">
         <v>50</v>
@@ -14628,7 +14630,7 @@
         <v>609</v>
       </c>
       <c r="B610">
-        <v>60800</v>
+        <v>27360</v>
       </c>
       <c r="C610">
         <v>50</v>
@@ -14642,7 +14644,7 @@
         <v>610</v>
       </c>
       <c r="B611">
-        <v>60900</v>
+        <v>27405</v>
       </c>
       <c r="C611">
         <v>50</v>
@@ -14656,7 +14658,7 @@
         <v>611</v>
       </c>
       <c r="B612">
-        <v>61000</v>
+        <v>27450</v>
       </c>
       <c r="C612">
         <v>50</v>
@@ -14670,7 +14672,7 @@
         <v>612</v>
       </c>
       <c r="B613">
-        <v>61100</v>
+        <v>27495</v>
       </c>
       <c r="C613">
         <v>50</v>
@@ -14684,7 +14686,7 @@
         <v>613</v>
       </c>
       <c r="B614">
-        <v>61200</v>
+        <v>27540</v>
       </c>
       <c r="C614">
         <v>50</v>
@@ -14698,7 +14700,7 @@
         <v>614</v>
       </c>
       <c r="B615">
-        <v>61300</v>
+        <v>27585</v>
       </c>
       <c r="C615">
         <v>50</v>
@@ -14712,7 +14714,7 @@
         <v>615</v>
       </c>
       <c r="B616">
-        <v>61400</v>
+        <v>27630</v>
       </c>
       <c r="C616">
         <v>50</v>
@@ -14726,7 +14728,7 @@
         <v>616</v>
       </c>
       <c r="B617">
-        <v>61500</v>
+        <v>27675</v>
       </c>
       <c r="C617">
         <v>50</v>
@@ -14740,7 +14742,7 @@
         <v>617</v>
       </c>
       <c r="B618">
-        <v>61600</v>
+        <v>27720</v>
       </c>
       <c r="C618">
         <v>50</v>
@@ -14754,7 +14756,7 @@
         <v>618</v>
       </c>
       <c r="B619">
-        <v>61700</v>
+        <v>27765</v>
       </c>
       <c r="C619">
         <v>50</v>
@@ -14768,7 +14770,7 @@
         <v>619</v>
       </c>
       <c r="B620">
-        <v>61800</v>
+        <v>27810</v>
       </c>
       <c r="C620">
         <v>50</v>
@@ -14782,7 +14784,7 @@
         <v>620</v>
       </c>
       <c r="B621">
-        <v>61900</v>
+        <v>27855</v>
       </c>
       <c r="C621">
         <v>50</v>
@@ -14796,7 +14798,7 @@
         <v>621</v>
       </c>
       <c r="B622">
-        <v>62000</v>
+        <v>27900</v>
       </c>
       <c r="C622">
         <v>50</v>
@@ -14810,7 +14812,7 @@
         <v>622</v>
       </c>
       <c r="B623">
-        <v>62100</v>
+        <v>27945</v>
       </c>
       <c r="C623">
         <v>50</v>
@@ -14824,7 +14826,7 @@
         <v>623</v>
       </c>
       <c r="B624">
-        <v>62200</v>
+        <v>27990</v>
       </c>
       <c r="C624">
         <v>50</v>
@@ -14838,7 +14840,7 @@
         <v>624</v>
       </c>
       <c r="B625">
-        <v>62300</v>
+        <v>28035</v>
       </c>
       <c r="C625">
         <v>50</v>
@@ -14852,7 +14854,7 @@
         <v>625</v>
       </c>
       <c r="B626">
-        <v>62400</v>
+        <v>28080</v>
       </c>
       <c r="C626">
         <v>50</v>
@@ -14866,7 +14868,7 @@
         <v>626</v>
       </c>
       <c r="B627">
-        <v>62500</v>
+        <v>28125</v>
       </c>
       <c r="C627">
         <v>50</v>
@@ -14880,7 +14882,7 @@
         <v>627</v>
       </c>
       <c r="B628">
-        <v>62600</v>
+        <v>28170</v>
       </c>
       <c r="C628">
         <v>50</v>
@@ -14894,7 +14896,7 @@
         <v>628</v>
       </c>
       <c r="B629">
-        <v>62700</v>
+        <v>28215</v>
       </c>
       <c r="C629">
         <v>50</v>
@@ -14908,7 +14910,7 @@
         <v>629</v>
       </c>
       <c r="B630">
-        <v>62800</v>
+        <v>28260</v>
       </c>
       <c r="C630">
         <v>50</v>
@@ -14922,7 +14924,7 @@
         <v>630</v>
       </c>
       <c r="B631">
-        <v>62900</v>
+        <v>28305</v>
       </c>
       <c r="C631">
         <v>50</v>
@@ -14936,7 +14938,7 @@
         <v>631</v>
       </c>
       <c r="B632">
-        <v>63000</v>
+        <v>28350</v>
       </c>
       <c r="C632">
         <v>50</v>
@@ -14950,7 +14952,7 @@
         <v>632</v>
       </c>
       <c r="B633">
-        <v>63100</v>
+        <v>28395</v>
       </c>
       <c r="C633">
         <v>50</v>
@@ -14964,7 +14966,7 @@
         <v>633</v>
       </c>
       <c r="B634">
-        <v>63200</v>
+        <v>28440</v>
       </c>
       <c r="C634">
         <v>50</v>
@@ -14978,7 +14980,7 @@
         <v>634</v>
       </c>
       <c r="B635">
-        <v>63300</v>
+        <v>28485</v>
       </c>
       <c r="C635">
         <v>50</v>
@@ -14992,7 +14994,7 @@
         <v>635</v>
       </c>
       <c r="B636">
-        <v>63400</v>
+        <v>28530</v>
       </c>
       <c r="C636">
         <v>50</v>
@@ -15006,7 +15008,7 @@
         <v>636</v>
       </c>
       <c r="B637">
-        <v>63500</v>
+        <v>28575</v>
       </c>
       <c r="C637">
         <v>50</v>
@@ -15020,7 +15022,7 @@
         <v>637</v>
       </c>
       <c r="B638">
-        <v>63600</v>
+        <v>28620</v>
       </c>
       <c r="C638">
         <v>50</v>
@@ -15034,7 +15036,7 @@
         <v>638</v>
       </c>
       <c r="B639">
-        <v>63700</v>
+        <v>28665</v>
       </c>
       <c r="C639">
         <v>50</v>
@@ -15048,7 +15050,7 @@
         <v>639</v>
       </c>
       <c r="B640">
-        <v>63800</v>
+        <v>28710</v>
       </c>
       <c r="C640">
         <v>50</v>
@@ -15062,7 +15064,7 @@
         <v>640</v>
       </c>
       <c r="B641">
-        <v>63900</v>
+        <v>28755</v>
       </c>
       <c r="C641">
         <v>50</v>
@@ -15076,7 +15078,7 @@
         <v>641</v>
       </c>
       <c r="B642">
-        <v>64000</v>
+        <v>28800</v>
       </c>
       <c r="C642">
         <v>50</v>
@@ -15090,7 +15092,7 @@
         <v>642</v>
       </c>
       <c r="B643">
-        <v>64100</v>
+        <v>28845</v>
       </c>
       <c r="C643">
         <v>50</v>
@@ -15104,7 +15106,7 @@
         <v>643</v>
       </c>
       <c r="B644">
-        <v>64200</v>
+        <v>28890</v>
       </c>
       <c r="C644">
         <v>50</v>
@@ -15118,7 +15120,7 @@
         <v>644</v>
       </c>
       <c r="B645">
-        <v>64300</v>
+        <v>28935</v>
       </c>
       <c r="C645">
         <v>50</v>
@@ -15132,7 +15134,7 @@
         <v>645</v>
       </c>
       <c r="B646">
-        <v>64400</v>
+        <v>28980</v>
       </c>
       <c r="C646">
         <v>50</v>
@@ -15146,7 +15148,7 @@
         <v>646</v>
       </c>
       <c r="B647">
-        <v>64500</v>
+        <v>29025</v>
       </c>
       <c r="C647">
         <v>50</v>
@@ -15160,7 +15162,7 @@
         <v>647</v>
       </c>
       <c r="B648">
-        <v>64600</v>
+        <v>29070</v>
       </c>
       <c r="C648">
         <v>50</v>
@@ -15174,7 +15176,7 @@
         <v>648</v>
       </c>
       <c r="B649">
-        <v>64700</v>
+        <v>29115</v>
       </c>
       <c r="C649">
         <v>50</v>
@@ -15188,7 +15190,7 @@
         <v>649</v>
       </c>
       <c r="B650">
-        <v>64800</v>
+        <v>29160</v>
       </c>
       <c r="C650">
         <v>50</v>
@@ -15202,7 +15204,7 @@
         <v>650</v>
       </c>
       <c r="B651">
-        <v>64900</v>
+        <v>29205</v>
       </c>
       <c r="C651">
         <v>50</v>
@@ -15216,7 +15218,7 @@
         <v>651</v>
       </c>
       <c r="B652">
-        <v>65000</v>
+        <v>29250</v>
       </c>
       <c r="C652">
         <v>50</v>
@@ -15230,7 +15232,7 @@
         <v>652</v>
       </c>
       <c r="B653">
-        <v>65100</v>
+        <v>29295</v>
       </c>
       <c r="C653">
         <v>50</v>
@@ -15244,7 +15246,7 @@
         <v>653</v>
       </c>
       <c r="B654">
-        <v>65200</v>
+        <v>29340</v>
       </c>
       <c r="C654">
         <v>50</v>
@@ -15258,7 +15260,7 @@
         <v>654</v>
       </c>
       <c r="B655">
-        <v>65300</v>
+        <v>29385</v>
       </c>
       <c r="C655">
         <v>50</v>
@@ -15272,7 +15274,7 @@
         <v>655</v>
       </c>
       <c r="B656">
-        <v>65400</v>
+        <v>29430</v>
       </c>
       <c r="C656">
         <v>50</v>
@@ -15286,7 +15288,7 @@
         <v>656</v>
       </c>
       <c r="B657">
-        <v>65500</v>
+        <v>29475</v>
       </c>
       <c r="C657">
         <v>50</v>
@@ -15300,7 +15302,7 @@
         <v>657</v>
       </c>
       <c r="B658">
-        <v>65600</v>
+        <v>29520</v>
       </c>
       <c r="C658">
         <v>50</v>
@@ -15314,7 +15316,7 @@
         <v>658</v>
       </c>
       <c r="B659">
-        <v>65700</v>
+        <v>29565</v>
       </c>
       <c r="C659">
         <v>50</v>
@@ -15328,7 +15330,7 @@
         <v>659</v>
       </c>
       <c r="B660">
-        <v>65800</v>
+        <v>29610</v>
       </c>
       <c r="C660">
         <v>50</v>
@@ -15342,7 +15344,7 @@
         <v>660</v>
       </c>
       <c r="B661">
-        <v>65900</v>
+        <v>29655</v>
       </c>
       <c r="C661">
         <v>50</v>
@@ -15356,7 +15358,7 @@
         <v>661</v>
       </c>
       <c r="B662">
-        <v>66000</v>
+        <v>29700</v>
       </c>
       <c r="C662">
         <v>50</v>
@@ -15370,7 +15372,7 @@
         <v>662</v>
       </c>
       <c r="B663">
-        <v>66100</v>
+        <v>29745</v>
       </c>
       <c r="C663">
         <v>50</v>
@@ -15384,7 +15386,7 @@
         <v>663</v>
       </c>
       <c r="B664">
-        <v>66200</v>
+        <v>29790</v>
       </c>
       <c r="C664">
         <v>50</v>
@@ -15398,7 +15400,7 @@
         <v>664</v>
       </c>
       <c r="B665">
-        <v>66300</v>
+        <v>29835</v>
       </c>
       <c r="C665">
         <v>50</v>
@@ -15412,7 +15414,7 @@
         <v>665</v>
       </c>
       <c r="B666">
-        <v>66400</v>
+        <v>29880</v>
       </c>
       <c r="C666">
         <v>50</v>
@@ -15426,7 +15428,7 @@
         <v>666</v>
       </c>
       <c r="B667">
-        <v>66500</v>
+        <v>29925</v>
       </c>
       <c r="C667">
         <v>50</v>
@@ -15440,7 +15442,7 @@
         <v>667</v>
       </c>
       <c r="B668">
-        <v>66600</v>
+        <v>29970</v>
       </c>
       <c r="C668">
         <v>50</v>
@@ -15454,7 +15456,7 @@
         <v>668</v>
       </c>
       <c r="B669">
-        <v>66700</v>
+        <v>30015</v>
       </c>
       <c r="C669">
         <v>50</v>
@@ -15468,7 +15470,7 @@
         <v>669</v>
       </c>
       <c r="B670">
-        <v>66800</v>
+        <v>30060</v>
       </c>
       <c r="C670">
         <v>50</v>
@@ -15482,7 +15484,7 @@
         <v>670</v>
       </c>
       <c r="B671">
-        <v>66900</v>
+        <v>30105</v>
       </c>
       <c r="C671">
         <v>50</v>
@@ -15496,7 +15498,7 @@
         <v>671</v>
       </c>
       <c r="B672">
-        <v>67000</v>
+        <v>30150</v>
       </c>
       <c r="C672">
         <v>50</v>
@@ -15510,7 +15512,7 @@
         <v>672</v>
       </c>
       <c r="B673">
-        <v>67100</v>
+        <v>30195</v>
       </c>
       <c r="C673">
         <v>50</v>
@@ -15524,7 +15526,7 @@
         <v>673</v>
       </c>
       <c r="B674">
-        <v>67200</v>
+        <v>30240</v>
       </c>
       <c r="C674">
         <v>50</v>
@@ -15538,7 +15540,7 @@
         <v>674</v>
       </c>
       <c r="B675">
-        <v>67300</v>
+        <v>30285</v>
       </c>
       <c r="C675">
         <v>50</v>
@@ -15552,7 +15554,7 @@
         <v>675</v>
       </c>
       <c r="B676">
-        <v>67400</v>
+        <v>30330</v>
       </c>
       <c r="C676">
         <v>50</v>
@@ -15566,7 +15568,7 @@
         <v>676</v>
       </c>
       <c r="B677">
-        <v>67500</v>
+        <v>30375</v>
       </c>
       <c r="C677">
         <v>50</v>
@@ -15580,7 +15582,7 @@
         <v>677</v>
       </c>
       <c r="B678">
-        <v>67600</v>
+        <v>30420</v>
       </c>
       <c r="C678">
         <v>50</v>
@@ -15594,7 +15596,7 @@
         <v>678</v>
       </c>
       <c r="B679">
-        <v>67700</v>
+        <v>30465</v>
       </c>
       <c r="C679">
         <v>50</v>
@@ -15608,7 +15610,7 @@
         <v>679</v>
       </c>
       <c r="B680">
-        <v>67800</v>
+        <v>30510</v>
       </c>
       <c r="C680">
         <v>50</v>
@@ -15622,7 +15624,7 @@
         <v>680</v>
       </c>
       <c r="B681">
-        <v>67900</v>
+        <v>30555</v>
       </c>
       <c r="C681">
         <v>50</v>
@@ -15636,7 +15638,7 @@
         <v>681</v>
       </c>
       <c r="B682">
-        <v>68000</v>
+        <v>30600</v>
       </c>
       <c r="C682">
         <v>50</v>
@@ -15650,7 +15652,7 @@
         <v>682</v>
       </c>
       <c r="B683">
-        <v>68100</v>
+        <v>30645</v>
       </c>
       <c r="C683">
         <v>50</v>
@@ -15664,7 +15666,7 @@
         <v>683</v>
       </c>
       <c r="B684">
-        <v>68200</v>
+        <v>30690</v>
       </c>
       <c r="C684">
         <v>50</v>
@@ -15678,7 +15680,7 @@
         <v>684</v>
       </c>
       <c r="B685">
-        <v>68300</v>
+        <v>30735</v>
       </c>
       <c r="C685">
         <v>50</v>
@@ -15692,7 +15694,7 @@
         <v>685</v>
       </c>
       <c r="B686">
-        <v>68400</v>
+        <v>30780</v>
       </c>
       <c r="C686">
         <v>50</v>
@@ -15706,7 +15708,7 @@
         <v>686</v>
       </c>
       <c r="B687">
-        <v>68500</v>
+        <v>30825</v>
       </c>
       <c r="C687">
         <v>50</v>
@@ -15720,7 +15722,7 @@
         <v>687</v>
       </c>
       <c r="B688">
-        <v>68600</v>
+        <v>30870</v>
       </c>
       <c r="C688">
         <v>50</v>
@@ -15734,7 +15736,7 @@
         <v>688</v>
       </c>
       <c r="B689">
-        <v>68700</v>
+        <v>30915</v>
       </c>
       <c r="C689">
         <v>50</v>
@@ -15748,7 +15750,7 @@
         <v>689</v>
       </c>
       <c r="B690">
-        <v>68800</v>
+        <v>30960</v>
       </c>
       <c r="C690">
         <v>50</v>
@@ -15762,7 +15764,7 @@
         <v>690</v>
       </c>
       <c r="B691">
-        <v>68900</v>
+        <v>31005</v>
       </c>
       <c r="C691">
         <v>50</v>
@@ -15776,7 +15778,7 @@
         <v>691</v>
       </c>
       <c r="B692">
-        <v>69000</v>
+        <v>31050</v>
       </c>
       <c r="C692">
         <v>50</v>
@@ -15790,7 +15792,7 @@
         <v>692</v>
       </c>
       <c r="B693">
-        <v>69100</v>
+        <v>31095</v>
       </c>
       <c r="C693">
         <v>50</v>
@@ -15804,7 +15806,7 @@
         <v>693</v>
       </c>
       <c r="B694">
-        <v>69200</v>
+        <v>31140</v>
       </c>
       <c r="C694">
         <v>50</v>
@@ -15818,7 +15820,7 @@
         <v>694</v>
       </c>
       <c r="B695">
-        <v>69300</v>
+        <v>31185</v>
       </c>
       <c r="C695">
         <v>50</v>
@@ -15832,7 +15834,7 @@
         <v>695</v>
       </c>
       <c r="B696">
-        <v>69400</v>
+        <v>31230</v>
       </c>
       <c r="C696">
         <v>50</v>
@@ -15846,7 +15848,7 @@
         <v>696</v>
       </c>
       <c r="B697">
-        <v>69500</v>
+        <v>31275</v>
       </c>
       <c r="C697">
         <v>50</v>
@@ -15860,7 +15862,7 @@
         <v>697</v>
       </c>
       <c r="B698">
-        <v>69600</v>
+        <v>31320</v>
       </c>
       <c r="C698">
         <v>50</v>
@@ -15874,7 +15876,7 @@
         <v>698</v>
       </c>
       <c r="B699">
-        <v>69700</v>
+        <v>31365</v>
       </c>
       <c r="C699">
         <v>50</v>
@@ -15888,7 +15890,7 @@
         <v>699</v>
       </c>
       <c r="B700">
-        <v>69800</v>
+        <v>31410</v>
       </c>
       <c r="C700">
         <v>50</v>
@@ -15902,7 +15904,7 @@
         <v>700</v>
       </c>
       <c r="B701">
-        <v>69900</v>
+        <v>31455</v>
       </c>
       <c r="C701">
         <v>50</v>
@@ -15916,7 +15918,7 @@
         <v>701</v>
       </c>
       <c r="B702">
-        <v>70000</v>
+        <v>31500</v>
       </c>
       <c r="C702">
         <v>50</v>
@@ -15930,7 +15932,7 @@
         <v>702</v>
       </c>
       <c r="B703">
-        <v>70100</v>
+        <v>31545</v>
       </c>
       <c r="C703">
         <v>50</v>
@@ -15944,7 +15946,7 @@
         <v>703</v>
       </c>
       <c r="B704">
-        <v>70200</v>
+        <v>31590</v>
       </c>
       <c r="C704">
         <v>50</v>
@@ -15958,7 +15960,7 @@
         <v>704</v>
       </c>
       <c r="B705">
-        <v>70300</v>
+        <v>31635</v>
       </c>
       <c r="C705">
         <v>50</v>
@@ -15972,7 +15974,7 @@
         <v>705</v>
       </c>
       <c r="B706">
-        <v>70400</v>
+        <v>31680</v>
       </c>
       <c r="C706">
         <v>50</v>
@@ -15986,7 +15988,7 @@
         <v>706</v>
       </c>
       <c r="B707">
-        <v>70500</v>
+        <v>31725</v>
       </c>
       <c r="C707">
         <v>50</v>
@@ -16000,7 +16002,7 @@
         <v>707</v>
       </c>
       <c r="B708">
-        <v>70600</v>
+        <v>31770</v>
       </c>
       <c r="C708">
         <v>50</v>
@@ -16014,7 +16016,7 @@
         <v>708</v>
       </c>
       <c r="B709">
-        <v>70700</v>
+        <v>31815</v>
       </c>
       <c r="C709">
         <v>50</v>
@@ -16028,7 +16030,7 @@
         <v>709</v>
       </c>
       <c r="B710">
-        <v>70800</v>
+        <v>31860</v>
       </c>
       <c r="C710">
         <v>50</v>
@@ -16042,7 +16044,7 @@
         <v>710</v>
       </c>
       <c r="B711">
-        <v>70900</v>
+        <v>31905</v>
       </c>
       <c r="C711">
         <v>50</v>
@@ -16056,7 +16058,7 @@
         <v>711</v>
       </c>
       <c r="B712">
-        <v>71000</v>
+        <v>31950</v>
       </c>
       <c r="C712">
         <v>50</v>
@@ -16070,7 +16072,7 @@
         <v>712</v>
       </c>
       <c r="B713">
-        <v>71100</v>
+        <v>31995</v>
       </c>
       <c r="C713">
         <v>50</v>
@@ -16084,7 +16086,7 @@
         <v>713</v>
       </c>
       <c r="B714">
-        <v>71200</v>
+        <v>32040</v>
       </c>
       <c r="C714">
         <v>50</v>
@@ -16098,7 +16100,7 @@
         <v>714</v>
       </c>
       <c r="B715">
-        <v>71300</v>
+        <v>32085</v>
       </c>
       <c r="C715">
         <v>50</v>
@@ -16112,7 +16114,7 @@
         <v>715</v>
       </c>
       <c r="B716">
-        <v>71400</v>
+        <v>32130</v>
       </c>
       <c r="C716">
         <v>50</v>
@@ -16126,7 +16128,7 @@
         <v>716</v>
       </c>
       <c r="B717">
-        <v>71500</v>
+        <v>32175</v>
       </c>
       <c r="C717">
         <v>50</v>
@@ -16140,7 +16142,7 @@
         <v>717</v>
       </c>
       <c r="B718">
-        <v>71600</v>
+        <v>32220</v>
       </c>
       <c r="C718">
         <v>50</v>
@@ -16154,7 +16156,7 @@
         <v>718</v>
       </c>
       <c r="B719">
-        <v>71700</v>
+        <v>32265</v>
       </c>
       <c r="C719">
         <v>50</v>
@@ -16168,7 +16170,7 @@
         <v>719</v>
       </c>
       <c r="B720">
-        <v>71800</v>
+        <v>32310</v>
       </c>
       <c r="C720">
         <v>50</v>
@@ -16182,7 +16184,7 @@
         <v>720</v>
       </c>
       <c r="B721">
-        <v>71900</v>
+        <v>32355</v>
       </c>
       <c r="C721">
         <v>50</v>
@@ -16196,7 +16198,7 @@
         <v>721</v>
       </c>
       <c r="B722">
-        <v>72000</v>
+        <v>32400</v>
       </c>
       <c r="C722">
         <v>50</v>
@@ -16210,7 +16212,7 @@
         <v>722</v>
       </c>
       <c r="B723">
-        <v>72100</v>
+        <v>32445</v>
       </c>
       <c r="C723">
         <v>50</v>
@@ -16224,7 +16226,7 @@
         <v>723</v>
       </c>
       <c r="B724">
-        <v>72200</v>
+        <v>32490</v>
       </c>
       <c r="C724">
         <v>50</v>
@@ -16238,7 +16240,7 @@
         <v>724</v>
       </c>
       <c r="B725">
-        <v>72300</v>
+        <v>32535</v>
       </c>
       <c r="C725">
         <v>50</v>
@@ -16252,7 +16254,7 @@
         <v>725</v>
       </c>
       <c r="B726">
-        <v>72400</v>
+        <v>32580</v>
       </c>
       <c r="C726">
         <v>50</v>
@@ -16266,7 +16268,7 @@
         <v>726</v>
       </c>
       <c r="B727">
-        <v>72500</v>
+        <v>32625</v>
       </c>
       <c r="C727">
         <v>50</v>
@@ -16280,7 +16282,7 @@
         <v>727</v>
       </c>
       <c r="B728">
-        <v>72600</v>
+        <v>32670</v>
       </c>
       <c r="C728">
         <v>50</v>
@@ -16294,7 +16296,7 @@
         <v>728</v>
       </c>
       <c r="B729">
-        <v>72700</v>
+        <v>32715</v>
       </c>
       <c r="C729">
         <v>50</v>
@@ -16308,7 +16310,7 @@
         <v>729</v>
       </c>
       <c r="B730">
-        <v>72800</v>
+        <v>32760</v>
       </c>
       <c r="C730">
         <v>50</v>
@@ -16322,7 +16324,7 @@
         <v>730</v>
       </c>
       <c r="B731">
-        <v>72900</v>
+        <v>32805</v>
       </c>
       <c r="C731">
         <v>50</v>
@@ -16336,7 +16338,7 @@
         <v>731</v>
       </c>
       <c r="B732">
-        <v>73000</v>
+        <v>32850</v>
       </c>
       <c r="C732">
         <v>50</v>
@@ -16350,7 +16352,7 @@
         <v>732</v>
       </c>
       <c r="B733">
-        <v>73100</v>
+        <v>32895</v>
       </c>
       <c r="C733">
         <v>50</v>
@@ -16364,7 +16366,7 @@
         <v>733</v>
       </c>
       <c r="B734">
-        <v>73200</v>
+        <v>32940</v>
       </c>
       <c r="C734">
         <v>50</v>
@@ -16378,7 +16380,7 @@
         <v>734</v>
       </c>
       <c r="B735">
-        <v>73300</v>
+        <v>32985</v>
       </c>
       <c r="C735">
         <v>50</v>
@@ -16392,7 +16394,7 @@
         <v>735</v>
       </c>
       <c r="B736">
-        <v>73400</v>
+        <v>33030</v>
       </c>
       <c r="C736">
         <v>50</v>
@@ -16406,7 +16408,7 @@
         <v>736</v>
       </c>
       <c r="B737">
-        <v>73500</v>
+        <v>33075</v>
       </c>
       <c r="C737">
         <v>50</v>
@@ -16420,7 +16422,7 @@
         <v>737</v>
       </c>
       <c r="B738">
-        <v>73600</v>
+        <v>33120</v>
       </c>
       <c r="C738">
         <v>50</v>
@@ -16434,7 +16436,7 @@
         <v>738</v>
       </c>
       <c r="B739">
-        <v>73700</v>
+        <v>33165</v>
       </c>
       <c r="C739">
         <v>50</v>
@@ -16448,7 +16450,7 @@
         <v>739</v>
       </c>
       <c r="B740">
-        <v>73800</v>
+        <v>33210</v>
       </c>
       <c r="C740">
         <v>50</v>
@@ -16462,7 +16464,7 @@
         <v>740</v>
       </c>
       <c r="B741">
-        <v>73900</v>
+        <v>33255</v>
       </c>
       <c r="C741">
         <v>50</v>
@@ -16476,7 +16478,7 @@
         <v>741</v>
       </c>
       <c r="B742">
-        <v>74000</v>
+        <v>33300</v>
       </c>
       <c r="C742">
         <v>50</v>
@@ -16490,7 +16492,7 @@
         <v>742</v>
       </c>
       <c r="B743">
-        <v>74100</v>
+        <v>33345</v>
       </c>
       <c r="C743">
         <v>50</v>
@@ -16504,7 +16506,7 @@
         <v>743</v>
       </c>
       <c r="B744">
-        <v>74200</v>
+        <v>33390</v>
       </c>
       <c r="C744">
         <v>50</v>
@@ -16518,7 +16520,7 @@
         <v>744</v>
       </c>
       <c r="B745">
-        <v>74300</v>
+        <v>33435</v>
       </c>
       <c r="C745">
         <v>50</v>
@@ -16532,7 +16534,7 @@
         <v>745</v>
       </c>
       <c r="B746">
-        <v>74400</v>
+        <v>33480</v>
       </c>
       <c r="C746">
         <v>50</v>
@@ -16546,7 +16548,7 @@
         <v>746</v>
       </c>
       <c r="B747">
-        <v>74500</v>
+        <v>33525</v>
       </c>
       <c r="C747">
         <v>50</v>
@@ -16560,7 +16562,7 @@
         <v>747</v>
       </c>
       <c r="B748">
-        <v>74600</v>
+        <v>33570</v>
       </c>
       <c r="C748">
         <v>50</v>
@@ -16574,7 +16576,7 @@
         <v>748</v>
       </c>
       <c r="B749">
-        <v>74700</v>
+        <v>33615</v>
       </c>
       <c r="C749">
         <v>50</v>
@@ -16588,7 +16590,7 @@
         <v>749</v>
       </c>
       <c r="B750">
-        <v>74800</v>
+        <v>33660</v>
       </c>
       <c r="C750">
         <v>50</v>
@@ -16602,7 +16604,7 @@
         <v>750</v>
       </c>
       <c r="B751">
-        <v>74900</v>
+        <v>33705</v>
       </c>
       <c r="C751">
         <v>50</v>
@@ -16616,7 +16618,7 @@
         <v>751</v>
       </c>
       <c r="B752">
-        <v>75000</v>
+        <v>33750</v>
       </c>
       <c r="C752">
         <v>50</v>
@@ -16630,7 +16632,7 @@
         <v>752</v>
       </c>
       <c r="B753">
-        <v>75100</v>
+        <v>33795</v>
       </c>
       <c r="C753">
         <v>50</v>
@@ -16644,7 +16646,7 @@
         <v>753</v>
       </c>
       <c r="B754">
-        <v>75200</v>
+        <v>33840</v>
       </c>
       <c r="C754">
         <v>50</v>
@@ -16658,7 +16660,7 @@
         <v>754</v>
       </c>
       <c r="B755">
-        <v>75300</v>
+        <v>33885</v>
       </c>
       <c r="C755">
         <v>50</v>
@@ -16672,7 +16674,7 @@
         <v>755</v>
       </c>
       <c r="B756">
-        <v>75400</v>
+        <v>33930</v>
       </c>
       <c r="C756">
         <v>50</v>
@@ -16686,7 +16688,7 @@
         <v>756</v>
       </c>
       <c r="B757">
-        <v>75500</v>
+        <v>33975</v>
       </c>
       <c r="C757">
         <v>50</v>
@@ -16700,7 +16702,7 @@
         <v>757</v>
       </c>
       <c r="B758">
-        <v>75600</v>
+        <v>34020</v>
       </c>
       <c r="C758">
         <v>50</v>
@@ -16714,7 +16716,7 @@
         <v>758</v>
       </c>
       <c r="B759">
-        <v>75700</v>
+        <v>34065</v>
       </c>
       <c r="C759">
         <v>50</v>
@@ -16728,7 +16730,7 @@
         <v>759</v>
       </c>
       <c r="B760">
-        <v>75800</v>
+        <v>34110</v>
       </c>
       <c r="C760">
         <v>50</v>
@@ -16742,7 +16744,7 @@
         <v>760</v>
       </c>
       <c r="B761">
-        <v>75900</v>
+        <v>34155</v>
       </c>
       <c r="C761">
         <v>50</v>
@@ -16756,7 +16758,7 @@
         <v>761</v>
       </c>
       <c r="B762">
-        <v>76000</v>
+        <v>34200</v>
       </c>
       <c r="C762">
         <v>50</v>
@@ -16770,7 +16772,7 @@
         <v>762</v>
       </c>
       <c r="B763">
-        <v>76100</v>
+        <v>34245</v>
       </c>
       <c r="C763">
         <v>50</v>
@@ -16784,7 +16786,7 @@
         <v>763</v>
       </c>
       <c r="B764">
-        <v>76200</v>
+        <v>34290</v>
       </c>
       <c r="C764">
         <v>50</v>
@@ -16798,7 +16800,7 @@
         <v>764</v>
       </c>
       <c r="B765">
-        <v>76300</v>
+        <v>34335</v>
       </c>
       <c r="C765">
         <v>50</v>
@@ -16812,7 +16814,7 @@
         <v>765</v>
       </c>
       <c r="B766">
-        <v>76400</v>
+        <v>34380</v>
       </c>
       <c r="C766">
         <v>50</v>
@@ -16826,7 +16828,7 @@
         <v>766</v>
       </c>
       <c r="B767">
-        <v>76500</v>
+        <v>34425</v>
       </c>
       <c r="C767">
         <v>50</v>
@@ -16840,7 +16842,7 @@
         <v>767</v>
       </c>
       <c r="B768">
-        <v>76600</v>
+        <v>34470</v>
       </c>
       <c r="C768">
         <v>50</v>
@@ -16854,7 +16856,7 @@
         <v>768</v>
       </c>
       <c r="B769">
-        <v>76700</v>
+        <v>34515</v>
       </c>
       <c r="C769">
         <v>50</v>
@@ -16868,7 +16870,7 @@
         <v>769</v>
       </c>
       <c r="B770">
-        <v>76800</v>
+        <v>34560</v>
       </c>
       <c r="C770">
         <v>50</v>
@@ -16882,7 +16884,7 @@
         <v>770</v>
       </c>
       <c r="B771">
-        <v>76900</v>
+        <v>34605</v>
       </c>
       <c r="C771">
         <v>50</v>
@@ -16896,7 +16898,7 @@
         <v>771</v>
       </c>
       <c r="B772">
-        <v>77000</v>
+        <v>34650</v>
       </c>
       <c r="C772">
         <v>50</v>
@@ -16910,7 +16912,7 @@
         <v>772</v>
       </c>
       <c r="B773">
-        <v>77100</v>
+        <v>34695</v>
       </c>
       <c r="C773">
         <v>50</v>
@@ -16924,7 +16926,7 @@
         <v>773</v>
       </c>
       <c r="B774">
-        <v>77200</v>
+        <v>34740</v>
       </c>
       <c r="C774">
         <v>50</v>
@@ -16938,7 +16940,7 @@
         <v>774</v>
       </c>
       <c r="B775">
-        <v>77300</v>
+        <v>34785</v>
       </c>
       <c r="C775">
         <v>50</v>
@@ -16952,7 +16954,7 @@
         <v>775</v>
       </c>
       <c r="B776">
-        <v>77400</v>
+        <v>34830</v>
       </c>
       <c r="C776">
         <v>50</v>
@@ -16966,7 +16968,7 @@
         <v>776</v>
       </c>
       <c r="B777">
-        <v>77500</v>
+        <v>34875</v>
       </c>
       <c r="C777">
         <v>50</v>
@@ -16980,7 +16982,7 @@
         <v>777</v>
       </c>
       <c r="B778">
-        <v>77600</v>
+        <v>34920</v>
       </c>
       <c r="C778">
         <v>50</v>
@@ -16994,7 +16996,7 @@
         <v>778</v>
       </c>
       <c r="B779">
-        <v>77700</v>
+        <v>34965</v>
       </c>
       <c r="C779">
         <v>50</v>
@@ -17008,7 +17010,7 @@
         <v>779</v>
       </c>
       <c r="B780">
-        <v>77800</v>
+        <v>35010</v>
       </c>
       <c r="C780">
         <v>50</v>
@@ -17022,7 +17024,7 @@
         <v>780</v>
       </c>
       <c r="B781">
-        <v>77900</v>
+        <v>35055</v>
       </c>
       <c r="C781">
         <v>50</v>
@@ -17036,7 +17038,7 @@
         <v>781</v>
       </c>
       <c r="B782">
-        <v>78000</v>
+        <v>35100</v>
       </c>
       <c r="C782">
         <v>50</v>
@@ -17050,7 +17052,7 @@
         <v>782</v>
       </c>
       <c r="B783">
-        <v>78100</v>
+        <v>35145</v>
       </c>
       <c r="C783">
         <v>50</v>
@@ -17064,7 +17066,7 @@
         <v>783</v>
       </c>
       <c r="B784">
-        <v>78200</v>
+        <v>35190</v>
       </c>
       <c r="C784">
         <v>50</v>
@@ -17078,7 +17080,7 @@
         <v>784</v>
       </c>
       <c r="B785">
-        <v>78300</v>
+        <v>35235</v>
       </c>
       <c r="C785">
         <v>50</v>
@@ -17092,7 +17094,7 @@
         <v>785</v>
       </c>
       <c r="B786">
-        <v>78400</v>
+        <v>35280</v>
       </c>
       <c r="C786">
         <v>50</v>
@@ -17106,7 +17108,7 @@
         <v>786</v>
       </c>
       <c r="B787">
-        <v>78500</v>
+        <v>35325</v>
       </c>
       <c r="C787">
         <v>50</v>
@@ -17120,7 +17122,7 @@
         <v>787</v>
       </c>
       <c r="B788">
-        <v>78600</v>
+        <v>35370</v>
       </c>
       <c r="C788">
         <v>50</v>
@@ -17134,7 +17136,7 @@
         <v>788</v>
       </c>
       <c r="B789">
-        <v>78700</v>
+        <v>35415</v>
       </c>
       <c r="C789">
         <v>50</v>
@@ -17148,7 +17150,7 @@
         <v>789</v>
       </c>
       <c r="B790">
-        <v>78800</v>
+        <v>35460</v>
       </c>
       <c r="C790">
         <v>50</v>
@@ -17162,7 +17164,7 @@
         <v>790</v>
       </c>
       <c r="B791">
-        <v>78900</v>
+        <v>35505</v>
       </c>
       <c r="C791">
         <v>50</v>
@@ -17176,7 +17178,7 @@
         <v>791</v>
       </c>
       <c r="B792">
-        <v>79000</v>
+        <v>35550</v>
       </c>
       <c r="C792">
         <v>50</v>
@@ -17190,7 +17192,7 @@
         <v>792</v>
       </c>
       <c r="B793">
-        <v>79100</v>
+        <v>35595</v>
       </c>
       <c r="C793">
         <v>50</v>
@@ -17204,7 +17206,7 @@
         <v>793</v>
       </c>
       <c r="B794">
-        <v>79200</v>
+        <v>35640</v>
       </c>
       <c r="C794">
         <v>50</v>
@@ -17218,7 +17220,7 @@
         <v>794</v>
       </c>
       <c r="B795">
-        <v>79300</v>
+        <v>35685</v>
       </c>
       <c r="C795">
         <v>50</v>
@@ -17232,7 +17234,7 @@
         <v>795</v>
       </c>
       <c r="B796">
-        <v>79400</v>
+        <v>35730</v>
       </c>
       <c r="C796">
         <v>50</v>
@@ -17246,7 +17248,7 @@
         <v>796</v>
       </c>
       <c r="B797">
-        <v>79500</v>
+        <v>35775</v>
       </c>
       <c r="C797">
         <v>50</v>
@@ -17260,7 +17262,7 @@
         <v>797</v>
       </c>
       <c r="B798">
-        <v>79600</v>
+        <v>35820</v>
       </c>
       <c r="C798">
         <v>50</v>
@@ -17274,7 +17276,7 @@
         <v>798</v>
       </c>
       <c r="B799">
-        <v>79700</v>
+        <v>35865</v>
       </c>
       <c r="C799">
         <v>50</v>
@@ -17288,7 +17290,7 @@
         <v>799</v>
       </c>
       <c r="B800">
-        <v>79800</v>
+        <v>35910</v>
       </c>
       <c r="C800">
         <v>50</v>
@@ -17302,7 +17304,7 @@
         <v>800</v>
       </c>
       <c r="B801">
-        <v>79900</v>
+        <v>35955</v>
       </c>
       <c r="C801">
         <v>50</v>
@@ -17316,7 +17318,7 @@
         <v>801</v>
       </c>
       <c r="B802">
-        <v>80000</v>
+        <v>36000</v>
       </c>
       <c r="C802">
         <v>50</v>
@@ -17330,7 +17332,7 @@
         <v>802</v>
       </c>
       <c r="B803">
-        <v>80100</v>
+        <v>36045</v>
       </c>
       <c r="C803">
         <v>50</v>
@@ -17344,7 +17346,7 @@
         <v>803</v>
       </c>
       <c r="B804">
-        <v>80200</v>
+        <v>36090</v>
       </c>
       <c r="C804">
         <v>50</v>
@@ -17358,7 +17360,7 @@
         <v>804</v>
       </c>
       <c r="B805">
-        <v>80300</v>
+        <v>36135</v>
       </c>
       <c r="C805">
         <v>50</v>
@@ -17372,7 +17374,7 @@
         <v>805</v>
       </c>
       <c r="B806">
-        <v>80400</v>
+        <v>36180</v>
       </c>
       <c r="C806">
         <v>50</v>
@@ -17386,7 +17388,7 @@
         <v>806</v>
       </c>
       <c r="B807">
-        <v>80500</v>
+        <v>36225</v>
       </c>
       <c r="C807">
         <v>50</v>
@@ -17400,7 +17402,7 @@
         <v>807</v>
       </c>
       <c r="B808">
-        <v>80600</v>
+        <v>36270</v>
       </c>
       <c r="C808">
         <v>50</v>
@@ -17414,7 +17416,7 @@
         <v>808</v>
       </c>
       <c r="B809">
-        <v>80700</v>
+        <v>36315</v>
       </c>
       <c r="C809">
         <v>50</v>
@@ -17428,7 +17430,7 @@
         <v>809</v>
       </c>
       <c r="B810">
-        <v>80800</v>
+        <v>36360</v>
       </c>
       <c r="C810">
         <v>50</v>
@@ -17442,7 +17444,7 @@
         <v>810</v>
       </c>
       <c r="B811">
-        <v>80900</v>
+        <v>36405</v>
       </c>
       <c r="C811">
         <v>50</v>
@@ -17456,7 +17458,7 @@
         <v>811</v>
       </c>
       <c r="B812">
-        <v>81000</v>
+        <v>36450</v>
       </c>
       <c r="C812">
         <v>50</v>
@@ -17470,7 +17472,7 @@
         <v>812</v>
       </c>
       <c r="B813">
-        <v>81100</v>
+        <v>36495</v>
       </c>
       <c r="C813">
         <v>50</v>
@@ -17484,7 +17486,7 @@
         <v>813</v>
       </c>
       <c r="B814">
-        <v>81200</v>
+        <v>36540</v>
       </c>
       <c r="C814">
         <v>50</v>
@@ -17498,7 +17500,7 @@
         <v>814</v>
       </c>
       <c r="B815">
-        <v>81300</v>
+        <v>36585</v>
       </c>
       <c r="C815">
         <v>50</v>
@@ -17512,7 +17514,7 @@
         <v>815</v>
       </c>
       <c r="B816">
-        <v>81400</v>
+        <v>36630</v>
       </c>
       <c r="C816">
         <v>50</v>
@@ -17526,7 +17528,7 @@
         <v>816</v>
       </c>
       <c r="B817">
-        <v>81500</v>
+        <v>36675</v>
       </c>
       <c r="C817">
         <v>50</v>
@@ -17540,7 +17542,7 @@
         <v>817</v>
       </c>
       <c r="B818">
-        <v>81600</v>
+        <v>36720</v>
       </c>
       <c r="C818">
         <v>50</v>
@@ -17554,7 +17556,7 @@
         <v>818</v>
       </c>
       <c r="B819">
-        <v>81700</v>
+        <v>36765</v>
       </c>
       <c r="C819">
         <v>50</v>
@@ -17568,7 +17570,7 @@
         <v>819</v>
       </c>
       <c r="B820">
-        <v>81800</v>
+        <v>36810</v>
       </c>
       <c r="C820">
         <v>50</v>
@@ -17582,7 +17584,7 @@
         <v>820</v>
       </c>
       <c r="B821">
-        <v>81900</v>
+        <v>36855</v>
       </c>
       <c r="C821">
         <v>50</v>
@@ -17596,7 +17598,7 @@
         <v>821</v>
       </c>
       <c r="B822">
-        <v>82000</v>
+        <v>36900</v>
       </c>
       <c r="C822">
         <v>50</v>
@@ -17610,7 +17612,7 @@
         <v>822</v>
       </c>
       <c r="B823">
-        <v>82100</v>
+        <v>36945</v>
       </c>
       <c r="C823">
         <v>50</v>
@@ -17624,7 +17626,7 @@
         <v>823</v>
       </c>
       <c r="B824">
-        <v>82200</v>
+        <v>36990</v>
       </c>
       <c r="C824">
         <v>50</v>
@@ -17638,7 +17640,7 @@
         <v>824</v>
       </c>
       <c r="B825">
-        <v>82300</v>
+        <v>37035</v>
       </c>
       <c r="C825">
         <v>50</v>
@@ -17652,7 +17654,7 @@
         <v>825</v>
       </c>
       <c r="B826">
-        <v>82400</v>
+        <v>37080</v>
       </c>
       <c r="C826">
         <v>50</v>
@@ -17666,7 +17668,7 @@
         <v>826</v>
       </c>
       <c r="B827">
-        <v>82500</v>
+        <v>37125</v>
       </c>
       <c r="C827">
         <v>50</v>
@@ -17680,7 +17682,7 @@
         <v>827</v>
       </c>
       <c r="B828">
-        <v>82600</v>
+        <v>37170</v>
       </c>
       <c r="C828">
         <v>50</v>
@@ -17694,7 +17696,7 @@
         <v>828</v>
       </c>
       <c r="B829">
-        <v>82700</v>
+        <v>37215</v>
       </c>
       <c r="C829">
         <v>50</v>
@@ -17708,7 +17710,7 @@
         <v>829</v>
       </c>
       <c r="B830">
-        <v>82800</v>
+        <v>37260</v>
       </c>
       <c r="C830">
         <v>50</v>
@@ -17722,7 +17724,7 @@
         <v>830</v>
       </c>
       <c r="B831">
-        <v>82900</v>
+        <v>37305</v>
       </c>
       <c r="C831">
         <v>50</v>
@@ -17736,7 +17738,7 @@
         <v>831</v>
       </c>
       <c r="B832">
-        <v>83000</v>
+        <v>37350</v>
       </c>
       <c r="C832">
         <v>50</v>
@@ -17750,7 +17752,7 @@
         <v>832</v>
       </c>
       <c r="B833">
-        <v>83100</v>
+        <v>37395</v>
       </c>
       <c r="C833">
         <v>50</v>
@@ -17764,7 +17766,7 @@
         <v>833</v>
       </c>
       <c r="B834">
-        <v>83200</v>
+        <v>37440</v>
       </c>
       <c r="C834">
         <v>50</v>
@@ -17778,7 +17780,7 @@
         <v>834</v>
       </c>
       <c r="B835">
-        <v>83300</v>
+        <v>37485</v>
       </c>
       <c r="C835">
         <v>50</v>
@@ -17792,7 +17794,7 @@
         <v>835</v>
       </c>
       <c r="B836">
-        <v>83400</v>
+        <v>37530</v>
       </c>
       <c r="C836">
         <v>50</v>
@@ -17806,7 +17808,7 @@
         <v>836</v>
       </c>
       <c r="B837">
-        <v>83500</v>
+        <v>37575</v>
       </c>
       <c r="C837">
         <v>50</v>
@@ -17820,7 +17822,7 @@
         <v>837</v>
       </c>
       <c r="B838">
-        <v>83600</v>
+        <v>37620</v>
       </c>
       <c r="C838">
         <v>50</v>
@@ -17834,7 +17836,7 @@
         <v>838</v>
       </c>
       <c r="B839">
-        <v>83700</v>
+        <v>37665</v>
       </c>
       <c r="C839">
         <v>50</v>
@@ -17848,7 +17850,7 @@
         <v>839</v>
       </c>
       <c r="B840">
-        <v>83800</v>
+        <v>37710</v>
       </c>
       <c r="C840">
         <v>50</v>
@@ -17862,7 +17864,7 @@
         <v>840</v>
       </c>
       <c r="B841">
-        <v>83900</v>
+        <v>37755</v>
       </c>
       <c r="C841">
         <v>50</v>
@@ -17876,7 +17878,7 @@
         <v>841</v>
       </c>
       <c r="B842">
-        <v>84000</v>
+        <v>37800</v>
       </c>
       <c r="C842">
         <v>50</v>
@@ -17890,7 +17892,7 @@
         <v>842</v>
       </c>
       <c r="B843">
-        <v>84100</v>
+        <v>37845</v>
       </c>
       <c r="C843">
         <v>50</v>
@@ -17904,7 +17906,7 @@
         <v>843</v>
       </c>
       <c r="B844">
-        <v>84200</v>
+        <v>37890</v>
       </c>
       <c r="C844">
         <v>50</v>
@@ -17918,7 +17920,7 @@
         <v>844</v>
       </c>
       <c r="B845">
-        <v>84300</v>
+        <v>37935</v>
       </c>
       <c r="C845">
         <v>50</v>
@@ -17932,7 +17934,7 @@
         <v>845</v>
       </c>
       <c r="B846">
-        <v>84400</v>
+        <v>37980</v>
       </c>
       <c r="C846">
         <v>50</v>
@@ -17946,7 +17948,7 @@
         <v>846</v>
       </c>
       <c r="B847">
-        <v>84500</v>
+        <v>38025</v>
       </c>
       <c r="C847">
         <v>50</v>
@@ -17960,7 +17962,7 @@
         <v>847</v>
       </c>
       <c r="B848">
-        <v>84600</v>
+        <v>38070</v>
       </c>
       <c r="C848">
         <v>50</v>
@@ -17974,7 +17976,7 @@
         <v>848</v>
       </c>
       <c r="B849">
-        <v>84700</v>
+        <v>38115</v>
       </c>
       <c r="C849">
         <v>50</v>
@@ -17988,7 +17990,7 @@
         <v>849</v>
       </c>
       <c r="B850">
-        <v>84800</v>
+        <v>38160</v>
       </c>
       <c r="C850">
         <v>50</v>
@@ -18002,7 +18004,7 @@
         <v>850</v>
       </c>
       <c r="B851">
-        <v>84900</v>
+        <v>38205</v>
       </c>
       <c r="C851">
         <v>50</v>
@@ -18016,7 +18018,7 @@
         <v>851</v>
       </c>
       <c r="B852">
-        <v>85000</v>
+        <v>38250</v>
       </c>
       <c r="C852">
         <v>50</v>
@@ -18030,7 +18032,7 @@
         <v>852</v>
       </c>
       <c r="B853">
-        <v>85100</v>
+        <v>38295</v>
       </c>
       <c r="C853">
         <v>50</v>
@@ -18044,7 +18046,7 @@
         <v>853</v>
       </c>
       <c r="B854">
-        <v>85200</v>
+        <v>38340</v>
       </c>
       <c r="C854">
         <v>50</v>
@@ -18058,7 +18060,7 @@
         <v>854</v>
       </c>
       <c r="B855">
-        <v>85300</v>
+        <v>38385</v>
       </c>
       <c r="C855">
         <v>50</v>
@@ -18072,7 +18074,7 @@
         <v>855</v>
       </c>
       <c r="B856">
-        <v>85400</v>
+        <v>38430</v>
       </c>
       <c r="C856">
         <v>50</v>
@@ -18086,7 +18088,7 @@
         <v>856</v>
       </c>
       <c r="B857">
-        <v>85500</v>
+        <v>38475</v>
       </c>
       <c r="C857">
         <v>50</v>
@@ -18100,7 +18102,7 @@
         <v>857</v>
       </c>
       <c r="B858">
-        <v>85600</v>
+        <v>38520</v>
       </c>
       <c r="C858">
         <v>50</v>
@@ -18114,7 +18116,7 @@
         <v>858</v>
       </c>
       <c r="B859">
-        <v>85700</v>
+        <v>38565</v>
       </c>
       <c r="C859">
         <v>50</v>
@@ -18128,7 +18130,7 @@
         <v>859</v>
       </c>
       <c r="B860">
-        <v>85800</v>
+        <v>38610</v>
       </c>
       <c r="C860">
         <v>50</v>
@@ -18142,7 +18144,7 @@
         <v>860</v>
       </c>
       <c r="B861">
-        <v>85900</v>
+        <v>38655</v>
       </c>
       <c r="C861">
         <v>50</v>
@@ -18156,7 +18158,7 @@
         <v>861</v>
       </c>
       <c r="B862">
-        <v>86000</v>
+        <v>38700</v>
       </c>
       <c r="C862">
         <v>50</v>
@@ -18170,7 +18172,7 @@
         <v>862</v>
       </c>
       <c r="B863">
-        <v>86100</v>
+        <v>38745</v>
       </c>
       <c r="C863">
         <v>50</v>
@@ -18184,7 +18186,7 @@
         <v>863</v>
       </c>
       <c r="B864">
-        <v>86200</v>
+        <v>38790</v>
       </c>
       <c r="C864">
         <v>50</v>
@@ -18198,7 +18200,7 @@
         <v>864</v>
       </c>
       <c r="B865">
-        <v>86300</v>
+        <v>38835</v>
       </c>
       <c r="C865">
         <v>50</v>
@@ -18212,7 +18214,7 @@
         <v>865</v>
       </c>
       <c r="B866">
-        <v>86400</v>
+        <v>38880</v>
       </c>
       <c r="C866">
         <v>50</v>
@@ -18226,7 +18228,7 @@
         <v>866</v>
       </c>
       <c r="B867">
-        <v>86500</v>
+        <v>38925</v>
       </c>
       <c r="C867">
         <v>50</v>
@@ -18240,7 +18242,7 @@
         <v>867</v>
       </c>
       <c r="B868">
-        <v>86600</v>
+        <v>38970</v>
       </c>
       <c r="C868">
         <v>50</v>
@@ -18254,7 +18256,7 @@
         <v>868</v>
       </c>
       <c r="B869">
-        <v>86700</v>
+        <v>39015</v>
       </c>
       <c r="C869">
         <v>50</v>
@@ -18268,7 +18270,7 @@
         <v>869</v>
       </c>
       <c r="B870">
-        <v>86800</v>
+        <v>39060</v>
       </c>
       <c r="C870">
         <v>50</v>
@@ -18282,7 +18284,7 @@
         <v>870</v>
       </c>
       <c r="B871">
-        <v>86900</v>
+        <v>39105</v>
       </c>
       <c r="C871">
         <v>50</v>
@@ -18296,7 +18298,7 @@
         <v>871</v>
       </c>
       <c r="B872">
-        <v>87000</v>
+        <v>39150</v>
       </c>
       <c r="C872">
         <v>50</v>
@@ -18310,7 +18312,7 @@
         <v>872</v>
       </c>
       <c r="B873">
-        <v>87100</v>
+        <v>39195</v>
       </c>
       <c r="C873">
         <v>50</v>
@@ -18324,7 +18326,7 @@
         <v>873</v>
       </c>
       <c r="B874">
-        <v>87200</v>
+        <v>39240</v>
       </c>
       <c r="C874">
         <v>50</v>
@@ -18338,7 +18340,7 @@
         <v>874</v>
       </c>
       <c r="B875">
-        <v>87300</v>
+        <v>39285</v>
       </c>
       <c r="C875">
         <v>50</v>
@@ -18352,7 +18354,7 @@
         <v>875</v>
       </c>
       <c r="B876">
-        <v>87400</v>
+        <v>39330</v>
       </c>
       <c r="C876">
         <v>50</v>
@@ -18366,7 +18368,7 @@
         <v>876</v>
       </c>
       <c r="B877">
-        <v>87500</v>
+        <v>39375</v>
       </c>
       <c r="C877">
         <v>50</v>
@@ -18380,7 +18382,7 @@
         <v>877</v>
       </c>
       <c r="B878">
-        <v>87600</v>
+        <v>39420</v>
       </c>
       <c r="C878">
         <v>50</v>
@@ -18394,7 +18396,7 @@
         <v>878</v>
       </c>
       <c r="B879">
-        <v>87700</v>
+        <v>39465</v>
       </c>
       <c r="C879">
         <v>50</v>
@@ -18408,7 +18410,7 @@
         <v>879</v>
       </c>
       <c r="B880">
-        <v>87800</v>
+        <v>39510</v>
       </c>
       <c r="C880">
         <v>50</v>
@@ -18422,7 +18424,7 @@
         <v>880</v>
       </c>
       <c r="B881">
-        <v>87900</v>
+        <v>39555</v>
       </c>
       <c r="C881">
         <v>50</v>
@@ -18436,7 +18438,7 @@
         <v>881</v>
       </c>
       <c r="B882">
-        <v>88000</v>
+        <v>39600</v>
       </c>
       <c r="C882">
         <v>50</v>
@@ -18450,7 +18452,7 @@
         <v>882</v>
       </c>
       <c r="B883">
-        <v>88100</v>
+        <v>39645</v>
       </c>
       <c r="C883">
         <v>50</v>
@@ -18464,7 +18466,7 @@
         <v>883</v>
       </c>
       <c r="B884">
-        <v>88200</v>
+        <v>39690</v>
       </c>
       <c r="C884">
         <v>50</v>
@@ -18478,7 +18480,7 @@
         <v>884</v>
       </c>
       <c r="B885">
-        <v>88300</v>
+        <v>39735</v>
       </c>
       <c r="C885">
         <v>50</v>
@@ -18492,7 +18494,7 @@
         <v>885</v>
       </c>
       <c r="B886">
-        <v>88400</v>
+        <v>39780</v>
       </c>
       <c r="C886">
         <v>50</v>
@@ -18506,7 +18508,7 @@
         <v>886</v>
       </c>
       <c r="B887">
-        <v>88500</v>
+        <v>39825</v>
       </c>
       <c r="C887">
         <v>50</v>
@@ -18520,7 +18522,7 @@
         <v>887</v>
       </c>
       <c r="B888">
-        <v>88600</v>
+        <v>39870</v>
       </c>
       <c r="C888">
         <v>50</v>
@@ -18534,7 +18536,7 @@
         <v>888</v>
       </c>
       <c r="B889">
-        <v>88700</v>
+        <v>39915</v>
       </c>
       <c r="C889">
         <v>50</v>
@@ -18548,7 +18550,7 @@
         <v>889</v>
       </c>
       <c r="B890">
-        <v>88800</v>
+        <v>39960</v>
       </c>
       <c r="C890">
         <v>50</v>
@@ -18562,7 +18564,7 @@
         <v>890</v>
       </c>
       <c r="B891">
-        <v>88900</v>
+        <v>40005</v>
       </c>
       <c r="C891">
         <v>50</v>
@@ -18576,7 +18578,7 @@
         <v>891</v>
       </c>
       <c r="B892">
-        <v>89000</v>
+        <v>40050</v>
       </c>
       <c r="C892">
         <v>50</v>
@@ -18590,7 +18592,7 @@
         <v>892</v>
       </c>
       <c r="B893">
-        <v>89100</v>
+        <v>40095</v>
       </c>
       <c r="C893">
         <v>50</v>
@@ -18604,7 +18606,7 @@
         <v>893</v>
       </c>
       <c r="B894">
-        <v>89200</v>
+        <v>40140</v>
       </c>
       <c r="C894">
         <v>50</v>
@@ -18618,7 +18620,7 @@
         <v>894</v>
       </c>
       <c r="B895">
-        <v>89300</v>
+        <v>40185</v>
       </c>
       <c r="C895">
         <v>50</v>
@@ -18632,7 +18634,7 @@
         <v>895</v>
       </c>
       <c r="B896">
-        <v>89400</v>
+        <v>40230</v>
       </c>
       <c r="C896">
         <v>50</v>
@@ -18646,7 +18648,7 @@
         <v>896</v>
       </c>
       <c r="B897">
-        <v>89500</v>
+        <v>40275</v>
       </c>
       <c r="C897">
         <v>50</v>
@@ -18660,7 +18662,7 @@
         <v>897</v>
       </c>
       <c r="B898">
-        <v>89600</v>
+        <v>40320</v>
       </c>
       <c r="C898">
         <v>50</v>
@@ -18674,7 +18676,7 @@
         <v>898</v>
       </c>
       <c r="B899">
-        <v>89700</v>
+        <v>40365</v>
       </c>
       <c r="C899">
         <v>50</v>
@@ -18688,7 +18690,7 @@
         <v>899</v>
       </c>
       <c r="B900">
-        <v>89800</v>
+        <v>40410</v>
       </c>
       <c r="C900">
         <v>50</v>
@@ -18702,7 +18704,7 @@
         <v>900</v>
       </c>
       <c r="B901">
-        <v>89900</v>
+        <v>40455</v>
       </c>
       <c r="C901">
         <v>50</v>
@@ -18716,7 +18718,7 @@
         <v>901</v>
       </c>
       <c r="B902">
-        <v>90000</v>
+        <v>40500</v>
       </c>
       <c r="C902">
         <v>50</v>
@@ -18730,7 +18732,7 @@
         <v>902</v>
       </c>
       <c r="B903">
-        <v>90100</v>
+        <v>40545</v>
       </c>
       <c r="C903">
         <v>50</v>
@@ -18744,7 +18746,7 @@
         <v>903</v>
       </c>
       <c r="B904">
-        <v>90200</v>
+        <v>40590</v>
       </c>
       <c r="C904">
         <v>50</v>
@@ -18758,7 +18760,7 @@
         <v>904</v>
       </c>
       <c r="B905">
-        <v>90300</v>
+        <v>40635</v>
       </c>
       <c r="C905">
         <v>50</v>
@@ -18772,7 +18774,7 @@
         <v>905</v>
       </c>
       <c r="B906">
-        <v>90400</v>
+        <v>40680</v>
       </c>
       <c r="C906">
         <v>50</v>
@@ -18786,7 +18788,7 @@
         <v>906</v>
       </c>
       <c r="B907">
-        <v>90500</v>
+        <v>40725</v>
       </c>
       <c r="C907">
         <v>50</v>
@@ -18800,7 +18802,7 @@
         <v>907</v>
       </c>
       <c r="B908">
-        <v>90600</v>
+        <v>40770</v>
       </c>
       <c r="C908">
         <v>50</v>
@@ -18814,7 +18816,7 @@
         <v>908</v>
       </c>
       <c r="B909">
-        <v>90700</v>
+        <v>40815</v>
       </c>
       <c r="C909">
         <v>50</v>
@@ -18828,7 +18830,7 @@
         <v>909</v>
       </c>
       <c r="B910">
-        <v>90800</v>
+        <v>40860</v>
       </c>
       <c r="C910">
         <v>50</v>
@@ -18842,7 +18844,7 @@
         <v>910</v>
       </c>
       <c r="B911">
-        <v>90900</v>
+        <v>40905</v>
       </c>
       <c r="C911">
         <v>50</v>
@@ -18856,7 +18858,7 @@
         <v>911</v>
       </c>
       <c r="B912">
-        <v>91000</v>
+        <v>40950</v>
       </c>
       <c r="C912">
         <v>50</v>
@@ -18870,7 +18872,7 @@
         <v>912</v>
       </c>
       <c r="B913">
-        <v>91100</v>
+        <v>40995</v>
       </c>
       <c r="C913">
         <v>50</v>
@@ -18884,7 +18886,7 @@
         <v>913</v>
       </c>
       <c r="B914">
-        <v>91200</v>
+        <v>41040</v>
       </c>
       <c r="C914">
         <v>50</v>
@@ -18898,7 +18900,7 @@
         <v>914</v>
       </c>
       <c r="B915">
-        <v>91300</v>
+        <v>41085</v>
       </c>
       <c r="C915">
         <v>50</v>
@@ -18912,7 +18914,7 @@
         <v>915</v>
       </c>
       <c r="B916">
-        <v>91400</v>
+        <v>41130</v>
       </c>
       <c r="C916">
         <v>50</v>
@@ -18926,7 +18928,7 @@
         <v>916</v>
       </c>
       <c r="B917">
-        <v>91500</v>
+        <v>41175</v>
       </c>
       <c r="C917">
         <v>50</v>
@@ -18940,7 +18942,7 @@
         <v>917</v>
       </c>
       <c r="B918">
-        <v>91600</v>
+        <v>41220</v>
       </c>
       <c r="C918">
         <v>50</v>
@@ -18954,7 +18956,7 @@
         <v>918</v>
       </c>
       <c r="B919">
-        <v>91700</v>
+        <v>41265</v>
       </c>
       <c r="C919">
         <v>50</v>
@@ -18968,7 +18970,7 @@
         <v>919</v>
       </c>
       <c r="B920">
-        <v>91800</v>
+        <v>41310</v>
       </c>
       <c r="C920">
         <v>50</v>
@@ -18982,7 +18984,7 @@
         <v>920</v>
       </c>
       <c r="B921">
-        <v>91900</v>
+        <v>41355</v>
       </c>
       <c r="C921">
         <v>50</v>
@@ -18996,7 +18998,7 @@
         <v>921</v>
       </c>
       <c r="B922">
-        <v>92000</v>
+        <v>41400</v>
       </c>
       <c r="C922">
         <v>50</v>
@@ -19010,7 +19012,7 @@
         <v>922</v>
       </c>
       <c r="B923">
-        <v>92100</v>
+        <v>41445</v>
       </c>
       <c r="C923">
         <v>50</v>
@@ -19024,7 +19026,7 @@
         <v>923</v>
       </c>
       <c r="B924">
-        <v>92200</v>
+        <v>41490</v>
       </c>
       <c r="C924">
         <v>50</v>
@@ -19038,7 +19040,7 @@
         <v>924</v>
       </c>
       <c r="B925">
-        <v>92300</v>
+        <v>41535</v>
       </c>
       <c r="C925">
         <v>50</v>
@@ -19052,7 +19054,7 @@
         <v>925</v>
       </c>
       <c r="B926">
-        <v>92400</v>
+        <v>41580</v>
       </c>
       <c r="C926">
         <v>50</v>
@@ -19066,7 +19068,7 @@
         <v>926</v>
       </c>
       <c r="B927">
-        <v>92500</v>
+        <v>41625</v>
       </c>
       <c r="C927">
         <v>50</v>
@@ -19080,7 +19082,7 @@
         <v>927</v>
       </c>
       <c r="B928">
-        <v>92600</v>
+        <v>41670</v>
       </c>
       <c r="C928">
         <v>50</v>
@@ -19094,7 +19096,7 @@
         <v>928</v>
       </c>
       <c r="B929">
-        <v>92700</v>
+        <v>41715</v>
       </c>
       <c r="C929">
         <v>50</v>
@@ -19108,7 +19110,7 @@
         <v>929</v>
       </c>
       <c r="B930">
-        <v>92800</v>
+        <v>41760</v>
       </c>
       <c r="C930">
         <v>50</v>
@@ -19122,7 +19124,7 @@
         <v>930</v>
       </c>
       <c r="B931">
-        <v>92900</v>
+        <v>41805</v>
       </c>
       <c r="C931">
         <v>50</v>
@@ -19136,7 +19138,7 @@
         <v>931</v>
       </c>
       <c r="B932">
-        <v>93000</v>
+        <v>41850</v>
       </c>
       <c r="C932">
         <v>50</v>
@@ -19150,7 +19152,7 @@
         <v>932</v>
       </c>
       <c r="B933">
-        <v>93100</v>
+        <v>41895</v>
       </c>
       <c r="C933">
         <v>50</v>
@@ -19164,7 +19166,7 @@
         <v>933</v>
       </c>
       <c r="B934">
-        <v>93200</v>
+        <v>41940</v>
       </c>
       <c r="C934">
         <v>50</v>
@@ -19178,7 +19180,7 @@
         <v>934</v>
       </c>
       <c r="B935">
-        <v>93300</v>
+        <v>41985</v>
       </c>
       <c r="C935">
         <v>50</v>
@@ -19192,7 +19194,7 @@
         <v>935</v>
       </c>
       <c r="B936">
-        <v>93400</v>
+        <v>42030</v>
       </c>
       <c r="C936">
         <v>50</v>
@@ -19206,7 +19208,7 @@
         <v>936</v>
       </c>
       <c r="B937">
-        <v>93500</v>
+        <v>42075</v>
       </c>
       <c r="C937">
         <v>50</v>
@@ -19220,7 +19222,7 @@
         <v>937</v>
       </c>
       <c r="B938">
-        <v>93600</v>
+        <v>42120</v>
       </c>
       <c r="C938">
         <v>50</v>
@@ -19234,7 +19236,7 @@
         <v>938</v>
       </c>
       <c r="B939">
-        <v>93700</v>
+        <v>42165</v>
       </c>
       <c r="C939">
         <v>50</v>
@@ -19248,7 +19250,7 @@
         <v>939</v>
       </c>
       <c r="B940">
-        <v>93800</v>
+        <v>42210</v>
       </c>
       <c r="C940">
         <v>50</v>
@@ -19262,7 +19264,7 @@
         <v>940</v>
       </c>
       <c r="B941">
-        <v>93900</v>
+        <v>42255</v>
       </c>
       <c r="C941">
         <v>50</v>
@@ -19276,7 +19278,7 @@
         <v>941</v>
       </c>
       <c r="B942">
-        <v>94000</v>
+        <v>42300</v>
       </c>
       <c r="C942">
         <v>50</v>
@@ -19290,7 +19292,7 @@
         <v>942</v>
       </c>
       <c r="B943">
-        <v>94100</v>
+        <v>42345</v>
       </c>
       <c r="C943">
         <v>50</v>
@@ -19304,7 +19306,7 @@
         <v>943</v>
       </c>
       <c r="B944">
-        <v>94200</v>
+        <v>42390</v>
       </c>
       <c r="C944">
         <v>50</v>
@@ -19318,7 +19320,7 @@
         <v>944</v>
       </c>
       <c r="B945">
-        <v>94300</v>
+        <v>42435</v>
       </c>
       <c r="C945">
         <v>50</v>
@@ -19332,7 +19334,7 @@
         <v>945</v>
       </c>
       <c r="B946">
-        <v>94400</v>
+        <v>42480</v>
       </c>
       <c r="C946">
         <v>50</v>
@@ -19346,7 +19348,7 @@
         <v>946</v>
       </c>
       <c r="B947">
-        <v>94500</v>
+        <v>42525</v>
       </c>
       <c r="C947">
         <v>50</v>
@@ -19360,7 +19362,7 @@
         <v>947</v>
       </c>
       <c r="B948">
-        <v>94600</v>
+        <v>42570</v>
       </c>
       <c r="C948">
         <v>50</v>
@@ -19374,7 +19376,7 @@
         <v>948</v>
       </c>
       <c r="B949">
-        <v>94700</v>
+        <v>42615</v>
       </c>
       <c r="C949">
         <v>50</v>
@@ -19388,7 +19390,7 @@
         <v>949</v>
       </c>
       <c r="B950">
-        <v>94800</v>
+        <v>42660</v>
       </c>
       <c r="C950">
         <v>50</v>
@@ -19402,7 +19404,7 @@
         <v>950</v>
       </c>
       <c r="B951">
-        <v>94900</v>
+        <v>42705</v>
       </c>
       <c r="C951">
         <v>50</v>
@@ -19416,7 +19418,7 @@
         <v>951</v>
       </c>
       <c r="B952">
-        <v>95000</v>
+        <v>42750</v>
       </c>
       <c r="C952">
         <v>50</v>
@@ -19430,7 +19432,7 @@
         <v>952</v>
       </c>
       <c r="B953">
-        <v>95100</v>
+        <v>42795</v>
       </c>
       <c r="C953">
         <v>50</v>
@@ -19444,7 +19446,7 @@
         <v>953</v>
       </c>
       <c r="B954">
-        <v>95200</v>
+        <v>42840</v>
       </c>
       <c r="C954">
         <v>50</v>
@@ -19458,7 +19460,7 @@
         <v>954</v>
       </c>
       <c r="B955">
-        <v>95300</v>
+        <v>42885</v>
       </c>
       <c r="C955">
         <v>50</v>
@@ -19472,7 +19474,7 @@
         <v>955</v>
       </c>
       <c r="B956">
-        <v>95400</v>
+        <v>42930</v>
       </c>
       <c r="C956">
         <v>50</v>
@@ -19486,7 +19488,7 @@
         <v>956</v>
       </c>
       <c r="B957">
-        <v>95500</v>
+        <v>42975</v>
       </c>
       <c r="C957">
         <v>50</v>
@@ -19500,7 +19502,7 @@
         <v>957</v>
       </c>
       <c r="B958">
-        <v>95600</v>
+        <v>43020</v>
       </c>
       <c r="C958">
         <v>50</v>
@@ -19514,7 +19516,7 @@
         <v>958</v>
       </c>
       <c r="B959">
-        <v>95700</v>
+        <v>43065</v>
       </c>
       <c r="C959">
         <v>50</v>
@@ -19528,7 +19530,7 @@
         <v>959</v>
       </c>
       <c r="B960">
-        <v>95800</v>
+        <v>43110</v>
       </c>
       <c r="C960">
         <v>50</v>
@@ -19542,7 +19544,7 @@
         <v>960</v>
       </c>
       <c r="B961">
-        <v>95900</v>
+        <v>43155</v>
       </c>
       <c r="C961">
         <v>50</v>
@@ -19556,7 +19558,7 @@
         <v>961</v>
       </c>
       <c r="B962">
-        <v>96000</v>
+        <v>43200</v>
       </c>
       <c r="C962">
         <v>50</v>
@@ -19570,7 +19572,7 @@
         <v>962</v>
       </c>
       <c r="B963">
-        <v>96100</v>
+        <v>43245</v>
       </c>
       <c r="C963">
         <v>50</v>
@@ -19584,7 +19586,7 @@
         <v>963</v>
       </c>
       <c r="B964">
-        <v>96200</v>
+        <v>43290</v>
       </c>
       <c r="C964">
         <v>50</v>
@@ -19598,7 +19600,7 @@
         <v>964</v>
       </c>
       <c r="B965">
-        <v>96300</v>
+        <v>43335</v>
       </c>
       <c r="C965">
         <v>50</v>
@@ -19612,7 +19614,7 @@
         <v>965</v>
       </c>
       <c r="B966">
-        <v>96400</v>
+        <v>43380</v>
       </c>
       <c r="C966">
         <v>50</v>
@@ -19626,7 +19628,7 @@
         <v>966</v>
       </c>
       <c r="B967">
-        <v>96500</v>
+        <v>43425</v>
       </c>
       <c r="C967">
         <v>50</v>
@@ -19640,7 +19642,7 @@
         <v>967</v>
       </c>
       <c r="B968">
-        <v>96600</v>
+        <v>43470</v>
       </c>
       <c r="C968">
         <v>50</v>
@@ -19654,7 +19656,7 @@
         <v>968</v>
       </c>
       <c r="B969">
-        <v>96700</v>
+        <v>43515</v>
       </c>
       <c r="C969">
         <v>50</v>
@@ -19668,7 +19670,7 @@
         <v>969</v>
       </c>
       <c r="B970">
-        <v>96800</v>
+        <v>43560</v>
       </c>
       <c r="C970">
         <v>50</v>
@@ -19682,7 +19684,7 @@
         <v>970</v>
       </c>
       <c r="B971">
-        <v>96900</v>
+        <v>43605</v>
       </c>
       <c r="C971">
         <v>50</v>
@@ -19696,7 +19698,7 @@
         <v>971</v>
       </c>
       <c r="B972">
-        <v>97000</v>
+        <v>43650</v>
       </c>
       <c r="C972">
         <v>50</v>
@@ -19710,7 +19712,7 @@
         <v>972</v>
       </c>
       <c r="B973">
-        <v>97100</v>
+        <v>43695</v>
       </c>
       <c r="C973">
         <v>50</v>
@@ -19724,7 +19726,7 @@
         <v>973</v>
       </c>
       <c r="B974">
-        <v>97200</v>
+        <v>43740</v>
       </c>
       <c r="C974">
         <v>50</v>
@@ -19738,7 +19740,7 @@
         <v>974</v>
       </c>
       <c r="B975">
-        <v>97300</v>
+        <v>43785</v>
       </c>
       <c r="C975">
         <v>50</v>
@@ -19752,7 +19754,7 @@
         <v>975</v>
       </c>
       <c r="B976">
-        <v>97400</v>
+        <v>43830</v>
       </c>
       <c r="C976">
         <v>50</v>
@@ -19766,7 +19768,7 @@
         <v>976</v>
       </c>
       <c r="B977">
-        <v>97500</v>
+        <v>43875</v>
       </c>
       <c r="C977">
         <v>50</v>
@@ -19780,7 +19782,7 @@
         <v>977</v>
       </c>
       <c r="B978">
-        <v>97600</v>
+        <v>43920</v>
       </c>
       <c r="C978">
         <v>50</v>
@@ -19794,7 +19796,7 @@
         <v>978</v>
       </c>
       <c r="B979">
-        <v>97700</v>
+        <v>43965</v>
       </c>
       <c r="C979">
         <v>50</v>
@@ -19808,7 +19810,7 @@
         <v>979</v>
       </c>
       <c r="B980">
-        <v>97800</v>
+        <v>44010</v>
       </c>
       <c r="C980">
         <v>50</v>
@@ -19822,7 +19824,7 @@
         <v>980</v>
       </c>
       <c r="B981">
-        <v>97900</v>
+        <v>44055</v>
       </c>
       <c r="C981">
         <v>50</v>
@@ -19836,7 +19838,7 @@
         <v>981</v>
       </c>
       <c r="B982">
-        <v>98000</v>
+        <v>44100</v>
       </c>
       <c r="C982">
         <v>50</v>
@@ -19850,7 +19852,7 @@
         <v>982</v>
       </c>
       <c r="B983">
-        <v>98100</v>
+        <v>44145</v>
       </c>
       <c r="C983">
         <v>50</v>
@@ -19864,7 +19866,7 @@
         <v>983</v>
       </c>
       <c r="B984">
-        <v>98200</v>
+        <v>44190</v>
       </c>
       <c r="C984">
         <v>50</v>
@@ -19878,7 +19880,7 @@
         <v>984</v>
       </c>
       <c r="B985">
-        <v>98300</v>
+        <v>44235</v>
       </c>
       <c r="C985">
         <v>50</v>
@@ -19892,7 +19894,7 @@
         <v>985</v>
       </c>
       <c r="B986">
-        <v>98400</v>
+        <v>44280</v>
       </c>
       <c r="C986">
         <v>50</v>
@@ -19906,7 +19908,7 @@
         <v>986</v>
       </c>
       <c r="B987">
-        <v>98500</v>
+        <v>44325</v>
       </c>
       <c r="C987">
         <v>50</v>
@@ -19920,7 +19922,7 @@
         <v>987</v>
       </c>
       <c r="B988">
-        <v>98600</v>
+        <v>44370</v>
       </c>
       <c r="C988">
         <v>50</v>
@@ -19934,7 +19936,7 @@
         <v>988</v>
       </c>
       <c r="B989">
-        <v>98700</v>
+        <v>44415</v>
       </c>
       <c r="C989">
         <v>50</v>
@@ -19948,7 +19950,7 @@
         <v>989</v>
       </c>
       <c r="B990">
-        <v>98800</v>
+        <v>44460</v>
       </c>
       <c r="C990">
         <v>50</v>
@@ -19962,7 +19964,7 @@
         <v>990</v>
       </c>
       <c r="B991">
-        <v>98900</v>
+        <v>44505</v>
       </c>
       <c r="C991">
         <v>50</v>
@@ -19976,7 +19978,7 @@
         <v>991</v>
       </c>
       <c r="B992">
-        <v>99000</v>
+        <v>44550</v>
       </c>
       <c r="C992">
         <v>50</v>
@@ -19990,7 +19992,7 @@
         <v>992</v>
       </c>
       <c r="B993">
-        <v>99100</v>
+        <v>44595</v>
       </c>
       <c r="C993">
         <v>50</v>
@@ -20004,7 +20006,7 @@
         <v>993</v>
       </c>
       <c r="B994">
-        <v>99200</v>
+        <v>44640</v>
       </c>
       <c r="C994">
         <v>50</v>
@@ -20018,7 +20020,7 @@
         <v>994</v>
       </c>
       <c r="B995">
-        <v>99300</v>
+        <v>44685</v>
       </c>
       <c r="C995">
         <v>50</v>
@@ -20032,7 +20034,7 @@
         <v>995</v>
       </c>
       <c r="B996">
-        <v>99400</v>
+        <v>44730</v>
       </c>
       <c r="C996">
         <v>50</v>
@@ -20046,7 +20048,7 @@
         <v>996</v>
       </c>
       <c r="B997">
-        <v>99500</v>
+        <v>44775</v>
       </c>
       <c r="C997">
         <v>50</v>
@@ -20060,7 +20062,7 @@
         <v>997</v>
       </c>
       <c r="B998">
-        <v>99600</v>
+        <v>44820</v>
       </c>
       <c r="C998">
         <v>50</v>
@@ -20074,7 +20076,7 @@
         <v>998</v>
       </c>
       <c r="B999">
-        <v>99700</v>
+        <v>44865</v>
       </c>
       <c r="C999">
         <v>50</v>
@@ -20088,7 +20090,7 @@
         <v>999</v>
       </c>
       <c r="B1000">
-        <v>99800</v>
+        <v>44910</v>
       </c>
       <c r="C1000">
         <v>50</v>
@@ -20102,7 +20104,7 @@
         <v>1000</v>
       </c>
       <c r="B1001">
-        <v>99900</v>
+        <v>44955</v>
       </c>
       <c r="C1001">
         <v>50</v>
@@ -20121,7 +20123,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2A31BFD-E248-487E-9424-79F4DD5B7595}">
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>

--- a/Excel/Shop.xlsx
+++ b/Excel/Shop.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A176DE86-CF24-498C-8203-2B00A526F691}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0AA8DCE-D821-48B0-9E7C-6F50EFCE8E4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="6" activeTab="9" xr2:uid="{1A95D980-8F25-43B6-BA87-364295A77694}"/>
+    <workbookView xWindow="28680" yWindow="2670" windowWidth="24240" windowHeight="13140" xr2:uid="{1A95D980-8F25-43B6-BA87-364295A77694}"/>
   </bookViews>
   <sheets>
     <sheet name="ShopProductTable" sheetId="1" r:id="rId1"/>
@@ -1140,11 +1140,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED115DDC-E095-4A60-B3EA-80FAE0A4BDBC}">
   <dimension ref="A1:W125"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B76" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A76" sqref="A76"/>
+      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3582,7 +3582,7 @@
         <v>22</v>
       </c>
       <c r="K60">
-        <v>450000</v>
+        <v>45000</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.3">
@@ -3611,7 +3611,7 @@
         <v>22</v>
       </c>
       <c r="K61">
-        <v>1050000</v>
+        <v>105000</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.3">
@@ -3640,7 +3640,7 @@
         <v>22</v>
       </c>
       <c r="K62">
-        <v>2500000</v>
+        <v>250000</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.3">
@@ -3669,7 +3669,7 @@
         <v>22</v>
       </c>
       <c r="K63">
-        <v>9000000</v>
+        <v>900000</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.3">
@@ -3698,7 +3698,7 @@
         <v>22</v>
       </c>
       <c r="K64">
-        <v>16000000</v>
+        <v>1600000</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.3">
@@ -3727,7 +3727,7 @@
         <v>22</v>
       </c>
       <c r="K65">
-        <v>45000000</v>
+        <v>4500000</v>
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.3">
@@ -3756,7 +3756,7 @@
         <v>22</v>
       </c>
       <c r="K66">
-        <v>1350000</v>
+        <v>135000</v>
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.3">
@@ -3785,7 +3785,7 @@
         <v>22</v>
       </c>
       <c r="K67">
-        <v>3150000</v>
+        <v>315000</v>
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.3">
@@ -3814,7 +3814,7 @@
         <v>22</v>
       </c>
       <c r="K68">
-        <v>7500000</v>
+        <v>750000</v>
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.3">
@@ -3843,7 +3843,7 @@
         <v>22</v>
       </c>
       <c r="K69">
-        <v>27000000</v>
+        <v>2700000</v>
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.3">
@@ -3872,7 +3872,7 @@
         <v>22</v>
       </c>
       <c r="K70">
-        <v>48000000</v>
+        <v>4800000</v>
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.3">
@@ -3901,7 +3901,7 @@
         <v>22</v>
       </c>
       <c r="K71">
-        <v>135000000</v>
+        <v>13500000</v>
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.3">
@@ -6093,7 +6093,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06240469-0FA4-4C33-9485-0553D2A08322}">
   <dimension ref="A1:D1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>

--- a/Excel/Shop.xlsx
+++ b/Excel/Shop.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0AA8DCE-D821-48B0-9E7C-6F50EFCE8E4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F3FF4EF-8626-4CE0-B754-AF5F5D9CFE3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="2670" windowWidth="24240" windowHeight="13140" xr2:uid="{1A95D980-8F25-43B6-BA87-364295A77694}"/>
   </bookViews>
@@ -2077,7 +2077,7 @@
         <v>22</v>
       </c>
       <c r="Q23">
-        <v>100000</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.3">

--- a/Excel/Shop.xlsx
+++ b/Excel/Shop.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F3FF4EF-8626-4CE0-B754-AF5F5D9CFE3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49C349AA-23E5-4B62-8B0B-0404942546F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="2670" windowWidth="24240" windowHeight="13140" xr2:uid="{1A95D980-8F25-43B6-BA87-364295A77694}"/>
+    <workbookView xWindow="28680" yWindow="2670" windowWidth="24240" windowHeight="13140" firstSheet="5" activeTab="9" xr2:uid="{1A95D980-8F25-43B6-BA87-364295A77694}"/>
   </bookViews>
   <sheets>
     <sheet name="ShopProductTable" sheetId="1" r:id="rId1"/>
@@ -1140,7 +1140,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED115DDC-E095-4A60-B3EA-80FAE0A4BDBC}">
   <dimension ref="A1:W125"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -6093,7 +6093,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06240469-0FA4-4C33-9485-0553D2A08322}">
   <dimension ref="A1:D1001"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -6135,10 +6135,10 @@
         <v>45</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -6149,10 +6149,10 @@
         <v>90</v>
       </c>
       <c r="C4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D4">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -6163,10 +6163,10 @@
         <v>135</v>
       </c>
       <c r="C5">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D5">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -6177,10 +6177,10 @@
         <v>180</v>
       </c>
       <c r="C6">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D6">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -6191,10 +6191,10 @@
         <v>225</v>
       </c>
       <c r="C7">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D7">
-        <v>15</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -6205,10 +6205,10 @@
         <v>270</v>
       </c>
       <c r="C8">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D8">
-        <v>21</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
@@ -6219,10 +6219,10 @@
         <v>315</v>
       </c>
       <c r="C9">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D9">
-        <v>28</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
@@ -6233,10 +6233,10 @@
         <v>360</v>
       </c>
       <c r="C10">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D10">
-        <v>36</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
@@ -6247,10 +6247,10 @@
         <v>405</v>
       </c>
       <c r="C11">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D11">
-        <v>45</v>
+        <v>63</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
@@ -6261,10 +6261,10 @@
         <v>450</v>
       </c>
       <c r="C12">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D12">
-        <v>55</v>
+        <v>75</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
@@ -6275,10 +6275,10 @@
         <v>495</v>
       </c>
       <c r="C13">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D13">
-        <v>66</v>
+        <v>88</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
@@ -6289,10 +6289,10 @@
         <v>540</v>
       </c>
       <c r="C14">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D14">
-        <v>78</v>
+        <v>102</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
@@ -6303,10 +6303,10 @@
         <v>585</v>
       </c>
       <c r="C15">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D15">
-        <v>91</v>
+        <v>117</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
@@ -6317,10 +6317,10 @@
         <v>630</v>
       </c>
       <c r="C16">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D16">
-        <v>105</v>
+        <v>133</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
@@ -6331,10 +6331,10 @@
         <v>675</v>
       </c>
       <c r="C17">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D17">
-        <v>120</v>
+        <v>150</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
@@ -6345,10 +6345,10 @@
         <v>720</v>
       </c>
       <c r="C18">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D18">
-        <v>136</v>
+        <v>168</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
@@ -6359,10 +6359,10 @@
         <v>765</v>
       </c>
       <c r="C19">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D19">
-        <v>153</v>
+        <v>187</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
@@ -6373,10 +6373,10 @@
         <v>810</v>
       </c>
       <c r="C20">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D20">
-        <v>171</v>
+        <v>207</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
@@ -6387,10 +6387,10 @@
         <v>855</v>
       </c>
       <c r="C21">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D21">
-        <v>190</v>
+        <v>228</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
@@ -6401,10 +6401,10 @@
         <v>900</v>
       </c>
       <c r="C22">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D22">
-        <v>210</v>
+        <v>250</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
@@ -6415,10 +6415,10 @@
         <v>945</v>
       </c>
       <c r="C23">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D23">
-        <v>231</v>
+        <v>273</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
@@ -6429,10 +6429,10 @@
         <v>990</v>
       </c>
       <c r="C24">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D24">
-        <v>253</v>
+        <v>297</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
@@ -6443,10 +6443,10 @@
         <v>1035</v>
       </c>
       <c r="C25">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D25">
-        <v>276</v>
+        <v>322</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
@@ -6457,10 +6457,10 @@
         <v>1080</v>
       </c>
       <c r="C26">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D26">
-        <v>300</v>
+        <v>348</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
@@ -6471,10 +6471,10 @@
         <v>1125</v>
       </c>
       <c r="C27">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D27">
-        <v>325</v>
+        <v>375</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
@@ -6485,10 +6485,10 @@
         <v>1170</v>
       </c>
       <c r="C28">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D28">
-        <v>351</v>
+        <v>403</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
@@ -6499,10 +6499,10 @@
         <v>1215</v>
       </c>
       <c r="C29">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D29">
-        <v>378</v>
+        <v>432</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
@@ -6513,10 +6513,10 @@
         <v>1260</v>
       </c>
       <c r="C30">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D30">
-        <v>406</v>
+        <v>462</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
@@ -6527,10 +6527,10 @@
         <v>1305</v>
       </c>
       <c r="C31">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D31">
-        <v>435</v>
+        <v>493</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
@@ -6541,10 +6541,10 @@
         <v>1350</v>
       </c>
       <c r="C32">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D32">
-        <v>465</v>
+        <v>525</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
@@ -6555,10 +6555,10 @@
         <v>1395</v>
       </c>
       <c r="C33">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D33">
-        <v>496</v>
+        <v>558</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
@@ -6569,10 +6569,10 @@
         <v>1440</v>
       </c>
       <c r="C34">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D34">
-        <v>528</v>
+        <v>592</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
@@ -6583,10 +6583,10 @@
         <v>1485</v>
       </c>
       <c r="C35">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D35">
-        <v>561</v>
+        <v>627</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
@@ -6597,10 +6597,10 @@
         <v>1530</v>
       </c>
       <c r="C36">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D36">
-        <v>595</v>
+        <v>663</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
@@ -6611,10 +6611,10 @@
         <v>1575</v>
       </c>
       <c r="C37">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D37">
-        <v>630</v>
+        <v>700</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
@@ -6625,10 +6625,10 @@
         <v>1620</v>
       </c>
       <c r="C38">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D38">
-        <v>666</v>
+        <v>738</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
@@ -6639,10 +6639,10 @@
         <v>1665</v>
       </c>
       <c r="C39">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D39">
-        <v>703</v>
+        <v>777</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
@@ -6653,10 +6653,10 @@
         <v>1710</v>
       </c>
       <c r="C40">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D40">
-        <v>741</v>
+        <v>817</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
@@ -6667,10 +6667,10 @@
         <v>1755</v>
       </c>
       <c r="C41">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D41">
-        <v>780</v>
+        <v>858</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
@@ -6681,10 +6681,10 @@
         <v>1800</v>
       </c>
       <c r="C42">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D42">
-        <v>820</v>
+        <v>900</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
@@ -6695,10 +6695,10 @@
         <v>1845</v>
       </c>
       <c r="C43">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D43">
-        <v>861</v>
+        <v>943</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
@@ -6709,10 +6709,10 @@
         <v>1890</v>
       </c>
       <c r="C44">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D44">
-        <v>903</v>
+        <v>987</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
@@ -6723,10 +6723,10 @@
         <v>1935</v>
       </c>
       <c r="C45">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D45">
-        <v>946</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
@@ -6737,10 +6737,10 @@
         <v>1980</v>
       </c>
       <c r="C46">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D46">
-        <v>990</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
@@ -6751,10 +6751,10 @@
         <v>2025</v>
       </c>
       <c r="C47">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D47">
-        <v>1035</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
@@ -6765,10 +6765,10 @@
         <v>2070</v>
       </c>
       <c r="C48">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D48">
-        <v>1081</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
@@ -6779,10 +6779,10 @@
         <v>2115</v>
       </c>
       <c r="C49">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D49">
-        <v>1128</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
@@ -6793,10 +6793,10 @@
         <v>2160</v>
       </c>
       <c r="C50">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D50">
-        <v>1176</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
@@ -6807,10 +6807,10 @@
         <v>2205</v>
       </c>
       <c r="C51">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D51">
-        <v>1225</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
@@ -6821,10 +6821,10 @@
         <v>2250</v>
       </c>
       <c r="C52">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D52">
-        <v>1275</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
@@ -6838,7 +6838,7 @@
         <v>50</v>
       </c>
       <c r="D53">
-        <v>1325</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
@@ -6852,7 +6852,7 @@
         <v>50</v>
       </c>
       <c r="D54">
-        <v>1375</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
@@ -6866,7 +6866,7 @@
         <v>50</v>
       </c>
       <c r="D55">
-        <v>1425</v>
+        <v>1525</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
@@ -6880,7 +6880,7 @@
         <v>50</v>
       </c>
       <c r="D56">
-        <v>1475</v>
+        <v>1575</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
@@ -6894,7 +6894,7 @@
         <v>50</v>
       </c>
       <c r="D57">
-        <v>1525</v>
+        <v>1625</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
@@ -6908,7 +6908,7 @@
         <v>50</v>
       </c>
       <c r="D58">
-        <v>1575</v>
+        <v>1675</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
@@ -6922,7 +6922,7 @@
         <v>50</v>
       </c>
       <c r="D59">
-        <v>1625</v>
+        <v>1725</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
@@ -6936,7 +6936,7 @@
         <v>50</v>
       </c>
       <c r="D60">
-        <v>1675</v>
+        <v>1775</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
@@ -6950,7 +6950,7 @@
         <v>50</v>
       </c>
       <c r="D61">
-        <v>1725</v>
+        <v>1825</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
@@ -6964,7 +6964,7 @@
         <v>50</v>
       </c>
       <c r="D62">
-        <v>1775</v>
+        <v>1875</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
@@ -6978,7 +6978,7 @@
         <v>50</v>
       </c>
       <c r="D63">
-        <v>1825</v>
+        <v>1925</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
@@ -6992,7 +6992,7 @@
         <v>50</v>
       </c>
       <c r="D64">
-        <v>1875</v>
+        <v>1975</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
@@ -7006,7 +7006,7 @@
         <v>50</v>
       </c>
       <c r="D65">
-        <v>1925</v>
+        <v>2025</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
@@ -7020,7 +7020,7 @@
         <v>50</v>
       </c>
       <c r="D66">
-        <v>1975</v>
+        <v>2075</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
@@ -7034,7 +7034,7 @@
         <v>50</v>
       </c>
       <c r="D67">
-        <v>2025</v>
+        <v>2125</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
@@ -7048,7 +7048,7 @@
         <v>50</v>
       </c>
       <c r="D68">
-        <v>2075</v>
+        <v>2175</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.3">
@@ -7062,7 +7062,7 @@
         <v>50</v>
       </c>
       <c r="D69">
-        <v>2125</v>
+        <v>2225</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.3">
@@ -7076,7 +7076,7 @@
         <v>50</v>
       </c>
       <c r="D70">
-        <v>2175</v>
+        <v>2275</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.3">
@@ -7090,7 +7090,7 @@
         <v>50</v>
       </c>
       <c r="D71">
-        <v>2225</v>
+        <v>2325</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.3">
@@ -7104,7 +7104,7 @@
         <v>50</v>
       </c>
       <c r="D72">
-        <v>2275</v>
+        <v>2375</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.3">
@@ -7118,7 +7118,7 @@
         <v>50</v>
       </c>
       <c r="D73">
-        <v>2325</v>
+        <v>2425</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.3">
@@ -7132,7 +7132,7 @@
         <v>50</v>
       </c>
       <c r="D74">
-        <v>2375</v>
+        <v>2475</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.3">
@@ -7146,7 +7146,7 @@
         <v>50</v>
       </c>
       <c r="D75">
-        <v>2425</v>
+        <v>2525</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.3">
@@ -7160,7 +7160,7 @@
         <v>50</v>
       </c>
       <c r="D76">
-        <v>2475</v>
+        <v>2575</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.3">
@@ -7174,7 +7174,7 @@
         <v>50</v>
       </c>
       <c r="D77">
-        <v>2525</v>
+        <v>2625</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.3">
@@ -7188,7 +7188,7 @@
         <v>50</v>
       </c>
       <c r="D78">
-        <v>2575</v>
+        <v>2675</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.3">
@@ -7202,7 +7202,7 @@
         <v>50</v>
       </c>
       <c r="D79">
-        <v>2625</v>
+        <v>2725</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.3">
@@ -7216,7 +7216,7 @@
         <v>50</v>
       </c>
       <c r="D80">
-        <v>2675</v>
+        <v>2775</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.3">
@@ -7230,7 +7230,7 @@
         <v>50</v>
       </c>
       <c r="D81">
-        <v>2725</v>
+        <v>2825</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.3">
@@ -7244,7 +7244,7 @@
         <v>50</v>
       </c>
       <c r="D82">
-        <v>2775</v>
+        <v>2875</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.3">
@@ -7258,7 +7258,7 @@
         <v>50</v>
       </c>
       <c r="D83">
-        <v>2825</v>
+        <v>2925</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.3">
@@ -7272,7 +7272,7 @@
         <v>50</v>
       </c>
       <c r="D84">
-        <v>2875</v>
+        <v>2975</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.3">
@@ -7286,7 +7286,7 @@
         <v>50</v>
       </c>
       <c r="D85">
-        <v>2925</v>
+        <v>3025</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.3">
@@ -7300,7 +7300,7 @@
         <v>50</v>
       </c>
       <c r="D86">
-        <v>2975</v>
+        <v>3075</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.3">
@@ -7314,7 +7314,7 @@
         <v>50</v>
       </c>
       <c r="D87">
-        <v>3025</v>
+        <v>3125</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.3">
@@ -7328,7 +7328,7 @@
         <v>50</v>
       </c>
       <c r="D88">
-        <v>3075</v>
+        <v>3175</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.3">
@@ -7342,7 +7342,7 @@
         <v>50</v>
       </c>
       <c r="D89">
-        <v>3125</v>
+        <v>3225</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.3">
@@ -7356,7 +7356,7 @@
         <v>50</v>
       </c>
       <c r="D90">
-        <v>3175</v>
+        <v>3275</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.3">
@@ -7370,7 +7370,7 @@
         <v>50</v>
       </c>
       <c r="D91">
-        <v>3225</v>
+        <v>3325</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.3">
@@ -7384,7 +7384,7 @@
         <v>50</v>
       </c>
       <c r="D92">
-        <v>3275</v>
+        <v>3375</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.3">
@@ -7398,7 +7398,7 @@
         <v>50</v>
       </c>
       <c r="D93">
-        <v>3325</v>
+        <v>3425</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.3">
@@ -7412,7 +7412,7 @@
         <v>50</v>
       </c>
       <c r="D94">
-        <v>3375</v>
+        <v>3475</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.3">
@@ -7426,7 +7426,7 @@
         <v>50</v>
       </c>
       <c r="D95">
-        <v>3425</v>
+        <v>3525</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.3">
@@ -7440,7 +7440,7 @@
         <v>50</v>
       </c>
       <c r="D96">
-        <v>3475</v>
+        <v>3575</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.3">
@@ -7454,7 +7454,7 @@
         <v>50</v>
       </c>
       <c r="D97">
-        <v>3525</v>
+        <v>3625</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.3">
@@ -7468,7 +7468,7 @@
         <v>50</v>
       </c>
       <c r="D98">
-        <v>3575</v>
+        <v>3675</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.3">
@@ -7482,7 +7482,7 @@
         <v>50</v>
       </c>
       <c r="D99">
-        <v>3625</v>
+        <v>3725</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.3">
@@ -7496,7 +7496,7 @@
         <v>50</v>
       </c>
       <c r="D100">
-        <v>3675</v>
+        <v>3775</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.3">
@@ -7510,7 +7510,7 @@
         <v>50</v>
       </c>
       <c r="D101">
-        <v>3725</v>
+        <v>3825</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.3">
@@ -7524,7 +7524,7 @@
         <v>50</v>
       </c>
       <c r="D102">
-        <v>3775</v>
+        <v>3875</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.3">
@@ -7538,7 +7538,7 @@
         <v>50</v>
       </c>
       <c r="D103">
-        <v>3825</v>
+        <v>3925</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.3">
@@ -7552,7 +7552,7 @@
         <v>50</v>
       </c>
       <c r="D104">
-        <v>3875</v>
+        <v>3975</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.3">
@@ -7566,7 +7566,7 @@
         <v>50</v>
       </c>
       <c r="D105">
-        <v>3925</v>
+        <v>4025</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.3">
@@ -7580,7 +7580,7 @@
         <v>50</v>
       </c>
       <c r="D106">
-        <v>3975</v>
+        <v>4075</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.3">
@@ -7594,7 +7594,7 @@
         <v>50</v>
       </c>
       <c r="D107">
-        <v>4025</v>
+        <v>4125</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.3">
@@ -7608,7 +7608,7 @@
         <v>50</v>
       </c>
       <c r="D108">
-        <v>4075</v>
+        <v>4175</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.3">
@@ -7622,7 +7622,7 @@
         <v>50</v>
       </c>
       <c r="D109">
-        <v>4125</v>
+        <v>4225</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.3">
@@ -7636,7 +7636,7 @@
         <v>50</v>
       </c>
       <c r="D110">
-        <v>4175</v>
+        <v>4275</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.3">
@@ -7650,7 +7650,7 @@
         <v>50</v>
       </c>
       <c r="D111">
-        <v>4225</v>
+        <v>4325</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.3">
@@ -7664,7 +7664,7 @@
         <v>50</v>
       </c>
       <c r="D112">
-        <v>4275</v>
+        <v>4375</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.3">
@@ -7678,7 +7678,7 @@
         <v>50</v>
       </c>
       <c r="D113">
-        <v>4325</v>
+        <v>4425</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.3">
@@ -7692,7 +7692,7 @@
         <v>50</v>
       </c>
       <c r="D114">
-        <v>4375</v>
+        <v>4475</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.3">
@@ -7706,7 +7706,7 @@
         <v>50</v>
       </c>
       <c r="D115">
-        <v>4425</v>
+        <v>4525</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.3">
@@ -7720,7 +7720,7 @@
         <v>50</v>
       </c>
       <c r="D116">
-        <v>4475</v>
+        <v>4575</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.3">
@@ -7734,7 +7734,7 @@
         <v>50</v>
       </c>
       <c r="D117">
-        <v>4525</v>
+        <v>4625</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.3">
@@ -7748,7 +7748,7 @@
         <v>50</v>
       </c>
       <c r="D118">
-        <v>4575</v>
+        <v>4675</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.3">
@@ -7762,7 +7762,7 @@
         <v>50</v>
       </c>
       <c r="D119">
-        <v>4625</v>
+        <v>4725</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.3">
@@ -7776,7 +7776,7 @@
         <v>50</v>
       </c>
       <c r="D120">
-        <v>4675</v>
+        <v>4775</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.3">
@@ -7790,7 +7790,7 @@
         <v>50</v>
       </c>
       <c r="D121">
-        <v>4725</v>
+        <v>4825</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.3">
@@ -7804,7 +7804,7 @@
         <v>50</v>
       </c>
       <c r="D122">
-        <v>4775</v>
+        <v>4875</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.3">
@@ -7818,7 +7818,7 @@
         <v>50</v>
       </c>
       <c r="D123">
-        <v>4825</v>
+        <v>4925</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.3">
@@ -7832,7 +7832,7 @@
         <v>50</v>
       </c>
       <c r="D124">
-        <v>4875</v>
+        <v>4975</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.3">
@@ -7846,7 +7846,7 @@
         <v>50</v>
       </c>
       <c r="D125">
-        <v>4925</v>
+        <v>5025</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.3">
@@ -7860,7 +7860,7 @@
         <v>50</v>
       </c>
       <c r="D126">
-        <v>4975</v>
+        <v>5075</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.3">
@@ -7874,7 +7874,7 @@
         <v>50</v>
       </c>
       <c r="D127">
-        <v>5025</v>
+        <v>5125</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.3">
@@ -7888,7 +7888,7 @@
         <v>50</v>
       </c>
       <c r="D128">
-        <v>5075</v>
+        <v>5175</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.3">
@@ -7902,7 +7902,7 @@
         <v>50</v>
       </c>
       <c r="D129">
-        <v>5125</v>
+        <v>5225</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.3">
@@ -7916,7 +7916,7 @@
         <v>50</v>
       </c>
       <c r="D130">
-        <v>5175</v>
+        <v>5275</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.3">
@@ -7930,7 +7930,7 @@
         <v>50</v>
       </c>
       <c r="D131">
-        <v>5225</v>
+        <v>5325</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.3">
@@ -7944,7 +7944,7 @@
         <v>50</v>
       </c>
       <c r="D132">
-        <v>5275</v>
+        <v>5375</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.3">
@@ -7958,7 +7958,7 @@
         <v>50</v>
       </c>
       <c r="D133">
-        <v>5325</v>
+        <v>5425</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.3">
@@ -7972,7 +7972,7 @@
         <v>50</v>
       </c>
       <c r="D134">
-        <v>5375</v>
+        <v>5475</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.3">
@@ -7986,7 +7986,7 @@
         <v>50</v>
       </c>
       <c r="D135">
-        <v>5425</v>
+        <v>5525</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.3">
@@ -8000,7 +8000,7 @@
         <v>50</v>
       </c>
       <c r="D136">
-        <v>5475</v>
+        <v>5575</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.3">
@@ -8014,7 +8014,7 @@
         <v>50</v>
       </c>
       <c r="D137">
-        <v>5525</v>
+        <v>5625</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.3">
@@ -8028,7 +8028,7 @@
         <v>50</v>
       </c>
       <c r="D138">
-        <v>5575</v>
+        <v>5675</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.3">
@@ -8042,7 +8042,7 @@
         <v>50</v>
       </c>
       <c r="D139">
-        <v>5625</v>
+        <v>5725</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.3">
@@ -8056,7 +8056,7 @@
         <v>50</v>
       </c>
       <c r="D140">
-        <v>5675</v>
+        <v>5775</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.3">
@@ -8070,7 +8070,7 @@
         <v>50</v>
       </c>
       <c r="D141">
-        <v>5725</v>
+        <v>5825</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.3">
@@ -8084,7 +8084,7 @@
         <v>50</v>
       </c>
       <c r="D142">
-        <v>5775</v>
+        <v>5875</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.3">
@@ -8098,7 +8098,7 @@
         <v>50</v>
       </c>
       <c r="D143">
-        <v>5825</v>
+        <v>5925</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.3">
@@ -8112,7 +8112,7 @@
         <v>50</v>
       </c>
       <c r="D144">
-        <v>5875</v>
+        <v>5975</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.3">
@@ -8126,7 +8126,7 @@
         <v>50</v>
       </c>
       <c r="D145">
-        <v>5925</v>
+        <v>6025</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.3">
@@ -8140,7 +8140,7 @@
         <v>50</v>
       </c>
       <c r="D146">
-        <v>5975</v>
+        <v>6075</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.3">
@@ -8154,7 +8154,7 @@
         <v>50</v>
       </c>
       <c r="D147">
-        <v>6025</v>
+        <v>6125</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.3">
@@ -8168,7 +8168,7 @@
         <v>50</v>
       </c>
       <c r="D148">
-        <v>6075</v>
+        <v>6175</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.3">
@@ -8182,7 +8182,7 @@
         <v>50</v>
       </c>
       <c r="D149">
-        <v>6125</v>
+        <v>6225</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.3">
@@ -8196,7 +8196,7 @@
         <v>50</v>
       </c>
       <c r="D150">
-        <v>6175</v>
+        <v>6275</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.3">
@@ -8210,7 +8210,7 @@
         <v>50</v>
       </c>
       <c r="D151">
-        <v>6225</v>
+        <v>6325</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.3">
@@ -8224,7 +8224,7 @@
         <v>50</v>
       </c>
       <c r="D152">
-        <v>6275</v>
+        <v>6375</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.3">
@@ -8238,7 +8238,7 @@
         <v>50</v>
       </c>
       <c r="D153">
-        <v>6325</v>
+        <v>6425</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.3">
@@ -8252,7 +8252,7 @@
         <v>50</v>
       </c>
       <c r="D154">
-        <v>6375</v>
+        <v>6475</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.3">
@@ -8266,7 +8266,7 @@
         <v>50</v>
       </c>
       <c r="D155">
-        <v>6425</v>
+        <v>6525</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.3">
@@ -8280,7 +8280,7 @@
         <v>50</v>
       </c>
       <c r="D156">
-        <v>6475</v>
+        <v>6575</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.3">
@@ -8294,7 +8294,7 @@
         <v>50</v>
       </c>
       <c r="D157">
-        <v>6525</v>
+        <v>6625</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.3">
@@ -8308,7 +8308,7 @@
         <v>50</v>
       </c>
       <c r="D158">
-        <v>6575</v>
+        <v>6675</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.3">
@@ -8322,7 +8322,7 @@
         <v>50</v>
       </c>
       <c r="D159">
-        <v>6625</v>
+        <v>6725</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.3">
@@ -8336,7 +8336,7 @@
         <v>50</v>
       </c>
       <c r="D160">
-        <v>6675</v>
+        <v>6775</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.3">
@@ -8350,7 +8350,7 @@
         <v>50</v>
       </c>
       <c r="D161">
-        <v>6725</v>
+        <v>6825</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.3">
@@ -8364,7 +8364,7 @@
         <v>50</v>
       </c>
       <c r="D162">
-        <v>6775</v>
+        <v>6875</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.3">
@@ -8378,7 +8378,7 @@
         <v>50</v>
       </c>
       <c r="D163">
-        <v>6825</v>
+        <v>6925</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.3">
@@ -8392,7 +8392,7 @@
         <v>50</v>
       </c>
       <c r="D164">
-        <v>6875</v>
+        <v>6975</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.3">
@@ -8406,7 +8406,7 @@
         <v>50</v>
       </c>
       <c r="D165">
-        <v>6925</v>
+        <v>7025</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.3">
@@ -8420,7 +8420,7 @@
         <v>50</v>
       </c>
       <c r="D166">
-        <v>6975</v>
+        <v>7075</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.3">
@@ -8434,7 +8434,7 @@
         <v>50</v>
       </c>
       <c r="D167">
-        <v>7025</v>
+        <v>7125</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.3">
@@ -8448,7 +8448,7 @@
         <v>50</v>
       </c>
       <c r="D168">
-        <v>7075</v>
+        <v>7175</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.3">
@@ -8462,7 +8462,7 @@
         <v>50</v>
       </c>
       <c r="D169">
-        <v>7125</v>
+        <v>7225</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.3">
@@ -8476,7 +8476,7 @@
         <v>50</v>
       </c>
       <c r="D170">
-        <v>7175</v>
+        <v>7275</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.3">
@@ -8490,7 +8490,7 @@
         <v>50</v>
       </c>
       <c r="D171">
-        <v>7225</v>
+        <v>7325</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.3">
@@ -8504,7 +8504,7 @@
         <v>50</v>
       </c>
       <c r="D172">
-        <v>7275</v>
+        <v>7375</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.3">
@@ -8518,7 +8518,7 @@
         <v>50</v>
       </c>
       <c r="D173">
-        <v>7325</v>
+        <v>7425</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.3">
@@ -8532,7 +8532,7 @@
         <v>50</v>
       </c>
       <c r="D174">
-        <v>7375</v>
+        <v>7475</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.3">
@@ -8546,7 +8546,7 @@
         <v>50</v>
       </c>
       <c r="D175">
-        <v>7425</v>
+        <v>7525</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.3">
@@ -8560,7 +8560,7 @@
         <v>50</v>
       </c>
       <c r="D176">
-        <v>7475</v>
+        <v>7575</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.3">
@@ -8574,7 +8574,7 @@
         <v>50</v>
       </c>
       <c r="D177">
-        <v>7525</v>
+        <v>7625</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.3">
@@ -8588,7 +8588,7 @@
         <v>50</v>
       </c>
       <c r="D178">
-        <v>7575</v>
+        <v>7675</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.3">
@@ -8602,7 +8602,7 @@
         <v>50</v>
       </c>
       <c r="D179">
-        <v>7625</v>
+        <v>7725</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.3">
@@ -8616,7 +8616,7 @@
         <v>50</v>
       </c>
       <c r="D180">
-        <v>7675</v>
+        <v>7775</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.3">
@@ -8630,7 +8630,7 @@
         <v>50</v>
       </c>
       <c r="D181">
-        <v>7725</v>
+        <v>7825</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.3">
@@ -8644,7 +8644,7 @@
         <v>50</v>
       </c>
       <c r="D182">
-        <v>7775</v>
+        <v>7875</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.3">
@@ -8658,7 +8658,7 @@
         <v>50</v>
       </c>
       <c r="D183">
-        <v>7825</v>
+        <v>7925</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.3">
@@ -8672,7 +8672,7 @@
         <v>50</v>
       </c>
       <c r="D184">
-        <v>7875</v>
+        <v>7975</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.3">
@@ -8686,7 +8686,7 @@
         <v>50</v>
       </c>
       <c r="D185">
-        <v>7925</v>
+        <v>8025</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.3">
@@ -8700,7 +8700,7 @@
         <v>50</v>
       </c>
       <c r="D186">
-        <v>7975</v>
+        <v>8075</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.3">
@@ -8714,7 +8714,7 @@
         <v>50</v>
       </c>
       <c r="D187">
-        <v>8025</v>
+        <v>8125</v>
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.3">
@@ -8728,7 +8728,7 @@
         <v>50</v>
       </c>
       <c r="D188">
-        <v>8075</v>
+        <v>8175</v>
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.3">
@@ -8742,7 +8742,7 @@
         <v>50</v>
       </c>
       <c r="D189">
-        <v>8125</v>
+        <v>8225</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.3">
@@ -8756,7 +8756,7 @@
         <v>50</v>
       </c>
       <c r="D190">
-        <v>8175</v>
+        <v>8275</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.3">
@@ -8770,7 +8770,7 @@
         <v>50</v>
       </c>
       <c r="D191">
-        <v>8225</v>
+        <v>8325</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.3">
@@ -8784,7 +8784,7 @@
         <v>50</v>
       </c>
       <c r="D192">
-        <v>8275</v>
+        <v>8375</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.3">
@@ -8798,7 +8798,7 @@
         <v>50</v>
       </c>
       <c r="D193">
-        <v>8325</v>
+        <v>8425</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.3">
@@ -8812,7 +8812,7 @@
         <v>50</v>
       </c>
       <c r="D194">
-        <v>8375</v>
+        <v>8475</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.3">
@@ -8826,7 +8826,7 @@
         <v>50</v>
       </c>
       <c r="D195">
-        <v>8425</v>
+        <v>8525</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.3">
@@ -8840,7 +8840,7 @@
         <v>50</v>
       </c>
       <c r="D196">
-        <v>8475</v>
+        <v>8575</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.3">
@@ -8854,7 +8854,7 @@
         <v>50</v>
       </c>
       <c r="D197">
-        <v>8525</v>
+        <v>8625</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.3">
@@ -8868,7 +8868,7 @@
         <v>50</v>
       </c>
       <c r="D198">
-        <v>8575</v>
+        <v>8675</v>
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.3">
@@ -8882,7 +8882,7 @@
         <v>50</v>
       </c>
       <c r="D199">
-        <v>8625</v>
+        <v>8725</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.3">
@@ -8896,7 +8896,7 @@
         <v>50</v>
       </c>
       <c r="D200">
-        <v>8675</v>
+        <v>8775</v>
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.3">
@@ -8910,7 +8910,7 @@
         <v>50</v>
       </c>
       <c r="D201">
-        <v>8725</v>
+        <v>8825</v>
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.3">
@@ -8924,7 +8924,7 @@
         <v>50</v>
       </c>
       <c r="D202">
-        <v>8775</v>
+        <v>8875</v>
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.3">
@@ -8938,7 +8938,7 @@
         <v>50</v>
       </c>
       <c r="D203">
-        <v>8825</v>
+        <v>8925</v>
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.3">
@@ -8952,7 +8952,7 @@
         <v>50</v>
       </c>
       <c r="D204">
-        <v>8875</v>
+        <v>8975</v>
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.3">
@@ -8966,7 +8966,7 @@
         <v>50</v>
       </c>
       <c r="D205">
-        <v>8925</v>
+        <v>9025</v>
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.3">
@@ -8980,7 +8980,7 @@
         <v>50</v>
       </c>
       <c r="D206">
-        <v>8975</v>
+        <v>9075</v>
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.3">
@@ -8994,7 +8994,7 @@
         <v>50</v>
       </c>
       <c r="D207">
-        <v>9025</v>
+        <v>9125</v>
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.3">
@@ -9008,7 +9008,7 @@
         <v>50</v>
       </c>
       <c r="D208">
-        <v>9075</v>
+        <v>9175</v>
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.3">
@@ -9022,7 +9022,7 @@
         <v>50</v>
       </c>
       <c r="D209">
-        <v>9125</v>
+        <v>9225</v>
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.3">
@@ -9036,7 +9036,7 @@
         <v>50</v>
       </c>
       <c r="D210">
-        <v>9175</v>
+        <v>9275</v>
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.3">
@@ -9050,7 +9050,7 @@
         <v>50</v>
       </c>
       <c r="D211">
-        <v>9225</v>
+        <v>9325</v>
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.3">
@@ -9064,7 +9064,7 @@
         <v>50</v>
       </c>
       <c r="D212">
-        <v>9275</v>
+        <v>9375</v>
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.3">
@@ -9078,7 +9078,7 @@
         <v>50</v>
       </c>
       <c r="D213">
-        <v>9325</v>
+        <v>9425</v>
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.3">
@@ -9092,7 +9092,7 @@
         <v>50</v>
       </c>
       <c r="D214">
-        <v>9375</v>
+        <v>9475</v>
       </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.3">
@@ -9106,7 +9106,7 @@
         <v>50</v>
       </c>
       <c r="D215">
-        <v>9425</v>
+        <v>9525</v>
       </c>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.3">
@@ -9120,7 +9120,7 @@
         <v>50</v>
       </c>
       <c r="D216">
-        <v>9475</v>
+        <v>9575</v>
       </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.3">
@@ -9134,7 +9134,7 @@
         <v>50</v>
       </c>
       <c r="D217">
-        <v>9525</v>
+        <v>9625</v>
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.3">
@@ -9148,7 +9148,7 @@
         <v>50</v>
       </c>
       <c r="D218">
-        <v>9575</v>
+        <v>9675</v>
       </c>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.3">
@@ -9162,7 +9162,7 @@
         <v>50</v>
       </c>
       <c r="D219">
-        <v>9625</v>
+        <v>9725</v>
       </c>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.3">
@@ -9176,7 +9176,7 @@
         <v>50</v>
       </c>
       <c r="D220">
-        <v>9675</v>
+        <v>9775</v>
       </c>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.3">
@@ -9190,7 +9190,7 @@
         <v>50</v>
       </c>
       <c r="D221">
-        <v>9725</v>
+        <v>9825</v>
       </c>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.3">
@@ -9204,7 +9204,7 @@
         <v>50</v>
       </c>
       <c r="D222">
-        <v>9775</v>
+        <v>9875</v>
       </c>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.3">
@@ -9218,7 +9218,7 @@
         <v>50</v>
       </c>
       <c r="D223">
-        <v>9825</v>
+        <v>9925</v>
       </c>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.3">
@@ -9232,7 +9232,7 @@
         <v>50</v>
       </c>
       <c r="D224">
-        <v>9875</v>
+        <v>9975</v>
       </c>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.3">
@@ -9246,7 +9246,7 @@
         <v>50</v>
       </c>
       <c r="D225">
-        <v>9925</v>
+        <v>10025</v>
       </c>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.3">
@@ -9260,7 +9260,7 @@
         <v>50</v>
       </c>
       <c r="D226">
-        <v>9975</v>
+        <v>10075</v>
       </c>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.3">
@@ -9274,7 +9274,7 @@
         <v>50</v>
       </c>
       <c r="D227">
-        <v>10025</v>
+        <v>10125</v>
       </c>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.3">
@@ -9288,7 +9288,7 @@
         <v>50</v>
       </c>
       <c r="D228">
-        <v>10075</v>
+        <v>10175</v>
       </c>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.3">
@@ -9302,7 +9302,7 @@
         <v>50</v>
       </c>
       <c r="D229">
-        <v>10125</v>
+        <v>10225</v>
       </c>
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.3">
@@ -9316,7 +9316,7 @@
         <v>50</v>
       </c>
       <c r="D230">
-        <v>10175</v>
+        <v>10275</v>
       </c>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.3">
@@ -9330,7 +9330,7 @@
         <v>50</v>
       </c>
       <c r="D231">
-        <v>10225</v>
+        <v>10325</v>
       </c>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.3">
@@ -9344,7 +9344,7 @@
         <v>50</v>
       </c>
       <c r="D232">
-        <v>10275</v>
+        <v>10375</v>
       </c>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.3">
@@ -9358,7 +9358,7 @@
         <v>50</v>
       </c>
       <c r="D233">
-        <v>10325</v>
+        <v>10425</v>
       </c>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.3">
@@ -9372,7 +9372,7 @@
         <v>50</v>
       </c>
       <c r="D234">
-        <v>10375</v>
+        <v>10475</v>
       </c>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.3">
@@ -9386,7 +9386,7 @@
         <v>50</v>
       </c>
       <c r="D235">
-        <v>10425</v>
+        <v>10525</v>
       </c>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.3">
@@ -9400,7 +9400,7 @@
         <v>50</v>
       </c>
       <c r="D236">
-        <v>10475</v>
+        <v>10575</v>
       </c>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.3">
@@ -9414,7 +9414,7 @@
         <v>50</v>
       </c>
       <c r="D237">
-        <v>10525</v>
+        <v>10625</v>
       </c>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.3">
@@ -9428,7 +9428,7 @@
         <v>50</v>
       </c>
       <c r="D238">
-        <v>10575</v>
+        <v>10675</v>
       </c>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.3">
@@ -9442,7 +9442,7 @@
         <v>50</v>
       </c>
       <c r="D239">
-        <v>10625</v>
+        <v>10725</v>
       </c>
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.3">
@@ -9456,7 +9456,7 @@
         <v>50</v>
       </c>
       <c r="D240">
-        <v>10675</v>
+        <v>10775</v>
       </c>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.3">
@@ -9470,7 +9470,7 @@
         <v>50</v>
       </c>
       <c r="D241">
-        <v>10725</v>
+        <v>10825</v>
       </c>
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.3">
@@ -9484,7 +9484,7 @@
         <v>50</v>
       </c>
       <c r="D242">
-        <v>10775</v>
+        <v>10875</v>
       </c>
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.3">
@@ -9498,7 +9498,7 @@
         <v>50</v>
       </c>
       <c r="D243">
-        <v>10825</v>
+        <v>10925</v>
       </c>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.3">
@@ -9512,7 +9512,7 @@
         <v>50</v>
       </c>
       <c r="D244">
-        <v>10875</v>
+        <v>10975</v>
       </c>
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.3">
@@ -9526,7 +9526,7 @@
         <v>50</v>
       </c>
       <c r="D245">
-        <v>10925</v>
+        <v>11025</v>
       </c>
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.3">
@@ -9540,7 +9540,7 @@
         <v>50</v>
       </c>
       <c r="D246">
-        <v>10975</v>
+        <v>11075</v>
       </c>
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.3">
@@ -9554,7 +9554,7 @@
         <v>50</v>
       </c>
       <c r="D247">
-        <v>11025</v>
+        <v>11125</v>
       </c>
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.3">
@@ -9568,7 +9568,7 @@
         <v>50</v>
       </c>
       <c r="D248">
-        <v>11075</v>
+        <v>11175</v>
       </c>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.3">
@@ -9582,7 +9582,7 @@
         <v>50</v>
       </c>
       <c r="D249">
-        <v>11125</v>
+        <v>11225</v>
       </c>
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.3">
@@ -9596,7 +9596,7 @@
         <v>50</v>
       </c>
       <c r="D250">
-        <v>11175</v>
+        <v>11275</v>
       </c>
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.3">
@@ -9610,7 +9610,7 @@
         <v>50</v>
       </c>
       <c r="D251">
-        <v>11225</v>
+        <v>11325</v>
       </c>
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.3">
@@ -9624,7 +9624,7 @@
         <v>50</v>
       </c>
       <c r="D252">
-        <v>11275</v>
+        <v>11375</v>
       </c>
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.3">
@@ -9638,7 +9638,7 @@
         <v>50</v>
       </c>
       <c r="D253">
-        <v>11325</v>
+        <v>11425</v>
       </c>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.3">
@@ -9652,7 +9652,7 @@
         <v>50</v>
       </c>
       <c r="D254">
-        <v>11375</v>
+        <v>11475</v>
       </c>
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.3">
@@ -9666,7 +9666,7 @@
         <v>50</v>
       </c>
       <c r="D255">
-        <v>11425</v>
+        <v>11525</v>
       </c>
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.3">
@@ -9680,7 +9680,7 @@
         <v>50</v>
       </c>
       <c r="D256">
-        <v>11475</v>
+        <v>11575</v>
       </c>
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.3">
@@ -9694,7 +9694,7 @@
         <v>50</v>
       </c>
       <c r="D257">
-        <v>11525</v>
+        <v>11625</v>
       </c>
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.3">
@@ -9708,7 +9708,7 @@
         <v>50</v>
       </c>
       <c r="D258">
-        <v>11575</v>
+        <v>11675</v>
       </c>
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.3">
@@ -9722,7 +9722,7 @@
         <v>50</v>
       </c>
       <c r="D259">
-        <v>11625</v>
+        <v>11725</v>
       </c>
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.3">
@@ -9736,7 +9736,7 @@
         <v>50</v>
       </c>
       <c r="D260">
-        <v>11675</v>
+        <v>11775</v>
       </c>
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.3">
@@ -9750,7 +9750,7 @@
         <v>50</v>
       </c>
       <c r="D261">
-        <v>11725</v>
+        <v>11825</v>
       </c>
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.3">
@@ -9764,7 +9764,7 @@
         <v>50</v>
       </c>
       <c r="D262">
-        <v>11775</v>
+        <v>11875</v>
       </c>
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.3">
@@ -9778,7 +9778,7 @@
         <v>50</v>
       </c>
       <c r="D263">
-        <v>11825</v>
+        <v>11925</v>
       </c>
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.3">
@@ -9792,7 +9792,7 @@
         <v>50</v>
       </c>
       <c r="D264">
-        <v>11875</v>
+        <v>11975</v>
       </c>
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.3">
@@ -9806,7 +9806,7 @@
         <v>50</v>
       </c>
       <c r="D265">
-        <v>11925</v>
+        <v>12025</v>
       </c>
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.3">
@@ -9820,7 +9820,7 @@
         <v>50</v>
       </c>
       <c r="D266">
-        <v>11975</v>
+        <v>12075</v>
       </c>
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.3">
@@ -9834,7 +9834,7 @@
         <v>50</v>
       </c>
       <c r="D267">
-        <v>12025</v>
+        <v>12125</v>
       </c>
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.3">
@@ -9848,7 +9848,7 @@
         <v>50</v>
       </c>
       <c r="D268">
-        <v>12075</v>
+        <v>12175</v>
       </c>
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.3">
@@ -9862,7 +9862,7 @@
         <v>50</v>
       </c>
       <c r="D269">
-        <v>12125</v>
+        <v>12225</v>
       </c>
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.3">
@@ -9876,7 +9876,7 @@
         <v>50</v>
       </c>
       <c r="D270">
-        <v>12175</v>
+        <v>12275</v>
       </c>
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.3">
@@ -9890,7 +9890,7 @@
         <v>50</v>
       </c>
       <c r="D271">
-        <v>12225</v>
+        <v>12325</v>
       </c>
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.3">
@@ -9904,7 +9904,7 @@
         <v>50</v>
       </c>
       <c r="D272">
-        <v>12275</v>
+        <v>12375</v>
       </c>
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.3">
@@ -9918,7 +9918,7 @@
         <v>50</v>
       </c>
       <c r="D273">
-        <v>12325</v>
+        <v>12425</v>
       </c>
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.3">
@@ -9932,7 +9932,7 @@
         <v>50</v>
       </c>
       <c r="D274">
-        <v>12375</v>
+        <v>12475</v>
       </c>
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.3">
@@ -9946,7 +9946,7 @@
         <v>50</v>
       </c>
       <c r="D275">
-        <v>12425</v>
+        <v>12525</v>
       </c>
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.3">
@@ -9960,7 +9960,7 @@
         <v>50</v>
       </c>
       <c r="D276">
-        <v>12475</v>
+        <v>12575</v>
       </c>
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.3">
@@ -9974,7 +9974,7 @@
         <v>50</v>
       </c>
       <c r="D277">
-        <v>12525</v>
+        <v>12625</v>
       </c>
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.3">
@@ -9988,7 +9988,7 @@
         <v>50</v>
       </c>
       <c r="D278">
-        <v>12575</v>
+        <v>12675</v>
       </c>
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.3">
@@ -10002,7 +10002,7 @@
         <v>50</v>
       </c>
       <c r="D279">
-        <v>12625</v>
+        <v>12725</v>
       </c>
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.3">
@@ -10016,7 +10016,7 @@
         <v>50</v>
       </c>
       <c r="D280">
-        <v>12675</v>
+        <v>12775</v>
       </c>
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.3">
@@ -10030,7 +10030,7 @@
         <v>50</v>
       </c>
       <c r="D281">
-        <v>12725</v>
+        <v>12825</v>
       </c>
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.3">
@@ -10044,7 +10044,7 @@
         <v>50</v>
       </c>
       <c r="D282">
-        <v>12775</v>
+        <v>12875</v>
       </c>
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.3">
@@ -10058,7 +10058,7 @@
         <v>50</v>
       </c>
       <c r="D283">
-        <v>12825</v>
+        <v>12925</v>
       </c>
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.3">
@@ -10072,7 +10072,7 @@
         <v>50</v>
       </c>
       <c r="D284">
-        <v>12875</v>
+        <v>12975</v>
       </c>
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.3">
@@ -10086,7 +10086,7 @@
         <v>50</v>
       </c>
       <c r="D285">
-        <v>12925</v>
+        <v>13025</v>
       </c>
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.3">
@@ -10100,7 +10100,7 @@
         <v>50</v>
       </c>
       <c r="D286">
-        <v>12975</v>
+        <v>13075</v>
       </c>
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.3">
@@ -10114,7 +10114,7 @@
         <v>50</v>
       </c>
       <c r="D287">
-        <v>13025</v>
+        <v>13125</v>
       </c>
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.3">
@@ -10128,7 +10128,7 @@
         <v>50</v>
       </c>
       <c r="D288">
-        <v>13075</v>
+        <v>13175</v>
       </c>
     </row>
     <row r="289" spans="1:4" x14ac:dyDescent="0.3">
@@ -10142,7 +10142,7 @@
         <v>50</v>
       </c>
       <c r="D289">
-        <v>13125</v>
+        <v>13225</v>
       </c>
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.3">
@@ -10156,7 +10156,7 @@
         <v>50</v>
       </c>
       <c r="D290">
-        <v>13175</v>
+        <v>13275</v>
       </c>
     </row>
     <row r="291" spans="1:4" x14ac:dyDescent="0.3">
@@ -10170,7 +10170,7 @@
         <v>50</v>
       </c>
       <c r="D291">
-        <v>13225</v>
+        <v>13325</v>
       </c>
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.3">
@@ -10184,7 +10184,7 @@
         <v>50</v>
       </c>
       <c r="D292">
-        <v>13275</v>
+        <v>13375</v>
       </c>
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.3">
@@ -10198,7 +10198,7 @@
         <v>50</v>
       </c>
       <c r="D293">
-        <v>13325</v>
+        <v>13425</v>
       </c>
     </row>
     <row r="294" spans="1:4" x14ac:dyDescent="0.3">
@@ -10212,7 +10212,7 @@
         <v>50</v>
       </c>
       <c r="D294">
-        <v>13375</v>
+        <v>13475</v>
       </c>
     </row>
     <row r="295" spans="1:4" x14ac:dyDescent="0.3">
@@ -10226,7 +10226,7 @@
         <v>50</v>
       </c>
       <c r="D295">
-        <v>13425</v>
+        <v>13525</v>
       </c>
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.3">
@@ -10240,7 +10240,7 @@
         <v>50</v>
       </c>
       <c r="D296">
-        <v>13475</v>
+        <v>13575</v>
       </c>
     </row>
     <row r="297" spans="1:4" x14ac:dyDescent="0.3">
@@ -10254,7 +10254,7 @@
         <v>50</v>
       </c>
       <c r="D297">
-        <v>13525</v>
+        <v>13625</v>
       </c>
     </row>
     <row r="298" spans="1:4" x14ac:dyDescent="0.3">
@@ -10268,7 +10268,7 @@
         <v>50</v>
       </c>
       <c r="D298">
-        <v>13575</v>
+        <v>13675</v>
       </c>
     </row>
     <row r="299" spans="1:4" x14ac:dyDescent="0.3">
@@ -10282,7 +10282,7 @@
         <v>50</v>
       </c>
       <c r="D299">
-        <v>13625</v>
+        <v>13725</v>
       </c>
     </row>
     <row r="300" spans="1:4" x14ac:dyDescent="0.3">
@@ -10296,7 +10296,7 @@
         <v>50</v>
       </c>
       <c r="D300">
-        <v>13675</v>
+        <v>13775</v>
       </c>
     </row>
     <row r="301" spans="1:4" x14ac:dyDescent="0.3">
@@ -10310,7 +10310,7 @@
         <v>50</v>
       </c>
       <c r="D301">
-        <v>13725</v>
+        <v>13825</v>
       </c>
     </row>
     <row r="302" spans="1:4" x14ac:dyDescent="0.3">
@@ -10324,7 +10324,7 @@
         <v>50</v>
       </c>
       <c r="D302">
-        <v>13775</v>
+        <v>13875</v>
       </c>
     </row>
     <row r="303" spans="1:4" x14ac:dyDescent="0.3">
@@ -10338,7 +10338,7 @@
         <v>50</v>
       </c>
       <c r="D303">
-        <v>13825</v>
+        <v>13925</v>
       </c>
     </row>
     <row r="304" spans="1:4" x14ac:dyDescent="0.3">
@@ -10352,7 +10352,7 @@
         <v>50</v>
       </c>
       <c r="D304">
-        <v>13875</v>
+        <v>13975</v>
       </c>
     </row>
     <row r="305" spans="1:4" x14ac:dyDescent="0.3">
@@ -10366,7 +10366,7 @@
         <v>50</v>
       </c>
       <c r="D305">
-        <v>13925</v>
+        <v>14025</v>
       </c>
     </row>
     <row r="306" spans="1:4" x14ac:dyDescent="0.3">
@@ -10380,7 +10380,7 @@
         <v>50</v>
       </c>
       <c r="D306">
-        <v>13975</v>
+        <v>14075</v>
       </c>
     </row>
     <row r="307" spans="1:4" x14ac:dyDescent="0.3">
@@ -10394,7 +10394,7 @@
         <v>50</v>
       </c>
       <c r="D307">
-        <v>14025</v>
+        <v>14125</v>
       </c>
     </row>
     <row r="308" spans="1:4" x14ac:dyDescent="0.3">
@@ -10408,7 +10408,7 @@
         <v>50</v>
       </c>
       <c r="D308">
-        <v>14075</v>
+        <v>14175</v>
       </c>
     </row>
     <row r="309" spans="1:4" x14ac:dyDescent="0.3">
@@ -10422,7 +10422,7 @@
         <v>50</v>
       </c>
       <c r="D309">
-        <v>14125</v>
+        <v>14225</v>
       </c>
     </row>
     <row r="310" spans="1:4" x14ac:dyDescent="0.3">
@@ -10436,7 +10436,7 @@
         <v>50</v>
       </c>
       <c r="D310">
-        <v>14175</v>
+        <v>14275</v>
       </c>
     </row>
     <row r="311" spans="1:4" x14ac:dyDescent="0.3">
@@ -10450,7 +10450,7 @@
         <v>50</v>
       </c>
       <c r="D311">
-        <v>14225</v>
+        <v>14325</v>
       </c>
     </row>
     <row r="312" spans="1:4" x14ac:dyDescent="0.3">
@@ -10464,7 +10464,7 @@
         <v>50</v>
       </c>
       <c r="D312">
-        <v>14275</v>
+        <v>14375</v>
       </c>
     </row>
     <row r="313" spans="1:4" x14ac:dyDescent="0.3">
@@ -10478,7 +10478,7 @@
         <v>50</v>
       </c>
       <c r="D313">
-        <v>14325</v>
+        <v>14425</v>
       </c>
     </row>
     <row r="314" spans="1:4" x14ac:dyDescent="0.3">
@@ -10492,7 +10492,7 @@
         <v>50</v>
       </c>
       <c r="D314">
-        <v>14375</v>
+        <v>14475</v>
       </c>
     </row>
     <row r="315" spans="1:4" x14ac:dyDescent="0.3">
@@ -10506,7 +10506,7 @@
         <v>50</v>
       </c>
       <c r="D315">
-        <v>14425</v>
+        <v>14525</v>
       </c>
     </row>
     <row r="316" spans="1:4" x14ac:dyDescent="0.3">
@@ -10520,7 +10520,7 @@
         <v>50</v>
       </c>
       <c r="D316">
-        <v>14475</v>
+        <v>14575</v>
       </c>
     </row>
     <row r="317" spans="1:4" x14ac:dyDescent="0.3">
@@ -10534,7 +10534,7 @@
         <v>50</v>
       </c>
       <c r="D317">
-        <v>14525</v>
+        <v>14625</v>
       </c>
     </row>
     <row r="318" spans="1:4" x14ac:dyDescent="0.3">
@@ -10548,7 +10548,7 @@
         <v>50</v>
       </c>
       <c r="D318">
-        <v>14575</v>
+        <v>14675</v>
       </c>
     </row>
     <row r="319" spans="1:4" x14ac:dyDescent="0.3">
@@ -10562,7 +10562,7 @@
         <v>50</v>
       </c>
       <c r="D319">
-        <v>14625</v>
+        <v>14725</v>
       </c>
     </row>
     <row r="320" spans="1:4" x14ac:dyDescent="0.3">
@@ -10576,7 +10576,7 @@
         <v>50</v>
       </c>
       <c r="D320">
-        <v>14675</v>
+        <v>14775</v>
       </c>
     </row>
     <row r="321" spans="1:4" x14ac:dyDescent="0.3">
@@ -10590,7 +10590,7 @@
         <v>50</v>
       </c>
       <c r="D321">
-        <v>14725</v>
+        <v>14825</v>
       </c>
     </row>
     <row r="322" spans="1:4" x14ac:dyDescent="0.3">
@@ -10604,7 +10604,7 @@
         <v>50</v>
       </c>
       <c r="D322">
-        <v>14775</v>
+        <v>14875</v>
       </c>
     </row>
     <row r="323" spans="1:4" x14ac:dyDescent="0.3">
@@ -10618,7 +10618,7 @@
         <v>50</v>
       </c>
       <c r="D323">
-        <v>14825</v>
+        <v>14925</v>
       </c>
     </row>
     <row r="324" spans="1:4" x14ac:dyDescent="0.3">
@@ -10632,7 +10632,7 @@
         <v>50</v>
       </c>
       <c r="D324">
-        <v>14875</v>
+        <v>14975</v>
       </c>
     </row>
     <row r="325" spans="1:4" x14ac:dyDescent="0.3">
@@ -10646,7 +10646,7 @@
         <v>50</v>
       </c>
       <c r="D325">
-        <v>14925</v>
+        <v>15025</v>
       </c>
     </row>
     <row r="326" spans="1:4" x14ac:dyDescent="0.3">
@@ -10660,7 +10660,7 @@
         <v>50</v>
       </c>
       <c r="D326">
-        <v>14975</v>
+        <v>15075</v>
       </c>
     </row>
     <row r="327" spans="1:4" x14ac:dyDescent="0.3">
@@ -10674,7 +10674,7 @@
         <v>50</v>
       </c>
       <c r="D327">
-        <v>15025</v>
+        <v>15125</v>
       </c>
     </row>
     <row r="328" spans="1:4" x14ac:dyDescent="0.3">
@@ -10688,7 +10688,7 @@
         <v>50</v>
       </c>
       <c r="D328">
-        <v>15075</v>
+        <v>15175</v>
       </c>
     </row>
     <row r="329" spans="1:4" x14ac:dyDescent="0.3">
@@ -10702,7 +10702,7 @@
         <v>50</v>
       </c>
       <c r="D329">
-        <v>15125</v>
+        <v>15225</v>
       </c>
     </row>
     <row r="330" spans="1:4" x14ac:dyDescent="0.3">
@@ -10716,7 +10716,7 @@
         <v>50</v>
       </c>
       <c r="D330">
-        <v>15175</v>
+        <v>15275</v>
       </c>
     </row>
     <row r="331" spans="1:4" x14ac:dyDescent="0.3">
@@ -10730,7 +10730,7 @@
         <v>50</v>
       </c>
       <c r="D331">
-        <v>15225</v>
+        <v>15325</v>
       </c>
     </row>
     <row r="332" spans="1:4" x14ac:dyDescent="0.3">
@@ -10744,7 +10744,7 @@
         <v>50</v>
       </c>
       <c r="D332">
-        <v>15275</v>
+        <v>15375</v>
       </c>
     </row>
     <row r="333" spans="1:4" x14ac:dyDescent="0.3">
@@ -10758,7 +10758,7 @@
         <v>50</v>
       </c>
       <c r="D333">
-        <v>15325</v>
+        <v>15425</v>
       </c>
     </row>
     <row r="334" spans="1:4" x14ac:dyDescent="0.3">
@@ -10772,7 +10772,7 @@
         <v>50</v>
       </c>
       <c r="D334">
-        <v>15375</v>
+        <v>15475</v>
       </c>
     </row>
     <row r="335" spans="1:4" x14ac:dyDescent="0.3">
@@ -10786,7 +10786,7 @@
         <v>50</v>
       </c>
       <c r="D335">
-        <v>15425</v>
+        <v>15525</v>
       </c>
     </row>
     <row r="336" spans="1:4" x14ac:dyDescent="0.3">
@@ -10800,7 +10800,7 @@
         <v>50</v>
       </c>
       <c r="D336">
-        <v>15475</v>
+        <v>15575</v>
       </c>
     </row>
     <row r="337" spans="1:4" x14ac:dyDescent="0.3">
@@ -10814,7 +10814,7 @@
         <v>50</v>
       </c>
       <c r="D337">
-        <v>15525</v>
+        <v>15625</v>
       </c>
     </row>
     <row r="338" spans="1:4" x14ac:dyDescent="0.3">
@@ -10828,7 +10828,7 @@
         <v>50</v>
       </c>
       <c r="D338">
-        <v>15575</v>
+        <v>15675</v>
       </c>
     </row>
     <row r="339" spans="1:4" x14ac:dyDescent="0.3">
@@ -10842,7 +10842,7 @@
         <v>50</v>
       </c>
       <c r="D339">
-        <v>15625</v>
+        <v>15725</v>
       </c>
     </row>
     <row r="340" spans="1:4" x14ac:dyDescent="0.3">
@@ -10856,7 +10856,7 @@
         <v>50</v>
       </c>
       <c r="D340">
-        <v>15675</v>
+        <v>15775</v>
       </c>
     </row>
     <row r="341" spans="1:4" x14ac:dyDescent="0.3">
@@ -10870,7 +10870,7 @@
         <v>50</v>
       </c>
       <c r="D341">
-        <v>15725</v>
+        <v>15825</v>
       </c>
     </row>
     <row r="342" spans="1:4" x14ac:dyDescent="0.3">
@@ -10884,7 +10884,7 @@
         <v>50</v>
       </c>
       <c r="D342">
-        <v>15775</v>
+        <v>15875</v>
       </c>
     </row>
     <row r="343" spans="1:4" x14ac:dyDescent="0.3">
@@ -10898,7 +10898,7 @@
         <v>50</v>
       </c>
       <c r="D343">
-        <v>15825</v>
+        <v>15925</v>
       </c>
     </row>
     <row r="344" spans="1:4" x14ac:dyDescent="0.3">
@@ -10912,7 +10912,7 @@
         <v>50</v>
       </c>
       <c r="D344">
-        <v>15875</v>
+        <v>15975</v>
       </c>
     </row>
     <row r="345" spans="1:4" x14ac:dyDescent="0.3">
@@ -10926,7 +10926,7 @@
         <v>50</v>
       </c>
       <c r="D345">
-        <v>15925</v>
+        <v>16025</v>
       </c>
     </row>
     <row r="346" spans="1:4" x14ac:dyDescent="0.3">
@@ -10940,7 +10940,7 @@
         <v>50</v>
       </c>
       <c r="D346">
-        <v>15975</v>
+        <v>16075</v>
       </c>
     </row>
     <row r="347" spans="1:4" x14ac:dyDescent="0.3">
@@ -10954,7 +10954,7 @@
         <v>50</v>
       </c>
       <c r="D347">
-        <v>16025</v>
+        <v>16125</v>
       </c>
     </row>
     <row r="348" spans="1:4" x14ac:dyDescent="0.3">
@@ -10968,7 +10968,7 @@
         <v>50</v>
       </c>
       <c r="D348">
-        <v>16075</v>
+        <v>16175</v>
       </c>
     </row>
     <row r="349" spans="1:4" x14ac:dyDescent="0.3">
@@ -10982,7 +10982,7 @@
         <v>50</v>
       </c>
       <c r="D349">
-        <v>16125</v>
+        <v>16225</v>
       </c>
     </row>
     <row r="350" spans="1:4" x14ac:dyDescent="0.3">
@@ -10996,7 +10996,7 @@
         <v>50</v>
       </c>
       <c r="D350">
-        <v>16175</v>
+        <v>16275</v>
       </c>
     </row>
     <row r="351" spans="1:4" x14ac:dyDescent="0.3">
@@ -11010,7 +11010,7 @@
         <v>50</v>
       </c>
       <c r="D351">
-        <v>16225</v>
+        <v>16325</v>
       </c>
     </row>
     <row r="352" spans="1:4" x14ac:dyDescent="0.3">
@@ -11024,7 +11024,7 @@
         <v>50</v>
       </c>
       <c r="D352">
-        <v>16275</v>
+        <v>16375</v>
       </c>
     </row>
     <row r="353" spans="1:4" x14ac:dyDescent="0.3">
@@ -11038,7 +11038,7 @@
         <v>50</v>
       </c>
       <c r="D353">
-        <v>16325</v>
+        <v>16425</v>
       </c>
     </row>
     <row r="354" spans="1:4" x14ac:dyDescent="0.3">
@@ -11052,7 +11052,7 @@
         <v>50</v>
       </c>
       <c r="D354">
-        <v>16375</v>
+        <v>16475</v>
       </c>
     </row>
     <row r="355" spans="1:4" x14ac:dyDescent="0.3">
@@ -11066,7 +11066,7 @@
         <v>50</v>
       </c>
       <c r="D355">
-        <v>16425</v>
+        <v>16525</v>
       </c>
     </row>
     <row r="356" spans="1:4" x14ac:dyDescent="0.3">
@@ -11080,7 +11080,7 @@
         <v>50</v>
       </c>
       <c r="D356">
-        <v>16475</v>
+        <v>16575</v>
       </c>
     </row>
     <row r="357" spans="1:4" x14ac:dyDescent="0.3">
@@ -11094,7 +11094,7 @@
         <v>50</v>
       </c>
       <c r="D357">
-        <v>16525</v>
+        <v>16625</v>
       </c>
     </row>
     <row r="358" spans="1:4" x14ac:dyDescent="0.3">
@@ -11108,7 +11108,7 @@
         <v>50</v>
       </c>
       <c r="D358">
-        <v>16575</v>
+        <v>16675</v>
       </c>
     </row>
     <row r="359" spans="1:4" x14ac:dyDescent="0.3">
@@ -11122,7 +11122,7 @@
         <v>50</v>
       </c>
       <c r="D359">
-        <v>16625</v>
+        <v>16725</v>
       </c>
     </row>
     <row r="360" spans="1:4" x14ac:dyDescent="0.3">
@@ -11136,7 +11136,7 @@
         <v>50</v>
       </c>
       <c r="D360">
-        <v>16675</v>
+        <v>16775</v>
       </c>
     </row>
     <row r="361" spans="1:4" x14ac:dyDescent="0.3">
@@ -11150,7 +11150,7 @@
         <v>50</v>
       </c>
       <c r="D361">
-        <v>16725</v>
+        <v>16825</v>
       </c>
     </row>
     <row r="362" spans="1:4" x14ac:dyDescent="0.3">
@@ -11164,7 +11164,7 @@
         <v>50</v>
       </c>
       <c r="D362">
-        <v>16775</v>
+        <v>16875</v>
       </c>
     </row>
     <row r="363" spans="1:4" x14ac:dyDescent="0.3">
@@ -11178,7 +11178,7 @@
         <v>50</v>
       </c>
       <c r="D363">
-        <v>16825</v>
+        <v>16925</v>
       </c>
     </row>
     <row r="364" spans="1:4" x14ac:dyDescent="0.3">
@@ -11192,7 +11192,7 @@
         <v>50</v>
       </c>
       <c r="D364">
-        <v>16875</v>
+        <v>16975</v>
       </c>
     </row>
     <row r="365" spans="1:4" x14ac:dyDescent="0.3">
@@ -11206,7 +11206,7 @@
         <v>50</v>
       </c>
       <c r="D365">
-        <v>16925</v>
+        <v>17025</v>
       </c>
     </row>
     <row r="366" spans="1:4" x14ac:dyDescent="0.3">
@@ -11220,7 +11220,7 @@
         <v>50</v>
       </c>
       <c r="D366">
-        <v>16975</v>
+        <v>17075</v>
       </c>
     </row>
     <row r="367" spans="1:4" x14ac:dyDescent="0.3">
@@ -11234,7 +11234,7 @@
         <v>50</v>
       </c>
       <c r="D367">
-        <v>17025</v>
+        <v>17125</v>
       </c>
     </row>
     <row r="368" spans="1:4" x14ac:dyDescent="0.3">
@@ -11248,7 +11248,7 @@
         <v>50</v>
       </c>
       <c r="D368">
-        <v>17075</v>
+        <v>17175</v>
       </c>
     </row>
     <row r="369" spans="1:4" x14ac:dyDescent="0.3">
@@ -11262,7 +11262,7 @@
         <v>50</v>
       </c>
       <c r="D369">
-        <v>17125</v>
+        <v>17225</v>
       </c>
     </row>
     <row r="370" spans="1:4" x14ac:dyDescent="0.3">
@@ -11276,7 +11276,7 @@
         <v>50</v>
       </c>
       <c r="D370">
-        <v>17175</v>
+        <v>17275</v>
       </c>
     </row>
     <row r="371" spans="1:4" x14ac:dyDescent="0.3">
@@ -11290,7 +11290,7 @@
         <v>50</v>
       </c>
       <c r="D371">
-        <v>17225</v>
+        <v>17325</v>
       </c>
     </row>
     <row r="372" spans="1:4" x14ac:dyDescent="0.3">
@@ -11304,7 +11304,7 @@
         <v>50</v>
       </c>
       <c r="D372">
-        <v>17275</v>
+        <v>17375</v>
       </c>
     </row>
     <row r="373" spans="1:4" x14ac:dyDescent="0.3">
@@ -11318,7 +11318,7 @@
         <v>50</v>
       </c>
       <c r="D373">
-        <v>17325</v>
+        <v>17425</v>
       </c>
     </row>
     <row r="374" spans="1:4" x14ac:dyDescent="0.3">
@@ -11332,7 +11332,7 @@
         <v>50</v>
       </c>
       <c r="D374">
-        <v>17375</v>
+        <v>17475</v>
       </c>
     </row>
     <row r="375" spans="1:4" x14ac:dyDescent="0.3">
@@ -11346,7 +11346,7 @@
         <v>50</v>
       </c>
       <c r="D375">
-        <v>17425</v>
+        <v>17525</v>
       </c>
     </row>
     <row r="376" spans="1:4" x14ac:dyDescent="0.3">
@@ -11360,7 +11360,7 @@
         <v>50</v>
       </c>
       <c r="D376">
-        <v>17475</v>
+        <v>17575</v>
       </c>
     </row>
     <row r="377" spans="1:4" x14ac:dyDescent="0.3">
@@ -11374,7 +11374,7 @@
         <v>50</v>
       </c>
       <c r="D377">
-        <v>17525</v>
+        <v>17625</v>
       </c>
     </row>
     <row r="378" spans="1:4" x14ac:dyDescent="0.3">
@@ -11388,7 +11388,7 @@
         <v>50</v>
       </c>
       <c r="D378">
-        <v>17575</v>
+        <v>17675</v>
       </c>
     </row>
     <row r="379" spans="1:4" x14ac:dyDescent="0.3">
@@ -11402,7 +11402,7 @@
         <v>50</v>
       </c>
       <c r="D379">
-        <v>17625</v>
+        <v>17725</v>
       </c>
     </row>
     <row r="380" spans="1:4" x14ac:dyDescent="0.3">
@@ -11416,7 +11416,7 @@
         <v>50</v>
       </c>
       <c r="D380">
-        <v>17675</v>
+        <v>17775</v>
       </c>
     </row>
     <row r="381" spans="1:4" x14ac:dyDescent="0.3">
@@ -11430,7 +11430,7 @@
         <v>50</v>
       </c>
       <c r="D381">
-        <v>17725</v>
+        <v>17825</v>
       </c>
     </row>
     <row r="382" spans="1:4" x14ac:dyDescent="0.3">
@@ -11444,7 +11444,7 @@
         <v>50</v>
       </c>
       <c r="D382">
-        <v>17775</v>
+        <v>17875</v>
       </c>
     </row>
     <row r="383" spans="1:4" x14ac:dyDescent="0.3">
@@ -11458,7 +11458,7 @@
         <v>50</v>
       </c>
       <c r="D383">
-        <v>17825</v>
+        <v>17925</v>
       </c>
     </row>
     <row r="384" spans="1:4" x14ac:dyDescent="0.3">
@@ -11472,7 +11472,7 @@
         <v>50</v>
       </c>
       <c r="D384">
-        <v>17875</v>
+        <v>17975</v>
       </c>
     </row>
     <row r="385" spans="1:4" x14ac:dyDescent="0.3">
@@ -11486,7 +11486,7 @@
         <v>50</v>
       </c>
       <c r="D385">
-        <v>17925</v>
+        <v>18025</v>
       </c>
     </row>
     <row r="386" spans="1:4" x14ac:dyDescent="0.3">
@@ -11500,7 +11500,7 @@
         <v>50</v>
       </c>
       <c r="D386">
-        <v>17975</v>
+        <v>18075</v>
       </c>
     </row>
     <row r="387" spans="1:4" x14ac:dyDescent="0.3">
@@ -11514,7 +11514,7 @@
         <v>50</v>
       </c>
       <c r="D387">
-        <v>18025</v>
+        <v>18125</v>
       </c>
     </row>
     <row r="388" spans="1:4" x14ac:dyDescent="0.3">
@@ -11528,7 +11528,7 @@
         <v>50</v>
       </c>
       <c r="D388">
-        <v>18075</v>
+        <v>18175</v>
       </c>
     </row>
     <row r="389" spans="1:4" x14ac:dyDescent="0.3">
@@ -11542,7 +11542,7 @@
         <v>50</v>
       </c>
       <c r="D389">
-        <v>18125</v>
+        <v>18225</v>
       </c>
     </row>
     <row r="390" spans="1:4" x14ac:dyDescent="0.3">
@@ -11556,7 +11556,7 @@
         <v>50</v>
       </c>
       <c r="D390">
-        <v>18175</v>
+        <v>18275</v>
       </c>
     </row>
     <row r="391" spans="1:4" x14ac:dyDescent="0.3">
@@ -11570,7 +11570,7 @@
         <v>50</v>
       </c>
       <c r="D391">
-        <v>18225</v>
+        <v>18325</v>
       </c>
     </row>
     <row r="392" spans="1:4" x14ac:dyDescent="0.3">
@@ -11584,7 +11584,7 @@
         <v>50</v>
       </c>
       <c r="D392">
-        <v>18275</v>
+        <v>18375</v>
       </c>
     </row>
     <row r="393" spans="1:4" x14ac:dyDescent="0.3">
@@ -11598,7 +11598,7 @@
         <v>50</v>
       </c>
       <c r="D393">
-        <v>18325</v>
+        <v>18425</v>
       </c>
     </row>
     <row r="394" spans="1:4" x14ac:dyDescent="0.3">
@@ -11612,7 +11612,7 @@
         <v>50</v>
       </c>
       <c r="D394">
-        <v>18375</v>
+        <v>18475</v>
       </c>
     </row>
     <row r="395" spans="1:4" x14ac:dyDescent="0.3">
@@ -11626,7 +11626,7 @@
         <v>50</v>
       </c>
       <c r="D395">
-        <v>18425</v>
+        <v>18525</v>
       </c>
     </row>
     <row r="396" spans="1:4" x14ac:dyDescent="0.3">
@@ -11640,7 +11640,7 @@
         <v>50</v>
       </c>
       <c r="D396">
-        <v>18475</v>
+        <v>18575</v>
       </c>
     </row>
     <row r="397" spans="1:4" x14ac:dyDescent="0.3">
@@ -11654,7 +11654,7 @@
         <v>50</v>
       </c>
       <c r="D397">
-        <v>18525</v>
+        <v>18625</v>
       </c>
     </row>
     <row r="398" spans="1:4" x14ac:dyDescent="0.3">
@@ -11668,7 +11668,7 @@
         <v>50</v>
       </c>
       <c r="D398">
-        <v>18575</v>
+        <v>18675</v>
       </c>
     </row>
     <row r="399" spans="1:4" x14ac:dyDescent="0.3">
@@ -11682,7 +11682,7 @@
         <v>50</v>
       </c>
       <c r="D399">
-        <v>18625</v>
+        <v>18725</v>
       </c>
     </row>
     <row r="400" spans="1:4" x14ac:dyDescent="0.3">
@@ -11696,7 +11696,7 @@
         <v>50</v>
       </c>
       <c r="D400">
-        <v>18675</v>
+        <v>18775</v>
       </c>
     </row>
     <row r="401" spans="1:4" x14ac:dyDescent="0.3">
@@ -11710,7 +11710,7 @@
         <v>50</v>
       </c>
       <c r="D401">
-        <v>18725</v>
+        <v>18825</v>
       </c>
     </row>
     <row r="402" spans="1:4" x14ac:dyDescent="0.3">
@@ -11724,7 +11724,7 @@
         <v>50</v>
       </c>
       <c r="D402">
-        <v>18775</v>
+        <v>18875</v>
       </c>
     </row>
     <row r="403" spans="1:4" x14ac:dyDescent="0.3">
@@ -11738,7 +11738,7 @@
         <v>50</v>
       </c>
       <c r="D403">
-        <v>18825</v>
+        <v>18925</v>
       </c>
     </row>
     <row r="404" spans="1:4" x14ac:dyDescent="0.3">
@@ -11752,7 +11752,7 @@
         <v>50</v>
       </c>
       <c r="D404">
-        <v>18875</v>
+        <v>18975</v>
       </c>
     </row>
     <row r="405" spans="1:4" x14ac:dyDescent="0.3">
@@ -11766,7 +11766,7 @@
         <v>50</v>
       </c>
       <c r="D405">
-        <v>18925</v>
+        <v>19025</v>
       </c>
     </row>
     <row r="406" spans="1:4" x14ac:dyDescent="0.3">
@@ -11780,7 +11780,7 @@
         <v>50</v>
       </c>
       <c r="D406">
-        <v>18975</v>
+        <v>19075</v>
       </c>
     </row>
     <row r="407" spans="1:4" x14ac:dyDescent="0.3">
@@ -11794,7 +11794,7 @@
         <v>50</v>
       </c>
       <c r="D407">
-        <v>19025</v>
+        <v>19125</v>
       </c>
     </row>
     <row r="408" spans="1:4" x14ac:dyDescent="0.3">
@@ -11808,7 +11808,7 @@
         <v>50</v>
       </c>
       <c r="D408">
-        <v>19075</v>
+        <v>19175</v>
       </c>
     </row>
     <row r="409" spans="1:4" x14ac:dyDescent="0.3">
@@ -11822,7 +11822,7 @@
         <v>50</v>
       </c>
       <c r="D409">
-        <v>19125</v>
+        <v>19225</v>
       </c>
     </row>
     <row r="410" spans="1:4" x14ac:dyDescent="0.3">
@@ -11836,7 +11836,7 @@
         <v>50</v>
       </c>
       <c r="D410">
-        <v>19175</v>
+        <v>19275</v>
       </c>
     </row>
     <row r="411" spans="1:4" x14ac:dyDescent="0.3">
@@ -11850,7 +11850,7 @@
         <v>50</v>
       </c>
       <c r="D411">
-        <v>19225</v>
+        <v>19325</v>
       </c>
     </row>
     <row r="412" spans="1:4" x14ac:dyDescent="0.3">
@@ -11864,7 +11864,7 @@
         <v>50</v>
       </c>
       <c r="D412">
-        <v>19275</v>
+        <v>19375</v>
       </c>
     </row>
     <row r="413" spans="1:4" x14ac:dyDescent="0.3">
@@ -11878,7 +11878,7 @@
         <v>50</v>
       </c>
       <c r="D413">
-        <v>19325</v>
+        <v>19425</v>
       </c>
     </row>
     <row r="414" spans="1:4" x14ac:dyDescent="0.3">
@@ -11892,7 +11892,7 @@
         <v>50</v>
       </c>
       <c r="D414">
-        <v>19375</v>
+        <v>19475</v>
       </c>
     </row>
     <row r="415" spans="1:4" x14ac:dyDescent="0.3">
@@ -11906,7 +11906,7 @@
         <v>50</v>
       </c>
       <c r="D415">
-        <v>19425</v>
+        <v>19525</v>
       </c>
     </row>
     <row r="416" spans="1:4" x14ac:dyDescent="0.3">
@@ -11920,7 +11920,7 @@
         <v>50</v>
       </c>
       <c r="D416">
-        <v>19475</v>
+        <v>19575</v>
       </c>
     </row>
     <row r="417" spans="1:4" x14ac:dyDescent="0.3">
@@ -11934,7 +11934,7 @@
         <v>50</v>
       </c>
       <c r="D417">
-        <v>19525</v>
+        <v>19625</v>
       </c>
     </row>
     <row r="418" spans="1:4" x14ac:dyDescent="0.3">
@@ -11948,7 +11948,7 @@
         <v>50</v>
       </c>
       <c r="D418">
-        <v>19575</v>
+        <v>19675</v>
       </c>
     </row>
     <row r="419" spans="1:4" x14ac:dyDescent="0.3">
@@ -11962,7 +11962,7 @@
         <v>50</v>
       </c>
       <c r="D419">
-        <v>19625</v>
+        <v>19725</v>
       </c>
     </row>
     <row r="420" spans="1:4" x14ac:dyDescent="0.3">
@@ -11976,7 +11976,7 @@
         <v>50</v>
       </c>
       <c r="D420">
-        <v>19675</v>
+        <v>19775</v>
       </c>
     </row>
     <row r="421" spans="1:4" x14ac:dyDescent="0.3">
@@ -11990,7 +11990,7 @@
         <v>50</v>
       </c>
       <c r="D421">
-        <v>19725</v>
+        <v>19825</v>
       </c>
     </row>
     <row r="422" spans="1:4" x14ac:dyDescent="0.3">
@@ -12004,7 +12004,7 @@
         <v>50</v>
       </c>
       <c r="D422">
-        <v>19775</v>
+        <v>19875</v>
       </c>
     </row>
     <row r="423" spans="1:4" x14ac:dyDescent="0.3">
@@ -12018,7 +12018,7 @@
         <v>50</v>
       </c>
       <c r="D423">
-        <v>19825</v>
+        <v>19925</v>
       </c>
     </row>
     <row r="424" spans="1:4" x14ac:dyDescent="0.3">
@@ -12032,7 +12032,7 @@
         <v>50</v>
       </c>
       <c r="D424">
-        <v>19875</v>
+        <v>19975</v>
       </c>
     </row>
     <row r="425" spans="1:4" x14ac:dyDescent="0.3">
@@ -12046,7 +12046,7 @@
         <v>50</v>
       </c>
       <c r="D425">
-        <v>19925</v>
+        <v>20025</v>
       </c>
     </row>
     <row r="426" spans="1:4" x14ac:dyDescent="0.3">
@@ -12060,7 +12060,7 @@
         <v>50</v>
       </c>
       <c r="D426">
-        <v>19975</v>
+        <v>20075</v>
       </c>
     </row>
     <row r="427" spans="1:4" x14ac:dyDescent="0.3">
@@ -12074,7 +12074,7 @@
         <v>50</v>
       </c>
       <c r="D427">
-        <v>20025</v>
+        <v>20125</v>
       </c>
     </row>
     <row r="428" spans="1:4" x14ac:dyDescent="0.3">
@@ -12088,7 +12088,7 @@
         <v>50</v>
       </c>
       <c r="D428">
-        <v>20075</v>
+        <v>20175</v>
       </c>
     </row>
     <row r="429" spans="1:4" x14ac:dyDescent="0.3">
@@ -12102,7 +12102,7 @@
         <v>50</v>
       </c>
       <c r="D429">
-        <v>20125</v>
+        <v>20225</v>
       </c>
     </row>
     <row r="430" spans="1:4" x14ac:dyDescent="0.3">
@@ -12116,7 +12116,7 @@
         <v>50</v>
       </c>
       <c r="D430">
-        <v>20175</v>
+        <v>20275</v>
       </c>
     </row>
     <row r="431" spans="1:4" x14ac:dyDescent="0.3">
@@ -12130,7 +12130,7 @@
         <v>50</v>
       </c>
       <c r="D431">
-        <v>20225</v>
+        <v>20325</v>
       </c>
     </row>
     <row r="432" spans="1:4" x14ac:dyDescent="0.3">
@@ -12144,7 +12144,7 @@
         <v>50</v>
       </c>
       <c r="D432">
-        <v>20275</v>
+        <v>20375</v>
       </c>
     </row>
     <row r="433" spans="1:4" x14ac:dyDescent="0.3">
@@ -12158,7 +12158,7 @@
         <v>50</v>
       </c>
       <c r="D433">
-        <v>20325</v>
+        <v>20425</v>
       </c>
     </row>
     <row r="434" spans="1:4" x14ac:dyDescent="0.3">
@@ -12172,7 +12172,7 @@
         <v>50</v>
       </c>
       <c r="D434">
-        <v>20375</v>
+        <v>20475</v>
       </c>
     </row>
     <row r="435" spans="1:4" x14ac:dyDescent="0.3">
@@ -12186,7 +12186,7 @@
         <v>50</v>
       </c>
       <c r="D435">
-        <v>20425</v>
+        <v>20525</v>
       </c>
     </row>
     <row r="436" spans="1:4" x14ac:dyDescent="0.3">
@@ -12200,7 +12200,7 @@
         <v>50</v>
       </c>
       <c r="D436">
-        <v>20475</v>
+        <v>20575</v>
       </c>
     </row>
     <row r="437" spans="1:4" x14ac:dyDescent="0.3">
@@ -12214,7 +12214,7 @@
         <v>50</v>
       </c>
       <c r="D437">
-        <v>20525</v>
+        <v>20625</v>
       </c>
     </row>
     <row r="438" spans="1:4" x14ac:dyDescent="0.3">
@@ -12228,7 +12228,7 @@
         <v>50</v>
       </c>
       <c r="D438">
-        <v>20575</v>
+        <v>20675</v>
       </c>
     </row>
     <row r="439" spans="1:4" x14ac:dyDescent="0.3">
@@ -12242,7 +12242,7 @@
         <v>50</v>
       </c>
       <c r="D439">
-        <v>20625</v>
+        <v>20725</v>
       </c>
     </row>
     <row r="440" spans="1:4" x14ac:dyDescent="0.3">
@@ -12256,7 +12256,7 @@
         <v>50</v>
       </c>
       <c r="D440">
-        <v>20675</v>
+        <v>20775</v>
       </c>
     </row>
     <row r="441" spans="1:4" x14ac:dyDescent="0.3">
@@ -12270,7 +12270,7 @@
         <v>50</v>
       </c>
       <c r="D441">
-        <v>20725</v>
+        <v>20825</v>
       </c>
     </row>
     <row r="442" spans="1:4" x14ac:dyDescent="0.3">
@@ -12284,7 +12284,7 @@
         <v>50</v>
       </c>
       <c r="D442">
-        <v>20775</v>
+        <v>20875</v>
       </c>
     </row>
     <row r="443" spans="1:4" x14ac:dyDescent="0.3">
@@ -12298,7 +12298,7 @@
         <v>50</v>
       </c>
       <c r="D443">
-        <v>20825</v>
+        <v>20925</v>
       </c>
     </row>
     <row r="444" spans="1:4" x14ac:dyDescent="0.3">
@@ -12312,7 +12312,7 @@
         <v>50</v>
       </c>
       <c r="D444">
-        <v>20875</v>
+        <v>20975</v>
       </c>
     </row>
     <row r="445" spans="1:4" x14ac:dyDescent="0.3">
@@ -12326,7 +12326,7 @@
         <v>50</v>
       </c>
       <c r="D445">
-        <v>20925</v>
+        <v>21025</v>
       </c>
     </row>
     <row r="446" spans="1:4" x14ac:dyDescent="0.3">
@@ -12340,7 +12340,7 @@
         <v>50</v>
       </c>
       <c r="D446">
-        <v>20975</v>
+        <v>21075</v>
       </c>
     </row>
     <row r="447" spans="1:4" x14ac:dyDescent="0.3">
@@ -12354,7 +12354,7 @@
         <v>50</v>
       </c>
       <c r="D447">
-        <v>21025</v>
+        <v>21125</v>
       </c>
     </row>
     <row r="448" spans="1:4" x14ac:dyDescent="0.3">
@@ -12368,7 +12368,7 @@
         <v>50</v>
       </c>
       <c r="D448">
-        <v>21075</v>
+        <v>21175</v>
       </c>
     </row>
     <row r="449" spans="1:4" x14ac:dyDescent="0.3">
@@ -12382,7 +12382,7 @@
         <v>50</v>
       </c>
       <c r="D449">
-        <v>21125</v>
+        <v>21225</v>
       </c>
     </row>
     <row r="450" spans="1:4" x14ac:dyDescent="0.3">
@@ -12396,7 +12396,7 @@
         <v>50</v>
       </c>
       <c r="D450">
-        <v>21175</v>
+        <v>21275</v>
       </c>
     </row>
     <row r="451" spans="1:4" x14ac:dyDescent="0.3">
@@ -12410,7 +12410,7 @@
         <v>50</v>
       </c>
       <c r="D451">
-        <v>21225</v>
+        <v>21325</v>
       </c>
     </row>
     <row r="452" spans="1:4" x14ac:dyDescent="0.3">
@@ -12424,7 +12424,7 @@
         <v>50</v>
       </c>
       <c r="D452">
-        <v>21275</v>
+        <v>21375</v>
       </c>
     </row>
     <row r="453" spans="1:4" x14ac:dyDescent="0.3">
@@ -12438,7 +12438,7 @@
         <v>50</v>
       </c>
       <c r="D453">
-        <v>21325</v>
+        <v>21425</v>
       </c>
     </row>
     <row r="454" spans="1:4" x14ac:dyDescent="0.3">
@@ -12452,7 +12452,7 @@
         <v>50</v>
       </c>
       <c r="D454">
-        <v>21375</v>
+        <v>21475</v>
       </c>
     </row>
     <row r="455" spans="1:4" x14ac:dyDescent="0.3">
@@ -12466,7 +12466,7 @@
         <v>50</v>
       </c>
       <c r="D455">
-        <v>21425</v>
+        <v>21525</v>
       </c>
     </row>
     <row r="456" spans="1:4" x14ac:dyDescent="0.3">
@@ -12480,7 +12480,7 @@
         <v>50</v>
       </c>
       <c r="D456">
-        <v>21475</v>
+        <v>21575</v>
       </c>
     </row>
     <row r="457" spans="1:4" x14ac:dyDescent="0.3">
@@ -12494,7 +12494,7 @@
         <v>50</v>
       </c>
       <c r="D457">
-        <v>21525</v>
+        <v>21625</v>
       </c>
     </row>
     <row r="458" spans="1:4" x14ac:dyDescent="0.3">
@@ -12508,7 +12508,7 @@
         <v>50</v>
       </c>
       <c r="D458">
-        <v>21575</v>
+        <v>21675</v>
       </c>
     </row>
     <row r="459" spans="1:4" x14ac:dyDescent="0.3">
@@ -12522,7 +12522,7 @@
         <v>50</v>
       </c>
       <c r="D459">
-        <v>21625</v>
+        <v>21725</v>
       </c>
     </row>
     <row r="460" spans="1:4" x14ac:dyDescent="0.3">
@@ -12536,7 +12536,7 @@
         <v>50</v>
       </c>
       <c r="D460">
-        <v>21675</v>
+        <v>21775</v>
       </c>
     </row>
     <row r="461" spans="1:4" x14ac:dyDescent="0.3">
@@ -12550,7 +12550,7 @@
         <v>50</v>
       </c>
       <c r="D461">
-        <v>21725</v>
+        <v>21825</v>
       </c>
     </row>
     <row r="462" spans="1:4" x14ac:dyDescent="0.3">
@@ -12564,7 +12564,7 @@
         <v>50</v>
       </c>
       <c r="D462">
-        <v>21775</v>
+        <v>21875</v>
       </c>
     </row>
     <row r="463" spans="1:4" x14ac:dyDescent="0.3">
@@ -12578,7 +12578,7 @@
         <v>50</v>
       </c>
       <c r="D463">
-        <v>21825</v>
+        <v>21925</v>
       </c>
     </row>
     <row r="464" spans="1:4" x14ac:dyDescent="0.3">
@@ -12592,7 +12592,7 @@
         <v>50</v>
       </c>
       <c r="D464">
-        <v>21875</v>
+        <v>21975</v>
       </c>
     </row>
     <row r="465" spans="1:4" x14ac:dyDescent="0.3">
@@ -12606,7 +12606,7 @@
         <v>50</v>
       </c>
       <c r="D465">
-        <v>21925</v>
+        <v>22025</v>
       </c>
     </row>
     <row r="466" spans="1:4" x14ac:dyDescent="0.3">
@@ -12620,7 +12620,7 @@
         <v>50</v>
       </c>
       <c r="D466">
-        <v>21975</v>
+        <v>22075</v>
       </c>
     </row>
     <row r="467" spans="1:4" x14ac:dyDescent="0.3">
@@ -12634,7 +12634,7 @@
         <v>50</v>
       </c>
       <c r="D467">
-        <v>22025</v>
+        <v>22125</v>
       </c>
     </row>
     <row r="468" spans="1:4" x14ac:dyDescent="0.3">
@@ -12648,7 +12648,7 @@
         <v>50</v>
       </c>
       <c r="D468">
-        <v>22075</v>
+        <v>22175</v>
       </c>
     </row>
     <row r="469" spans="1:4" x14ac:dyDescent="0.3">
@@ -12662,7 +12662,7 @@
         <v>50</v>
       </c>
       <c r="D469">
-        <v>22125</v>
+        <v>22225</v>
       </c>
     </row>
     <row r="470" spans="1:4" x14ac:dyDescent="0.3">
@@ -12676,7 +12676,7 @@
         <v>50</v>
       </c>
       <c r="D470">
-        <v>22175</v>
+        <v>22275</v>
       </c>
     </row>
     <row r="471" spans="1:4" x14ac:dyDescent="0.3">
@@ -12690,7 +12690,7 @@
         <v>50</v>
       </c>
       <c r="D471">
-        <v>22225</v>
+        <v>22325</v>
       </c>
     </row>
     <row r="472" spans="1:4" x14ac:dyDescent="0.3">
@@ -12704,7 +12704,7 @@
         <v>50</v>
       </c>
       <c r="D472">
-        <v>22275</v>
+        <v>22375</v>
       </c>
     </row>
     <row r="473" spans="1:4" x14ac:dyDescent="0.3">
@@ -12718,7 +12718,7 @@
         <v>50</v>
       </c>
       <c r="D473">
-        <v>22325</v>
+        <v>22425</v>
       </c>
     </row>
     <row r="474" spans="1:4" x14ac:dyDescent="0.3">
@@ -12732,7 +12732,7 @@
         <v>50</v>
       </c>
       <c r="D474">
-        <v>22375</v>
+        <v>22475</v>
       </c>
     </row>
     <row r="475" spans="1:4" x14ac:dyDescent="0.3">
@@ -12746,7 +12746,7 @@
         <v>50</v>
       </c>
       <c r="D475">
-        <v>22425</v>
+        <v>22525</v>
       </c>
     </row>
     <row r="476" spans="1:4" x14ac:dyDescent="0.3">
@@ -12760,7 +12760,7 @@
         <v>50</v>
       </c>
       <c r="D476">
-        <v>22475</v>
+        <v>22575</v>
       </c>
     </row>
     <row r="477" spans="1:4" x14ac:dyDescent="0.3">
@@ -12774,7 +12774,7 @@
         <v>50</v>
       </c>
       <c r="D477">
-        <v>22525</v>
+        <v>22625</v>
       </c>
     </row>
     <row r="478" spans="1:4" x14ac:dyDescent="0.3">
@@ -12788,7 +12788,7 @@
         <v>50</v>
       </c>
       <c r="D478">
-        <v>22575</v>
+        <v>22675</v>
       </c>
     </row>
     <row r="479" spans="1:4" x14ac:dyDescent="0.3">
@@ -12802,7 +12802,7 @@
         <v>50</v>
       </c>
       <c r="D479">
-        <v>22625</v>
+        <v>22725</v>
       </c>
     </row>
     <row r="480" spans="1:4" x14ac:dyDescent="0.3">
@@ -12816,7 +12816,7 @@
         <v>50</v>
       </c>
       <c r="D480">
-        <v>22675</v>
+        <v>22775</v>
       </c>
     </row>
     <row r="481" spans="1:4" x14ac:dyDescent="0.3">
@@ -12830,7 +12830,7 @@
         <v>50</v>
       </c>
       <c r="D481">
-        <v>22725</v>
+        <v>22825</v>
       </c>
     </row>
     <row r="482" spans="1:4" x14ac:dyDescent="0.3">
@@ -12844,7 +12844,7 @@
         <v>50</v>
       </c>
       <c r="D482">
-        <v>22775</v>
+        <v>22875</v>
       </c>
     </row>
     <row r="483" spans="1:4" x14ac:dyDescent="0.3">
@@ -12858,7 +12858,7 @@
         <v>50</v>
       </c>
       <c r="D483">
-        <v>22825</v>
+        <v>22925</v>
       </c>
     </row>
     <row r="484" spans="1:4" x14ac:dyDescent="0.3">
@@ -12872,7 +12872,7 @@
         <v>50</v>
       </c>
       <c r="D484">
-        <v>22875</v>
+        <v>22975</v>
       </c>
     </row>
     <row r="485" spans="1:4" x14ac:dyDescent="0.3">
@@ -12886,7 +12886,7 @@
         <v>50</v>
       </c>
       <c r="D485">
-        <v>22925</v>
+        <v>23025</v>
       </c>
     </row>
     <row r="486" spans="1:4" x14ac:dyDescent="0.3">
@@ -12900,7 +12900,7 @@
         <v>50</v>
       </c>
       <c r="D486">
-        <v>22975</v>
+        <v>23075</v>
       </c>
     </row>
     <row r="487" spans="1:4" x14ac:dyDescent="0.3">
@@ -12914,7 +12914,7 @@
         <v>50</v>
       </c>
       <c r="D487">
-        <v>23025</v>
+        <v>23125</v>
       </c>
     </row>
     <row r="488" spans="1:4" x14ac:dyDescent="0.3">
@@ -12928,7 +12928,7 @@
         <v>50</v>
       </c>
       <c r="D488">
-        <v>23075</v>
+        <v>23175</v>
       </c>
     </row>
     <row r="489" spans="1:4" x14ac:dyDescent="0.3">
@@ -12942,7 +12942,7 @@
         <v>50</v>
       </c>
       <c r="D489">
-        <v>23125</v>
+        <v>23225</v>
       </c>
     </row>
     <row r="490" spans="1:4" x14ac:dyDescent="0.3">
@@ -12956,7 +12956,7 @@
         <v>50</v>
       </c>
       <c r="D490">
-        <v>23175</v>
+        <v>23275</v>
       </c>
     </row>
     <row r="491" spans="1:4" x14ac:dyDescent="0.3">
@@ -12970,7 +12970,7 @@
         <v>50</v>
       </c>
       <c r="D491">
-        <v>23225</v>
+        <v>23325</v>
       </c>
     </row>
     <row r="492" spans="1:4" x14ac:dyDescent="0.3">
@@ -12984,7 +12984,7 @@
         <v>50</v>
       </c>
       <c r="D492">
-        <v>23275</v>
+        <v>23375</v>
       </c>
     </row>
     <row r="493" spans="1:4" x14ac:dyDescent="0.3">
@@ -12998,7 +12998,7 @@
         <v>50</v>
       </c>
       <c r="D493">
-        <v>23325</v>
+        <v>23425</v>
       </c>
     </row>
     <row r="494" spans="1:4" x14ac:dyDescent="0.3">
@@ -13012,7 +13012,7 @@
         <v>50</v>
       </c>
       <c r="D494">
-        <v>23375</v>
+        <v>23475</v>
       </c>
     </row>
     <row r="495" spans="1:4" x14ac:dyDescent="0.3">
@@ -13026,7 +13026,7 @@
         <v>50</v>
       </c>
       <c r="D495">
-        <v>23425</v>
+        <v>23525</v>
       </c>
     </row>
     <row r="496" spans="1:4" x14ac:dyDescent="0.3">
@@ -13040,7 +13040,7 @@
         <v>50</v>
       </c>
       <c r="D496">
-        <v>23475</v>
+        <v>23575</v>
       </c>
     </row>
     <row r="497" spans="1:4" x14ac:dyDescent="0.3">
@@ -13054,7 +13054,7 @@
         <v>50</v>
       </c>
       <c r="D497">
-        <v>23525</v>
+        <v>23625</v>
       </c>
     </row>
     <row r="498" spans="1:4" x14ac:dyDescent="0.3">
@@ -13068,7 +13068,7 @@
         <v>50</v>
       </c>
       <c r="D498">
-        <v>23575</v>
+        <v>23675</v>
       </c>
     </row>
     <row r="499" spans="1:4" x14ac:dyDescent="0.3">
@@ -13082,7 +13082,7 @@
         <v>50</v>
       </c>
       <c r="D499">
-        <v>23625</v>
+        <v>23725</v>
       </c>
     </row>
     <row r="500" spans="1:4" x14ac:dyDescent="0.3">
@@ -13096,7 +13096,7 @@
         <v>50</v>
       </c>
       <c r="D500">
-        <v>23675</v>
+        <v>23775</v>
       </c>
     </row>
     <row r="501" spans="1:4" x14ac:dyDescent="0.3">
@@ -13110,7 +13110,7 @@
         <v>50</v>
       </c>
       <c r="D501">
-        <v>23725</v>
+        <v>23825</v>
       </c>
     </row>
     <row r="502" spans="1:4" x14ac:dyDescent="0.3">
@@ -13124,7 +13124,7 @@
         <v>50</v>
       </c>
       <c r="D502">
-        <v>23775</v>
+        <v>23875</v>
       </c>
     </row>
     <row r="503" spans="1:4" x14ac:dyDescent="0.3">
@@ -13138,7 +13138,7 @@
         <v>50</v>
       </c>
       <c r="D503">
-        <v>23825</v>
+        <v>23925</v>
       </c>
     </row>
     <row r="504" spans="1:4" x14ac:dyDescent="0.3">
@@ -13152,7 +13152,7 @@
         <v>50</v>
       </c>
       <c r="D504">
-        <v>23875</v>
+        <v>23975</v>
       </c>
     </row>
     <row r="505" spans="1:4" x14ac:dyDescent="0.3">
@@ -13166,7 +13166,7 @@
         <v>50</v>
       </c>
       <c r="D505">
-        <v>23925</v>
+        <v>24025</v>
       </c>
     </row>
     <row r="506" spans="1:4" x14ac:dyDescent="0.3">
@@ -13180,7 +13180,7 @@
         <v>50</v>
       </c>
       <c r="D506">
-        <v>23975</v>
+        <v>24075</v>
       </c>
     </row>
     <row r="507" spans="1:4" x14ac:dyDescent="0.3">
@@ -13194,7 +13194,7 @@
         <v>50</v>
       </c>
       <c r="D507">
-        <v>24025</v>
+        <v>24125</v>
       </c>
     </row>
     <row r="508" spans="1:4" x14ac:dyDescent="0.3">
@@ -13208,7 +13208,7 @@
         <v>50</v>
       </c>
       <c r="D508">
-        <v>24075</v>
+        <v>24175</v>
       </c>
     </row>
     <row r="509" spans="1:4" x14ac:dyDescent="0.3">
@@ -13222,7 +13222,7 @@
         <v>50</v>
       </c>
       <c r="D509">
-        <v>24125</v>
+        <v>24225</v>
       </c>
     </row>
     <row r="510" spans="1:4" x14ac:dyDescent="0.3">
@@ -13236,7 +13236,7 @@
         <v>50</v>
       </c>
       <c r="D510">
-        <v>24175</v>
+        <v>24275</v>
       </c>
     </row>
     <row r="511" spans="1:4" x14ac:dyDescent="0.3">
@@ -13250,7 +13250,7 @@
         <v>50</v>
       </c>
       <c r="D511">
-        <v>24225</v>
+        <v>24325</v>
       </c>
     </row>
     <row r="512" spans="1:4" x14ac:dyDescent="0.3">
@@ -13264,7 +13264,7 @@
         <v>50</v>
       </c>
       <c r="D512">
-        <v>24275</v>
+        <v>24375</v>
       </c>
     </row>
     <row r="513" spans="1:4" x14ac:dyDescent="0.3">
@@ -13278,7 +13278,7 @@
         <v>50</v>
       </c>
       <c r="D513">
-        <v>24325</v>
+        <v>24425</v>
       </c>
     </row>
     <row r="514" spans="1:4" x14ac:dyDescent="0.3">
@@ -13292,7 +13292,7 @@
         <v>50</v>
       </c>
       <c r="D514">
-        <v>24375</v>
+        <v>24475</v>
       </c>
     </row>
     <row r="515" spans="1:4" x14ac:dyDescent="0.3">
@@ -13306,7 +13306,7 @@
         <v>50</v>
       </c>
       <c r="D515">
-        <v>24425</v>
+        <v>24525</v>
       </c>
     </row>
     <row r="516" spans="1:4" x14ac:dyDescent="0.3">
@@ -13320,7 +13320,7 @@
         <v>50</v>
       </c>
       <c r="D516">
-        <v>24475</v>
+        <v>24575</v>
       </c>
     </row>
     <row r="517" spans="1:4" x14ac:dyDescent="0.3">
@@ -13334,7 +13334,7 @@
         <v>50</v>
       </c>
       <c r="D517">
-        <v>24525</v>
+        <v>24625</v>
       </c>
     </row>
     <row r="518" spans="1:4" x14ac:dyDescent="0.3">
@@ -13348,7 +13348,7 @@
         <v>50</v>
       </c>
       <c r="D518">
-        <v>24575</v>
+        <v>24675</v>
       </c>
     </row>
     <row r="519" spans="1:4" x14ac:dyDescent="0.3">
@@ -13362,7 +13362,7 @@
         <v>50</v>
       </c>
       <c r="D519">
-        <v>24625</v>
+        <v>24725</v>
       </c>
     </row>
     <row r="520" spans="1:4" x14ac:dyDescent="0.3">
@@ -13376,7 +13376,7 @@
         <v>50</v>
       </c>
       <c r="D520">
-        <v>24675</v>
+        <v>24775</v>
       </c>
     </row>
     <row r="521" spans="1:4" x14ac:dyDescent="0.3">
@@ -13390,7 +13390,7 @@
         <v>50</v>
       </c>
       <c r="D521">
-        <v>24725</v>
+        <v>24825</v>
       </c>
     </row>
     <row r="522" spans="1:4" x14ac:dyDescent="0.3">
@@ -13404,7 +13404,7 @@
         <v>50</v>
       </c>
       <c r="D522">
-        <v>24775</v>
+        <v>24875</v>
       </c>
     </row>
     <row r="523" spans="1:4" x14ac:dyDescent="0.3">
@@ -13418,7 +13418,7 @@
         <v>50</v>
       </c>
       <c r="D523">
-        <v>24825</v>
+        <v>24925</v>
       </c>
     </row>
     <row r="524" spans="1:4" x14ac:dyDescent="0.3">
@@ -13432,7 +13432,7 @@
         <v>50</v>
       </c>
       <c r="D524">
-        <v>24875</v>
+        <v>24975</v>
       </c>
     </row>
     <row r="525" spans="1:4" x14ac:dyDescent="0.3">
@@ -13446,7 +13446,7 @@
         <v>50</v>
       </c>
       <c r="D525">
-        <v>24925</v>
+        <v>25025</v>
       </c>
     </row>
     <row r="526" spans="1:4" x14ac:dyDescent="0.3">
@@ -13460,7 +13460,7 @@
         <v>50</v>
       </c>
       <c r="D526">
-        <v>24975</v>
+        <v>25075</v>
       </c>
     </row>
     <row r="527" spans="1:4" x14ac:dyDescent="0.3">
@@ -13474,7 +13474,7 @@
         <v>50</v>
       </c>
       <c r="D527">
-        <v>25025</v>
+        <v>25125</v>
       </c>
     </row>
     <row r="528" spans="1:4" x14ac:dyDescent="0.3">
@@ -13488,7 +13488,7 @@
         <v>50</v>
       </c>
       <c r="D528">
-        <v>25075</v>
+        <v>25175</v>
       </c>
     </row>
     <row r="529" spans="1:4" x14ac:dyDescent="0.3">
@@ -13502,7 +13502,7 @@
         <v>50</v>
       </c>
       <c r="D529">
-        <v>25125</v>
+        <v>25225</v>
       </c>
     </row>
     <row r="530" spans="1:4" x14ac:dyDescent="0.3">
@@ -13516,7 +13516,7 @@
         <v>50</v>
       </c>
       <c r="D530">
-        <v>25175</v>
+        <v>25275</v>
       </c>
     </row>
     <row r="531" spans="1:4" x14ac:dyDescent="0.3">
@@ -13530,7 +13530,7 @@
         <v>50</v>
       </c>
       <c r="D531">
-        <v>25225</v>
+        <v>25325</v>
       </c>
     </row>
     <row r="532" spans="1:4" x14ac:dyDescent="0.3">
@@ -13544,7 +13544,7 @@
         <v>50</v>
       </c>
       <c r="D532">
-        <v>25275</v>
+        <v>25375</v>
       </c>
     </row>
     <row r="533" spans="1:4" x14ac:dyDescent="0.3">
@@ -13558,7 +13558,7 @@
         <v>50</v>
       </c>
       <c r="D533">
-        <v>25325</v>
+        <v>25425</v>
       </c>
     </row>
     <row r="534" spans="1:4" x14ac:dyDescent="0.3">
@@ -13572,7 +13572,7 @@
         <v>50</v>
       </c>
       <c r="D534">
-        <v>25375</v>
+        <v>25475</v>
       </c>
     </row>
     <row r="535" spans="1:4" x14ac:dyDescent="0.3">
@@ -13586,7 +13586,7 @@
         <v>50</v>
       </c>
       <c r="D535">
-        <v>25425</v>
+        <v>25525</v>
       </c>
     </row>
     <row r="536" spans="1:4" x14ac:dyDescent="0.3">
@@ -13600,7 +13600,7 @@
         <v>50</v>
       </c>
       <c r="D536">
-        <v>25475</v>
+        <v>25575</v>
       </c>
     </row>
     <row r="537" spans="1:4" x14ac:dyDescent="0.3">
@@ -13614,7 +13614,7 @@
         <v>50</v>
       </c>
       <c r="D537">
-        <v>25525</v>
+        <v>25625</v>
       </c>
     </row>
     <row r="538" spans="1:4" x14ac:dyDescent="0.3">
@@ -13628,7 +13628,7 @@
         <v>50</v>
       </c>
       <c r="D538">
-        <v>25575</v>
+        <v>25675</v>
       </c>
     </row>
     <row r="539" spans="1:4" x14ac:dyDescent="0.3">
@@ -13642,7 +13642,7 @@
         <v>50</v>
       </c>
       <c r="D539">
-        <v>25625</v>
+        <v>25725</v>
       </c>
     </row>
     <row r="540" spans="1:4" x14ac:dyDescent="0.3">
@@ -13656,7 +13656,7 @@
         <v>50</v>
       </c>
       <c r="D540">
-        <v>25675</v>
+        <v>25775</v>
       </c>
     </row>
     <row r="541" spans="1:4" x14ac:dyDescent="0.3">
@@ -13670,7 +13670,7 @@
         <v>50</v>
       </c>
       <c r="D541">
-        <v>25725</v>
+        <v>25825</v>
       </c>
     </row>
     <row r="542" spans="1:4" x14ac:dyDescent="0.3">
@@ -13684,7 +13684,7 @@
         <v>50</v>
       </c>
       <c r="D542">
-        <v>25775</v>
+        <v>25875</v>
       </c>
     </row>
     <row r="543" spans="1:4" x14ac:dyDescent="0.3">
@@ -13698,7 +13698,7 @@
         <v>50</v>
       </c>
       <c r="D543">
-        <v>25825</v>
+        <v>25925</v>
       </c>
     </row>
     <row r="544" spans="1:4" x14ac:dyDescent="0.3">
@@ -13712,7 +13712,7 @@
         <v>50</v>
       </c>
       <c r="D544">
-        <v>25875</v>
+        <v>25975</v>
       </c>
     </row>
     <row r="545" spans="1:4" x14ac:dyDescent="0.3">
@@ -13726,7 +13726,7 @@
         <v>50</v>
       </c>
       <c r="D545">
-        <v>25925</v>
+        <v>26025</v>
       </c>
     </row>
     <row r="546" spans="1:4" x14ac:dyDescent="0.3">
@@ -13740,7 +13740,7 @@
         <v>50</v>
       </c>
       <c r="D546">
-        <v>25975</v>
+        <v>26075</v>
       </c>
     </row>
     <row r="547" spans="1:4" x14ac:dyDescent="0.3">
@@ -13754,7 +13754,7 @@
         <v>50</v>
       </c>
       <c r="D547">
-        <v>26025</v>
+        <v>26125</v>
       </c>
     </row>
     <row r="548" spans="1:4" x14ac:dyDescent="0.3">
@@ -13768,7 +13768,7 @@
         <v>50</v>
       </c>
       <c r="D548">
-        <v>26075</v>
+        <v>26175</v>
       </c>
     </row>
     <row r="549" spans="1:4" x14ac:dyDescent="0.3">
@@ -13782,7 +13782,7 @@
         <v>50</v>
       </c>
       <c r="D549">
-        <v>26125</v>
+        <v>26225</v>
       </c>
     </row>
     <row r="550" spans="1:4" x14ac:dyDescent="0.3">
@@ -13796,7 +13796,7 @@
         <v>50</v>
       </c>
       <c r="D550">
-        <v>26175</v>
+        <v>26275</v>
       </c>
     </row>
     <row r="551" spans="1:4" x14ac:dyDescent="0.3">
@@ -13810,7 +13810,7 @@
         <v>50</v>
       </c>
       <c r="D551">
-        <v>26225</v>
+        <v>26325</v>
       </c>
     </row>
     <row r="552" spans="1:4" x14ac:dyDescent="0.3">
@@ -13824,7 +13824,7 @@
         <v>50</v>
       </c>
       <c r="D552">
-        <v>26275</v>
+        <v>26375</v>
       </c>
     </row>
     <row r="553" spans="1:4" x14ac:dyDescent="0.3">
@@ -13838,7 +13838,7 @@
         <v>50</v>
       </c>
       <c r="D553">
-        <v>26325</v>
+        <v>26425</v>
       </c>
     </row>
     <row r="554" spans="1:4" x14ac:dyDescent="0.3">
@@ -13852,7 +13852,7 @@
         <v>50</v>
       </c>
       <c r="D554">
-        <v>26375</v>
+        <v>26475</v>
       </c>
     </row>
     <row r="555" spans="1:4" x14ac:dyDescent="0.3">
@@ -13866,7 +13866,7 @@
         <v>50</v>
       </c>
       <c r="D555">
-        <v>26425</v>
+        <v>26525</v>
       </c>
     </row>
     <row r="556" spans="1:4" x14ac:dyDescent="0.3">
@@ -13880,7 +13880,7 @@
         <v>50</v>
       </c>
       <c r="D556">
-        <v>26475</v>
+        <v>26575</v>
       </c>
     </row>
     <row r="557" spans="1:4" x14ac:dyDescent="0.3">
@@ -13894,7 +13894,7 @@
         <v>50</v>
       </c>
       <c r="D557">
-        <v>26525</v>
+        <v>26625</v>
       </c>
     </row>
     <row r="558" spans="1:4" x14ac:dyDescent="0.3">
@@ -13908,7 +13908,7 @@
         <v>50</v>
       </c>
       <c r="D558">
-        <v>26575</v>
+        <v>26675</v>
       </c>
     </row>
     <row r="559" spans="1:4" x14ac:dyDescent="0.3">
@@ -13922,7 +13922,7 @@
         <v>50</v>
       </c>
       <c r="D559">
-        <v>26625</v>
+        <v>26725</v>
       </c>
     </row>
     <row r="560" spans="1:4" x14ac:dyDescent="0.3">
@@ -13936,7 +13936,7 @@
         <v>50</v>
       </c>
       <c r="D560">
-        <v>26675</v>
+        <v>26775</v>
       </c>
     </row>
     <row r="561" spans="1:4" x14ac:dyDescent="0.3">
@@ -13950,7 +13950,7 @@
         <v>50</v>
       </c>
       <c r="D561">
-        <v>26725</v>
+        <v>26825</v>
       </c>
     </row>
     <row r="562" spans="1:4" x14ac:dyDescent="0.3">
@@ -13964,7 +13964,7 @@
         <v>50</v>
       </c>
       <c r="D562">
-        <v>26775</v>
+        <v>26875</v>
       </c>
     </row>
     <row r="563" spans="1:4" x14ac:dyDescent="0.3">
@@ -13978,7 +13978,7 @@
         <v>50</v>
       </c>
       <c r="D563">
-        <v>26825</v>
+        <v>26925</v>
       </c>
     </row>
     <row r="564" spans="1:4" x14ac:dyDescent="0.3">
@@ -13992,7 +13992,7 @@
         <v>50</v>
       </c>
       <c r="D564">
-        <v>26875</v>
+        <v>26975</v>
       </c>
     </row>
     <row r="565" spans="1:4" x14ac:dyDescent="0.3">
@@ -14006,7 +14006,7 @@
         <v>50</v>
       </c>
       <c r="D565">
-        <v>26925</v>
+        <v>27025</v>
       </c>
     </row>
     <row r="566" spans="1:4" x14ac:dyDescent="0.3">
@@ -14020,7 +14020,7 @@
         <v>50</v>
       </c>
       <c r="D566">
-        <v>26975</v>
+        <v>27075</v>
       </c>
     </row>
     <row r="567" spans="1:4" x14ac:dyDescent="0.3">
@@ -14034,7 +14034,7 @@
         <v>50</v>
       </c>
       <c r="D567">
-        <v>27025</v>
+        <v>27125</v>
       </c>
     </row>
     <row r="568" spans="1:4" x14ac:dyDescent="0.3">
@@ -14048,7 +14048,7 @@
         <v>50</v>
       </c>
       <c r="D568">
-        <v>27075</v>
+        <v>27175</v>
       </c>
     </row>
     <row r="569" spans="1:4" x14ac:dyDescent="0.3">
@@ -14062,7 +14062,7 @@
         <v>50</v>
       </c>
       <c r="D569">
-        <v>27125</v>
+        <v>27225</v>
       </c>
     </row>
     <row r="570" spans="1:4" x14ac:dyDescent="0.3">
@@ -14076,7 +14076,7 @@
         <v>50</v>
       </c>
       <c r="D570">
-        <v>27175</v>
+        <v>27275</v>
       </c>
     </row>
     <row r="571" spans="1:4" x14ac:dyDescent="0.3">
@@ -14090,7 +14090,7 @@
         <v>50</v>
       </c>
       <c r="D571">
-        <v>27225</v>
+        <v>27325</v>
       </c>
     </row>
     <row r="572" spans="1:4" x14ac:dyDescent="0.3">
@@ -14104,7 +14104,7 @@
         <v>50</v>
       </c>
       <c r="D572">
-        <v>27275</v>
+        <v>27375</v>
       </c>
     </row>
     <row r="573" spans="1:4" x14ac:dyDescent="0.3">
@@ -14118,7 +14118,7 @@
         <v>50</v>
       </c>
       <c r="D573">
-        <v>27325</v>
+        <v>27425</v>
       </c>
     </row>
     <row r="574" spans="1:4" x14ac:dyDescent="0.3">
@@ -14132,7 +14132,7 @@
         <v>50</v>
       </c>
       <c r="D574">
-        <v>27375</v>
+        <v>27475</v>
       </c>
     </row>
     <row r="575" spans="1:4" x14ac:dyDescent="0.3">
@@ -14146,7 +14146,7 @@
         <v>50</v>
       </c>
       <c r="D575">
-        <v>27425</v>
+        <v>27525</v>
       </c>
     </row>
     <row r="576" spans="1:4" x14ac:dyDescent="0.3">
@@ -14160,7 +14160,7 @@
         <v>50</v>
       </c>
       <c r="D576">
-        <v>27475</v>
+        <v>27575</v>
       </c>
     </row>
     <row r="577" spans="1:4" x14ac:dyDescent="0.3">
@@ -14174,7 +14174,7 @@
         <v>50</v>
       </c>
       <c r="D577">
-        <v>27525</v>
+        <v>27625</v>
       </c>
     </row>
     <row r="578" spans="1:4" x14ac:dyDescent="0.3">
@@ -14188,7 +14188,7 @@
         <v>50</v>
       </c>
       <c r="D578">
-        <v>27575</v>
+        <v>27675</v>
       </c>
     </row>
     <row r="579" spans="1:4" x14ac:dyDescent="0.3">
@@ -14202,7 +14202,7 @@
         <v>50</v>
       </c>
       <c r="D579">
-        <v>27625</v>
+        <v>27725</v>
       </c>
     </row>
     <row r="580" spans="1:4" x14ac:dyDescent="0.3">
@@ -14216,7 +14216,7 @@
         <v>50</v>
       </c>
       <c r="D580">
-        <v>27675</v>
+        <v>27775</v>
       </c>
     </row>
     <row r="581" spans="1:4" x14ac:dyDescent="0.3">
@@ -14230,7 +14230,7 @@
         <v>50</v>
       </c>
       <c r="D581">
-        <v>27725</v>
+        <v>27825</v>
       </c>
     </row>
     <row r="582" spans="1:4" x14ac:dyDescent="0.3">
@@ -14244,7 +14244,7 @@
         <v>50</v>
       </c>
       <c r="D582">
-        <v>27775</v>
+        <v>27875</v>
       </c>
     </row>
     <row r="583" spans="1:4" x14ac:dyDescent="0.3">
@@ -14258,7 +14258,7 @@
         <v>50</v>
       </c>
       <c r="D583">
-        <v>27825</v>
+        <v>27925</v>
       </c>
     </row>
     <row r="584" spans="1:4" x14ac:dyDescent="0.3">
@@ -14272,7 +14272,7 @@
         <v>50</v>
       </c>
       <c r="D584">
-        <v>27875</v>
+        <v>27975</v>
       </c>
     </row>
     <row r="585" spans="1:4" x14ac:dyDescent="0.3">
@@ -14286,7 +14286,7 @@
         <v>50</v>
       </c>
       <c r="D585">
-        <v>27925</v>
+        <v>28025</v>
       </c>
     </row>
     <row r="586" spans="1:4" x14ac:dyDescent="0.3">
@@ -14300,7 +14300,7 @@
         <v>50</v>
       </c>
       <c r="D586">
-        <v>27975</v>
+        <v>28075</v>
       </c>
     </row>
     <row r="587" spans="1:4" x14ac:dyDescent="0.3">
@@ -14314,7 +14314,7 @@
         <v>50</v>
       </c>
       <c r="D587">
-        <v>28025</v>
+        <v>28125</v>
       </c>
     </row>
     <row r="588" spans="1:4" x14ac:dyDescent="0.3">
@@ -14328,7 +14328,7 @@
         <v>50</v>
       </c>
       <c r="D588">
-        <v>28075</v>
+        <v>28175</v>
       </c>
     </row>
     <row r="589" spans="1:4" x14ac:dyDescent="0.3">
@@ -14342,7 +14342,7 @@
         <v>50</v>
       </c>
       <c r="D589">
-        <v>28125</v>
+        <v>28225</v>
       </c>
     </row>
     <row r="590" spans="1:4" x14ac:dyDescent="0.3">
@@ -14356,7 +14356,7 @@
         <v>50</v>
       </c>
       <c r="D590">
-        <v>28175</v>
+        <v>28275</v>
       </c>
     </row>
     <row r="591" spans="1:4" x14ac:dyDescent="0.3">
@@ -14370,7 +14370,7 @@
         <v>50</v>
       </c>
       <c r="D591">
-        <v>28225</v>
+        <v>28325</v>
       </c>
     </row>
     <row r="592" spans="1:4" x14ac:dyDescent="0.3">
@@ -14384,7 +14384,7 @@
         <v>50</v>
       </c>
       <c r="D592">
-        <v>28275</v>
+        <v>28375</v>
       </c>
     </row>
     <row r="593" spans="1:4" x14ac:dyDescent="0.3">
@@ -14398,7 +14398,7 @@
         <v>50</v>
       </c>
       <c r="D593">
-        <v>28325</v>
+        <v>28425</v>
       </c>
     </row>
     <row r="594" spans="1:4" x14ac:dyDescent="0.3">
@@ -14412,7 +14412,7 @@
         <v>50</v>
       </c>
       <c r="D594">
-        <v>28375</v>
+        <v>28475</v>
       </c>
     </row>
     <row r="595" spans="1:4" x14ac:dyDescent="0.3">
@@ -14426,7 +14426,7 @@
         <v>50</v>
       </c>
       <c r="D595">
-        <v>28425</v>
+        <v>28525</v>
       </c>
     </row>
     <row r="596" spans="1:4" x14ac:dyDescent="0.3">
@@ -14440,7 +14440,7 @@
         <v>50</v>
       </c>
       <c r="D596">
-        <v>28475</v>
+        <v>28575</v>
       </c>
     </row>
     <row r="597" spans="1:4" x14ac:dyDescent="0.3">
@@ -14454,7 +14454,7 @@
         <v>50</v>
       </c>
       <c r="D597">
-        <v>28525</v>
+        <v>28625</v>
       </c>
     </row>
     <row r="598" spans="1:4" x14ac:dyDescent="0.3">
@@ -14468,7 +14468,7 @@
         <v>50</v>
       </c>
       <c r="D598">
-        <v>28575</v>
+        <v>28675</v>
       </c>
     </row>
     <row r="599" spans="1:4" x14ac:dyDescent="0.3">
@@ -14482,7 +14482,7 @@
         <v>50</v>
       </c>
       <c r="D599">
-        <v>28625</v>
+        <v>28725</v>
       </c>
     </row>
     <row r="600" spans="1:4" x14ac:dyDescent="0.3">
@@ -14496,7 +14496,7 @@
         <v>50</v>
       </c>
       <c r="D600">
-        <v>28675</v>
+        <v>28775</v>
       </c>
     </row>
     <row r="601" spans="1:4" x14ac:dyDescent="0.3">
@@ -14510,7 +14510,7 @@
         <v>50</v>
       </c>
       <c r="D601">
-        <v>28725</v>
+        <v>28825</v>
       </c>
     </row>
     <row r="602" spans="1:4" x14ac:dyDescent="0.3">
@@ -14524,7 +14524,7 @@
         <v>50</v>
       </c>
       <c r="D602">
-        <v>28775</v>
+        <v>28875</v>
       </c>
     </row>
     <row r="603" spans="1:4" x14ac:dyDescent="0.3">
@@ -14538,7 +14538,7 @@
         <v>50</v>
       </c>
       <c r="D603">
-        <v>28825</v>
+        <v>28925</v>
       </c>
     </row>
     <row r="604" spans="1:4" x14ac:dyDescent="0.3">
@@ -14552,7 +14552,7 @@
         <v>50</v>
       </c>
       <c r="D604">
-        <v>28875</v>
+        <v>28975</v>
       </c>
     </row>
     <row r="605" spans="1:4" x14ac:dyDescent="0.3">
@@ -14566,7 +14566,7 @@
         <v>50</v>
       </c>
       <c r="D605">
-        <v>28925</v>
+        <v>29025</v>
       </c>
     </row>
     <row r="606" spans="1:4" x14ac:dyDescent="0.3">
@@ -14580,7 +14580,7 @@
         <v>50</v>
       </c>
       <c r="D606">
-        <v>28975</v>
+        <v>29075</v>
       </c>
     </row>
     <row r="607" spans="1:4" x14ac:dyDescent="0.3">
@@ -14594,7 +14594,7 @@
         <v>50</v>
       </c>
       <c r="D607">
-        <v>29025</v>
+        <v>29125</v>
       </c>
     </row>
     <row r="608" spans="1:4" x14ac:dyDescent="0.3">
@@ -14608,7 +14608,7 @@
         <v>50</v>
       </c>
       <c r="D608">
-        <v>29075</v>
+        <v>29175</v>
       </c>
     </row>
     <row r="609" spans="1:4" x14ac:dyDescent="0.3">
@@ -14622,7 +14622,7 @@
         <v>50</v>
       </c>
       <c r="D609">
-        <v>29125</v>
+        <v>29225</v>
       </c>
     </row>
     <row r="610" spans="1:4" x14ac:dyDescent="0.3">
@@ -14636,7 +14636,7 @@
         <v>50</v>
       </c>
       <c r="D610">
-        <v>29175</v>
+        <v>29275</v>
       </c>
     </row>
     <row r="611" spans="1:4" x14ac:dyDescent="0.3">
@@ -14650,7 +14650,7 @@
         <v>50</v>
       </c>
       <c r="D611">
-        <v>29225</v>
+        <v>29325</v>
       </c>
     </row>
     <row r="612" spans="1:4" x14ac:dyDescent="0.3">
@@ -14664,7 +14664,7 @@
         <v>50</v>
       </c>
       <c r="D612">
-        <v>29275</v>
+        <v>29375</v>
       </c>
     </row>
     <row r="613" spans="1:4" x14ac:dyDescent="0.3">
@@ -14678,7 +14678,7 @@
         <v>50</v>
       </c>
       <c r="D613">
-        <v>29325</v>
+        <v>29425</v>
       </c>
     </row>
     <row r="614" spans="1:4" x14ac:dyDescent="0.3">
@@ -14692,7 +14692,7 @@
         <v>50</v>
       </c>
       <c r="D614">
-        <v>29375</v>
+        <v>29475</v>
       </c>
     </row>
     <row r="615" spans="1:4" x14ac:dyDescent="0.3">
@@ -14706,7 +14706,7 @@
         <v>50</v>
       </c>
       <c r="D615">
-        <v>29425</v>
+        <v>29525</v>
       </c>
     </row>
     <row r="616" spans="1:4" x14ac:dyDescent="0.3">
@@ -14720,7 +14720,7 @@
         <v>50</v>
       </c>
       <c r="D616">
-        <v>29475</v>
+        <v>29575</v>
       </c>
     </row>
     <row r="617" spans="1:4" x14ac:dyDescent="0.3">
@@ -14734,7 +14734,7 @@
         <v>50</v>
       </c>
       <c r="D617">
-        <v>29525</v>
+        <v>29625</v>
       </c>
     </row>
     <row r="618" spans="1:4" x14ac:dyDescent="0.3">
@@ -14748,7 +14748,7 @@
         <v>50</v>
       </c>
       <c r="D618">
-        <v>29575</v>
+        <v>29675</v>
       </c>
     </row>
     <row r="619" spans="1:4" x14ac:dyDescent="0.3">
@@ -14762,7 +14762,7 @@
         <v>50</v>
       </c>
       <c r="D619">
-        <v>29625</v>
+        <v>29725</v>
       </c>
     </row>
     <row r="620" spans="1:4" x14ac:dyDescent="0.3">
@@ -14776,7 +14776,7 @@
         <v>50</v>
       </c>
       <c r="D620">
-        <v>29675</v>
+        <v>29775</v>
       </c>
     </row>
     <row r="621" spans="1:4" x14ac:dyDescent="0.3">
@@ -14790,7 +14790,7 @@
         <v>50</v>
       </c>
       <c r="D621">
-        <v>29725</v>
+        <v>29825</v>
       </c>
     </row>
     <row r="622" spans="1:4" x14ac:dyDescent="0.3">
@@ -14804,7 +14804,7 @@
         <v>50</v>
       </c>
       <c r="D622">
-        <v>29775</v>
+        <v>29875</v>
       </c>
     </row>
     <row r="623" spans="1:4" x14ac:dyDescent="0.3">
@@ -14818,7 +14818,7 @@
         <v>50</v>
       </c>
       <c r="D623">
-        <v>29825</v>
+        <v>29925</v>
       </c>
     </row>
     <row r="624" spans="1:4" x14ac:dyDescent="0.3">
@@ -14832,7 +14832,7 @@
         <v>50</v>
       </c>
       <c r="D624">
-        <v>29875</v>
+        <v>29975</v>
       </c>
     </row>
     <row r="625" spans="1:4" x14ac:dyDescent="0.3">
@@ -14846,7 +14846,7 @@
         <v>50</v>
       </c>
       <c r="D625">
-        <v>29925</v>
+        <v>30025</v>
       </c>
     </row>
     <row r="626" spans="1:4" x14ac:dyDescent="0.3">
@@ -14860,7 +14860,7 @@
         <v>50</v>
       </c>
       <c r="D626">
-        <v>29975</v>
+        <v>30075</v>
       </c>
     </row>
     <row r="627" spans="1:4" x14ac:dyDescent="0.3">
@@ -14874,7 +14874,7 @@
         <v>50</v>
       </c>
       <c r="D627">
-        <v>30025</v>
+        <v>30125</v>
       </c>
     </row>
     <row r="628" spans="1:4" x14ac:dyDescent="0.3">
@@ -14888,7 +14888,7 @@
         <v>50</v>
       </c>
       <c r="D628">
-        <v>30075</v>
+        <v>30175</v>
       </c>
     </row>
     <row r="629" spans="1:4" x14ac:dyDescent="0.3">
@@ -14902,7 +14902,7 @@
         <v>50</v>
       </c>
       <c r="D629">
-        <v>30125</v>
+        <v>30225</v>
       </c>
     </row>
     <row r="630" spans="1:4" x14ac:dyDescent="0.3">
@@ -14916,7 +14916,7 @@
         <v>50</v>
       </c>
       <c r="D630">
-        <v>30175</v>
+        <v>30275</v>
       </c>
     </row>
     <row r="631" spans="1:4" x14ac:dyDescent="0.3">
@@ -14930,7 +14930,7 @@
         <v>50</v>
       </c>
       <c r="D631">
-        <v>30225</v>
+        <v>30325</v>
       </c>
     </row>
     <row r="632" spans="1:4" x14ac:dyDescent="0.3">
@@ -14944,7 +14944,7 @@
         <v>50</v>
       </c>
       <c r="D632">
-        <v>30275</v>
+        <v>30375</v>
       </c>
     </row>
     <row r="633" spans="1:4" x14ac:dyDescent="0.3">
@@ -14958,7 +14958,7 @@
         <v>50</v>
       </c>
       <c r="D633">
-        <v>30325</v>
+        <v>30425</v>
       </c>
     </row>
     <row r="634" spans="1:4" x14ac:dyDescent="0.3">
@@ -14972,7 +14972,7 @@
         <v>50</v>
       </c>
       <c r="D634">
-        <v>30375</v>
+        <v>30475</v>
       </c>
     </row>
     <row r="635" spans="1:4" x14ac:dyDescent="0.3">
@@ -14986,7 +14986,7 @@
         <v>50</v>
       </c>
       <c r="D635">
-        <v>30425</v>
+        <v>30525</v>
       </c>
     </row>
     <row r="636" spans="1:4" x14ac:dyDescent="0.3">
@@ -15000,7 +15000,7 @@
         <v>50</v>
       </c>
       <c r="D636">
-        <v>30475</v>
+        <v>30575</v>
       </c>
     </row>
     <row r="637" spans="1:4" x14ac:dyDescent="0.3">
@@ -15014,7 +15014,7 @@
         <v>50</v>
       </c>
       <c r="D637">
-        <v>30525</v>
+        <v>30625</v>
       </c>
     </row>
     <row r="638" spans="1:4" x14ac:dyDescent="0.3">
@@ -15028,7 +15028,7 @@
         <v>50</v>
       </c>
       <c r="D638">
-        <v>30575</v>
+        <v>30675</v>
       </c>
     </row>
     <row r="639" spans="1:4" x14ac:dyDescent="0.3">
@@ -15042,7 +15042,7 @@
         <v>50</v>
       </c>
       <c r="D639">
-        <v>30625</v>
+        <v>30725</v>
       </c>
     </row>
     <row r="640" spans="1:4" x14ac:dyDescent="0.3">
@@ -15056,7 +15056,7 @@
         <v>50</v>
       </c>
       <c r="D640">
-        <v>30675</v>
+        <v>30775</v>
       </c>
     </row>
     <row r="641" spans="1:4" x14ac:dyDescent="0.3">
@@ -15070,7 +15070,7 @@
         <v>50</v>
       </c>
       <c r="D641">
-        <v>30725</v>
+        <v>30825</v>
       </c>
     </row>
     <row r="642" spans="1:4" x14ac:dyDescent="0.3">
@@ -15084,7 +15084,7 @@
         <v>50</v>
       </c>
       <c r="D642">
-        <v>30775</v>
+        <v>30875</v>
       </c>
     </row>
     <row r="643" spans="1:4" x14ac:dyDescent="0.3">
@@ -15098,7 +15098,7 @@
         <v>50</v>
       </c>
       <c r="D643">
-        <v>30825</v>
+        <v>30925</v>
       </c>
     </row>
     <row r="644" spans="1:4" x14ac:dyDescent="0.3">
@@ -15112,7 +15112,7 @@
         <v>50</v>
       </c>
       <c r="D644">
-        <v>30875</v>
+        <v>30975</v>
       </c>
     </row>
     <row r="645" spans="1:4" x14ac:dyDescent="0.3">
@@ -15126,7 +15126,7 @@
         <v>50</v>
       </c>
       <c r="D645">
-        <v>30925</v>
+        <v>31025</v>
       </c>
     </row>
     <row r="646" spans="1:4" x14ac:dyDescent="0.3">
@@ -15140,7 +15140,7 @@
         <v>50</v>
       </c>
       <c r="D646">
-        <v>30975</v>
+        <v>31075</v>
       </c>
     </row>
     <row r="647" spans="1:4" x14ac:dyDescent="0.3">
@@ -15154,7 +15154,7 @@
         <v>50</v>
       </c>
       <c r="D647">
-        <v>31025</v>
+        <v>31125</v>
       </c>
     </row>
     <row r="648" spans="1:4" x14ac:dyDescent="0.3">
@@ -15168,7 +15168,7 @@
         <v>50</v>
       </c>
       <c r="D648">
-        <v>31075</v>
+        <v>31175</v>
       </c>
     </row>
     <row r="649" spans="1:4" x14ac:dyDescent="0.3">
@@ -15182,7 +15182,7 @@
         <v>50</v>
       </c>
       <c r="D649">
-        <v>31125</v>
+        <v>31225</v>
       </c>
     </row>
     <row r="650" spans="1:4" x14ac:dyDescent="0.3">
@@ -15196,7 +15196,7 @@
         <v>50</v>
       </c>
       <c r="D650">
-        <v>31175</v>
+        <v>31275</v>
       </c>
     </row>
     <row r="651" spans="1:4" x14ac:dyDescent="0.3">
@@ -15210,7 +15210,7 @@
         <v>50</v>
       </c>
       <c r="D651">
-        <v>31225</v>
+        <v>31325</v>
       </c>
     </row>
     <row r="652" spans="1:4" x14ac:dyDescent="0.3">
@@ -15224,7 +15224,7 @@
         <v>50</v>
       </c>
       <c r="D652">
-        <v>31275</v>
+        <v>31375</v>
       </c>
     </row>
     <row r="653" spans="1:4" x14ac:dyDescent="0.3">
@@ -15238,7 +15238,7 @@
         <v>50</v>
       </c>
       <c r="D653">
-        <v>31325</v>
+        <v>31425</v>
       </c>
     </row>
     <row r="654" spans="1:4" x14ac:dyDescent="0.3">
@@ -15252,7 +15252,7 @@
         <v>50</v>
       </c>
       <c r="D654">
-        <v>31375</v>
+        <v>31475</v>
       </c>
     </row>
     <row r="655" spans="1:4" x14ac:dyDescent="0.3">
@@ -15266,7 +15266,7 @@
         <v>50</v>
       </c>
       <c r="D655">
-        <v>31425</v>
+        <v>31525</v>
       </c>
     </row>
     <row r="656" spans="1:4" x14ac:dyDescent="0.3">
@@ -15280,7 +15280,7 @@
         <v>50</v>
       </c>
       <c r="D656">
-        <v>31475</v>
+        <v>31575</v>
       </c>
     </row>
     <row r="657" spans="1:4" x14ac:dyDescent="0.3">
@@ -15294,7 +15294,7 @@
         <v>50</v>
       </c>
       <c r="D657">
-        <v>31525</v>
+        <v>31625</v>
       </c>
     </row>
     <row r="658" spans="1:4" x14ac:dyDescent="0.3">
@@ -15308,7 +15308,7 @@
         <v>50</v>
       </c>
       <c r="D658">
-        <v>31575</v>
+        <v>31675</v>
       </c>
     </row>
     <row r="659" spans="1:4" x14ac:dyDescent="0.3">
@@ -15322,7 +15322,7 @@
         <v>50</v>
       </c>
       <c r="D659">
-        <v>31625</v>
+        <v>31725</v>
       </c>
     </row>
     <row r="660" spans="1:4" x14ac:dyDescent="0.3">
@@ -15336,7 +15336,7 @@
         <v>50</v>
       </c>
       <c r="D660">
-        <v>31675</v>
+        <v>31775</v>
       </c>
     </row>
     <row r="661" spans="1:4" x14ac:dyDescent="0.3">
@@ -15350,7 +15350,7 @@
         <v>50</v>
       </c>
       <c r="D661">
-        <v>31725</v>
+        <v>31825</v>
       </c>
     </row>
     <row r="662" spans="1:4" x14ac:dyDescent="0.3">
@@ -15364,7 +15364,7 @@
         <v>50</v>
       </c>
       <c r="D662">
-        <v>31775</v>
+        <v>31875</v>
       </c>
     </row>
     <row r="663" spans="1:4" x14ac:dyDescent="0.3">
@@ -15378,7 +15378,7 @@
         <v>50</v>
       </c>
       <c r="D663">
-        <v>31825</v>
+        <v>31925</v>
       </c>
     </row>
     <row r="664" spans="1:4" x14ac:dyDescent="0.3">
@@ -15392,7 +15392,7 @@
         <v>50</v>
       </c>
       <c r="D664">
-        <v>31875</v>
+        <v>31975</v>
       </c>
     </row>
     <row r="665" spans="1:4" x14ac:dyDescent="0.3">
@@ -15406,7 +15406,7 @@
         <v>50</v>
       </c>
       <c r="D665">
-        <v>31925</v>
+        <v>32025</v>
       </c>
     </row>
     <row r="666" spans="1:4" x14ac:dyDescent="0.3">
@@ -15420,7 +15420,7 @@
         <v>50</v>
       </c>
       <c r="D666">
-        <v>31975</v>
+        <v>32075</v>
       </c>
     </row>
     <row r="667" spans="1:4" x14ac:dyDescent="0.3">
@@ -15434,7 +15434,7 @@
         <v>50</v>
       </c>
       <c r="D667">
-        <v>32025</v>
+        <v>32125</v>
       </c>
     </row>
     <row r="668" spans="1:4" x14ac:dyDescent="0.3">
@@ -15448,7 +15448,7 @@
         <v>50</v>
       </c>
       <c r="D668">
-        <v>32075</v>
+        <v>32175</v>
       </c>
     </row>
     <row r="669" spans="1:4" x14ac:dyDescent="0.3">
@@ -15462,7 +15462,7 @@
         <v>50</v>
       </c>
       <c r="D669">
-        <v>32125</v>
+        <v>32225</v>
       </c>
     </row>
     <row r="670" spans="1:4" x14ac:dyDescent="0.3">
@@ -15476,7 +15476,7 @@
         <v>50</v>
       </c>
       <c r="D670">
-        <v>32175</v>
+        <v>32275</v>
       </c>
     </row>
     <row r="671" spans="1:4" x14ac:dyDescent="0.3">
@@ -15490,7 +15490,7 @@
         <v>50</v>
       </c>
       <c r="D671">
-        <v>32225</v>
+        <v>32325</v>
       </c>
     </row>
     <row r="672" spans="1:4" x14ac:dyDescent="0.3">
@@ -15504,7 +15504,7 @@
         <v>50</v>
       </c>
       <c r="D672">
-        <v>32275</v>
+        <v>32375</v>
       </c>
     </row>
     <row r="673" spans="1:4" x14ac:dyDescent="0.3">
@@ -15518,7 +15518,7 @@
         <v>50</v>
       </c>
       <c r="D673">
-        <v>32325</v>
+        <v>32425</v>
       </c>
     </row>
     <row r="674" spans="1:4" x14ac:dyDescent="0.3">
@@ -15532,7 +15532,7 @@
         <v>50</v>
       </c>
       <c r="D674">
-        <v>32375</v>
+        <v>32475</v>
       </c>
     </row>
     <row r="675" spans="1:4" x14ac:dyDescent="0.3">
@@ -15546,7 +15546,7 @@
         <v>50</v>
       </c>
       <c r="D675">
-        <v>32425</v>
+        <v>32525</v>
       </c>
     </row>
     <row r="676" spans="1:4" x14ac:dyDescent="0.3">
@@ -15560,7 +15560,7 @@
         <v>50</v>
       </c>
       <c r="D676">
-        <v>32475</v>
+        <v>32575</v>
       </c>
     </row>
     <row r="677" spans="1:4" x14ac:dyDescent="0.3">
@@ -15574,7 +15574,7 @@
         <v>50</v>
       </c>
       <c r="D677">
-        <v>32525</v>
+        <v>32625</v>
       </c>
     </row>
     <row r="678" spans="1:4" x14ac:dyDescent="0.3">
@@ -15588,7 +15588,7 @@
         <v>50</v>
       </c>
       <c r="D678">
-        <v>32575</v>
+        <v>32675</v>
       </c>
     </row>
     <row r="679" spans="1:4" x14ac:dyDescent="0.3">
@@ -15602,7 +15602,7 @@
         <v>50</v>
       </c>
       <c r="D679">
-        <v>32625</v>
+        <v>32725</v>
       </c>
     </row>
     <row r="680" spans="1:4" x14ac:dyDescent="0.3">
@@ -15616,7 +15616,7 @@
         <v>50</v>
       </c>
       <c r="D680">
-        <v>32675</v>
+        <v>32775</v>
       </c>
     </row>
     <row r="681" spans="1:4" x14ac:dyDescent="0.3">
@@ -15630,7 +15630,7 @@
         <v>50</v>
       </c>
       <c r="D681">
-        <v>32725</v>
+        <v>32825</v>
       </c>
     </row>
     <row r="682" spans="1:4" x14ac:dyDescent="0.3">
@@ -15644,7 +15644,7 @@
         <v>50</v>
       </c>
       <c r="D682">
-        <v>32775</v>
+        <v>32875</v>
       </c>
     </row>
     <row r="683" spans="1:4" x14ac:dyDescent="0.3">
@@ -15658,7 +15658,7 @@
         <v>50</v>
       </c>
       <c r="D683">
-        <v>32825</v>
+        <v>32925</v>
       </c>
     </row>
     <row r="684" spans="1:4" x14ac:dyDescent="0.3">
@@ -15672,7 +15672,7 @@
         <v>50</v>
       </c>
       <c r="D684">
-        <v>32875</v>
+        <v>32975</v>
       </c>
     </row>
     <row r="685" spans="1:4" x14ac:dyDescent="0.3">
@@ -15686,7 +15686,7 @@
         <v>50</v>
       </c>
       <c r="D685">
-        <v>32925</v>
+        <v>33025</v>
       </c>
     </row>
     <row r="686" spans="1:4" x14ac:dyDescent="0.3">
@@ -15700,7 +15700,7 @@
         <v>50</v>
       </c>
       <c r="D686">
-        <v>32975</v>
+        <v>33075</v>
       </c>
     </row>
     <row r="687" spans="1:4" x14ac:dyDescent="0.3">
@@ -15714,7 +15714,7 @@
         <v>50</v>
       </c>
       <c r="D687">
-        <v>33025</v>
+        <v>33125</v>
       </c>
     </row>
     <row r="688" spans="1:4" x14ac:dyDescent="0.3">
@@ -15728,7 +15728,7 @@
         <v>50</v>
       </c>
       <c r="D688">
-        <v>33075</v>
+        <v>33175</v>
       </c>
     </row>
     <row r="689" spans="1:4" x14ac:dyDescent="0.3">
@@ -15742,7 +15742,7 @@
         <v>50</v>
       </c>
       <c r="D689">
-        <v>33125</v>
+        <v>33225</v>
       </c>
     </row>
     <row r="690" spans="1:4" x14ac:dyDescent="0.3">
@@ -15756,7 +15756,7 @@
         <v>50</v>
       </c>
       <c r="D690">
-        <v>33175</v>
+        <v>33275</v>
       </c>
     </row>
     <row r="691" spans="1:4" x14ac:dyDescent="0.3">
@@ -15770,7 +15770,7 @@
         <v>50</v>
       </c>
       <c r="D691">
-        <v>33225</v>
+        <v>33325</v>
       </c>
     </row>
     <row r="692" spans="1:4" x14ac:dyDescent="0.3">
@@ -15784,7 +15784,7 @@
         <v>50</v>
       </c>
       <c r="D692">
-        <v>33275</v>
+        <v>33375</v>
       </c>
     </row>
     <row r="693" spans="1:4" x14ac:dyDescent="0.3">
@@ -15798,7 +15798,7 @@
         <v>50</v>
       </c>
       <c r="D693">
-        <v>33325</v>
+        <v>33425</v>
       </c>
     </row>
     <row r="694" spans="1:4" x14ac:dyDescent="0.3">
@@ -15812,7 +15812,7 @@
         <v>50</v>
       </c>
       <c r="D694">
-        <v>33375</v>
+        <v>33475</v>
       </c>
     </row>
     <row r="695" spans="1:4" x14ac:dyDescent="0.3">
@@ -15826,7 +15826,7 @@
         <v>50</v>
       </c>
       <c r="D695">
-        <v>33425</v>
+        <v>33525</v>
       </c>
     </row>
     <row r="696" spans="1:4" x14ac:dyDescent="0.3">
@@ -15840,7 +15840,7 @@
         <v>50</v>
       </c>
       <c r="D696">
-        <v>33475</v>
+        <v>33575</v>
       </c>
     </row>
     <row r="697" spans="1:4" x14ac:dyDescent="0.3">
@@ -15854,7 +15854,7 @@
         <v>50</v>
       </c>
       <c r="D697">
-        <v>33525</v>
+        <v>33625</v>
       </c>
     </row>
     <row r="698" spans="1:4" x14ac:dyDescent="0.3">
@@ -15868,7 +15868,7 @@
         <v>50</v>
       </c>
       <c r="D698">
-        <v>33575</v>
+        <v>33675</v>
       </c>
     </row>
     <row r="699" spans="1:4" x14ac:dyDescent="0.3">
@@ -15882,7 +15882,7 @@
         <v>50</v>
       </c>
       <c r="D699">
-        <v>33625</v>
+        <v>33725</v>
       </c>
     </row>
     <row r="700" spans="1:4" x14ac:dyDescent="0.3">
@@ -15896,7 +15896,7 @@
         <v>50</v>
       </c>
       <c r="D700">
-        <v>33675</v>
+        <v>33775</v>
       </c>
     </row>
     <row r="701" spans="1:4" x14ac:dyDescent="0.3">
@@ -15910,7 +15910,7 @@
         <v>50</v>
       </c>
       <c r="D701">
-        <v>33725</v>
+        <v>33825</v>
       </c>
     </row>
     <row r="702" spans="1:4" x14ac:dyDescent="0.3">
@@ -15924,7 +15924,7 @@
         <v>50</v>
       </c>
       <c r="D702">
-        <v>33775</v>
+        <v>33875</v>
       </c>
     </row>
     <row r="703" spans="1:4" x14ac:dyDescent="0.3">
@@ -15938,7 +15938,7 @@
         <v>50</v>
       </c>
       <c r="D703">
-        <v>33825</v>
+        <v>33925</v>
       </c>
     </row>
     <row r="704" spans="1:4" x14ac:dyDescent="0.3">
@@ -15952,7 +15952,7 @@
         <v>50</v>
       </c>
       <c r="D704">
-        <v>33875</v>
+        <v>33975</v>
       </c>
     </row>
     <row r="705" spans="1:4" x14ac:dyDescent="0.3">
@@ -15966,7 +15966,7 @@
         <v>50</v>
       </c>
       <c r="D705">
-        <v>33925</v>
+        <v>34025</v>
       </c>
     </row>
     <row r="706" spans="1:4" x14ac:dyDescent="0.3">
@@ -15980,7 +15980,7 @@
         <v>50</v>
       </c>
       <c r="D706">
-        <v>33975</v>
+        <v>34075</v>
       </c>
     </row>
     <row r="707" spans="1:4" x14ac:dyDescent="0.3">
@@ -15994,7 +15994,7 @@
         <v>50</v>
       </c>
       <c r="D707">
-        <v>34025</v>
+        <v>34125</v>
       </c>
     </row>
     <row r="708" spans="1:4" x14ac:dyDescent="0.3">
@@ -16008,7 +16008,7 @@
         <v>50</v>
       </c>
       <c r="D708">
-        <v>34075</v>
+        <v>34175</v>
       </c>
     </row>
     <row r="709" spans="1:4" x14ac:dyDescent="0.3">
@@ -16022,7 +16022,7 @@
         <v>50</v>
       </c>
       <c r="D709">
-        <v>34125</v>
+        <v>34225</v>
       </c>
     </row>
     <row r="710" spans="1:4" x14ac:dyDescent="0.3">
@@ -16036,7 +16036,7 @@
         <v>50</v>
       </c>
       <c r="D710">
-        <v>34175</v>
+        <v>34275</v>
       </c>
     </row>
     <row r="711" spans="1:4" x14ac:dyDescent="0.3">
@@ -16050,7 +16050,7 @@
         <v>50</v>
       </c>
       <c r="D711">
-        <v>34225</v>
+        <v>34325</v>
       </c>
     </row>
     <row r="712" spans="1:4" x14ac:dyDescent="0.3">
@@ -16064,7 +16064,7 @@
         <v>50</v>
       </c>
       <c r="D712">
-        <v>34275</v>
+        <v>34375</v>
       </c>
     </row>
     <row r="713" spans="1:4" x14ac:dyDescent="0.3">
@@ -16078,7 +16078,7 @@
         <v>50</v>
       </c>
       <c r="D713">
-        <v>34325</v>
+        <v>34425</v>
       </c>
     </row>
     <row r="714" spans="1:4" x14ac:dyDescent="0.3">
@@ -16092,7 +16092,7 @@
         <v>50</v>
       </c>
       <c r="D714">
-        <v>34375</v>
+        <v>34475</v>
       </c>
     </row>
     <row r="715" spans="1:4" x14ac:dyDescent="0.3">
@@ -16106,7 +16106,7 @@
         <v>50</v>
       </c>
       <c r="D715">
-        <v>34425</v>
+        <v>34525</v>
       </c>
     </row>
     <row r="716" spans="1:4" x14ac:dyDescent="0.3">
@@ -16120,7 +16120,7 @@
         <v>50</v>
       </c>
       <c r="D716">
-        <v>34475</v>
+        <v>34575</v>
       </c>
     </row>
     <row r="717" spans="1:4" x14ac:dyDescent="0.3">
@@ -16134,7 +16134,7 @@
         <v>50</v>
       </c>
       <c r="D717">
-        <v>34525</v>
+        <v>34625</v>
       </c>
     </row>
     <row r="718" spans="1:4" x14ac:dyDescent="0.3">
@@ -16148,7 +16148,7 @@
         <v>50</v>
       </c>
       <c r="D718">
-        <v>34575</v>
+        <v>34675</v>
       </c>
     </row>
     <row r="719" spans="1:4" x14ac:dyDescent="0.3">
@@ -16162,7 +16162,7 @@
         <v>50</v>
       </c>
       <c r="D719">
-        <v>34625</v>
+        <v>34725</v>
       </c>
     </row>
     <row r="720" spans="1:4" x14ac:dyDescent="0.3">
@@ -16176,7 +16176,7 @@
         <v>50</v>
       </c>
       <c r="D720">
-        <v>34675</v>
+        <v>34775</v>
       </c>
     </row>
     <row r="721" spans="1:4" x14ac:dyDescent="0.3">
@@ -16190,7 +16190,7 @@
         <v>50</v>
       </c>
       <c r="D721">
-        <v>34725</v>
+        <v>34825</v>
       </c>
     </row>
     <row r="722" spans="1:4" x14ac:dyDescent="0.3">
@@ -16204,7 +16204,7 @@
         <v>50</v>
       </c>
       <c r="D722">
-        <v>34775</v>
+        <v>34875</v>
       </c>
     </row>
     <row r="723" spans="1:4" x14ac:dyDescent="0.3">
@@ -16218,7 +16218,7 @@
         <v>50</v>
       </c>
       <c r="D723">
-        <v>34825</v>
+        <v>34925</v>
       </c>
     </row>
     <row r="724" spans="1:4" x14ac:dyDescent="0.3">
@@ -16232,7 +16232,7 @@
         <v>50</v>
       </c>
       <c r="D724">
-        <v>34875</v>
+        <v>34975</v>
       </c>
     </row>
     <row r="725" spans="1:4" x14ac:dyDescent="0.3">
@@ -16246,7 +16246,7 @@
         <v>50</v>
       </c>
       <c r="D725">
-        <v>34925</v>
+        <v>35025</v>
       </c>
     </row>
     <row r="726" spans="1:4" x14ac:dyDescent="0.3">
@@ -16260,7 +16260,7 @@
         <v>50</v>
       </c>
       <c r="D726">
-        <v>34975</v>
+        <v>35075</v>
       </c>
     </row>
     <row r="727" spans="1:4" x14ac:dyDescent="0.3">
@@ -16274,7 +16274,7 @@
         <v>50</v>
       </c>
       <c r="D727">
-        <v>35025</v>
+        <v>35125</v>
       </c>
     </row>
     <row r="728" spans="1:4" x14ac:dyDescent="0.3">
@@ -16288,7 +16288,7 @@
         <v>50</v>
       </c>
       <c r="D728">
-        <v>35075</v>
+        <v>35175</v>
       </c>
     </row>
     <row r="729" spans="1:4" x14ac:dyDescent="0.3">
@@ -16302,7 +16302,7 @@
         <v>50</v>
       </c>
       <c r="D729">
-        <v>35125</v>
+        <v>35225</v>
       </c>
     </row>
     <row r="730" spans="1:4" x14ac:dyDescent="0.3">
@@ -16316,7 +16316,7 @@
         <v>50</v>
       </c>
       <c r="D730">
-        <v>35175</v>
+        <v>35275</v>
       </c>
     </row>
     <row r="731" spans="1:4" x14ac:dyDescent="0.3">
@@ -16330,7 +16330,7 @@
         <v>50</v>
       </c>
       <c r="D731">
-        <v>35225</v>
+        <v>35325</v>
       </c>
     </row>
     <row r="732" spans="1:4" x14ac:dyDescent="0.3">
@@ -16344,7 +16344,7 @@
         <v>50</v>
       </c>
       <c r="D732">
-        <v>35275</v>
+        <v>35375</v>
       </c>
     </row>
     <row r="733" spans="1:4" x14ac:dyDescent="0.3">
@@ -16358,7 +16358,7 @@
         <v>50</v>
       </c>
       <c r="D733">
-        <v>35325</v>
+        <v>35425</v>
       </c>
     </row>
     <row r="734" spans="1:4" x14ac:dyDescent="0.3">
@@ -16372,7 +16372,7 @@
         <v>50</v>
       </c>
       <c r="D734">
-        <v>35375</v>
+        <v>35475</v>
       </c>
     </row>
     <row r="735" spans="1:4" x14ac:dyDescent="0.3">
@@ -16386,7 +16386,7 @@
         <v>50</v>
       </c>
       <c r="D735">
-        <v>35425</v>
+        <v>35525</v>
       </c>
     </row>
     <row r="736" spans="1:4" x14ac:dyDescent="0.3">
@@ -16400,7 +16400,7 @@
         <v>50</v>
       </c>
       <c r="D736">
-        <v>35475</v>
+        <v>35575</v>
       </c>
     </row>
     <row r="737" spans="1:4" x14ac:dyDescent="0.3">
@@ -16414,7 +16414,7 @@
         <v>50</v>
       </c>
       <c r="D737">
-        <v>35525</v>
+        <v>35625</v>
       </c>
     </row>
     <row r="738" spans="1:4" x14ac:dyDescent="0.3">
@@ -16428,7 +16428,7 @@
         <v>50</v>
       </c>
       <c r="D738">
-        <v>35575</v>
+        <v>35675</v>
       </c>
     </row>
     <row r="739" spans="1:4" x14ac:dyDescent="0.3">
@@ -16442,7 +16442,7 @@
         <v>50</v>
       </c>
       <c r="D739">
-        <v>35625</v>
+        <v>35725</v>
       </c>
     </row>
     <row r="740" spans="1:4" x14ac:dyDescent="0.3">
@@ -16456,7 +16456,7 @@
         <v>50</v>
       </c>
       <c r="D740">
-        <v>35675</v>
+        <v>35775</v>
       </c>
     </row>
     <row r="741" spans="1:4" x14ac:dyDescent="0.3">
@@ -16470,7 +16470,7 @@
         <v>50</v>
       </c>
       <c r="D741">
-        <v>35725</v>
+        <v>35825</v>
       </c>
     </row>
     <row r="742" spans="1:4" x14ac:dyDescent="0.3">
@@ -16484,7 +16484,7 @@
         <v>50</v>
       </c>
       <c r="D742">
-        <v>35775</v>
+        <v>35875</v>
       </c>
     </row>
     <row r="743" spans="1:4" x14ac:dyDescent="0.3">
@@ -16498,7 +16498,7 @@
         <v>50</v>
       </c>
       <c r="D743">
-        <v>35825</v>
+        <v>35925</v>
       </c>
     </row>
     <row r="744" spans="1:4" x14ac:dyDescent="0.3">
@@ -16512,7 +16512,7 @@
         <v>50</v>
       </c>
       <c r="D744">
-        <v>35875</v>
+        <v>35975</v>
       </c>
     </row>
     <row r="745" spans="1:4" x14ac:dyDescent="0.3">
@@ -16526,7 +16526,7 @@
         <v>50</v>
       </c>
       <c r="D745">
-        <v>35925</v>
+        <v>36025</v>
       </c>
     </row>
     <row r="746" spans="1:4" x14ac:dyDescent="0.3">
@@ -16540,7 +16540,7 @@
         <v>50</v>
       </c>
       <c r="D746">
-        <v>35975</v>
+        <v>36075</v>
       </c>
     </row>
     <row r="747" spans="1:4" x14ac:dyDescent="0.3">
@@ -16554,7 +16554,7 @@
         <v>50</v>
       </c>
       <c r="D747">
-        <v>36025</v>
+        <v>36125</v>
       </c>
     </row>
     <row r="748" spans="1:4" x14ac:dyDescent="0.3">
@@ -16568,7 +16568,7 @@
         <v>50</v>
       </c>
       <c r="D748">
-        <v>36075</v>
+        <v>36175</v>
       </c>
     </row>
     <row r="749" spans="1:4" x14ac:dyDescent="0.3">
@@ -16582,7 +16582,7 @@
         <v>50</v>
       </c>
       <c r="D749">
-        <v>36125</v>
+        <v>36225</v>
       </c>
     </row>
     <row r="750" spans="1:4" x14ac:dyDescent="0.3">
@@ -16596,7 +16596,7 @@
         <v>50</v>
       </c>
       <c r="D750">
-        <v>36175</v>
+        <v>36275</v>
       </c>
     </row>
     <row r="751" spans="1:4" x14ac:dyDescent="0.3">
@@ -16610,7 +16610,7 @@
         <v>50</v>
       </c>
       <c r="D751">
-        <v>36225</v>
+        <v>36325</v>
       </c>
     </row>
     <row r="752" spans="1:4" x14ac:dyDescent="0.3">
@@ -16624,7 +16624,7 @@
         <v>50</v>
       </c>
       <c r="D752">
-        <v>36275</v>
+        <v>36375</v>
       </c>
     </row>
     <row r="753" spans="1:4" x14ac:dyDescent="0.3">
@@ -16638,7 +16638,7 @@
         <v>50</v>
       </c>
       <c r="D753">
-        <v>36325</v>
+        <v>36425</v>
       </c>
     </row>
     <row r="754" spans="1:4" x14ac:dyDescent="0.3">
@@ -16652,7 +16652,7 @@
         <v>50</v>
       </c>
       <c r="D754">
-        <v>36375</v>
+        <v>36475</v>
       </c>
     </row>
     <row r="755" spans="1:4" x14ac:dyDescent="0.3">
@@ -16666,7 +16666,7 @@
         <v>50</v>
       </c>
       <c r="D755">
-        <v>36425</v>
+        <v>36525</v>
       </c>
     </row>
     <row r="756" spans="1:4" x14ac:dyDescent="0.3">
@@ -16680,7 +16680,7 @@
         <v>50</v>
       </c>
       <c r="D756">
-        <v>36475</v>
+        <v>36575</v>
       </c>
     </row>
     <row r="757" spans="1:4" x14ac:dyDescent="0.3">
@@ -16694,7 +16694,7 @@
         <v>50</v>
       </c>
       <c r="D757">
-        <v>36525</v>
+        <v>36625</v>
       </c>
     </row>
     <row r="758" spans="1:4" x14ac:dyDescent="0.3">
@@ -16708,7 +16708,7 @@
         <v>50</v>
       </c>
       <c r="D758">
-        <v>36575</v>
+        <v>36675</v>
       </c>
     </row>
     <row r="759" spans="1:4" x14ac:dyDescent="0.3">
@@ -16722,7 +16722,7 @@
         <v>50</v>
       </c>
       <c r="D759">
-        <v>36625</v>
+        <v>36725</v>
       </c>
     </row>
     <row r="760" spans="1:4" x14ac:dyDescent="0.3">
@@ -16736,7 +16736,7 @@
         <v>50</v>
       </c>
       <c r="D760">
-        <v>36675</v>
+        <v>36775</v>
       </c>
     </row>
     <row r="761" spans="1:4" x14ac:dyDescent="0.3">
@@ -16750,7 +16750,7 @@
         <v>50</v>
       </c>
       <c r="D761">
-        <v>36725</v>
+        <v>36825</v>
       </c>
     </row>
     <row r="762" spans="1:4" x14ac:dyDescent="0.3">
@@ -16764,7 +16764,7 @@
         <v>50</v>
       </c>
       <c r="D762">
-        <v>36775</v>
+        <v>36875</v>
       </c>
     </row>
     <row r="763" spans="1:4" x14ac:dyDescent="0.3">
@@ -16778,7 +16778,7 @@
         <v>50</v>
       </c>
       <c r="D763">
-        <v>36825</v>
+        <v>36925</v>
       </c>
     </row>
     <row r="764" spans="1:4" x14ac:dyDescent="0.3">
@@ -16792,7 +16792,7 @@
         <v>50</v>
       </c>
       <c r="D764">
-        <v>36875</v>
+        <v>36975</v>
       </c>
     </row>
     <row r="765" spans="1:4" x14ac:dyDescent="0.3">
@@ -16806,7 +16806,7 @@
         <v>50</v>
       </c>
       <c r="D765">
-        <v>36925</v>
+        <v>37025</v>
       </c>
     </row>
     <row r="766" spans="1:4" x14ac:dyDescent="0.3">
@@ -16820,7 +16820,7 @@
         <v>50</v>
       </c>
       <c r="D766">
-        <v>36975</v>
+        <v>37075</v>
       </c>
     </row>
     <row r="767" spans="1:4" x14ac:dyDescent="0.3">
@@ -16834,7 +16834,7 @@
         <v>50</v>
       </c>
       <c r="D767">
-        <v>37025</v>
+        <v>37125</v>
       </c>
     </row>
     <row r="768" spans="1:4" x14ac:dyDescent="0.3">
@@ -16848,7 +16848,7 @@
         <v>50</v>
       </c>
       <c r="D768">
-        <v>37075</v>
+        <v>37175</v>
       </c>
     </row>
     <row r="769" spans="1:4" x14ac:dyDescent="0.3">
@@ -16862,7 +16862,7 @@
         <v>50</v>
       </c>
       <c r="D769">
-        <v>37125</v>
+        <v>37225</v>
       </c>
     </row>
     <row r="770" spans="1:4" x14ac:dyDescent="0.3">
@@ -16876,7 +16876,7 @@
         <v>50</v>
       </c>
       <c r="D770">
-        <v>37175</v>
+        <v>37275</v>
       </c>
     </row>
     <row r="771" spans="1:4" x14ac:dyDescent="0.3">
@@ -16890,7 +16890,7 @@
         <v>50</v>
       </c>
       <c r="D771">
-        <v>37225</v>
+        <v>37325</v>
       </c>
     </row>
     <row r="772" spans="1:4" x14ac:dyDescent="0.3">
@@ -16904,7 +16904,7 @@
         <v>50</v>
       </c>
       <c r="D772">
-        <v>37275</v>
+        <v>37375</v>
       </c>
     </row>
     <row r="773" spans="1:4" x14ac:dyDescent="0.3">
@@ -16918,7 +16918,7 @@
         <v>50</v>
       </c>
       <c r="D773">
-        <v>37325</v>
+        <v>37425</v>
       </c>
     </row>
     <row r="774" spans="1:4" x14ac:dyDescent="0.3">
@@ -16932,7 +16932,7 @@
         <v>50</v>
       </c>
       <c r="D774">
-        <v>37375</v>
+        <v>37475</v>
       </c>
     </row>
     <row r="775" spans="1:4" x14ac:dyDescent="0.3">
@@ -16946,7 +16946,7 @@
         <v>50</v>
       </c>
       <c r="D775">
-        <v>37425</v>
+        <v>37525</v>
       </c>
     </row>
     <row r="776" spans="1:4" x14ac:dyDescent="0.3">
@@ -16960,7 +16960,7 @@
         <v>50</v>
       </c>
       <c r="D776">
-        <v>37475</v>
+        <v>37575</v>
       </c>
     </row>
     <row r="777" spans="1:4" x14ac:dyDescent="0.3">
@@ -16974,7 +16974,7 @@
         <v>50</v>
       </c>
       <c r="D777">
-        <v>37525</v>
+        <v>37625</v>
       </c>
     </row>
     <row r="778" spans="1:4" x14ac:dyDescent="0.3">
@@ -16988,7 +16988,7 @@
         <v>50</v>
       </c>
       <c r="D778">
-        <v>37575</v>
+        <v>37675</v>
       </c>
     </row>
     <row r="779" spans="1:4" x14ac:dyDescent="0.3">
@@ -17002,7 +17002,7 @@
         <v>50</v>
       </c>
       <c r="D779">
-        <v>37625</v>
+        <v>37725</v>
       </c>
     </row>
     <row r="780" spans="1:4" x14ac:dyDescent="0.3">
@@ -17016,7 +17016,7 @@
         <v>50</v>
       </c>
       <c r="D780">
-        <v>37675</v>
+        <v>37775</v>
       </c>
     </row>
     <row r="781" spans="1:4" x14ac:dyDescent="0.3">
@@ -17030,7 +17030,7 @@
         <v>50</v>
       </c>
       <c r="D781">
-        <v>37725</v>
+        <v>37825</v>
       </c>
     </row>
     <row r="782" spans="1:4" x14ac:dyDescent="0.3">
@@ -17044,7 +17044,7 @@
         <v>50</v>
       </c>
       <c r="D782">
-        <v>37775</v>
+        <v>37875</v>
       </c>
     </row>
     <row r="783" spans="1:4" x14ac:dyDescent="0.3">
@@ -17058,7 +17058,7 @@
         <v>50</v>
       </c>
       <c r="D783">
-        <v>37825</v>
+        <v>37925</v>
       </c>
     </row>
     <row r="784" spans="1:4" x14ac:dyDescent="0.3">
@@ -17072,7 +17072,7 @@
         <v>50</v>
       </c>
       <c r="D784">
-        <v>37875</v>
+        <v>37975</v>
       </c>
     </row>
     <row r="785" spans="1:4" x14ac:dyDescent="0.3">
@@ -17086,7 +17086,7 @@
         <v>50</v>
       </c>
       <c r="D785">
-        <v>37925</v>
+        <v>38025</v>
       </c>
     </row>
     <row r="786" spans="1:4" x14ac:dyDescent="0.3">
@@ -17100,7 +17100,7 @@
         <v>50</v>
       </c>
       <c r="D786">
-        <v>37975</v>
+        <v>38075</v>
       </c>
     </row>
     <row r="787" spans="1:4" x14ac:dyDescent="0.3">
@@ -17114,7 +17114,7 @@
         <v>50</v>
       </c>
       <c r="D787">
-        <v>38025</v>
+        <v>38125</v>
       </c>
     </row>
     <row r="788" spans="1:4" x14ac:dyDescent="0.3">
@@ -17128,7 +17128,7 @@
         <v>50</v>
       </c>
       <c r="D788">
-        <v>38075</v>
+        <v>38175</v>
       </c>
     </row>
     <row r="789" spans="1:4" x14ac:dyDescent="0.3">
@@ -17142,7 +17142,7 @@
         <v>50</v>
       </c>
       <c r="D789">
-        <v>38125</v>
+        <v>38225</v>
       </c>
     </row>
     <row r="790" spans="1:4" x14ac:dyDescent="0.3">
@@ -17156,7 +17156,7 @@
         <v>50</v>
       </c>
       <c r="D790">
-        <v>38175</v>
+        <v>38275</v>
       </c>
     </row>
     <row r="791" spans="1:4" x14ac:dyDescent="0.3">
@@ -17170,7 +17170,7 @@
         <v>50</v>
       </c>
       <c r="D791">
-        <v>38225</v>
+        <v>38325</v>
       </c>
     </row>
     <row r="792" spans="1:4" x14ac:dyDescent="0.3">
@@ -17184,7 +17184,7 @@
         <v>50</v>
       </c>
       <c r="D792">
-        <v>38275</v>
+        <v>38375</v>
       </c>
     </row>
     <row r="793" spans="1:4" x14ac:dyDescent="0.3">
@@ -17198,7 +17198,7 @@
         <v>50</v>
       </c>
       <c r="D793">
-        <v>38325</v>
+        <v>38425</v>
       </c>
     </row>
     <row r="794" spans="1:4" x14ac:dyDescent="0.3">
@@ -17212,7 +17212,7 @@
         <v>50</v>
       </c>
       <c r="D794">
-        <v>38375</v>
+        <v>38475</v>
       </c>
     </row>
     <row r="795" spans="1:4" x14ac:dyDescent="0.3">
@@ -17226,7 +17226,7 @@
         <v>50</v>
       </c>
       <c r="D795">
-        <v>38425</v>
+        <v>38525</v>
       </c>
     </row>
     <row r="796" spans="1:4" x14ac:dyDescent="0.3">
@@ -17240,7 +17240,7 @@
         <v>50</v>
       </c>
       <c r="D796">
-        <v>38475</v>
+        <v>38575</v>
       </c>
     </row>
     <row r="797" spans="1:4" x14ac:dyDescent="0.3">
@@ -17254,7 +17254,7 @@
         <v>50</v>
       </c>
       <c r="D797">
-        <v>38525</v>
+        <v>38625</v>
       </c>
     </row>
     <row r="798" spans="1:4" x14ac:dyDescent="0.3">
@@ -17268,7 +17268,7 @@
         <v>50</v>
       </c>
       <c r="D798">
-        <v>38575</v>
+        <v>38675</v>
       </c>
     </row>
     <row r="799" spans="1:4" x14ac:dyDescent="0.3">
@@ -17282,7 +17282,7 @@
         <v>50</v>
       </c>
       <c r="D799">
-        <v>38625</v>
+        <v>38725</v>
       </c>
     </row>
     <row r="800" spans="1:4" x14ac:dyDescent="0.3">
@@ -17296,7 +17296,7 @@
         <v>50</v>
       </c>
       <c r="D800">
-        <v>38675</v>
+        <v>38775</v>
       </c>
     </row>
     <row r="801" spans="1:4" x14ac:dyDescent="0.3">
@@ -17310,7 +17310,7 @@
         <v>50</v>
       </c>
       <c r="D801">
-        <v>38725</v>
+        <v>38825</v>
       </c>
     </row>
     <row r="802" spans="1:4" x14ac:dyDescent="0.3">
@@ -17324,7 +17324,7 @@
         <v>50</v>
       </c>
       <c r="D802">
-        <v>38775</v>
+        <v>38875</v>
       </c>
     </row>
     <row r="803" spans="1:4" x14ac:dyDescent="0.3">
@@ -17338,7 +17338,7 @@
         <v>50</v>
       </c>
       <c r="D803">
-        <v>38825</v>
+        <v>38925</v>
       </c>
     </row>
     <row r="804" spans="1:4" x14ac:dyDescent="0.3">
@@ -17352,7 +17352,7 @@
         <v>50</v>
       </c>
       <c r="D804">
-        <v>38875</v>
+        <v>38975</v>
       </c>
     </row>
     <row r="805" spans="1:4" x14ac:dyDescent="0.3">
@@ -17366,7 +17366,7 @@
         <v>50</v>
       </c>
       <c r="D805">
-        <v>38925</v>
+        <v>39025</v>
       </c>
     </row>
     <row r="806" spans="1:4" x14ac:dyDescent="0.3">
@@ -17380,7 +17380,7 @@
         <v>50</v>
       </c>
       <c r="D806">
-        <v>38975</v>
+        <v>39075</v>
       </c>
     </row>
     <row r="807" spans="1:4" x14ac:dyDescent="0.3">
@@ -17394,7 +17394,7 @@
         <v>50</v>
       </c>
       <c r="D807">
-        <v>39025</v>
+        <v>39125</v>
       </c>
     </row>
     <row r="808" spans="1:4" x14ac:dyDescent="0.3">
@@ -17408,7 +17408,7 @@
         <v>50</v>
       </c>
       <c r="D808">
-        <v>39075</v>
+        <v>39175</v>
       </c>
     </row>
     <row r="809" spans="1:4" x14ac:dyDescent="0.3">
@@ -17422,7 +17422,7 @@
         <v>50</v>
       </c>
       <c r="D809">
-        <v>39125</v>
+        <v>39225</v>
       </c>
     </row>
     <row r="810" spans="1:4" x14ac:dyDescent="0.3">
@@ -17436,7 +17436,7 @@
         <v>50</v>
       </c>
       <c r="D810">
-        <v>39175</v>
+        <v>39275</v>
       </c>
     </row>
     <row r="811" spans="1:4" x14ac:dyDescent="0.3">
@@ -17450,7 +17450,7 @@
         <v>50</v>
       </c>
       <c r="D811">
-        <v>39225</v>
+        <v>39325</v>
       </c>
     </row>
     <row r="812" spans="1:4" x14ac:dyDescent="0.3">
@@ -17464,7 +17464,7 @@
         <v>50</v>
       </c>
       <c r="D812">
-        <v>39275</v>
+        <v>39375</v>
       </c>
     </row>
     <row r="813" spans="1:4" x14ac:dyDescent="0.3">
@@ -17478,7 +17478,7 @@
         <v>50</v>
       </c>
       <c r="D813">
-        <v>39325</v>
+        <v>39425</v>
       </c>
     </row>
     <row r="814" spans="1:4" x14ac:dyDescent="0.3">
@@ -17492,7 +17492,7 @@
         <v>50</v>
       </c>
       <c r="D814">
-        <v>39375</v>
+        <v>39475</v>
       </c>
     </row>
     <row r="815" spans="1:4" x14ac:dyDescent="0.3">
@@ -17506,7 +17506,7 @@
         <v>50</v>
       </c>
       <c r="D815">
-        <v>39425</v>
+        <v>39525</v>
       </c>
     </row>
     <row r="816" spans="1:4" x14ac:dyDescent="0.3">
@@ -17520,7 +17520,7 @@
         <v>50</v>
       </c>
       <c r="D816">
-        <v>39475</v>
+        <v>39575</v>
       </c>
     </row>
     <row r="817" spans="1:4" x14ac:dyDescent="0.3">
@@ -17534,7 +17534,7 @@
         <v>50</v>
       </c>
       <c r="D817">
-        <v>39525</v>
+        <v>39625</v>
       </c>
     </row>
     <row r="818" spans="1:4" x14ac:dyDescent="0.3">
@@ -17548,7 +17548,7 @@
         <v>50</v>
       </c>
       <c r="D818">
-        <v>39575</v>
+        <v>39675</v>
       </c>
     </row>
     <row r="819" spans="1:4" x14ac:dyDescent="0.3">
@@ -17562,7 +17562,7 @@
         <v>50</v>
       </c>
       <c r="D819">
-        <v>39625</v>
+        <v>39725</v>
       </c>
     </row>
     <row r="820" spans="1:4" x14ac:dyDescent="0.3">
@@ -17576,7 +17576,7 @@
         <v>50</v>
       </c>
       <c r="D820">
-        <v>39675</v>
+        <v>39775</v>
       </c>
     </row>
     <row r="821" spans="1:4" x14ac:dyDescent="0.3">
@@ -17590,7 +17590,7 @@
         <v>50</v>
       </c>
       <c r="D821">
-        <v>39725</v>
+        <v>39825</v>
       </c>
     </row>
     <row r="822" spans="1:4" x14ac:dyDescent="0.3">
@@ -17604,7 +17604,7 @@
         <v>50</v>
       </c>
       <c r="D822">
-        <v>39775</v>
+        <v>39875</v>
       </c>
     </row>
     <row r="823" spans="1:4" x14ac:dyDescent="0.3">
@@ -17618,7 +17618,7 @@
         <v>50</v>
       </c>
       <c r="D823">
-        <v>39825</v>
+        <v>39925</v>
       </c>
     </row>
     <row r="824" spans="1:4" x14ac:dyDescent="0.3">
@@ -17632,7 +17632,7 @@
         <v>50</v>
       </c>
       <c r="D824">
-        <v>39875</v>
+        <v>39975</v>
       </c>
     </row>
     <row r="825" spans="1:4" x14ac:dyDescent="0.3">
@@ -17646,7 +17646,7 @@
         <v>50</v>
       </c>
       <c r="D825">
-        <v>39925</v>
+        <v>40025</v>
       </c>
     </row>
     <row r="826" spans="1:4" x14ac:dyDescent="0.3">
@@ -17660,7 +17660,7 @@
         <v>50</v>
       </c>
       <c r="D826">
-        <v>39975</v>
+        <v>40075</v>
       </c>
     </row>
     <row r="827" spans="1:4" x14ac:dyDescent="0.3">
@@ -17674,7 +17674,7 @@
         <v>50</v>
       </c>
       <c r="D827">
-        <v>40025</v>
+        <v>40125</v>
       </c>
     </row>
     <row r="828" spans="1:4" x14ac:dyDescent="0.3">
@@ -17688,7 +17688,7 @@
         <v>50</v>
       </c>
       <c r="D828">
-        <v>40075</v>
+        <v>40175</v>
       </c>
     </row>
     <row r="829" spans="1:4" x14ac:dyDescent="0.3">
@@ -17702,7 +17702,7 @@
         <v>50</v>
       </c>
       <c r="D829">
-        <v>40125</v>
+        <v>40225</v>
       </c>
     </row>
     <row r="830" spans="1:4" x14ac:dyDescent="0.3">
@@ -17716,7 +17716,7 @@
         <v>50</v>
       </c>
       <c r="D830">
-        <v>40175</v>
+        <v>40275</v>
       </c>
     </row>
     <row r="831" spans="1:4" x14ac:dyDescent="0.3">
@@ -17730,7 +17730,7 @@
         <v>50</v>
       </c>
       <c r="D831">
-        <v>40225</v>
+        <v>40325</v>
       </c>
     </row>
     <row r="832" spans="1:4" x14ac:dyDescent="0.3">
@@ -17744,7 +17744,7 @@
         <v>50</v>
       </c>
       <c r="D832">
-        <v>40275</v>
+        <v>40375</v>
       </c>
     </row>
     <row r="833" spans="1:4" x14ac:dyDescent="0.3">
@@ -17758,7 +17758,7 @@
         <v>50</v>
       </c>
       <c r="D833">
-        <v>40325</v>
+        <v>40425</v>
       </c>
     </row>
     <row r="834" spans="1:4" x14ac:dyDescent="0.3">
@@ -17772,7 +17772,7 @@
         <v>50</v>
       </c>
       <c r="D834">
-        <v>40375</v>
+        <v>40475</v>
       </c>
     </row>
     <row r="835" spans="1:4" x14ac:dyDescent="0.3">
@@ -17786,7 +17786,7 @@
         <v>50</v>
       </c>
       <c r="D835">
-        <v>40425</v>
+        <v>40525</v>
       </c>
     </row>
     <row r="836" spans="1:4" x14ac:dyDescent="0.3">
@@ -17800,7 +17800,7 @@
         <v>50</v>
       </c>
       <c r="D836">
-        <v>40475</v>
+        <v>40575</v>
       </c>
     </row>
     <row r="837" spans="1:4" x14ac:dyDescent="0.3">
@@ -17814,7 +17814,7 @@
         <v>50</v>
       </c>
       <c r="D837">
-        <v>40525</v>
+        <v>40625</v>
       </c>
     </row>
     <row r="838" spans="1:4" x14ac:dyDescent="0.3">
@@ -17828,7 +17828,7 @@
         <v>50</v>
       </c>
       <c r="D838">
-        <v>40575</v>
+        <v>40675</v>
       </c>
     </row>
     <row r="839" spans="1:4" x14ac:dyDescent="0.3">
@@ -17842,7 +17842,7 @@
         <v>50</v>
       </c>
       <c r="D839">
-        <v>40625</v>
+        <v>40725</v>
       </c>
     </row>
     <row r="840" spans="1:4" x14ac:dyDescent="0.3">
@@ -17856,7 +17856,7 @@
         <v>50</v>
       </c>
       <c r="D840">
-        <v>40675</v>
+        <v>40775</v>
       </c>
     </row>
     <row r="841" spans="1:4" x14ac:dyDescent="0.3">
@@ -17870,7 +17870,7 @@
         <v>50</v>
       </c>
       <c r="D841">
-        <v>40725</v>
+        <v>40825</v>
       </c>
     </row>
     <row r="842" spans="1:4" x14ac:dyDescent="0.3">
@@ -17884,7 +17884,7 @@
         <v>50</v>
       </c>
       <c r="D842">
-        <v>40775</v>
+        <v>40875</v>
       </c>
     </row>
     <row r="843" spans="1:4" x14ac:dyDescent="0.3">
@@ -17898,7 +17898,7 @@
         <v>50</v>
       </c>
       <c r="D843">
-        <v>40825</v>
+        <v>40925</v>
       </c>
     </row>
     <row r="844" spans="1:4" x14ac:dyDescent="0.3">
@@ -17912,7 +17912,7 @@
         <v>50</v>
       </c>
       <c r="D844">
-        <v>40875</v>
+        <v>40975</v>
       </c>
     </row>
     <row r="845" spans="1:4" x14ac:dyDescent="0.3">
@@ -17926,7 +17926,7 @@
         <v>50</v>
       </c>
       <c r="D845">
-        <v>40925</v>
+        <v>41025</v>
       </c>
     </row>
     <row r="846" spans="1:4" x14ac:dyDescent="0.3">
@@ -17940,7 +17940,7 @@
         <v>50</v>
       </c>
       <c r="D846">
-        <v>40975</v>
+        <v>41075</v>
       </c>
     </row>
     <row r="847" spans="1:4" x14ac:dyDescent="0.3">
@@ -17954,7 +17954,7 @@
         <v>50</v>
       </c>
       <c r="D847">
-        <v>41025</v>
+        <v>41125</v>
       </c>
     </row>
     <row r="848" spans="1:4" x14ac:dyDescent="0.3">
@@ -17968,7 +17968,7 @@
         <v>50</v>
       </c>
       <c r="D848">
-        <v>41075</v>
+        <v>41175</v>
       </c>
     </row>
     <row r="849" spans="1:4" x14ac:dyDescent="0.3">
@@ -17982,7 +17982,7 @@
         <v>50</v>
       </c>
       <c r="D849">
-        <v>41125</v>
+        <v>41225</v>
       </c>
     </row>
     <row r="850" spans="1:4" x14ac:dyDescent="0.3">
@@ -17996,7 +17996,7 @@
         <v>50</v>
       </c>
       <c r="D850">
-        <v>41175</v>
+        <v>41275</v>
       </c>
     </row>
     <row r="851" spans="1:4" x14ac:dyDescent="0.3">
@@ -18010,7 +18010,7 @@
         <v>50</v>
       </c>
       <c r="D851">
-        <v>41225</v>
+        <v>41325</v>
       </c>
     </row>
     <row r="852" spans="1:4" x14ac:dyDescent="0.3">
@@ -18024,7 +18024,7 @@
         <v>50</v>
       </c>
       <c r="D852">
-        <v>41275</v>
+        <v>41375</v>
       </c>
     </row>
     <row r="853" spans="1:4" x14ac:dyDescent="0.3">
@@ -18038,7 +18038,7 @@
         <v>50</v>
       </c>
       <c r="D853">
-        <v>41325</v>
+        <v>41425</v>
       </c>
     </row>
     <row r="854" spans="1:4" x14ac:dyDescent="0.3">
@@ -18052,7 +18052,7 @@
         <v>50</v>
       </c>
       <c r="D854">
-        <v>41375</v>
+        <v>41475</v>
       </c>
     </row>
     <row r="855" spans="1:4" x14ac:dyDescent="0.3">
@@ -18066,7 +18066,7 @@
         <v>50</v>
       </c>
       <c r="D855">
-        <v>41425</v>
+        <v>41525</v>
       </c>
     </row>
     <row r="856" spans="1:4" x14ac:dyDescent="0.3">
@@ -18080,7 +18080,7 @@
         <v>50</v>
       </c>
       <c r="D856">
-        <v>41475</v>
+        <v>41575</v>
       </c>
     </row>
     <row r="857" spans="1:4" x14ac:dyDescent="0.3">
@@ -18094,7 +18094,7 @@
         <v>50</v>
       </c>
       <c r="D857">
-        <v>41525</v>
+        <v>41625</v>
       </c>
     </row>
     <row r="858" spans="1:4" x14ac:dyDescent="0.3">
@@ -18108,7 +18108,7 @@
         <v>50</v>
       </c>
       <c r="D858">
-        <v>41575</v>
+        <v>41675</v>
       </c>
     </row>
     <row r="859" spans="1:4" x14ac:dyDescent="0.3">
@@ -18122,7 +18122,7 @@
         <v>50</v>
       </c>
       <c r="D859">
-        <v>41625</v>
+        <v>41725</v>
       </c>
     </row>
     <row r="860" spans="1:4" x14ac:dyDescent="0.3">
@@ -18136,7 +18136,7 @@
         <v>50</v>
       </c>
       <c r="D860">
-        <v>41675</v>
+        <v>41775</v>
       </c>
     </row>
     <row r="861" spans="1:4" x14ac:dyDescent="0.3">
@@ -18150,7 +18150,7 @@
         <v>50</v>
       </c>
       <c r="D861">
-        <v>41725</v>
+        <v>41825</v>
       </c>
     </row>
     <row r="862" spans="1:4" x14ac:dyDescent="0.3">
@@ -18164,7 +18164,7 @@
         <v>50</v>
       </c>
       <c r="D862">
-        <v>41775</v>
+        <v>41875</v>
       </c>
     </row>
     <row r="863" spans="1:4" x14ac:dyDescent="0.3">
@@ -18178,7 +18178,7 @@
         <v>50</v>
       </c>
       <c r="D863">
-        <v>41825</v>
+        <v>41925</v>
       </c>
     </row>
     <row r="864" spans="1:4" x14ac:dyDescent="0.3">
@@ -18192,7 +18192,7 @@
         <v>50</v>
       </c>
       <c r="D864">
-        <v>41875</v>
+        <v>41975</v>
       </c>
     </row>
     <row r="865" spans="1:4" x14ac:dyDescent="0.3">
@@ -18206,7 +18206,7 @@
         <v>50</v>
       </c>
       <c r="D865">
-        <v>41925</v>
+        <v>42025</v>
       </c>
     </row>
     <row r="866" spans="1:4" x14ac:dyDescent="0.3">
@@ -18220,7 +18220,7 @@
         <v>50</v>
       </c>
       <c r="D866">
-        <v>41975</v>
+        <v>42075</v>
       </c>
     </row>
     <row r="867" spans="1:4" x14ac:dyDescent="0.3">
@@ -18234,7 +18234,7 @@
         <v>50</v>
       </c>
       <c r="D867">
-        <v>42025</v>
+        <v>42125</v>
       </c>
     </row>
     <row r="868" spans="1:4" x14ac:dyDescent="0.3">
@@ -18248,7 +18248,7 @@
         <v>50</v>
       </c>
       <c r="D868">
-        <v>42075</v>
+        <v>42175</v>
       </c>
     </row>
     <row r="869" spans="1:4" x14ac:dyDescent="0.3">
@@ -18262,7 +18262,7 @@
         <v>50</v>
       </c>
       <c r="D869">
-        <v>42125</v>
+        <v>42225</v>
       </c>
     </row>
     <row r="870" spans="1:4" x14ac:dyDescent="0.3">
@@ -18276,7 +18276,7 @@
         <v>50</v>
       </c>
       <c r="D870">
-        <v>42175</v>
+        <v>42275</v>
       </c>
     </row>
     <row r="871" spans="1:4" x14ac:dyDescent="0.3">
@@ -18290,7 +18290,7 @@
         <v>50</v>
       </c>
       <c r="D871">
-        <v>42225</v>
+        <v>42325</v>
       </c>
     </row>
     <row r="872" spans="1:4" x14ac:dyDescent="0.3">
@@ -18304,7 +18304,7 @@
         <v>50</v>
       </c>
       <c r="D872">
-        <v>42275</v>
+        <v>42375</v>
       </c>
     </row>
     <row r="873" spans="1:4" x14ac:dyDescent="0.3">
@@ -18318,7 +18318,7 @@
         <v>50</v>
       </c>
       <c r="D873">
-        <v>42325</v>
+        <v>42425</v>
       </c>
     </row>
     <row r="874" spans="1:4" x14ac:dyDescent="0.3">
@@ -18332,7 +18332,7 @@
         <v>50</v>
       </c>
       <c r="D874">
-        <v>42375</v>
+        <v>42475</v>
       </c>
     </row>
     <row r="875" spans="1:4" x14ac:dyDescent="0.3">
@@ -18346,7 +18346,7 @@
         <v>50</v>
       </c>
       <c r="D875">
-        <v>42425</v>
+        <v>42525</v>
       </c>
     </row>
     <row r="876" spans="1:4" x14ac:dyDescent="0.3">
@@ -18360,7 +18360,7 @@
         <v>50</v>
       </c>
       <c r="D876">
-        <v>42475</v>
+        <v>42575</v>
       </c>
     </row>
     <row r="877" spans="1:4" x14ac:dyDescent="0.3">
@@ -18374,7 +18374,7 @@
         <v>50</v>
       </c>
       <c r="D877">
-        <v>42525</v>
+        <v>42625</v>
       </c>
     </row>
     <row r="878" spans="1:4" x14ac:dyDescent="0.3">
@@ -18388,7 +18388,7 @@
         <v>50</v>
       </c>
       <c r="D878">
-        <v>42575</v>
+        <v>42675</v>
       </c>
     </row>
     <row r="879" spans="1:4" x14ac:dyDescent="0.3">
@@ -18402,7 +18402,7 @@
         <v>50</v>
       </c>
       <c r="D879">
-        <v>42625</v>
+        <v>42725</v>
       </c>
     </row>
     <row r="880" spans="1:4" x14ac:dyDescent="0.3">
@@ -18416,7 +18416,7 @@
         <v>50</v>
       </c>
       <c r="D880">
-        <v>42675</v>
+        <v>42775</v>
       </c>
     </row>
     <row r="881" spans="1:4" x14ac:dyDescent="0.3">
@@ -18430,7 +18430,7 @@
         <v>50</v>
       </c>
       <c r="D881">
-        <v>42725</v>
+        <v>42825</v>
       </c>
     </row>
     <row r="882" spans="1:4" x14ac:dyDescent="0.3">
@@ -18444,7 +18444,7 @@
         <v>50</v>
       </c>
       <c r="D882">
-        <v>42775</v>
+        <v>42875</v>
       </c>
     </row>
     <row r="883" spans="1:4" x14ac:dyDescent="0.3">
@@ -18458,7 +18458,7 @@
         <v>50</v>
       </c>
       <c r="D883">
-        <v>42825</v>
+        <v>42925</v>
       </c>
     </row>
     <row r="884" spans="1:4" x14ac:dyDescent="0.3">
@@ -18472,7 +18472,7 @@
         <v>50</v>
       </c>
       <c r="D884">
-        <v>42875</v>
+        <v>42975</v>
       </c>
     </row>
     <row r="885" spans="1:4" x14ac:dyDescent="0.3">
@@ -18486,7 +18486,7 @@
         <v>50</v>
       </c>
       <c r="D885">
-        <v>42925</v>
+        <v>43025</v>
       </c>
     </row>
     <row r="886" spans="1:4" x14ac:dyDescent="0.3">
@@ -18500,7 +18500,7 @@
         <v>50</v>
       </c>
       <c r="D886">
-        <v>42975</v>
+        <v>43075</v>
       </c>
     </row>
     <row r="887" spans="1:4" x14ac:dyDescent="0.3">
@@ -18514,7 +18514,7 @@
         <v>50</v>
       </c>
       <c r="D887">
-        <v>43025</v>
+        <v>43125</v>
       </c>
     </row>
     <row r="888" spans="1:4" x14ac:dyDescent="0.3">
@@ -18528,7 +18528,7 @@
         <v>50</v>
       </c>
       <c r="D888">
-        <v>43075</v>
+        <v>43175</v>
       </c>
     </row>
     <row r="889" spans="1:4" x14ac:dyDescent="0.3">
@@ -18542,7 +18542,7 @@
         <v>50</v>
       </c>
       <c r="D889">
-        <v>43125</v>
+        <v>43225</v>
       </c>
     </row>
     <row r="890" spans="1:4" x14ac:dyDescent="0.3">
@@ -18556,7 +18556,7 @@
         <v>50</v>
       </c>
       <c r="D890">
-        <v>43175</v>
+        <v>43275</v>
       </c>
     </row>
     <row r="891" spans="1:4" x14ac:dyDescent="0.3">
@@ -18570,7 +18570,7 @@
         <v>50</v>
       </c>
       <c r="D891">
-        <v>43225</v>
+        <v>43325</v>
       </c>
     </row>
     <row r="892" spans="1:4" x14ac:dyDescent="0.3">
@@ -18584,7 +18584,7 @@
         <v>50</v>
       </c>
       <c r="D892">
-        <v>43275</v>
+        <v>43375</v>
       </c>
     </row>
     <row r="893" spans="1:4" x14ac:dyDescent="0.3">
@@ -18598,7 +18598,7 @@
         <v>50</v>
       </c>
       <c r="D893">
-        <v>43325</v>
+        <v>43425</v>
       </c>
     </row>
     <row r="894" spans="1:4" x14ac:dyDescent="0.3">
@@ -18612,7 +18612,7 @@
         <v>50</v>
       </c>
       <c r="D894">
-        <v>43375</v>
+        <v>43475</v>
       </c>
     </row>
     <row r="895" spans="1:4" x14ac:dyDescent="0.3">
@@ -18626,7 +18626,7 @@
         <v>50</v>
       </c>
       <c r="D895">
-        <v>43425</v>
+        <v>43525</v>
       </c>
     </row>
     <row r="896" spans="1:4" x14ac:dyDescent="0.3">
@@ -18640,7 +18640,7 @@
         <v>50</v>
       </c>
       <c r="D896">
-        <v>43475</v>
+        <v>43575</v>
       </c>
     </row>
     <row r="897" spans="1:4" x14ac:dyDescent="0.3">
@@ -18654,7 +18654,7 @@
         <v>50</v>
       </c>
       <c r="D897">
-        <v>43525</v>
+        <v>43625</v>
       </c>
     </row>
     <row r="898" spans="1:4" x14ac:dyDescent="0.3">
@@ -18668,7 +18668,7 @@
         <v>50</v>
       </c>
       <c r="D898">
-        <v>43575</v>
+        <v>43675</v>
       </c>
     </row>
     <row r="899" spans="1:4" x14ac:dyDescent="0.3">
@@ -18682,7 +18682,7 @@
         <v>50</v>
       </c>
       <c r="D899">
-        <v>43625</v>
+        <v>43725</v>
       </c>
     </row>
     <row r="900" spans="1:4" x14ac:dyDescent="0.3">
@@ -18696,7 +18696,7 @@
         <v>50</v>
       </c>
       <c r="D900">
-        <v>43675</v>
+        <v>43775</v>
       </c>
     </row>
     <row r="901" spans="1:4" x14ac:dyDescent="0.3">
@@ -18710,7 +18710,7 @@
         <v>50</v>
       </c>
       <c r="D901">
-        <v>43725</v>
+        <v>43825</v>
       </c>
     </row>
     <row r="902" spans="1:4" x14ac:dyDescent="0.3">
@@ -18724,7 +18724,7 @@
         <v>50</v>
       </c>
       <c r="D902">
-        <v>43775</v>
+        <v>43875</v>
       </c>
     </row>
     <row r="903" spans="1:4" x14ac:dyDescent="0.3">
@@ -18738,7 +18738,7 @@
         <v>50</v>
       </c>
       <c r="D903">
-        <v>43825</v>
+        <v>43925</v>
       </c>
     </row>
     <row r="904" spans="1:4" x14ac:dyDescent="0.3">
@@ -18752,7 +18752,7 @@
         <v>50</v>
       </c>
       <c r="D904">
-        <v>43875</v>
+        <v>43975</v>
       </c>
     </row>
     <row r="905" spans="1:4" x14ac:dyDescent="0.3">
@@ -18766,7 +18766,7 @@
         <v>50</v>
       </c>
       <c r="D905">
-        <v>43925</v>
+        <v>44025</v>
       </c>
     </row>
     <row r="906" spans="1:4" x14ac:dyDescent="0.3">
@@ -18780,7 +18780,7 @@
         <v>50</v>
       </c>
       <c r="D906">
-        <v>43975</v>
+        <v>44075</v>
       </c>
     </row>
     <row r="907" spans="1:4" x14ac:dyDescent="0.3">
@@ -18794,7 +18794,7 @@
         <v>50</v>
       </c>
       <c r="D907">
-        <v>44025</v>
+        <v>44125</v>
       </c>
     </row>
     <row r="908" spans="1:4" x14ac:dyDescent="0.3">
@@ -18808,7 +18808,7 @@
         <v>50</v>
       </c>
       <c r="D908">
-        <v>44075</v>
+        <v>44175</v>
       </c>
     </row>
     <row r="909" spans="1:4" x14ac:dyDescent="0.3">
@@ -18822,7 +18822,7 @@
         <v>50</v>
       </c>
       <c r="D909">
-        <v>44125</v>
+        <v>44225</v>
       </c>
     </row>
     <row r="910" spans="1:4" x14ac:dyDescent="0.3">
@@ -18836,7 +18836,7 @@
         <v>50</v>
       </c>
       <c r="D910">
-        <v>44175</v>
+        <v>44275</v>
       </c>
     </row>
     <row r="911" spans="1:4" x14ac:dyDescent="0.3">
@@ -18850,7 +18850,7 @@
         <v>50</v>
       </c>
       <c r="D911">
-        <v>44225</v>
+        <v>44325</v>
       </c>
     </row>
     <row r="912" spans="1:4" x14ac:dyDescent="0.3">
@@ -18864,7 +18864,7 @@
         <v>50</v>
       </c>
       <c r="D912">
-        <v>44275</v>
+        <v>44375</v>
       </c>
     </row>
     <row r="913" spans="1:4" x14ac:dyDescent="0.3">
@@ -18878,7 +18878,7 @@
         <v>50</v>
       </c>
       <c r="D913">
-        <v>44325</v>
+        <v>44425</v>
       </c>
     </row>
     <row r="914" spans="1:4" x14ac:dyDescent="0.3">
@@ -18892,7 +18892,7 @@
         <v>50</v>
       </c>
       <c r="D914">
-        <v>44375</v>
+        <v>44475</v>
       </c>
     </row>
     <row r="915" spans="1:4" x14ac:dyDescent="0.3">
@@ -18906,7 +18906,7 @@
         <v>50</v>
       </c>
       <c r="D915">
-        <v>44425</v>
+        <v>44525</v>
       </c>
     </row>
     <row r="916" spans="1:4" x14ac:dyDescent="0.3">
@@ -18920,7 +18920,7 @@
         <v>50</v>
       </c>
       <c r="D916">
-        <v>44475</v>
+        <v>44575</v>
       </c>
     </row>
     <row r="917" spans="1:4" x14ac:dyDescent="0.3">
@@ -18934,7 +18934,7 @@
         <v>50</v>
       </c>
       <c r="D917">
-        <v>44525</v>
+        <v>44625</v>
       </c>
     </row>
     <row r="918" spans="1:4" x14ac:dyDescent="0.3">
@@ -18948,7 +18948,7 @@
         <v>50</v>
       </c>
       <c r="D918">
-        <v>44575</v>
+        <v>44675</v>
       </c>
     </row>
     <row r="919" spans="1:4" x14ac:dyDescent="0.3">
@@ -18962,7 +18962,7 @@
         <v>50</v>
       </c>
       <c r="D919">
-        <v>44625</v>
+        <v>44725</v>
       </c>
     </row>
     <row r="920" spans="1:4" x14ac:dyDescent="0.3">
@@ -18976,7 +18976,7 @@
         <v>50</v>
       </c>
       <c r="D920">
-        <v>44675</v>
+        <v>44775</v>
       </c>
     </row>
     <row r="921" spans="1:4" x14ac:dyDescent="0.3">
@@ -18990,7 +18990,7 @@
         <v>50</v>
       </c>
       <c r="D921">
-        <v>44725</v>
+        <v>44825</v>
       </c>
     </row>
     <row r="922" spans="1:4" x14ac:dyDescent="0.3">
@@ -19004,7 +19004,7 @@
         <v>50</v>
       </c>
       <c r="D922">
-        <v>44775</v>
+        <v>44875</v>
       </c>
     </row>
     <row r="923" spans="1:4" x14ac:dyDescent="0.3">
@@ -19018,7 +19018,7 @@
         <v>50</v>
       </c>
       <c r="D923">
-        <v>44825</v>
+        <v>44925</v>
       </c>
     </row>
     <row r="924" spans="1:4" x14ac:dyDescent="0.3">
@@ -19032,7 +19032,7 @@
         <v>50</v>
       </c>
       <c r="D924">
-        <v>44875</v>
+        <v>44975</v>
       </c>
     </row>
     <row r="925" spans="1:4" x14ac:dyDescent="0.3">
@@ -19046,7 +19046,7 @@
         <v>50</v>
       </c>
       <c r="D925">
-        <v>44925</v>
+        <v>45025</v>
       </c>
     </row>
     <row r="926" spans="1:4" x14ac:dyDescent="0.3">
@@ -19060,7 +19060,7 @@
         <v>50</v>
       </c>
       <c r="D926">
-        <v>44975</v>
+        <v>45075</v>
       </c>
     </row>
     <row r="927" spans="1:4" x14ac:dyDescent="0.3">
@@ -19074,7 +19074,7 @@
         <v>50</v>
       </c>
       <c r="D927">
-        <v>45025</v>
+        <v>45125</v>
       </c>
     </row>
     <row r="928" spans="1:4" x14ac:dyDescent="0.3">
@@ -19088,7 +19088,7 @@
         <v>50</v>
       </c>
       <c r="D928">
-        <v>45075</v>
+        <v>45175</v>
       </c>
     </row>
     <row r="929" spans="1:4" x14ac:dyDescent="0.3">
@@ -19102,7 +19102,7 @@
         <v>50</v>
       </c>
       <c r="D929">
-        <v>45125</v>
+        <v>45225</v>
       </c>
     </row>
     <row r="930" spans="1:4" x14ac:dyDescent="0.3">
@@ -19116,7 +19116,7 @@
         <v>50</v>
       </c>
       <c r="D930">
-        <v>45175</v>
+        <v>45275</v>
       </c>
     </row>
     <row r="931" spans="1:4" x14ac:dyDescent="0.3">
@@ -19130,7 +19130,7 @@
         <v>50</v>
       </c>
       <c r="D931">
-        <v>45225</v>
+        <v>45325</v>
       </c>
     </row>
     <row r="932" spans="1:4" x14ac:dyDescent="0.3">
@@ -19144,7 +19144,7 @@
         <v>50</v>
       </c>
       <c r="D932">
-        <v>45275</v>
+        <v>45375</v>
       </c>
     </row>
     <row r="933" spans="1:4" x14ac:dyDescent="0.3">
@@ -19158,7 +19158,7 @@
         <v>50</v>
       </c>
       <c r="D933">
-        <v>45325</v>
+        <v>45425</v>
       </c>
     </row>
     <row r="934" spans="1:4" x14ac:dyDescent="0.3">
@@ -19172,7 +19172,7 @@
         <v>50</v>
       </c>
       <c r="D934">
-        <v>45375</v>
+        <v>45475</v>
       </c>
     </row>
     <row r="935" spans="1:4" x14ac:dyDescent="0.3">
@@ -19186,7 +19186,7 @@
         <v>50</v>
       </c>
       <c r="D935">
-        <v>45425</v>
+        <v>45525</v>
       </c>
     </row>
     <row r="936" spans="1:4" x14ac:dyDescent="0.3">
@@ -19200,7 +19200,7 @@
         <v>50</v>
       </c>
       <c r="D936">
-        <v>45475</v>
+        <v>45575</v>
       </c>
     </row>
     <row r="937" spans="1:4" x14ac:dyDescent="0.3">
@@ -19214,7 +19214,7 @@
         <v>50</v>
       </c>
       <c r="D937">
-        <v>45525</v>
+        <v>45625</v>
       </c>
     </row>
     <row r="938" spans="1:4" x14ac:dyDescent="0.3">
@@ -19228,7 +19228,7 @@
         <v>50</v>
       </c>
       <c r="D938">
-        <v>45575</v>
+        <v>45675</v>
       </c>
     </row>
     <row r="939" spans="1:4" x14ac:dyDescent="0.3">
@@ -19242,7 +19242,7 @@
         <v>50</v>
       </c>
       <c r="D939">
-        <v>45625</v>
+        <v>45725</v>
       </c>
     </row>
     <row r="940" spans="1:4" x14ac:dyDescent="0.3">
@@ -19256,7 +19256,7 @@
         <v>50</v>
       </c>
       <c r="D940">
-        <v>45675</v>
+        <v>45775</v>
       </c>
     </row>
     <row r="941" spans="1:4" x14ac:dyDescent="0.3">
@@ -19270,7 +19270,7 @@
         <v>50</v>
       </c>
       <c r="D941">
-        <v>45725</v>
+        <v>45825</v>
       </c>
     </row>
     <row r="942" spans="1:4" x14ac:dyDescent="0.3">
@@ -19284,7 +19284,7 @@
         <v>50</v>
       </c>
       <c r="D942">
-        <v>45775</v>
+        <v>45875</v>
       </c>
     </row>
     <row r="943" spans="1:4" x14ac:dyDescent="0.3">
@@ -19298,7 +19298,7 @@
         <v>50</v>
       </c>
       <c r="D943">
-        <v>45825</v>
+        <v>45925</v>
       </c>
     </row>
     <row r="944" spans="1:4" x14ac:dyDescent="0.3">
@@ -19312,7 +19312,7 @@
         <v>50</v>
       </c>
       <c r="D944">
-        <v>45875</v>
+        <v>45975</v>
       </c>
     </row>
     <row r="945" spans="1:4" x14ac:dyDescent="0.3">
@@ -19326,7 +19326,7 @@
         <v>50</v>
       </c>
       <c r="D945">
-        <v>45925</v>
+        <v>46025</v>
       </c>
     </row>
     <row r="946" spans="1:4" x14ac:dyDescent="0.3">
@@ -19340,7 +19340,7 @@
         <v>50</v>
       </c>
       <c r="D946">
-        <v>45975</v>
+        <v>46075</v>
       </c>
     </row>
     <row r="947" spans="1:4" x14ac:dyDescent="0.3">
@@ -19354,7 +19354,7 @@
         <v>50</v>
       </c>
       <c r="D947">
-        <v>46025</v>
+        <v>46125</v>
       </c>
     </row>
     <row r="948" spans="1:4" x14ac:dyDescent="0.3">
@@ -19368,7 +19368,7 @@
         <v>50</v>
       </c>
       <c r="D948">
-        <v>46075</v>
+        <v>46175</v>
       </c>
     </row>
     <row r="949" spans="1:4" x14ac:dyDescent="0.3">
@@ -19382,7 +19382,7 @@
         <v>50</v>
       </c>
       <c r="D949">
-        <v>46125</v>
+        <v>46225</v>
       </c>
     </row>
     <row r="950" spans="1:4" x14ac:dyDescent="0.3">
@@ -19396,7 +19396,7 @@
         <v>50</v>
       </c>
       <c r="D950">
-        <v>46175</v>
+        <v>46275</v>
       </c>
     </row>
     <row r="951" spans="1:4" x14ac:dyDescent="0.3">
@@ -19410,7 +19410,7 @@
         <v>50</v>
       </c>
       <c r="D951">
-        <v>46225</v>
+        <v>46325</v>
       </c>
     </row>
     <row r="952" spans="1:4" x14ac:dyDescent="0.3">
@@ -19424,7 +19424,7 @@
         <v>50</v>
       </c>
       <c r="D952">
-        <v>46275</v>
+        <v>46375</v>
       </c>
     </row>
     <row r="953" spans="1:4" x14ac:dyDescent="0.3">
@@ -19438,7 +19438,7 @@
         <v>50</v>
       </c>
       <c r="D953">
-        <v>46325</v>
+        <v>46425</v>
       </c>
     </row>
     <row r="954" spans="1:4" x14ac:dyDescent="0.3">
@@ -19452,7 +19452,7 @@
         <v>50</v>
       </c>
       <c r="D954">
-        <v>46375</v>
+        <v>46475</v>
       </c>
     </row>
     <row r="955" spans="1:4" x14ac:dyDescent="0.3">
@@ -19466,7 +19466,7 @@
         <v>50</v>
       </c>
       <c r="D955">
-        <v>46425</v>
+        <v>46525</v>
       </c>
     </row>
     <row r="956" spans="1:4" x14ac:dyDescent="0.3">
@@ -19480,7 +19480,7 @@
         <v>50</v>
       </c>
       <c r="D956">
-        <v>46475</v>
+        <v>46575</v>
       </c>
     </row>
     <row r="957" spans="1:4" x14ac:dyDescent="0.3">
@@ -19494,7 +19494,7 @@
         <v>50</v>
       </c>
       <c r="D957">
-        <v>46525</v>
+        <v>46625</v>
       </c>
     </row>
     <row r="958" spans="1:4" x14ac:dyDescent="0.3">
@@ -19508,7 +19508,7 @@
         <v>50</v>
       </c>
       <c r="D958">
-        <v>46575</v>
+        <v>46675</v>
       </c>
     </row>
     <row r="959" spans="1:4" x14ac:dyDescent="0.3">
@@ -19522,7 +19522,7 @@
         <v>50</v>
       </c>
       <c r="D959">
-        <v>46625</v>
+        <v>46725</v>
       </c>
     </row>
     <row r="960" spans="1:4" x14ac:dyDescent="0.3">
@@ -19536,7 +19536,7 @@
         <v>50</v>
       </c>
       <c r="D960">
-        <v>46675</v>
+        <v>46775</v>
       </c>
     </row>
     <row r="961" spans="1:4" x14ac:dyDescent="0.3">
@@ -19550,7 +19550,7 @@
         <v>50</v>
       </c>
       <c r="D961">
-        <v>46725</v>
+        <v>46825</v>
       </c>
     </row>
     <row r="962" spans="1:4" x14ac:dyDescent="0.3">
@@ -19564,7 +19564,7 @@
         <v>50</v>
       </c>
       <c r="D962">
-        <v>46775</v>
+        <v>46875</v>
       </c>
     </row>
     <row r="963" spans="1:4" x14ac:dyDescent="0.3">
@@ -19578,7 +19578,7 @@
         <v>50</v>
       </c>
       <c r="D963">
-        <v>46825</v>
+        <v>46925</v>
       </c>
     </row>
     <row r="964" spans="1:4" x14ac:dyDescent="0.3">
@@ -19592,7 +19592,7 @@
         <v>50</v>
       </c>
       <c r="D964">
-        <v>46875</v>
+        <v>46975</v>
       </c>
     </row>
     <row r="965" spans="1:4" x14ac:dyDescent="0.3">
@@ -19606,7 +19606,7 @@
         <v>50</v>
       </c>
       <c r="D965">
-        <v>46925</v>
+        <v>47025</v>
       </c>
     </row>
     <row r="966" spans="1:4" x14ac:dyDescent="0.3">
@@ -19620,7 +19620,7 @@
         <v>50</v>
       </c>
       <c r="D966">
-        <v>46975</v>
+        <v>47075</v>
       </c>
     </row>
     <row r="967" spans="1:4" x14ac:dyDescent="0.3">
@@ -19634,7 +19634,7 @@
         <v>50</v>
       </c>
       <c r="D967">
-        <v>47025</v>
+        <v>47125</v>
       </c>
     </row>
     <row r="968" spans="1:4" x14ac:dyDescent="0.3">
@@ -19648,7 +19648,7 @@
         <v>50</v>
       </c>
       <c r="D968">
-        <v>47075</v>
+        <v>47175</v>
       </c>
     </row>
     <row r="969" spans="1:4" x14ac:dyDescent="0.3">
@@ -19662,7 +19662,7 @@
         <v>50</v>
       </c>
       <c r="D969">
-        <v>47125</v>
+        <v>47225</v>
       </c>
     </row>
     <row r="970" spans="1:4" x14ac:dyDescent="0.3">
@@ -19676,7 +19676,7 @@
         <v>50</v>
       </c>
       <c r="D970">
-        <v>47175</v>
+        <v>47275</v>
       </c>
     </row>
     <row r="971" spans="1:4" x14ac:dyDescent="0.3">
@@ -19690,7 +19690,7 @@
         <v>50</v>
       </c>
       <c r="D971">
-        <v>47225</v>
+        <v>47325</v>
       </c>
     </row>
     <row r="972" spans="1:4" x14ac:dyDescent="0.3">
@@ -19704,7 +19704,7 @@
         <v>50</v>
       </c>
       <c r="D972">
-        <v>47275</v>
+        <v>47375</v>
       </c>
     </row>
     <row r="973" spans="1:4" x14ac:dyDescent="0.3">
@@ -19718,7 +19718,7 @@
         <v>50</v>
       </c>
       <c r="D973">
-        <v>47325</v>
+        <v>47425</v>
       </c>
     </row>
     <row r="974" spans="1:4" x14ac:dyDescent="0.3">
@@ -19732,7 +19732,7 @@
         <v>50</v>
       </c>
       <c r="D974">
-        <v>47375</v>
+        <v>47475</v>
       </c>
     </row>
     <row r="975" spans="1:4" x14ac:dyDescent="0.3">
@@ -19746,7 +19746,7 @@
         <v>50</v>
       </c>
       <c r="D975">
-        <v>47425</v>
+        <v>47525</v>
       </c>
     </row>
     <row r="976" spans="1:4" x14ac:dyDescent="0.3">
@@ -19760,7 +19760,7 @@
         <v>50</v>
       </c>
       <c r="D976">
-        <v>47475</v>
+        <v>47575</v>
       </c>
     </row>
     <row r="977" spans="1:4" x14ac:dyDescent="0.3">
@@ -19774,7 +19774,7 @@
         <v>50</v>
       </c>
       <c r="D977">
-        <v>47525</v>
+        <v>47625</v>
       </c>
     </row>
     <row r="978" spans="1:4" x14ac:dyDescent="0.3">
@@ -19788,7 +19788,7 @@
         <v>50</v>
       </c>
       <c r="D978">
-        <v>47575</v>
+        <v>47675</v>
       </c>
     </row>
     <row r="979" spans="1:4" x14ac:dyDescent="0.3">
@@ -19802,7 +19802,7 @@
         <v>50</v>
       </c>
       <c r="D979">
-        <v>47625</v>
+        <v>47725</v>
       </c>
     </row>
     <row r="980" spans="1:4" x14ac:dyDescent="0.3">
@@ -19816,7 +19816,7 @@
         <v>50</v>
       </c>
       <c r="D980">
-        <v>47675</v>
+        <v>47775</v>
       </c>
     </row>
     <row r="981" spans="1:4" x14ac:dyDescent="0.3">
@@ -19830,7 +19830,7 @@
         <v>50</v>
       </c>
       <c r="D981">
-        <v>47725</v>
+        <v>47825</v>
       </c>
     </row>
     <row r="982" spans="1:4" x14ac:dyDescent="0.3">
@@ -19844,7 +19844,7 @@
         <v>50</v>
       </c>
       <c r="D982">
-        <v>47775</v>
+        <v>47875</v>
       </c>
     </row>
     <row r="983" spans="1:4" x14ac:dyDescent="0.3">
@@ -19858,7 +19858,7 @@
         <v>50</v>
       </c>
       <c r="D983">
-        <v>47825</v>
+        <v>47925</v>
       </c>
     </row>
     <row r="984" spans="1:4" x14ac:dyDescent="0.3">
@@ -19872,7 +19872,7 @@
         <v>50</v>
       </c>
       <c r="D984">
-        <v>47875</v>
+        <v>47975</v>
       </c>
     </row>
     <row r="985" spans="1:4" x14ac:dyDescent="0.3">
@@ -19886,7 +19886,7 @@
         <v>50</v>
       </c>
       <c r="D985">
-        <v>47925</v>
+        <v>48025</v>
       </c>
     </row>
     <row r="986" spans="1:4" x14ac:dyDescent="0.3">
@@ -19900,7 +19900,7 @@
         <v>50</v>
       </c>
       <c r="D986">
-        <v>47975</v>
+        <v>48075</v>
       </c>
     </row>
     <row r="987" spans="1:4" x14ac:dyDescent="0.3">
@@ -19914,7 +19914,7 @@
         <v>50</v>
       </c>
       <c r="D987">
-        <v>48025</v>
+        <v>48125</v>
       </c>
     </row>
     <row r="988" spans="1:4" x14ac:dyDescent="0.3">
@@ -19928,7 +19928,7 @@
         <v>50</v>
       </c>
       <c r="D988">
-        <v>48075</v>
+        <v>48175</v>
       </c>
     </row>
     <row r="989" spans="1:4" x14ac:dyDescent="0.3">
@@ -19942,7 +19942,7 @@
         <v>50</v>
       </c>
       <c r="D989">
-        <v>48125</v>
+        <v>48225</v>
       </c>
     </row>
     <row r="990" spans="1:4" x14ac:dyDescent="0.3">
@@ -19956,7 +19956,7 @@
         <v>50</v>
       </c>
       <c r="D990">
-        <v>48175</v>
+        <v>48275</v>
       </c>
     </row>
     <row r="991" spans="1:4" x14ac:dyDescent="0.3">
@@ -19970,7 +19970,7 @@
         <v>50</v>
       </c>
       <c r="D991">
-        <v>48225</v>
+        <v>48325</v>
       </c>
     </row>
     <row r="992" spans="1:4" x14ac:dyDescent="0.3">
@@ -19984,7 +19984,7 @@
         <v>50</v>
       </c>
       <c r="D992">
-        <v>48275</v>
+        <v>48375</v>
       </c>
     </row>
     <row r="993" spans="1:4" x14ac:dyDescent="0.3">
@@ -19998,7 +19998,7 @@
         <v>50</v>
       </c>
       <c r="D993">
-        <v>48325</v>
+        <v>48425</v>
       </c>
     </row>
     <row r="994" spans="1:4" x14ac:dyDescent="0.3">
@@ -20012,7 +20012,7 @@
         <v>50</v>
       </c>
       <c r="D994">
-        <v>48375</v>
+        <v>48475</v>
       </c>
     </row>
     <row r="995" spans="1:4" x14ac:dyDescent="0.3">
@@ -20026,7 +20026,7 @@
         <v>50</v>
       </c>
       <c r="D995">
-        <v>48425</v>
+        <v>48525</v>
       </c>
     </row>
     <row r="996" spans="1:4" x14ac:dyDescent="0.3">
@@ -20040,7 +20040,7 @@
         <v>50</v>
       </c>
       <c r="D996">
-        <v>48475</v>
+        <v>48575</v>
       </c>
     </row>
     <row r="997" spans="1:4" x14ac:dyDescent="0.3">
@@ -20054,7 +20054,7 @@
         <v>50</v>
       </c>
       <c r="D997">
-        <v>48525</v>
+        <v>48625</v>
       </c>
     </row>
     <row r="998" spans="1:4" x14ac:dyDescent="0.3">
@@ -20068,7 +20068,7 @@
         <v>50</v>
       </c>
       <c r="D998">
-        <v>48575</v>
+        <v>48675</v>
       </c>
     </row>
     <row r="999" spans="1:4" x14ac:dyDescent="0.3">
@@ -20082,7 +20082,7 @@
         <v>50</v>
       </c>
       <c r="D999">
-        <v>48625</v>
+        <v>48725</v>
       </c>
     </row>
     <row r="1000" spans="1:4" x14ac:dyDescent="0.3">
@@ -20096,7 +20096,7 @@
         <v>50</v>
       </c>
       <c r="D1000">
-        <v>48675</v>
+        <v>48775</v>
       </c>
     </row>
     <row r="1001" spans="1:4" x14ac:dyDescent="0.3">
@@ -20110,7 +20110,7 @@
         <v>50</v>
       </c>
       <c r="D1001">
-        <v>48725</v>
+        <v>48825</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/Shop.xlsx
+++ b/Excel/Shop.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49C349AA-23E5-4B62-8B0B-0404942546F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65CBEAC1-969A-4FC2-8E92-AA926D98948E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="2670" windowWidth="24240" windowHeight="13140" firstSheet="5" activeTab="9" xr2:uid="{1A95D980-8F25-43B6-BA87-364295A77694}"/>
+    <workbookView xWindow="28680" yWindow="2670" windowWidth="24240" windowHeight="13140" xr2:uid="{1A95D980-8F25-43B6-BA87-364295A77694}"/>
   </bookViews>
   <sheets>
     <sheet name="ShopProductTable" sheetId="1" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="899" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1217" uniqueCount="285">
   <si>
     <t>productId|String</t>
   </si>
@@ -460,21 +460,9 @@
     <t>analysisboost_3</t>
   </si>
   <si>
-    <t>ev14_unacquiredspell</t>
-  </si>
-  <si>
     <t>Cash_sAcquiredSpell</t>
   </si>
   <si>
-    <t>ev13_acquiredspell_0001</t>
-  </si>
-  <si>
-    <t>ev13_acquiredspell_0002</t>
-  </si>
-  <si>
-    <t>ev13_acquiredspell</t>
-  </si>
-  <si>
     <t>spellId|String</t>
   </si>
   <si>
@@ -764,6 +752,156 @@
   </si>
   <si>
     <t>CashName_sEquipTypeGacha411</t>
+  </si>
+  <si>
+    <t>Cash_sCharacterGacha</t>
+  </si>
+  <si>
+    <t>ev4_conti_5</t>
+  </si>
+  <si>
+    <t>ev4_conti_6</t>
+  </si>
+  <si>
+    <t>ev4_conti_7</t>
+  </si>
+  <si>
+    <t>ev4_conti_8</t>
+  </si>
+  <si>
+    <t>ev4_conti_9</t>
+  </si>
+  <si>
+    <t>ev4_conti_10</t>
+  </si>
+  <si>
+    <t>ev4_conti_11</t>
+  </si>
+  <si>
+    <t>ev4_conti_12</t>
+  </si>
+  <si>
+    <t>ev4_conti_13</t>
+  </si>
+  <si>
+    <t>ev4_conti_14</t>
+  </si>
+  <si>
+    <t>ev4_conti_15</t>
+  </si>
+  <si>
+    <t>ev4_conti_16</t>
+  </si>
+  <si>
+    <t>ev4_conti_17</t>
+  </si>
+  <si>
+    <t>ev4_conti_18</t>
+  </si>
+  <si>
+    <t>ev4_conti_19</t>
+  </si>
+  <si>
+    <t>ev4_conti_20</t>
+  </si>
+  <si>
+    <t>stageclear_20</t>
+  </si>
+  <si>
+    <t>stageclear_30</t>
+  </si>
+  <si>
+    <t>stageclear_40</t>
+  </si>
+  <si>
+    <t>stageclear_50</t>
+  </si>
+  <si>
+    <t>stageclear_60</t>
+  </si>
+  <si>
+    <t>stageclear_70</t>
+  </si>
+  <si>
+    <t>stageclear_80</t>
+  </si>
+  <si>
+    <t>stageclear_90</t>
+  </si>
+  <si>
+    <t>stageclear_100</t>
+  </si>
+  <si>
+    <t>stageclear_125</t>
+  </si>
+  <si>
+    <t>stageclear_150</t>
+  </si>
+  <si>
+    <t>stageclear_175</t>
+  </si>
+  <si>
+    <t>stageclear_200</t>
+  </si>
+  <si>
+    <t>stageclear_225</t>
+  </si>
+  <si>
+    <t>stageclear_250</t>
+  </si>
+  <si>
+    <t>stageclear_275</t>
+  </si>
+  <si>
+    <t>stageclear_300</t>
+  </si>
+  <si>
+    <t>stageclear_325</t>
+  </si>
+  <si>
+    <t>stageclear_350</t>
+  </si>
+  <si>
+    <t>stageclear_375</t>
+  </si>
+  <si>
+    <t>stageclear_400</t>
+  </si>
+  <si>
+    <t>relay_11</t>
+  </si>
+  <si>
+    <t>relay_12</t>
+  </si>
+  <si>
+    <t>relay_13</t>
+  </si>
+  <si>
+    <t>relay_14</t>
+  </si>
+  <si>
+    <t>relay_15</t>
+  </si>
+  <si>
+    <t>ev14_unacquiredspell_1</t>
+  </si>
+  <si>
+    <t>ev14_unacquiredspell_2</t>
+  </si>
+  <si>
+    <t>ev13_acquiredspell_1</t>
+  </si>
+  <si>
+    <t>ev13_acquiredspell_2</t>
+  </si>
+  <si>
+    <t>ev13_acquiredspell_3</t>
+  </si>
+  <si>
+    <t>ev16_acquiredcompanion_1</t>
+  </si>
+  <si>
+    <t>ev16_acquiredcompanion_2</t>
   </si>
 </sst>
 </file>
@@ -1138,9 +1276,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED115DDC-E095-4A60-B3EA-80FAE0A4BDBC}">
-  <dimension ref="A1:W125"/>
+  <dimension ref="A1:W165"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -1240,10 +1378,10 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>9.99</v>
+        <v>3.99</v>
       </c>
       <c r="F2">
-        <v>14000</v>
+        <v>5500</v>
       </c>
       <c r="G2" t="s">
         <v>107</v>
@@ -1263,7 +1401,7 @@
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="C3" t="b">
         <v>0</v>
@@ -1275,7 +1413,7 @@
         <v>1100</v>
       </c>
       <c r="G3" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="H3">
         <v>493</v>
@@ -1292,7 +1430,7 @@
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="C4" t="b">
         <v>0</v>
@@ -1304,7 +1442,7 @@
         <v>3300</v>
       </c>
       <c r="G4" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="H4">
         <v>585</v>
@@ -1321,7 +1459,7 @@
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="C5" t="b">
         <v>0</v>
@@ -1333,7 +1471,7 @@
         <v>5500</v>
       </c>
       <c r="G5" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="H5">
         <v>752</v>
@@ -1350,7 +1488,7 @@
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="C6" t="b">
         <v>0</v>
@@ -1362,7 +1500,7 @@
         <v>8800</v>
       </c>
       <c r="G6" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="H6">
         <v>529</v>
@@ -1379,7 +1517,7 @@
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="C7" t="b">
         <v>0</v>
@@ -1391,7 +1529,7 @@
         <v>14000</v>
       </c>
       <c r="G7" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="H7">
         <v>743</v>
@@ -1414,10 +1552,10 @@
         <v>0</v>
       </c>
       <c r="E8">
-        <v>1.99</v>
+        <v>3.99</v>
       </c>
       <c r="F8">
-        <v>3300</v>
+        <v>5500</v>
       </c>
       <c r="G8" t="s">
         <v>109</v>
@@ -1432,16 +1570,25 @@
         <v>21</v>
       </c>
       <c r="K8">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="L8" t="s">
         <v>20</v>
       </c>
       <c r="M8" t="s">
+        <v>96</v>
+      </c>
+      <c r="N8">
+        <v>100</v>
+      </c>
+      <c r="O8" t="s">
+        <v>20</v>
+      </c>
+      <c r="P8" t="s">
         <v>22</v>
       </c>
-      <c r="N8">
-        <v>50000</v>
+      <c r="Q8">
+        <v>150000</v>
       </c>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.3">
@@ -1464,22 +1611,31 @@
         <v>125</v>
       </c>
       <c r="I9" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="J9" t="s">
+        <v>226</v>
+      </c>
+      <c r="K9">
+        <v>50</v>
+      </c>
+      <c r="L9" t="s">
+        <v>20</v>
+      </c>
+      <c r="M9" t="s">
         <v>21</v>
       </c>
-      <c r="K9">
-        <v>500</v>
-      </c>
-      <c r="L9" t="s">
-        <v>20</v>
-      </c>
-      <c r="M9" t="s">
-        <v>22</v>
-      </c>
       <c r="N9">
-        <v>40000</v>
+        <v>350</v>
+      </c>
+      <c r="O9" t="s">
+        <v>23</v>
+      </c>
+      <c r="P9" t="s">
+        <v>235</v>
+      </c>
+      <c r="Q9">
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.3">
@@ -1490,10 +1646,10 @@
         <v>0</v>
       </c>
       <c r="E10">
-        <v>6.99</v>
+        <v>2.99</v>
       </c>
       <c r="F10">
-        <v>9900</v>
+        <v>4400</v>
       </c>
       <c r="G10" t="s">
         <v>33</v>
@@ -1584,10 +1740,10 @@
         <v>0</v>
       </c>
       <c r="E12">
-        <v>29.99</v>
+        <v>34.99</v>
       </c>
       <c r="F12">
-        <v>44000</v>
+        <v>49000</v>
       </c>
       <c r="G12" t="s">
         <v>35</v>
@@ -1643,7 +1799,7 @@
         <v>1</v>
       </c>
       <c r="H13">
-        <v>987</v>
+        <v>312</v>
       </c>
       <c r="I13" t="s">
         <v>20</v>
@@ -1684,7 +1840,7 @@
         <v>1</v>
       </c>
       <c r="H14">
-        <v>261</v>
+        <v>347</v>
       </c>
       <c r="I14" t="s">
         <v>20</v>
@@ -1710,13 +1866,13 @@
         <v>1.99</v>
       </c>
       <c r="F15">
-        <v>2500</v>
+        <v>3300</v>
       </c>
       <c r="G15" t="s">
         <v>38</v>
       </c>
       <c r="H15">
-        <v>390</v>
+        <v>855</v>
       </c>
       <c r="I15" t="s">
         <v>20</v>
@@ -1766,7 +1922,7 @@
         <v>1</v>
       </c>
       <c r="H16">
-        <v>997</v>
+        <v>145</v>
       </c>
       <c r="I16" t="s">
         <v>20</v>
@@ -1787,27 +1943,18 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>30</v>
+        <v>236</v>
       </c>
       <c r="B17">
+        <v>5</v>
+      </c>
+      <c r="C17" t="b">
         <v>1</v>
       </c>
-      <c r="C17" t="b">
-        <v>0</v>
-      </c>
-      <c r="E17">
-        <v>19.989999999999998</v>
-      </c>
-      <c r="F17">
-        <v>25000</v>
-      </c>
-      <c r="G17" t="s">
-        <v>30</v>
-      </c>
       <c r="H17">
-        <v>384</v>
+        <v>423</v>
       </c>
       <c r="I17" t="s">
         <v>20</v>
@@ -1816,7 +1963,7 @@
         <v>21</v>
       </c>
       <c r="K17">
-        <v>350</v>
+        <v>150</v>
       </c>
       <c r="L17" t="s">
         <v>20</v>
@@ -1825,80 +1972,62 @@
         <v>22</v>
       </c>
       <c r="N17">
-        <v>80000</v>
-      </c>
-      <c r="O17" t="s">
-        <v>20</v>
-      </c>
-      <c r="P17" t="s">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>237</v>
+      </c>
+      <c r="B18">
+        <v>6</v>
+      </c>
+      <c r="C18" t="b">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>3.99</v>
+      </c>
+      <c r="F18">
+        <v>5500</v>
+      </c>
+      <c r="G18" t="s">
+        <v>237</v>
+      </c>
+      <c r="H18">
+        <v>561</v>
+      </c>
+      <c r="I18" t="s">
+        <v>20</v>
+      </c>
+      <c r="J18" t="s">
         <v>21</v>
       </c>
-      <c r="Q17">
-        <v>800</v>
-      </c>
-      <c r="R17" t="s">
-        <v>20</v>
-      </c>
-      <c r="S17" t="s">
+      <c r="K18">
+        <v>150</v>
+      </c>
+      <c r="L18" t="s">
+        <v>20</v>
+      </c>
+      <c r="M18" t="s">
         <v>22</v>
       </c>
-      <c r="T17">
-        <v>100000</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>31</v>
-      </c>
-      <c r="B18">
-        <v>2</v>
-      </c>
-      <c r="C18" t="b">
-        <v>1</v>
-      </c>
-      <c r="H18">
-        <v>619</v>
-      </c>
-      <c r="I18" t="s">
-        <v>20</v>
-      </c>
-      <c r="J18" t="s">
-        <v>22</v>
-      </c>
-      <c r="K18">
-        <v>50000</v>
-      </c>
-      <c r="L18" t="s">
-        <v>20</v>
-      </c>
-      <c r="M18" t="s">
-        <v>21</v>
-      </c>
       <c r="N18">
-        <v>500</v>
-      </c>
-      <c r="O18" t="s">
-        <v>20</v>
-      </c>
-      <c r="P18" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q18">
-        <v>70000</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>32</v>
+        <v>238</v>
       </c>
       <c r="B19">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C19" t="b">
         <v>1</v>
       </c>
       <c r="H19">
-        <v>150</v>
+        <v>858</v>
       </c>
       <c r="I19" t="s">
         <v>20</v>
@@ -1907,7 +2036,7 @@
         <v>21</v>
       </c>
       <c r="K19">
-        <v>450</v>
+        <v>150</v>
       </c>
       <c r="L19" t="s">
         <v>20</v>
@@ -1916,45 +2045,21 @@
         <v>22</v>
       </c>
       <c r="N19">
-        <v>60000</v>
-      </c>
-      <c r="O19" t="s">
-        <v>20</v>
-      </c>
-      <c r="P19" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q19">
-        <v>90000</v>
-      </c>
-      <c r="R19" t="s">
-        <v>20</v>
-      </c>
-      <c r="S19" t="s">
-        <v>21</v>
-      </c>
-      <c r="T19">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.3">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>130</v>
+        <v>239</v>
+      </c>
+      <c r="B20">
+        <v>8</v>
       </c>
       <c r="C20" t="b">
-        <v>0</v>
-      </c>
-      <c r="E20">
-        <v>12.99</v>
-      </c>
-      <c r="F20">
-        <v>19000</v>
-      </c>
-      <c r="G20" t="s">
-        <v>130</v>
+        <v>1</v>
       </c>
       <c r="H20">
-        <v>682</v>
+        <v>754</v>
       </c>
       <c r="I20" t="s">
         <v>20</v>
@@ -1963,7 +2068,7 @@
         <v>21</v>
       </c>
       <c r="K20">
-        <v>700</v>
+        <v>150</v>
       </c>
       <c r="L20" t="s">
         <v>20</v>
@@ -1972,27 +2077,30 @@
         <v>22</v>
       </c>
       <c r="N20">
-        <v>50000</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.3">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>131</v>
+        <v>240</v>
+      </c>
+      <c r="B21">
+        <v>9</v>
       </c>
       <c r="C21" t="b">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>29.99</v>
+        <v>5.99</v>
       </c>
       <c r="F21">
-        <v>44000</v>
+        <v>8800</v>
       </c>
       <c r="G21" t="s">
-        <v>131</v>
+        <v>240</v>
       </c>
       <c r="H21">
-        <v>601</v>
+        <v>252</v>
       </c>
       <c r="I21" t="s">
         <v>20</v>
@@ -2001,7 +2109,7 @@
         <v>21</v>
       </c>
       <c r="K21">
-        <v>800</v>
+        <v>150</v>
       </c>
       <c r="L21" t="s">
         <v>20</v>
@@ -2010,94 +2118,94 @@
         <v>22</v>
       </c>
       <c r="N21">
-        <v>30000</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.3">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>108</v>
+        <v>241</v>
+      </c>
+      <c r="B22">
+        <v>10</v>
       </c>
       <c r="C22" t="b">
+        <v>1</v>
+      </c>
+      <c r="H22">
+        <v>387</v>
+      </c>
+      <c r="I22" t="s">
+        <v>20</v>
+      </c>
+      <c r="J22" t="s">
+        <v>21</v>
+      </c>
+      <c r="K22">
+        <v>150</v>
+      </c>
+      <c r="L22" t="s">
+        <v>20</v>
+      </c>
+      <c r="M22" t="s">
+        <v>22</v>
+      </c>
+      <c r="N22">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>242</v>
+      </c>
+      <c r="B23">
+        <v>11</v>
+      </c>
+      <c r="C23" t="b">
         <v>0</v>
       </c>
-      <c r="E22">
-        <v>0.99</v>
-      </c>
-      <c r="F22">
-        <v>1100</v>
-      </c>
-      <c r="G22" t="s">
-        <v>108</v>
-      </c>
-      <c r="H22">
-        <v>797</v>
-      </c>
-      <c r="I22" t="s">
-        <v>23</v>
-      </c>
-      <c r="J22" t="s">
-        <v>86</v>
-      </c>
-      <c r="K22">
+      <c r="E23">
+        <v>8.99</v>
+      </c>
+      <c r="F23">
+        <v>12000</v>
+      </c>
+      <c r="G23" t="s">
+        <v>242</v>
+      </c>
+      <c r="H23">
+        <v>423</v>
+      </c>
+      <c r="I23" t="s">
+        <v>20</v>
+      </c>
+      <c r="J23" t="s">
+        <v>21</v>
+      </c>
+      <c r="K23">
+        <v>150</v>
+      </c>
+      <c r="L23" t="s">
+        <v>20</v>
+      </c>
+      <c r="M23" t="s">
+        <v>22</v>
+      </c>
+      <c r="N23">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>243</v>
+      </c>
+      <c r="B24">
+        <v>12</v>
+      </c>
+      <c r="C24" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>132</v>
-      </c>
-      <c r="C23" t="b">
-        <v>1</v>
-      </c>
-      <c r="H23">
-        <v>658</v>
-      </c>
-      <c r="I23" t="s">
-        <v>23</v>
-      </c>
-      <c r="J23" t="s">
-        <v>144</v>
-      </c>
-      <c r="K23">
-        <v>1</v>
-      </c>
-      <c r="L23" t="s">
-        <v>20</v>
-      </c>
-      <c r="M23" t="s">
-        <v>21</v>
-      </c>
-      <c r="N23">
-        <v>150</v>
-      </c>
-      <c r="O23" t="s">
-        <v>20</v>
-      </c>
-      <c r="P23" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q23">
-        <v>30000</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>41</v>
-      </c>
-      <c r="C24" t="b">
-        <v>0</v>
-      </c>
-      <c r="E24">
-        <v>4.99</v>
-      </c>
-      <c r="F24">
-        <v>6600</v>
-      </c>
-      <c r="G24" t="s">
-        <v>41</v>
-      </c>
       <c r="H24">
-        <v>386</v>
+        <v>707</v>
       </c>
       <c r="I24" t="s">
         <v>20</v>
@@ -2106,92 +2214,71 @@
         <v>21</v>
       </c>
       <c r="K24">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="L24" t="s">
         <v>20</v>
       </c>
       <c r="M24" t="s">
+        <v>22</v>
+      </c>
+      <c r="N24">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>244</v>
+      </c>
+      <c r="B25">
+        <v>13</v>
+      </c>
+      <c r="C25" t="b">
+        <v>1</v>
+      </c>
+      <c r="H25">
+        <v>635</v>
+      </c>
+      <c r="I25" t="s">
+        <v>20</v>
+      </c>
+      <c r="J25" t="s">
         <v>21</v>
       </c>
-      <c r="N24">
-        <v>50</v>
-      </c>
-      <c r="O24" t="s">
-        <v>20</v>
-      </c>
-      <c r="P24" t="s">
+      <c r="K25">
+        <v>150</v>
+      </c>
+      <c r="L25" t="s">
+        <v>20</v>
+      </c>
+      <c r="M25" t="s">
         <v>22</v>
       </c>
-      <c r="Q24">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>42</v>
-      </c>
-      <c r="C25" t="b">
-        <v>0</v>
-      </c>
-      <c r="E25">
-        <v>9.99</v>
-      </c>
-      <c r="F25">
-        <v>14000</v>
-      </c>
-      <c r="G25" t="s">
-        <v>42</v>
-      </c>
-      <c r="H25">
-        <v>582</v>
-      </c>
-      <c r="I25" t="s">
-        <v>23</v>
-      </c>
-      <c r="J25" t="s">
-        <v>123</v>
-      </c>
-      <c r="K25">
-        <v>75</v>
-      </c>
-      <c r="L25" t="s">
-        <v>20</v>
-      </c>
-      <c r="M25" t="s">
-        <v>21</v>
-      </c>
       <c r="N25">
-        <v>75</v>
-      </c>
-      <c r="O25" t="s">
-        <v>20</v>
-      </c>
-      <c r="P25" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q25">
         <v>20000</v>
       </c>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>43</v>
+        <v>245</v>
+      </c>
+      <c r="B26">
+        <v>14</v>
       </c>
       <c r="C26" t="b">
         <v>0</v>
       </c>
       <c r="E26">
-        <v>19.989999999999998</v>
+        <v>12.99</v>
       </c>
       <c r="F26">
-        <v>29000</v>
+        <v>19000</v>
       </c>
       <c r="G26" t="s">
-        <v>43</v>
+        <v>245</v>
       </c>
       <c r="H26">
-        <v>538</v>
+        <v>917</v>
       </c>
       <c r="I26" t="s">
         <v>20</v>
@@ -2200,92 +2287,62 @@
         <v>21</v>
       </c>
       <c r="K26">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="L26" t="s">
         <v>20</v>
       </c>
       <c r="M26" t="s">
+        <v>22</v>
+      </c>
+      <c r="N26">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>246</v>
+      </c>
+      <c r="B27">
+        <v>15</v>
+      </c>
+      <c r="C27" t="b">
+        <v>1</v>
+      </c>
+      <c r="H27">
+        <v>967</v>
+      </c>
+      <c r="I27" t="s">
+        <v>20</v>
+      </c>
+      <c r="J27" t="s">
         <v>21</v>
       </c>
-      <c r="N26">
-        <v>100</v>
-      </c>
-      <c r="O26" t="s">
-        <v>20</v>
-      </c>
-      <c r="P26" t="s">
+      <c r="K27">
+        <v>150</v>
+      </c>
+      <c r="L27" t="s">
+        <v>20</v>
+      </c>
+      <c r="M27" t="s">
         <v>22</v>
       </c>
-      <c r="Q26">
-        <v>40000</v>
-      </c>
-    </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>44</v>
-      </c>
-      <c r="C27" t="b">
-        <v>0</v>
-      </c>
-      <c r="E27">
-        <v>29.99</v>
-      </c>
-      <c r="F27">
-        <v>44000</v>
-      </c>
-      <c r="G27" t="s">
-        <v>44</v>
-      </c>
-      <c r="H27">
-        <v>620</v>
-      </c>
-      <c r="I27" t="s">
-        <v>23</v>
-      </c>
-      <c r="J27" t="s">
-        <v>123</v>
-      </c>
-      <c r="K27">
-        <v>200</v>
-      </c>
-      <c r="L27" t="s">
-        <v>20</v>
-      </c>
-      <c r="M27" t="s">
-        <v>21</v>
-      </c>
       <c r="N27">
-        <v>500</v>
-      </c>
-      <c r="O27" t="s">
-        <v>20</v>
-      </c>
-      <c r="P27" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q27">
-        <v>60000</v>
-      </c>
-    </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.3">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>45</v>
+        <v>247</v>
+      </c>
+      <c r="B28">
+        <v>16</v>
       </c>
       <c r="C28" t="b">
-        <v>0</v>
-      </c>
-      <c r="E28">
-        <v>6.99</v>
-      </c>
-      <c r="F28">
-        <v>9900</v>
-      </c>
-      <c r="G28" t="s">
-        <v>45</v>
+        <v>1</v>
       </c>
       <c r="H28">
-        <v>474</v>
+        <v>477</v>
       </c>
       <c r="I28" t="s">
         <v>20</v>
@@ -2294,30 +2351,24 @@
         <v>21</v>
       </c>
       <c r="K28">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="L28" t="s">
         <v>20</v>
       </c>
       <c r="M28" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="N28">
-        <v>50</v>
-      </c>
-      <c r="O28" t="s">
-        <v>20</v>
-      </c>
-      <c r="P28" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q28">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.3">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>46</v>
+        <v>248</v>
+      </c>
+      <c r="B29">
+        <v>17</v>
       </c>
       <c r="C29" t="b">
         <v>0</v>
@@ -2329,57 +2380,42 @@
         <v>29000</v>
       </c>
       <c r="G29" t="s">
-        <v>46</v>
+        <v>248</v>
       </c>
       <c r="H29">
-        <v>244</v>
+        <v>677</v>
       </c>
       <c r="I29" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="J29" t="s">
-        <v>123</v>
+        <v>21</v>
       </c>
       <c r="K29">
-        <v>400</v>
+        <v>150</v>
       </c>
       <c r="L29" t="s">
         <v>20</v>
       </c>
       <c r="M29" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="N29">
-        <v>75</v>
-      </c>
-      <c r="O29" t="s">
-        <v>20</v>
-      </c>
-      <c r="P29" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q29">
         <v>20000</v>
       </c>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>47</v>
+        <v>249</v>
+      </c>
+      <c r="B30">
+        <v>18</v>
       </c>
       <c r="C30" t="b">
-        <v>0</v>
-      </c>
-      <c r="E30">
-        <v>29.99</v>
-      </c>
-      <c r="F30">
-        <v>44000</v>
-      </c>
-      <c r="G30" t="s">
-        <v>47</v>
+        <v>1</v>
       </c>
       <c r="H30">
-        <v>944</v>
+        <v>981</v>
       </c>
       <c r="I30" t="s">
         <v>20</v>
@@ -2388,92 +2424,71 @@
         <v>21</v>
       </c>
       <c r="K30">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="L30" t="s">
         <v>20</v>
       </c>
       <c r="M30" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="N30">
-        <v>100</v>
-      </c>
-      <c r="O30" t="s">
-        <v>20</v>
-      </c>
-      <c r="P30" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q30">
-        <v>40000</v>
-      </c>
-    </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.3">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>48</v>
+        <v>250</v>
+      </c>
+      <c r="B31">
+        <v>19</v>
       </c>
       <c r="C31" t="b">
         <v>0</v>
       </c>
       <c r="E31">
-        <v>69.989999999999995</v>
+        <v>49.99</v>
       </c>
       <c r="F31">
-        <v>99000</v>
+        <v>55000</v>
       </c>
       <c r="G31" t="s">
-        <v>48</v>
+        <v>250</v>
       </c>
       <c r="H31">
-        <v>383</v>
+        <v>192</v>
       </c>
       <c r="I31" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="J31" t="s">
-        <v>123</v>
+        <v>21</v>
       </c>
       <c r="K31">
-        <v>1200</v>
+        <v>150</v>
       </c>
       <c r="L31" t="s">
         <v>20</v>
       </c>
       <c r="M31" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="N31">
-        <v>500</v>
-      </c>
-      <c r="O31" t="s">
-        <v>20</v>
-      </c>
-      <c r="P31" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q31">
-        <v>60000</v>
-      </c>
-    </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.3">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>49</v>
+        <v>251</v>
+      </c>
+      <c r="B32">
+        <v>20</v>
       </c>
       <c r="C32" t="b">
-        <v>0</v>
-      </c>
-      <c r="E32">
-        <v>9.99</v>
-      </c>
-      <c r="F32">
-        <v>14000</v>
-      </c>
-      <c r="G32" t="s">
-        <v>49</v>
+        <v>1</v>
       </c>
       <c r="H32">
-        <v>545</v>
+        <v>846</v>
       </c>
       <c r="I32" t="s">
         <v>20</v>
@@ -2482,101 +2497,98 @@
         <v>21</v>
       </c>
       <c r="K32">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="L32" t="s">
         <v>20</v>
       </c>
       <c r="M32" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="N32">
-        <v>50</v>
-      </c>
-      <c r="O32" t="s">
-        <v>20</v>
-      </c>
-      <c r="P32" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q32">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>50</v>
+        <v>30</v>
+      </c>
+      <c r="B33">
+        <v>1</v>
       </c>
       <c r="C33" t="b">
         <v>0</v>
       </c>
       <c r="E33">
-        <v>29.99</v>
+        <v>19.989999999999998</v>
       </c>
       <c r="F33">
-        <v>44000</v>
+        <v>29000</v>
       </c>
       <c r="G33" t="s">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="H33">
-        <v>231</v>
+        <v>386</v>
       </c>
       <c r="I33" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="J33" t="s">
-        <v>123</v>
+        <v>21</v>
       </c>
       <c r="K33">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="L33" t="s">
         <v>20</v>
       </c>
       <c r="M33" t="s">
+        <v>22</v>
+      </c>
+      <c r="N33">
+        <v>80000</v>
+      </c>
+      <c r="O33" t="s">
+        <v>20</v>
+      </c>
+      <c r="P33" t="s">
         <v>21</v>
       </c>
-      <c r="N33">
-        <v>75</v>
-      </c>
-      <c r="O33" t="s">
-        <v>20</v>
-      </c>
-      <c r="P33" t="s">
+      <c r="Q33">
+        <v>800</v>
+      </c>
+      <c r="R33" t="s">
+        <v>20</v>
+      </c>
+      <c r="S33" t="s">
         <v>22</v>
       </c>
-      <c r="Q33">
-        <v>20000</v>
-      </c>
-    </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="T33">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>51</v>
+        <v>31</v>
+      </c>
+      <c r="B34">
+        <v>2</v>
       </c>
       <c r="C34" t="b">
-        <v>0</v>
-      </c>
-      <c r="E34">
-        <v>69.989999999999995</v>
-      </c>
-      <c r="F34">
-        <v>99000</v>
-      </c>
-      <c r="G34" t="s">
-        <v>51</v>
+        <v>1</v>
       </c>
       <c r="H34">
-        <v>654</v>
+        <v>207</v>
       </c>
       <c r="I34" t="s">
         <v>20</v>
       </c>
       <c r="J34" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K34">
-        <v>300</v>
+        <v>50000</v>
       </c>
       <c r="L34" t="s">
         <v>20</v>
@@ -2585,7 +2597,7 @@
         <v>21</v>
       </c>
       <c r="N34">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="O34" t="s">
         <v>20</v>
@@ -2594,45 +2606,39 @@
         <v>22</v>
       </c>
       <c r="Q34">
-        <v>40000</v>
-      </c>
-    </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
+        <v>70000</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>52</v>
+        <v>32</v>
+      </c>
+      <c r="B35">
+        <v>3</v>
       </c>
       <c r="C35" t="b">
-        <v>0</v>
-      </c>
-      <c r="E35">
-        <v>99.99</v>
-      </c>
-      <c r="F35">
-        <v>149000</v>
-      </c>
-      <c r="G35" t="s">
-        <v>52</v>
+        <v>1</v>
       </c>
       <c r="H35">
-        <v>279</v>
+        <v>978</v>
       </c>
       <c r="I35" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="J35" t="s">
-        <v>123</v>
+        <v>21</v>
       </c>
       <c r="K35">
-        <v>1000</v>
+        <v>450</v>
       </c>
       <c r="L35" t="s">
         <v>20</v>
       </c>
       <c r="M35" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="N35">
-        <v>500</v>
+        <v>60000</v>
       </c>
       <c r="O35" t="s">
         <v>20</v>
@@ -2641,74 +2647,74 @@
         <v>22</v>
       </c>
       <c r="Q35">
-        <v>60000</v>
-      </c>
-    </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
+        <v>90000</v>
+      </c>
+      <c r="R35" t="s">
+        <v>20</v>
+      </c>
+      <c r="S35" t="s">
+        <v>21</v>
+      </c>
+      <c r="T35">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="C36" t="b">
         <v>0</v>
       </c>
       <c r="E36">
-        <v>6.99</v>
+        <v>17.989999999999998</v>
       </c>
       <c r="F36">
-        <v>9900</v>
+        <v>25000</v>
       </c>
       <c r="G36" t="s">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="H36">
-        <v>359</v>
+        <v>847</v>
       </c>
       <c r="I36" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="J36" t="s">
-        <v>124</v>
+        <v>21</v>
       </c>
       <c r="K36">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="L36" t="s">
         <v>20</v>
       </c>
       <c r="M36" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="N36">
-        <v>75</v>
-      </c>
-      <c r="O36" t="s">
-        <v>20</v>
-      </c>
-      <c r="P36" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q36">
-        <v>20000</v>
-      </c>
-    </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.3">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>111</v>
+        <v>131</v>
       </c>
       <c r="C37" t="b">
         <v>0</v>
       </c>
       <c r="E37">
-        <v>19.989999999999998</v>
+        <v>2.99</v>
       </c>
       <c r="F37">
-        <v>29000</v>
+        <v>4400</v>
       </c>
       <c r="G37" t="s">
-        <v>111</v>
+        <v>131</v>
       </c>
       <c r="H37">
-        <v>881</v>
+        <v>877</v>
       </c>
       <c r="I37" t="s">
         <v>20</v>
@@ -2717,101 +2723,65 @@
         <v>21</v>
       </c>
       <c r="K37">
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="L37" t="s">
         <v>20</v>
       </c>
       <c r="M37" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="N37">
-        <v>100</v>
-      </c>
-      <c r="O37" t="s">
-        <v>20</v>
-      </c>
-      <c r="P37" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q37">
-        <v>40000</v>
-      </c>
-    </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C38" t="b">
         <v>0</v>
       </c>
       <c r="E38">
-        <v>29.99</v>
+        <v>0.99</v>
       </c>
       <c r="F38">
-        <v>44000</v>
+        <v>1100</v>
       </c>
       <c r="G38" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="H38">
-        <v>108</v>
+        <v>256</v>
       </c>
       <c r="I38" t="s">
         <v>23</v>
       </c>
       <c r="J38" t="s">
-        <v>124</v>
+        <v>86</v>
       </c>
       <c r="K38">
-        <v>1500</v>
-      </c>
-      <c r="L38" t="s">
-        <v>20</v>
-      </c>
-      <c r="M38" t="s">
-        <v>21</v>
-      </c>
-      <c r="N38">
-        <v>500</v>
-      </c>
-      <c r="O38" t="s">
-        <v>20</v>
-      </c>
-      <c r="P38" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q38">
-        <v>60000</v>
-      </c>
-    </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>113</v>
+        <v>132</v>
       </c>
       <c r="C39" t="b">
-        <v>0</v>
-      </c>
-      <c r="E39">
-        <v>69.989999999999995</v>
-      </c>
-      <c r="F39">
-        <v>99000</v>
-      </c>
-      <c r="G39" t="s">
-        <v>113</v>
+        <v>1</v>
       </c>
       <c r="H39">
-        <v>550</v>
+        <v>130</v>
       </c>
       <c r="I39" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="J39" t="s">
-        <v>21</v>
+        <v>140</v>
       </c>
       <c r="K39">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="L39" t="s">
         <v>20</v>
@@ -2820,7 +2790,7 @@
         <v>21</v>
       </c>
       <c r="N39">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="O39" t="s">
         <v>20</v>
@@ -2829,36 +2799,36 @@
         <v>22</v>
       </c>
       <c r="Q39">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>114</v>
+        <v>41</v>
       </c>
       <c r="C40" t="b">
         <v>0</v>
       </c>
       <c r="E40">
-        <v>6.99</v>
+        <v>1.99</v>
       </c>
       <c r="F40">
-        <v>9900</v>
+        <v>3300</v>
       </c>
       <c r="G40" t="s">
-        <v>114</v>
+        <v>41</v>
       </c>
       <c r="H40">
-        <v>397</v>
+        <v>367</v>
       </c>
       <c r="I40" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="J40" t="s">
-        <v>124</v>
+        <v>21</v>
       </c>
       <c r="K40">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="L40" t="s">
         <v>20</v>
@@ -2867,7 +2837,7 @@
         <v>21</v>
       </c>
       <c r="N40">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="O40" t="s">
         <v>20</v>
@@ -2876,36 +2846,36 @@
         <v>22</v>
       </c>
       <c r="Q40">
-        <v>20000</v>
-      </c>
-    </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>115</v>
+        <v>42</v>
       </c>
       <c r="C41" t="b">
         <v>0</v>
       </c>
       <c r="E41">
-        <v>19.989999999999998</v>
+        <v>6.99</v>
       </c>
       <c r="F41">
-        <v>29000</v>
+        <v>9900</v>
       </c>
       <c r="G41" t="s">
-        <v>115</v>
+        <v>42</v>
       </c>
       <c r="H41">
-        <v>401</v>
+        <v>369</v>
       </c>
       <c r="I41" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="J41" t="s">
-        <v>21</v>
+        <v>123</v>
       </c>
       <c r="K41">
-        <v>300</v>
+        <v>75</v>
       </c>
       <c r="L41" t="s">
         <v>20</v>
@@ -2914,7 +2884,7 @@
         <v>21</v>
       </c>
       <c r="N41">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="O41" t="s">
         <v>20</v>
@@ -2923,36 +2893,36 @@
         <v>22</v>
       </c>
       <c r="Q41">
-        <v>40000</v>
-      </c>
-    </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.3">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>116</v>
+        <v>43</v>
       </c>
       <c r="C42" t="b">
         <v>0</v>
       </c>
       <c r="E42">
-        <v>29.99</v>
+        <v>12.99</v>
       </c>
       <c r="F42">
-        <v>44000</v>
+        <v>19000</v>
       </c>
       <c r="G42" t="s">
-        <v>116</v>
+        <v>43</v>
       </c>
       <c r="H42">
-        <v>177</v>
+        <v>291</v>
       </c>
       <c r="I42" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="J42" t="s">
-        <v>124</v>
+        <v>21</v>
       </c>
       <c r="K42">
-        <v>1500</v>
+        <v>300</v>
       </c>
       <c r="L42" t="s">
         <v>20</v>
@@ -2961,7 +2931,7 @@
         <v>21</v>
       </c>
       <c r="N42">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="O42" t="s">
         <v>20</v>
@@ -2970,36 +2940,36 @@
         <v>22</v>
       </c>
       <c r="Q42">
-        <v>60000</v>
-      </c>
-    </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.3">
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="43" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>117</v>
+        <v>44</v>
       </c>
       <c r="C43" t="b">
         <v>0</v>
       </c>
       <c r="E43">
-        <v>69.989999999999995</v>
+        <v>19.989999999999998</v>
       </c>
       <c r="F43">
-        <v>99000</v>
+        <v>29000</v>
       </c>
       <c r="G43" t="s">
-        <v>117</v>
+        <v>44</v>
       </c>
       <c r="H43">
-        <v>506</v>
+        <v>977</v>
       </c>
       <c r="I43" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="J43" t="s">
-        <v>21</v>
+        <v>123</v>
       </c>
       <c r="K43">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="L43" t="s">
         <v>20</v>
@@ -3008,7 +2978,7 @@
         <v>21</v>
       </c>
       <c r="N43">
-        <v>50</v>
+        <v>500</v>
       </c>
       <c r="O43" t="s">
         <v>20</v>
@@ -3017,36 +2987,36 @@
         <v>22</v>
       </c>
       <c r="Q43">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.3">
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="44" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>118</v>
+        <v>45</v>
       </c>
       <c r="C44" t="b">
         <v>0</v>
       </c>
       <c r="E44">
-        <v>9.99</v>
+        <v>1.99</v>
       </c>
       <c r="F44">
-        <v>14000</v>
+        <v>3300</v>
       </c>
       <c r="G44" t="s">
-        <v>118</v>
+        <v>45</v>
       </c>
       <c r="H44">
-        <v>741</v>
+        <v>237</v>
       </c>
       <c r="I44" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="J44" t="s">
-        <v>124</v>
+        <v>21</v>
       </c>
       <c r="K44">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="L44" t="s">
         <v>20</v>
@@ -3055,7 +3025,7 @@
         <v>21</v>
       </c>
       <c r="N44">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="O44" t="s">
         <v>20</v>
@@ -3064,36 +3034,36 @@
         <v>22</v>
       </c>
       <c r="Q44">
-        <v>20000</v>
-      </c>
-    </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.3">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="45" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>119</v>
+        <v>46</v>
       </c>
       <c r="C45" t="b">
         <v>0</v>
       </c>
       <c r="E45">
-        <v>29.99</v>
+        <v>6.99</v>
       </c>
       <c r="F45">
-        <v>44000</v>
+        <v>9900</v>
       </c>
       <c r="G45" t="s">
-        <v>119</v>
+        <v>46</v>
       </c>
       <c r="H45">
-        <v>578</v>
+        <v>326</v>
       </c>
       <c r="I45" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="J45" t="s">
-        <v>21</v>
+        <v>123</v>
       </c>
       <c r="K45">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="L45" t="s">
         <v>20</v>
@@ -3102,7 +3072,7 @@
         <v>21</v>
       </c>
       <c r="N45">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="O45" t="s">
         <v>20</v>
@@ -3111,36 +3081,36 @@
         <v>22</v>
       </c>
       <c r="Q45">
-        <v>40000</v>
-      </c>
-    </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="46" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>120</v>
+        <v>47</v>
       </c>
       <c r="C46" t="b">
         <v>0</v>
       </c>
       <c r="E46">
-        <v>69.989999999999995</v>
+        <v>12.99</v>
       </c>
       <c r="F46">
-        <v>99000</v>
+        <v>19000</v>
       </c>
       <c r="G46" t="s">
-        <v>120</v>
+        <v>47</v>
       </c>
       <c r="H46">
-        <v>106</v>
+        <v>392</v>
       </c>
       <c r="I46" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="J46" t="s">
-        <v>124</v>
+        <v>21</v>
       </c>
       <c r="K46">
-        <v>1500</v>
+        <v>300</v>
       </c>
       <c r="L46" t="s">
         <v>20</v>
@@ -3149,7 +3119,7 @@
         <v>21</v>
       </c>
       <c r="N46">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="O46" t="s">
         <v>20</v>
@@ -3158,36 +3128,36 @@
         <v>22</v>
       </c>
       <c r="Q46">
-        <v>60000</v>
-      </c>
-    </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.3">
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="47" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>121</v>
+        <v>48</v>
       </c>
       <c r="C47" t="b">
         <v>0</v>
       </c>
       <c r="E47">
-        <v>99.99</v>
+        <v>19.989999999999998</v>
       </c>
       <c r="F47">
-        <v>149000</v>
+        <v>29000</v>
       </c>
       <c r="G47" t="s">
-        <v>121</v>
+        <v>48</v>
       </c>
       <c r="H47">
-        <v>440</v>
+        <v>774</v>
       </c>
       <c r="I47" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="J47" t="s">
-        <v>21</v>
+        <v>123</v>
       </c>
       <c r="K47">
-        <v>100</v>
+        <v>1200</v>
       </c>
       <c r="L47" t="s">
         <v>20</v>
@@ -3196,7 +3166,7 @@
         <v>21</v>
       </c>
       <c r="N47">
-        <v>50</v>
+        <v>500</v>
       </c>
       <c r="O47" t="s">
         <v>20</v>
@@ -3205,12 +3175,12 @@
         <v>22</v>
       </c>
       <c r="Q47">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.3">
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="48" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C48" t="b">
         <v>0</v>
@@ -3222,10 +3192,10 @@
         <v>3300</v>
       </c>
       <c r="G48" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="H48">
-        <v>713</v>
+        <v>717</v>
       </c>
       <c r="I48" t="s">
         <v>20</v>
@@ -3234,56 +3204,92 @@
         <v>21</v>
       </c>
       <c r="K48">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+        <v>100</v>
+      </c>
+      <c r="L48" t="s">
+        <v>20</v>
+      </c>
+      <c r="M48" t="s">
+        <v>21</v>
+      </c>
+      <c r="N48">
+        <v>50</v>
+      </c>
+      <c r="O48" t="s">
+        <v>20</v>
+      </c>
+      <c r="P48" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q48">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C49" t="b">
         <v>0</v>
       </c>
       <c r="E49">
-        <v>3.99</v>
+        <v>6.99</v>
       </c>
       <c r="F49">
-        <v>5500</v>
+        <v>9900</v>
       </c>
       <c r="G49" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="H49">
-        <v>794</v>
+        <v>332</v>
       </c>
       <c r="I49" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="J49" t="s">
+        <v>123</v>
+      </c>
+      <c r="K49">
+        <v>300</v>
+      </c>
+      <c r="L49" t="s">
+        <v>20</v>
+      </c>
+      <c r="M49" t="s">
         <v>21</v>
       </c>
-      <c r="K49">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="N49">
+        <v>75</v>
+      </c>
+      <c r="O49" t="s">
+        <v>20</v>
+      </c>
+      <c r="P49" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q49">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C50" t="b">
         <v>0</v>
       </c>
       <c r="E50">
-        <v>7.99</v>
+        <v>12.99</v>
       </c>
       <c r="F50">
-        <v>11000</v>
+        <v>19000</v>
       </c>
       <c r="G50" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="H50">
-        <v>121</v>
+        <v>277</v>
       </c>
       <c r="I50" t="s">
         <v>20</v>
@@ -3292,12 +3298,30 @@
         <v>21</v>
       </c>
       <c r="K50">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+        <v>300</v>
+      </c>
+      <c r="L50" t="s">
+        <v>20</v>
+      </c>
+      <c r="M50" t="s">
+        <v>21</v>
+      </c>
+      <c r="N50">
+        <v>100</v>
+      </c>
+      <c r="O50" t="s">
+        <v>20</v>
+      </c>
+      <c r="P50" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q50">
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C51" t="b">
         <v>0</v>
@@ -3309,68 +3333,104 @@
         <v>29000</v>
       </c>
       <c r="G51" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="H51">
-        <v>114</v>
+        <v>818</v>
       </c>
       <c r="I51" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="J51" t="s">
+        <v>123</v>
+      </c>
+      <c r="K51">
+        <v>1000</v>
+      </c>
+      <c r="L51" t="s">
+        <v>20</v>
+      </c>
+      <c r="M51" t="s">
         <v>21</v>
       </c>
-      <c r="K51">
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="N51">
+        <v>500</v>
+      </c>
+      <c r="O51" t="s">
+        <v>20</v>
+      </c>
+      <c r="P51" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q51">
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>57</v>
+        <v>110</v>
       </c>
       <c r="C52" t="b">
         <v>0</v>
       </c>
       <c r="E52">
-        <v>29.99</v>
+        <v>3.99</v>
       </c>
       <c r="F52">
-        <v>44000</v>
+        <v>5500</v>
       </c>
       <c r="G52" t="s">
-        <v>57</v>
+        <v>110</v>
       </c>
       <c r="H52">
-        <v>950</v>
+        <v>831</v>
       </c>
       <c r="I52" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="J52" t="s">
+        <v>124</v>
+      </c>
+      <c r="K52">
+        <v>500</v>
+      </c>
+      <c r="L52" t="s">
+        <v>20</v>
+      </c>
+      <c r="M52" t="s">
         <v>21</v>
       </c>
-      <c r="K52">
-        <v>2900</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="N52">
+        <v>75</v>
+      </c>
+      <c r="O52" t="s">
+        <v>20</v>
+      </c>
+      <c r="P52" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q52">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>58</v>
+        <v>111</v>
       </c>
       <c r="C53" t="b">
         <v>0</v>
       </c>
       <c r="E53">
-        <v>69.989999999999995</v>
+        <v>7.99</v>
       </c>
       <c r="F53">
-        <v>99000</v>
+        <v>11000</v>
       </c>
       <c r="G53" t="s">
-        <v>58</v>
+        <v>111</v>
       </c>
       <c r="H53">
-        <v>490</v>
+        <v>583</v>
       </c>
       <c r="I53" t="s">
         <v>20</v>
@@ -3379,56 +3439,92 @@
         <v>21</v>
       </c>
       <c r="K53">
-        <v>7200</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+        <v>300</v>
+      </c>
+      <c r="L53" t="s">
+        <v>20</v>
+      </c>
+      <c r="M53" t="s">
+        <v>21</v>
+      </c>
+      <c r="N53">
+        <v>100</v>
+      </c>
+      <c r="O53" t="s">
+        <v>20</v>
+      </c>
+      <c r="P53" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q53">
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="54" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>59</v>
+        <v>112</v>
       </c>
       <c r="C54" t="b">
         <v>0</v>
       </c>
       <c r="E54">
-        <v>1.99</v>
+        <v>17.989999999999998</v>
       </c>
       <c r="F54">
-        <v>3300</v>
+        <v>25000</v>
       </c>
       <c r="G54" t="s">
-        <v>59</v>
+        <v>112</v>
       </c>
       <c r="H54">
-        <v>338</v>
+        <v>932</v>
       </c>
       <c r="I54" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="J54" t="s">
+        <v>124</v>
+      </c>
+      <c r="K54">
+        <v>1500</v>
+      </c>
+      <c r="L54" t="s">
+        <v>20</v>
+      </c>
+      <c r="M54" t="s">
         <v>21</v>
       </c>
-      <c r="K54">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="N54">
+        <v>500</v>
+      </c>
+      <c r="O54" t="s">
+        <v>20</v>
+      </c>
+      <c r="P54" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q54">
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="55" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>60</v>
+        <v>113</v>
       </c>
       <c r="C55" t="b">
         <v>0</v>
       </c>
       <c r="E55">
-        <v>3.99</v>
+        <v>49.99</v>
       </c>
       <c r="F55">
-        <v>5500</v>
+        <v>55000</v>
       </c>
       <c r="G55" t="s">
-        <v>60</v>
+        <v>113</v>
       </c>
       <c r="H55">
-        <v>215</v>
+        <v>175</v>
       </c>
       <c r="I55" t="s">
         <v>20</v>
@@ -3437,56 +3533,92 @@
         <v>21</v>
       </c>
       <c r="K55">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+        <v>100</v>
+      </c>
+      <c r="L55" t="s">
+        <v>20</v>
+      </c>
+      <c r="M55" t="s">
+        <v>21</v>
+      </c>
+      <c r="N55">
+        <v>50</v>
+      </c>
+      <c r="O55" t="s">
+        <v>20</v>
+      </c>
+      <c r="P55" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q55">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="56" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>61</v>
+        <v>114</v>
       </c>
       <c r="C56" t="b">
         <v>0</v>
       </c>
       <c r="E56">
-        <v>7.99</v>
+        <v>3.99</v>
       </c>
       <c r="F56">
-        <v>11000</v>
+        <v>5500</v>
       </c>
       <c r="G56" t="s">
-        <v>61</v>
+        <v>114</v>
       </c>
       <c r="H56">
-        <v>674</v>
+        <v>274</v>
       </c>
       <c r="I56" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="J56" t="s">
+        <v>124</v>
+      </c>
+      <c r="K56">
+        <v>500</v>
+      </c>
+      <c r="L56" t="s">
+        <v>20</v>
+      </c>
+      <c r="M56" t="s">
         <v>21</v>
       </c>
-      <c r="K56">
-        <v>1560</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="N56">
+        <v>75</v>
+      </c>
+      <c r="O56" t="s">
+        <v>20</v>
+      </c>
+      <c r="P56" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q56">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>62</v>
+        <v>115</v>
       </c>
       <c r="C57" t="b">
         <v>0</v>
       </c>
       <c r="E57">
-        <v>19.989999999999998</v>
+        <v>7.99</v>
       </c>
       <c r="F57">
-        <v>29000</v>
+        <v>11000</v>
       </c>
       <c r="G57" t="s">
-        <v>62</v>
+        <v>115</v>
       </c>
       <c r="H57">
-        <v>145</v>
+        <v>668</v>
       </c>
       <c r="I57" t="s">
         <v>20</v>
@@ -3495,56 +3627,92 @@
         <v>21</v>
       </c>
       <c r="K57">
-        <v>4500</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+        <v>300</v>
+      </c>
+      <c r="L57" t="s">
+        <v>20</v>
+      </c>
+      <c r="M57" t="s">
+        <v>21</v>
+      </c>
+      <c r="N57">
+        <v>100</v>
+      </c>
+      <c r="O57" t="s">
+        <v>20</v>
+      </c>
+      <c r="P57" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q57">
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="58" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>63</v>
+        <v>116</v>
       </c>
       <c r="C58" t="b">
         <v>0</v>
       </c>
       <c r="E58">
-        <v>29.99</v>
+        <v>17.989999999999998</v>
       </c>
       <c r="F58">
-        <v>44000</v>
+        <v>25000</v>
       </c>
       <c r="G58" t="s">
-        <v>63</v>
+        <v>116</v>
       </c>
       <c r="H58">
-        <v>858</v>
+        <v>288</v>
       </c>
       <c r="I58" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="J58" t="s">
+        <v>124</v>
+      </c>
+      <c r="K58">
+        <v>1500</v>
+      </c>
+      <c r="L58" t="s">
+        <v>20</v>
+      </c>
+      <c r="M58" t="s">
         <v>21</v>
       </c>
-      <c r="K58">
-        <v>8700</v>
-      </c>
-    </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="N58">
+        <v>500</v>
+      </c>
+      <c r="O58" t="s">
+        <v>20</v>
+      </c>
+      <c r="P58" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q58">
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="59" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>64</v>
+        <v>117</v>
       </c>
       <c r="C59" t="b">
         <v>0</v>
       </c>
       <c r="E59">
-        <v>69.989999999999995</v>
+        <v>49.99</v>
       </c>
       <c r="F59">
-        <v>99000</v>
+        <v>55000</v>
       </c>
       <c r="G59" t="s">
-        <v>64</v>
+        <v>117</v>
       </c>
       <c r="H59">
-        <v>173</v>
+        <v>820</v>
       </c>
       <c r="I59" t="s">
         <v>20</v>
@@ -3553,1838 +3721,1472 @@
         <v>21</v>
       </c>
       <c r="K59">
-        <v>21600</v>
-      </c>
-    </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+        <v>100</v>
+      </c>
+      <c r="L59" t="s">
+        <v>20</v>
+      </c>
+      <c r="M59" t="s">
+        <v>21</v>
+      </c>
+      <c r="N59">
+        <v>50</v>
+      </c>
+      <c r="O59" t="s">
+        <v>20</v>
+      </c>
+      <c r="P59" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q59">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="60" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>65</v>
+        <v>118</v>
       </c>
       <c r="C60" t="b">
         <v>0</v>
       </c>
       <c r="E60">
-        <v>1.99</v>
+        <v>3.99</v>
       </c>
       <c r="F60">
-        <v>3300</v>
+        <v>5500</v>
       </c>
       <c r="G60" t="s">
-        <v>65</v>
+        <v>118</v>
       </c>
       <c r="H60">
-        <v>201</v>
+        <v>236</v>
       </c>
       <c r="I60" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="J60" t="s">
+        <v>124</v>
+      </c>
+      <c r="K60">
+        <v>500</v>
+      </c>
+      <c r="L60" t="s">
+        <v>20</v>
+      </c>
+      <c r="M60" t="s">
+        <v>21</v>
+      </c>
+      <c r="N60">
+        <v>75</v>
+      </c>
+      <c r="O60" t="s">
+        <v>20</v>
+      </c>
+      <c r="P60" t="s">
         <v>22</v>
       </c>
-      <c r="K60">
-        <v>45000</v>
-      </c>
-    </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="Q60">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="61" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>66</v>
+        <v>119</v>
       </c>
       <c r="C61" t="b">
         <v>0</v>
       </c>
       <c r="E61">
-        <v>3.99</v>
+        <v>7.99</v>
       </c>
       <c r="F61">
-        <v>5500</v>
+        <v>11000</v>
       </c>
       <c r="G61" t="s">
-        <v>66</v>
+        <v>119</v>
       </c>
       <c r="H61">
-        <v>803</v>
+        <v>140</v>
       </c>
       <c r="I61" t="s">
         <v>20</v>
       </c>
       <c r="J61" t="s">
+        <v>21</v>
+      </c>
+      <c r="K61">
+        <v>300</v>
+      </c>
+      <c r="L61" t="s">
+        <v>20</v>
+      </c>
+      <c r="M61" t="s">
+        <v>21</v>
+      </c>
+      <c r="N61">
+        <v>100</v>
+      </c>
+      <c r="O61" t="s">
+        <v>20</v>
+      </c>
+      <c r="P61" t="s">
         <v>22</v>
       </c>
-      <c r="K61">
-        <v>105000</v>
-      </c>
-    </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="Q61">
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="62" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>67</v>
+        <v>120</v>
       </c>
       <c r="C62" t="b">
         <v>0</v>
       </c>
       <c r="E62">
-        <v>7.99</v>
+        <v>17.989999999999998</v>
       </c>
       <c r="F62">
-        <v>11000</v>
+        <v>25000</v>
       </c>
       <c r="G62" t="s">
-        <v>67</v>
+        <v>120</v>
       </c>
       <c r="H62">
-        <v>650</v>
+        <v>508</v>
       </c>
       <c r="I62" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="J62" t="s">
+        <v>124</v>
+      </c>
+      <c r="K62">
+        <v>1500</v>
+      </c>
+      <c r="L62" t="s">
+        <v>20</v>
+      </c>
+      <c r="M62" t="s">
+        <v>21</v>
+      </c>
+      <c r="N62">
+        <v>500</v>
+      </c>
+      <c r="O62" t="s">
+        <v>20</v>
+      </c>
+      <c r="P62" t="s">
         <v>22</v>
       </c>
-      <c r="K62">
-        <v>250000</v>
-      </c>
-    </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="Q62">
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="63" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>68</v>
+        <v>121</v>
       </c>
       <c r="C63" t="b">
         <v>0</v>
       </c>
       <c r="E63">
-        <v>19.989999999999998</v>
+        <v>49.99</v>
       </c>
       <c r="F63">
-        <v>29000</v>
+        <v>55000</v>
       </c>
       <c r="G63" t="s">
-        <v>68</v>
+        <v>121</v>
       </c>
       <c r="H63">
-        <v>953</v>
+        <v>159</v>
       </c>
       <c r="I63" t="s">
         <v>20</v>
       </c>
       <c r="J63" t="s">
+        <v>21</v>
+      </c>
+      <c r="K63">
+        <v>100</v>
+      </c>
+      <c r="L63" t="s">
+        <v>20</v>
+      </c>
+      <c r="M63" t="s">
+        <v>21</v>
+      </c>
+      <c r="N63">
+        <v>50</v>
+      </c>
+      <c r="O63" t="s">
+        <v>20</v>
+      </c>
+      <c r="P63" t="s">
         <v>22</v>
       </c>
-      <c r="K63">
-        <v>900000</v>
-      </c>
-    </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="Q63">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="64" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="C64" t="b">
         <v>0</v>
       </c>
       <c r="E64">
-        <v>29.99</v>
+        <v>1.99</v>
       </c>
       <c r="F64">
-        <v>44000</v>
+        <v>3300</v>
       </c>
       <c r="G64" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="H64">
-        <v>640</v>
+        <v>254</v>
       </c>
       <c r="I64" t="s">
         <v>20</v>
       </c>
       <c r="J64" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K64">
-        <v>1600000</v>
+        <v>75</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>70</v>
+        <v>54</v>
       </c>
       <c r="C65" t="b">
         <v>0</v>
       </c>
       <c r="E65">
-        <v>69.989999999999995</v>
+        <v>3.99</v>
       </c>
       <c r="F65">
-        <v>99000</v>
+        <v>5500</v>
       </c>
       <c r="G65" t="s">
-        <v>70</v>
+        <v>54</v>
       </c>
       <c r="H65">
-        <v>553</v>
+        <v>835</v>
       </c>
       <c r="I65" t="s">
         <v>20</v>
       </c>
       <c r="J65" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K65">
-        <v>4500000</v>
+        <v>180</v>
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="C66" t="b">
         <v>0</v>
       </c>
       <c r="E66">
-        <v>1.99</v>
+        <v>7.99</v>
       </c>
       <c r="F66">
-        <v>3300</v>
+        <v>11000</v>
       </c>
       <c r="G66" t="s">
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="H66">
-        <v>963</v>
+        <v>589</v>
       </c>
       <c r="I66" t="s">
         <v>20</v>
       </c>
       <c r="J66" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K66">
-        <v>135000</v>
+        <v>520</v>
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="C67" t="b">
         <v>0</v>
       </c>
       <c r="E67">
-        <v>3.99</v>
+        <v>19.989999999999998</v>
       </c>
       <c r="F67">
-        <v>5500</v>
+        <v>29000</v>
       </c>
       <c r="G67" t="s">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="H67">
-        <v>340</v>
+        <v>988</v>
       </c>
       <c r="I67" t="s">
         <v>20</v>
       </c>
       <c r="J67" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K67">
-        <v>315000</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="C68" t="b">
         <v>0</v>
       </c>
       <c r="E68">
-        <v>7.99</v>
+        <v>29.99</v>
       </c>
       <c r="F68">
-        <v>11000</v>
+        <v>44000</v>
       </c>
       <c r="G68" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="H68">
-        <v>420</v>
+        <v>762</v>
       </c>
       <c r="I68" t="s">
         <v>20</v>
       </c>
       <c r="J68" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K68">
-        <v>750000</v>
+        <v>2900</v>
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="C69" t="b">
         <v>0</v>
       </c>
       <c r="E69">
-        <v>19.989999999999998</v>
+        <v>69.989999999999995</v>
       </c>
       <c r="F69">
-        <v>29000</v>
+        <v>99000</v>
       </c>
       <c r="G69" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="H69">
-        <v>756</v>
+        <v>358</v>
       </c>
       <c r="I69" t="s">
         <v>20</v>
       </c>
       <c r="J69" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K69">
-        <v>2700000</v>
+        <v>7200</v>
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>75</v>
+        <v>59</v>
       </c>
       <c r="C70" t="b">
         <v>0</v>
       </c>
       <c r="E70">
-        <v>29.99</v>
+        <v>1.99</v>
       </c>
       <c r="F70">
-        <v>44000</v>
+        <v>3300</v>
       </c>
       <c r="G70" t="s">
-        <v>75</v>
+        <v>59</v>
       </c>
       <c r="H70">
-        <v>979</v>
+        <v>355</v>
       </c>
       <c r="I70" t="s">
         <v>20</v>
       </c>
       <c r="J70" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K70">
-        <v>4800000</v>
+        <v>225</v>
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>76</v>
+        <v>60</v>
       </c>
       <c r="C71" t="b">
         <v>0</v>
       </c>
       <c r="E71">
-        <v>69.989999999999995</v>
+        <v>3.99</v>
       </c>
       <c r="F71">
-        <v>99000</v>
+        <v>5500</v>
       </c>
       <c r="G71" t="s">
-        <v>76</v>
+        <v>60</v>
       </c>
       <c r="H71">
-        <v>435</v>
+        <v>123</v>
       </c>
       <c r="I71" t="s">
         <v>20</v>
       </c>
       <c r="J71" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K71">
-        <v>13500000</v>
+        <v>540</v>
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>179</v>
+        <v>61</v>
       </c>
       <c r="C72" t="b">
         <v>0</v>
       </c>
       <c r="E72">
-        <v>1.99</v>
+        <v>7.99</v>
       </c>
       <c r="F72">
-        <v>3300</v>
+        <v>11000</v>
       </c>
       <c r="G72" t="s">
-        <v>179</v>
+        <v>61</v>
       </c>
       <c r="H72">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="I72" t="s">
         <v>20</v>
       </c>
       <c r="J72" t="s">
-        <v>96</v>
+        <v>21</v>
       </c>
       <c r="K72">
-        <v>25</v>
+        <v>1560</v>
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>180</v>
+        <v>62</v>
       </c>
       <c r="C73" t="b">
         <v>0</v>
       </c>
       <c r="E73">
-        <v>3.99</v>
+        <v>19.989999999999998</v>
       </c>
       <c r="F73">
-        <v>5500</v>
+        <v>29000</v>
       </c>
       <c r="G73" t="s">
-        <v>180</v>
+        <v>62</v>
       </c>
       <c r="H73">
-        <v>934</v>
+        <v>758</v>
       </c>
       <c r="I73" t="s">
         <v>20</v>
       </c>
       <c r="J73" t="s">
-        <v>96</v>
+        <v>21</v>
       </c>
       <c r="K73">
-        <v>55</v>
+        <v>4500</v>
       </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>181</v>
+        <v>63</v>
       </c>
       <c r="C74" t="b">
         <v>0</v>
       </c>
       <c r="E74">
-        <v>7.99</v>
+        <v>29.99</v>
       </c>
       <c r="F74">
-        <v>11000</v>
+        <v>44000</v>
       </c>
       <c r="G74" t="s">
-        <v>181</v>
+        <v>63</v>
       </c>
       <c r="H74">
-        <v>626</v>
+        <v>310</v>
       </c>
       <c r="I74" t="s">
         <v>20</v>
       </c>
       <c r="J74" t="s">
-        <v>96</v>
+        <v>21</v>
       </c>
       <c r="K74">
-        <v>160</v>
+        <v>8700</v>
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>182</v>
+        <v>64</v>
       </c>
       <c r="C75" t="b">
         <v>0</v>
       </c>
       <c r="E75">
-        <v>19.989999999999998</v>
+        <v>69.989999999999995</v>
       </c>
       <c r="F75">
-        <v>29000</v>
+        <v>99000</v>
       </c>
       <c r="G75" t="s">
-        <v>182</v>
+        <v>64</v>
       </c>
       <c r="H75">
-        <v>910</v>
+        <v>714</v>
       </c>
       <c r="I75" t="s">
         <v>20</v>
       </c>
       <c r="J75" t="s">
-        <v>96</v>
+        <v>21</v>
       </c>
       <c r="K75">
-        <v>475</v>
+        <v>21600</v>
       </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>183</v>
+        <v>65</v>
       </c>
       <c r="C76" t="b">
         <v>0</v>
       </c>
       <c r="E76">
-        <v>29.99</v>
+        <v>1.99</v>
       </c>
       <c r="F76">
-        <v>44000</v>
+        <v>3300</v>
       </c>
       <c r="G76" t="s">
-        <v>183</v>
+        <v>65</v>
       </c>
       <c r="H76">
-        <v>258</v>
+        <v>897</v>
       </c>
       <c r="I76" t="s">
         <v>20</v>
       </c>
       <c r="J76" t="s">
-        <v>96</v>
+        <v>22</v>
       </c>
       <c r="K76">
-        <v>950</v>
+        <v>45000</v>
       </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>184</v>
+        <v>66</v>
       </c>
       <c r="C77" t="b">
         <v>0</v>
       </c>
       <c r="E77">
-        <v>69.989999999999995</v>
+        <v>3.99</v>
       </c>
       <c r="F77">
-        <v>99000</v>
+        <v>5500</v>
       </c>
       <c r="G77" t="s">
-        <v>184</v>
+        <v>66</v>
       </c>
       <c r="H77">
-        <v>872</v>
+        <v>839</v>
       </c>
       <c r="I77" t="s">
         <v>20</v>
       </c>
       <c r="J77" t="s">
-        <v>96</v>
+        <v>22</v>
       </c>
       <c r="K77">
-        <v>2400</v>
+        <v>105000</v>
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>185</v>
+        <v>67</v>
       </c>
       <c r="C78" t="b">
         <v>0</v>
       </c>
       <c r="E78">
-        <v>1.99</v>
+        <v>7.99</v>
       </c>
       <c r="F78">
-        <v>3300</v>
+        <v>11000</v>
       </c>
       <c r="G78" t="s">
-        <v>185</v>
+        <v>67</v>
       </c>
       <c r="H78">
-        <v>357</v>
+        <v>388</v>
       </c>
       <c r="I78" t="s">
         <v>20</v>
       </c>
       <c r="J78" t="s">
-        <v>96</v>
+        <v>22</v>
       </c>
       <c r="K78">
-        <v>75</v>
+        <v>250000</v>
       </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>186</v>
+        <v>68</v>
       </c>
       <c r="C79" t="b">
         <v>0</v>
       </c>
       <c r="E79">
-        <v>3.99</v>
+        <v>19.989999999999998</v>
       </c>
       <c r="F79">
-        <v>5500</v>
+        <v>29000</v>
       </c>
       <c r="G79" t="s">
-        <v>186</v>
+        <v>68</v>
       </c>
       <c r="H79">
-        <v>866</v>
+        <v>539</v>
       </c>
       <c r="I79" t="s">
         <v>20</v>
       </c>
       <c r="J79" t="s">
-        <v>96</v>
+        <v>22</v>
       </c>
       <c r="K79">
-        <v>165</v>
+        <v>900000</v>
       </c>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>187</v>
+        <v>69</v>
       </c>
       <c r="C80" t="b">
         <v>0</v>
       </c>
       <c r="E80">
-        <v>7.99</v>
+        <v>29.99</v>
       </c>
       <c r="F80">
-        <v>11000</v>
+        <v>44000</v>
       </c>
       <c r="G80" t="s">
-        <v>187</v>
+        <v>69</v>
       </c>
       <c r="H80">
-        <v>240</v>
+        <v>682</v>
       </c>
       <c r="I80" t="s">
         <v>20</v>
       </c>
       <c r="J80" t="s">
-        <v>96</v>
+        <v>22</v>
       </c>
       <c r="K80">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="81" spans="1:20" x14ac:dyDescent="0.3">
+        <v>1600000</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>188</v>
+        <v>70</v>
       </c>
       <c r="C81" t="b">
         <v>0</v>
       </c>
       <c r="E81">
-        <v>19.989999999999998</v>
+        <v>69.989999999999995</v>
       </c>
       <c r="F81">
-        <v>29000</v>
+        <v>99000</v>
       </c>
       <c r="G81" t="s">
-        <v>188</v>
+        <v>70</v>
       </c>
       <c r="H81">
-        <v>722</v>
+        <v>647</v>
       </c>
       <c r="I81" t="s">
         <v>20</v>
       </c>
       <c r="J81" t="s">
-        <v>96</v>
+        <v>22</v>
       </c>
       <c r="K81">
-        <v>1425</v>
-      </c>
-    </row>
-    <row r="82" spans="1:20" x14ac:dyDescent="0.3">
+        <v>4500000</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>189</v>
+        <v>71</v>
       </c>
       <c r="C82" t="b">
         <v>0</v>
       </c>
       <c r="E82">
-        <v>29.99</v>
+        <v>1.99</v>
       </c>
       <c r="F82">
-        <v>44000</v>
+        <v>3300</v>
       </c>
       <c r="G82" t="s">
-        <v>189</v>
+        <v>71</v>
       </c>
       <c r="H82">
-        <v>517</v>
+        <v>144</v>
       </c>
       <c r="I82" t="s">
         <v>20</v>
       </c>
       <c r="J82" t="s">
-        <v>96</v>
+        <v>22</v>
       </c>
       <c r="K82">
-        <v>2850</v>
-      </c>
-    </row>
-    <row r="83" spans="1:20" x14ac:dyDescent="0.3">
+        <v>135000</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>190</v>
+        <v>72</v>
       </c>
       <c r="C83" t="b">
         <v>0</v>
       </c>
       <c r="E83">
-        <v>69.989999999999995</v>
+        <v>3.99</v>
       </c>
       <c r="F83">
-        <v>99000</v>
+        <v>5500</v>
       </c>
       <c r="G83" t="s">
-        <v>190</v>
+        <v>72</v>
       </c>
       <c r="H83">
-        <v>526</v>
+        <v>672</v>
       </c>
       <c r="I83" t="s">
         <v>20</v>
       </c>
       <c r="J83" t="s">
-        <v>96</v>
+        <v>22</v>
       </c>
       <c r="K83">
-        <v>7200</v>
-      </c>
-    </row>
-    <row r="84" spans="1:20" x14ac:dyDescent="0.3">
+        <v>315000</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C84" t="b">
         <v>0</v>
       </c>
       <c r="E84">
-        <v>1.99</v>
+        <v>7.99</v>
       </c>
       <c r="F84">
-        <v>3300</v>
+        <v>11000</v>
       </c>
       <c r="G84" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="H84">
-        <v>781</v>
+        <v>336</v>
       </c>
       <c r="I84" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="J84" t="s">
-        <v>84</v>
+        <v>22</v>
       </c>
       <c r="K84">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="85" spans="1:20" x14ac:dyDescent="0.3">
+        <v>750000</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C85" t="b">
         <v>0</v>
       </c>
       <c r="E85">
-        <v>4.99</v>
+        <v>19.989999999999998</v>
       </c>
       <c r="F85">
-        <v>6600</v>
+        <v>29000</v>
       </c>
       <c r="G85" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="H85">
-        <v>142</v>
+        <v>873</v>
       </c>
       <c r="I85" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="J85" t="s">
-        <v>84</v>
+        <v>22</v>
       </c>
       <c r="K85">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="86" spans="1:20" x14ac:dyDescent="0.3">
+        <v>2700000</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C86" t="b">
         <v>0</v>
       </c>
       <c r="E86">
-        <v>8.99</v>
+        <v>29.99</v>
       </c>
       <c r="F86">
-        <v>12000</v>
+        <v>44000</v>
       </c>
       <c r="G86" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="H86">
-        <v>610</v>
+        <v>997</v>
       </c>
       <c r="I86" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="J86" t="s">
-        <v>84</v>
+        <v>22</v>
       </c>
       <c r="K86">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="87" spans="1:20" x14ac:dyDescent="0.3">
+        <v>4800000</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C87" t="b">
         <v>0</v>
       </c>
       <c r="E87">
-        <v>19.989999999999998</v>
+        <v>69.989999999999995</v>
       </c>
       <c r="F87">
-        <v>29000</v>
+        <v>99000</v>
       </c>
       <c r="G87" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="H87">
-        <v>433</v>
+        <v>639</v>
       </c>
       <c r="I87" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="J87" t="s">
-        <v>84</v>
+        <v>22</v>
       </c>
       <c r="K87">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="88" spans="1:20" x14ac:dyDescent="0.3">
+        <v>13500000</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>81</v>
+        <v>175</v>
       </c>
       <c r="C88" t="b">
         <v>0</v>
       </c>
       <c r="E88">
-        <v>49.99</v>
+        <v>1.99</v>
       </c>
       <c r="F88">
-        <v>66000</v>
+        <v>3300</v>
       </c>
       <c r="G88" t="s">
-        <v>81</v>
+        <v>175</v>
       </c>
       <c r="H88">
-        <v>604</v>
+        <v>620</v>
       </c>
       <c r="I88" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="J88" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="K88">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="89" spans="1:20" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>82</v>
+        <v>176</v>
       </c>
       <c r="C89" t="b">
         <v>0</v>
       </c>
       <c r="E89">
-        <v>0.99</v>
+        <v>3.99</v>
       </c>
       <c r="F89">
-        <v>1100</v>
+        <v>5500</v>
       </c>
       <c r="G89" t="s">
-        <v>82</v>
+        <v>176</v>
       </c>
       <c r="H89">
-        <v>902</v>
+        <v>567</v>
       </c>
       <c r="I89" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="J89" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="K89">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="90" spans="1:20" x14ac:dyDescent="0.3">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>83</v>
+        <v>177</v>
       </c>
       <c r="C90" t="b">
         <v>0</v>
       </c>
       <c r="E90">
-        <v>3.99</v>
+        <v>7.99</v>
       </c>
       <c r="F90">
-        <v>5500</v>
+        <v>11000</v>
       </c>
       <c r="G90" t="s">
-        <v>83</v>
+        <v>177</v>
       </c>
       <c r="H90">
-        <v>924</v>
+        <v>650</v>
       </c>
       <c r="I90" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="J90" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="K90">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="91" spans="1:20" x14ac:dyDescent="0.3">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>90</v>
+        <v>178</v>
       </c>
       <c r="C91" t="b">
         <v>0</v>
       </c>
-      <c r="D91">
-        <v>4</v>
-      </c>
       <c r="E91">
-        <v>0.99</v>
+        <v>19.989999999999998</v>
       </c>
       <c r="F91">
-        <v>1200</v>
+        <v>29000</v>
       </c>
       <c r="G91" t="s">
-        <v>90</v>
+        <v>178</v>
       </c>
       <c r="H91">
-        <v>802</v>
+        <v>524</v>
       </c>
       <c r="I91" t="s">
         <v>20</v>
       </c>
       <c r="J91" t="s">
-        <v>21</v>
+        <v>96</v>
       </c>
       <c r="K91">
-        <v>30</v>
-      </c>
-      <c r="L91" t="s">
-        <v>20</v>
-      </c>
-      <c r="M91" t="s">
-        <v>22</v>
-      </c>
-      <c r="N91">
-        <v>25000</v>
-      </c>
-      <c r="O91" t="s">
-        <v>20</v>
-      </c>
-      <c r="P91" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q91">
-        <v>100</v>
-      </c>
-      <c r="R91" t="s">
-        <v>20</v>
-      </c>
-      <c r="S91" t="s">
-        <v>22</v>
-      </c>
-      <c r="T91">
-        <v>35000</v>
-      </c>
-    </row>
-    <row r="92" spans="1:20" x14ac:dyDescent="0.3">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>91</v>
+        <v>179</v>
       </c>
       <c r="C92" t="b">
         <v>0</v>
       </c>
-      <c r="D92">
-        <v>4</v>
-      </c>
       <c r="E92">
-        <v>4.99</v>
+        <v>29.99</v>
       </c>
       <c r="F92">
-        <v>5900</v>
+        <v>44000</v>
       </c>
       <c r="G92" t="s">
-        <v>91</v>
+        <v>179</v>
       </c>
       <c r="H92">
-        <v>585</v>
+        <v>386</v>
       </c>
       <c r="I92" t="s">
         <v>20</v>
       </c>
       <c r="J92" t="s">
-        <v>21</v>
+        <v>96</v>
       </c>
       <c r="K92">
-        <v>60</v>
-      </c>
-      <c r="L92" t="s">
-        <v>20</v>
-      </c>
-      <c r="M92" t="s">
-        <v>22</v>
-      </c>
-      <c r="N92">
-        <v>15000</v>
-      </c>
-      <c r="O92" t="s">
-        <v>20</v>
-      </c>
-      <c r="P92" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q92">
-        <v>120</v>
-      </c>
-      <c r="R92" t="s">
-        <v>20</v>
-      </c>
-      <c r="S92" t="s">
-        <v>22</v>
-      </c>
-      <c r="T92">
-        <v>25000</v>
-      </c>
-    </row>
-    <row r="93" spans="1:20" x14ac:dyDescent="0.3">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>92</v>
+        <v>180</v>
       </c>
       <c r="C93" t="b">
         <v>0</v>
       </c>
-      <c r="D93">
-        <v>4</v>
-      </c>
       <c r="E93">
-        <v>9.99</v>
+        <v>69.989999999999995</v>
       </c>
       <c r="F93">
-        <v>13000</v>
+        <v>99000</v>
       </c>
       <c r="G93" t="s">
-        <v>92</v>
+        <v>180</v>
       </c>
       <c r="H93">
-        <v>634</v>
+        <v>539</v>
       </c>
       <c r="I93" t="s">
         <v>20</v>
       </c>
       <c r="J93" t="s">
-        <v>21</v>
+        <v>96</v>
       </c>
       <c r="K93">
-        <v>90</v>
-      </c>
-      <c r="L93" t="s">
-        <v>20</v>
-      </c>
-      <c r="M93" t="s">
-        <v>22</v>
-      </c>
-      <c r="N93">
-        <v>30000</v>
-      </c>
-      <c r="O93" t="s">
-        <v>20</v>
-      </c>
-      <c r="P93" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q93">
-        <v>150</v>
-      </c>
-      <c r="R93" t="s">
-        <v>20</v>
-      </c>
-      <c r="S93" t="s">
-        <v>21</v>
-      </c>
-      <c r="T93">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="94" spans="1:20" x14ac:dyDescent="0.3">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>93</v>
+        <v>181</v>
       </c>
       <c r="C94" t="b">
         <v>0</v>
       </c>
-      <c r="D94">
-        <v>4</v>
-      </c>
       <c r="E94">
-        <v>9.99</v>
+        <v>1.99</v>
       </c>
       <c r="F94">
-        <v>13000</v>
+        <v>3300</v>
       </c>
       <c r="G94" t="s">
-        <v>93</v>
+        <v>181</v>
       </c>
       <c r="H94">
-        <v>791</v>
+        <v>291</v>
       </c>
       <c r="I94" t="s">
         <v>20</v>
       </c>
       <c r="J94" t="s">
-        <v>21</v>
+        <v>96</v>
       </c>
       <c r="K94">
-        <v>120</v>
-      </c>
-      <c r="L94" t="s">
-        <v>20</v>
-      </c>
-      <c r="M94" t="s">
-        <v>22</v>
-      </c>
-      <c r="N94">
-        <v>50000</v>
-      </c>
-      <c r="O94" t="s">
-        <v>20</v>
-      </c>
-      <c r="P94" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q94">
-        <v>120</v>
-      </c>
-      <c r="R94" t="s">
-        <v>20</v>
-      </c>
-      <c r="S94" t="s">
-        <v>22</v>
-      </c>
-      <c r="T94">
-        <v>25000</v>
-      </c>
-    </row>
-    <row r="95" spans="1:20" x14ac:dyDescent="0.3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>94</v>
+        <v>182</v>
       </c>
       <c r="C95" t="b">
         <v>0</v>
       </c>
-      <c r="D95">
-        <v>4</v>
-      </c>
       <c r="E95">
-        <v>9.99</v>
+        <v>3.99</v>
       </c>
       <c r="F95">
-        <v>13000</v>
+        <v>5500</v>
       </c>
       <c r="G95" t="s">
-        <v>94</v>
+        <v>182</v>
       </c>
       <c r="H95">
-        <v>484</v>
+        <v>421</v>
       </c>
       <c r="I95" t="s">
         <v>20</v>
       </c>
       <c r="J95" t="s">
-        <v>21</v>
+        <v>96</v>
       </c>
       <c r="K95">
-        <v>150</v>
-      </c>
-      <c r="L95" t="s">
-        <v>20</v>
-      </c>
-      <c r="M95" t="s">
-        <v>22</v>
-      </c>
-      <c r="N95">
-        <v>90000</v>
-      </c>
-      <c r="O95" t="s">
-        <v>20</v>
-      </c>
-      <c r="P95" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q95">
-        <v>150</v>
-      </c>
-      <c r="R95" t="s">
-        <v>20</v>
-      </c>
-      <c r="S95" t="s">
-        <v>21</v>
-      </c>
-      <c r="T95">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="96" spans="1:20" x14ac:dyDescent="0.3">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>122</v>
+        <v>183</v>
       </c>
       <c r="C96" t="b">
         <v>0</v>
       </c>
       <c r="E96">
-        <v>6.99</v>
+        <v>7.99</v>
       </c>
       <c r="F96">
-        <v>9900</v>
+        <v>11000</v>
       </c>
       <c r="G96" t="s">
-        <v>122</v>
+        <v>183</v>
       </c>
       <c r="H96">
-        <v>212</v>
+        <v>302</v>
       </c>
       <c r="I96" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="J96" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K96">
-        <v>15</v>
-      </c>
-      <c r="L96" t="s">
-        <v>20</v>
-      </c>
-      <c r="M96" t="s">
-        <v>96</v>
-      </c>
-      <c r="N96">
-        <v>500</v>
+        <v>480</v>
       </c>
     </row>
     <row r="97" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>97</v>
+        <v>184</v>
       </c>
       <c r="C97" t="b">
         <v>0</v>
       </c>
-      <c r="D97">
-        <v>8</v>
-      </c>
       <c r="E97">
-        <v>0.99</v>
+        <v>19.989999999999998</v>
       </c>
       <c r="F97">
-        <v>1200</v>
+        <v>29000</v>
       </c>
       <c r="G97" t="s">
-        <v>97</v>
+        <v>184</v>
       </c>
       <c r="H97">
-        <v>704</v>
+        <v>717</v>
       </c>
       <c r="I97" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="J97" t="s">
-        <v>213</v>
+        <v>96</v>
       </c>
       <c r="K97">
-        <v>1</v>
-      </c>
-      <c r="L97" t="s">
-        <v>20</v>
-      </c>
-      <c r="M97" t="s">
-        <v>22</v>
-      </c>
-      <c r="N97">
-        <v>10000</v>
-      </c>
-      <c r="O97" t="s">
-        <v>20</v>
-      </c>
-      <c r="P97" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q97">
-        <v>120</v>
-      </c>
-      <c r="R97" t="s">
-        <v>23</v>
-      </c>
-      <c r="S97" t="s">
-        <v>234</v>
-      </c>
-      <c r="T97">
-        <v>1</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="98" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>98</v>
+        <v>185</v>
       </c>
       <c r="C98" t="b">
         <v>0</v>
       </c>
-      <c r="D98">
-        <v>8</v>
-      </c>
       <c r="E98">
-        <v>0.99</v>
+        <v>29.99</v>
       </c>
       <c r="F98">
-        <v>1200</v>
+        <v>44000</v>
       </c>
       <c r="G98" t="s">
-        <v>98</v>
+        <v>185</v>
       </c>
       <c r="H98">
-        <v>148</v>
+        <v>630</v>
       </c>
       <c r="I98" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="J98" t="s">
-        <v>214</v>
+        <v>96</v>
       </c>
       <c r="K98">
-        <v>1</v>
-      </c>
-      <c r="L98" t="s">
-        <v>20</v>
-      </c>
-      <c r="M98" t="s">
-        <v>22</v>
-      </c>
-      <c r="N98">
-        <v>15000</v>
-      </c>
-      <c r="O98" t="s">
-        <v>20</v>
-      </c>
-      <c r="P98" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q98">
-        <v>120</v>
-      </c>
-      <c r="R98" t="s">
-        <v>23</v>
-      </c>
-      <c r="S98" t="s">
-        <v>235</v>
-      </c>
-      <c r="T98">
-        <v>1</v>
+        <v>2850</v>
       </c>
     </row>
     <row r="99" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>99</v>
+        <v>186</v>
       </c>
       <c r="C99" t="b">
         <v>0</v>
       </c>
-      <c r="D99">
-        <v>8</v>
-      </c>
       <c r="E99">
-        <v>0.99</v>
+        <v>69.989999999999995</v>
       </c>
       <c r="F99">
-        <v>1200</v>
+        <v>99000</v>
       </c>
       <c r="G99" t="s">
-        <v>99</v>
+        <v>186</v>
       </c>
       <c r="H99">
-        <v>784</v>
+        <v>147</v>
       </c>
       <c r="I99" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="J99" t="s">
-        <v>215</v>
+        <v>96</v>
       </c>
       <c r="K99">
-        <v>1</v>
-      </c>
-      <c r="L99" t="s">
-        <v>20</v>
-      </c>
-      <c r="M99" t="s">
-        <v>22</v>
-      </c>
-      <c r="N99">
-        <v>30000</v>
-      </c>
-      <c r="O99" t="s">
-        <v>20</v>
-      </c>
-      <c r="P99" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q99">
-        <v>150</v>
-      </c>
-      <c r="R99" t="s">
-        <v>20</v>
-      </c>
-      <c r="S99" t="s">
-        <v>21</v>
-      </c>
-      <c r="T99">
-        <v>300</v>
+        <v>7200</v>
       </c>
     </row>
     <row r="100" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>100</v>
+        <v>77</v>
       </c>
       <c r="C100" t="b">
         <v>0</v>
       </c>
-      <c r="D100">
-        <v>8</v>
-      </c>
       <c r="E100">
-        <v>4.99</v>
+        <v>1.99</v>
       </c>
       <c r="F100">
-        <v>5900</v>
+        <v>3300</v>
       </c>
       <c r="G100" t="s">
-        <v>100</v>
+        <v>77</v>
       </c>
       <c r="H100">
-        <v>354</v>
+        <v>643</v>
       </c>
       <c r="I100" t="s">
         <v>23</v>
       </c>
       <c r="J100" t="s">
-        <v>216</v>
+        <v>84</v>
       </c>
       <c r="K100">
         <v>1</v>
       </c>
-      <c r="L100" t="s">
-        <v>20</v>
-      </c>
-      <c r="M100" t="s">
-        <v>22</v>
-      </c>
-      <c r="N100">
-        <v>25000</v>
-      </c>
-      <c r="O100" t="s">
-        <v>20</v>
-      </c>
-      <c r="P100" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q100">
-        <v>100</v>
-      </c>
-      <c r="R100" t="s">
-        <v>20</v>
-      </c>
-      <c r="S100" t="s">
-        <v>96</v>
-      </c>
-      <c r="T100">
-        <v>50</v>
-      </c>
     </row>
     <row r="101" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>101</v>
+        <v>78</v>
       </c>
       <c r="C101" t="b">
         <v>0</v>
       </c>
-      <c r="D101">
-        <v>8</v>
-      </c>
       <c r="E101">
-        <v>4.99</v>
+        <v>1.99</v>
       </c>
       <c r="F101">
-        <v>5900</v>
+        <v>3300</v>
       </c>
       <c r="G101" t="s">
-        <v>101</v>
+        <v>78</v>
       </c>
       <c r="H101">
-        <v>414</v>
+        <v>499</v>
       </c>
       <c r="I101" t="s">
         <v>23</v>
       </c>
       <c r="J101" t="s">
-        <v>217</v>
+        <v>84</v>
       </c>
       <c r="K101">
         <v>1</v>
       </c>
-      <c r="L101" t="s">
-        <v>20</v>
-      </c>
-      <c r="M101" t="s">
-        <v>22</v>
-      </c>
-      <c r="N101">
-        <v>15000</v>
-      </c>
-      <c r="O101" t="s">
-        <v>20</v>
-      </c>
-      <c r="P101" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q101">
-        <v>120</v>
-      </c>
-      <c r="R101" t="s">
-        <v>20</v>
-      </c>
-      <c r="S101" t="s">
-        <v>96</v>
-      </c>
-      <c r="T101">
-        <v>50</v>
-      </c>
     </row>
     <row r="102" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>102</v>
+        <v>79</v>
       </c>
       <c r="C102" t="b">
         <v>0</v>
       </c>
-      <c r="D102">
-        <v>8</v>
-      </c>
       <c r="E102">
-        <v>9.99</v>
+        <v>1.99</v>
       </c>
       <c r="F102">
-        <v>13000</v>
+        <v>3300</v>
       </c>
       <c r="G102" t="s">
-        <v>102</v>
+        <v>79</v>
       </c>
       <c r="H102">
-        <v>726</v>
+        <v>917</v>
       </c>
       <c r="I102" t="s">
         <v>23</v>
       </c>
       <c r="J102" t="s">
-        <v>218</v>
+        <v>84</v>
       </c>
       <c r="K102">
         <v>1</v>
       </c>
-      <c r="L102" t="s">
-        <v>20</v>
-      </c>
-      <c r="M102" t="s">
-        <v>22</v>
-      </c>
-      <c r="N102">
-        <v>30000</v>
-      </c>
-      <c r="O102" t="s">
-        <v>20</v>
-      </c>
-      <c r="P102" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q102">
-        <v>150</v>
-      </c>
-      <c r="R102" t="s">
-        <v>20</v>
-      </c>
-      <c r="S102" t="s">
-        <v>21</v>
-      </c>
-      <c r="T102">
-        <v>300</v>
-      </c>
     </row>
     <row r="103" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>103</v>
+        <v>80</v>
       </c>
       <c r="C103" t="b">
         <v>0</v>
       </c>
-      <c r="D103">
-        <v>8</v>
-      </c>
       <c r="E103">
-        <v>9.99</v>
+        <v>2.99</v>
       </c>
       <c r="F103">
-        <v>13000</v>
+        <v>4400</v>
       </c>
       <c r="G103" t="s">
-        <v>103</v>
+        <v>80</v>
       </c>
       <c r="H103">
-        <v>679</v>
+        <v>634</v>
       </c>
       <c r="I103" t="s">
         <v>23</v>
       </c>
       <c r="J103" t="s">
-        <v>219</v>
+        <v>84</v>
       </c>
       <c r="K103">
         <v>1</v>
       </c>
-      <c r="L103" t="s">
-        <v>20</v>
-      </c>
-      <c r="M103" t="s">
-        <v>22</v>
-      </c>
-      <c r="N103">
-        <v>25000</v>
-      </c>
-      <c r="O103" t="s">
-        <v>20</v>
-      </c>
-      <c r="P103" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q103">
-        <v>100</v>
-      </c>
-      <c r="R103" t="s">
-        <v>20</v>
-      </c>
-      <c r="S103" t="s">
-        <v>96</v>
-      </c>
-      <c r="T103">
-        <v>50</v>
-      </c>
     </row>
     <row r="104" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>104</v>
+        <v>81</v>
       </c>
       <c r="C104" t="b">
         <v>0</v>
       </c>
-      <c r="D104">
-        <v>8</v>
-      </c>
       <c r="E104">
-        <v>19.989999999999998</v>
+        <v>3.99</v>
       </c>
       <c r="F104">
-        <v>25000</v>
+        <v>5500</v>
       </c>
       <c r="G104" t="s">
-        <v>104</v>
+        <v>81</v>
       </c>
       <c r="H104">
-        <v>752</v>
+        <v>932</v>
       </c>
       <c r="I104" t="s">
         <v>23</v>
       </c>
       <c r="J104" t="s">
-        <v>220</v>
+        <v>84</v>
       </c>
       <c r="K104">
         <v>1</v>
       </c>
-      <c r="L104" t="s">
-        <v>20</v>
-      </c>
-      <c r="M104" t="s">
-        <v>22</v>
-      </c>
-      <c r="N104">
-        <v>25000</v>
-      </c>
-      <c r="O104" t="s">
-        <v>20</v>
-      </c>
-      <c r="P104" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q104">
-        <v>100</v>
-      </c>
-      <c r="R104" t="s">
-        <v>20</v>
-      </c>
-      <c r="S104" t="s">
-        <v>96</v>
-      </c>
-      <c r="T104">
-        <v>50</v>
-      </c>
     </row>
     <row r="105" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>105</v>
+        <v>82</v>
       </c>
       <c r="C105" t="b">
         <v>0</v>
       </c>
-      <c r="D105">
-        <v>8</v>
-      </c>
       <c r="E105">
-        <v>39.99</v>
+        <v>0.99</v>
       </c>
       <c r="F105">
-        <v>48000</v>
+        <v>1100</v>
       </c>
       <c r="G105" t="s">
-        <v>105</v>
+        <v>82</v>
       </c>
       <c r="H105">
-        <v>534</v>
+        <v>733</v>
       </c>
       <c r="I105" t="s">
         <v>23</v>
       </c>
       <c r="J105" t="s">
-        <v>221</v>
+        <v>88</v>
       </c>
       <c r="K105">
-        <v>1</v>
-      </c>
-      <c r="L105" t="s">
-        <v>20</v>
-      </c>
-      <c r="M105" t="s">
-        <v>22</v>
-      </c>
-      <c r="N105">
-        <v>15000</v>
-      </c>
-      <c r="O105" t="s">
-        <v>20</v>
-      </c>
-      <c r="P105" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q105">
-        <v>120</v>
-      </c>
-      <c r="R105" t="s">
-        <v>20</v>
-      </c>
-      <c r="S105" t="s">
-        <v>96</v>
-      </c>
-      <c r="T105">
-        <v>50</v>
+        <v>5</v>
       </c>
     </row>
     <row r="106" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>106</v>
+        <v>83</v>
       </c>
       <c r="C106" t="b">
         <v>0</v>
       </c>
-      <c r="D106">
-        <v>8</v>
-      </c>
       <c r="E106">
-        <v>49.99</v>
+        <v>1.99</v>
       </c>
       <c r="F106">
-        <v>69000</v>
+        <v>3300</v>
       </c>
       <c r="G106" t="s">
-        <v>106</v>
+        <v>83</v>
       </c>
       <c r="H106">
-        <v>243</v>
+        <v>129</v>
       </c>
       <c r="I106" t="s">
         <v>23</v>
       </c>
       <c r="J106" t="s">
-        <v>222</v>
+        <v>89</v>
       </c>
       <c r="K106">
-        <v>1</v>
-      </c>
-      <c r="L106" t="s">
-        <v>20</v>
-      </c>
-      <c r="M106" t="s">
-        <v>22</v>
-      </c>
-      <c r="N106">
-        <v>30000</v>
-      </c>
-      <c r="O106" t="s">
-        <v>20</v>
-      </c>
-      <c r="P106" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q106">
-        <v>150</v>
-      </c>
-      <c r="R106" t="s">
-        <v>20</v>
-      </c>
-      <c r="S106" t="s">
-        <v>21</v>
-      </c>
-      <c r="T106">
-        <v>300</v>
+        <v>5</v>
       </c>
     </row>
     <row r="107" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>134</v>
+        <v>94</v>
       </c>
       <c r="C107" t="b">
         <v>0</v>
       </c>
+      <c r="D107">
+        <v>4</v>
+      </c>
       <c r="E107">
         <v>0.99</v>
       </c>
@@ -5392,385 +5194,727 @@
         <v>1100</v>
       </c>
       <c r="G107" t="s">
-        <v>134</v>
+        <v>94</v>
       </c>
       <c r="H107">
-        <v>384</v>
+        <v>976</v>
       </c>
       <c r="I107" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="J107" t="s">
-        <v>193</v>
+        <v>21</v>
       </c>
       <c r="K107">
-        <v>1</v>
+        <v>30</v>
+      </c>
+      <c r="L107" t="s">
+        <v>20</v>
+      </c>
+      <c r="M107" t="s">
+        <v>22</v>
+      </c>
+      <c r="N107">
+        <v>25000</v>
+      </c>
+      <c r="O107" t="s">
+        <v>20</v>
+      </c>
+      <c r="P107" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q107">
+        <v>100</v>
+      </c>
+      <c r="R107" t="s">
+        <v>20</v>
+      </c>
+      <c r="S107" t="s">
+        <v>22</v>
+      </c>
+      <c r="T107">
+        <v>35000</v>
       </c>
     </row>
     <row r="108" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>135</v>
+        <v>252</v>
       </c>
       <c r="C108" t="b">
         <v>0</v>
       </c>
+      <c r="D108">
+        <v>4</v>
+      </c>
       <c r="E108">
-        <v>4.99</v>
+        <v>0.99</v>
       </c>
       <c r="F108">
-        <v>6600</v>
+        <v>1100</v>
       </c>
       <c r="G108" t="s">
-        <v>135</v>
+        <v>252</v>
       </c>
       <c r="H108">
-        <v>681</v>
+        <v>961</v>
       </c>
       <c r="I108" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="J108" t="s">
-        <v>193</v>
+        <v>21</v>
       </c>
       <c r="K108">
-        <v>7</v>
+        <v>60</v>
+      </c>
+      <c r="L108" t="s">
+        <v>20</v>
+      </c>
+      <c r="M108" t="s">
+        <v>22</v>
+      </c>
+      <c r="N108">
+        <v>15000</v>
+      </c>
+      <c r="O108" t="s">
+        <v>20</v>
+      </c>
+      <c r="P108" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q108">
+        <v>120</v>
+      </c>
+      <c r="R108" t="s">
+        <v>20</v>
+      </c>
+      <c r="S108" t="s">
+        <v>22</v>
+      </c>
+      <c r="T108">
+        <v>25000</v>
       </c>
     </row>
     <row r="109" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>136</v>
+        <v>253</v>
       </c>
       <c r="C109" t="b">
         <v>0</v>
       </c>
+      <c r="D109">
+        <v>4</v>
+      </c>
       <c r="E109">
-        <v>19.989999999999998</v>
+        <v>1.99</v>
       </c>
       <c r="F109">
-        <v>29000</v>
+        <v>3300</v>
       </c>
       <c r="G109" t="s">
-        <v>136</v>
+        <v>253</v>
       </c>
       <c r="H109">
-        <v>813</v>
+        <v>154</v>
       </c>
       <c r="I109" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="J109" t="s">
-        <v>193</v>
+        <v>21</v>
       </c>
       <c r="K109">
-        <v>30</v>
+        <v>90</v>
       </c>
       <c r="L109" t="s">
         <v>20</v>
       </c>
       <c r="M109" t="s">
+        <v>22</v>
+      </c>
+      <c r="N109">
+        <v>30000</v>
+      </c>
+      <c r="O109" t="s">
+        <v>20</v>
+      </c>
+      <c r="P109" t="s">
         <v>21</v>
       </c>
-      <c r="N109">
-        <v>1000</v>
-      </c>
-      <c r="O109" t="s">
-        <v>20</v>
-      </c>
-      <c r="P109" t="s">
-        <v>22</v>
-      </c>
       <c r="Q109">
-        <v>25000</v>
+        <v>150</v>
       </c>
       <c r="R109" t="s">
         <v>20</v>
       </c>
       <c r="S109" t="s">
-        <v>96</v>
+        <v>21</v>
       </c>
       <c r="T109">
-        <v>750</v>
+        <v>300</v>
       </c>
     </row>
     <row r="110" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>137</v>
+        <v>254</v>
       </c>
       <c r="C110" t="b">
         <v>0</v>
       </c>
+      <c r="D110">
+        <v>4</v>
+      </c>
       <c r="E110">
-        <v>9.99</v>
+        <v>1.99</v>
       </c>
       <c r="F110">
-        <v>13000</v>
+        <v>3300</v>
       </c>
       <c r="G110" t="s">
-        <v>137</v>
+        <v>254</v>
       </c>
       <c r="H110">
-        <v>178</v>
+        <v>891</v>
       </c>
       <c r="I110" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="J110" t="s">
-        <v>148</v>
+        <v>21</v>
       </c>
       <c r="K110">
-        <v>1</v>
+        <v>120</v>
+      </c>
+      <c r="L110" t="s">
+        <v>20</v>
+      </c>
+      <c r="M110" t="s">
+        <v>22</v>
+      </c>
+      <c r="N110">
+        <v>50000</v>
+      </c>
+      <c r="O110" t="s">
+        <v>20</v>
+      </c>
+      <c r="P110" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q110">
+        <v>120</v>
+      </c>
+      <c r="R110" t="s">
+        <v>20</v>
+      </c>
+      <c r="S110" t="s">
+        <v>22</v>
+      </c>
+      <c r="T110">
+        <v>25000</v>
       </c>
     </row>
     <row r="111" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>139</v>
+        <v>255</v>
       </c>
       <c r="C111" t="b">
         <v>0</v>
       </c>
+      <c r="D111">
+        <v>4</v>
+      </c>
       <c r="E111">
-        <v>9.99</v>
+        <v>2.99</v>
       </c>
       <c r="F111">
-        <v>13000</v>
+        <v>4400</v>
       </c>
       <c r="G111" t="s">
-        <v>139</v>
+        <v>255</v>
       </c>
       <c r="H111">
-        <v>240</v>
+        <v>860</v>
       </c>
       <c r="I111" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="J111" t="s">
-        <v>138</v>
+        <v>21</v>
       </c>
       <c r="K111">
-        <v>1</v>
+        <v>150</v>
+      </c>
+      <c r="L111" t="s">
+        <v>20</v>
+      </c>
+      <c r="M111" t="s">
+        <v>22</v>
+      </c>
+      <c r="N111">
+        <v>90000</v>
+      </c>
+      <c r="O111" t="s">
+        <v>20</v>
+      </c>
+      <c r="P111" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q111">
+        <v>150</v>
+      </c>
+      <c r="R111" t="s">
+        <v>20</v>
+      </c>
+      <c r="S111" t="s">
+        <v>21</v>
+      </c>
+      <c r="T111">
+        <v>300</v>
       </c>
     </row>
     <row r="112" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>140</v>
+        <v>256</v>
       </c>
       <c r="C112" t="b">
         <v>0</v>
       </c>
+      <c r="D112">
+        <v>4</v>
+      </c>
       <c r="E112">
-        <v>9.99</v>
+        <v>3.99</v>
       </c>
       <c r="F112">
-        <v>13000</v>
+        <v>5500</v>
       </c>
       <c r="G112" t="s">
-        <v>140</v>
+        <v>256</v>
       </c>
       <c r="H112">
-        <v>652</v>
+        <v>211</v>
       </c>
       <c r="I112" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="J112" t="s">
-        <v>138</v>
+        <v>21</v>
       </c>
       <c r="K112">
-        <v>1</v>
+        <v>150</v>
+      </c>
+      <c r="L112" t="s">
+        <v>20</v>
+      </c>
+      <c r="M112" t="s">
+        <v>22</v>
+      </c>
+      <c r="N112">
+        <v>90000</v>
+      </c>
+      <c r="O112" t="s">
+        <v>20</v>
+      </c>
+      <c r="P112" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q112">
+        <v>150</v>
+      </c>
+      <c r="R112" t="s">
+        <v>20</v>
+      </c>
+      <c r="S112" t="s">
+        <v>21</v>
+      </c>
+      <c r="T112">
+        <v>300</v>
       </c>
     </row>
     <row r="113" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>141</v>
+        <v>257</v>
       </c>
       <c r="C113" t="b">
         <v>0</v>
       </c>
+      <c r="D113">
+        <v>4</v>
+      </c>
       <c r="E113">
-        <v>9.99</v>
+        <v>3.99</v>
       </c>
       <c r="F113">
-        <v>13000</v>
+        <v>5500</v>
       </c>
       <c r="G113" t="s">
-        <v>141</v>
+        <v>257</v>
       </c>
       <c r="H113">
-        <v>358</v>
+        <v>393</v>
       </c>
       <c r="I113" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="J113" t="s">
-        <v>138</v>
+        <v>21</v>
       </c>
       <c r="K113">
-        <v>1</v>
+        <v>150</v>
+      </c>
+      <c r="L113" t="s">
+        <v>20</v>
+      </c>
+      <c r="M113" t="s">
+        <v>22</v>
+      </c>
+      <c r="N113">
+        <v>90000</v>
+      </c>
+      <c r="O113" t="s">
+        <v>20</v>
+      </c>
+      <c r="P113" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q113">
+        <v>150</v>
+      </c>
+      <c r="R113" t="s">
+        <v>20</v>
+      </c>
+      <c r="S113" t="s">
+        <v>21</v>
+      </c>
+      <c r="T113">
+        <v>300</v>
       </c>
     </row>
     <row r="114" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>164</v>
+        <v>258</v>
       </c>
       <c r="C114" t="b">
         <v>0</v>
       </c>
+      <c r="D114">
+        <v>4</v>
+      </c>
       <c r="E114">
-        <v>9.99</v>
+        <v>4.99</v>
       </c>
       <c r="F114">
-        <v>13000</v>
+        <v>6600</v>
       </c>
       <c r="G114" t="s">
-        <v>164</v>
+        <v>258</v>
       </c>
       <c r="H114">
-        <v>717</v>
+        <v>490</v>
       </c>
       <c r="I114" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="J114" t="s">
-        <v>154</v>
+        <v>21</v>
       </c>
       <c r="K114">
-        <v>1</v>
+        <v>150</v>
+      </c>
+      <c r="L114" t="s">
+        <v>20</v>
+      </c>
+      <c r="M114" t="s">
+        <v>22</v>
+      </c>
+      <c r="N114">
+        <v>90000</v>
+      </c>
+      <c r="O114" t="s">
+        <v>20</v>
+      </c>
+      <c r="P114" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q114">
+        <v>150</v>
+      </c>
+      <c r="R114" t="s">
+        <v>20</v>
+      </c>
+      <c r="S114" t="s">
+        <v>21</v>
+      </c>
+      <c r="T114">
+        <v>300</v>
       </c>
     </row>
     <row r="115" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>167</v>
+        <v>259</v>
       </c>
       <c r="C115" t="b">
         <v>0</v>
       </c>
+      <c r="D115">
+        <v>4</v>
+      </c>
       <c r="E115">
-        <v>9.99</v>
+        <v>5.99</v>
       </c>
       <c r="F115">
-        <v>13000</v>
+        <v>8800</v>
       </c>
       <c r="G115" t="s">
-        <v>167</v>
+        <v>259</v>
       </c>
       <c r="H115">
-        <v>569</v>
+        <v>937</v>
       </c>
       <c r="I115" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="J115" t="s">
+        <v>21</v>
+      </c>
+      <c r="K115">
         <v>150</v>
       </c>
-      <c r="K115">
-        <v>1</v>
+      <c r="L115" t="s">
+        <v>20</v>
+      </c>
+      <c r="M115" t="s">
+        <v>22</v>
+      </c>
+      <c r="N115">
+        <v>90000</v>
+      </c>
+      <c r="O115" t="s">
+        <v>20</v>
+      </c>
+      <c r="P115" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q115">
+        <v>150</v>
+      </c>
+      <c r="R115" t="s">
+        <v>20</v>
+      </c>
+      <c r="S115" t="s">
+        <v>21</v>
+      </c>
+      <c r="T115">
+        <v>300</v>
       </c>
     </row>
     <row r="116" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>169</v>
+        <v>260</v>
       </c>
       <c r="C116" t="b">
         <v>0</v>
       </c>
+      <c r="D116">
+        <v>4</v>
+      </c>
       <c r="E116">
-        <v>9.99</v>
+        <v>6.99</v>
       </c>
       <c r="F116">
-        <v>13000</v>
+        <v>9900</v>
       </c>
       <c r="G116" t="s">
-        <v>169</v>
+        <v>260</v>
       </c>
       <c r="H116">
-        <v>880</v>
+        <v>773</v>
       </c>
       <c r="I116" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="J116" t="s">
-        <v>152</v>
+        <v>21</v>
       </c>
       <c r="K116">
-        <v>1</v>
+        <v>150</v>
+      </c>
+      <c r="L116" t="s">
+        <v>20</v>
+      </c>
+      <c r="M116" t="s">
+        <v>22</v>
+      </c>
+      <c r="N116">
+        <v>90000</v>
+      </c>
+      <c r="O116" t="s">
+        <v>20</v>
+      </c>
+      <c r="P116" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q116">
+        <v>150</v>
+      </c>
+      <c r="R116" t="s">
+        <v>20</v>
+      </c>
+      <c r="S116" t="s">
+        <v>21</v>
+      </c>
+      <c r="T116">
+        <v>300</v>
       </c>
     </row>
     <row r="117" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>191</v>
+        <v>261</v>
       </c>
       <c r="C117" t="b">
         <v>0</v>
       </c>
+      <c r="D117">
+        <v>4</v>
+      </c>
       <c r="E117">
-        <v>3.99</v>
+        <v>6.99</v>
       </c>
       <c r="F117">
-        <v>5500</v>
+        <v>9900</v>
       </c>
       <c r="G117" t="s">
-        <v>191</v>
+        <v>261</v>
       </c>
       <c r="H117">
-        <v>406</v>
+        <v>136</v>
       </c>
       <c r="I117" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="J117" t="s">
-        <v>192</v>
+        <v>21</v>
       </c>
       <c r="K117">
-        <v>1</v>
+        <v>150</v>
+      </c>
+      <c r="L117" t="s">
+        <v>20</v>
+      </c>
+      <c r="M117" t="s">
+        <v>22</v>
+      </c>
+      <c r="N117">
+        <v>90000</v>
+      </c>
+      <c r="O117" t="s">
+        <v>20</v>
+      </c>
+      <c r="P117" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q117">
+        <v>150</v>
+      </c>
+      <c r="R117" t="s">
+        <v>20</v>
+      </c>
+      <c r="S117" t="s">
+        <v>21</v>
+      </c>
+      <c r="T117">
+        <v>300</v>
       </c>
     </row>
     <row r="118" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>194</v>
+        <v>262</v>
       </c>
       <c r="C118" t="b">
         <v>0</v>
       </c>
+      <c r="D118">
+        <v>4</v>
+      </c>
       <c r="E118">
-        <v>4.99</v>
+        <v>7.99</v>
       </c>
       <c r="F118">
-        <v>6600</v>
+        <v>11000</v>
       </c>
       <c r="G118" t="s">
-        <v>194</v>
+        <v>262</v>
       </c>
       <c r="H118">
-        <v>841</v>
+        <v>570</v>
       </c>
       <c r="I118" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="J118" t="s">
-        <v>195</v>
+        <v>21</v>
       </c>
       <c r="K118">
-        <v>1</v>
+        <v>150</v>
+      </c>
+      <c r="L118" t="s">
+        <v>20</v>
+      </c>
+      <c r="M118" t="s">
+        <v>22</v>
+      </c>
+      <c r="N118">
+        <v>90000</v>
+      </c>
+      <c r="O118" t="s">
+        <v>20</v>
+      </c>
+      <c r="P118" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q118">
+        <v>150</v>
+      </c>
+      <c r="R118" t="s">
+        <v>20</v>
+      </c>
+      <c r="S118" t="s">
+        <v>21</v>
+      </c>
+      <c r="T118">
+        <v>300</v>
       </c>
     </row>
     <row r="119" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>206</v>
+        <v>263</v>
       </c>
       <c r="C119" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="D119">
+        <v>4</v>
+      </c>
+      <c r="E119">
+        <v>8.99</v>
+      </c>
+      <c r="F119">
+        <v>12000</v>
+      </c>
+      <c r="G119" t="s">
+        <v>263</v>
       </c>
       <c r="H119">
-        <v>574</v>
+        <v>997</v>
       </c>
       <c r="I119" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="J119" t="s">
-        <v>223</v>
+        <v>21</v>
       </c>
       <c r="K119">
-        <v>1</v>
+        <v>150</v>
       </c>
       <c r="L119" t="s">
         <v>20</v>
@@ -5779,7 +5923,7 @@
         <v>22</v>
       </c>
       <c r="N119">
-        <v>25000</v>
+        <v>90000</v>
       </c>
       <c r="O119" t="s">
         <v>20</v>
@@ -5788,36 +5932,48 @@
         <v>21</v>
       </c>
       <c r="Q119">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="R119" t="s">
         <v>20</v>
       </c>
       <c r="S119" t="s">
-        <v>96</v>
+        <v>21</v>
       </c>
       <c r="T119">
-        <v>50</v>
+        <v>300</v>
       </c>
     </row>
     <row r="120" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>207</v>
+        <v>264</v>
       </c>
       <c r="C120" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="D120">
+        <v>4</v>
+      </c>
+      <c r="E120">
+        <v>9.99</v>
+      </c>
+      <c r="F120">
+        <v>14000</v>
+      </c>
+      <c r="G120" t="s">
+        <v>264</v>
       </c>
       <c r="H120">
-        <v>318</v>
+        <v>918</v>
       </c>
       <c r="I120" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="J120" t="s">
-        <v>224</v>
+        <v>21</v>
       </c>
       <c r="K120">
-        <v>1</v>
+        <v>150</v>
       </c>
       <c r="L120" t="s">
         <v>20</v>
@@ -5826,7 +5982,7 @@
         <v>22</v>
       </c>
       <c r="N120">
-        <v>15000</v>
+        <v>90000</v>
       </c>
       <c r="O120" t="s">
         <v>20</v>
@@ -5835,36 +5991,48 @@
         <v>21</v>
       </c>
       <c r="Q120">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="R120" t="s">
         <v>20</v>
       </c>
       <c r="S120" t="s">
-        <v>96</v>
+        <v>21</v>
       </c>
       <c r="T120">
-        <v>50</v>
+        <v>300</v>
       </c>
     </row>
     <row r="121" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>208</v>
+        <v>265</v>
       </c>
       <c r="C121" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="D121">
+        <v>4</v>
+      </c>
+      <c r="E121">
+        <v>9.99</v>
+      </c>
+      <c r="F121">
+        <v>14000</v>
+      </c>
+      <c r="G121" t="s">
+        <v>265</v>
       </c>
       <c r="H121">
-        <v>830</v>
+        <v>687</v>
       </c>
       <c r="I121" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="J121" t="s">
-        <v>225</v>
+        <v>21</v>
       </c>
       <c r="K121">
-        <v>1</v>
+        <v>150</v>
       </c>
       <c r="L121" t="s">
         <v>20</v>
@@ -5873,7 +6041,7 @@
         <v>22</v>
       </c>
       <c r="N121">
-        <v>30000</v>
+        <v>90000</v>
       </c>
       <c r="O121" t="s">
         <v>20</v>
@@ -5896,22 +6064,34 @@
     </row>
     <row r="122" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>209</v>
+        <v>266</v>
       </c>
       <c r="C122" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="D122">
+        <v>4</v>
+      </c>
+      <c r="E122">
+        <v>9.99</v>
+      </c>
+      <c r="F122">
+        <v>14000</v>
+      </c>
+      <c r="G122" t="s">
+        <v>266</v>
       </c>
       <c r="H122">
-        <v>843</v>
+        <v>142</v>
       </c>
       <c r="I122" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="J122" t="s">
-        <v>226</v>
+        <v>21</v>
       </c>
       <c r="K122">
-        <v>1</v>
+        <v>150</v>
       </c>
       <c r="L122" t="s">
         <v>20</v>
@@ -5920,7 +6100,7 @@
         <v>22</v>
       </c>
       <c r="N122">
-        <v>25000</v>
+        <v>90000</v>
       </c>
       <c r="O122" t="s">
         <v>20</v>
@@ -5929,36 +6109,48 @@
         <v>21</v>
       </c>
       <c r="Q122">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="R122" t="s">
         <v>20</v>
       </c>
       <c r="S122" t="s">
-        <v>96</v>
+        <v>21</v>
       </c>
       <c r="T122">
-        <v>50</v>
+        <v>300</v>
       </c>
     </row>
     <row r="123" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>210</v>
+        <v>267</v>
       </c>
       <c r="C123" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="D123">
+        <v>4</v>
+      </c>
+      <c r="E123">
+        <v>9.99</v>
+      </c>
+      <c r="F123">
+        <v>14000</v>
+      </c>
+      <c r="G123" t="s">
+        <v>267</v>
       </c>
       <c r="H123">
-        <v>501</v>
+        <v>759</v>
       </c>
       <c r="I123" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="J123" t="s">
-        <v>227</v>
+        <v>21</v>
       </c>
       <c r="K123">
-        <v>1</v>
+        <v>150</v>
       </c>
       <c r="L123" t="s">
         <v>20</v>
@@ -5967,7 +6159,7 @@
         <v>22</v>
       </c>
       <c r="N123">
-        <v>15000</v>
+        <v>90000</v>
       </c>
       <c r="O123" t="s">
         <v>20</v>
@@ -5976,36 +6168,48 @@
         <v>21</v>
       </c>
       <c r="Q123">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="R123" t="s">
         <v>20</v>
       </c>
       <c r="S123" t="s">
-        <v>96</v>
+        <v>21</v>
       </c>
       <c r="T123">
-        <v>50</v>
+        <v>300</v>
       </c>
     </row>
     <row r="124" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>211</v>
+        <v>268</v>
       </c>
       <c r="C124" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="D124">
+        <v>4</v>
+      </c>
+      <c r="E124">
+        <v>12.99</v>
+      </c>
+      <c r="F124">
+        <v>19000</v>
+      </c>
+      <c r="G124" t="s">
+        <v>268</v>
       </c>
       <c r="H124">
-        <v>407</v>
+        <v>979</v>
       </c>
       <c r="I124" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="J124" t="s">
-        <v>228</v>
+        <v>21</v>
       </c>
       <c r="K124">
-        <v>1</v>
+        <v>150</v>
       </c>
       <c r="L124" t="s">
         <v>20</v>
@@ -6014,7 +6218,7 @@
         <v>22</v>
       </c>
       <c r="N124">
-        <v>30000</v>
+        <v>90000</v>
       </c>
       <c r="O124" t="s">
         <v>20</v>
@@ -6037,22 +6241,34 @@
     </row>
     <row r="125" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>212</v>
+        <v>269</v>
       </c>
       <c r="C125" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="D125">
+        <v>4</v>
+      </c>
+      <c r="E125">
+        <v>12.99</v>
+      </c>
+      <c r="F125">
+        <v>19000</v>
+      </c>
+      <c r="G125" t="s">
+        <v>269</v>
       </c>
       <c r="H125">
-        <v>193</v>
+        <v>981</v>
       </c>
       <c r="I125" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="J125" t="s">
-        <v>229</v>
+        <v>21</v>
       </c>
       <c r="K125">
-        <v>1</v>
+        <v>150</v>
       </c>
       <c r="L125" t="s">
         <v>20</v>
@@ -6061,7 +6277,7 @@
         <v>22</v>
       </c>
       <c r="N125">
-        <v>25000</v>
+        <v>90000</v>
       </c>
       <c r="O125" t="s">
         <v>20</v>
@@ -6070,15 +6286,1877 @@
         <v>21</v>
       </c>
       <c r="Q125">
+        <v>150</v>
+      </c>
+      <c r="R125" t="s">
+        <v>20</v>
+      </c>
+      <c r="S125" t="s">
+        <v>21</v>
+      </c>
+      <c r="T125">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="126" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A126" t="s">
+        <v>270</v>
+      </c>
+      <c r="C126" t="b">
+        <v>0</v>
+      </c>
+      <c r="D126">
+        <v>4</v>
+      </c>
+      <c r="E126">
+        <v>12.99</v>
+      </c>
+      <c r="F126">
+        <v>19000</v>
+      </c>
+      <c r="G126" t="s">
+        <v>270</v>
+      </c>
+      <c r="H126">
+        <v>127</v>
+      </c>
+      <c r="I126" t="s">
+        <v>20</v>
+      </c>
+      <c r="J126" t="s">
+        <v>21</v>
+      </c>
+      <c r="K126">
+        <v>150</v>
+      </c>
+      <c r="L126" t="s">
+        <v>20</v>
+      </c>
+      <c r="M126" t="s">
+        <v>22</v>
+      </c>
+      <c r="N126">
+        <v>90000</v>
+      </c>
+      <c r="O126" t="s">
+        <v>20</v>
+      </c>
+      <c r="P126" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q126">
+        <v>150</v>
+      </c>
+      <c r="R126" t="s">
+        <v>20</v>
+      </c>
+      <c r="S126" t="s">
+        <v>21</v>
+      </c>
+      <c r="T126">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="127" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A127" t="s">
+        <v>271</v>
+      </c>
+      <c r="C127" t="b">
+        <v>0</v>
+      </c>
+      <c r="D127">
+        <v>4</v>
+      </c>
+      <c r="E127">
+        <v>12.99</v>
+      </c>
+      <c r="F127">
+        <v>19000</v>
+      </c>
+      <c r="G127" t="s">
+        <v>271</v>
+      </c>
+      <c r="H127">
+        <v>402</v>
+      </c>
+      <c r="I127" t="s">
+        <v>20</v>
+      </c>
+      <c r="J127" t="s">
+        <v>21</v>
+      </c>
+      <c r="K127">
+        <v>150</v>
+      </c>
+      <c r="L127" t="s">
+        <v>20</v>
+      </c>
+      <c r="M127" t="s">
+        <v>22</v>
+      </c>
+      <c r="N127">
+        <v>90000</v>
+      </c>
+      <c r="O127" t="s">
+        <v>20</v>
+      </c>
+      <c r="P127" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q127">
+        <v>150</v>
+      </c>
+      <c r="R127" t="s">
+        <v>20</v>
+      </c>
+      <c r="S127" t="s">
+        <v>21</v>
+      </c>
+      <c r="T127">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="128" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A128" t="s">
+        <v>272</v>
+      </c>
+      <c r="C128" t="b">
+        <v>0</v>
+      </c>
+      <c r="D128">
+        <v>4</v>
+      </c>
+      <c r="E128">
+        <v>12.99</v>
+      </c>
+      <c r="F128">
+        <v>19000</v>
+      </c>
+      <c r="G128" t="s">
+        <v>272</v>
+      </c>
+      <c r="H128">
+        <v>857</v>
+      </c>
+      <c r="I128" t="s">
+        <v>20</v>
+      </c>
+      <c r="J128" t="s">
+        <v>21</v>
+      </c>
+      <c r="K128">
+        <v>150</v>
+      </c>
+      <c r="L128" t="s">
+        <v>20</v>
+      </c>
+      <c r="M128" t="s">
+        <v>22</v>
+      </c>
+      <c r="N128">
+        <v>90000</v>
+      </c>
+      <c r="O128" t="s">
+        <v>20</v>
+      </c>
+      <c r="P128" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q128">
+        <v>150</v>
+      </c>
+      <c r="R128" t="s">
+        <v>20</v>
+      </c>
+      <c r="S128" t="s">
+        <v>21</v>
+      </c>
+      <c r="T128">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="129" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A129" t="s">
+        <v>122</v>
+      </c>
+      <c r="C129" t="b">
+        <v>0</v>
+      </c>
+      <c r="E129">
+        <v>3.99</v>
+      </c>
+      <c r="F129">
+        <v>5500</v>
+      </c>
+      <c r="G129" t="s">
+        <v>122</v>
+      </c>
+      <c r="H129">
+        <v>585</v>
+      </c>
+      <c r="I129" t="s">
+        <v>23</v>
+      </c>
+      <c r="J129" t="s">
+        <v>95</v>
+      </c>
+      <c r="K129">
+        <v>15</v>
+      </c>
+      <c r="L129" t="s">
+        <v>20</v>
+      </c>
+      <c r="M129" t="s">
+        <v>96</v>
+      </c>
+      <c r="N129">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="130" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A130" t="s">
+        <v>97</v>
+      </c>
+      <c r="C130" t="b">
+        <v>0</v>
+      </c>
+      <c r="D130">
+        <v>8</v>
+      </c>
+      <c r="E130">
+        <v>0.99</v>
+      </c>
+      <c r="F130">
+        <v>1100</v>
+      </c>
+      <c r="G130" t="s">
+        <v>97</v>
+      </c>
+      <c r="H130">
+        <v>886</v>
+      </c>
+      <c r="I130" t="s">
+        <v>23</v>
+      </c>
+      <c r="J130" t="s">
+        <v>209</v>
+      </c>
+      <c r="K130">
+        <v>1</v>
+      </c>
+      <c r="L130" t="s">
+        <v>20</v>
+      </c>
+      <c r="M130" t="s">
+        <v>22</v>
+      </c>
+      <c r="N130">
+        <v>10000</v>
+      </c>
+      <c r="O130" t="s">
+        <v>20</v>
+      </c>
+      <c r="P130" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q130">
+        <v>120</v>
+      </c>
+      <c r="R130" t="s">
+        <v>23</v>
+      </c>
+      <c r="S130" t="s">
+        <v>230</v>
+      </c>
+      <c r="T130">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A131" t="s">
+        <v>98</v>
+      </c>
+      <c r="C131" t="b">
+        <v>0</v>
+      </c>
+      <c r="D131">
+        <v>8</v>
+      </c>
+      <c r="E131">
+        <v>1.99</v>
+      </c>
+      <c r="F131">
+        <v>3300</v>
+      </c>
+      <c r="G131" t="s">
+        <v>98</v>
+      </c>
+      <c r="H131">
+        <v>811</v>
+      </c>
+      <c r="I131" t="s">
+        <v>23</v>
+      </c>
+      <c r="J131" t="s">
+        <v>210</v>
+      </c>
+      <c r="K131">
+        <v>1</v>
+      </c>
+      <c r="L131" t="s">
+        <v>20</v>
+      </c>
+      <c r="M131" t="s">
+        <v>22</v>
+      </c>
+      <c r="N131">
+        <v>15000</v>
+      </c>
+      <c r="O131" t="s">
+        <v>20</v>
+      </c>
+      <c r="P131" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q131">
+        <v>120</v>
+      </c>
+      <c r="R131" t="s">
+        <v>23</v>
+      </c>
+      <c r="S131" t="s">
+        <v>231</v>
+      </c>
+      <c r="T131">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A132" t="s">
+        <v>99</v>
+      </c>
+      <c r="C132" t="b">
+        <v>0</v>
+      </c>
+      <c r="D132">
+        <v>8</v>
+      </c>
+      <c r="E132">
+        <v>4.99</v>
+      </c>
+      <c r="F132">
+        <v>6600</v>
+      </c>
+      <c r="G132" t="s">
+        <v>99</v>
+      </c>
+      <c r="H132">
+        <v>621</v>
+      </c>
+      <c r="I132" t="s">
+        <v>23</v>
+      </c>
+      <c r="J132" t="s">
+        <v>211</v>
+      </c>
+      <c r="K132">
+        <v>1</v>
+      </c>
+      <c r="L132" t="s">
+        <v>20</v>
+      </c>
+      <c r="M132" t="s">
+        <v>22</v>
+      </c>
+      <c r="N132">
+        <v>30000</v>
+      </c>
+      <c r="O132" t="s">
+        <v>20</v>
+      </c>
+      <c r="P132" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q132">
+        <v>150</v>
+      </c>
+      <c r="R132" t="s">
+        <v>20</v>
+      </c>
+      <c r="S132" t="s">
+        <v>21</v>
+      </c>
+      <c r="T132">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="133" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A133" t="s">
         <v>100</v>
       </c>
-      <c r="R125" t="s">
-        <v>20</v>
-      </c>
-      <c r="S125" t="s">
+      <c r="C133" t="b">
+        <v>0</v>
+      </c>
+      <c r="D133">
+        <v>8</v>
+      </c>
+      <c r="E133">
+        <v>6.99</v>
+      </c>
+      <c r="F133">
+        <v>9900</v>
+      </c>
+      <c r="G133" t="s">
+        <v>100</v>
+      </c>
+      <c r="H133">
+        <v>543</v>
+      </c>
+      <c r="I133" t="s">
+        <v>23</v>
+      </c>
+      <c r="J133" t="s">
+        <v>212</v>
+      </c>
+      <c r="K133">
+        <v>1</v>
+      </c>
+      <c r="L133" t="s">
+        <v>20</v>
+      </c>
+      <c r="M133" t="s">
+        <v>22</v>
+      </c>
+      <c r="N133">
+        <v>25000</v>
+      </c>
+      <c r="O133" t="s">
+        <v>20</v>
+      </c>
+      <c r="P133" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q133">
+        <v>100</v>
+      </c>
+      <c r="R133" t="s">
+        <v>20</v>
+      </c>
+      <c r="S133" t="s">
         <v>96</v>
       </c>
-      <c r="T125">
+      <c r="T133">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="134" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A134" t="s">
+        <v>101</v>
+      </c>
+      <c r="C134" t="b">
+        <v>0</v>
+      </c>
+      <c r="D134">
+        <v>8</v>
+      </c>
+      <c r="E134">
+        <v>7.99</v>
+      </c>
+      <c r="F134">
+        <v>11000</v>
+      </c>
+      <c r="G134" t="s">
+        <v>101</v>
+      </c>
+      <c r="H134">
+        <v>506</v>
+      </c>
+      <c r="I134" t="s">
+        <v>23</v>
+      </c>
+      <c r="J134" t="s">
+        <v>213</v>
+      </c>
+      <c r="K134">
+        <v>1</v>
+      </c>
+      <c r="L134" t="s">
+        <v>20</v>
+      </c>
+      <c r="M134" t="s">
+        <v>22</v>
+      </c>
+      <c r="N134">
+        <v>15000</v>
+      </c>
+      <c r="O134" t="s">
+        <v>20</v>
+      </c>
+      <c r="P134" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q134">
+        <v>120</v>
+      </c>
+      <c r="R134" t="s">
+        <v>20</v>
+      </c>
+      <c r="S134" t="s">
+        <v>96</v>
+      </c>
+      <c r="T134">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="135" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A135" t="s">
+        <v>102</v>
+      </c>
+      <c r="C135" t="b">
+        <v>0</v>
+      </c>
+      <c r="D135">
+        <v>8</v>
+      </c>
+      <c r="E135">
+        <v>9.99</v>
+      </c>
+      <c r="F135">
+        <v>14000</v>
+      </c>
+      <c r="G135" t="s">
+        <v>102</v>
+      </c>
+      <c r="H135">
+        <v>646</v>
+      </c>
+      <c r="I135" t="s">
+        <v>23</v>
+      </c>
+      <c r="J135" t="s">
+        <v>214</v>
+      </c>
+      <c r="K135">
+        <v>1</v>
+      </c>
+      <c r="L135" t="s">
+        <v>20</v>
+      </c>
+      <c r="M135" t="s">
+        <v>22</v>
+      </c>
+      <c r="N135">
+        <v>30000</v>
+      </c>
+      <c r="O135" t="s">
+        <v>20</v>
+      </c>
+      <c r="P135" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q135">
+        <v>150</v>
+      </c>
+      <c r="R135" t="s">
+        <v>20</v>
+      </c>
+      <c r="S135" t="s">
+        <v>21</v>
+      </c>
+      <c r="T135">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="136" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A136" t="s">
+        <v>103</v>
+      </c>
+      <c r="C136" t="b">
+        <v>0</v>
+      </c>
+      <c r="D136">
+        <v>8</v>
+      </c>
+      <c r="E136">
+        <v>12.99</v>
+      </c>
+      <c r="F136">
+        <v>19000</v>
+      </c>
+      <c r="G136" t="s">
+        <v>103</v>
+      </c>
+      <c r="H136">
+        <v>260</v>
+      </c>
+      <c r="I136" t="s">
+        <v>23</v>
+      </c>
+      <c r="J136" t="s">
+        <v>215</v>
+      </c>
+      <c r="K136">
+        <v>1</v>
+      </c>
+      <c r="L136" t="s">
+        <v>20</v>
+      </c>
+      <c r="M136" t="s">
+        <v>22</v>
+      </c>
+      <c r="N136">
+        <v>25000</v>
+      </c>
+      <c r="O136" t="s">
+        <v>20</v>
+      </c>
+      <c r="P136" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q136">
+        <v>100</v>
+      </c>
+      <c r="R136" t="s">
+        <v>20</v>
+      </c>
+      <c r="S136" t="s">
+        <v>96</v>
+      </c>
+      <c r="T136">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="137" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A137" t="s">
+        <v>104</v>
+      </c>
+      <c r="C137" t="b">
+        <v>0</v>
+      </c>
+      <c r="D137">
+        <v>8</v>
+      </c>
+      <c r="E137">
+        <v>19.989999999999998</v>
+      </c>
+      <c r="F137">
+        <v>29000</v>
+      </c>
+      <c r="G137" t="s">
+        <v>104</v>
+      </c>
+      <c r="H137">
+        <v>990</v>
+      </c>
+      <c r="I137" t="s">
+        <v>23</v>
+      </c>
+      <c r="J137" t="s">
+        <v>216</v>
+      </c>
+      <c r="K137">
+        <v>1</v>
+      </c>
+      <c r="L137" t="s">
+        <v>20</v>
+      </c>
+      <c r="M137" t="s">
+        <v>22</v>
+      </c>
+      <c r="N137">
+        <v>25000</v>
+      </c>
+      <c r="O137" t="s">
+        <v>20</v>
+      </c>
+      <c r="P137" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q137">
+        <v>100</v>
+      </c>
+      <c r="R137" t="s">
+        <v>20</v>
+      </c>
+      <c r="S137" t="s">
+        <v>96</v>
+      </c>
+      <c r="T137">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="138" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A138" t="s">
+        <v>105</v>
+      </c>
+      <c r="C138" t="b">
+        <v>0</v>
+      </c>
+      <c r="D138">
+        <v>8</v>
+      </c>
+      <c r="E138">
+        <v>29.99</v>
+      </c>
+      <c r="F138">
+        <v>44000</v>
+      </c>
+      <c r="G138" t="s">
+        <v>105</v>
+      </c>
+      <c r="H138">
+        <v>768</v>
+      </c>
+      <c r="I138" t="s">
+        <v>23</v>
+      </c>
+      <c r="J138" t="s">
+        <v>217</v>
+      </c>
+      <c r="K138">
+        <v>1</v>
+      </c>
+      <c r="L138" t="s">
+        <v>20</v>
+      </c>
+      <c r="M138" t="s">
+        <v>22</v>
+      </c>
+      <c r="N138">
+        <v>15000</v>
+      </c>
+      <c r="O138" t="s">
+        <v>20</v>
+      </c>
+      <c r="P138" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q138">
+        <v>120</v>
+      </c>
+      <c r="R138" t="s">
+        <v>20</v>
+      </c>
+      <c r="S138" t="s">
+        <v>96</v>
+      </c>
+      <c r="T138">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="139" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A139" t="s">
+        <v>106</v>
+      </c>
+      <c r="C139" t="b">
+        <v>0</v>
+      </c>
+      <c r="D139">
+        <v>8</v>
+      </c>
+      <c r="E139">
+        <v>34.99</v>
+      </c>
+      <c r="F139">
+        <v>49000</v>
+      </c>
+      <c r="G139" t="s">
+        <v>106</v>
+      </c>
+      <c r="H139">
+        <v>578</v>
+      </c>
+      <c r="I139" t="s">
+        <v>23</v>
+      </c>
+      <c r="J139" t="s">
+        <v>218</v>
+      </c>
+      <c r="K139">
+        <v>1</v>
+      </c>
+      <c r="L139" t="s">
+        <v>20</v>
+      </c>
+      <c r="M139" t="s">
+        <v>22</v>
+      </c>
+      <c r="N139">
+        <v>30000</v>
+      </c>
+      <c r="O139" t="s">
+        <v>20</v>
+      </c>
+      <c r="P139" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q139">
+        <v>150</v>
+      </c>
+      <c r="R139" t="s">
+        <v>20</v>
+      </c>
+      <c r="S139" t="s">
+        <v>21</v>
+      </c>
+      <c r="T139">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="140" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A140" t="s">
+        <v>273</v>
+      </c>
+      <c r="C140" t="b">
+        <v>0</v>
+      </c>
+      <c r="D140">
+        <v>8</v>
+      </c>
+      <c r="E140">
+        <v>49.99</v>
+      </c>
+      <c r="F140">
+        <v>55000</v>
+      </c>
+      <c r="G140" t="s">
+        <v>273</v>
+      </c>
+      <c r="H140">
+        <v>767</v>
+      </c>
+      <c r="I140" t="s">
+        <v>23</v>
+      </c>
+      <c r="J140" t="s">
+        <v>218</v>
+      </c>
+      <c r="K140">
+        <v>1</v>
+      </c>
+      <c r="L140" t="s">
+        <v>20</v>
+      </c>
+      <c r="M140" t="s">
+        <v>22</v>
+      </c>
+      <c r="N140">
+        <v>30000</v>
+      </c>
+      <c r="O140" t="s">
+        <v>20</v>
+      </c>
+      <c r="P140" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q140">
+        <v>150</v>
+      </c>
+      <c r="R140" t="s">
+        <v>20</v>
+      </c>
+      <c r="S140" t="s">
+        <v>21</v>
+      </c>
+      <c r="T140">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="141" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A141" t="s">
+        <v>274</v>
+      </c>
+      <c r="C141" t="b">
+        <v>0</v>
+      </c>
+      <c r="D141">
+        <v>8</v>
+      </c>
+      <c r="E141">
+        <v>49.99</v>
+      </c>
+      <c r="F141">
+        <v>66000</v>
+      </c>
+      <c r="G141" t="s">
+        <v>274</v>
+      </c>
+      <c r="H141">
+        <v>500</v>
+      </c>
+      <c r="I141" t="s">
+        <v>23</v>
+      </c>
+      <c r="J141" t="s">
+        <v>218</v>
+      </c>
+      <c r="K141">
+        <v>1</v>
+      </c>
+      <c r="L141" t="s">
+        <v>20</v>
+      </c>
+      <c r="M141" t="s">
+        <v>22</v>
+      </c>
+      <c r="N141">
+        <v>30000</v>
+      </c>
+      <c r="O141" t="s">
+        <v>20</v>
+      </c>
+      <c r="P141" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q141">
+        <v>150</v>
+      </c>
+      <c r="R141" t="s">
+        <v>20</v>
+      </c>
+      <c r="S141" t="s">
+        <v>21</v>
+      </c>
+      <c r="T141">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="142" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A142" t="s">
+        <v>275</v>
+      </c>
+      <c r="C142" t="b">
+        <v>0</v>
+      </c>
+      <c r="D142">
+        <v>8</v>
+      </c>
+      <c r="E142">
+        <v>69.989999999999995</v>
+      </c>
+      <c r="F142">
+        <v>99000</v>
+      </c>
+      <c r="G142" t="s">
+        <v>275</v>
+      </c>
+      <c r="H142">
+        <v>139</v>
+      </c>
+      <c r="I142" t="s">
+        <v>23</v>
+      </c>
+      <c r="J142" t="s">
+        <v>218</v>
+      </c>
+      <c r="K142">
+        <v>1</v>
+      </c>
+      <c r="L142" t="s">
+        <v>20</v>
+      </c>
+      <c r="M142" t="s">
+        <v>22</v>
+      </c>
+      <c r="N142">
+        <v>30000</v>
+      </c>
+      <c r="O142" t="s">
+        <v>20</v>
+      </c>
+      <c r="P142" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q142">
+        <v>150</v>
+      </c>
+      <c r="R142" t="s">
+        <v>20</v>
+      </c>
+      <c r="S142" t="s">
+        <v>21</v>
+      </c>
+      <c r="T142">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="143" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A143" t="s">
+        <v>276</v>
+      </c>
+      <c r="C143" t="b">
+        <v>0</v>
+      </c>
+      <c r="D143">
+        <v>8</v>
+      </c>
+      <c r="E143">
+        <v>79.989999999999995</v>
+      </c>
+      <c r="F143">
+        <v>110000</v>
+      </c>
+      <c r="G143" t="s">
+        <v>276</v>
+      </c>
+      <c r="H143">
+        <v>468</v>
+      </c>
+      <c r="I143" t="s">
+        <v>23</v>
+      </c>
+      <c r="J143" t="s">
+        <v>218</v>
+      </c>
+      <c r="K143">
+        <v>1</v>
+      </c>
+      <c r="L143" t="s">
+        <v>20</v>
+      </c>
+      <c r="M143" t="s">
+        <v>22</v>
+      </c>
+      <c r="N143">
+        <v>30000</v>
+      </c>
+      <c r="O143" t="s">
+        <v>20</v>
+      </c>
+      <c r="P143" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q143">
+        <v>150</v>
+      </c>
+      <c r="R143" t="s">
+        <v>20</v>
+      </c>
+      <c r="S143" t="s">
+        <v>21</v>
+      </c>
+      <c r="T143">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="144" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A144" t="s">
+        <v>277</v>
+      </c>
+      <c r="C144" t="b">
+        <v>0</v>
+      </c>
+      <c r="D144">
+        <v>8</v>
+      </c>
+      <c r="E144">
+        <v>99.99</v>
+      </c>
+      <c r="F144">
+        <v>149000</v>
+      </c>
+      <c r="G144" t="s">
+        <v>277</v>
+      </c>
+      <c r="H144">
+        <v>137</v>
+      </c>
+      <c r="I144" t="s">
+        <v>23</v>
+      </c>
+      <c r="J144" t="s">
+        <v>218</v>
+      </c>
+      <c r="K144">
+        <v>1</v>
+      </c>
+      <c r="L144" t="s">
+        <v>20</v>
+      </c>
+      <c r="M144" t="s">
+        <v>22</v>
+      </c>
+      <c r="N144">
+        <v>30000</v>
+      </c>
+      <c r="O144" t="s">
+        <v>20</v>
+      </c>
+      <c r="P144" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q144">
+        <v>150</v>
+      </c>
+      <c r="R144" t="s">
+        <v>20</v>
+      </c>
+      <c r="S144" t="s">
+        <v>21</v>
+      </c>
+      <c r="T144">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="145" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A145" t="s">
+        <v>134</v>
+      </c>
+      <c r="C145" t="b">
+        <v>0</v>
+      </c>
+      <c r="E145">
+        <v>0.99</v>
+      </c>
+      <c r="F145">
+        <v>1100</v>
+      </c>
+      <c r="G145" t="s">
+        <v>134</v>
+      </c>
+      <c r="H145">
+        <v>546</v>
+      </c>
+      <c r="I145" t="s">
+        <v>23</v>
+      </c>
+      <c r="J145" t="s">
+        <v>189</v>
+      </c>
+      <c r="K145">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A146" t="s">
+        <v>135</v>
+      </c>
+      <c r="C146" t="b">
+        <v>0</v>
+      </c>
+      <c r="E146">
+        <v>4.99</v>
+      </c>
+      <c r="F146">
+        <v>6600</v>
+      </c>
+      <c r="G146" t="s">
+        <v>135</v>
+      </c>
+      <c r="H146">
+        <v>585</v>
+      </c>
+      <c r="I146" t="s">
+        <v>23</v>
+      </c>
+      <c r="J146" t="s">
+        <v>189</v>
+      </c>
+      <c r="K146">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="147" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A147" t="s">
+        <v>136</v>
+      </c>
+      <c r="C147" t="b">
+        <v>0</v>
+      </c>
+      <c r="E147">
+        <v>19.989999999999998</v>
+      </c>
+      <c r="F147">
+        <v>29000</v>
+      </c>
+      <c r="G147" t="s">
+        <v>136</v>
+      </c>
+      <c r="H147">
+        <v>157</v>
+      </c>
+      <c r="I147" t="s">
+        <v>23</v>
+      </c>
+      <c r="J147" t="s">
+        <v>189</v>
+      </c>
+      <c r="K147">
+        <v>30</v>
+      </c>
+      <c r="L147" t="s">
+        <v>20</v>
+      </c>
+      <c r="M147" t="s">
+        <v>21</v>
+      </c>
+      <c r="N147">
+        <v>1000</v>
+      </c>
+      <c r="O147" t="s">
+        <v>20</v>
+      </c>
+      <c r="P147" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q147">
+        <v>25000</v>
+      </c>
+      <c r="R147" t="s">
+        <v>20</v>
+      </c>
+      <c r="S147" t="s">
+        <v>96</v>
+      </c>
+      <c r="T147">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="148" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A148" t="s">
+        <v>278</v>
+      </c>
+      <c r="C148" t="b">
+        <v>0</v>
+      </c>
+      <c r="E148">
+        <v>12.99</v>
+      </c>
+      <c r="F148">
+        <v>19000</v>
+      </c>
+      <c r="G148" t="s">
+        <v>278</v>
+      </c>
+      <c r="H148">
+        <v>670</v>
+      </c>
+      <c r="I148" t="s">
+        <v>23</v>
+      </c>
+      <c r="J148" t="s">
+        <v>144</v>
+      </c>
+      <c r="K148">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A149" t="s">
+        <v>279</v>
+      </c>
+      <c r="C149" t="b">
+        <v>0</v>
+      </c>
+      <c r="E149">
+        <v>19.989999999999998</v>
+      </c>
+      <c r="F149">
+        <v>29000</v>
+      </c>
+      <c r="G149" t="s">
+        <v>279</v>
+      </c>
+      <c r="H149">
+        <v>420</v>
+      </c>
+      <c r="I149" t="s">
+        <v>23</v>
+      </c>
+      <c r="J149" t="s">
+        <v>144</v>
+      </c>
+      <c r="K149">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A150" t="s">
+        <v>280</v>
+      </c>
+      <c r="C150" t="b">
+        <v>0</v>
+      </c>
+      <c r="E150">
+        <v>1.99</v>
+      </c>
+      <c r="F150">
+        <v>3300</v>
+      </c>
+      <c r="G150" t="s">
+        <v>280</v>
+      </c>
+      <c r="H150">
+        <v>828</v>
+      </c>
+      <c r="I150" t="s">
+        <v>23</v>
+      </c>
+      <c r="J150" t="s">
+        <v>137</v>
+      </c>
+      <c r="K150">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A151" t="s">
+        <v>281</v>
+      </c>
+      <c r="C151" t="b">
+        <v>0</v>
+      </c>
+      <c r="E151">
+        <v>4.99</v>
+      </c>
+      <c r="F151">
+        <v>6600</v>
+      </c>
+      <c r="G151" t="s">
+        <v>281</v>
+      </c>
+      <c r="H151">
+        <v>348</v>
+      </c>
+      <c r="I151" t="s">
+        <v>23</v>
+      </c>
+      <c r="J151" t="s">
+        <v>137</v>
+      </c>
+      <c r="K151">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A152" t="s">
+        <v>282</v>
+      </c>
+      <c r="C152" t="b">
+        <v>0</v>
+      </c>
+      <c r="E152">
+        <v>6.99</v>
+      </c>
+      <c r="F152">
+        <v>9900</v>
+      </c>
+      <c r="G152" t="s">
+        <v>282</v>
+      </c>
+      <c r="H152">
+        <v>468</v>
+      </c>
+      <c r="I152" t="s">
+        <v>23</v>
+      </c>
+      <c r="J152" t="s">
+        <v>137</v>
+      </c>
+      <c r="K152">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A153" t="s">
+        <v>160</v>
+      </c>
+      <c r="C153" t="b">
+        <v>0</v>
+      </c>
+      <c r="E153">
+        <v>17.989999999999998</v>
+      </c>
+      <c r="F153">
+        <v>25000</v>
+      </c>
+      <c r="G153" t="s">
+        <v>160</v>
+      </c>
+      <c r="H153">
+        <v>492</v>
+      </c>
+      <c r="I153" t="s">
+        <v>23</v>
+      </c>
+      <c r="J153" t="s">
+        <v>150</v>
+      </c>
+      <c r="K153">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A154" t="s">
+        <v>283</v>
+      </c>
+      <c r="C154" t="b">
+        <v>0</v>
+      </c>
+      <c r="E154">
+        <v>5.99</v>
+      </c>
+      <c r="F154">
+        <v>8800</v>
+      </c>
+      <c r="G154" t="s">
+        <v>283</v>
+      </c>
+      <c r="H154">
+        <v>787</v>
+      </c>
+      <c r="I154" t="s">
+        <v>23</v>
+      </c>
+      <c r="J154" t="s">
+        <v>146</v>
+      </c>
+      <c r="K154">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A155" t="s">
+        <v>284</v>
+      </c>
+      <c r="C155" t="b">
+        <v>0</v>
+      </c>
+      <c r="E155">
+        <v>19.989999999999998</v>
+      </c>
+      <c r="F155">
+        <v>29000</v>
+      </c>
+      <c r="G155" t="s">
+        <v>284</v>
+      </c>
+      <c r="H155">
+        <v>248</v>
+      </c>
+      <c r="I155" t="s">
+        <v>23</v>
+      </c>
+      <c r="J155" t="s">
+        <v>146</v>
+      </c>
+      <c r="K155">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A156" t="s">
+        <v>165</v>
+      </c>
+      <c r="C156" t="b">
+        <v>0</v>
+      </c>
+      <c r="E156">
+        <v>1.99</v>
+      </c>
+      <c r="F156">
+        <v>3300</v>
+      </c>
+      <c r="G156" t="s">
+        <v>165</v>
+      </c>
+      <c r="H156">
+        <v>919</v>
+      </c>
+      <c r="I156" t="s">
+        <v>23</v>
+      </c>
+      <c r="J156" t="s">
+        <v>148</v>
+      </c>
+      <c r="K156">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A157" t="s">
+        <v>187</v>
+      </c>
+      <c r="C157" t="b">
+        <v>0</v>
+      </c>
+      <c r="E157">
+        <v>1.99</v>
+      </c>
+      <c r="F157">
+        <v>3300</v>
+      </c>
+      <c r="G157" t="s">
+        <v>187</v>
+      </c>
+      <c r="H157">
+        <v>166</v>
+      </c>
+      <c r="I157" t="s">
+        <v>23</v>
+      </c>
+      <c r="J157" t="s">
+        <v>188</v>
+      </c>
+      <c r="K157">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A158" t="s">
+        <v>190</v>
+      </c>
+      <c r="C158" t="b">
+        <v>0</v>
+      </c>
+      <c r="E158">
+        <v>0.99</v>
+      </c>
+      <c r="F158">
+        <v>1100</v>
+      </c>
+      <c r="G158" t="s">
+        <v>190</v>
+      </c>
+      <c r="H158">
+        <v>460</v>
+      </c>
+      <c r="I158" t="s">
+        <v>23</v>
+      </c>
+      <c r="J158" t="s">
+        <v>191</v>
+      </c>
+      <c r="K158">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A159" t="s">
+        <v>202</v>
+      </c>
+      <c r="C159" t="b">
+        <v>1</v>
+      </c>
+      <c r="H159">
+        <v>662</v>
+      </c>
+      <c r="I159" t="s">
+        <v>23</v>
+      </c>
+      <c r="J159" t="s">
+        <v>219</v>
+      </c>
+      <c r="K159">
+        <v>1</v>
+      </c>
+      <c r="L159" t="s">
+        <v>20</v>
+      </c>
+      <c r="M159" t="s">
+        <v>22</v>
+      </c>
+      <c r="N159">
+        <v>25000</v>
+      </c>
+      <c r="O159" t="s">
+        <v>20</v>
+      </c>
+      <c r="P159" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q159">
+        <v>100</v>
+      </c>
+      <c r="R159" t="s">
+        <v>20</v>
+      </c>
+      <c r="S159" t="s">
+        <v>96</v>
+      </c>
+      <c r="T159">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="160" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A160" t="s">
+        <v>203</v>
+      </c>
+      <c r="C160" t="b">
+        <v>1</v>
+      </c>
+      <c r="H160">
+        <v>532</v>
+      </c>
+      <c r="I160" t="s">
+        <v>23</v>
+      </c>
+      <c r="J160" t="s">
+        <v>220</v>
+      </c>
+      <c r="K160">
+        <v>1</v>
+      </c>
+      <c r="L160" t="s">
+        <v>20</v>
+      </c>
+      <c r="M160" t="s">
+        <v>22</v>
+      </c>
+      <c r="N160">
+        <v>15000</v>
+      </c>
+      <c r="O160" t="s">
+        <v>20</v>
+      </c>
+      <c r="P160" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q160">
+        <v>120</v>
+      </c>
+      <c r="R160" t="s">
+        <v>20</v>
+      </c>
+      <c r="S160" t="s">
+        <v>96</v>
+      </c>
+      <c r="T160">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="161" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A161" t="s">
+        <v>204</v>
+      </c>
+      <c r="C161" t="b">
+        <v>1</v>
+      </c>
+      <c r="H161">
+        <v>309</v>
+      </c>
+      <c r="I161" t="s">
+        <v>23</v>
+      </c>
+      <c r="J161" t="s">
+        <v>221</v>
+      </c>
+      <c r="K161">
+        <v>1</v>
+      </c>
+      <c r="L161" t="s">
+        <v>20</v>
+      </c>
+      <c r="M161" t="s">
+        <v>22</v>
+      </c>
+      <c r="N161">
+        <v>30000</v>
+      </c>
+      <c r="O161" t="s">
+        <v>20</v>
+      </c>
+      <c r="P161" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q161">
+        <v>150</v>
+      </c>
+      <c r="R161" t="s">
+        <v>20</v>
+      </c>
+      <c r="S161" t="s">
+        <v>21</v>
+      </c>
+      <c r="T161">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="162" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A162" t="s">
+        <v>205</v>
+      </c>
+      <c r="C162" t="b">
+        <v>1</v>
+      </c>
+      <c r="H162">
+        <v>866</v>
+      </c>
+      <c r="I162" t="s">
+        <v>23</v>
+      </c>
+      <c r="J162" t="s">
+        <v>222</v>
+      </c>
+      <c r="K162">
+        <v>1</v>
+      </c>
+      <c r="L162" t="s">
+        <v>20</v>
+      </c>
+      <c r="M162" t="s">
+        <v>22</v>
+      </c>
+      <c r="N162">
+        <v>25000</v>
+      </c>
+      <c r="O162" t="s">
+        <v>20</v>
+      </c>
+      <c r="P162" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q162">
+        <v>100</v>
+      </c>
+      <c r="R162" t="s">
+        <v>20</v>
+      </c>
+      <c r="S162" t="s">
+        <v>96</v>
+      </c>
+      <c r="T162">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="163" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A163" t="s">
+        <v>206</v>
+      </c>
+      <c r="C163" t="b">
+        <v>1</v>
+      </c>
+      <c r="H163">
+        <v>541</v>
+      </c>
+      <c r="I163" t="s">
+        <v>23</v>
+      </c>
+      <c r="J163" t="s">
+        <v>223</v>
+      </c>
+      <c r="K163">
+        <v>1</v>
+      </c>
+      <c r="L163" t="s">
+        <v>20</v>
+      </c>
+      <c r="M163" t="s">
+        <v>22</v>
+      </c>
+      <c r="N163">
+        <v>15000</v>
+      </c>
+      <c r="O163" t="s">
+        <v>20</v>
+      </c>
+      <c r="P163" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q163">
+        <v>120</v>
+      </c>
+      <c r="R163" t="s">
+        <v>20</v>
+      </c>
+      <c r="S163" t="s">
+        <v>96</v>
+      </c>
+      <c r="T163">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="164" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A164" t="s">
+        <v>207</v>
+      </c>
+      <c r="C164" t="b">
+        <v>1</v>
+      </c>
+      <c r="H164">
+        <v>775</v>
+      </c>
+      <c r="I164" t="s">
+        <v>23</v>
+      </c>
+      <c r="J164" t="s">
+        <v>224</v>
+      </c>
+      <c r="K164">
+        <v>1</v>
+      </c>
+      <c r="L164" t="s">
+        <v>20</v>
+      </c>
+      <c r="M164" t="s">
+        <v>22</v>
+      </c>
+      <c r="N164">
+        <v>30000</v>
+      </c>
+      <c r="O164" t="s">
+        <v>20</v>
+      </c>
+      <c r="P164" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q164">
+        <v>150</v>
+      </c>
+      <c r="R164" t="s">
+        <v>20</v>
+      </c>
+      <c r="S164" t="s">
+        <v>21</v>
+      </c>
+      <c r="T164">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="165" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A165" t="s">
+        <v>208</v>
+      </c>
+      <c r="C165" t="b">
+        <v>1</v>
+      </c>
+      <c r="H165">
+        <v>899</v>
+      </c>
+      <c r="I165" t="s">
+        <v>23</v>
+      </c>
+      <c r="J165" t="s">
+        <v>225</v>
+      </c>
+      <c r="K165">
+        <v>1</v>
+      </c>
+      <c r="L165" t="s">
+        <v>20</v>
+      </c>
+      <c r="M165" t="s">
+        <v>22</v>
+      </c>
+      <c r="N165">
+        <v>25000</v>
+      </c>
+      <c r="O165" t="s">
+        <v>20</v>
+      </c>
+      <c r="P165" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q165">
+        <v>100</v>
+      </c>
+      <c r="R165" t="s">
+        <v>20</v>
+      </c>
+      <c r="S165" t="s">
+        <v>96</v>
+      </c>
+      <c r="T165">
         <v>50</v>
       </c>
     </row>
@@ -6093,7 +8171,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06240469-0FA4-4C33-9485-0553D2A08322}">
   <dimension ref="A1:D1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -6101,16 +8179,16 @@
   <sheetData>
     <row r="1" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="B1" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="C1" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="D1" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -20134,10 +22212,10 @@
   <sheetData>
     <row r="1" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="B1" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="C1" t="s">
         <v>127</v>
@@ -20151,7 +22229,7 @@
         <v>50</v>
       </c>
       <c r="C2" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -20162,7 +22240,7 @@
         <v>200</v>
       </c>
       <c r="C3" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -20173,7 +22251,7 @@
         <v>500</v>
       </c>
       <c r="C4" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -20184,7 +22262,7 @@
         <v>30</v>
       </c>
       <c r="C5" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -20195,7 +22273,7 @@
         <v>100</v>
       </c>
       <c r="C6" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -20206,7 +22284,7 @@
         <v>300</v>
       </c>
       <c r="C7" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
@@ -20217,7 +22295,7 @@
         <v>500</v>
       </c>
       <c r="C8" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
     </row>
   </sheetData>
@@ -20238,10 +22316,10 @@
   <sheetData>
     <row r="1" spans="1:2" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="B1" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -20392,66 +22470,66 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B5" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="B6" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="B7" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="B8" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="B9" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="B10" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="B11" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="B12" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
     </row>
   </sheetData>
@@ -20668,13 +22746,13 @@
   <sheetData>
     <row r="1" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="B1" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="C1" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="D1" t="s">
         <v>127</v>
@@ -20685,13 +22763,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -20699,13 +22777,13 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -20713,13 +22791,13 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C4">
         <v>20</v>
       </c>
       <c r="D4" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -20727,13 +22805,13 @@
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="C5">
         <v>20</v>
       </c>
       <c r="D5" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -20747,7 +22825,7 @@
         <v>20</v>
       </c>
       <c r="D6" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
     </row>
   </sheetData>
@@ -20771,13 +22849,13 @@
   <sheetData>
     <row r="1" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="B1" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C1" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>127</v>
@@ -20788,13 +22866,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -20802,13 +22880,13 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -20816,13 +22894,13 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -20830,13 +22908,13 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C5">
         <v>20</v>
       </c>
       <c r="D5" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -20844,13 +22922,13 @@
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="C6">
         <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
     </row>
   </sheetData>
@@ -20876,13 +22954,13 @@
   <sheetData>
     <row r="1" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="B1" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="C1" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="D1" t="s">
         <v>127</v>
@@ -20899,7 +22977,7 @@
         <v>2000</v>
       </c>
       <c r="D2" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -20913,7 +22991,7 @@
         <v>3000</v>
       </c>
       <c r="D3" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -20927,7 +23005,7 @@
         <v>4000</v>
       </c>
       <c r="D4" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -20941,7 +23019,7 @@
         <v>5000</v>
       </c>
       <c r="D5" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -20955,7 +23033,7 @@
         <v>6000</v>
       </c>
       <c r="D6" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
   </sheetData>
@@ -20976,19 +23054,19 @@
   <sheetData>
     <row r="1" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>192</v>
+      </c>
+      <c r="B1" t="s">
+        <v>193</v>
+      </c>
+      <c r="C1" t="s">
+        <v>194</v>
+      </c>
+      <c r="D1" t="s">
+        <v>195</v>
+      </c>
+      <c r="E1" t="s">
         <v>196</v>
-      </c>
-      <c r="B1" t="s">
-        <v>197</v>
-      </c>
-      <c r="C1" t="s">
-        <v>198</v>
-      </c>
-      <c r="D1" t="s">
-        <v>199</v>
-      </c>
-      <c r="E1" t="s">
-        <v>200</v>
       </c>
       <c r="F1" t="s">
         <v>40</v>

--- a/Excel/Shop.xlsx
+++ b/Excel/Shop.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65CBEAC1-969A-4FC2-8E92-AA926D98948E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{415D744C-3E25-4E31-BE81-18EB404C1F7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="2670" windowWidth="24240" windowHeight="13140" xr2:uid="{1A95D980-8F25-43B6-BA87-364295A77694}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1A95D980-8F25-43B6-BA87-364295A77694}"/>
   </bookViews>
   <sheets>
     <sheet name="ShopProductTable" sheetId="1" r:id="rId1"/>
@@ -1279,10 +1279,10 @@
   <dimension ref="A1:W165"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B44" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="A52" sqref="A52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3392,7 +3392,7 @@
         <v>124</v>
       </c>
       <c r="K52">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="L52" t="s">
         <v>20</v>
@@ -3433,13 +3433,13 @@
         <v>583</v>
       </c>
       <c r="I53" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="J53" t="s">
-        <v>21</v>
+        <v>124</v>
       </c>
       <c r="K53">
-        <v>300</v>
+        <v>2000</v>
       </c>
       <c r="L53" t="s">
         <v>20</v>
@@ -3486,7 +3486,7 @@
         <v>124</v>
       </c>
       <c r="K54">
-        <v>1500</v>
+        <v>3000</v>
       </c>
       <c r="L54" t="s">
         <v>20</v>
@@ -3527,13 +3527,13 @@
         <v>175</v>
       </c>
       <c r="I55" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="J55" t="s">
-        <v>21</v>
+        <v>124</v>
       </c>
       <c r="K55">
-        <v>100</v>
+        <v>4000</v>
       </c>
       <c r="L55" t="s">
         <v>20</v>
@@ -3580,7 +3580,7 @@
         <v>124</v>
       </c>
       <c r="K56">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="L56" t="s">
         <v>20</v>
@@ -3621,13 +3621,13 @@
         <v>668</v>
       </c>
       <c r="I57" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="J57" t="s">
-        <v>21</v>
+        <v>124</v>
       </c>
       <c r="K57">
-        <v>300</v>
+        <v>2000</v>
       </c>
       <c r="L57" t="s">
         <v>20</v>
@@ -3674,7 +3674,7 @@
         <v>124</v>
       </c>
       <c r="K58">
-        <v>1500</v>
+        <v>3000</v>
       </c>
       <c r="L58" t="s">
         <v>20</v>
@@ -3715,13 +3715,13 @@
         <v>820</v>
       </c>
       <c r="I59" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="J59" t="s">
-        <v>21</v>
+        <v>124</v>
       </c>
       <c r="K59">
-        <v>100</v>
+        <v>4000</v>
       </c>
       <c r="L59" t="s">
         <v>20</v>
@@ -3768,7 +3768,7 @@
         <v>124</v>
       </c>
       <c r="K60">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="L60" t="s">
         <v>20</v>
@@ -3809,13 +3809,13 @@
         <v>140</v>
       </c>
       <c r="I61" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="J61" t="s">
-        <v>21</v>
+        <v>124</v>
       </c>
       <c r="K61">
-        <v>300</v>
+        <v>2000</v>
       </c>
       <c r="L61" t="s">
         <v>20</v>
@@ -3862,7 +3862,7 @@
         <v>124</v>
       </c>
       <c r="K62">
-        <v>1500</v>
+        <v>3000</v>
       </c>
       <c r="L62" t="s">
         <v>20</v>
@@ -3903,13 +3903,13 @@
         <v>159</v>
       </c>
       <c r="I63" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="J63" t="s">
-        <v>21</v>
+        <v>124</v>
       </c>
       <c r="K63">
-        <v>100</v>
+        <v>4000</v>
       </c>
       <c r="L63" t="s">
         <v>20</v>

--- a/Excel/Shop.xlsx
+++ b/Excel/Shop.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{415D744C-3E25-4E31-BE81-18EB404C1F7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C439321-20E6-49A2-B93E-EB5B77CF5E75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1A95D980-8F25-43B6-BA87-364295A77694}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{1A95D980-8F25-43B6-BA87-364295A77694}"/>
   </bookViews>
   <sheets>
     <sheet name="ShopProductTable" sheetId="1" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1217" uniqueCount="285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1239" uniqueCount="276">
   <si>
     <t>productId|String</t>
   </si>
@@ -319,18 +319,6 @@
     <t>Item_cCaptureBest</t>
   </si>
   <si>
-    <t>stageclear_1</t>
-  </si>
-  <si>
-    <t>stageclear_2</t>
-  </si>
-  <si>
-    <t>stageclear_3</t>
-  </si>
-  <si>
-    <t>stageclear_5</t>
-  </si>
-  <si>
     <t>stageclear_10</t>
   </si>
   <si>
@@ -508,18 +496,6 @@
     <t>acquired|bool</t>
   </si>
   <si>
-    <t>ev13_unacquiredspell</t>
-  </si>
-  <si>
-    <t>ev14_acquiredspell_0001</t>
-  </si>
-  <si>
-    <t>ev14_acquiredspell_0002</t>
-  </si>
-  <si>
-    <t>ev14_acquiredspell</t>
-  </si>
-  <si>
     <t>acquired|Int</t>
   </si>
   <si>
@@ -536,9 +512,6 @@
   </si>
   <si>
     <t>Actor2103</t>
-  </si>
-  <si>
-    <t>ev16_acquiredcompanion</t>
   </si>
   <si>
     <t>Actor2010</t>
@@ -1278,11 +1251,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED115DDC-E095-4A60-B3EA-80FAE0A4BDBC}">
   <dimension ref="A1:W165"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B44" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B137" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A52" sqref="A52"/>
+      <selection pane="bottomRight" activeCell="H156" sqref="H156"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1310,7 +1283,7 @@
         <v>4</v>
       </c>
       <c r="D1" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="E1" t="s">
         <v>1</v>
@@ -1372,7 +1345,7 @@
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C2" t="b">
         <v>0</v>
@@ -1384,7 +1357,7 @@
         <v>5500</v>
       </c>
       <c r="G2" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="H2">
         <v>744</v>
@@ -1401,7 +1374,7 @@
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="C3" t="b">
         <v>0</v>
@@ -1413,7 +1386,7 @@
         <v>1100</v>
       </c>
       <c r="G3" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="H3">
         <v>493</v>
@@ -1430,7 +1403,7 @@
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="C4" t="b">
         <v>0</v>
@@ -1442,7 +1415,7 @@
         <v>3300</v>
       </c>
       <c r="G4" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="H4">
         <v>585</v>
@@ -1459,7 +1432,7 @@
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="C5" t="b">
         <v>0</v>
@@ -1471,7 +1444,7 @@
         <v>5500</v>
       </c>
       <c r="G5" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="H5">
         <v>752</v>
@@ -1488,7 +1461,7 @@
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="C6" t="b">
         <v>0</v>
@@ -1500,7 +1473,7 @@
         <v>8800</v>
       </c>
       <c r="G6" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="H6">
         <v>529</v>
@@ -1517,7 +1490,7 @@
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="C7" t="b">
         <v>0</v>
@@ -1529,7 +1502,7 @@
         <v>14000</v>
       </c>
       <c r="G7" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="H7">
         <v>743</v>
@@ -1546,7 +1519,7 @@
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C8" t="b">
         <v>0</v>
@@ -1558,7 +1531,7 @@
         <v>5500</v>
       </c>
       <c r="G8" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="H8">
         <v>234</v>
@@ -1576,7 +1549,7 @@
         <v>20</v>
       </c>
       <c r="M8" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="N8">
         <v>100</v>
@@ -1593,7 +1566,7 @@
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C9" t="b">
         <v>0</v>
@@ -1605,7 +1578,7 @@
         <v>6600</v>
       </c>
       <c r="G9" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="H9">
         <v>125</v>
@@ -1614,7 +1587,7 @@
         <v>23</v>
       </c>
       <c r="J9" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="K9">
         <v>50</v>
@@ -1632,7 +1605,7 @@
         <v>23</v>
       </c>
       <c r="P9" t="s">
-        <v>235</v>
+        <v>226</v>
       </c>
       <c r="Q9">
         <v>15</v>
@@ -1945,7 +1918,7 @@
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>236</v>
+        <v>227</v>
       </c>
       <c r="B17">
         <v>5</v>
@@ -1977,7 +1950,7 @@
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>237</v>
+        <v>228</v>
       </c>
       <c r="B18">
         <v>6</v>
@@ -1992,7 +1965,7 @@
         <v>5500</v>
       </c>
       <c r="G18" t="s">
-        <v>237</v>
+        <v>228</v>
       </c>
       <c r="H18">
         <v>561</v>
@@ -2018,7 +1991,7 @@
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="B19">
         <v>7</v>
@@ -2050,7 +2023,7 @@
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
       <c r="B20">
         <v>8</v>
@@ -2082,7 +2055,7 @@
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>240</v>
+        <v>231</v>
       </c>
       <c r="B21">
         <v>9</v>
@@ -2097,7 +2070,7 @@
         <v>8800</v>
       </c>
       <c r="G21" t="s">
-        <v>240</v>
+        <v>231</v>
       </c>
       <c r="H21">
         <v>252</v>
@@ -2123,7 +2096,7 @@
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>241</v>
+        <v>232</v>
       </c>
       <c r="B22">
         <v>10</v>
@@ -2155,7 +2128,7 @@
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>242</v>
+        <v>233</v>
       </c>
       <c r="B23">
         <v>11</v>
@@ -2170,7 +2143,7 @@
         <v>12000</v>
       </c>
       <c r="G23" t="s">
-        <v>242</v>
+        <v>233</v>
       </c>
       <c r="H23">
         <v>423</v>
@@ -2196,7 +2169,7 @@
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>243</v>
+        <v>234</v>
       </c>
       <c r="B24">
         <v>12</v>
@@ -2228,7 +2201,7 @@
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>244</v>
+        <v>235</v>
       </c>
       <c r="B25">
         <v>13</v>
@@ -2260,7 +2233,7 @@
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>245</v>
+        <v>236</v>
       </c>
       <c r="B26">
         <v>14</v>
@@ -2275,7 +2248,7 @@
         <v>19000</v>
       </c>
       <c r="G26" t="s">
-        <v>245</v>
+        <v>236</v>
       </c>
       <c r="H26">
         <v>917</v>
@@ -2301,7 +2274,7 @@
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>246</v>
+        <v>237</v>
       </c>
       <c r="B27">
         <v>15</v>
@@ -2333,7 +2306,7 @@
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="B28">
         <v>16</v>
@@ -2365,7 +2338,7 @@
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>248</v>
+        <v>239</v>
       </c>
       <c r="B29">
         <v>17</v>
@@ -2380,7 +2353,7 @@
         <v>29000</v>
       </c>
       <c r="G29" t="s">
-        <v>248</v>
+        <v>239</v>
       </c>
       <c r="H29">
         <v>677</v>
@@ -2406,7 +2379,7 @@
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="B30">
         <v>18</v>
@@ -2438,7 +2411,7 @@
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>250</v>
+        <v>241</v>
       </c>
       <c r="B31">
         <v>19</v>
@@ -2453,7 +2426,7 @@
         <v>55000</v>
       </c>
       <c r="G31" t="s">
-        <v>250</v>
+        <v>241</v>
       </c>
       <c r="H31">
         <v>192</v>
@@ -2479,7 +2452,7 @@
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>251</v>
+        <v>242</v>
       </c>
       <c r="B32">
         <v>20</v>
@@ -2661,7 +2634,7 @@
     </row>
     <row r="36" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C36" t="b">
         <v>0</v>
@@ -2673,7 +2646,7 @@
         <v>25000</v>
       </c>
       <c r="G36" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="H36">
         <v>847</v>
@@ -2699,7 +2672,7 @@
     </row>
     <row r="37" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="C37" t="b">
         <v>0</v>
@@ -2711,7 +2684,7 @@
         <v>4400</v>
       </c>
       <c r="G37" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="H37">
         <v>877</v>
@@ -2737,7 +2710,7 @@
     </row>
     <row r="38" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C38" t="b">
         <v>0</v>
@@ -2749,7 +2722,7 @@
         <v>1100</v>
       </c>
       <c r="G38" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="H38">
         <v>256</v>
@@ -2766,7 +2739,7 @@
     </row>
     <row r="39" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="C39" t="b">
         <v>1</v>
@@ -2778,7 +2751,7 @@
         <v>23</v>
       </c>
       <c r="J39" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="K39">
         <v>1</v>
@@ -2872,7 +2845,7 @@
         <v>23</v>
       </c>
       <c r="J41" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="K41">
         <v>75</v>
@@ -2966,7 +2939,7 @@
         <v>23</v>
       </c>
       <c r="J43" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="K43">
         <v>200</v>
@@ -3060,7 +3033,7 @@
         <v>23</v>
       </c>
       <c r="J45" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="K45">
         <v>400</v>
@@ -3154,7 +3127,7 @@
         <v>23</v>
       </c>
       <c r="J47" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="K47">
         <v>1200</v>
@@ -3248,7 +3221,7 @@
         <v>23</v>
       </c>
       <c r="J49" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="K49">
         <v>300</v>
@@ -3342,7 +3315,7 @@
         <v>23</v>
       </c>
       <c r="J51" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="K51">
         <v>1000</v>
@@ -3368,7 +3341,7 @@
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C52" t="b">
         <v>0</v>
@@ -3380,7 +3353,7 @@
         <v>5500</v>
       </c>
       <c r="G52" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="H52">
         <v>831</v>
@@ -3389,7 +3362,7 @@
         <v>23</v>
       </c>
       <c r="J52" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="K52">
         <v>1000</v>
@@ -3415,7 +3388,7 @@
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C53" t="b">
         <v>0</v>
@@ -3427,7 +3400,7 @@
         <v>11000</v>
       </c>
       <c r="G53" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="H53">
         <v>583</v>
@@ -3436,7 +3409,7 @@
         <v>23</v>
       </c>
       <c r="J53" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="K53">
         <v>2000</v>
@@ -3462,7 +3435,7 @@
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C54" t="b">
         <v>0</v>
@@ -3474,7 +3447,7 @@
         <v>25000</v>
       </c>
       <c r="G54" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="H54">
         <v>932</v>
@@ -3483,7 +3456,7 @@
         <v>23</v>
       </c>
       <c r="J54" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="K54">
         <v>3000</v>
@@ -3509,7 +3482,7 @@
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C55" t="b">
         <v>0</v>
@@ -3521,7 +3494,7 @@
         <v>55000</v>
       </c>
       <c r="G55" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="H55">
         <v>175</v>
@@ -3530,7 +3503,7 @@
         <v>23</v>
       </c>
       <c r="J55" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="K55">
         <v>4000</v>
@@ -3556,7 +3529,7 @@
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C56" t="b">
         <v>0</v>
@@ -3568,7 +3541,7 @@
         <v>5500</v>
       </c>
       <c r="G56" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="H56">
         <v>274</v>
@@ -3577,7 +3550,7 @@
         <v>23</v>
       </c>
       <c r="J56" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="K56">
         <v>1000</v>
@@ -3603,7 +3576,7 @@
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C57" t="b">
         <v>0</v>
@@ -3615,7 +3588,7 @@
         <v>11000</v>
       </c>
       <c r="G57" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="H57">
         <v>668</v>
@@ -3624,7 +3597,7 @@
         <v>23</v>
       </c>
       <c r="J57" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="K57">
         <v>2000</v>
@@ -3650,7 +3623,7 @@
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C58" t="b">
         <v>0</v>
@@ -3662,7 +3635,7 @@
         <v>25000</v>
       </c>
       <c r="G58" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="H58">
         <v>288</v>
@@ -3671,7 +3644,7 @@
         <v>23</v>
       </c>
       <c r="J58" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="K58">
         <v>3000</v>
@@ -3697,7 +3670,7 @@
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C59" t="b">
         <v>0</v>
@@ -3709,7 +3682,7 @@
         <v>55000</v>
       </c>
       <c r="G59" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="H59">
         <v>820</v>
@@ -3718,7 +3691,7 @@
         <v>23</v>
       </c>
       <c r="J59" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="K59">
         <v>4000</v>
@@ -3744,7 +3717,7 @@
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C60" t="b">
         <v>0</v>
@@ -3756,7 +3729,7 @@
         <v>5500</v>
       </c>
       <c r="G60" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="H60">
         <v>236</v>
@@ -3765,7 +3738,7 @@
         <v>23</v>
       </c>
       <c r="J60" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="K60">
         <v>1000</v>
@@ -3791,7 +3764,7 @@
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C61" t="b">
         <v>0</v>
@@ -3803,7 +3776,7 @@
         <v>11000</v>
       </c>
       <c r="G61" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="H61">
         <v>140</v>
@@ -3812,7 +3785,7 @@
         <v>23</v>
       </c>
       <c r="J61" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="K61">
         <v>2000</v>
@@ -3838,7 +3811,7 @@
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C62" t="b">
         <v>0</v>
@@ -3850,7 +3823,7 @@
         <v>25000</v>
       </c>
       <c r="G62" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="H62">
         <v>508</v>
@@ -3859,7 +3832,7 @@
         <v>23</v>
       </c>
       <c r="J62" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="K62">
         <v>3000</v>
@@ -3885,7 +3858,7 @@
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C63" t="b">
         <v>0</v>
@@ -3897,7 +3870,7 @@
         <v>55000</v>
       </c>
       <c r="G63" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="H63">
         <v>159</v>
@@ -3906,7 +3879,7 @@
         <v>23</v>
       </c>
       <c r="J63" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="K63">
         <v>4000</v>
@@ -4628,7 +4601,7 @@
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="C88" t="b">
         <v>0</v>
@@ -4640,7 +4613,7 @@
         <v>3300</v>
       </c>
       <c r="G88" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="H88">
         <v>620</v>
@@ -4649,7 +4622,7 @@
         <v>20</v>
       </c>
       <c r="J88" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="K88">
         <v>25</v>
@@ -4657,7 +4630,7 @@
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="C89" t="b">
         <v>0</v>
@@ -4669,7 +4642,7 @@
         <v>5500</v>
       </c>
       <c r="G89" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="H89">
         <v>567</v>
@@ -4678,7 +4651,7 @@
         <v>20</v>
       </c>
       <c r="J89" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="K89">
         <v>55</v>
@@ -4686,7 +4659,7 @@
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="C90" t="b">
         <v>0</v>
@@ -4698,7 +4671,7 @@
         <v>11000</v>
       </c>
       <c r="G90" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="H90">
         <v>650</v>
@@ -4707,7 +4680,7 @@
         <v>20</v>
       </c>
       <c r="J90" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="K90">
         <v>160</v>
@@ -4715,7 +4688,7 @@
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="C91" t="b">
         <v>0</v>
@@ -4727,7 +4700,7 @@
         <v>29000</v>
       </c>
       <c r="G91" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="H91">
         <v>524</v>
@@ -4736,7 +4709,7 @@
         <v>20</v>
       </c>
       <c r="J91" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="K91">
         <v>475</v>
@@ -4744,7 +4717,7 @@
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="C92" t="b">
         <v>0</v>
@@ -4756,7 +4729,7 @@
         <v>44000</v>
       </c>
       <c r="G92" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="H92">
         <v>386</v>
@@ -4765,7 +4738,7 @@
         <v>20</v>
       </c>
       <c r="J92" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="K92">
         <v>950</v>
@@ -4773,7 +4746,7 @@
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="C93" t="b">
         <v>0</v>
@@ -4785,7 +4758,7 @@
         <v>99000</v>
       </c>
       <c r="G93" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="H93">
         <v>539</v>
@@ -4794,7 +4767,7 @@
         <v>20</v>
       </c>
       <c r="J93" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="K93">
         <v>2400</v>
@@ -4802,7 +4775,7 @@
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="C94" t="b">
         <v>0</v>
@@ -4814,7 +4787,7 @@
         <v>3300</v>
       </c>
       <c r="G94" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="H94">
         <v>291</v>
@@ -4823,7 +4796,7 @@
         <v>20</v>
       </c>
       <c r="J94" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="K94">
         <v>75</v>
@@ -4831,7 +4804,7 @@
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="C95" t="b">
         <v>0</v>
@@ -4843,7 +4816,7 @@
         <v>5500</v>
       </c>
       <c r="G95" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="H95">
         <v>421</v>
@@ -4852,7 +4825,7 @@
         <v>20</v>
       </c>
       <c r="J95" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="K95">
         <v>165</v>
@@ -4860,7 +4833,7 @@
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="C96" t="b">
         <v>0</v>
@@ -4872,7 +4845,7 @@
         <v>11000</v>
       </c>
       <c r="G96" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="H96">
         <v>302</v>
@@ -4881,7 +4854,7 @@
         <v>20</v>
       </c>
       <c r="J96" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="K96">
         <v>480</v>
@@ -4889,7 +4862,7 @@
     </row>
     <row r="97" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="C97" t="b">
         <v>0</v>
@@ -4901,7 +4874,7 @@
         <v>29000</v>
       </c>
       <c r="G97" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="H97">
         <v>717</v>
@@ -4910,7 +4883,7 @@
         <v>20</v>
       </c>
       <c r="J97" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="K97">
         <v>1425</v>
@@ -4918,7 +4891,7 @@
     </row>
     <row r="98" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="C98" t="b">
         <v>0</v>
@@ -4930,7 +4903,7 @@
         <v>44000</v>
       </c>
       <c r="G98" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="H98">
         <v>630</v>
@@ -4939,7 +4912,7 @@
         <v>20</v>
       </c>
       <c r="J98" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="K98">
         <v>2850</v>
@@ -4947,7 +4920,7 @@
     </row>
     <row r="99" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="C99" t="b">
         <v>0</v>
@@ -4959,7 +4932,7 @@
         <v>99000</v>
       </c>
       <c r="G99" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="H99">
         <v>147</v>
@@ -4968,7 +4941,7 @@
         <v>20</v>
       </c>
       <c r="J99" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="K99">
         <v>7200</v>
@@ -5179,7 +5152,7 @@
     </row>
     <row r="107" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C107" t="b">
         <v>0</v>
@@ -5194,7 +5167,7 @@
         <v>1100</v>
       </c>
       <c r="G107" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="H107">
         <v>976</v>
@@ -5238,7 +5211,7 @@
     </row>
     <row r="108" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>252</v>
+        <v>243</v>
       </c>
       <c r="C108" t="b">
         <v>0</v>
@@ -5253,7 +5226,7 @@
         <v>1100</v>
       </c>
       <c r="G108" t="s">
-        <v>252</v>
+        <v>243</v>
       </c>
       <c r="H108">
         <v>961</v>
@@ -5297,7 +5270,7 @@
     </row>
     <row r="109" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>253</v>
+        <v>244</v>
       </c>
       <c r="C109" t="b">
         <v>0</v>
@@ -5312,7 +5285,7 @@
         <v>3300</v>
       </c>
       <c r="G109" t="s">
-        <v>253</v>
+        <v>244</v>
       </c>
       <c r="H109">
         <v>154</v>
@@ -5356,7 +5329,7 @@
     </row>
     <row r="110" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>254</v>
+        <v>245</v>
       </c>
       <c r="C110" t="b">
         <v>0</v>
@@ -5371,7 +5344,7 @@
         <v>3300</v>
       </c>
       <c r="G110" t="s">
-        <v>254</v>
+        <v>245</v>
       </c>
       <c r="H110">
         <v>891</v>
@@ -5415,7 +5388,7 @@
     </row>
     <row r="111" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
       <c r="C111" t="b">
         <v>0</v>
@@ -5430,7 +5403,7 @@
         <v>4400</v>
       </c>
       <c r="G111" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
       <c r="H111">
         <v>860</v>
@@ -5474,7 +5447,7 @@
     </row>
     <row r="112" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="C112" t="b">
         <v>0</v>
@@ -5489,7 +5462,7 @@
         <v>5500</v>
       </c>
       <c r="G112" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="H112">
         <v>211</v>
@@ -5533,7 +5506,7 @@
     </row>
     <row r="113" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>257</v>
+        <v>248</v>
       </c>
       <c r="C113" t="b">
         <v>0</v>
@@ -5548,7 +5521,7 @@
         <v>5500</v>
       </c>
       <c r="G113" t="s">
-        <v>257</v>
+        <v>248</v>
       </c>
       <c r="H113">
         <v>393</v>
@@ -5592,7 +5565,7 @@
     </row>
     <row r="114" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
       <c r="C114" t="b">
         <v>0</v>
@@ -5607,7 +5580,7 @@
         <v>6600</v>
       </c>
       <c r="G114" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
       <c r="H114">
         <v>490</v>
@@ -5651,7 +5624,7 @@
     </row>
     <row r="115" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>259</v>
+        <v>250</v>
       </c>
       <c r="C115" t="b">
         <v>0</v>
@@ -5666,7 +5639,7 @@
         <v>8800</v>
       </c>
       <c r="G115" t="s">
-        <v>259</v>
+        <v>250</v>
       </c>
       <c r="H115">
         <v>937</v>
@@ -5710,7 +5683,7 @@
     </row>
     <row r="116" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>260</v>
+        <v>251</v>
       </c>
       <c r="C116" t="b">
         <v>0</v>
@@ -5725,7 +5698,7 @@
         <v>9900</v>
       </c>
       <c r="G116" t="s">
-        <v>260</v>
+        <v>251</v>
       </c>
       <c r="H116">
         <v>773</v>
@@ -5769,7 +5742,7 @@
     </row>
     <row r="117" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>261</v>
+        <v>252</v>
       </c>
       <c r="C117" t="b">
         <v>0</v>
@@ -5784,7 +5757,7 @@
         <v>9900</v>
       </c>
       <c r="G117" t="s">
-        <v>261</v>
+        <v>252</v>
       </c>
       <c r="H117">
         <v>136</v>
@@ -5828,7 +5801,7 @@
     </row>
     <row r="118" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>262</v>
+        <v>253</v>
       </c>
       <c r="C118" t="b">
         <v>0</v>
@@ -5843,7 +5816,7 @@
         <v>11000</v>
       </c>
       <c r="G118" t="s">
-        <v>262</v>
+        <v>253</v>
       </c>
       <c r="H118">
         <v>570</v>
@@ -5887,7 +5860,7 @@
     </row>
     <row r="119" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>263</v>
+        <v>254</v>
       </c>
       <c r="C119" t="b">
         <v>0</v>
@@ -5902,7 +5875,7 @@
         <v>12000</v>
       </c>
       <c r="G119" t="s">
-        <v>263</v>
+        <v>254</v>
       </c>
       <c r="H119">
         <v>997</v>
@@ -5946,7 +5919,7 @@
     </row>
     <row r="120" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>264</v>
+        <v>255</v>
       </c>
       <c r="C120" t="b">
         <v>0</v>
@@ -5961,7 +5934,7 @@
         <v>14000</v>
       </c>
       <c r="G120" t="s">
-        <v>264</v>
+        <v>255</v>
       </c>
       <c r="H120">
         <v>918</v>
@@ -6005,7 +5978,7 @@
     </row>
     <row r="121" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>265</v>
+        <v>256</v>
       </c>
       <c r="C121" t="b">
         <v>0</v>
@@ -6020,7 +5993,7 @@
         <v>14000</v>
       </c>
       <c r="G121" t="s">
-        <v>265</v>
+        <v>256</v>
       </c>
       <c r="H121">
         <v>687</v>
@@ -6064,7 +6037,7 @@
     </row>
     <row r="122" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>266</v>
+        <v>257</v>
       </c>
       <c r="C122" t="b">
         <v>0</v>
@@ -6079,7 +6052,7 @@
         <v>14000</v>
       </c>
       <c r="G122" t="s">
-        <v>266</v>
+        <v>257</v>
       </c>
       <c r="H122">
         <v>142</v>
@@ -6123,7 +6096,7 @@
     </row>
     <row r="123" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>267</v>
+        <v>258</v>
       </c>
       <c r="C123" t="b">
         <v>0</v>
@@ -6138,7 +6111,7 @@
         <v>14000</v>
       </c>
       <c r="G123" t="s">
-        <v>267</v>
+        <v>258</v>
       </c>
       <c r="H123">
         <v>759</v>
@@ -6182,7 +6155,7 @@
     </row>
     <row r="124" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="C124" t="b">
         <v>0</v>
@@ -6197,7 +6170,7 @@
         <v>19000</v>
       </c>
       <c r="G124" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="H124">
         <v>979</v>
@@ -6241,7 +6214,7 @@
     </row>
     <row r="125" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="C125" t="b">
         <v>0</v>
@@ -6256,7 +6229,7 @@
         <v>19000</v>
       </c>
       <c r="G125" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="H125">
         <v>981</v>
@@ -6300,7 +6273,7 @@
     </row>
     <row r="126" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>270</v>
+        <v>261</v>
       </c>
       <c r="C126" t="b">
         <v>0</v>
@@ -6315,7 +6288,7 @@
         <v>19000</v>
       </c>
       <c r="G126" t="s">
-        <v>270</v>
+        <v>261</v>
       </c>
       <c r="H126">
         <v>127</v>
@@ -6359,7 +6332,7 @@
     </row>
     <row r="127" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="C127" t="b">
         <v>0</v>
@@ -6374,7 +6347,7 @@
         <v>19000</v>
       </c>
       <c r="G127" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="H127">
         <v>402</v>
@@ -6418,7 +6391,7 @@
     </row>
     <row r="128" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>272</v>
+        <v>263</v>
       </c>
       <c r="C128" t="b">
         <v>0</v>
@@ -6433,7 +6406,7 @@
         <v>19000</v>
       </c>
       <c r="G128" t="s">
-        <v>272</v>
+        <v>263</v>
       </c>
       <c r="H128">
         <v>857</v>
@@ -6477,7 +6450,7 @@
     </row>
     <row r="129" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C129" t="b">
         <v>0</v>
@@ -6489,7 +6462,7 @@
         <v>5500</v>
       </c>
       <c r="G129" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="H129">
         <v>585</v>
@@ -6498,7 +6471,7 @@
         <v>23</v>
       </c>
       <c r="J129" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="K129">
         <v>15</v>
@@ -6507,7 +6480,7 @@
         <v>20</v>
       </c>
       <c r="M129" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="N129">
         <v>500</v>
@@ -6515,7 +6488,7 @@
     </row>
     <row r="130" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C130" t="b">
         <v>0</v>
@@ -6530,7 +6503,7 @@
         <v>1100</v>
       </c>
       <c r="G130" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="H130">
         <v>886</v>
@@ -6539,7 +6512,7 @@
         <v>23</v>
       </c>
       <c r="J130" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
       <c r="K130">
         <v>1</v>
@@ -6566,7 +6539,7 @@
         <v>23</v>
       </c>
       <c r="S130" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
       <c r="T130">
         <v>1</v>
@@ -6574,7 +6547,7 @@
     </row>
     <row r="131" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C131" t="b">
         <v>0</v>
@@ -6589,7 +6562,7 @@
         <v>3300</v>
       </c>
       <c r="G131" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="H131">
         <v>811</v>
@@ -6598,7 +6571,7 @@
         <v>23</v>
       </c>
       <c r="J131" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="K131">
         <v>1</v>
@@ -6625,7 +6598,7 @@
         <v>23</v>
       </c>
       <c r="S131" t="s">
-        <v>231</v>
+        <v>222</v>
       </c>
       <c r="T131">
         <v>1</v>
@@ -6633,7 +6606,7 @@
     </row>
     <row r="132" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C132" t="b">
         <v>0</v>
@@ -6648,7 +6621,7 @@
         <v>6600</v>
       </c>
       <c r="G132" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="H132">
         <v>621</v>
@@ -6657,7 +6630,7 @@
         <v>23</v>
       </c>
       <c r="J132" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="K132">
         <v>1</v>
@@ -6692,7 +6665,7 @@
     </row>
     <row r="133" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C133" t="b">
         <v>0</v>
@@ -6707,7 +6680,7 @@
         <v>9900</v>
       </c>
       <c r="G133" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="H133">
         <v>543</v>
@@ -6716,7 +6689,7 @@
         <v>23</v>
       </c>
       <c r="J133" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
       <c r="K133">
         <v>1</v>
@@ -6743,7 +6716,7 @@
         <v>20</v>
       </c>
       <c r="S133" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="T133">
         <v>50</v>
@@ -6751,7 +6724,7 @@
     </row>
     <row r="134" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C134" t="b">
         <v>0</v>
@@ -6766,7 +6739,7 @@
         <v>11000</v>
       </c>
       <c r="G134" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="H134">
         <v>506</v>
@@ -6775,7 +6748,7 @@
         <v>23</v>
       </c>
       <c r="J134" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
       <c r="K134">
         <v>1</v>
@@ -6802,7 +6775,7 @@
         <v>20</v>
       </c>
       <c r="S134" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="T134">
         <v>50</v>
@@ -6810,7 +6783,7 @@
     </row>
     <row r="135" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C135" t="b">
         <v>0</v>
@@ -6825,7 +6798,7 @@
         <v>14000</v>
       </c>
       <c r="G135" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="H135">
         <v>646</v>
@@ -6834,7 +6807,7 @@
         <v>23</v>
       </c>
       <c r="J135" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
       <c r="K135">
         <v>1</v>
@@ -6869,7 +6842,7 @@
     </row>
     <row r="136" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C136" t="b">
         <v>0</v>
@@ -6884,7 +6857,7 @@
         <v>19000</v>
       </c>
       <c r="G136" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="H136">
         <v>260</v>
@@ -6893,7 +6866,7 @@
         <v>23</v>
       </c>
       <c r="J136" t="s">
-        <v>215</v>
+        <v>206</v>
       </c>
       <c r="K136">
         <v>1</v>
@@ -6920,7 +6893,7 @@
         <v>20</v>
       </c>
       <c r="S136" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="T136">
         <v>50</v>
@@ -6928,7 +6901,7 @@
     </row>
     <row r="137" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C137" t="b">
         <v>0</v>
@@ -6943,7 +6916,7 @@
         <v>29000</v>
       </c>
       <c r="G137" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="H137">
         <v>990</v>
@@ -6952,7 +6925,7 @@
         <v>23</v>
       </c>
       <c r="J137" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="K137">
         <v>1</v>
@@ -6979,7 +6952,7 @@
         <v>20</v>
       </c>
       <c r="S137" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="T137">
         <v>50</v>
@@ -6987,7 +6960,7 @@
     </row>
     <row r="138" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C138" t="b">
         <v>0</v>
@@ -7002,7 +6975,7 @@
         <v>44000</v>
       </c>
       <c r="G138" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="H138">
         <v>768</v>
@@ -7011,7 +6984,7 @@
         <v>23</v>
       </c>
       <c r="J138" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="K138">
         <v>1</v>
@@ -7038,7 +7011,7 @@
         <v>20</v>
       </c>
       <c r="S138" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="T138">
         <v>50</v>
@@ -7046,7 +7019,7 @@
     </row>
     <row r="139" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C139" t="b">
         <v>0</v>
@@ -7061,7 +7034,7 @@
         <v>49000</v>
       </c>
       <c r="G139" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="H139">
         <v>578</v>
@@ -7070,7 +7043,7 @@
         <v>23</v>
       </c>
       <c r="J139" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
       <c r="K139">
         <v>1</v>
@@ -7105,7 +7078,7 @@
     </row>
     <row r="140" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
-        <v>273</v>
+        <v>264</v>
       </c>
       <c r="C140" t="b">
         <v>0</v>
@@ -7120,7 +7093,7 @@
         <v>55000</v>
       </c>
       <c r="G140" t="s">
-        <v>273</v>
+        <v>264</v>
       </c>
       <c r="H140">
         <v>767</v>
@@ -7129,7 +7102,7 @@
         <v>23</v>
       </c>
       <c r="J140" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
       <c r="K140">
         <v>1</v>
@@ -7164,7 +7137,7 @@
     </row>
     <row r="141" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="C141" t="b">
         <v>0</v>
@@ -7179,7 +7152,7 @@
         <v>66000</v>
       </c>
       <c r="G141" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="H141">
         <v>500</v>
@@ -7188,7 +7161,7 @@
         <v>23</v>
       </c>
       <c r="J141" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
       <c r="K141">
         <v>1</v>
@@ -7223,7 +7196,7 @@
     </row>
     <row r="142" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
-        <v>275</v>
+        <v>266</v>
       </c>
       <c r="C142" t="b">
         <v>0</v>
@@ -7238,7 +7211,7 @@
         <v>99000</v>
       </c>
       <c r="G142" t="s">
-        <v>275</v>
+        <v>266</v>
       </c>
       <c r="H142">
         <v>139</v>
@@ -7247,7 +7220,7 @@
         <v>23</v>
       </c>
       <c r="J142" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
       <c r="K142">
         <v>1</v>
@@ -7282,7 +7255,7 @@
     </row>
     <row r="143" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
-        <v>276</v>
+        <v>267</v>
       </c>
       <c r="C143" t="b">
         <v>0</v>
@@ -7297,7 +7270,7 @@
         <v>110000</v>
       </c>
       <c r="G143" t="s">
-        <v>276</v>
+        <v>267</v>
       </c>
       <c r="H143">
         <v>468</v>
@@ -7306,7 +7279,7 @@
         <v>23</v>
       </c>
       <c r="J143" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
       <c r="K143">
         <v>1</v>
@@ -7341,7 +7314,7 @@
     </row>
     <row r="144" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="C144" t="b">
         <v>0</v>
@@ -7356,7 +7329,7 @@
         <v>149000</v>
       </c>
       <c r="G144" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="H144">
         <v>137</v>
@@ -7365,7 +7338,7 @@
         <v>23</v>
       </c>
       <c r="J144" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
       <c r="K144">
         <v>1</v>
@@ -7400,7 +7373,7 @@
     </row>
     <row r="145" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C145" t="b">
         <v>0</v>
@@ -7412,7 +7385,7 @@
         <v>1100</v>
       </c>
       <c r="G145" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="H145">
         <v>546</v>
@@ -7421,7 +7394,7 @@
         <v>23</v>
       </c>
       <c r="J145" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="K145">
         <v>1</v>
@@ -7429,7 +7402,7 @@
     </row>
     <row r="146" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C146" t="b">
         <v>0</v>
@@ -7441,7 +7414,7 @@
         <v>6600</v>
       </c>
       <c r="G146" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="H146">
         <v>585</v>
@@ -7450,7 +7423,7 @@
         <v>23</v>
       </c>
       <c r="J146" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="K146">
         <v>7</v>
@@ -7458,7 +7431,7 @@
     </row>
     <row r="147" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C147" t="b">
         <v>0</v>
@@ -7470,7 +7443,7 @@
         <v>29000</v>
       </c>
       <c r="G147" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="H147">
         <v>157</v>
@@ -7479,7 +7452,7 @@
         <v>23</v>
       </c>
       <c r="J147" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="K147">
         <v>30</v>
@@ -7506,7 +7479,7 @@
         <v>20</v>
       </c>
       <c r="S147" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="T147">
         <v>750</v>
@@ -7514,7 +7487,7 @@
     </row>
     <row r="148" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="C148" t="b">
         <v>0</v>
@@ -7526,7 +7499,7 @@
         <v>19000</v>
       </c>
       <c r="G148" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="H148">
         <v>670</v>
@@ -7535,7 +7508,7 @@
         <v>23</v>
       </c>
       <c r="J148" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="K148">
         <v>1</v>
@@ -7543,7 +7516,7 @@
     </row>
     <row r="149" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
-        <v>279</v>
+        <v>270</v>
       </c>
       <c r="C149" t="b">
         <v>0</v>
@@ -7555,7 +7528,7 @@
         <v>29000</v>
       </c>
       <c r="G149" t="s">
-        <v>279</v>
+        <v>270</v>
       </c>
       <c r="H149">
         <v>420</v>
@@ -7564,7 +7537,7 @@
         <v>23</v>
       </c>
       <c r="J149" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="K149">
         <v>1</v>
@@ -7572,7 +7545,7 @@
     </row>
     <row r="150" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
-        <v>280</v>
+        <v>271</v>
       </c>
       <c r="C150" t="b">
         <v>0</v>
@@ -7584,7 +7557,7 @@
         <v>3300</v>
       </c>
       <c r="G150" t="s">
-        <v>280</v>
+        <v>271</v>
       </c>
       <c r="H150">
         <v>828</v>
@@ -7593,7 +7566,7 @@
         <v>23</v>
       </c>
       <c r="J150" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="K150">
         <v>1</v>
@@ -7601,7 +7574,7 @@
     </row>
     <row r="151" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
-        <v>281</v>
+        <v>272</v>
       </c>
       <c r="C151" t="b">
         <v>0</v>
@@ -7613,7 +7586,7 @@
         <v>6600</v>
       </c>
       <c r="G151" t="s">
-        <v>281</v>
+        <v>272</v>
       </c>
       <c r="H151">
         <v>348</v>
@@ -7622,7 +7595,7 @@
         <v>23</v>
       </c>
       <c r="J151" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="K151">
         <v>1</v>
@@ -7630,7 +7603,7 @@
     </row>
     <row r="152" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
-        <v>282</v>
+        <v>273</v>
       </c>
       <c r="C152" t="b">
         <v>0</v>
@@ -7642,7 +7615,7 @@
         <v>9900</v>
       </c>
       <c r="G152" t="s">
-        <v>282</v>
+        <v>273</v>
       </c>
       <c r="H152">
         <v>468</v>
@@ -7651,7 +7624,7 @@
         <v>23</v>
       </c>
       <c r="J152" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="K152">
         <v>1</v>
@@ -7659,7 +7632,7 @@
     </row>
     <row r="153" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="C153" t="b">
         <v>0</v>
@@ -7671,7 +7644,7 @@
         <v>25000</v>
       </c>
       <c r="G153" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="H153">
         <v>492</v>
@@ -7680,7 +7653,7 @@
         <v>23</v>
       </c>
       <c r="J153" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="K153">
         <v>1</v>
@@ -7688,7 +7661,7 @@
     </row>
     <row r="154" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
-        <v>283</v>
+        <v>274</v>
       </c>
       <c r="C154" t="b">
         <v>0</v>
@@ -7700,7 +7673,7 @@
         <v>8800</v>
       </c>
       <c r="G154" t="s">
-        <v>283</v>
+        <v>274</v>
       </c>
       <c r="H154">
         <v>787</v>
@@ -7709,7 +7682,7 @@
         <v>23</v>
       </c>
       <c r="J154" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="K154">
         <v>1</v>
@@ -7717,7 +7690,7 @@
     </row>
     <row r="155" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
-        <v>284</v>
+        <v>275</v>
       </c>
       <c r="C155" t="b">
         <v>0</v>
@@ -7729,7 +7702,7 @@
         <v>29000</v>
       </c>
       <c r="G155" t="s">
-        <v>284</v>
+        <v>275</v>
       </c>
       <c r="H155">
         <v>248</v>
@@ -7738,7 +7711,7 @@
         <v>23</v>
       </c>
       <c r="J155" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="K155">
         <v>1</v>
@@ -7746,7 +7719,7 @@
     </row>
     <row r="156" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="C156" t="b">
         <v>0</v>
@@ -7758,7 +7731,7 @@
         <v>3300</v>
       </c>
       <c r="G156" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="H156">
         <v>919</v>
@@ -7767,7 +7740,7 @@
         <v>23</v>
       </c>
       <c r="J156" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="K156">
         <v>1</v>
@@ -7775,7 +7748,7 @@
     </row>
     <row r="157" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="C157" t="b">
         <v>0</v>
@@ -7787,7 +7760,7 @@
         <v>3300</v>
       </c>
       <c r="G157" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="H157">
         <v>166</v>
@@ -7796,7 +7769,7 @@
         <v>23</v>
       </c>
       <c r="J157" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="K157">
         <v>1</v>
@@ -7804,7 +7777,7 @@
     </row>
     <row r="158" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="C158" t="b">
         <v>0</v>
@@ -7816,7 +7789,7 @@
         <v>1100</v>
       </c>
       <c r="G158" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="H158">
         <v>460</v>
@@ -7825,7 +7798,7 @@
         <v>23</v>
       </c>
       <c r="J158" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="K158">
         <v>1</v>
@@ -7833,7 +7806,7 @@
     </row>
     <row r="159" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="C159" t="b">
         <v>1</v>
@@ -7845,7 +7818,7 @@
         <v>23</v>
       </c>
       <c r="J159" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="K159">
         <v>1</v>
@@ -7872,7 +7845,7 @@
         <v>20</v>
       </c>
       <c r="S159" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="T159">
         <v>50</v>
@@ -7880,7 +7853,7 @@
     </row>
     <row r="160" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="C160" t="b">
         <v>1</v>
@@ -7892,7 +7865,7 @@
         <v>23</v>
       </c>
       <c r="J160" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="K160">
         <v>1</v>
@@ -7919,7 +7892,7 @@
         <v>20</v>
       </c>
       <c r="S160" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="T160">
         <v>50</v>
@@ -7927,7 +7900,7 @@
     </row>
     <row r="161" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="C161" t="b">
         <v>1</v>
@@ -7939,7 +7912,7 @@
         <v>23</v>
       </c>
       <c r="J161" t="s">
-        <v>221</v>
+        <v>212</v>
       </c>
       <c r="K161">
         <v>1</v>
@@ -7974,7 +7947,7 @@
     </row>
     <row r="162" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="C162" t="b">
         <v>1</v>
@@ -7986,7 +7959,7 @@
         <v>23</v>
       </c>
       <c r="J162" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="K162">
         <v>1</v>
@@ -8013,7 +7986,7 @@
         <v>20</v>
       </c>
       <c r="S162" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="T162">
         <v>50</v>
@@ -8021,7 +7994,7 @@
     </row>
     <row r="163" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="C163" t="b">
         <v>1</v>
@@ -8033,7 +8006,7 @@
         <v>23</v>
       </c>
       <c r="J163" t="s">
-        <v>223</v>
+        <v>214</v>
       </c>
       <c r="K163">
         <v>1</v>
@@ -8060,7 +8033,7 @@
         <v>20</v>
       </c>
       <c r="S163" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="T163">
         <v>50</v>
@@ -8068,7 +8041,7 @@
     </row>
     <row r="164" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="C164" t="b">
         <v>1</v>
@@ -8080,7 +8053,7 @@
         <v>23</v>
       </c>
       <c r="J164" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
       <c r="K164">
         <v>1</v>
@@ -8115,7 +8088,7 @@
     </row>
     <row r="165" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="C165" t="b">
         <v>1</v>
@@ -8127,7 +8100,7 @@
         <v>23</v>
       </c>
       <c r="J165" t="s">
-        <v>225</v>
+        <v>216</v>
       </c>
       <c r="K165">
         <v>1</v>
@@ -8154,7 +8127,7 @@
         <v>20</v>
       </c>
       <c r="S165" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="T165">
         <v>50</v>
@@ -8179,16 +8152,16 @@
   <sheetData>
     <row r="1" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="B1" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="C1" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="D1" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -22212,13 +22185,13 @@
   <sheetData>
     <row r="1" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="B1" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
       <c r="C1" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -22229,7 +22202,7 @@
         <v>50</v>
       </c>
       <c r="C2" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -22240,7 +22213,7 @@
         <v>200</v>
       </c>
       <c r="C3" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -22251,7 +22224,7 @@
         <v>500</v>
       </c>
       <c r="C4" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -22262,7 +22235,7 @@
         <v>30</v>
       </c>
       <c r="C5" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -22273,7 +22246,7 @@
         <v>100</v>
       </c>
       <c r="C6" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -22284,7 +22257,7 @@
         <v>300</v>
       </c>
       <c r="C7" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
@@ -22295,7 +22268,7 @@
         <v>500</v>
       </c>
       <c r="C8" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
     </row>
   </sheetData>
@@ -22316,10 +22289,10 @@
   <sheetData>
     <row r="1" spans="1:2" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="B1" t="s">
-        <v>232</v>
+        <v>223</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -22470,66 +22443,66 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="B5" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="B6" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="B7" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="B8" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="B9" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="B10" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
       <c r="B11" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>231</v>
+        <v>222</v>
       </c>
       <c r="B12" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
     </row>
   </sheetData>
@@ -22540,7 +22513,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F60B4CD-6BF4-4390-A11A-0E0146736787}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -22554,13 +22527,13 @@
   <sheetData>
     <row r="1" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="B1" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C1" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -22568,7 +22541,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C2" t="s">
         <v>90</v>
@@ -22579,10 +22552,10 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="C3" t="s">
-        <v>91</v>
+        <v>243</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -22590,32 +22563,219 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="C4" t="s">
-        <v>92</v>
+        <v>244</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B5">
-        <v>5</v>
+        <v>40</v>
       </c>
       <c r="C5" t="s">
-        <v>93</v>
+        <v>245</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>50</v>
+      </c>
+      <c r="C6" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>60</v>
+      </c>
+      <c r="C7" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8">
         <v>7</v>
       </c>
-      <c r="B6">
+      <c r="B8">
+        <v>70</v>
+      </c>
+      <c r="C8" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>80</v>
+      </c>
+      <c r="C9" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>90</v>
+      </c>
+      <c r="C10" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11">
         <v>10</v>
       </c>
-      <c r="C6" t="s">
-        <v>94</v>
+      <c r="B11">
+        <v>100</v>
+      </c>
+      <c r="C11" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>125</v>
+      </c>
+      <c r="C12" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>150</v>
+      </c>
+      <c r="C13" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>175</v>
+      </c>
+      <c r="C14" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>200</v>
+      </c>
+      <c r="C15" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>225</v>
+      </c>
+      <c r="C16" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>250</v>
+      </c>
+      <c r="C17" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>275</v>
+      </c>
+      <c r="C18" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>300</v>
+      </c>
+      <c r="C19" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>325</v>
+      </c>
+      <c r="C20" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>350</v>
+      </c>
+      <c r="C21" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>375</v>
+      </c>
+      <c r="C22" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>400</v>
+      </c>
+      <c r="C23" t="s">
+        <v>263</v>
       </c>
     </row>
   </sheetData>
@@ -22626,9 +22786,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{496BDFFC-276C-44D3-ABC1-0DA3F95CE129}">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B16"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -22637,10 +22799,10 @@
   <sheetData>
     <row r="1" spans="1:2" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="B1" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -22648,7 +22810,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -22656,7 +22818,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -22664,7 +22826,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -22672,7 +22834,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -22680,7 +22842,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -22688,7 +22850,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -22696,7 +22858,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
@@ -22704,7 +22866,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
@@ -22712,7 +22874,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
@@ -22720,7 +22882,47 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>106</v>
+        <v>102</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>268</v>
       </c>
     </row>
   </sheetData>
@@ -22734,7 +22936,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="X11" sqref="X11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -22746,16 +22948,16 @@
   <sheetData>
     <row r="1" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="B1" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C1" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="D1" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -22763,13 +22965,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>153</v>
+        <v>269</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -22777,13 +22979,13 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>153</v>
+        <v>270</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -22791,13 +22993,13 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C4">
         <v>20</v>
       </c>
       <c r="D4" t="s">
-        <v>154</v>
+        <v>271</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -22805,13 +23007,13 @@
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="C5">
         <v>20</v>
       </c>
       <c r="D5" t="s">
-        <v>155</v>
+        <v>272</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -22819,13 +23021,13 @@
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C6">
         <v>20</v>
       </c>
       <c r="D6" t="s">
-        <v>156</v>
+        <v>273</v>
       </c>
     </row>
   </sheetData>
@@ -22838,7 +23040,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7177293C-891A-4EAD-A711-5940DE9046B0}">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -22849,16 +23053,16 @@
   <sheetData>
     <row r="1" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="B1" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="C1" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -22866,13 +23070,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -22880,13 +23084,13 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -22894,13 +23098,13 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>163</v>
+        <v>274</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -22908,13 +23112,13 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="C5">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="D5" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -22922,13 +23126,13 @@
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="C6">
         <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>163</v>
+        <v>275</v>
       </c>
     </row>
   </sheetData>
@@ -22954,16 +23158,16 @@
   <sheetData>
     <row r="1" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="B1" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="C1" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="D1" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -22977,7 +23181,7 @@
         <v>2000</v>
       </c>
       <c r="D2" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -22991,7 +23195,7 @@
         <v>3000</v>
       </c>
       <c r="D3" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -23005,7 +23209,7 @@
         <v>4000</v>
       </c>
       <c r="D4" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -23019,7 +23223,7 @@
         <v>5000</v>
       </c>
       <c r="D5" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -23033,7 +23237,7 @@
         <v>6000</v>
       </c>
       <c r="D6" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
     </row>
   </sheetData>
@@ -23054,19 +23258,19 @@
   <sheetData>
     <row r="1" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="B1" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="C1" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="D1" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="E1" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="F1" t="s">
         <v>40</v>

--- a/Excel/Shop.xlsx
+++ b/Excel/Shop.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C439321-20E6-49A2-B93E-EB5B77CF5E75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C19771A5-BACE-487B-8485-CB87A4DECA84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{1A95D980-8F25-43B6-BA87-364295A77694}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1A95D980-8F25-43B6-BA87-364295A77694}"/>
   </bookViews>
   <sheets>
     <sheet name="ShopProductTable" sheetId="1" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1239" uniqueCount="276">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1239" uniqueCount="279">
   <si>
     <t>productId|String</t>
   </si>
@@ -875,6 +875,15 @@
   </si>
   <si>
     <t>ev16_acquiredcompanion_2</t>
+  </si>
+  <si>
+    <t>Equip032102</t>
+  </si>
+  <si>
+    <t>Equip035002</t>
+  </si>
+  <si>
+    <t>Equip037101</t>
   </si>
 </sst>
 </file>
@@ -1251,11 +1260,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED115DDC-E095-4A60-B3EA-80FAE0A4BDBC}">
   <dimension ref="A1:W165"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B137" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H156" sqref="H156"/>
+      <selection pane="bottomRight" activeCell="A137" sqref="A137"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1637,7 +1646,7 @@
         <v>21</v>
       </c>
       <c r="K10">
-        <v>30</v>
+        <v>200</v>
       </c>
       <c r="L10" t="s">
         <v>20</v>
@@ -1646,16 +1655,16 @@
         <v>22</v>
       </c>
       <c r="N10">
-        <v>25000</v>
+        <v>120000</v>
       </c>
       <c r="O10" t="s">
         <v>20</v>
       </c>
       <c r="P10" t="s">
-        <v>21</v>
+        <v>92</v>
       </c>
       <c r="Q10">
-        <v>100</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.3">
@@ -1684,7 +1693,7 @@
         <v>21</v>
       </c>
       <c r="K11">
-        <v>60</v>
+        <v>900</v>
       </c>
       <c r="L11" t="s">
         <v>20</v>
@@ -1693,16 +1702,16 @@
         <v>22</v>
       </c>
       <c r="N11">
-        <v>15000</v>
+        <v>500000</v>
       </c>
       <c r="O11" t="s">
         <v>20</v>
       </c>
       <c r="P11" t="s">
-        <v>21</v>
+        <v>92</v>
       </c>
       <c r="Q11">
-        <v>120</v>
+        <v>280</v>
       </c>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.3">
@@ -1731,7 +1740,7 @@
         <v>21</v>
       </c>
       <c r="K12">
-        <v>90</v>
+        <v>4000</v>
       </c>
       <c r="L12" t="s">
         <v>20</v>
@@ -1740,25 +1749,25 @@
         <v>22</v>
       </c>
       <c r="N12">
-        <v>30000</v>
+        <v>1250000</v>
       </c>
       <c r="O12" t="s">
         <v>20</v>
       </c>
       <c r="P12" t="s">
-        <v>21</v>
+        <v>92</v>
       </c>
       <c r="Q12">
-        <v>150</v>
+        <v>990</v>
       </c>
       <c r="R12" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="S12" t="s">
-        <v>21</v>
+        <v>276</v>
       </c>
       <c r="T12">
-        <v>300</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.3">
@@ -2505,13 +2514,13 @@
         <v>386</v>
       </c>
       <c r="I33" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="J33" t="s">
-        <v>21</v>
+        <v>277</v>
       </c>
       <c r="K33">
-        <v>350</v>
+        <v>1</v>
       </c>
       <c r="L33" t="s">
         <v>20</v>
@@ -2520,25 +2529,25 @@
         <v>22</v>
       </c>
       <c r="N33">
-        <v>80000</v>
+        <v>1000000</v>
       </c>
       <c r="O33" t="s">
         <v>20</v>
       </c>
       <c r="P33" t="s">
-        <v>21</v>
+        <v>92</v>
       </c>
       <c r="Q33">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="R33" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="S33" t="s">
-        <v>22</v>
+        <v>278</v>
       </c>
       <c r="T33">
-        <v>100000</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:20" x14ac:dyDescent="0.3">
@@ -2558,28 +2567,19 @@
         <v>20</v>
       </c>
       <c r="J34" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K34">
-        <v>50000</v>
+        <v>2000</v>
       </c>
       <c r="L34" t="s">
         <v>20</v>
       </c>
       <c r="M34" t="s">
-        <v>21</v>
+        <v>92</v>
       </c>
       <c r="N34">
-        <v>500</v>
-      </c>
-      <c r="O34" t="s">
-        <v>20</v>
-      </c>
-      <c r="P34" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q34">
-        <v>70000</v>
+        <v>200</v>
       </c>
     </row>
     <row r="35" spans="1:20" x14ac:dyDescent="0.3">
@@ -2602,7 +2602,7 @@
         <v>21</v>
       </c>
       <c r="K35">
-        <v>450</v>
+        <v>400</v>
       </c>
       <c r="L35" t="s">
         <v>20</v>
@@ -2611,25 +2611,16 @@
         <v>22</v>
       </c>
       <c r="N35">
-        <v>60000</v>
+        <v>500000</v>
       </c>
       <c r="O35" t="s">
         <v>20</v>
       </c>
       <c r="P35" t="s">
-        <v>22</v>
+        <v>92</v>
       </c>
       <c r="Q35">
-        <v>90000</v>
-      </c>
-      <c r="R35" t="s">
-        <v>20</v>
-      </c>
-      <c r="S35" t="s">
-        <v>21</v>
-      </c>
-      <c r="T35">
-        <v>650</v>
+        <v>50</v>
       </c>
     </row>
     <row r="36" spans="1:20" x14ac:dyDescent="0.3">
@@ -2658,16 +2649,25 @@
         <v>21</v>
       </c>
       <c r="K36">
-        <v>700</v>
+        <v>2200</v>
       </c>
       <c r="L36" t="s">
         <v>20</v>
       </c>
       <c r="M36" t="s">
+        <v>92</v>
+      </c>
+      <c r="N36">
+        <v>550</v>
+      </c>
+      <c r="O36" t="s">
+        <v>20</v>
+      </c>
+      <c r="P36" t="s">
         <v>22</v>
       </c>
-      <c r="N36">
-        <v>50000</v>
+      <c r="Q36">
+        <v>1000000</v>
       </c>
     </row>
     <row r="37" spans="1:20" x14ac:dyDescent="0.3">
@@ -2693,19 +2693,28 @@
         <v>20</v>
       </c>
       <c r="J37" t="s">
+        <v>22</v>
+      </c>
+      <c r="K37">
+        <v>600000</v>
+      </c>
+      <c r="L37" t="s">
+        <v>20</v>
+      </c>
+      <c r="M37" t="s">
+        <v>92</v>
+      </c>
+      <c r="N37">
+        <v>300</v>
+      </c>
+      <c r="O37" t="s">
+        <v>20</v>
+      </c>
+      <c r="P37" t="s">
         <v>21</v>
       </c>
-      <c r="K37">
-        <v>800</v>
-      </c>
-      <c r="L37" t="s">
-        <v>20</v>
-      </c>
-      <c r="M37" t="s">
-        <v>22</v>
-      </c>
-      <c r="N37">
-        <v>30000</v>
+      <c r="Q37">
+        <v>1250</v>
       </c>
     </row>
     <row r="38" spans="1:20" x14ac:dyDescent="0.3">
@@ -23040,7 +23049,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7177293C-891A-4EAD-A711-5940DE9046B0}">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>

--- a/Excel/Shop.xlsx
+++ b/Excel/Shop.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C19771A5-BACE-487B-8485-CB87A4DECA84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E27AAFB0-7158-4751-BF42-6AD5C313BD4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1A95D980-8F25-43B6-BA87-364295A77694}"/>
+    <workbookView xWindow="28680" yWindow="2670" windowWidth="24240" windowHeight="13140" xr2:uid="{1A95D980-8F25-43B6-BA87-364295A77694}"/>
   </bookViews>
   <sheets>
     <sheet name="ShopProductTable" sheetId="1" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1239" uniqueCount="279">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1239" uniqueCount="289">
   <si>
     <t>productId|String</t>
   </si>
@@ -712,9 +712,6 @@
     <t>CashName_sSpell4Gacha</t>
   </si>
   <si>
-    <t>Equip030001</t>
-  </si>
-  <si>
     <t>Cash_sEquipTypeGacha411</t>
   </si>
   <si>
@@ -884,6 +881,39 @@
   </si>
   <si>
     <t>Equip037101</t>
+  </si>
+  <si>
+    <t>Spell_0007</t>
+  </si>
+  <si>
+    <t>Pet_0005</t>
+  </si>
+  <si>
+    <t>Spell_0016</t>
+  </si>
+  <si>
+    <t>Cash_sEquipGacha</t>
+  </si>
+  <si>
+    <t>Pet_0007</t>
+  </si>
+  <si>
+    <t>Equip037201</t>
+  </si>
+  <si>
+    <t>Spell_0021</t>
+  </si>
+  <si>
+    <t>Pet_0001</t>
+  </si>
+  <si>
+    <t>Cash_sEquipTypeGacha415</t>
+  </si>
+  <si>
+    <t>Spell_0015</t>
+  </si>
+  <si>
+    <t>Equip047201</t>
   </si>
 </sst>
 </file>
@@ -1261,10 +1291,10 @@
   <dimension ref="A1:W165"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B137" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B113" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A137" sqref="A137"/>
+      <selection pane="bottomRight" activeCell="A126" sqref="A126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1614,7 +1644,7 @@
         <v>23</v>
       </c>
       <c r="P9" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="Q9">
         <v>15</v>
@@ -1764,7 +1794,7 @@
         <v>23</v>
       </c>
       <c r="S12" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="T12">
         <v>1</v>
@@ -1927,7 +1957,7 @@
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B17">
         <v>5</v>
@@ -1959,7 +1989,7 @@
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B18">
         <v>6</v>
@@ -1974,7 +2004,7 @@
         <v>5500</v>
       </c>
       <c r="G18" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H18">
         <v>561</v>
@@ -2000,7 +2030,7 @@
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B19">
         <v>7</v>
@@ -2032,7 +2062,7 @@
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B20">
         <v>8</v>
@@ -2064,7 +2094,7 @@
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B21">
         <v>9</v>
@@ -2079,7 +2109,7 @@
         <v>8800</v>
       </c>
       <c r="G21" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="H21">
         <v>252</v>
@@ -2105,7 +2135,7 @@
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B22">
         <v>10</v>
@@ -2137,7 +2167,7 @@
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B23">
         <v>11</v>
@@ -2152,7 +2182,7 @@
         <v>12000</v>
       </c>
       <c r="G23" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H23">
         <v>423</v>
@@ -2178,7 +2208,7 @@
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B24">
         <v>12</v>
@@ -2210,7 +2240,7 @@
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B25">
         <v>13</v>
@@ -2242,7 +2272,7 @@
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B26">
         <v>14</v>
@@ -2257,7 +2287,7 @@
         <v>19000</v>
       </c>
       <c r="G26" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H26">
         <v>917</v>
@@ -2283,7 +2313,7 @@
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B27">
         <v>15</v>
@@ -2315,7 +2345,7 @@
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B28">
         <v>16</v>
@@ -2347,7 +2377,7 @@
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B29">
         <v>17</v>
@@ -2362,7 +2392,7 @@
         <v>29000</v>
       </c>
       <c r="G29" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H29">
         <v>677</v>
@@ -2388,7 +2418,7 @@
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B30">
         <v>18</v>
@@ -2420,7 +2450,7 @@
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B31">
         <v>19</v>
@@ -2435,7 +2465,7 @@
         <v>55000</v>
       </c>
       <c r="G31" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H31">
         <v>192</v>
@@ -2461,7 +2491,7 @@
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B32">
         <v>20</v>
@@ -2517,7 +2547,7 @@
         <v>23</v>
       </c>
       <c r="J33" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="K33">
         <v>1</v>
@@ -2544,7 +2574,7 @@
         <v>23</v>
       </c>
       <c r="S33" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="T33">
         <v>1</v>
@@ -2667,7 +2697,7 @@
         <v>22</v>
       </c>
       <c r="Q36">
-        <v>1000000</v>
+        <v>990000</v>
       </c>
     </row>
     <row r="37" spans="1:20" x14ac:dyDescent="0.3">
@@ -5220,7 +5250,7 @@
     </row>
     <row r="108" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C108" t="b">
         <v>0</v>
@@ -5235,7 +5265,7 @@
         <v>1100</v>
       </c>
       <c r="G108" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="H108">
         <v>961</v>
@@ -5279,7 +5309,7 @@
     </row>
     <row r="109" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C109" t="b">
         <v>0</v>
@@ -5294,7 +5324,7 @@
         <v>3300</v>
       </c>
       <c r="G109" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="H109">
         <v>154</v>
@@ -5338,7 +5368,7 @@
     </row>
     <row r="110" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C110" t="b">
         <v>0</v>
@@ -5353,7 +5383,7 @@
         <v>3300</v>
       </c>
       <c r="G110" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H110">
         <v>891</v>
@@ -5397,7 +5427,7 @@
     </row>
     <row r="111" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C111" t="b">
         <v>0</v>
@@ -5412,7 +5442,7 @@
         <v>4400</v>
       </c>
       <c r="G111" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H111">
         <v>860</v>
@@ -5456,7 +5486,7 @@
     </row>
     <row r="112" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C112" t="b">
         <v>0</v>
@@ -5471,7 +5501,7 @@
         <v>5500</v>
       </c>
       <c r="G112" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H112">
         <v>211</v>
@@ -5515,7 +5545,7 @@
     </row>
     <row r="113" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C113" t="b">
         <v>0</v>
@@ -5530,7 +5560,7 @@
         <v>5500</v>
       </c>
       <c r="G113" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="H113">
         <v>393</v>
@@ -5574,7 +5604,7 @@
     </row>
     <row r="114" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C114" t="b">
         <v>0</v>
@@ -5589,7 +5619,7 @@
         <v>6600</v>
       </c>
       <c r="G114" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="H114">
         <v>490</v>
@@ -5633,7 +5663,7 @@
     </row>
     <row r="115" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C115" t="b">
         <v>0</v>
@@ -5648,7 +5678,7 @@
         <v>8800</v>
       </c>
       <c r="G115" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H115">
         <v>937</v>
@@ -5692,7 +5722,7 @@
     </row>
     <row r="116" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C116" t="b">
         <v>0</v>
@@ -5707,7 +5737,7 @@
         <v>9900</v>
       </c>
       <c r="G116" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="H116">
         <v>773</v>
@@ -5751,7 +5781,7 @@
     </row>
     <row r="117" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C117" t="b">
         <v>0</v>
@@ -5766,7 +5796,7 @@
         <v>9900</v>
       </c>
       <c r="G117" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H117">
         <v>136</v>
@@ -5810,7 +5840,7 @@
     </row>
     <row r="118" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C118" t="b">
         <v>0</v>
@@ -5825,7 +5855,7 @@
         <v>11000</v>
       </c>
       <c r="G118" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="H118">
         <v>570</v>
@@ -5869,7 +5899,7 @@
     </row>
     <row r="119" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C119" t="b">
         <v>0</v>
@@ -5884,7 +5914,7 @@
         <v>12000</v>
       </c>
       <c r="G119" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H119">
         <v>997</v>
@@ -5928,7 +5958,7 @@
     </row>
     <row r="120" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C120" t="b">
         <v>0</v>
@@ -5943,7 +5973,7 @@
         <v>14000</v>
       </c>
       <c r="G120" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="H120">
         <v>918</v>
@@ -5987,7 +6017,7 @@
     </row>
     <row r="121" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C121" t="b">
         <v>0</v>
@@ -6002,7 +6032,7 @@
         <v>14000</v>
       </c>
       <c r="G121" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H121">
         <v>687</v>
@@ -6046,7 +6076,7 @@
     </row>
     <row r="122" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C122" t="b">
         <v>0</v>
@@ -6061,7 +6091,7 @@
         <v>14000</v>
       </c>
       <c r="G122" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="H122">
         <v>142</v>
@@ -6105,7 +6135,7 @@
     </row>
     <row r="123" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C123" t="b">
         <v>0</v>
@@ -6120,7 +6150,7 @@
         <v>14000</v>
       </c>
       <c r="G123" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H123">
         <v>759</v>
@@ -6164,7 +6194,7 @@
     </row>
     <row r="124" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C124" t="b">
         <v>0</v>
@@ -6179,7 +6209,7 @@
         <v>19000</v>
       </c>
       <c r="G124" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="H124">
         <v>979</v>
@@ -6223,7 +6253,7 @@
     </row>
     <row r="125" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C125" t="b">
         <v>0</v>
@@ -6238,7 +6268,7 @@
         <v>19000</v>
       </c>
       <c r="G125" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="H125">
         <v>981</v>
@@ -6282,7 +6312,7 @@
     </row>
     <row r="126" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C126" t="b">
         <v>0</v>
@@ -6297,7 +6327,7 @@
         <v>19000</v>
       </c>
       <c r="G126" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="H126">
         <v>127</v>
@@ -6341,7 +6371,7 @@
     </row>
     <row r="127" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C127" t="b">
         <v>0</v>
@@ -6356,7 +6386,7 @@
         <v>19000</v>
       </c>
       <c r="G127" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="H127">
         <v>402</v>
@@ -6400,7 +6430,7 @@
     </row>
     <row r="128" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C128" t="b">
         <v>0</v>
@@ -6415,7 +6445,7 @@
         <v>19000</v>
       </c>
       <c r="G128" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H128">
         <v>857</v>
@@ -6503,7 +6533,7 @@
         <v>0</v>
       </c>
       <c r="D130">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E130">
         <v>0.99</v>
@@ -6530,25 +6560,25 @@
         <v>20</v>
       </c>
       <c r="M130" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N130">
-        <v>10000</v>
+        <v>75</v>
       </c>
       <c r="O130" t="s">
         <v>20</v>
       </c>
       <c r="P130" t="s">
-        <v>21</v>
+        <v>92</v>
       </c>
       <c r="Q130">
-        <v>120</v>
+        <v>15</v>
       </c>
       <c r="R130" t="s">
         <v>23</v>
       </c>
       <c r="S130" t="s">
-        <v>221</v>
+        <v>278</v>
       </c>
       <c r="T130">
         <v>1</v>
@@ -6562,7 +6592,7 @@
         <v>0</v>
       </c>
       <c r="D131">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E131">
         <v>1.99</v>
@@ -6589,28 +6619,28 @@
         <v>20</v>
       </c>
       <c r="M131" t="s">
+        <v>21</v>
+      </c>
+      <c r="N131">
+        <v>120</v>
+      </c>
+      <c r="O131" t="s">
+        <v>20</v>
+      </c>
+      <c r="P131" t="s">
         <v>22</v>
       </c>
-      <c r="N131">
-        <v>15000</v>
-      </c>
-      <c r="O131" t="s">
-        <v>20</v>
-      </c>
-      <c r="P131" t="s">
-        <v>21</v>
-      </c>
       <c r="Q131">
-        <v>120</v>
+        <v>90000</v>
       </c>
       <c r="R131" t="s">
         <v>23</v>
       </c>
       <c r="S131" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="T131">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="132" spans="1:20" x14ac:dyDescent="0.3">
@@ -6621,7 +6651,7 @@
         <v>0</v>
       </c>
       <c r="D132">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E132">
         <v>4.99</v>
@@ -6648,28 +6678,28 @@
         <v>20</v>
       </c>
       <c r="M132" t="s">
+        <v>92</v>
+      </c>
+      <c r="N132">
+        <v>110</v>
+      </c>
+      <c r="O132" t="s">
+        <v>20</v>
+      </c>
+      <c r="P132" t="s">
         <v>22</v>
       </c>
-      <c r="N132">
-        <v>30000</v>
-      </c>
-      <c r="O132" t="s">
-        <v>20</v>
-      </c>
-      <c r="P132" t="s">
-        <v>21</v>
-      </c>
       <c r="Q132">
-        <v>150</v>
+        <v>250000</v>
       </c>
       <c r="R132" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="S132" t="s">
-        <v>21</v>
+        <v>279</v>
       </c>
       <c r="T132">
-        <v>300</v>
+        <v>1</v>
       </c>
     </row>
     <row r="133" spans="1:20" x14ac:dyDescent="0.3">
@@ -6680,7 +6710,7 @@
         <v>0</v>
       </c>
       <c r="D133">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E133">
         <v>6.99</v>
@@ -6707,28 +6737,28 @@
         <v>20</v>
       </c>
       <c r="M133" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N133">
-        <v>25000</v>
+        <v>100</v>
       </c>
       <c r="O133" t="s">
         <v>20</v>
       </c>
       <c r="P133" t="s">
-        <v>21</v>
+        <v>92</v>
       </c>
       <c r="Q133">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="R133" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="S133" t="s">
-        <v>92</v>
+        <v>221</v>
       </c>
       <c r="T133">
-        <v>50</v>
+        <v>1</v>
       </c>
     </row>
     <row r="134" spans="1:20" x14ac:dyDescent="0.3">
@@ -6739,7 +6769,7 @@
         <v>0</v>
       </c>
       <c r="D134">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E134">
         <v>7.99</v>
@@ -6766,28 +6796,28 @@
         <v>20</v>
       </c>
       <c r="M134" t="s">
+        <v>92</v>
+      </c>
+      <c r="N134">
+        <v>200</v>
+      </c>
+      <c r="O134" t="s">
+        <v>20</v>
+      </c>
+      <c r="P134" t="s">
         <v>22</v>
       </c>
-      <c r="N134">
-        <v>15000</v>
-      </c>
-      <c r="O134" t="s">
-        <v>20</v>
-      </c>
-      <c r="P134" t="s">
-        <v>21</v>
-      </c>
       <c r="Q134">
-        <v>120</v>
+        <v>450000</v>
       </c>
       <c r="R134" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="S134" t="s">
-        <v>92</v>
+        <v>280</v>
       </c>
       <c r="T134">
-        <v>50</v>
+        <v>1</v>
       </c>
     </row>
     <row r="135" spans="1:20" x14ac:dyDescent="0.3">
@@ -6798,7 +6828,7 @@
         <v>0</v>
       </c>
       <c r="D135">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E135">
         <v>9.99</v>
@@ -6825,28 +6855,28 @@
         <v>20</v>
       </c>
       <c r="M135" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N135">
-        <v>30000</v>
+        <v>1500</v>
       </c>
       <c r="O135" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="P135" t="s">
-        <v>21</v>
+        <v>217</v>
       </c>
       <c r="Q135">
-        <v>150</v>
+        <v>40</v>
       </c>
       <c r="R135" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="S135" t="s">
-        <v>21</v>
+        <v>281</v>
       </c>
       <c r="T135">
-        <v>300</v>
+        <v>15</v>
       </c>
     </row>
     <row r="136" spans="1:20" x14ac:dyDescent="0.3">
@@ -6857,7 +6887,7 @@
         <v>0</v>
       </c>
       <c r="D136">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E136">
         <v>12.99</v>
@@ -6884,28 +6914,28 @@
         <v>20</v>
       </c>
       <c r="M136" t="s">
+        <v>92</v>
+      </c>
+      <c r="N136">
+        <v>700</v>
+      </c>
+      <c r="O136" t="s">
+        <v>20</v>
+      </c>
+      <c r="P136" t="s">
         <v>22</v>
       </c>
-      <c r="N136">
-        <v>25000</v>
-      </c>
-      <c r="O136" t="s">
-        <v>20</v>
-      </c>
-      <c r="P136" t="s">
-        <v>21</v>
-      </c>
       <c r="Q136">
-        <v>100</v>
+        <v>990000</v>
       </c>
       <c r="R136" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="S136" t="s">
-        <v>92</v>
+        <v>282</v>
       </c>
       <c r="T136">
-        <v>50</v>
+        <v>1</v>
       </c>
     </row>
     <row r="137" spans="1:20" x14ac:dyDescent="0.3">
@@ -6916,7 +6946,7 @@
         <v>0</v>
       </c>
       <c r="D137">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E137">
         <v>19.989999999999998</v>
@@ -6943,28 +6973,28 @@
         <v>20</v>
       </c>
       <c r="M137" t="s">
+        <v>21</v>
+      </c>
+      <c r="N137">
+        <v>2400</v>
+      </c>
+      <c r="O137" t="s">
+        <v>20</v>
+      </c>
+      <c r="P137" t="s">
         <v>22</v>
       </c>
-      <c r="N137">
-        <v>25000</v>
-      </c>
-      <c r="O137" t="s">
-        <v>20</v>
-      </c>
-      <c r="P137" t="s">
-        <v>21</v>
-      </c>
       <c r="Q137">
-        <v>100</v>
+        <v>1200000</v>
       </c>
       <c r="R137" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="S137" t="s">
-        <v>92</v>
+        <v>283</v>
       </c>
       <c r="T137">
-        <v>50</v>
+        <v>1</v>
       </c>
     </row>
     <row r="138" spans="1:20" x14ac:dyDescent="0.3">
@@ -6975,7 +7005,7 @@
         <v>0</v>
       </c>
       <c r="D138">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E138">
         <v>29.99</v>
@@ -7002,28 +7032,28 @@
         <v>20</v>
       </c>
       <c r="M138" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N138">
-        <v>15000</v>
+        <v>1700</v>
       </c>
       <c r="O138" t="s">
         <v>20</v>
       </c>
       <c r="P138" t="s">
-        <v>21</v>
+        <v>92</v>
       </c>
       <c r="Q138">
-        <v>120</v>
+        <v>4000</v>
       </c>
       <c r="R138" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="S138" t="s">
-        <v>92</v>
+        <v>217</v>
       </c>
       <c r="T138">
-        <v>50</v>
+        <v>75</v>
       </c>
     </row>
     <row r="139" spans="1:20" x14ac:dyDescent="0.3">
@@ -7034,7 +7064,7 @@
         <v>0</v>
       </c>
       <c r="D139">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E139">
         <v>34.99</v>
@@ -7061,39 +7091,39 @@
         <v>20</v>
       </c>
       <c r="M139" t="s">
+        <v>92</v>
+      </c>
+      <c r="N139">
+        <v>800</v>
+      </c>
+      <c r="O139" t="s">
+        <v>20</v>
+      </c>
+      <c r="P139" t="s">
         <v>22</v>
       </c>
-      <c r="N139">
-        <v>30000</v>
-      </c>
-      <c r="O139" t="s">
-        <v>20</v>
-      </c>
-      <c r="P139" t="s">
-        <v>21</v>
-      </c>
       <c r="Q139">
-        <v>150</v>
+        <v>6000000</v>
       </c>
       <c r="R139" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="S139" t="s">
-        <v>21</v>
+        <v>284</v>
       </c>
       <c r="T139">
-        <v>300</v>
+        <v>1</v>
       </c>
     </row>
     <row r="140" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C140" t="b">
         <v>0</v>
       </c>
       <c r="D140">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E140">
         <v>49.99</v>
@@ -7102,7 +7132,7 @@
         <v>55000</v>
       </c>
       <c r="G140" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H140">
         <v>767</v>
@@ -7120,39 +7150,39 @@
         <v>20</v>
       </c>
       <c r="M140" t="s">
+        <v>21</v>
+      </c>
+      <c r="N140">
+        <v>5500</v>
+      </c>
+      <c r="O140" t="s">
+        <v>20</v>
+      </c>
+      <c r="P140" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q140">
+        <v>2000</v>
+      </c>
+      <c r="R140" t="s">
+        <v>20</v>
+      </c>
+      <c r="S140" t="s">
         <v>22</v>
       </c>
-      <c r="N140">
-        <v>30000</v>
-      </c>
-      <c r="O140" t="s">
-        <v>20</v>
-      </c>
-      <c r="P140" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q140">
-        <v>150</v>
-      </c>
-      <c r="R140" t="s">
-        <v>20</v>
-      </c>
-      <c r="S140" t="s">
-        <v>21</v>
-      </c>
       <c r="T140">
-        <v>300</v>
+        <v>3500000</v>
       </c>
     </row>
     <row r="141" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C141" t="b">
         <v>0</v>
       </c>
       <c r="D141">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E141">
         <v>49.99</v>
@@ -7161,7 +7191,7 @@
         <v>66000</v>
       </c>
       <c r="G141" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H141">
         <v>500</v>
@@ -7179,39 +7209,39 @@
         <v>20</v>
       </c>
       <c r="M141" t="s">
+        <v>92</v>
+      </c>
+      <c r="N141">
+        <v>3500</v>
+      </c>
+      <c r="O141" t="s">
+        <v>20</v>
+      </c>
+      <c r="P141" t="s">
         <v>22</v>
       </c>
-      <c r="N141">
-        <v>30000</v>
-      </c>
-      <c r="O141" t="s">
-        <v>20</v>
-      </c>
-      <c r="P141" t="s">
-        <v>21</v>
-      </c>
       <c r="Q141">
-        <v>150</v>
+        <v>6000000</v>
       </c>
       <c r="R141" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="S141" t="s">
-        <v>21</v>
+        <v>283</v>
       </c>
       <c r="T141">
-        <v>300</v>
+        <v>1</v>
       </c>
     </row>
     <row r="142" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C142" t="b">
         <v>0</v>
       </c>
       <c r="D142">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E142">
         <v>69.989999999999995</v>
@@ -7220,7 +7250,7 @@
         <v>99000</v>
       </c>
       <c r="G142" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H142">
         <v>139</v>
@@ -7238,39 +7268,39 @@
         <v>20</v>
       </c>
       <c r="M142" t="s">
+        <v>21</v>
+      </c>
+      <c r="N142">
+        <v>18000</v>
+      </c>
+      <c r="O142" t="s">
+        <v>20</v>
+      </c>
+      <c r="P142" t="s">
         <v>22</v>
       </c>
-      <c r="N142">
-        <v>30000</v>
-      </c>
-      <c r="O142" t="s">
-        <v>20</v>
-      </c>
-      <c r="P142" t="s">
-        <v>21</v>
-      </c>
       <c r="Q142">
-        <v>150</v>
+        <v>11000000</v>
       </c>
       <c r="R142" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="S142" t="s">
-        <v>21</v>
+        <v>285</v>
       </c>
       <c r="T142">
-        <v>300</v>
+        <v>2</v>
       </c>
     </row>
     <row r="143" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C143" t="b">
         <v>0</v>
       </c>
       <c r="D143">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E143">
         <v>79.989999999999995</v>
@@ -7279,7 +7309,7 @@
         <v>110000</v>
       </c>
       <c r="G143" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H143">
         <v>468</v>
@@ -7297,39 +7327,39 @@
         <v>20</v>
       </c>
       <c r="M143" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N143">
-        <v>30000</v>
+        <v>35000</v>
       </c>
       <c r="O143" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="P143" t="s">
-        <v>21</v>
+        <v>286</v>
       </c>
       <c r="Q143">
-        <v>150</v>
+        <v>2</v>
       </c>
       <c r="R143" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="S143" t="s">
-        <v>21</v>
+        <v>287</v>
       </c>
       <c r="T143">
-        <v>300</v>
+        <v>1</v>
       </c>
     </row>
     <row r="144" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C144" t="b">
         <v>0</v>
       </c>
       <c r="D144">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E144">
         <v>99.99</v>
@@ -7338,7 +7368,7 @@
         <v>149000</v>
       </c>
       <c r="G144" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H144">
         <v>137</v>
@@ -7356,28 +7386,28 @@
         <v>20</v>
       </c>
       <c r="M144" t="s">
+        <v>92</v>
+      </c>
+      <c r="N144">
+        <v>9990</v>
+      </c>
+      <c r="O144" t="s">
+        <v>20</v>
+      </c>
+      <c r="P144" t="s">
         <v>22</v>
       </c>
-      <c r="N144">
-        <v>30000</v>
-      </c>
-      <c r="O144" t="s">
-        <v>20</v>
-      </c>
-      <c r="P144" t="s">
-        <v>21</v>
-      </c>
       <c r="Q144">
-        <v>150</v>
+        <v>16000000</v>
       </c>
       <c r="R144" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="S144" t="s">
-        <v>21</v>
+        <v>288</v>
       </c>
       <c r="T144">
-        <v>300</v>
+        <v>1</v>
       </c>
     </row>
     <row r="145" spans="1:20" x14ac:dyDescent="0.3">
@@ -7496,7 +7526,7 @@
     </row>
     <row r="148" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C148" t="b">
         <v>0</v>
@@ -7508,7 +7538,7 @@
         <v>19000</v>
       </c>
       <c r="G148" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="H148">
         <v>670</v>
@@ -7525,7 +7555,7 @@
     </row>
     <row r="149" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C149" t="b">
         <v>0</v>
@@ -7537,7 +7567,7 @@
         <v>29000</v>
       </c>
       <c r="G149" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H149">
         <v>420</v>
@@ -7554,7 +7584,7 @@
     </row>
     <row r="150" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C150" t="b">
         <v>0</v>
@@ -7566,7 +7596,7 @@
         <v>3300</v>
       </c>
       <c r="G150" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H150">
         <v>828</v>
@@ -7583,7 +7613,7 @@
     </row>
     <row r="151" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C151" t="b">
         <v>0</v>
@@ -7595,7 +7625,7 @@
         <v>6600</v>
       </c>
       <c r="G151" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="H151">
         <v>348</v>
@@ -7612,7 +7642,7 @@
     </row>
     <row r="152" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C152" t="b">
         <v>0</v>
@@ -7624,7 +7654,7 @@
         <v>9900</v>
       </c>
       <c r="G152" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H152">
         <v>468</v>
@@ -7670,7 +7700,7 @@
     </row>
     <row r="154" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C154" t="b">
         <v>0</v>
@@ -7682,7 +7712,7 @@
         <v>8800</v>
       </c>
       <c r="G154" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="H154">
         <v>787</v>
@@ -7699,7 +7729,7 @@
     </row>
     <row r="155" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C155" t="b">
         <v>0</v>
@@ -7711,7 +7741,7 @@
         <v>29000</v>
       </c>
       <c r="G155" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H155">
         <v>248</v>
@@ -22301,7 +22331,7 @@
         <v>158</v>
       </c>
       <c r="B1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -22508,10 +22538,10 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B12" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
   </sheetData>
@@ -22564,7 +22594,7 @@
         <v>20</v>
       </c>
       <c r="C3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -22575,7 +22605,7 @@
         <v>30</v>
       </c>
       <c r="C4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -22586,7 +22616,7 @@
         <v>40</v>
       </c>
       <c r="C5" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -22597,7 +22627,7 @@
         <v>50</v>
       </c>
       <c r="C6" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -22608,7 +22638,7 @@
         <v>60</v>
       </c>
       <c r="C7" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
@@ -22619,7 +22649,7 @@
         <v>70</v>
       </c>
       <c r="C8" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
@@ -22630,7 +22660,7 @@
         <v>80</v>
       </c>
       <c r="C9" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
@@ -22641,7 +22671,7 @@
         <v>90</v>
       </c>
       <c r="C10" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
@@ -22652,7 +22682,7 @@
         <v>100</v>
       </c>
       <c r="C11" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
@@ -22663,7 +22693,7 @@
         <v>125</v>
       </c>
       <c r="C12" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
@@ -22674,7 +22704,7 @@
         <v>150</v>
       </c>
       <c r="C13" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
@@ -22685,7 +22715,7 @@
         <v>175</v>
       </c>
       <c r="C14" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
@@ -22696,7 +22726,7 @@
         <v>200</v>
       </c>
       <c r="C15" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
@@ -22707,7 +22737,7 @@
         <v>225</v>
       </c>
       <c r="C16" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
@@ -22718,7 +22748,7 @@
         <v>250</v>
       </c>
       <c r="C17" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
@@ -22729,7 +22759,7 @@
         <v>275</v>
       </c>
       <c r="C18" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
@@ -22740,7 +22770,7 @@
         <v>300</v>
       </c>
       <c r="C19" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
@@ -22751,7 +22781,7 @@
         <v>325</v>
       </c>
       <c r="C20" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
@@ -22762,7 +22792,7 @@
         <v>350</v>
       </c>
       <c r="C21" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
@@ -22773,7 +22803,7 @@
         <v>375</v>
       </c>
       <c r="C22" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
@@ -22784,7 +22814,7 @@
         <v>400</v>
       </c>
       <c r="C23" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
   </sheetData>
@@ -22899,7 +22929,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
@@ -22907,7 +22937,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
@@ -22915,7 +22945,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
@@ -22923,7 +22953,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
@@ -22931,7 +22961,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
   </sheetData>
@@ -22974,13 +23004,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -22994,7 +23024,7 @@
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -23008,7 +23038,7 @@
         <v>20</v>
       </c>
       <c r="D4" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -23022,7 +23052,7 @@
         <v>20</v>
       </c>
       <c r="D5" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -23036,7 +23066,7 @@
         <v>20</v>
       </c>
       <c r="D6" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
   </sheetData>
@@ -23113,7 +23143,7 @@
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -23141,7 +23171,7 @@
         <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/Shop.xlsx
+++ b/Excel/Shop.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E27AAFB0-7158-4751-BF42-6AD5C313BD4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04AD7C44-F519-45FB-867A-DB1636D3F0C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="2670" windowWidth="24240" windowHeight="13140" xr2:uid="{1A95D980-8F25-43B6-BA87-364295A77694}"/>
+    <workbookView xWindow="28680" yWindow="2670" windowWidth="24240" windowHeight="13140" activeTab="2" xr2:uid="{1A95D980-8F25-43B6-BA87-364295A77694}"/>
   </bookViews>
   <sheets>
     <sheet name="ShopProductTable" sheetId="1" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1239" uniqueCount="289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1247" uniqueCount="295">
   <si>
     <t>productId|String</t>
   </si>
@@ -914,6 +914,24 @@
   </si>
   <si>
     <t>Equip047201</t>
+  </si>
+  <si>
+    <t>Cash_sEquipTypeGacha410</t>
+  </si>
+  <si>
+    <t>CashName_sEquipTypeGacha410</t>
+  </si>
+  <si>
+    <t>Cash_sEquipTypeGacha412</t>
+  </si>
+  <si>
+    <t>CashName_sEquipTypeGacha412</t>
+  </si>
+  <si>
+    <t>CashName_sEquipTypeGacha415</t>
+  </si>
+  <si>
+    <t>CashName_sEquipGacha</t>
   </si>
 </sst>
 </file>
@@ -1290,11 +1308,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED115DDC-E095-4A60-B3EA-80FAE0A4BDBC}">
   <dimension ref="A1:W165"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B113" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B158" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A126" sqref="A126"/>
+      <selection pane="bottomRight" activeCell="A130" sqref="A130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -22438,9 +22456,9 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A538EB96-EB04-4826-9AF0-A58A4FE56B38}">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B16"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -22538,10 +22556,42 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
+        <v>289</v>
+      </c>
+      <c r="B12" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
         <v>221</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B13" t="s">
         <v>224</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>291</v>
+      </c>
+      <c r="B14" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>286</v>
+      </c>
+      <c r="B15" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>281</v>
+      </c>
+      <c r="B16" t="s">
+        <v>294</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/Shop.xlsx
+++ b/Excel/Shop.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04AD7C44-F519-45FB-867A-DB1636D3F0C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B39554A0-C53F-431C-BF27-C7623F8DF2CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="2670" windowWidth="24240" windowHeight="13140" activeTab="2" xr2:uid="{1A95D980-8F25-43B6-BA87-364295A77694}"/>
+    <workbookView xWindow="28680" yWindow="2670" windowWidth="24240" windowHeight="13140" xr2:uid="{1A95D980-8F25-43B6-BA87-364295A77694}"/>
   </bookViews>
   <sheets>
     <sheet name="ShopProductTable" sheetId="1" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1247" uniqueCount="295">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1219" uniqueCount="294">
   <si>
     <t>productId|String</t>
   </si>
@@ -754,27 +754,6 @@
     <t>ev4_conti_13</t>
   </si>
   <si>
-    <t>ev4_conti_14</t>
-  </si>
-  <si>
-    <t>ev4_conti_15</t>
-  </si>
-  <si>
-    <t>ev4_conti_16</t>
-  </si>
-  <si>
-    <t>ev4_conti_17</t>
-  </si>
-  <si>
-    <t>ev4_conti_18</t>
-  </si>
-  <si>
-    <t>ev4_conti_19</t>
-  </si>
-  <si>
-    <t>ev4_conti_20</t>
-  </si>
-  <si>
     <t>stageclear_20</t>
   </si>
   <si>
@@ -932,6 +911,24 @@
   </si>
   <si>
     <t>CashName_sEquipGacha</t>
+  </si>
+  <si>
+    <t>Equip036002</t>
+  </si>
+  <si>
+    <t>Equip031002</t>
+  </si>
+  <si>
+    <t>Pet_0019</t>
+  </si>
+  <si>
+    <t>Pet_0027</t>
+  </si>
+  <si>
+    <t>Cash_sEquipTypeGacha314</t>
+  </si>
+  <si>
+    <t>Cash_sEquipTypeGacha316</t>
   </si>
 </sst>
 </file>
@@ -1306,13 +1303,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED115DDC-E095-4A60-B3EA-80FAE0A4BDBC}">
-  <dimension ref="A1:W165"/>
+  <dimension ref="A1:W158"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B158" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A130" sqref="A130"/>
+      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1600,7 +1597,7 @@
         <v>21</v>
       </c>
       <c r="K8">
-        <v>300</v>
+        <v>330</v>
       </c>
       <c r="L8" t="s">
         <v>20</v>
@@ -1609,7 +1606,7 @@
         <v>92</v>
       </c>
       <c r="N8">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="O8" t="s">
         <v>20</v>
@@ -1712,7 +1709,7 @@
         <v>92</v>
       </c>
       <c r="Q10">
-        <v>60</v>
+        <v>90</v>
       </c>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.3">
@@ -1812,7 +1809,7 @@
         <v>23</v>
       </c>
       <c r="S12" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="T12">
         <v>1</v>
@@ -1838,7 +1835,7 @@
         <v>21</v>
       </c>
       <c r="K13">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="L13" t="s">
         <v>20</v>
@@ -1847,16 +1844,16 @@
         <v>22</v>
       </c>
       <c r="N13">
-        <v>35000</v>
+        <v>30000</v>
       </c>
       <c r="O13" t="s">
         <v>20</v>
       </c>
       <c r="P13" t="s">
-        <v>21</v>
+        <v>92</v>
       </c>
       <c r="Q13">
-        <v>170</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.3">
@@ -1879,7 +1876,7 @@
         <v>21</v>
       </c>
       <c r="K14">
-        <v>150</v>
+        <v>50</v>
       </c>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.3">
@@ -1908,37 +1905,37 @@
         <v>20</v>
       </c>
       <c r="J15" t="s">
+        <v>21</v>
+      </c>
+      <c r="K15">
+        <v>60</v>
+      </c>
+      <c r="L15" t="s">
+        <v>20</v>
+      </c>
+      <c r="M15" t="s">
         <v>22</v>
       </c>
-      <c r="K15">
-        <v>20000</v>
-      </c>
-      <c r="L15" t="s">
-        <v>20</v>
-      </c>
-      <c r="M15" t="s">
-        <v>21</v>
-      </c>
       <c r="N15">
-        <v>150</v>
+        <v>40000</v>
       </c>
       <c r="O15" t="s">
         <v>20</v>
       </c>
       <c r="P15" t="s">
-        <v>22</v>
+        <v>92</v>
       </c>
       <c r="Q15">
-        <v>35000</v>
+        <v>60</v>
       </c>
       <c r="R15" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="S15" t="s">
-        <v>21</v>
+        <v>288</v>
       </c>
       <c r="T15">
-        <v>200</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.3">
@@ -1958,22 +1955,22 @@
         <v>20</v>
       </c>
       <c r="J16" t="s">
+        <v>22</v>
+      </c>
+      <c r="K16">
+        <v>20000</v>
+      </c>
+      <c r="L16" t="s">
+        <v>20</v>
+      </c>
+      <c r="M16" t="s">
         <v>21</v>
       </c>
-      <c r="K16">
-        <v>150</v>
-      </c>
-      <c r="L16" t="s">
-        <v>20</v>
-      </c>
-      <c r="M16" t="s">
-        <v>22</v>
-      </c>
       <c r="N16">
-        <v>20000</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>226</v>
       </c>
@@ -1990,22 +1987,13 @@
         <v>20</v>
       </c>
       <c r="J17" t="s">
-        <v>21</v>
+        <v>92</v>
       </c>
       <c r="K17">
-        <v>150</v>
-      </c>
-      <c r="L17" t="s">
-        <v>20</v>
-      </c>
-      <c r="M17" t="s">
-        <v>22</v>
-      </c>
-      <c r="N17">
-        <v>20000</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>227</v>
       </c>
@@ -2034,7 +2022,7 @@
         <v>21</v>
       </c>
       <c r="K18">
-        <v>150</v>
+        <v>180</v>
       </c>
       <c r="L18" t="s">
         <v>20</v>
@@ -2043,10 +2031,28 @@
         <v>22</v>
       </c>
       <c r="N18">
-        <v>20000</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+        <v>200000</v>
+      </c>
+      <c r="O18" t="s">
+        <v>20</v>
+      </c>
+      <c r="P18" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q18">
+        <v>150</v>
+      </c>
+      <c r="R18" t="s">
+        <v>23</v>
+      </c>
+      <c r="S18" t="s">
+        <v>289</v>
+      </c>
+      <c r="T18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>228</v>
       </c>
@@ -2066,19 +2072,10 @@
         <v>21</v>
       </c>
       <c r="K19">
-        <v>150</v>
-      </c>
-      <c r="L19" t="s">
-        <v>20</v>
-      </c>
-      <c r="M19" t="s">
-        <v>22</v>
-      </c>
-      <c r="N19">
-        <v>20000</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>229</v>
       </c>
@@ -2098,7 +2095,7 @@
         <v>21</v>
       </c>
       <c r="K20">
-        <v>150</v>
+        <v>30</v>
       </c>
       <c r="L20" t="s">
         <v>20</v>
@@ -2107,10 +2104,19 @@
         <v>22</v>
       </c>
       <c r="N20">
-        <v>20000</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+        <v>50000</v>
+      </c>
+      <c r="O20" t="s">
+        <v>20</v>
+      </c>
+      <c r="P20" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q20">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>230</v>
       </c>
@@ -2139,7 +2145,7 @@
         <v>21</v>
       </c>
       <c r="K21">
-        <v>150</v>
+        <v>400</v>
       </c>
       <c r="L21" t="s">
         <v>20</v>
@@ -2148,10 +2154,28 @@
         <v>22</v>
       </c>
       <c r="N21">
-        <v>20000</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+        <v>360000</v>
+      </c>
+      <c r="O21" t="s">
+        <v>20</v>
+      </c>
+      <c r="P21" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q21">
+        <v>380</v>
+      </c>
+      <c r="R21" t="s">
+        <v>23</v>
+      </c>
+      <c r="S21" t="s">
+        <v>290</v>
+      </c>
+      <c r="T21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>231</v>
       </c>
@@ -2168,22 +2192,22 @@
         <v>20</v>
       </c>
       <c r="J22" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K22">
+        <v>200000</v>
+      </c>
+      <c r="L22" t="s">
+        <v>20</v>
+      </c>
+      <c r="M22" t="s">
+        <v>92</v>
+      </c>
+      <c r="N22">
         <v>150</v>
       </c>
-      <c r="L22" t="s">
-        <v>20</v>
-      </c>
-      <c r="M22" t="s">
-        <v>22</v>
-      </c>
-      <c r="N22">
-        <v>20000</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>232</v>
       </c>
@@ -2212,7 +2236,7 @@
         <v>21</v>
       </c>
       <c r="K23">
-        <v>150</v>
+        <v>520</v>
       </c>
       <c r="L23" t="s">
         <v>20</v>
@@ -2221,10 +2245,28 @@
         <v>22</v>
       </c>
       <c r="N23">
-        <v>20000</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+        <v>450000</v>
+      </c>
+      <c r="O23" t="s">
+        <v>20</v>
+      </c>
+      <c r="P23" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q23">
+        <v>500</v>
+      </c>
+      <c r="R23" t="s">
+        <v>23</v>
+      </c>
+      <c r="S23" t="s">
+        <v>291</v>
+      </c>
+      <c r="T23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>233</v>
       </c>
@@ -2244,19 +2286,10 @@
         <v>21</v>
       </c>
       <c r="K24">
-        <v>150</v>
-      </c>
-      <c r="L24" t="s">
-        <v>20</v>
-      </c>
-      <c r="M24" t="s">
-        <v>22</v>
-      </c>
-      <c r="N24">
-        <v>20000</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>234</v>
       </c>
@@ -2276,7 +2309,7 @@
         <v>21</v>
       </c>
       <c r="K25">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="L25" t="s">
         <v>20</v>
@@ -2285,39 +2318,48 @@
         <v>22</v>
       </c>
       <c r="N25">
-        <v>20000</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+        <v>100000</v>
+      </c>
+      <c r="O25" t="s">
+        <v>20</v>
+      </c>
+      <c r="P25" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q25">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>235</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="C26" t="b">
         <v>0</v>
       </c>
       <c r="E26">
-        <v>12.99</v>
+        <v>19.989999999999998</v>
       </c>
       <c r="F26">
-        <v>19000</v>
+        <v>29000</v>
       </c>
       <c r="G26" t="s">
-        <v>235</v>
+        <v>30</v>
       </c>
       <c r="H26">
-        <v>917</v>
+        <v>386</v>
       </c>
       <c r="I26" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="J26" t="s">
-        <v>21</v>
+        <v>269</v>
       </c>
       <c r="K26">
-        <v>150</v>
+        <v>1</v>
       </c>
       <c r="L26" t="s">
         <v>20</v>
@@ -2326,21 +2368,39 @@
         <v>22</v>
       </c>
       <c r="N26">
-        <v>20000</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+        <v>990000</v>
+      </c>
+      <c r="O26" t="s">
+        <v>20</v>
+      </c>
+      <c r="P26" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q26">
+        <v>500</v>
+      </c>
+      <c r="R26" t="s">
+        <v>23</v>
+      </c>
+      <c r="S26" t="s">
+        <v>270</v>
+      </c>
+      <c r="T26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>236</v>
+        <v>31</v>
       </c>
       <c r="B27">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="C27" t="b">
         <v>1</v>
       </c>
       <c r="H27">
-        <v>967</v>
+        <v>207</v>
       </c>
       <c r="I27" t="s">
         <v>20</v>
@@ -2349,30 +2409,30 @@
         <v>21</v>
       </c>
       <c r="K27">
-        <v>150</v>
+        <v>2000</v>
       </c>
       <c r="L27" t="s">
         <v>20</v>
       </c>
       <c r="M27" t="s">
-        <v>22</v>
+        <v>92</v>
       </c>
       <c r="N27">
-        <v>20000</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>237</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="C28" t="b">
         <v>1</v>
       </c>
       <c r="H28">
-        <v>477</v>
+        <v>978</v>
       </c>
       <c r="I28" t="s">
         <v>20</v>
@@ -2381,7 +2441,7 @@
         <v>21</v>
       </c>
       <c r="K28">
-        <v>150</v>
+        <v>400</v>
       </c>
       <c r="L28" t="s">
         <v>20</v>
@@ -2390,30 +2450,36 @@
         <v>22</v>
       </c>
       <c r="N28">
-        <v>20000</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+        <v>500000</v>
+      </c>
+      <c r="O28" t="s">
+        <v>20</v>
+      </c>
+      <c r="P28" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q28">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>238</v>
-      </c>
-      <c r="B29">
-        <v>17</v>
+        <v>126</v>
       </c>
       <c r="C29" t="b">
         <v>0</v>
       </c>
       <c r="E29">
-        <v>19.989999999999998</v>
+        <v>17.989999999999998</v>
       </c>
       <c r="F29">
-        <v>29000</v>
+        <v>25000</v>
       </c>
       <c r="G29" t="s">
-        <v>238</v>
+        <v>126</v>
       </c>
       <c r="H29">
-        <v>677</v>
+        <v>847</v>
       </c>
       <c r="I29" t="s">
         <v>20</v>
@@ -2422,226 +2488,253 @@
         <v>21</v>
       </c>
       <c r="K29">
-        <v>150</v>
+        <v>2200</v>
       </c>
       <c r="L29" t="s">
         <v>20</v>
       </c>
       <c r="M29" t="s">
+        <v>92</v>
+      </c>
+      <c r="N29">
+        <v>550</v>
+      </c>
+      <c r="O29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P29" t="s">
         <v>22</v>
       </c>
-      <c r="N29">
-        <v>20000</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="Q29">
+        <v>990000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>239</v>
-      </c>
-      <c r="B30">
-        <v>18</v>
+        <v>127</v>
       </c>
       <c r="C30" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="E30">
+        <v>2.99</v>
+      </c>
+      <c r="F30">
+        <v>4400</v>
+      </c>
+      <c r="G30" t="s">
+        <v>127</v>
       </c>
       <c r="H30">
-        <v>981</v>
+        <v>877</v>
       </c>
       <c r="I30" t="s">
         <v>20</v>
       </c>
       <c r="J30" t="s">
+        <v>22</v>
+      </c>
+      <c r="K30">
+        <v>600000</v>
+      </c>
+      <c r="L30" t="s">
+        <v>20</v>
+      </c>
+      <c r="M30" t="s">
+        <v>92</v>
+      </c>
+      <c r="N30">
+        <v>300</v>
+      </c>
+      <c r="O30" t="s">
+        <v>20</v>
+      </c>
+      <c r="P30" t="s">
         <v>21</v>
       </c>
-      <c r="K30">
-        <v>150</v>
-      </c>
-      <c r="L30" t="s">
-        <v>20</v>
-      </c>
-      <c r="M30" t="s">
-        <v>22</v>
-      </c>
-      <c r="N30">
-        <v>20000</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="Q30">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>240</v>
-      </c>
-      <c r="B31">
-        <v>19</v>
+        <v>104</v>
       </c>
       <c r="C31" t="b">
         <v>0</v>
       </c>
       <c r="E31">
-        <v>49.99</v>
+        <v>0.99</v>
       </c>
       <c r="F31">
-        <v>55000</v>
+        <v>1100</v>
       </c>
       <c r="G31" t="s">
-        <v>240</v>
+        <v>104</v>
       </c>
       <c r="H31">
-        <v>192</v>
+        <v>256</v>
       </c>
       <c r="I31" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="J31" t="s">
-        <v>21</v>
+        <v>86</v>
       </c>
       <c r="K31">
-        <v>150</v>
-      </c>
-      <c r="L31" t="s">
-        <v>20</v>
-      </c>
-      <c r="M31" t="s">
-        <v>22</v>
-      </c>
-      <c r="N31">
-        <v>20000</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>241</v>
-      </c>
-      <c r="B32">
-        <v>20</v>
+        <v>128</v>
       </c>
       <c r="C32" t="b">
         <v>1</v>
       </c>
       <c r="H32">
-        <v>846</v>
+        <v>130</v>
       </c>
       <c r="I32" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="J32" t="s">
+        <v>136</v>
+      </c>
+      <c r="K32">
+        <v>1</v>
+      </c>
+      <c r="L32" t="s">
+        <v>20</v>
+      </c>
+      <c r="M32" t="s">
         <v>21</v>
       </c>
-      <c r="K32">
+      <c r="N32">
         <v>150</v>
       </c>
-      <c r="L32" t="s">
-        <v>20</v>
-      </c>
-      <c r="M32" t="s">
+      <c r="O32" t="s">
+        <v>20</v>
+      </c>
+      <c r="P32" t="s">
         <v>22</v>
       </c>
-      <c r="N32">
-        <v>20000</v>
-      </c>
-    </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="Q32">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>30</v>
-      </c>
-      <c r="B33">
-        <v>1</v>
+        <v>41</v>
       </c>
       <c r="C33" t="b">
         <v>0</v>
       </c>
       <c r="E33">
-        <v>19.989999999999998</v>
+        <v>1.99</v>
       </c>
       <c r="F33">
-        <v>29000</v>
+        <v>3300</v>
       </c>
       <c r="G33" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="H33">
-        <v>386</v>
+        <v>367</v>
       </c>
       <c r="I33" t="s">
         <v>23</v>
       </c>
       <c r="J33" t="s">
-        <v>276</v>
+        <v>119</v>
       </c>
       <c r="K33">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="L33" t="s">
         <v>20</v>
       </c>
       <c r="M33" t="s">
+        <v>21</v>
+      </c>
+      <c r="N33">
+        <v>250</v>
+      </c>
+      <c r="O33" t="s">
+        <v>20</v>
+      </c>
+      <c r="P33" t="s">
         <v>22</v>
       </c>
-      <c r="N33">
-        <v>1000000</v>
-      </c>
-      <c r="O33" t="s">
-        <v>20</v>
-      </c>
-      <c r="P33" t="s">
+      <c r="Q33">
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>42</v>
+      </c>
+      <c r="C34" t="b">
+        <v>0</v>
+      </c>
+      <c r="E34">
+        <v>6.99</v>
+      </c>
+      <c r="F34">
+        <v>9900</v>
+      </c>
+      <c r="G34" t="s">
+        <v>42</v>
+      </c>
+      <c r="H34">
+        <v>369</v>
+      </c>
+      <c r="I34" t="s">
+        <v>23</v>
+      </c>
+      <c r="J34" t="s">
+        <v>119</v>
+      </c>
+      <c r="K34">
+        <v>200</v>
+      </c>
+      <c r="L34" t="s">
+        <v>20</v>
+      </c>
+      <c r="M34" t=